--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
@@ -2549,7 +2549,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M30" sqref="A1:M30"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
@@ -92,6 +92,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>执行失败</t>
     </r>
     <r>
@@ -318,13 +324,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="44">
     <font>
@@ -478,17 +484,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -500,9 +498,70 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -514,16 +573,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -538,52 +590,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -591,22 +599,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -620,8 +612,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -661,7 +667,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,7 +709,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,7 +781,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,73 +835,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,73 +847,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,29 +889,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -925,17 +919,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -955,17 +952,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -980,157 +977,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1146,7 +1152,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1242,75 +1248,69 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1347,7 +1347,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2549,7 +2549,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -2581,13 +2581,13 @@
       <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="39" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="11" t="s">
@@ -2596,105 +2596,105 @@
       <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="54" t="s">
+      <c r="K1" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="55" t="s">
+      <c r="L1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="67" t="s">
+      <c r="M1" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="76"/>
-      <c r="AE1" s="76"/>
-      <c r="AF1" s="76"/>
-      <c r="AG1" s="76"/>
-      <c r="AH1" s="76"/>
-      <c r="AI1" s="76"/>
-      <c r="AJ1" s="76"/>
-      <c r="AK1" s="76"/>
-      <c r="AM1" s="76"/>
-      <c r="AN1" s="76"/>
-      <c r="AO1" s="76"/>
-      <c r="AP1" s="76"/>
-      <c r="AQ1" s="76"/>
-      <c r="AR1" s="76"/>
-      <c r="AS1" s="76"/>
-      <c r="AU1" s="76"/>
-      <c r="AV1" s="76"/>
-      <c r="AW1" s="76"/>
-      <c r="AX1" s="76"/>
-      <c r="AY1" s="76"/>
-      <c r="AZ1" s="76"/>
-      <c r="BA1" s="76"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AE1" s="74"/>
+      <c r="AF1" s="74"/>
+      <c r="AG1" s="74"/>
+      <c r="AH1" s="74"/>
+      <c r="AI1" s="74"/>
+      <c r="AJ1" s="74"/>
+      <c r="AK1" s="74"/>
+      <c r="AM1" s="74"/>
+      <c r="AN1" s="74"/>
+      <c r="AO1" s="74"/>
+      <c r="AP1" s="74"/>
+      <c r="AQ1" s="74"/>
+      <c r="AR1" s="74"/>
+      <c r="AS1" s="74"/>
+      <c r="AU1" s="74"/>
+      <c r="AV1" s="74"/>
+      <c r="AW1" s="74"/>
+      <c r="AX1" s="74"/>
+      <c r="AY1" s="74"/>
+      <c r="AZ1" s="74"/>
+      <c r="BA1" s="74"/>
     </row>
     <row r="2" ht="23.6" spans="1:53">
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
       <c r="C2" s="10"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="76"/>
-      <c r="Z2" s="76"/>
-      <c r="AA2" s="76"/>
-      <c r="AB2" s="76"/>
-      <c r="AC2" s="76"/>
-      <c r="AE2" s="76"/>
-      <c r="AF2" s="76"/>
-      <c r="AG2" s="76"/>
-      <c r="AH2" s="76"/>
-      <c r="AI2" s="76"/>
-      <c r="AJ2" s="76"/>
-      <c r="AK2" s="76"/>
-      <c r="AM2" s="76"/>
-      <c r="AN2" s="76"/>
-      <c r="AO2" s="76"/>
-      <c r="AP2" s="76"/>
-      <c r="AQ2" s="76"/>
-      <c r="AR2" s="76"/>
-      <c r="AS2" s="76"/>
-      <c r="AU2" s="76"/>
-      <c r="AV2" s="76"/>
-      <c r="AW2" s="76"/>
-      <c r="AX2" s="76"/>
-      <c r="AY2" s="76"/>
-      <c r="AZ2" s="76"/>
-      <c r="BA2" s="76"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74"/>
+      <c r="X2" s="74"/>
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="74"/>
+      <c r="AA2" s="74"/>
+      <c r="AB2" s="74"/>
+      <c r="AC2" s="74"/>
+      <c r="AE2" s="74"/>
+      <c r="AF2" s="74"/>
+      <c r="AG2" s="74"/>
+      <c r="AH2" s="74"/>
+      <c r="AI2" s="74"/>
+      <c r="AJ2" s="74"/>
+      <c r="AK2" s="74"/>
+      <c r="AM2" s="74"/>
+      <c r="AN2" s="74"/>
+      <c r="AO2" s="74"/>
+      <c r="AP2" s="74"/>
+      <c r="AQ2" s="74"/>
+      <c r="AR2" s="74"/>
+      <c r="AS2" s="74"/>
+      <c r="AU2" s="74"/>
+      <c r="AV2" s="74"/>
+      <c r="AW2" s="74"/>
+      <c r="AX2" s="74"/>
+      <c r="AY2" s="74"/>
+      <c r="AZ2" s="74"/>
+      <c r="BA2" s="74"/>
     </row>
     <row r="3" customFormat="1" ht="23.6" spans="1:53">
       <c r="A3" s="13" t="s">
@@ -2709,74 +2709,74 @@
       <c r="D3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="41">
         <v>34.12</v>
       </c>
-      <c r="F3" s="43">
+      <c r="F3" s="41">
         <v>32.53</v>
       </c>
-      <c r="G3" s="43">
+      <c r="G3" s="41">
         <v>39.33</v>
       </c>
-      <c r="H3" s="44">
-        <f t="shared" ref="H3:H25" si="0">(E3-F3)*100</f>
+      <c r="H3" s="42">
+        <f t="shared" ref="H3:H30" si="0">(E3-F3)*100</f>
         <v>159</v>
       </c>
-      <c r="I3" s="44">
+      <c r="I3" s="42">
         <f>FLOOR(1000/(E3-F3),100)</f>
         <v>600</v>
       </c>
-      <c r="J3" s="59">
+      <c r="J3" s="57">
         <f t="shared" ref="J3:J11" si="1">(G3-E3)/(E3-F3)</f>
         <v>3.27672955974844</v>
       </c>
-      <c r="K3" s="60">
+      <c r="K3" s="58">
         <f t="shared" ref="K3:K14" si="2">(E3-F3)/E3</f>
         <v>0.0466002344665884</v>
       </c>
-      <c r="L3" s="61">
+      <c r="L3" s="59">
         <f t="shared" ref="L3:L11" si="3">(G3-E3)/E3</f>
         <v>0.152696365767878</v>
       </c>
       <c r="M3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="V3" s="76"/>
-      <c r="W3" s="76"/>
-      <c r="X3" s="76"/>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="76"/>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="76"/>
-      <c r="AC3" s="76"/>
-      <c r="AE3" s="76"/>
-      <c r="AF3" s="76"/>
-      <c r="AG3" s="76"/>
-      <c r="AH3" s="76"/>
-      <c r="AI3" s="76"/>
-      <c r="AJ3" s="76"/>
-      <c r="AK3" s="76"/>
-      <c r="AM3" s="76"/>
-      <c r="AN3" s="76"/>
-      <c r="AO3" s="76"/>
-      <c r="AP3" s="76"/>
-      <c r="AQ3" s="76"/>
-      <c r="AR3" s="76"/>
-      <c r="AS3" s="76"/>
-      <c r="AU3" s="76"/>
-      <c r="AV3" s="76"/>
-      <c r="AW3" s="76"/>
-      <c r="AX3" s="76"/>
-      <c r="AY3" s="76"/>
-      <c r="AZ3" s="76"/>
-      <c r="BA3" s="76"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="74"/>
+      <c r="X3" s="74"/>
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="74"/>
+      <c r="AA3" s="74"/>
+      <c r="AB3" s="74"/>
+      <c r="AC3" s="74"/>
+      <c r="AE3" s="74"/>
+      <c r="AF3" s="74"/>
+      <c r="AG3" s="74"/>
+      <c r="AH3" s="74"/>
+      <c r="AI3" s="74"/>
+      <c r="AJ3" s="74"/>
+      <c r="AK3" s="74"/>
+      <c r="AM3" s="74"/>
+      <c r="AN3" s="74"/>
+      <c r="AO3" s="74"/>
+      <c r="AP3" s="74"/>
+      <c r="AQ3" s="74"/>
+      <c r="AR3" s="74"/>
+      <c r="AS3" s="74"/>
+      <c r="AU3" s="74"/>
+      <c r="AV3" s="74"/>
+      <c r="AW3" s="74"/>
+      <c r="AX3" s="74"/>
+      <c r="AY3" s="74"/>
+      <c r="AZ3" s="74"/>
+      <c r="BA3" s="74"/>
     </row>
     <row r="4" customFormat="1" ht="23.6" spans="1:53">
       <c r="A4" s="13" t="s">
@@ -2791,74 +2791,74 @@
       <c r="D4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="41">
         <v>32.65</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F4" s="41">
         <v>30.89</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G4" s="41">
         <v>36.22</v>
       </c>
-      <c r="H4" s="44">
+      <c r="H4" s="42">
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
-      <c r="I4" s="44">
+      <c r="I4" s="42">
         <f>FLOOR(1000/(E4-F4),100)</f>
         <v>500</v>
       </c>
-      <c r="J4" s="59">
+      <c r="J4" s="57">
         <f t="shared" si="1"/>
         <v>2.02840909090909</v>
       </c>
-      <c r="K4" s="60">
+      <c r="K4" s="58">
         <f t="shared" si="2"/>
         <v>0.0539050535987748</v>
       </c>
-      <c r="L4" s="61">
+      <c r="L4" s="59">
         <f t="shared" si="3"/>
         <v>0.109341500765697</v>
       </c>
       <c r="M4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
-      <c r="V4" s="76"/>
-      <c r="W4" s="76"/>
-      <c r="X4" s="76"/>
-      <c r="Y4" s="76"/>
-      <c r="Z4" s="76"/>
-      <c r="AA4" s="76"/>
-      <c r="AB4" s="76"/>
-      <c r="AC4" s="76"/>
-      <c r="AE4" s="76"/>
-      <c r="AF4" s="76"/>
-      <c r="AG4" s="76"/>
-      <c r="AH4" s="76"/>
-      <c r="AI4" s="76"/>
-      <c r="AJ4" s="76"/>
-      <c r="AK4" s="76"/>
-      <c r="AM4" s="76"/>
-      <c r="AN4" s="76"/>
-      <c r="AO4" s="76"/>
-      <c r="AP4" s="76"/>
-      <c r="AQ4" s="76"/>
-      <c r="AR4" s="76"/>
-      <c r="AS4" s="76"/>
-      <c r="AU4" s="76"/>
-      <c r="AV4" s="76"/>
-      <c r="AW4" s="76"/>
-      <c r="AX4" s="76"/>
-      <c r="AY4" s="76"/>
-      <c r="AZ4" s="76"/>
-      <c r="BA4" s="76"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="74"/>
+      <c r="X4" s="74"/>
+      <c r="Y4" s="74"/>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="74"/>
+      <c r="AB4" s="74"/>
+      <c r="AC4" s="74"/>
+      <c r="AE4" s="74"/>
+      <c r="AF4" s="74"/>
+      <c r="AG4" s="74"/>
+      <c r="AH4" s="74"/>
+      <c r="AI4" s="74"/>
+      <c r="AJ4" s="74"/>
+      <c r="AK4" s="74"/>
+      <c r="AM4" s="74"/>
+      <c r="AN4" s="74"/>
+      <c r="AO4" s="74"/>
+      <c r="AP4" s="74"/>
+      <c r="AQ4" s="74"/>
+      <c r="AR4" s="74"/>
+      <c r="AS4" s="74"/>
+      <c r="AU4" s="74"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="45" spans="1:14">
       <c r="A5" s="13" t="s">
@@ -2873,39 +2873,39 @@
       <c r="D5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="41">
         <v>51.15</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F5" s="41">
         <v>46.61</v>
       </c>
-      <c r="G5" s="43">
+      <c r="G5" s="41">
         <v>59.59</v>
       </c>
-      <c r="H5" s="44">
+      <c r="H5" s="42">
         <f t="shared" si="0"/>
         <v>454</v>
       </c>
-      <c r="I5" s="44">
-        <f t="shared" ref="I5:I25" si="4">FLOOR(1000/(E5-F5),100)</f>
+      <c r="I5" s="42">
+        <f t="shared" ref="I5:I30" si="4">FLOOR(1000/(E5-F5),100)</f>
         <v>200</v>
       </c>
-      <c r="J5" s="59">
+      <c r="J5" s="57">
         <f t="shared" si="1"/>
         <v>1.85903083700441</v>
       </c>
-      <c r="K5" s="60">
+      <c r="K5" s="58">
         <f t="shared" si="2"/>
         <v>0.0887585532746823</v>
       </c>
-      <c r="L5" s="61">
+      <c r="L5" s="59">
         <f t="shared" si="3"/>
         <v>0.165004887585533</v>
       </c>
-      <c r="M5" s="70" t="s">
+      <c r="M5" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="71"/>
+      <c r="N5" s="69"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="44" spans="1:14">
       <c r="A6" s="13" t="s">
@@ -2920,39 +2920,39 @@
       <c r="D6" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="43">
         <v>143.8</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="43">
         <v>137.88</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="43">
         <v>158.48</v>
       </c>
-      <c r="H6" s="44">
+      <c r="H6" s="42">
         <f t="shared" si="0"/>
         <v>592.000000000002</v>
       </c>
-      <c r="I6" s="44">
+      <c r="I6" s="42">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J6" s="59">
+      <c r="J6" s="57">
         <f t="shared" si="1"/>
         <v>2.47972972972972</v>
       </c>
-      <c r="K6" s="60">
+      <c r="K6" s="58">
         <f t="shared" si="2"/>
         <v>0.0411682892906816</v>
       </c>
-      <c r="L6" s="61">
+      <c r="L6" s="59">
         <f t="shared" si="3"/>
         <v>0.102086230876217</v>
       </c>
       <c r="M6" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="71"/>
+      <c r="N6" s="69"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="45" spans="1:14">
       <c r="A7" s="13" t="s">
@@ -2967,39 +2967,39 @@
       <c r="D7" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="43">
         <v>20.44</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="43">
         <v>19.09</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="43">
         <v>23.43</v>
       </c>
-      <c r="H7" s="44">
+      <c r="H7" s="42">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
-      <c r="I7" s="44">
+      <c r="I7" s="42">
         <f t="shared" si="4"/>
         <v>700</v>
       </c>
-      <c r="J7" s="59">
+      <c r="J7" s="57">
         <f t="shared" si="1"/>
         <v>2.21481481481481</v>
       </c>
-      <c r="K7" s="60">
+      <c r="K7" s="58">
         <f t="shared" si="2"/>
         <v>0.0660469667318983</v>
       </c>
-      <c r="L7" s="61">
+      <c r="L7" s="59">
         <f t="shared" si="3"/>
         <v>0.146281800391389</v>
       </c>
-      <c r="M7" s="70" t="s">
+      <c r="M7" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="71"/>
+      <c r="N7" s="69"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A8" s="13" t="s">
@@ -3014,39 +3014,39 @@
       <c r="D8" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E8" s="41">
         <v>17.19</v>
       </c>
-      <c r="F8" s="43">
+      <c r="F8" s="41">
         <v>15.5</v>
       </c>
-      <c r="G8" s="43">
+      <c r="G8" s="41">
         <v>20.72</v>
       </c>
-      <c r="H8" s="44">
+      <c r="H8" s="42">
         <f t="shared" si="0"/>
         <v>169</v>
       </c>
-      <c r="I8" s="44">
+      <c r="I8" s="42">
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="J8" s="59">
+      <c r="J8" s="57">
         <f t="shared" si="1"/>
         <v>2.0887573964497</v>
       </c>
-      <c r="K8" s="60">
+      <c r="K8" s="58">
         <f t="shared" si="2"/>
         <v>0.0983129726585225</v>
       </c>
-      <c r="L8" s="61">
+      <c r="L8" s="59">
         <f t="shared" si="3"/>
         <v>0.205351948807446</v>
       </c>
       <c r="M8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="71"/>
+      <c r="N8" s="69"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="15" spans="1:13">
       <c r="A9" s="13" t="s">
@@ -3061,32 +3061,32 @@
       <c r="D9" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="41">
         <v>64.3</v>
       </c>
-      <c r="F9" s="43">
+      <c r="F9" s="41">
         <v>58.51</v>
       </c>
-      <c r="G9" s="43">
+      <c r="G9" s="41">
         <v>65.72</v>
       </c>
-      <c r="H9" s="44">
+      <c r="H9" s="42">
         <f t="shared" si="0"/>
         <v>579</v>
       </c>
-      <c r="I9" s="44">
+      <c r="I9" s="42">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J9" s="59">
+      <c r="J9" s="57">
         <f t="shared" si="1"/>
         <v>0.24525043177893</v>
       </c>
-      <c r="K9" s="60">
+      <c r="K9" s="58">
         <f t="shared" si="2"/>
         <v>0.0900466562986003</v>
       </c>
-      <c r="L9" s="61">
+      <c r="L9" s="59">
         <f t="shared" si="3"/>
         <v>0.0220839813374806</v>
       </c>
@@ -3107,32 +3107,32 @@
       <c r="D10" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="41">
         <v>39.15</v>
       </c>
-      <c r="F10" s="43">
+      <c r="F10" s="41">
         <v>35.91</v>
       </c>
-      <c r="G10" s="43">
+      <c r="G10" s="41">
         <v>44.28</v>
       </c>
-      <c r="H10" s="44">
+      <c r="H10" s="42">
         <f t="shared" si="0"/>
         <v>324</v>
       </c>
-      <c r="I10" s="44">
+      <c r="I10" s="42">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J10" s="59">
+      <c r="J10" s="57">
         <f t="shared" si="1"/>
         <v>1.58333333333333</v>
       </c>
-      <c r="K10" s="60">
+      <c r="K10" s="58">
         <f t="shared" si="2"/>
         <v>0.0827586206896552</v>
       </c>
-      <c r="L10" s="61">
+      <c r="L10" s="59">
         <f t="shared" si="3"/>
         <v>0.131034482758621</v>
       </c>
@@ -3147,45 +3147,45 @@
       <c r="B11" s="17">
         <v>44539</v>
       </c>
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="75" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="41">
         <v>117.8</v>
       </c>
-      <c r="F11" s="43">
+      <c r="F11" s="41">
         <v>111.17</v>
       </c>
-      <c r="G11" s="43">
+      <c r="G11" s="41">
         <v>131.73</v>
       </c>
-      <c r="H11" s="44">
+      <c r="H11" s="42">
         <f t="shared" si="0"/>
         <v>663</v>
       </c>
-      <c r="I11" s="44">
+      <c r="I11" s="42">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J11" s="59">
+      <c r="J11" s="57">
         <f t="shared" si="1"/>
         <v>2.10105580693816</v>
       </c>
-      <c r="K11" s="60">
+      <c r="K11" s="58">
         <f t="shared" si="2"/>
         <v>0.0562818336162988</v>
       </c>
-      <c r="L11" s="61">
+      <c r="L11" s="59">
         <f t="shared" si="3"/>
         <v>0.118251273344652</v>
       </c>
       <c r="M11" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="71"/>
+      <c r="N11" s="69"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="29" spans="1:13">
       <c r="A12" s="13" t="s">
@@ -3200,34 +3200,34 @@
       <c r="D12" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="41">
         <v>49.4</v>
       </c>
-      <c r="F12" s="43">
+      <c r="F12" s="41">
         <v>46.7</v>
       </c>
-      <c r="G12" s="43" t="s">
+      <c r="G12" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="44">
+      <c r="H12" s="42">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="I12" s="44">
+      <c r="I12" s="42">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J12" s="59" t="s">
+      <c r="J12" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="K12" s="60">
+      <c r="K12" s="58">
         <f t="shared" si="2"/>
         <v>0.054655870445344</v>
       </c>
-      <c r="L12" s="61" t="s">
+      <c r="L12" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="M12" s="70" t="s">
+      <c r="M12" s="68" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3244,33 +3244,33 @@
       <c r="D13" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="41">
         <v>37.73</v>
       </c>
-      <c r="F13" s="43">
+      <c r="F13" s="41">
         <v>34.68</v>
       </c>
-      <c r="G13" s="43">
+      <c r="G13" s="41">
         <v>46.05</v>
       </c>
-      <c r="H13" s="44">
+      <c r="H13" s="42">
         <f t="shared" si="0"/>
         <v>305</v>
       </c>
-      <c r="I13" s="44">
+      <c r="I13" s="42">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J13" s="59">
+      <c r="J13" s="57">
         <f>(G13-E13)/(E13-F13)</f>
         <v>2.72786885245902</v>
       </c>
-      <c r="K13" s="60">
+      <c r="K13" s="58">
         <f t="shared" si="2"/>
         <v>0.0808375298171216</v>
       </c>
-      <c r="L13" s="61">
-        <f t="shared" ref="L13:L25" si="5">(G13-E13)/E13</f>
+      <c r="L13" s="59">
+        <f t="shared" ref="L13:L30" si="5">(G13-E13)/E13</f>
         <v>0.220514179697853</v>
       </c>
       <c r="M13" s="19" t="s">
@@ -3284,42 +3284,42 @@
       <c r="B14" s="25">
         <v>44525</v>
       </c>
-      <c r="C14" s="78" t="s">
+      <c r="C14" s="76" t="s">
         <v>46</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="44">
         <v>70.98</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14" s="44">
         <v>66.88</v>
       </c>
-      <c r="G14" s="46">
+      <c r="G14" s="44">
         <v>84.94</v>
       </c>
-      <c r="H14" s="47">
+      <c r="H14" s="45">
         <f t="shared" si="0"/>
         <v>410.000000000001</v>
       </c>
-      <c r="I14" s="44">
+      <c r="I14" s="42">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="J14" s="59">
-        <f t="shared" ref="J14:J25" si="6">(G14-E14)/(E14-F14)</f>
+      <c r="J14" s="57">
+        <f t="shared" ref="J14:J30" si="6">(G14-E14)/(E14-F14)</f>
         <v>3.40487804878048</v>
       </c>
-      <c r="K14" s="60">
-        <f t="shared" ref="K14:K25" si="7">(E14-F14)/E14</f>
+      <c r="K14" s="58">
+        <f t="shared" ref="K14:K30" si="7">(E14-F14)/E14</f>
         <v>0.0577627500704425</v>
       </c>
-      <c r="L14" s="62">
+      <c r="L14" s="60">
         <f t="shared" si="5"/>
         <v>0.196675119752043</v>
       </c>
-      <c r="M14" s="72" t="s">
+      <c r="M14" s="70" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3336,36 +3336,36 @@
       <c r="D15" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15" s="44">
         <v>29.77</v>
       </c>
-      <c r="F15" s="46">
+      <c r="F15" s="44">
         <v>27.72</v>
       </c>
-      <c r="G15" s="46">
+      <c r="G15" s="44">
         <v>34.93</v>
       </c>
-      <c r="H15" s="47">
+      <c r="H15" s="45">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
-      <c r="I15" s="44">
+      <c r="I15" s="42">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="J15" s="59">
+      <c r="J15" s="57">
         <f t="shared" si="6"/>
         <v>2.51707317073171</v>
       </c>
-      <c r="K15" s="63">
+      <c r="K15" s="61">
         <f t="shared" si="7"/>
         <v>0.0688612697346322</v>
       </c>
-      <c r="L15" s="62">
+      <c r="L15" s="60">
         <f t="shared" si="5"/>
         <v>0.173328854551562</v>
       </c>
-      <c r="M15" s="72" t="s">
+      <c r="M15" s="70" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3382,36 +3382,36 @@
       <c r="D16" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="46">
+      <c r="E16" s="44">
         <v>30.66</v>
       </c>
-      <c r="F16" s="46">
+      <c r="F16" s="44">
         <v>29.35</v>
       </c>
-      <c r="G16" s="46">
+      <c r="G16" s="44">
         <v>38.71</v>
       </c>
-      <c r="H16" s="47">
+      <c r="H16" s="45">
         <f t="shared" si="0"/>
         <v>131</v>
       </c>
-      <c r="I16" s="44">
+      <c r="I16" s="42">
         <f t="shared" si="4"/>
         <v>700</v>
       </c>
-      <c r="J16" s="59">
+      <c r="J16" s="57">
         <f t="shared" si="6"/>
         <v>6.14503816793894</v>
       </c>
-      <c r="K16" s="63">
+      <c r="K16" s="61">
         <f t="shared" si="7"/>
         <v>0.042726679712981</v>
       </c>
-      <c r="L16" s="62">
+      <c r="L16" s="60">
         <f t="shared" si="5"/>
         <v>0.262557077625571</v>
       </c>
-      <c r="M16" s="72" t="s">
+      <c r="M16" s="70" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3428,36 +3428,36 @@
       <c r="D17" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="46">
+      <c r="E17" s="44">
         <v>26.2</v>
       </c>
-      <c r="F17" s="46">
+      <c r="F17" s="44">
         <v>24.68</v>
       </c>
-      <c r="G17" s="46">
+      <c r="G17" s="44">
         <v>32.49</v>
       </c>
-      <c r="H17" s="47">
+      <c r="H17" s="45">
         <f t="shared" si="0"/>
         <v>152</v>
       </c>
-      <c r="I17" s="44">
+      <c r="I17" s="42">
         <f t="shared" si="4"/>
         <v>600</v>
       </c>
-      <c r="J17" s="59">
+      <c r="J17" s="57">
         <f t="shared" si="6"/>
         <v>4.13815789473685</v>
       </c>
-      <c r="K17" s="63">
+      <c r="K17" s="61">
         <f t="shared" si="7"/>
         <v>0.0580152671755725</v>
       </c>
-      <c r="L17" s="62">
+      <c r="L17" s="60">
         <f t="shared" si="5"/>
         <v>0.240076335877863</v>
       </c>
-      <c r="M17" s="72" t="s">
+      <c r="M17" s="70" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3468,42 +3468,42 @@
       <c r="B18" s="25">
         <v>44533</v>
       </c>
-      <c r="C18" s="78" t="s">
+      <c r="C18" s="76" t="s">
         <v>56</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="46">
+      <c r="E18" s="44">
         <v>28.82</v>
       </c>
-      <c r="F18" s="46">
+      <c r="F18" s="44">
         <v>26.31</v>
       </c>
-      <c r="G18" s="46">
+      <c r="G18" s="44">
         <v>32.36</v>
       </c>
-      <c r="H18" s="47">
+      <c r="H18" s="45">
         <f t="shared" si="0"/>
         <v>251</v>
       </c>
-      <c r="I18" s="44">
+      <c r="I18" s="42">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J18" s="59">
+      <c r="J18" s="57">
         <f t="shared" si="6"/>
         <v>1.41035856573705</v>
       </c>
-      <c r="K18" s="63">
+      <c r="K18" s="61">
         <f t="shared" si="7"/>
         <v>0.0870922970159612</v>
       </c>
-      <c r="L18" s="62">
+      <c r="L18" s="60">
         <f t="shared" si="5"/>
         <v>0.122831367106176</v>
       </c>
-      <c r="M18" s="72" t="s">
+      <c r="M18" s="70" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3520,36 +3520,36 @@
       <c r="D19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="48">
+      <c r="E19" s="46">
         <v>38.89</v>
       </c>
-      <c r="F19" s="48">
+      <c r="F19" s="46">
         <v>36.65</v>
       </c>
-      <c r="G19" s="48">
+      <c r="G19" s="46">
         <v>40.7</v>
       </c>
-      <c r="H19" s="47">
+      <c r="H19" s="45">
         <f t="shared" si="0"/>
         <v>224</v>
       </c>
-      <c r="I19" s="44">
+      <c r="I19" s="42">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="J19" s="59">
+      <c r="J19" s="57">
         <f t="shared" si="6"/>
         <v>0.808035714285715</v>
       </c>
-      <c r="K19" s="63">
+      <c r="K19" s="61">
         <f t="shared" si="7"/>
         <v>0.0575983543327334</v>
       </c>
-      <c r="L19" s="62">
+      <c r="L19" s="60">
         <f t="shared" si="5"/>
         <v>0.0465415273849319</v>
       </c>
-      <c r="M19" s="72" t="s">
+      <c r="M19" s="70" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3566,36 +3566,36 @@
       <c r="D20" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="48">
+      <c r="E20" s="46">
         <v>27.73</v>
       </c>
-      <c r="F20" s="48">
+      <c r="F20" s="46">
         <v>25.3</v>
       </c>
-      <c r="G20" s="48">
+      <c r="G20" s="46">
         <v>31.94</v>
       </c>
-      <c r="H20" s="47">
+      <c r="H20" s="45">
         <f t="shared" si="0"/>
         <v>243</v>
       </c>
-      <c r="I20" s="44">
+      <c r="I20" s="42">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="J20" s="59">
+      <c r="J20" s="57">
         <f t="shared" si="6"/>
         <v>1.73251028806584</v>
       </c>
-      <c r="K20" s="63">
+      <c r="K20" s="61">
         <f t="shared" si="7"/>
         <v>0.0876307248467364</v>
       </c>
-      <c r="L20" s="62">
+      <c r="L20" s="60">
         <f t="shared" si="5"/>
         <v>0.151821132347638</v>
       </c>
-      <c r="M20" s="73" t="s">
+      <c r="M20" s="71" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3612,36 +3612,36 @@
       <c r="D21" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="48">
+      <c r="E21" s="46">
         <v>11.75</v>
       </c>
-      <c r="F21" s="48">
+      <c r="F21" s="46">
         <v>10.9</v>
       </c>
-      <c r="G21" s="48">
+      <c r="G21" s="46">
         <v>14.54</v>
       </c>
-      <c r="H21" s="47">
+      <c r="H21" s="45">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="I21" s="44">
+      <c r="I21" s="42">
         <f t="shared" si="4"/>
         <v>1100</v>
       </c>
-      <c r="J21" s="59">
+      <c r="J21" s="57">
         <f t="shared" si="6"/>
         <v>3.28235294117647</v>
       </c>
-      <c r="K21" s="63">
+      <c r="K21" s="61">
         <f t="shared" si="7"/>
         <v>0.0723404255319149</v>
       </c>
-      <c r="L21" s="62">
+      <c r="L21" s="60">
         <f t="shared" si="5"/>
         <v>0.237446808510638</v>
       </c>
-      <c r="M21" s="73" t="s">
+      <c r="M21" s="71" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3652,42 +3652,42 @@
       <c r="B22" s="28">
         <v>44546</v>
       </c>
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="77" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="48">
+      <c r="E22" s="46">
         <v>74.46</v>
       </c>
-      <c r="F22" s="48">
+      <c r="F22" s="46">
         <v>70.4</v>
       </c>
-      <c r="G22" s="48">
+      <c r="G22" s="46">
         <v>83.27</v>
       </c>
-      <c r="H22" s="47">
+      <c r="H22" s="45">
         <f t="shared" si="0"/>
         <v>405.999999999999</v>
       </c>
-      <c r="I22" s="44">
+      <c r="I22" s="42">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="J22" s="59">
+      <c r="J22" s="57">
         <f t="shared" si="6"/>
         <v>2.16995073891626</v>
       </c>
-      <c r="K22" s="63">
+      <c r="K22" s="61">
         <f t="shared" si="7"/>
         <v>0.0545259199570238</v>
       </c>
-      <c r="L22" s="62">
+      <c r="L22" s="60">
         <f t="shared" si="5"/>
         <v>0.118318560300833</v>
       </c>
-      <c r="M22" s="73" t="s">
+      <c r="M22" s="71" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3698,42 +3698,42 @@
       <c r="B23" s="33">
         <v>44546</v>
       </c>
-      <c r="C23" s="77" t="s">
+      <c r="C23" s="75" t="s">
         <v>69</v>
       </c>
       <c r="D23" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="49">
+      <c r="E23" s="47">
         <v>278</v>
       </c>
-      <c r="F23" s="49">
+      <c r="F23" s="47">
         <v>260.02</v>
       </c>
-      <c r="G23" s="49">
+      <c r="G23" s="47">
         <v>304.23</v>
       </c>
-      <c r="H23" s="44">
+      <c r="H23" s="42">
         <f t="shared" si="0"/>
         <v>1798</v>
       </c>
-      <c r="I23" s="44">
+      <c r="I23" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J23" s="59">
+      <c r="J23" s="57">
         <f t="shared" si="6"/>
         <v>1.45884315906563</v>
       </c>
-      <c r="K23" s="60">
+      <c r="K23" s="58">
         <f t="shared" si="7"/>
         <v>0.0646762589928058</v>
       </c>
-      <c r="L23" s="61">
+      <c r="L23" s="59">
         <f t="shared" si="5"/>
         <v>0.0943525179856116</v>
       </c>
-      <c r="M23" s="74" t="s">
+      <c r="M23" s="72" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3750,36 +3750,36 @@
       <c r="D24" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="48">
+      <c r="E24" s="46">
         <v>64.68</v>
       </c>
-      <c r="F24" s="48">
+      <c r="F24" s="46">
         <v>59.29</v>
       </c>
-      <c r="G24" s="48">
+      <c r="G24" s="46">
         <v>67.16</v>
       </c>
-      <c r="H24" s="44">
+      <c r="H24" s="42">
         <f t="shared" si="0"/>
         <v>539.000000000001</v>
       </c>
-      <c r="I24" s="44">
+      <c r="I24" s="42">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J24" s="59">
+      <c r="J24" s="57">
         <f t="shared" si="6"/>
         <v>0.460111317254172</v>
       </c>
-      <c r="K24" s="60">
+      <c r="K24" s="58">
         <f t="shared" si="7"/>
         <v>0.0833333333333334</v>
       </c>
-      <c r="L24" s="61">
+      <c r="L24" s="59">
         <f t="shared" si="5"/>
         <v>0.038342609771181</v>
       </c>
-      <c r="M24" s="73" t="s">
+      <c r="M24" s="71" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3790,42 +3790,42 @@
       <c r="B25" s="28">
         <v>44547</v>
       </c>
-      <c r="C25" s="77" t="s">
+      <c r="C25" s="75" t="s">
         <v>75</v>
       </c>
       <c r="D25" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="48">
+      <c r="E25" s="46">
         <v>39.39</v>
       </c>
-      <c r="F25" s="48">
+      <c r="F25" s="46">
         <v>36.13</v>
       </c>
-      <c r="G25" s="48">
+      <c r="G25" s="46">
         <v>46.32</v>
       </c>
-      <c r="H25" s="44">
+      <c r="H25" s="42">
         <f t="shared" si="0"/>
         <v>326</v>
       </c>
-      <c r="I25" s="44">
+      <c r="I25" s="42">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J25" s="59">
+      <c r="J25" s="57">
         <f t="shared" si="6"/>
         <v>2.12576687116565</v>
       </c>
-      <c r="K25" s="60">
+      <c r="K25" s="58">
         <f t="shared" si="7"/>
         <v>0.0827621223660827</v>
       </c>
-      <c r="L25" s="61">
+      <c r="L25" s="59">
         <f t="shared" si="5"/>
         <v>0.175932977913176</v>
       </c>
-      <c r="M25" s="73" t="s">
+      <c r="M25" s="71" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3836,42 +3836,42 @@
       <c r="B26" s="28">
         <v>44549</v>
       </c>
-      <c r="C26" s="77" t="s">
+      <c r="C26" s="75" t="s">
         <v>38</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="48">
+      <c r="E26" s="46">
         <v>118.25</v>
       </c>
-      <c r="F26" s="48">
+      <c r="F26" s="46">
         <v>110.08</v>
       </c>
-      <c r="G26" s="48">
+      <c r="G26" s="46">
         <v>131.77</v>
       </c>
-      <c r="H26" s="44">
-        <f>(E26-F26)*100</f>
+      <c r="H26" s="42">
+        <f t="shared" si="0"/>
         <v>817</v>
       </c>
-      <c r="I26" s="44">
-        <f>FLOOR(1000/(E26-F26),100)</f>
+      <c r="I26" s="42">
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J26" s="59">
-        <f>(G26-E26)/(E26-F26)</f>
+      <c r="J26" s="57">
+        <f t="shared" si="6"/>
         <v>1.65483476132191</v>
       </c>
-      <c r="K26" s="60">
-        <f>(E26-F26)/E26</f>
+      <c r="K26" s="58">
+        <f t="shared" si="7"/>
         <v>0.0690909090909091</v>
       </c>
-      <c r="L26" s="61">
-        <f>(G26-E26)/E26</f>
+      <c r="L26" s="59">
+        <f t="shared" si="5"/>
         <v>0.114334038054968</v>
       </c>
-      <c r="M26" s="73" t="s">
+      <c r="M26" s="71" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3888,36 +3888,36 @@
       <c r="D27" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="E27" s="50">
+      <c r="E27" s="48">
         <v>215</v>
       </c>
-      <c r="F27" s="50">
+      <c r="F27" s="48">
         <v>198</v>
       </c>
-      <c r="G27" s="50">
+      <c r="G27" s="48">
         <v>236.01</v>
       </c>
-      <c r="H27" s="44">
-        <f>(E27-F27)*100</f>
+      <c r="H27" s="42">
+        <f t="shared" si="0"/>
         <v>1700</v>
       </c>
-      <c r="I27" s="44">
-        <f>FLOOR(1000/(E27-F27),100)</f>
+      <c r="I27" s="42">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J27" s="59">
-        <f>(G27-E27)/(E27-F27)</f>
+      <c r="J27" s="57">
+        <f t="shared" si="6"/>
         <v>1.23588235294118</v>
       </c>
-      <c r="K27" s="60">
-        <f>(E27-F27)/E27</f>
+      <c r="K27" s="58">
+        <f t="shared" si="7"/>
         <v>0.0790697674418605</v>
       </c>
-      <c r="L27" s="61">
-        <f>(G27-E27)/E27</f>
+      <c r="L27" s="59">
+        <f t="shared" si="5"/>
         <v>0.0977209302325581</v>
       </c>
-      <c r="M27" s="74" t="s">
+      <c r="M27" s="72" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3931,39 +3931,39 @@
       <c r="C28" s="36">
         <v>603995</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="E28" s="50">
+      <c r="E28" s="48">
         <v>55.99</v>
       </c>
-      <c r="F28" s="50">
+      <c r="F28" s="48">
         <v>52.35</v>
       </c>
-      <c r="G28" s="50">
+      <c r="G28" s="48">
         <v>58.12</v>
       </c>
-      <c r="H28" s="44">
-        <f>(E28-F28)*100</f>
+      <c r="H28" s="42">
+        <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="I28" s="44">
-        <f>FLOOR(1000/(E28-F28),100)</f>
+      <c r="I28" s="42">
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="J28" s="59">
-        <f>(G28-E28)/(E28-F28)</f>
+      <c r="J28" s="57">
+        <f t="shared" si="6"/>
         <v>0.585164835164834</v>
       </c>
-      <c r="K28" s="60">
-        <f>(E28-F28)/E28</f>
+      <c r="K28" s="58">
+        <f t="shared" si="7"/>
         <v>0.0650116092159314</v>
       </c>
-      <c r="L28" s="61">
-        <f>(G28-E28)/E28</f>
+      <c r="L28" s="59">
+        <f t="shared" si="5"/>
         <v>0.0380425075906411</v>
       </c>
-      <c r="M28" s="75" t="s">
+      <c r="M28" s="73" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3974,42 +3974,42 @@
       <c r="B29" s="28">
         <v>44549</v>
       </c>
-      <c r="C29" s="38">
+      <c r="C29" s="37">
         <v>603267</v>
       </c>
-      <c r="D29" s="39" t="s">
+      <c r="D29" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E29" s="50">
+      <c r="E29" s="48">
         <v>183.8</v>
       </c>
-      <c r="F29" s="50">
-        <v>171</v>
-      </c>
-      <c r="G29" s="50">
+      <c r="F29" s="48">
+        <v>170.6</v>
+      </c>
+      <c r="G29" s="48">
         <v>203.32</v>
       </c>
-      <c r="H29" s="44">
-        <f>(E29-F29)*100</f>
-        <v>1280</v>
-      </c>
-      <c r="I29" s="44">
-        <f>FLOOR(1000/(E29-F29),100)</f>
+      <c r="H29" s="42">
+        <f t="shared" si="0"/>
+        <v>1320</v>
+      </c>
+      <c r="I29" s="42">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J29" s="59">
-        <f>(G29-E29)/(E29-F29)</f>
-        <v>1.525</v>
-      </c>
-      <c r="K29" s="60">
-        <f>(E29-F29)/E29</f>
-        <v>0.0696409140369968</v>
-      </c>
-      <c r="L29" s="61">
-        <f>(G29-E29)/E29</f>
+      <c r="J29" s="57">
+        <f t="shared" si="6"/>
+        <v>1.47878787878788</v>
+      </c>
+      <c r="K29" s="58">
+        <f t="shared" si="7"/>
+        <v>0.071817192600653</v>
+      </c>
+      <c r="L29" s="59">
+        <f t="shared" si="5"/>
         <v>0.10620239390642</v>
       </c>
-      <c r="M29" s="74" t="s">
+      <c r="M29" s="72" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4020,5273 +4020,5273 @@
       <c r="B30" s="28">
         <v>44549</v>
       </c>
-      <c r="C30" s="80" t="s">
+      <c r="C30" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="37" t="s">
+      <c r="D30" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="E30" s="50">
+      <c r="E30" s="48">
         <v>27.68</v>
       </c>
-      <c r="F30" s="50">
+      <c r="F30" s="48">
         <v>26</v>
       </c>
-      <c r="G30" s="50">
+      <c r="G30" s="48">
         <v>29.06</v>
       </c>
-      <c r="H30" s="44">
-        <f>(E30-F30)*100</f>
+      <c r="H30" s="42">
+        <f t="shared" si="0"/>
         <v>168</v>
       </c>
-      <c r="I30" s="44">
-        <f>FLOOR(1000/(E30-F30),100)</f>
+      <c r="I30" s="42">
+        <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="J30" s="59">
-        <f>(G30-E30)/(E30-F30)</f>
+      <c r="J30" s="57">
+        <f t="shared" si="6"/>
         <v>0.821428571428571</v>
       </c>
-      <c r="K30" s="60">
-        <f>(E30-F30)/E30</f>
+      <c r="K30" s="58">
+        <f t="shared" si="7"/>
         <v>0.0606936416184971</v>
       </c>
-      <c r="L30" s="61">
-        <f>(G30-E30)/E30</f>
+      <c r="L30" s="59">
+        <f t="shared" si="5"/>
         <v>0.0498554913294797</v>
       </c>
-      <c r="M30" s="75" t="s">
+      <c r="M30" s="73" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="40"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="64"/>
-      <c r="L31" s="65"/>
-      <c r="M31" s="40"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="38"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="40"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="64"/>
-      <c r="L32" s="65"/>
-      <c r="M32" s="40"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="38"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="40"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="64"/>
-      <c r="L33" s="65"/>
-      <c r="M33" s="40"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="38"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="40"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="64"/>
-      <c r="L34" s="65"/>
-      <c r="M34" s="40"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="38"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="40"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="65"/>
-      <c r="M35" s="40"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="38"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="40"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="64"/>
-      <c r="L36" s="65"/>
-      <c r="M36" s="40"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="38"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="40"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="64"/>
-      <c r="L37" s="65"/>
-      <c r="M37" s="40"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="62"/>
+      <c r="L37" s="63"/>
+      <c r="M37" s="38"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="40"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="64"/>
-      <c r="L38" s="65"/>
-      <c r="M38" s="40"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="62"/>
+      <c r="L38" s="63"/>
+      <c r="M38" s="38"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="40"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="64"/>
-      <c r="L39" s="65"/>
-      <c r="M39" s="40"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="62"/>
+      <c r="L39" s="63"/>
+      <c r="M39" s="38"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="40"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="64"/>
-      <c r="L40" s="65"/>
-      <c r="M40" s="40"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="62"/>
+      <c r="L40" s="63"/>
+      <c r="M40" s="38"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="40"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="64"/>
-      <c r="L41" s="65"/>
-      <c r="M41" s="40"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="62"/>
+      <c r="L41" s="63"/>
+      <c r="M41" s="38"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="40"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="64"/>
-      <c r="L42" s="65"/>
-      <c r="M42" s="40"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="62"/>
+      <c r="L42" s="63"/>
+      <c r="M42" s="38"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="40"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="40"/>
-      <c r="K43" s="64"/>
-      <c r="L43" s="65"/>
-      <c r="M43" s="40"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="62"/>
+      <c r="L43" s="63"/>
+      <c r="M43" s="38"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="40"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="40"/>
-      <c r="K44" s="64"/>
-      <c r="L44" s="65"/>
-      <c r="M44" s="40"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="62"/>
+      <c r="L44" s="63"/>
+      <c r="M44" s="38"/>
     </row>
     <row r="45" ht="13" spans="1:13">
-      <c r="A45" s="81" t="s">
+      <c r="A45" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="40"/>
+      <c r="B45" s="38"/>
       <c r="D45" s="4"/>
-      <c r="E45" s="52"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="52"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
-      <c r="K45" s="66"/>
-      <c r="M45" s="40"/>
+      <c r="K45" s="64"/>
+      <c r="M45" s="38"/>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="D46" s="4"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="52"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
-      <c r="K46" s="66"/>
+      <c r="K46" s="64"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="D47" s="4"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="52"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="50"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
-      <c r="K47" s="66"/>
+      <c r="K47" s="64"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="52"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="50"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
-      <c r="K48" s="66"/>
+      <c r="K48" s="64"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="D49" s="4"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="52"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
-      <c r="K49" s="66"/>
+      <c r="K49" s="64"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="D50" s="4"/>
-      <c r="E50" s="52"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="52"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="50"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
-      <c r="K50" s="66"/>
+      <c r="K50" s="64"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="D51" s="4"/>
-      <c r="E51" s="52"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="52"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
-      <c r="K51" s="66"/>
+      <c r="K51" s="64"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="52"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="50"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
-      <c r="K52" s="66"/>
+      <c r="K52" s="64"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="D53" s="4"/>
-      <c r="E53" s="52"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="52"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
-      <c r="K53" s="66"/>
+      <c r="K53" s="64"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="D54" s="4"/>
-      <c r="E54" s="52"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="52"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="50"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
-      <c r="K54" s="66"/>
+      <c r="K54" s="64"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="D55" s="4"/>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="52"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="50"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
-      <c r="K55" s="66"/>
+      <c r="K55" s="64"/>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="D56" s="4"/>
-      <c r="E56" s="52"/>
-      <c r="F56" s="52"/>
-      <c r="G56" s="52"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="50"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
-      <c r="K56" s="66"/>
+      <c r="K56" s="64"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="D57" s="4"/>
-      <c r="E57" s="52"/>
-      <c r="F57" s="52"/>
-      <c r="G57" s="52"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="50"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
-      <c r="K57" s="66"/>
+      <c r="K57" s="64"/>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="D58" s="4"/>
-      <c r="E58" s="52"/>
-      <c r="F58" s="52"/>
-      <c r="G58" s="52"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="50"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
-      <c r="K58" s="66"/>
+      <c r="K58" s="64"/>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="D59" s="4"/>
-      <c r="E59" s="52"/>
-      <c r="F59" s="52"/>
-      <c r="G59" s="52"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="50"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
-      <c r="K59" s="66"/>
+      <c r="K59" s="64"/>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="D60" s="4"/>
-      <c r="E60" s="52"/>
-      <c r="F60" s="52"/>
-      <c r="G60" s="52"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="50"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
-      <c r="K60" s="66"/>
+      <c r="K60" s="64"/>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="D61" s="4"/>
-      <c r="E61" s="52"/>
-      <c r="F61" s="52"/>
-      <c r="G61" s="52"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="50"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
-      <c r="K61" s="66"/>
+      <c r="K61" s="64"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="D62" s="4"/>
-      <c r="E62" s="52"/>
-      <c r="F62" s="52"/>
-      <c r="G62" s="52"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="50"/>
+      <c r="G62" s="50"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
-      <c r="K62" s="66"/>
+      <c r="K62" s="64"/>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="D63" s="4"/>
-      <c r="E63" s="52"/>
-      <c r="F63" s="52"/>
-      <c r="G63" s="52"/>
+      <c r="E63" s="50"/>
+      <c r="F63" s="50"/>
+      <c r="G63" s="50"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
-      <c r="K63" s="66"/>
+      <c r="K63" s="64"/>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="D64" s="4"/>
-      <c r="E64" s="52"/>
-      <c r="F64" s="52"/>
-      <c r="G64" s="52"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="50"/>
+      <c r="G64" s="50"/>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
-      <c r="K64" s="66"/>
+      <c r="K64" s="64"/>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="D65" s="4"/>
-      <c r="E65" s="52"/>
-      <c r="F65" s="52"/>
-      <c r="G65" s="52"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="50"/>
+      <c r="G65" s="50"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
-      <c r="K65" s="66"/>
+      <c r="K65" s="64"/>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="D66" s="4"/>
-      <c r="E66" s="52"/>
-      <c r="F66" s="52"/>
-      <c r="G66" s="52"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="50"/>
+      <c r="G66" s="50"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
-      <c r="K66" s="66"/>
+      <c r="K66" s="64"/>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="D67" s="4"/>
-      <c r="E67" s="52"/>
-      <c r="F67" s="52"/>
-      <c r="G67" s="52"/>
+      <c r="E67" s="50"/>
+      <c r="F67" s="50"/>
+      <c r="G67" s="50"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
-      <c r="K67" s="66"/>
+      <c r="K67" s="64"/>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="D68" s="4"/>
-      <c r="E68" s="52"/>
-      <c r="F68" s="52"/>
-      <c r="G68" s="52"/>
+      <c r="E68" s="50"/>
+      <c r="F68" s="50"/>
+      <c r="G68" s="50"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
-      <c r="K68" s="66"/>
+      <c r="K68" s="64"/>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="D69" s="4"/>
-      <c r="E69" s="52"/>
-      <c r="F69" s="52"/>
-      <c r="G69" s="52"/>
+      <c r="E69" s="50"/>
+      <c r="F69" s="50"/>
+      <c r="G69" s="50"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
-      <c r="K69" s="66"/>
+      <c r="K69" s="64"/>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="D70" s="4"/>
-      <c r="E70" s="52"/>
-      <c r="F70" s="52"/>
-      <c r="G70" s="52"/>
+      <c r="E70" s="50"/>
+      <c r="F70" s="50"/>
+      <c r="G70" s="50"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
-      <c r="K70" s="66"/>
+      <c r="K70" s="64"/>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="D71" s="4"/>
-      <c r="E71" s="52"/>
-      <c r="F71" s="52"/>
-      <c r="G71" s="52"/>
+      <c r="E71" s="50"/>
+      <c r="F71" s="50"/>
+      <c r="G71" s="50"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
-      <c r="K71" s="66"/>
+      <c r="K71" s="64"/>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="D72" s="4"/>
-      <c r="E72" s="52"/>
-      <c r="F72" s="52"/>
-      <c r="G72" s="52"/>
+      <c r="E72" s="50"/>
+      <c r="F72" s="50"/>
+      <c r="G72" s="50"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
-      <c r="K72" s="66"/>
+      <c r="K72" s="64"/>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="D73" s="4"/>
-      <c r="E73" s="52"/>
-      <c r="F73" s="52"/>
-      <c r="G73" s="52"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="50"/>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
-      <c r="K73" s="66"/>
+      <c r="K73" s="64"/>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="D74" s="4"/>
-      <c r="E74" s="52"/>
-      <c r="F74" s="52"/>
-      <c r="G74" s="52"/>
+      <c r="E74" s="50"/>
+      <c r="F74" s="50"/>
+      <c r="G74" s="50"/>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
-      <c r="K74" s="66"/>
+      <c r="K74" s="64"/>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="D75" s="4"/>
-      <c r="E75" s="52"/>
-      <c r="F75" s="52"/>
-      <c r="G75" s="52"/>
+      <c r="E75" s="50"/>
+      <c r="F75" s="50"/>
+      <c r="G75" s="50"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
-      <c r="K75" s="66"/>
+      <c r="K75" s="64"/>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="D76" s="4"/>
-      <c r="E76" s="52"/>
-      <c r="F76" s="52"/>
-      <c r="G76" s="52"/>
+      <c r="E76" s="50"/>
+      <c r="F76" s="50"/>
+      <c r="G76" s="50"/>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
-      <c r="K76" s="66"/>
+      <c r="K76" s="64"/>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="D77" s="4"/>
-      <c r="E77" s="52"/>
-      <c r="F77" s="52"/>
-      <c r="G77" s="52"/>
+      <c r="E77" s="50"/>
+      <c r="F77" s="50"/>
+      <c r="G77" s="50"/>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
-      <c r="K77" s="66"/>
+      <c r="K77" s="64"/>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="D78" s="4"/>
-      <c r="E78" s="52"/>
-      <c r="F78" s="52"/>
-      <c r="G78" s="52"/>
+      <c r="E78" s="50"/>
+      <c r="F78" s="50"/>
+      <c r="G78" s="50"/>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
-      <c r="K78" s="66"/>
+      <c r="K78" s="64"/>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="D79" s="4"/>
-      <c r="E79" s="52"/>
-      <c r="F79" s="52"/>
-      <c r="G79" s="52"/>
+      <c r="E79" s="50"/>
+      <c r="F79" s="50"/>
+      <c r="G79" s="50"/>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
-      <c r="K79" s="66"/>
+      <c r="K79" s="64"/>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="D80" s="4"/>
-      <c r="E80" s="52"/>
-      <c r="F80" s="52"/>
-      <c r="G80" s="52"/>
+      <c r="E80" s="50"/>
+      <c r="F80" s="50"/>
+      <c r="G80" s="50"/>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
-      <c r="K80" s="66"/>
+      <c r="K80" s="64"/>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="D81" s="4"/>
-      <c r="E81" s="52"/>
-      <c r="F81" s="52"/>
-      <c r="G81" s="52"/>
+      <c r="E81" s="50"/>
+      <c r="F81" s="50"/>
+      <c r="G81" s="50"/>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
-      <c r="K81" s="66"/>
+      <c r="K81" s="64"/>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="D82" s="4"/>
-      <c r="E82" s="52"/>
-      <c r="F82" s="52"/>
-      <c r="G82" s="52"/>
+      <c r="E82" s="50"/>
+      <c r="F82" s="50"/>
+      <c r="G82" s="50"/>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
-      <c r="K82" s="66"/>
+      <c r="K82" s="64"/>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="D83" s="4"/>
-      <c r="E83" s="52"/>
-      <c r="F83" s="52"/>
-      <c r="G83" s="52"/>
+      <c r="E83" s="50"/>
+      <c r="F83" s="50"/>
+      <c r="G83" s="50"/>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
-      <c r="K83" s="66"/>
+      <c r="K83" s="64"/>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="D84" s="4"/>
-      <c r="E84" s="52"/>
-      <c r="F84" s="52"/>
-      <c r="G84" s="52"/>
+      <c r="E84" s="50"/>
+      <c r="F84" s="50"/>
+      <c r="G84" s="50"/>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
-      <c r="K84" s="66"/>
+      <c r="K84" s="64"/>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="D85" s="4"/>
-      <c r="E85" s="52"/>
-      <c r="F85" s="52"/>
-      <c r="G85" s="52"/>
+      <c r="E85" s="50"/>
+      <c r="F85" s="50"/>
+      <c r="G85" s="50"/>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
-      <c r="K85" s="66"/>
+      <c r="K85" s="64"/>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="D86" s="4"/>
-      <c r="E86" s="52"/>
-      <c r="F86" s="52"/>
-      <c r="G86" s="52"/>
+      <c r="E86" s="50"/>
+      <c r="F86" s="50"/>
+      <c r="G86" s="50"/>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
-      <c r="K86" s="66"/>
+      <c r="K86" s="64"/>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="D87" s="4"/>
-      <c r="E87" s="52"/>
-      <c r="F87" s="52"/>
-      <c r="G87" s="52"/>
+      <c r="E87" s="50"/>
+      <c r="F87" s="50"/>
+      <c r="G87" s="50"/>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
-      <c r="K87" s="66"/>
+      <c r="K87" s="64"/>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="D88" s="4"/>
-      <c r="E88" s="52"/>
-      <c r="F88" s="52"/>
-      <c r="G88" s="52"/>
+      <c r="E88" s="50"/>
+      <c r="F88" s="50"/>
+      <c r="G88" s="50"/>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
-      <c r="K88" s="66"/>
+      <c r="K88" s="64"/>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="D89" s="4"/>
-      <c r="E89" s="52"/>
-      <c r="F89" s="52"/>
-      <c r="G89" s="52"/>
+      <c r="E89" s="50"/>
+      <c r="F89" s="50"/>
+      <c r="G89" s="50"/>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
-      <c r="K89" s="66"/>
+      <c r="K89" s="64"/>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="D90" s="4"/>
-      <c r="E90" s="52"/>
-      <c r="F90" s="52"/>
-      <c r="G90" s="52"/>
+      <c r="E90" s="50"/>
+      <c r="F90" s="50"/>
+      <c r="G90" s="50"/>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
-      <c r="K90" s="66"/>
+      <c r="K90" s="64"/>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="D91" s="4"/>
-      <c r="E91" s="52"/>
-      <c r="F91" s="52"/>
-      <c r="G91" s="52"/>
+      <c r="E91" s="50"/>
+      <c r="F91" s="50"/>
+      <c r="G91" s="50"/>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
-      <c r="K91" s="66"/>
+      <c r="K91" s="64"/>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="D92" s="4"/>
-      <c r="E92" s="52"/>
-      <c r="F92" s="52"/>
-      <c r="G92" s="52"/>
+      <c r="E92" s="50"/>
+      <c r="F92" s="50"/>
+      <c r="G92" s="50"/>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
-      <c r="K92" s="66"/>
+      <c r="K92" s="64"/>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="D93" s="4"/>
-      <c r="E93" s="52"/>
-      <c r="F93" s="52"/>
-      <c r="G93" s="52"/>
+      <c r="E93" s="50"/>
+      <c r="F93" s="50"/>
+      <c r="G93" s="50"/>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
-      <c r="K93" s="66"/>
+      <c r="K93" s="64"/>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="D94" s="4"/>
-      <c r="E94" s="52"/>
-      <c r="F94" s="52"/>
-      <c r="G94" s="52"/>
+      <c r="E94" s="50"/>
+      <c r="F94" s="50"/>
+      <c r="G94" s="50"/>
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
-      <c r="K94" s="66"/>
+      <c r="K94" s="64"/>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="D95" s="4"/>
-      <c r="E95" s="52"/>
-      <c r="F95" s="52"/>
-      <c r="G95" s="52"/>
+      <c r="E95" s="50"/>
+      <c r="F95" s="50"/>
+      <c r="G95" s="50"/>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
-      <c r="K95" s="66"/>
+      <c r="K95" s="64"/>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="D96" s="4"/>
-      <c r="E96" s="52"/>
-      <c r="F96" s="52"/>
-      <c r="G96" s="52"/>
+      <c r="E96" s="50"/>
+      <c r="F96" s="50"/>
+      <c r="G96" s="50"/>
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
-      <c r="K96" s="66"/>
+      <c r="K96" s="64"/>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="D97" s="4"/>
-      <c r="E97" s="52"/>
-      <c r="F97" s="52"/>
-      <c r="G97" s="52"/>
+      <c r="E97" s="50"/>
+      <c r="F97" s="50"/>
+      <c r="G97" s="50"/>
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
-      <c r="K97" s="66"/>
+      <c r="K97" s="64"/>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="D98" s="4"/>
-      <c r="E98" s="52"/>
-      <c r="F98" s="52"/>
-      <c r="G98" s="52"/>
+      <c r="E98" s="50"/>
+      <c r="F98" s="50"/>
+      <c r="G98" s="50"/>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
-      <c r="K98" s="66"/>
+      <c r="K98" s="64"/>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="52"/>
-      <c r="F99" s="52"/>
-      <c r="G99" s="52"/>
+      <c r="E99" s="50"/>
+      <c r="F99" s="50"/>
+      <c r="G99" s="50"/>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
-      <c r="K99" s="66"/>
+      <c r="K99" s="64"/>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="D100" s="4"/>
-      <c r="E100" s="52"/>
-      <c r="F100" s="52"/>
-      <c r="G100" s="52"/>
+      <c r="E100" s="50"/>
+      <c r="F100" s="50"/>
+      <c r="G100" s="50"/>
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
-      <c r="K100" s="66"/>
+      <c r="K100" s="64"/>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="D101" s="4"/>
-      <c r="E101" s="52"/>
-      <c r="F101" s="52"/>
-      <c r="G101" s="52"/>
+      <c r="E101" s="50"/>
+      <c r="F101" s="50"/>
+      <c r="G101" s="50"/>
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
-      <c r="K101" s="66"/>
+      <c r="K101" s="64"/>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="D102" s="4"/>
-      <c r="E102" s="52"/>
-      <c r="F102" s="52"/>
-      <c r="G102" s="52"/>
+      <c r="E102" s="50"/>
+      <c r="F102" s="50"/>
+      <c r="G102" s="50"/>
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
-      <c r="K102" s="66"/>
+      <c r="K102" s="64"/>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="D103" s="4"/>
-      <c r="E103" s="52"/>
-      <c r="F103" s="52"/>
-      <c r="G103" s="52"/>
+      <c r="E103" s="50"/>
+      <c r="F103" s="50"/>
+      <c r="G103" s="50"/>
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
-      <c r="K103" s="66"/>
+      <c r="K103" s="64"/>
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="D104" s="4"/>
-      <c r="E104" s="52"/>
-      <c r="F104" s="52"/>
-      <c r="G104" s="52"/>
+      <c r="E104" s="50"/>
+      <c r="F104" s="50"/>
+      <c r="G104" s="50"/>
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
-      <c r="K104" s="66"/>
+      <c r="K104" s="64"/>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="D105" s="4"/>
-      <c r="E105" s="52"/>
-      <c r="F105" s="52"/>
-      <c r="G105" s="52"/>
+      <c r="E105" s="50"/>
+      <c r="F105" s="50"/>
+      <c r="G105" s="50"/>
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
-      <c r="K105" s="66"/>
+      <c r="K105" s="64"/>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="D106" s="4"/>
-      <c r="E106" s="52"/>
-      <c r="F106" s="52"/>
-      <c r="G106" s="52"/>
+      <c r="E106" s="50"/>
+      <c r="F106" s="50"/>
+      <c r="G106" s="50"/>
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
-      <c r="K106" s="66"/>
+      <c r="K106" s="64"/>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="D107" s="4"/>
-      <c r="E107" s="52"/>
-      <c r="F107" s="52"/>
-      <c r="G107" s="52"/>
+      <c r="E107" s="50"/>
+      <c r="F107" s="50"/>
+      <c r="G107" s="50"/>
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
-      <c r="K107" s="66"/>
+      <c r="K107" s="64"/>
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="D108" s="4"/>
-      <c r="E108" s="52"/>
-      <c r="F108" s="52"/>
-      <c r="G108" s="52"/>
+      <c r="E108" s="50"/>
+      <c r="F108" s="50"/>
+      <c r="G108" s="50"/>
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
-      <c r="K108" s="66"/>
+      <c r="K108" s="64"/>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="D109" s="4"/>
-      <c r="E109" s="52"/>
-      <c r="F109" s="52"/>
-      <c r="G109" s="52"/>
+      <c r="E109" s="50"/>
+      <c r="F109" s="50"/>
+      <c r="G109" s="50"/>
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
-      <c r="K109" s="66"/>
+      <c r="K109" s="64"/>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="D110" s="4"/>
-      <c r="E110" s="52"/>
-      <c r="F110" s="52"/>
-      <c r="G110" s="52"/>
+      <c r="E110" s="50"/>
+      <c r="F110" s="50"/>
+      <c r="G110" s="50"/>
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
-      <c r="K110" s="66"/>
+      <c r="K110" s="64"/>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="D111" s="4"/>
-      <c r="E111" s="52"/>
-      <c r="F111" s="52"/>
-      <c r="G111" s="52"/>
+      <c r="E111" s="50"/>
+      <c r="F111" s="50"/>
+      <c r="G111" s="50"/>
       <c r="H111" s="4"/>
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
-      <c r="K111" s="66"/>
+      <c r="K111" s="64"/>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="D112" s="4"/>
-      <c r="E112" s="52"/>
-      <c r="F112" s="52"/>
-      <c r="G112" s="52"/>
+      <c r="E112" s="50"/>
+      <c r="F112" s="50"/>
+      <c r="G112" s="50"/>
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
-      <c r="K112" s="66"/>
+      <c r="K112" s="64"/>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="D113" s="4"/>
-      <c r="E113" s="52"/>
-      <c r="F113" s="52"/>
-      <c r="G113" s="52"/>
+      <c r="E113" s="50"/>
+      <c r="F113" s="50"/>
+      <c r="G113" s="50"/>
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
-      <c r="K113" s="66"/>
+      <c r="K113" s="64"/>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="D114" s="4"/>
-      <c r="E114" s="52"/>
-      <c r="F114" s="52"/>
-      <c r="G114" s="52"/>
+      <c r="E114" s="50"/>
+      <c r="F114" s="50"/>
+      <c r="G114" s="50"/>
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
-      <c r="K114" s="66"/>
+      <c r="K114" s="64"/>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="D115" s="4"/>
-      <c r="E115" s="52"/>
-      <c r="F115" s="52"/>
-      <c r="G115" s="52"/>
+      <c r="E115" s="50"/>
+      <c r="F115" s="50"/>
+      <c r="G115" s="50"/>
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
-      <c r="K115" s="66"/>
+      <c r="K115" s="64"/>
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="D116" s="4"/>
-      <c r="E116" s="52"/>
-      <c r="F116" s="52"/>
-      <c r="G116" s="52"/>
+      <c r="E116" s="50"/>
+      <c r="F116" s="50"/>
+      <c r="G116" s="50"/>
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
-      <c r="K116" s="66"/>
+      <c r="K116" s="64"/>
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="D117" s="4"/>
-      <c r="E117" s="52"/>
-      <c r="F117" s="52"/>
-      <c r="G117" s="52"/>
+      <c r="E117" s="50"/>
+      <c r="F117" s="50"/>
+      <c r="G117" s="50"/>
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
-      <c r="K117" s="66"/>
+      <c r="K117" s="64"/>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="D118" s="4"/>
-      <c r="E118" s="52"/>
-      <c r="F118" s="52"/>
-      <c r="G118" s="52"/>
+      <c r="E118" s="50"/>
+      <c r="F118" s="50"/>
+      <c r="G118" s="50"/>
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
-      <c r="K118" s="66"/>
+      <c r="K118" s="64"/>
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="D119" s="4"/>
-      <c r="E119" s="52"/>
-      <c r="F119" s="52"/>
-      <c r="G119" s="52"/>
+      <c r="E119" s="50"/>
+      <c r="F119" s="50"/>
+      <c r="G119" s="50"/>
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
-      <c r="K119" s="66"/>
+      <c r="K119" s="64"/>
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="D120" s="4"/>
-      <c r="E120" s="52"/>
-      <c r="F120" s="52"/>
-      <c r="G120" s="52"/>
+      <c r="E120" s="50"/>
+      <c r="F120" s="50"/>
+      <c r="G120" s="50"/>
       <c r="H120" s="4"/>
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
-      <c r="K120" s="66"/>
+      <c r="K120" s="64"/>
     </row>
     <row r="121" spans="1:11">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="D121" s="4"/>
-      <c r="E121" s="52"/>
-      <c r="F121" s="52"/>
-      <c r="G121" s="52"/>
+      <c r="E121" s="50"/>
+      <c r="F121" s="50"/>
+      <c r="G121" s="50"/>
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
-      <c r="K121" s="66"/>
+      <c r="K121" s="64"/>
     </row>
     <row r="122" spans="1:11">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="D122" s="4"/>
-      <c r="E122" s="52"/>
-      <c r="F122" s="52"/>
-      <c r="G122" s="52"/>
+      <c r="E122" s="50"/>
+      <c r="F122" s="50"/>
+      <c r="G122" s="50"/>
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
-      <c r="K122" s="66"/>
+      <c r="K122" s="64"/>
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="D123" s="4"/>
-      <c r="E123" s="52"/>
-      <c r="F123" s="52"/>
-      <c r="G123" s="52"/>
+      <c r="E123" s="50"/>
+      <c r="F123" s="50"/>
+      <c r="G123" s="50"/>
       <c r="H123" s="4"/>
       <c r="I123" s="4"/>
       <c r="J123" s="4"/>
-      <c r="K123" s="66"/>
+      <c r="K123" s="64"/>
     </row>
     <row r="124" spans="1:11">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="D124" s="4"/>
-      <c r="E124" s="52"/>
-      <c r="F124" s="52"/>
-      <c r="G124" s="52"/>
+      <c r="E124" s="50"/>
+      <c r="F124" s="50"/>
+      <c r="G124" s="50"/>
       <c r="H124" s="4"/>
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
-      <c r="K124" s="66"/>
+      <c r="K124" s="64"/>
     </row>
     <row r="125" spans="1:11">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="D125" s="4"/>
-      <c r="E125" s="52"/>
-      <c r="F125" s="52"/>
-      <c r="G125" s="52"/>
+      <c r="E125" s="50"/>
+      <c r="F125" s="50"/>
+      <c r="G125" s="50"/>
       <c r="H125" s="4"/>
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
-      <c r="K125" s="66"/>
+      <c r="K125" s="64"/>
     </row>
     <row r="126" spans="1:11">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="D126" s="4"/>
-      <c r="E126" s="52"/>
-      <c r="F126" s="52"/>
-      <c r="G126" s="52"/>
+      <c r="E126" s="50"/>
+      <c r="F126" s="50"/>
+      <c r="G126" s="50"/>
       <c r="H126" s="4"/>
       <c r="I126" s="4"/>
       <c r="J126" s="4"/>
-      <c r="K126" s="66"/>
+      <c r="K126" s="64"/>
     </row>
     <row r="127" spans="1:11">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="D127" s="4"/>
-      <c r="E127" s="52"/>
-      <c r="F127" s="52"/>
-      <c r="G127" s="52"/>
+      <c r="E127" s="50"/>
+      <c r="F127" s="50"/>
+      <c r="G127" s="50"/>
       <c r="H127" s="4"/>
       <c r="I127" s="4"/>
       <c r="J127" s="4"/>
-      <c r="K127" s="66"/>
+      <c r="K127" s="64"/>
     </row>
     <row r="128" spans="1:11">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="D128" s="4"/>
-      <c r="E128" s="52"/>
-      <c r="F128" s="52"/>
-      <c r="G128" s="52"/>
+      <c r="E128" s="50"/>
+      <c r="F128" s="50"/>
+      <c r="G128" s="50"/>
       <c r="H128" s="4"/>
       <c r="I128" s="4"/>
       <c r="J128" s="4"/>
-      <c r="K128" s="66"/>
+      <c r="K128" s="64"/>
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="D129" s="4"/>
-      <c r="E129" s="52"/>
-      <c r="F129" s="52"/>
-      <c r="G129" s="52"/>
+      <c r="E129" s="50"/>
+      <c r="F129" s="50"/>
+      <c r="G129" s="50"/>
       <c r="H129" s="4"/>
       <c r="I129" s="4"/>
       <c r="J129" s="4"/>
-      <c r="K129" s="66"/>
+      <c r="K129" s="64"/>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="D130" s="4"/>
-      <c r="E130" s="52"/>
-      <c r="F130" s="52"/>
-      <c r="G130" s="52"/>
+      <c r="E130" s="50"/>
+      <c r="F130" s="50"/>
+      <c r="G130" s="50"/>
       <c r="H130" s="4"/>
       <c r="I130" s="4"/>
       <c r="J130" s="4"/>
-      <c r="K130" s="66"/>
+      <c r="K130" s="64"/>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="D131" s="4"/>
-      <c r="E131" s="52"/>
-      <c r="F131" s="52"/>
-      <c r="G131" s="52"/>
+      <c r="E131" s="50"/>
+      <c r="F131" s="50"/>
+      <c r="G131" s="50"/>
       <c r="H131" s="4"/>
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
-      <c r="K131" s="66"/>
+      <c r="K131" s="64"/>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="D132" s="4"/>
-      <c r="E132" s="52"/>
-      <c r="F132" s="52"/>
-      <c r="G132" s="52"/>
+      <c r="E132" s="50"/>
+      <c r="F132" s="50"/>
+      <c r="G132" s="50"/>
       <c r="H132" s="4"/>
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
-      <c r="K132" s="66"/>
+      <c r="K132" s="64"/>
     </row>
     <row r="133" spans="1:11">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="D133" s="4"/>
-      <c r="E133" s="52"/>
-      <c r="F133" s="52"/>
-      <c r="G133" s="52"/>
+      <c r="E133" s="50"/>
+      <c r="F133" s="50"/>
+      <c r="G133" s="50"/>
       <c r="H133" s="4"/>
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
-      <c r="K133" s="66"/>
+      <c r="K133" s="64"/>
     </row>
     <row r="134" spans="1:11">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="D134" s="4"/>
-      <c r="E134" s="52"/>
-      <c r="F134" s="52"/>
-      <c r="G134" s="52"/>
+      <c r="E134" s="50"/>
+      <c r="F134" s="50"/>
+      <c r="G134" s="50"/>
       <c r="H134" s="4"/>
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
-      <c r="K134" s="66"/>
+      <c r="K134" s="64"/>
     </row>
     <row r="135" spans="1:11">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="D135" s="4"/>
-      <c r="E135" s="52"/>
-      <c r="F135" s="52"/>
-      <c r="G135" s="52"/>
+      <c r="E135" s="50"/>
+      <c r="F135" s="50"/>
+      <c r="G135" s="50"/>
       <c r="H135" s="4"/>
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
-      <c r="K135" s="66"/>
+      <c r="K135" s="64"/>
     </row>
     <row r="136" spans="1:11">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="D136" s="4"/>
-      <c r="E136" s="52"/>
-      <c r="F136" s="52"/>
-      <c r="G136" s="52"/>
+      <c r="E136" s="50"/>
+      <c r="F136" s="50"/>
+      <c r="G136" s="50"/>
       <c r="H136" s="4"/>
       <c r="I136" s="4"/>
       <c r="J136" s="4"/>
-      <c r="K136" s="66"/>
+      <c r="K136" s="64"/>
     </row>
     <row r="137" spans="1:11">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="D137" s="4"/>
-      <c r="E137" s="52"/>
-      <c r="F137" s="52"/>
-      <c r="G137" s="52"/>
+      <c r="E137" s="50"/>
+      <c r="F137" s="50"/>
+      <c r="G137" s="50"/>
       <c r="H137" s="4"/>
       <c r="I137" s="4"/>
       <c r="J137" s="4"/>
-      <c r="K137" s="66"/>
+      <c r="K137" s="64"/>
     </row>
     <row r="138" spans="1:11">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="D138" s="4"/>
-      <c r="E138" s="52"/>
-      <c r="F138" s="52"/>
-      <c r="G138" s="52"/>
+      <c r="E138" s="50"/>
+      <c r="F138" s="50"/>
+      <c r="G138" s="50"/>
       <c r="H138" s="4"/>
       <c r="I138" s="4"/>
       <c r="J138" s="4"/>
-      <c r="K138" s="66"/>
+      <c r="K138" s="64"/>
     </row>
     <row r="139" spans="1:11">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="D139" s="4"/>
-      <c r="E139" s="52"/>
-      <c r="F139" s="52"/>
-      <c r="G139" s="52"/>
+      <c r="E139" s="50"/>
+      <c r="F139" s="50"/>
+      <c r="G139" s="50"/>
       <c r="H139" s="4"/>
       <c r="I139" s="4"/>
       <c r="J139" s="4"/>
-      <c r="K139" s="66"/>
+      <c r="K139" s="64"/>
     </row>
     <row r="140" spans="1:11">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="D140" s="4"/>
-      <c r="E140" s="52"/>
-      <c r="F140" s="52"/>
-      <c r="G140" s="52"/>
+      <c r="E140" s="50"/>
+      <c r="F140" s="50"/>
+      <c r="G140" s="50"/>
       <c r="H140" s="4"/>
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
-      <c r="K140" s="66"/>
+      <c r="K140" s="64"/>
     </row>
     <row r="141" spans="1:11">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="D141" s="4"/>
-      <c r="E141" s="52"/>
-      <c r="F141" s="52"/>
-      <c r="G141" s="52"/>
+      <c r="E141" s="50"/>
+      <c r="F141" s="50"/>
+      <c r="G141" s="50"/>
       <c r="H141" s="4"/>
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
-      <c r="K141" s="66"/>
+      <c r="K141" s="64"/>
     </row>
     <row r="142" spans="1:11">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="D142" s="4"/>
-      <c r="E142" s="52"/>
-      <c r="F142" s="52"/>
-      <c r="G142" s="52"/>
+      <c r="E142" s="50"/>
+      <c r="F142" s="50"/>
+      <c r="G142" s="50"/>
       <c r="H142" s="4"/>
       <c r="I142" s="4"/>
       <c r="J142" s="4"/>
-      <c r="K142" s="66"/>
+      <c r="K142" s="64"/>
     </row>
     <row r="143" spans="1:11">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="D143" s="4"/>
-      <c r="E143" s="52"/>
-      <c r="F143" s="52"/>
-      <c r="G143" s="52"/>
+      <c r="E143" s="50"/>
+      <c r="F143" s="50"/>
+      <c r="G143" s="50"/>
       <c r="H143" s="4"/>
       <c r="I143" s="4"/>
       <c r="J143" s="4"/>
-      <c r="K143" s="66"/>
+      <c r="K143" s="64"/>
     </row>
     <row r="144" spans="1:11">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="D144" s="4"/>
-      <c r="E144" s="52"/>
-      <c r="F144" s="52"/>
-      <c r="G144" s="52"/>
+      <c r="E144" s="50"/>
+      <c r="F144" s="50"/>
+      <c r="G144" s="50"/>
       <c r="H144" s="4"/>
       <c r="I144" s="4"/>
       <c r="J144" s="4"/>
-      <c r="K144" s="66"/>
+      <c r="K144" s="64"/>
     </row>
     <row r="145" spans="1:11">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="D145" s="4"/>
-      <c r="E145" s="52"/>
-      <c r="F145" s="52"/>
-      <c r="G145" s="52"/>
+      <c r="E145" s="50"/>
+      <c r="F145" s="50"/>
+      <c r="G145" s="50"/>
       <c r="H145" s="4"/>
       <c r="I145" s="4"/>
       <c r="J145" s="4"/>
-      <c r="K145" s="66"/>
+      <c r="K145" s="64"/>
     </row>
     <row r="146" spans="1:11">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="D146" s="4"/>
-      <c r="E146" s="52"/>
-      <c r="F146" s="52"/>
-      <c r="G146" s="52"/>
+      <c r="E146" s="50"/>
+      <c r="F146" s="50"/>
+      <c r="G146" s="50"/>
       <c r="H146" s="4"/>
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
-      <c r="K146" s="66"/>
+      <c r="K146" s="64"/>
     </row>
     <row r="147" spans="1:11">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="D147" s="4"/>
-      <c r="E147" s="52"/>
-      <c r="F147" s="52"/>
-      <c r="G147" s="52"/>
+      <c r="E147" s="50"/>
+      <c r="F147" s="50"/>
+      <c r="G147" s="50"/>
       <c r="H147" s="4"/>
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
-      <c r="K147" s="66"/>
+      <c r="K147" s="64"/>
     </row>
     <row r="148" spans="1:11">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="D148" s="4"/>
-      <c r="E148" s="52"/>
-      <c r="F148" s="52"/>
-      <c r="G148" s="52"/>
+      <c r="E148" s="50"/>
+      <c r="F148" s="50"/>
+      <c r="G148" s="50"/>
       <c r="H148" s="4"/>
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
-      <c r="K148" s="66"/>
+      <c r="K148" s="64"/>
     </row>
     <row r="149" spans="1:11">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="D149" s="4"/>
-      <c r="E149" s="52"/>
-      <c r="F149" s="52"/>
-      <c r="G149" s="52"/>
+      <c r="E149" s="50"/>
+      <c r="F149" s="50"/>
+      <c r="G149" s="50"/>
       <c r="H149" s="4"/>
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
-      <c r="K149" s="66"/>
+      <c r="K149" s="64"/>
     </row>
     <row r="150" spans="1:11">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="D150" s="4"/>
-      <c r="E150" s="52"/>
-      <c r="F150" s="52"/>
-      <c r="G150" s="52"/>
+      <c r="E150" s="50"/>
+      <c r="F150" s="50"/>
+      <c r="G150" s="50"/>
       <c r="H150" s="4"/>
       <c r="I150" s="4"/>
       <c r="J150" s="4"/>
-      <c r="K150" s="66"/>
+      <c r="K150" s="64"/>
     </row>
     <row r="151" spans="1:11">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="D151" s="4"/>
-      <c r="E151" s="52"/>
-      <c r="F151" s="52"/>
-      <c r="G151" s="52"/>
+      <c r="E151" s="50"/>
+      <c r="F151" s="50"/>
+      <c r="G151" s="50"/>
       <c r="H151" s="4"/>
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
-      <c r="K151" s="66"/>
+      <c r="K151" s="64"/>
     </row>
     <row r="152" spans="1:11">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="D152" s="4"/>
-      <c r="E152" s="52"/>
-      <c r="F152" s="52"/>
-      <c r="G152" s="52"/>
+      <c r="E152" s="50"/>
+      <c r="F152" s="50"/>
+      <c r="G152" s="50"/>
       <c r="H152" s="4"/>
       <c r="I152" s="4"/>
       <c r="J152" s="4"/>
-      <c r="K152" s="66"/>
+      <c r="K152" s="64"/>
     </row>
     <row r="153" spans="1:11">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="D153" s="4"/>
-      <c r="E153" s="52"/>
-      <c r="F153" s="52"/>
-      <c r="G153" s="52"/>
+      <c r="E153" s="50"/>
+      <c r="F153" s="50"/>
+      <c r="G153" s="50"/>
       <c r="H153" s="4"/>
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
-      <c r="K153" s="66"/>
+      <c r="K153" s="64"/>
     </row>
     <row r="154" spans="1:11">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="D154" s="4"/>
-      <c r="E154" s="52"/>
-      <c r="F154" s="52"/>
-      <c r="G154" s="52"/>
+      <c r="E154" s="50"/>
+      <c r="F154" s="50"/>
+      <c r="G154" s="50"/>
       <c r="H154" s="4"/>
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
-      <c r="K154" s="66"/>
+      <c r="K154" s="64"/>
     </row>
     <row r="155" spans="1:11">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="D155" s="4"/>
-      <c r="E155" s="52"/>
-      <c r="F155" s="52"/>
-      <c r="G155" s="52"/>
+      <c r="E155" s="50"/>
+      <c r="F155" s="50"/>
+      <c r="G155" s="50"/>
       <c r="H155" s="4"/>
       <c r="I155" s="4"/>
       <c r="J155" s="4"/>
-      <c r="K155" s="66"/>
+      <c r="K155" s="64"/>
     </row>
     <row r="156" spans="1:11">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="D156" s="4"/>
-      <c r="E156" s="52"/>
-      <c r="F156" s="52"/>
-      <c r="G156" s="52"/>
+      <c r="E156" s="50"/>
+      <c r="F156" s="50"/>
+      <c r="G156" s="50"/>
       <c r="H156" s="4"/>
       <c r="I156" s="4"/>
       <c r="J156" s="4"/>
-      <c r="K156" s="66"/>
+      <c r="K156" s="64"/>
     </row>
     <row r="157" spans="1:11">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="D157" s="4"/>
-      <c r="E157" s="52"/>
-      <c r="F157" s="52"/>
-      <c r="G157" s="52"/>
+      <c r="E157" s="50"/>
+      <c r="F157" s="50"/>
+      <c r="G157" s="50"/>
       <c r="H157" s="4"/>
       <c r="I157" s="4"/>
       <c r="J157" s="4"/>
-      <c r="K157" s="66"/>
+      <c r="K157" s="64"/>
     </row>
     <row r="158" spans="1:11">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="D158" s="4"/>
-      <c r="E158" s="52"/>
-      <c r="F158" s="52"/>
-      <c r="G158" s="52"/>
+      <c r="E158" s="50"/>
+      <c r="F158" s="50"/>
+      <c r="G158" s="50"/>
       <c r="H158" s="4"/>
       <c r="I158" s="4"/>
       <c r="J158" s="4"/>
-      <c r="K158" s="66"/>
+      <c r="K158" s="64"/>
     </row>
     <row r="159" spans="1:11">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="D159" s="4"/>
-      <c r="E159" s="52"/>
-      <c r="F159" s="52"/>
-      <c r="G159" s="52"/>
+      <c r="E159" s="50"/>
+      <c r="F159" s="50"/>
+      <c r="G159" s="50"/>
       <c r="H159" s="4"/>
       <c r="I159" s="4"/>
       <c r="J159" s="4"/>
-      <c r="K159" s="66"/>
+      <c r="K159" s="64"/>
     </row>
     <row r="160" spans="1:11">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="D160" s="4"/>
-      <c r="E160" s="52"/>
-      <c r="F160" s="52"/>
-      <c r="G160" s="52"/>
+      <c r="E160" s="50"/>
+      <c r="F160" s="50"/>
+      <c r="G160" s="50"/>
       <c r="H160" s="4"/>
       <c r="I160" s="4"/>
       <c r="J160" s="4"/>
-      <c r="K160" s="66"/>
+      <c r="K160" s="64"/>
     </row>
     <row r="161" spans="1:11">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="D161" s="4"/>
-      <c r="E161" s="52"/>
-      <c r="F161" s="52"/>
-      <c r="G161" s="52"/>
+      <c r="E161" s="50"/>
+      <c r="F161" s="50"/>
+      <c r="G161" s="50"/>
       <c r="H161" s="4"/>
       <c r="I161" s="4"/>
       <c r="J161" s="4"/>
-      <c r="K161" s="66"/>
+      <c r="K161" s="64"/>
     </row>
     <row r="162" spans="1:11">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="D162" s="4"/>
-      <c r="E162" s="52"/>
-      <c r="F162" s="52"/>
-      <c r="G162" s="52"/>
+      <c r="E162" s="50"/>
+      <c r="F162" s="50"/>
+      <c r="G162" s="50"/>
       <c r="H162" s="4"/>
       <c r="I162" s="4"/>
       <c r="J162" s="4"/>
-      <c r="K162" s="66"/>
+      <c r="K162" s="64"/>
     </row>
     <row r="163" spans="1:11">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="D163" s="4"/>
-      <c r="E163" s="52"/>
-      <c r="F163" s="52"/>
-      <c r="G163" s="52"/>
+      <c r="E163" s="50"/>
+      <c r="F163" s="50"/>
+      <c r="G163" s="50"/>
       <c r="H163" s="4"/>
       <c r="I163" s="4"/>
       <c r="J163" s="4"/>
-      <c r="K163" s="66"/>
+      <c r="K163" s="64"/>
     </row>
     <row r="164" spans="1:11">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="D164" s="4"/>
-      <c r="E164" s="52"/>
-      <c r="F164" s="52"/>
-      <c r="G164" s="52"/>
+      <c r="E164" s="50"/>
+      <c r="F164" s="50"/>
+      <c r="G164" s="50"/>
       <c r="H164" s="4"/>
       <c r="I164" s="4"/>
       <c r="J164" s="4"/>
-      <c r="K164" s="66"/>
+      <c r="K164" s="64"/>
     </row>
     <row r="165" spans="1:11">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="D165" s="4"/>
-      <c r="E165" s="52"/>
-      <c r="F165" s="52"/>
-      <c r="G165" s="52"/>
+      <c r="E165" s="50"/>
+      <c r="F165" s="50"/>
+      <c r="G165" s="50"/>
       <c r="H165" s="4"/>
       <c r="I165" s="4"/>
       <c r="J165" s="4"/>
-      <c r="K165" s="66"/>
+      <c r="K165" s="64"/>
     </row>
     <row r="166" spans="1:11">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="D166" s="4"/>
-      <c r="E166" s="52"/>
-      <c r="F166" s="52"/>
-      <c r="G166" s="52"/>
+      <c r="E166" s="50"/>
+      <c r="F166" s="50"/>
+      <c r="G166" s="50"/>
       <c r="H166" s="4"/>
       <c r="I166" s="4"/>
       <c r="J166" s="4"/>
-      <c r="K166" s="66"/>
+      <c r="K166" s="64"/>
     </row>
     <row r="167" spans="1:11">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="D167" s="4"/>
-      <c r="E167" s="52"/>
-      <c r="F167" s="52"/>
-      <c r="G167" s="52"/>
+      <c r="E167" s="50"/>
+      <c r="F167" s="50"/>
+      <c r="G167" s="50"/>
       <c r="H167" s="4"/>
       <c r="I167" s="4"/>
       <c r="J167" s="4"/>
-      <c r="K167" s="66"/>
+      <c r="K167" s="64"/>
     </row>
     <row r="168" spans="1:11">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="D168" s="4"/>
-      <c r="E168" s="52"/>
-      <c r="F168" s="52"/>
-      <c r="G168" s="52"/>
+      <c r="E168" s="50"/>
+      <c r="F168" s="50"/>
+      <c r="G168" s="50"/>
       <c r="H168" s="4"/>
       <c r="I168" s="4"/>
       <c r="J168" s="4"/>
-      <c r="K168" s="66"/>
+      <c r="K168" s="64"/>
     </row>
     <row r="169" spans="1:11">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="D169" s="4"/>
-      <c r="E169" s="52"/>
-      <c r="F169" s="52"/>
-      <c r="G169" s="52"/>
+      <c r="E169" s="50"/>
+      <c r="F169" s="50"/>
+      <c r="G169" s="50"/>
       <c r="H169" s="4"/>
       <c r="I169" s="4"/>
       <c r="J169" s="4"/>
-      <c r="K169" s="66"/>
+      <c r="K169" s="64"/>
     </row>
     <row r="170" spans="1:11">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="D170" s="4"/>
-      <c r="E170" s="52"/>
-      <c r="F170" s="52"/>
-      <c r="G170" s="52"/>
+      <c r="E170" s="50"/>
+      <c r="F170" s="50"/>
+      <c r="G170" s="50"/>
       <c r="H170" s="4"/>
       <c r="I170" s="4"/>
       <c r="J170" s="4"/>
-      <c r="K170" s="66"/>
+      <c r="K170" s="64"/>
     </row>
     <row r="171" spans="1:11">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="D171" s="4"/>
-      <c r="E171" s="52"/>
-      <c r="F171" s="52"/>
-      <c r="G171" s="52"/>
+      <c r="E171" s="50"/>
+      <c r="F171" s="50"/>
+      <c r="G171" s="50"/>
       <c r="H171" s="4"/>
       <c r="I171" s="4"/>
       <c r="J171" s="4"/>
-      <c r="K171" s="66"/>
+      <c r="K171" s="64"/>
     </row>
     <row r="172" spans="1:11">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="D172" s="4"/>
-      <c r="E172" s="52"/>
-      <c r="F172" s="52"/>
-      <c r="G172" s="52"/>
+      <c r="E172" s="50"/>
+      <c r="F172" s="50"/>
+      <c r="G172" s="50"/>
       <c r="H172" s="4"/>
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
-      <c r="K172" s="66"/>
+      <c r="K172" s="64"/>
     </row>
     <row r="173" spans="1:11">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="D173" s="4"/>
-      <c r="E173" s="52"/>
-      <c r="F173" s="52"/>
-      <c r="G173" s="52"/>
+      <c r="E173" s="50"/>
+      <c r="F173" s="50"/>
+      <c r="G173" s="50"/>
       <c r="H173" s="4"/>
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
-      <c r="K173" s="66"/>
+      <c r="K173" s="64"/>
     </row>
     <row r="174" spans="1:11">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="D174" s="4"/>
-      <c r="E174" s="52"/>
-      <c r="F174" s="52"/>
-      <c r="G174" s="52"/>
+      <c r="E174" s="50"/>
+      <c r="F174" s="50"/>
+      <c r="G174" s="50"/>
       <c r="H174" s="4"/>
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
-      <c r="K174" s="66"/>
+      <c r="K174" s="64"/>
     </row>
     <row r="175" spans="1:11">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="D175" s="4"/>
-      <c r="E175" s="52"/>
-      <c r="F175" s="52"/>
-      <c r="G175" s="52"/>
+      <c r="E175" s="50"/>
+      <c r="F175" s="50"/>
+      <c r="G175" s="50"/>
       <c r="H175" s="4"/>
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
-      <c r="K175" s="66"/>
+      <c r="K175" s="64"/>
     </row>
     <row r="176" spans="1:11">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="D176" s="4"/>
-      <c r="E176" s="52"/>
-      <c r="F176" s="52"/>
-      <c r="G176" s="52"/>
+      <c r="E176" s="50"/>
+      <c r="F176" s="50"/>
+      <c r="G176" s="50"/>
       <c r="H176" s="4"/>
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
-      <c r="K176" s="66"/>
+      <c r="K176" s="64"/>
     </row>
     <row r="177" spans="1:11">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="D177" s="4"/>
-      <c r="E177" s="52"/>
-      <c r="F177" s="52"/>
-      <c r="G177" s="52"/>
+      <c r="E177" s="50"/>
+      <c r="F177" s="50"/>
+      <c r="G177" s="50"/>
       <c r="H177" s="4"/>
       <c r="I177" s="4"/>
       <c r="J177" s="4"/>
-      <c r="K177" s="66"/>
+      <c r="K177" s="64"/>
     </row>
     <row r="178" spans="1:11">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="D178" s="4"/>
-      <c r="E178" s="52"/>
-      <c r="F178" s="52"/>
-      <c r="G178" s="52"/>
+      <c r="E178" s="50"/>
+      <c r="F178" s="50"/>
+      <c r="G178" s="50"/>
       <c r="H178" s="4"/>
       <c r="I178" s="4"/>
       <c r="J178" s="4"/>
-      <c r="K178" s="66"/>
+      <c r="K178" s="64"/>
     </row>
     <row r="179" spans="1:11">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="D179" s="4"/>
-      <c r="E179" s="52"/>
-      <c r="F179" s="52"/>
-      <c r="G179" s="52"/>
+      <c r="E179" s="50"/>
+      <c r="F179" s="50"/>
+      <c r="G179" s="50"/>
       <c r="H179" s="4"/>
       <c r="I179" s="4"/>
       <c r="J179" s="4"/>
-      <c r="K179" s="66"/>
+      <c r="K179" s="64"/>
     </row>
     <row r="180" spans="1:11">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="D180" s="4"/>
-      <c r="E180" s="52"/>
-      <c r="F180" s="52"/>
-      <c r="G180" s="52"/>
+      <c r="E180" s="50"/>
+      <c r="F180" s="50"/>
+      <c r="G180" s="50"/>
       <c r="H180" s="4"/>
       <c r="I180" s="4"/>
       <c r="J180" s="4"/>
-      <c r="K180" s="66"/>
+      <c r="K180" s="64"/>
     </row>
     <row r="181" spans="1:11">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="D181" s="4"/>
-      <c r="E181" s="52"/>
-      <c r="F181" s="52"/>
-      <c r="G181" s="52"/>
+      <c r="E181" s="50"/>
+      <c r="F181" s="50"/>
+      <c r="G181" s="50"/>
       <c r="H181" s="4"/>
       <c r="I181" s="4"/>
       <c r="J181" s="4"/>
-      <c r="K181" s="66"/>
+      <c r="K181" s="64"/>
     </row>
     <row r="182" spans="1:11">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="D182" s="4"/>
-      <c r="E182" s="52"/>
-      <c r="F182" s="52"/>
-      <c r="G182" s="52"/>
+      <c r="E182" s="50"/>
+      <c r="F182" s="50"/>
+      <c r="G182" s="50"/>
       <c r="H182" s="4"/>
       <c r="I182" s="4"/>
       <c r="J182" s="4"/>
-      <c r="K182" s="66"/>
+      <c r="K182" s="64"/>
     </row>
     <row r="183" spans="1:11">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="D183" s="4"/>
-      <c r="E183" s="52"/>
-      <c r="F183" s="52"/>
-      <c r="G183" s="52"/>
+      <c r="E183" s="50"/>
+      <c r="F183" s="50"/>
+      <c r="G183" s="50"/>
       <c r="H183" s="4"/>
       <c r="I183" s="4"/>
       <c r="J183" s="4"/>
-      <c r="K183" s="66"/>
+      <c r="K183" s="64"/>
     </row>
     <row r="184" spans="1:11">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="D184" s="4"/>
-      <c r="E184" s="52"/>
-      <c r="F184" s="52"/>
-      <c r="G184" s="52"/>
+      <c r="E184" s="50"/>
+      <c r="F184" s="50"/>
+      <c r="G184" s="50"/>
       <c r="H184" s="4"/>
       <c r="I184" s="4"/>
       <c r="J184" s="4"/>
-      <c r="K184" s="66"/>
+      <c r="K184" s="64"/>
     </row>
     <row r="185" spans="1:11">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="D185" s="4"/>
-      <c r="E185" s="52"/>
-      <c r="F185" s="52"/>
-      <c r="G185" s="52"/>
+      <c r="E185" s="50"/>
+      <c r="F185" s="50"/>
+      <c r="G185" s="50"/>
       <c r="H185" s="4"/>
       <c r="I185" s="4"/>
       <c r="J185" s="4"/>
-      <c r="K185" s="66"/>
+      <c r="K185" s="64"/>
     </row>
     <row r="186" spans="1:11">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="D186" s="4"/>
-      <c r="E186" s="52"/>
-      <c r="F186" s="52"/>
-      <c r="G186" s="52"/>
+      <c r="E186" s="50"/>
+      <c r="F186" s="50"/>
+      <c r="G186" s="50"/>
       <c r="H186" s="4"/>
       <c r="I186" s="4"/>
       <c r="J186" s="4"/>
-      <c r="K186" s="66"/>
+      <c r="K186" s="64"/>
     </row>
     <row r="187" spans="1:11">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="D187" s="4"/>
-      <c r="E187" s="52"/>
-      <c r="F187" s="52"/>
-      <c r="G187" s="52"/>
+      <c r="E187" s="50"/>
+      <c r="F187" s="50"/>
+      <c r="G187" s="50"/>
       <c r="H187" s="4"/>
       <c r="I187" s="4"/>
       <c r="J187" s="4"/>
-      <c r="K187" s="66"/>
+      <c r="K187" s="64"/>
     </row>
     <row r="188" spans="1:11">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="D188" s="4"/>
-      <c r="E188" s="52"/>
-      <c r="F188" s="52"/>
-      <c r="G188" s="52"/>
+      <c r="E188" s="50"/>
+      <c r="F188" s="50"/>
+      <c r="G188" s="50"/>
       <c r="H188" s="4"/>
       <c r="I188" s="4"/>
       <c r="J188" s="4"/>
-      <c r="K188" s="66"/>
+      <c r="K188" s="64"/>
     </row>
     <row r="189" spans="1:11">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="D189" s="4"/>
-      <c r="E189" s="52"/>
-      <c r="F189" s="52"/>
-      <c r="G189" s="52"/>
+      <c r="E189" s="50"/>
+      <c r="F189" s="50"/>
+      <c r="G189" s="50"/>
       <c r="H189" s="4"/>
       <c r="I189" s="4"/>
       <c r="J189" s="4"/>
-      <c r="K189" s="66"/>
+      <c r="K189" s="64"/>
     </row>
     <row r="190" spans="1:11">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="D190" s="4"/>
-      <c r="E190" s="52"/>
-      <c r="F190" s="52"/>
-      <c r="G190" s="52"/>
+      <c r="E190" s="50"/>
+      <c r="F190" s="50"/>
+      <c r="G190" s="50"/>
       <c r="H190" s="4"/>
       <c r="I190" s="4"/>
       <c r="J190" s="4"/>
-      <c r="K190" s="66"/>
+      <c r="K190" s="64"/>
     </row>
     <row r="191" spans="1:11">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="D191" s="4"/>
-      <c r="E191" s="52"/>
-      <c r="F191" s="52"/>
-      <c r="G191" s="52"/>
+      <c r="E191" s="50"/>
+      <c r="F191" s="50"/>
+      <c r="G191" s="50"/>
       <c r="H191" s="4"/>
       <c r="I191" s="4"/>
       <c r="J191" s="4"/>
-      <c r="K191" s="66"/>
+      <c r="K191" s="64"/>
     </row>
     <row r="192" spans="1:11">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="D192" s="4"/>
-      <c r="E192" s="52"/>
-      <c r="F192" s="52"/>
-      <c r="G192" s="52"/>
+      <c r="E192" s="50"/>
+      <c r="F192" s="50"/>
+      <c r="G192" s="50"/>
       <c r="H192" s="4"/>
       <c r="I192" s="4"/>
       <c r="J192" s="4"/>
-      <c r="K192" s="66"/>
+      <c r="K192" s="64"/>
     </row>
     <row r="193" spans="1:11">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="D193" s="4"/>
-      <c r="E193" s="52"/>
-      <c r="F193" s="52"/>
-      <c r="G193" s="52"/>
+      <c r="E193" s="50"/>
+      <c r="F193" s="50"/>
+      <c r="G193" s="50"/>
       <c r="H193" s="4"/>
       <c r="I193" s="4"/>
       <c r="J193" s="4"/>
-      <c r="K193" s="66"/>
+      <c r="K193" s="64"/>
     </row>
     <row r="194" spans="1:11">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="D194" s="4"/>
-      <c r="E194" s="52"/>
-      <c r="F194" s="52"/>
-      <c r="G194" s="52"/>
+      <c r="E194" s="50"/>
+      <c r="F194" s="50"/>
+      <c r="G194" s="50"/>
       <c r="H194" s="4"/>
       <c r="I194" s="4"/>
       <c r="J194" s="4"/>
-      <c r="K194" s="66"/>
+      <c r="K194" s="64"/>
     </row>
     <row r="195" spans="1:11">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="D195" s="4"/>
-      <c r="E195" s="52"/>
-      <c r="F195" s="52"/>
-      <c r="G195" s="52"/>
+      <c r="E195" s="50"/>
+      <c r="F195" s="50"/>
+      <c r="G195" s="50"/>
       <c r="H195" s="4"/>
       <c r="I195" s="4"/>
       <c r="J195" s="4"/>
-      <c r="K195" s="66"/>
+      <c r="K195" s="64"/>
     </row>
     <row r="196" spans="1:11">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="D196" s="4"/>
-      <c r="E196" s="52"/>
-      <c r="F196" s="52"/>
-      <c r="G196" s="52"/>
+      <c r="E196" s="50"/>
+      <c r="F196" s="50"/>
+      <c r="G196" s="50"/>
       <c r="H196" s="4"/>
       <c r="I196" s="4"/>
       <c r="J196" s="4"/>
-      <c r="K196" s="66"/>
+      <c r="K196" s="64"/>
     </row>
     <row r="197" spans="1:11">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="D197" s="4"/>
-      <c r="E197" s="52"/>
-      <c r="F197" s="52"/>
-      <c r="G197" s="52"/>
+      <c r="E197" s="50"/>
+      <c r="F197" s="50"/>
+      <c r="G197" s="50"/>
       <c r="H197" s="4"/>
       <c r="I197" s="4"/>
       <c r="J197" s="4"/>
-      <c r="K197" s="66"/>
+      <c r="K197" s="64"/>
     </row>
     <row r="198" spans="1:11">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="D198" s="4"/>
-      <c r="E198" s="52"/>
-      <c r="F198" s="52"/>
-      <c r="G198" s="52"/>
+      <c r="E198" s="50"/>
+      <c r="F198" s="50"/>
+      <c r="G198" s="50"/>
       <c r="H198" s="4"/>
       <c r="I198" s="4"/>
       <c r="J198" s="4"/>
-      <c r="K198" s="66"/>
+      <c r="K198" s="64"/>
     </row>
     <row r="199" spans="1:11">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="D199" s="4"/>
-      <c r="E199" s="52"/>
-      <c r="F199" s="52"/>
-      <c r="G199" s="52"/>
+      <c r="E199" s="50"/>
+      <c r="F199" s="50"/>
+      <c r="G199" s="50"/>
       <c r="H199" s="4"/>
       <c r="I199" s="4"/>
       <c r="J199" s="4"/>
-      <c r="K199" s="66"/>
+      <c r="K199" s="64"/>
     </row>
     <row r="200" spans="1:11">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="D200" s="4"/>
-      <c r="E200" s="52"/>
-      <c r="F200" s="52"/>
-      <c r="G200" s="52"/>
+      <c r="E200" s="50"/>
+      <c r="F200" s="50"/>
+      <c r="G200" s="50"/>
       <c r="H200" s="4"/>
       <c r="I200" s="4"/>
       <c r="J200" s="4"/>
-      <c r="K200" s="66"/>
+      <c r="K200" s="64"/>
     </row>
     <row r="201" spans="1:11">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="D201" s="4"/>
-      <c r="E201" s="52"/>
-      <c r="F201" s="52"/>
-      <c r="G201" s="52"/>
+      <c r="E201" s="50"/>
+      <c r="F201" s="50"/>
+      <c r="G201" s="50"/>
       <c r="H201" s="4"/>
       <c r="I201" s="4"/>
       <c r="J201" s="4"/>
-      <c r="K201" s="66"/>
+      <c r="K201" s="64"/>
     </row>
     <row r="202" spans="1:11">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="D202" s="4"/>
-      <c r="E202" s="52"/>
-      <c r="F202" s="52"/>
-      <c r="G202" s="52"/>
+      <c r="E202" s="50"/>
+      <c r="F202" s="50"/>
+      <c r="G202" s="50"/>
       <c r="H202" s="4"/>
       <c r="I202" s="4"/>
       <c r="J202" s="4"/>
-      <c r="K202" s="66"/>
+      <c r="K202" s="64"/>
     </row>
     <row r="203" spans="1:11">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="D203" s="4"/>
-      <c r="E203" s="52"/>
-      <c r="F203" s="52"/>
-      <c r="G203" s="52"/>
+      <c r="E203" s="50"/>
+      <c r="F203" s="50"/>
+      <c r="G203" s="50"/>
       <c r="H203" s="4"/>
       <c r="I203" s="4"/>
       <c r="J203" s="4"/>
-      <c r="K203" s="66"/>
+      <c r="K203" s="64"/>
     </row>
     <row r="204" spans="1:11">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="D204" s="4"/>
-      <c r="E204" s="52"/>
-      <c r="F204" s="52"/>
-      <c r="G204" s="52"/>
+      <c r="E204" s="50"/>
+      <c r="F204" s="50"/>
+      <c r="G204" s="50"/>
       <c r="H204" s="4"/>
       <c r="I204" s="4"/>
       <c r="J204" s="4"/>
-      <c r="K204" s="66"/>
+      <c r="K204" s="64"/>
     </row>
     <row r="205" spans="1:11">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="D205" s="4"/>
-      <c r="E205" s="52"/>
-      <c r="F205" s="52"/>
-      <c r="G205" s="52"/>
+      <c r="E205" s="50"/>
+      <c r="F205" s="50"/>
+      <c r="G205" s="50"/>
       <c r="H205" s="4"/>
       <c r="I205" s="4"/>
       <c r="J205" s="4"/>
-      <c r="K205" s="66"/>
+      <c r="K205" s="64"/>
     </row>
     <row r="206" spans="1:11">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="D206" s="4"/>
-      <c r="E206" s="52"/>
-      <c r="F206" s="52"/>
-      <c r="G206" s="52"/>
+      <c r="E206" s="50"/>
+      <c r="F206" s="50"/>
+      <c r="G206" s="50"/>
       <c r="H206" s="4"/>
       <c r="I206" s="4"/>
       <c r="J206" s="4"/>
-      <c r="K206" s="66"/>
+      <c r="K206" s="64"/>
     </row>
     <row r="207" spans="1:11">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="D207" s="4"/>
-      <c r="E207" s="52"/>
-      <c r="F207" s="52"/>
-      <c r="G207" s="52"/>
+      <c r="E207" s="50"/>
+      <c r="F207" s="50"/>
+      <c r="G207" s="50"/>
       <c r="H207" s="4"/>
       <c r="I207" s="4"/>
       <c r="J207" s="4"/>
-      <c r="K207" s="66"/>
+      <c r="K207" s="64"/>
     </row>
     <row r="208" spans="1:11">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="D208" s="4"/>
-      <c r="E208" s="52"/>
-      <c r="F208" s="52"/>
-      <c r="G208" s="52"/>
+      <c r="E208" s="50"/>
+      <c r="F208" s="50"/>
+      <c r="G208" s="50"/>
       <c r="H208" s="4"/>
       <c r="I208" s="4"/>
       <c r="J208" s="4"/>
-      <c r="K208" s="66"/>
+      <c r="K208" s="64"/>
     </row>
     <row r="209" spans="1:11">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="D209" s="4"/>
-      <c r="E209" s="52"/>
-      <c r="F209" s="52"/>
-      <c r="G209" s="52"/>
+      <c r="E209" s="50"/>
+      <c r="F209" s="50"/>
+      <c r="G209" s="50"/>
       <c r="H209" s="4"/>
       <c r="I209" s="4"/>
       <c r="J209" s="4"/>
-      <c r="K209" s="66"/>
+      <c r="K209" s="64"/>
     </row>
     <row r="210" spans="1:11">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="D210" s="4"/>
-      <c r="E210" s="52"/>
-      <c r="F210" s="52"/>
-      <c r="G210" s="52"/>
+      <c r="E210" s="50"/>
+      <c r="F210" s="50"/>
+      <c r="G210" s="50"/>
       <c r="H210" s="4"/>
       <c r="I210" s="4"/>
       <c r="J210" s="4"/>
-      <c r="K210" s="66"/>
+      <c r="K210" s="64"/>
     </row>
     <row r="211" spans="1:11">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="D211" s="4"/>
-      <c r="E211" s="52"/>
-      <c r="F211" s="52"/>
-      <c r="G211" s="52"/>
+      <c r="E211" s="50"/>
+      <c r="F211" s="50"/>
+      <c r="G211" s="50"/>
       <c r="H211" s="4"/>
       <c r="I211" s="4"/>
       <c r="J211" s="4"/>
-      <c r="K211" s="66"/>
+      <c r="K211" s="64"/>
     </row>
     <row r="212" spans="1:11">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="D212" s="4"/>
-      <c r="E212" s="52"/>
-      <c r="F212" s="52"/>
-      <c r="G212" s="52"/>
+      <c r="E212" s="50"/>
+      <c r="F212" s="50"/>
+      <c r="G212" s="50"/>
       <c r="H212" s="4"/>
       <c r="I212" s="4"/>
       <c r="J212" s="4"/>
-      <c r="K212" s="66"/>
+      <c r="K212" s="64"/>
     </row>
     <row r="213" spans="1:11">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="D213" s="4"/>
-      <c r="E213" s="52"/>
-      <c r="F213" s="52"/>
-      <c r="G213" s="52"/>
+      <c r="E213" s="50"/>
+      <c r="F213" s="50"/>
+      <c r="G213" s="50"/>
       <c r="H213" s="4"/>
       <c r="I213" s="4"/>
       <c r="J213" s="4"/>
-      <c r="K213" s="66"/>
+      <c r="K213" s="64"/>
     </row>
     <row r="214" spans="1:11">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="D214" s="4"/>
-      <c r="E214" s="52"/>
-      <c r="F214" s="52"/>
-      <c r="G214" s="52"/>
+      <c r="E214" s="50"/>
+      <c r="F214" s="50"/>
+      <c r="G214" s="50"/>
       <c r="H214" s="4"/>
       <c r="I214" s="4"/>
       <c r="J214" s="4"/>
-      <c r="K214" s="66"/>
+      <c r="K214" s="64"/>
     </row>
     <row r="215" spans="1:11">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="D215" s="4"/>
-      <c r="E215" s="52"/>
-      <c r="F215" s="52"/>
-      <c r="G215" s="52"/>
+      <c r="E215" s="50"/>
+      <c r="F215" s="50"/>
+      <c r="G215" s="50"/>
       <c r="H215" s="4"/>
       <c r="I215" s="4"/>
       <c r="J215" s="4"/>
-      <c r="K215" s="66"/>
+      <c r="K215" s="64"/>
     </row>
     <row r="216" spans="1:11">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="D216" s="4"/>
-      <c r="E216" s="52"/>
-      <c r="F216" s="52"/>
-      <c r="G216" s="52"/>
+      <c r="E216" s="50"/>
+      <c r="F216" s="50"/>
+      <c r="G216" s="50"/>
       <c r="H216" s="4"/>
       <c r="I216" s="4"/>
       <c r="J216" s="4"/>
-      <c r="K216" s="66"/>
+      <c r="K216" s="64"/>
     </row>
     <row r="217" spans="1:11">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="D217" s="4"/>
-      <c r="E217" s="52"/>
-      <c r="F217" s="52"/>
-      <c r="G217" s="52"/>
+      <c r="E217" s="50"/>
+      <c r="F217" s="50"/>
+      <c r="G217" s="50"/>
       <c r="H217" s="4"/>
       <c r="I217" s="4"/>
       <c r="J217" s="4"/>
-      <c r="K217" s="66"/>
+      <c r="K217" s="64"/>
     </row>
     <row r="218" spans="1:11">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="D218" s="4"/>
-      <c r="E218" s="52"/>
-      <c r="F218" s="52"/>
-      <c r="G218" s="52"/>
+      <c r="E218" s="50"/>
+      <c r="F218" s="50"/>
+      <c r="G218" s="50"/>
       <c r="H218" s="4"/>
       <c r="I218" s="4"/>
       <c r="J218" s="4"/>
-      <c r="K218" s="66"/>
+      <c r="K218" s="64"/>
     </row>
     <row r="219" spans="1:11">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="D219" s="4"/>
-      <c r="E219" s="52"/>
-      <c r="F219" s="52"/>
-      <c r="G219" s="52"/>
+      <c r="E219" s="50"/>
+      <c r="F219" s="50"/>
+      <c r="G219" s="50"/>
       <c r="H219" s="4"/>
       <c r="I219" s="4"/>
       <c r="J219" s="4"/>
-      <c r="K219" s="66"/>
+      <c r="K219" s="64"/>
     </row>
     <row r="220" spans="1:11">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="D220" s="4"/>
-      <c r="E220" s="52"/>
-      <c r="F220" s="52"/>
-      <c r="G220" s="52"/>
+      <c r="E220" s="50"/>
+      <c r="F220" s="50"/>
+      <c r="G220" s="50"/>
       <c r="H220" s="4"/>
       <c r="I220" s="4"/>
       <c r="J220" s="4"/>
-      <c r="K220" s="66"/>
+      <c r="K220" s="64"/>
     </row>
     <row r="221" spans="1:11">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="D221" s="4"/>
-      <c r="E221" s="52"/>
-      <c r="F221" s="52"/>
-      <c r="G221" s="52"/>
+      <c r="E221" s="50"/>
+      <c r="F221" s="50"/>
+      <c r="G221" s="50"/>
       <c r="H221" s="4"/>
       <c r="I221" s="4"/>
       <c r="J221" s="4"/>
-      <c r="K221" s="66"/>
+      <c r="K221" s="64"/>
     </row>
     <row r="222" spans="1:11">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="D222" s="4"/>
-      <c r="E222" s="52"/>
-      <c r="F222" s="52"/>
-      <c r="G222" s="52"/>
+      <c r="E222" s="50"/>
+      <c r="F222" s="50"/>
+      <c r="G222" s="50"/>
       <c r="H222" s="4"/>
       <c r="I222" s="4"/>
       <c r="J222" s="4"/>
-      <c r="K222" s="66"/>
+      <c r="K222" s="64"/>
     </row>
     <row r="223" spans="1:11">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="D223" s="4"/>
-      <c r="E223" s="52"/>
-      <c r="F223" s="52"/>
-      <c r="G223" s="52"/>
+      <c r="E223" s="50"/>
+      <c r="F223" s="50"/>
+      <c r="G223" s="50"/>
       <c r="H223" s="4"/>
       <c r="I223" s="4"/>
       <c r="J223" s="4"/>
-      <c r="K223" s="66"/>
+      <c r="K223" s="64"/>
     </row>
     <row r="224" spans="1:11">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="D224" s="4"/>
-      <c r="E224" s="52"/>
-      <c r="F224" s="52"/>
-      <c r="G224" s="52"/>
+      <c r="E224" s="50"/>
+      <c r="F224" s="50"/>
+      <c r="G224" s="50"/>
       <c r="H224" s="4"/>
       <c r="I224" s="4"/>
       <c r="J224" s="4"/>
-      <c r="K224" s="66"/>
+      <c r="K224" s="64"/>
     </row>
     <row r="225" spans="1:11">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="D225" s="4"/>
-      <c r="E225" s="52"/>
-      <c r="F225" s="52"/>
-      <c r="G225" s="52"/>
+      <c r="E225" s="50"/>
+      <c r="F225" s="50"/>
+      <c r="G225" s="50"/>
       <c r="H225" s="4"/>
       <c r="I225" s="4"/>
       <c r="J225" s="4"/>
-      <c r="K225" s="66"/>
+      <c r="K225" s="64"/>
     </row>
     <row r="226" spans="1:11">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="D226" s="4"/>
-      <c r="E226" s="52"/>
-      <c r="F226" s="52"/>
-      <c r="G226" s="52"/>
+      <c r="E226" s="50"/>
+      <c r="F226" s="50"/>
+      <c r="G226" s="50"/>
       <c r="H226" s="4"/>
       <c r="I226" s="4"/>
       <c r="J226" s="4"/>
-      <c r="K226" s="66"/>
+      <c r="K226" s="64"/>
     </row>
     <row r="227" spans="1:11">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="D227" s="4"/>
-      <c r="E227" s="52"/>
-      <c r="F227" s="52"/>
-      <c r="G227" s="52"/>
+      <c r="E227" s="50"/>
+      <c r="F227" s="50"/>
+      <c r="G227" s="50"/>
       <c r="H227" s="4"/>
       <c r="I227" s="4"/>
       <c r="J227" s="4"/>
-      <c r="K227" s="66"/>
+      <c r="K227" s="64"/>
     </row>
     <row r="228" spans="1:11">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="D228" s="4"/>
-      <c r="E228" s="52"/>
-      <c r="F228" s="52"/>
-      <c r="G228" s="52"/>
+      <c r="E228" s="50"/>
+      <c r="F228" s="50"/>
+      <c r="G228" s="50"/>
       <c r="H228" s="4"/>
       <c r="I228" s="4"/>
       <c r="J228" s="4"/>
-      <c r="K228" s="66"/>
+      <c r="K228" s="64"/>
     </row>
     <row r="229" spans="1:11">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="D229" s="4"/>
-      <c r="E229" s="52"/>
-      <c r="F229" s="52"/>
-      <c r="G229" s="52"/>
+      <c r="E229" s="50"/>
+      <c r="F229" s="50"/>
+      <c r="G229" s="50"/>
       <c r="H229" s="4"/>
       <c r="I229" s="4"/>
       <c r="J229" s="4"/>
-      <c r="K229" s="66"/>
+      <c r="K229" s="64"/>
     </row>
     <row r="230" spans="1:11">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="D230" s="4"/>
-      <c r="E230" s="52"/>
-      <c r="F230" s="52"/>
-      <c r="G230" s="52"/>
+      <c r="E230" s="50"/>
+      <c r="F230" s="50"/>
+      <c r="G230" s="50"/>
       <c r="H230" s="4"/>
       <c r="I230" s="4"/>
       <c r="J230" s="4"/>
-      <c r="K230" s="66"/>
+      <c r="K230" s="64"/>
     </row>
     <row r="231" spans="1:11">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="D231" s="4"/>
-      <c r="E231" s="52"/>
-      <c r="F231" s="52"/>
-      <c r="G231" s="52"/>
+      <c r="E231" s="50"/>
+      <c r="F231" s="50"/>
+      <c r="G231" s="50"/>
       <c r="H231" s="4"/>
       <c r="I231" s="4"/>
       <c r="J231" s="4"/>
-      <c r="K231" s="66"/>
+      <c r="K231" s="64"/>
     </row>
     <row r="232" spans="1:11">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="D232" s="4"/>
-      <c r="E232" s="52"/>
-      <c r="F232" s="52"/>
-      <c r="G232" s="52"/>
+      <c r="E232" s="50"/>
+      <c r="F232" s="50"/>
+      <c r="G232" s="50"/>
       <c r="H232" s="4"/>
       <c r="I232" s="4"/>
       <c r="J232" s="4"/>
-      <c r="K232" s="66"/>
+      <c r="K232" s="64"/>
     </row>
     <row r="233" spans="1:11">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="D233" s="4"/>
-      <c r="E233" s="52"/>
-      <c r="F233" s="52"/>
-      <c r="G233" s="52"/>
+      <c r="E233" s="50"/>
+      <c r="F233" s="50"/>
+      <c r="G233" s="50"/>
       <c r="H233" s="4"/>
       <c r="I233" s="4"/>
       <c r="J233" s="4"/>
-      <c r="K233" s="66"/>
+      <c r="K233" s="64"/>
     </row>
     <row r="234" spans="1:11">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="D234" s="4"/>
-      <c r="E234" s="52"/>
-      <c r="F234" s="52"/>
-      <c r="G234" s="52"/>
+      <c r="E234" s="50"/>
+      <c r="F234" s="50"/>
+      <c r="G234" s="50"/>
       <c r="H234" s="4"/>
       <c r="I234" s="4"/>
       <c r="J234" s="4"/>
-      <c r="K234" s="66"/>
+      <c r="K234" s="64"/>
     </row>
     <row r="235" spans="1:11">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="D235" s="4"/>
-      <c r="E235" s="52"/>
-      <c r="F235" s="52"/>
-      <c r="G235" s="52"/>
+      <c r="E235" s="50"/>
+      <c r="F235" s="50"/>
+      <c r="G235" s="50"/>
       <c r="H235" s="4"/>
       <c r="I235" s="4"/>
       <c r="J235" s="4"/>
-      <c r="K235" s="66"/>
+      <c r="K235" s="64"/>
     </row>
     <row r="236" spans="1:11">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="D236" s="4"/>
-      <c r="E236" s="52"/>
-      <c r="F236" s="52"/>
-      <c r="G236" s="52"/>
+      <c r="E236" s="50"/>
+      <c r="F236" s="50"/>
+      <c r="G236" s="50"/>
       <c r="H236" s="4"/>
       <c r="I236" s="4"/>
       <c r="J236" s="4"/>
-      <c r="K236" s="66"/>
+      <c r="K236" s="64"/>
     </row>
     <row r="237" spans="1:11">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="D237" s="4"/>
-      <c r="E237" s="52"/>
-      <c r="F237" s="52"/>
-      <c r="G237" s="52"/>
+      <c r="E237" s="50"/>
+      <c r="F237" s="50"/>
+      <c r="G237" s="50"/>
       <c r="H237" s="4"/>
       <c r="I237" s="4"/>
       <c r="J237" s="4"/>
-      <c r="K237" s="66"/>
+      <c r="K237" s="64"/>
     </row>
     <row r="238" spans="1:11">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="D238" s="4"/>
-      <c r="E238" s="52"/>
-      <c r="F238" s="52"/>
-      <c r="G238" s="52"/>
+      <c r="E238" s="50"/>
+      <c r="F238" s="50"/>
+      <c r="G238" s="50"/>
       <c r="H238" s="4"/>
       <c r="I238" s="4"/>
       <c r="J238" s="4"/>
-      <c r="K238" s="66"/>
+      <c r="K238" s="64"/>
     </row>
     <row r="239" spans="1:11">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="D239" s="4"/>
-      <c r="E239" s="52"/>
-      <c r="F239" s="52"/>
-      <c r="G239" s="52"/>
+      <c r="E239" s="50"/>
+      <c r="F239" s="50"/>
+      <c r="G239" s="50"/>
       <c r="H239" s="4"/>
       <c r="I239" s="4"/>
       <c r="J239" s="4"/>
-      <c r="K239" s="66"/>
+      <c r="K239" s="64"/>
     </row>
     <row r="240" spans="1:11">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="D240" s="4"/>
-      <c r="E240" s="52"/>
-      <c r="F240" s="52"/>
-      <c r="G240" s="52"/>
+      <c r="E240" s="50"/>
+      <c r="F240" s="50"/>
+      <c r="G240" s="50"/>
       <c r="H240" s="4"/>
       <c r="I240" s="4"/>
       <c r="J240" s="4"/>
-      <c r="K240" s="66"/>
+      <c r="K240" s="64"/>
     </row>
     <row r="241" spans="1:11">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="D241" s="4"/>
-      <c r="E241" s="52"/>
-      <c r="F241" s="52"/>
-      <c r="G241" s="52"/>
+      <c r="E241" s="50"/>
+      <c r="F241" s="50"/>
+      <c r="G241" s="50"/>
       <c r="H241" s="4"/>
       <c r="I241" s="4"/>
       <c r="J241" s="4"/>
-      <c r="K241" s="66"/>
+      <c r="K241" s="64"/>
     </row>
     <row r="242" spans="1:11">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="D242" s="4"/>
-      <c r="E242" s="52"/>
-      <c r="F242" s="52"/>
-      <c r="G242" s="52"/>
+      <c r="E242" s="50"/>
+      <c r="F242" s="50"/>
+      <c r="G242" s="50"/>
       <c r="H242" s="4"/>
       <c r="I242" s="4"/>
       <c r="J242" s="4"/>
-      <c r="K242" s="66"/>
+      <c r="K242" s="64"/>
     </row>
     <row r="243" spans="1:11">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="D243" s="4"/>
-      <c r="E243" s="52"/>
-      <c r="F243" s="52"/>
-      <c r="G243" s="52"/>
+      <c r="E243" s="50"/>
+      <c r="F243" s="50"/>
+      <c r="G243" s="50"/>
       <c r="H243" s="4"/>
       <c r="I243" s="4"/>
       <c r="J243" s="4"/>
-      <c r="K243" s="66"/>
+      <c r="K243" s="64"/>
     </row>
     <row r="244" spans="1:11">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="D244" s="4"/>
-      <c r="E244" s="52"/>
-      <c r="F244" s="52"/>
-      <c r="G244" s="52"/>
+      <c r="E244" s="50"/>
+      <c r="F244" s="50"/>
+      <c r="G244" s="50"/>
       <c r="H244" s="4"/>
       <c r="I244" s="4"/>
       <c r="J244" s="4"/>
-      <c r="K244" s="66"/>
+      <c r="K244" s="64"/>
     </row>
     <row r="245" spans="1:11">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="D245" s="4"/>
-      <c r="E245" s="52"/>
-      <c r="F245" s="52"/>
-      <c r="G245" s="52"/>
+      <c r="E245" s="50"/>
+      <c r="F245" s="50"/>
+      <c r="G245" s="50"/>
       <c r="H245" s="4"/>
       <c r="I245" s="4"/>
       <c r="J245" s="4"/>
-      <c r="K245" s="66"/>
+      <c r="K245" s="64"/>
     </row>
     <row r="246" spans="1:11">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="D246" s="4"/>
-      <c r="E246" s="52"/>
-      <c r="F246" s="52"/>
-      <c r="G246" s="52"/>
+      <c r="E246" s="50"/>
+      <c r="F246" s="50"/>
+      <c r="G246" s="50"/>
       <c r="H246" s="4"/>
       <c r="I246" s="4"/>
       <c r="J246" s="4"/>
-      <c r="K246" s="66"/>
+      <c r="K246" s="64"/>
     </row>
     <row r="247" spans="1:11">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="D247" s="4"/>
-      <c r="E247" s="52"/>
-      <c r="F247" s="52"/>
-      <c r="G247" s="52"/>
+      <c r="E247" s="50"/>
+      <c r="F247" s="50"/>
+      <c r="G247" s="50"/>
       <c r="H247" s="4"/>
       <c r="I247" s="4"/>
       <c r="J247" s="4"/>
-      <c r="K247" s="66"/>
+      <c r="K247" s="64"/>
     </row>
     <row r="248" spans="1:11">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="D248" s="4"/>
-      <c r="E248" s="52"/>
-      <c r="F248" s="52"/>
-      <c r="G248" s="52"/>
+      <c r="E248" s="50"/>
+      <c r="F248" s="50"/>
+      <c r="G248" s="50"/>
       <c r="H248" s="4"/>
       <c r="I248" s="4"/>
       <c r="J248" s="4"/>
-      <c r="K248" s="66"/>
+      <c r="K248" s="64"/>
     </row>
     <row r="249" spans="1:11">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="D249" s="4"/>
-      <c r="E249" s="52"/>
-      <c r="F249" s="52"/>
-      <c r="G249" s="52"/>
+      <c r="E249" s="50"/>
+      <c r="F249" s="50"/>
+      <c r="G249" s="50"/>
       <c r="H249" s="4"/>
       <c r="I249" s="4"/>
       <c r="J249" s="4"/>
-      <c r="K249" s="66"/>
+      <c r="K249" s="64"/>
     </row>
     <row r="250" spans="1:11">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="D250" s="4"/>
-      <c r="E250" s="52"/>
-      <c r="F250" s="52"/>
-      <c r="G250" s="52"/>
+      <c r="E250" s="50"/>
+      <c r="F250" s="50"/>
+      <c r="G250" s="50"/>
       <c r="H250" s="4"/>
       <c r="I250" s="4"/>
       <c r="J250" s="4"/>
-      <c r="K250" s="66"/>
+      <c r="K250" s="64"/>
     </row>
     <row r="251" spans="1:11">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="D251" s="4"/>
-      <c r="E251" s="52"/>
-      <c r="F251" s="52"/>
-      <c r="G251" s="52"/>
+      <c r="E251" s="50"/>
+      <c r="F251" s="50"/>
+      <c r="G251" s="50"/>
       <c r="H251" s="4"/>
       <c r="I251" s="4"/>
       <c r="J251" s="4"/>
-      <c r="K251" s="66"/>
+      <c r="K251" s="64"/>
     </row>
     <row r="252" spans="1:11">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="D252" s="4"/>
-      <c r="E252" s="52"/>
-      <c r="F252" s="52"/>
-      <c r="G252" s="52"/>
+      <c r="E252" s="50"/>
+      <c r="F252" s="50"/>
+      <c r="G252" s="50"/>
       <c r="H252" s="4"/>
       <c r="I252" s="4"/>
       <c r="J252" s="4"/>
-      <c r="K252" s="66"/>
+      <c r="K252" s="64"/>
     </row>
     <row r="253" spans="1:11">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="D253" s="4"/>
-      <c r="E253" s="52"/>
-      <c r="F253" s="52"/>
-      <c r="G253" s="52"/>
+      <c r="E253" s="50"/>
+      <c r="F253" s="50"/>
+      <c r="G253" s="50"/>
       <c r="H253" s="4"/>
       <c r="I253" s="4"/>
       <c r="J253" s="4"/>
-      <c r="K253" s="66"/>
+      <c r="K253" s="64"/>
     </row>
     <row r="254" spans="1:11">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="D254" s="4"/>
-      <c r="E254" s="52"/>
-      <c r="F254" s="52"/>
-      <c r="G254" s="52"/>
+      <c r="E254" s="50"/>
+      <c r="F254" s="50"/>
+      <c r="G254" s="50"/>
       <c r="H254" s="4"/>
       <c r="I254" s="4"/>
       <c r="J254" s="4"/>
-      <c r="K254" s="66"/>
+      <c r="K254" s="64"/>
     </row>
     <row r="255" spans="1:11">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="D255" s="4"/>
-      <c r="E255" s="52"/>
-      <c r="F255" s="52"/>
-      <c r="G255" s="52"/>
+      <c r="E255" s="50"/>
+      <c r="F255" s="50"/>
+      <c r="G255" s="50"/>
       <c r="H255" s="4"/>
       <c r="I255" s="4"/>
       <c r="J255" s="4"/>
-      <c r="K255" s="66"/>
+      <c r="K255" s="64"/>
     </row>
     <row r="256" spans="1:11">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="D256" s="4"/>
-      <c r="E256" s="52"/>
-      <c r="F256" s="52"/>
-      <c r="G256" s="52"/>
+      <c r="E256" s="50"/>
+      <c r="F256" s="50"/>
+      <c r="G256" s="50"/>
       <c r="H256" s="4"/>
       <c r="I256" s="4"/>
       <c r="J256" s="4"/>
-      <c r="K256" s="66"/>
+      <c r="K256" s="64"/>
     </row>
     <row r="257" spans="1:11">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="D257" s="4"/>
-      <c r="E257" s="52"/>
-      <c r="F257" s="52"/>
-      <c r="G257" s="52"/>
+      <c r="E257" s="50"/>
+      <c r="F257" s="50"/>
+      <c r="G257" s="50"/>
       <c r="H257" s="4"/>
       <c r="I257" s="4"/>
       <c r="J257" s="4"/>
-      <c r="K257" s="66"/>
+      <c r="K257" s="64"/>
     </row>
     <row r="258" spans="1:11">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="D258" s="4"/>
-      <c r="E258" s="52"/>
-      <c r="F258" s="52"/>
-      <c r="G258" s="52"/>
+      <c r="E258" s="50"/>
+      <c r="F258" s="50"/>
+      <c r="G258" s="50"/>
       <c r="H258" s="4"/>
       <c r="I258" s="4"/>
       <c r="J258" s="4"/>
-      <c r="K258" s="66"/>
+      <c r="K258" s="64"/>
     </row>
     <row r="259" spans="1:11">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="D259" s="4"/>
-      <c r="E259" s="52"/>
-      <c r="F259" s="52"/>
-      <c r="G259" s="52"/>
+      <c r="E259" s="50"/>
+      <c r="F259" s="50"/>
+      <c r="G259" s="50"/>
       <c r="H259" s="4"/>
       <c r="I259" s="4"/>
       <c r="J259" s="4"/>
-      <c r="K259" s="66"/>
+      <c r="K259" s="64"/>
     </row>
     <row r="260" spans="1:11">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="D260" s="4"/>
-      <c r="E260" s="52"/>
-      <c r="F260" s="52"/>
-      <c r="G260" s="52"/>
+      <c r="E260" s="50"/>
+      <c r="F260" s="50"/>
+      <c r="G260" s="50"/>
       <c r="H260" s="4"/>
       <c r="I260" s="4"/>
       <c r="J260" s="4"/>
-      <c r="K260" s="66"/>
+      <c r="K260" s="64"/>
     </row>
     <row r="261" spans="1:11">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="D261" s="4"/>
-      <c r="E261" s="52"/>
-      <c r="F261" s="52"/>
-      <c r="G261" s="52"/>
+      <c r="E261" s="50"/>
+      <c r="F261" s="50"/>
+      <c r="G261" s="50"/>
       <c r="H261" s="4"/>
       <c r="I261" s="4"/>
       <c r="J261" s="4"/>
-      <c r="K261" s="66"/>
+      <c r="K261" s="64"/>
     </row>
     <row r="262" spans="1:11">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="D262" s="4"/>
-      <c r="E262" s="52"/>
-      <c r="F262" s="52"/>
-      <c r="G262" s="52"/>
+      <c r="E262" s="50"/>
+      <c r="F262" s="50"/>
+      <c r="G262" s="50"/>
       <c r="H262" s="4"/>
       <c r="I262" s="4"/>
       <c r="J262" s="4"/>
-      <c r="K262" s="66"/>
+      <c r="K262" s="64"/>
     </row>
     <row r="263" spans="1:11">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="D263" s="4"/>
-      <c r="E263" s="52"/>
-      <c r="F263" s="52"/>
-      <c r="G263" s="52"/>
+      <c r="E263" s="50"/>
+      <c r="F263" s="50"/>
+      <c r="G263" s="50"/>
       <c r="H263" s="4"/>
       <c r="I263" s="4"/>
       <c r="J263" s="4"/>
-      <c r="K263" s="66"/>
+      <c r="K263" s="64"/>
     </row>
     <row r="264" spans="1:11">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="D264" s="4"/>
-      <c r="E264" s="52"/>
-      <c r="F264" s="52"/>
-      <c r="G264" s="52"/>
+      <c r="E264" s="50"/>
+      <c r="F264" s="50"/>
+      <c r="G264" s="50"/>
       <c r="H264" s="4"/>
       <c r="I264" s="4"/>
       <c r="J264" s="4"/>
-      <c r="K264" s="66"/>
+      <c r="K264" s="64"/>
     </row>
     <row r="265" spans="1:11">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="D265" s="4"/>
-      <c r="E265" s="52"/>
-      <c r="F265" s="52"/>
-      <c r="G265" s="52"/>
+      <c r="E265" s="50"/>
+      <c r="F265" s="50"/>
+      <c r="G265" s="50"/>
       <c r="H265" s="4"/>
       <c r="I265" s="4"/>
       <c r="J265" s="4"/>
-      <c r="K265" s="66"/>
+      <c r="K265" s="64"/>
     </row>
     <row r="266" spans="1:11">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="D266" s="4"/>
-      <c r="E266" s="52"/>
-      <c r="F266" s="52"/>
-      <c r="G266" s="52"/>
+      <c r="E266" s="50"/>
+      <c r="F266" s="50"/>
+      <c r="G266" s="50"/>
       <c r="H266" s="4"/>
       <c r="I266" s="4"/>
       <c r="J266" s="4"/>
-      <c r="K266" s="66"/>
+      <c r="K266" s="64"/>
     </row>
     <row r="267" spans="1:11">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="D267" s="4"/>
-      <c r="E267" s="52"/>
-      <c r="F267" s="52"/>
-      <c r="G267" s="52"/>
+      <c r="E267" s="50"/>
+      <c r="F267" s="50"/>
+      <c r="G267" s="50"/>
       <c r="H267" s="4"/>
       <c r="I267" s="4"/>
       <c r="J267" s="4"/>
-      <c r="K267" s="66"/>
+      <c r="K267" s="64"/>
     </row>
     <row r="268" spans="1:11">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="D268" s="4"/>
-      <c r="E268" s="52"/>
-      <c r="F268" s="52"/>
-      <c r="G268" s="52"/>
+      <c r="E268" s="50"/>
+      <c r="F268" s="50"/>
+      <c r="G268" s="50"/>
       <c r="H268" s="4"/>
       <c r="I268" s="4"/>
       <c r="J268" s="4"/>
-      <c r="K268" s="66"/>
+      <c r="K268" s="64"/>
     </row>
     <row r="269" spans="1:11">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="D269" s="4"/>
-      <c r="E269" s="52"/>
-      <c r="F269" s="52"/>
-      <c r="G269" s="52"/>
+      <c r="E269" s="50"/>
+      <c r="F269" s="50"/>
+      <c r="G269" s="50"/>
       <c r="H269" s="4"/>
       <c r="I269" s="4"/>
       <c r="J269" s="4"/>
-      <c r="K269" s="66"/>
+      <c r="K269" s="64"/>
     </row>
     <row r="270" spans="1:11">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="D270" s="4"/>
-      <c r="E270" s="52"/>
-      <c r="F270" s="52"/>
-      <c r="G270" s="52"/>
+      <c r="E270" s="50"/>
+      <c r="F270" s="50"/>
+      <c r="G270" s="50"/>
       <c r="H270" s="4"/>
       <c r="I270" s="4"/>
       <c r="J270" s="4"/>
-      <c r="K270" s="66"/>
+      <c r="K270" s="64"/>
     </row>
     <row r="271" spans="1:11">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="D271" s="4"/>
-      <c r="E271" s="52"/>
-      <c r="F271" s="52"/>
-      <c r="G271" s="52"/>
+      <c r="E271" s="50"/>
+      <c r="F271" s="50"/>
+      <c r="G271" s="50"/>
       <c r="H271" s="4"/>
       <c r="I271" s="4"/>
       <c r="J271" s="4"/>
-      <c r="K271" s="66"/>
+      <c r="K271" s="64"/>
     </row>
     <row r="272" spans="1:11">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="D272" s="4"/>
-      <c r="E272" s="52"/>
-      <c r="F272" s="52"/>
-      <c r="G272" s="52"/>
+      <c r="E272" s="50"/>
+      <c r="F272" s="50"/>
+      <c r="G272" s="50"/>
       <c r="H272" s="4"/>
       <c r="I272" s="4"/>
       <c r="J272" s="4"/>
-      <c r="K272" s="66"/>
+      <c r="K272" s="64"/>
     </row>
     <row r="273" spans="1:11">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="D273" s="4"/>
-      <c r="E273" s="52"/>
-      <c r="F273" s="52"/>
-      <c r="G273" s="52"/>
+      <c r="E273" s="50"/>
+      <c r="F273" s="50"/>
+      <c r="G273" s="50"/>
       <c r="H273" s="4"/>
       <c r="I273" s="4"/>
       <c r="J273" s="4"/>
-      <c r="K273" s="66"/>
+      <c r="K273" s="64"/>
     </row>
     <row r="274" spans="1:11">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="D274" s="4"/>
-      <c r="E274" s="52"/>
-      <c r="F274" s="52"/>
-      <c r="G274" s="52"/>
+      <c r="E274" s="50"/>
+      <c r="F274" s="50"/>
+      <c r="G274" s="50"/>
       <c r="H274" s="4"/>
       <c r="I274" s="4"/>
       <c r="J274" s="4"/>
-      <c r="K274" s="66"/>
+      <c r="K274" s="64"/>
     </row>
     <row r="275" spans="1:11">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="D275" s="4"/>
-      <c r="E275" s="52"/>
-      <c r="F275" s="52"/>
-      <c r="G275" s="52"/>
+      <c r="E275" s="50"/>
+      <c r="F275" s="50"/>
+      <c r="G275" s="50"/>
       <c r="H275" s="4"/>
       <c r="I275" s="4"/>
       <c r="J275" s="4"/>
-      <c r="K275" s="66"/>
+      <c r="K275" s="64"/>
     </row>
     <row r="276" spans="1:11">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="D276" s="4"/>
-      <c r="E276" s="52"/>
-      <c r="F276" s="52"/>
-      <c r="G276" s="52"/>
+      <c r="E276" s="50"/>
+      <c r="F276" s="50"/>
+      <c r="G276" s="50"/>
       <c r="H276" s="4"/>
       <c r="I276" s="4"/>
       <c r="J276" s="4"/>
-      <c r="K276" s="66"/>
+      <c r="K276" s="64"/>
     </row>
     <row r="277" spans="1:11">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="D277" s="4"/>
-      <c r="E277" s="52"/>
-      <c r="F277" s="52"/>
-      <c r="G277" s="52"/>
+      <c r="E277" s="50"/>
+      <c r="F277" s="50"/>
+      <c r="G277" s="50"/>
       <c r="H277" s="4"/>
       <c r="I277" s="4"/>
       <c r="J277" s="4"/>
-      <c r="K277" s="66"/>
+      <c r="K277" s="64"/>
     </row>
     <row r="278" spans="1:11">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="D278" s="4"/>
-      <c r="E278" s="52"/>
-      <c r="F278" s="52"/>
-      <c r="G278" s="52"/>
+      <c r="E278" s="50"/>
+      <c r="F278" s="50"/>
+      <c r="G278" s="50"/>
       <c r="H278" s="4"/>
       <c r="I278" s="4"/>
       <c r="J278" s="4"/>
-      <c r="K278" s="66"/>
+      <c r="K278" s="64"/>
     </row>
     <row r="279" spans="1:11">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="D279" s="4"/>
-      <c r="E279" s="52"/>
-      <c r="F279" s="52"/>
-      <c r="G279" s="52"/>
+      <c r="E279" s="50"/>
+      <c r="F279" s="50"/>
+      <c r="G279" s="50"/>
       <c r="H279" s="4"/>
       <c r="I279" s="4"/>
       <c r="J279" s="4"/>
-      <c r="K279" s="66"/>
+      <c r="K279" s="64"/>
     </row>
     <row r="280" spans="1:11">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="D280" s="4"/>
-      <c r="E280" s="52"/>
-      <c r="F280" s="52"/>
-      <c r="G280" s="52"/>
+      <c r="E280" s="50"/>
+      <c r="F280" s="50"/>
+      <c r="G280" s="50"/>
       <c r="H280" s="4"/>
       <c r="I280" s="4"/>
       <c r="J280" s="4"/>
-      <c r="K280" s="66"/>
+      <c r="K280" s="64"/>
     </row>
     <row r="281" spans="1:11">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="D281" s="4"/>
-      <c r="E281" s="52"/>
-      <c r="F281" s="52"/>
-      <c r="G281" s="52"/>
+      <c r="E281" s="50"/>
+      <c r="F281" s="50"/>
+      <c r="G281" s="50"/>
       <c r="H281" s="4"/>
       <c r="I281" s="4"/>
       <c r="J281" s="4"/>
-      <c r="K281" s="66"/>
+      <c r="K281" s="64"/>
     </row>
     <row r="282" spans="1:11">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="D282" s="4"/>
-      <c r="E282" s="52"/>
-      <c r="F282" s="52"/>
-      <c r="G282" s="52"/>
+      <c r="E282" s="50"/>
+      <c r="F282" s="50"/>
+      <c r="G282" s="50"/>
       <c r="H282" s="4"/>
       <c r="I282" s="4"/>
       <c r="J282" s="4"/>
-      <c r="K282" s="66"/>
+      <c r="K282" s="64"/>
     </row>
     <row r="283" spans="1:11">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="D283" s="4"/>
-      <c r="E283" s="52"/>
-      <c r="F283" s="52"/>
-      <c r="G283" s="52"/>
+      <c r="E283" s="50"/>
+      <c r="F283" s="50"/>
+      <c r="G283" s="50"/>
       <c r="H283" s="4"/>
       <c r="I283" s="4"/>
       <c r="J283" s="4"/>
-      <c r="K283" s="66"/>
+      <c r="K283" s="64"/>
     </row>
     <row r="284" spans="1:11">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="D284" s="4"/>
-      <c r="E284" s="52"/>
-      <c r="F284" s="52"/>
-      <c r="G284" s="52"/>
+      <c r="E284" s="50"/>
+      <c r="F284" s="50"/>
+      <c r="G284" s="50"/>
       <c r="H284" s="4"/>
       <c r="I284" s="4"/>
       <c r="J284" s="4"/>
-      <c r="K284" s="66"/>
+      <c r="K284" s="64"/>
     </row>
     <row r="285" spans="1:11">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="D285" s="4"/>
-      <c r="E285" s="52"/>
-      <c r="F285" s="52"/>
-      <c r="G285" s="52"/>
+      <c r="E285" s="50"/>
+      <c r="F285" s="50"/>
+      <c r="G285" s="50"/>
       <c r="H285" s="4"/>
       <c r="I285" s="4"/>
       <c r="J285" s="4"/>
-      <c r="K285" s="66"/>
+      <c r="K285" s="64"/>
     </row>
     <row r="286" spans="1:11">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="D286" s="4"/>
-      <c r="E286" s="52"/>
-      <c r="F286" s="52"/>
-      <c r="G286" s="52"/>
+      <c r="E286" s="50"/>
+      <c r="F286" s="50"/>
+      <c r="G286" s="50"/>
       <c r="H286" s="4"/>
       <c r="I286" s="4"/>
       <c r="J286" s="4"/>
-      <c r="K286" s="66"/>
+      <c r="K286" s="64"/>
     </row>
     <row r="287" spans="1:11">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="D287" s="4"/>
-      <c r="E287" s="52"/>
-      <c r="F287" s="52"/>
-      <c r="G287" s="52"/>
+      <c r="E287" s="50"/>
+      <c r="F287" s="50"/>
+      <c r="G287" s="50"/>
       <c r="H287" s="4"/>
       <c r="I287" s="4"/>
       <c r="J287" s="4"/>
-      <c r="K287" s="66"/>
+      <c r="K287" s="64"/>
     </row>
     <row r="288" spans="1:11">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="D288" s="4"/>
-      <c r="E288" s="52"/>
-      <c r="F288" s="52"/>
-      <c r="G288" s="52"/>
+      <c r="E288" s="50"/>
+      <c r="F288" s="50"/>
+      <c r="G288" s="50"/>
       <c r="H288" s="4"/>
       <c r="I288" s="4"/>
       <c r="J288" s="4"/>
-      <c r="K288" s="66"/>
+      <c r="K288" s="64"/>
     </row>
     <row r="289" spans="1:11">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="D289" s="4"/>
-      <c r="E289" s="52"/>
-      <c r="F289" s="52"/>
-      <c r="G289" s="52"/>
+      <c r="E289" s="50"/>
+      <c r="F289" s="50"/>
+      <c r="G289" s="50"/>
       <c r="H289" s="4"/>
       <c r="I289" s="4"/>
       <c r="J289" s="4"/>
-      <c r="K289" s="66"/>
+      <c r="K289" s="64"/>
     </row>
     <row r="290" spans="1:11">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="D290" s="4"/>
-      <c r="E290" s="52"/>
-      <c r="F290" s="52"/>
-      <c r="G290" s="52"/>
+      <c r="E290" s="50"/>
+      <c r="F290" s="50"/>
+      <c r="G290" s="50"/>
       <c r="H290" s="4"/>
       <c r="I290" s="4"/>
       <c r="J290" s="4"/>
-      <c r="K290" s="66"/>
+      <c r="K290" s="64"/>
     </row>
     <row r="291" spans="1:11">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="D291" s="4"/>
-      <c r="E291" s="52"/>
-      <c r="F291" s="52"/>
-      <c r="G291" s="52"/>
+      <c r="E291" s="50"/>
+      <c r="F291" s="50"/>
+      <c r="G291" s="50"/>
       <c r="H291" s="4"/>
       <c r="I291" s="4"/>
       <c r="J291" s="4"/>
-      <c r="K291" s="66"/>
+      <c r="K291" s="64"/>
     </row>
     <row r="292" spans="1:11">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="D292" s="4"/>
-      <c r="E292" s="52"/>
-      <c r="F292" s="52"/>
-      <c r="G292" s="52"/>
+      <c r="E292" s="50"/>
+      <c r="F292" s="50"/>
+      <c r="G292" s="50"/>
       <c r="H292" s="4"/>
       <c r="I292" s="4"/>
       <c r="J292" s="4"/>
-      <c r="K292" s="66"/>
+      <c r="K292" s="64"/>
     </row>
     <row r="293" spans="1:11">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="D293" s="4"/>
-      <c r="E293" s="52"/>
-      <c r="F293" s="52"/>
-      <c r="G293" s="52"/>
+      <c r="E293" s="50"/>
+      <c r="F293" s="50"/>
+      <c r="G293" s="50"/>
       <c r="H293" s="4"/>
       <c r="I293" s="4"/>
       <c r="J293" s="4"/>
-      <c r="K293" s="66"/>
+      <c r="K293" s="64"/>
     </row>
     <row r="294" spans="1:11">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="D294" s="4"/>
-      <c r="E294" s="52"/>
-      <c r="F294" s="52"/>
-      <c r="G294" s="52"/>
+      <c r="E294" s="50"/>
+      <c r="F294" s="50"/>
+      <c r="G294" s="50"/>
       <c r="H294" s="4"/>
       <c r="I294" s="4"/>
       <c r="J294" s="4"/>
-      <c r="K294" s="66"/>
+      <c r="K294" s="64"/>
     </row>
     <row r="295" spans="1:11">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="D295" s="4"/>
-      <c r="E295" s="52"/>
-      <c r="F295" s="52"/>
-      <c r="G295" s="52"/>
+      <c r="E295" s="50"/>
+      <c r="F295" s="50"/>
+      <c r="G295" s="50"/>
       <c r="H295" s="4"/>
       <c r="I295" s="4"/>
       <c r="J295" s="4"/>
-      <c r="K295" s="66"/>
+      <c r="K295" s="64"/>
     </row>
     <row r="296" spans="1:11">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="D296" s="4"/>
-      <c r="E296" s="52"/>
-      <c r="F296" s="52"/>
-      <c r="G296" s="52"/>
+      <c r="E296" s="50"/>
+      <c r="F296" s="50"/>
+      <c r="G296" s="50"/>
       <c r="H296" s="4"/>
       <c r="I296" s="4"/>
       <c r="J296" s="4"/>
-      <c r="K296" s="66"/>
+      <c r="K296" s="64"/>
     </row>
     <row r="297" spans="1:11">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="D297" s="4"/>
-      <c r="E297" s="52"/>
-      <c r="F297" s="52"/>
-      <c r="G297" s="52"/>
+      <c r="E297" s="50"/>
+      <c r="F297" s="50"/>
+      <c r="G297" s="50"/>
       <c r="H297" s="4"/>
       <c r="I297" s="4"/>
       <c r="J297" s="4"/>
-      <c r="K297" s="66"/>
+      <c r="K297" s="64"/>
     </row>
     <row r="298" spans="1:11">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="D298" s="4"/>
-      <c r="E298" s="52"/>
-      <c r="F298" s="52"/>
-      <c r="G298" s="52"/>
+      <c r="E298" s="50"/>
+      <c r="F298" s="50"/>
+      <c r="G298" s="50"/>
       <c r="H298" s="4"/>
       <c r="I298" s="4"/>
       <c r="J298" s="4"/>
-      <c r="K298" s="66"/>
+      <c r="K298" s="64"/>
     </row>
     <row r="299" spans="1:11">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="D299" s="4"/>
-      <c r="E299" s="52"/>
-      <c r="F299" s="52"/>
-      <c r="G299" s="52"/>
+      <c r="E299" s="50"/>
+      <c r="F299" s="50"/>
+      <c r="G299" s="50"/>
       <c r="H299" s="4"/>
       <c r="I299" s="4"/>
       <c r="J299" s="4"/>
-      <c r="K299" s="66"/>
+      <c r="K299" s="64"/>
     </row>
     <row r="300" spans="1:11">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="D300" s="4"/>
-      <c r="E300" s="52"/>
-      <c r="F300" s="52"/>
-      <c r="G300" s="52"/>
+      <c r="E300" s="50"/>
+      <c r="F300" s="50"/>
+      <c r="G300" s="50"/>
       <c r="H300" s="4"/>
       <c r="I300" s="4"/>
       <c r="J300" s="4"/>
-      <c r="K300" s="66"/>
+      <c r="K300" s="64"/>
     </row>
     <row r="301" spans="1:11">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="D301" s="4"/>
-      <c r="E301" s="52"/>
-      <c r="F301" s="52"/>
-      <c r="G301" s="52"/>
+      <c r="E301" s="50"/>
+      <c r="F301" s="50"/>
+      <c r="G301" s="50"/>
       <c r="H301" s="4"/>
       <c r="I301" s="4"/>
       <c r="J301" s="4"/>
-      <c r="K301" s="66"/>
+      <c r="K301" s="64"/>
     </row>
     <row r="302" spans="1:11">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
       <c r="D302" s="4"/>
-      <c r="E302" s="52"/>
-      <c r="F302" s="52"/>
-      <c r="G302" s="52"/>
+      <c r="E302" s="50"/>
+      <c r="F302" s="50"/>
+      <c r="G302" s="50"/>
       <c r="H302" s="4"/>
       <c r="I302" s="4"/>
       <c r="J302" s="4"/>
-      <c r="K302" s="66"/>
+      <c r="K302" s="64"/>
     </row>
     <row r="303" spans="1:11">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
       <c r="D303" s="4"/>
-      <c r="E303" s="52"/>
-      <c r="F303" s="52"/>
-      <c r="G303" s="52"/>
+      <c r="E303" s="50"/>
+      <c r="F303" s="50"/>
+      <c r="G303" s="50"/>
       <c r="H303" s="4"/>
       <c r="I303" s="4"/>
       <c r="J303" s="4"/>
-      <c r="K303" s="66"/>
+      <c r="K303" s="64"/>
     </row>
     <row r="304" spans="1:11">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="D304" s="4"/>
-      <c r="E304" s="52"/>
-      <c r="F304" s="52"/>
-      <c r="G304" s="52"/>
+      <c r="E304" s="50"/>
+      <c r="F304" s="50"/>
+      <c r="G304" s="50"/>
       <c r="H304" s="4"/>
       <c r="I304" s="4"/>
       <c r="J304" s="4"/>
-      <c r="K304" s="66"/>
+      <c r="K304" s="64"/>
     </row>
     <row r="305" spans="1:11">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
       <c r="D305" s="4"/>
-      <c r="E305" s="52"/>
-      <c r="F305" s="52"/>
-      <c r="G305" s="52"/>
+      <c r="E305" s="50"/>
+      <c r="F305" s="50"/>
+      <c r="G305" s="50"/>
       <c r="H305" s="4"/>
       <c r="I305" s="4"/>
       <c r="J305" s="4"/>
-      <c r="K305" s="66"/>
+      <c r="K305" s="64"/>
     </row>
     <row r="306" spans="1:11">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
       <c r="D306" s="4"/>
-      <c r="E306" s="52"/>
-      <c r="F306" s="52"/>
-      <c r="G306" s="52"/>
+      <c r="E306" s="50"/>
+      <c r="F306" s="50"/>
+      <c r="G306" s="50"/>
       <c r="H306" s="4"/>
       <c r="I306" s="4"/>
       <c r="J306" s="4"/>
-      <c r="K306" s="66"/>
+      <c r="K306" s="64"/>
     </row>
     <row r="307" spans="1:11">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="D307" s="4"/>
-      <c r="E307" s="52"/>
-      <c r="F307" s="52"/>
-      <c r="G307" s="52"/>
+      <c r="E307" s="50"/>
+      <c r="F307" s="50"/>
+      <c r="G307" s="50"/>
       <c r="H307" s="4"/>
       <c r="I307" s="4"/>
       <c r="J307" s="4"/>
-      <c r="K307" s="66"/>
+      <c r="K307" s="64"/>
     </row>
     <row r="308" spans="1:11">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="D308" s="4"/>
-      <c r="E308" s="52"/>
-      <c r="F308" s="52"/>
-      <c r="G308" s="52"/>
+      <c r="E308" s="50"/>
+      <c r="F308" s="50"/>
+      <c r="G308" s="50"/>
       <c r="H308" s="4"/>
       <c r="I308" s="4"/>
       <c r="J308" s="4"/>
-      <c r="K308" s="66"/>
+      <c r="K308" s="64"/>
     </row>
     <row r="309" spans="1:11">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="D309" s="4"/>
-      <c r="E309" s="52"/>
-      <c r="F309" s="52"/>
-      <c r="G309" s="52"/>
+      <c r="E309" s="50"/>
+      <c r="F309" s="50"/>
+      <c r="G309" s="50"/>
       <c r="H309" s="4"/>
       <c r="I309" s="4"/>
       <c r="J309" s="4"/>
-      <c r="K309" s="66"/>
+      <c r="K309" s="64"/>
     </row>
     <row r="310" spans="1:11">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="D310" s="4"/>
-      <c r="E310" s="52"/>
-      <c r="F310" s="52"/>
-      <c r="G310" s="52"/>
+      <c r="E310" s="50"/>
+      <c r="F310" s="50"/>
+      <c r="G310" s="50"/>
       <c r="H310" s="4"/>
       <c r="I310" s="4"/>
       <c r="J310" s="4"/>
-      <c r="K310" s="66"/>
+      <c r="K310" s="64"/>
     </row>
     <row r="311" spans="1:11">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="D311" s="4"/>
-      <c r="E311" s="52"/>
-      <c r="F311" s="52"/>
-      <c r="G311" s="52"/>
+      <c r="E311" s="50"/>
+      <c r="F311" s="50"/>
+      <c r="G311" s="50"/>
       <c r="H311" s="4"/>
       <c r="I311" s="4"/>
       <c r="J311" s="4"/>
-      <c r="K311" s="66"/>
+      <c r="K311" s="64"/>
     </row>
     <row r="312" spans="1:11">
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
       <c r="D312" s="4"/>
-      <c r="E312" s="52"/>
-      <c r="F312" s="52"/>
-      <c r="G312" s="52"/>
+      <c r="E312" s="50"/>
+      <c r="F312" s="50"/>
+      <c r="G312" s="50"/>
       <c r="H312" s="4"/>
       <c r="I312" s="4"/>
       <c r="J312" s="4"/>
-      <c r="K312" s="66"/>
+      <c r="K312" s="64"/>
     </row>
     <row r="313" spans="1:11">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="D313" s="4"/>
-      <c r="E313" s="52"/>
-      <c r="F313" s="52"/>
-      <c r="G313" s="52"/>
+      <c r="E313" s="50"/>
+      <c r="F313" s="50"/>
+      <c r="G313" s="50"/>
       <c r="H313" s="4"/>
       <c r="I313" s="4"/>
       <c r="J313" s="4"/>
-      <c r="K313" s="66"/>
+      <c r="K313" s="64"/>
     </row>
     <row r="314" spans="1:11">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="D314" s="4"/>
-      <c r="E314" s="52"/>
-      <c r="F314" s="52"/>
-      <c r="G314" s="52"/>
+      <c r="E314" s="50"/>
+      <c r="F314" s="50"/>
+      <c r="G314" s="50"/>
       <c r="H314" s="4"/>
       <c r="I314" s="4"/>
       <c r="J314" s="4"/>
-      <c r="K314" s="66"/>
+      <c r="K314" s="64"/>
     </row>
     <row r="315" spans="1:11">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="D315" s="4"/>
-      <c r="E315" s="52"/>
-      <c r="F315" s="52"/>
-      <c r="G315" s="52"/>
+      <c r="E315" s="50"/>
+      <c r="F315" s="50"/>
+      <c r="G315" s="50"/>
       <c r="H315" s="4"/>
       <c r="I315" s="4"/>
       <c r="J315" s="4"/>
-      <c r="K315" s="66"/>
+      <c r="K315" s="64"/>
     </row>
     <row r="316" spans="1:11">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="D316" s="4"/>
-      <c r="E316" s="52"/>
-      <c r="F316" s="52"/>
-      <c r="G316" s="52"/>
+      <c r="E316" s="50"/>
+      <c r="F316" s="50"/>
+      <c r="G316" s="50"/>
       <c r="H316" s="4"/>
       <c r="I316" s="4"/>
       <c r="J316" s="4"/>
-      <c r="K316" s="66"/>
+      <c r="K316" s="64"/>
     </row>
     <row r="317" spans="1:11">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="D317" s="4"/>
-      <c r="E317" s="52"/>
-      <c r="F317" s="52"/>
-      <c r="G317" s="52"/>
+      <c r="E317" s="50"/>
+      <c r="F317" s="50"/>
+      <c r="G317" s="50"/>
       <c r="H317" s="4"/>
       <c r="I317" s="4"/>
       <c r="J317" s="4"/>
-      <c r="K317" s="66"/>
+      <c r="K317" s="64"/>
     </row>
     <row r="318" spans="1:11">
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
       <c r="D318" s="4"/>
-      <c r="E318" s="52"/>
-      <c r="F318" s="52"/>
-      <c r="G318" s="52"/>
+      <c r="E318" s="50"/>
+      <c r="F318" s="50"/>
+      <c r="G318" s="50"/>
       <c r="H318" s="4"/>
       <c r="I318" s="4"/>
       <c r="J318" s="4"/>
-      <c r="K318" s="66"/>
+      <c r="K318" s="64"/>
     </row>
     <row r="319" spans="1:11">
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="D319" s="4"/>
-      <c r="E319" s="52"/>
-      <c r="F319" s="52"/>
-      <c r="G319" s="52"/>
+      <c r="E319" s="50"/>
+      <c r="F319" s="50"/>
+      <c r="G319" s="50"/>
       <c r="H319" s="4"/>
       <c r="I319" s="4"/>
       <c r="J319" s="4"/>
-      <c r="K319" s="66"/>
+      <c r="K319" s="64"/>
     </row>
     <row r="320" spans="1:11">
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
       <c r="D320" s="4"/>
-      <c r="E320" s="52"/>
-      <c r="F320" s="52"/>
-      <c r="G320" s="52"/>
+      <c r="E320" s="50"/>
+      <c r="F320" s="50"/>
+      <c r="G320" s="50"/>
       <c r="H320" s="4"/>
       <c r="I320" s="4"/>
       <c r="J320" s="4"/>
-      <c r="K320" s="66"/>
+      <c r="K320" s="64"/>
     </row>
     <row r="321" spans="1:11">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="D321" s="4"/>
-      <c r="E321" s="52"/>
-      <c r="F321" s="52"/>
-      <c r="G321" s="52"/>
+      <c r="E321" s="50"/>
+      <c r="F321" s="50"/>
+      <c r="G321" s="50"/>
       <c r="H321" s="4"/>
       <c r="I321" s="4"/>
       <c r="J321" s="4"/>
-      <c r="K321" s="66"/>
+      <c r="K321" s="64"/>
     </row>
     <row r="322" spans="1:11">
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="D322" s="4"/>
-      <c r="E322" s="52"/>
-      <c r="F322" s="52"/>
-      <c r="G322" s="52"/>
+      <c r="E322" s="50"/>
+      <c r="F322" s="50"/>
+      <c r="G322" s="50"/>
       <c r="H322" s="4"/>
       <c r="I322" s="4"/>
       <c r="J322" s="4"/>
-      <c r="K322" s="66"/>
+      <c r="K322" s="64"/>
     </row>
     <row r="323" spans="1:11">
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="D323" s="4"/>
-      <c r="E323" s="52"/>
-      <c r="F323" s="52"/>
-      <c r="G323" s="52"/>
+      <c r="E323" s="50"/>
+      <c r="F323" s="50"/>
+      <c r="G323" s="50"/>
       <c r="H323" s="4"/>
       <c r="I323" s="4"/>
       <c r="J323" s="4"/>
-      <c r="K323" s="66"/>
+      <c r="K323" s="64"/>
     </row>
     <row r="324" spans="1:11">
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
       <c r="D324" s="4"/>
-      <c r="E324" s="52"/>
-      <c r="F324" s="52"/>
-      <c r="G324" s="52"/>
+      <c r="E324" s="50"/>
+      <c r="F324" s="50"/>
+      <c r="G324" s="50"/>
       <c r="H324" s="4"/>
       <c r="I324" s="4"/>
       <c r="J324" s="4"/>
-      <c r="K324" s="66"/>
+      <c r="K324" s="64"/>
     </row>
     <row r="325" spans="1:11">
       <c r="A325" s="4"/>
       <c r="B325" s="4"/>
       <c r="D325" s="4"/>
-      <c r="E325" s="52"/>
-      <c r="F325" s="52"/>
-      <c r="G325" s="52"/>
+      <c r="E325" s="50"/>
+      <c r="F325" s="50"/>
+      <c r="G325" s="50"/>
       <c r="H325" s="4"/>
       <c r="I325" s="4"/>
       <c r="J325" s="4"/>
-      <c r="K325" s="66"/>
+      <c r="K325" s="64"/>
     </row>
     <row r="326" spans="1:11">
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
       <c r="D326" s="4"/>
-      <c r="E326" s="52"/>
-      <c r="F326" s="52"/>
-      <c r="G326" s="52"/>
+      <c r="E326" s="50"/>
+      <c r="F326" s="50"/>
+      <c r="G326" s="50"/>
       <c r="H326" s="4"/>
       <c r="I326" s="4"/>
       <c r="J326" s="4"/>
-      <c r="K326" s="66"/>
+      <c r="K326" s="64"/>
     </row>
     <row r="327" spans="1:11">
       <c r="A327" s="4"/>
       <c r="B327" s="4"/>
       <c r="D327" s="4"/>
-      <c r="E327" s="52"/>
-      <c r="F327" s="52"/>
-      <c r="G327" s="52"/>
+      <c r="E327" s="50"/>
+      <c r="F327" s="50"/>
+      <c r="G327" s="50"/>
       <c r="H327" s="4"/>
       <c r="I327" s="4"/>
       <c r="J327" s="4"/>
-      <c r="K327" s="66"/>
+      <c r="K327" s="64"/>
     </row>
     <row r="328" spans="1:11">
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
       <c r="D328" s="4"/>
-      <c r="E328" s="52"/>
-      <c r="F328" s="52"/>
-      <c r="G328" s="52"/>
+      <c r="E328" s="50"/>
+      <c r="F328" s="50"/>
+      <c r="G328" s="50"/>
       <c r="H328" s="4"/>
       <c r="I328" s="4"/>
       <c r="J328" s="4"/>
-      <c r="K328" s="66"/>
+      <c r="K328" s="64"/>
     </row>
     <row r="329" spans="1:11">
       <c r="A329" s="4"/>
       <c r="B329" s="4"/>
       <c r="D329" s="4"/>
-      <c r="E329" s="52"/>
-      <c r="F329" s="52"/>
-      <c r="G329" s="52"/>
+      <c r="E329" s="50"/>
+      <c r="F329" s="50"/>
+      <c r="G329" s="50"/>
       <c r="H329" s="4"/>
       <c r="I329" s="4"/>
       <c r="J329" s="4"/>
-      <c r="K329" s="66"/>
+      <c r="K329" s="64"/>
     </row>
     <row r="330" spans="1:11">
       <c r="A330" s="4"/>
       <c r="B330" s="4"/>
       <c r="D330" s="4"/>
-      <c r="E330" s="52"/>
-      <c r="F330" s="52"/>
-      <c r="G330" s="52"/>
+      <c r="E330" s="50"/>
+      <c r="F330" s="50"/>
+      <c r="G330" s="50"/>
       <c r="H330" s="4"/>
       <c r="I330" s="4"/>
       <c r="J330" s="4"/>
-      <c r="K330" s="66"/>
+      <c r="K330" s="64"/>
     </row>
     <row r="331" spans="1:11">
       <c r="A331" s="4"/>
       <c r="B331" s="4"/>
       <c r="D331" s="4"/>
-      <c r="E331" s="52"/>
-      <c r="F331" s="52"/>
-      <c r="G331" s="52"/>
+      <c r="E331" s="50"/>
+      <c r="F331" s="50"/>
+      <c r="G331" s="50"/>
       <c r="H331" s="4"/>
       <c r="I331" s="4"/>
       <c r="J331" s="4"/>
-      <c r="K331" s="66"/>
+      <c r="K331" s="64"/>
     </row>
     <row r="332" spans="1:11">
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
       <c r="D332" s="4"/>
-      <c r="E332" s="52"/>
-      <c r="F332" s="52"/>
-      <c r="G332" s="52"/>
+      <c r="E332" s="50"/>
+      <c r="F332" s="50"/>
+      <c r="G332" s="50"/>
       <c r="H332" s="4"/>
       <c r="I332" s="4"/>
       <c r="J332" s="4"/>
-      <c r="K332" s="66"/>
+      <c r="K332" s="64"/>
     </row>
     <row r="333" spans="1:11">
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
       <c r="D333" s="4"/>
-      <c r="E333" s="52"/>
-      <c r="F333" s="52"/>
-      <c r="G333" s="52"/>
+      <c r="E333" s="50"/>
+      <c r="F333" s="50"/>
+      <c r="G333" s="50"/>
       <c r="H333" s="4"/>
       <c r="I333" s="4"/>
       <c r="J333" s="4"/>
-      <c r="K333" s="66"/>
+      <c r="K333" s="64"/>
     </row>
     <row r="334" spans="1:11">
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
       <c r="D334" s="4"/>
-      <c r="E334" s="52"/>
-      <c r="F334" s="52"/>
-      <c r="G334" s="52"/>
+      <c r="E334" s="50"/>
+      <c r="F334" s="50"/>
+      <c r="G334" s="50"/>
       <c r="H334" s="4"/>
       <c r="I334" s="4"/>
       <c r="J334" s="4"/>
-      <c r="K334" s="66"/>
+      <c r="K334" s="64"/>
     </row>
     <row r="335" spans="1:11">
       <c r="A335" s="4"/>
       <c r="B335" s="4"/>
       <c r="D335" s="4"/>
-      <c r="E335" s="52"/>
-      <c r="F335" s="52"/>
-      <c r="G335" s="52"/>
+      <c r="E335" s="50"/>
+      <c r="F335" s="50"/>
+      <c r="G335" s="50"/>
       <c r="H335" s="4"/>
       <c r="I335" s="4"/>
       <c r="J335" s="4"/>
-      <c r="K335" s="66"/>
+      <c r="K335" s="64"/>
     </row>
     <row r="336" spans="1:11">
       <c r="A336" s="4"/>
       <c r="B336" s="4"/>
       <c r="D336" s="4"/>
-      <c r="E336" s="52"/>
-      <c r="F336" s="52"/>
-      <c r="G336" s="52"/>
+      <c r="E336" s="50"/>
+      <c r="F336" s="50"/>
+      <c r="G336" s="50"/>
       <c r="H336" s="4"/>
       <c r="I336" s="4"/>
       <c r="J336" s="4"/>
-      <c r="K336" s="66"/>
+      <c r="K336" s="64"/>
     </row>
     <row r="337" spans="1:11">
       <c r="A337" s="4"/>
       <c r="B337" s="4"/>
       <c r="D337" s="4"/>
-      <c r="E337" s="52"/>
-      <c r="F337" s="52"/>
-      <c r="G337" s="52"/>
+      <c r="E337" s="50"/>
+      <c r="F337" s="50"/>
+      <c r="G337" s="50"/>
       <c r="H337" s="4"/>
       <c r="I337" s="4"/>
       <c r="J337" s="4"/>
-      <c r="K337" s="66"/>
+      <c r="K337" s="64"/>
     </row>
     <row r="338" spans="1:11">
       <c r="A338" s="4"/>
       <c r="B338" s="4"/>
       <c r="D338" s="4"/>
-      <c r="E338" s="52"/>
-      <c r="F338" s="52"/>
-      <c r="G338" s="52"/>
+      <c r="E338" s="50"/>
+      <c r="F338" s="50"/>
+      <c r="G338" s="50"/>
       <c r="H338" s="4"/>
       <c r="I338" s="4"/>
       <c r="J338" s="4"/>
-      <c r="K338" s="66"/>
+      <c r="K338" s="64"/>
     </row>
     <row r="339" spans="1:11">
       <c r="A339" s="4"/>
       <c r="B339" s="4"/>
       <c r="D339" s="4"/>
-      <c r="E339" s="52"/>
-      <c r="F339" s="52"/>
-      <c r="G339" s="52"/>
+      <c r="E339" s="50"/>
+      <c r="F339" s="50"/>
+      <c r="G339" s="50"/>
       <c r="H339" s="4"/>
       <c r="I339" s="4"/>
       <c r="J339" s="4"/>
-      <c r="K339" s="66"/>
+      <c r="K339" s="64"/>
     </row>
     <row r="340" spans="1:11">
       <c r="A340" s="4"/>
       <c r="B340" s="4"/>
       <c r="D340" s="4"/>
-      <c r="E340" s="52"/>
-      <c r="F340" s="52"/>
-      <c r="G340" s="52"/>
+      <c r="E340" s="50"/>
+      <c r="F340" s="50"/>
+      <c r="G340" s="50"/>
       <c r="H340" s="4"/>
       <c r="I340" s="4"/>
       <c r="J340" s="4"/>
-      <c r="K340" s="66"/>
+      <c r="K340" s="64"/>
     </row>
     <row r="341" spans="1:11">
       <c r="A341" s="4"/>
       <c r="B341" s="4"/>
       <c r="D341" s="4"/>
-      <c r="E341" s="52"/>
-      <c r="F341" s="52"/>
-      <c r="G341" s="52"/>
+      <c r="E341" s="50"/>
+      <c r="F341" s="50"/>
+      <c r="G341" s="50"/>
       <c r="H341" s="4"/>
       <c r="I341" s="4"/>
       <c r="J341" s="4"/>
-      <c r="K341" s="66"/>
+      <c r="K341" s="64"/>
     </row>
     <row r="342" spans="1:11">
       <c r="A342" s="4"/>
       <c r="B342" s="4"/>
       <c r="D342" s="4"/>
-      <c r="E342" s="52"/>
-      <c r="F342" s="52"/>
-      <c r="G342" s="52"/>
+      <c r="E342" s="50"/>
+      <c r="F342" s="50"/>
+      <c r="G342" s="50"/>
       <c r="H342" s="4"/>
       <c r="I342" s="4"/>
       <c r="J342" s="4"/>
-      <c r="K342" s="66"/>
+      <c r="K342" s="64"/>
     </row>
     <row r="343" spans="1:11">
       <c r="A343" s="4"/>
       <c r="B343" s="4"/>
       <c r="D343" s="4"/>
-      <c r="E343" s="52"/>
-      <c r="F343" s="52"/>
-      <c r="G343" s="52"/>
+      <c r="E343" s="50"/>
+      <c r="F343" s="50"/>
+      <c r="G343" s="50"/>
       <c r="H343" s="4"/>
       <c r="I343" s="4"/>
       <c r="J343" s="4"/>
-      <c r="K343" s="66"/>
+      <c r="K343" s="64"/>
     </row>
     <row r="344" spans="1:11">
       <c r="A344" s="4"/>
       <c r="B344" s="4"/>
       <c r="D344" s="4"/>
-      <c r="E344" s="52"/>
-      <c r="F344" s="52"/>
-      <c r="G344" s="52"/>
+      <c r="E344" s="50"/>
+      <c r="F344" s="50"/>
+      <c r="G344" s="50"/>
       <c r="H344" s="4"/>
       <c r="I344" s="4"/>
       <c r="J344" s="4"/>
-      <c r="K344" s="66"/>
+      <c r="K344" s="64"/>
     </row>
     <row r="345" spans="1:11">
       <c r="A345" s="4"/>
       <c r="B345" s="4"/>
       <c r="D345" s="4"/>
-      <c r="E345" s="52"/>
-      <c r="F345" s="52"/>
-      <c r="G345" s="52"/>
+      <c r="E345" s="50"/>
+      <c r="F345" s="50"/>
+      <c r="G345" s="50"/>
       <c r="H345" s="4"/>
       <c r="I345" s="4"/>
       <c r="J345" s="4"/>
-      <c r="K345" s="66"/>
+      <c r="K345" s="64"/>
     </row>
     <row r="346" spans="1:11">
       <c r="A346" s="4"/>
       <c r="B346" s="4"/>
       <c r="D346" s="4"/>
-      <c r="E346" s="52"/>
-      <c r="F346" s="52"/>
-      <c r="G346" s="52"/>
+      <c r="E346" s="50"/>
+      <c r="F346" s="50"/>
+      <c r="G346" s="50"/>
       <c r="H346" s="4"/>
       <c r="I346" s="4"/>
       <c r="J346" s="4"/>
-      <c r="K346" s="66"/>
+      <c r="K346" s="64"/>
     </row>
     <row r="347" spans="1:11">
       <c r="A347" s="4"/>
       <c r="B347" s="4"/>
       <c r="D347" s="4"/>
-      <c r="E347" s="52"/>
-      <c r="F347" s="52"/>
-      <c r="G347" s="52"/>
+      <c r="E347" s="50"/>
+      <c r="F347" s="50"/>
+      <c r="G347" s="50"/>
       <c r="H347" s="4"/>
       <c r="I347" s="4"/>
       <c r="J347" s="4"/>
-      <c r="K347" s="66"/>
+      <c r="K347" s="64"/>
     </row>
     <row r="348" spans="1:11">
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
       <c r="D348" s="4"/>
-      <c r="E348" s="52"/>
-      <c r="F348" s="52"/>
-      <c r="G348" s="52"/>
+      <c r="E348" s="50"/>
+      <c r="F348" s="50"/>
+      <c r="G348" s="50"/>
       <c r="H348" s="4"/>
       <c r="I348" s="4"/>
       <c r="J348" s="4"/>
-      <c r="K348" s="66"/>
+      <c r="K348" s="64"/>
     </row>
     <row r="349" spans="1:11">
       <c r="A349" s="4"/>
       <c r="B349" s="4"/>
       <c r="D349" s="4"/>
-      <c r="E349" s="52"/>
-      <c r="F349" s="52"/>
-      <c r="G349" s="52"/>
+      <c r="E349" s="50"/>
+      <c r="F349" s="50"/>
+      <c r="G349" s="50"/>
       <c r="H349" s="4"/>
       <c r="I349" s="4"/>
       <c r="J349" s="4"/>
-      <c r="K349" s="66"/>
+      <c r="K349" s="64"/>
     </row>
     <row r="350" spans="1:11">
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
       <c r="D350" s="4"/>
-      <c r="E350" s="52"/>
-      <c r="F350" s="52"/>
-      <c r="G350" s="52"/>
+      <c r="E350" s="50"/>
+      <c r="F350" s="50"/>
+      <c r="G350" s="50"/>
       <c r="H350" s="4"/>
       <c r="I350" s="4"/>
       <c r="J350" s="4"/>
-      <c r="K350" s="66"/>
+      <c r="K350" s="64"/>
     </row>
     <row r="351" spans="1:11">
       <c r="A351" s="4"/>
       <c r="B351" s="4"/>
       <c r="D351" s="4"/>
-      <c r="E351" s="52"/>
-      <c r="F351" s="52"/>
-      <c r="G351" s="52"/>
+      <c r="E351" s="50"/>
+      <c r="F351" s="50"/>
+      <c r="G351" s="50"/>
       <c r="H351" s="4"/>
       <c r="I351" s="4"/>
       <c r="J351" s="4"/>
-      <c r="K351" s="66"/>
+      <c r="K351" s="64"/>
     </row>
     <row r="352" spans="1:11">
       <c r="A352" s="4"/>
       <c r="B352" s="4"/>
       <c r="D352" s="4"/>
-      <c r="E352" s="52"/>
-      <c r="F352" s="52"/>
-      <c r="G352" s="52"/>
+      <c r="E352" s="50"/>
+      <c r="F352" s="50"/>
+      <c r="G352" s="50"/>
       <c r="H352" s="4"/>
       <c r="I352" s="4"/>
       <c r="J352" s="4"/>
-      <c r="K352" s="66"/>
+      <c r="K352" s="64"/>
     </row>
     <row r="353" spans="1:11">
       <c r="A353" s="4"/>
       <c r="B353" s="4"/>
       <c r="D353" s="4"/>
-      <c r="E353" s="52"/>
-      <c r="F353" s="52"/>
-      <c r="G353" s="52"/>
+      <c r="E353" s="50"/>
+      <c r="F353" s="50"/>
+      <c r="G353" s="50"/>
       <c r="H353" s="4"/>
       <c r="I353" s="4"/>
       <c r="J353" s="4"/>
-      <c r="K353" s="66"/>
+      <c r="K353" s="64"/>
     </row>
     <row r="354" spans="1:11">
       <c r="A354" s="4"/>
       <c r="B354" s="4"/>
       <c r="D354" s="4"/>
-      <c r="E354" s="52"/>
-      <c r="F354" s="52"/>
-      <c r="G354" s="52"/>
+      <c r="E354" s="50"/>
+      <c r="F354" s="50"/>
+      <c r="G354" s="50"/>
       <c r="H354" s="4"/>
       <c r="I354" s="4"/>
       <c r="J354" s="4"/>
-      <c r="K354" s="66"/>
+      <c r="K354" s="64"/>
     </row>
     <row r="355" spans="1:11">
       <c r="A355" s="4"/>
       <c r="B355" s="4"/>
       <c r="D355" s="4"/>
-      <c r="E355" s="52"/>
-      <c r="F355" s="52"/>
-      <c r="G355" s="52"/>
+      <c r="E355" s="50"/>
+      <c r="F355" s="50"/>
+      <c r="G355" s="50"/>
       <c r="H355" s="4"/>
       <c r="I355" s="4"/>
       <c r="J355" s="4"/>
-      <c r="K355" s="66"/>
+      <c r="K355" s="64"/>
     </row>
     <row r="356" spans="1:11">
       <c r="A356" s="4"/>
       <c r="B356" s="4"/>
       <c r="D356" s="4"/>
-      <c r="E356" s="52"/>
-      <c r="F356" s="52"/>
-      <c r="G356" s="52"/>
+      <c r="E356" s="50"/>
+      <c r="F356" s="50"/>
+      <c r="G356" s="50"/>
       <c r="H356" s="4"/>
       <c r="I356" s="4"/>
       <c r="J356" s="4"/>
-      <c r="K356" s="66"/>
+      <c r="K356" s="64"/>
     </row>
     <row r="357" spans="1:11">
       <c r="A357" s="4"/>
       <c r="B357" s="4"/>
       <c r="D357" s="4"/>
-      <c r="E357" s="52"/>
-      <c r="F357" s="52"/>
-      <c r="G357" s="52"/>
+      <c r="E357" s="50"/>
+      <c r="F357" s="50"/>
+      <c r="G357" s="50"/>
       <c r="H357" s="4"/>
       <c r="I357" s="4"/>
       <c r="J357" s="4"/>
-      <c r="K357" s="66"/>
+      <c r="K357" s="64"/>
     </row>
     <row r="358" spans="1:11">
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
       <c r="D358" s="4"/>
-      <c r="E358" s="52"/>
-      <c r="F358" s="52"/>
-      <c r="G358" s="52"/>
+      <c r="E358" s="50"/>
+      <c r="F358" s="50"/>
+      <c r="G358" s="50"/>
       <c r="H358" s="4"/>
       <c r="I358" s="4"/>
       <c r="J358" s="4"/>
-      <c r="K358" s="66"/>
+      <c r="K358" s="64"/>
     </row>
     <row r="359" spans="1:11">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
       <c r="D359" s="4"/>
-      <c r="E359" s="52"/>
-      <c r="F359" s="52"/>
-      <c r="G359" s="52"/>
+      <c r="E359" s="50"/>
+      <c r="F359" s="50"/>
+      <c r="G359" s="50"/>
       <c r="H359" s="4"/>
       <c r="I359" s="4"/>
       <c r="J359" s="4"/>
-      <c r="K359" s="66"/>
+      <c r="K359" s="64"/>
     </row>
     <row r="360" spans="1:11">
       <c r="A360" s="4"/>
       <c r="B360" s="4"/>
       <c r="D360" s="4"/>
-      <c r="E360" s="52"/>
-      <c r="F360" s="52"/>
-      <c r="G360" s="52"/>
+      <c r="E360" s="50"/>
+      <c r="F360" s="50"/>
+      <c r="G360" s="50"/>
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
       <c r="J360" s="4"/>
-      <c r="K360" s="66"/>
+      <c r="K360" s="64"/>
     </row>
     <row r="361" spans="1:11">
       <c r="A361" s="4"/>
       <c r="B361" s="4"/>
       <c r="D361" s="4"/>
-      <c r="E361" s="52"/>
-      <c r="F361" s="52"/>
-      <c r="G361" s="52"/>
+      <c r="E361" s="50"/>
+      <c r="F361" s="50"/>
+      <c r="G361" s="50"/>
       <c r="H361" s="4"/>
       <c r="I361" s="4"/>
       <c r="J361" s="4"/>
-      <c r="K361" s="66"/>
+      <c r="K361" s="64"/>
     </row>
     <row r="362" spans="1:11">
       <c r="A362" s="4"/>
       <c r="B362" s="4"/>
       <c r="D362" s="4"/>
-      <c r="E362" s="52"/>
-      <c r="F362" s="52"/>
-      <c r="G362" s="52"/>
+      <c r="E362" s="50"/>
+      <c r="F362" s="50"/>
+      <c r="G362" s="50"/>
       <c r="H362" s="4"/>
       <c r="I362" s="4"/>
       <c r="J362" s="4"/>
-      <c r="K362" s="66"/>
+      <c r="K362" s="64"/>
     </row>
     <row r="363" spans="1:11">
       <c r="A363" s="4"/>
       <c r="B363" s="4"/>
       <c r="D363" s="4"/>
-      <c r="E363" s="52"/>
-      <c r="F363" s="52"/>
-      <c r="G363" s="52"/>
+      <c r="E363" s="50"/>
+      <c r="F363" s="50"/>
+      <c r="G363" s="50"/>
       <c r="H363" s="4"/>
       <c r="I363" s="4"/>
       <c r="J363" s="4"/>
-      <c r="K363" s="66"/>
+      <c r="K363" s="64"/>
     </row>
     <row r="364" spans="1:11">
       <c r="A364" s="4"/>
       <c r="B364" s="4"/>
       <c r="D364" s="4"/>
-      <c r="E364" s="52"/>
-      <c r="F364" s="52"/>
-      <c r="G364" s="52"/>
+      <c r="E364" s="50"/>
+      <c r="F364" s="50"/>
+      <c r="G364" s="50"/>
       <c r="H364" s="4"/>
       <c r="I364" s="4"/>
       <c r="J364" s="4"/>
-      <c r="K364" s="66"/>
+      <c r="K364" s="64"/>
     </row>
     <row r="365" spans="1:11">
       <c r="A365" s="4"/>
       <c r="B365" s="4"/>
       <c r="D365" s="4"/>
-      <c r="E365" s="52"/>
-      <c r="F365" s="52"/>
-      <c r="G365" s="52"/>
+      <c r="E365" s="50"/>
+      <c r="F365" s="50"/>
+      <c r="G365" s="50"/>
       <c r="H365" s="4"/>
       <c r="I365" s="4"/>
       <c r="J365" s="4"/>
-      <c r="K365" s="66"/>
+      <c r="K365" s="64"/>
     </row>
     <row r="366" spans="1:11">
       <c r="A366" s="4"/>
       <c r="B366" s="4"/>
       <c r="D366" s="4"/>
-      <c r="E366" s="52"/>
-      <c r="F366" s="52"/>
-      <c r="G366" s="52"/>
+      <c r="E366" s="50"/>
+      <c r="F366" s="50"/>
+      <c r="G366" s="50"/>
       <c r="H366" s="4"/>
       <c r="I366" s="4"/>
       <c r="J366" s="4"/>
-      <c r="K366" s="66"/>
+      <c r="K366" s="64"/>
     </row>
     <row r="367" spans="1:11">
       <c r="A367" s="4"/>
       <c r="B367" s="4"/>
       <c r="D367" s="4"/>
-      <c r="E367" s="52"/>
-      <c r="F367" s="52"/>
-      <c r="G367" s="52"/>
+      <c r="E367" s="50"/>
+      <c r="F367" s="50"/>
+      <c r="G367" s="50"/>
       <c r="H367" s="4"/>
       <c r="I367" s="4"/>
       <c r="J367" s="4"/>
-      <c r="K367" s="66"/>
+      <c r="K367" s="64"/>
     </row>
     <row r="368" spans="1:11">
       <c r="A368" s="4"/>
       <c r="B368" s="4"/>
       <c r="D368" s="4"/>
-      <c r="E368" s="52"/>
-      <c r="F368" s="52"/>
-      <c r="G368" s="52"/>
+      <c r="E368" s="50"/>
+      <c r="F368" s="50"/>
+      <c r="G368" s="50"/>
       <c r="H368" s="4"/>
       <c r="I368" s="4"/>
       <c r="J368" s="4"/>
-      <c r="K368" s="66"/>
+      <c r="K368" s="64"/>
     </row>
     <row r="369" spans="1:11">
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
       <c r="D369" s="4"/>
-      <c r="E369" s="52"/>
-      <c r="F369" s="52"/>
-      <c r="G369" s="52"/>
+      <c r="E369" s="50"/>
+      <c r="F369" s="50"/>
+      <c r="G369" s="50"/>
       <c r="H369" s="4"/>
       <c r="I369" s="4"/>
       <c r="J369" s="4"/>
-      <c r="K369" s="66"/>
+      <c r="K369" s="64"/>
     </row>
     <row r="370" spans="1:11">
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
       <c r="D370" s="4"/>
-      <c r="E370" s="52"/>
-      <c r="F370" s="52"/>
-      <c r="G370" s="52"/>
+      <c r="E370" s="50"/>
+      <c r="F370" s="50"/>
+      <c r="G370" s="50"/>
       <c r="H370" s="4"/>
       <c r="I370" s="4"/>
       <c r="J370" s="4"/>
-      <c r="K370" s="66"/>
+      <c r="K370" s="64"/>
     </row>
     <row r="371" spans="1:11">
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
       <c r="D371" s="4"/>
-      <c r="E371" s="52"/>
-      <c r="F371" s="52"/>
-      <c r="G371" s="52"/>
+      <c r="E371" s="50"/>
+      <c r="F371" s="50"/>
+      <c r="G371" s="50"/>
       <c r="H371" s="4"/>
       <c r="I371" s="4"/>
       <c r="J371" s="4"/>
-      <c r="K371" s="66"/>
+      <c r="K371" s="64"/>
     </row>
     <row r="372" spans="1:11">
       <c r="A372" s="4"/>
       <c r="B372" s="4"/>
       <c r="D372" s="4"/>
-      <c r="E372" s="52"/>
-      <c r="F372" s="52"/>
-      <c r="G372" s="52"/>
+      <c r="E372" s="50"/>
+      <c r="F372" s="50"/>
+      <c r="G372" s="50"/>
       <c r="H372" s="4"/>
       <c r="I372" s="4"/>
       <c r="J372" s="4"/>
-      <c r="K372" s="66"/>
+      <c r="K372" s="64"/>
     </row>
     <row r="373" spans="1:11">
       <c r="A373" s="4"/>
       <c r="B373" s="4"/>
       <c r="D373" s="4"/>
-      <c r="E373" s="52"/>
-      <c r="F373" s="52"/>
-      <c r="G373" s="52"/>
+      <c r="E373" s="50"/>
+      <c r="F373" s="50"/>
+      <c r="G373" s="50"/>
       <c r="H373" s="4"/>
       <c r="I373" s="4"/>
       <c r="J373" s="4"/>
-      <c r="K373" s="66"/>
+      <c r="K373" s="64"/>
     </row>
     <row r="374" spans="1:11">
       <c r="A374" s="4"/>
       <c r="B374" s="4"/>
       <c r="D374" s="4"/>
-      <c r="E374" s="52"/>
-      <c r="F374" s="52"/>
-      <c r="G374" s="52"/>
+      <c r="E374" s="50"/>
+      <c r="F374" s="50"/>
+      <c r="G374" s="50"/>
       <c r="H374" s="4"/>
       <c r="I374" s="4"/>
       <c r="J374" s="4"/>
-      <c r="K374" s="66"/>
+      <c r="K374" s="64"/>
     </row>
     <row r="375" spans="1:11">
       <c r="A375" s="4"/>
       <c r="B375" s="4"/>
       <c r="D375" s="4"/>
-      <c r="E375" s="52"/>
-      <c r="F375" s="52"/>
-      <c r="G375" s="52"/>
+      <c r="E375" s="50"/>
+      <c r="F375" s="50"/>
+      <c r="G375" s="50"/>
       <c r="H375" s="4"/>
       <c r="I375" s="4"/>
       <c r="J375" s="4"/>
-      <c r="K375" s="66"/>
+      <c r="K375" s="64"/>
     </row>
     <row r="376" spans="1:11">
       <c r="A376" s="4"/>
       <c r="B376" s="4"/>
       <c r="D376" s="4"/>
-      <c r="E376" s="52"/>
-      <c r="F376" s="52"/>
-      <c r="G376" s="52"/>
+      <c r="E376" s="50"/>
+      <c r="F376" s="50"/>
+      <c r="G376" s="50"/>
       <c r="H376" s="4"/>
       <c r="I376" s="4"/>
       <c r="J376" s="4"/>
-      <c r="K376" s="66"/>
+      <c r="K376" s="64"/>
     </row>
     <row r="377" spans="1:11">
       <c r="A377" s="4"/>
       <c r="B377" s="4"/>
       <c r="D377" s="4"/>
-      <c r="E377" s="52"/>
-      <c r="F377" s="52"/>
-      <c r="G377" s="52"/>
+      <c r="E377" s="50"/>
+      <c r="F377" s="50"/>
+      <c r="G377" s="50"/>
       <c r="H377" s="4"/>
       <c r="I377" s="4"/>
       <c r="J377" s="4"/>
-      <c r="K377" s="66"/>
+      <c r="K377" s="64"/>
     </row>
     <row r="378" spans="1:11">
       <c r="A378" s="4"/>
       <c r="B378" s="4"/>
       <c r="D378" s="4"/>
-      <c r="E378" s="52"/>
-      <c r="F378" s="52"/>
-      <c r="G378" s="52"/>
+      <c r="E378" s="50"/>
+      <c r="F378" s="50"/>
+      <c r="G378" s="50"/>
       <c r="H378" s="4"/>
       <c r="I378" s="4"/>
       <c r="J378" s="4"/>
-      <c r="K378" s="66"/>
+      <c r="K378" s="64"/>
     </row>
     <row r="379" spans="1:11">
       <c r="A379" s="4"/>
       <c r="B379" s="4"/>
       <c r="D379" s="4"/>
-      <c r="E379" s="52"/>
-      <c r="F379" s="52"/>
-      <c r="G379" s="52"/>
+      <c r="E379" s="50"/>
+      <c r="F379" s="50"/>
+      <c r="G379" s="50"/>
       <c r="H379" s="4"/>
       <c r="I379" s="4"/>
       <c r="J379" s="4"/>
-      <c r="K379" s="66"/>
+      <c r="K379" s="64"/>
     </row>
     <row r="380" spans="1:11">
       <c r="A380" s="4"/>
       <c r="B380" s="4"/>
       <c r="D380" s="4"/>
-      <c r="E380" s="52"/>
-      <c r="F380" s="52"/>
-      <c r="G380" s="52"/>
+      <c r="E380" s="50"/>
+      <c r="F380" s="50"/>
+      <c r="G380" s="50"/>
       <c r="H380" s="4"/>
       <c r="I380" s="4"/>
       <c r="J380" s="4"/>
-      <c r="K380" s="66"/>
+      <c r="K380" s="64"/>
     </row>
     <row r="381" spans="1:11">
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
       <c r="D381" s="4"/>
-      <c r="E381" s="52"/>
-      <c r="F381" s="52"/>
-      <c r="G381" s="52"/>
+      <c r="E381" s="50"/>
+      <c r="F381" s="50"/>
+      <c r="G381" s="50"/>
       <c r="H381" s="4"/>
       <c r="I381" s="4"/>
       <c r="J381" s="4"/>
-      <c r="K381" s="66"/>
+      <c r="K381" s="64"/>
     </row>
     <row r="382" spans="1:11">
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
       <c r="D382" s="4"/>
-      <c r="E382" s="52"/>
-      <c r="F382" s="52"/>
-      <c r="G382" s="52"/>
+      <c r="E382" s="50"/>
+      <c r="F382" s="50"/>
+      <c r="G382" s="50"/>
       <c r="H382" s="4"/>
       <c r="I382" s="4"/>
       <c r="J382" s="4"/>
-      <c r="K382" s="66"/>
+      <c r="K382" s="64"/>
     </row>
     <row r="383" spans="1:11">
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
       <c r="D383" s="4"/>
-      <c r="E383" s="52"/>
-      <c r="F383" s="52"/>
-      <c r="G383" s="52"/>
+      <c r="E383" s="50"/>
+      <c r="F383" s="50"/>
+      <c r="G383" s="50"/>
       <c r="H383" s="4"/>
       <c r="I383" s="4"/>
       <c r="J383" s="4"/>
-      <c r="K383" s="66"/>
+      <c r="K383" s="64"/>
     </row>
     <row r="384" spans="1:11">
       <c r="A384" s="4"/>
       <c r="B384" s="4"/>
       <c r="D384" s="4"/>
-      <c r="E384" s="52"/>
-      <c r="F384" s="52"/>
-      <c r="G384" s="52"/>
+      <c r="E384" s="50"/>
+      <c r="F384" s="50"/>
+      <c r="G384" s="50"/>
       <c r="H384" s="4"/>
       <c r="I384" s="4"/>
       <c r="J384" s="4"/>
-      <c r="K384" s="66"/>
+      <c r="K384" s="64"/>
     </row>
     <row r="385" spans="1:11">
       <c r="A385" s="4"/>
       <c r="B385" s="4"/>
       <c r="D385" s="4"/>
-      <c r="E385" s="52"/>
-      <c r="F385" s="52"/>
-      <c r="G385" s="52"/>
+      <c r="E385" s="50"/>
+      <c r="F385" s="50"/>
+      <c r="G385" s="50"/>
       <c r="H385" s="4"/>
       <c r="I385" s="4"/>
       <c r="J385" s="4"/>
-      <c r="K385" s="66"/>
+      <c r="K385" s="64"/>
     </row>
     <row r="386" spans="1:11">
       <c r="A386" s="4"/>
       <c r="B386" s="4"/>
       <c r="D386" s="4"/>
-      <c r="E386" s="52"/>
-      <c r="F386" s="52"/>
-      <c r="G386" s="52"/>
+      <c r="E386" s="50"/>
+      <c r="F386" s="50"/>
+      <c r="G386" s="50"/>
       <c r="H386" s="4"/>
       <c r="I386" s="4"/>
       <c r="J386" s="4"/>
-      <c r="K386" s="66"/>
+      <c r="K386" s="64"/>
     </row>
     <row r="387" spans="1:11">
       <c r="A387" s="4"/>
       <c r="B387" s="4"/>
       <c r="D387" s="4"/>
-      <c r="E387" s="52"/>
-      <c r="F387" s="52"/>
-      <c r="G387" s="52"/>
+      <c r="E387" s="50"/>
+      <c r="F387" s="50"/>
+      <c r="G387" s="50"/>
       <c r="H387" s="4"/>
       <c r="I387" s="4"/>
       <c r="J387" s="4"/>
-      <c r="K387" s="66"/>
+      <c r="K387" s="64"/>
     </row>
     <row r="388" spans="1:11">
       <c r="A388" s="4"/>
       <c r="B388" s="4"/>
       <c r="D388" s="4"/>
-      <c r="E388" s="52"/>
-      <c r="F388" s="52"/>
-      <c r="G388" s="52"/>
+      <c r="E388" s="50"/>
+      <c r="F388" s="50"/>
+      <c r="G388" s="50"/>
       <c r="H388" s="4"/>
       <c r="I388" s="4"/>
       <c r="J388" s="4"/>
-      <c r="K388" s="66"/>
+      <c r="K388" s="64"/>
     </row>
     <row r="389" spans="1:11">
       <c r="A389" s="4"/>
       <c r="B389" s="4"/>
       <c r="D389" s="4"/>
-      <c r="E389" s="52"/>
-      <c r="F389" s="52"/>
-      <c r="G389" s="52"/>
+      <c r="E389" s="50"/>
+      <c r="F389" s="50"/>
+      <c r="G389" s="50"/>
       <c r="H389" s="4"/>
       <c r="I389" s="4"/>
       <c r="J389" s="4"/>
-      <c r="K389" s="66"/>
+      <c r="K389" s="64"/>
     </row>
     <row r="390" spans="1:11">
       <c r="A390" s="4"/>
       <c r="B390" s="4"/>
       <c r="D390" s="4"/>
-      <c r="E390" s="52"/>
-      <c r="F390" s="52"/>
-      <c r="G390" s="52"/>
+      <c r="E390" s="50"/>
+      <c r="F390" s="50"/>
+      <c r="G390" s="50"/>
       <c r="H390" s="4"/>
       <c r="I390" s="4"/>
       <c r="J390" s="4"/>
-      <c r="K390" s="66"/>
+      <c r="K390" s="64"/>
     </row>
     <row r="391" spans="1:11">
       <c r="A391" s="4"/>
       <c r="B391" s="4"/>
       <c r="D391" s="4"/>
-      <c r="E391" s="52"/>
-      <c r="F391" s="52"/>
-      <c r="G391" s="52"/>
+      <c r="E391" s="50"/>
+      <c r="F391" s="50"/>
+      <c r="G391" s="50"/>
       <c r="H391" s="4"/>
       <c r="I391" s="4"/>
       <c r="J391" s="4"/>
-      <c r="K391" s="66"/>
+      <c r="K391" s="64"/>
     </row>
     <row r="392" spans="1:11">
       <c r="A392" s="4"/>
       <c r="B392" s="4"/>
       <c r="D392" s="4"/>
-      <c r="E392" s="52"/>
-      <c r="F392" s="52"/>
-      <c r="G392" s="52"/>
+      <c r="E392" s="50"/>
+      <c r="F392" s="50"/>
+      <c r="G392" s="50"/>
       <c r="H392" s="4"/>
       <c r="I392" s="4"/>
       <c r="J392" s="4"/>
-      <c r="K392" s="66"/>
+      <c r="K392" s="64"/>
     </row>
     <row r="393" spans="1:11">
       <c r="A393" s="4"/>
       <c r="B393" s="4"/>
       <c r="D393" s="4"/>
-      <c r="E393" s="52"/>
-      <c r="F393" s="52"/>
-      <c r="G393" s="52"/>
+      <c r="E393" s="50"/>
+      <c r="F393" s="50"/>
+      <c r="G393" s="50"/>
       <c r="H393" s="4"/>
       <c r="I393" s="4"/>
       <c r="J393" s="4"/>
-      <c r="K393" s="66"/>
+      <c r="K393" s="64"/>
     </row>
     <row r="394" spans="1:11">
       <c r="A394" s="4"/>
       <c r="B394" s="4"/>
       <c r="D394" s="4"/>
-      <c r="E394" s="52"/>
-      <c r="F394" s="52"/>
-      <c r="G394" s="52"/>
+      <c r="E394" s="50"/>
+      <c r="F394" s="50"/>
+      <c r="G394" s="50"/>
       <c r="H394" s="4"/>
       <c r="I394" s="4"/>
       <c r="J394" s="4"/>
-      <c r="K394" s="66"/>
+      <c r="K394" s="64"/>
     </row>
     <row r="395" spans="1:11">
       <c r="A395" s="4"/>
       <c r="B395" s="4"/>
       <c r="D395" s="4"/>
-      <c r="E395" s="52"/>
-      <c r="F395" s="52"/>
-      <c r="G395" s="52"/>
+      <c r="E395" s="50"/>
+      <c r="F395" s="50"/>
+      <c r="G395" s="50"/>
       <c r="H395" s="4"/>
       <c r="I395" s="4"/>
       <c r="J395" s="4"/>
-      <c r="K395" s="66"/>
+      <c r="K395" s="64"/>
     </row>
     <row r="396" spans="1:11">
       <c r="A396" s="4"/>
       <c r="B396" s="4"/>
       <c r="D396" s="4"/>
-      <c r="E396" s="52"/>
-      <c r="F396" s="52"/>
-      <c r="G396" s="52"/>
+      <c r="E396" s="50"/>
+      <c r="F396" s="50"/>
+      <c r="G396" s="50"/>
       <c r="H396" s="4"/>
       <c r="I396" s="4"/>
       <c r="J396" s="4"/>
-      <c r="K396" s="66"/>
+      <c r="K396" s="64"/>
     </row>
     <row r="397" spans="1:11">
       <c r="A397" s="4"/>
       <c r="B397" s="4"/>
       <c r="D397" s="4"/>
-      <c r="E397" s="52"/>
-      <c r="F397" s="52"/>
-      <c r="G397" s="52"/>
+      <c r="E397" s="50"/>
+      <c r="F397" s="50"/>
+      <c r="G397" s="50"/>
       <c r="H397" s="4"/>
       <c r="I397" s="4"/>
       <c r="J397" s="4"/>
-      <c r="K397" s="66"/>
+      <c r="K397" s="64"/>
     </row>
     <row r="398" spans="1:11">
       <c r="A398" s="4"/>
       <c r="B398" s="4"/>
       <c r="D398" s="4"/>
-      <c r="E398" s="52"/>
-      <c r="F398" s="52"/>
-      <c r="G398" s="52"/>
+      <c r="E398" s="50"/>
+      <c r="F398" s="50"/>
+      <c r="G398" s="50"/>
       <c r="H398" s="4"/>
       <c r="I398" s="4"/>
       <c r="J398" s="4"/>
-      <c r="K398" s="66"/>
+      <c r="K398" s="64"/>
     </row>
     <row r="399" spans="1:11">
       <c r="A399" s="4"/>
       <c r="B399" s="4"/>
       <c r="D399" s="4"/>
-      <c r="E399" s="52"/>
-      <c r="F399" s="52"/>
-      <c r="G399" s="52"/>
+      <c r="E399" s="50"/>
+      <c r="F399" s="50"/>
+      <c r="G399" s="50"/>
       <c r="H399" s="4"/>
       <c r="I399" s="4"/>
       <c r="J399" s="4"/>
-      <c r="K399" s="66"/>
+      <c r="K399" s="64"/>
     </row>
     <row r="400" spans="1:11">
       <c r="A400" s="4"/>
       <c r="B400" s="4"/>
       <c r="D400" s="4"/>
-      <c r="E400" s="52"/>
-      <c r="F400" s="52"/>
-      <c r="G400" s="52"/>
+      <c r="E400" s="50"/>
+      <c r="F400" s="50"/>
+      <c r="G400" s="50"/>
       <c r="H400" s="4"/>
       <c r="I400" s="4"/>
       <c r="J400" s="4"/>
-      <c r="K400" s="66"/>
+      <c r="K400" s="64"/>
     </row>
     <row r="401" spans="1:11">
       <c r="A401" s="4"/>
       <c r="B401" s="4"/>
       <c r="D401" s="4"/>
-      <c r="E401" s="52"/>
-      <c r="F401" s="52"/>
-      <c r="G401" s="52"/>
+      <c r="E401" s="50"/>
+      <c r="F401" s="50"/>
+      <c r="G401" s="50"/>
       <c r="H401" s="4"/>
       <c r="I401" s="4"/>
       <c r="J401" s="4"/>
-      <c r="K401" s="66"/>
+      <c r="K401" s="64"/>
     </row>
     <row r="402" spans="1:11">
       <c r="A402" s="4"/>
       <c r="B402" s="4"/>
       <c r="D402" s="4"/>
-      <c r="E402" s="52"/>
-      <c r="F402" s="52"/>
-      <c r="G402" s="52"/>
+      <c r="E402" s="50"/>
+      <c r="F402" s="50"/>
+      <c r="G402" s="50"/>
       <c r="H402" s="4"/>
       <c r="I402" s="4"/>
       <c r="J402" s="4"/>
-      <c r="K402" s="66"/>
+      <c r="K402" s="64"/>
     </row>
     <row r="403" spans="1:11">
       <c r="A403" s="4"/>
       <c r="B403" s="4"/>
       <c r="D403" s="4"/>
-      <c r="E403" s="52"/>
-      <c r="F403" s="52"/>
-      <c r="G403" s="52"/>
+      <c r="E403" s="50"/>
+      <c r="F403" s="50"/>
+      <c r="G403" s="50"/>
       <c r="H403" s="4"/>
       <c r="I403" s="4"/>
       <c r="J403" s="4"/>
-      <c r="K403" s="66"/>
+      <c r="K403" s="64"/>
     </row>
     <row r="404" spans="1:11">
       <c r="A404" s="4"/>
       <c r="B404" s="4"/>
       <c r="D404" s="4"/>
-      <c r="E404" s="52"/>
-      <c r="F404" s="52"/>
-      <c r="G404" s="52"/>
+      <c r="E404" s="50"/>
+      <c r="F404" s="50"/>
+      <c r="G404" s="50"/>
       <c r="H404" s="4"/>
       <c r="I404" s="4"/>
       <c r="J404" s="4"/>
-      <c r="K404" s="66"/>
+      <c r="K404" s="64"/>
     </row>
     <row r="405" spans="1:11">
       <c r="A405" s="4"/>
       <c r="B405" s="4"/>
       <c r="D405" s="4"/>
-      <c r="E405" s="52"/>
-      <c r="F405" s="52"/>
-      <c r="G405" s="52"/>
+      <c r="E405" s="50"/>
+      <c r="F405" s="50"/>
+      <c r="G405" s="50"/>
       <c r="H405" s="4"/>
       <c r="I405" s="4"/>
       <c r="J405" s="4"/>
-      <c r="K405" s="66"/>
+      <c r="K405" s="64"/>
     </row>
     <row r="406" spans="1:11">
       <c r="A406" s="4"/>
       <c r="B406" s="4"/>
       <c r="D406" s="4"/>
-      <c r="E406" s="52"/>
-      <c r="F406" s="52"/>
-      <c r="G406" s="52"/>
+      <c r="E406" s="50"/>
+      <c r="F406" s="50"/>
+      <c r="G406" s="50"/>
       <c r="H406" s="4"/>
       <c r="I406" s="4"/>
       <c r="J406" s="4"/>
-      <c r="K406" s="66"/>
+      <c r="K406" s="64"/>
     </row>
     <row r="407" spans="1:11">
       <c r="A407" s="4"/>
       <c r="B407" s="4"/>
       <c r="D407" s="4"/>
-      <c r="E407" s="52"/>
-      <c r="F407" s="52"/>
-      <c r="G407" s="52"/>
+      <c r="E407" s="50"/>
+      <c r="F407" s="50"/>
+      <c r="G407" s="50"/>
       <c r="H407" s="4"/>
       <c r="I407" s="4"/>
       <c r="J407" s="4"/>
-      <c r="K407" s="66"/>
+      <c r="K407" s="64"/>
     </row>
     <row r="408" spans="1:11">
       <c r="A408" s="4"/>
       <c r="B408" s="4"/>
       <c r="D408" s="4"/>
-      <c r="E408" s="52"/>
-      <c r="F408" s="52"/>
-      <c r="G408" s="52"/>
+      <c r="E408" s="50"/>
+      <c r="F408" s="50"/>
+      <c r="G408" s="50"/>
       <c r="H408" s="4"/>
       <c r="I408" s="4"/>
       <c r="J408" s="4"/>
-      <c r="K408" s="66"/>
+      <c r="K408" s="64"/>
     </row>
     <row r="409" spans="1:11">
       <c r="A409" s="4"/>
       <c r="B409" s="4"/>
       <c r="D409" s="4"/>
-      <c r="E409" s="52"/>
-      <c r="F409" s="52"/>
-      <c r="G409" s="52"/>
+      <c r="E409" s="50"/>
+      <c r="F409" s="50"/>
+      <c r="G409" s="50"/>
       <c r="H409" s="4"/>
       <c r="I409" s="4"/>
       <c r="J409" s="4"/>
-      <c r="K409" s="66"/>
+      <c r="K409" s="64"/>
     </row>
     <row r="410" spans="1:11">
       <c r="A410" s="4"/>
       <c r="B410" s="4"/>
       <c r="D410" s="4"/>
-      <c r="E410" s="52"/>
-      <c r="F410" s="52"/>
-      <c r="G410" s="52"/>
+      <c r="E410" s="50"/>
+      <c r="F410" s="50"/>
+      <c r="G410" s="50"/>
       <c r="H410" s="4"/>
       <c r="I410" s="4"/>
       <c r="J410" s="4"/>
-      <c r="K410" s="66"/>
+      <c r="K410" s="64"/>
     </row>
     <row r="411" spans="1:11">
       <c r="A411" s="4"/>
       <c r="B411" s="4"/>
       <c r="D411" s="4"/>
-      <c r="E411" s="52"/>
-      <c r="F411" s="52"/>
-      <c r="G411" s="52"/>
+      <c r="E411" s="50"/>
+      <c r="F411" s="50"/>
+      <c r="G411" s="50"/>
       <c r="H411" s="4"/>
       <c r="I411" s="4"/>
       <c r="J411" s="4"/>
-      <c r="K411" s="66"/>
+      <c r="K411" s="64"/>
     </row>
     <row r="412" spans="1:11">
       <c r="A412" s="4"/>
       <c r="B412" s="4"/>
       <c r="D412" s="4"/>
-      <c r="E412" s="52"/>
-      <c r="F412" s="52"/>
-      <c r="G412" s="52"/>
+      <c r="E412" s="50"/>
+      <c r="F412" s="50"/>
+      <c r="G412" s="50"/>
       <c r="H412" s="4"/>
       <c r="I412" s="4"/>
       <c r="J412" s="4"/>
-      <c r="K412" s="66"/>
+      <c r="K412" s="64"/>
     </row>
     <row r="413" spans="1:11">
       <c r="A413" s="4"/>
       <c r="B413" s="4"/>
       <c r="D413" s="4"/>
-      <c r="E413" s="52"/>
-      <c r="F413" s="52"/>
-      <c r="G413" s="52"/>
+      <c r="E413" s="50"/>
+      <c r="F413" s="50"/>
+      <c r="G413" s="50"/>
       <c r="H413" s="4"/>
       <c r="I413" s="4"/>
       <c r="J413" s="4"/>
-      <c r="K413" s="66"/>
+      <c r="K413" s="64"/>
     </row>
     <row r="414" spans="1:11">
       <c r="A414" s="4"/>
       <c r="B414" s="4"/>
       <c r="D414" s="4"/>
-      <c r="E414" s="52"/>
-      <c r="F414" s="52"/>
-      <c r="G414" s="52"/>
+      <c r="E414" s="50"/>
+      <c r="F414" s="50"/>
+      <c r="G414" s="50"/>
       <c r="H414" s="4"/>
       <c r="I414" s="4"/>
       <c r="J414" s="4"/>
-      <c r="K414" s="66"/>
+      <c r="K414" s="64"/>
     </row>
     <row r="415" spans="1:11">
       <c r="A415" s="4"/>
       <c r="B415" s="4"/>
       <c r="D415" s="4"/>
-      <c r="E415" s="52"/>
-      <c r="F415" s="52"/>
-      <c r="G415" s="52"/>
+      <c r="E415" s="50"/>
+      <c r="F415" s="50"/>
+      <c r="G415" s="50"/>
       <c r="H415" s="4"/>
       <c r="I415" s="4"/>
       <c r="J415" s="4"/>
-      <c r="K415" s="66"/>
+      <c r="K415" s="64"/>
     </row>
     <row r="416" spans="1:11">
       <c r="A416" s="4"/>
       <c r="B416" s="4"/>
       <c r="D416" s="4"/>
-      <c r="E416" s="52"/>
-      <c r="F416" s="52"/>
-      <c r="G416" s="52"/>
+      <c r="E416" s="50"/>
+      <c r="F416" s="50"/>
+      <c r="G416" s="50"/>
       <c r="H416" s="4"/>
       <c r="I416" s="4"/>
       <c r="J416" s="4"/>
-      <c r="K416" s="66"/>
+      <c r="K416" s="64"/>
     </row>
     <row r="417" spans="1:11">
       <c r="A417" s="4"/>
       <c r="B417" s="4"/>
       <c r="D417" s="4"/>
-      <c r="E417" s="52"/>
-      <c r="F417" s="52"/>
-      <c r="G417" s="52"/>
+      <c r="E417" s="50"/>
+      <c r="F417" s="50"/>
+      <c r="G417" s="50"/>
       <c r="H417" s="4"/>
       <c r="I417" s="4"/>
       <c r="J417" s="4"/>
-      <c r="K417" s="66"/>
+      <c r="K417" s="64"/>
     </row>
     <row r="418" spans="1:11">
       <c r="A418" s="4"/>
       <c r="B418" s="4"/>
       <c r="D418" s="4"/>
-      <c r="E418" s="52"/>
-      <c r="F418" s="52"/>
-      <c r="G418" s="52"/>
+      <c r="E418" s="50"/>
+      <c r="F418" s="50"/>
+      <c r="G418" s="50"/>
       <c r="H418" s="4"/>
       <c r="I418" s="4"/>
       <c r="J418" s="4"/>
-      <c r="K418" s="66"/>
+      <c r="K418" s="64"/>
     </row>
     <row r="419" spans="1:11">
       <c r="A419" s="4"/>
       <c r="B419" s="4"/>
       <c r="D419" s="4"/>
-      <c r="E419" s="52"/>
-      <c r="F419" s="52"/>
-      <c r="G419" s="52"/>
+      <c r="E419" s="50"/>
+      <c r="F419" s="50"/>
+      <c r="G419" s="50"/>
       <c r="H419" s="4"/>
       <c r="I419" s="4"/>
       <c r="J419" s="4"/>
-      <c r="K419" s="66"/>
+      <c r="K419" s="64"/>
     </row>
     <row r="420" spans="1:11">
       <c r="A420" s="4"/>
       <c r="B420" s="4"/>
       <c r="D420" s="4"/>
-      <c r="E420" s="52"/>
-      <c r="F420" s="52"/>
-      <c r="G420" s="52"/>
+      <c r="E420" s="50"/>
+      <c r="F420" s="50"/>
+      <c r="G420" s="50"/>
       <c r="H420" s="4"/>
       <c r="I420" s="4"/>
       <c r="J420" s="4"/>
-      <c r="K420" s="66"/>
+      <c r="K420" s="64"/>
     </row>
     <row r="421" spans="1:11">
       <c r="A421" s="4"/>
       <c r="B421" s="4"/>
       <c r="D421" s="4"/>
-      <c r="E421" s="52"/>
-      <c r="F421" s="52"/>
-      <c r="G421" s="52"/>
+      <c r="E421" s="50"/>
+      <c r="F421" s="50"/>
+      <c r="G421" s="50"/>
       <c r="H421" s="4"/>
       <c r="I421" s="4"/>
       <c r="J421" s="4"/>
-      <c r="K421" s="66"/>
+      <c r="K421" s="64"/>
     </row>
     <row r="422" spans="1:11">
       <c r="A422" s="4"/>
       <c r="B422" s="4"/>
       <c r="D422" s="4"/>
-      <c r="E422" s="52"/>
-      <c r="F422" s="52"/>
-      <c r="G422" s="52"/>
+      <c r="E422" s="50"/>
+      <c r="F422" s="50"/>
+      <c r="G422" s="50"/>
       <c r="H422" s="4"/>
       <c r="I422" s="4"/>
       <c r="J422" s="4"/>
-      <c r="K422" s="66"/>
+      <c r="K422" s="64"/>
     </row>
     <row r="423" spans="1:11">
       <c r="A423" s="4"/>
       <c r="B423" s="4"/>
       <c r="D423" s="4"/>
-      <c r="E423" s="52"/>
-      <c r="F423" s="52"/>
-      <c r="G423" s="52"/>
+      <c r="E423" s="50"/>
+      <c r="F423" s="50"/>
+      <c r="G423" s="50"/>
       <c r="H423" s="4"/>
       <c r="I423" s="4"/>
       <c r="J423" s="4"/>
-      <c r="K423" s="66"/>
+      <c r="K423" s="64"/>
     </row>
     <row r="424" spans="1:11">
       <c r="A424" s="4"/>
       <c r="B424" s="4"/>
       <c r="D424" s="4"/>
-      <c r="E424" s="52"/>
-      <c r="F424" s="52"/>
-      <c r="G424" s="52"/>
+      <c r="E424" s="50"/>
+      <c r="F424" s="50"/>
+      <c r="G424" s="50"/>
       <c r="H424" s="4"/>
       <c r="I424" s="4"/>
       <c r="J424" s="4"/>
-      <c r="K424" s="66"/>
+      <c r="K424" s="64"/>
     </row>
     <row r="425" spans="1:11">
       <c r="A425" s="4"/>
       <c r="B425" s="4"/>
       <c r="D425" s="4"/>
-      <c r="E425" s="52"/>
-      <c r="F425" s="52"/>
-      <c r="G425" s="52"/>
+      <c r="E425" s="50"/>
+      <c r="F425" s="50"/>
+      <c r="G425" s="50"/>
       <c r="H425" s="4"/>
       <c r="I425" s="4"/>
       <c r="J425" s="4"/>
-      <c r="K425" s="66"/>
+      <c r="K425" s="64"/>
     </row>
     <row r="426" spans="1:11">
       <c r="A426" s="4"/>
       <c r="B426" s="4"/>
       <c r="D426" s="4"/>
-      <c r="E426" s="52"/>
-      <c r="F426" s="52"/>
-      <c r="G426" s="52"/>
+      <c r="E426" s="50"/>
+      <c r="F426" s="50"/>
+      <c r="G426" s="50"/>
       <c r="H426" s="4"/>
       <c r="I426" s="4"/>
       <c r="J426" s="4"/>
-      <c r="K426" s="66"/>
+      <c r="K426" s="64"/>
     </row>
     <row r="427" spans="1:11">
       <c r="A427" s="4"/>
       <c r="B427" s="4"/>
       <c r="D427" s="4"/>
-      <c r="E427" s="52"/>
-      <c r="F427" s="52"/>
-      <c r="G427" s="52"/>
+      <c r="E427" s="50"/>
+      <c r="F427" s="50"/>
+      <c r="G427" s="50"/>
       <c r="H427" s="4"/>
       <c r="I427" s="4"/>
       <c r="J427" s="4"/>
-      <c r="K427" s="66"/>
+      <c r="K427" s="64"/>
     </row>
     <row r="428" spans="1:11">
       <c r="A428" s="4"/>
       <c r="B428" s="4"/>
       <c r="D428" s="4"/>
-      <c r="E428" s="52"/>
-      <c r="F428" s="52"/>
-      <c r="G428" s="52"/>
+      <c r="E428" s="50"/>
+      <c r="F428" s="50"/>
+      <c r="G428" s="50"/>
       <c r="H428" s="4"/>
       <c r="I428" s="4"/>
       <c r="J428" s="4"/>
-      <c r="K428" s="66"/>
+      <c r="K428" s="64"/>
     </row>
     <row r="429" spans="1:11">
       <c r="A429" s="4"/>
       <c r="B429" s="4"/>
       <c r="D429" s="4"/>
-      <c r="E429" s="52"/>
-      <c r="F429" s="52"/>
-      <c r="G429" s="52"/>
+      <c r="E429" s="50"/>
+      <c r="F429" s="50"/>
+      <c r="G429" s="50"/>
       <c r="H429" s="4"/>
       <c r="I429" s="4"/>
       <c r="J429" s="4"/>
-      <c r="K429" s="66"/>
+      <c r="K429" s="64"/>
     </row>
     <row r="430" spans="1:11">
       <c r="A430" s="4"/>
       <c r="B430" s="4"/>
       <c r="D430" s="4"/>
-      <c r="E430" s="52"/>
-      <c r="F430" s="52"/>
-      <c r="G430" s="52"/>
+      <c r="E430" s="50"/>
+      <c r="F430" s="50"/>
+      <c r="G430" s="50"/>
       <c r="H430" s="4"/>
       <c r="I430" s="4"/>
       <c r="J430" s="4"/>
-      <c r="K430" s="66"/>
+      <c r="K430" s="64"/>
     </row>
     <row r="431" spans="1:11">
       <c r="A431" s="4"/>
       <c r="B431" s="4"/>
       <c r="D431" s="4"/>
-      <c r="E431" s="52"/>
-      <c r="F431" s="52"/>
-      <c r="G431" s="52"/>
+      <c r="E431" s="50"/>
+      <c r="F431" s="50"/>
+      <c r="G431" s="50"/>
       <c r="H431" s="4"/>
       <c r="I431" s="4"/>
       <c r="J431" s="4"/>
-      <c r="K431" s="66"/>
+      <c r="K431" s="64"/>
     </row>
     <row r="432" spans="1:11">
       <c r="A432" s="4"/>
       <c r="B432" s="4"/>
       <c r="D432" s="4"/>
-      <c r="E432" s="52"/>
-      <c r="F432" s="52"/>
-      <c r="G432" s="52"/>
+      <c r="E432" s="50"/>
+      <c r="F432" s="50"/>
+      <c r="G432" s="50"/>
       <c r="H432" s="4"/>
       <c r="I432" s="4"/>
       <c r="J432" s="4"/>
-      <c r="K432" s="66"/>
+      <c r="K432" s="64"/>
     </row>
     <row r="433" spans="1:11">
       <c r="A433" s="4"/>
       <c r="B433" s="4"/>
       <c r="D433" s="4"/>
-      <c r="E433" s="52"/>
-      <c r="F433" s="52"/>
-      <c r="G433" s="52"/>
+      <c r="E433" s="50"/>
+      <c r="F433" s="50"/>
+      <c r="G433" s="50"/>
       <c r="H433" s="4"/>
       <c r="I433" s="4"/>
       <c r="J433" s="4"/>
-      <c r="K433" s="66"/>
+      <c r="K433" s="64"/>
     </row>
     <row r="434" spans="1:11">
       <c r="A434" s="4"/>
       <c r="B434" s="4"/>
       <c r="D434" s="4"/>
-      <c r="E434" s="52"/>
-      <c r="F434" s="52"/>
-      <c r="G434" s="52"/>
+      <c r="E434" s="50"/>
+      <c r="F434" s="50"/>
+      <c r="G434" s="50"/>
       <c r="H434" s="4"/>
       <c r="I434" s="4"/>
       <c r="J434" s="4"/>
-      <c r="K434" s="66"/>
+      <c r="K434" s="64"/>
     </row>
     <row r="435" spans="1:11">
       <c r="A435" s="4"/>
       <c r="B435" s="4"/>
       <c r="D435" s="4"/>
-      <c r="E435" s="52"/>
-      <c r="F435" s="52"/>
-      <c r="G435" s="52"/>
+      <c r="E435" s="50"/>
+      <c r="F435" s="50"/>
+      <c r="G435" s="50"/>
       <c r="H435" s="4"/>
       <c r="I435" s="4"/>
       <c r="J435" s="4"/>
-      <c r="K435" s="66"/>
+      <c r="K435" s="64"/>
     </row>
     <row r="436" spans="1:11">
       <c r="A436" s="4"/>
       <c r="B436" s="4"/>
       <c r="D436" s="4"/>
-      <c r="E436" s="52"/>
-      <c r="F436" s="52"/>
-      <c r="G436" s="52"/>
+      <c r="E436" s="50"/>
+      <c r="F436" s="50"/>
+      <c r="G436" s="50"/>
       <c r="H436" s="4"/>
       <c r="I436" s="4"/>
       <c r="J436" s="4"/>
-      <c r="K436" s="66"/>
+      <c r="K436" s="64"/>
     </row>
     <row r="437" spans="1:11">
       <c r="A437" s="4"/>
       <c r="B437" s="4"/>
       <c r="D437" s="4"/>
-      <c r="E437" s="52"/>
-      <c r="F437" s="52"/>
-      <c r="G437" s="52"/>
+      <c r="E437" s="50"/>
+      <c r="F437" s="50"/>
+      <c r="G437" s="50"/>
       <c r="H437" s="4"/>
       <c r="I437" s="4"/>
       <c r="J437" s="4"/>
-      <c r="K437" s="66"/>
+      <c r="K437" s="64"/>
     </row>
     <row r="438" spans="1:11">
       <c r="A438" s="4"/>
       <c r="B438" s="4"/>
       <c r="D438" s="4"/>
-      <c r="E438" s="52"/>
-      <c r="F438" s="52"/>
-      <c r="G438" s="52"/>
+      <c r="E438" s="50"/>
+      <c r="F438" s="50"/>
+      <c r="G438" s="50"/>
       <c r="H438" s="4"/>
       <c r="I438" s="4"/>
       <c r="J438" s="4"/>
-      <c r="K438" s="66"/>
+      <c r="K438" s="64"/>
     </row>
     <row r="439" spans="1:11">
       <c r="A439" s="4"/>
       <c r="B439" s="4"/>
       <c r="D439" s="4"/>
-      <c r="E439" s="52"/>
-      <c r="F439" s="52"/>
-      <c r="G439" s="52"/>
+      <c r="E439" s="50"/>
+      <c r="F439" s="50"/>
+      <c r="G439" s="50"/>
       <c r="H439" s="4"/>
       <c r="I439" s="4"/>
       <c r="J439" s="4"/>
-      <c r="K439" s="66"/>
+      <c r="K439" s="64"/>
     </row>
     <row r="440" spans="1:11">
       <c r="A440" s="4"/>
       <c r="B440" s="4"/>
       <c r="D440" s="4"/>
-      <c r="E440" s="52"/>
-      <c r="F440" s="52"/>
-      <c r="G440" s="52"/>
+      <c r="E440" s="50"/>
+      <c r="F440" s="50"/>
+      <c r="G440" s="50"/>
       <c r="H440" s="4"/>
       <c r="I440" s="4"/>
       <c r="J440" s="4"/>
-      <c r="K440" s="66"/>
+      <c r="K440" s="64"/>
     </row>
     <row r="441" spans="1:11">
       <c r="A441" s="4"/>
       <c r="B441" s="4"/>
       <c r="D441" s="4"/>
-      <c r="E441" s="52"/>
-      <c r="F441" s="52"/>
-      <c r="G441" s="52"/>
+      <c r="E441" s="50"/>
+      <c r="F441" s="50"/>
+      <c r="G441" s="50"/>
       <c r="H441" s="4"/>
       <c r="I441" s="4"/>
       <c r="J441" s="4"/>
-      <c r="K441" s="66"/>
+      <c r="K441" s="64"/>
     </row>
     <row r="442" spans="1:11">
       <c r="A442" s="4"/>
       <c r="B442" s="4"/>
       <c r="D442" s="4"/>
-      <c r="E442" s="52"/>
-      <c r="F442" s="52"/>
-      <c r="G442" s="52"/>
+      <c r="E442" s="50"/>
+      <c r="F442" s="50"/>
+      <c r="G442" s="50"/>
       <c r="H442" s="4"/>
       <c r="I442" s="4"/>
       <c r="J442" s="4"/>
-      <c r="K442" s="66"/>
+      <c r="K442" s="64"/>
     </row>
     <row r="443" spans="1:11">
       <c r="A443" s="4"/>
       <c r="B443" s="4"/>
       <c r="D443" s="4"/>
-      <c r="E443" s="52"/>
-      <c r="F443" s="52"/>
-      <c r="G443" s="52"/>
+      <c r="E443" s="50"/>
+      <c r="F443" s="50"/>
+      <c r="G443" s="50"/>
       <c r="H443" s="4"/>
       <c r="I443" s="4"/>
       <c r="J443" s="4"/>
-      <c r="K443" s="66"/>
+      <c r="K443" s="64"/>
     </row>
     <row r="444" spans="1:11">
       <c r="A444" s="4"/>
       <c r="B444" s="4"/>
       <c r="D444" s="4"/>
-      <c r="E444" s="52"/>
-      <c r="F444" s="52"/>
-      <c r="G444" s="52"/>
+      <c r="E444" s="50"/>
+      <c r="F444" s="50"/>
+      <c r="G444" s="50"/>
       <c r="H444" s="4"/>
       <c r="I444" s="4"/>
       <c r="J444" s="4"/>
-      <c r="K444" s="66"/>
+      <c r="K444" s="64"/>
     </row>
     <row r="445" spans="1:11">
       <c r="A445" s="4"/>
       <c r="B445" s="4"/>
       <c r="D445" s="4"/>
-      <c r="E445" s="52"/>
-      <c r="F445" s="52"/>
-      <c r="G445" s="52"/>
+      <c r="E445" s="50"/>
+      <c r="F445" s="50"/>
+      <c r="G445" s="50"/>
       <c r="H445" s="4"/>
       <c r="I445" s="4"/>
       <c r="J445" s="4"/>
-      <c r="K445" s="66"/>
+      <c r="K445" s="64"/>
     </row>
     <row r="446" spans="1:11">
       <c r="A446" s="4"/>
       <c r="B446" s="4"/>
       <c r="D446" s="4"/>
-      <c r="E446" s="52"/>
-      <c r="F446" s="52"/>
-      <c r="G446" s="52"/>
+      <c r="E446" s="50"/>
+      <c r="F446" s="50"/>
+      <c r="G446" s="50"/>
       <c r="H446" s="4"/>
       <c r="I446" s="4"/>
       <c r="J446" s="4"/>
-      <c r="K446" s="66"/>
+      <c r="K446" s="64"/>
     </row>
     <row r="447" spans="1:11">
       <c r="A447" s="4"/>
       <c r="B447" s="4"/>
       <c r="D447" s="4"/>
-      <c r="E447" s="52"/>
-      <c r="F447" s="52"/>
-      <c r="G447" s="52"/>
+      <c r="E447" s="50"/>
+      <c r="F447" s="50"/>
+      <c r="G447" s="50"/>
       <c r="H447" s="4"/>
       <c r="I447" s="4"/>
       <c r="J447" s="4"/>
-      <c r="K447" s="66"/>
+      <c r="K447" s="64"/>
     </row>
     <row r="448" spans="1:11">
       <c r="A448" s="4"/>
       <c r="B448" s="4"/>
       <c r="D448" s="4"/>
-      <c r="E448" s="52"/>
-      <c r="F448" s="52"/>
-      <c r="G448" s="52"/>
+      <c r="E448" s="50"/>
+      <c r="F448" s="50"/>
+      <c r="G448" s="50"/>
       <c r="H448" s="4"/>
       <c r="I448" s="4"/>
       <c r="J448" s="4"/>
-      <c r="K448" s="66"/>
+      <c r="K448" s="64"/>
     </row>
     <row r="449" spans="1:11">
       <c r="A449" s="4"/>
       <c r="B449" s="4"/>
       <c r="D449" s="4"/>
-      <c r="E449" s="52"/>
-      <c r="F449" s="52"/>
-      <c r="G449" s="52"/>
+      <c r="E449" s="50"/>
+      <c r="F449" s="50"/>
+      <c r="G449" s="50"/>
       <c r="H449" s="4"/>
       <c r="I449" s="4"/>
       <c r="J449" s="4"/>
-      <c r="K449" s="66"/>
+      <c r="K449" s="64"/>
     </row>
     <row r="450" spans="1:11">
       <c r="A450" s="4"/>
       <c r="B450" s="4"/>
       <c r="D450" s="4"/>
-      <c r="E450" s="52"/>
-      <c r="F450" s="52"/>
-      <c r="G450" s="52"/>
+      <c r="E450" s="50"/>
+      <c r="F450" s="50"/>
+      <c r="G450" s="50"/>
       <c r="H450" s="4"/>
       <c r="I450" s="4"/>
       <c r="J450" s="4"/>
-      <c r="K450" s="66"/>
+      <c r="K450" s="64"/>
     </row>
     <row r="451" spans="1:11">
       <c r="A451" s="4"/>
       <c r="B451" s="4"/>
       <c r="D451" s="4"/>
-      <c r="E451" s="52"/>
-      <c r="F451" s="52"/>
-      <c r="G451" s="52"/>
+      <c r="E451" s="50"/>
+      <c r="F451" s="50"/>
+      <c r="G451" s="50"/>
       <c r="H451" s="4"/>
       <c r="I451" s="4"/>
       <c r="J451" s="4"/>
-      <c r="K451" s="66"/>
+      <c r="K451" s="64"/>
     </row>
     <row r="452" spans="1:11">
       <c r="A452" s="4"/>
       <c r="B452" s="4"/>
       <c r="D452" s="4"/>
-      <c r="E452" s="52"/>
-      <c r="F452" s="52"/>
-      <c r="G452" s="52"/>
+      <c r="E452" s="50"/>
+      <c r="F452" s="50"/>
+      <c r="G452" s="50"/>
       <c r="H452" s="4"/>
       <c r="I452" s="4"/>
       <c r="J452" s="4"/>
-      <c r="K452" s="66"/>
+      <c r="K452" s="64"/>
     </row>
     <row r="453" spans="1:11">
       <c r="A453" s="4"/>
       <c r="B453" s="4"/>
       <c r="D453" s="4"/>
-      <c r="E453" s="52"/>
-      <c r="F453" s="52"/>
-      <c r="G453" s="52"/>
+      <c r="E453" s="50"/>
+      <c r="F453" s="50"/>
+      <c r="G453" s="50"/>
       <c r="H453" s="4"/>
       <c r="I453" s="4"/>
       <c r="J453" s="4"/>
-      <c r="K453" s="66"/>
+      <c r="K453" s="64"/>
     </row>
     <row r="454" spans="1:11">
       <c r="A454" s="4"/>
       <c r="B454" s="4"/>
       <c r="D454" s="4"/>
-      <c r="E454" s="52"/>
-      <c r="F454" s="52"/>
-      <c r="G454" s="52"/>
+      <c r="E454" s="50"/>
+      <c r="F454" s="50"/>
+      <c r="G454" s="50"/>
       <c r="H454" s="4"/>
       <c r="I454" s="4"/>
       <c r="J454" s="4"/>
-      <c r="K454" s="66"/>
+      <c r="K454" s="64"/>
     </row>
     <row r="455" spans="1:11">
       <c r="A455" s="4"/>
       <c r="B455" s="4"/>
       <c r="D455" s="4"/>
-      <c r="E455" s="52"/>
-      <c r="F455" s="52"/>
-      <c r="G455" s="52"/>
+      <c r="E455" s="50"/>
+      <c r="F455" s="50"/>
+      <c r="G455" s="50"/>
       <c r="H455" s="4"/>
       <c r="I455" s="4"/>
       <c r="J455" s="4"/>
-      <c r="K455" s="66"/>
+      <c r="K455" s="64"/>
     </row>
     <row r="456" spans="1:11">
       <c r="A456" s="4"/>
       <c r="B456" s="4"/>
       <c r="D456" s="4"/>
-      <c r="E456" s="52"/>
-      <c r="F456" s="52"/>
-      <c r="G456" s="52"/>
+      <c r="E456" s="50"/>
+      <c r="F456" s="50"/>
+      <c r="G456" s="50"/>
       <c r="H456" s="4"/>
       <c r="I456" s="4"/>
       <c r="J456" s="4"/>
-      <c r="K456" s="66"/>
+      <c r="K456" s="64"/>
     </row>
     <row r="457" spans="1:11">
       <c r="A457" s="4"/>
       <c r="B457" s="4"/>
       <c r="D457" s="4"/>
-      <c r="E457" s="52"/>
-      <c r="F457" s="52"/>
-      <c r="G457" s="52"/>
+      <c r="E457" s="50"/>
+      <c r="F457" s="50"/>
+      <c r="G457" s="50"/>
       <c r="H457" s="4"/>
       <c r="I457" s="4"/>
       <c r="J457" s="4"/>
-      <c r="K457" s="66"/>
+      <c r="K457" s="64"/>
     </row>
     <row r="458" spans="1:11">
       <c r="A458" s="4"/>
       <c r="B458" s="4"/>
       <c r="D458" s="4"/>
-      <c r="E458" s="52"/>
-      <c r="F458" s="52"/>
-      <c r="G458" s="52"/>
+      <c r="E458" s="50"/>
+      <c r="F458" s="50"/>
+      <c r="G458" s="50"/>
       <c r="H458" s="4"/>
       <c r="I458" s="4"/>
       <c r="J458" s="4"/>
-      <c r="K458" s="66"/>
+      <c r="K458" s="64"/>
     </row>
     <row r="459" spans="1:11">
       <c r="A459" s="4"/>
       <c r="B459" s="4"/>
       <c r="D459" s="4"/>
-      <c r="E459" s="52"/>
-      <c r="F459" s="52"/>
-      <c r="G459" s="52"/>
+      <c r="E459" s="50"/>
+      <c r="F459" s="50"/>
+      <c r="G459" s="50"/>
       <c r="H459" s="4"/>
       <c r="I459" s="4"/>
       <c r="J459" s="4"/>
-      <c r="K459" s="66"/>
+      <c r="K459" s="64"/>
     </row>
     <row r="460" spans="1:11">
       <c r="A460" s="4"/>
       <c r="B460" s="4"/>
       <c r="D460" s="4"/>
-      <c r="E460" s="52"/>
-      <c r="F460" s="52"/>
-      <c r="G460" s="52"/>
+      <c r="E460" s="50"/>
+      <c r="F460" s="50"/>
+      <c r="G460" s="50"/>
       <c r="H460" s="4"/>
       <c r="I460" s="4"/>
       <c r="J460" s="4"/>
-      <c r="K460" s="66"/>
+      <c r="K460" s="64"/>
     </row>
     <row r="461" spans="1:11">
       <c r="A461" s="4"/>
       <c r="B461" s="4"/>
       <c r="D461" s="4"/>
-      <c r="E461" s="52"/>
-      <c r="F461" s="52"/>
-      <c r="G461" s="52"/>
+      <c r="E461" s="50"/>
+      <c r="F461" s="50"/>
+      <c r="G461" s="50"/>
       <c r="H461" s="4"/>
       <c r="I461" s="4"/>
       <c r="J461" s="4"/>
-      <c r="K461" s="66"/>
+      <c r="K461" s="64"/>
     </row>
     <row r="462" spans="1:11">
       <c r="A462" s="4"/>
       <c r="B462" s="4"/>
       <c r="D462" s="4"/>
-      <c r="E462" s="52"/>
-      <c r="F462" s="52"/>
-      <c r="G462" s="52"/>
+      <c r="E462" s="50"/>
+      <c r="F462" s="50"/>
+      <c r="G462" s="50"/>
       <c r="H462" s="4"/>
       <c r="I462" s="4"/>
       <c r="J462" s="4"/>
-      <c r="K462" s="66"/>
+      <c r="K462" s="64"/>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
@@ -2554,11 +2554,11 @@
   <dimension ref="A1:BA542"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="F12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A31" sqref="$A31:$XFD31"/>
+      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
@@ -333,13 +333,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="45">
     <font>
@@ -499,13 +499,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -513,8 +506,23 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -527,61 +535,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -596,6 +551,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -604,8 +574,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -620,15 +606,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -637,13 +644,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -688,13 +688,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,7 +706,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,13 +742,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,13 +760,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,7 +844,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,85 +856,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,51 +907,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -972,6 +928,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -983,6 +963,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1001,153 +992,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1341,7 +1341,7 @@
     <xf numFmtId="10" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1380,7 +1380,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2581,11 +2581,11 @@
   <dimension ref="A1:BA542"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -2755,7 +2755,7 @@
         <v>39.33</v>
       </c>
       <c r="H3" s="47">
-        <f t="shared" ref="H3:H30" si="0">(E3-F3)*100</f>
+        <f t="shared" ref="H3:H32" si="0">(E3-F3)*100</f>
         <v>159</v>
       </c>
       <c r="I3" s="47">
@@ -2923,7 +2923,7 @@
         <v>454</v>
       </c>
       <c r="I5" s="47">
-        <f t="shared" ref="I5:I30" si="4">FLOOR(1000/(E5-F5),100)</f>
+        <f t="shared" ref="I5:I32" si="4">FLOOR(1000/(E5-F5),100)</f>
         <v>200</v>
       </c>
       <c r="J5" s="63">
@@ -3306,7 +3306,7 @@
         <v>0.0808375298171216</v>
       </c>
       <c r="L13" s="65">
-        <f t="shared" ref="L13:L30" si="5">(G13-E13)/E13</f>
+        <f t="shared" ref="L13:L32" si="5">(G13-E13)/E13</f>
         <v>0.220514179697853</v>
       </c>
       <c r="M13" s="21" t="s">
@@ -3344,11 +3344,11 @@
         <v>200</v>
       </c>
       <c r="J14" s="63">
-        <f t="shared" ref="J14:J30" si="6">(G14-E14)/(E14-F14)</f>
+        <f t="shared" ref="J14:J32" si="6">(G14-E14)/(E14-F14)</f>
         <v>3.40487804878048</v>
       </c>
       <c r="K14" s="64">
-        <f t="shared" ref="K14:K30" si="7">(E14-F14)/E14</f>
+        <f t="shared" ref="K14:K32" si="7">(E14-F14)/E14</f>
         <v>0.0577627500704425</v>
       </c>
       <c r="L14" s="66">
@@ -4118,23 +4118,23 @@
         <v>44.92</v>
       </c>
       <c r="H31" s="47">
-        <f>(E31-F31)*100</f>
+        <f t="shared" si="0"/>
         <v>356</v>
       </c>
       <c r="I31" s="47">
-        <f>FLOOR(1000/(E31-F31),100)</f>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="J31" s="63">
-        <f>(G31-E31)/(E31-F31)</f>
+        <f t="shared" si="6"/>
         <v>1.61797752808989</v>
       </c>
       <c r="K31" s="64">
-        <f>(E31-F31)/E31</f>
+        <f t="shared" si="7"/>
         <v>0.0909090909090908</v>
       </c>
       <c r="L31" s="65">
-        <f>(G31-E31)/E31</f>
+        <f t="shared" si="5"/>
         <v>0.14708886618999</v>
       </c>
       <c r="M31" s="79" t="s">
@@ -4164,23 +4164,23 @@
         <v>120.78</v>
       </c>
       <c r="H32" s="47">
-        <f>(E32-F32)*100</f>
+        <f t="shared" si="0"/>
         <v>1050</v>
       </c>
       <c r="I32" s="47">
-        <f>FLOOR(1000/(E32-F32),100)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J32" s="63">
-        <f>(G32-E32)/(E32-F32)</f>
+        <f t="shared" si="6"/>
         <v>1.16952380952381</v>
       </c>
       <c r="K32" s="64">
-        <f>(E32-F32)/E32</f>
+        <f t="shared" si="7"/>
         <v>0.0967741935483871</v>
       </c>
       <c r="L32" s="65">
-        <f>(G32-E32)/E32</f>
+        <f t="shared" si="5"/>
         <v>0.113179723502304</v>
       </c>
       <c r="M32" s="80" t="s">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="11360"/>
+    <workbookView windowWidth="26500" windowHeight="10980"/>
   </bookViews>
   <sheets>
     <sheet name="交易计划及执行表" sheetId="7" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92">
   <si>
     <t>计划编码</t>
   </si>
@@ -325,6 +325,9 @@
     <t>青岛啤酒</t>
   </si>
   <si>
+    <t>JH_00031</t>
+  </si>
+  <si>
     <t>000069</t>
   </si>
 </sst>
@@ -333,13 +336,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="45">
     <font>
@@ -506,8 +509,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -521,15 +531,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -543,16 +547,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -560,15 +585,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,16 +599,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -613,37 +623,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -688,13 +691,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,19 +763,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,67 +829,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,61 +859,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,7 +911,72 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -936,222 +1004,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1279,6 +1282,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2581,11 +2593,11 @@
   <dimension ref="A1:BA542"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomRight" activeCell="C33" sqref="C33:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -2617,13 +2629,13 @@
       <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="47" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="13" t="s">
@@ -2632,105 +2644,105 @@
       <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="59" t="s">
+      <c r="L1" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="71" t="s">
+      <c r="M1" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="81"/>
-      <c r="AE1" s="81"/>
-      <c r="AF1" s="81"/>
-      <c r="AG1" s="81"/>
-      <c r="AH1" s="81"/>
-      <c r="AI1" s="81"/>
-      <c r="AJ1" s="81"/>
-      <c r="AK1" s="81"/>
-      <c r="AM1" s="81"/>
-      <c r="AN1" s="81"/>
-      <c r="AO1" s="81"/>
-      <c r="AP1" s="81"/>
-      <c r="AQ1" s="81"/>
-      <c r="AR1" s="81"/>
-      <c r="AS1" s="81"/>
-      <c r="AU1" s="81"/>
-      <c r="AV1" s="81"/>
-      <c r="AW1" s="81"/>
-      <c r="AX1" s="81"/>
-      <c r="AY1" s="81"/>
-      <c r="AZ1" s="81"/>
-      <c r="BA1" s="81"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
+      <c r="X1" s="84"/>
+      <c r="Y1" s="84"/>
+      <c r="Z1" s="84"/>
+      <c r="AA1" s="84"/>
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="84"/>
+      <c r="AE1" s="84"/>
+      <c r="AF1" s="84"/>
+      <c r="AG1" s="84"/>
+      <c r="AH1" s="84"/>
+      <c r="AI1" s="84"/>
+      <c r="AJ1" s="84"/>
+      <c r="AK1" s="84"/>
+      <c r="AM1" s="84"/>
+      <c r="AN1" s="84"/>
+      <c r="AO1" s="84"/>
+      <c r="AP1" s="84"/>
+      <c r="AQ1" s="84"/>
+      <c r="AR1" s="84"/>
+      <c r="AS1" s="84"/>
+      <c r="AU1" s="84"/>
+      <c r="AV1" s="84"/>
+      <c r="AW1" s="84"/>
+      <c r="AX1" s="84"/>
+      <c r="AY1" s="84"/>
+      <c r="AZ1" s="84"/>
+      <c r="BA1" s="84"/>
     </row>
     <row r="2" ht="23.6" spans="1:53">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="12"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="81"/>
-      <c r="X2" s="81"/>
-      <c r="Y2" s="81"/>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="81"/>
-      <c r="AB2" s="81"/>
-      <c r="AC2" s="81"/>
-      <c r="AE2" s="81"/>
-      <c r="AF2" s="81"/>
-      <c r="AG2" s="81"/>
-      <c r="AH2" s="81"/>
-      <c r="AI2" s="81"/>
-      <c r="AJ2" s="81"/>
-      <c r="AK2" s="81"/>
-      <c r="AM2" s="81"/>
-      <c r="AN2" s="81"/>
-      <c r="AO2" s="81"/>
-      <c r="AP2" s="81"/>
-      <c r="AQ2" s="81"/>
-      <c r="AR2" s="81"/>
-      <c r="AS2" s="81"/>
-      <c r="AU2" s="81"/>
-      <c r="AV2" s="81"/>
-      <c r="AW2" s="81"/>
-      <c r="AX2" s="81"/>
-      <c r="AY2" s="81"/>
-      <c r="AZ2" s="81"/>
-      <c r="BA2" s="81"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="84"/>
+      <c r="Y2" s="84"/>
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="84"/>
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="84"/>
+      <c r="AG2" s="84"/>
+      <c r="AH2" s="84"/>
+      <c r="AI2" s="84"/>
+      <c r="AJ2" s="84"/>
+      <c r="AK2" s="84"/>
+      <c r="AM2" s="84"/>
+      <c r="AN2" s="84"/>
+      <c r="AO2" s="84"/>
+      <c r="AP2" s="84"/>
+      <c r="AQ2" s="84"/>
+      <c r="AR2" s="84"/>
+      <c r="AS2" s="84"/>
+      <c r="AU2" s="84"/>
+      <c r="AV2" s="84"/>
+      <c r="AW2" s="84"/>
+      <c r="AX2" s="84"/>
+      <c r="AY2" s="84"/>
+      <c r="AZ2" s="84"/>
+      <c r="BA2" s="84"/>
     </row>
     <row r="3" customFormat="1" ht="23.6" spans="1:53">
       <c r="A3" s="15" t="s">
@@ -2745,74 +2757,74 @@
       <c r="D3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="49">
         <v>34.12</v>
       </c>
-      <c r="F3" s="46">
+      <c r="F3" s="49">
         <v>32.53</v>
       </c>
-      <c r="G3" s="46">
+      <c r="G3" s="49">
         <v>39.33</v>
       </c>
-      <c r="H3" s="47">
+      <c r="H3" s="50">
         <f t="shared" ref="H3:H32" si="0">(E3-F3)*100</f>
         <v>159</v>
       </c>
-      <c r="I3" s="47">
+      <c r="I3" s="50">
         <f>FLOOR(1000/(E3-F3),100)</f>
         <v>600</v>
       </c>
-      <c r="J3" s="63">
+      <c r="J3" s="66">
         <f t="shared" ref="J3:J11" si="1">(G3-E3)/(E3-F3)</f>
         <v>3.27672955974844</v>
       </c>
-      <c r="K3" s="64">
+      <c r="K3" s="67">
         <f t="shared" ref="K3:K14" si="2">(E3-F3)/E3</f>
         <v>0.0466002344665884</v>
       </c>
-      <c r="L3" s="65">
+      <c r="L3" s="68">
         <f t="shared" ref="L3:L11" si="3">(G3-E3)/E3</f>
         <v>0.152696365767878</v>
       </c>
       <c r="M3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
-      <c r="V3" s="81"/>
-      <c r="W3" s="81"/>
-      <c r="X3" s="81"/>
-      <c r="Y3" s="81"/>
-      <c r="Z3" s="81"/>
-      <c r="AA3" s="81"/>
-      <c r="AB3" s="81"/>
-      <c r="AC3" s="81"/>
-      <c r="AE3" s="81"/>
-      <c r="AF3" s="81"/>
-      <c r="AG3" s="81"/>
-      <c r="AH3" s="81"/>
-      <c r="AI3" s="81"/>
-      <c r="AJ3" s="81"/>
-      <c r="AK3" s="81"/>
-      <c r="AM3" s="81"/>
-      <c r="AN3" s="81"/>
-      <c r="AO3" s="81"/>
-      <c r="AP3" s="81"/>
-      <c r="AQ3" s="81"/>
-      <c r="AR3" s="81"/>
-      <c r="AS3" s="81"/>
-      <c r="AU3" s="81"/>
-      <c r="AV3" s="81"/>
-      <c r="AW3" s="81"/>
-      <c r="AX3" s="81"/>
-      <c r="AY3" s="81"/>
-      <c r="AZ3" s="81"/>
-      <c r="BA3" s="81"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="75"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="84"/>
+      <c r="Y3" s="84"/>
+      <c r="Z3" s="84"/>
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="84"/>
+      <c r="AC3" s="84"/>
+      <c r="AE3" s="84"/>
+      <c r="AF3" s="84"/>
+      <c r="AG3" s="84"/>
+      <c r="AH3" s="84"/>
+      <c r="AI3" s="84"/>
+      <c r="AJ3" s="84"/>
+      <c r="AK3" s="84"/>
+      <c r="AM3" s="84"/>
+      <c r="AN3" s="84"/>
+      <c r="AO3" s="84"/>
+      <c r="AP3" s="84"/>
+      <c r="AQ3" s="84"/>
+      <c r="AR3" s="84"/>
+      <c r="AS3" s="84"/>
+      <c r="AU3" s="84"/>
+      <c r="AV3" s="84"/>
+      <c r="AW3" s="84"/>
+      <c r="AX3" s="84"/>
+      <c r="AY3" s="84"/>
+      <c r="AZ3" s="84"/>
+      <c r="BA3" s="84"/>
     </row>
     <row r="4" customFormat="1" ht="23.6" spans="1:53">
       <c r="A4" s="15" t="s">
@@ -2827,74 +2839,74 @@
       <c r="D4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="49">
         <v>32.65</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="49">
         <v>30.89</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="49">
         <v>36.22</v>
       </c>
-      <c r="H4" s="47">
+      <c r="H4" s="50">
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
-      <c r="I4" s="47">
+      <c r="I4" s="50">
         <f>FLOOR(1000/(E4-F4),100)</f>
         <v>500</v>
       </c>
-      <c r="J4" s="63">
+      <c r="J4" s="66">
         <f t="shared" si="1"/>
         <v>2.02840909090909</v>
       </c>
-      <c r="K4" s="64">
+      <c r="K4" s="67">
         <f t="shared" si="2"/>
         <v>0.0539050535987748</v>
       </c>
-      <c r="L4" s="65">
+      <c r="L4" s="68">
         <f t="shared" si="3"/>
         <v>0.109341500765697</v>
       </c>
       <c r="M4" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="V4" s="81"/>
-      <c r="W4" s="81"/>
-      <c r="X4" s="81"/>
-      <c r="Y4" s="81"/>
-      <c r="Z4" s="81"/>
-      <c r="AA4" s="81"/>
-      <c r="AB4" s="81"/>
-      <c r="AC4" s="81"/>
-      <c r="AE4" s="81"/>
-      <c r="AF4" s="81"/>
-      <c r="AG4" s="81"/>
-      <c r="AH4" s="81"/>
-      <c r="AI4" s="81"/>
-      <c r="AJ4" s="81"/>
-      <c r="AK4" s="81"/>
-      <c r="AM4" s="81"/>
-      <c r="AN4" s="81"/>
-      <c r="AO4" s="81"/>
-      <c r="AP4" s="81"/>
-      <c r="AQ4" s="81"/>
-      <c r="AR4" s="81"/>
-      <c r="AS4" s="81"/>
-      <c r="AU4" s="81"/>
-      <c r="AV4" s="81"/>
-      <c r="AW4" s="81"/>
-      <c r="AX4" s="81"/>
-      <c r="AY4" s="81"/>
-      <c r="AZ4" s="81"/>
-      <c r="BA4" s="81"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="75"/>
+      <c r="V4" s="84"/>
+      <c r="W4" s="84"/>
+      <c r="X4" s="84"/>
+      <c r="Y4" s="84"/>
+      <c r="Z4" s="84"/>
+      <c r="AA4" s="84"/>
+      <c r="AB4" s="84"/>
+      <c r="AC4" s="84"/>
+      <c r="AE4" s="84"/>
+      <c r="AF4" s="84"/>
+      <c r="AG4" s="84"/>
+      <c r="AH4" s="84"/>
+      <c r="AI4" s="84"/>
+      <c r="AJ4" s="84"/>
+      <c r="AK4" s="84"/>
+      <c r="AM4" s="84"/>
+      <c r="AN4" s="84"/>
+      <c r="AO4" s="84"/>
+      <c r="AP4" s="84"/>
+      <c r="AQ4" s="84"/>
+      <c r="AR4" s="84"/>
+      <c r="AS4" s="84"/>
+      <c r="AU4" s="84"/>
+      <c r="AV4" s="84"/>
+      <c r="AW4" s="84"/>
+      <c r="AX4" s="84"/>
+      <c r="AY4" s="84"/>
+      <c r="AZ4" s="84"/>
+      <c r="BA4" s="84"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="45" spans="1:14">
       <c r="A5" s="15" t="s">
@@ -2909,39 +2921,39 @@
       <c r="D5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="49">
         <v>51.15</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="49">
         <v>46.61</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="49">
         <v>59.59</v>
       </c>
-      <c r="H5" s="47">
+      <c r="H5" s="50">
         <f t="shared" si="0"/>
         <v>454</v>
       </c>
-      <c r="I5" s="47">
+      <c r="I5" s="50">
         <f t="shared" ref="I5:I32" si="4">FLOOR(1000/(E5-F5),100)</f>
         <v>200</v>
       </c>
-      <c r="J5" s="63">
+      <c r="J5" s="66">
         <f t="shared" si="1"/>
         <v>1.85903083700441</v>
       </c>
-      <c r="K5" s="64">
+      <c r="K5" s="67">
         <f t="shared" si="2"/>
         <v>0.0887585532746823</v>
       </c>
-      <c r="L5" s="65">
+      <c r="L5" s="68">
         <f t="shared" si="3"/>
         <v>0.165004887585533</v>
       </c>
-      <c r="M5" s="74" t="s">
+      <c r="M5" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="75"/>
+      <c r="N5" s="78"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="44" spans="1:14">
       <c r="A6" s="15" t="s">
@@ -2956,39 +2968,39 @@
       <c r="D6" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="51">
         <v>143.8</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="51">
         <v>137.88</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="51">
         <v>158.48</v>
       </c>
-      <c r="H6" s="47">
+      <c r="H6" s="50">
         <f t="shared" si="0"/>
         <v>592.000000000002</v>
       </c>
-      <c r="I6" s="47">
+      <c r="I6" s="50">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J6" s="63">
+      <c r="J6" s="66">
         <f t="shared" si="1"/>
         <v>2.47972972972972</v>
       </c>
-      <c r="K6" s="64">
+      <c r="K6" s="67">
         <f t="shared" si="2"/>
         <v>0.0411682892906816</v>
       </c>
-      <c r="L6" s="65">
+      <c r="L6" s="68">
         <f t="shared" si="3"/>
         <v>0.102086230876217</v>
       </c>
       <c r="M6" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="75"/>
+      <c r="N6" s="78"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="45" spans="1:14">
       <c r="A7" s="15" t="s">
@@ -3003,39 +3015,39 @@
       <c r="D7" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="51">
         <v>20.44</v>
       </c>
-      <c r="F7" s="48">
+      <c r="F7" s="51">
         <v>19.09</v>
       </c>
-      <c r="G7" s="48">
+      <c r="G7" s="51">
         <v>23.43</v>
       </c>
-      <c r="H7" s="47">
+      <c r="H7" s="50">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
-      <c r="I7" s="47">
+      <c r="I7" s="50">
         <f t="shared" si="4"/>
         <v>700</v>
       </c>
-      <c r="J7" s="63">
+      <c r="J7" s="66">
         <f t="shared" si="1"/>
         <v>2.21481481481481</v>
       </c>
-      <c r="K7" s="64">
+      <c r="K7" s="67">
         <f t="shared" si="2"/>
         <v>0.0660469667318983</v>
       </c>
-      <c r="L7" s="65">
+      <c r="L7" s="68">
         <f t="shared" si="3"/>
         <v>0.146281800391389</v>
       </c>
-      <c r="M7" s="74" t="s">
+      <c r="M7" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="75"/>
+      <c r="N7" s="78"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A8" s="15" t="s">
@@ -3050,39 +3062,39 @@
       <c r="D8" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="49">
         <v>17.19</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="49">
         <v>15.5</v>
       </c>
-      <c r="G8" s="46">
+      <c r="G8" s="49">
         <v>20.72</v>
       </c>
-      <c r="H8" s="47">
+      <c r="H8" s="50">
         <f t="shared" si="0"/>
         <v>169</v>
       </c>
-      <c r="I8" s="47">
+      <c r="I8" s="50">
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="J8" s="63">
+      <c r="J8" s="66">
         <f t="shared" si="1"/>
         <v>2.0887573964497</v>
       </c>
-      <c r="K8" s="64">
+      <c r="K8" s="67">
         <f t="shared" si="2"/>
         <v>0.0983129726585225</v>
       </c>
-      <c r="L8" s="65">
+      <c r="L8" s="68">
         <f t="shared" si="3"/>
         <v>0.205351948807446</v>
       </c>
       <c r="M8" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="75"/>
+      <c r="N8" s="78"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="15" spans="1:13">
       <c r="A9" s="15" t="s">
@@ -3097,32 +3109,32 @@
       <c r="D9" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="49">
         <v>64.3</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="49">
         <v>58.51</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="49">
         <v>65.72</v>
       </c>
-      <c r="H9" s="47">
+      <c r="H9" s="50">
         <f t="shared" si="0"/>
         <v>579</v>
       </c>
-      <c r="I9" s="47">
+      <c r="I9" s="50">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J9" s="63">
+      <c r="J9" s="66">
         <f t="shared" si="1"/>
         <v>0.24525043177893</v>
       </c>
-      <c r="K9" s="64">
+      <c r="K9" s="67">
         <f t="shared" si="2"/>
         <v>0.0900466562986003</v>
       </c>
-      <c r="L9" s="65">
+      <c r="L9" s="68">
         <f t="shared" si="3"/>
         <v>0.0220839813374806</v>
       </c>
@@ -3143,32 +3155,32 @@
       <c r="D10" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="49">
         <v>39.15</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="49">
         <v>35.91</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10" s="49">
         <v>44.28</v>
       </c>
-      <c r="H10" s="47">
+      <c r="H10" s="50">
         <f t="shared" si="0"/>
         <v>324</v>
       </c>
-      <c r="I10" s="47">
+      <c r="I10" s="50">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J10" s="63">
+      <c r="J10" s="66">
         <f t="shared" si="1"/>
         <v>1.58333333333333</v>
       </c>
-      <c r="K10" s="64">
+      <c r="K10" s="67">
         <f t="shared" si="2"/>
         <v>0.0827586206896552</v>
       </c>
-      <c r="L10" s="65">
+      <c r="L10" s="68">
         <f t="shared" si="3"/>
         <v>0.131034482758621</v>
       </c>
@@ -3183,45 +3195,45 @@
       <c r="B11" s="19">
         <v>44539</v>
       </c>
-      <c r="C11" s="82" t="s">
+      <c r="C11" s="85" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="49">
         <v>117.8</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="49">
         <v>111.17</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="49">
         <v>131.73</v>
       </c>
-      <c r="H11" s="47">
+      <c r="H11" s="50">
         <f t="shared" si="0"/>
         <v>663</v>
       </c>
-      <c r="I11" s="47">
+      <c r="I11" s="50">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J11" s="63">
+      <c r="J11" s="66">
         <f t="shared" si="1"/>
         <v>2.10105580693816</v>
       </c>
-      <c r="K11" s="64">
+      <c r="K11" s="67">
         <f t="shared" si="2"/>
         <v>0.0562818336162988</v>
       </c>
-      <c r="L11" s="65">
+      <c r="L11" s="68">
         <f t="shared" si="3"/>
         <v>0.118251273344652</v>
       </c>
       <c r="M11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="75"/>
+      <c r="N11" s="78"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="29" spans="1:13">
       <c r="A12" s="15" t="s">
@@ -3236,34 +3248,34 @@
       <c r="D12" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="49">
         <v>49.4</v>
       </c>
-      <c r="F12" s="46">
+      <c r="F12" s="49">
         <v>46.7</v>
       </c>
-      <c r="G12" s="46" t="s">
+      <c r="G12" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="47">
+      <c r="H12" s="50">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="I12" s="47">
+      <c r="I12" s="50">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J12" s="63" t="s">
+      <c r="J12" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="K12" s="64">
+      <c r="K12" s="67">
         <f t="shared" si="2"/>
         <v>0.054655870445344</v>
       </c>
-      <c r="L12" s="65" t="s">
+      <c r="L12" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="M12" s="74" t="s">
+      <c r="M12" s="77" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3280,32 +3292,32 @@
       <c r="D13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="49">
         <v>37.73</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="49">
         <v>34.68</v>
       </c>
-      <c r="G13" s="46">
+      <c r="G13" s="49">
         <v>46.05</v>
       </c>
-      <c r="H13" s="47">
+      <c r="H13" s="50">
         <f t="shared" si="0"/>
         <v>305</v>
       </c>
-      <c r="I13" s="47">
+      <c r="I13" s="50">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J13" s="63">
+      <c r="J13" s="66">
         <f>(G13-E13)/(E13-F13)</f>
         <v>2.72786885245902</v>
       </c>
-      <c r="K13" s="64">
+      <c r="K13" s="67">
         <f t="shared" si="2"/>
         <v>0.0808375298171216</v>
       </c>
-      <c r="L13" s="65">
+      <c r="L13" s="68">
         <f t="shared" ref="L13:L32" si="5">(G13-E13)/E13</f>
         <v>0.220514179697853</v>
       </c>
@@ -3320,42 +3332,42 @@
       <c r="B14" s="27">
         <v>44525</v>
       </c>
-      <c r="C14" s="83" t="s">
+      <c r="C14" s="86" t="s">
         <v>46</v>
       </c>
       <c r="D14" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="49">
+      <c r="E14" s="52">
         <v>70.98</v>
       </c>
-      <c r="F14" s="49">
+      <c r="F14" s="52">
         <v>66.88</v>
       </c>
-      <c r="G14" s="49">
+      <c r="G14" s="52">
         <v>84.94</v>
       </c>
-      <c r="H14" s="50">
+      <c r="H14" s="53">
         <f t="shared" si="0"/>
         <v>410.000000000001</v>
       </c>
-      <c r="I14" s="47">
+      <c r="I14" s="50">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="J14" s="63">
+      <c r="J14" s="66">
         <f t="shared" ref="J14:J32" si="6">(G14-E14)/(E14-F14)</f>
         <v>3.40487804878048</v>
       </c>
-      <c r="K14" s="64">
+      <c r="K14" s="67">
         <f t="shared" ref="K14:K32" si="7">(E14-F14)/E14</f>
         <v>0.0577627500704425</v>
       </c>
-      <c r="L14" s="66">
+      <c r="L14" s="69">
         <f t="shared" si="5"/>
         <v>0.196675119752043</v>
       </c>
-      <c r="M14" s="76" t="s">
+      <c r="M14" s="79" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3372,36 +3384,36 @@
       <c r="D15" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="49">
+      <c r="E15" s="52">
         <v>29.77</v>
       </c>
-      <c r="F15" s="49">
+      <c r="F15" s="52">
         <v>27.72</v>
       </c>
-      <c r="G15" s="49">
+      <c r="G15" s="52">
         <v>34.93</v>
       </c>
-      <c r="H15" s="50">
+      <c r="H15" s="53">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
-      <c r="I15" s="47">
+      <c r="I15" s="50">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="J15" s="63">
+      <c r="J15" s="66">
         <f t="shared" si="6"/>
         <v>2.51707317073171</v>
       </c>
-      <c r="K15" s="67">
+      <c r="K15" s="70">
         <f t="shared" si="7"/>
         <v>0.0688612697346322</v>
       </c>
-      <c r="L15" s="66">
+      <c r="L15" s="69">
         <f t="shared" si="5"/>
         <v>0.173328854551562</v>
       </c>
-      <c r="M15" s="76" t="s">
+      <c r="M15" s="79" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3418,36 +3430,36 @@
       <c r="D16" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="49">
+      <c r="E16" s="52">
         <v>30.66</v>
       </c>
-      <c r="F16" s="49">
+      <c r="F16" s="52">
         <v>29.35</v>
       </c>
-      <c r="G16" s="49">
+      <c r="G16" s="52">
         <v>38.71</v>
       </c>
-      <c r="H16" s="50">
+      <c r="H16" s="53">
         <f t="shared" si="0"/>
         <v>131</v>
       </c>
-      <c r="I16" s="47">
+      <c r="I16" s="50">
         <f t="shared" si="4"/>
         <v>700</v>
       </c>
-      <c r="J16" s="63">
+      <c r="J16" s="66">
         <f t="shared" si="6"/>
         <v>6.14503816793894</v>
       </c>
-      <c r="K16" s="67">
+      <c r="K16" s="70">
         <f t="shared" si="7"/>
         <v>0.042726679712981</v>
       </c>
-      <c r="L16" s="66">
+      <c r="L16" s="69">
         <f t="shared" si="5"/>
         <v>0.262557077625571</v>
       </c>
-      <c r="M16" s="76" t="s">
+      <c r="M16" s="79" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3464,36 +3476,36 @@
       <c r="D17" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="49">
+      <c r="E17" s="52">
         <v>26.2</v>
       </c>
-      <c r="F17" s="49">
+      <c r="F17" s="52">
         <v>24.68</v>
       </c>
-      <c r="G17" s="49">
+      <c r="G17" s="52">
         <v>32.49</v>
       </c>
-      <c r="H17" s="50">
+      <c r="H17" s="53">
         <f t="shared" si="0"/>
         <v>152</v>
       </c>
-      <c r="I17" s="47">
+      <c r="I17" s="50">
         <f t="shared" si="4"/>
         <v>600</v>
       </c>
-      <c r="J17" s="63">
+      <c r="J17" s="66">
         <f t="shared" si="6"/>
         <v>4.13815789473685</v>
       </c>
-      <c r="K17" s="67">
+      <c r="K17" s="70">
         <f t="shared" si="7"/>
         <v>0.0580152671755725</v>
       </c>
-      <c r="L17" s="66">
+      <c r="L17" s="69">
         <f t="shared" si="5"/>
         <v>0.240076335877863</v>
       </c>
-      <c r="M17" s="76" t="s">
+      <c r="M17" s="79" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3504,42 +3516,42 @@
       <c r="B18" s="27">
         <v>44533</v>
       </c>
-      <c r="C18" s="83" t="s">
+      <c r="C18" s="86" t="s">
         <v>56</v>
       </c>
       <c r="D18" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="49">
+      <c r="E18" s="52">
         <v>28.82</v>
       </c>
-      <c r="F18" s="49">
+      <c r="F18" s="52">
         <v>26.31</v>
       </c>
-      <c r="G18" s="49">
+      <c r="G18" s="52">
         <v>32.36</v>
       </c>
-      <c r="H18" s="50">
+      <c r="H18" s="53">
         <f t="shared" si="0"/>
         <v>251</v>
       </c>
-      <c r="I18" s="47">
+      <c r="I18" s="50">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J18" s="63">
+      <c r="J18" s="66">
         <f t="shared" si="6"/>
         <v>1.41035856573705</v>
       </c>
-      <c r="K18" s="67">
+      <c r="K18" s="70">
         <f t="shared" si="7"/>
         <v>0.0870922970159612</v>
       </c>
-      <c r="L18" s="66">
+      <c r="L18" s="69">
         <f t="shared" si="5"/>
         <v>0.122831367106176</v>
       </c>
-      <c r="M18" s="76" t="s">
+      <c r="M18" s="79" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3556,36 +3568,36 @@
       <c r="D19" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="51">
+      <c r="E19" s="54">
         <v>38.89</v>
       </c>
-      <c r="F19" s="51">
+      <c r="F19" s="54">
         <v>36.65</v>
       </c>
-      <c r="G19" s="51">
+      <c r="G19" s="54">
         <v>40.7</v>
       </c>
-      <c r="H19" s="50">
+      <c r="H19" s="53">
         <f t="shared" si="0"/>
         <v>224</v>
       </c>
-      <c r="I19" s="47">
+      <c r="I19" s="50">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="J19" s="63">
+      <c r="J19" s="66">
         <f t="shared" si="6"/>
         <v>0.808035714285715</v>
       </c>
-      <c r="K19" s="67">
+      <c r="K19" s="70">
         <f t="shared" si="7"/>
         <v>0.0575983543327334</v>
       </c>
-      <c r="L19" s="66">
+      <c r="L19" s="69">
         <f t="shared" si="5"/>
         <v>0.0465415273849319</v>
       </c>
-      <c r="M19" s="76" t="s">
+      <c r="M19" s="79" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3602,36 +3614,36 @@
       <c r="D20" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="51">
+      <c r="E20" s="54">
         <v>27.73</v>
       </c>
-      <c r="F20" s="51">
+      <c r="F20" s="54">
         <v>25.3</v>
       </c>
-      <c r="G20" s="51">
+      <c r="G20" s="54">
         <v>31.94</v>
       </c>
-      <c r="H20" s="50">
+      <c r="H20" s="53">
         <f t="shared" si="0"/>
         <v>243</v>
       </c>
-      <c r="I20" s="47">
+      <c r="I20" s="50">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="J20" s="63">
+      <c r="J20" s="66">
         <f t="shared" si="6"/>
         <v>1.73251028806584</v>
       </c>
-      <c r="K20" s="67">
+      <c r="K20" s="70">
         <f t="shared" si="7"/>
         <v>0.0876307248467364</v>
       </c>
-      <c r="L20" s="66">
+      <c r="L20" s="69">
         <f t="shared" si="5"/>
         <v>0.151821132347638</v>
       </c>
-      <c r="M20" s="77" t="s">
+      <c r="M20" s="80" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3648,36 +3660,36 @@
       <c r="D21" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="51">
+      <c r="E21" s="54">
         <v>11.75</v>
       </c>
-      <c r="F21" s="51">
+      <c r="F21" s="54">
         <v>10.9</v>
       </c>
-      <c r="G21" s="51">
+      <c r="G21" s="54">
         <v>14.54</v>
       </c>
-      <c r="H21" s="50">
+      <c r="H21" s="53">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="I21" s="47">
+      <c r="I21" s="50">
         <f t="shared" si="4"/>
         <v>1100</v>
       </c>
-      <c r="J21" s="63">
+      <c r="J21" s="66">
         <f t="shared" si="6"/>
         <v>3.28235294117647</v>
       </c>
-      <c r="K21" s="67">
+      <c r="K21" s="70">
         <f t="shared" si="7"/>
         <v>0.0723404255319149</v>
       </c>
-      <c r="L21" s="66">
+      <c r="L21" s="69">
         <f t="shared" si="5"/>
         <v>0.237446808510638</v>
       </c>
-      <c r="M21" s="77" t="s">
+      <c r="M21" s="80" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3688,42 +3700,42 @@
       <c r="B22" s="30">
         <v>44546</v>
       </c>
-      <c r="C22" s="84" t="s">
+      <c r="C22" s="87" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="51">
+      <c r="E22" s="54">
         <v>74.46</v>
       </c>
-      <c r="F22" s="51">
+      <c r="F22" s="54">
         <v>70.4</v>
       </c>
-      <c r="G22" s="51">
+      <c r="G22" s="54">
         <v>83.27</v>
       </c>
-      <c r="H22" s="50">
+      <c r="H22" s="53">
         <f t="shared" si="0"/>
         <v>405.999999999999</v>
       </c>
-      <c r="I22" s="47">
+      <c r="I22" s="50">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="J22" s="63">
+      <c r="J22" s="66">
         <f t="shared" si="6"/>
         <v>2.16995073891626</v>
       </c>
-      <c r="K22" s="67">
+      <c r="K22" s="70">
         <f t="shared" si="7"/>
         <v>0.0545259199570238</v>
       </c>
-      <c r="L22" s="66">
+      <c r="L22" s="69">
         <f t="shared" si="5"/>
         <v>0.118318560300833</v>
       </c>
-      <c r="M22" s="77" t="s">
+      <c r="M22" s="80" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3734,42 +3746,42 @@
       <c r="B23" s="35">
         <v>44546</v>
       </c>
-      <c r="C23" s="82" t="s">
+      <c r="C23" s="85" t="s">
         <v>69</v>
       </c>
       <c r="D23" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="52">
+      <c r="E23" s="55">
         <v>278</v>
       </c>
-      <c r="F23" s="52">
+      <c r="F23" s="55">
         <v>260.02</v>
       </c>
-      <c r="G23" s="52">
+      <c r="G23" s="55">
         <v>304.23</v>
       </c>
-      <c r="H23" s="47">
+      <c r="H23" s="50">
         <f t="shared" si="0"/>
         <v>1798</v>
       </c>
-      <c r="I23" s="47">
+      <c r="I23" s="50">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J23" s="63">
+      <c r="J23" s="66">
         <f t="shared" si="6"/>
         <v>1.45884315906563</v>
       </c>
-      <c r="K23" s="64">
+      <c r="K23" s="67">
         <f t="shared" si="7"/>
         <v>0.0646762589928058</v>
       </c>
-      <c r="L23" s="65">
+      <c r="L23" s="68">
         <f t="shared" si="5"/>
         <v>0.0943525179856116</v>
       </c>
-      <c r="M23" s="78" t="s">
+      <c r="M23" s="81" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3786,36 +3798,36 @@
       <c r="D24" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="51">
+      <c r="E24" s="54">
         <v>64.68</v>
       </c>
-      <c r="F24" s="51">
+      <c r="F24" s="54">
         <v>59.29</v>
       </c>
-      <c r="G24" s="51">
+      <c r="G24" s="54">
         <v>67.16</v>
       </c>
-      <c r="H24" s="47">
+      <c r="H24" s="50">
         <f t="shared" si="0"/>
         <v>539.000000000001</v>
       </c>
-      <c r="I24" s="47">
+      <c r="I24" s="50">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J24" s="63">
+      <c r="J24" s="66">
         <f t="shared" si="6"/>
         <v>0.460111317254172</v>
       </c>
-      <c r="K24" s="64">
+      <c r="K24" s="67">
         <f t="shared" si="7"/>
         <v>0.0833333333333334</v>
       </c>
-      <c r="L24" s="65">
+      <c r="L24" s="68">
         <f t="shared" si="5"/>
         <v>0.038342609771181</v>
       </c>
-      <c r="M24" s="77" t="s">
+      <c r="M24" s="80" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3826,42 +3838,42 @@
       <c r="B25" s="30">
         <v>44547</v>
       </c>
-      <c r="C25" s="82" t="s">
+      <c r="C25" s="85" t="s">
         <v>75</v>
       </c>
       <c r="D25" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="51">
+      <c r="E25" s="54">
         <v>39.39</v>
       </c>
-      <c r="F25" s="51">
+      <c r="F25" s="54">
         <v>36.13</v>
       </c>
-      <c r="G25" s="51">
+      <c r="G25" s="54">
         <v>46.32</v>
       </c>
-      <c r="H25" s="47">
+      <c r="H25" s="50">
         <f t="shared" si="0"/>
         <v>326</v>
       </c>
-      <c r="I25" s="47">
+      <c r="I25" s="50">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J25" s="63">
+      <c r="J25" s="66">
         <f t="shared" si="6"/>
         <v>2.12576687116565</v>
       </c>
-      <c r="K25" s="64">
+      <c r="K25" s="67">
         <f t="shared" si="7"/>
         <v>0.0827621223660827</v>
       </c>
-      <c r="L25" s="65">
+      <c r="L25" s="68">
         <f t="shared" si="5"/>
         <v>0.175932977913176</v>
       </c>
-      <c r="M25" s="77" t="s">
+      <c r="M25" s="80" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3872,42 +3884,42 @@
       <c r="B26" s="30">
         <v>44549</v>
       </c>
-      <c r="C26" s="82" t="s">
+      <c r="C26" s="85" t="s">
         <v>38</v>
       </c>
       <c r="D26" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="51">
+      <c r="E26" s="54">
         <v>118.25</v>
       </c>
-      <c r="F26" s="51">
+      <c r="F26" s="54">
         <v>110.08</v>
       </c>
-      <c r="G26" s="51">
+      <c r="G26" s="54">
         <v>131.77</v>
       </c>
-      <c r="H26" s="47">
+      <c r="H26" s="50">
         <f t="shared" si="0"/>
         <v>817</v>
       </c>
-      <c r="I26" s="47">
+      <c r="I26" s="50">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J26" s="63">
+      <c r="J26" s="66">
         <f t="shared" si="6"/>
         <v>1.65483476132191</v>
       </c>
-      <c r="K26" s="64">
+      <c r="K26" s="67">
         <f t="shared" si="7"/>
         <v>0.0690909090909091</v>
       </c>
-      <c r="L26" s="65">
+      <c r="L26" s="68">
         <f t="shared" si="5"/>
         <v>0.114334038054968</v>
       </c>
-      <c r="M26" s="77" t="s">
+      <c r="M26" s="80" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3924,36 +3936,36 @@
       <c r="D27" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="E27" s="53">
+      <c r="E27" s="56">
         <v>215</v>
       </c>
-      <c r="F27" s="53">
+      <c r="F27" s="56">
         <v>198</v>
       </c>
-      <c r="G27" s="53">
+      <c r="G27" s="56">
         <v>236.01</v>
       </c>
-      <c r="H27" s="47">
+      <c r="H27" s="50">
         <f t="shared" si="0"/>
         <v>1700</v>
       </c>
-      <c r="I27" s="47">
+      <c r="I27" s="50">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J27" s="63">
+      <c r="J27" s="66">
         <f t="shared" si="6"/>
         <v>1.23588235294118</v>
       </c>
-      <c r="K27" s="64">
+      <c r="K27" s="67">
         <f t="shared" si="7"/>
         <v>0.0790697674418605</v>
       </c>
-      <c r="L27" s="65">
+      <c r="L27" s="68">
         <f t="shared" si="5"/>
         <v>0.0977209302325581</v>
       </c>
-      <c r="M27" s="78" t="s">
+      <c r="M27" s="81" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3970,36 +3982,36 @@
       <c r="D28" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="E28" s="53">
+      <c r="E28" s="56">
         <v>55.99</v>
       </c>
-      <c r="F28" s="53">
+      <c r="F28" s="56">
         <v>52.35</v>
       </c>
-      <c r="G28" s="53">
+      <c r="G28" s="56">
         <v>58.12</v>
       </c>
-      <c r="H28" s="47">
+      <c r="H28" s="50">
         <f t="shared" si="0"/>
         <v>364</v>
       </c>
-      <c r="I28" s="47">
+      <c r="I28" s="50">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="J28" s="63">
+      <c r="J28" s="66">
         <f t="shared" si="6"/>
         <v>0.585164835164834</v>
       </c>
-      <c r="K28" s="64">
+      <c r="K28" s="67">
         <f t="shared" si="7"/>
         <v>0.0650116092159314</v>
       </c>
-      <c r="L28" s="65">
+      <c r="L28" s="68">
         <f t="shared" si="5"/>
         <v>0.0380425075906411</v>
       </c>
-      <c r="M28" s="79" t="s">
+      <c r="M28" s="82" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4016,36 +4028,36 @@
       <c r="D29" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E29" s="53">
+      <c r="E29" s="56">
         <v>183.8</v>
       </c>
-      <c r="F29" s="53">
+      <c r="F29" s="56">
         <v>170.6</v>
       </c>
-      <c r="G29" s="53">
+      <c r="G29" s="56">
         <v>203.32</v>
       </c>
-      <c r="H29" s="47">
+      <c r="H29" s="50">
         <f t="shared" si="0"/>
         <v>1320</v>
       </c>
-      <c r="I29" s="47">
+      <c r="I29" s="50">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J29" s="63">
+      <c r="J29" s="66">
         <f t="shared" si="6"/>
         <v>1.47878787878788</v>
       </c>
-      <c r="K29" s="64">
+      <c r="K29" s="67">
         <f t="shared" si="7"/>
         <v>0.071817192600653</v>
       </c>
-      <c r="L29" s="65">
+      <c r="L29" s="68">
         <f t="shared" si="5"/>
         <v>0.10620239390642</v>
       </c>
-      <c r="M29" s="78" t="s">
+      <c r="M29" s="81" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4056,42 +4068,42 @@
       <c r="B30" s="30">
         <v>44549</v>
       </c>
-      <c r="C30" s="85" t="s">
+      <c r="C30" s="88" t="s">
         <v>85</v>
       </c>
       <c r="D30" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="E30" s="53">
+      <c r="E30" s="56">
         <v>27.68</v>
       </c>
-      <c r="F30" s="53">
+      <c r="F30" s="56">
         <v>26</v>
       </c>
-      <c r="G30" s="53">
+      <c r="G30" s="56">
         <v>29.06</v>
       </c>
-      <c r="H30" s="47">
+      <c r="H30" s="50">
         <f t="shared" si="0"/>
         <v>168</v>
       </c>
-      <c r="I30" s="47">
+      <c r="I30" s="50">
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="J30" s="63">
+      <c r="J30" s="66">
         <f t="shared" si="6"/>
         <v>0.821428571428571</v>
       </c>
-      <c r="K30" s="64">
+      <c r="K30" s="67">
         <f t="shared" si="7"/>
         <v>0.0606936416184971</v>
       </c>
-      <c r="L30" s="65">
+      <c r="L30" s="68">
         <f t="shared" si="5"/>
         <v>0.0498554913294797</v>
       </c>
-      <c r="M30" s="79" t="s">
+      <c r="M30" s="82" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4108,36 +4120,36 @@
       <c r="D31" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="53">
+      <c r="E31" s="56">
         <v>39.16</v>
       </c>
-      <c r="F31" s="53">
+      <c r="F31" s="56">
         <v>35.6</v>
       </c>
-      <c r="G31" s="53">
+      <c r="G31" s="56">
         <v>44.92</v>
       </c>
-      <c r="H31" s="47">
+      <c r="H31" s="50">
         <f t="shared" si="0"/>
         <v>356</v>
       </c>
-      <c r="I31" s="47">
+      <c r="I31" s="50">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="J31" s="63">
+      <c r="J31" s="66">
         <f t="shared" si="6"/>
         <v>1.61797752808989</v>
       </c>
-      <c r="K31" s="64">
+      <c r="K31" s="67">
         <f t="shared" si="7"/>
         <v>0.0909090909090908</v>
       </c>
-      <c r="L31" s="65">
+      <c r="L31" s="68">
         <f t="shared" si="5"/>
         <v>0.14708886618999</v>
       </c>
-      <c r="M31" s="79" t="s">
+      <c r="M31" s="82" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4154,5237 +4166,5241 @@
       <c r="D32" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="E32" s="54">
+      <c r="E32" s="57">
         <v>108.5</v>
       </c>
-      <c r="F32" s="54">
+      <c r="F32" s="57">
         <v>98</v>
       </c>
-      <c r="G32" s="54">
+      <c r="G32" s="57">
         <v>120.78</v>
       </c>
-      <c r="H32" s="47">
+      <c r="H32" s="50">
         <f t="shared" si="0"/>
         <v>1050</v>
       </c>
-      <c r="I32" s="47">
+      <c r="I32" s="50">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J32" s="63">
+      <c r="J32" s="66">
         <f t="shared" si="6"/>
         <v>1.16952380952381</v>
       </c>
-      <c r="K32" s="64">
+      <c r="K32" s="67">
         <f t="shared" si="7"/>
         <v>0.0967741935483871</v>
       </c>
-      <c r="L32" s="65">
+      <c r="L32" s="68">
         <f t="shared" si="5"/>
         <v>0.113179723502304</v>
       </c>
-      <c r="M32" s="80" t="s">
+      <c r="M32" s="83" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="43"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="68"/>
-      <c r="L33" s="69"/>
-      <c r="M33" s="43"/>
+    <row r="33" ht="15" spans="1:13">
+      <c r="A33" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="43">
+        <v>44553</v>
+      </c>
+      <c r="C33" s="44"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="46"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="43"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="69"/>
-      <c r="M34" s="43"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="46"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="43"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="68"/>
-      <c r="L35" s="69"/>
-      <c r="M35" s="43"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="46"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="43"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="69"/>
-      <c r="M36" s="43"/>
+      <c r="A36" s="46"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="46"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="43"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="68"/>
-      <c r="L37" s="69"/>
-      <c r="M37" s="43"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="46"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="68"/>
-      <c r="L38" s="69"/>
-      <c r="M38" s="43"/>
+      <c r="A38" s="46"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="71"/>
+      <c r="L38" s="72"/>
+      <c r="M38" s="46"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="43"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="68"/>
-      <c r="L39" s="69"/>
-      <c r="M39" s="43"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="71"/>
+      <c r="L39" s="72"/>
+      <c r="M39" s="46"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="43"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="68"/>
-      <c r="L40" s="69"/>
-      <c r="M40" s="43"/>
+      <c r="A40" s="46"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="71"/>
+      <c r="L40" s="72"/>
+      <c r="M40" s="46"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="43"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="68"/>
-      <c r="L41" s="69"/>
-      <c r="M41" s="43"/>
+      <c r="A41" s="46"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="71"/>
+      <c r="L41" s="72"/>
+      <c r="M41" s="46"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="43"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="68"/>
-      <c r="L42" s="69"/>
-      <c r="M42" s="43"/>
+      <c r="A42" s="46"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="71"/>
+      <c r="L42" s="72"/>
+      <c r="M42" s="46"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="43"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
-      <c r="K43" s="68"/>
-      <c r="L43" s="69"/>
-      <c r="M43" s="43"/>
+      <c r="A43" s="46"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="71"/>
+      <c r="L43" s="72"/>
+      <c r="M43" s="46"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="43"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
-      <c r="K44" s="68"/>
-      <c r="L44" s="69"/>
-      <c r="M44" s="43"/>
+      <c r="A44" s="46"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="71"/>
+      <c r="L44" s="72"/>
+      <c r="M44" s="46"/>
     </row>
     <row r="45" ht="13" spans="1:13">
-      <c r="A45" s="86" t="s">
-        <v>90</v>
-      </c>
-      <c r="B45" s="43"/>
+      <c r="A45" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="46"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
-      <c r="K45" s="70"/>
-      <c r="M45" s="43"/>
+      <c r="K45" s="73"/>
+      <c r="M45" s="46"/>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="D46" s="6"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="56"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
-      <c r="K46" s="70"/>
+      <c r="K46" s="73"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="D47" s="6"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="56"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
-      <c r="K47" s="70"/>
+      <c r="K47" s="73"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="D48" s="6"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
-      <c r="K48" s="70"/>
+      <c r="K48" s="73"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="D49" s="6"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="56"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
-      <c r="K49" s="70"/>
+      <c r="K49" s="73"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="56"/>
-      <c r="G50" s="56"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
-      <c r="K50" s="70"/>
+      <c r="K50" s="73"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="D51" s="6"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
-      <c r="K51" s="70"/>
+      <c r="K51" s="73"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="56"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="59"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
-      <c r="K52" s="70"/>
+      <c r="K52" s="73"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="56"/>
-      <c r="F53" s="56"/>
-      <c r="G53" s="56"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="59"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
-      <c r="K53" s="70"/>
+      <c r="K53" s="73"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="56"/>
-      <c r="G54" s="56"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="59"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
-      <c r="K54" s="70"/>
+      <c r="K54" s="73"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="56"/>
-      <c r="F55" s="56"/>
-      <c r="G55" s="56"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="59"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
-      <c r="K55" s="70"/>
+      <c r="K55" s="73"/>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="D56" s="6"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="56"/>
-      <c r="G56" s="56"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="59"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
-      <c r="K56" s="70"/>
+      <c r="K56" s="73"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="D57" s="6"/>
-      <c r="E57" s="56"/>
-      <c r="F57" s="56"/>
-      <c r="G57" s="56"/>
+      <c r="E57" s="59"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="59"/>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
-      <c r="K57" s="70"/>
+      <c r="K57" s="73"/>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="D58" s="6"/>
-      <c r="E58" s="56"/>
-      <c r="F58" s="56"/>
-      <c r="G58" s="56"/>
+      <c r="E58" s="59"/>
+      <c r="F58" s="59"/>
+      <c r="G58" s="59"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
-      <c r="K58" s="70"/>
+      <c r="K58" s="73"/>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="56"/>
-      <c r="F59" s="56"/>
-      <c r="G59" s="56"/>
+      <c r="E59" s="59"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="59"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
-      <c r="K59" s="70"/>
+      <c r="K59" s="73"/>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="D60" s="6"/>
-      <c r="E60" s="56"/>
-      <c r="F60" s="56"/>
-      <c r="G60" s="56"/>
+      <c r="E60" s="59"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="59"/>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
-      <c r="K60" s="70"/>
+      <c r="K60" s="73"/>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="56"/>
-      <c r="G61" s="56"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="59"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
-      <c r="K61" s="70"/>
+      <c r="K61" s="73"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="56"/>
-      <c r="G62" s="56"/>
+      <c r="E62" s="59"/>
+      <c r="F62" s="59"/>
+      <c r="G62" s="59"/>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
-      <c r="K62" s="70"/>
+      <c r="K62" s="73"/>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="D63" s="6"/>
-      <c r="E63" s="56"/>
-      <c r="F63" s="56"/>
-      <c r="G63" s="56"/>
+      <c r="E63" s="59"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="59"/>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
-      <c r="K63" s="70"/>
+      <c r="K63" s="73"/>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="D64" s="6"/>
-      <c r="E64" s="56"/>
-      <c r="F64" s="56"/>
-      <c r="G64" s="56"/>
+      <c r="E64" s="59"/>
+      <c r="F64" s="59"/>
+      <c r="G64" s="59"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
-      <c r="K64" s="70"/>
+      <c r="K64" s="73"/>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="D65" s="6"/>
-      <c r="E65" s="56"/>
-      <c r="F65" s="56"/>
-      <c r="G65" s="56"/>
+      <c r="E65" s="59"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="59"/>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
-      <c r="K65" s="70"/>
+      <c r="K65" s="73"/>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="D66" s="6"/>
-      <c r="E66" s="56"/>
-      <c r="F66" s="56"/>
-      <c r="G66" s="56"/>
+      <c r="E66" s="59"/>
+      <c r="F66" s="59"/>
+      <c r="G66" s="59"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
-      <c r="K66" s="70"/>
+      <c r="K66" s="73"/>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="D67" s="6"/>
-      <c r="E67" s="56"/>
-      <c r="F67" s="56"/>
-      <c r="G67" s="56"/>
+      <c r="E67" s="59"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="59"/>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
-      <c r="K67" s="70"/>
+      <c r="K67" s="73"/>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="D68" s="6"/>
-      <c r="E68" s="56"/>
-      <c r="F68" s="56"/>
-      <c r="G68" s="56"/>
+      <c r="E68" s="59"/>
+      <c r="F68" s="59"/>
+      <c r="G68" s="59"/>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
-      <c r="K68" s="70"/>
+      <c r="K68" s="73"/>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="D69" s="6"/>
-      <c r="E69" s="56"/>
-      <c r="F69" s="56"/>
-      <c r="G69" s="56"/>
+      <c r="E69" s="59"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="59"/>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
-      <c r="K69" s="70"/>
+      <c r="K69" s="73"/>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="D70" s="6"/>
-      <c r="E70" s="56"/>
-      <c r="F70" s="56"/>
-      <c r="G70" s="56"/>
+      <c r="E70" s="59"/>
+      <c r="F70" s="59"/>
+      <c r="G70" s="59"/>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
-      <c r="K70" s="70"/>
+      <c r="K70" s="73"/>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="D71" s="6"/>
-      <c r="E71" s="56"/>
-      <c r="F71" s="56"/>
-      <c r="G71" s="56"/>
+      <c r="E71" s="59"/>
+      <c r="F71" s="59"/>
+      <c r="G71" s="59"/>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
-      <c r="K71" s="70"/>
+      <c r="K71" s="73"/>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="D72" s="6"/>
-      <c r="E72" s="56"/>
-      <c r="F72" s="56"/>
-      <c r="G72" s="56"/>
+      <c r="E72" s="59"/>
+      <c r="F72" s="59"/>
+      <c r="G72" s="59"/>
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
-      <c r="K72" s="70"/>
+      <c r="K72" s="73"/>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="D73" s="6"/>
-      <c r="E73" s="56"/>
-      <c r="F73" s="56"/>
-      <c r="G73" s="56"/>
+      <c r="E73" s="59"/>
+      <c r="F73" s="59"/>
+      <c r="G73" s="59"/>
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
-      <c r="K73" s="70"/>
+      <c r="K73" s="73"/>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="D74" s="6"/>
-      <c r="E74" s="56"/>
-      <c r="F74" s="56"/>
-      <c r="G74" s="56"/>
+      <c r="E74" s="59"/>
+      <c r="F74" s="59"/>
+      <c r="G74" s="59"/>
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
-      <c r="K74" s="70"/>
+      <c r="K74" s="73"/>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="D75" s="6"/>
-      <c r="E75" s="56"/>
-      <c r="F75" s="56"/>
-      <c r="G75" s="56"/>
+      <c r="E75" s="59"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="59"/>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
-      <c r="K75" s="70"/>
+      <c r="K75" s="73"/>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="D76" s="6"/>
-      <c r="E76" s="56"/>
-      <c r="F76" s="56"/>
-      <c r="G76" s="56"/>
+      <c r="E76" s="59"/>
+      <c r="F76" s="59"/>
+      <c r="G76" s="59"/>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
-      <c r="K76" s="70"/>
+      <c r="K76" s="73"/>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="D77" s="6"/>
-      <c r="E77" s="56"/>
-      <c r="F77" s="56"/>
-      <c r="G77" s="56"/>
+      <c r="E77" s="59"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="59"/>
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
-      <c r="K77" s="70"/>
+      <c r="K77" s="73"/>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="D78" s="6"/>
-      <c r="E78" s="56"/>
-      <c r="F78" s="56"/>
-      <c r="G78" s="56"/>
+      <c r="E78" s="59"/>
+      <c r="F78" s="59"/>
+      <c r="G78" s="59"/>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
-      <c r="K78" s="70"/>
+      <c r="K78" s="73"/>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="D79" s="6"/>
-      <c r="E79" s="56"/>
-      <c r="F79" s="56"/>
-      <c r="G79" s="56"/>
+      <c r="E79" s="59"/>
+      <c r="F79" s="59"/>
+      <c r="G79" s="59"/>
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
-      <c r="K79" s="70"/>
+      <c r="K79" s="73"/>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="D80" s="6"/>
-      <c r="E80" s="56"/>
-      <c r="F80" s="56"/>
-      <c r="G80" s="56"/>
+      <c r="E80" s="59"/>
+      <c r="F80" s="59"/>
+      <c r="G80" s="59"/>
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
-      <c r="K80" s="70"/>
+      <c r="K80" s="73"/>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="D81" s="6"/>
-      <c r="E81" s="56"/>
-      <c r="F81" s="56"/>
-      <c r="G81" s="56"/>
+      <c r="E81" s="59"/>
+      <c r="F81" s="59"/>
+      <c r="G81" s="59"/>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
-      <c r="K81" s="70"/>
+      <c r="K81" s="73"/>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="D82" s="6"/>
-      <c r="E82" s="56"/>
-      <c r="F82" s="56"/>
-      <c r="G82" s="56"/>
+      <c r="E82" s="59"/>
+      <c r="F82" s="59"/>
+      <c r="G82" s="59"/>
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
-      <c r="K82" s="70"/>
+      <c r="K82" s="73"/>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="D83" s="6"/>
-      <c r="E83" s="56"/>
-      <c r="F83" s="56"/>
-      <c r="G83" s="56"/>
+      <c r="E83" s="59"/>
+      <c r="F83" s="59"/>
+      <c r="G83" s="59"/>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
-      <c r="K83" s="70"/>
+      <c r="K83" s="73"/>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="D84" s="6"/>
-      <c r="E84" s="56"/>
-      <c r="F84" s="56"/>
-      <c r="G84" s="56"/>
+      <c r="E84" s="59"/>
+      <c r="F84" s="59"/>
+      <c r="G84" s="59"/>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
       <c r="J84" s="6"/>
-      <c r="K84" s="70"/>
+      <c r="K84" s="73"/>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="D85" s="6"/>
-      <c r="E85" s="56"/>
-      <c r="F85" s="56"/>
-      <c r="G85" s="56"/>
+      <c r="E85" s="59"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="59"/>
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
-      <c r="K85" s="70"/>
+      <c r="K85" s="73"/>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="D86" s="6"/>
-      <c r="E86" s="56"/>
-      <c r="F86" s="56"/>
-      <c r="G86" s="56"/>
+      <c r="E86" s="59"/>
+      <c r="F86" s="59"/>
+      <c r="G86" s="59"/>
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
-      <c r="K86" s="70"/>
+      <c r="K86" s="73"/>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="D87" s="6"/>
-      <c r="E87" s="56"/>
-      <c r="F87" s="56"/>
-      <c r="G87" s="56"/>
+      <c r="E87" s="59"/>
+      <c r="F87" s="59"/>
+      <c r="G87" s="59"/>
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
-      <c r="K87" s="70"/>
+      <c r="K87" s="73"/>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="D88" s="6"/>
-      <c r="E88" s="56"/>
-      <c r="F88" s="56"/>
-      <c r="G88" s="56"/>
+      <c r="E88" s="59"/>
+      <c r="F88" s="59"/>
+      <c r="G88" s="59"/>
       <c r="H88" s="6"/>
       <c r="I88" s="6"/>
       <c r="J88" s="6"/>
-      <c r="K88" s="70"/>
+      <c r="K88" s="73"/>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="D89" s="6"/>
-      <c r="E89" s="56"/>
-      <c r="F89" s="56"/>
-      <c r="G89" s="56"/>
+      <c r="E89" s="59"/>
+      <c r="F89" s="59"/>
+      <c r="G89" s="59"/>
       <c r="H89" s="6"/>
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
-      <c r="K89" s="70"/>
+      <c r="K89" s="73"/>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="D90" s="6"/>
-      <c r="E90" s="56"/>
-      <c r="F90" s="56"/>
-      <c r="G90" s="56"/>
+      <c r="E90" s="59"/>
+      <c r="F90" s="59"/>
+      <c r="G90" s="59"/>
       <c r="H90" s="6"/>
       <c r="I90" s="6"/>
       <c r="J90" s="6"/>
-      <c r="K90" s="70"/>
+      <c r="K90" s="73"/>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="D91" s="6"/>
-      <c r="E91" s="56"/>
-      <c r="F91" s="56"/>
-      <c r="G91" s="56"/>
+      <c r="E91" s="59"/>
+      <c r="F91" s="59"/>
+      <c r="G91" s="59"/>
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
-      <c r="K91" s="70"/>
+      <c r="K91" s="73"/>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="D92" s="6"/>
-      <c r="E92" s="56"/>
-      <c r="F92" s="56"/>
-      <c r="G92" s="56"/>
+      <c r="E92" s="59"/>
+      <c r="F92" s="59"/>
+      <c r="G92" s="59"/>
       <c r="H92" s="6"/>
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
-      <c r="K92" s="70"/>
+      <c r="K92" s="73"/>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="D93" s="6"/>
-      <c r="E93" s="56"/>
-      <c r="F93" s="56"/>
-      <c r="G93" s="56"/>
+      <c r="E93" s="59"/>
+      <c r="F93" s="59"/>
+      <c r="G93" s="59"/>
       <c r="H93" s="6"/>
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
-      <c r="K93" s="70"/>
+      <c r="K93" s="73"/>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="D94" s="6"/>
-      <c r="E94" s="56"/>
-      <c r="F94" s="56"/>
-      <c r="G94" s="56"/>
+      <c r="E94" s="59"/>
+      <c r="F94" s="59"/>
+      <c r="G94" s="59"/>
       <c r="H94" s="6"/>
       <c r="I94" s="6"/>
       <c r="J94" s="6"/>
-      <c r="K94" s="70"/>
+      <c r="K94" s="73"/>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="D95" s="6"/>
-      <c r="E95" s="56"/>
-      <c r="F95" s="56"/>
-      <c r="G95" s="56"/>
+      <c r="E95" s="59"/>
+      <c r="F95" s="59"/>
+      <c r="G95" s="59"/>
       <c r="H95" s="6"/>
       <c r="I95" s="6"/>
       <c r="J95" s="6"/>
-      <c r="K95" s="70"/>
+      <c r="K95" s="73"/>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="D96" s="6"/>
-      <c r="E96" s="56"/>
-      <c r="F96" s="56"/>
-      <c r="G96" s="56"/>
+      <c r="E96" s="59"/>
+      <c r="F96" s="59"/>
+      <c r="G96" s="59"/>
       <c r="H96" s="6"/>
       <c r="I96" s="6"/>
       <c r="J96" s="6"/>
-      <c r="K96" s="70"/>
+      <c r="K96" s="73"/>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="D97" s="6"/>
-      <c r="E97" s="56"/>
-      <c r="F97" s="56"/>
-      <c r="G97" s="56"/>
+      <c r="E97" s="59"/>
+      <c r="F97" s="59"/>
+      <c r="G97" s="59"/>
       <c r="H97" s="6"/>
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
-      <c r="K97" s="70"/>
+      <c r="K97" s="73"/>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="D98" s="6"/>
-      <c r="E98" s="56"/>
-      <c r="F98" s="56"/>
-      <c r="G98" s="56"/>
+      <c r="E98" s="59"/>
+      <c r="F98" s="59"/>
+      <c r="G98" s="59"/>
       <c r="H98" s="6"/>
       <c r="I98" s="6"/>
       <c r="J98" s="6"/>
-      <c r="K98" s="70"/>
+      <c r="K98" s="73"/>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="D99" s="6"/>
-      <c r="E99" s="56"/>
-      <c r="F99" s="56"/>
-      <c r="G99" s="56"/>
+      <c r="E99" s="59"/>
+      <c r="F99" s="59"/>
+      <c r="G99" s="59"/>
       <c r="H99" s="6"/>
       <c r="I99" s="6"/>
       <c r="J99" s="6"/>
-      <c r="K99" s="70"/>
+      <c r="K99" s="73"/>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="D100" s="6"/>
-      <c r="E100" s="56"/>
-      <c r="F100" s="56"/>
-      <c r="G100" s="56"/>
+      <c r="E100" s="59"/>
+      <c r="F100" s="59"/>
+      <c r="G100" s="59"/>
       <c r="H100" s="6"/>
       <c r="I100" s="6"/>
       <c r="J100" s="6"/>
-      <c r="K100" s="70"/>
+      <c r="K100" s="73"/>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="D101" s="6"/>
-      <c r="E101" s="56"/>
-      <c r="F101" s="56"/>
-      <c r="G101" s="56"/>
+      <c r="E101" s="59"/>
+      <c r="F101" s="59"/>
+      <c r="G101" s="59"/>
       <c r="H101" s="6"/>
       <c r="I101" s="6"/>
       <c r="J101" s="6"/>
-      <c r="K101" s="70"/>
+      <c r="K101" s="73"/>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="D102" s="6"/>
-      <c r="E102" s="56"/>
-      <c r="F102" s="56"/>
-      <c r="G102" s="56"/>
+      <c r="E102" s="59"/>
+      <c r="F102" s="59"/>
+      <c r="G102" s="59"/>
       <c r="H102" s="6"/>
       <c r="I102" s="6"/>
       <c r="J102" s="6"/>
-      <c r="K102" s="70"/>
+      <c r="K102" s="73"/>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="D103" s="6"/>
-      <c r="E103" s="56"/>
-      <c r="F103" s="56"/>
-      <c r="G103" s="56"/>
+      <c r="E103" s="59"/>
+      <c r="F103" s="59"/>
+      <c r="G103" s="59"/>
       <c r="H103" s="6"/>
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
-      <c r="K103" s="70"/>
+      <c r="K103" s="73"/>
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="D104" s="6"/>
-      <c r="E104" s="56"/>
-      <c r="F104" s="56"/>
-      <c r="G104" s="56"/>
+      <c r="E104" s="59"/>
+      <c r="F104" s="59"/>
+      <c r="G104" s="59"/>
       <c r="H104" s="6"/>
       <c r="I104" s="6"/>
       <c r="J104" s="6"/>
-      <c r="K104" s="70"/>
+      <c r="K104" s="73"/>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="D105" s="6"/>
-      <c r="E105" s="56"/>
-      <c r="F105" s="56"/>
-      <c r="G105" s="56"/>
+      <c r="E105" s="59"/>
+      <c r="F105" s="59"/>
+      <c r="G105" s="59"/>
       <c r="H105" s="6"/>
       <c r="I105" s="6"/>
       <c r="J105" s="6"/>
-      <c r="K105" s="70"/>
+      <c r="K105" s="73"/>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="D106" s="6"/>
-      <c r="E106" s="56"/>
-      <c r="F106" s="56"/>
-      <c r="G106" s="56"/>
+      <c r="E106" s="59"/>
+      <c r="F106" s="59"/>
+      <c r="G106" s="59"/>
       <c r="H106" s="6"/>
       <c r="I106" s="6"/>
       <c r="J106" s="6"/>
-      <c r="K106" s="70"/>
+      <c r="K106" s="73"/>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="D107" s="6"/>
-      <c r="E107" s="56"/>
-      <c r="F107" s="56"/>
-      <c r="G107" s="56"/>
+      <c r="E107" s="59"/>
+      <c r="F107" s="59"/>
+      <c r="G107" s="59"/>
       <c r="H107" s="6"/>
       <c r="I107" s="6"/>
       <c r="J107" s="6"/>
-      <c r="K107" s="70"/>
+      <c r="K107" s="73"/>
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="D108" s="6"/>
-      <c r="E108" s="56"/>
-      <c r="F108" s="56"/>
-      <c r="G108" s="56"/>
+      <c r="E108" s="59"/>
+      <c r="F108" s="59"/>
+      <c r="G108" s="59"/>
       <c r="H108" s="6"/>
       <c r="I108" s="6"/>
       <c r="J108" s="6"/>
-      <c r="K108" s="70"/>
+      <c r="K108" s="73"/>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="D109" s="6"/>
-      <c r="E109" s="56"/>
-      <c r="F109" s="56"/>
-      <c r="G109" s="56"/>
+      <c r="E109" s="59"/>
+      <c r="F109" s="59"/>
+      <c r="G109" s="59"/>
       <c r="H109" s="6"/>
       <c r="I109" s="6"/>
       <c r="J109" s="6"/>
-      <c r="K109" s="70"/>
+      <c r="K109" s="73"/>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="D110" s="6"/>
-      <c r="E110" s="56"/>
-      <c r="F110" s="56"/>
-      <c r="G110" s="56"/>
+      <c r="E110" s="59"/>
+      <c r="F110" s="59"/>
+      <c r="G110" s="59"/>
       <c r="H110" s="6"/>
       <c r="I110" s="6"/>
       <c r="J110" s="6"/>
-      <c r="K110" s="70"/>
+      <c r="K110" s="73"/>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="D111" s="6"/>
-      <c r="E111" s="56"/>
-      <c r="F111" s="56"/>
-      <c r="G111" s="56"/>
+      <c r="E111" s="59"/>
+      <c r="F111" s="59"/>
+      <c r="G111" s="59"/>
       <c r="H111" s="6"/>
       <c r="I111" s="6"/>
       <c r="J111" s="6"/>
-      <c r="K111" s="70"/>
+      <c r="K111" s="73"/>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="D112" s="6"/>
-      <c r="E112" s="56"/>
-      <c r="F112" s="56"/>
-      <c r="G112" s="56"/>
+      <c r="E112" s="59"/>
+      <c r="F112" s="59"/>
+      <c r="G112" s="59"/>
       <c r="H112" s="6"/>
       <c r="I112" s="6"/>
       <c r="J112" s="6"/>
-      <c r="K112" s="70"/>
+      <c r="K112" s="73"/>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="D113" s="6"/>
-      <c r="E113" s="56"/>
-      <c r="F113" s="56"/>
-      <c r="G113" s="56"/>
+      <c r="E113" s="59"/>
+      <c r="F113" s="59"/>
+      <c r="G113" s="59"/>
       <c r="H113" s="6"/>
       <c r="I113" s="6"/>
       <c r="J113" s="6"/>
-      <c r="K113" s="70"/>
+      <c r="K113" s="73"/>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="D114" s="6"/>
-      <c r="E114" s="56"/>
-      <c r="F114" s="56"/>
-      <c r="G114" s="56"/>
+      <c r="E114" s="59"/>
+      <c r="F114" s="59"/>
+      <c r="G114" s="59"/>
       <c r="H114" s="6"/>
       <c r="I114" s="6"/>
       <c r="J114" s="6"/>
-      <c r="K114" s="70"/>
+      <c r="K114" s="73"/>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="D115" s="6"/>
-      <c r="E115" s="56"/>
-      <c r="F115" s="56"/>
-      <c r="G115" s="56"/>
+      <c r="E115" s="59"/>
+      <c r="F115" s="59"/>
+      <c r="G115" s="59"/>
       <c r="H115" s="6"/>
       <c r="I115" s="6"/>
       <c r="J115" s="6"/>
-      <c r="K115" s="70"/>
+      <c r="K115" s="73"/>
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="D116" s="6"/>
-      <c r="E116" s="56"/>
-      <c r="F116" s="56"/>
-      <c r="G116" s="56"/>
+      <c r="E116" s="59"/>
+      <c r="F116" s="59"/>
+      <c r="G116" s="59"/>
       <c r="H116" s="6"/>
       <c r="I116" s="6"/>
       <c r="J116" s="6"/>
-      <c r="K116" s="70"/>
+      <c r="K116" s="73"/>
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="D117" s="6"/>
-      <c r="E117" s="56"/>
-      <c r="F117" s="56"/>
-      <c r="G117" s="56"/>
+      <c r="E117" s="59"/>
+      <c r="F117" s="59"/>
+      <c r="G117" s="59"/>
       <c r="H117" s="6"/>
       <c r="I117" s="6"/>
       <c r="J117" s="6"/>
-      <c r="K117" s="70"/>
+      <c r="K117" s="73"/>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="D118" s="6"/>
-      <c r="E118" s="56"/>
-      <c r="F118" s="56"/>
-      <c r="G118" s="56"/>
+      <c r="E118" s="59"/>
+      <c r="F118" s="59"/>
+      <c r="G118" s="59"/>
       <c r="H118" s="6"/>
       <c r="I118" s="6"/>
       <c r="J118" s="6"/>
-      <c r="K118" s="70"/>
+      <c r="K118" s="73"/>
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="D119" s="6"/>
-      <c r="E119" s="56"/>
-      <c r="F119" s="56"/>
-      <c r="G119" s="56"/>
+      <c r="E119" s="59"/>
+      <c r="F119" s="59"/>
+      <c r="G119" s="59"/>
       <c r="H119" s="6"/>
       <c r="I119" s="6"/>
       <c r="J119" s="6"/>
-      <c r="K119" s="70"/>
+      <c r="K119" s="73"/>
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="D120" s="6"/>
-      <c r="E120" s="56"/>
-      <c r="F120" s="56"/>
-      <c r="G120" s="56"/>
+      <c r="E120" s="59"/>
+      <c r="F120" s="59"/>
+      <c r="G120" s="59"/>
       <c r="H120" s="6"/>
       <c r="I120" s="6"/>
       <c r="J120" s="6"/>
-      <c r="K120" s="70"/>
+      <c r="K120" s="73"/>
     </row>
     <row r="121" spans="1:11">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="D121" s="6"/>
-      <c r="E121" s="56"/>
-      <c r="F121" s="56"/>
-      <c r="G121" s="56"/>
+      <c r="E121" s="59"/>
+      <c r="F121" s="59"/>
+      <c r="G121" s="59"/>
       <c r="H121" s="6"/>
       <c r="I121" s="6"/>
       <c r="J121" s="6"/>
-      <c r="K121" s="70"/>
+      <c r="K121" s="73"/>
     </row>
     <row r="122" spans="1:11">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="D122" s="6"/>
-      <c r="E122" s="56"/>
-      <c r="F122" s="56"/>
-      <c r="G122" s="56"/>
+      <c r="E122" s="59"/>
+      <c r="F122" s="59"/>
+      <c r="G122" s="59"/>
       <c r="H122" s="6"/>
       <c r="I122" s="6"/>
       <c r="J122" s="6"/>
-      <c r="K122" s="70"/>
+      <c r="K122" s="73"/>
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="D123" s="6"/>
-      <c r="E123" s="56"/>
-      <c r="F123" s="56"/>
-      <c r="G123" s="56"/>
+      <c r="E123" s="59"/>
+      <c r="F123" s="59"/>
+      <c r="G123" s="59"/>
       <c r="H123" s="6"/>
       <c r="I123" s="6"/>
       <c r="J123" s="6"/>
-      <c r="K123" s="70"/>
+      <c r="K123" s="73"/>
     </row>
     <row r="124" spans="1:11">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="D124" s="6"/>
-      <c r="E124" s="56"/>
-      <c r="F124" s="56"/>
-      <c r="G124" s="56"/>
+      <c r="E124" s="59"/>
+      <c r="F124" s="59"/>
+      <c r="G124" s="59"/>
       <c r="H124" s="6"/>
       <c r="I124" s="6"/>
       <c r="J124" s="6"/>
-      <c r="K124" s="70"/>
+      <c r="K124" s="73"/>
     </row>
     <row r="125" spans="1:11">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="D125" s="6"/>
-      <c r="E125" s="56"/>
-      <c r="F125" s="56"/>
-      <c r="G125" s="56"/>
+      <c r="E125" s="59"/>
+      <c r="F125" s="59"/>
+      <c r="G125" s="59"/>
       <c r="H125" s="6"/>
       <c r="I125" s="6"/>
       <c r="J125" s="6"/>
-      <c r="K125" s="70"/>
+      <c r="K125" s="73"/>
     </row>
     <row r="126" spans="1:11">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="D126" s="6"/>
-      <c r="E126" s="56"/>
-      <c r="F126" s="56"/>
-      <c r="G126" s="56"/>
+      <c r="E126" s="59"/>
+      <c r="F126" s="59"/>
+      <c r="G126" s="59"/>
       <c r="H126" s="6"/>
       <c r="I126" s="6"/>
       <c r="J126" s="6"/>
-      <c r="K126" s="70"/>
+      <c r="K126" s="73"/>
     </row>
     <row r="127" spans="1:11">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="D127" s="6"/>
-      <c r="E127" s="56"/>
-      <c r="F127" s="56"/>
-      <c r="G127" s="56"/>
+      <c r="E127" s="59"/>
+      <c r="F127" s="59"/>
+      <c r="G127" s="59"/>
       <c r="H127" s="6"/>
       <c r="I127" s="6"/>
       <c r="J127" s="6"/>
-      <c r="K127" s="70"/>
+      <c r="K127" s="73"/>
     </row>
     <row r="128" spans="1:11">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="D128" s="6"/>
-      <c r="E128" s="56"/>
-      <c r="F128" s="56"/>
-      <c r="G128" s="56"/>
+      <c r="E128" s="59"/>
+      <c r="F128" s="59"/>
+      <c r="G128" s="59"/>
       <c r="H128" s="6"/>
       <c r="I128" s="6"/>
       <c r="J128" s="6"/>
-      <c r="K128" s="70"/>
+      <c r="K128" s="73"/>
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="D129" s="6"/>
-      <c r="E129" s="56"/>
-      <c r="F129" s="56"/>
-      <c r="G129" s="56"/>
+      <c r="E129" s="59"/>
+      <c r="F129" s="59"/>
+      <c r="G129" s="59"/>
       <c r="H129" s="6"/>
       <c r="I129" s="6"/>
       <c r="J129" s="6"/>
-      <c r="K129" s="70"/>
+      <c r="K129" s="73"/>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="D130" s="6"/>
-      <c r="E130" s="56"/>
-      <c r="F130" s="56"/>
-      <c r="G130" s="56"/>
+      <c r="E130" s="59"/>
+      <c r="F130" s="59"/>
+      <c r="G130" s="59"/>
       <c r="H130" s="6"/>
       <c r="I130" s="6"/>
       <c r="J130" s="6"/>
-      <c r="K130" s="70"/>
+      <c r="K130" s="73"/>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="D131" s="6"/>
-      <c r="E131" s="56"/>
-      <c r="F131" s="56"/>
-      <c r="G131" s="56"/>
+      <c r="E131" s="59"/>
+      <c r="F131" s="59"/>
+      <c r="G131" s="59"/>
       <c r="H131" s="6"/>
       <c r="I131" s="6"/>
       <c r="J131" s="6"/>
-      <c r="K131" s="70"/>
+      <c r="K131" s="73"/>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="D132" s="6"/>
-      <c r="E132" s="56"/>
-      <c r="F132" s="56"/>
-      <c r="G132" s="56"/>
+      <c r="E132" s="59"/>
+      <c r="F132" s="59"/>
+      <c r="G132" s="59"/>
       <c r="H132" s="6"/>
       <c r="I132" s="6"/>
       <c r="J132" s="6"/>
-      <c r="K132" s="70"/>
+      <c r="K132" s="73"/>
     </row>
     <row r="133" spans="1:11">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="D133" s="6"/>
-      <c r="E133" s="56"/>
-      <c r="F133" s="56"/>
-      <c r="G133" s="56"/>
+      <c r="E133" s="59"/>
+      <c r="F133" s="59"/>
+      <c r="G133" s="59"/>
       <c r="H133" s="6"/>
       <c r="I133" s="6"/>
       <c r="J133" s="6"/>
-      <c r="K133" s="70"/>
+      <c r="K133" s="73"/>
     </row>
     <row r="134" spans="1:11">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="D134" s="6"/>
-      <c r="E134" s="56"/>
-      <c r="F134" s="56"/>
-      <c r="G134" s="56"/>
+      <c r="E134" s="59"/>
+      <c r="F134" s="59"/>
+      <c r="G134" s="59"/>
       <c r="H134" s="6"/>
       <c r="I134" s="6"/>
       <c r="J134" s="6"/>
-      <c r="K134" s="70"/>
+      <c r="K134" s="73"/>
     </row>
     <row r="135" spans="1:11">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="D135" s="6"/>
-      <c r="E135" s="56"/>
-      <c r="F135" s="56"/>
-      <c r="G135" s="56"/>
+      <c r="E135" s="59"/>
+      <c r="F135" s="59"/>
+      <c r="G135" s="59"/>
       <c r="H135" s="6"/>
       <c r="I135" s="6"/>
       <c r="J135" s="6"/>
-      <c r="K135" s="70"/>
+      <c r="K135" s="73"/>
     </row>
     <row r="136" spans="1:11">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="D136" s="6"/>
-      <c r="E136" s="56"/>
-      <c r="F136" s="56"/>
-      <c r="G136" s="56"/>
+      <c r="E136" s="59"/>
+      <c r="F136" s="59"/>
+      <c r="G136" s="59"/>
       <c r="H136" s="6"/>
       <c r="I136" s="6"/>
       <c r="J136" s="6"/>
-      <c r="K136" s="70"/>
+      <c r="K136" s="73"/>
     </row>
     <row r="137" spans="1:11">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="D137" s="6"/>
-      <c r="E137" s="56"/>
-      <c r="F137" s="56"/>
-      <c r="G137" s="56"/>
+      <c r="E137" s="59"/>
+      <c r="F137" s="59"/>
+      <c r="G137" s="59"/>
       <c r="H137" s="6"/>
       <c r="I137" s="6"/>
       <c r="J137" s="6"/>
-      <c r="K137" s="70"/>
+      <c r="K137" s="73"/>
     </row>
     <row r="138" spans="1:11">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="D138" s="6"/>
-      <c r="E138" s="56"/>
-      <c r="F138" s="56"/>
-      <c r="G138" s="56"/>
+      <c r="E138" s="59"/>
+      <c r="F138" s="59"/>
+      <c r="G138" s="59"/>
       <c r="H138" s="6"/>
       <c r="I138" s="6"/>
       <c r="J138" s="6"/>
-      <c r="K138" s="70"/>
+      <c r="K138" s="73"/>
     </row>
     <row r="139" spans="1:11">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="D139" s="6"/>
-      <c r="E139" s="56"/>
-      <c r="F139" s="56"/>
-      <c r="G139" s="56"/>
+      <c r="E139" s="59"/>
+      <c r="F139" s="59"/>
+      <c r="G139" s="59"/>
       <c r="H139" s="6"/>
       <c r="I139" s="6"/>
       <c r="J139" s="6"/>
-      <c r="K139" s="70"/>
+      <c r="K139" s="73"/>
     </row>
     <row r="140" spans="1:11">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="D140" s="6"/>
-      <c r="E140" s="56"/>
-      <c r="F140" s="56"/>
-      <c r="G140" s="56"/>
+      <c r="E140" s="59"/>
+      <c r="F140" s="59"/>
+      <c r="G140" s="59"/>
       <c r="H140" s="6"/>
       <c r="I140" s="6"/>
       <c r="J140" s="6"/>
-      <c r="K140" s="70"/>
+      <c r="K140" s="73"/>
     </row>
     <row r="141" spans="1:11">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="D141" s="6"/>
-      <c r="E141" s="56"/>
-      <c r="F141" s="56"/>
-      <c r="G141" s="56"/>
+      <c r="E141" s="59"/>
+      <c r="F141" s="59"/>
+      <c r="G141" s="59"/>
       <c r="H141" s="6"/>
       <c r="I141" s="6"/>
       <c r="J141" s="6"/>
-      <c r="K141" s="70"/>
+      <c r="K141" s="73"/>
     </row>
     <row r="142" spans="1:11">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="D142" s="6"/>
-      <c r="E142" s="56"/>
-      <c r="F142" s="56"/>
-      <c r="G142" s="56"/>
+      <c r="E142" s="59"/>
+      <c r="F142" s="59"/>
+      <c r="G142" s="59"/>
       <c r="H142" s="6"/>
       <c r="I142" s="6"/>
       <c r="J142" s="6"/>
-      <c r="K142" s="70"/>
+      <c r="K142" s="73"/>
     </row>
     <row r="143" spans="1:11">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="D143" s="6"/>
-      <c r="E143" s="56"/>
-      <c r="F143" s="56"/>
-      <c r="G143" s="56"/>
+      <c r="E143" s="59"/>
+      <c r="F143" s="59"/>
+      <c r="G143" s="59"/>
       <c r="H143" s="6"/>
       <c r="I143" s="6"/>
       <c r="J143" s="6"/>
-      <c r="K143" s="70"/>
+      <c r="K143" s="73"/>
     </row>
     <row r="144" spans="1:11">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="D144" s="6"/>
-      <c r="E144" s="56"/>
-      <c r="F144" s="56"/>
-      <c r="G144" s="56"/>
+      <c r="E144" s="59"/>
+      <c r="F144" s="59"/>
+      <c r="G144" s="59"/>
       <c r="H144" s="6"/>
       <c r="I144" s="6"/>
       <c r="J144" s="6"/>
-      <c r="K144" s="70"/>
+      <c r="K144" s="73"/>
     </row>
     <row r="145" spans="1:11">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="D145" s="6"/>
-      <c r="E145" s="56"/>
-      <c r="F145" s="56"/>
-      <c r="G145" s="56"/>
+      <c r="E145" s="59"/>
+      <c r="F145" s="59"/>
+      <c r="G145" s="59"/>
       <c r="H145" s="6"/>
       <c r="I145" s="6"/>
       <c r="J145" s="6"/>
-      <c r="K145" s="70"/>
+      <c r="K145" s="73"/>
     </row>
     <row r="146" spans="1:11">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="D146" s="6"/>
-      <c r="E146" s="56"/>
-      <c r="F146" s="56"/>
-      <c r="G146" s="56"/>
+      <c r="E146" s="59"/>
+      <c r="F146" s="59"/>
+      <c r="G146" s="59"/>
       <c r="H146" s="6"/>
       <c r="I146" s="6"/>
       <c r="J146" s="6"/>
-      <c r="K146" s="70"/>
+      <c r="K146" s="73"/>
     </row>
     <row r="147" spans="1:11">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="D147" s="6"/>
-      <c r="E147" s="56"/>
-      <c r="F147" s="56"/>
-      <c r="G147" s="56"/>
+      <c r="E147" s="59"/>
+      <c r="F147" s="59"/>
+      <c r="G147" s="59"/>
       <c r="H147" s="6"/>
       <c r="I147" s="6"/>
       <c r="J147" s="6"/>
-      <c r="K147" s="70"/>
+      <c r="K147" s="73"/>
     </row>
     <row r="148" spans="1:11">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="D148" s="6"/>
-      <c r="E148" s="56"/>
-      <c r="F148" s="56"/>
-      <c r="G148" s="56"/>
+      <c r="E148" s="59"/>
+      <c r="F148" s="59"/>
+      <c r="G148" s="59"/>
       <c r="H148" s="6"/>
       <c r="I148" s="6"/>
       <c r="J148" s="6"/>
-      <c r="K148" s="70"/>
+      <c r="K148" s="73"/>
     </row>
     <row r="149" spans="1:11">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="D149" s="6"/>
-      <c r="E149" s="56"/>
-      <c r="F149" s="56"/>
-      <c r="G149" s="56"/>
+      <c r="E149" s="59"/>
+      <c r="F149" s="59"/>
+      <c r="G149" s="59"/>
       <c r="H149" s="6"/>
       <c r="I149" s="6"/>
       <c r="J149" s="6"/>
-      <c r="K149" s="70"/>
+      <c r="K149" s="73"/>
     </row>
     <row r="150" spans="1:11">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="D150" s="6"/>
-      <c r="E150" s="56"/>
-      <c r="F150" s="56"/>
-      <c r="G150" s="56"/>
+      <c r="E150" s="59"/>
+      <c r="F150" s="59"/>
+      <c r="G150" s="59"/>
       <c r="H150" s="6"/>
       <c r="I150" s="6"/>
       <c r="J150" s="6"/>
-      <c r="K150" s="70"/>
+      <c r="K150" s="73"/>
     </row>
     <row r="151" spans="1:11">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="D151" s="6"/>
-      <c r="E151" s="56"/>
-      <c r="F151" s="56"/>
-      <c r="G151" s="56"/>
+      <c r="E151" s="59"/>
+      <c r="F151" s="59"/>
+      <c r="G151" s="59"/>
       <c r="H151" s="6"/>
       <c r="I151" s="6"/>
       <c r="J151" s="6"/>
-      <c r="K151" s="70"/>
+      <c r="K151" s="73"/>
     </row>
     <row r="152" spans="1:11">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="D152" s="6"/>
-      <c r="E152" s="56"/>
-      <c r="F152" s="56"/>
-      <c r="G152" s="56"/>
+      <c r="E152" s="59"/>
+      <c r="F152" s="59"/>
+      <c r="G152" s="59"/>
       <c r="H152" s="6"/>
       <c r="I152" s="6"/>
       <c r="J152" s="6"/>
-      <c r="K152" s="70"/>
+      <c r="K152" s="73"/>
     </row>
     <row r="153" spans="1:11">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="D153" s="6"/>
-      <c r="E153" s="56"/>
-      <c r="F153" s="56"/>
-      <c r="G153" s="56"/>
+      <c r="E153" s="59"/>
+      <c r="F153" s="59"/>
+      <c r="G153" s="59"/>
       <c r="H153" s="6"/>
       <c r="I153" s="6"/>
       <c r="J153" s="6"/>
-      <c r="K153" s="70"/>
+      <c r="K153" s="73"/>
     </row>
     <row r="154" spans="1:11">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="D154" s="6"/>
-      <c r="E154" s="56"/>
-      <c r="F154" s="56"/>
-      <c r="G154" s="56"/>
+      <c r="E154" s="59"/>
+      <c r="F154" s="59"/>
+      <c r="G154" s="59"/>
       <c r="H154" s="6"/>
       <c r="I154" s="6"/>
       <c r="J154" s="6"/>
-      <c r="K154" s="70"/>
+      <c r="K154" s="73"/>
     </row>
     <row r="155" spans="1:11">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="D155" s="6"/>
-      <c r="E155" s="56"/>
-      <c r="F155" s="56"/>
-      <c r="G155" s="56"/>
+      <c r="E155" s="59"/>
+      <c r="F155" s="59"/>
+      <c r="G155" s="59"/>
       <c r="H155" s="6"/>
       <c r="I155" s="6"/>
       <c r="J155" s="6"/>
-      <c r="K155" s="70"/>
+      <c r="K155" s="73"/>
     </row>
     <row r="156" spans="1:11">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="D156" s="6"/>
-      <c r="E156" s="56"/>
-      <c r="F156" s="56"/>
-      <c r="G156" s="56"/>
+      <c r="E156" s="59"/>
+      <c r="F156" s="59"/>
+      <c r="G156" s="59"/>
       <c r="H156" s="6"/>
       <c r="I156" s="6"/>
       <c r="J156" s="6"/>
-      <c r="K156" s="70"/>
+      <c r="K156" s="73"/>
     </row>
     <row r="157" spans="1:11">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="D157" s="6"/>
-      <c r="E157" s="56"/>
-      <c r="F157" s="56"/>
-      <c r="G157" s="56"/>
+      <c r="E157" s="59"/>
+      <c r="F157" s="59"/>
+      <c r="G157" s="59"/>
       <c r="H157" s="6"/>
       <c r="I157" s="6"/>
       <c r="J157" s="6"/>
-      <c r="K157" s="70"/>
+      <c r="K157" s="73"/>
     </row>
     <row r="158" spans="1:11">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="D158" s="6"/>
-      <c r="E158" s="56"/>
-      <c r="F158" s="56"/>
-      <c r="G158" s="56"/>
+      <c r="E158" s="59"/>
+      <c r="F158" s="59"/>
+      <c r="G158" s="59"/>
       <c r="H158" s="6"/>
       <c r="I158" s="6"/>
       <c r="J158" s="6"/>
-      <c r="K158" s="70"/>
+      <c r="K158" s="73"/>
     </row>
     <row r="159" spans="1:11">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="D159" s="6"/>
-      <c r="E159" s="56"/>
-      <c r="F159" s="56"/>
-      <c r="G159" s="56"/>
+      <c r="E159" s="59"/>
+      <c r="F159" s="59"/>
+      <c r="G159" s="59"/>
       <c r="H159" s="6"/>
       <c r="I159" s="6"/>
       <c r="J159" s="6"/>
-      <c r="K159" s="70"/>
+      <c r="K159" s="73"/>
     </row>
     <row r="160" spans="1:11">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="D160" s="6"/>
-      <c r="E160" s="56"/>
-      <c r="F160" s="56"/>
-      <c r="G160" s="56"/>
+      <c r="E160" s="59"/>
+      <c r="F160" s="59"/>
+      <c r="G160" s="59"/>
       <c r="H160" s="6"/>
       <c r="I160" s="6"/>
       <c r="J160" s="6"/>
-      <c r="K160" s="70"/>
+      <c r="K160" s="73"/>
     </row>
     <row r="161" spans="1:11">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="D161" s="6"/>
-      <c r="E161" s="56"/>
-      <c r="F161" s="56"/>
-      <c r="G161" s="56"/>
+      <c r="E161" s="59"/>
+      <c r="F161" s="59"/>
+      <c r="G161" s="59"/>
       <c r="H161" s="6"/>
       <c r="I161" s="6"/>
       <c r="J161" s="6"/>
-      <c r="K161" s="70"/>
+      <c r="K161" s="73"/>
     </row>
     <row r="162" spans="1:11">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="D162" s="6"/>
-      <c r="E162" s="56"/>
-      <c r="F162" s="56"/>
-      <c r="G162" s="56"/>
+      <c r="E162" s="59"/>
+      <c r="F162" s="59"/>
+      <c r="G162" s="59"/>
       <c r="H162" s="6"/>
       <c r="I162" s="6"/>
       <c r="J162" s="6"/>
-      <c r="K162" s="70"/>
+      <c r="K162" s="73"/>
     </row>
     <row r="163" spans="1:11">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="D163" s="6"/>
-      <c r="E163" s="56"/>
-      <c r="F163" s="56"/>
-      <c r="G163" s="56"/>
+      <c r="E163" s="59"/>
+      <c r="F163" s="59"/>
+      <c r="G163" s="59"/>
       <c r="H163" s="6"/>
       <c r="I163" s="6"/>
       <c r="J163" s="6"/>
-      <c r="K163" s="70"/>
+      <c r="K163" s="73"/>
     </row>
     <row r="164" spans="1:11">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="D164" s="6"/>
-      <c r="E164" s="56"/>
-      <c r="F164" s="56"/>
-      <c r="G164" s="56"/>
+      <c r="E164" s="59"/>
+      <c r="F164" s="59"/>
+      <c r="G164" s="59"/>
       <c r="H164" s="6"/>
       <c r="I164" s="6"/>
       <c r="J164" s="6"/>
-      <c r="K164" s="70"/>
+      <c r="K164" s="73"/>
     </row>
     <row r="165" spans="1:11">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="D165" s="6"/>
-      <c r="E165" s="56"/>
-      <c r="F165" s="56"/>
-      <c r="G165" s="56"/>
+      <c r="E165" s="59"/>
+      <c r="F165" s="59"/>
+      <c r="G165" s="59"/>
       <c r="H165" s="6"/>
       <c r="I165" s="6"/>
       <c r="J165" s="6"/>
-      <c r="K165" s="70"/>
+      <c r="K165" s="73"/>
     </row>
     <row r="166" spans="1:11">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="D166" s="6"/>
-      <c r="E166" s="56"/>
-      <c r="F166" s="56"/>
-      <c r="G166" s="56"/>
+      <c r="E166" s="59"/>
+      <c r="F166" s="59"/>
+      <c r="G166" s="59"/>
       <c r="H166" s="6"/>
       <c r="I166" s="6"/>
       <c r="J166" s="6"/>
-      <c r="K166" s="70"/>
+      <c r="K166" s="73"/>
     </row>
     <row r="167" spans="1:11">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="D167" s="6"/>
-      <c r="E167" s="56"/>
-      <c r="F167" s="56"/>
-      <c r="G167" s="56"/>
+      <c r="E167" s="59"/>
+      <c r="F167" s="59"/>
+      <c r="G167" s="59"/>
       <c r="H167" s="6"/>
       <c r="I167" s="6"/>
       <c r="J167" s="6"/>
-      <c r="K167" s="70"/>
+      <c r="K167" s="73"/>
     </row>
     <row r="168" spans="1:11">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="D168" s="6"/>
-      <c r="E168" s="56"/>
-      <c r="F168" s="56"/>
-      <c r="G168" s="56"/>
+      <c r="E168" s="59"/>
+      <c r="F168" s="59"/>
+      <c r="G168" s="59"/>
       <c r="H168" s="6"/>
       <c r="I168" s="6"/>
       <c r="J168" s="6"/>
-      <c r="K168" s="70"/>
+      <c r="K168" s="73"/>
     </row>
     <row r="169" spans="1:11">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="D169" s="6"/>
-      <c r="E169" s="56"/>
-      <c r="F169" s="56"/>
-      <c r="G169" s="56"/>
+      <c r="E169" s="59"/>
+      <c r="F169" s="59"/>
+      <c r="G169" s="59"/>
       <c r="H169" s="6"/>
       <c r="I169" s="6"/>
       <c r="J169" s="6"/>
-      <c r="K169" s="70"/>
+      <c r="K169" s="73"/>
     </row>
     <row r="170" spans="1:11">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="D170" s="6"/>
-      <c r="E170" s="56"/>
-      <c r="F170" s="56"/>
-      <c r="G170" s="56"/>
+      <c r="E170" s="59"/>
+      <c r="F170" s="59"/>
+      <c r="G170" s="59"/>
       <c r="H170" s="6"/>
       <c r="I170" s="6"/>
       <c r="J170" s="6"/>
-      <c r="K170" s="70"/>
+      <c r="K170" s="73"/>
     </row>
     <row r="171" spans="1:11">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="D171" s="6"/>
-      <c r="E171" s="56"/>
-      <c r="F171" s="56"/>
-      <c r="G171" s="56"/>
+      <c r="E171" s="59"/>
+      <c r="F171" s="59"/>
+      <c r="G171" s="59"/>
       <c r="H171" s="6"/>
       <c r="I171" s="6"/>
       <c r="J171" s="6"/>
-      <c r="K171" s="70"/>
+      <c r="K171" s="73"/>
     </row>
     <row r="172" spans="1:11">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="D172" s="6"/>
-      <c r="E172" s="56"/>
-      <c r="F172" s="56"/>
-      <c r="G172" s="56"/>
+      <c r="E172" s="59"/>
+      <c r="F172" s="59"/>
+      <c r="G172" s="59"/>
       <c r="H172" s="6"/>
       <c r="I172" s="6"/>
       <c r="J172" s="6"/>
-      <c r="K172" s="70"/>
+      <c r="K172" s="73"/>
     </row>
     <row r="173" spans="1:11">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="D173" s="6"/>
-      <c r="E173" s="56"/>
-      <c r="F173" s="56"/>
-      <c r="G173" s="56"/>
+      <c r="E173" s="59"/>
+      <c r="F173" s="59"/>
+      <c r="G173" s="59"/>
       <c r="H173" s="6"/>
       <c r="I173" s="6"/>
       <c r="J173" s="6"/>
-      <c r="K173" s="70"/>
+      <c r="K173" s="73"/>
     </row>
     <row r="174" spans="1:11">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="D174" s="6"/>
-      <c r="E174" s="56"/>
-      <c r="F174" s="56"/>
-      <c r="G174" s="56"/>
+      <c r="E174" s="59"/>
+      <c r="F174" s="59"/>
+      <c r="G174" s="59"/>
       <c r="H174" s="6"/>
       <c r="I174" s="6"/>
       <c r="J174" s="6"/>
-      <c r="K174" s="70"/>
+      <c r="K174" s="73"/>
     </row>
     <row r="175" spans="1:11">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="D175" s="6"/>
-      <c r="E175" s="56"/>
-      <c r="F175" s="56"/>
-      <c r="G175" s="56"/>
+      <c r="E175" s="59"/>
+      <c r="F175" s="59"/>
+      <c r="G175" s="59"/>
       <c r="H175" s="6"/>
       <c r="I175" s="6"/>
       <c r="J175" s="6"/>
-      <c r="K175" s="70"/>
+      <c r="K175" s="73"/>
     </row>
     <row r="176" spans="1:11">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="D176" s="6"/>
-      <c r="E176" s="56"/>
-      <c r="F176" s="56"/>
-      <c r="G176" s="56"/>
+      <c r="E176" s="59"/>
+      <c r="F176" s="59"/>
+      <c r="G176" s="59"/>
       <c r="H176" s="6"/>
       <c r="I176" s="6"/>
       <c r="J176" s="6"/>
-      <c r="K176" s="70"/>
+      <c r="K176" s="73"/>
     </row>
     <row r="177" spans="1:11">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="D177" s="6"/>
-      <c r="E177" s="56"/>
-      <c r="F177" s="56"/>
-      <c r="G177" s="56"/>
+      <c r="E177" s="59"/>
+      <c r="F177" s="59"/>
+      <c r="G177" s="59"/>
       <c r="H177" s="6"/>
       <c r="I177" s="6"/>
       <c r="J177" s="6"/>
-      <c r="K177" s="70"/>
+      <c r="K177" s="73"/>
     </row>
     <row r="178" spans="1:11">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="D178" s="6"/>
-      <c r="E178" s="56"/>
-      <c r="F178" s="56"/>
-      <c r="G178" s="56"/>
+      <c r="E178" s="59"/>
+      <c r="F178" s="59"/>
+      <c r="G178" s="59"/>
       <c r="H178" s="6"/>
       <c r="I178" s="6"/>
       <c r="J178" s="6"/>
-      <c r="K178" s="70"/>
+      <c r="K178" s="73"/>
     </row>
     <row r="179" spans="1:11">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="D179" s="6"/>
-      <c r="E179" s="56"/>
-      <c r="F179" s="56"/>
-      <c r="G179" s="56"/>
+      <c r="E179" s="59"/>
+      <c r="F179" s="59"/>
+      <c r="G179" s="59"/>
       <c r="H179" s="6"/>
       <c r="I179" s="6"/>
       <c r="J179" s="6"/>
-      <c r="K179" s="70"/>
+      <c r="K179" s="73"/>
     </row>
     <row r="180" spans="1:11">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="D180" s="6"/>
-      <c r="E180" s="56"/>
-      <c r="F180" s="56"/>
-      <c r="G180" s="56"/>
+      <c r="E180" s="59"/>
+      <c r="F180" s="59"/>
+      <c r="G180" s="59"/>
       <c r="H180" s="6"/>
       <c r="I180" s="6"/>
       <c r="J180" s="6"/>
-      <c r="K180" s="70"/>
+      <c r="K180" s="73"/>
     </row>
     <row r="181" spans="1:11">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="D181" s="6"/>
-      <c r="E181" s="56"/>
-      <c r="F181" s="56"/>
-      <c r="G181" s="56"/>
+      <c r="E181" s="59"/>
+      <c r="F181" s="59"/>
+      <c r="G181" s="59"/>
       <c r="H181" s="6"/>
       <c r="I181" s="6"/>
       <c r="J181" s="6"/>
-      <c r="K181" s="70"/>
+      <c r="K181" s="73"/>
     </row>
     <row r="182" spans="1:11">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="D182" s="6"/>
-      <c r="E182" s="56"/>
-      <c r="F182" s="56"/>
-      <c r="G182" s="56"/>
+      <c r="E182" s="59"/>
+      <c r="F182" s="59"/>
+      <c r="G182" s="59"/>
       <c r="H182" s="6"/>
       <c r="I182" s="6"/>
       <c r="J182" s="6"/>
-      <c r="K182" s="70"/>
+      <c r="K182" s="73"/>
     </row>
     <row r="183" spans="1:11">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="D183" s="6"/>
-      <c r="E183" s="56"/>
-      <c r="F183" s="56"/>
-      <c r="G183" s="56"/>
+      <c r="E183" s="59"/>
+      <c r="F183" s="59"/>
+      <c r="G183" s="59"/>
       <c r="H183" s="6"/>
       <c r="I183" s="6"/>
       <c r="J183" s="6"/>
-      <c r="K183" s="70"/>
+      <c r="K183" s="73"/>
     </row>
     <row r="184" spans="1:11">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="D184" s="6"/>
-      <c r="E184" s="56"/>
-      <c r="F184" s="56"/>
-      <c r="G184" s="56"/>
+      <c r="E184" s="59"/>
+      <c r="F184" s="59"/>
+      <c r="G184" s="59"/>
       <c r="H184" s="6"/>
       <c r="I184" s="6"/>
       <c r="J184" s="6"/>
-      <c r="K184" s="70"/>
+      <c r="K184" s="73"/>
     </row>
     <row r="185" spans="1:11">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="D185" s="6"/>
-      <c r="E185" s="56"/>
-      <c r="F185" s="56"/>
-      <c r="G185" s="56"/>
+      <c r="E185" s="59"/>
+      <c r="F185" s="59"/>
+      <c r="G185" s="59"/>
       <c r="H185" s="6"/>
       <c r="I185" s="6"/>
       <c r="J185" s="6"/>
-      <c r="K185" s="70"/>
+      <c r="K185" s="73"/>
     </row>
     <row r="186" spans="1:11">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="D186" s="6"/>
-      <c r="E186" s="56"/>
-      <c r="F186" s="56"/>
-      <c r="G186" s="56"/>
+      <c r="E186" s="59"/>
+      <c r="F186" s="59"/>
+      <c r="G186" s="59"/>
       <c r="H186" s="6"/>
       <c r="I186" s="6"/>
       <c r="J186" s="6"/>
-      <c r="K186" s="70"/>
+      <c r="K186" s="73"/>
     </row>
     <row r="187" spans="1:11">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="D187" s="6"/>
-      <c r="E187" s="56"/>
-      <c r="F187" s="56"/>
-      <c r="G187" s="56"/>
+      <c r="E187" s="59"/>
+      <c r="F187" s="59"/>
+      <c r="G187" s="59"/>
       <c r="H187" s="6"/>
       <c r="I187" s="6"/>
       <c r="J187" s="6"/>
-      <c r="K187" s="70"/>
+      <c r="K187" s="73"/>
     </row>
     <row r="188" spans="1:11">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="D188" s="6"/>
-      <c r="E188" s="56"/>
-      <c r="F188" s="56"/>
-      <c r="G188" s="56"/>
+      <c r="E188" s="59"/>
+      <c r="F188" s="59"/>
+      <c r="G188" s="59"/>
       <c r="H188" s="6"/>
       <c r="I188" s="6"/>
       <c r="J188" s="6"/>
-      <c r="K188" s="70"/>
+      <c r="K188" s="73"/>
     </row>
     <row r="189" spans="1:11">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="D189" s="6"/>
-      <c r="E189" s="56"/>
-      <c r="F189" s="56"/>
-      <c r="G189" s="56"/>
+      <c r="E189" s="59"/>
+      <c r="F189" s="59"/>
+      <c r="G189" s="59"/>
       <c r="H189" s="6"/>
       <c r="I189" s="6"/>
       <c r="J189" s="6"/>
-      <c r="K189" s="70"/>
+      <c r="K189" s="73"/>
     </row>
     <row r="190" spans="1:11">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="D190" s="6"/>
-      <c r="E190" s="56"/>
-      <c r="F190" s="56"/>
-      <c r="G190" s="56"/>
+      <c r="E190" s="59"/>
+      <c r="F190" s="59"/>
+      <c r="G190" s="59"/>
       <c r="H190" s="6"/>
       <c r="I190" s="6"/>
       <c r="J190" s="6"/>
-      <c r="K190" s="70"/>
+      <c r="K190" s="73"/>
     </row>
     <row r="191" spans="1:11">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="D191" s="6"/>
-      <c r="E191" s="56"/>
-      <c r="F191" s="56"/>
-      <c r="G191" s="56"/>
+      <c r="E191" s="59"/>
+      <c r="F191" s="59"/>
+      <c r="G191" s="59"/>
       <c r="H191" s="6"/>
       <c r="I191" s="6"/>
       <c r="J191" s="6"/>
-      <c r="K191" s="70"/>
+      <c r="K191" s="73"/>
     </row>
     <row r="192" spans="1:11">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="D192" s="6"/>
-      <c r="E192" s="56"/>
-      <c r="F192" s="56"/>
-      <c r="G192" s="56"/>
+      <c r="E192" s="59"/>
+      <c r="F192" s="59"/>
+      <c r="G192" s="59"/>
       <c r="H192" s="6"/>
       <c r="I192" s="6"/>
       <c r="J192" s="6"/>
-      <c r="K192" s="70"/>
+      <c r="K192" s="73"/>
     </row>
     <row r="193" spans="1:11">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="D193" s="6"/>
-      <c r="E193" s="56"/>
-      <c r="F193" s="56"/>
-      <c r="G193" s="56"/>
+      <c r="E193" s="59"/>
+      <c r="F193" s="59"/>
+      <c r="G193" s="59"/>
       <c r="H193" s="6"/>
       <c r="I193" s="6"/>
       <c r="J193" s="6"/>
-      <c r="K193" s="70"/>
+      <c r="K193" s="73"/>
     </row>
     <row r="194" spans="1:11">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="D194" s="6"/>
-      <c r="E194" s="56"/>
-      <c r="F194" s="56"/>
-      <c r="G194" s="56"/>
+      <c r="E194" s="59"/>
+      <c r="F194" s="59"/>
+      <c r="G194" s="59"/>
       <c r="H194" s="6"/>
       <c r="I194" s="6"/>
       <c r="J194" s="6"/>
-      <c r="K194" s="70"/>
+      <c r="K194" s="73"/>
     </row>
     <row r="195" spans="1:11">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="D195" s="6"/>
-      <c r="E195" s="56"/>
-      <c r="F195" s="56"/>
-      <c r="G195" s="56"/>
+      <c r="E195" s="59"/>
+      <c r="F195" s="59"/>
+      <c r="G195" s="59"/>
       <c r="H195" s="6"/>
       <c r="I195" s="6"/>
       <c r="J195" s="6"/>
-      <c r="K195" s="70"/>
+      <c r="K195" s="73"/>
     </row>
     <row r="196" spans="1:11">
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="D196" s="6"/>
-      <c r="E196" s="56"/>
-      <c r="F196" s="56"/>
-      <c r="G196" s="56"/>
+      <c r="E196" s="59"/>
+      <c r="F196" s="59"/>
+      <c r="G196" s="59"/>
       <c r="H196" s="6"/>
       <c r="I196" s="6"/>
       <c r="J196" s="6"/>
-      <c r="K196" s="70"/>
+      <c r="K196" s="73"/>
     </row>
     <row r="197" spans="1:11">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="D197" s="6"/>
-      <c r="E197" s="56"/>
-      <c r="F197" s="56"/>
-      <c r="G197" s="56"/>
+      <c r="E197" s="59"/>
+      <c r="F197" s="59"/>
+      <c r="G197" s="59"/>
       <c r="H197" s="6"/>
       <c r="I197" s="6"/>
       <c r="J197" s="6"/>
-      <c r="K197" s="70"/>
+      <c r="K197" s="73"/>
     </row>
     <row r="198" spans="1:11">
       <c r="A198" s="6"/>
       <c r="B198" s="6"/>
       <c r="D198" s="6"/>
-      <c r="E198" s="56"/>
-      <c r="F198" s="56"/>
-      <c r="G198" s="56"/>
+      <c r="E198" s="59"/>
+      <c r="F198" s="59"/>
+      <c r="G198" s="59"/>
       <c r="H198" s="6"/>
       <c r="I198" s="6"/>
       <c r="J198" s="6"/>
-      <c r="K198" s="70"/>
+      <c r="K198" s="73"/>
     </row>
     <row r="199" spans="1:11">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="D199" s="6"/>
-      <c r="E199" s="56"/>
-      <c r="F199" s="56"/>
-      <c r="G199" s="56"/>
+      <c r="E199" s="59"/>
+      <c r="F199" s="59"/>
+      <c r="G199" s="59"/>
       <c r="H199" s="6"/>
       <c r="I199" s="6"/>
       <c r="J199" s="6"/>
-      <c r="K199" s="70"/>
+      <c r="K199" s="73"/>
     </row>
     <row r="200" spans="1:11">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="D200" s="6"/>
-      <c r="E200" s="56"/>
-      <c r="F200" s="56"/>
-      <c r="G200" s="56"/>
+      <c r="E200" s="59"/>
+      <c r="F200" s="59"/>
+      <c r="G200" s="59"/>
       <c r="H200" s="6"/>
       <c r="I200" s="6"/>
       <c r="J200" s="6"/>
-      <c r="K200" s="70"/>
+      <c r="K200" s="73"/>
     </row>
     <row r="201" spans="1:11">
       <c r="A201" s="6"/>
       <c r="B201" s="6"/>
       <c r="D201" s="6"/>
-      <c r="E201" s="56"/>
-      <c r="F201" s="56"/>
-      <c r="G201" s="56"/>
+      <c r="E201" s="59"/>
+      <c r="F201" s="59"/>
+      <c r="G201" s="59"/>
       <c r="H201" s="6"/>
       <c r="I201" s="6"/>
       <c r="J201" s="6"/>
-      <c r="K201" s="70"/>
+      <c r="K201" s="73"/>
     </row>
     <row r="202" spans="1:11">
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
       <c r="D202" s="6"/>
-      <c r="E202" s="56"/>
-      <c r="F202" s="56"/>
-      <c r="G202" s="56"/>
+      <c r="E202" s="59"/>
+      <c r="F202" s="59"/>
+      <c r="G202" s="59"/>
       <c r="H202" s="6"/>
       <c r="I202" s="6"/>
       <c r="J202" s="6"/>
-      <c r="K202" s="70"/>
+      <c r="K202" s="73"/>
     </row>
     <row r="203" spans="1:11">
       <c r="A203" s="6"/>
       <c r="B203" s="6"/>
       <c r="D203" s="6"/>
-      <c r="E203" s="56"/>
-      <c r="F203" s="56"/>
-      <c r="G203" s="56"/>
+      <c r="E203" s="59"/>
+      <c r="F203" s="59"/>
+      <c r="G203" s="59"/>
       <c r="H203" s="6"/>
       <c r="I203" s="6"/>
       <c r="J203" s="6"/>
-      <c r="K203" s="70"/>
+      <c r="K203" s="73"/>
     </row>
     <row r="204" spans="1:11">
       <c r="A204" s="6"/>
       <c r="B204" s="6"/>
       <c r="D204" s="6"/>
-      <c r="E204" s="56"/>
-      <c r="F204" s="56"/>
-      <c r="G204" s="56"/>
+      <c r="E204" s="59"/>
+      <c r="F204" s="59"/>
+      <c r="G204" s="59"/>
       <c r="H204" s="6"/>
       <c r="I204" s="6"/>
       <c r="J204" s="6"/>
-      <c r="K204" s="70"/>
+      <c r="K204" s="73"/>
     </row>
     <row r="205" spans="1:11">
       <c r="A205" s="6"/>
       <c r="B205" s="6"/>
       <c r="D205" s="6"/>
-      <c r="E205" s="56"/>
-      <c r="F205" s="56"/>
-      <c r="G205" s="56"/>
+      <c r="E205" s="59"/>
+      <c r="F205" s="59"/>
+      <c r="G205" s="59"/>
       <c r="H205" s="6"/>
       <c r="I205" s="6"/>
       <c r="J205" s="6"/>
-      <c r="K205" s="70"/>
+      <c r="K205" s="73"/>
     </row>
     <row r="206" spans="1:11">
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
       <c r="D206" s="6"/>
-      <c r="E206" s="56"/>
-      <c r="F206" s="56"/>
-      <c r="G206" s="56"/>
+      <c r="E206" s="59"/>
+      <c r="F206" s="59"/>
+      <c r="G206" s="59"/>
       <c r="H206" s="6"/>
       <c r="I206" s="6"/>
       <c r="J206" s="6"/>
-      <c r="K206" s="70"/>
+      <c r="K206" s="73"/>
     </row>
     <row r="207" spans="1:11">
       <c r="A207" s="6"/>
       <c r="B207" s="6"/>
       <c r="D207" s="6"/>
-      <c r="E207" s="56"/>
-      <c r="F207" s="56"/>
-      <c r="G207" s="56"/>
+      <c r="E207" s="59"/>
+      <c r="F207" s="59"/>
+      <c r="G207" s="59"/>
       <c r="H207" s="6"/>
       <c r="I207" s="6"/>
       <c r="J207" s="6"/>
-      <c r="K207" s="70"/>
+      <c r="K207" s="73"/>
     </row>
     <row r="208" spans="1:11">
       <c r="A208" s="6"/>
       <c r="B208" s="6"/>
       <c r="D208" s="6"/>
-      <c r="E208" s="56"/>
-      <c r="F208" s="56"/>
-      <c r="G208" s="56"/>
+      <c r="E208" s="59"/>
+      <c r="F208" s="59"/>
+      <c r="G208" s="59"/>
       <c r="H208" s="6"/>
       <c r="I208" s="6"/>
       <c r="J208" s="6"/>
-      <c r="K208" s="70"/>
+      <c r="K208" s="73"/>
     </row>
     <row r="209" spans="1:11">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="D209" s="6"/>
-      <c r="E209" s="56"/>
-      <c r="F209" s="56"/>
-      <c r="G209" s="56"/>
+      <c r="E209" s="59"/>
+      <c r="F209" s="59"/>
+      <c r="G209" s="59"/>
       <c r="H209" s="6"/>
       <c r="I209" s="6"/>
       <c r="J209" s="6"/>
-      <c r="K209" s="70"/>
+      <c r="K209" s="73"/>
     </row>
     <row r="210" spans="1:11">
       <c r="A210" s="6"/>
       <c r="B210" s="6"/>
       <c r="D210" s="6"/>
-      <c r="E210" s="56"/>
-      <c r="F210" s="56"/>
-      <c r="G210" s="56"/>
+      <c r="E210" s="59"/>
+      <c r="F210" s="59"/>
+      <c r="G210" s="59"/>
       <c r="H210" s="6"/>
       <c r="I210" s="6"/>
       <c r="J210" s="6"/>
-      <c r="K210" s="70"/>
+      <c r="K210" s="73"/>
     </row>
     <row r="211" spans="1:11">
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="D211" s="6"/>
-      <c r="E211" s="56"/>
-      <c r="F211" s="56"/>
-      <c r="G211" s="56"/>
+      <c r="E211" s="59"/>
+      <c r="F211" s="59"/>
+      <c r="G211" s="59"/>
       <c r="H211" s="6"/>
       <c r="I211" s="6"/>
       <c r="J211" s="6"/>
-      <c r="K211" s="70"/>
+      <c r="K211" s="73"/>
     </row>
     <row r="212" spans="1:11">
       <c r="A212" s="6"/>
       <c r="B212" s="6"/>
       <c r="D212" s="6"/>
-      <c r="E212" s="56"/>
-      <c r="F212" s="56"/>
-      <c r="G212" s="56"/>
+      <c r="E212" s="59"/>
+      <c r="F212" s="59"/>
+      <c r="G212" s="59"/>
       <c r="H212" s="6"/>
       <c r="I212" s="6"/>
       <c r="J212" s="6"/>
-      <c r="K212" s="70"/>
+      <c r="K212" s="73"/>
     </row>
     <row r="213" spans="1:11">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="D213" s="6"/>
-      <c r="E213" s="56"/>
-      <c r="F213" s="56"/>
-      <c r="G213" s="56"/>
+      <c r="E213" s="59"/>
+      <c r="F213" s="59"/>
+      <c r="G213" s="59"/>
       <c r="H213" s="6"/>
       <c r="I213" s="6"/>
       <c r="J213" s="6"/>
-      <c r="K213" s="70"/>
+      <c r="K213" s="73"/>
     </row>
     <row r="214" spans="1:11">
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="D214" s="6"/>
-      <c r="E214" s="56"/>
-      <c r="F214" s="56"/>
-      <c r="G214" s="56"/>
+      <c r="E214" s="59"/>
+      <c r="F214" s="59"/>
+      <c r="G214" s="59"/>
       <c r="H214" s="6"/>
       <c r="I214" s="6"/>
       <c r="J214" s="6"/>
-      <c r="K214" s="70"/>
+      <c r="K214" s="73"/>
     </row>
     <row r="215" spans="1:11">
       <c r="A215" s="6"/>
       <c r="B215" s="6"/>
       <c r="D215" s="6"/>
-      <c r="E215" s="56"/>
-      <c r="F215" s="56"/>
-      <c r="G215" s="56"/>
+      <c r="E215" s="59"/>
+      <c r="F215" s="59"/>
+      <c r="G215" s="59"/>
       <c r="H215" s="6"/>
       <c r="I215" s="6"/>
       <c r="J215" s="6"/>
-      <c r="K215" s="70"/>
+      <c r="K215" s="73"/>
     </row>
     <row r="216" spans="1:11">
       <c r="A216" s="6"/>
       <c r="B216" s="6"/>
       <c r="D216" s="6"/>
-      <c r="E216" s="56"/>
-      <c r="F216" s="56"/>
-      <c r="G216" s="56"/>
+      <c r="E216" s="59"/>
+      <c r="F216" s="59"/>
+      <c r="G216" s="59"/>
       <c r="H216" s="6"/>
       <c r="I216" s="6"/>
       <c r="J216" s="6"/>
-      <c r="K216" s="70"/>
+      <c r="K216" s="73"/>
     </row>
     <row r="217" spans="1:11">
       <c r="A217" s="6"/>
       <c r="B217" s="6"/>
       <c r="D217" s="6"/>
-      <c r="E217" s="56"/>
-      <c r="F217" s="56"/>
-      <c r="G217" s="56"/>
+      <c r="E217" s="59"/>
+      <c r="F217" s="59"/>
+      <c r="G217" s="59"/>
       <c r="H217" s="6"/>
       <c r="I217" s="6"/>
       <c r="J217" s="6"/>
-      <c r="K217" s="70"/>
+      <c r="K217" s="73"/>
     </row>
     <row r="218" spans="1:11">
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
       <c r="D218" s="6"/>
-      <c r="E218" s="56"/>
-      <c r="F218" s="56"/>
-      <c r="G218" s="56"/>
+      <c r="E218" s="59"/>
+      <c r="F218" s="59"/>
+      <c r="G218" s="59"/>
       <c r="H218" s="6"/>
       <c r="I218" s="6"/>
       <c r="J218" s="6"/>
-      <c r="K218" s="70"/>
+      <c r="K218" s="73"/>
     </row>
     <row r="219" spans="1:11">
       <c r="A219" s="6"/>
       <c r="B219" s="6"/>
       <c r="D219" s="6"/>
-      <c r="E219" s="56"/>
-      <c r="F219" s="56"/>
-      <c r="G219" s="56"/>
+      <c r="E219" s="59"/>
+      <c r="F219" s="59"/>
+      <c r="G219" s="59"/>
       <c r="H219" s="6"/>
       <c r="I219" s="6"/>
       <c r="J219" s="6"/>
-      <c r="K219" s="70"/>
+      <c r="K219" s="73"/>
     </row>
     <row r="220" spans="1:11">
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
       <c r="D220" s="6"/>
-      <c r="E220" s="56"/>
-      <c r="F220" s="56"/>
-      <c r="G220" s="56"/>
+      <c r="E220" s="59"/>
+      <c r="F220" s="59"/>
+      <c r="G220" s="59"/>
       <c r="H220" s="6"/>
       <c r="I220" s="6"/>
       <c r="J220" s="6"/>
-      <c r="K220" s="70"/>
+      <c r="K220" s="73"/>
     </row>
     <row r="221" spans="1:11">
       <c r="A221" s="6"/>
       <c r="B221" s="6"/>
       <c r="D221" s="6"/>
-      <c r="E221" s="56"/>
-      <c r="F221" s="56"/>
-      <c r="G221" s="56"/>
+      <c r="E221" s="59"/>
+      <c r="F221" s="59"/>
+      <c r="G221" s="59"/>
       <c r="H221" s="6"/>
       <c r="I221" s="6"/>
       <c r="J221" s="6"/>
-      <c r="K221" s="70"/>
+      <c r="K221" s="73"/>
     </row>
     <row r="222" spans="1:11">
       <c r="A222" s="6"/>
       <c r="B222" s="6"/>
       <c r="D222" s="6"/>
-      <c r="E222" s="56"/>
-      <c r="F222" s="56"/>
-      <c r="G222" s="56"/>
+      <c r="E222" s="59"/>
+      <c r="F222" s="59"/>
+      <c r="G222" s="59"/>
       <c r="H222" s="6"/>
       <c r="I222" s="6"/>
       <c r="J222" s="6"/>
-      <c r="K222" s="70"/>
+      <c r="K222" s="73"/>
     </row>
     <row r="223" spans="1:11">
       <c r="A223" s="6"/>
       <c r="B223" s="6"/>
       <c r="D223" s="6"/>
-      <c r="E223" s="56"/>
-      <c r="F223" s="56"/>
-      <c r="G223" s="56"/>
+      <c r="E223" s="59"/>
+      <c r="F223" s="59"/>
+      <c r="G223" s="59"/>
       <c r="H223" s="6"/>
       <c r="I223" s="6"/>
       <c r="J223" s="6"/>
-      <c r="K223" s="70"/>
+      <c r="K223" s="73"/>
     </row>
     <row r="224" spans="1:11">
       <c r="A224" s="6"/>
       <c r="B224" s="6"/>
       <c r="D224" s="6"/>
-      <c r="E224" s="56"/>
-      <c r="F224" s="56"/>
-      <c r="G224" s="56"/>
+      <c r="E224" s="59"/>
+      <c r="F224" s="59"/>
+      <c r="G224" s="59"/>
       <c r="H224" s="6"/>
       <c r="I224" s="6"/>
       <c r="J224" s="6"/>
-      <c r="K224" s="70"/>
+      <c r="K224" s="73"/>
     </row>
     <row r="225" spans="1:11">
       <c r="A225" s="6"/>
       <c r="B225" s="6"/>
       <c r="D225" s="6"/>
-      <c r="E225" s="56"/>
-      <c r="F225" s="56"/>
-      <c r="G225" s="56"/>
+      <c r="E225" s="59"/>
+      <c r="F225" s="59"/>
+      <c r="G225" s="59"/>
       <c r="H225" s="6"/>
       <c r="I225" s="6"/>
       <c r="J225" s="6"/>
-      <c r="K225" s="70"/>
+      <c r="K225" s="73"/>
     </row>
     <row r="226" spans="1:11">
       <c r="A226" s="6"/>
       <c r="B226" s="6"/>
       <c r="D226" s="6"/>
-      <c r="E226" s="56"/>
-      <c r="F226" s="56"/>
-      <c r="G226" s="56"/>
+      <c r="E226" s="59"/>
+      <c r="F226" s="59"/>
+      <c r="G226" s="59"/>
       <c r="H226" s="6"/>
       <c r="I226" s="6"/>
       <c r="J226" s="6"/>
-      <c r="K226" s="70"/>
+      <c r="K226" s="73"/>
     </row>
     <row r="227" spans="1:11">
       <c r="A227" s="6"/>
       <c r="B227" s="6"/>
       <c r="D227" s="6"/>
-      <c r="E227" s="56"/>
-      <c r="F227" s="56"/>
-      <c r="G227" s="56"/>
+      <c r="E227" s="59"/>
+      <c r="F227" s="59"/>
+      <c r="G227" s="59"/>
       <c r="H227" s="6"/>
       <c r="I227" s="6"/>
       <c r="J227" s="6"/>
-      <c r="K227" s="70"/>
+      <c r="K227" s="73"/>
     </row>
     <row r="228" spans="1:11">
       <c r="A228" s="6"/>
       <c r="B228" s="6"/>
       <c r="D228" s="6"/>
-      <c r="E228" s="56"/>
-      <c r="F228" s="56"/>
-      <c r="G228" s="56"/>
+      <c r="E228" s="59"/>
+      <c r="F228" s="59"/>
+      <c r="G228" s="59"/>
       <c r="H228" s="6"/>
       <c r="I228" s="6"/>
       <c r="J228" s="6"/>
-      <c r="K228" s="70"/>
+      <c r="K228" s="73"/>
     </row>
     <row r="229" spans="1:11">
       <c r="A229" s="6"/>
       <c r="B229" s="6"/>
       <c r="D229" s="6"/>
-      <c r="E229" s="56"/>
-      <c r="F229" s="56"/>
-      <c r="G229" s="56"/>
+      <c r="E229" s="59"/>
+      <c r="F229" s="59"/>
+      <c r="G229" s="59"/>
       <c r="H229" s="6"/>
       <c r="I229" s="6"/>
       <c r="J229" s="6"/>
-      <c r="K229" s="70"/>
+      <c r="K229" s="73"/>
     </row>
     <row r="230" spans="1:11">
       <c r="A230" s="6"/>
       <c r="B230" s="6"/>
       <c r="D230" s="6"/>
-      <c r="E230" s="56"/>
-      <c r="F230" s="56"/>
-      <c r="G230" s="56"/>
+      <c r="E230" s="59"/>
+      <c r="F230" s="59"/>
+      <c r="G230" s="59"/>
       <c r="H230" s="6"/>
       <c r="I230" s="6"/>
       <c r="J230" s="6"/>
-      <c r="K230" s="70"/>
+      <c r="K230" s="73"/>
     </row>
     <row r="231" spans="1:11">
       <c r="A231" s="6"/>
       <c r="B231" s="6"/>
       <c r="D231" s="6"/>
-      <c r="E231" s="56"/>
-      <c r="F231" s="56"/>
-      <c r="G231" s="56"/>
+      <c r="E231" s="59"/>
+      <c r="F231" s="59"/>
+      <c r="G231" s="59"/>
       <c r="H231" s="6"/>
       <c r="I231" s="6"/>
       <c r="J231" s="6"/>
-      <c r="K231" s="70"/>
+      <c r="K231" s="73"/>
     </row>
     <row r="232" spans="1:11">
       <c r="A232" s="6"/>
       <c r="B232" s="6"/>
       <c r="D232" s="6"/>
-      <c r="E232" s="56"/>
-      <c r="F232" s="56"/>
-      <c r="G232" s="56"/>
+      <c r="E232" s="59"/>
+      <c r="F232" s="59"/>
+      <c r="G232" s="59"/>
       <c r="H232" s="6"/>
       <c r="I232" s="6"/>
       <c r="J232" s="6"/>
-      <c r="K232" s="70"/>
+      <c r="K232" s="73"/>
     </row>
     <row r="233" spans="1:11">
       <c r="A233" s="6"/>
       <c r="B233" s="6"/>
       <c r="D233" s="6"/>
-      <c r="E233" s="56"/>
-      <c r="F233" s="56"/>
-      <c r="G233" s="56"/>
+      <c r="E233" s="59"/>
+      <c r="F233" s="59"/>
+      <c r="G233" s="59"/>
       <c r="H233" s="6"/>
       <c r="I233" s="6"/>
       <c r="J233" s="6"/>
-      <c r="K233" s="70"/>
+      <c r="K233" s="73"/>
     </row>
     <row r="234" spans="1:11">
       <c r="A234" s="6"/>
       <c r="B234" s="6"/>
       <c r="D234" s="6"/>
-      <c r="E234" s="56"/>
-      <c r="F234" s="56"/>
-      <c r="G234" s="56"/>
+      <c r="E234" s="59"/>
+      <c r="F234" s="59"/>
+      <c r="G234" s="59"/>
       <c r="H234" s="6"/>
       <c r="I234" s="6"/>
       <c r="J234" s="6"/>
-      <c r="K234" s="70"/>
+      <c r="K234" s="73"/>
     </row>
     <row r="235" spans="1:11">
       <c r="A235" s="6"/>
       <c r="B235" s="6"/>
       <c r="D235" s="6"/>
-      <c r="E235" s="56"/>
-      <c r="F235" s="56"/>
-      <c r="G235" s="56"/>
+      <c r="E235" s="59"/>
+      <c r="F235" s="59"/>
+      <c r="G235" s="59"/>
       <c r="H235" s="6"/>
       <c r="I235" s="6"/>
       <c r="J235" s="6"/>
-      <c r="K235" s="70"/>
+      <c r="K235" s="73"/>
     </row>
     <row r="236" spans="1:11">
       <c r="A236" s="6"/>
       <c r="B236" s="6"/>
       <c r="D236" s="6"/>
-      <c r="E236" s="56"/>
-      <c r="F236" s="56"/>
-      <c r="G236" s="56"/>
+      <c r="E236" s="59"/>
+      <c r="F236" s="59"/>
+      <c r="G236" s="59"/>
       <c r="H236" s="6"/>
       <c r="I236" s="6"/>
       <c r="J236" s="6"/>
-      <c r="K236" s="70"/>
+      <c r="K236" s="73"/>
     </row>
     <row r="237" spans="1:11">
       <c r="A237" s="6"/>
       <c r="B237" s="6"/>
       <c r="D237" s="6"/>
-      <c r="E237" s="56"/>
-      <c r="F237" s="56"/>
-      <c r="G237" s="56"/>
+      <c r="E237" s="59"/>
+      <c r="F237" s="59"/>
+      <c r="G237" s="59"/>
       <c r="H237" s="6"/>
       <c r="I237" s="6"/>
       <c r="J237" s="6"/>
-      <c r="K237" s="70"/>
+      <c r="K237" s="73"/>
     </row>
     <row r="238" spans="1:11">
       <c r="A238" s="6"/>
       <c r="B238" s="6"/>
       <c r="D238" s="6"/>
-      <c r="E238" s="56"/>
-      <c r="F238" s="56"/>
-      <c r="G238" s="56"/>
+      <c r="E238" s="59"/>
+      <c r="F238" s="59"/>
+      <c r="G238" s="59"/>
       <c r="H238" s="6"/>
       <c r="I238" s="6"/>
       <c r="J238" s="6"/>
-      <c r="K238" s="70"/>
+      <c r="K238" s="73"/>
     </row>
     <row r="239" spans="1:11">
       <c r="A239" s="6"/>
       <c r="B239" s="6"/>
       <c r="D239" s="6"/>
-      <c r="E239" s="56"/>
-      <c r="F239" s="56"/>
-      <c r="G239" s="56"/>
+      <c r="E239" s="59"/>
+      <c r="F239" s="59"/>
+      <c r="G239" s="59"/>
       <c r="H239" s="6"/>
       <c r="I239" s="6"/>
       <c r="J239" s="6"/>
-      <c r="K239" s="70"/>
+      <c r="K239" s="73"/>
     </row>
     <row r="240" spans="1:11">
       <c r="A240" s="6"/>
       <c r="B240" s="6"/>
       <c r="D240" s="6"/>
-      <c r="E240" s="56"/>
-      <c r="F240" s="56"/>
-      <c r="G240" s="56"/>
+      <c r="E240" s="59"/>
+      <c r="F240" s="59"/>
+      <c r="G240" s="59"/>
       <c r="H240" s="6"/>
       <c r="I240" s="6"/>
       <c r="J240" s="6"/>
-      <c r="K240" s="70"/>
+      <c r="K240" s="73"/>
     </row>
     <row r="241" spans="1:11">
       <c r="A241" s="6"/>
       <c r="B241" s="6"/>
       <c r="D241" s="6"/>
-      <c r="E241" s="56"/>
-      <c r="F241" s="56"/>
-      <c r="G241" s="56"/>
+      <c r="E241" s="59"/>
+      <c r="F241" s="59"/>
+      <c r="G241" s="59"/>
       <c r="H241" s="6"/>
       <c r="I241" s="6"/>
       <c r="J241" s="6"/>
-      <c r="K241" s="70"/>
+      <c r="K241" s="73"/>
     </row>
     <row r="242" spans="1:11">
       <c r="A242" s="6"/>
       <c r="B242" s="6"/>
       <c r="D242" s="6"/>
-      <c r="E242" s="56"/>
-      <c r="F242" s="56"/>
-      <c r="G242" s="56"/>
+      <c r="E242" s="59"/>
+      <c r="F242" s="59"/>
+      <c r="G242" s="59"/>
       <c r="H242" s="6"/>
       <c r="I242" s="6"/>
       <c r="J242" s="6"/>
-      <c r="K242" s="70"/>
+      <c r="K242" s="73"/>
     </row>
     <row r="243" spans="1:11">
       <c r="A243" s="6"/>
       <c r="B243" s="6"/>
       <c r="D243" s="6"/>
-      <c r="E243" s="56"/>
-      <c r="F243" s="56"/>
-      <c r="G243" s="56"/>
+      <c r="E243" s="59"/>
+      <c r="F243" s="59"/>
+      <c r="G243" s="59"/>
       <c r="H243" s="6"/>
       <c r="I243" s="6"/>
       <c r="J243" s="6"/>
-      <c r="K243" s="70"/>
+      <c r="K243" s="73"/>
     </row>
     <row r="244" spans="1:11">
       <c r="A244" s="6"/>
       <c r="B244" s="6"/>
       <c r="D244" s="6"/>
-      <c r="E244" s="56"/>
-      <c r="F244" s="56"/>
-      <c r="G244" s="56"/>
+      <c r="E244" s="59"/>
+      <c r="F244" s="59"/>
+      <c r="G244" s="59"/>
       <c r="H244" s="6"/>
       <c r="I244" s="6"/>
       <c r="J244" s="6"/>
-      <c r="K244" s="70"/>
+      <c r="K244" s="73"/>
     </row>
     <row r="245" spans="1:11">
       <c r="A245" s="6"/>
       <c r="B245" s="6"/>
       <c r="D245" s="6"/>
-      <c r="E245" s="56"/>
-      <c r="F245" s="56"/>
-      <c r="G245" s="56"/>
+      <c r="E245" s="59"/>
+      <c r="F245" s="59"/>
+      <c r="G245" s="59"/>
       <c r="H245" s="6"/>
       <c r="I245" s="6"/>
       <c r="J245" s="6"/>
-      <c r="K245" s="70"/>
+      <c r="K245" s="73"/>
     </row>
     <row r="246" spans="1:11">
       <c r="A246" s="6"/>
       <c r="B246" s="6"/>
       <c r="D246" s="6"/>
-      <c r="E246" s="56"/>
-      <c r="F246" s="56"/>
-      <c r="G246" s="56"/>
+      <c r="E246" s="59"/>
+      <c r="F246" s="59"/>
+      <c r="G246" s="59"/>
       <c r="H246" s="6"/>
       <c r="I246" s="6"/>
       <c r="J246" s="6"/>
-      <c r="K246" s="70"/>
+      <c r="K246" s="73"/>
     </row>
     <row r="247" spans="1:11">
       <c r="A247" s="6"/>
       <c r="B247" s="6"/>
       <c r="D247" s="6"/>
-      <c r="E247" s="56"/>
-      <c r="F247" s="56"/>
-      <c r="G247" s="56"/>
+      <c r="E247" s="59"/>
+      <c r="F247" s="59"/>
+      <c r="G247" s="59"/>
       <c r="H247" s="6"/>
       <c r="I247" s="6"/>
       <c r="J247" s="6"/>
-      <c r="K247" s="70"/>
+      <c r="K247" s="73"/>
     </row>
     <row r="248" spans="1:11">
       <c r="A248" s="6"/>
       <c r="B248" s="6"/>
       <c r="D248" s="6"/>
-      <c r="E248" s="56"/>
-      <c r="F248" s="56"/>
-      <c r="G248" s="56"/>
+      <c r="E248" s="59"/>
+      <c r="F248" s="59"/>
+      <c r="G248" s="59"/>
       <c r="H248" s="6"/>
       <c r="I248" s="6"/>
       <c r="J248" s="6"/>
-      <c r="K248" s="70"/>
+      <c r="K248" s="73"/>
     </row>
     <row r="249" spans="1:11">
       <c r="A249" s="6"/>
       <c r="B249" s="6"/>
       <c r="D249" s="6"/>
-      <c r="E249" s="56"/>
-      <c r="F249" s="56"/>
-      <c r="G249" s="56"/>
+      <c r="E249" s="59"/>
+      <c r="F249" s="59"/>
+      <c r="G249" s="59"/>
       <c r="H249" s="6"/>
       <c r="I249" s="6"/>
       <c r="J249" s="6"/>
-      <c r="K249" s="70"/>
+      <c r="K249" s="73"/>
     </row>
     <row r="250" spans="1:11">
       <c r="A250" s="6"/>
       <c r="B250" s="6"/>
       <c r="D250" s="6"/>
-      <c r="E250" s="56"/>
-      <c r="F250" s="56"/>
-      <c r="G250" s="56"/>
+      <c r="E250" s="59"/>
+      <c r="F250" s="59"/>
+      <c r="G250" s="59"/>
       <c r="H250" s="6"/>
       <c r="I250" s="6"/>
       <c r="J250" s="6"/>
-      <c r="K250" s="70"/>
+      <c r="K250" s="73"/>
     </row>
     <row r="251" spans="1:11">
       <c r="A251" s="6"/>
       <c r="B251" s="6"/>
       <c r="D251" s="6"/>
-      <c r="E251" s="56"/>
-      <c r="F251" s="56"/>
-      <c r="G251" s="56"/>
+      <c r="E251" s="59"/>
+      <c r="F251" s="59"/>
+      <c r="G251" s="59"/>
       <c r="H251" s="6"/>
       <c r="I251" s="6"/>
       <c r="J251" s="6"/>
-      <c r="K251" s="70"/>
+      <c r="K251" s="73"/>
     </row>
     <row r="252" spans="1:11">
       <c r="A252" s="6"/>
       <c r="B252" s="6"/>
       <c r="D252" s="6"/>
-      <c r="E252" s="56"/>
-      <c r="F252" s="56"/>
-      <c r="G252" s="56"/>
+      <c r="E252" s="59"/>
+      <c r="F252" s="59"/>
+      <c r="G252" s="59"/>
       <c r="H252" s="6"/>
       <c r="I252" s="6"/>
       <c r="J252" s="6"/>
-      <c r="K252" s="70"/>
+      <c r="K252" s="73"/>
     </row>
     <row r="253" spans="1:11">
       <c r="A253" s="6"/>
       <c r="B253" s="6"/>
       <c r="D253" s="6"/>
-      <c r="E253" s="56"/>
-      <c r="F253" s="56"/>
-      <c r="G253" s="56"/>
+      <c r="E253" s="59"/>
+      <c r="F253" s="59"/>
+      <c r="G253" s="59"/>
       <c r="H253" s="6"/>
       <c r="I253" s="6"/>
       <c r="J253" s="6"/>
-      <c r="K253" s="70"/>
+      <c r="K253" s="73"/>
     </row>
     <row r="254" spans="1:11">
       <c r="A254" s="6"/>
       <c r="B254" s="6"/>
       <c r="D254" s="6"/>
-      <c r="E254" s="56"/>
-      <c r="F254" s="56"/>
-      <c r="G254" s="56"/>
+      <c r="E254" s="59"/>
+      <c r="F254" s="59"/>
+      <c r="G254" s="59"/>
       <c r="H254" s="6"/>
       <c r="I254" s="6"/>
       <c r="J254" s="6"/>
-      <c r="K254" s="70"/>
+      <c r="K254" s="73"/>
     </row>
     <row r="255" spans="1:11">
       <c r="A255" s="6"/>
       <c r="B255" s="6"/>
       <c r="D255" s="6"/>
-      <c r="E255" s="56"/>
-      <c r="F255" s="56"/>
-      <c r="G255" s="56"/>
+      <c r="E255" s="59"/>
+      <c r="F255" s="59"/>
+      <c r="G255" s="59"/>
       <c r="H255" s="6"/>
       <c r="I255" s="6"/>
       <c r="J255" s="6"/>
-      <c r="K255" s="70"/>
+      <c r="K255" s="73"/>
     </row>
     <row r="256" spans="1:11">
       <c r="A256" s="6"/>
       <c r="B256" s="6"/>
       <c r="D256" s="6"/>
-      <c r="E256" s="56"/>
-      <c r="F256" s="56"/>
-      <c r="G256" s="56"/>
+      <c r="E256" s="59"/>
+      <c r="F256" s="59"/>
+      <c r="G256" s="59"/>
       <c r="H256" s="6"/>
       <c r="I256" s="6"/>
       <c r="J256" s="6"/>
-      <c r="K256" s="70"/>
+      <c r="K256" s="73"/>
     </row>
     <row r="257" spans="1:11">
       <c r="A257" s="6"/>
       <c r="B257" s="6"/>
       <c r="D257" s="6"/>
-      <c r="E257" s="56"/>
-      <c r="F257" s="56"/>
-      <c r="G257" s="56"/>
+      <c r="E257" s="59"/>
+      <c r="F257" s="59"/>
+      <c r="G257" s="59"/>
       <c r="H257" s="6"/>
       <c r="I257" s="6"/>
       <c r="J257" s="6"/>
-      <c r="K257" s="70"/>
+      <c r="K257" s="73"/>
     </row>
     <row r="258" spans="1:11">
       <c r="A258" s="6"/>
       <c r="B258" s="6"/>
       <c r="D258" s="6"/>
-      <c r="E258" s="56"/>
-      <c r="F258" s="56"/>
-      <c r="G258" s="56"/>
+      <c r="E258" s="59"/>
+      <c r="F258" s="59"/>
+      <c r="G258" s="59"/>
       <c r="H258" s="6"/>
       <c r="I258" s="6"/>
       <c r="J258" s="6"/>
-      <c r="K258" s="70"/>
+      <c r="K258" s="73"/>
     </row>
     <row r="259" spans="1:11">
       <c r="A259" s="6"/>
       <c r="B259" s="6"/>
       <c r="D259" s="6"/>
-      <c r="E259" s="56"/>
-      <c r="F259" s="56"/>
-      <c r="G259" s="56"/>
+      <c r="E259" s="59"/>
+      <c r="F259" s="59"/>
+      <c r="G259" s="59"/>
       <c r="H259" s="6"/>
       <c r="I259" s="6"/>
       <c r="J259" s="6"/>
-      <c r="K259" s="70"/>
+      <c r="K259" s="73"/>
     </row>
     <row r="260" spans="1:11">
       <c r="A260" s="6"/>
       <c r="B260" s="6"/>
       <c r="D260" s="6"/>
-      <c r="E260" s="56"/>
-      <c r="F260" s="56"/>
-      <c r="G260" s="56"/>
+      <c r="E260" s="59"/>
+      <c r="F260" s="59"/>
+      <c r="G260" s="59"/>
       <c r="H260" s="6"/>
       <c r="I260" s="6"/>
       <c r="J260" s="6"/>
-      <c r="K260" s="70"/>
+      <c r="K260" s="73"/>
     </row>
     <row r="261" spans="1:11">
       <c r="A261" s="6"/>
       <c r="B261" s="6"/>
       <c r="D261" s="6"/>
-      <c r="E261" s="56"/>
-      <c r="F261" s="56"/>
-      <c r="G261" s="56"/>
+      <c r="E261" s="59"/>
+      <c r="F261" s="59"/>
+      <c r="G261" s="59"/>
       <c r="H261" s="6"/>
       <c r="I261" s="6"/>
       <c r="J261" s="6"/>
-      <c r="K261" s="70"/>
+      <c r="K261" s="73"/>
     </row>
     <row r="262" spans="1:11">
       <c r="A262" s="6"/>
       <c r="B262" s="6"/>
       <c r="D262" s="6"/>
-      <c r="E262" s="56"/>
-      <c r="F262" s="56"/>
-      <c r="G262" s="56"/>
+      <c r="E262" s="59"/>
+      <c r="F262" s="59"/>
+      <c r="G262" s="59"/>
       <c r="H262" s="6"/>
       <c r="I262" s="6"/>
       <c r="J262" s="6"/>
-      <c r="K262" s="70"/>
+      <c r="K262" s="73"/>
     </row>
     <row r="263" spans="1:11">
       <c r="A263" s="6"/>
       <c r="B263" s="6"/>
       <c r="D263" s="6"/>
-      <c r="E263" s="56"/>
-      <c r="F263" s="56"/>
-      <c r="G263" s="56"/>
+      <c r="E263" s="59"/>
+      <c r="F263" s="59"/>
+      <c r="G263" s="59"/>
       <c r="H263" s="6"/>
       <c r="I263" s="6"/>
       <c r="J263" s="6"/>
-      <c r="K263" s="70"/>
+      <c r="K263" s="73"/>
     </row>
     <row r="264" spans="1:11">
       <c r="A264" s="6"/>
       <c r="B264" s="6"/>
       <c r="D264" s="6"/>
-      <c r="E264" s="56"/>
-      <c r="F264" s="56"/>
-      <c r="G264" s="56"/>
+      <c r="E264" s="59"/>
+      <c r="F264" s="59"/>
+      <c r="G264" s="59"/>
       <c r="H264" s="6"/>
       <c r="I264" s="6"/>
       <c r="J264" s="6"/>
-      <c r="K264" s="70"/>
+      <c r="K264" s="73"/>
     </row>
     <row r="265" spans="1:11">
       <c r="A265" s="6"/>
       <c r="B265" s="6"/>
       <c r="D265" s="6"/>
-      <c r="E265" s="56"/>
-      <c r="F265" s="56"/>
-      <c r="G265" s="56"/>
+      <c r="E265" s="59"/>
+      <c r="F265" s="59"/>
+      <c r="G265" s="59"/>
       <c r="H265" s="6"/>
       <c r="I265" s="6"/>
       <c r="J265" s="6"/>
-      <c r="K265" s="70"/>
+      <c r="K265" s="73"/>
     </row>
     <row r="266" spans="1:11">
       <c r="A266" s="6"/>
       <c r="B266" s="6"/>
       <c r="D266" s="6"/>
-      <c r="E266" s="56"/>
-      <c r="F266" s="56"/>
-      <c r="G266" s="56"/>
+      <c r="E266" s="59"/>
+      <c r="F266" s="59"/>
+      <c r="G266" s="59"/>
       <c r="H266" s="6"/>
       <c r="I266" s="6"/>
       <c r="J266" s="6"/>
-      <c r="K266" s="70"/>
+      <c r="K266" s="73"/>
     </row>
     <row r="267" spans="1:11">
       <c r="A267" s="6"/>
       <c r="B267" s="6"/>
       <c r="D267" s="6"/>
-      <c r="E267" s="56"/>
-      <c r="F267" s="56"/>
-      <c r="G267" s="56"/>
+      <c r="E267" s="59"/>
+      <c r="F267" s="59"/>
+      <c r="G267" s="59"/>
       <c r="H267" s="6"/>
       <c r="I267" s="6"/>
       <c r="J267" s="6"/>
-      <c r="K267" s="70"/>
+      <c r="K267" s="73"/>
     </row>
     <row r="268" spans="1:11">
       <c r="A268" s="6"/>
       <c r="B268" s="6"/>
       <c r="D268" s="6"/>
-      <c r="E268" s="56"/>
-      <c r="F268" s="56"/>
-      <c r="G268" s="56"/>
+      <c r="E268" s="59"/>
+      <c r="F268" s="59"/>
+      <c r="G268" s="59"/>
       <c r="H268" s="6"/>
       <c r="I268" s="6"/>
       <c r="J268" s="6"/>
-      <c r="K268" s="70"/>
+      <c r="K268" s="73"/>
     </row>
     <row r="269" spans="1:11">
       <c r="A269" s="6"/>
       <c r="B269" s="6"/>
       <c r="D269" s="6"/>
-      <c r="E269" s="56"/>
-      <c r="F269" s="56"/>
-      <c r="G269" s="56"/>
+      <c r="E269" s="59"/>
+      <c r="F269" s="59"/>
+      <c r="G269" s="59"/>
       <c r="H269" s="6"/>
       <c r="I269" s="6"/>
       <c r="J269" s="6"/>
-      <c r="K269" s="70"/>
+      <c r="K269" s="73"/>
     </row>
     <row r="270" spans="1:11">
       <c r="A270" s="6"/>
       <c r="B270" s="6"/>
       <c r="D270" s="6"/>
-      <c r="E270" s="56"/>
-      <c r="F270" s="56"/>
-      <c r="G270" s="56"/>
+      <c r="E270" s="59"/>
+      <c r="F270" s="59"/>
+      <c r="G270" s="59"/>
       <c r="H270" s="6"/>
       <c r="I270" s="6"/>
       <c r="J270" s="6"/>
-      <c r="K270" s="70"/>
+      <c r="K270" s="73"/>
     </row>
     <row r="271" spans="1:11">
       <c r="A271" s="6"/>
       <c r="B271" s="6"/>
       <c r="D271" s="6"/>
-      <c r="E271" s="56"/>
-      <c r="F271" s="56"/>
-      <c r="G271" s="56"/>
+      <c r="E271" s="59"/>
+      <c r="F271" s="59"/>
+      <c r="G271" s="59"/>
       <c r="H271" s="6"/>
       <c r="I271" s="6"/>
       <c r="J271" s="6"/>
-      <c r="K271" s="70"/>
+      <c r="K271" s="73"/>
     </row>
     <row r="272" spans="1:11">
       <c r="A272" s="6"/>
       <c r="B272" s="6"/>
       <c r="D272" s="6"/>
-      <c r="E272" s="56"/>
-      <c r="F272" s="56"/>
-      <c r="G272" s="56"/>
+      <c r="E272" s="59"/>
+      <c r="F272" s="59"/>
+      <c r="G272" s="59"/>
       <c r="H272" s="6"/>
       <c r="I272" s="6"/>
       <c r="J272" s="6"/>
-      <c r="K272" s="70"/>
+      <c r="K272" s="73"/>
     </row>
     <row r="273" spans="1:11">
       <c r="A273" s="6"/>
       <c r="B273" s="6"/>
       <c r="D273" s="6"/>
-      <c r="E273" s="56"/>
-      <c r="F273" s="56"/>
-      <c r="G273" s="56"/>
+      <c r="E273" s="59"/>
+      <c r="F273" s="59"/>
+      <c r="G273" s="59"/>
       <c r="H273" s="6"/>
       <c r="I273" s="6"/>
       <c r="J273" s="6"/>
-      <c r="K273" s="70"/>
+      <c r="K273" s="73"/>
     </row>
     <row r="274" spans="1:11">
       <c r="A274" s="6"/>
       <c r="B274" s="6"/>
       <c r="D274" s="6"/>
-      <c r="E274" s="56"/>
-      <c r="F274" s="56"/>
-      <c r="G274" s="56"/>
+      <c r="E274" s="59"/>
+      <c r="F274" s="59"/>
+      <c r="G274" s="59"/>
       <c r="H274" s="6"/>
       <c r="I274" s="6"/>
       <c r="J274" s="6"/>
-      <c r="K274" s="70"/>
+      <c r="K274" s="73"/>
     </row>
     <row r="275" spans="1:11">
       <c r="A275" s="6"/>
       <c r="B275" s="6"/>
       <c r="D275" s="6"/>
-      <c r="E275" s="56"/>
-      <c r="F275" s="56"/>
-      <c r="G275" s="56"/>
+      <c r="E275" s="59"/>
+      <c r="F275" s="59"/>
+      <c r="G275" s="59"/>
       <c r="H275" s="6"/>
       <c r="I275" s="6"/>
       <c r="J275" s="6"/>
-      <c r="K275" s="70"/>
+      <c r="K275" s="73"/>
     </row>
     <row r="276" spans="1:11">
       <c r="A276" s="6"/>
       <c r="B276" s="6"/>
       <c r="D276" s="6"/>
-      <c r="E276" s="56"/>
-      <c r="F276" s="56"/>
-      <c r="G276" s="56"/>
+      <c r="E276" s="59"/>
+      <c r="F276" s="59"/>
+      <c r="G276" s="59"/>
       <c r="H276" s="6"/>
       <c r="I276" s="6"/>
       <c r="J276" s="6"/>
-      <c r="K276" s="70"/>
+      <c r="K276" s="73"/>
     </row>
     <row r="277" spans="1:11">
       <c r="A277" s="6"/>
       <c r="B277" s="6"/>
       <c r="D277" s="6"/>
-      <c r="E277" s="56"/>
-      <c r="F277" s="56"/>
-      <c r="G277" s="56"/>
+      <c r="E277" s="59"/>
+      <c r="F277" s="59"/>
+      <c r="G277" s="59"/>
       <c r="H277" s="6"/>
       <c r="I277" s="6"/>
       <c r="J277" s="6"/>
-      <c r="K277" s="70"/>
+      <c r="K277" s="73"/>
     </row>
     <row r="278" spans="1:11">
       <c r="A278" s="6"/>
       <c r="B278" s="6"/>
       <c r="D278" s="6"/>
-      <c r="E278" s="56"/>
-      <c r="F278" s="56"/>
-      <c r="G278" s="56"/>
+      <c r="E278" s="59"/>
+      <c r="F278" s="59"/>
+      <c r="G278" s="59"/>
       <c r="H278" s="6"/>
       <c r="I278" s="6"/>
       <c r="J278" s="6"/>
-      <c r="K278" s="70"/>
+      <c r="K278" s="73"/>
     </row>
     <row r="279" spans="1:11">
       <c r="A279" s="6"/>
       <c r="B279" s="6"/>
       <c r="D279" s="6"/>
-      <c r="E279" s="56"/>
-      <c r="F279" s="56"/>
-      <c r="G279" s="56"/>
+      <c r="E279" s="59"/>
+      <c r="F279" s="59"/>
+      <c r="G279" s="59"/>
       <c r="H279" s="6"/>
       <c r="I279" s="6"/>
       <c r="J279" s="6"/>
-      <c r="K279" s="70"/>
+      <c r="K279" s="73"/>
     </row>
     <row r="280" spans="1:11">
       <c r="A280" s="6"/>
       <c r="B280" s="6"/>
       <c r="D280" s="6"/>
-      <c r="E280" s="56"/>
-      <c r="F280" s="56"/>
-      <c r="G280" s="56"/>
+      <c r="E280" s="59"/>
+      <c r="F280" s="59"/>
+      <c r="G280" s="59"/>
       <c r="H280" s="6"/>
       <c r="I280" s="6"/>
       <c r="J280" s="6"/>
-      <c r="K280" s="70"/>
+      <c r="K280" s="73"/>
     </row>
     <row r="281" spans="1:11">
       <c r="A281" s="6"/>
       <c r="B281" s="6"/>
       <c r="D281" s="6"/>
-      <c r="E281" s="56"/>
-      <c r="F281" s="56"/>
-      <c r="G281" s="56"/>
+      <c r="E281" s="59"/>
+      <c r="F281" s="59"/>
+      <c r="G281" s="59"/>
       <c r="H281" s="6"/>
       <c r="I281" s="6"/>
       <c r="J281" s="6"/>
-      <c r="K281" s="70"/>
+      <c r="K281" s="73"/>
     </row>
     <row r="282" spans="1:11">
       <c r="A282" s="6"/>
       <c r="B282" s="6"/>
       <c r="D282" s="6"/>
-      <c r="E282" s="56"/>
-      <c r="F282" s="56"/>
-      <c r="G282" s="56"/>
+      <c r="E282" s="59"/>
+      <c r="F282" s="59"/>
+      <c r="G282" s="59"/>
       <c r="H282" s="6"/>
       <c r="I282" s="6"/>
       <c r="J282" s="6"/>
-      <c r="K282" s="70"/>
+      <c r="K282" s="73"/>
     </row>
     <row r="283" spans="1:11">
       <c r="A283" s="6"/>
       <c r="B283" s="6"/>
       <c r="D283" s="6"/>
-      <c r="E283" s="56"/>
-      <c r="F283" s="56"/>
-      <c r="G283" s="56"/>
+      <c r="E283" s="59"/>
+      <c r="F283" s="59"/>
+      <c r="G283" s="59"/>
       <c r="H283" s="6"/>
       <c r="I283" s="6"/>
       <c r="J283" s="6"/>
-      <c r="K283" s="70"/>
+      <c r="K283" s="73"/>
     </row>
     <row r="284" spans="1:11">
       <c r="A284" s="6"/>
       <c r="B284" s="6"/>
       <c r="D284" s="6"/>
-      <c r="E284" s="56"/>
-      <c r="F284" s="56"/>
-      <c r="G284" s="56"/>
+      <c r="E284" s="59"/>
+      <c r="F284" s="59"/>
+      <c r="G284" s="59"/>
       <c r="H284" s="6"/>
       <c r="I284" s="6"/>
       <c r="J284" s="6"/>
-      <c r="K284" s="70"/>
+      <c r="K284" s="73"/>
     </row>
     <row r="285" spans="1:11">
       <c r="A285" s="6"/>
       <c r="B285" s="6"/>
       <c r="D285" s="6"/>
-      <c r="E285" s="56"/>
-      <c r="F285" s="56"/>
-      <c r="G285" s="56"/>
+      <c r="E285" s="59"/>
+      <c r="F285" s="59"/>
+      <c r="G285" s="59"/>
       <c r="H285" s="6"/>
       <c r="I285" s="6"/>
       <c r="J285" s="6"/>
-      <c r="K285" s="70"/>
+      <c r="K285" s="73"/>
     </row>
     <row r="286" spans="1:11">
       <c r="A286" s="6"/>
       <c r="B286" s="6"/>
       <c r="D286" s="6"/>
-      <c r="E286" s="56"/>
-      <c r="F286" s="56"/>
-      <c r="G286" s="56"/>
+      <c r="E286" s="59"/>
+      <c r="F286" s="59"/>
+      <c r="G286" s="59"/>
       <c r="H286" s="6"/>
       <c r="I286" s="6"/>
       <c r="J286" s="6"/>
-      <c r="K286" s="70"/>
+      <c r="K286" s="73"/>
     </row>
     <row r="287" spans="1:11">
       <c r="A287" s="6"/>
       <c r="B287" s="6"/>
       <c r="D287" s="6"/>
-      <c r="E287" s="56"/>
-      <c r="F287" s="56"/>
-      <c r="G287" s="56"/>
+      <c r="E287" s="59"/>
+      <c r="F287" s="59"/>
+      <c r="G287" s="59"/>
       <c r="H287" s="6"/>
       <c r="I287" s="6"/>
       <c r="J287" s="6"/>
-      <c r="K287" s="70"/>
+      <c r="K287" s="73"/>
     </row>
     <row r="288" spans="1:11">
       <c r="A288" s="6"/>
       <c r="B288" s="6"/>
       <c r="D288" s="6"/>
-      <c r="E288" s="56"/>
-      <c r="F288" s="56"/>
-      <c r="G288" s="56"/>
+      <c r="E288" s="59"/>
+      <c r="F288" s="59"/>
+      <c r="G288" s="59"/>
       <c r="H288" s="6"/>
       <c r="I288" s="6"/>
       <c r="J288" s="6"/>
-      <c r="K288" s="70"/>
+      <c r="K288" s="73"/>
     </row>
     <row r="289" spans="1:11">
       <c r="A289" s="6"/>
       <c r="B289" s="6"/>
       <c r="D289" s="6"/>
-      <c r="E289" s="56"/>
-      <c r="F289" s="56"/>
-      <c r="G289" s="56"/>
+      <c r="E289" s="59"/>
+      <c r="F289" s="59"/>
+      <c r="G289" s="59"/>
       <c r="H289" s="6"/>
       <c r="I289" s="6"/>
       <c r="J289" s="6"/>
-      <c r="K289" s="70"/>
+      <c r="K289" s="73"/>
     </row>
     <row r="290" spans="1:11">
       <c r="A290" s="6"/>
       <c r="B290" s="6"/>
       <c r="D290" s="6"/>
-      <c r="E290" s="56"/>
-      <c r="F290" s="56"/>
-      <c r="G290" s="56"/>
+      <c r="E290" s="59"/>
+      <c r="F290" s="59"/>
+      <c r="G290" s="59"/>
       <c r="H290" s="6"/>
       <c r="I290" s="6"/>
       <c r="J290" s="6"/>
-      <c r="K290" s="70"/>
+      <c r="K290" s="73"/>
     </row>
     <row r="291" spans="1:11">
       <c r="A291" s="6"/>
       <c r="B291" s="6"/>
       <c r="D291" s="6"/>
-      <c r="E291" s="56"/>
-      <c r="F291" s="56"/>
-      <c r="G291" s="56"/>
+      <c r="E291" s="59"/>
+      <c r="F291" s="59"/>
+      <c r="G291" s="59"/>
       <c r="H291" s="6"/>
       <c r="I291" s="6"/>
       <c r="J291" s="6"/>
-      <c r="K291" s="70"/>
+      <c r="K291" s="73"/>
     </row>
     <row r="292" spans="1:11">
       <c r="A292" s="6"/>
       <c r="B292" s="6"/>
       <c r="D292" s="6"/>
-      <c r="E292" s="56"/>
-      <c r="F292" s="56"/>
-      <c r="G292" s="56"/>
+      <c r="E292" s="59"/>
+      <c r="F292" s="59"/>
+      <c r="G292" s="59"/>
       <c r="H292" s="6"/>
       <c r="I292" s="6"/>
       <c r="J292" s="6"/>
-      <c r="K292" s="70"/>
+      <c r="K292" s="73"/>
     </row>
     <row r="293" spans="1:11">
       <c r="A293" s="6"/>
       <c r="B293" s="6"/>
       <c r="D293" s="6"/>
-      <c r="E293" s="56"/>
-      <c r="F293" s="56"/>
-      <c r="G293" s="56"/>
+      <c r="E293" s="59"/>
+      <c r="F293" s="59"/>
+      <c r="G293" s="59"/>
       <c r="H293" s="6"/>
       <c r="I293" s="6"/>
       <c r="J293" s="6"/>
-      <c r="K293" s="70"/>
+      <c r="K293" s="73"/>
     </row>
     <row r="294" spans="1:11">
       <c r="A294" s="6"/>
       <c r="B294" s="6"/>
       <c r="D294" s="6"/>
-      <c r="E294" s="56"/>
-      <c r="F294" s="56"/>
-      <c r="G294" s="56"/>
+      <c r="E294" s="59"/>
+      <c r="F294" s="59"/>
+      <c r="G294" s="59"/>
       <c r="H294" s="6"/>
       <c r="I294" s="6"/>
       <c r="J294" s="6"/>
-      <c r="K294" s="70"/>
+      <c r="K294" s="73"/>
     </row>
     <row r="295" spans="1:11">
       <c r="A295" s="6"/>
       <c r="B295" s="6"/>
       <c r="D295" s="6"/>
-      <c r="E295" s="56"/>
-      <c r="F295" s="56"/>
-      <c r="G295" s="56"/>
+      <c r="E295" s="59"/>
+      <c r="F295" s="59"/>
+      <c r="G295" s="59"/>
       <c r="H295" s="6"/>
       <c r="I295" s="6"/>
       <c r="J295" s="6"/>
-      <c r="K295" s="70"/>
+      <c r="K295" s="73"/>
     </row>
     <row r="296" spans="1:11">
       <c r="A296" s="6"/>
       <c r="B296" s="6"/>
       <c r="D296" s="6"/>
-      <c r="E296" s="56"/>
-      <c r="F296" s="56"/>
-      <c r="G296" s="56"/>
+      <c r="E296" s="59"/>
+      <c r="F296" s="59"/>
+      <c r="G296" s="59"/>
       <c r="H296" s="6"/>
       <c r="I296" s="6"/>
       <c r="J296" s="6"/>
-      <c r="K296" s="70"/>
+      <c r="K296" s="73"/>
     </row>
     <row r="297" spans="1:11">
       <c r="A297" s="6"/>
       <c r="B297" s="6"/>
       <c r="D297" s="6"/>
-      <c r="E297" s="56"/>
-      <c r="F297" s="56"/>
-      <c r="G297" s="56"/>
+      <c r="E297" s="59"/>
+      <c r="F297" s="59"/>
+      <c r="G297" s="59"/>
       <c r="H297" s="6"/>
       <c r="I297" s="6"/>
       <c r="J297" s="6"/>
-      <c r="K297" s="70"/>
+      <c r="K297" s="73"/>
     </row>
     <row r="298" spans="1:11">
       <c r="A298" s="6"/>
       <c r="B298" s="6"/>
       <c r="D298" s="6"/>
-      <c r="E298" s="56"/>
-      <c r="F298" s="56"/>
-      <c r="G298" s="56"/>
+      <c r="E298" s="59"/>
+      <c r="F298" s="59"/>
+      <c r="G298" s="59"/>
       <c r="H298" s="6"/>
       <c r="I298" s="6"/>
       <c r="J298" s="6"/>
-      <c r="K298" s="70"/>
+      <c r="K298" s="73"/>
     </row>
     <row r="299" spans="1:11">
       <c r="A299" s="6"/>
       <c r="B299" s="6"/>
       <c r="D299" s="6"/>
-      <c r="E299" s="56"/>
-      <c r="F299" s="56"/>
-      <c r="G299" s="56"/>
+      <c r="E299" s="59"/>
+      <c r="F299" s="59"/>
+      <c r="G299" s="59"/>
       <c r="H299" s="6"/>
       <c r="I299" s="6"/>
       <c r="J299" s="6"/>
-      <c r="K299" s="70"/>
+      <c r="K299" s="73"/>
     </row>
     <row r="300" spans="1:11">
       <c r="A300" s="6"/>
       <c r="B300" s="6"/>
       <c r="D300" s="6"/>
-      <c r="E300" s="56"/>
-      <c r="F300" s="56"/>
-      <c r="G300" s="56"/>
+      <c r="E300" s="59"/>
+      <c r="F300" s="59"/>
+      <c r="G300" s="59"/>
       <c r="H300" s="6"/>
       <c r="I300" s="6"/>
       <c r="J300" s="6"/>
-      <c r="K300" s="70"/>
+      <c r="K300" s="73"/>
     </row>
     <row r="301" spans="1:11">
       <c r="A301" s="6"/>
       <c r="B301" s="6"/>
       <c r="D301" s="6"/>
-      <c r="E301" s="56"/>
-      <c r="F301" s="56"/>
-      <c r="G301" s="56"/>
+      <c r="E301" s="59"/>
+      <c r="F301" s="59"/>
+      <c r="G301" s="59"/>
       <c r="H301" s="6"/>
       <c r="I301" s="6"/>
       <c r="J301" s="6"/>
-      <c r="K301" s="70"/>
+      <c r="K301" s="73"/>
     </row>
     <row r="302" spans="1:11">
       <c r="A302" s="6"/>
       <c r="B302" s="6"/>
       <c r="D302" s="6"/>
-      <c r="E302" s="56"/>
-      <c r="F302" s="56"/>
-      <c r="G302" s="56"/>
+      <c r="E302" s="59"/>
+      <c r="F302" s="59"/>
+      <c r="G302" s="59"/>
       <c r="H302" s="6"/>
       <c r="I302" s="6"/>
       <c r="J302" s="6"/>
-      <c r="K302" s="70"/>
+      <c r="K302" s="73"/>
     </row>
     <row r="303" spans="1:11">
       <c r="A303" s="6"/>
       <c r="B303" s="6"/>
       <c r="D303" s="6"/>
-      <c r="E303" s="56"/>
-      <c r="F303" s="56"/>
-      <c r="G303" s="56"/>
+      <c r="E303" s="59"/>
+      <c r="F303" s="59"/>
+      <c r="G303" s="59"/>
       <c r="H303" s="6"/>
       <c r="I303" s="6"/>
       <c r="J303" s="6"/>
-      <c r="K303" s="70"/>
+      <c r="K303" s="73"/>
     </row>
     <row r="304" spans="1:11">
       <c r="A304" s="6"/>
       <c r="B304" s="6"/>
       <c r="D304" s="6"/>
-      <c r="E304" s="56"/>
-      <c r="F304" s="56"/>
-      <c r="G304" s="56"/>
+      <c r="E304" s="59"/>
+      <c r="F304" s="59"/>
+      <c r="G304" s="59"/>
       <c r="H304" s="6"/>
       <c r="I304" s="6"/>
       <c r="J304" s="6"/>
-      <c r="K304" s="70"/>
+      <c r="K304" s="73"/>
     </row>
     <row r="305" spans="1:11">
       <c r="A305" s="6"/>
       <c r="B305" s="6"/>
       <c r="D305" s="6"/>
-      <c r="E305" s="56"/>
-      <c r="F305" s="56"/>
-      <c r="G305" s="56"/>
+      <c r="E305" s="59"/>
+      <c r="F305" s="59"/>
+      <c r="G305" s="59"/>
       <c r="H305" s="6"/>
       <c r="I305" s="6"/>
       <c r="J305" s="6"/>
-      <c r="K305" s="70"/>
+      <c r="K305" s="73"/>
     </row>
     <row r="306" spans="1:11">
       <c r="A306" s="6"/>
       <c r="B306" s="6"/>
       <c r="D306" s="6"/>
-      <c r="E306" s="56"/>
-      <c r="F306" s="56"/>
-      <c r="G306" s="56"/>
+      <c r="E306" s="59"/>
+      <c r="F306" s="59"/>
+      <c r="G306" s="59"/>
       <c r="H306" s="6"/>
       <c r="I306" s="6"/>
       <c r="J306" s="6"/>
-      <c r="K306" s="70"/>
+      <c r="K306" s="73"/>
     </row>
     <row r="307" spans="1:11">
       <c r="A307" s="6"/>
       <c r="B307" s="6"/>
       <c r="D307" s="6"/>
-      <c r="E307" s="56"/>
-      <c r="F307" s="56"/>
-      <c r="G307" s="56"/>
+      <c r="E307" s="59"/>
+      <c r="F307" s="59"/>
+      <c r="G307" s="59"/>
       <c r="H307" s="6"/>
       <c r="I307" s="6"/>
       <c r="J307" s="6"/>
-      <c r="K307" s="70"/>
+      <c r="K307" s="73"/>
     </row>
     <row r="308" spans="1:11">
       <c r="A308" s="6"/>
       <c r="B308" s="6"/>
       <c r="D308" s="6"/>
-      <c r="E308" s="56"/>
-      <c r="F308" s="56"/>
-      <c r="G308" s="56"/>
+      <c r="E308" s="59"/>
+      <c r="F308" s="59"/>
+      <c r="G308" s="59"/>
       <c r="H308" s="6"/>
       <c r="I308" s="6"/>
       <c r="J308" s="6"/>
-      <c r="K308" s="70"/>
+      <c r="K308" s="73"/>
     </row>
     <row r="309" spans="1:11">
       <c r="A309" s="6"/>
       <c r="B309" s="6"/>
       <c r="D309" s="6"/>
-      <c r="E309" s="56"/>
-      <c r="F309" s="56"/>
-      <c r="G309" s="56"/>
+      <c r="E309" s="59"/>
+      <c r="F309" s="59"/>
+      <c r="G309" s="59"/>
       <c r="H309" s="6"/>
       <c r="I309" s="6"/>
       <c r="J309" s="6"/>
-      <c r="K309" s="70"/>
+      <c r="K309" s="73"/>
     </row>
     <row r="310" spans="1:11">
       <c r="A310" s="6"/>
       <c r="B310" s="6"/>
       <c r="D310" s="6"/>
-      <c r="E310" s="56"/>
-      <c r="F310" s="56"/>
-      <c r="G310" s="56"/>
+      <c r="E310" s="59"/>
+      <c r="F310" s="59"/>
+      <c r="G310" s="59"/>
       <c r="H310" s="6"/>
       <c r="I310" s="6"/>
       <c r="J310" s="6"/>
-      <c r="K310" s="70"/>
+      <c r="K310" s="73"/>
     </row>
     <row r="311" spans="1:11">
       <c r="A311" s="6"/>
       <c r="B311" s="6"/>
       <c r="D311" s="6"/>
-      <c r="E311" s="56"/>
-      <c r="F311" s="56"/>
-      <c r="G311" s="56"/>
+      <c r="E311" s="59"/>
+      <c r="F311" s="59"/>
+      <c r="G311" s="59"/>
       <c r="H311" s="6"/>
       <c r="I311" s="6"/>
       <c r="J311" s="6"/>
-      <c r="K311" s="70"/>
+      <c r="K311" s="73"/>
     </row>
     <row r="312" spans="1:11">
       <c r="A312" s="6"/>
       <c r="B312" s="6"/>
       <c r="D312" s="6"/>
-      <c r="E312" s="56"/>
-      <c r="F312" s="56"/>
-      <c r="G312" s="56"/>
+      <c r="E312" s="59"/>
+      <c r="F312" s="59"/>
+      <c r="G312" s="59"/>
       <c r="H312" s="6"/>
       <c r="I312" s="6"/>
       <c r="J312" s="6"/>
-      <c r="K312" s="70"/>
+      <c r="K312" s="73"/>
     </row>
     <row r="313" spans="1:11">
       <c r="A313" s="6"/>
       <c r="B313" s="6"/>
       <c r="D313" s="6"/>
-      <c r="E313" s="56"/>
-      <c r="F313" s="56"/>
-      <c r="G313" s="56"/>
+      <c r="E313" s="59"/>
+      <c r="F313" s="59"/>
+      <c r="G313" s="59"/>
       <c r="H313" s="6"/>
       <c r="I313" s="6"/>
       <c r="J313" s="6"/>
-      <c r="K313" s="70"/>
+      <c r="K313" s="73"/>
     </row>
     <row r="314" spans="1:11">
       <c r="A314" s="6"/>
       <c r="B314" s="6"/>
       <c r="D314" s="6"/>
-      <c r="E314" s="56"/>
-      <c r="F314" s="56"/>
-      <c r="G314" s="56"/>
+      <c r="E314" s="59"/>
+      <c r="F314" s="59"/>
+      <c r="G314" s="59"/>
       <c r="H314" s="6"/>
       <c r="I314" s="6"/>
       <c r="J314" s="6"/>
-      <c r="K314" s="70"/>
+      <c r="K314" s="73"/>
     </row>
     <row r="315" spans="1:11">
       <c r="A315" s="6"/>
       <c r="B315" s="6"/>
       <c r="D315" s="6"/>
-      <c r="E315" s="56"/>
-      <c r="F315" s="56"/>
-      <c r="G315" s="56"/>
+      <c r="E315" s="59"/>
+      <c r="F315" s="59"/>
+      <c r="G315" s="59"/>
       <c r="H315" s="6"/>
       <c r="I315" s="6"/>
       <c r="J315" s="6"/>
-      <c r="K315" s="70"/>
+      <c r="K315" s="73"/>
     </row>
     <row r="316" spans="1:11">
       <c r="A316" s="6"/>
       <c r="B316" s="6"/>
       <c r="D316" s="6"/>
-      <c r="E316" s="56"/>
-      <c r="F316" s="56"/>
-      <c r="G316" s="56"/>
+      <c r="E316" s="59"/>
+      <c r="F316" s="59"/>
+      <c r="G316" s="59"/>
       <c r="H316" s="6"/>
       <c r="I316" s="6"/>
       <c r="J316" s="6"/>
-      <c r="K316" s="70"/>
+      <c r="K316" s="73"/>
     </row>
     <row r="317" spans="1:11">
       <c r="A317" s="6"/>
       <c r="B317" s="6"/>
       <c r="D317" s="6"/>
-      <c r="E317" s="56"/>
-      <c r="F317" s="56"/>
-      <c r="G317" s="56"/>
+      <c r="E317" s="59"/>
+      <c r="F317" s="59"/>
+      <c r="G317" s="59"/>
       <c r="H317" s="6"/>
       <c r="I317" s="6"/>
       <c r="J317" s="6"/>
-      <c r="K317" s="70"/>
+      <c r="K317" s="73"/>
     </row>
     <row r="318" spans="1:11">
       <c r="A318" s="6"/>
       <c r="B318" s="6"/>
       <c r="D318" s="6"/>
-      <c r="E318" s="56"/>
-      <c r="F318" s="56"/>
-      <c r="G318" s="56"/>
+      <c r="E318" s="59"/>
+      <c r="F318" s="59"/>
+      <c r="G318" s="59"/>
       <c r="H318" s="6"/>
       <c r="I318" s="6"/>
       <c r="J318" s="6"/>
-      <c r="K318" s="70"/>
+      <c r="K318" s="73"/>
     </row>
     <row r="319" spans="1:11">
       <c r="A319" s="6"/>
       <c r="B319" s="6"/>
       <c r="D319" s="6"/>
-      <c r="E319" s="56"/>
-      <c r="F319" s="56"/>
-      <c r="G319" s="56"/>
+      <c r="E319" s="59"/>
+      <c r="F319" s="59"/>
+      <c r="G319" s="59"/>
       <c r="H319" s="6"/>
       <c r="I319" s="6"/>
       <c r="J319" s="6"/>
-      <c r="K319" s="70"/>
+      <c r="K319" s="73"/>
     </row>
     <row r="320" spans="1:11">
       <c r="A320" s="6"/>
       <c r="B320" s="6"/>
       <c r="D320" s="6"/>
-      <c r="E320" s="56"/>
-      <c r="F320" s="56"/>
-      <c r="G320" s="56"/>
+      <c r="E320" s="59"/>
+      <c r="F320" s="59"/>
+      <c r="G320" s="59"/>
       <c r="H320" s="6"/>
       <c r="I320" s="6"/>
       <c r="J320" s="6"/>
-      <c r="K320" s="70"/>
+      <c r="K320" s="73"/>
     </row>
     <row r="321" spans="1:11">
       <c r="A321" s="6"/>
       <c r="B321" s="6"/>
       <c r="D321" s="6"/>
-      <c r="E321" s="56"/>
-      <c r="F321" s="56"/>
-      <c r="G321" s="56"/>
+      <c r="E321" s="59"/>
+      <c r="F321" s="59"/>
+      <c r="G321" s="59"/>
       <c r="H321" s="6"/>
       <c r="I321" s="6"/>
       <c r="J321" s="6"/>
-      <c r="K321" s="70"/>
+      <c r="K321" s="73"/>
     </row>
     <row r="322" spans="1:11">
       <c r="A322" s="6"/>
       <c r="B322" s="6"/>
       <c r="D322" s="6"/>
-      <c r="E322" s="56"/>
-      <c r="F322" s="56"/>
-      <c r="G322" s="56"/>
+      <c r="E322" s="59"/>
+      <c r="F322" s="59"/>
+      <c r="G322" s="59"/>
       <c r="H322" s="6"/>
       <c r="I322" s="6"/>
       <c r="J322" s="6"/>
-      <c r="K322" s="70"/>
+      <c r="K322" s="73"/>
     </row>
     <row r="323" spans="1:11">
       <c r="A323" s="6"/>
       <c r="B323" s="6"/>
       <c r="D323" s="6"/>
-      <c r="E323" s="56"/>
-      <c r="F323" s="56"/>
-      <c r="G323" s="56"/>
+      <c r="E323" s="59"/>
+      <c r="F323" s="59"/>
+      <c r="G323" s="59"/>
       <c r="H323" s="6"/>
       <c r="I323" s="6"/>
       <c r="J323" s="6"/>
-      <c r="K323" s="70"/>
+      <c r="K323" s="73"/>
     </row>
     <row r="324" spans="1:11">
       <c r="A324" s="6"/>
       <c r="B324" s="6"/>
       <c r="D324" s="6"/>
-      <c r="E324" s="56"/>
-      <c r="F324" s="56"/>
-      <c r="G324" s="56"/>
+      <c r="E324" s="59"/>
+      <c r="F324" s="59"/>
+      <c r="G324" s="59"/>
       <c r="H324" s="6"/>
       <c r="I324" s="6"/>
       <c r="J324" s="6"/>
-      <c r="K324" s="70"/>
+      <c r="K324" s="73"/>
     </row>
     <row r="325" spans="1:11">
       <c r="A325" s="6"/>
       <c r="B325" s="6"/>
       <c r="D325" s="6"/>
-      <c r="E325" s="56"/>
-      <c r="F325" s="56"/>
-      <c r="G325" s="56"/>
+      <c r="E325" s="59"/>
+      <c r="F325" s="59"/>
+      <c r="G325" s="59"/>
       <c r="H325" s="6"/>
       <c r="I325" s="6"/>
       <c r="J325" s="6"/>
-      <c r="K325" s="70"/>
+      <c r="K325" s="73"/>
     </row>
     <row r="326" spans="1:11">
       <c r="A326" s="6"/>
       <c r="B326" s="6"/>
       <c r="D326" s="6"/>
-      <c r="E326" s="56"/>
-      <c r="F326" s="56"/>
-      <c r="G326" s="56"/>
+      <c r="E326" s="59"/>
+      <c r="F326" s="59"/>
+      <c r="G326" s="59"/>
       <c r="H326" s="6"/>
       <c r="I326" s="6"/>
       <c r="J326" s="6"/>
-      <c r="K326" s="70"/>
+      <c r="K326" s="73"/>
     </row>
     <row r="327" spans="1:11">
       <c r="A327" s="6"/>
       <c r="B327" s="6"/>
       <c r="D327" s="6"/>
-      <c r="E327" s="56"/>
-      <c r="F327" s="56"/>
-      <c r="G327" s="56"/>
+      <c r="E327" s="59"/>
+      <c r="F327" s="59"/>
+      <c r="G327" s="59"/>
       <c r="H327" s="6"/>
       <c r="I327" s="6"/>
       <c r="J327" s="6"/>
-      <c r="K327" s="70"/>
+      <c r="K327" s="73"/>
     </row>
     <row r="328" spans="1:11">
       <c r="A328" s="6"/>
       <c r="B328" s="6"/>
       <c r="D328" s="6"/>
-      <c r="E328" s="56"/>
-      <c r="F328" s="56"/>
-      <c r="G328" s="56"/>
+      <c r="E328" s="59"/>
+      <c r="F328" s="59"/>
+      <c r="G328" s="59"/>
       <c r="H328" s="6"/>
       <c r="I328" s="6"/>
       <c r="J328" s="6"/>
-      <c r="K328" s="70"/>
+      <c r="K328" s="73"/>
     </row>
     <row r="329" spans="1:11">
       <c r="A329" s="6"/>
       <c r="B329" s="6"/>
       <c r="D329" s="6"/>
-      <c r="E329" s="56"/>
-      <c r="F329" s="56"/>
-      <c r="G329" s="56"/>
+      <c r="E329" s="59"/>
+      <c r="F329" s="59"/>
+      <c r="G329" s="59"/>
       <c r="H329" s="6"/>
       <c r="I329" s="6"/>
       <c r="J329" s="6"/>
-      <c r="K329" s="70"/>
+      <c r="K329" s="73"/>
     </row>
     <row r="330" spans="1:11">
       <c r="A330" s="6"/>
       <c r="B330" s="6"/>
       <c r="D330" s="6"/>
-      <c r="E330" s="56"/>
-      <c r="F330" s="56"/>
-      <c r="G330" s="56"/>
+      <c r="E330" s="59"/>
+      <c r="F330" s="59"/>
+      <c r="G330" s="59"/>
       <c r="H330" s="6"/>
       <c r="I330" s="6"/>
       <c r="J330" s="6"/>
-      <c r="K330" s="70"/>
+      <c r="K330" s="73"/>
     </row>
     <row r="331" spans="1:11">
       <c r="A331" s="6"/>
       <c r="B331" s="6"/>
       <c r="D331" s="6"/>
-      <c r="E331" s="56"/>
-      <c r="F331" s="56"/>
-      <c r="G331" s="56"/>
+      <c r="E331" s="59"/>
+      <c r="F331" s="59"/>
+      <c r="G331" s="59"/>
       <c r="H331" s="6"/>
       <c r="I331" s="6"/>
       <c r="J331" s="6"/>
-      <c r="K331" s="70"/>
+      <c r="K331" s="73"/>
     </row>
     <row r="332" spans="1:11">
       <c r="A332" s="6"/>
       <c r="B332" s="6"/>
       <c r="D332" s="6"/>
-      <c r="E332" s="56"/>
-      <c r="F332" s="56"/>
-      <c r="G332" s="56"/>
+      <c r="E332" s="59"/>
+      <c r="F332" s="59"/>
+      <c r="G332" s="59"/>
       <c r="H332" s="6"/>
       <c r="I332" s="6"/>
       <c r="J332" s="6"/>
-      <c r="K332" s="70"/>
+      <c r="K332" s="73"/>
     </row>
     <row r="333" spans="1:11">
       <c r="A333" s="6"/>
       <c r="B333" s="6"/>
       <c r="D333" s="6"/>
-      <c r="E333" s="56"/>
-      <c r="F333" s="56"/>
-      <c r="G333" s="56"/>
+      <c r="E333" s="59"/>
+      <c r="F333" s="59"/>
+      <c r="G333" s="59"/>
       <c r="H333" s="6"/>
       <c r="I333" s="6"/>
       <c r="J333" s="6"/>
-      <c r="K333" s="70"/>
+      <c r="K333" s="73"/>
     </row>
     <row r="334" spans="1:11">
       <c r="A334" s="6"/>
       <c r="B334" s="6"/>
       <c r="D334" s="6"/>
-      <c r="E334" s="56"/>
-      <c r="F334" s="56"/>
-      <c r="G334" s="56"/>
+      <c r="E334" s="59"/>
+      <c r="F334" s="59"/>
+      <c r="G334" s="59"/>
       <c r="H334" s="6"/>
       <c r="I334" s="6"/>
       <c r="J334" s="6"/>
-      <c r="K334" s="70"/>
+      <c r="K334" s="73"/>
     </row>
     <row r="335" spans="1:11">
       <c r="A335" s="6"/>
       <c r="B335" s="6"/>
       <c r="D335" s="6"/>
-      <c r="E335" s="56"/>
-      <c r="F335" s="56"/>
-      <c r="G335" s="56"/>
+      <c r="E335" s="59"/>
+      <c r="F335" s="59"/>
+      <c r="G335" s="59"/>
       <c r="H335" s="6"/>
       <c r="I335" s="6"/>
       <c r="J335" s="6"/>
-      <c r="K335" s="70"/>
+      <c r="K335" s="73"/>
     </row>
     <row r="336" spans="1:11">
       <c r="A336" s="6"/>
       <c r="B336" s="6"/>
       <c r="D336" s="6"/>
-      <c r="E336" s="56"/>
-      <c r="F336" s="56"/>
-      <c r="G336" s="56"/>
+      <c r="E336" s="59"/>
+      <c r="F336" s="59"/>
+      <c r="G336" s="59"/>
       <c r="H336" s="6"/>
       <c r="I336" s="6"/>
       <c r="J336" s="6"/>
-      <c r="K336" s="70"/>
+      <c r="K336" s="73"/>
     </row>
     <row r="337" spans="1:11">
       <c r="A337" s="6"/>
       <c r="B337" s="6"/>
       <c r="D337" s="6"/>
-      <c r="E337" s="56"/>
-      <c r="F337" s="56"/>
-      <c r="G337" s="56"/>
+      <c r="E337" s="59"/>
+      <c r="F337" s="59"/>
+      <c r="G337" s="59"/>
       <c r="H337" s="6"/>
       <c r="I337" s="6"/>
       <c r="J337" s="6"/>
-      <c r="K337" s="70"/>
+      <c r="K337" s="73"/>
     </row>
     <row r="338" spans="1:11">
       <c r="A338" s="6"/>
       <c r="B338" s="6"/>
       <c r="D338" s="6"/>
-      <c r="E338" s="56"/>
-      <c r="F338" s="56"/>
-      <c r="G338" s="56"/>
+      <c r="E338" s="59"/>
+      <c r="F338" s="59"/>
+      <c r="G338" s="59"/>
       <c r="H338" s="6"/>
       <c r="I338" s="6"/>
       <c r="J338" s="6"/>
-      <c r="K338" s="70"/>
+      <c r="K338" s="73"/>
     </row>
     <row r="339" spans="1:11">
       <c r="A339" s="6"/>
       <c r="B339" s="6"/>
       <c r="D339" s="6"/>
-      <c r="E339" s="56"/>
-      <c r="F339" s="56"/>
-      <c r="G339" s="56"/>
+      <c r="E339" s="59"/>
+      <c r="F339" s="59"/>
+      <c r="G339" s="59"/>
       <c r="H339" s="6"/>
       <c r="I339" s="6"/>
       <c r="J339" s="6"/>
-      <c r="K339" s="70"/>
+      <c r="K339" s="73"/>
     </row>
     <row r="340" spans="1:11">
       <c r="A340" s="6"/>
       <c r="B340" s="6"/>
       <c r="D340" s="6"/>
-      <c r="E340" s="56"/>
-      <c r="F340" s="56"/>
-      <c r="G340" s="56"/>
+      <c r="E340" s="59"/>
+      <c r="F340" s="59"/>
+      <c r="G340" s="59"/>
       <c r="H340" s="6"/>
       <c r="I340" s="6"/>
       <c r="J340" s="6"/>
-      <c r="K340" s="70"/>
+      <c r="K340" s="73"/>
     </row>
     <row r="341" spans="1:11">
       <c r="A341" s="6"/>
       <c r="B341" s="6"/>
       <c r="D341" s="6"/>
-      <c r="E341" s="56"/>
-      <c r="F341" s="56"/>
-      <c r="G341" s="56"/>
+      <c r="E341" s="59"/>
+      <c r="F341" s="59"/>
+      <c r="G341" s="59"/>
       <c r="H341" s="6"/>
       <c r="I341" s="6"/>
       <c r="J341" s="6"/>
-      <c r="K341" s="70"/>
+      <c r="K341" s="73"/>
     </row>
     <row r="342" spans="1:11">
       <c r="A342" s="6"/>
       <c r="B342" s="6"/>
       <c r="D342" s="6"/>
-      <c r="E342" s="56"/>
-      <c r="F342" s="56"/>
-      <c r="G342" s="56"/>
+      <c r="E342" s="59"/>
+      <c r="F342" s="59"/>
+      <c r="G342" s="59"/>
       <c r="H342" s="6"/>
       <c r="I342" s="6"/>
       <c r="J342" s="6"/>
-      <c r="K342" s="70"/>
+      <c r="K342" s="73"/>
     </row>
     <row r="343" spans="1:11">
       <c r="A343" s="6"/>
       <c r="B343" s="6"/>
       <c r="D343" s="6"/>
-      <c r="E343" s="56"/>
-      <c r="F343" s="56"/>
-      <c r="G343" s="56"/>
+      <c r="E343" s="59"/>
+      <c r="F343" s="59"/>
+      <c r="G343" s="59"/>
       <c r="H343" s="6"/>
       <c r="I343" s="6"/>
       <c r="J343" s="6"/>
-      <c r="K343" s="70"/>
+      <c r="K343" s="73"/>
     </row>
     <row r="344" spans="1:11">
       <c r="A344" s="6"/>
       <c r="B344" s="6"/>
       <c r="D344" s="6"/>
-      <c r="E344" s="56"/>
-      <c r="F344" s="56"/>
-      <c r="G344" s="56"/>
+      <c r="E344" s="59"/>
+      <c r="F344" s="59"/>
+      <c r="G344" s="59"/>
       <c r="H344" s="6"/>
       <c r="I344" s="6"/>
       <c r="J344" s="6"/>
-      <c r="K344" s="70"/>
+      <c r="K344" s="73"/>
     </row>
     <row r="345" spans="1:11">
       <c r="A345" s="6"/>
       <c r="B345" s="6"/>
       <c r="D345" s="6"/>
-      <c r="E345" s="56"/>
-      <c r="F345" s="56"/>
-      <c r="G345" s="56"/>
+      <c r="E345" s="59"/>
+      <c r="F345" s="59"/>
+      <c r="G345" s="59"/>
       <c r="H345" s="6"/>
       <c r="I345" s="6"/>
       <c r="J345" s="6"/>
-      <c r="K345" s="70"/>
+      <c r="K345" s="73"/>
     </row>
     <row r="346" spans="1:11">
       <c r="A346" s="6"/>
       <c r="B346" s="6"/>
       <c r="D346" s="6"/>
-      <c r="E346" s="56"/>
-      <c r="F346" s="56"/>
-      <c r="G346" s="56"/>
+      <c r="E346" s="59"/>
+      <c r="F346" s="59"/>
+      <c r="G346" s="59"/>
       <c r="H346" s="6"/>
       <c r="I346" s="6"/>
       <c r="J346" s="6"/>
-      <c r="K346" s="70"/>
+      <c r="K346" s="73"/>
     </row>
     <row r="347" spans="1:11">
       <c r="A347" s="6"/>
       <c r="B347" s="6"/>
       <c r="D347" s="6"/>
-      <c r="E347" s="56"/>
-      <c r="F347" s="56"/>
-      <c r="G347" s="56"/>
+      <c r="E347" s="59"/>
+      <c r="F347" s="59"/>
+      <c r="G347" s="59"/>
       <c r="H347" s="6"/>
       <c r="I347" s="6"/>
       <c r="J347" s="6"/>
-      <c r="K347" s="70"/>
+      <c r="K347" s="73"/>
     </row>
     <row r="348" spans="1:11">
       <c r="A348" s="6"/>
       <c r="B348" s="6"/>
       <c r="D348" s="6"/>
-      <c r="E348" s="56"/>
-      <c r="F348" s="56"/>
-      <c r="G348" s="56"/>
+      <c r="E348" s="59"/>
+      <c r="F348" s="59"/>
+      <c r="G348" s="59"/>
       <c r="H348" s="6"/>
       <c r="I348" s="6"/>
       <c r="J348" s="6"/>
-      <c r="K348" s="70"/>
+      <c r="K348" s="73"/>
     </row>
     <row r="349" spans="1:11">
       <c r="A349" s="6"/>
       <c r="B349" s="6"/>
       <c r="D349" s="6"/>
-      <c r="E349" s="56"/>
-      <c r="F349" s="56"/>
-      <c r="G349" s="56"/>
+      <c r="E349" s="59"/>
+      <c r="F349" s="59"/>
+      <c r="G349" s="59"/>
       <c r="H349" s="6"/>
       <c r="I349" s="6"/>
       <c r="J349" s="6"/>
-      <c r="K349" s="70"/>
+      <c r="K349" s="73"/>
     </row>
     <row r="350" spans="1:11">
       <c r="A350" s="6"/>
       <c r="B350" s="6"/>
       <c r="D350" s="6"/>
-      <c r="E350" s="56"/>
-      <c r="F350" s="56"/>
-      <c r="G350" s="56"/>
+      <c r="E350" s="59"/>
+      <c r="F350" s="59"/>
+      <c r="G350" s="59"/>
       <c r="H350" s="6"/>
       <c r="I350" s="6"/>
       <c r="J350" s="6"/>
-      <c r="K350" s="70"/>
+      <c r="K350" s="73"/>
     </row>
     <row r="351" spans="1:11">
       <c r="A351" s="6"/>
       <c r="B351" s="6"/>
       <c r="D351" s="6"/>
-      <c r="E351" s="56"/>
-      <c r="F351" s="56"/>
-      <c r="G351" s="56"/>
+      <c r="E351" s="59"/>
+      <c r="F351" s="59"/>
+      <c r="G351" s="59"/>
       <c r="H351" s="6"/>
       <c r="I351" s="6"/>
       <c r="J351" s="6"/>
-      <c r="K351" s="70"/>
+      <c r="K351" s="73"/>
     </row>
     <row r="352" spans="1:11">
       <c r="A352" s="6"/>
       <c r="B352" s="6"/>
       <c r="D352" s="6"/>
-      <c r="E352" s="56"/>
-      <c r="F352" s="56"/>
-      <c r="G352" s="56"/>
+      <c r="E352" s="59"/>
+      <c r="F352" s="59"/>
+      <c r="G352" s="59"/>
       <c r="H352" s="6"/>
       <c r="I352" s="6"/>
       <c r="J352" s="6"/>
-      <c r="K352" s="70"/>
+      <c r="K352" s="73"/>
     </row>
     <row r="353" spans="1:11">
       <c r="A353" s="6"/>
       <c r="B353" s="6"/>
       <c r="D353" s="6"/>
-      <c r="E353" s="56"/>
-      <c r="F353" s="56"/>
-      <c r="G353" s="56"/>
+      <c r="E353" s="59"/>
+      <c r="F353" s="59"/>
+      <c r="G353" s="59"/>
       <c r="H353" s="6"/>
       <c r="I353" s="6"/>
       <c r="J353" s="6"/>
-      <c r="K353" s="70"/>
+      <c r="K353" s="73"/>
     </row>
     <row r="354" spans="1:11">
       <c r="A354" s="6"/>
       <c r="B354" s="6"/>
       <c r="D354" s="6"/>
-      <c r="E354" s="56"/>
-      <c r="F354" s="56"/>
-      <c r="G354" s="56"/>
+      <c r="E354" s="59"/>
+      <c r="F354" s="59"/>
+      <c r="G354" s="59"/>
       <c r="H354" s="6"/>
       <c r="I354" s="6"/>
       <c r="J354" s="6"/>
-      <c r="K354" s="70"/>
+      <c r="K354" s="73"/>
     </row>
     <row r="355" spans="1:11">
       <c r="A355" s="6"/>
       <c r="B355" s="6"/>
       <c r="D355" s="6"/>
-      <c r="E355" s="56"/>
-      <c r="F355" s="56"/>
-      <c r="G355" s="56"/>
+      <c r="E355" s="59"/>
+      <c r="F355" s="59"/>
+      <c r="G355" s="59"/>
       <c r="H355" s="6"/>
       <c r="I355" s="6"/>
       <c r="J355" s="6"/>
-      <c r="K355" s="70"/>
+      <c r="K355" s="73"/>
     </row>
     <row r="356" spans="1:11">
       <c r="A356" s="6"/>
       <c r="B356" s="6"/>
       <c r="D356" s="6"/>
-      <c r="E356" s="56"/>
-      <c r="F356" s="56"/>
-      <c r="G356" s="56"/>
+      <c r="E356" s="59"/>
+      <c r="F356" s="59"/>
+      <c r="G356" s="59"/>
       <c r="H356" s="6"/>
       <c r="I356" s="6"/>
       <c r="J356" s="6"/>
-      <c r="K356" s="70"/>
+      <c r="K356" s="73"/>
     </row>
     <row r="357" spans="1:11">
       <c r="A357" s="6"/>
       <c r="B357" s="6"/>
       <c r="D357" s="6"/>
-      <c r="E357" s="56"/>
-      <c r="F357" s="56"/>
-      <c r="G357" s="56"/>
+      <c r="E357" s="59"/>
+      <c r="F357" s="59"/>
+      <c r="G357" s="59"/>
       <c r="H357" s="6"/>
       <c r="I357" s="6"/>
       <c r="J357" s="6"/>
-      <c r="K357" s="70"/>
+      <c r="K357" s="73"/>
     </row>
     <row r="358" spans="1:11">
       <c r="A358" s="6"/>
       <c r="B358" s="6"/>
       <c r="D358" s="6"/>
-      <c r="E358" s="56"/>
-      <c r="F358" s="56"/>
-      <c r="G358" s="56"/>
+      <c r="E358" s="59"/>
+      <c r="F358" s="59"/>
+      <c r="G358" s="59"/>
       <c r="H358" s="6"/>
       <c r="I358" s="6"/>
       <c r="J358" s="6"/>
-      <c r="K358" s="70"/>
+      <c r="K358" s="73"/>
     </row>
     <row r="359" spans="1:11">
       <c r="A359" s="6"/>
       <c r="B359" s="6"/>
       <c r="D359" s="6"/>
-      <c r="E359" s="56"/>
-      <c r="F359" s="56"/>
-      <c r="G359" s="56"/>
+      <c r="E359" s="59"/>
+      <c r="F359" s="59"/>
+      <c r="G359" s="59"/>
       <c r="H359" s="6"/>
       <c r="I359" s="6"/>
       <c r="J359" s="6"/>
-      <c r="K359" s="70"/>
+      <c r="K359" s="73"/>
     </row>
     <row r="360" spans="1:11">
       <c r="A360" s="6"/>
       <c r="B360" s="6"/>
       <c r="D360" s="6"/>
-      <c r="E360" s="56"/>
-      <c r="F360" s="56"/>
-      <c r="G360" s="56"/>
+      <c r="E360" s="59"/>
+      <c r="F360" s="59"/>
+      <c r="G360" s="59"/>
       <c r="H360" s="6"/>
       <c r="I360" s="6"/>
       <c r="J360" s="6"/>
-      <c r="K360" s="70"/>
+      <c r="K360" s="73"/>
     </row>
     <row r="361" spans="1:11">
       <c r="A361" s="6"/>
       <c r="B361" s="6"/>
       <c r="D361" s="6"/>
-      <c r="E361" s="56"/>
-      <c r="F361" s="56"/>
-      <c r="G361" s="56"/>
+      <c r="E361" s="59"/>
+      <c r="F361" s="59"/>
+      <c r="G361" s="59"/>
       <c r="H361" s="6"/>
       <c r="I361" s="6"/>
       <c r="J361" s="6"/>
-      <c r="K361" s="70"/>
+      <c r="K361" s="73"/>
     </row>
     <row r="362" spans="1:11">
       <c r="A362" s="6"/>
       <c r="B362" s="6"/>
       <c r="D362" s="6"/>
-      <c r="E362" s="56"/>
-      <c r="F362" s="56"/>
-      <c r="G362" s="56"/>
+      <c r="E362" s="59"/>
+      <c r="F362" s="59"/>
+      <c r="G362" s="59"/>
       <c r="H362" s="6"/>
       <c r="I362" s="6"/>
       <c r="J362" s="6"/>
-      <c r="K362" s="70"/>
+      <c r="K362" s="73"/>
     </row>
     <row r="363" spans="1:11">
       <c r="A363" s="6"/>
       <c r="B363" s="6"/>
       <c r="D363" s="6"/>
-      <c r="E363" s="56"/>
-      <c r="F363" s="56"/>
-      <c r="G363" s="56"/>
+      <c r="E363" s="59"/>
+      <c r="F363" s="59"/>
+      <c r="G363" s="59"/>
       <c r="H363" s="6"/>
       <c r="I363" s="6"/>
       <c r="J363" s="6"/>
-      <c r="K363" s="70"/>
+      <c r="K363" s="73"/>
     </row>
     <row r="364" spans="1:11">
       <c r="A364" s="6"/>
       <c r="B364" s="6"/>
       <c r="D364" s="6"/>
-      <c r="E364" s="56"/>
-      <c r="F364" s="56"/>
-      <c r="G364" s="56"/>
+      <c r="E364" s="59"/>
+      <c r="F364" s="59"/>
+      <c r="G364" s="59"/>
       <c r="H364" s="6"/>
       <c r="I364" s="6"/>
       <c r="J364" s="6"/>
-      <c r="K364" s="70"/>
+      <c r="K364" s="73"/>
     </row>
     <row r="365" spans="1:11">
       <c r="A365" s="6"/>
       <c r="B365" s="6"/>
       <c r="D365" s="6"/>
-      <c r="E365" s="56"/>
-      <c r="F365" s="56"/>
-      <c r="G365" s="56"/>
+      <c r="E365" s="59"/>
+      <c r="F365" s="59"/>
+      <c r="G365" s="59"/>
       <c r="H365" s="6"/>
       <c r="I365" s="6"/>
       <c r="J365" s="6"/>
-      <c r="K365" s="70"/>
+      <c r="K365" s="73"/>
     </row>
     <row r="366" spans="1:11">
       <c r="A366" s="6"/>
       <c r="B366" s="6"/>
       <c r="D366" s="6"/>
-      <c r="E366" s="56"/>
-      <c r="F366" s="56"/>
-      <c r="G366" s="56"/>
+      <c r="E366" s="59"/>
+      <c r="F366" s="59"/>
+      <c r="G366" s="59"/>
       <c r="H366" s="6"/>
       <c r="I366" s="6"/>
       <c r="J366" s="6"/>
-      <c r="K366" s="70"/>
+      <c r="K366" s="73"/>
     </row>
     <row r="367" spans="1:11">
       <c r="A367" s="6"/>
       <c r="B367" s="6"/>
       <c r="D367" s="6"/>
-      <c r="E367" s="56"/>
-      <c r="F367" s="56"/>
-      <c r="G367" s="56"/>
+      <c r="E367" s="59"/>
+      <c r="F367" s="59"/>
+      <c r="G367" s="59"/>
       <c r="H367" s="6"/>
       <c r="I367" s="6"/>
       <c r="J367" s="6"/>
-      <c r="K367" s="70"/>
+      <c r="K367" s="73"/>
     </row>
     <row r="368" spans="1:11">
       <c r="A368" s="6"/>
       <c r="B368" s="6"/>
       <c r="D368" s="6"/>
-      <c r="E368" s="56"/>
-      <c r="F368" s="56"/>
-      <c r="G368" s="56"/>
+      <c r="E368" s="59"/>
+      <c r="F368" s="59"/>
+      <c r="G368" s="59"/>
       <c r="H368" s="6"/>
       <c r="I368" s="6"/>
       <c r="J368" s="6"/>
-      <c r="K368" s="70"/>
+      <c r="K368" s="73"/>
     </row>
     <row r="369" spans="1:11">
       <c r="A369" s="6"/>
       <c r="B369" s="6"/>
       <c r="D369" s="6"/>
-      <c r="E369" s="56"/>
-      <c r="F369" s="56"/>
-      <c r="G369" s="56"/>
+      <c r="E369" s="59"/>
+      <c r="F369" s="59"/>
+      <c r="G369" s="59"/>
       <c r="H369" s="6"/>
       <c r="I369" s="6"/>
       <c r="J369" s="6"/>
-      <c r="K369" s="70"/>
+      <c r="K369" s="73"/>
     </row>
     <row r="370" spans="1:11">
       <c r="A370" s="6"/>
       <c r="B370" s="6"/>
       <c r="D370" s="6"/>
-      <c r="E370" s="56"/>
-      <c r="F370" s="56"/>
-      <c r="G370" s="56"/>
+      <c r="E370" s="59"/>
+      <c r="F370" s="59"/>
+      <c r="G370" s="59"/>
       <c r="H370" s="6"/>
       <c r="I370" s="6"/>
       <c r="J370" s="6"/>
-      <c r="K370" s="70"/>
+      <c r="K370" s="73"/>
     </row>
     <row r="371" spans="1:11">
       <c r="A371" s="6"/>
       <c r="B371" s="6"/>
       <c r="D371" s="6"/>
-      <c r="E371" s="56"/>
-      <c r="F371" s="56"/>
-      <c r="G371" s="56"/>
+      <c r="E371" s="59"/>
+      <c r="F371" s="59"/>
+      <c r="G371" s="59"/>
       <c r="H371" s="6"/>
       <c r="I371" s="6"/>
       <c r="J371" s="6"/>
-      <c r="K371" s="70"/>
+      <c r="K371" s="73"/>
     </row>
     <row r="372" spans="1:11">
       <c r="A372" s="6"/>
       <c r="B372" s="6"/>
       <c r="D372" s="6"/>
-      <c r="E372" s="56"/>
-      <c r="F372" s="56"/>
-      <c r="G372" s="56"/>
+      <c r="E372" s="59"/>
+      <c r="F372" s="59"/>
+      <c r="G372" s="59"/>
       <c r="H372" s="6"/>
       <c r="I372" s="6"/>
       <c r="J372" s="6"/>
-      <c r="K372" s="70"/>
+      <c r="K372" s="73"/>
     </row>
     <row r="373" spans="1:11">
       <c r="A373" s="6"/>
       <c r="B373" s="6"/>
       <c r="D373" s="6"/>
-      <c r="E373" s="56"/>
-      <c r="F373" s="56"/>
-      <c r="G373" s="56"/>
+      <c r="E373" s="59"/>
+      <c r="F373" s="59"/>
+      <c r="G373" s="59"/>
       <c r="H373" s="6"/>
       <c r="I373" s="6"/>
       <c r="J373" s="6"/>
-      <c r="K373" s="70"/>
+      <c r="K373" s="73"/>
     </row>
     <row r="374" spans="1:11">
       <c r="A374" s="6"/>
       <c r="B374" s="6"/>
       <c r="D374" s="6"/>
-      <c r="E374" s="56"/>
-      <c r="F374" s="56"/>
-      <c r="G374" s="56"/>
+      <c r="E374" s="59"/>
+      <c r="F374" s="59"/>
+      <c r="G374" s="59"/>
       <c r="H374" s="6"/>
       <c r="I374" s="6"/>
       <c r="J374" s="6"/>
-      <c r="K374" s="70"/>
+      <c r="K374" s="73"/>
     </row>
     <row r="375" spans="1:11">
       <c r="A375" s="6"/>
       <c r="B375" s="6"/>
       <c r="D375" s="6"/>
-      <c r="E375" s="56"/>
-      <c r="F375" s="56"/>
-      <c r="G375" s="56"/>
+      <c r="E375" s="59"/>
+      <c r="F375" s="59"/>
+      <c r="G375" s="59"/>
       <c r="H375" s="6"/>
       <c r="I375" s="6"/>
       <c r="J375" s="6"/>
-      <c r="K375" s="70"/>
+      <c r="K375" s="73"/>
     </row>
     <row r="376" spans="1:11">
       <c r="A376" s="6"/>
       <c r="B376" s="6"/>
       <c r="D376" s="6"/>
-      <c r="E376" s="56"/>
-      <c r="F376" s="56"/>
-      <c r="G376" s="56"/>
+      <c r="E376" s="59"/>
+      <c r="F376" s="59"/>
+      <c r="G376" s="59"/>
       <c r="H376" s="6"/>
       <c r="I376" s="6"/>
       <c r="J376" s="6"/>
-      <c r="K376" s="70"/>
+      <c r="K376" s="73"/>
     </row>
     <row r="377" spans="1:11">
       <c r="A377" s="6"/>
       <c r="B377" s="6"/>
       <c r="D377" s="6"/>
-      <c r="E377" s="56"/>
-      <c r="F377" s="56"/>
-      <c r="G377" s="56"/>
+      <c r="E377" s="59"/>
+      <c r="F377" s="59"/>
+      <c r="G377" s="59"/>
       <c r="H377" s="6"/>
       <c r="I377" s="6"/>
       <c r="J377" s="6"/>
-      <c r="K377" s="70"/>
+      <c r="K377" s="73"/>
     </row>
     <row r="378" spans="1:11">
       <c r="A378" s="6"/>
       <c r="B378" s="6"/>
       <c r="D378" s="6"/>
-      <c r="E378" s="56"/>
-      <c r="F378" s="56"/>
-      <c r="G378" s="56"/>
+      <c r="E378" s="59"/>
+      <c r="F378" s="59"/>
+      <c r="G378" s="59"/>
       <c r="H378" s="6"/>
       <c r="I378" s="6"/>
       <c r="J378" s="6"/>
-      <c r="K378" s="70"/>
+      <c r="K378" s="73"/>
     </row>
     <row r="379" spans="1:11">
       <c r="A379" s="6"/>
       <c r="B379" s="6"/>
       <c r="D379" s="6"/>
-      <c r="E379" s="56"/>
-      <c r="F379" s="56"/>
-      <c r="G379" s="56"/>
+      <c r="E379" s="59"/>
+      <c r="F379" s="59"/>
+      <c r="G379" s="59"/>
       <c r="H379" s="6"/>
       <c r="I379" s="6"/>
       <c r="J379" s="6"/>
-      <c r="K379" s="70"/>
+      <c r="K379" s="73"/>
     </row>
     <row r="380" spans="1:11">
       <c r="A380" s="6"/>
       <c r="B380" s="6"/>
       <c r="D380" s="6"/>
-      <c r="E380" s="56"/>
-      <c r="F380" s="56"/>
-      <c r="G380" s="56"/>
+      <c r="E380" s="59"/>
+      <c r="F380" s="59"/>
+      <c r="G380" s="59"/>
       <c r="H380" s="6"/>
       <c r="I380" s="6"/>
       <c r="J380" s="6"/>
-      <c r="K380" s="70"/>
+      <c r="K380" s="73"/>
     </row>
     <row r="381" spans="1:11">
       <c r="A381" s="6"/>
       <c r="B381" s="6"/>
       <c r="D381" s="6"/>
-      <c r="E381" s="56"/>
-      <c r="F381" s="56"/>
-      <c r="G381" s="56"/>
+      <c r="E381" s="59"/>
+      <c r="F381" s="59"/>
+      <c r="G381" s="59"/>
       <c r="H381" s="6"/>
       <c r="I381" s="6"/>
       <c r="J381" s="6"/>
-      <c r="K381" s="70"/>
+      <c r="K381" s="73"/>
     </row>
     <row r="382" spans="1:11">
       <c r="A382" s="6"/>
       <c r="B382" s="6"/>
       <c r="D382" s="6"/>
-      <c r="E382" s="56"/>
-      <c r="F382" s="56"/>
-      <c r="G382" s="56"/>
+      <c r="E382" s="59"/>
+      <c r="F382" s="59"/>
+      <c r="G382" s="59"/>
       <c r="H382" s="6"/>
       <c r="I382" s="6"/>
       <c r="J382" s="6"/>
-      <c r="K382" s="70"/>
+      <c r="K382" s="73"/>
     </row>
     <row r="383" spans="1:11">
       <c r="A383" s="6"/>
       <c r="B383" s="6"/>
       <c r="D383" s="6"/>
-      <c r="E383" s="56"/>
-      <c r="F383" s="56"/>
-      <c r="G383" s="56"/>
+      <c r="E383" s="59"/>
+      <c r="F383" s="59"/>
+      <c r="G383" s="59"/>
       <c r="H383" s="6"/>
       <c r="I383" s="6"/>
       <c r="J383" s="6"/>
-      <c r="K383" s="70"/>
+      <c r="K383" s="73"/>
     </row>
     <row r="384" spans="1:11">
       <c r="A384" s="6"/>
       <c r="B384" s="6"/>
       <c r="D384" s="6"/>
-      <c r="E384" s="56"/>
-      <c r="F384" s="56"/>
-      <c r="G384" s="56"/>
+      <c r="E384" s="59"/>
+      <c r="F384" s="59"/>
+      <c r="G384" s="59"/>
       <c r="H384" s="6"/>
       <c r="I384" s="6"/>
       <c r="J384" s="6"/>
-      <c r="K384" s="70"/>
+      <c r="K384" s="73"/>
     </row>
     <row r="385" spans="1:11">
       <c r="A385" s="6"/>
       <c r="B385" s="6"/>
       <c r="D385" s="6"/>
-      <c r="E385" s="56"/>
-      <c r="F385" s="56"/>
-      <c r="G385" s="56"/>
+      <c r="E385" s="59"/>
+      <c r="F385" s="59"/>
+      <c r="G385" s="59"/>
       <c r="H385" s="6"/>
       <c r="I385" s="6"/>
       <c r="J385" s="6"/>
-      <c r="K385" s="70"/>
+      <c r="K385" s="73"/>
     </row>
     <row r="386" spans="1:11">
       <c r="A386" s="6"/>
       <c r="B386" s="6"/>
       <c r="D386" s="6"/>
-      <c r="E386" s="56"/>
-      <c r="F386" s="56"/>
-      <c r="G386" s="56"/>
+      <c r="E386" s="59"/>
+      <c r="F386" s="59"/>
+      <c r="G386" s="59"/>
       <c r="H386" s="6"/>
       <c r="I386" s="6"/>
       <c r="J386" s="6"/>
-      <c r="K386" s="70"/>
+      <c r="K386" s="73"/>
     </row>
     <row r="387" spans="1:11">
       <c r="A387" s="6"/>
       <c r="B387" s="6"/>
       <c r="D387" s="6"/>
-      <c r="E387" s="56"/>
-      <c r="F387" s="56"/>
-      <c r="G387" s="56"/>
+      <c r="E387" s="59"/>
+      <c r="F387" s="59"/>
+      <c r="G387" s="59"/>
       <c r="H387" s="6"/>
       <c r="I387" s="6"/>
       <c r="J387" s="6"/>
-      <c r="K387" s="70"/>
+      <c r="K387" s="73"/>
     </row>
     <row r="388" spans="1:11">
       <c r="A388" s="6"/>
       <c r="B388" s="6"/>
       <c r="D388" s="6"/>
-      <c r="E388" s="56"/>
-      <c r="F388" s="56"/>
-      <c r="G388" s="56"/>
+      <c r="E388" s="59"/>
+      <c r="F388" s="59"/>
+      <c r="G388" s="59"/>
       <c r="H388" s="6"/>
       <c r="I388" s="6"/>
       <c r="J388" s="6"/>
-      <c r="K388" s="70"/>
+      <c r="K388" s="73"/>
     </row>
     <row r="389" spans="1:11">
       <c r="A389" s="6"/>
       <c r="B389" s="6"/>
       <c r="D389" s="6"/>
-      <c r="E389" s="56"/>
-      <c r="F389" s="56"/>
-      <c r="G389" s="56"/>
+      <c r="E389" s="59"/>
+      <c r="F389" s="59"/>
+      <c r="G389" s="59"/>
       <c r="H389" s="6"/>
       <c r="I389" s="6"/>
       <c r="J389" s="6"/>
-      <c r="K389" s="70"/>
+      <c r="K389" s="73"/>
     </row>
     <row r="390" spans="1:11">
       <c r="A390" s="6"/>
       <c r="B390" s="6"/>
       <c r="D390" s="6"/>
-      <c r="E390" s="56"/>
-      <c r="F390" s="56"/>
-      <c r="G390" s="56"/>
+      <c r="E390" s="59"/>
+      <c r="F390" s="59"/>
+      <c r="G390" s="59"/>
       <c r="H390" s="6"/>
       <c r="I390" s="6"/>
       <c r="J390" s="6"/>
-      <c r="K390" s="70"/>
+      <c r="K390" s="73"/>
     </row>
     <row r="391" spans="1:11">
       <c r="A391" s="6"/>
       <c r="B391" s="6"/>
       <c r="D391" s="6"/>
-      <c r="E391" s="56"/>
-      <c r="F391" s="56"/>
-      <c r="G391" s="56"/>
+      <c r="E391" s="59"/>
+      <c r="F391" s="59"/>
+      <c r="G391" s="59"/>
       <c r="H391" s="6"/>
       <c r="I391" s="6"/>
       <c r="J391" s="6"/>
-      <c r="K391" s="70"/>
+      <c r="K391" s="73"/>
     </row>
     <row r="392" spans="1:11">
       <c r="A392" s="6"/>
       <c r="B392" s="6"/>
       <c r="D392" s="6"/>
-      <c r="E392" s="56"/>
-      <c r="F392" s="56"/>
-      <c r="G392" s="56"/>
+      <c r="E392" s="59"/>
+      <c r="F392" s="59"/>
+      <c r="G392" s="59"/>
       <c r="H392" s="6"/>
       <c r="I392" s="6"/>
       <c r="J392" s="6"/>
-      <c r="K392" s="70"/>
+      <c r="K392" s="73"/>
     </row>
     <row r="393" spans="1:11">
       <c r="A393" s="6"/>
       <c r="B393" s="6"/>
       <c r="D393" s="6"/>
-      <c r="E393" s="56"/>
-      <c r="F393" s="56"/>
-      <c r="G393" s="56"/>
+      <c r="E393" s="59"/>
+      <c r="F393" s="59"/>
+      <c r="G393" s="59"/>
       <c r="H393" s="6"/>
       <c r="I393" s="6"/>
       <c r="J393" s="6"/>
-      <c r="K393" s="70"/>
+      <c r="K393" s="73"/>
     </row>
     <row r="394" spans="1:11">
       <c r="A394" s="6"/>
       <c r="B394" s="6"/>
       <c r="D394" s="6"/>
-      <c r="E394" s="56"/>
-      <c r="F394" s="56"/>
-      <c r="G394" s="56"/>
+      <c r="E394" s="59"/>
+      <c r="F394" s="59"/>
+      <c r="G394" s="59"/>
       <c r="H394" s="6"/>
       <c r="I394" s="6"/>
       <c r="J394" s="6"/>
-      <c r="K394" s="70"/>
+      <c r="K394" s="73"/>
     </row>
     <row r="395" spans="1:11">
       <c r="A395" s="6"/>
       <c r="B395" s="6"/>
       <c r="D395" s="6"/>
-      <c r="E395" s="56"/>
-      <c r="F395" s="56"/>
-      <c r="G395" s="56"/>
+      <c r="E395" s="59"/>
+      <c r="F395" s="59"/>
+      <c r="G395" s="59"/>
       <c r="H395" s="6"/>
       <c r="I395" s="6"/>
       <c r="J395" s="6"/>
-      <c r="K395" s="70"/>
+      <c r="K395" s="73"/>
     </row>
     <row r="396" spans="1:11">
       <c r="A396" s="6"/>
       <c r="B396" s="6"/>
       <c r="D396" s="6"/>
-      <c r="E396" s="56"/>
-      <c r="F396" s="56"/>
-      <c r="G396" s="56"/>
+      <c r="E396" s="59"/>
+      <c r="F396" s="59"/>
+      <c r="G396" s="59"/>
       <c r="H396" s="6"/>
       <c r="I396" s="6"/>
       <c r="J396" s="6"/>
-      <c r="K396" s="70"/>
+      <c r="K396" s="73"/>
     </row>
     <row r="397" spans="1:11">
       <c r="A397" s="6"/>
       <c r="B397" s="6"/>
       <c r="D397" s="6"/>
-      <c r="E397" s="56"/>
-      <c r="F397" s="56"/>
-      <c r="G397" s="56"/>
+      <c r="E397" s="59"/>
+      <c r="F397" s="59"/>
+      <c r="G397" s="59"/>
       <c r="H397" s="6"/>
       <c r="I397" s="6"/>
       <c r="J397" s="6"/>
-      <c r="K397" s="70"/>
+      <c r="K397" s="73"/>
     </row>
     <row r="398" spans="1:11">
       <c r="A398" s="6"/>
       <c r="B398" s="6"/>
       <c r="D398" s="6"/>
-      <c r="E398" s="56"/>
-      <c r="F398" s="56"/>
-      <c r="G398" s="56"/>
+      <c r="E398" s="59"/>
+      <c r="F398" s="59"/>
+      <c r="G398" s="59"/>
       <c r="H398" s="6"/>
       <c r="I398" s="6"/>
       <c r="J398" s="6"/>
-      <c r="K398" s="70"/>
+      <c r="K398" s="73"/>
     </row>
     <row r="399" spans="1:11">
       <c r="A399" s="6"/>
       <c r="B399" s="6"/>
       <c r="D399" s="6"/>
-      <c r="E399" s="56"/>
-      <c r="F399" s="56"/>
-      <c r="G399" s="56"/>
+      <c r="E399" s="59"/>
+      <c r="F399" s="59"/>
+      <c r="G399" s="59"/>
       <c r="H399" s="6"/>
       <c r="I399" s="6"/>
       <c r="J399" s="6"/>
-      <c r="K399" s="70"/>
+      <c r="K399" s="73"/>
     </row>
     <row r="400" spans="1:11">
       <c r="A400" s="6"/>
       <c r="B400" s="6"/>
       <c r="D400" s="6"/>
-      <c r="E400" s="56"/>
-      <c r="F400" s="56"/>
-      <c r="G400" s="56"/>
+      <c r="E400" s="59"/>
+      <c r="F400" s="59"/>
+      <c r="G400" s="59"/>
       <c r="H400" s="6"/>
       <c r="I400" s="6"/>
       <c r="J400" s="6"/>
-      <c r="K400" s="70"/>
+      <c r="K400" s="73"/>
     </row>
     <row r="401" spans="1:11">
       <c r="A401" s="6"/>
       <c r="B401" s="6"/>
       <c r="D401" s="6"/>
-      <c r="E401" s="56"/>
-      <c r="F401" s="56"/>
-      <c r="G401" s="56"/>
+      <c r="E401" s="59"/>
+      <c r="F401" s="59"/>
+      <c r="G401" s="59"/>
       <c r="H401" s="6"/>
       <c r="I401" s="6"/>
       <c r="J401" s="6"/>
-      <c r="K401" s="70"/>
+      <c r="K401" s="73"/>
     </row>
     <row r="402" spans="1:11">
       <c r="A402" s="6"/>
       <c r="B402" s="6"/>
       <c r="D402" s="6"/>
-      <c r="E402" s="56"/>
-      <c r="F402" s="56"/>
-      <c r="G402" s="56"/>
+      <c r="E402" s="59"/>
+      <c r="F402" s="59"/>
+      <c r="G402" s="59"/>
       <c r="H402" s="6"/>
       <c r="I402" s="6"/>
       <c r="J402" s="6"/>
-      <c r="K402" s="70"/>
+      <c r="K402" s="73"/>
     </row>
     <row r="403" spans="1:11">
       <c r="A403" s="6"/>
       <c r="B403" s="6"/>
       <c r="D403" s="6"/>
-      <c r="E403" s="56"/>
-      <c r="F403" s="56"/>
-      <c r="G403" s="56"/>
+      <c r="E403" s="59"/>
+      <c r="F403" s="59"/>
+      <c r="G403" s="59"/>
       <c r="H403" s="6"/>
       <c r="I403" s="6"/>
       <c r="J403" s="6"/>
-      <c r="K403" s="70"/>
+      <c r="K403" s="73"/>
     </row>
     <row r="404" spans="1:11">
       <c r="A404" s="6"/>
       <c r="B404" s="6"/>
       <c r="D404" s="6"/>
-      <c r="E404" s="56"/>
-      <c r="F404" s="56"/>
-      <c r="G404" s="56"/>
+      <c r="E404" s="59"/>
+      <c r="F404" s="59"/>
+      <c r="G404" s="59"/>
       <c r="H404" s="6"/>
       <c r="I404" s="6"/>
       <c r="J404" s="6"/>
-      <c r="K404" s="70"/>
+      <c r="K404" s="73"/>
     </row>
     <row r="405" spans="1:11">
       <c r="A405" s="6"/>
       <c r="B405" s="6"/>
       <c r="D405" s="6"/>
-      <c r="E405" s="56"/>
-      <c r="F405" s="56"/>
-      <c r="G405" s="56"/>
+      <c r="E405" s="59"/>
+      <c r="F405" s="59"/>
+      <c r="G405" s="59"/>
       <c r="H405" s="6"/>
       <c r="I405" s="6"/>
       <c r="J405" s="6"/>
-      <c r="K405" s="70"/>
+      <c r="K405" s="73"/>
     </row>
     <row r="406" spans="1:11">
       <c r="A406" s="6"/>
       <c r="B406" s="6"/>
       <c r="D406" s="6"/>
-      <c r="E406" s="56"/>
-      <c r="F406" s="56"/>
-      <c r="G406" s="56"/>
+      <c r="E406" s="59"/>
+      <c r="F406" s="59"/>
+      <c r="G406" s="59"/>
       <c r="H406" s="6"/>
       <c r="I406" s="6"/>
       <c r="J406" s="6"/>
-      <c r="K406" s="70"/>
+      <c r="K406" s="73"/>
     </row>
     <row r="407" spans="1:11">
       <c r="A407" s="6"/>
       <c r="B407" s="6"/>
       <c r="D407" s="6"/>
-      <c r="E407" s="56"/>
-      <c r="F407" s="56"/>
-      <c r="G407" s="56"/>
+      <c r="E407" s="59"/>
+      <c r="F407" s="59"/>
+      <c r="G407" s="59"/>
       <c r="H407" s="6"/>
       <c r="I407" s="6"/>
       <c r="J407" s="6"/>
-      <c r="K407" s="70"/>
+      <c r="K407" s="73"/>
     </row>
     <row r="408" spans="1:11">
       <c r="A408" s="6"/>
       <c r="B408" s="6"/>
       <c r="D408" s="6"/>
-      <c r="E408" s="56"/>
-      <c r="F408" s="56"/>
-      <c r="G408" s="56"/>
+      <c r="E408" s="59"/>
+      <c r="F408" s="59"/>
+      <c r="G408" s="59"/>
       <c r="H408" s="6"/>
       <c r="I408" s="6"/>
       <c r="J408" s="6"/>
-      <c r="K408" s="70"/>
+      <c r="K408" s="73"/>
     </row>
     <row r="409" spans="1:11">
       <c r="A409" s="6"/>
       <c r="B409" s="6"/>
       <c r="D409" s="6"/>
-      <c r="E409" s="56"/>
-      <c r="F409" s="56"/>
-      <c r="G409" s="56"/>
+      <c r="E409" s="59"/>
+      <c r="F409" s="59"/>
+      <c r="G409" s="59"/>
       <c r="H409" s="6"/>
       <c r="I409" s="6"/>
       <c r="J409" s="6"/>
-      <c r="K409" s="70"/>
+      <c r="K409" s="73"/>
     </row>
     <row r="410" spans="1:11">
       <c r="A410" s="6"/>
       <c r="B410" s="6"/>
       <c r="D410" s="6"/>
-      <c r="E410" s="56"/>
-      <c r="F410" s="56"/>
-      <c r="G410" s="56"/>
+      <c r="E410" s="59"/>
+      <c r="F410" s="59"/>
+      <c r="G410" s="59"/>
       <c r="H410" s="6"/>
       <c r="I410" s="6"/>
       <c r="J410" s="6"/>
-      <c r="K410" s="70"/>
+      <c r="K410" s="73"/>
     </row>
     <row r="411" spans="1:11">
       <c r="A411" s="6"/>
       <c r="B411" s="6"/>
       <c r="D411" s="6"/>
-      <c r="E411" s="56"/>
-      <c r="F411" s="56"/>
-      <c r="G411" s="56"/>
+      <c r="E411" s="59"/>
+      <c r="F411" s="59"/>
+      <c r="G411" s="59"/>
       <c r="H411" s="6"/>
       <c r="I411" s="6"/>
       <c r="J411" s="6"/>
-      <c r="K411" s="70"/>
+      <c r="K411" s="73"/>
     </row>
     <row r="412" spans="1:11">
       <c r="A412" s="6"/>
       <c r="B412" s="6"/>
       <c r="D412" s="6"/>
-      <c r="E412" s="56"/>
-      <c r="F412" s="56"/>
-      <c r="G412" s="56"/>
+      <c r="E412" s="59"/>
+      <c r="F412" s="59"/>
+      <c r="G412" s="59"/>
       <c r="H412" s="6"/>
       <c r="I412" s="6"/>
       <c r="J412" s="6"/>
-      <c r="K412" s="70"/>
+      <c r="K412" s="73"/>
     </row>
     <row r="413" spans="1:11">
       <c r="A413" s="6"/>
       <c r="B413" s="6"/>
       <c r="D413" s="6"/>
-      <c r="E413" s="56"/>
-      <c r="F413" s="56"/>
-      <c r="G413" s="56"/>
+      <c r="E413" s="59"/>
+      <c r="F413" s="59"/>
+      <c r="G413" s="59"/>
       <c r="H413" s="6"/>
       <c r="I413" s="6"/>
       <c r="J413" s="6"/>
-      <c r="K413" s="70"/>
+      <c r="K413" s="73"/>
     </row>
     <row r="414" spans="1:11">
       <c r="A414" s="6"/>
       <c r="B414" s="6"/>
       <c r="D414" s="6"/>
-      <c r="E414" s="56"/>
-      <c r="F414" s="56"/>
-      <c r="G414" s="56"/>
+      <c r="E414" s="59"/>
+      <c r="F414" s="59"/>
+      <c r="G414" s="59"/>
       <c r="H414" s="6"/>
       <c r="I414" s="6"/>
       <c r="J414" s="6"/>
-      <c r="K414" s="70"/>
+      <c r="K414" s="73"/>
     </row>
     <row r="415" spans="1:11">
       <c r="A415" s="6"/>
       <c r="B415" s="6"/>
       <c r="D415" s="6"/>
-      <c r="E415" s="56"/>
-      <c r="F415" s="56"/>
-      <c r="G415" s="56"/>
+      <c r="E415" s="59"/>
+      <c r="F415" s="59"/>
+      <c r="G415" s="59"/>
       <c r="H415" s="6"/>
       <c r="I415" s="6"/>
       <c r="J415" s="6"/>
-      <c r="K415" s="70"/>
+      <c r="K415" s="73"/>
     </row>
     <row r="416" spans="1:11">
       <c r="A416" s="6"/>
       <c r="B416" s="6"/>
       <c r="D416" s="6"/>
-      <c r="E416" s="56"/>
-      <c r="F416" s="56"/>
-      <c r="G416" s="56"/>
+      <c r="E416" s="59"/>
+      <c r="F416" s="59"/>
+      <c r="G416" s="59"/>
       <c r="H416" s="6"/>
       <c r="I416" s="6"/>
       <c r="J416" s="6"/>
-      <c r="K416" s="70"/>
+      <c r="K416" s="73"/>
     </row>
     <row r="417" spans="1:11">
       <c r="A417" s="6"/>
       <c r="B417" s="6"/>
       <c r="D417" s="6"/>
-      <c r="E417" s="56"/>
-      <c r="F417" s="56"/>
-      <c r="G417" s="56"/>
+      <c r="E417" s="59"/>
+      <c r="F417" s="59"/>
+      <c r="G417" s="59"/>
       <c r="H417" s="6"/>
       <c r="I417" s="6"/>
       <c r="J417" s="6"/>
-      <c r="K417" s="70"/>
+      <c r="K417" s="73"/>
     </row>
     <row r="418" spans="1:11">
       <c r="A418" s="6"/>
       <c r="B418" s="6"/>
       <c r="D418" s="6"/>
-      <c r="E418" s="56"/>
-      <c r="F418" s="56"/>
-      <c r="G418" s="56"/>
+      <c r="E418" s="59"/>
+      <c r="F418" s="59"/>
+      <c r="G418" s="59"/>
       <c r="H418" s="6"/>
       <c r="I418" s="6"/>
       <c r="J418" s="6"/>
-      <c r="K418" s="70"/>
+      <c r="K418" s="73"/>
     </row>
     <row r="419" spans="1:11">
       <c r="A419" s="6"/>
       <c r="B419" s="6"/>
       <c r="D419" s="6"/>
-      <c r="E419" s="56"/>
-      <c r="F419" s="56"/>
-      <c r="G419" s="56"/>
+      <c r="E419" s="59"/>
+      <c r="F419" s="59"/>
+      <c r="G419" s="59"/>
       <c r="H419" s="6"/>
       <c r="I419" s="6"/>
       <c r="J419" s="6"/>
-      <c r="K419" s="70"/>
+      <c r="K419" s="73"/>
     </row>
     <row r="420" spans="1:11">
       <c r="A420" s="6"/>
       <c r="B420" s="6"/>
       <c r="D420" s="6"/>
-      <c r="E420" s="56"/>
-      <c r="F420" s="56"/>
-      <c r="G420" s="56"/>
+      <c r="E420" s="59"/>
+      <c r="F420" s="59"/>
+      <c r="G420" s="59"/>
       <c r="H420" s="6"/>
       <c r="I420" s="6"/>
       <c r="J420" s="6"/>
-      <c r="K420" s="70"/>
+      <c r="K420" s="73"/>
     </row>
     <row r="421" spans="1:11">
       <c r="A421" s="6"/>
       <c r="B421" s="6"/>
       <c r="D421" s="6"/>
-      <c r="E421" s="56"/>
-      <c r="F421" s="56"/>
-      <c r="G421" s="56"/>
+      <c r="E421" s="59"/>
+      <c r="F421" s="59"/>
+      <c r="G421" s="59"/>
       <c r="H421" s="6"/>
       <c r="I421" s="6"/>
       <c r="J421" s="6"/>
-      <c r="K421" s="70"/>
+      <c r="K421" s="73"/>
     </row>
     <row r="422" spans="1:11">
       <c r="A422" s="6"/>
       <c r="B422" s="6"/>
       <c r="D422" s="6"/>
-      <c r="E422" s="56"/>
-      <c r="F422" s="56"/>
-      <c r="G422" s="56"/>
+      <c r="E422" s="59"/>
+      <c r="F422" s="59"/>
+      <c r="G422" s="59"/>
       <c r="H422" s="6"/>
       <c r="I422" s="6"/>
       <c r="J422" s="6"/>
-      <c r="K422" s="70"/>
+      <c r="K422" s="73"/>
     </row>
     <row r="423" spans="1:11">
       <c r="A423" s="6"/>
       <c r="B423" s="6"/>
       <c r="D423" s="6"/>
-      <c r="E423" s="56"/>
-      <c r="F423" s="56"/>
-      <c r="G423" s="56"/>
+      <c r="E423" s="59"/>
+      <c r="F423" s="59"/>
+      <c r="G423" s="59"/>
       <c r="H423" s="6"/>
       <c r="I423" s="6"/>
       <c r="J423" s="6"/>
-      <c r="K423" s="70"/>
+      <c r="K423" s="73"/>
     </row>
     <row r="424" spans="1:11">
       <c r="A424" s="6"/>
       <c r="B424" s="6"/>
       <c r="D424" s="6"/>
-      <c r="E424" s="56"/>
-      <c r="F424" s="56"/>
-      <c r="G424" s="56"/>
+      <c r="E424" s="59"/>
+      <c r="F424" s="59"/>
+      <c r="G424" s="59"/>
       <c r="H424" s="6"/>
       <c r="I424" s="6"/>
       <c r="J424" s="6"/>
-      <c r="K424" s="70"/>
+      <c r="K424" s="73"/>
     </row>
     <row r="425" spans="1:11">
       <c r="A425" s="6"/>
       <c r="B425" s="6"/>
       <c r="D425" s="6"/>
-      <c r="E425" s="56"/>
-      <c r="F425" s="56"/>
-      <c r="G425" s="56"/>
+      <c r="E425" s="59"/>
+      <c r="F425" s="59"/>
+      <c r="G425" s="59"/>
       <c r="H425" s="6"/>
       <c r="I425" s="6"/>
       <c r="J425" s="6"/>
-      <c r="K425" s="70"/>
+      <c r="K425" s="73"/>
     </row>
     <row r="426" spans="1:11">
       <c r="A426" s="6"/>
       <c r="B426" s="6"/>
       <c r="D426" s="6"/>
-      <c r="E426" s="56"/>
-      <c r="F426" s="56"/>
-      <c r="G426" s="56"/>
+      <c r="E426" s="59"/>
+      <c r="F426" s="59"/>
+      <c r="G426" s="59"/>
       <c r="H426" s="6"/>
       <c r="I426" s="6"/>
       <c r="J426" s="6"/>
-      <c r="K426" s="70"/>
+      <c r="K426" s="73"/>
     </row>
     <row r="427" spans="1:11">
       <c r="A427" s="6"/>
       <c r="B427" s="6"/>
       <c r="D427" s="6"/>
-      <c r="E427" s="56"/>
-      <c r="F427" s="56"/>
-      <c r="G427" s="56"/>
+      <c r="E427" s="59"/>
+      <c r="F427" s="59"/>
+      <c r="G427" s="59"/>
       <c r="H427" s="6"/>
       <c r="I427" s="6"/>
       <c r="J427" s="6"/>
-      <c r="K427" s="70"/>
+      <c r="K427" s="73"/>
     </row>
     <row r="428" spans="1:11">
       <c r="A428" s="6"/>
       <c r="B428" s="6"/>
       <c r="D428" s="6"/>
-      <c r="E428" s="56"/>
-      <c r="F428" s="56"/>
-      <c r="G428" s="56"/>
+      <c r="E428" s="59"/>
+      <c r="F428" s="59"/>
+      <c r="G428" s="59"/>
       <c r="H428" s="6"/>
       <c r="I428" s="6"/>
       <c r="J428" s="6"/>
-      <c r="K428" s="70"/>
+      <c r="K428" s="73"/>
     </row>
     <row r="429" spans="1:11">
       <c r="A429" s="6"/>
       <c r="B429" s="6"/>
       <c r="D429" s="6"/>
-      <c r="E429" s="56"/>
-      <c r="F429" s="56"/>
-      <c r="G429" s="56"/>
+      <c r="E429" s="59"/>
+      <c r="F429" s="59"/>
+      <c r="G429" s="59"/>
       <c r="H429" s="6"/>
       <c r="I429" s="6"/>
       <c r="J429" s="6"/>
-      <c r="K429" s="70"/>
+      <c r="K429" s="73"/>
     </row>
     <row r="430" spans="1:11">
       <c r="A430" s="6"/>
       <c r="B430" s="6"/>
       <c r="D430" s="6"/>
-      <c r="E430" s="56"/>
-      <c r="F430" s="56"/>
-      <c r="G430" s="56"/>
+      <c r="E430" s="59"/>
+      <c r="F430" s="59"/>
+      <c r="G430" s="59"/>
       <c r="H430" s="6"/>
       <c r="I430" s="6"/>
       <c r="J430" s="6"/>
-      <c r="K430" s="70"/>
+      <c r="K430" s="73"/>
     </row>
     <row r="431" spans="1:11">
       <c r="A431" s="6"/>
       <c r="B431" s="6"/>
       <c r="D431" s="6"/>
-      <c r="E431" s="56"/>
-      <c r="F431" s="56"/>
-      <c r="G431" s="56"/>
+      <c r="E431" s="59"/>
+      <c r="F431" s="59"/>
+      <c r="G431" s="59"/>
       <c r="H431" s="6"/>
       <c r="I431" s="6"/>
       <c r="J431" s="6"/>
-      <c r="K431" s="70"/>
+      <c r="K431" s="73"/>
     </row>
     <row r="432" spans="1:11">
       <c r="A432" s="6"/>
       <c r="B432" s="6"/>
       <c r="D432" s="6"/>
-      <c r="E432" s="56"/>
-      <c r="F432" s="56"/>
-      <c r="G432" s="56"/>
+      <c r="E432" s="59"/>
+      <c r="F432" s="59"/>
+      <c r="G432" s="59"/>
       <c r="H432" s="6"/>
       <c r="I432" s="6"/>
       <c r="J432" s="6"/>
-      <c r="K432" s="70"/>
+      <c r="K432" s="73"/>
     </row>
     <row r="433" spans="1:11">
       <c r="A433" s="6"/>
       <c r="B433" s="6"/>
       <c r="D433" s="6"/>
-      <c r="E433" s="56"/>
-      <c r="F433" s="56"/>
-      <c r="G433" s="56"/>
+      <c r="E433" s="59"/>
+      <c r="F433" s="59"/>
+      <c r="G433" s="59"/>
       <c r="H433" s="6"/>
       <c r="I433" s="6"/>
       <c r="J433" s="6"/>
-      <c r="K433" s="70"/>
+      <c r="K433" s="73"/>
     </row>
     <row r="434" spans="1:11">
       <c r="A434" s="6"/>
       <c r="B434" s="6"/>
       <c r="D434" s="6"/>
-      <c r="E434" s="56"/>
-      <c r="F434" s="56"/>
-      <c r="G434" s="56"/>
+      <c r="E434" s="59"/>
+      <c r="F434" s="59"/>
+      <c r="G434" s="59"/>
       <c r="H434" s="6"/>
       <c r="I434" s="6"/>
       <c r="J434" s="6"/>
-      <c r="K434" s="70"/>
+      <c r="K434" s="73"/>
     </row>
     <row r="435" spans="1:11">
       <c r="A435" s="6"/>
       <c r="B435" s="6"/>
       <c r="D435" s="6"/>
-      <c r="E435" s="56"/>
-      <c r="F435" s="56"/>
-      <c r="G435" s="56"/>
+      <c r="E435" s="59"/>
+      <c r="F435" s="59"/>
+      <c r="G435" s="59"/>
       <c r="H435" s="6"/>
       <c r="I435" s="6"/>
       <c r="J435" s="6"/>
-      <c r="K435" s="70"/>
+      <c r="K435" s="73"/>
     </row>
     <row r="436" spans="1:11">
       <c r="A436" s="6"/>
       <c r="B436" s="6"/>
       <c r="D436" s="6"/>
-      <c r="E436" s="56"/>
-      <c r="F436" s="56"/>
-      <c r="G436" s="56"/>
+      <c r="E436" s="59"/>
+      <c r="F436" s="59"/>
+      <c r="G436" s="59"/>
       <c r="H436" s="6"/>
       <c r="I436" s="6"/>
       <c r="J436" s="6"/>
-      <c r="K436" s="70"/>
+      <c r="K436" s="73"/>
     </row>
     <row r="437" spans="1:11">
       <c r="A437" s="6"/>
       <c r="B437" s="6"/>
       <c r="D437" s="6"/>
-      <c r="E437" s="56"/>
-      <c r="F437" s="56"/>
-      <c r="G437" s="56"/>
+      <c r="E437" s="59"/>
+      <c r="F437" s="59"/>
+      <c r="G437" s="59"/>
       <c r="H437" s="6"/>
       <c r="I437" s="6"/>
       <c r="J437" s="6"/>
-      <c r="K437" s="70"/>
+      <c r="K437" s="73"/>
     </row>
     <row r="438" spans="1:11">
       <c r="A438" s="6"/>
       <c r="B438" s="6"/>
       <c r="D438" s="6"/>
-      <c r="E438" s="56"/>
-      <c r="F438" s="56"/>
-      <c r="G438" s="56"/>
+      <c r="E438" s="59"/>
+      <c r="F438" s="59"/>
+      <c r="G438" s="59"/>
       <c r="H438" s="6"/>
       <c r="I438" s="6"/>
       <c r="J438" s="6"/>
-      <c r="K438" s="70"/>
+      <c r="K438" s="73"/>
     </row>
     <row r="439" spans="1:11">
       <c r="A439" s="6"/>
       <c r="B439" s="6"/>
       <c r="D439" s="6"/>
-      <c r="E439" s="56"/>
-      <c r="F439" s="56"/>
-      <c r="G439" s="56"/>
+      <c r="E439" s="59"/>
+      <c r="F439" s="59"/>
+      <c r="G439" s="59"/>
       <c r="H439" s="6"/>
       <c r="I439" s="6"/>
       <c r="J439" s="6"/>
-      <c r="K439" s="70"/>
+      <c r="K439" s="73"/>
     </row>
     <row r="440" spans="1:11">
       <c r="A440" s="6"/>
       <c r="B440" s="6"/>
       <c r="D440" s="6"/>
-      <c r="E440" s="56"/>
-      <c r="F440" s="56"/>
-      <c r="G440" s="56"/>
+      <c r="E440" s="59"/>
+      <c r="F440" s="59"/>
+      <c r="G440" s="59"/>
       <c r="H440" s="6"/>
       <c r="I440" s="6"/>
       <c r="J440" s="6"/>
-      <c r="K440" s="70"/>
+      <c r="K440" s="73"/>
     </row>
     <row r="441" spans="1:11">
       <c r="A441" s="6"/>
       <c r="B441" s="6"/>
       <c r="D441" s="6"/>
-      <c r="E441" s="56"/>
-      <c r="F441" s="56"/>
-      <c r="G441" s="56"/>
+      <c r="E441" s="59"/>
+      <c r="F441" s="59"/>
+      <c r="G441" s="59"/>
       <c r="H441" s="6"/>
       <c r="I441" s="6"/>
       <c r="J441" s="6"/>
-      <c r="K441" s="70"/>
+      <c r="K441" s="73"/>
     </row>
     <row r="442" spans="1:11">
       <c r="A442" s="6"/>
       <c r="B442" s="6"/>
       <c r="D442" s="6"/>
-      <c r="E442" s="56"/>
-      <c r="F442" s="56"/>
-      <c r="G442" s="56"/>
+      <c r="E442" s="59"/>
+      <c r="F442" s="59"/>
+      <c r="G442" s="59"/>
       <c r="H442" s="6"/>
       <c r="I442" s="6"/>
       <c r="J442" s="6"/>
-      <c r="K442" s="70"/>
+      <c r="K442" s="73"/>
     </row>
     <row r="443" spans="1:11">
       <c r="A443" s="6"/>
       <c r="B443" s="6"/>
       <c r="D443" s="6"/>
-      <c r="E443" s="56"/>
-      <c r="F443" s="56"/>
-      <c r="G443" s="56"/>
+      <c r="E443" s="59"/>
+      <c r="F443" s="59"/>
+      <c r="G443" s="59"/>
       <c r="H443" s="6"/>
       <c r="I443" s="6"/>
       <c r="J443" s="6"/>
-      <c r="K443" s="70"/>
+      <c r="K443" s="73"/>
     </row>
     <row r="444" spans="1:11">
       <c r="A444" s="6"/>
       <c r="B444" s="6"/>
       <c r="D444" s="6"/>
-      <c r="E444" s="56"/>
-      <c r="F444" s="56"/>
-      <c r="G444" s="56"/>
+      <c r="E444" s="59"/>
+      <c r="F444" s="59"/>
+      <c r="G444" s="59"/>
       <c r="H444" s="6"/>
       <c r="I444" s="6"/>
       <c r="J444" s="6"/>
-      <c r="K444" s="70"/>
+      <c r="K444" s="73"/>
     </row>
     <row r="445" spans="1:11">
       <c r="A445" s="6"/>
       <c r="B445" s="6"/>
       <c r="D445" s="6"/>
-      <c r="E445" s="56"/>
-      <c r="F445" s="56"/>
-      <c r="G445" s="56"/>
+      <c r="E445" s="59"/>
+      <c r="F445" s="59"/>
+      <c r="G445" s="59"/>
       <c r="H445" s="6"/>
       <c r="I445" s="6"/>
       <c r="J445" s="6"/>
-      <c r="K445" s="70"/>
+      <c r="K445" s="73"/>
     </row>
     <row r="446" spans="1:11">
       <c r="A446" s="6"/>
       <c r="B446" s="6"/>
       <c r="D446" s="6"/>
-      <c r="E446" s="56"/>
-      <c r="F446" s="56"/>
-      <c r="G446" s="56"/>
+      <c r="E446" s="59"/>
+      <c r="F446" s="59"/>
+      <c r="G446" s="59"/>
       <c r="H446" s="6"/>
       <c r="I446" s="6"/>
       <c r="J446" s="6"/>
-      <c r="K446" s="70"/>
+      <c r="K446" s="73"/>
     </row>
     <row r="447" spans="1:11">
       <c r="A447" s="6"/>
       <c r="B447" s="6"/>
       <c r="D447" s="6"/>
-      <c r="E447" s="56"/>
-      <c r="F447" s="56"/>
-      <c r="G447" s="56"/>
+      <c r="E447" s="59"/>
+      <c r="F447" s="59"/>
+      <c r="G447" s="59"/>
       <c r="H447" s="6"/>
       <c r="I447" s="6"/>
       <c r="J447" s="6"/>
-      <c r="K447" s="70"/>
+      <c r="K447" s="73"/>
     </row>
     <row r="448" spans="1:11">
       <c r="A448" s="6"/>
       <c r="B448" s="6"/>
       <c r="D448" s="6"/>
-      <c r="E448" s="56"/>
-      <c r="F448" s="56"/>
-      <c r="G448" s="56"/>
+      <c r="E448" s="59"/>
+      <c r="F448" s="59"/>
+      <c r="G448" s="59"/>
       <c r="H448" s="6"/>
       <c r="I448" s="6"/>
       <c r="J448" s="6"/>
-      <c r="K448" s="70"/>
+      <c r="K448" s="73"/>
     </row>
     <row r="449" spans="1:11">
       <c r="A449" s="6"/>
       <c r="B449" s="6"/>
       <c r="D449" s="6"/>
-      <c r="E449" s="56"/>
-      <c r="F449" s="56"/>
-      <c r="G449" s="56"/>
+      <c r="E449" s="59"/>
+      <c r="F449" s="59"/>
+      <c r="G449" s="59"/>
       <c r="H449" s="6"/>
       <c r="I449" s="6"/>
       <c r="J449" s="6"/>
-      <c r="K449" s="70"/>
+      <c r="K449" s="73"/>
     </row>
     <row r="450" spans="1:11">
       <c r="A450" s="6"/>
       <c r="B450" s="6"/>
       <c r="D450" s="6"/>
-      <c r="E450" s="56"/>
-      <c r="F450" s="56"/>
-      <c r="G450" s="56"/>
+      <c r="E450" s="59"/>
+      <c r="F450" s="59"/>
+      <c r="G450" s="59"/>
       <c r="H450" s="6"/>
       <c r="I450" s="6"/>
       <c r="J450" s="6"/>
-      <c r="K450" s="70"/>
+      <c r="K450" s="73"/>
     </row>
     <row r="451" spans="1:11">
       <c r="A451" s="6"/>
       <c r="B451" s="6"/>
       <c r="D451" s="6"/>
-      <c r="E451" s="56"/>
-      <c r="F451" s="56"/>
-      <c r="G451" s="56"/>
+      <c r="E451" s="59"/>
+      <c r="F451" s="59"/>
+      <c r="G451" s="59"/>
       <c r="H451" s="6"/>
       <c r="I451" s="6"/>
       <c r="J451" s="6"/>
-      <c r="K451" s="70"/>
+      <c r="K451" s="73"/>
     </row>
     <row r="452" spans="1:11">
       <c r="A452" s="6"/>
       <c r="B452" s="6"/>
       <c r="D452" s="6"/>
-      <c r="E452" s="56"/>
-      <c r="F452" s="56"/>
-      <c r="G452" s="56"/>
+      <c r="E452" s="59"/>
+      <c r="F452" s="59"/>
+      <c r="G452" s="59"/>
       <c r="H452" s="6"/>
       <c r="I452" s="6"/>
       <c r="J452" s="6"/>
-      <c r="K452" s="70"/>
+      <c r="K452" s="73"/>
     </row>
     <row r="453" spans="1:11">
       <c r="A453" s="6"/>
       <c r="B453" s="6"/>
       <c r="D453" s="6"/>
-      <c r="E453" s="56"/>
-      <c r="F453" s="56"/>
-      <c r="G453" s="56"/>
+      <c r="E453" s="59"/>
+      <c r="F453" s="59"/>
+      <c r="G453" s="59"/>
       <c r="H453" s="6"/>
       <c r="I453" s="6"/>
       <c r="J453" s="6"/>
-      <c r="K453" s="70"/>
+      <c r="K453" s="73"/>
     </row>
     <row r="454" spans="1:11">
       <c r="A454" s="6"/>
       <c r="B454" s="6"/>
       <c r="D454" s="6"/>
-      <c r="E454" s="56"/>
-      <c r="F454" s="56"/>
-      <c r="G454" s="56"/>
+      <c r="E454" s="59"/>
+      <c r="F454" s="59"/>
+      <c r="G454" s="59"/>
       <c r="H454" s="6"/>
       <c r="I454" s="6"/>
       <c r="J454" s="6"/>
-      <c r="K454" s="70"/>
+      <c r="K454" s="73"/>
     </row>
     <row r="455" spans="1:11">
       <c r="A455" s="6"/>
       <c r="B455" s="6"/>
       <c r="D455" s="6"/>
-      <c r="E455" s="56"/>
-      <c r="F455" s="56"/>
-      <c r="G455" s="56"/>
+      <c r="E455" s="59"/>
+      <c r="F455" s="59"/>
+      <c r="G455" s="59"/>
       <c r="H455" s="6"/>
       <c r="I455" s="6"/>
       <c r="J455" s="6"/>
-      <c r="K455" s="70"/>
+      <c r="K455" s="73"/>
     </row>
     <row r="456" spans="1:11">
       <c r="A456" s="6"/>
       <c r="B456" s="6"/>
       <c r="D456" s="6"/>
-      <c r="E456" s="56"/>
-      <c r="F456" s="56"/>
-      <c r="G456" s="56"/>
+      <c r="E456" s="59"/>
+      <c r="F456" s="59"/>
+      <c r="G456" s="59"/>
       <c r="H456" s="6"/>
       <c r="I456" s="6"/>
       <c r="J456" s="6"/>
-      <c r="K456" s="70"/>
+      <c r="K456" s="73"/>
     </row>
     <row r="457" spans="1:11">
       <c r="A457" s="6"/>
       <c r="B457" s="6"/>
       <c r="D457" s="6"/>
-      <c r="E457" s="56"/>
-      <c r="F457" s="56"/>
-      <c r="G457" s="56"/>
+      <c r="E457" s="59"/>
+      <c r="F457" s="59"/>
+      <c r="G457" s="59"/>
       <c r="H457" s="6"/>
       <c r="I457" s="6"/>
       <c r="J457" s="6"/>
-      <c r="K457" s="70"/>
+      <c r="K457" s="73"/>
     </row>
     <row r="458" spans="1:11">
       <c r="A458" s="6"/>
       <c r="B458" s="6"/>
       <c r="D458" s="6"/>
-      <c r="E458" s="56"/>
-      <c r="F458" s="56"/>
-      <c r="G458" s="56"/>
+      <c r="E458" s="59"/>
+      <c r="F458" s="59"/>
+      <c r="G458" s="59"/>
       <c r="H458" s="6"/>
       <c r="I458" s="6"/>
       <c r="J458" s="6"/>
-      <c r="K458" s="70"/>
+      <c r="K458" s="73"/>
     </row>
     <row r="459" spans="1:11">
       <c r="A459" s="6"/>
       <c r="B459" s="6"/>
       <c r="D459" s="6"/>
-      <c r="E459" s="56"/>
-      <c r="F459" s="56"/>
-      <c r="G459" s="56"/>
+      <c r="E459" s="59"/>
+      <c r="F459" s="59"/>
+      <c r="G459" s="59"/>
       <c r="H459" s="6"/>
       <c r="I459" s="6"/>
       <c r="J459" s="6"/>
-      <c r="K459" s="70"/>
+      <c r="K459" s="73"/>
     </row>
     <row r="460" spans="1:11">
       <c r="A460" s="6"/>
       <c r="B460" s="6"/>
       <c r="D460" s="6"/>
-      <c r="E460" s="56"/>
-      <c r="F460" s="56"/>
-      <c r="G460" s="56"/>
+      <c r="E460" s="59"/>
+      <c r="F460" s="59"/>
+      <c r="G460" s="59"/>
       <c r="H460" s="6"/>
       <c r="I460" s="6"/>
       <c r="J460" s="6"/>
-      <c r="K460" s="70"/>
+      <c r="K460" s="73"/>
     </row>
     <row r="461" spans="1:11">
       <c r="A461" s="6"/>
       <c r="B461" s="6"/>
       <c r="D461" s="6"/>
-      <c r="E461" s="56"/>
-      <c r="F461" s="56"/>
-      <c r="G461" s="56"/>
+      <c r="E461" s="59"/>
+      <c r="F461" s="59"/>
+      <c r="G461" s="59"/>
       <c r="H461" s="6"/>
       <c r="I461" s="6"/>
       <c r="J461" s="6"/>
-      <c r="K461" s="70"/>
+      <c r="K461" s="73"/>
     </row>
     <row r="462" spans="1:11">
       <c r="A462" s="6"/>
       <c r="B462" s="6"/>
       <c r="D462" s="6"/>
-      <c r="E462" s="56"/>
-      <c r="F462" s="56"/>
-      <c r="G462" s="56"/>
+      <c r="E462" s="59"/>
+      <c r="F462" s="59"/>
+      <c r="G462" s="59"/>
       <c r="H462" s="6"/>
       <c r="I462" s="6"/>
       <c r="J462" s="6"/>
-      <c r="K462" s="70"/>
+      <c r="K462" s="73"/>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93">
   <si>
     <t>计划编码</t>
   </si>
@@ -328,6 +328,9 @@
     <t>JH_00031</t>
   </si>
   <si>
+    <t>新华医疗</t>
+  </si>
+  <si>
     <t>000069</t>
   </si>
 </sst>
@@ -336,12 +339,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="45">
@@ -502,17 +505,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -531,9 +533,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -547,37 +579,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,31 +589,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -622,6 +602,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
@@ -637,16 +625,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -691,7 +694,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,25 +814,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,13 +838,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,73 +850,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,43 +868,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,38 +913,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -951,32 +924,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -998,9 +945,65 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1009,124 +1012,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1135,26 +1138,26 @@
     <xf numFmtId="41" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1176,7 +1179,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1287,52 +1290,46 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1353,7 +1350,7 @@
     <xf numFmtId="10" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1392,7 +1389,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1405,6 +1402,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1477,6 +1477,15 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
@@ -2593,11 +2602,11 @@
   <dimension ref="A1:BA542"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C33" sqref="C33:D33"/>
+      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
@@ -2629,13 +2638,13 @@
       <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="45" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="13" t="s">
@@ -2644,105 +2653,105 @@
       <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="J1" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="61" t="s">
+      <c r="K1" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="62" t="s">
+      <c r="L1" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="74" t="s">
+      <c r="M1" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="V1" s="84"/>
-      <c r="W1" s="84"/>
-      <c r="X1" s="84"/>
-      <c r="Y1" s="84"/>
-      <c r="Z1" s="84"/>
-      <c r="AA1" s="84"/>
-      <c r="AB1" s="84"/>
-      <c r="AC1" s="84"/>
-      <c r="AE1" s="84"/>
-      <c r="AF1" s="84"/>
-      <c r="AG1" s="84"/>
-      <c r="AH1" s="84"/>
-      <c r="AI1" s="84"/>
-      <c r="AJ1" s="84"/>
-      <c r="AK1" s="84"/>
-      <c r="AM1" s="84"/>
-      <c r="AN1" s="84"/>
-      <c r="AO1" s="84"/>
-      <c r="AP1" s="84"/>
-      <c r="AQ1" s="84"/>
-      <c r="AR1" s="84"/>
-      <c r="AS1" s="84"/>
-      <c r="AU1" s="84"/>
-      <c r="AV1" s="84"/>
-      <c r="AW1" s="84"/>
-      <c r="AX1" s="84"/>
-      <c r="AY1" s="84"/>
-      <c r="AZ1" s="84"/>
-      <c r="BA1" s="84"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
+      <c r="X1" s="83"/>
+      <c r="Y1" s="83"/>
+      <c r="Z1" s="83"/>
+      <c r="AA1" s="83"/>
+      <c r="AB1" s="83"/>
+      <c r="AC1" s="83"/>
+      <c r="AE1" s="83"/>
+      <c r="AF1" s="83"/>
+      <c r="AG1" s="83"/>
+      <c r="AH1" s="83"/>
+      <c r="AI1" s="83"/>
+      <c r="AJ1" s="83"/>
+      <c r="AK1" s="83"/>
+      <c r="AM1" s="83"/>
+      <c r="AN1" s="83"/>
+      <c r="AO1" s="83"/>
+      <c r="AP1" s="83"/>
+      <c r="AQ1" s="83"/>
+      <c r="AR1" s="83"/>
+      <c r="AS1" s="83"/>
+      <c r="AU1" s="83"/>
+      <c r="AV1" s="83"/>
+      <c r="AW1" s="83"/>
+      <c r="AX1" s="83"/>
+      <c r="AY1" s="83"/>
+      <c r="AZ1" s="83"/>
+      <c r="BA1" s="83"/>
     </row>
     <row r="2" ht="23.6" spans="1:53">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="12"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="84"/>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="84"/>
-      <c r="AO2" s="84"/>
-      <c r="AP2" s="84"/>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="84"/>
-      <c r="AS2" s="84"/>
-      <c r="AU2" s="84"/>
-      <c r="AV2" s="84"/>
-      <c r="AW2" s="84"/>
-      <c r="AX2" s="84"/>
-      <c r="AY2" s="84"/>
-      <c r="AZ2" s="84"/>
-      <c r="BA2" s="84"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="83"/>
+      <c r="AG2" s="83"/>
+      <c r="AH2" s="83"/>
+      <c r="AI2" s="83"/>
+      <c r="AJ2" s="83"/>
+      <c r="AK2" s="83"/>
+      <c r="AM2" s="83"/>
+      <c r="AN2" s="83"/>
+      <c r="AO2" s="83"/>
+      <c r="AP2" s="83"/>
+      <c r="AQ2" s="83"/>
+      <c r="AR2" s="83"/>
+      <c r="AS2" s="83"/>
+      <c r="AU2" s="83"/>
+      <c r="AV2" s="83"/>
+      <c r="AW2" s="83"/>
+      <c r="AX2" s="83"/>
+      <c r="AY2" s="83"/>
+      <c r="AZ2" s="83"/>
+      <c r="BA2" s="83"/>
     </row>
     <row r="3" customFormat="1" ht="23.6" spans="1:53">
       <c r="A3" s="15" t="s">
@@ -2757,74 +2766,74 @@
       <c r="D3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="47">
         <v>34.12</v>
       </c>
-      <c r="F3" s="49">
+      <c r="F3" s="47">
         <v>32.53</v>
       </c>
-      <c r="G3" s="49">
+      <c r="G3" s="47">
         <v>39.33</v>
       </c>
-      <c r="H3" s="50">
+      <c r="H3" s="48">
         <f t="shared" ref="H3:H32" si="0">(E3-F3)*100</f>
         <v>159</v>
       </c>
-      <c r="I3" s="50">
+      <c r="I3" s="48">
         <f>FLOOR(1000/(E3-F3),100)</f>
         <v>600</v>
       </c>
-      <c r="J3" s="66">
+      <c r="J3" s="64">
         <f t="shared" ref="J3:J11" si="1">(G3-E3)/(E3-F3)</f>
         <v>3.27672955974844</v>
       </c>
-      <c r="K3" s="67">
+      <c r="K3" s="65">
         <f t="shared" ref="K3:K14" si="2">(E3-F3)/E3</f>
         <v>0.0466002344665884</v>
       </c>
-      <c r="L3" s="68">
+      <c r="L3" s="66">
         <f t="shared" ref="L3:L11" si="3">(G3-E3)/E3</f>
         <v>0.152696365767878</v>
       </c>
       <c r="M3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="75"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="84"/>
-      <c r="Z3" s="84"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="84"/>
-      <c r="AE3" s="84"/>
-      <c r="AF3" s="84"/>
-      <c r="AG3" s="84"/>
-      <c r="AH3" s="84"/>
-      <c r="AI3" s="84"/>
-      <c r="AJ3" s="84"/>
-      <c r="AK3" s="84"/>
-      <c r="AM3" s="84"/>
-      <c r="AN3" s="84"/>
-      <c r="AO3" s="84"/>
-      <c r="AP3" s="84"/>
-      <c r="AQ3" s="84"/>
-      <c r="AR3" s="84"/>
-      <c r="AS3" s="84"/>
-      <c r="AU3" s="84"/>
-      <c r="AV3" s="84"/>
-      <c r="AW3" s="84"/>
-      <c r="AX3" s="84"/>
-      <c r="AY3" s="84"/>
-      <c r="AZ3" s="84"/>
-      <c r="BA3" s="84"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="83"/>
+      <c r="AE3" s="83"/>
+      <c r="AF3" s="83"/>
+      <c r="AG3" s="83"/>
+      <c r="AH3" s="83"/>
+      <c r="AI3" s="83"/>
+      <c r="AJ3" s="83"/>
+      <c r="AK3" s="83"/>
+      <c r="AM3" s="83"/>
+      <c r="AN3" s="83"/>
+      <c r="AO3" s="83"/>
+      <c r="AP3" s="83"/>
+      <c r="AQ3" s="83"/>
+      <c r="AR3" s="83"/>
+      <c r="AS3" s="83"/>
+      <c r="AU3" s="83"/>
+      <c r="AV3" s="83"/>
+      <c r="AW3" s="83"/>
+      <c r="AX3" s="83"/>
+      <c r="AY3" s="83"/>
+      <c r="AZ3" s="83"/>
+      <c r="BA3" s="83"/>
     </row>
     <row r="4" customFormat="1" ht="23.6" spans="1:53">
       <c r="A4" s="15" t="s">
@@ -2839,74 +2848,74 @@
       <c r="D4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="47">
         <v>32.65</v>
       </c>
-      <c r="F4" s="49">
+      <c r="F4" s="47">
         <v>30.89</v>
       </c>
-      <c r="G4" s="49">
+      <c r="G4" s="47">
         <v>36.22</v>
       </c>
-      <c r="H4" s="50">
+      <c r="H4" s="48">
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
-      <c r="I4" s="50">
+      <c r="I4" s="48">
         <f>FLOOR(1000/(E4-F4),100)</f>
         <v>500</v>
       </c>
-      <c r="J4" s="66">
+      <c r="J4" s="64">
         <f t="shared" si="1"/>
         <v>2.02840909090909</v>
       </c>
-      <c r="K4" s="67">
+      <c r="K4" s="65">
         <f t="shared" si="2"/>
         <v>0.0539050535987748</v>
       </c>
-      <c r="L4" s="68">
+      <c r="L4" s="66">
         <f t="shared" si="3"/>
         <v>0.109341500765697</v>
       </c>
       <c r="M4" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="75"/>
-      <c r="S4" s="75"/>
-      <c r="T4" s="75"/>
-      <c r="V4" s="84"/>
-      <c r="W4" s="84"/>
-      <c r="X4" s="84"/>
-      <c r="Y4" s="84"/>
-      <c r="Z4" s="84"/>
-      <c r="AA4" s="84"/>
-      <c r="AB4" s="84"/>
-      <c r="AC4" s="84"/>
-      <c r="AE4" s="84"/>
-      <c r="AF4" s="84"/>
-      <c r="AG4" s="84"/>
-      <c r="AH4" s="84"/>
-      <c r="AI4" s="84"/>
-      <c r="AJ4" s="84"/>
-      <c r="AK4" s="84"/>
-      <c r="AM4" s="84"/>
-      <c r="AN4" s="84"/>
-      <c r="AO4" s="84"/>
-      <c r="AP4" s="84"/>
-      <c r="AQ4" s="84"/>
-      <c r="AR4" s="84"/>
-      <c r="AS4" s="84"/>
-      <c r="AU4" s="84"/>
-      <c r="AV4" s="84"/>
-      <c r="AW4" s="84"/>
-      <c r="AX4" s="84"/>
-      <c r="AY4" s="84"/>
-      <c r="AZ4" s="84"/>
-      <c r="BA4" s="84"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="V4" s="83"/>
+      <c r="W4" s="83"/>
+      <c r="X4" s="83"/>
+      <c r="Y4" s="83"/>
+      <c r="Z4" s="83"/>
+      <c r="AA4" s="83"/>
+      <c r="AB4" s="83"/>
+      <c r="AC4" s="83"/>
+      <c r="AE4" s="83"/>
+      <c r="AF4" s="83"/>
+      <c r="AG4" s="83"/>
+      <c r="AH4" s="83"/>
+      <c r="AI4" s="83"/>
+      <c r="AJ4" s="83"/>
+      <c r="AK4" s="83"/>
+      <c r="AM4" s="83"/>
+      <c r="AN4" s="83"/>
+      <c r="AO4" s="83"/>
+      <c r="AP4" s="83"/>
+      <c r="AQ4" s="83"/>
+      <c r="AR4" s="83"/>
+      <c r="AS4" s="83"/>
+      <c r="AU4" s="83"/>
+      <c r="AV4" s="83"/>
+      <c r="AW4" s="83"/>
+      <c r="AX4" s="83"/>
+      <c r="AY4" s="83"/>
+      <c r="AZ4" s="83"/>
+      <c r="BA4" s="83"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="45" spans="1:14">
       <c r="A5" s="15" t="s">
@@ -2921,39 +2930,39 @@
       <c r="D5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="47">
         <v>51.15</v>
       </c>
-      <c r="F5" s="49">
+      <c r="F5" s="47">
         <v>46.61</v>
       </c>
-      <c r="G5" s="49">
+      <c r="G5" s="47">
         <v>59.59</v>
       </c>
-      <c r="H5" s="50">
+      <c r="H5" s="48">
         <f t="shared" si="0"/>
         <v>454</v>
       </c>
-      <c r="I5" s="50">
+      <c r="I5" s="48">
         <f t="shared" ref="I5:I32" si="4">FLOOR(1000/(E5-F5),100)</f>
         <v>200</v>
       </c>
-      <c r="J5" s="66">
+      <c r="J5" s="64">
         <f t="shared" si="1"/>
         <v>1.85903083700441</v>
       </c>
-      <c r="K5" s="67">
+      <c r="K5" s="65">
         <f t="shared" si="2"/>
         <v>0.0887585532746823</v>
       </c>
-      <c r="L5" s="68">
+      <c r="L5" s="66">
         <f t="shared" si="3"/>
         <v>0.165004887585533</v>
       </c>
-      <c r="M5" s="77" t="s">
+      <c r="M5" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="78"/>
+      <c r="N5" s="76"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="44" spans="1:14">
       <c r="A6" s="15" t="s">
@@ -2968,39 +2977,39 @@
       <c r="D6" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="49">
         <v>143.8</v>
       </c>
-      <c r="F6" s="51">
+      <c r="F6" s="49">
         <v>137.88</v>
       </c>
-      <c r="G6" s="51">
+      <c r="G6" s="49">
         <v>158.48</v>
       </c>
-      <c r="H6" s="50">
+      <c r="H6" s="48">
         <f t="shared" si="0"/>
         <v>592.000000000002</v>
       </c>
-      <c r="I6" s="50">
+      <c r="I6" s="48">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J6" s="66">
+      <c r="J6" s="64">
         <f t="shared" si="1"/>
         <v>2.47972972972972</v>
       </c>
-      <c r="K6" s="67">
+      <c r="K6" s="65">
         <f t="shared" si="2"/>
         <v>0.0411682892906816</v>
       </c>
-      <c r="L6" s="68">
+      <c r="L6" s="66">
         <f t="shared" si="3"/>
         <v>0.102086230876217</v>
       </c>
       <c r="M6" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="78"/>
+      <c r="N6" s="76"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="45" spans="1:14">
       <c r="A7" s="15" t="s">
@@ -3015,39 +3024,39 @@
       <c r="D7" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="49">
         <v>20.44</v>
       </c>
-      <c r="F7" s="51">
+      <c r="F7" s="49">
         <v>19.09</v>
       </c>
-      <c r="G7" s="51">
+      <c r="G7" s="49">
         <v>23.43</v>
       </c>
-      <c r="H7" s="50">
+      <c r="H7" s="48">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
-      <c r="I7" s="50">
+      <c r="I7" s="48">
         <f t="shared" si="4"/>
         <v>700</v>
       </c>
-      <c r="J7" s="66">
+      <c r="J7" s="64">
         <f t="shared" si="1"/>
         <v>2.21481481481481</v>
       </c>
-      <c r="K7" s="67">
+      <c r="K7" s="65">
         <f t="shared" si="2"/>
         <v>0.0660469667318983</v>
       </c>
-      <c r="L7" s="68">
+      <c r="L7" s="66">
         <f t="shared" si="3"/>
         <v>0.146281800391389</v>
       </c>
-      <c r="M7" s="77" t="s">
+      <c r="M7" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="78"/>
+      <c r="N7" s="76"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A8" s="15" t="s">
@@ -3062,39 +3071,39 @@
       <c r="D8" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="47">
         <v>17.19</v>
       </c>
-      <c r="F8" s="49">
+      <c r="F8" s="47">
         <v>15.5</v>
       </c>
-      <c r="G8" s="49">
+      <c r="G8" s="47">
         <v>20.72</v>
       </c>
-      <c r="H8" s="50">
+      <c r="H8" s="48">
         <f t="shared" si="0"/>
         <v>169</v>
       </c>
-      <c r="I8" s="50">
+      <c r="I8" s="48">
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="J8" s="66">
+      <c r="J8" s="64">
         <f t="shared" si="1"/>
         <v>2.0887573964497</v>
       </c>
-      <c r="K8" s="67">
+      <c r="K8" s="65">
         <f t="shared" si="2"/>
         <v>0.0983129726585225</v>
       </c>
-      <c r="L8" s="68">
+      <c r="L8" s="66">
         <f t="shared" si="3"/>
         <v>0.205351948807446</v>
       </c>
       <c r="M8" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="78"/>
+      <c r="N8" s="76"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="15" spans="1:13">
       <c r="A9" s="15" t="s">
@@ -3109,32 +3118,32 @@
       <c r="D9" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="47">
         <v>64.3</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="47">
         <v>58.51</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="47">
         <v>65.72</v>
       </c>
-      <c r="H9" s="50">
+      <c r="H9" s="48">
         <f t="shared" si="0"/>
         <v>579</v>
       </c>
-      <c r="I9" s="50">
+      <c r="I9" s="48">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J9" s="66">
+      <c r="J9" s="64">
         <f t="shared" si="1"/>
         <v>0.24525043177893</v>
       </c>
-      <c r="K9" s="67">
+      <c r="K9" s="65">
         <f t="shared" si="2"/>
         <v>0.0900466562986003</v>
       </c>
-      <c r="L9" s="68">
+      <c r="L9" s="66">
         <f t="shared" si="3"/>
         <v>0.0220839813374806</v>
       </c>
@@ -3155,32 +3164,32 @@
       <c r="D10" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="47">
         <v>39.15</v>
       </c>
-      <c r="F10" s="49">
+      <c r="F10" s="47">
         <v>35.91</v>
       </c>
-      <c r="G10" s="49">
+      <c r="G10" s="47">
         <v>44.28</v>
       </c>
-      <c r="H10" s="50">
+      <c r="H10" s="48">
         <f t="shared" si="0"/>
         <v>324</v>
       </c>
-      <c r="I10" s="50">
+      <c r="I10" s="48">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J10" s="66">
+      <c r="J10" s="64">
         <f t="shared" si="1"/>
         <v>1.58333333333333</v>
       </c>
-      <c r="K10" s="67">
+      <c r="K10" s="65">
         <f t="shared" si="2"/>
         <v>0.0827586206896552</v>
       </c>
-      <c r="L10" s="68">
+      <c r="L10" s="66">
         <f t="shared" si="3"/>
         <v>0.131034482758621</v>
       </c>
@@ -3195,45 +3204,45 @@
       <c r="B11" s="19">
         <v>44539</v>
       </c>
-      <c r="C11" s="85" t="s">
+      <c r="C11" s="84" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="47">
         <v>117.8</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F11" s="47">
         <v>111.17</v>
       </c>
-      <c r="G11" s="49">
+      <c r="G11" s="47">
         <v>131.73</v>
       </c>
-      <c r="H11" s="50">
+      <c r="H11" s="48">
         <f t="shared" si="0"/>
         <v>663</v>
       </c>
-      <c r="I11" s="50">
+      <c r="I11" s="48">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J11" s="66">
+      <c r="J11" s="64">
         <f t="shared" si="1"/>
         <v>2.10105580693816</v>
       </c>
-      <c r="K11" s="67">
+      <c r="K11" s="65">
         <f t="shared" si="2"/>
         <v>0.0562818336162988</v>
       </c>
-      <c r="L11" s="68">
+      <c r="L11" s="66">
         <f t="shared" si="3"/>
         <v>0.118251273344652</v>
       </c>
       <c r="M11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="78"/>
+      <c r="N11" s="76"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="29" spans="1:13">
       <c r="A12" s="15" t="s">
@@ -3248,34 +3257,34 @@
       <c r="D12" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="47">
         <v>49.4</v>
       </c>
-      <c r="F12" s="49">
+      <c r="F12" s="47">
         <v>46.7</v>
       </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="50">
+      <c r="H12" s="48">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="I12" s="50">
+      <c r="I12" s="48">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J12" s="66" t="s">
+      <c r="J12" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="K12" s="67">
+      <c r="K12" s="65">
         <f t="shared" si="2"/>
         <v>0.054655870445344</v>
       </c>
-      <c r="L12" s="68" t="s">
+      <c r="L12" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="M12" s="77" t="s">
+      <c r="M12" s="75" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3292,32 +3301,32 @@
       <c r="D13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="49">
+      <c r="E13" s="47">
         <v>37.73</v>
       </c>
-      <c r="F13" s="49">
+      <c r="F13" s="47">
         <v>34.68</v>
       </c>
-      <c r="G13" s="49">
+      <c r="G13" s="47">
         <v>46.05</v>
       </c>
-      <c r="H13" s="50">
+      <c r="H13" s="48">
         <f t="shared" si="0"/>
         <v>305</v>
       </c>
-      <c r="I13" s="50">
+      <c r="I13" s="48">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J13" s="66">
+      <c r="J13" s="64">
         <f>(G13-E13)/(E13-F13)</f>
         <v>2.72786885245902</v>
       </c>
-      <c r="K13" s="67">
+      <c r="K13" s="65">
         <f t="shared" si="2"/>
         <v>0.0808375298171216</v>
       </c>
-      <c r="L13" s="68">
+      <c r="L13" s="66">
         <f t="shared" ref="L13:L32" si="5">(G13-E13)/E13</f>
         <v>0.220514179697853</v>
       </c>
@@ -3332,42 +3341,42 @@
       <c r="B14" s="27">
         <v>44525</v>
       </c>
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="85" t="s">
         <v>46</v>
       </c>
       <c r="D14" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="52">
+      <c r="E14" s="50">
         <v>70.98</v>
       </c>
-      <c r="F14" s="52">
+      <c r="F14" s="50">
         <v>66.88</v>
       </c>
-      <c r="G14" s="52">
+      <c r="G14" s="50">
         <v>84.94</v>
       </c>
-      <c r="H14" s="53">
+      <c r="H14" s="51">
         <f t="shared" si="0"/>
         <v>410.000000000001</v>
       </c>
-      <c r="I14" s="50">
+      <c r="I14" s="48">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="J14" s="66">
+      <c r="J14" s="64">
         <f t="shared" ref="J14:J32" si="6">(G14-E14)/(E14-F14)</f>
         <v>3.40487804878048</v>
       </c>
-      <c r="K14" s="67">
+      <c r="K14" s="65">
         <f t="shared" ref="K14:K32" si="7">(E14-F14)/E14</f>
         <v>0.0577627500704425</v>
       </c>
-      <c r="L14" s="69">
+      <c r="L14" s="67">
         <f t="shared" si="5"/>
         <v>0.196675119752043</v>
       </c>
-      <c r="M14" s="79" t="s">
+      <c r="M14" s="77" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3384,36 +3393,36 @@
       <c r="D15" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="52">
+      <c r="E15" s="50">
         <v>29.77</v>
       </c>
-      <c r="F15" s="52">
+      <c r="F15" s="50">
         <v>27.72</v>
       </c>
-      <c r="G15" s="52">
+      <c r="G15" s="50">
         <v>34.93</v>
       </c>
-      <c r="H15" s="53">
+      <c r="H15" s="51">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
-      <c r="I15" s="50">
+      <c r="I15" s="48">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="J15" s="66">
+      <c r="J15" s="64">
         <f t="shared" si="6"/>
         <v>2.51707317073171</v>
       </c>
-      <c r="K15" s="70">
+      <c r="K15" s="68">
         <f t="shared" si="7"/>
         <v>0.0688612697346322</v>
       </c>
-      <c r="L15" s="69">
+      <c r="L15" s="67">
         <f t="shared" si="5"/>
         <v>0.173328854551562</v>
       </c>
-      <c r="M15" s="79" t="s">
+      <c r="M15" s="77" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3430,36 +3439,36 @@
       <c r="D16" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="52">
+      <c r="E16" s="50">
         <v>30.66</v>
       </c>
-      <c r="F16" s="52">
+      <c r="F16" s="50">
         <v>29.35</v>
       </c>
-      <c r="G16" s="52">
+      <c r="G16" s="50">
         <v>38.71</v>
       </c>
-      <c r="H16" s="53">
+      <c r="H16" s="51">
         <f t="shared" si="0"/>
         <v>131</v>
       </c>
-      <c r="I16" s="50">
+      <c r="I16" s="48">
         <f t="shared" si="4"/>
         <v>700</v>
       </c>
-      <c r="J16" s="66">
+      <c r="J16" s="64">
         <f t="shared" si="6"/>
         <v>6.14503816793894</v>
       </c>
-      <c r="K16" s="70">
+      <c r="K16" s="68">
         <f t="shared" si="7"/>
         <v>0.042726679712981</v>
       </c>
-      <c r="L16" s="69">
+      <c r="L16" s="67">
         <f t="shared" si="5"/>
         <v>0.262557077625571</v>
       </c>
-      <c r="M16" s="79" t="s">
+      <c r="M16" s="77" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3476,36 +3485,36 @@
       <c r="D17" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="52">
+      <c r="E17" s="50">
         <v>26.2</v>
       </c>
-      <c r="F17" s="52">
+      <c r="F17" s="50">
         <v>24.68</v>
       </c>
-      <c r="G17" s="52">
+      <c r="G17" s="50">
         <v>32.49</v>
       </c>
-      <c r="H17" s="53">
+      <c r="H17" s="51">
         <f t="shared" si="0"/>
         <v>152</v>
       </c>
-      <c r="I17" s="50">
+      <c r="I17" s="48">
         <f t="shared" si="4"/>
         <v>600</v>
       </c>
-      <c r="J17" s="66">
+      <c r="J17" s="64">
         <f t="shared" si="6"/>
         <v>4.13815789473685</v>
       </c>
-      <c r="K17" s="70">
+      <c r="K17" s="68">
         <f t="shared" si="7"/>
         <v>0.0580152671755725</v>
       </c>
-      <c r="L17" s="69">
+      <c r="L17" s="67">
         <f t="shared" si="5"/>
         <v>0.240076335877863</v>
       </c>
-      <c r="M17" s="79" t="s">
+      <c r="M17" s="77" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3516,42 +3525,42 @@
       <c r="B18" s="27">
         <v>44533</v>
       </c>
-      <c r="C18" s="86" t="s">
+      <c r="C18" s="85" t="s">
         <v>56</v>
       </c>
       <c r="D18" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="52">
+      <c r="E18" s="50">
         <v>28.82</v>
       </c>
-      <c r="F18" s="52">
+      <c r="F18" s="50">
         <v>26.31</v>
       </c>
-      <c r="G18" s="52">
+      <c r="G18" s="50">
         <v>32.36</v>
       </c>
-      <c r="H18" s="53">
+      <c r="H18" s="51">
         <f t="shared" si="0"/>
         <v>251</v>
       </c>
-      <c r="I18" s="50">
+      <c r="I18" s="48">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J18" s="66">
+      <c r="J18" s="64">
         <f t="shared" si="6"/>
         <v>1.41035856573705</v>
       </c>
-      <c r="K18" s="70">
+      <c r="K18" s="68">
         <f t="shared" si="7"/>
         <v>0.0870922970159612</v>
       </c>
-      <c r="L18" s="69">
+      <c r="L18" s="67">
         <f t="shared" si="5"/>
         <v>0.122831367106176</v>
       </c>
-      <c r="M18" s="79" t="s">
+      <c r="M18" s="77" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3568,36 +3577,36 @@
       <c r="D19" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="54">
+      <c r="E19" s="52">
         <v>38.89</v>
       </c>
-      <c r="F19" s="54">
+      <c r="F19" s="52">
         <v>36.65</v>
       </c>
-      <c r="G19" s="54">
+      <c r="G19" s="52">
         <v>40.7</v>
       </c>
-      <c r="H19" s="53">
+      <c r="H19" s="51">
         <f t="shared" si="0"/>
         <v>224</v>
       </c>
-      <c r="I19" s="50">
+      <c r="I19" s="48">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="J19" s="66">
+      <c r="J19" s="64">
         <f t="shared" si="6"/>
         <v>0.808035714285715</v>
       </c>
-      <c r="K19" s="70">
+      <c r="K19" s="68">
         <f t="shared" si="7"/>
         <v>0.0575983543327334</v>
       </c>
-      <c r="L19" s="69">
+      <c r="L19" s="67">
         <f t="shared" si="5"/>
         <v>0.0465415273849319</v>
       </c>
-      <c r="M19" s="79" t="s">
+      <c r="M19" s="77" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3614,36 +3623,36 @@
       <c r="D20" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="54">
+      <c r="E20" s="52">
         <v>27.73</v>
       </c>
-      <c r="F20" s="54">
+      <c r="F20" s="52">
         <v>25.3</v>
       </c>
-      <c r="G20" s="54">
+      <c r="G20" s="52">
         <v>31.94</v>
       </c>
-      <c r="H20" s="53">
+      <c r="H20" s="51">
         <f t="shared" si="0"/>
         <v>243</v>
       </c>
-      <c r="I20" s="50">
+      <c r="I20" s="48">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="J20" s="66">
+      <c r="J20" s="64">
         <f t="shared" si="6"/>
         <v>1.73251028806584</v>
       </c>
-      <c r="K20" s="70">
+      <c r="K20" s="68">
         <f t="shared" si="7"/>
         <v>0.0876307248467364</v>
       </c>
-      <c r="L20" s="69">
+      <c r="L20" s="67">
         <f t="shared" si="5"/>
         <v>0.151821132347638</v>
       </c>
-      <c r="M20" s="80" t="s">
+      <c r="M20" s="78" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3660,36 +3669,36 @@
       <c r="D21" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="54">
+      <c r="E21" s="52">
         <v>11.75</v>
       </c>
-      <c r="F21" s="54">
+      <c r="F21" s="52">
         <v>10.9</v>
       </c>
-      <c r="G21" s="54">
+      <c r="G21" s="52">
         <v>14.54</v>
       </c>
-      <c r="H21" s="53">
+      <c r="H21" s="51">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="I21" s="50">
+      <c r="I21" s="48">
         <f t="shared" si="4"/>
         <v>1100</v>
       </c>
-      <c r="J21" s="66">
+      <c r="J21" s="64">
         <f t="shared" si="6"/>
         <v>3.28235294117647</v>
       </c>
-      <c r="K21" s="70">
+      <c r="K21" s="68">
         <f t="shared" si="7"/>
         <v>0.0723404255319149</v>
       </c>
-      <c r="L21" s="69">
+      <c r="L21" s="67">
         <f t="shared" si="5"/>
         <v>0.237446808510638</v>
       </c>
-      <c r="M21" s="80" t="s">
+      <c r="M21" s="78" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3700,42 +3709,42 @@
       <c r="B22" s="30">
         <v>44546</v>
       </c>
-      <c r="C22" s="87" t="s">
+      <c r="C22" s="86" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="54">
+      <c r="E22" s="52">
         <v>74.46</v>
       </c>
-      <c r="F22" s="54">
+      <c r="F22" s="52">
         <v>70.4</v>
       </c>
-      <c r="G22" s="54">
+      <c r="G22" s="52">
         <v>83.27</v>
       </c>
-      <c r="H22" s="53">
+      <c r="H22" s="51">
         <f t="shared" si="0"/>
         <v>405.999999999999</v>
       </c>
-      <c r="I22" s="50">
+      <c r="I22" s="48">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="J22" s="66">
+      <c r="J22" s="64">
         <f t="shared" si="6"/>
         <v>2.16995073891626</v>
       </c>
-      <c r="K22" s="70">
+      <c r="K22" s="68">
         <f t="shared" si="7"/>
         <v>0.0545259199570238</v>
       </c>
-      <c r="L22" s="69">
+      <c r="L22" s="67">
         <f t="shared" si="5"/>
         <v>0.118318560300833</v>
       </c>
-      <c r="M22" s="80" t="s">
+      <c r="M22" s="78" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3746,42 +3755,42 @@
       <c r="B23" s="35">
         <v>44546</v>
       </c>
-      <c r="C23" s="85" t="s">
+      <c r="C23" s="84" t="s">
         <v>69</v>
       </c>
       <c r="D23" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="55">
+      <c r="E23" s="53">
         <v>278</v>
       </c>
-      <c r="F23" s="55">
+      <c r="F23" s="53">
         <v>260.02</v>
       </c>
-      <c r="G23" s="55">
+      <c r="G23" s="53">
         <v>304.23</v>
       </c>
-      <c r="H23" s="50">
+      <c r="H23" s="48">
         <f t="shared" si="0"/>
         <v>1798</v>
       </c>
-      <c r="I23" s="50">
+      <c r="I23" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J23" s="66">
+      <c r="J23" s="64">
         <f t="shared" si="6"/>
         <v>1.45884315906563</v>
       </c>
-      <c r="K23" s="67">
+      <c r="K23" s="65">
         <f t="shared" si="7"/>
         <v>0.0646762589928058</v>
       </c>
-      <c r="L23" s="68">
+      <c r="L23" s="66">
         <f t="shared" si="5"/>
         <v>0.0943525179856116</v>
       </c>
-      <c r="M23" s="81" t="s">
+      <c r="M23" s="79" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3798,36 +3807,36 @@
       <c r="D24" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="54">
+      <c r="E24" s="52">
         <v>64.68</v>
       </c>
-      <c r="F24" s="54">
+      <c r="F24" s="52">
         <v>59.29</v>
       </c>
-      <c r="G24" s="54">
+      <c r="G24" s="52">
         <v>67.16</v>
       </c>
-      <c r="H24" s="50">
+      <c r="H24" s="48">
         <f t="shared" si="0"/>
         <v>539.000000000001</v>
       </c>
-      <c r="I24" s="50">
+      <c r="I24" s="48">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J24" s="66">
+      <c r="J24" s="64">
         <f t="shared" si="6"/>
         <v>0.460111317254172</v>
       </c>
-      <c r="K24" s="67">
+      <c r="K24" s="65">
         <f t="shared" si="7"/>
         <v>0.0833333333333334</v>
       </c>
-      <c r="L24" s="68">
+      <c r="L24" s="66">
         <f t="shared" si="5"/>
         <v>0.038342609771181</v>
       </c>
-      <c r="M24" s="80" t="s">
+      <c r="M24" s="78" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3838,42 +3847,42 @@
       <c r="B25" s="30">
         <v>44547</v>
       </c>
-      <c r="C25" s="85" t="s">
+      <c r="C25" s="84" t="s">
         <v>75</v>
       </c>
       <c r="D25" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="54">
+      <c r="E25" s="52">
         <v>39.39</v>
       </c>
-      <c r="F25" s="54">
+      <c r="F25" s="52">
         <v>36.13</v>
       </c>
-      <c r="G25" s="54">
+      <c r="G25" s="52">
         <v>46.32</v>
       </c>
-      <c r="H25" s="50">
+      <c r="H25" s="48">
         <f t="shared" si="0"/>
         <v>326</v>
       </c>
-      <c r="I25" s="50">
+      <c r="I25" s="48">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J25" s="66">
+      <c r="J25" s="64">
         <f t="shared" si="6"/>
         <v>2.12576687116565</v>
       </c>
-      <c r="K25" s="67">
+      <c r="K25" s="65">
         <f t="shared" si="7"/>
         <v>0.0827621223660827</v>
       </c>
-      <c r="L25" s="68">
+      <c r="L25" s="66">
         <f t="shared" si="5"/>
         <v>0.175932977913176</v>
       </c>
-      <c r="M25" s="80" t="s">
+      <c r="M25" s="78" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3884,42 +3893,42 @@
       <c r="B26" s="30">
         <v>44549</v>
       </c>
-      <c r="C26" s="85" t="s">
+      <c r="C26" s="84" t="s">
         <v>38</v>
       </c>
       <c r="D26" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="54">
+      <c r="E26" s="52">
         <v>118.25</v>
       </c>
-      <c r="F26" s="54">
+      <c r="F26" s="52">
         <v>110.08</v>
       </c>
-      <c r="G26" s="54">
+      <c r="G26" s="52">
         <v>131.77</v>
       </c>
-      <c r="H26" s="50">
+      <c r="H26" s="48">
         <f t="shared" si="0"/>
         <v>817</v>
       </c>
-      <c r="I26" s="50">
+      <c r="I26" s="48">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J26" s="66">
+      <c r="J26" s="64">
         <f t="shared" si="6"/>
         <v>1.65483476132191</v>
       </c>
-      <c r="K26" s="67">
+      <c r="K26" s="65">
         <f t="shared" si="7"/>
         <v>0.0690909090909091</v>
       </c>
-      <c r="L26" s="68">
+      <c r="L26" s="66">
         <f t="shared" si="5"/>
         <v>0.114334038054968</v>
       </c>
-      <c r="M26" s="80" t="s">
+      <c r="M26" s="78" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3936,36 +3945,36 @@
       <c r="D27" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="E27" s="56">
+      <c r="E27" s="54">
         <v>215</v>
       </c>
-      <c r="F27" s="56">
+      <c r="F27" s="54">
         <v>198</v>
       </c>
-      <c r="G27" s="56">
+      <c r="G27" s="54">
         <v>236.01</v>
       </c>
-      <c r="H27" s="50">
+      <c r="H27" s="48">
         <f t="shared" si="0"/>
         <v>1700</v>
       </c>
-      <c r="I27" s="50">
+      <c r="I27" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J27" s="66">
+      <c r="J27" s="64">
         <f t="shared" si="6"/>
         <v>1.23588235294118</v>
       </c>
-      <c r="K27" s="67">
+      <c r="K27" s="65">
         <f t="shared" si="7"/>
         <v>0.0790697674418605</v>
       </c>
-      <c r="L27" s="68">
+      <c r="L27" s="66">
         <f t="shared" si="5"/>
         <v>0.0977209302325581</v>
       </c>
-      <c r="M27" s="81" t="s">
+      <c r="M27" s="79" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3982,36 +3991,36 @@
       <c r="D28" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="E28" s="56">
+      <c r="E28" s="54">
         <v>55.99</v>
       </c>
-      <c r="F28" s="56">
-        <v>52.35</v>
-      </c>
-      <c r="G28" s="56">
+      <c r="F28" s="54">
+        <v>52</v>
+      </c>
+      <c r="G28" s="54">
         <v>58.12</v>
       </c>
-      <c r="H28" s="50">
+      <c r="H28" s="48">
         <f t="shared" si="0"/>
-        <v>364</v>
-      </c>
-      <c r="I28" s="50">
+        <v>399</v>
+      </c>
+      <c r="I28" s="48">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="J28" s="66">
+      <c r="J28" s="64">
         <f t="shared" si="6"/>
-        <v>0.585164835164834</v>
-      </c>
-      <c r="K28" s="67">
+        <v>0.533834586466164</v>
+      </c>
+      <c r="K28" s="65">
         <f t="shared" si="7"/>
-        <v>0.0650116092159314</v>
-      </c>
-      <c r="L28" s="68">
+        <v>0.0712627254866941</v>
+      </c>
+      <c r="L28" s="66">
         <f t="shared" si="5"/>
         <v>0.0380425075906411</v>
       </c>
-      <c r="M28" s="82" t="s">
+      <c r="M28" s="80" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4028,36 +4037,36 @@
       <c r="D29" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E29" s="56">
+      <c r="E29" s="54">
         <v>183.8</v>
       </c>
-      <c r="F29" s="56">
+      <c r="F29" s="54">
         <v>170.6</v>
       </c>
-      <c r="G29" s="56">
+      <c r="G29" s="54">
         <v>203.32</v>
       </c>
-      <c r="H29" s="50">
+      <c r="H29" s="48">
         <f t="shared" si="0"/>
         <v>1320</v>
       </c>
-      <c r="I29" s="50">
+      <c r="I29" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J29" s="66">
+      <c r="J29" s="64">
         <f t="shared" si="6"/>
         <v>1.47878787878788</v>
       </c>
-      <c r="K29" s="67">
+      <c r="K29" s="65">
         <f t="shared" si="7"/>
         <v>0.071817192600653</v>
       </c>
-      <c r="L29" s="68">
+      <c r="L29" s="66">
         <f t="shared" si="5"/>
         <v>0.10620239390642</v>
       </c>
-      <c r="M29" s="81" t="s">
+      <c r="M29" s="79" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4068,42 +4077,42 @@
       <c r="B30" s="30">
         <v>44549</v>
       </c>
-      <c r="C30" s="88" t="s">
+      <c r="C30" s="87" t="s">
         <v>85</v>
       </c>
       <c r="D30" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="E30" s="56">
+      <c r="E30" s="54">
         <v>27.68</v>
       </c>
-      <c r="F30" s="56">
+      <c r="F30" s="54">
         <v>26</v>
       </c>
-      <c r="G30" s="56">
+      <c r="G30" s="54">
         <v>29.06</v>
       </c>
-      <c r="H30" s="50">
+      <c r="H30" s="48">
         <f t="shared" si="0"/>
         <v>168</v>
       </c>
-      <c r="I30" s="50">
+      <c r="I30" s="48">
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="J30" s="66">
+      <c r="J30" s="64">
         <f t="shared" si="6"/>
         <v>0.821428571428571</v>
       </c>
-      <c r="K30" s="67">
+      <c r="K30" s="65">
         <f t="shared" si="7"/>
         <v>0.0606936416184971</v>
       </c>
-      <c r="L30" s="68">
+      <c r="L30" s="66">
         <f t="shared" si="5"/>
         <v>0.0498554913294797</v>
       </c>
-      <c r="M30" s="82" t="s">
+      <c r="M30" s="80" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4120,36 +4129,36 @@
       <c r="D31" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="56">
+      <c r="E31" s="54">
         <v>39.16</v>
       </c>
-      <c r="F31" s="56">
+      <c r="F31" s="54">
         <v>35.6</v>
       </c>
-      <c r="G31" s="56">
+      <c r="G31" s="54">
         <v>44.92</v>
       </c>
-      <c r="H31" s="50">
+      <c r="H31" s="48">
         <f t="shared" si="0"/>
         <v>356</v>
       </c>
-      <c r="I31" s="50">
+      <c r="I31" s="48">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="J31" s="66">
+      <c r="J31" s="64">
         <f t="shared" si="6"/>
         <v>1.61797752808989</v>
       </c>
-      <c r="K31" s="67">
+      <c r="K31" s="65">
         <f t="shared" si="7"/>
         <v>0.0909090909090908</v>
       </c>
-      <c r="L31" s="68">
+      <c r="L31" s="66">
         <f t="shared" si="5"/>
         <v>0.14708886618999</v>
       </c>
-      <c r="M31" s="82" t="s">
+      <c r="M31" s="80" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4166,36 +4175,36 @@
       <c r="D32" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="E32" s="57">
+      <c r="E32" s="55">
         <v>108.5</v>
       </c>
-      <c r="F32" s="57">
+      <c r="F32" s="55">
         <v>98</v>
       </c>
-      <c r="G32" s="57">
+      <c r="G32" s="55">
         <v>120.78</v>
       </c>
-      <c r="H32" s="50">
+      <c r="H32" s="48">
         <f t="shared" si="0"/>
         <v>1050</v>
       </c>
-      <c r="I32" s="50">
+      <c r="I32" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J32" s="66">
+      <c r="J32" s="64">
         <f t="shared" si="6"/>
         <v>1.16952380952381</v>
       </c>
-      <c r="K32" s="67">
+      <c r="K32" s="65">
         <f t="shared" si="7"/>
         <v>0.0967741935483871</v>
       </c>
-      <c r="L32" s="68">
+      <c r="L32" s="66">
         <f t="shared" si="5"/>
         <v>0.113179723502304</v>
       </c>
-      <c r="M32" s="83" t="s">
+      <c r="M32" s="81" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4206,5201 +4215,5228 @@
       <c r="B33" s="43">
         <v>44553</v>
       </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="72"/>
-      <c r="M33" s="46"/>
+      <c r="C33" s="39">
+        <v>600587</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="56">
+        <v>29.56</v>
+      </c>
+      <c r="F33" s="56">
+        <v>27.05</v>
+      </c>
+      <c r="G33" s="56">
+        <v>34.13</v>
+      </c>
+      <c r="H33" s="48">
+        <f>(E33-F33)*100</f>
+        <v>251</v>
+      </c>
+      <c r="I33" s="48">
+        <f>FLOOR(1000/(E33-F33),100)</f>
+        <v>300</v>
+      </c>
+      <c r="J33" s="64">
+        <f>(G33-E33)/(E33-F33)</f>
+        <v>1.82071713147411</v>
+      </c>
+      <c r="K33" s="65">
+        <f>(E33-F33)/E33</f>
+        <v>0.0849120433017591</v>
+      </c>
+      <c r="L33" s="66">
+        <f>(G33-E33)/E33</f>
+        <v>0.154600811907984</v>
+      </c>
+      <c r="M33" s="82" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="46"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="46"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="70"/>
+      <c r="M34" s="44"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="46"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="46"/>
-      <c r="K35" s="71"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="46"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="70"/>
+      <c r="M35" s="44"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="46"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="71"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="46"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="69"/>
+      <c r="L36" s="70"/>
+      <c r="M36" s="44"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="46"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="46"/>
-      <c r="J37" s="46"/>
-      <c r="K37" s="71"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="46"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="70"/>
+      <c r="M37" s="44"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="46"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="46"/>
-      <c r="J38" s="46"/>
-      <c r="K38" s="71"/>
-      <c r="L38" s="72"/>
-      <c r="M38" s="46"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="69"/>
+      <c r="L38" s="70"/>
+      <c r="M38" s="44"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="46"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="71"/>
-      <c r="L39" s="72"/>
-      <c r="M39" s="46"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="69"/>
+      <c r="L39" s="70"/>
+      <c r="M39" s="44"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="46"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="58"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="71"/>
-      <c r="L40" s="72"/>
-      <c r="M40" s="46"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="69"/>
+      <c r="L40" s="70"/>
+      <c r="M40" s="44"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="46"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="46"/>
-      <c r="K41" s="71"/>
-      <c r="L41" s="72"/>
-      <c r="M41" s="46"/>
+      <c r="A41" s="44"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="69"/>
+      <c r="L41" s="70"/>
+      <c r="M41" s="44"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="46"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="71"/>
-      <c r="L42" s="72"/>
-      <c r="M42" s="46"/>
+      <c r="A42" s="44"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="69"/>
+      <c r="L42" s="70"/>
+      <c r="M42" s="44"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="46"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="46"/>
-      <c r="J43" s="46"/>
-      <c r="K43" s="71"/>
-      <c r="L43" s="72"/>
-      <c r="M43" s="46"/>
+      <c r="A43" s="44"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="69"/>
+      <c r="L43" s="70"/>
+      <c r="M43" s="44"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="46"/>
-      <c r="B44" s="46"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="58"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="46"/>
-      <c r="I44" s="46"/>
-      <c r="J44" s="46"/>
-      <c r="K44" s="71"/>
-      <c r="L44" s="72"/>
-      <c r="M44" s="46"/>
+      <c r="A44" s="44"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="69"/>
+      <c r="L44" s="70"/>
+      <c r="M44" s="44"/>
     </row>
     <row r="45" ht="13" spans="1:13">
-      <c r="A45" s="89" t="s">
-        <v>91</v>
-      </c>
-      <c r="B45" s="46"/>
+      <c r="A45" s="88" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="44"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
-      <c r="K45" s="73"/>
-      <c r="M45" s="46"/>
+      <c r="K45" s="71"/>
+      <c r="M45" s="44"/>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="D46" s="6"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="59"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="57"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
-      <c r="K46" s="73"/>
+      <c r="K46" s="71"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="D47" s="6"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="57"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
-      <c r="K47" s="73"/>
+      <c r="K47" s="71"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="D48" s="6"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="59"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="57"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
-      <c r="K48" s="73"/>
+      <c r="K48" s="71"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="D49" s="6"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="57"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
-      <c r="K49" s="73"/>
+      <c r="K49" s="71"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="59"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="57"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
-      <c r="K50" s="73"/>
+      <c r="K50" s="71"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="D51" s="6"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="57"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
-      <c r="K51" s="73"/>
+      <c r="K51" s="71"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="59"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="57"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
-      <c r="K52" s="73"/>
+      <c r="K52" s="71"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="59"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="59"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="57"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
-      <c r="K53" s="73"/>
+      <c r="K53" s="71"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="59"/>
-      <c r="F54" s="59"/>
-      <c r="G54" s="59"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="57"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
-      <c r="K54" s="73"/>
+      <c r="K54" s="71"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="59"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="59"/>
+      <c r="E55" s="57"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="57"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
-      <c r="K55" s="73"/>
+      <c r="K55" s="71"/>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="D56" s="6"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="59"/>
+      <c r="E56" s="57"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="57"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
-      <c r="K56" s="73"/>
+      <c r="K56" s="71"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="D57" s="6"/>
-      <c r="E57" s="59"/>
-      <c r="F57" s="59"/>
-      <c r="G57" s="59"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="57"/>
+      <c r="G57" s="57"/>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
-      <c r="K57" s="73"/>
+      <c r="K57" s="71"/>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="D58" s="6"/>
-      <c r="E58" s="59"/>
-      <c r="F58" s="59"/>
-      <c r="G58" s="59"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="57"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
-      <c r="K58" s="73"/>
+      <c r="K58" s="71"/>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="59"/>
-      <c r="F59" s="59"/>
-      <c r="G59" s="59"/>
+      <c r="E59" s="57"/>
+      <c r="F59" s="57"/>
+      <c r="G59" s="57"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
-      <c r="K59" s="73"/>
+      <c r="K59" s="71"/>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="D60" s="6"/>
-      <c r="E60" s="59"/>
-      <c r="F60" s="59"/>
-      <c r="G60" s="59"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="57"/>
+      <c r="G60" s="57"/>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
-      <c r="K60" s="73"/>
+      <c r="K60" s="71"/>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="59"/>
-      <c r="F61" s="59"/>
-      <c r="G61" s="59"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="57"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
-      <c r="K61" s="73"/>
+      <c r="K61" s="71"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="59"/>
-      <c r="F62" s="59"/>
-      <c r="G62" s="59"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="57"/>
+      <c r="G62" s="57"/>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
-      <c r="K62" s="73"/>
+      <c r="K62" s="71"/>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="D63" s="6"/>
-      <c r="E63" s="59"/>
-      <c r="F63" s="59"/>
-      <c r="G63" s="59"/>
+      <c r="E63" s="57"/>
+      <c r="F63" s="57"/>
+      <c r="G63" s="57"/>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
-      <c r="K63" s="73"/>
+      <c r="K63" s="71"/>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="D64" s="6"/>
-      <c r="E64" s="59"/>
-      <c r="F64" s="59"/>
-      <c r="G64" s="59"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="57"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
-      <c r="K64" s="73"/>
+      <c r="K64" s="71"/>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="D65" s="6"/>
-      <c r="E65" s="59"/>
-      <c r="F65" s="59"/>
-      <c r="G65" s="59"/>
+      <c r="E65" s="57"/>
+      <c r="F65" s="57"/>
+      <c r="G65" s="57"/>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
-      <c r="K65" s="73"/>
+      <c r="K65" s="71"/>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="D66" s="6"/>
-      <c r="E66" s="59"/>
-      <c r="F66" s="59"/>
-      <c r="G66" s="59"/>
+      <c r="E66" s="57"/>
+      <c r="F66" s="57"/>
+      <c r="G66" s="57"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
-      <c r="K66" s="73"/>
+      <c r="K66" s="71"/>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="D67" s="6"/>
-      <c r="E67" s="59"/>
-      <c r="F67" s="59"/>
-      <c r="G67" s="59"/>
+      <c r="E67" s="57"/>
+      <c r="F67" s="57"/>
+      <c r="G67" s="57"/>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
-      <c r="K67" s="73"/>
+      <c r="K67" s="71"/>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="D68" s="6"/>
-      <c r="E68" s="59"/>
-      <c r="F68" s="59"/>
-      <c r="G68" s="59"/>
+      <c r="E68" s="57"/>
+      <c r="F68" s="57"/>
+      <c r="G68" s="57"/>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
-      <c r="K68" s="73"/>
+      <c r="K68" s="71"/>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="D69" s="6"/>
-      <c r="E69" s="59"/>
-      <c r="F69" s="59"/>
-      <c r="G69" s="59"/>
+      <c r="E69" s="57"/>
+      <c r="F69" s="57"/>
+      <c r="G69" s="57"/>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
-      <c r="K69" s="73"/>
+      <c r="K69" s="71"/>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="D70" s="6"/>
-      <c r="E70" s="59"/>
-      <c r="F70" s="59"/>
-      <c r="G70" s="59"/>
+      <c r="E70" s="57"/>
+      <c r="F70" s="57"/>
+      <c r="G70" s="57"/>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
-      <c r="K70" s="73"/>
+      <c r="K70" s="71"/>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="D71" s="6"/>
-      <c r="E71" s="59"/>
-      <c r="F71" s="59"/>
-      <c r="G71" s="59"/>
+      <c r="E71" s="57"/>
+      <c r="F71" s="57"/>
+      <c r="G71" s="57"/>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
-      <c r="K71" s="73"/>
+      <c r="K71" s="71"/>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="D72" s="6"/>
-      <c r="E72" s="59"/>
-      <c r="F72" s="59"/>
-      <c r="G72" s="59"/>
+      <c r="E72" s="57"/>
+      <c r="F72" s="57"/>
+      <c r="G72" s="57"/>
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
-      <c r="K72" s="73"/>
+      <c r="K72" s="71"/>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="D73" s="6"/>
-      <c r="E73" s="59"/>
-      <c r="F73" s="59"/>
-      <c r="G73" s="59"/>
+      <c r="E73" s="57"/>
+      <c r="F73" s="57"/>
+      <c r="G73" s="57"/>
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
-      <c r="K73" s="73"/>
+      <c r="K73" s="71"/>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="D74" s="6"/>
-      <c r="E74" s="59"/>
-      <c r="F74" s="59"/>
-      <c r="G74" s="59"/>
+      <c r="E74" s="57"/>
+      <c r="F74" s="57"/>
+      <c r="G74" s="57"/>
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
-      <c r="K74" s="73"/>
+      <c r="K74" s="71"/>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="D75" s="6"/>
-      <c r="E75" s="59"/>
-      <c r="F75" s="59"/>
-      <c r="G75" s="59"/>
+      <c r="E75" s="57"/>
+      <c r="F75" s="57"/>
+      <c r="G75" s="57"/>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
-      <c r="K75" s="73"/>
+      <c r="K75" s="71"/>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="D76" s="6"/>
-      <c r="E76" s="59"/>
-      <c r="F76" s="59"/>
-      <c r="G76" s="59"/>
+      <c r="E76" s="57"/>
+      <c r="F76" s="57"/>
+      <c r="G76" s="57"/>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
-      <c r="K76" s="73"/>
+      <c r="K76" s="71"/>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="D77" s="6"/>
-      <c r="E77" s="59"/>
-      <c r="F77" s="59"/>
-      <c r="G77" s="59"/>
+      <c r="E77" s="57"/>
+      <c r="F77" s="57"/>
+      <c r="G77" s="57"/>
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
-      <c r="K77" s="73"/>
+      <c r="K77" s="71"/>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="D78" s="6"/>
-      <c r="E78" s="59"/>
-      <c r="F78" s="59"/>
-      <c r="G78" s="59"/>
+      <c r="E78" s="57"/>
+      <c r="F78" s="57"/>
+      <c r="G78" s="57"/>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
-      <c r="K78" s="73"/>
+      <c r="K78" s="71"/>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="D79" s="6"/>
-      <c r="E79" s="59"/>
-      <c r="F79" s="59"/>
-      <c r="G79" s="59"/>
+      <c r="E79" s="57"/>
+      <c r="F79" s="57"/>
+      <c r="G79" s="57"/>
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
-      <c r="K79" s="73"/>
+      <c r="K79" s="71"/>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="D80" s="6"/>
-      <c r="E80" s="59"/>
-      <c r="F80" s="59"/>
-      <c r="G80" s="59"/>
+      <c r="E80" s="57"/>
+      <c r="F80" s="57"/>
+      <c r="G80" s="57"/>
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
-      <c r="K80" s="73"/>
+      <c r="K80" s="71"/>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="D81" s="6"/>
-      <c r="E81" s="59"/>
-      <c r="F81" s="59"/>
-      <c r="G81" s="59"/>
+      <c r="E81" s="57"/>
+      <c r="F81" s="57"/>
+      <c r="G81" s="57"/>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
-      <c r="K81" s="73"/>
+      <c r="K81" s="71"/>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="D82" s="6"/>
-      <c r="E82" s="59"/>
-      <c r="F82" s="59"/>
-      <c r="G82" s="59"/>
+      <c r="E82" s="57"/>
+      <c r="F82" s="57"/>
+      <c r="G82" s="57"/>
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
-      <c r="K82" s="73"/>
+      <c r="K82" s="71"/>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="D83" s="6"/>
-      <c r="E83" s="59"/>
-      <c r="F83" s="59"/>
-      <c r="G83" s="59"/>
+      <c r="E83" s="57"/>
+      <c r="F83" s="57"/>
+      <c r="G83" s="57"/>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
-      <c r="K83" s="73"/>
+      <c r="K83" s="71"/>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="D84" s="6"/>
-      <c r="E84" s="59"/>
-      <c r="F84" s="59"/>
-      <c r="G84" s="59"/>
+      <c r="E84" s="57"/>
+      <c r="F84" s="57"/>
+      <c r="G84" s="57"/>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
       <c r="J84" s="6"/>
-      <c r="K84" s="73"/>
+      <c r="K84" s="71"/>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="D85" s="6"/>
-      <c r="E85" s="59"/>
-      <c r="F85" s="59"/>
-      <c r="G85" s="59"/>
+      <c r="E85" s="57"/>
+      <c r="F85" s="57"/>
+      <c r="G85" s="57"/>
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
-      <c r="K85" s="73"/>
+      <c r="K85" s="71"/>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="D86" s="6"/>
-      <c r="E86" s="59"/>
-      <c r="F86" s="59"/>
-      <c r="G86" s="59"/>
+      <c r="E86" s="57"/>
+      <c r="F86" s="57"/>
+      <c r="G86" s="57"/>
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
-      <c r="K86" s="73"/>
+      <c r="K86" s="71"/>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="D87" s="6"/>
-      <c r="E87" s="59"/>
-      <c r="F87" s="59"/>
-      <c r="G87" s="59"/>
+      <c r="E87" s="57"/>
+      <c r="F87" s="57"/>
+      <c r="G87" s="57"/>
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
-      <c r="K87" s="73"/>
+      <c r="K87" s="71"/>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="D88" s="6"/>
-      <c r="E88" s="59"/>
-      <c r="F88" s="59"/>
-      <c r="G88" s="59"/>
+      <c r="E88" s="57"/>
+      <c r="F88" s="57"/>
+      <c r="G88" s="57"/>
       <c r="H88" s="6"/>
       <c r="I88" s="6"/>
       <c r="J88" s="6"/>
-      <c r="K88" s="73"/>
+      <c r="K88" s="71"/>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="D89" s="6"/>
-      <c r="E89" s="59"/>
-      <c r="F89" s="59"/>
-      <c r="G89" s="59"/>
+      <c r="E89" s="57"/>
+      <c r="F89" s="57"/>
+      <c r="G89" s="57"/>
       <c r="H89" s="6"/>
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
-      <c r="K89" s="73"/>
+      <c r="K89" s="71"/>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="D90" s="6"/>
-      <c r="E90" s="59"/>
-      <c r="F90" s="59"/>
-      <c r="G90" s="59"/>
+      <c r="E90" s="57"/>
+      <c r="F90" s="57"/>
+      <c r="G90" s="57"/>
       <c r="H90" s="6"/>
       <c r="I90" s="6"/>
       <c r="J90" s="6"/>
-      <c r="K90" s="73"/>
+      <c r="K90" s="71"/>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="D91" s="6"/>
-      <c r="E91" s="59"/>
-      <c r="F91" s="59"/>
-      <c r="G91" s="59"/>
+      <c r="E91" s="57"/>
+      <c r="F91" s="57"/>
+      <c r="G91" s="57"/>
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
-      <c r="K91" s="73"/>
+      <c r="K91" s="71"/>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="D92" s="6"/>
-      <c r="E92" s="59"/>
-      <c r="F92" s="59"/>
-      <c r="G92" s="59"/>
+      <c r="E92" s="57"/>
+      <c r="F92" s="57"/>
+      <c r="G92" s="57"/>
       <c r="H92" s="6"/>
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
-      <c r="K92" s="73"/>
+      <c r="K92" s="71"/>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="D93" s="6"/>
-      <c r="E93" s="59"/>
-      <c r="F93" s="59"/>
-      <c r="G93" s="59"/>
+      <c r="E93" s="57"/>
+      <c r="F93" s="57"/>
+      <c r="G93" s="57"/>
       <c r="H93" s="6"/>
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
-      <c r="K93" s="73"/>
+      <c r="K93" s="71"/>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="D94" s="6"/>
-      <c r="E94" s="59"/>
-      <c r="F94" s="59"/>
-      <c r="G94" s="59"/>
+      <c r="E94" s="57"/>
+      <c r="F94" s="57"/>
+      <c r="G94" s="57"/>
       <c r="H94" s="6"/>
       <c r="I94" s="6"/>
       <c r="J94" s="6"/>
-      <c r="K94" s="73"/>
+      <c r="K94" s="71"/>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="D95" s="6"/>
-      <c r="E95" s="59"/>
-      <c r="F95" s="59"/>
-      <c r="G95" s="59"/>
+      <c r="E95" s="57"/>
+      <c r="F95" s="57"/>
+      <c r="G95" s="57"/>
       <c r="H95" s="6"/>
       <c r="I95" s="6"/>
       <c r="J95" s="6"/>
-      <c r="K95" s="73"/>
+      <c r="K95" s="71"/>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="D96" s="6"/>
-      <c r="E96" s="59"/>
-      <c r="F96" s="59"/>
-      <c r="G96" s="59"/>
+      <c r="E96" s="57"/>
+      <c r="F96" s="57"/>
+      <c r="G96" s="57"/>
       <c r="H96" s="6"/>
       <c r="I96" s="6"/>
       <c r="J96" s="6"/>
-      <c r="K96" s="73"/>
+      <c r="K96" s="71"/>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="D97" s="6"/>
-      <c r="E97" s="59"/>
-      <c r="F97" s="59"/>
-      <c r="G97" s="59"/>
+      <c r="E97" s="57"/>
+      <c r="F97" s="57"/>
+      <c r="G97" s="57"/>
       <c r="H97" s="6"/>
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
-      <c r="K97" s="73"/>
+      <c r="K97" s="71"/>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="D98" s="6"/>
-      <c r="E98" s="59"/>
-      <c r="F98" s="59"/>
-      <c r="G98" s="59"/>
+      <c r="E98" s="57"/>
+      <c r="F98" s="57"/>
+      <c r="G98" s="57"/>
       <c r="H98" s="6"/>
       <c r="I98" s="6"/>
       <c r="J98" s="6"/>
-      <c r="K98" s="73"/>
+      <c r="K98" s="71"/>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="D99" s="6"/>
-      <c r="E99" s="59"/>
-      <c r="F99" s="59"/>
-      <c r="G99" s="59"/>
+      <c r="E99" s="57"/>
+      <c r="F99" s="57"/>
+      <c r="G99" s="57"/>
       <c r="H99" s="6"/>
       <c r="I99" s="6"/>
       <c r="J99" s="6"/>
-      <c r="K99" s="73"/>
+      <c r="K99" s="71"/>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="D100" s="6"/>
-      <c r="E100" s="59"/>
-      <c r="F100" s="59"/>
-      <c r="G100" s="59"/>
+      <c r="E100" s="57"/>
+      <c r="F100" s="57"/>
+      <c r="G100" s="57"/>
       <c r="H100" s="6"/>
       <c r="I100" s="6"/>
       <c r="J100" s="6"/>
-      <c r="K100" s="73"/>
+      <c r="K100" s="71"/>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="D101" s="6"/>
-      <c r="E101" s="59"/>
-      <c r="F101" s="59"/>
-      <c r="G101" s="59"/>
+      <c r="E101" s="57"/>
+      <c r="F101" s="57"/>
+      <c r="G101" s="57"/>
       <c r="H101" s="6"/>
       <c r="I101" s="6"/>
       <c r="J101" s="6"/>
-      <c r="K101" s="73"/>
+      <c r="K101" s="71"/>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="D102" s="6"/>
-      <c r="E102" s="59"/>
-      <c r="F102" s="59"/>
-      <c r="G102" s="59"/>
+      <c r="E102" s="57"/>
+      <c r="F102" s="57"/>
+      <c r="G102" s="57"/>
       <c r="H102" s="6"/>
       <c r="I102" s="6"/>
       <c r="J102" s="6"/>
-      <c r="K102" s="73"/>
+      <c r="K102" s="71"/>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="D103" s="6"/>
-      <c r="E103" s="59"/>
-      <c r="F103" s="59"/>
-      <c r="G103" s="59"/>
+      <c r="E103" s="57"/>
+      <c r="F103" s="57"/>
+      <c r="G103" s="57"/>
       <c r="H103" s="6"/>
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
-      <c r="K103" s="73"/>
+      <c r="K103" s="71"/>
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="D104" s="6"/>
-      <c r="E104" s="59"/>
-      <c r="F104" s="59"/>
-      <c r="G104" s="59"/>
+      <c r="E104" s="57"/>
+      <c r="F104" s="57"/>
+      <c r="G104" s="57"/>
       <c r="H104" s="6"/>
       <c r="I104" s="6"/>
       <c r="J104" s="6"/>
-      <c r="K104" s="73"/>
+      <c r="K104" s="71"/>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="D105" s="6"/>
-      <c r="E105" s="59"/>
-      <c r="F105" s="59"/>
-      <c r="G105" s="59"/>
+      <c r="E105" s="57"/>
+      <c r="F105" s="57"/>
+      <c r="G105" s="57"/>
       <c r="H105" s="6"/>
       <c r="I105" s="6"/>
       <c r="J105" s="6"/>
-      <c r="K105" s="73"/>
+      <c r="K105" s="71"/>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="D106" s="6"/>
-      <c r="E106" s="59"/>
-      <c r="F106" s="59"/>
-      <c r="G106" s="59"/>
+      <c r="E106" s="57"/>
+      <c r="F106" s="57"/>
+      <c r="G106" s="57"/>
       <c r="H106" s="6"/>
       <c r="I106" s="6"/>
       <c r="J106" s="6"/>
-      <c r="K106" s="73"/>
+      <c r="K106" s="71"/>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="D107" s="6"/>
-      <c r="E107" s="59"/>
-      <c r="F107" s="59"/>
-      <c r="G107" s="59"/>
+      <c r="E107" s="57"/>
+      <c r="F107" s="57"/>
+      <c r="G107" s="57"/>
       <c r="H107" s="6"/>
       <c r="I107" s="6"/>
       <c r="J107" s="6"/>
-      <c r="K107" s="73"/>
+      <c r="K107" s="71"/>
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="D108" s="6"/>
-      <c r="E108" s="59"/>
-      <c r="F108" s="59"/>
-      <c r="G108" s="59"/>
+      <c r="E108" s="57"/>
+      <c r="F108" s="57"/>
+      <c r="G108" s="57"/>
       <c r="H108" s="6"/>
       <c r="I108" s="6"/>
       <c r="J108" s="6"/>
-      <c r="K108" s="73"/>
+      <c r="K108" s="71"/>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="D109" s="6"/>
-      <c r="E109" s="59"/>
-      <c r="F109" s="59"/>
-      <c r="G109" s="59"/>
+      <c r="E109" s="57"/>
+      <c r="F109" s="57"/>
+      <c r="G109" s="57"/>
       <c r="H109" s="6"/>
       <c r="I109" s="6"/>
       <c r="J109" s="6"/>
-      <c r="K109" s="73"/>
+      <c r="K109" s="71"/>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="D110" s="6"/>
-      <c r="E110" s="59"/>
-      <c r="F110" s="59"/>
-      <c r="G110" s="59"/>
+      <c r="E110" s="57"/>
+      <c r="F110" s="57"/>
+      <c r="G110" s="57"/>
       <c r="H110" s="6"/>
       <c r="I110" s="6"/>
       <c r="J110" s="6"/>
-      <c r="K110" s="73"/>
+      <c r="K110" s="71"/>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="D111" s="6"/>
-      <c r="E111" s="59"/>
-      <c r="F111" s="59"/>
-      <c r="G111" s="59"/>
+      <c r="E111" s="57"/>
+      <c r="F111" s="57"/>
+      <c r="G111" s="57"/>
       <c r="H111" s="6"/>
       <c r="I111" s="6"/>
       <c r="J111" s="6"/>
-      <c r="K111" s="73"/>
+      <c r="K111" s="71"/>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="D112" s="6"/>
-      <c r="E112" s="59"/>
-      <c r="F112" s="59"/>
-      <c r="G112" s="59"/>
+      <c r="E112" s="57"/>
+      <c r="F112" s="57"/>
+      <c r="G112" s="57"/>
       <c r="H112" s="6"/>
       <c r="I112" s="6"/>
       <c r="J112" s="6"/>
-      <c r="K112" s="73"/>
+      <c r="K112" s="71"/>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="D113" s="6"/>
-      <c r="E113" s="59"/>
-      <c r="F113" s="59"/>
-      <c r="G113" s="59"/>
+      <c r="E113" s="57"/>
+      <c r="F113" s="57"/>
+      <c r="G113" s="57"/>
       <c r="H113" s="6"/>
       <c r="I113" s="6"/>
       <c r="J113" s="6"/>
-      <c r="K113" s="73"/>
+      <c r="K113" s="71"/>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="D114" s="6"/>
-      <c r="E114" s="59"/>
-      <c r="F114" s="59"/>
-      <c r="G114" s="59"/>
+      <c r="E114" s="57"/>
+      <c r="F114" s="57"/>
+      <c r="G114" s="57"/>
       <c r="H114" s="6"/>
       <c r="I114" s="6"/>
       <c r="J114" s="6"/>
-      <c r="K114" s="73"/>
+      <c r="K114" s="71"/>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="D115" s="6"/>
-      <c r="E115" s="59"/>
-      <c r="F115" s="59"/>
-      <c r="G115" s="59"/>
+      <c r="E115" s="57"/>
+      <c r="F115" s="57"/>
+      <c r="G115" s="57"/>
       <c r="H115" s="6"/>
       <c r="I115" s="6"/>
       <c r="J115" s="6"/>
-      <c r="K115" s="73"/>
+      <c r="K115" s="71"/>
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="D116" s="6"/>
-      <c r="E116" s="59"/>
-      <c r="F116" s="59"/>
-      <c r="G116" s="59"/>
+      <c r="E116" s="57"/>
+      <c r="F116" s="57"/>
+      <c r="G116" s="57"/>
       <c r="H116" s="6"/>
       <c r="I116" s="6"/>
       <c r="J116" s="6"/>
-      <c r="K116" s="73"/>
+      <c r="K116" s="71"/>
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="D117" s="6"/>
-      <c r="E117" s="59"/>
-      <c r="F117" s="59"/>
-      <c r="G117" s="59"/>
+      <c r="E117" s="57"/>
+      <c r="F117" s="57"/>
+      <c r="G117" s="57"/>
       <c r="H117" s="6"/>
       <c r="I117" s="6"/>
       <c r="J117" s="6"/>
-      <c r="K117" s="73"/>
+      <c r="K117" s="71"/>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="D118" s="6"/>
-      <c r="E118" s="59"/>
-      <c r="F118" s="59"/>
-      <c r="G118" s="59"/>
+      <c r="E118" s="57"/>
+      <c r="F118" s="57"/>
+      <c r="G118" s="57"/>
       <c r="H118" s="6"/>
       <c r="I118" s="6"/>
       <c r="J118" s="6"/>
-      <c r="K118" s="73"/>
+      <c r="K118" s="71"/>
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="D119" s="6"/>
-      <c r="E119" s="59"/>
-      <c r="F119" s="59"/>
-      <c r="G119" s="59"/>
+      <c r="E119" s="57"/>
+      <c r="F119" s="57"/>
+      <c r="G119" s="57"/>
       <c r="H119" s="6"/>
       <c r="I119" s="6"/>
       <c r="J119" s="6"/>
-      <c r="K119" s="73"/>
+      <c r="K119" s="71"/>
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="D120" s="6"/>
-      <c r="E120" s="59"/>
-      <c r="F120" s="59"/>
-      <c r="G120" s="59"/>
+      <c r="E120" s="57"/>
+      <c r="F120" s="57"/>
+      <c r="G120" s="57"/>
       <c r="H120" s="6"/>
       <c r="I120" s="6"/>
       <c r="J120" s="6"/>
-      <c r="K120" s="73"/>
+      <c r="K120" s="71"/>
     </row>
     <row r="121" spans="1:11">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="D121" s="6"/>
-      <c r="E121" s="59"/>
-      <c r="F121" s="59"/>
-      <c r="G121" s="59"/>
+      <c r="E121" s="57"/>
+      <c r="F121" s="57"/>
+      <c r="G121" s="57"/>
       <c r="H121" s="6"/>
       <c r="I121" s="6"/>
       <c r="J121" s="6"/>
-      <c r="K121" s="73"/>
+      <c r="K121" s="71"/>
     </row>
     <row r="122" spans="1:11">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="D122" s="6"/>
-      <c r="E122" s="59"/>
-      <c r="F122" s="59"/>
-      <c r="G122" s="59"/>
+      <c r="E122" s="57"/>
+      <c r="F122" s="57"/>
+      <c r="G122" s="57"/>
       <c r="H122" s="6"/>
       <c r="I122" s="6"/>
       <c r="J122" s="6"/>
-      <c r="K122" s="73"/>
+      <c r="K122" s="71"/>
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="D123" s="6"/>
-      <c r="E123" s="59"/>
-      <c r="F123" s="59"/>
-      <c r="G123" s="59"/>
+      <c r="E123" s="57"/>
+      <c r="F123" s="57"/>
+      <c r="G123" s="57"/>
       <c r="H123" s="6"/>
       <c r="I123" s="6"/>
       <c r="J123" s="6"/>
-      <c r="K123" s="73"/>
+      <c r="K123" s="71"/>
     </row>
     <row r="124" spans="1:11">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="D124" s="6"/>
-      <c r="E124" s="59"/>
-      <c r="F124" s="59"/>
-      <c r="G124" s="59"/>
+      <c r="E124" s="57"/>
+      <c r="F124" s="57"/>
+      <c r="G124" s="57"/>
       <c r="H124" s="6"/>
       <c r="I124" s="6"/>
       <c r="J124" s="6"/>
-      <c r="K124" s="73"/>
+      <c r="K124" s="71"/>
     </row>
     <row r="125" spans="1:11">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="D125" s="6"/>
-      <c r="E125" s="59"/>
-      <c r="F125" s="59"/>
-      <c r="G125" s="59"/>
+      <c r="E125" s="57"/>
+      <c r="F125" s="57"/>
+      <c r="G125" s="57"/>
       <c r="H125" s="6"/>
       <c r="I125" s="6"/>
       <c r="J125" s="6"/>
-      <c r="K125" s="73"/>
+      <c r="K125" s="71"/>
     </row>
     <row r="126" spans="1:11">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="D126" s="6"/>
-      <c r="E126" s="59"/>
-      <c r="F126" s="59"/>
-      <c r="G126" s="59"/>
+      <c r="E126" s="57"/>
+      <c r="F126" s="57"/>
+      <c r="G126" s="57"/>
       <c r="H126" s="6"/>
       <c r="I126" s="6"/>
       <c r="J126" s="6"/>
-      <c r="K126" s="73"/>
+      <c r="K126" s="71"/>
     </row>
     <row r="127" spans="1:11">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="D127" s="6"/>
-      <c r="E127" s="59"/>
-      <c r="F127" s="59"/>
-      <c r="G127" s="59"/>
+      <c r="E127" s="57"/>
+      <c r="F127" s="57"/>
+      <c r="G127" s="57"/>
       <c r="H127" s="6"/>
       <c r="I127" s="6"/>
       <c r="J127" s="6"/>
-      <c r="K127" s="73"/>
+      <c r="K127" s="71"/>
     </row>
     <row r="128" spans="1:11">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="D128" s="6"/>
-      <c r="E128" s="59"/>
-      <c r="F128" s="59"/>
-      <c r="G128" s="59"/>
+      <c r="E128" s="57"/>
+      <c r="F128" s="57"/>
+      <c r="G128" s="57"/>
       <c r="H128" s="6"/>
       <c r="I128" s="6"/>
       <c r="J128" s="6"/>
-      <c r="K128" s="73"/>
+      <c r="K128" s="71"/>
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="D129" s="6"/>
-      <c r="E129" s="59"/>
-      <c r="F129" s="59"/>
-      <c r="G129" s="59"/>
+      <c r="E129" s="57"/>
+      <c r="F129" s="57"/>
+      <c r="G129" s="57"/>
       <c r="H129" s="6"/>
       <c r="I129" s="6"/>
       <c r="J129" s="6"/>
-      <c r="K129" s="73"/>
+      <c r="K129" s="71"/>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="D130" s="6"/>
-      <c r="E130" s="59"/>
-      <c r="F130" s="59"/>
-      <c r="G130" s="59"/>
+      <c r="E130" s="57"/>
+      <c r="F130" s="57"/>
+      <c r="G130" s="57"/>
       <c r="H130" s="6"/>
       <c r="I130" s="6"/>
       <c r="J130" s="6"/>
-      <c r="K130" s="73"/>
+      <c r="K130" s="71"/>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="D131" s="6"/>
-      <c r="E131" s="59"/>
-      <c r="F131" s="59"/>
-      <c r="G131" s="59"/>
+      <c r="E131" s="57"/>
+      <c r="F131" s="57"/>
+      <c r="G131" s="57"/>
       <c r="H131" s="6"/>
       <c r="I131" s="6"/>
       <c r="J131" s="6"/>
-      <c r="K131" s="73"/>
+      <c r="K131" s="71"/>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="D132" s="6"/>
-      <c r="E132" s="59"/>
-      <c r="F132" s="59"/>
-      <c r="G132" s="59"/>
+      <c r="E132" s="57"/>
+      <c r="F132" s="57"/>
+      <c r="G132" s="57"/>
       <c r="H132" s="6"/>
       <c r="I132" s="6"/>
       <c r="J132" s="6"/>
-      <c r="K132" s="73"/>
+      <c r="K132" s="71"/>
     </row>
     <row r="133" spans="1:11">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="D133" s="6"/>
-      <c r="E133" s="59"/>
-      <c r="F133" s="59"/>
-      <c r="G133" s="59"/>
+      <c r="E133" s="57"/>
+      <c r="F133" s="57"/>
+      <c r="G133" s="57"/>
       <c r="H133" s="6"/>
       <c r="I133" s="6"/>
       <c r="J133" s="6"/>
-      <c r="K133" s="73"/>
+      <c r="K133" s="71"/>
     </row>
     <row r="134" spans="1:11">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="D134" s="6"/>
-      <c r="E134" s="59"/>
-      <c r="F134" s="59"/>
-      <c r="G134" s="59"/>
+      <c r="E134" s="57"/>
+      <c r="F134" s="57"/>
+      <c r="G134" s="57"/>
       <c r="H134" s="6"/>
       <c r="I134" s="6"/>
       <c r="J134" s="6"/>
-      <c r="K134" s="73"/>
+      <c r="K134" s="71"/>
     </row>
     <row r="135" spans="1:11">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="D135" s="6"/>
-      <c r="E135" s="59"/>
-      <c r="F135" s="59"/>
-      <c r="G135" s="59"/>
+      <c r="E135" s="57"/>
+      <c r="F135" s="57"/>
+      <c r="G135" s="57"/>
       <c r="H135" s="6"/>
       <c r="I135" s="6"/>
       <c r="J135" s="6"/>
-      <c r="K135" s="73"/>
+      <c r="K135" s="71"/>
     </row>
     <row r="136" spans="1:11">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="D136" s="6"/>
-      <c r="E136" s="59"/>
-      <c r="F136" s="59"/>
-      <c r="G136" s="59"/>
+      <c r="E136" s="57"/>
+      <c r="F136" s="57"/>
+      <c r="G136" s="57"/>
       <c r="H136" s="6"/>
       <c r="I136" s="6"/>
       <c r="J136" s="6"/>
-      <c r="K136" s="73"/>
+      <c r="K136" s="71"/>
     </row>
     <row r="137" spans="1:11">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="D137" s="6"/>
-      <c r="E137" s="59"/>
-      <c r="F137" s="59"/>
-      <c r="G137" s="59"/>
+      <c r="E137" s="57"/>
+      <c r="F137" s="57"/>
+      <c r="G137" s="57"/>
       <c r="H137" s="6"/>
       <c r="I137" s="6"/>
       <c r="J137" s="6"/>
-      <c r="K137" s="73"/>
+      <c r="K137" s="71"/>
     </row>
     <row r="138" spans="1:11">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="D138" s="6"/>
-      <c r="E138" s="59"/>
-      <c r="F138" s="59"/>
-      <c r="G138" s="59"/>
+      <c r="E138" s="57"/>
+      <c r="F138" s="57"/>
+      <c r="G138" s="57"/>
       <c r="H138" s="6"/>
       <c r="I138" s="6"/>
       <c r="J138" s="6"/>
-      <c r="K138" s="73"/>
+      <c r="K138" s="71"/>
     </row>
     <row r="139" spans="1:11">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="D139" s="6"/>
-      <c r="E139" s="59"/>
-      <c r="F139" s="59"/>
-      <c r="G139" s="59"/>
+      <c r="E139" s="57"/>
+      <c r="F139" s="57"/>
+      <c r="G139" s="57"/>
       <c r="H139" s="6"/>
       <c r="I139" s="6"/>
       <c r="J139" s="6"/>
-      <c r="K139" s="73"/>
+      <c r="K139" s="71"/>
     </row>
     <row r="140" spans="1:11">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="D140" s="6"/>
-      <c r="E140" s="59"/>
-      <c r="F140" s="59"/>
-      <c r="G140" s="59"/>
+      <c r="E140" s="57"/>
+      <c r="F140" s="57"/>
+      <c r="G140" s="57"/>
       <c r="H140" s="6"/>
       <c r="I140" s="6"/>
       <c r="J140" s="6"/>
-      <c r="K140" s="73"/>
+      <c r="K140" s="71"/>
     </row>
     <row r="141" spans="1:11">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="D141" s="6"/>
-      <c r="E141" s="59"/>
-      <c r="F141" s="59"/>
-      <c r="G141" s="59"/>
+      <c r="E141" s="57"/>
+      <c r="F141" s="57"/>
+      <c r="G141" s="57"/>
       <c r="H141" s="6"/>
       <c r="I141" s="6"/>
       <c r="J141" s="6"/>
-      <c r="K141" s="73"/>
+      <c r="K141" s="71"/>
     </row>
     <row r="142" spans="1:11">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="D142" s="6"/>
-      <c r="E142" s="59"/>
-      <c r="F142" s="59"/>
-      <c r="G142" s="59"/>
+      <c r="E142" s="57"/>
+      <c r="F142" s="57"/>
+      <c r="G142" s="57"/>
       <c r="H142" s="6"/>
       <c r="I142" s="6"/>
       <c r="J142" s="6"/>
-      <c r="K142" s="73"/>
+      <c r="K142" s="71"/>
     </row>
     <row r="143" spans="1:11">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="D143" s="6"/>
-      <c r="E143" s="59"/>
-      <c r="F143" s="59"/>
-      <c r="G143" s="59"/>
+      <c r="E143" s="57"/>
+      <c r="F143" s="57"/>
+      <c r="G143" s="57"/>
       <c r="H143" s="6"/>
       <c r="I143" s="6"/>
       <c r="J143" s="6"/>
-      <c r="K143" s="73"/>
+      <c r="K143" s="71"/>
     </row>
     <row r="144" spans="1:11">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="D144" s="6"/>
-      <c r="E144" s="59"/>
-      <c r="F144" s="59"/>
-      <c r="G144" s="59"/>
+      <c r="E144" s="57"/>
+      <c r="F144" s="57"/>
+      <c r="G144" s="57"/>
       <c r="H144" s="6"/>
       <c r="I144" s="6"/>
       <c r="J144" s="6"/>
-      <c r="K144" s="73"/>
+      <c r="K144" s="71"/>
     </row>
     <row r="145" spans="1:11">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="D145" s="6"/>
-      <c r="E145" s="59"/>
-      <c r="F145" s="59"/>
-      <c r="G145" s="59"/>
+      <c r="E145" s="57"/>
+      <c r="F145" s="57"/>
+      <c r="G145" s="57"/>
       <c r="H145" s="6"/>
       <c r="I145" s="6"/>
       <c r="J145" s="6"/>
-      <c r="K145" s="73"/>
+      <c r="K145" s="71"/>
     </row>
     <row r="146" spans="1:11">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="D146" s="6"/>
-      <c r="E146" s="59"/>
-      <c r="F146" s="59"/>
-      <c r="G146" s="59"/>
+      <c r="E146" s="57"/>
+      <c r="F146" s="57"/>
+      <c r="G146" s="57"/>
       <c r="H146" s="6"/>
       <c r="I146" s="6"/>
       <c r="J146" s="6"/>
-      <c r="K146" s="73"/>
+      <c r="K146" s="71"/>
     </row>
     <row r="147" spans="1:11">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="D147" s="6"/>
-      <c r="E147" s="59"/>
-      <c r="F147" s="59"/>
-      <c r="G147" s="59"/>
+      <c r="E147" s="57"/>
+      <c r="F147" s="57"/>
+      <c r="G147" s="57"/>
       <c r="H147" s="6"/>
       <c r="I147" s="6"/>
       <c r="J147" s="6"/>
-      <c r="K147" s="73"/>
+      <c r="K147" s="71"/>
     </row>
     <row r="148" spans="1:11">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="D148" s="6"/>
-      <c r="E148" s="59"/>
-      <c r="F148" s="59"/>
-      <c r="G148" s="59"/>
+      <c r="E148" s="57"/>
+      <c r="F148" s="57"/>
+      <c r="G148" s="57"/>
       <c r="H148" s="6"/>
       <c r="I148" s="6"/>
       <c r="J148" s="6"/>
-      <c r="K148" s="73"/>
+      <c r="K148" s="71"/>
     </row>
     <row r="149" spans="1:11">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="D149" s="6"/>
-      <c r="E149" s="59"/>
-      <c r="F149" s="59"/>
-      <c r="G149" s="59"/>
+      <c r="E149" s="57"/>
+      <c r="F149" s="57"/>
+      <c r="G149" s="57"/>
       <c r="H149" s="6"/>
       <c r="I149" s="6"/>
       <c r="J149" s="6"/>
-      <c r="K149" s="73"/>
+      <c r="K149" s="71"/>
     </row>
     <row r="150" spans="1:11">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="D150" s="6"/>
-      <c r="E150" s="59"/>
-      <c r="F150" s="59"/>
-      <c r="G150" s="59"/>
+      <c r="E150" s="57"/>
+      <c r="F150" s="57"/>
+      <c r="G150" s="57"/>
       <c r="H150" s="6"/>
       <c r="I150" s="6"/>
       <c r="J150" s="6"/>
-      <c r="K150" s="73"/>
+      <c r="K150" s="71"/>
     </row>
     <row r="151" spans="1:11">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="D151" s="6"/>
-      <c r="E151" s="59"/>
-      <c r="F151" s="59"/>
-      <c r="G151" s="59"/>
+      <c r="E151" s="57"/>
+      <c r="F151" s="57"/>
+      <c r="G151" s="57"/>
       <c r="H151" s="6"/>
       <c r="I151" s="6"/>
       <c r="J151" s="6"/>
-      <c r="K151" s="73"/>
+      <c r="K151" s="71"/>
     </row>
     <row r="152" spans="1:11">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="D152" s="6"/>
-      <c r="E152" s="59"/>
-      <c r="F152" s="59"/>
-      <c r="G152" s="59"/>
+      <c r="E152" s="57"/>
+      <c r="F152" s="57"/>
+      <c r="G152" s="57"/>
       <c r="H152" s="6"/>
       <c r="I152" s="6"/>
       <c r="J152" s="6"/>
-      <c r="K152" s="73"/>
+      <c r="K152" s="71"/>
     </row>
     <row r="153" spans="1:11">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="D153" s="6"/>
-      <c r="E153" s="59"/>
-      <c r="F153" s="59"/>
-      <c r="G153" s="59"/>
+      <c r="E153" s="57"/>
+      <c r="F153" s="57"/>
+      <c r="G153" s="57"/>
       <c r="H153" s="6"/>
       <c r="I153" s="6"/>
       <c r="J153" s="6"/>
-      <c r="K153" s="73"/>
+      <c r="K153" s="71"/>
     </row>
     <row r="154" spans="1:11">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="D154" s="6"/>
-      <c r="E154" s="59"/>
-      <c r="F154" s="59"/>
-      <c r="G154" s="59"/>
+      <c r="E154" s="57"/>
+      <c r="F154" s="57"/>
+      <c r="G154" s="57"/>
       <c r="H154" s="6"/>
       <c r="I154" s="6"/>
       <c r="J154" s="6"/>
-      <c r="K154" s="73"/>
+      <c r="K154" s="71"/>
     </row>
     <row r="155" spans="1:11">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="D155" s="6"/>
-      <c r="E155" s="59"/>
-      <c r="F155" s="59"/>
-      <c r="G155" s="59"/>
+      <c r="E155" s="57"/>
+      <c r="F155" s="57"/>
+      <c r="G155" s="57"/>
       <c r="H155" s="6"/>
       <c r="I155" s="6"/>
       <c r="J155" s="6"/>
-      <c r="K155" s="73"/>
+      <c r="K155" s="71"/>
     </row>
     <row r="156" spans="1:11">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="D156" s="6"/>
-      <c r="E156" s="59"/>
-      <c r="F156" s="59"/>
-      <c r="G156" s="59"/>
+      <c r="E156" s="57"/>
+      <c r="F156" s="57"/>
+      <c r="G156" s="57"/>
       <c r="H156" s="6"/>
       <c r="I156" s="6"/>
       <c r="J156" s="6"/>
-      <c r="K156" s="73"/>
+      <c r="K156" s="71"/>
     </row>
     <row r="157" spans="1:11">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="D157" s="6"/>
-      <c r="E157" s="59"/>
-      <c r="F157" s="59"/>
-      <c r="G157" s="59"/>
+      <c r="E157" s="57"/>
+      <c r="F157" s="57"/>
+      <c r="G157" s="57"/>
       <c r="H157" s="6"/>
       <c r="I157" s="6"/>
       <c r="J157" s="6"/>
-      <c r="K157" s="73"/>
+      <c r="K157" s="71"/>
     </row>
     <row r="158" spans="1:11">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="D158" s="6"/>
-      <c r="E158" s="59"/>
-      <c r="F158" s="59"/>
-      <c r="G158" s="59"/>
+      <c r="E158" s="57"/>
+      <c r="F158" s="57"/>
+      <c r="G158" s="57"/>
       <c r="H158" s="6"/>
       <c r="I158" s="6"/>
       <c r="J158" s="6"/>
-      <c r="K158" s="73"/>
+      <c r="K158" s="71"/>
     </row>
     <row r="159" spans="1:11">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="D159" s="6"/>
-      <c r="E159" s="59"/>
-      <c r="F159" s="59"/>
-      <c r="G159" s="59"/>
+      <c r="E159" s="57"/>
+      <c r="F159" s="57"/>
+      <c r="G159" s="57"/>
       <c r="H159" s="6"/>
       <c r="I159" s="6"/>
       <c r="J159" s="6"/>
-      <c r="K159" s="73"/>
+      <c r="K159" s="71"/>
     </row>
     <row r="160" spans="1:11">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="D160" s="6"/>
-      <c r="E160" s="59"/>
-      <c r="F160" s="59"/>
-      <c r="G160" s="59"/>
+      <c r="E160" s="57"/>
+      <c r="F160" s="57"/>
+      <c r="G160" s="57"/>
       <c r="H160" s="6"/>
       <c r="I160" s="6"/>
       <c r="J160" s="6"/>
-      <c r="K160" s="73"/>
+      <c r="K160" s="71"/>
     </row>
     <row r="161" spans="1:11">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="D161" s="6"/>
-      <c r="E161" s="59"/>
-      <c r="F161" s="59"/>
-      <c r="G161" s="59"/>
+      <c r="E161" s="57"/>
+      <c r="F161" s="57"/>
+      <c r="G161" s="57"/>
       <c r="H161" s="6"/>
       <c r="I161" s="6"/>
       <c r="J161" s="6"/>
-      <c r="K161" s="73"/>
+      <c r="K161" s="71"/>
     </row>
     <row r="162" spans="1:11">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="D162" s="6"/>
-      <c r="E162" s="59"/>
-      <c r="F162" s="59"/>
-      <c r="G162" s="59"/>
+      <c r="E162" s="57"/>
+      <c r="F162" s="57"/>
+      <c r="G162" s="57"/>
       <c r="H162" s="6"/>
       <c r="I162" s="6"/>
       <c r="J162" s="6"/>
-      <c r="K162" s="73"/>
+      <c r="K162" s="71"/>
     </row>
     <row r="163" spans="1:11">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="D163" s="6"/>
-      <c r="E163" s="59"/>
-      <c r="F163" s="59"/>
-      <c r="G163" s="59"/>
+      <c r="E163" s="57"/>
+      <c r="F163" s="57"/>
+      <c r="G163" s="57"/>
       <c r="H163" s="6"/>
       <c r="I163" s="6"/>
       <c r="J163" s="6"/>
-      <c r="K163" s="73"/>
+      <c r="K163" s="71"/>
     </row>
     <row r="164" spans="1:11">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="D164" s="6"/>
-      <c r="E164" s="59"/>
-      <c r="F164" s="59"/>
-      <c r="G164" s="59"/>
+      <c r="E164" s="57"/>
+      <c r="F164" s="57"/>
+      <c r="G164" s="57"/>
       <c r="H164" s="6"/>
       <c r="I164" s="6"/>
       <c r="J164" s="6"/>
-      <c r="K164" s="73"/>
+      <c r="K164" s="71"/>
     </row>
     <row r="165" spans="1:11">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="D165" s="6"/>
-      <c r="E165" s="59"/>
-      <c r="F165" s="59"/>
-      <c r="G165" s="59"/>
+      <c r="E165" s="57"/>
+      <c r="F165" s="57"/>
+      <c r="G165" s="57"/>
       <c r="H165" s="6"/>
       <c r="I165" s="6"/>
       <c r="J165" s="6"/>
-      <c r="K165" s="73"/>
+      <c r="K165" s="71"/>
     </row>
     <row r="166" spans="1:11">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="D166" s="6"/>
-      <c r="E166" s="59"/>
-      <c r="F166" s="59"/>
-      <c r="G166" s="59"/>
+      <c r="E166" s="57"/>
+      <c r="F166" s="57"/>
+      <c r="G166" s="57"/>
       <c r="H166" s="6"/>
       <c r="I166" s="6"/>
       <c r="J166" s="6"/>
-      <c r="K166" s="73"/>
+      <c r="K166" s="71"/>
     </row>
     <row r="167" spans="1:11">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="D167" s="6"/>
-      <c r="E167" s="59"/>
-      <c r="F167" s="59"/>
-      <c r="G167" s="59"/>
+      <c r="E167" s="57"/>
+      <c r="F167" s="57"/>
+      <c r="G167" s="57"/>
       <c r="H167" s="6"/>
       <c r="I167" s="6"/>
       <c r="J167" s="6"/>
-      <c r="K167" s="73"/>
+      <c r="K167" s="71"/>
     </row>
     <row r="168" spans="1:11">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="D168" s="6"/>
-      <c r="E168" s="59"/>
-      <c r="F168" s="59"/>
-      <c r="G168" s="59"/>
+      <c r="E168" s="57"/>
+      <c r="F168" s="57"/>
+      <c r="G168" s="57"/>
       <c r="H168" s="6"/>
       <c r="I168" s="6"/>
       <c r="J168" s="6"/>
-      <c r="K168" s="73"/>
+      <c r="K168" s="71"/>
     </row>
     <row r="169" spans="1:11">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="D169" s="6"/>
-      <c r="E169" s="59"/>
-      <c r="F169" s="59"/>
-      <c r="G169" s="59"/>
+      <c r="E169" s="57"/>
+      <c r="F169" s="57"/>
+      <c r="G169" s="57"/>
       <c r="H169" s="6"/>
       <c r="I169" s="6"/>
       <c r="J169" s="6"/>
-      <c r="K169" s="73"/>
+      <c r="K169" s="71"/>
     </row>
     <row r="170" spans="1:11">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="D170" s="6"/>
-      <c r="E170" s="59"/>
-      <c r="F170" s="59"/>
-      <c r="G170" s="59"/>
+      <c r="E170" s="57"/>
+      <c r="F170" s="57"/>
+      <c r="G170" s="57"/>
       <c r="H170" s="6"/>
       <c r="I170" s="6"/>
       <c r="J170" s="6"/>
-      <c r="K170" s="73"/>
+      <c r="K170" s="71"/>
     </row>
     <row r="171" spans="1:11">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="D171" s="6"/>
-      <c r="E171" s="59"/>
-      <c r="F171" s="59"/>
-      <c r="G171" s="59"/>
+      <c r="E171" s="57"/>
+      <c r="F171" s="57"/>
+      <c r="G171" s="57"/>
       <c r="H171" s="6"/>
       <c r="I171" s="6"/>
       <c r="J171" s="6"/>
-      <c r="K171" s="73"/>
+      <c r="K171" s="71"/>
     </row>
     <row r="172" spans="1:11">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="D172" s="6"/>
-      <c r="E172" s="59"/>
-      <c r="F172" s="59"/>
-      <c r="G172" s="59"/>
+      <c r="E172" s="57"/>
+      <c r="F172" s="57"/>
+      <c r="G172" s="57"/>
       <c r="H172" s="6"/>
       <c r="I172" s="6"/>
       <c r="J172" s="6"/>
-      <c r="K172" s="73"/>
+      <c r="K172" s="71"/>
     </row>
     <row r="173" spans="1:11">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="D173" s="6"/>
-      <c r="E173" s="59"/>
-      <c r="F173" s="59"/>
-      <c r="G173" s="59"/>
+      <c r="E173" s="57"/>
+      <c r="F173" s="57"/>
+      <c r="G173" s="57"/>
       <c r="H173" s="6"/>
       <c r="I173" s="6"/>
       <c r="J173" s="6"/>
-      <c r="K173" s="73"/>
+      <c r="K173" s="71"/>
     </row>
     <row r="174" spans="1:11">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="D174" s="6"/>
-      <c r="E174" s="59"/>
-      <c r="F174" s="59"/>
-      <c r="G174" s="59"/>
+      <c r="E174" s="57"/>
+      <c r="F174" s="57"/>
+      <c r="G174" s="57"/>
       <c r="H174" s="6"/>
       <c r="I174" s="6"/>
       <c r="J174" s="6"/>
-      <c r="K174" s="73"/>
+      <c r="K174" s="71"/>
     </row>
     <row r="175" spans="1:11">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="D175" s="6"/>
-      <c r="E175" s="59"/>
-      <c r="F175" s="59"/>
-      <c r="G175" s="59"/>
+      <c r="E175" s="57"/>
+      <c r="F175" s="57"/>
+      <c r="G175" s="57"/>
       <c r="H175" s="6"/>
       <c r="I175" s="6"/>
       <c r="J175" s="6"/>
-      <c r="K175" s="73"/>
+      <c r="K175" s="71"/>
     </row>
     <row r="176" spans="1:11">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="D176" s="6"/>
-      <c r="E176" s="59"/>
-      <c r="F176" s="59"/>
-      <c r="G176" s="59"/>
+      <c r="E176" s="57"/>
+      <c r="F176" s="57"/>
+      <c r="G176" s="57"/>
       <c r="H176" s="6"/>
       <c r="I176" s="6"/>
       <c r="J176" s="6"/>
-      <c r="K176" s="73"/>
+      <c r="K176" s="71"/>
     </row>
     <row r="177" spans="1:11">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="D177" s="6"/>
-      <c r="E177" s="59"/>
-      <c r="F177" s="59"/>
-      <c r="G177" s="59"/>
+      <c r="E177" s="57"/>
+      <c r="F177" s="57"/>
+      <c r="G177" s="57"/>
       <c r="H177" s="6"/>
       <c r="I177" s="6"/>
       <c r="J177" s="6"/>
-      <c r="K177" s="73"/>
+      <c r="K177" s="71"/>
     </row>
     <row r="178" spans="1:11">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="D178" s="6"/>
-      <c r="E178" s="59"/>
-      <c r="F178" s="59"/>
-      <c r="G178" s="59"/>
+      <c r="E178" s="57"/>
+      <c r="F178" s="57"/>
+      <c r="G178" s="57"/>
       <c r="H178" s="6"/>
       <c r="I178" s="6"/>
       <c r="J178" s="6"/>
-      <c r="K178" s="73"/>
+      <c r="K178" s="71"/>
     </row>
     <row r="179" spans="1:11">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="D179" s="6"/>
-      <c r="E179" s="59"/>
-      <c r="F179" s="59"/>
-      <c r="G179" s="59"/>
+      <c r="E179" s="57"/>
+      <c r="F179" s="57"/>
+      <c r="G179" s="57"/>
       <c r="H179" s="6"/>
       <c r="I179" s="6"/>
       <c r="J179" s="6"/>
-      <c r="K179" s="73"/>
+      <c r="K179" s="71"/>
     </row>
     <row r="180" spans="1:11">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="D180" s="6"/>
-      <c r="E180" s="59"/>
-      <c r="F180" s="59"/>
-      <c r="G180" s="59"/>
+      <c r="E180" s="57"/>
+      <c r="F180" s="57"/>
+      <c r="G180" s="57"/>
       <c r="H180" s="6"/>
       <c r="I180" s="6"/>
       <c r="J180" s="6"/>
-      <c r="K180" s="73"/>
+      <c r="K180" s="71"/>
     </row>
     <row r="181" spans="1:11">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="D181" s="6"/>
-      <c r="E181" s="59"/>
-      <c r="F181" s="59"/>
-      <c r="G181" s="59"/>
+      <c r="E181" s="57"/>
+      <c r="F181" s="57"/>
+      <c r="G181" s="57"/>
       <c r="H181" s="6"/>
       <c r="I181" s="6"/>
       <c r="J181" s="6"/>
-      <c r="K181" s="73"/>
+      <c r="K181" s="71"/>
     </row>
     <row r="182" spans="1:11">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="D182" s="6"/>
-      <c r="E182" s="59"/>
-      <c r="F182" s="59"/>
-      <c r="G182" s="59"/>
+      <c r="E182" s="57"/>
+      <c r="F182" s="57"/>
+      <c r="G182" s="57"/>
       <c r="H182" s="6"/>
       <c r="I182" s="6"/>
       <c r="J182" s="6"/>
-      <c r="K182" s="73"/>
+      <c r="K182" s="71"/>
     </row>
     <row r="183" spans="1:11">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="D183" s="6"/>
-      <c r="E183" s="59"/>
-      <c r="F183" s="59"/>
-      <c r="G183" s="59"/>
+      <c r="E183" s="57"/>
+      <c r="F183" s="57"/>
+      <c r="G183" s="57"/>
       <c r="H183" s="6"/>
       <c r="I183" s="6"/>
       <c r="J183" s="6"/>
-      <c r="K183" s="73"/>
+      <c r="K183" s="71"/>
     </row>
     <row r="184" spans="1:11">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="D184" s="6"/>
-      <c r="E184" s="59"/>
-      <c r="F184" s="59"/>
-      <c r="G184" s="59"/>
+      <c r="E184" s="57"/>
+      <c r="F184" s="57"/>
+      <c r="G184" s="57"/>
       <c r="H184" s="6"/>
       <c r="I184" s="6"/>
       <c r="J184" s="6"/>
-      <c r="K184" s="73"/>
+      <c r="K184" s="71"/>
     </row>
     <row r="185" spans="1:11">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="D185" s="6"/>
-      <c r="E185" s="59"/>
-      <c r="F185" s="59"/>
-      <c r="G185" s="59"/>
+      <c r="E185" s="57"/>
+      <c r="F185" s="57"/>
+      <c r="G185" s="57"/>
       <c r="H185" s="6"/>
       <c r="I185" s="6"/>
       <c r="J185" s="6"/>
-      <c r="K185" s="73"/>
+      <c r="K185" s="71"/>
     </row>
     <row r="186" spans="1:11">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="D186" s="6"/>
-      <c r="E186" s="59"/>
-      <c r="F186" s="59"/>
-      <c r="G186" s="59"/>
+      <c r="E186" s="57"/>
+      <c r="F186" s="57"/>
+      <c r="G186" s="57"/>
       <c r="H186" s="6"/>
       <c r="I186" s="6"/>
       <c r="J186" s="6"/>
-      <c r="K186" s="73"/>
+      <c r="K186" s="71"/>
     </row>
     <row r="187" spans="1:11">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="D187" s="6"/>
-      <c r="E187" s="59"/>
-      <c r="F187" s="59"/>
-      <c r="G187" s="59"/>
+      <c r="E187" s="57"/>
+      <c r="F187" s="57"/>
+      <c r="G187" s="57"/>
       <c r="H187" s="6"/>
       <c r="I187" s="6"/>
       <c r="J187" s="6"/>
-      <c r="K187" s="73"/>
+      <c r="K187" s="71"/>
     </row>
     <row r="188" spans="1:11">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="D188" s="6"/>
-      <c r="E188" s="59"/>
-      <c r="F188" s="59"/>
-      <c r="G188" s="59"/>
+      <c r="E188" s="57"/>
+      <c r="F188" s="57"/>
+      <c r="G188" s="57"/>
       <c r="H188" s="6"/>
       <c r="I188" s="6"/>
       <c r="J188" s="6"/>
-      <c r="K188" s="73"/>
+      <c r="K188" s="71"/>
     </row>
     <row r="189" spans="1:11">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="D189" s="6"/>
-      <c r="E189" s="59"/>
-      <c r="F189" s="59"/>
-      <c r="G189" s="59"/>
+      <c r="E189" s="57"/>
+      <c r="F189" s="57"/>
+      <c r="G189" s="57"/>
       <c r="H189" s="6"/>
       <c r="I189" s="6"/>
       <c r="J189" s="6"/>
-      <c r="K189" s="73"/>
+      <c r="K189" s="71"/>
     </row>
     <row r="190" spans="1:11">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="D190" s="6"/>
-      <c r="E190" s="59"/>
-      <c r="F190" s="59"/>
-      <c r="G190" s="59"/>
+      <c r="E190" s="57"/>
+      <c r="F190" s="57"/>
+      <c r="G190" s="57"/>
       <c r="H190" s="6"/>
       <c r="I190" s="6"/>
       <c r="J190" s="6"/>
-      <c r="K190" s="73"/>
+      <c r="K190" s="71"/>
     </row>
     <row r="191" spans="1:11">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="D191" s="6"/>
-      <c r="E191" s="59"/>
-      <c r="F191" s="59"/>
-      <c r="G191" s="59"/>
+      <c r="E191" s="57"/>
+      <c r="F191" s="57"/>
+      <c r="G191" s="57"/>
       <c r="H191" s="6"/>
       <c r="I191" s="6"/>
       <c r="J191" s="6"/>
-      <c r="K191" s="73"/>
+      <c r="K191" s="71"/>
     </row>
     <row r="192" spans="1:11">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="D192" s="6"/>
-      <c r="E192" s="59"/>
-      <c r="F192" s="59"/>
-      <c r="G192" s="59"/>
+      <c r="E192" s="57"/>
+      <c r="F192" s="57"/>
+      <c r="G192" s="57"/>
       <c r="H192" s="6"/>
       <c r="I192" s="6"/>
       <c r="J192" s="6"/>
-      <c r="K192" s="73"/>
+      <c r="K192" s="71"/>
     </row>
     <row r="193" spans="1:11">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="D193" s="6"/>
-      <c r="E193" s="59"/>
-      <c r="F193" s="59"/>
-      <c r="G193" s="59"/>
+      <c r="E193" s="57"/>
+      <c r="F193" s="57"/>
+      <c r="G193" s="57"/>
       <c r="H193" s="6"/>
       <c r="I193" s="6"/>
       <c r="J193" s="6"/>
-      <c r="K193" s="73"/>
+      <c r="K193" s="71"/>
     </row>
     <row r="194" spans="1:11">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="D194" s="6"/>
-      <c r="E194" s="59"/>
-      <c r="F194" s="59"/>
-      <c r="G194" s="59"/>
+      <c r="E194" s="57"/>
+      <c r="F194" s="57"/>
+      <c r="G194" s="57"/>
       <c r="H194" s="6"/>
       <c r="I194" s="6"/>
       <c r="J194" s="6"/>
-      <c r="K194" s="73"/>
+      <c r="K194" s="71"/>
     </row>
     <row r="195" spans="1:11">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="D195" s="6"/>
-      <c r="E195" s="59"/>
-      <c r="F195" s="59"/>
-      <c r="G195" s="59"/>
+      <c r="E195" s="57"/>
+      <c r="F195" s="57"/>
+      <c r="G195" s="57"/>
       <c r="H195" s="6"/>
       <c r="I195" s="6"/>
       <c r="J195" s="6"/>
-      <c r="K195" s="73"/>
+      <c r="K195" s="71"/>
     </row>
     <row r="196" spans="1:11">
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="D196" s="6"/>
-      <c r="E196" s="59"/>
-      <c r="F196" s="59"/>
-      <c r="G196" s="59"/>
+      <c r="E196" s="57"/>
+      <c r="F196" s="57"/>
+      <c r="G196" s="57"/>
       <c r="H196" s="6"/>
       <c r="I196" s="6"/>
       <c r="J196" s="6"/>
-      <c r="K196" s="73"/>
+      <c r="K196" s="71"/>
     </row>
     <row r="197" spans="1:11">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="D197" s="6"/>
-      <c r="E197" s="59"/>
-      <c r="F197" s="59"/>
-      <c r="G197" s="59"/>
+      <c r="E197" s="57"/>
+      <c r="F197" s="57"/>
+      <c r="G197" s="57"/>
       <c r="H197" s="6"/>
       <c r="I197" s="6"/>
       <c r="J197" s="6"/>
-      <c r="K197" s="73"/>
+      <c r="K197" s="71"/>
     </row>
     <row r="198" spans="1:11">
       <c r="A198" s="6"/>
       <c r="B198" s="6"/>
       <c r="D198" s="6"/>
-      <c r="E198" s="59"/>
-      <c r="F198" s="59"/>
-      <c r="G198" s="59"/>
+      <c r="E198" s="57"/>
+      <c r="F198" s="57"/>
+      <c r="G198" s="57"/>
       <c r="H198" s="6"/>
       <c r="I198" s="6"/>
       <c r="J198" s="6"/>
-      <c r="K198" s="73"/>
+      <c r="K198" s="71"/>
     </row>
     <row r="199" spans="1:11">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="D199" s="6"/>
-      <c r="E199" s="59"/>
-      <c r="F199" s="59"/>
-      <c r="G199" s="59"/>
+      <c r="E199" s="57"/>
+      <c r="F199" s="57"/>
+      <c r="G199" s="57"/>
       <c r="H199" s="6"/>
       <c r="I199" s="6"/>
       <c r="J199" s="6"/>
-      <c r="K199" s="73"/>
+      <c r="K199" s="71"/>
     </row>
     <row r="200" spans="1:11">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="D200" s="6"/>
-      <c r="E200" s="59"/>
-      <c r="F200" s="59"/>
-      <c r="G200" s="59"/>
+      <c r="E200" s="57"/>
+      <c r="F200" s="57"/>
+      <c r="G200" s="57"/>
       <c r="H200" s="6"/>
       <c r="I200" s="6"/>
       <c r="J200" s="6"/>
-      <c r="K200" s="73"/>
+      <c r="K200" s="71"/>
     </row>
     <row r="201" spans="1:11">
       <c r="A201" s="6"/>
       <c r="B201" s="6"/>
       <c r="D201" s="6"/>
-      <c r="E201" s="59"/>
-      <c r="F201" s="59"/>
-      <c r="G201" s="59"/>
+      <c r="E201" s="57"/>
+      <c r="F201" s="57"/>
+      <c r="G201" s="57"/>
       <c r="H201" s="6"/>
       <c r="I201" s="6"/>
       <c r="J201" s="6"/>
-      <c r="K201" s="73"/>
+      <c r="K201" s="71"/>
     </row>
     <row r="202" spans="1:11">
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
       <c r="D202" s="6"/>
-      <c r="E202" s="59"/>
-      <c r="F202" s="59"/>
-      <c r="G202" s="59"/>
+      <c r="E202" s="57"/>
+      <c r="F202" s="57"/>
+      <c r="G202" s="57"/>
       <c r="H202" s="6"/>
       <c r="I202" s="6"/>
       <c r="J202" s="6"/>
-      <c r="K202" s="73"/>
+      <c r="K202" s="71"/>
     </row>
     <row r="203" spans="1:11">
       <c r="A203" s="6"/>
       <c r="B203" s="6"/>
       <c r="D203" s="6"/>
-      <c r="E203" s="59"/>
-      <c r="F203" s="59"/>
-      <c r="G203" s="59"/>
+      <c r="E203" s="57"/>
+      <c r="F203" s="57"/>
+      <c r="G203" s="57"/>
       <c r="H203" s="6"/>
       <c r="I203" s="6"/>
       <c r="J203" s="6"/>
-      <c r="K203" s="73"/>
+      <c r="K203" s="71"/>
     </row>
     <row r="204" spans="1:11">
       <c r="A204" s="6"/>
       <c r="B204" s="6"/>
       <c r="D204" s="6"/>
-      <c r="E204" s="59"/>
-      <c r="F204" s="59"/>
-      <c r="G204" s="59"/>
+      <c r="E204" s="57"/>
+      <c r="F204" s="57"/>
+      <c r="G204" s="57"/>
       <c r="H204" s="6"/>
       <c r="I204" s="6"/>
       <c r="J204" s="6"/>
-      <c r="K204" s="73"/>
+      <c r="K204" s="71"/>
     </row>
     <row r="205" spans="1:11">
       <c r="A205" s="6"/>
       <c r="B205" s="6"/>
       <c r="D205" s="6"/>
-      <c r="E205" s="59"/>
-      <c r="F205" s="59"/>
-      <c r="G205" s="59"/>
+      <c r="E205" s="57"/>
+      <c r="F205" s="57"/>
+      <c r="G205" s="57"/>
       <c r="H205" s="6"/>
       <c r="I205" s="6"/>
       <c r="J205" s="6"/>
-      <c r="K205" s="73"/>
+      <c r="K205" s="71"/>
     </row>
     <row r="206" spans="1:11">
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
       <c r="D206" s="6"/>
-      <c r="E206" s="59"/>
-      <c r="F206" s="59"/>
-      <c r="G206" s="59"/>
+      <c r="E206" s="57"/>
+      <c r="F206" s="57"/>
+      <c r="G206" s="57"/>
       <c r="H206" s="6"/>
       <c r="I206" s="6"/>
       <c r="J206" s="6"/>
-      <c r="K206" s="73"/>
+      <c r="K206" s="71"/>
     </row>
     <row r="207" spans="1:11">
       <c r="A207" s="6"/>
       <c r="B207" s="6"/>
       <c r="D207" s="6"/>
-      <c r="E207" s="59"/>
-      <c r="F207" s="59"/>
-      <c r="G207" s="59"/>
+      <c r="E207" s="57"/>
+      <c r="F207" s="57"/>
+      <c r="G207" s="57"/>
       <c r="H207" s="6"/>
       <c r="I207" s="6"/>
       <c r="J207" s="6"/>
-      <c r="K207" s="73"/>
+      <c r="K207" s="71"/>
     </row>
     <row r="208" spans="1:11">
       <c r="A208" s="6"/>
       <c r="B208" s="6"/>
       <c r="D208" s="6"/>
-      <c r="E208" s="59"/>
-      <c r="F208" s="59"/>
-      <c r="G208" s="59"/>
+      <c r="E208" s="57"/>
+      <c r="F208" s="57"/>
+      <c r="G208" s="57"/>
       <c r="H208" s="6"/>
       <c r="I208" s="6"/>
       <c r="J208" s="6"/>
-      <c r="K208" s="73"/>
+      <c r="K208" s="71"/>
     </row>
     <row r="209" spans="1:11">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="D209" s="6"/>
-      <c r="E209" s="59"/>
-      <c r="F209" s="59"/>
-      <c r="G209" s="59"/>
+      <c r="E209" s="57"/>
+      <c r="F209" s="57"/>
+      <c r="G209" s="57"/>
       <c r="H209" s="6"/>
       <c r="I209" s="6"/>
       <c r="J209" s="6"/>
-      <c r="K209" s="73"/>
+      <c r="K209" s="71"/>
     </row>
     <row r="210" spans="1:11">
       <c r="A210" s="6"/>
       <c r="B210" s="6"/>
       <c r="D210" s="6"/>
-      <c r="E210" s="59"/>
-      <c r="F210" s="59"/>
-      <c r="G210" s="59"/>
+      <c r="E210" s="57"/>
+      <c r="F210" s="57"/>
+      <c r="G210" s="57"/>
       <c r="H210" s="6"/>
       <c r="I210" s="6"/>
       <c r="J210" s="6"/>
-      <c r="K210" s="73"/>
+      <c r="K210" s="71"/>
     </row>
     <row r="211" spans="1:11">
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="D211" s="6"/>
-      <c r="E211" s="59"/>
-      <c r="F211" s="59"/>
-      <c r="G211" s="59"/>
+      <c r="E211" s="57"/>
+      <c r="F211" s="57"/>
+      <c r="G211" s="57"/>
       <c r="H211" s="6"/>
       <c r="I211" s="6"/>
       <c r="J211" s="6"/>
-      <c r="K211" s="73"/>
+      <c r="K211" s="71"/>
     </row>
     <row r="212" spans="1:11">
       <c r="A212" s="6"/>
       <c r="B212" s="6"/>
       <c r="D212" s="6"/>
-      <c r="E212" s="59"/>
-      <c r="F212" s="59"/>
-      <c r="G212" s="59"/>
+      <c r="E212" s="57"/>
+      <c r="F212" s="57"/>
+      <c r="G212" s="57"/>
       <c r="H212" s="6"/>
       <c r="I212" s="6"/>
       <c r="J212" s="6"/>
-      <c r="K212" s="73"/>
+      <c r="K212" s="71"/>
     </row>
     <row r="213" spans="1:11">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="D213" s="6"/>
-      <c r="E213" s="59"/>
-      <c r="F213" s="59"/>
-      <c r="G213" s="59"/>
+      <c r="E213" s="57"/>
+      <c r="F213" s="57"/>
+      <c r="G213" s="57"/>
       <c r="H213" s="6"/>
       <c r="I213" s="6"/>
       <c r="J213" s="6"/>
-      <c r="K213" s="73"/>
+      <c r="K213" s="71"/>
     </row>
     <row r="214" spans="1:11">
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="D214" s="6"/>
-      <c r="E214" s="59"/>
-      <c r="F214" s="59"/>
-      <c r="G214" s="59"/>
+      <c r="E214" s="57"/>
+      <c r="F214" s="57"/>
+      <c r="G214" s="57"/>
       <c r="H214" s="6"/>
       <c r="I214" s="6"/>
       <c r="J214" s="6"/>
-      <c r="K214" s="73"/>
+      <c r="K214" s="71"/>
     </row>
     <row r="215" spans="1:11">
       <c r="A215" s="6"/>
       <c r="B215" s="6"/>
       <c r="D215" s="6"/>
-      <c r="E215" s="59"/>
-      <c r="F215" s="59"/>
-      <c r="G215" s="59"/>
+      <c r="E215" s="57"/>
+      <c r="F215" s="57"/>
+      <c r="G215" s="57"/>
       <c r="H215" s="6"/>
       <c r="I215" s="6"/>
       <c r="J215" s="6"/>
-      <c r="K215" s="73"/>
+      <c r="K215" s="71"/>
     </row>
     <row r="216" spans="1:11">
       <c r="A216" s="6"/>
       <c r="B216" s="6"/>
       <c r="D216" s="6"/>
-      <c r="E216" s="59"/>
-      <c r="F216" s="59"/>
-      <c r="G216" s="59"/>
+      <c r="E216" s="57"/>
+      <c r="F216" s="57"/>
+      <c r="G216" s="57"/>
       <c r="H216" s="6"/>
       <c r="I216" s="6"/>
       <c r="J216" s="6"/>
-      <c r="K216" s="73"/>
+      <c r="K216" s="71"/>
     </row>
     <row r="217" spans="1:11">
       <c r="A217" s="6"/>
       <c r="B217" s="6"/>
       <c r="D217" s="6"/>
-      <c r="E217" s="59"/>
-      <c r="F217" s="59"/>
-      <c r="G217" s="59"/>
+      <c r="E217" s="57"/>
+      <c r="F217" s="57"/>
+      <c r="G217" s="57"/>
       <c r="H217" s="6"/>
       <c r="I217" s="6"/>
       <c r="J217" s="6"/>
-      <c r="K217" s="73"/>
+      <c r="K217" s="71"/>
     </row>
     <row r="218" spans="1:11">
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
       <c r="D218" s="6"/>
-      <c r="E218" s="59"/>
-      <c r="F218" s="59"/>
-      <c r="G218" s="59"/>
+      <c r="E218" s="57"/>
+      <c r="F218" s="57"/>
+      <c r="G218" s="57"/>
       <c r="H218" s="6"/>
       <c r="I218" s="6"/>
       <c r="J218" s="6"/>
-      <c r="K218" s="73"/>
+      <c r="K218" s="71"/>
     </row>
     <row r="219" spans="1:11">
       <c r="A219" s="6"/>
       <c r="B219" s="6"/>
       <c r="D219" s="6"/>
-      <c r="E219" s="59"/>
-      <c r="F219" s="59"/>
-      <c r="G219" s="59"/>
+      <c r="E219" s="57"/>
+      <c r="F219" s="57"/>
+      <c r="G219" s="57"/>
       <c r="H219" s="6"/>
       <c r="I219" s="6"/>
       <c r="J219" s="6"/>
-      <c r="K219" s="73"/>
+      <c r="K219" s="71"/>
     </row>
     <row r="220" spans="1:11">
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
       <c r="D220" s="6"/>
-      <c r="E220" s="59"/>
-      <c r="F220" s="59"/>
-      <c r="G220" s="59"/>
+      <c r="E220" s="57"/>
+      <c r="F220" s="57"/>
+      <c r="G220" s="57"/>
       <c r="H220" s="6"/>
       <c r="I220" s="6"/>
       <c r="J220" s="6"/>
-      <c r="K220" s="73"/>
+      <c r="K220" s="71"/>
     </row>
     <row r="221" spans="1:11">
       <c r="A221" s="6"/>
       <c r="B221" s="6"/>
       <c r="D221" s="6"/>
-      <c r="E221" s="59"/>
-      <c r="F221" s="59"/>
-      <c r="G221" s="59"/>
+      <c r="E221" s="57"/>
+      <c r="F221" s="57"/>
+      <c r="G221" s="57"/>
       <c r="H221" s="6"/>
       <c r="I221" s="6"/>
       <c r="J221" s="6"/>
-      <c r="K221" s="73"/>
+      <c r="K221" s="71"/>
     </row>
     <row r="222" spans="1:11">
       <c r="A222" s="6"/>
       <c r="B222" s="6"/>
       <c r="D222" s="6"/>
-      <c r="E222" s="59"/>
-      <c r="F222" s="59"/>
-      <c r="G222" s="59"/>
+      <c r="E222" s="57"/>
+      <c r="F222" s="57"/>
+      <c r="G222" s="57"/>
       <c r="H222" s="6"/>
       <c r="I222" s="6"/>
       <c r="J222" s="6"/>
-      <c r="K222" s="73"/>
+      <c r="K222" s="71"/>
     </row>
     <row r="223" spans="1:11">
       <c r="A223" s="6"/>
       <c r="B223" s="6"/>
       <c r="D223" s="6"/>
-      <c r="E223" s="59"/>
-      <c r="F223" s="59"/>
-      <c r="G223" s="59"/>
+      <c r="E223" s="57"/>
+      <c r="F223" s="57"/>
+      <c r="G223" s="57"/>
       <c r="H223" s="6"/>
       <c r="I223" s="6"/>
       <c r="J223" s="6"/>
-      <c r="K223" s="73"/>
+      <c r="K223" s="71"/>
     </row>
     <row r="224" spans="1:11">
       <c r="A224" s="6"/>
       <c r="B224" s="6"/>
       <c r="D224" s="6"/>
-      <c r="E224" s="59"/>
-      <c r="F224" s="59"/>
-      <c r="G224" s="59"/>
+      <c r="E224" s="57"/>
+      <c r="F224" s="57"/>
+      <c r="G224" s="57"/>
       <c r="H224" s="6"/>
       <c r="I224" s="6"/>
       <c r="J224" s="6"/>
-      <c r="K224" s="73"/>
+      <c r="K224" s="71"/>
     </row>
     <row r="225" spans="1:11">
       <c r="A225" s="6"/>
       <c r="B225" s="6"/>
       <c r="D225" s="6"/>
-      <c r="E225" s="59"/>
-      <c r="F225" s="59"/>
-      <c r="G225" s="59"/>
+      <c r="E225" s="57"/>
+      <c r="F225" s="57"/>
+      <c r="G225" s="57"/>
       <c r="H225" s="6"/>
       <c r="I225" s="6"/>
       <c r="J225" s="6"/>
-      <c r="K225" s="73"/>
+      <c r="K225" s="71"/>
     </row>
     <row r="226" spans="1:11">
       <c r="A226" s="6"/>
       <c r="B226" s="6"/>
       <c r="D226" s="6"/>
-      <c r="E226" s="59"/>
-      <c r="F226" s="59"/>
-      <c r="G226" s="59"/>
+      <c r="E226" s="57"/>
+      <c r="F226" s="57"/>
+      <c r="G226" s="57"/>
       <c r="H226" s="6"/>
       <c r="I226" s="6"/>
       <c r="J226" s="6"/>
-      <c r="K226" s="73"/>
+      <c r="K226" s="71"/>
     </row>
     <row r="227" spans="1:11">
       <c r="A227" s="6"/>
       <c r="B227" s="6"/>
       <c r="D227" s="6"/>
-      <c r="E227" s="59"/>
-      <c r="F227" s="59"/>
-      <c r="G227" s="59"/>
+      <c r="E227" s="57"/>
+      <c r="F227" s="57"/>
+      <c r="G227" s="57"/>
       <c r="H227" s="6"/>
       <c r="I227" s="6"/>
       <c r="J227" s="6"/>
-      <c r="K227" s="73"/>
+      <c r="K227" s="71"/>
     </row>
     <row r="228" spans="1:11">
       <c r="A228" s="6"/>
       <c r="B228" s="6"/>
       <c r="D228" s="6"/>
-      <c r="E228" s="59"/>
-      <c r="F228" s="59"/>
-      <c r="G228" s="59"/>
+      <c r="E228" s="57"/>
+      <c r="F228" s="57"/>
+      <c r="G228" s="57"/>
       <c r="H228" s="6"/>
       <c r="I228" s="6"/>
       <c r="J228" s="6"/>
-      <c r="K228" s="73"/>
+      <c r="K228" s="71"/>
     </row>
     <row r="229" spans="1:11">
       <c r="A229" s="6"/>
       <c r="B229" s="6"/>
       <c r="D229" s="6"/>
-      <c r="E229" s="59"/>
-      <c r="F229" s="59"/>
-      <c r="G229" s="59"/>
+      <c r="E229" s="57"/>
+      <c r="F229" s="57"/>
+      <c r="G229" s="57"/>
       <c r="H229" s="6"/>
       <c r="I229" s="6"/>
       <c r="J229" s="6"/>
-      <c r="K229" s="73"/>
+      <c r="K229" s="71"/>
     </row>
     <row r="230" spans="1:11">
       <c r="A230" s="6"/>
       <c r="B230" s="6"/>
       <c r="D230" s="6"/>
-      <c r="E230" s="59"/>
-      <c r="F230" s="59"/>
-      <c r="G230" s="59"/>
+      <c r="E230" s="57"/>
+      <c r="F230" s="57"/>
+      <c r="G230" s="57"/>
       <c r="H230" s="6"/>
       <c r="I230" s="6"/>
       <c r="J230" s="6"/>
-      <c r="K230" s="73"/>
+      <c r="K230" s="71"/>
     </row>
     <row r="231" spans="1:11">
       <c r="A231" s="6"/>
       <c r="B231" s="6"/>
       <c r="D231" s="6"/>
-      <c r="E231" s="59"/>
-      <c r="F231" s="59"/>
-      <c r="G231" s="59"/>
+      <c r="E231" s="57"/>
+      <c r="F231" s="57"/>
+      <c r="G231" s="57"/>
       <c r="H231" s="6"/>
       <c r="I231" s="6"/>
       <c r="J231" s="6"/>
-      <c r="K231" s="73"/>
+      <c r="K231" s="71"/>
     </row>
     <row r="232" spans="1:11">
       <c r="A232" s="6"/>
       <c r="B232" s="6"/>
       <c r="D232" s="6"/>
-      <c r="E232" s="59"/>
-      <c r="F232" s="59"/>
-      <c r="G232" s="59"/>
+      <c r="E232" s="57"/>
+      <c r="F232" s="57"/>
+      <c r="G232" s="57"/>
       <c r="H232" s="6"/>
       <c r="I232" s="6"/>
       <c r="J232" s="6"/>
-      <c r="K232" s="73"/>
+      <c r="K232" s="71"/>
     </row>
     <row r="233" spans="1:11">
       <c r="A233" s="6"/>
       <c r="B233" s="6"/>
       <c r="D233" s="6"/>
-      <c r="E233" s="59"/>
-      <c r="F233" s="59"/>
-      <c r="G233" s="59"/>
+      <c r="E233" s="57"/>
+      <c r="F233" s="57"/>
+      <c r="G233" s="57"/>
       <c r="H233" s="6"/>
       <c r="I233" s="6"/>
       <c r="J233" s="6"/>
-      <c r="K233" s="73"/>
+      <c r="K233" s="71"/>
     </row>
     <row r="234" spans="1:11">
       <c r="A234" s="6"/>
       <c r="B234" s="6"/>
       <c r="D234" s="6"/>
-      <c r="E234" s="59"/>
-      <c r="F234" s="59"/>
-      <c r="G234" s="59"/>
+      <c r="E234" s="57"/>
+      <c r="F234" s="57"/>
+      <c r="G234" s="57"/>
       <c r="H234" s="6"/>
       <c r="I234" s="6"/>
       <c r="J234" s="6"/>
-      <c r="K234" s="73"/>
+      <c r="K234" s="71"/>
     </row>
     <row r="235" spans="1:11">
       <c r="A235" s="6"/>
       <c r="B235" s="6"/>
       <c r="D235" s="6"/>
-      <c r="E235" s="59"/>
-      <c r="F235" s="59"/>
-      <c r="G235" s="59"/>
+      <c r="E235" s="57"/>
+      <c r="F235" s="57"/>
+      <c r="G235" s="57"/>
       <c r="H235" s="6"/>
       <c r="I235" s="6"/>
       <c r="J235" s="6"/>
-      <c r="K235" s="73"/>
+      <c r="K235" s="71"/>
     </row>
     <row r="236" spans="1:11">
       <c r="A236" s="6"/>
       <c r="B236" s="6"/>
       <c r="D236" s="6"/>
-      <c r="E236" s="59"/>
-      <c r="F236" s="59"/>
-      <c r="G236" s="59"/>
+      <c r="E236" s="57"/>
+      <c r="F236" s="57"/>
+      <c r="G236" s="57"/>
       <c r="H236" s="6"/>
       <c r="I236" s="6"/>
       <c r="J236" s="6"/>
-      <c r="K236" s="73"/>
+      <c r="K236" s="71"/>
     </row>
     <row r="237" spans="1:11">
       <c r="A237" s="6"/>
       <c r="B237" s="6"/>
       <c r="D237" s="6"/>
-      <c r="E237" s="59"/>
-      <c r="F237" s="59"/>
-      <c r="G237" s="59"/>
+      <c r="E237" s="57"/>
+      <c r="F237" s="57"/>
+      <c r="G237" s="57"/>
       <c r="H237" s="6"/>
       <c r="I237" s="6"/>
       <c r="J237" s="6"/>
-      <c r="K237" s="73"/>
+      <c r="K237" s="71"/>
     </row>
     <row r="238" spans="1:11">
       <c r="A238" s="6"/>
       <c r="B238" s="6"/>
       <c r="D238" s="6"/>
-      <c r="E238" s="59"/>
-      <c r="F238" s="59"/>
-      <c r="G238" s="59"/>
+      <c r="E238" s="57"/>
+      <c r="F238" s="57"/>
+      <c r="G238" s="57"/>
       <c r="H238" s="6"/>
       <c r="I238" s="6"/>
       <c r="J238" s="6"/>
-      <c r="K238" s="73"/>
+      <c r="K238" s="71"/>
     </row>
     <row r="239" spans="1:11">
       <c r="A239" s="6"/>
       <c r="B239" s="6"/>
       <c r="D239" s="6"/>
-      <c r="E239" s="59"/>
-      <c r="F239" s="59"/>
-      <c r="G239" s="59"/>
+      <c r="E239" s="57"/>
+      <c r="F239" s="57"/>
+      <c r="G239" s="57"/>
       <c r="H239" s="6"/>
       <c r="I239" s="6"/>
       <c r="J239" s="6"/>
-      <c r="K239" s="73"/>
+      <c r="K239" s="71"/>
     </row>
     <row r="240" spans="1:11">
       <c r="A240" s="6"/>
       <c r="B240" s="6"/>
       <c r="D240" s="6"/>
-      <c r="E240" s="59"/>
-      <c r="F240" s="59"/>
-      <c r="G240" s="59"/>
+      <c r="E240" s="57"/>
+      <c r="F240" s="57"/>
+      <c r="G240" s="57"/>
       <c r="H240" s="6"/>
       <c r="I240" s="6"/>
       <c r="J240" s="6"/>
-      <c r="K240" s="73"/>
+      <c r="K240" s="71"/>
     </row>
     <row r="241" spans="1:11">
       <c r="A241" s="6"/>
       <c r="B241" s="6"/>
       <c r="D241" s="6"/>
-      <c r="E241" s="59"/>
-      <c r="F241" s="59"/>
-      <c r="G241" s="59"/>
+      <c r="E241" s="57"/>
+      <c r="F241" s="57"/>
+      <c r="G241" s="57"/>
       <c r="H241" s="6"/>
       <c r="I241" s="6"/>
       <c r="J241" s="6"/>
-      <c r="K241" s="73"/>
+      <c r="K241" s="71"/>
     </row>
     <row r="242" spans="1:11">
       <c r="A242" s="6"/>
       <c r="B242" s="6"/>
       <c r="D242" s="6"/>
-      <c r="E242" s="59"/>
-      <c r="F242" s="59"/>
-      <c r="G242" s="59"/>
+      <c r="E242" s="57"/>
+      <c r="F242" s="57"/>
+      <c r="G242" s="57"/>
       <c r="H242" s="6"/>
       <c r="I242" s="6"/>
       <c r="J242" s="6"/>
-      <c r="K242" s="73"/>
+      <c r="K242" s="71"/>
     </row>
     <row r="243" spans="1:11">
       <c r="A243" s="6"/>
       <c r="B243" s="6"/>
       <c r="D243" s="6"/>
-      <c r="E243" s="59"/>
-      <c r="F243" s="59"/>
-      <c r="G243" s="59"/>
+      <c r="E243" s="57"/>
+      <c r="F243" s="57"/>
+      <c r="G243" s="57"/>
       <c r="H243" s="6"/>
       <c r="I243" s="6"/>
       <c r="J243" s="6"/>
-      <c r="K243" s="73"/>
+      <c r="K243" s="71"/>
     </row>
     <row r="244" spans="1:11">
       <c r="A244" s="6"/>
       <c r="B244" s="6"/>
       <c r="D244" s="6"/>
-      <c r="E244" s="59"/>
-      <c r="F244" s="59"/>
-      <c r="G244" s="59"/>
+      <c r="E244" s="57"/>
+      <c r="F244" s="57"/>
+      <c r="G244" s="57"/>
       <c r="H244" s="6"/>
       <c r="I244" s="6"/>
       <c r="J244" s="6"/>
-      <c r="K244" s="73"/>
+      <c r="K244" s="71"/>
     </row>
     <row r="245" spans="1:11">
       <c r="A245" s="6"/>
       <c r="B245" s="6"/>
       <c r="D245" s="6"/>
-      <c r="E245" s="59"/>
-      <c r="F245" s="59"/>
-      <c r="G245" s="59"/>
+      <c r="E245" s="57"/>
+      <c r="F245" s="57"/>
+      <c r="G245" s="57"/>
       <c r="H245" s="6"/>
       <c r="I245" s="6"/>
       <c r="J245" s="6"/>
-      <c r="K245" s="73"/>
+      <c r="K245" s="71"/>
     </row>
     <row r="246" spans="1:11">
       <c r="A246" s="6"/>
       <c r="B246" s="6"/>
       <c r="D246" s="6"/>
-      <c r="E246" s="59"/>
-      <c r="F246" s="59"/>
-      <c r="G246" s="59"/>
+      <c r="E246" s="57"/>
+      <c r="F246" s="57"/>
+      <c r="G246" s="57"/>
       <c r="H246" s="6"/>
       <c r="I246" s="6"/>
       <c r="J246" s="6"/>
-      <c r="K246" s="73"/>
+      <c r="K246" s="71"/>
     </row>
     <row r="247" spans="1:11">
       <c r="A247" s="6"/>
       <c r="B247" s="6"/>
       <c r="D247" s="6"/>
-      <c r="E247" s="59"/>
-      <c r="F247" s="59"/>
-      <c r="G247" s="59"/>
+      <c r="E247" s="57"/>
+      <c r="F247" s="57"/>
+      <c r="G247" s="57"/>
       <c r="H247" s="6"/>
       <c r="I247" s="6"/>
       <c r="J247" s="6"/>
-      <c r="K247" s="73"/>
+      <c r="K247" s="71"/>
     </row>
     <row r="248" spans="1:11">
       <c r="A248" s="6"/>
       <c r="B248" s="6"/>
       <c r="D248" s="6"/>
-      <c r="E248" s="59"/>
-      <c r="F248" s="59"/>
-      <c r="G248" s="59"/>
+      <c r="E248" s="57"/>
+      <c r="F248" s="57"/>
+      <c r="G248" s="57"/>
       <c r="H248" s="6"/>
       <c r="I248" s="6"/>
       <c r="J248" s="6"/>
-      <c r="K248" s="73"/>
+      <c r="K248" s="71"/>
     </row>
     <row r="249" spans="1:11">
       <c r="A249" s="6"/>
       <c r="B249" s="6"/>
       <c r="D249" s="6"/>
-      <c r="E249" s="59"/>
-      <c r="F249" s="59"/>
-      <c r="G249" s="59"/>
+      <c r="E249" s="57"/>
+      <c r="F249" s="57"/>
+      <c r="G249" s="57"/>
       <c r="H249" s="6"/>
       <c r="I249" s="6"/>
       <c r="J249" s="6"/>
-      <c r="K249" s="73"/>
+      <c r="K249" s="71"/>
     </row>
     <row r="250" spans="1:11">
       <c r="A250" s="6"/>
       <c r="B250" s="6"/>
       <c r="D250" s="6"/>
-      <c r="E250" s="59"/>
-      <c r="F250" s="59"/>
-      <c r="G250" s="59"/>
+      <c r="E250" s="57"/>
+      <c r="F250" s="57"/>
+      <c r="G250" s="57"/>
       <c r="H250" s="6"/>
       <c r="I250" s="6"/>
       <c r="J250" s="6"/>
-      <c r="K250" s="73"/>
+      <c r="K250" s="71"/>
     </row>
     <row r="251" spans="1:11">
       <c r="A251" s="6"/>
       <c r="B251" s="6"/>
       <c r="D251" s="6"/>
-      <c r="E251" s="59"/>
-      <c r="F251" s="59"/>
-      <c r="G251" s="59"/>
+      <c r="E251" s="57"/>
+      <c r="F251" s="57"/>
+      <c r="G251" s="57"/>
       <c r="H251" s="6"/>
       <c r="I251" s="6"/>
       <c r="J251" s="6"/>
-      <c r="K251" s="73"/>
+      <c r="K251" s="71"/>
     </row>
     <row r="252" spans="1:11">
       <c r="A252" s="6"/>
       <c r="B252" s="6"/>
       <c r="D252" s="6"/>
-      <c r="E252" s="59"/>
-      <c r="F252" s="59"/>
-      <c r="G252" s="59"/>
+      <c r="E252" s="57"/>
+      <c r="F252" s="57"/>
+      <c r="G252" s="57"/>
       <c r="H252" s="6"/>
       <c r="I252" s="6"/>
       <c r="J252" s="6"/>
-      <c r="K252" s="73"/>
+      <c r="K252" s="71"/>
     </row>
     <row r="253" spans="1:11">
       <c r="A253" s="6"/>
       <c r="B253" s="6"/>
       <c r="D253" s="6"/>
-      <c r="E253" s="59"/>
-      <c r="F253" s="59"/>
-      <c r="G253" s="59"/>
+      <c r="E253" s="57"/>
+      <c r="F253" s="57"/>
+      <c r="G253" s="57"/>
       <c r="H253" s="6"/>
       <c r="I253" s="6"/>
       <c r="J253" s="6"/>
-      <c r="K253" s="73"/>
+      <c r="K253" s="71"/>
     </row>
     <row r="254" spans="1:11">
       <c r="A254" s="6"/>
       <c r="B254" s="6"/>
       <c r="D254" s="6"/>
-      <c r="E254" s="59"/>
-      <c r="F254" s="59"/>
-      <c r="G254" s="59"/>
+      <c r="E254" s="57"/>
+      <c r="F254" s="57"/>
+      <c r="G254" s="57"/>
       <c r="H254" s="6"/>
       <c r="I254" s="6"/>
       <c r="J254" s="6"/>
-      <c r="K254" s="73"/>
+      <c r="K254" s="71"/>
     </row>
     <row r="255" spans="1:11">
       <c r="A255" s="6"/>
       <c r="B255" s="6"/>
       <c r="D255" s="6"/>
-      <c r="E255" s="59"/>
-      <c r="F255" s="59"/>
-      <c r="G255" s="59"/>
+      <c r="E255" s="57"/>
+      <c r="F255" s="57"/>
+      <c r="G255" s="57"/>
       <c r="H255" s="6"/>
       <c r="I255" s="6"/>
       <c r="J255" s="6"/>
-      <c r="K255" s="73"/>
+      <c r="K255" s="71"/>
     </row>
     <row r="256" spans="1:11">
       <c r="A256" s="6"/>
       <c r="B256" s="6"/>
       <c r="D256" s="6"/>
-      <c r="E256" s="59"/>
-      <c r="F256" s="59"/>
-      <c r="G256" s="59"/>
+      <c r="E256" s="57"/>
+      <c r="F256" s="57"/>
+      <c r="G256" s="57"/>
       <c r="H256" s="6"/>
       <c r="I256" s="6"/>
       <c r="J256" s="6"/>
-      <c r="K256" s="73"/>
+      <c r="K256" s="71"/>
     </row>
     <row r="257" spans="1:11">
       <c r="A257" s="6"/>
       <c r="B257" s="6"/>
       <c r="D257" s="6"/>
-      <c r="E257" s="59"/>
-      <c r="F257" s="59"/>
-      <c r="G257" s="59"/>
+      <c r="E257" s="57"/>
+      <c r="F257" s="57"/>
+      <c r="G257" s="57"/>
       <c r="H257" s="6"/>
       <c r="I257" s="6"/>
       <c r="J257" s="6"/>
-      <c r="K257" s="73"/>
+      <c r="K257" s="71"/>
     </row>
     <row r="258" spans="1:11">
       <c r="A258" s="6"/>
       <c r="B258" s="6"/>
       <c r="D258" s="6"/>
-      <c r="E258" s="59"/>
-      <c r="F258" s="59"/>
-      <c r="G258" s="59"/>
+      <c r="E258" s="57"/>
+      <c r="F258" s="57"/>
+      <c r="G258" s="57"/>
       <c r="H258" s="6"/>
       <c r="I258" s="6"/>
       <c r="J258" s="6"/>
-      <c r="K258" s="73"/>
+      <c r="K258" s="71"/>
     </row>
     <row r="259" spans="1:11">
       <c r="A259" s="6"/>
       <c r="B259" s="6"/>
       <c r="D259" s="6"/>
-      <c r="E259" s="59"/>
-      <c r="F259" s="59"/>
-      <c r="G259" s="59"/>
+      <c r="E259" s="57"/>
+      <c r="F259" s="57"/>
+      <c r="G259" s="57"/>
       <c r="H259" s="6"/>
       <c r="I259" s="6"/>
       <c r="J259" s="6"/>
-      <c r="K259" s="73"/>
+      <c r="K259" s="71"/>
     </row>
     <row r="260" spans="1:11">
       <c r="A260" s="6"/>
       <c r="B260" s="6"/>
       <c r="D260" s="6"/>
-      <c r="E260" s="59"/>
-      <c r="F260" s="59"/>
-      <c r="G260" s="59"/>
+      <c r="E260" s="57"/>
+      <c r="F260" s="57"/>
+      <c r="G260" s="57"/>
       <c r="H260" s="6"/>
       <c r="I260" s="6"/>
       <c r="J260" s="6"/>
-      <c r="K260" s="73"/>
+      <c r="K260" s="71"/>
     </row>
     <row r="261" spans="1:11">
       <c r="A261" s="6"/>
       <c r="B261" s="6"/>
       <c r="D261" s="6"/>
-      <c r="E261" s="59"/>
-      <c r="F261" s="59"/>
-      <c r="G261" s="59"/>
+      <c r="E261" s="57"/>
+      <c r="F261" s="57"/>
+      <c r="G261" s="57"/>
       <c r="H261" s="6"/>
       <c r="I261" s="6"/>
       <c r="J261" s="6"/>
-      <c r="K261" s="73"/>
+      <c r="K261" s="71"/>
     </row>
     <row r="262" spans="1:11">
       <c r="A262" s="6"/>
       <c r="B262" s="6"/>
       <c r="D262" s="6"/>
-      <c r="E262" s="59"/>
-      <c r="F262" s="59"/>
-      <c r="G262" s="59"/>
+      <c r="E262" s="57"/>
+      <c r="F262" s="57"/>
+      <c r="G262" s="57"/>
       <c r="H262" s="6"/>
       <c r="I262" s="6"/>
       <c r="J262" s="6"/>
-      <c r="K262" s="73"/>
+      <c r="K262" s="71"/>
     </row>
     <row r="263" spans="1:11">
       <c r="A263" s="6"/>
       <c r="B263" s="6"/>
       <c r="D263" s="6"/>
-      <c r="E263" s="59"/>
-      <c r="F263" s="59"/>
-      <c r="G263" s="59"/>
+      <c r="E263" s="57"/>
+      <c r="F263" s="57"/>
+      <c r="G263" s="57"/>
       <c r="H263" s="6"/>
       <c r="I263" s="6"/>
       <c r="J263" s="6"/>
-      <c r="K263" s="73"/>
+      <c r="K263" s="71"/>
     </row>
     <row r="264" spans="1:11">
       <c r="A264" s="6"/>
       <c r="B264" s="6"/>
       <c r="D264" s="6"/>
-      <c r="E264" s="59"/>
-      <c r="F264" s="59"/>
-      <c r="G264" s="59"/>
+      <c r="E264" s="57"/>
+      <c r="F264" s="57"/>
+      <c r="G264" s="57"/>
       <c r="H264" s="6"/>
       <c r="I264" s="6"/>
       <c r="J264" s="6"/>
-      <c r="K264" s="73"/>
+      <c r="K264" s="71"/>
     </row>
     <row r="265" spans="1:11">
       <c r="A265" s="6"/>
       <c r="B265" s="6"/>
       <c r="D265" s="6"/>
-      <c r="E265" s="59"/>
-      <c r="F265" s="59"/>
-      <c r="G265" s="59"/>
+      <c r="E265" s="57"/>
+      <c r="F265" s="57"/>
+      <c r="G265" s="57"/>
       <c r="H265" s="6"/>
       <c r="I265" s="6"/>
       <c r="J265" s="6"/>
-      <c r="K265" s="73"/>
+      <c r="K265" s="71"/>
     </row>
     <row r="266" spans="1:11">
       <c r="A266" s="6"/>
       <c r="B266" s="6"/>
       <c r="D266" s="6"/>
-      <c r="E266" s="59"/>
-      <c r="F266" s="59"/>
-      <c r="G266" s="59"/>
+      <c r="E266" s="57"/>
+      <c r="F266" s="57"/>
+      <c r="G266" s="57"/>
       <c r="H266" s="6"/>
       <c r="I266" s="6"/>
       <c r="J266" s="6"/>
-      <c r="K266" s="73"/>
+      <c r="K266" s="71"/>
     </row>
     <row r="267" spans="1:11">
       <c r="A267" s="6"/>
       <c r="B267" s="6"/>
       <c r="D267" s="6"/>
-      <c r="E267" s="59"/>
-      <c r="F267" s="59"/>
-      <c r="G267" s="59"/>
+      <c r="E267" s="57"/>
+      <c r="F267" s="57"/>
+      <c r="G267" s="57"/>
       <c r="H267" s="6"/>
       <c r="I267" s="6"/>
       <c r="J267" s="6"/>
-      <c r="K267" s="73"/>
+      <c r="K267" s="71"/>
     </row>
     <row r="268" spans="1:11">
       <c r="A268" s="6"/>
       <c r="B268" s="6"/>
       <c r="D268" s="6"/>
-      <c r="E268" s="59"/>
-      <c r="F268" s="59"/>
-      <c r="G268" s="59"/>
+      <c r="E268" s="57"/>
+      <c r="F268" s="57"/>
+      <c r="G268" s="57"/>
       <c r="H268" s="6"/>
       <c r="I268" s="6"/>
       <c r="J268" s="6"/>
-      <c r="K268" s="73"/>
+      <c r="K268" s="71"/>
     </row>
     <row r="269" spans="1:11">
       <c r="A269" s="6"/>
       <c r="B269" s="6"/>
       <c r="D269" s="6"/>
-      <c r="E269" s="59"/>
-      <c r="F269" s="59"/>
-      <c r="G269" s="59"/>
+      <c r="E269" s="57"/>
+      <c r="F269" s="57"/>
+      <c r="G269" s="57"/>
       <c r="H269" s="6"/>
       <c r="I269" s="6"/>
       <c r="J269" s="6"/>
-      <c r="K269" s="73"/>
+      <c r="K269" s="71"/>
     </row>
     <row r="270" spans="1:11">
       <c r="A270" s="6"/>
       <c r="B270" s="6"/>
       <c r="D270" s="6"/>
-      <c r="E270" s="59"/>
-      <c r="F270" s="59"/>
-      <c r="G270" s="59"/>
+      <c r="E270" s="57"/>
+      <c r="F270" s="57"/>
+      <c r="G270" s="57"/>
       <c r="H270" s="6"/>
       <c r="I270" s="6"/>
       <c r="J270" s="6"/>
-      <c r="K270" s="73"/>
+      <c r="K270" s="71"/>
     </row>
     <row r="271" spans="1:11">
       <c r="A271" s="6"/>
       <c r="B271" s="6"/>
       <c r="D271" s="6"/>
-      <c r="E271" s="59"/>
-      <c r="F271" s="59"/>
-      <c r="G271" s="59"/>
+      <c r="E271" s="57"/>
+      <c r="F271" s="57"/>
+      <c r="G271" s="57"/>
       <c r="H271" s="6"/>
       <c r="I271" s="6"/>
       <c r="J271" s="6"/>
-      <c r="K271" s="73"/>
+      <c r="K271" s="71"/>
     </row>
     <row r="272" spans="1:11">
       <c r="A272" s="6"/>
       <c r="B272" s="6"/>
       <c r="D272" s="6"/>
-      <c r="E272" s="59"/>
-      <c r="F272" s="59"/>
-      <c r="G272" s="59"/>
+      <c r="E272" s="57"/>
+      <c r="F272" s="57"/>
+      <c r="G272" s="57"/>
       <c r="H272" s="6"/>
       <c r="I272" s="6"/>
       <c r="J272" s="6"/>
-      <c r="K272" s="73"/>
+      <c r="K272" s="71"/>
     </row>
     <row r="273" spans="1:11">
       <c r="A273" s="6"/>
       <c r="B273" s="6"/>
       <c r="D273" s="6"/>
-      <c r="E273" s="59"/>
-      <c r="F273" s="59"/>
-      <c r="G273" s="59"/>
+      <c r="E273" s="57"/>
+      <c r="F273" s="57"/>
+      <c r="G273" s="57"/>
       <c r="H273" s="6"/>
       <c r="I273" s="6"/>
       <c r="J273" s="6"/>
-      <c r="K273" s="73"/>
+      <c r="K273" s="71"/>
     </row>
     <row r="274" spans="1:11">
       <c r="A274" s="6"/>
       <c r="B274" s="6"/>
       <c r="D274" s="6"/>
-      <c r="E274" s="59"/>
-      <c r="F274" s="59"/>
-      <c r="G274" s="59"/>
+      <c r="E274" s="57"/>
+      <c r="F274" s="57"/>
+      <c r="G274" s="57"/>
       <c r="H274" s="6"/>
       <c r="I274" s="6"/>
       <c r="J274" s="6"/>
-      <c r="K274" s="73"/>
+      <c r="K274" s="71"/>
     </row>
     <row r="275" spans="1:11">
       <c r="A275" s="6"/>
       <c r="B275" s="6"/>
       <c r="D275" s="6"/>
-      <c r="E275" s="59"/>
-      <c r="F275" s="59"/>
-      <c r="G275" s="59"/>
+      <c r="E275" s="57"/>
+      <c r="F275" s="57"/>
+      <c r="G275" s="57"/>
       <c r="H275" s="6"/>
       <c r="I275" s="6"/>
       <c r="J275" s="6"/>
-      <c r="K275" s="73"/>
+      <c r="K275" s="71"/>
     </row>
     <row r="276" spans="1:11">
       <c r="A276" s="6"/>
       <c r="B276" s="6"/>
       <c r="D276" s="6"/>
-      <c r="E276" s="59"/>
-      <c r="F276" s="59"/>
-      <c r="G276" s="59"/>
+      <c r="E276" s="57"/>
+      <c r="F276" s="57"/>
+      <c r="G276" s="57"/>
       <c r="H276" s="6"/>
       <c r="I276" s="6"/>
       <c r="J276" s="6"/>
-      <c r="K276" s="73"/>
+      <c r="K276" s="71"/>
     </row>
     <row r="277" spans="1:11">
       <c r="A277" s="6"/>
       <c r="B277" s="6"/>
       <c r="D277" s="6"/>
-      <c r="E277" s="59"/>
-      <c r="F277" s="59"/>
-      <c r="G277" s="59"/>
+      <c r="E277" s="57"/>
+      <c r="F277" s="57"/>
+      <c r="G277" s="57"/>
       <c r="H277" s="6"/>
       <c r="I277" s="6"/>
       <c r="J277" s="6"/>
-      <c r="K277" s="73"/>
+      <c r="K277" s="71"/>
     </row>
     <row r="278" spans="1:11">
       <c r="A278" s="6"/>
       <c r="B278" s="6"/>
       <c r="D278" s="6"/>
-      <c r="E278" s="59"/>
-      <c r="F278" s="59"/>
-      <c r="G278" s="59"/>
+      <c r="E278" s="57"/>
+      <c r="F278" s="57"/>
+      <c r="G278" s="57"/>
       <c r="H278" s="6"/>
       <c r="I278" s="6"/>
       <c r="J278" s="6"/>
-      <c r="K278" s="73"/>
+      <c r="K278" s="71"/>
     </row>
     <row r="279" spans="1:11">
       <c r="A279" s="6"/>
       <c r="B279" s="6"/>
       <c r="D279" s="6"/>
-      <c r="E279" s="59"/>
-      <c r="F279" s="59"/>
-      <c r="G279" s="59"/>
+      <c r="E279" s="57"/>
+      <c r="F279" s="57"/>
+      <c r="G279" s="57"/>
       <c r="H279" s="6"/>
       <c r="I279" s="6"/>
       <c r="J279" s="6"/>
-      <c r="K279" s="73"/>
+      <c r="K279" s="71"/>
     </row>
     <row r="280" spans="1:11">
       <c r="A280" s="6"/>
       <c r="B280" s="6"/>
       <c r="D280" s="6"/>
-      <c r="E280" s="59"/>
-      <c r="F280" s="59"/>
-      <c r="G280" s="59"/>
+      <c r="E280" s="57"/>
+      <c r="F280" s="57"/>
+      <c r="G280" s="57"/>
       <c r="H280" s="6"/>
       <c r="I280" s="6"/>
       <c r="J280" s="6"/>
-      <c r="K280" s="73"/>
+      <c r="K280" s="71"/>
     </row>
     <row r="281" spans="1:11">
       <c r="A281" s="6"/>
       <c r="B281" s="6"/>
       <c r="D281" s="6"/>
-      <c r="E281" s="59"/>
-      <c r="F281" s="59"/>
-      <c r="G281" s="59"/>
+      <c r="E281" s="57"/>
+      <c r="F281" s="57"/>
+      <c r="G281" s="57"/>
       <c r="H281" s="6"/>
       <c r="I281" s="6"/>
       <c r="J281" s="6"/>
-      <c r="K281" s="73"/>
+      <c r="K281" s="71"/>
     </row>
     <row r="282" spans="1:11">
       <c r="A282" s="6"/>
       <c r="B282" s="6"/>
       <c r="D282" s="6"/>
-      <c r="E282" s="59"/>
-      <c r="F282" s="59"/>
-      <c r="G282" s="59"/>
+      <c r="E282" s="57"/>
+      <c r="F282" s="57"/>
+      <c r="G282" s="57"/>
       <c r="H282" s="6"/>
       <c r="I282" s="6"/>
       <c r="J282" s="6"/>
-      <c r="K282" s="73"/>
+      <c r="K282" s="71"/>
     </row>
     <row r="283" spans="1:11">
       <c r="A283" s="6"/>
       <c r="B283" s="6"/>
       <c r="D283" s="6"/>
-      <c r="E283" s="59"/>
-      <c r="F283" s="59"/>
-      <c r="G283" s="59"/>
+      <c r="E283" s="57"/>
+      <c r="F283" s="57"/>
+      <c r="G283" s="57"/>
       <c r="H283" s="6"/>
       <c r="I283" s="6"/>
       <c r="J283" s="6"/>
-      <c r="K283" s="73"/>
+      <c r="K283" s="71"/>
     </row>
     <row r="284" spans="1:11">
       <c r="A284" s="6"/>
       <c r="B284" s="6"/>
       <c r="D284" s="6"/>
-      <c r="E284" s="59"/>
-      <c r="F284" s="59"/>
-      <c r="G284" s="59"/>
+      <c r="E284" s="57"/>
+      <c r="F284" s="57"/>
+      <c r="G284" s="57"/>
       <c r="H284" s="6"/>
       <c r="I284" s="6"/>
       <c r="J284" s="6"/>
-      <c r="K284" s="73"/>
+      <c r="K284" s="71"/>
     </row>
     <row r="285" spans="1:11">
       <c r="A285" s="6"/>
       <c r="B285" s="6"/>
       <c r="D285" s="6"/>
-      <c r="E285" s="59"/>
-      <c r="F285" s="59"/>
-      <c r="G285" s="59"/>
+      <c r="E285" s="57"/>
+      <c r="F285" s="57"/>
+      <c r="G285" s="57"/>
       <c r="H285" s="6"/>
       <c r="I285" s="6"/>
       <c r="J285" s="6"/>
-      <c r="K285" s="73"/>
+      <c r="K285" s="71"/>
     </row>
     <row r="286" spans="1:11">
       <c r="A286" s="6"/>
       <c r="B286" s="6"/>
       <c r="D286" s="6"/>
-      <c r="E286" s="59"/>
-      <c r="F286" s="59"/>
-      <c r="G286" s="59"/>
+      <c r="E286" s="57"/>
+      <c r="F286" s="57"/>
+      <c r="G286" s="57"/>
       <c r="H286" s="6"/>
       <c r="I286" s="6"/>
       <c r="J286" s="6"/>
-      <c r="K286" s="73"/>
+      <c r="K286" s="71"/>
     </row>
     <row r="287" spans="1:11">
       <c r="A287" s="6"/>
       <c r="B287" s="6"/>
       <c r="D287" s="6"/>
-      <c r="E287" s="59"/>
-      <c r="F287" s="59"/>
-      <c r="G287" s="59"/>
+      <c r="E287" s="57"/>
+      <c r="F287" s="57"/>
+      <c r="G287" s="57"/>
       <c r="H287" s="6"/>
       <c r="I287" s="6"/>
       <c r="J287" s="6"/>
-      <c r="K287" s="73"/>
+      <c r="K287" s="71"/>
     </row>
     <row r="288" spans="1:11">
       <c r="A288" s="6"/>
       <c r="B288" s="6"/>
       <c r="D288" s="6"/>
-      <c r="E288" s="59"/>
-      <c r="F288" s="59"/>
-      <c r="G288" s="59"/>
+      <c r="E288" s="57"/>
+      <c r="F288" s="57"/>
+      <c r="G288" s="57"/>
       <c r="H288" s="6"/>
       <c r="I288" s="6"/>
       <c r="J288" s="6"/>
-      <c r="K288" s="73"/>
+      <c r="K288" s="71"/>
     </row>
     <row r="289" spans="1:11">
       <c r="A289" s="6"/>
       <c r="B289" s="6"/>
       <c r="D289" s="6"/>
-      <c r="E289" s="59"/>
-      <c r="F289" s="59"/>
-      <c r="G289" s="59"/>
+      <c r="E289" s="57"/>
+      <c r="F289" s="57"/>
+      <c r="G289" s="57"/>
       <c r="H289" s="6"/>
       <c r="I289" s="6"/>
       <c r="J289" s="6"/>
-      <c r="K289" s="73"/>
+      <c r="K289" s="71"/>
     </row>
     <row r="290" spans="1:11">
       <c r="A290" s="6"/>
       <c r="B290" s="6"/>
       <c r="D290" s="6"/>
-      <c r="E290" s="59"/>
-      <c r="F290" s="59"/>
-      <c r="G290" s="59"/>
+      <c r="E290" s="57"/>
+      <c r="F290" s="57"/>
+      <c r="G290" s="57"/>
       <c r="H290" s="6"/>
       <c r="I290" s="6"/>
       <c r="J290" s="6"/>
-      <c r="K290" s="73"/>
+      <c r="K290" s="71"/>
     </row>
     <row r="291" spans="1:11">
       <c r="A291" s="6"/>
       <c r="B291" s="6"/>
       <c r="D291" s="6"/>
-      <c r="E291" s="59"/>
-      <c r="F291" s="59"/>
-      <c r="G291" s="59"/>
+      <c r="E291" s="57"/>
+      <c r="F291" s="57"/>
+      <c r="G291" s="57"/>
       <c r="H291" s="6"/>
       <c r="I291" s="6"/>
       <c r="J291" s="6"/>
-      <c r="K291" s="73"/>
+      <c r="K291" s="71"/>
     </row>
     <row r="292" spans="1:11">
       <c r="A292" s="6"/>
       <c r="B292" s="6"/>
       <c r="D292" s="6"/>
-      <c r="E292" s="59"/>
-      <c r="F292" s="59"/>
-      <c r="G292" s="59"/>
+      <c r="E292" s="57"/>
+      <c r="F292" s="57"/>
+      <c r="G292" s="57"/>
       <c r="H292" s="6"/>
       <c r="I292" s="6"/>
       <c r="J292" s="6"/>
-      <c r="K292" s="73"/>
+      <c r="K292" s="71"/>
     </row>
     <row r="293" spans="1:11">
       <c r="A293" s="6"/>
       <c r="B293" s="6"/>
       <c r="D293" s="6"/>
-      <c r="E293" s="59"/>
-      <c r="F293" s="59"/>
-      <c r="G293" s="59"/>
+      <c r="E293" s="57"/>
+      <c r="F293" s="57"/>
+      <c r="G293" s="57"/>
       <c r="H293" s="6"/>
       <c r="I293" s="6"/>
       <c r="J293" s="6"/>
-      <c r="K293" s="73"/>
+      <c r="K293" s="71"/>
     </row>
     <row r="294" spans="1:11">
       <c r="A294" s="6"/>
       <c r="B294" s="6"/>
       <c r="D294" s="6"/>
-      <c r="E294" s="59"/>
-      <c r="F294" s="59"/>
-      <c r="G294" s="59"/>
+      <c r="E294" s="57"/>
+      <c r="F294" s="57"/>
+      <c r="G294" s="57"/>
       <c r="H294" s="6"/>
       <c r="I294" s="6"/>
       <c r="J294" s="6"/>
-      <c r="K294" s="73"/>
+      <c r="K294" s="71"/>
     </row>
     <row r="295" spans="1:11">
       <c r="A295" s="6"/>
       <c r="B295" s="6"/>
       <c r="D295" s="6"/>
-      <c r="E295" s="59"/>
-      <c r="F295" s="59"/>
-      <c r="G295" s="59"/>
+      <c r="E295" s="57"/>
+      <c r="F295" s="57"/>
+      <c r="G295" s="57"/>
       <c r="H295" s="6"/>
       <c r="I295" s="6"/>
       <c r="J295" s="6"/>
-      <c r="K295" s="73"/>
+      <c r="K295" s="71"/>
     </row>
     <row r="296" spans="1:11">
       <c r="A296" s="6"/>
       <c r="B296" s="6"/>
       <c r="D296" s="6"/>
-      <c r="E296" s="59"/>
-      <c r="F296" s="59"/>
-      <c r="G296" s="59"/>
+      <c r="E296" s="57"/>
+      <c r="F296" s="57"/>
+      <c r="G296" s="57"/>
       <c r="H296" s="6"/>
       <c r="I296" s="6"/>
       <c r="J296" s="6"/>
-      <c r="K296" s="73"/>
+      <c r="K296" s="71"/>
     </row>
     <row r="297" spans="1:11">
       <c r="A297" s="6"/>
       <c r="B297" s="6"/>
       <c r="D297" s="6"/>
-      <c r="E297" s="59"/>
-      <c r="F297" s="59"/>
-      <c r="G297" s="59"/>
+      <c r="E297" s="57"/>
+      <c r="F297" s="57"/>
+      <c r="G297" s="57"/>
       <c r="H297" s="6"/>
       <c r="I297" s="6"/>
       <c r="J297" s="6"/>
-      <c r="K297" s="73"/>
+      <c r="K297" s="71"/>
     </row>
     <row r="298" spans="1:11">
       <c r="A298" s="6"/>
       <c r="B298" s="6"/>
       <c r="D298" s="6"/>
-      <c r="E298" s="59"/>
-      <c r="F298" s="59"/>
-      <c r="G298" s="59"/>
+      <c r="E298" s="57"/>
+      <c r="F298" s="57"/>
+      <c r="G298" s="57"/>
       <c r="H298" s="6"/>
       <c r="I298" s="6"/>
       <c r="J298" s="6"/>
-      <c r="K298" s="73"/>
+      <c r="K298" s="71"/>
     </row>
     <row r="299" spans="1:11">
       <c r="A299" s="6"/>
       <c r="B299" s="6"/>
       <c r="D299" s="6"/>
-      <c r="E299" s="59"/>
-      <c r="F299" s="59"/>
-      <c r="G299" s="59"/>
+      <c r="E299" s="57"/>
+      <c r="F299" s="57"/>
+      <c r="G299" s="57"/>
       <c r="H299" s="6"/>
       <c r="I299" s="6"/>
       <c r="J299" s="6"/>
-      <c r="K299" s="73"/>
+      <c r="K299" s="71"/>
     </row>
     <row r="300" spans="1:11">
       <c r="A300" s="6"/>
       <c r="B300" s="6"/>
       <c r="D300" s="6"/>
-      <c r="E300" s="59"/>
-      <c r="F300" s="59"/>
-      <c r="G300" s="59"/>
+      <c r="E300" s="57"/>
+      <c r="F300" s="57"/>
+      <c r="G300" s="57"/>
       <c r="H300" s="6"/>
       <c r="I300" s="6"/>
       <c r="J300" s="6"/>
-      <c r="K300" s="73"/>
+      <c r="K300" s="71"/>
     </row>
     <row r="301" spans="1:11">
       <c r="A301" s="6"/>
       <c r="B301" s="6"/>
       <c r="D301" s="6"/>
-      <c r="E301" s="59"/>
-      <c r="F301" s="59"/>
-      <c r="G301" s="59"/>
+      <c r="E301" s="57"/>
+      <c r="F301" s="57"/>
+      <c r="G301" s="57"/>
       <c r="H301" s="6"/>
       <c r="I301" s="6"/>
       <c r="J301" s="6"/>
-      <c r="K301" s="73"/>
+      <c r="K301" s="71"/>
     </row>
     <row r="302" spans="1:11">
       <c r="A302" s="6"/>
       <c r="B302" s="6"/>
       <c r="D302" s="6"/>
-      <c r="E302" s="59"/>
-      <c r="F302" s="59"/>
-      <c r="G302" s="59"/>
+      <c r="E302" s="57"/>
+      <c r="F302" s="57"/>
+      <c r="G302" s="57"/>
       <c r="H302" s="6"/>
       <c r="I302" s="6"/>
       <c r="J302" s="6"/>
-      <c r="K302" s="73"/>
+      <c r="K302" s="71"/>
     </row>
     <row r="303" spans="1:11">
       <c r="A303" s="6"/>
       <c r="B303" s="6"/>
       <c r="D303" s="6"/>
-      <c r="E303" s="59"/>
-      <c r="F303" s="59"/>
-      <c r="G303" s="59"/>
+      <c r="E303" s="57"/>
+      <c r="F303" s="57"/>
+      <c r="G303" s="57"/>
       <c r="H303" s="6"/>
       <c r="I303" s="6"/>
       <c r="J303" s="6"/>
-      <c r="K303" s="73"/>
+      <c r="K303" s="71"/>
     </row>
     <row r="304" spans="1:11">
       <c r="A304" s="6"/>
       <c r="B304" s="6"/>
       <c r="D304" s="6"/>
-      <c r="E304" s="59"/>
-      <c r="F304" s="59"/>
-      <c r="G304" s="59"/>
+      <c r="E304" s="57"/>
+      <c r="F304" s="57"/>
+      <c r="G304" s="57"/>
       <c r="H304" s="6"/>
       <c r="I304" s="6"/>
       <c r="J304" s="6"/>
-      <c r="K304" s="73"/>
+      <c r="K304" s="71"/>
     </row>
     <row r="305" spans="1:11">
       <c r="A305" s="6"/>
       <c r="B305" s="6"/>
       <c r="D305" s="6"/>
-      <c r="E305" s="59"/>
-      <c r="F305" s="59"/>
-      <c r="G305" s="59"/>
+      <c r="E305" s="57"/>
+      <c r="F305" s="57"/>
+      <c r="G305" s="57"/>
       <c r="H305" s="6"/>
       <c r="I305" s="6"/>
       <c r="J305" s="6"/>
-      <c r="K305" s="73"/>
+      <c r="K305" s="71"/>
     </row>
     <row r="306" spans="1:11">
       <c r="A306" s="6"/>
       <c r="B306" s="6"/>
       <c r="D306" s="6"/>
-      <c r="E306" s="59"/>
-      <c r="F306" s="59"/>
-      <c r="G306" s="59"/>
+      <c r="E306" s="57"/>
+      <c r="F306" s="57"/>
+      <c r="G306" s="57"/>
       <c r="H306" s="6"/>
       <c r="I306" s="6"/>
       <c r="J306" s="6"/>
-      <c r="K306" s="73"/>
+      <c r="K306" s="71"/>
     </row>
     <row r="307" spans="1:11">
       <c r="A307" s="6"/>
       <c r="B307" s="6"/>
       <c r="D307" s="6"/>
-      <c r="E307" s="59"/>
-      <c r="F307" s="59"/>
-      <c r="G307" s="59"/>
+      <c r="E307" s="57"/>
+      <c r="F307" s="57"/>
+      <c r="G307" s="57"/>
       <c r="H307" s="6"/>
       <c r="I307" s="6"/>
       <c r="J307" s="6"/>
-      <c r="K307" s="73"/>
+      <c r="K307" s="71"/>
     </row>
     <row r="308" spans="1:11">
       <c r="A308" s="6"/>
       <c r="B308" s="6"/>
       <c r="D308" s="6"/>
-      <c r="E308" s="59"/>
-      <c r="F308" s="59"/>
-      <c r="G308" s="59"/>
+      <c r="E308" s="57"/>
+      <c r="F308" s="57"/>
+      <c r="G308" s="57"/>
       <c r="H308" s="6"/>
       <c r="I308" s="6"/>
       <c r="J308" s="6"/>
-      <c r="K308" s="73"/>
+      <c r="K308" s="71"/>
     </row>
     <row r="309" spans="1:11">
       <c r="A309" s="6"/>
       <c r="B309" s="6"/>
       <c r="D309" s="6"/>
-      <c r="E309" s="59"/>
-      <c r="F309" s="59"/>
-      <c r="G309" s="59"/>
+      <c r="E309" s="57"/>
+      <c r="F309" s="57"/>
+      <c r="G309" s="57"/>
       <c r="H309" s="6"/>
       <c r="I309" s="6"/>
       <c r="J309" s="6"/>
-      <c r="K309" s="73"/>
+      <c r="K309" s="71"/>
     </row>
     <row r="310" spans="1:11">
       <c r="A310" s="6"/>
       <c r="B310" s="6"/>
       <c r="D310" s="6"/>
-      <c r="E310" s="59"/>
-      <c r="F310" s="59"/>
-      <c r="G310" s="59"/>
+      <c r="E310" s="57"/>
+      <c r="F310" s="57"/>
+      <c r="G310" s="57"/>
       <c r="H310" s="6"/>
       <c r="I310" s="6"/>
       <c r="J310" s="6"/>
-      <c r="K310" s="73"/>
+      <c r="K310" s="71"/>
     </row>
     <row r="311" spans="1:11">
       <c r="A311" s="6"/>
       <c r="B311" s="6"/>
       <c r="D311" s="6"/>
-      <c r="E311" s="59"/>
-      <c r="F311" s="59"/>
-      <c r="G311" s="59"/>
+      <c r="E311" s="57"/>
+      <c r="F311" s="57"/>
+      <c r="G311" s="57"/>
       <c r="H311" s="6"/>
       <c r="I311" s="6"/>
       <c r="J311" s="6"/>
-      <c r="K311" s="73"/>
+      <c r="K311" s="71"/>
     </row>
     <row r="312" spans="1:11">
       <c r="A312" s="6"/>
       <c r="B312" s="6"/>
       <c r="D312" s="6"/>
-      <c r="E312" s="59"/>
-      <c r="F312" s="59"/>
-      <c r="G312" s="59"/>
+      <c r="E312" s="57"/>
+      <c r="F312" s="57"/>
+      <c r="G312" s="57"/>
       <c r="H312" s="6"/>
       <c r="I312" s="6"/>
       <c r="J312" s="6"/>
-      <c r="K312" s="73"/>
+      <c r="K312" s="71"/>
     </row>
     <row r="313" spans="1:11">
       <c r="A313" s="6"/>
       <c r="B313" s="6"/>
       <c r="D313" s="6"/>
-      <c r="E313" s="59"/>
-      <c r="F313" s="59"/>
-      <c r="G313" s="59"/>
+      <c r="E313" s="57"/>
+      <c r="F313" s="57"/>
+      <c r="G313" s="57"/>
       <c r="H313" s="6"/>
       <c r="I313" s="6"/>
       <c r="J313" s="6"/>
-      <c r="K313" s="73"/>
+      <c r="K313" s="71"/>
     </row>
     <row r="314" spans="1:11">
       <c r="A314" s="6"/>
       <c r="B314" s="6"/>
       <c r="D314" s="6"/>
-      <c r="E314" s="59"/>
-      <c r="F314" s="59"/>
-      <c r="G314" s="59"/>
+      <c r="E314" s="57"/>
+      <c r="F314" s="57"/>
+      <c r="G314" s="57"/>
       <c r="H314" s="6"/>
       <c r="I314" s="6"/>
       <c r="J314" s="6"/>
-      <c r="K314" s="73"/>
+      <c r="K314" s="71"/>
     </row>
     <row r="315" spans="1:11">
       <c r="A315" s="6"/>
       <c r="B315" s="6"/>
       <c r="D315" s="6"/>
-      <c r="E315" s="59"/>
-      <c r="F315" s="59"/>
-      <c r="G315" s="59"/>
+      <c r="E315" s="57"/>
+      <c r="F315" s="57"/>
+      <c r="G315" s="57"/>
       <c r="H315" s="6"/>
       <c r="I315" s="6"/>
       <c r="J315" s="6"/>
-      <c r="K315" s="73"/>
+      <c r="K315" s="71"/>
     </row>
     <row r="316" spans="1:11">
       <c r="A316" s="6"/>
       <c r="B316" s="6"/>
       <c r="D316" s="6"/>
-      <c r="E316" s="59"/>
-      <c r="F316" s="59"/>
-      <c r="G316" s="59"/>
+      <c r="E316" s="57"/>
+      <c r="F316" s="57"/>
+      <c r="G316" s="57"/>
       <c r="H316" s="6"/>
       <c r="I316" s="6"/>
       <c r="J316" s="6"/>
-      <c r="K316" s="73"/>
+      <c r="K316" s="71"/>
     </row>
     <row r="317" spans="1:11">
       <c r="A317" s="6"/>
       <c r="B317" s="6"/>
       <c r="D317" s="6"/>
-      <c r="E317" s="59"/>
-      <c r="F317" s="59"/>
-      <c r="G317" s="59"/>
+      <c r="E317" s="57"/>
+      <c r="F317" s="57"/>
+      <c r="G317" s="57"/>
       <c r="H317" s="6"/>
       <c r="I317" s="6"/>
       <c r="J317" s="6"/>
-      <c r="K317" s="73"/>
+      <c r="K317" s="71"/>
     </row>
     <row r="318" spans="1:11">
       <c r="A318" s="6"/>
       <c r="B318" s="6"/>
       <c r="D318" s="6"/>
-      <c r="E318" s="59"/>
-      <c r="F318" s="59"/>
-      <c r="G318" s="59"/>
+      <c r="E318" s="57"/>
+      <c r="F318" s="57"/>
+      <c r="G318" s="57"/>
       <c r="H318" s="6"/>
       <c r="I318" s="6"/>
       <c r="J318" s="6"/>
-      <c r="K318" s="73"/>
+      <c r="K318" s="71"/>
     </row>
     <row r="319" spans="1:11">
       <c r="A319" s="6"/>
       <c r="B319" s="6"/>
       <c r="D319" s="6"/>
-      <c r="E319" s="59"/>
-      <c r="F319" s="59"/>
-      <c r="G319" s="59"/>
+      <c r="E319" s="57"/>
+      <c r="F319" s="57"/>
+      <c r="G319" s="57"/>
       <c r="H319" s="6"/>
       <c r="I319" s="6"/>
       <c r="J319" s="6"/>
-      <c r="K319" s="73"/>
+      <c r="K319" s="71"/>
     </row>
     <row r="320" spans="1:11">
       <c r="A320" s="6"/>
       <c r="B320" s="6"/>
       <c r="D320" s="6"/>
-      <c r="E320" s="59"/>
-      <c r="F320" s="59"/>
-      <c r="G320" s="59"/>
+      <c r="E320" s="57"/>
+      <c r="F320" s="57"/>
+      <c r="G320" s="57"/>
       <c r="H320" s="6"/>
       <c r="I320" s="6"/>
       <c r="J320" s="6"/>
-      <c r="K320" s="73"/>
+      <c r="K320" s="71"/>
     </row>
     <row r="321" spans="1:11">
       <c r="A321" s="6"/>
       <c r="B321" s="6"/>
       <c r="D321" s="6"/>
-      <c r="E321" s="59"/>
-      <c r="F321" s="59"/>
-      <c r="G321" s="59"/>
+      <c r="E321" s="57"/>
+      <c r="F321" s="57"/>
+      <c r="G321" s="57"/>
       <c r="H321" s="6"/>
       <c r="I321" s="6"/>
       <c r="J321" s="6"/>
-      <c r="K321" s="73"/>
+      <c r="K321" s="71"/>
     </row>
     <row r="322" spans="1:11">
       <c r="A322" s="6"/>
       <c r="B322" s="6"/>
       <c r="D322" s="6"/>
-      <c r="E322" s="59"/>
-      <c r="F322" s="59"/>
-      <c r="G322" s="59"/>
+      <c r="E322" s="57"/>
+      <c r="F322" s="57"/>
+      <c r="G322" s="57"/>
       <c r="H322" s="6"/>
       <c r="I322" s="6"/>
       <c r="J322" s="6"/>
-      <c r="K322" s="73"/>
+      <c r="K322" s="71"/>
     </row>
     <row r="323" spans="1:11">
       <c r="A323" s="6"/>
       <c r="B323" s="6"/>
       <c r="D323" s="6"/>
-      <c r="E323" s="59"/>
-      <c r="F323" s="59"/>
-      <c r="G323" s="59"/>
+      <c r="E323" s="57"/>
+      <c r="F323" s="57"/>
+      <c r="G323" s="57"/>
       <c r="H323" s="6"/>
       <c r="I323" s="6"/>
       <c r="J323" s="6"/>
-      <c r="K323" s="73"/>
+      <c r="K323" s="71"/>
     </row>
     <row r="324" spans="1:11">
       <c r="A324" s="6"/>
       <c r="B324" s="6"/>
       <c r="D324" s="6"/>
-      <c r="E324" s="59"/>
-      <c r="F324" s="59"/>
-      <c r="G324" s="59"/>
+      <c r="E324" s="57"/>
+      <c r="F324" s="57"/>
+      <c r="G324" s="57"/>
       <c r="H324" s="6"/>
       <c r="I324" s="6"/>
       <c r="J324" s="6"/>
-      <c r="K324" s="73"/>
+      <c r="K324" s="71"/>
     </row>
     <row r="325" spans="1:11">
       <c r="A325" s="6"/>
       <c r="B325" s="6"/>
       <c r="D325" s="6"/>
-      <c r="E325" s="59"/>
-      <c r="F325" s="59"/>
-      <c r="G325" s="59"/>
+      <c r="E325" s="57"/>
+      <c r="F325" s="57"/>
+      <c r="G325" s="57"/>
       <c r="H325" s="6"/>
       <c r="I325" s="6"/>
       <c r="J325" s="6"/>
-      <c r="K325" s="73"/>
+      <c r="K325" s="71"/>
     </row>
     <row r="326" spans="1:11">
       <c r="A326" s="6"/>
       <c r="B326" s="6"/>
       <c r="D326" s="6"/>
-      <c r="E326" s="59"/>
-      <c r="F326" s="59"/>
-      <c r="G326" s="59"/>
+      <c r="E326" s="57"/>
+      <c r="F326" s="57"/>
+      <c r="G326" s="57"/>
       <c r="H326" s="6"/>
       <c r="I326" s="6"/>
       <c r="J326" s="6"/>
-      <c r="K326" s="73"/>
+      <c r="K326" s="71"/>
     </row>
     <row r="327" spans="1:11">
       <c r="A327" s="6"/>
       <c r="B327" s="6"/>
       <c r="D327" s="6"/>
-      <c r="E327" s="59"/>
-      <c r="F327" s="59"/>
-      <c r="G327" s="59"/>
+      <c r="E327" s="57"/>
+      <c r="F327" s="57"/>
+      <c r="G327" s="57"/>
       <c r="H327" s="6"/>
       <c r="I327" s="6"/>
       <c r="J327" s="6"/>
-      <c r="K327" s="73"/>
+      <c r="K327" s="71"/>
     </row>
     <row r="328" spans="1:11">
       <c r="A328" s="6"/>
       <c r="B328" s="6"/>
       <c r="D328" s="6"/>
-      <c r="E328" s="59"/>
-      <c r="F328" s="59"/>
-      <c r="G328" s="59"/>
+      <c r="E328" s="57"/>
+      <c r="F328" s="57"/>
+      <c r="G328" s="57"/>
       <c r="H328" s="6"/>
       <c r="I328" s="6"/>
       <c r="J328" s="6"/>
-      <c r="K328" s="73"/>
+      <c r="K328" s="71"/>
     </row>
     <row r="329" spans="1:11">
       <c r="A329" s="6"/>
       <c r="B329" s="6"/>
       <c r="D329" s="6"/>
-      <c r="E329" s="59"/>
-      <c r="F329" s="59"/>
-      <c r="G329" s="59"/>
+      <c r="E329" s="57"/>
+      <c r="F329" s="57"/>
+      <c r="G329" s="57"/>
       <c r="H329" s="6"/>
       <c r="I329" s="6"/>
       <c r="J329" s="6"/>
-      <c r="K329" s="73"/>
+      <c r="K329" s="71"/>
     </row>
     <row r="330" spans="1:11">
       <c r="A330" s="6"/>
       <c r="B330" s="6"/>
       <c r="D330" s="6"/>
-      <c r="E330" s="59"/>
-      <c r="F330" s="59"/>
-      <c r="G330" s="59"/>
+      <c r="E330" s="57"/>
+      <c r="F330" s="57"/>
+      <c r="G330" s="57"/>
       <c r="H330" s="6"/>
       <c r="I330" s="6"/>
       <c r="J330" s="6"/>
-      <c r="K330" s="73"/>
+      <c r="K330" s="71"/>
     </row>
     <row r="331" spans="1:11">
       <c r="A331" s="6"/>
       <c r="B331" s="6"/>
       <c r="D331" s="6"/>
-      <c r="E331" s="59"/>
-      <c r="F331" s="59"/>
-      <c r="G331" s="59"/>
+      <c r="E331" s="57"/>
+      <c r="F331" s="57"/>
+      <c r="G331" s="57"/>
       <c r="H331" s="6"/>
       <c r="I331" s="6"/>
       <c r="J331" s="6"/>
-      <c r="K331" s="73"/>
+      <c r="K331" s="71"/>
     </row>
     <row r="332" spans="1:11">
       <c r="A332" s="6"/>
       <c r="B332" s="6"/>
       <c r="D332" s="6"/>
-      <c r="E332" s="59"/>
-      <c r="F332" s="59"/>
-      <c r="G332" s="59"/>
+      <c r="E332" s="57"/>
+      <c r="F332" s="57"/>
+      <c r="G332" s="57"/>
       <c r="H332" s="6"/>
       <c r="I332" s="6"/>
       <c r="J332" s="6"/>
-      <c r="K332" s="73"/>
+      <c r="K332" s="71"/>
     </row>
     <row r="333" spans="1:11">
       <c r="A333" s="6"/>
       <c r="B333" s="6"/>
       <c r="D333" s="6"/>
-      <c r="E333" s="59"/>
-      <c r="F333" s="59"/>
-      <c r="G333" s="59"/>
+      <c r="E333" s="57"/>
+      <c r="F333" s="57"/>
+      <c r="G333" s="57"/>
       <c r="H333" s="6"/>
       <c r="I333" s="6"/>
       <c r="J333" s="6"/>
-      <c r="K333" s="73"/>
+      <c r="K333" s="71"/>
     </row>
     <row r="334" spans="1:11">
       <c r="A334" s="6"/>
       <c r="B334" s="6"/>
       <c r="D334" s="6"/>
-      <c r="E334" s="59"/>
-      <c r="F334" s="59"/>
-      <c r="G334" s="59"/>
+      <c r="E334" s="57"/>
+      <c r="F334" s="57"/>
+      <c r="G334" s="57"/>
       <c r="H334" s="6"/>
       <c r="I334" s="6"/>
       <c r="J334" s="6"/>
-      <c r="K334" s="73"/>
+      <c r="K334" s="71"/>
     </row>
     <row r="335" spans="1:11">
       <c r="A335" s="6"/>
       <c r="B335" s="6"/>
       <c r="D335" s="6"/>
-      <c r="E335" s="59"/>
-      <c r="F335" s="59"/>
-      <c r="G335" s="59"/>
+      <c r="E335" s="57"/>
+      <c r="F335" s="57"/>
+      <c r="G335" s="57"/>
       <c r="H335" s="6"/>
       <c r="I335" s="6"/>
       <c r="J335" s="6"/>
-      <c r="K335" s="73"/>
+      <c r="K335" s="71"/>
     </row>
     <row r="336" spans="1:11">
       <c r="A336" s="6"/>
       <c r="B336" s="6"/>
       <c r="D336" s="6"/>
-      <c r="E336" s="59"/>
-      <c r="F336" s="59"/>
-      <c r="G336" s="59"/>
+      <c r="E336" s="57"/>
+      <c r="F336" s="57"/>
+      <c r="G336" s="57"/>
       <c r="H336" s="6"/>
       <c r="I336" s="6"/>
       <c r="J336" s="6"/>
-      <c r="K336" s="73"/>
+      <c r="K336" s="71"/>
     </row>
     <row r="337" spans="1:11">
       <c r="A337" s="6"/>
       <c r="B337" s="6"/>
       <c r="D337" s="6"/>
-      <c r="E337" s="59"/>
-      <c r="F337" s="59"/>
-      <c r="G337" s="59"/>
+      <c r="E337" s="57"/>
+      <c r="F337" s="57"/>
+      <c r="G337" s="57"/>
       <c r="H337" s="6"/>
       <c r="I337" s="6"/>
       <c r="J337" s="6"/>
-      <c r="K337" s="73"/>
+      <c r="K337" s="71"/>
     </row>
     <row r="338" spans="1:11">
       <c r="A338" s="6"/>
       <c r="B338" s="6"/>
       <c r="D338" s="6"/>
-      <c r="E338" s="59"/>
-      <c r="F338" s="59"/>
-      <c r="G338" s="59"/>
+      <c r="E338" s="57"/>
+      <c r="F338" s="57"/>
+      <c r="G338" s="57"/>
       <c r="H338" s="6"/>
       <c r="I338" s="6"/>
       <c r="J338" s="6"/>
-      <c r="K338" s="73"/>
+      <c r="K338" s="71"/>
     </row>
     <row r="339" spans="1:11">
       <c r="A339" s="6"/>
       <c r="B339" s="6"/>
       <c r="D339" s="6"/>
-      <c r="E339" s="59"/>
-      <c r="F339" s="59"/>
-      <c r="G339" s="59"/>
+      <c r="E339" s="57"/>
+      <c r="F339" s="57"/>
+      <c r="G339" s="57"/>
       <c r="H339" s="6"/>
       <c r="I339" s="6"/>
       <c r="J339" s="6"/>
-      <c r="K339" s="73"/>
+      <c r="K339" s="71"/>
     </row>
     <row r="340" spans="1:11">
       <c r="A340" s="6"/>
       <c r="B340" s="6"/>
       <c r="D340" s="6"/>
-      <c r="E340" s="59"/>
-      <c r="F340" s="59"/>
-      <c r="G340" s="59"/>
+      <c r="E340" s="57"/>
+      <c r="F340" s="57"/>
+      <c r="G340" s="57"/>
       <c r="H340" s="6"/>
       <c r="I340" s="6"/>
       <c r="J340" s="6"/>
-      <c r="K340" s="73"/>
+      <c r="K340" s="71"/>
     </row>
     <row r="341" spans="1:11">
       <c r="A341" s="6"/>
       <c r="B341" s="6"/>
       <c r="D341" s="6"/>
-      <c r="E341" s="59"/>
-      <c r="F341" s="59"/>
-      <c r="G341" s="59"/>
+      <c r="E341" s="57"/>
+      <c r="F341" s="57"/>
+      <c r="G341" s="57"/>
       <c r="H341" s="6"/>
       <c r="I341" s="6"/>
       <c r="J341" s="6"/>
-      <c r="K341" s="73"/>
+      <c r="K341" s="71"/>
     </row>
     <row r="342" spans="1:11">
       <c r="A342" s="6"/>
       <c r="B342" s="6"/>
       <c r="D342" s="6"/>
-      <c r="E342" s="59"/>
-      <c r="F342" s="59"/>
-      <c r="G342" s="59"/>
+      <c r="E342" s="57"/>
+      <c r="F342" s="57"/>
+      <c r="G342" s="57"/>
       <c r="H342" s="6"/>
       <c r="I342" s="6"/>
       <c r="J342" s="6"/>
-      <c r="K342" s="73"/>
+      <c r="K342" s="71"/>
     </row>
     <row r="343" spans="1:11">
       <c r="A343" s="6"/>
       <c r="B343" s="6"/>
       <c r="D343" s="6"/>
-      <c r="E343" s="59"/>
-      <c r="F343" s="59"/>
-      <c r="G343" s="59"/>
+      <c r="E343" s="57"/>
+      <c r="F343" s="57"/>
+      <c r="G343" s="57"/>
       <c r="H343" s="6"/>
       <c r="I343" s="6"/>
       <c r="J343" s="6"/>
-      <c r="K343" s="73"/>
+      <c r="K343" s="71"/>
     </row>
     <row r="344" spans="1:11">
       <c r="A344" s="6"/>
       <c r="B344" s="6"/>
       <c r="D344" s="6"/>
-      <c r="E344" s="59"/>
-      <c r="F344" s="59"/>
-      <c r="G344" s="59"/>
+      <c r="E344" s="57"/>
+      <c r="F344" s="57"/>
+      <c r="G344" s="57"/>
       <c r="H344" s="6"/>
       <c r="I344" s="6"/>
       <c r="J344" s="6"/>
-      <c r="K344" s="73"/>
+      <c r="K344" s="71"/>
     </row>
     <row r="345" spans="1:11">
       <c r="A345" s="6"/>
       <c r="B345" s="6"/>
       <c r="D345" s="6"/>
-      <c r="E345" s="59"/>
-      <c r="F345" s="59"/>
-      <c r="G345" s="59"/>
+      <c r="E345" s="57"/>
+      <c r="F345" s="57"/>
+      <c r="G345" s="57"/>
       <c r="H345" s="6"/>
       <c r="I345" s="6"/>
       <c r="J345" s="6"/>
-      <c r="K345" s="73"/>
+      <c r="K345" s="71"/>
     </row>
     <row r="346" spans="1:11">
       <c r="A346" s="6"/>
       <c r="B346" s="6"/>
       <c r="D346" s="6"/>
-      <c r="E346" s="59"/>
-      <c r="F346" s="59"/>
-      <c r="G346" s="59"/>
+      <c r="E346" s="57"/>
+      <c r="F346" s="57"/>
+      <c r="G346" s="57"/>
       <c r="H346" s="6"/>
       <c r="I346" s="6"/>
       <c r="J346" s="6"/>
-      <c r="K346" s="73"/>
+      <c r="K346" s="71"/>
     </row>
     <row r="347" spans="1:11">
       <c r="A347" s="6"/>
       <c r="B347" s="6"/>
       <c r="D347" s="6"/>
-      <c r="E347" s="59"/>
-      <c r="F347" s="59"/>
-      <c r="G347" s="59"/>
+      <c r="E347" s="57"/>
+      <c r="F347" s="57"/>
+      <c r="G347" s="57"/>
       <c r="H347" s="6"/>
       <c r="I347" s="6"/>
       <c r="J347" s="6"/>
-      <c r="K347" s="73"/>
+      <c r="K347" s="71"/>
     </row>
     <row r="348" spans="1:11">
       <c r="A348" s="6"/>
       <c r="B348" s="6"/>
       <c r="D348" s="6"/>
-      <c r="E348" s="59"/>
-      <c r="F348" s="59"/>
-      <c r="G348" s="59"/>
+      <c r="E348" s="57"/>
+      <c r="F348" s="57"/>
+      <c r="G348" s="57"/>
       <c r="H348" s="6"/>
       <c r="I348" s="6"/>
       <c r="J348" s="6"/>
-      <c r="K348" s="73"/>
+      <c r="K348" s="71"/>
     </row>
     <row r="349" spans="1:11">
       <c r="A349" s="6"/>
       <c r="B349" s="6"/>
       <c r="D349" s="6"/>
-      <c r="E349" s="59"/>
-      <c r="F349" s="59"/>
-      <c r="G349" s="59"/>
+      <c r="E349" s="57"/>
+      <c r="F349" s="57"/>
+      <c r="G349" s="57"/>
       <c r="H349" s="6"/>
       <c r="I349" s="6"/>
       <c r="J349" s="6"/>
-      <c r="K349" s="73"/>
+      <c r="K349" s="71"/>
     </row>
     <row r="350" spans="1:11">
       <c r="A350" s="6"/>
       <c r="B350" s="6"/>
       <c r="D350" s="6"/>
-      <c r="E350" s="59"/>
-      <c r="F350" s="59"/>
-      <c r="G350" s="59"/>
+      <c r="E350" s="57"/>
+      <c r="F350" s="57"/>
+      <c r="G350" s="57"/>
       <c r="H350" s="6"/>
       <c r="I350" s="6"/>
       <c r="J350" s="6"/>
-      <c r="K350" s="73"/>
+      <c r="K350" s="71"/>
     </row>
     <row r="351" spans="1:11">
       <c r="A351" s="6"/>
       <c r="B351" s="6"/>
       <c r="D351" s="6"/>
-      <c r="E351" s="59"/>
-      <c r="F351" s="59"/>
-      <c r="G351" s="59"/>
+      <c r="E351" s="57"/>
+      <c r="F351" s="57"/>
+      <c r="G351" s="57"/>
       <c r="H351" s="6"/>
       <c r="I351" s="6"/>
       <c r="J351" s="6"/>
-      <c r="K351" s="73"/>
+      <c r="K351" s="71"/>
     </row>
     <row r="352" spans="1:11">
       <c r="A352" s="6"/>
       <c r="B352" s="6"/>
       <c r="D352" s="6"/>
-      <c r="E352" s="59"/>
-      <c r="F352" s="59"/>
-      <c r="G352" s="59"/>
+      <c r="E352" s="57"/>
+      <c r="F352" s="57"/>
+      <c r="G352" s="57"/>
       <c r="H352" s="6"/>
       <c r="I352" s="6"/>
       <c r="J352" s="6"/>
-      <c r="K352" s="73"/>
+      <c r="K352" s="71"/>
     </row>
     <row r="353" spans="1:11">
       <c r="A353" s="6"/>
       <c r="B353" s="6"/>
       <c r="D353" s="6"/>
-      <c r="E353" s="59"/>
-      <c r="F353" s="59"/>
-      <c r="G353" s="59"/>
+      <c r="E353" s="57"/>
+      <c r="F353" s="57"/>
+      <c r="G353" s="57"/>
       <c r="H353" s="6"/>
       <c r="I353" s="6"/>
       <c r="J353" s="6"/>
-      <c r="K353" s="73"/>
+      <c r="K353" s="71"/>
     </row>
     <row r="354" spans="1:11">
       <c r="A354" s="6"/>
       <c r="B354" s="6"/>
       <c r="D354" s="6"/>
-      <c r="E354" s="59"/>
-      <c r="F354" s="59"/>
-      <c r="G354" s="59"/>
+      <c r="E354" s="57"/>
+      <c r="F354" s="57"/>
+      <c r="G354" s="57"/>
       <c r="H354" s="6"/>
       <c r="I354" s="6"/>
       <c r="J354" s="6"/>
-      <c r="K354" s="73"/>
+      <c r="K354" s="71"/>
     </row>
     <row r="355" spans="1:11">
       <c r="A355" s="6"/>
       <c r="B355" s="6"/>
       <c r="D355" s="6"/>
-      <c r="E355" s="59"/>
-      <c r="F355" s="59"/>
-      <c r="G355" s="59"/>
+      <c r="E355" s="57"/>
+      <c r="F355" s="57"/>
+      <c r="G355" s="57"/>
       <c r="H355" s="6"/>
       <c r="I355" s="6"/>
       <c r="J355" s="6"/>
-      <c r="K355" s="73"/>
+      <c r="K355" s="71"/>
     </row>
     <row r="356" spans="1:11">
       <c r="A356" s="6"/>
       <c r="B356" s="6"/>
       <c r="D356" s="6"/>
-      <c r="E356" s="59"/>
-      <c r="F356" s="59"/>
-      <c r="G356" s="59"/>
+      <c r="E356" s="57"/>
+      <c r="F356" s="57"/>
+      <c r="G356" s="57"/>
       <c r="H356" s="6"/>
       <c r="I356" s="6"/>
       <c r="J356" s="6"/>
-      <c r="K356" s="73"/>
+      <c r="K356" s="71"/>
     </row>
     <row r="357" spans="1:11">
       <c r="A357" s="6"/>
       <c r="B357" s="6"/>
       <c r="D357" s="6"/>
-      <c r="E357" s="59"/>
-      <c r="F357" s="59"/>
-      <c r="G357" s="59"/>
+      <c r="E357" s="57"/>
+      <c r="F357" s="57"/>
+      <c r="G357" s="57"/>
       <c r="H357" s="6"/>
       <c r="I357" s="6"/>
       <c r="J357" s="6"/>
-      <c r="K357" s="73"/>
+      <c r="K357" s="71"/>
     </row>
     <row r="358" spans="1:11">
       <c r="A358" s="6"/>
       <c r="B358" s="6"/>
       <c r="D358" s="6"/>
-      <c r="E358" s="59"/>
-      <c r="F358" s="59"/>
-      <c r="G358" s="59"/>
+      <c r="E358" s="57"/>
+      <c r="F358" s="57"/>
+      <c r="G358" s="57"/>
       <c r="H358" s="6"/>
       <c r="I358" s="6"/>
       <c r="J358" s="6"/>
-      <c r="K358" s="73"/>
+      <c r="K358" s="71"/>
     </row>
     <row r="359" spans="1:11">
       <c r="A359" s="6"/>
       <c r="B359" s="6"/>
       <c r="D359" s="6"/>
-      <c r="E359" s="59"/>
-      <c r="F359" s="59"/>
-      <c r="G359" s="59"/>
+      <c r="E359" s="57"/>
+      <c r="F359" s="57"/>
+      <c r="G359" s="57"/>
       <c r="H359" s="6"/>
       <c r="I359" s="6"/>
       <c r="J359" s="6"/>
-      <c r="K359" s="73"/>
+      <c r="K359" s="71"/>
     </row>
     <row r="360" spans="1:11">
       <c r="A360" s="6"/>
       <c r="B360" s="6"/>
       <c r="D360" s="6"/>
-      <c r="E360" s="59"/>
-      <c r="F360" s="59"/>
-      <c r="G360" s="59"/>
+      <c r="E360" s="57"/>
+      <c r="F360" s="57"/>
+      <c r="G360" s="57"/>
       <c r="H360" s="6"/>
       <c r="I360" s="6"/>
       <c r="J360" s="6"/>
-      <c r="K360" s="73"/>
+      <c r="K360" s="71"/>
     </row>
     <row r="361" spans="1:11">
       <c r="A361" s="6"/>
       <c r="B361" s="6"/>
       <c r="D361" s="6"/>
-      <c r="E361" s="59"/>
-      <c r="F361" s="59"/>
-      <c r="G361" s="59"/>
+      <c r="E361" s="57"/>
+      <c r="F361" s="57"/>
+      <c r="G361" s="57"/>
       <c r="H361" s="6"/>
       <c r="I361" s="6"/>
       <c r="J361" s="6"/>
-      <c r="K361" s="73"/>
+      <c r="K361" s="71"/>
     </row>
     <row r="362" spans="1:11">
       <c r="A362" s="6"/>
       <c r="B362" s="6"/>
       <c r="D362" s="6"/>
-      <c r="E362" s="59"/>
-      <c r="F362" s="59"/>
-      <c r="G362" s="59"/>
+      <c r="E362" s="57"/>
+      <c r="F362" s="57"/>
+      <c r="G362" s="57"/>
       <c r="H362" s="6"/>
       <c r="I362" s="6"/>
       <c r="J362" s="6"/>
-      <c r="K362" s="73"/>
+      <c r="K362" s="71"/>
     </row>
     <row r="363" spans="1:11">
       <c r="A363" s="6"/>
       <c r="B363" s="6"/>
       <c r="D363" s="6"/>
-      <c r="E363" s="59"/>
-      <c r="F363" s="59"/>
-      <c r="G363" s="59"/>
+      <c r="E363" s="57"/>
+      <c r="F363" s="57"/>
+      <c r="G363" s="57"/>
       <c r="H363" s="6"/>
       <c r="I363" s="6"/>
       <c r="J363" s="6"/>
-      <c r="K363" s="73"/>
+      <c r="K363" s="71"/>
     </row>
     <row r="364" spans="1:11">
       <c r="A364" s="6"/>
       <c r="B364" s="6"/>
       <c r="D364" s="6"/>
-      <c r="E364" s="59"/>
-      <c r="F364" s="59"/>
-      <c r="G364" s="59"/>
+      <c r="E364" s="57"/>
+      <c r="F364" s="57"/>
+      <c r="G364" s="57"/>
       <c r="H364" s="6"/>
       <c r="I364" s="6"/>
       <c r="J364" s="6"/>
-      <c r="K364" s="73"/>
+      <c r="K364" s="71"/>
     </row>
     <row r="365" spans="1:11">
       <c r="A365" s="6"/>
       <c r="B365" s="6"/>
       <c r="D365" s="6"/>
-      <c r="E365" s="59"/>
-      <c r="F365" s="59"/>
-      <c r="G365" s="59"/>
+      <c r="E365" s="57"/>
+      <c r="F365" s="57"/>
+      <c r="G365" s="57"/>
       <c r="H365" s="6"/>
       <c r="I365" s="6"/>
       <c r="J365" s="6"/>
-      <c r="K365" s="73"/>
+      <c r="K365" s="71"/>
     </row>
     <row r="366" spans="1:11">
       <c r="A366" s="6"/>
       <c r="B366" s="6"/>
       <c r="D366" s="6"/>
-      <c r="E366" s="59"/>
-      <c r="F366" s="59"/>
-      <c r="G366" s="59"/>
+      <c r="E366" s="57"/>
+      <c r="F366" s="57"/>
+      <c r="G366" s="57"/>
       <c r="H366" s="6"/>
       <c r="I366" s="6"/>
       <c r="J366" s="6"/>
-      <c r="K366" s="73"/>
+      <c r="K366" s="71"/>
     </row>
     <row r="367" spans="1:11">
       <c r="A367" s="6"/>
       <c r="B367" s="6"/>
       <c r="D367" s="6"/>
-      <c r="E367" s="59"/>
-      <c r="F367" s="59"/>
-      <c r="G367" s="59"/>
+      <c r="E367" s="57"/>
+      <c r="F367" s="57"/>
+      <c r="G367" s="57"/>
       <c r="H367" s="6"/>
       <c r="I367" s="6"/>
       <c r="J367" s="6"/>
-      <c r="K367" s="73"/>
+      <c r="K367" s="71"/>
     </row>
     <row r="368" spans="1:11">
       <c r="A368" s="6"/>
       <c r="B368" s="6"/>
       <c r="D368" s="6"/>
-      <c r="E368" s="59"/>
-      <c r="F368" s="59"/>
-      <c r="G368" s="59"/>
+      <c r="E368" s="57"/>
+      <c r="F368" s="57"/>
+      <c r="G368" s="57"/>
       <c r="H368" s="6"/>
       <c r="I368" s="6"/>
       <c r="J368" s="6"/>
-      <c r="K368" s="73"/>
+      <c r="K368" s="71"/>
     </row>
     <row r="369" spans="1:11">
       <c r="A369" s="6"/>
       <c r="B369" s="6"/>
       <c r="D369" s="6"/>
-      <c r="E369" s="59"/>
-      <c r="F369" s="59"/>
-      <c r="G369" s="59"/>
+      <c r="E369" s="57"/>
+      <c r="F369" s="57"/>
+      <c r="G369" s="57"/>
       <c r="H369" s="6"/>
       <c r="I369" s="6"/>
       <c r="J369" s="6"/>
-      <c r="K369" s="73"/>
+      <c r="K369" s="71"/>
     </row>
     <row r="370" spans="1:11">
       <c r="A370" s="6"/>
       <c r="B370" s="6"/>
       <c r="D370" s="6"/>
-      <c r="E370" s="59"/>
-      <c r="F370" s="59"/>
-      <c r="G370" s="59"/>
+      <c r="E370" s="57"/>
+      <c r="F370" s="57"/>
+      <c r="G370" s="57"/>
       <c r="H370" s="6"/>
       <c r="I370" s="6"/>
       <c r="J370" s="6"/>
-      <c r="K370" s="73"/>
+      <c r="K370" s="71"/>
     </row>
     <row r="371" spans="1:11">
       <c r="A371" s="6"/>
       <c r="B371" s="6"/>
       <c r="D371" s="6"/>
-      <c r="E371" s="59"/>
-      <c r="F371" s="59"/>
-      <c r="G371" s="59"/>
+      <c r="E371" s="57"/>
+      <c r="F371" s="57"/>
+      <c r="G371" s="57"/>
       <c r="H371" s="6"/>
       <c r="I371" s="6"/>
       <c r="J371" s="6"/>
-      <c r="K371" s="73"/>
+      <c r="K371" s="71"/>
     </row>
     <row r="372" spans="1:11">
       <c r="A372" s="6"/>
       <c r="B372" s="6"/>
       <c r="D372" s="6"/>
-      <c r="E372" s="59"/>
-      <c r="F372" s="59"/>
-      <c r="G372" s="59"/>
+      <c r="E372" s="57"/>
+      <c r="F372" s="57"/>
+      <c r="G372" s="57"/>
       <c r="H372" s="6"/>
       <c r="I372" s="6"/>
       <c r="J372" s="6"/>
-      <c r="K372" s="73"/>
+      <c r="K372" s="71"/>
     </row>
     <row r="373" spans="1:11">
       <c r="A373" s="6"/>
       <c r="B373" s="6"/>
       <c r="D373" s="6"/>
-      <c r="E373" s="59"/>
-      <c r="F373" s="59"/>
-      <c r="G373" s="59"/>
+      <c r="E373" s="57"/>
+      <c r="F373" s="57"/>
+      <c r="G373" s="57"/>
       <c r="H373" s="6"/>
       <c r="I373" s="6"/>
       <c r="J373" s="6"/>
-      <c r="K373" s="73"/>
+      <c r="K373" s="71"/>
     </row>
     <row r="374" spans="1:11">
       <c r="A374" s="6"/>
       <c r="B374" s="6"/>
       <c r="D374" s="6"/>
-      <c r="E374" s="59"/>
-      <c r="F374" s="59"/>
-      <c r="G374" s="59"/>
+      <c r="E374" s="57"/>
+      <c r="F374" s="57"/>
+      <c r="G374" s="57"/>
       <c r="H374" s="6"/>
       <c r="I374" s="6"/>
       <c r="J374" s="6"/>
-      <c r="K374" s="73"/>
+      <c r="K374" s="71"/>
     </row>
     <row r="375" spans="1:11">
       <c r="A375" s="6"/>
       <c r="B375" s="6"/>
       <c r="D375" s="6"/>
-      <c r="E375" s="59"/>
-      <c r="F375" s="59"/>
-      <c r="G375" s="59"/>
+      <c r="E375" s="57"/>
+      <c r="F375" s="57"/>
+      <c r="G375" s="57"/>
       <c r="H375" s="6"/>
       <c r="I375" s="6"/>
       <c r="J375" s="6"/>
-      <c r="K375" s="73"/>
+      <c r="K375" s="71"/>
     </row>
     <row r="376" spans="1:11">
       <c r="A376" s="6"/>
       <c r="B376" s="6"/>
       <c r="D376" s="6"/>
-      <c r="E376" s="59"/>
-      <c r="F376" s="59"/>
-      <c r="G376" s="59"/>
+      <c r="E376" s="57"/>
+      <c r="F376" s="57"/>
+      <c r="G376" s="57"/>
       <c r="H376" s="6"/>
       <c r="I376" s="6"/>
       <c r="J376" s="6"/>
-      <c r="K376" s="73"/>
+      <c r="K376" s="71"/>
     </row>
     <row r="377" spans="1:11">
       <c r="A377" s="6"/>
       <c r="B377" s="6"/>
       <c r="D377" s="6"/>
-      <c r="E377" s="59"/>
-      <c r="F377" s="59"/>
-      <c r="G377" s="59"/>
+      <c r="E377" s="57"/>
+      <c r="F377" s="57"/>
+      <c r="G377" s="57"/>
       <c r="H377" s="6"/>
       <c r="I377" s="6"/>
       <c r="J377" s="6"/>
-      <c r="K377" s="73"/>
+      <c r="K377" s="71"/>
     </row>
     <row r="378" spans="1:11">
       <c r="A378" s="6"/>
       <c r="B378" s="6"/>
       <c r="D378" s="6"/>
-      <c r="E378" s="59"/>
-      <c r="F378" s="59"/>
-      <c r="G378" s="59"/>
+      <c r="E378" s="57"/>
+      <c r="F378" s="57"/>
+      <c r="G378" s="57"/>
       <c r="H378" s="6"/>
       <c r="I378" s="6"/>
       <c r="J378" s="6"/>
-      <c r="K378" s="73"/>
+      <c r="K378" s="71"/>
     </row>
     <row r="379" spans="1:11">
       <c r="A379" s="6"/>
       <c r="B379" s="6"/>
       <c r="D379" s="6"/>
-      <c r="E379" s="59"/>
-      <c r="F379" s="59"/>
-      <c r="G379" s="59"/>
+      <c r="E379" s="57"/>
+      <c r="F379" s="57"/>
+      <c r="G379" s="57"/>
       <c r="H379" s="6"/>
       <c r="I379" s="6"/>
       <c r="J379" s="6"/>
-      <c r="K379" s="73"/>
+      <c r="K379" s="71"/>
     </row>
     <row r="380" spans="1:11">
       <c r="A380" s="6"/>
       <c r="B380" s="6"/>
       <c r="D380" s="6"/>
-      <c r="E380" s="59"/>
-      <c r="F380" s="59"/>
-      <c r="G380" s="59"/>
+      <c r="E380" s="57"/>
+      <c r="F380" s="57"/>
+      <c r="G380" s="57"/>
       <c r="H380" s="6"/>
       <c r="I380" s="6"/>
       <c r="J380" s="6"/>
-      <c r="K380" s="73"/>
+      <c r="K380" s="71"/>
     </row>
     <row r="381" spans="1:11">
       <c r="A381" s="6"/>
       <c r="B381" s="6"/>
       <c r="D381" s="6"/>
-      <c r="E381" s="59"/>
-      <c r="F381" s="59"/>
-      <c r="G381" s="59"/>
+      <c r="E381" s="57"/>
+      <c r="F381" s="57"/>
+      <c r="G381" s="57"/>
       <c r="H381" s="6"/>
       <c r="I381" s="6"/>
       <c r="J381" s="6"/>
-      <c r="K381" s="73"/>
+      <c r="K381" s="71"/>
     </row>
     <row r="382" spans="1:11">
       <c r="A382" s="6"/>
       <c r="B382" s="6"/>
       <c r="D382" s="6"/>
-      <c r="E382" s="59"/>
-      <c r="F382" s="59"/>
-      <c r="G382" s="59"/>
+      <c r="E382" s="57"/>
+      <c r="F382" s="57"/>
+      <c r="G382" s="57"/>
       <c r="H382" s="6"/>
       <c r="I382" s="6"/>
       <c r="J382" s="6"/>
-      <c r="K382" s="73"/>
+      <c r="K382" s="71"/>
     </row>
     <row r="383" spans="1:11">
       <c r="A383" s="6"/>
       <c r="B383" s="6"/>
       <c r="D383" s="6"/>
-      <c r="E383" s="59"/>
-      <c r="F383" s="59"/>
-      <c r="G383" s="59"/>
+      <c r="E383" s="57"/>
+      <c r="F383" s="57"/>
+      <c r="G383" s="57"/>
       <c r="H383" s="6"/>
       <c r="I383" s="6"/>
       <c r="J383" s="6"/>
-      <c r="K383" s="73"/>
+      <c r="K383" s="71"/>
     </row>
     <row r="384" spans="1:11">
       <c r="A384" s="6"/>
       <c r="B384" s="6"/>
       <c r="D384" s="6"/>
-      <c r="E384" s="59"/>
-      <c r="F384" s="59"/>
-      <c r="G384" s="59"/>
+      <c r="E384" s="57"/>
+      <c r="F384" s="57"/>
+      <c r="G384" s="57"/>
       <c r="H384" s="6"/>
       <c r="I384" s="6"/>
       <c r="J384" s="6"/>
-      <c r="K384" s="73"/>
+      <c r="K384" s="71"/>
     </row>
     <row r="385" spans="1:11">
       <c r="A385" s="6"/>
       <c r="B385" s="6"/>
       <c r="D385" s="6"/>
-      <c r="E385" s="59"/>
-      <c r="F385" s="59"/>
-      <c r="G385" s="59"/>
+      <c r="E385" s="57"/>
+      <c r="F385" s="57"/>
+      <c r="G385" s="57"/>
       <c r="H385" s="6"/>
       <c r="I385" s="6"/>
       <c r="J385" s="6"/>
-      <c r="K385" s="73"/>
+      <c r="K385" s="71"/>
     </row>
     <row r="386" spans="1:11">
       <c r="A386" s="6"/>
       <c r="B386" s="6"/>
       <c r="D386" s="6"/>
-      <c r="E386" s="59"/>
-      <c r="F386" s="59"/>
-      <c r="G386" s="59"/>
+      <c r="E386" s="57"/>
+      <c r="F386" s="57"/>
+      <c r="G386" s="57"/>
       <c r="H386" s="6"/>
       <c r="I386" s="6"/>
       <c r="J386" s="6"/>
-      <c r="K386" s="73"/>
+      <c r="K386" s="71"/>
     </row>
     <row r="387" spans="1:11">
       <c r="A387" s="6"/>
       <c r="B387" s="6"/>
       <c r="D387" s="6"/>
-      <c r="E387" s="59"/>
-      <c r="F387" s="59"/>
-      <c r="G387" s="59"/>
+      <c r="E387" s="57"/>
+      <c r="F387" s="57"/>
+      <c r="G387" s="57"/>
       <c r="H387" s="6"/>
       <c r="I387" s="6"/>
       <c r="J387" s="6"/>
-      <c r="K387" s="73"/>
+      <c r="K387" s="71"/>
     </row>
     <row r="388" spans="1:11">
       <c r="A388" s="6"/>
       <c r="B388" s="6"/>
       <c r="D388" s="6"/>
-      <c r="E388" s="59"/>
-      <c r="F388" s="59"/>
-      <c r="G388" s="59"/>
+      <c r="E388" s="57"/>
+      <c r="F388" s="57"/>
+      <c r="G388" s="57"/>
       <c r="H388" s="6"/>
       <c r="I388" s="6"/>
       <c r="J388" s="6"/>
-      <c r="K388" s="73"/>
+      <c r="K388" s="71"/>
     </row>
     <row r="389" spans="1:11">
       <c r="A389" s="6"/>
       <c r="B389" s="6"/>
       <c r="D389" s="6"/>
-      <c r="E389" s="59"/>
-      <c r="F389" s="59"/>
-      <c r="G389" s="59"/>
+      <c r="E389" s="57"/>
+      <c r="F389" s="57"/>
+      <c r="G389" s="57"/>
       <c r="H389" s="6"/>
       <c r="I389" s="6"/>
       <c r="J389" s="6"/>
-      <c r="K389" s="73"/>
+      <c r="K389" s="71"/>
     </row>
     <row r="390" spans="1:11">
       <c r="A390" s="6"/>
       <c r="B390" s="6"/>
       <c r="D390" s="6"/>
-      <c r="E390" s="59"/>
-      <c r="F390" s="59"/>
-      <c r="G390" s="59"/>
+      <c r="E390" s="57"/>
+      <c r="F390" s="57"/>
+      <c r="G390" s="57"/>
       <c r="H390" s="6"/>
       <c r="I390" s="6"/>
       <c r="J390" s="6"/>
-      <c r="K390" s="73"/>
+      <c r="K390" s="71"/>
     </row>
     <row r="391" spans="1:11">
       <c r="A391" s="6"/>
       <c r="B391" s="6"/>
       <c r="D391" s="6"/>
-      <c r="E391" s="59"/>
-      <c r="F391" s="59"/>
-      <c r="G391" s="59"/>
+      <c r="E391" s="57"/>
+      <c r="F391" s="57"/>
+      <c r="G391" s="57"/>
       <c r="H391" s="6"/>
       <c r="I391" s="6"/>
       <c r="J391" s="6"/>
-      <c r="K391" s="73"/>
+      <c r="K391" s="71"/>
     </row>
     <row r="392" spans="1:11">
       <c r="A392" s="6"/>
       <c r="B392" s="6"/>
       <c r="D392" s="6"/>
-      <c r="E392" s="59"/>
-      <c r="F392" s="59"/>
-      <c r="G392" s="59"/>
+      <c r="E392" s="57"/>
+      <c r="F392" s="57"/>
+      <c r="G392" s="57"/>
       <c r="H392" s="6"/>
       <c r="I392" s="6"/>
       <c r="J392" s="6"/>
-      <c r="K392" s="73"/>
+      <c r="K392" s="71"/>
     </row>
     <row r="393" spans="1:11">
       <c r="A393" s="6"/>
       <c r="B393" s="6"/>
       <c r="D393" s="6"/>
-      <c r="E393" s="59"/>
-      <c r="F393" s="59"/>
-      <c r="G393" s="59"/>
+      <c r="E393" s="57"/>
+      <c r="F393" s="57"/>
+      <c r="G393" s="57"/>
       <c r="H393" s="6"/>
       <c r="I393" s="6"/>
       <c r="J393" s="6"/>
-      <c r="K393" s="73"/>
+      <c r="K393" s="71"/>
     </row>
     <row r="394" spans="1:11">
       <c r="A394" s="6"/>
       <c r="B394" s="6"/>
       <c r="D394" s="6"/>
-      <c r="E394" s="59"/>
-      <c r="F394" s="59"/>
-      <c r="G394" s="59"/>
+      <c r="E394" s="57"/>
+      <c r="F394" s="57"/>
+      <c r="G394" s="57"/>
       <c r="H394" s="6"/>
       <c r="I394" s="6"/>
       <c r="J394" s="6"/>
-      <c r="K394" s="73"/>
+      <c r="K394" s="71"/>
     </row>
     <row r="395" spans="1:11">
       <c r="A395" s="6"/>
       <c r="B395" s="6"/>
       <c r="D395" s="6"/>
-      <c r="E395" s="59"/>
-      <c r="F395" s="59"/>
-      <c r="G395" s="59"/>
+      <c r="E395" s="57"/>
+      <c r="F395" s="57"/>
+      <c r="G395" s="57"/>
       <c r="H395" s="6"/>
       <c r="I395" s="6"/>
       <c r="J395" s="6"/>
-      <c r="K395" s="73"/>
+      <c r="K395" s="71"/>
     </row>
     <row r="396" spans="1:11">
       <c r="A396" s="6"/>
       <c r="B396" s="6"/>
       <c r="D396" s="6"/>
-      <c r="E396" s="59"/>
-      <c r="F396" s="59"/>
-      <c r="G396" s="59"/>
+      <c r="E396" s="57"/>
+      <c r="F396" s="57"/>
+      <c r="G396" s="57"/>
       <c r="H396" s="6"/>
       <c r="I396" s="6"/>
       <c r="J396" s="6"/>
-      <c r="K396" s="73"/>
+      <c r="K396" s="71"/>
     </row>
     <row r="397" spans="1:11">
       <c r="A397" s="6"/>
       <c r="B397" s="6"/>
       <c r="D397" s="6"/>
-      <c r="E397" s="59"/>
-      <c r="F397" s="59"/>
-      <c r="G397" s="59"/>
+      <c r="E397" s="57"/>
+      <c r="F397" s="57"/>
+      <c r="G397" s="57"/>
       <c r="H397" s="6"/>
       <c r="I397" s="6"/>
       <c r="J397" s="6"/>
-      <c r="K397" s="73"/>
+      <c r="K397" s="71"/>
     </row>
     <row r="398" spans="1:11">
       <c r="A398" s="6"/>
       <c r="B398" s="6"/>
       <c r="D398" s="6"/>
-      <c r="E398" s="59"/>
-      <c r="F398" s="59"/>
-      <c r="G398" s="59"/>
+      <c r="E398" s="57"/>
+      <c r="F398" s="57"/>
+      <c r="G398" s="57"/>
       <c r="H398" s="6"/>
       <c r="I398" s="6"/>
       <c r="J398" s="6"/>
-      <c r="K398" s="73"/>
+      <c r="K398" s="71"/>
     </row>
     <row r="399" spans="1:11">
       <c r="A399" s="6"/>
       <c r="B399" s="6"/>
       <c r="D399" s="6"/>
-      <c r="E399" s="59"/>
-      <c r="F399" s="59"/>
-      <c r="G399" s="59"/>
+      <c r="E399" s="57"/>
+      <c r="F399" s="57"/>
+      <c r="G399" s="57"/>
       <c r="H399" s="6"/>
       <c r="I399" s="6"/>
       <c r="J399" s="6"/>
-      <c r="K399" s="73"/>
+      <c r="K399" s="71"/>
     </row>
     <row r="400" spans="1:11">
       <c r="A400" s="6"/>
       <c r="B400" s="6"/>
       <c r="D400" s="6"/>
-      <c r="E400" s="59"/>
-      <c r="F400" s="59"/>
-      <c r="G400" s="59"/>
+      <c r="E400" s="57"/>
+      <c r="F400" s="57"/>
+      <c r="G400" s="57"/>
       <c r="H400" s="6"/>
       <c r="I400" s="6"/>
       <c r="J400" s="6"/>
-      <c r="K400" s="73"/>
+      <c r="K400" s="71"/>
     </row>
     <row r="401" spans="1:11">
       <c r="A401" s="6"/>
       <c r="B401" s="6"/>
       <c r="D401" s="6"/>
-      <c r="E401" s="59"/>
-      <c r="F401" s="59"/>
-      <c r="G401" s="59"/>
+      <c r="E401" s="57"/>
+      <c r="F401" s="57"/>
+      <c r="G401" s="57"/>
       <c r="H401" s="6"/>
       <c r="I401" s="6"/>
       <c r="J401" s="6"/>
-      <c r="K401" s="73"/>
+      <c r="K401" s="71"/>
     </row>
     <row r="402" spans="1:11">
       <c r="A402" s="6"/>
       <c r="B402" s="6"/>
       <c r="D402" s="6"/>
-      <c r="E402" s="59"/>
-      <c r="F402" s="59"/>
-      <c r="G402" s="59"/>
+      <c r="E402" s="57"/>
+      <c r="F402" s="57"/>
+      <c r="G402" s="57"/>
       <c r="H402" s="6"/>
       <c r="I402" s="6"/>
       <c r="J402" s="6"/>
-      <c r="K402" s="73"/>
+      <c r="K402" s="71"/>
     </row>
     <row r="403" spans="1:11">
       <c r="A403" s="6"/>
       <c r="B403" s="6"/>
       <c r="D403" s="6"/>
-      <c r="E403" s="59"/>
-      <c r="F403" s="59"/>
-      <c r="G403" s="59"/>
+      <c r="E403" s="57"/>
+      <c r="F403" s="57"/>
+      <c r="G403" s="57"/>
       <c r="H403" s="6"/>
       <c r="I403" s="6"/>
       <c r="J403" s="6"/>
-      <c r="K403" s="73"/>
+      <c r="K403" s="71"/>
     </row>
     <row r="404" spans="1:11">
       <c r="A404" s="6"/>
       <c r="B404" s="6"/>
       <c r="D404" s="6"/>
-      <c r="E404" s="59"/>
-      <c r="F404" s="59"/>
-      <c r="G404" s="59"/>
+      <c r="E404" s="57"/>
+      <c r="F404" s="57"/>
+      <c r="G404" s="57"/>
       <c r="H404" s="6"/>
       <c r="I404" s="6"/>
       <c r="J404" s="6"/>
-      <c r="K404" s="73"/>
+      <c r="K404" s="71"/>
     </row>
     <row r="405" spans="1:11">
       <c r="A405" s="6"/>
       <c r="B405" s="6"/>
       <c r="D405" s="6"/>
-      <c r="E405" s="59"/>
-      <c r="F405" s="59"/>
-      <c r="G405" s="59"/>
+      <c r="E405" s="57"/>
+      <c r="F405" s="57"/>
+      <c r="G405" s="57"/>
       <c r="H405" s="6"/>
       <c r="I405" s="6"/>
       <c r="J405" s="6"/>
-      <c r="K405" s="73"/>
+      <c r="K405" s="71"/>
     </row>
     <row r="406" spans="1:11">
       <c r="A406" s="6"/>
       <c r="B406" s="6"/>
       <c r="D406" s="6"/>
-      <c r="E406" s="59"/>
-      <c r="F406" s="59"/>
-      <c r="G406" s="59"/>
+      <c r="E406" s="57"/>
+      <c r="F406" s="57"/>
+      <c r="G406" s="57"/>
       <c r="H406" s="6"/>
       <c r="I406" s="6"/>
       <c r="J406" s="6"/>
-      <c r="K406" s="73"/>
+      <c r="K406" s="71"/>
     </row>
     <row r="407" spans="1:11">
       <c r="A407" s="6"/>
       <c r="B407" s="6"/>
       <c r="D407" s="6"/>
-      <c r="E407" s="59"/>
-      <c r="F407" s="59"/>
-      <c r="G407" s="59"/>
+      <c r="E407" s="57"/>
+      <c r="F407" s="57"/>
+      <c r="G407" s="57"/>
       <c r="H407" s="6"/>
       <c r="I407" s="6"/>
       <c r="J407" s="6"/>
-      <c r="K407" s="73"/>
+      <c r="K407" s="71"/>
     </row>
     <row r="408" spans="1:11">
       <c r="A408" s="6"/>
       <c r="B408" s="6"/>
       <c r="D408" s="6"/>
-      <c r="E408" s="59"/>
-      <c r="F408" s="59"/>
-      <c r="G408" s="59"/>
+      <c r="E408" s="57"/>
+      <c r="F408" s="57"/>
+      <c r="G408" s="57"/>
       <c r="H408" s="6"/>
       <c r="I408" s="6"/>
       <c r="J408" s="6"/>
-      <c r="K408" s="73"/>
+      <c r="K408" s="71"/>
     </row>
     <row r="409" spans="1:11">
       <c r="A409" s="6"/>
       <c r="B409" s="6"/>
       <c r="D409" s="6"/>
-      <c r="E409" s="59"/>
-      <c r="F409" s="59"/>
-      <c r="G409" s="59"/>
+      <c r="E409" s="57"/>
+      <c r="F409" s="57"/>
+      <c r="G409" s="57"/>
       <c r="H409" s="6"/>
       <c r="I409" s="6"/>
       <c r="J409" s="6"/>
-      <c r="K409" s="73"/>
+      <c r="K409" s="71"/>
     </row>
     <row r="410" spans="1:11">
       <c r="A410" s="6"/>
       <c r="B410" s="6"/>
       <c r="D410" s="6"/>
-      <c r="E410" s="59"/>
-      <c r="F410" s="59"/>
-      <c r="G410" s="59"/>
+      <c r="E410" s="57"/>
+      <c r="F410" s="57"/>
+      <c r="G410" s="57"/>
       <c r="H410" s="6"/>
       <c r="I410" s="6"/>
       <c r="J410" s="6"/>
-      <c r="K410" s="73"/>
+      <c r="K410" s="71"/>
     </row>
     <row r="411" spans="1:11">
       <c r="A411" s="6"/>
       <c r="B411" s="6"/>
       <c r="D411" s="6"/>
-      <c r="E411" s="59"/>
-      <c r="F411" s="59"/>
-      <c r="G411" s="59"/>
+      <c r="E411" s="57"/>
+      <c r="F411" s="57"/>
+      <c r="G411" s="57"/>
       <c r="H411" s="6"/>
       <c r="I411" s="6"/>
       <c r="J411" s="6"/>
-      <c r="K411" s="73"/>
+      <c r="K411" s="71"/>
     </row>
     <row r="412" spans="1:11">
       <c r="A412" s="6"/>
       <c r="B412" s="6"/>
       <c r="D412" s="6"/>
-      <c r="E412" s="59"/>
-      <c r="F412" s="59"/>
-      <c r="G412" s="59"/>
+      <c r="E412" s="57"/>
+      <c r="F412" s="57"/>
+      <c r="G412" s="57"/>
       <c r="H412" s="6"/>
       <c r="I412" s="6"/>
       <c r="J412" s="6"/>
-      <c r="K412" s="73"/>
+      <c r="K412" s="71"/>
     </row>
     <row r="413" spans="1:11">
       <c r="A413" s="6"/>
       <c r="B413" s="6"/>
       <c r="D413" s="6"/>
-      <c r="E413" s="59"/>
-      <c r="F413" s="59"/>
-      <c r="G413" s="59"/>
+      <c r="E413" s="57"/>
+      <c r="F413" s="57"/>
+      <c r="G413" s="57"/>
       <c r="H413" s="6"/>
       <c r="I413" s="6"/>
       <c r="J413" s="6"/>
-      <c r="K413" s="73"/>
+      <c r="K413" s="71"/>
     </row>
     <row r="414" spans="1:11">
       <c r="A414" s="6"/>
       <c r="B414" s="6"/>
       <c r="D414" s="6"/>
-      <c r="E414" s="59"/>
-      <c r="F414" s="59"/>
-      <c r="G414" s="59"/>
+      <c r="E414" s="57"/>
+      <c r="F414" s="57"/>
+      <c r="G414" s="57"/>
       <c r="H414" s="6"/>
       <c r="I414" s="6"/>
       <c r="J414" s="6"/>
-      <c r="K414" s="73"/>
+      <c r="K414" s="71"/>
     </row>
     <row r="415" spans="1:11">
       <c r="A415" s="6"/>
       <c r="B415" s="6"/>
       <c r="D415" s="6"/>
-      <c r="E415" s="59"/>
-      <c r="F415" s="59"/>
-      <c r="G415" s="59"/>
+      <c r="E415" s="57"/>
+      <c r="F415" s="57"/>
+      <c r="G415" s="57"/>
       <c r="H415" s="6"/>
       <c r="I415" s="6"/>
       <c r="J415" s="6"/>
-      <c r="K415" s="73"/>
+      <c r="K415" s="71"/>
     </row>
     <row r="416" spans="1:11">
       <c r="A416" s="6"/>
       <c r="B416" s="6"/>
       <c r="D416" s="6"/>
-      <c r="E416" s="59"/>
-      <c r="F416" s="59"/>
-      <c r="G416" s="59"/>
+      <c r="E416" s="57"/>
+      <c r="F416" s="57"/>
+      <c r="G416" s="57"/>
       <c r="H416" s="6"/>
       <c r="I416" s="6"/>
       <c r="J416" s="6"/>
-      <c r="K416" s="73"/>
+      <c r="K416" s="71"/>
     </row>
     <row r="417" spans="1:11">
       <c r="A417" s="6"/>
       <c r="B417" s="6"/>
       <c r="D417" s="6"/>
-      <c r="E417" s="59"/>
-      <c r="F417" s="59"/>
-      <c r="G417" s="59"/>
+      <c r="E417" s="57"/>
+      <c r="F417" s="57"/>
+      <c r="G417" s="57"/>
       <c r="H417" s="6"/>
       <c r="I417" s="6"/>
       <c r="J417" s="6"/>
-      <c r="K417" s="73"/>
+      <c r="K417" s="71"/>
     </row>
     <row r="418" spans="1:11">
       <c r="A418" s="6"/>
       <c r="B418" s="6"/>
       <c r="D418" s="6"/>
-      <c r="E418" s="59"/>
-      <c r="F418" s="59"/>
-      <c r="G418" s="59"/>
+      <c r="E418" s="57"/>
+      <c r="F418" s="57"/>
+      <c r="G418" s="57"/>
       <c r="H418" s="6"/>
       <c r="I418" s="6"/>
       <c r="J418" s="6"/>
-      <c r="K418" s="73"/>
+      <c r="K418" s="71"/>
     </row>
     <row r="419" spans="1:11">
       <c r="A419" s="6"/>
       <c r="B419" s="6"/>
       <c r="D419" s="6"/>
-      <c r="E419" s="59"/>
-      <c r="F419" s="59"/>
-      <c r="G419" s="59"/>
+      <c r="E419" s="57"/>
+      <c r="F419" s="57"/>
+      <c r="G419" s="57"/>
       <c r="H419" s="6"/>
       <c r="I419" s="6"/>
       <c r="J419" s="6"/>
-      <c r="K419" s="73"/>
+      <c r="K419" s="71"/>
     </row>
     <row r="420" spans="1:11">
       <c r="A420" s="6"/>
       <c r="B420" s="6"/>
       <c r="D420" s="6"/>
-      <c r="E420" s="59"/>
-      <c r="F420" s="59"/>
-      <c r="G420" s="59"/>
+      <c r="E420" s="57"/>
+      <c r="F420" s="57"/>
+      <c r="G420" s="57"/>
       <c r="H420" s="6"/>
       <c r="I420" s="6"/>
       <c r="J420" s="6"/>
-      <c r="K420" s="73"/>
+      <c r="K420" s="71"/>
     </row>
     <row r="421" spans="1:11">
       <c r="A421" s="6"/>
       <c r="B421" s="6"/>
       <c r="D421" s="6"/>
-      <c r="E421" s="59"/>
-      <c r="F421" s="59"/>
-      <c r="G421" s="59"/>
+      <c r="E421" s="57"/>
+      <c r="F421" s="57"/>
+      <c r="G421" s="57"/>
       <c r="H421" s="6"/>
       <c r="I421" s="6"/>
       <c r="J421" s="6"/>
-      <c r="K421" s="73"/>
+      <c r="K421" s="71"/>
     </row>
     <row r="422" spans="1:11">
       <c r="A422" s="6"/>
       <c r="B422" s="6"/>
       <c r="D422" s="6"/>
-      <c r="E422" s="59"/>
-      <c r="F422" s="59"/>
-      <c r="G422" s="59"/>
+      <c r="E422" s="57"/>
+      <c r="F422" s="57"/>
+      <c r="G422" s="57"/>
       <c r="H422" s="6"/>
       <c r="I422" s="6"/>
       <c r="J422" s="6"/>
-      <c r="K422" s="73"/>
+      <c r="K422" s="71"/>
     </row>
     <row r="423" spans="1:11">
       <c r="A423" s="6"/>
       <c r="B423" s="6"/>
       <c r="D423" s="6"/>
-      <c r="E423" s="59"/>
-      <c r="F423" s="59"/>
-      <c r="G423" s="59"/>
+      <c r="E423" s="57"/>
+      <c r="F423" s="57"/>
+      <c r="G423" s="57"/>
       <c r="H423" s="6"/>
       <c r="I423" s="6"/>
       <c r="J423" s="6"/>
-      <c r="K423" s="73"/>
+      <c r="K423" s="71"/>
     </row>
     <row r="424" spans="1:11">
       <c r="A424" s="6"/>
       <c r="B424" s="6"/>
       <c r="D424" s="6"/>
-      <c r="E424" s="59"/>
-      <c r="F424" s="59"/>
-      <c r="G424" s="59"/>
+      <c r="E424" s="57"/>
+      <c r="F424" s="57"/>
+      <c r="G424" s="57"/>
       <c r="H424" s="6"/>
       <c r="I424" s="6"/>
       <c r="J424" s="6"/>
-      <c r="K424" s="73"/>
+      <c r="K424" s="71"/>
     </row>
     <row r="425" spans="1:11">
       <c r="A425" s="6"/>
       <c r="B425" s="6"/>
       <c r="D425" s="6"/>
-      <c r="E425" s="59"/>
-      <c r="F425" s="59"/>
-      <c r="G425" s="59"/>
+      <c r="E425" s="57"/>
+      <c r="F425" s="57"/>
+      <c r="G425" s="57"/>
       <c r="H425" s="6"/>
       <c r="I425" s="6"/>
       <c r="J425" s="6"/>
-      <c r="K425" s="73"/>
+      <c r="K425" s="71"/>
     </row>
     <row r="426" spans="1:11">
       <c r="A426" s="6"/>
       <c r="B426" s="6"/>
       <c r="D426" s="6"/>
-      <c r="E426" s="59"/>
-      <c r="F426" s="59"/>
-      <c r="G426" s="59"/>
+      <c r="E426" s="57"/>
+      <c r="F426" s="57"/>
+      <c r="G426" s="57"/>
       <c r="H426" s="6"/>
       <c r="I426" s="6"/>
       <c r="J426" s="6"/>
-      <c r="K426" s="73"/>
+      <c r="K426" s="71"/>
     </row>
     <row r="427" spans="1:11">
       <c r="A427" s="6"/>
       <c r="B427" s="6"/>
       <c r="D427" s="6"/>
-      <c r="E427" s="59"/>
-      <c r="F427" s="59"/>
-      <c r="G427" s="59"/>
+      <c r="E427" s="57"/>
+      <c r="F427" s="57"/>
+      <c r="G427" s="57"/>
       <c r="H427" s="6"/>
       <c r="I427" s="6"/>
       <c r="J427" s="6"/>
-      <c r="K427" s="73"/>
+      <c r="K427" s="71"/>
     </row>
     <row r="428" spans="1:11">
       <c r="A428" s="6"/>
       <c r="B428" s="6"/>
       <c r="D428" s="6"/>
-      <c r="E428" s="59"/>
-      <c r="F428" s="59"/>
-      <c r="G428" s="59"/>
+      <c r="E428" s="57"/>
+      <c r="F428" s="57"/>
+      <c r="G428" s="57"/>
       <c r="H428" s="6"/>
       <c r="I428" s="6"/>
       <c r="J428" s="6"/>
-      <c r="K428" s="73"/>
+      <c r="K428" s="71"/>
     </row>
     <row r="429" spans="1:11">
       <c r="A429" s="6"/>
       <c r="B429" s="6"/>
       <c r="D429" s="6"/>
-      <c r="E429" s="59"/>
-      <c r="F429" s="59"/>
-      <c r="G429" s="59"/>
+      <c r="E429" s="57"/>
+      <c r="F429" s="57"/>
+      <c r="G429" s="57"/>
       <c r="H429" s="6"/>
       <c r="I429" s="6"/>
       <c r="J429" s="6"/>
-      <c r="K429" s="73"/>
+      <c r="K429" s="71"/>
     </row>
     <row r="430" spans="1:11">
       <c r="A430" s="6"/>
       <c r="B430" s="6"/>
       <c r="D430" s="6"/>
-      <c r="E430" s="59"/>
-      <c r="F430" s="59"/>
-      <c r="G430" s="59"/>
+      <c r="E430" s="57"/>
+      <c r="F430" s="57"/>
+      <c r="G430" s="57"/>
       <c r="H430" s="6"/>
       <c r="I430" s="6"/>
       <c r="J430" s="6"/>
-      <c r="K430" s="73"/>
+      <c r="K430" s="71"/>
     </row>
     <row r="431" spans="1:11">
       <c r="A431" s="6"/>
       <c r="B431" s="6"/>
       <c r="D431" s="6"/>
-      <c r="E431" s="59"/>
-      <c r="F431" s="59"/>
-      <c r="G431" s="59"/>
+      <c r="E431" s="57"/>
+      <c r="F431" s="57"/>
+      <c r="G431" s="57"/>
       <c r="H431" s="6"/>
       <c r="I431" s="6"/>
       <c r="J431" s="6"/>
-      <c r="K431" s="73"/>
+      <c r="K431" s="71"/>
     </row>
     <row r="432" spans="1:11">
       <c r="A432" s="6"/>
       <c r="B432" s="6"/>
       <c r="D432" s="6"/>
-      <c r="E432" s="59"/>
-      <c r="F432" s="59"/>
-      <c r="G432" s="59"/>
+      <c r="E432" s="57"/>
+      <c r="F432" s="57"/>
+      <c r="G432" s="57"/>
       <c r="H432" s="6"/>
       <c r="I432" s="6"/>
       <c r="J432" s="6"/>
-      <c r="K432" s="73"/>
+      <c r="K432" s="71"/>
     </row>
     <row r="433" spans="1:11">
       <c r="A433" s="6"/>
       <c r="B433" s="6"/>
       <c r="D433" s="6"/>
-      <c r="E433" s="59"/>
-      <c r="F433" s="59"/>
-      <c r="G433" s="59"/>
+      <c r="E433" s="57"/>
+      <c r="F433" s="57"/>
+      <c r="G433" s="57"/>
       <c r="H433" s="6"/>
       <c r="I433" s="6"/>
       <c r="J433" s="6"/>
-      <c r="K433" s="73"/>
+      <c r="K433" s="71"/>
     </row>
     <row r="434" spans="1:11">
       <c r="A434" s="6"/>
       <c r="B434" s="6"/>
       <c r="D434" s="6"/>
-      <c r="E434" s="59"/>
-      <c r="F434" s="59"/>
-      <c r="G434" s="59"/>
+      <c r="E434" s="57"/>
+      <c r="F434" s="57"/>
+      <c r="G434" s="57"/>
       <c r="H434" s="6"/>
       <c r="I434" s="6"/>
       <c r="J434" s="6"/>
-      <c r="K434" s="73"/>
+      <c r="K434" s="71"/>
     </row>
     <row r="435" spans="1:11">
       <c r="A435" s="6"/>
       <c r="B435" s="6"/>
       <c r="D435" s="6"/>
-      <c r="E435" s="59"/>
-      <c r="F435" s="59"/>
-      <c r="G435" s="59"/>
+      <c r="E435" s="57"/>
+      <c r="F435" s="57"/>
+      <c r="G435" s="57"/>
       <c r="H435" s="6"/>
       <c r="I435" s="6"/>
       <c r="J435" s="6"/>
-      <c r="K435" s="73"/>
+      <c r="K435" s="71"/>
     </row>
     <row r="436" spans="1:11">
       <c r="A436" s="6"/>
       <c r="B436" s="6"/>
       <c r="D436" s="6"/>
-      <c r="E436" s="59"/>
-      <c r="F436" s="59"/>
-      <c r="G436" s="59"/>
+      <c r="E436" s="57"/>
+      <c r="F436" s="57"/>
+      <c r="G436" s="57"/>
       <c r="H436" s="6"/>
       <c r="I436" s="6"/>
       <c r="J436" s="6"/>
-      <c r="K436" s="73"/>
+      <c r="K436" s="71"/>
     </row>
     <row r="437" spans="1:11">
       <c r="A437" s="6"/>
       <c r="B437" s="6"/>
       <c r="D437" s="6"/>
-      <c r="E437" s="59"/>
-      <c r="F437" s="59"/>
-      <c r="G437" s="59"/>
+      <c r="E437" s="57"/>
+      <c r="F437" s="57"/>
+      <c r="G437" s="57"/>
       <c r="H437" s="6"/>
       <c r="I437" s="6"/>
       <c r="J437" s="6"/>
-      <c r="K437" s="73"/>
+      <c r="K437" s="71"/>
     </row>
     <row r="438" spans="1:11">
       <c r="A438" s="6"/>
       <c r="B438" s="6"/>
       <c r="D438" s="6"/>
-      <c r="E438" s="59"/>
-      <c r="F438" s="59"/>
-      <c r="G438" s="59"/>
+      <c r="E438" s="57"/>
+      <c r="F438" s="57"/>
+      <c r="G438" s="57"/>
       <c r="H438" s="6"/>
       <c r="I438" s="6"/>
       <c r="J438" s="6"/>
-      <c r="K438" s="73"/>
+      <c r="K438" s="71"/>
     </row>
     <row r="439" spans="1:11">
       <c r="A439" s="6"/>
       <c r="B439" s="6"/>
       <c r="D439" s="6"/>
-      <c r="E439" s="59"/>
-      <c r="F439" s="59"/>
-      <c r="G439" s="59"/>
+      <c r="E439" s="57"/>
+      <c r="F439" s="57"/>
+      <c r="G439" s="57"/>
       <c r="H439" s="6"/>
       <c r="I439" s="6"/>
       <c r="J439" s="6"/>
-      <c r="K439" s="73"/>
+      <c r="K439" s="71"/>
     </row>
     <row r="440" spans="1:11">
       <c r="A440" s="6"/>
       <c r="B440" s="6"/>
       <c r="D440" s="6"/>
-      <c r="E440" s="59"/>
-      <c r="F440" s="59"/>
-      <c r="G440" s="59"/>
+      <c r="E440" s="57"/>
+      <c r="F440" s="57"/>
+      <c r="G440" s="57"/>
       <c r="H440" s="6"/>
       <c r="I440" s="6"/>
       <c r="J440" s="6"/>
-      <c r="K440" s="73"/>
+      <c r="K440" s="71"/>
     </row>
     <row r="441" spans="1:11">
       <c r="A441" s="6"/>
       <c r="B441" s="6"/>
       <c r="D441" s="6"/>
-      <c r="E441" s="59"/>
-      <c r="F441" s="59"/>
-      <c r="G441" s="59"/>
+      <c r="E441" s="57"/>
+      <c r="F441" s="57"/>
+      <c r="G441" s="57"/>
       <c r="H441" s="6"/>
       <c r="I441" s="6"/>
       <c r="J441" s="6"/>
-      <c r="K441" s="73"/>
+      <c r="K441" s="71"/>
     </row>
     <row r="442" spans="1:11">
       <c r="A442" s="6"/>
       <c r="B442" s="6"/>
       <c r="D442" s="6"/>
-      <c r="E442" s="59"/>
-      <c r="F442" s="59"/>
-      <c r="G442" s="59"/>
+      <c r="E442" s="57"/>
+      <c r="F442" s="57"/>
+      <c r="G442" s="57"/>
       <c r="H442" s="6"/>
       <c r="I442" s="6"/>
       <c r="J442" s="6"/>
-      <c r="K442" s="73"/>
+      <c r="K442" s="71"/>
     </row>
     <row r="443" spans="1:11">
       <c r="A443" s="6"/>
       <c r="B443" s="6"/>
       <c r="D443" s="6"/>
-      <c r="E443" s="59"/>
-      <c r="F443" s="59"/>
-      <c r="G443" s="59"/>
+      <c r="E443" s="57"/>
+      <c r="F443" s="57"/>
+      <c r="G443" s="57"/>
       <c r="H443" s="6"/>
       <c r="I443" s="6"/>
       <c r="J443" s="6"/>
-      <c r="K443" s="73"/>
+      <c r="K443" s="71"/>
     </row>
     <row r="444" spans="1:11">
       <c r="A444" s="6"/>
       <c r="B444" s="6"/>
       <c r="D444" s="6"/>
-      <c r="E444" s="59"/>
-      <c r="F444" s="59"/>
-      <c r="G444" s="59"/>
+      <c r="E444" s="57"/>
+      <c r="F444" s="57"/>
+      <c r="G444" s="57"/>
       <c r="H444" s="6"/>
       <c r="I444" s="6"/>
       <c r="J444" s="6"/>
-      <c r="K444" s="73"/>
+      <c r="K444" s="71"/>
     </row>
     <row r="445" spans="1:11">
       <c r="A445" s="6"/>
       <c r="B445" s="6"/>
       <c r="D445" s="6"/>
-      <c r="E445" s="59"/>
-      <c r="F445" s="59"/>
-      <c r="G445" s="59"/>
+      <c r="E445" s="57"/>
+      <c r="F445" s="57"/>
+      <c r="G445" s="57"/>
       <c r="H445" s="6"/>
       <c r="I445" s="6"/>
       <c r="J445" s="6"/>
-      <c r="K445" s="73"/>
+      <c r="K445" s="71"/>
     </row>
     <row r="446" spans="1:11">
       <c r="A446" s="6"/>
       <c r="B446" s="6"/>
       <c r="D446" s="6"/>
-      <c r="E446" s="59"/>
-      <c r="F446" s="59"/>
-      <c r="G446" s="59"/>
+      <c r="E446" s="57"/>
+      <c r="F446" s="57"/>
+      <c r="G446" s="57"/>
       <c r="H446" s="6"/>
       <c r="I446" s="6"/>
       <c r="J446" s="6"/>
-      <c r="K446" s="73"/>
+      <c r="K446" s="71"/>
     </row>
     <row r="447" spans="1:11">
       <c r="A447" s="6"/>
       <c r="B447" s="6"/>
       <c r="D447" s="6"/>
-      <c r="E447" s="59"/>
-      <c r="F447" s="59"/>
-      <c r="G447" s="59"/>
+      <c r="E447" s="57"/>
+      <c r="F447" s="57"/>
+      <c r="G447" s="57"/>
       <c r="H447" s="6"/>
       <c r="I447" s="6"/>
       <c r="J447" s="6"/>
-      <c r="K447" s="73"/>
+      <c r="K447" s="71"/>
     </row>
     <row r="448" spans="1:11">
       <c r="A448" s="6"/>
       <c r="B448" s="6"/>
       <c r="D448" s="6"/>
-      <c r="E448" s="59"/>
-      <c r="F448" s="59"/>
-      <c r="G448" s="59"/>
+      <c r="E448" s="57"/>
+      <c r="F448" s="57"/>
+      <c r="G448" s="57"/>
       <c r="H448" s="6"/>
       <c r="I448" s="6"/>
       <c r="J448" s="6"/>
-      <c r="K448" s="73"/>
+      <c r="K448" s="71"/>
     </row>
     <row r="449" spans="1:11">
       <c r="A449" s="6"/>
       <c r="B449" s="6"/>
       <c r="D449" s="6"/>
-      <c r="E449" s="59"/>
-      <c r="F449" s="59"/>
-      <c r="G449" s="59"/>
+      <c r="E449" s="57"/>
+      <c r="F449" s="57"/>
+      <c r="G449" s="57"/>
       <c r="H449" s="6"/>
       <c r="I449" s="6"/>
       <c r="J449" s="6"/>
-      <c r="K449" s="73"/>
+      <c r="K449" s="71"/>
     </row>
     <row r="450" spans="1:11">
       <c r="A450" s="6"/>
       <c r="B450" s="6"/>
       <c r="D450" s="6"/>
-      <c r="E450" s="59"/>
-      <c r="F450" s="59"/>
-      <c r="G450" s="59"/>
+      <c r="E450" s="57"/>
+      <c r="F450" s="57"/>
+      <c r="G450" s="57"/>
       <c r="H450" s="6"/>
       <c r="I450" s="6"/>
       <c r="J450" s="6"/>
-      <c r="K450" s="73"/>
+      <c r="K450" s="71"/>
     </row>
     <row r="451" spans="1:11">
       <c r="A451" s="6"/>
       <c r="B451" s="6"/>
       <c r="D451" s="6"/>
-      <c r="E451" s="59"/>
-      <c r="F451" s="59"/>
-      <c r="G451" s="59"/>
+      <c r="E451" s="57"/>
+      <c r="F451" s="57"/>
+      <c r="G451" s="57"/>
       <c r="H451" s="6"/>
       <c r="I451" s="6"/>
       <c r="J451" s="6"/>
-      <c r="K451" s="73"/>
+      <c r="K451" s="71"/>
     </row>
     <row r="452" spans="1:11">
       <c r="A452" s="6"/>
       <c r="B452" s="6"/>
       <c r="D452" s="6"/>
-      <c r="E452" s="59"/>
-      <c r="F452" s="59"/>
-      <c r="G452" s="59"/>
+      <c r="E452" s="57"/>
+      <c r="F452" s="57"/>
+      <c r="G452" s="57"/>
       <c r="H452" s="6"/>
       <c r="I452" s="6"/>
       <c r="J452" s="6"/>
-      <c r="K452" s="73"/>
+      <c r="K452" s="71"/>
     </row>
     <row r="453" spans="1:11">
       <c r="A453" s="6"/>
       <c r="B453" s="6"/>
       <c r="D453" s="6"/>
-      <c r="E453" s="59"/>
-      <c r="F453" s="59"/>
-      <c r="G453" s="59"/>
+      <c r="E453" s="57"/>
+      <c r="F453" s="57"/>
+      <c r="G453" s="57"/>
       <c r="H453" s="6"/>
       <c r="I453" s="6"/>
       <c r="J453" s="6"/>
-      <c r="K453" s="73"/>
+      <c r="K453" s="71"/>
     </row>
     <row r="454" spans="1:11">
       <c r="A454" s="6"/>
       <c r="B454" s="6"/>
       <c r="D454" s="6"/>
-      <c r="E454" s="59"/>
-      <c r="F454" s="59"/>
-      <c r="G454" s="59"/>
+      <c r="E454" s="57"/>
+      <c r="F454" s="57"/>
+      <c r="G454" s="57"/>
       <c r="H454" s="6"/>
       <c r="I454" s="6"/>
       <c r="J454" s="6"/>
-      <c r="K454" s="73"/>
+      <c r="K454" s="71"/>
     </row>
     <row r="455" spans="1:11">
       <c r="A455" s="6"/>
       <c r="B455" s="6"/>
       <c r="D455" s="6"/>
-      <c r="E455" s="59"/>
-      <c r="F455" s="59"/>
-      <c r="G455" s="59"/>
+      <c r="E455" s="57"/>
+      <c r="F455" s="57"/>
+      <c r="G455" s="57"/>
       <c r="H455" s="6"/>
       <c r="I455" s="6"/>
       <c r="J455" s="6"/>
-      <c r="K455" s="73"/>
+      <c r="K455" s="71"/>
     </row>
     <row r="456" spans="1:11">
       <c r="A456" s="6"/>
       <c r="B456" s="6"/>
       <c r="D456" s="6"/>
-      <c r="E456" s="59"/>
-      <c r="F456" s="59"/>
-      <c r="G456" s="59"/>
+      <c r="E456" s="57"/>
+      <c r="F456" s="57"/>
+      <c r="G456" s="57"/>
       <c r="H456" s="6"/>
       <c r="I456" s="6"/>
       <c r="J456" s="6"/>
-      <c r="K456" s="73"/>
+      <c r="K456" s="71"/>
     </row>
     <row r="457" spans="1:11">
       <c r="A457" s="6"/>
       <c r="B457" s="6"/>
       <c r="D457" s="6"/>
-      <c r="E457" s="59"/>
-      <c r="F457" s="59"/>
-      <c r="G457" s="59"/>
+      <c r="E457" s="57"/>
+      <c r="F457" s="57"/>
+      <c r="G457" s="57"/>
       <c r="H457" s="6"/>
       <c r="I457" s="6"/>
       <c r="J457" s="6"/>
-      <c r="K457" s="73"/>
+      <c r="K457" s="71"/>
     </row>
     <row r="458" spans="1:11">
       <c r="A458" s="6"/>
       <c r="B458" s="6"/>
       <c r="D458" s="6"/>
-      <c r="E458" s="59"/>
-      <c r="F458" s="59"/>
-      <c r="G458" s="59"/>
+      <c r="E458" s="57"/>
+      <c r="F458" s="57"/>
+      <c r="G458" s="57"/>
       <c r="H458" s="6"/>
       <c r="I458" s="6"/>
       <c r="J458" s="6"/>
-      <c r="K458" s="73"/>
+      <c r="K458" s="71"/>
     </row>
     <row r="459" spans="1:11">
       <c r="A459" s="6"/>
       <c r="B459" s="6"/>
       <c r="D459" s="6"/>
-      <c r="E459" s="59"/>
-      <c r="F459" s="59"/>
-      <c r="G459" s="59"/>
+      <c r="E459" s="57"/>
+      <c r="F459" s="57"/>
+      <c r="G459" s="57"/>
       <c r="H459" s="6"/>
       <c r="I459" s="6"/>
       <c r="J459" s="6"/>
-      <c r="K459" s="73"/>
+      <c r="K459" s="71"/>
     </row>
     <row r="460" spans="1:11">
       <c r="A460" s="6"/>
       <c r="B460" s="6"/>
       <c r="D460" s="6"/>
-      <c r="E460" s="59"/>
-      <c r="F460" s="59"/>
-      <c r="G460" s="59"/>
+      <c r="E460" s="57"/>
+      <c r="F460" s="57"/>
+      <c r="G460" s="57"/>
       <c r="H460" s="6"/>
       <c r="I460" s="6"/>
       <c r="J460" s="6"/>
-      <c r="K460" s="73"/>
+      <c r="K460" s="71"/>
     </row>
     <row r="461" spans="1:11">
       <c r="A461" s="6"/>
       <c r="B461" s="6"/>
       <c r="D461" s="6"/>
-      <c r="E461" s="59"/>
-      <c r="F461" s="59"/>
-      <c r="G461" s="59"/>
+      <c r="E461" s="57"/>
+      <c r="F461" s="57"/>
+      <c r="G461" s="57"/>
       <c r="H461" s="6"/>
       <c r="I461" s="6"/>
       <c r="J461" s="6"/>
-      <c r="K461" s="73"/>
+      <c r="K461" s="71"/>
     </row>
     <row r="462" spans="1:11">
       <c r="A462" s="6"/>
       <c r="B462" s="6"/>
       <c r="D462" s="6"/>
-      <c r="E462" s="59"/>
-      <c r="F462" s="59"/>
-      <c r="G462" s="59"/>
+      <c r="E462" s="57"/>
+      <c r="F462" s="57"/>
+      <c r="G462" s="57"/>
       <c r="H462" s="6"/>
       <c r="I462" s="6"/>
       <c r="J462" s="6"/>
-      <c r="K462" s="73"/>
+      <c r="K462" s="71"/>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="6"/>
@@ -9659,6 +9695,9 @@
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
   </mergeCells>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C1:C2" r:id="rId1" display="股票代码"/>
   </hyperlinks>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
@@ -92,12 +92,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
       <t>执行失败</t>
     </r>
     <r>
@@ -1188,6 +1182,9 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1401,10 +1398,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2602,14 +2596,14 @@
   <dimension ref="A1:BA542"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="G20" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomRight" activeCell="M1" sqref="M$1:M$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="14.8"/>
   <cols>
     <col min="1" max="1" width="13.9910714285714" customWidth="1"/>
     <col min="2" max="2" width="15.0267857142857" customWidth="1"/>
@@ -2622,56 +2616,56 @@
     <col min="10" max="10" width="14"/>
     <col min="11" max="11" width="11.3035714285714" style="8" customWidth="1"/>
     <col min="12" max="12" width="11.1607142857143" style="9" customWidth="1"/>
-    <col min="13" max="13" width="27.6785714285714" style="6" customWidth="1"/>
+    <col min="13" max="13" width="27.6785714285714" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="23.6" spans="1:53">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="K1" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="72" t="s">
+      <c r="M1" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
       <c r="V1" s="83"/>
       <c r="W1" s="83"/>
       <c r="X1" s="83"/>
@@ -2703,26 +2697,26 @@
       <c r="BA1" s="83"/>
     </row>
     <row r="2" ht="23.6" spans="1:53">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
       <c r="V2" s="83"/>
       <c r="W2" s="83"/>
       <c r="X2" s="83"/>
@@ -2754,57 +2748,57 @@
       <c r="BA2" s="83"/>
     </row>
     <row r="3" customFormat="1" ht="23.6" spans="1:53">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E3" s="48">
         <v>34.12</v>
       </c>
-      <c r="F3" s="47">
+      <c r="F3" s="48">
         <v>32.53</v>
       </c>
-      <c r="G3" s="47">
+      <c r="G3" s="48">
         <v>39.33</v>
       </c>
-      <c r="H3" s="48">
+      <c r="H3" s="49">
         <f t="shared" ref="H3:H32" si="0">(E3-F3)*100</f>
         <v>159</v>
       </c>
-      <c r="I3" s="48">
+      <c r="I3" s="49">
         <f>FLOOR(1000/(E3-F3),100)</f>
         <v>600</v>
       </c>
-      <c r="J3" s="64">
+      <c r="J3" s="65">
         <f t="shared" ref="J3:J11" si="1">(G3-E3)/(E3-F3)</f>
         <v>3.27672955974844</v>
       </c>
-      <c r="K3" s="65">
+      <c r="K3" s="66">
         <f t="shared" ref="K3:K14" si="2">(E3-F3)/E3</f>
         <v>0.0466002344665884</v>
       </c>
-      <c r="L3" s="66">
+      <c r="L3" s="67">
         <f t="shared" ref="L3:L11" si="3">(G3-E3)/E3</f>
         <v>0.152696365767878</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="M3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="74"/>
+      <c r="T3" s="74"/>
       <c r="V3" s="83"/>
       <c r="W3" s="83"/>
       <c r="X3" s="83"/>
@@ -2836,57 +2830,57 @@
       <c r="BA3" s="83"/>
     </row>
     <row r="4" customFormat="1" ht="23.6" spans="1:53">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="48">
         <v>32.65</v>
       </c>
-      <c r="F4" s="47">
+      <c r="F4" s="48">
         <v>30.89</v>
       </c>
-      <c r="G4" s="47">
+      <c r="G4" s="48">
         <v>36.22</v>
       </c>
-      <c r="H4" s="48">
+      <c r="H4" s="49">
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
-      <c r="I4" s="48">
+      <c r="I4" s="49">
         <f>FLOOR(1000/(E4-F4),100)</f>
         <v>500</v>
       </c>
-      <c r="J4" s="64">
+      <c r="J4" s="65">
         <f t="shared" si="1"/>
         <v>2.02840909090909</v>
       </c>
-      <c r="K4" s="65">
+      <c r="K4" s="66">
         <f t="shared" si="2"/>
         <v>0.0539050535987748</v>
       </c>
-      <c r="L4" s="66">
+      <c r="L4" s="67">
         <f t="shared" si="3"/>
         <v>0.109341500765697</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="M4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
       <c r="V4" s="83"/>
       <c r="W4" s="83"/>
       <c r="X4" s="83"/>
@@ -2918,1289 +2912,1289 @@
       <c r="BA4" s="83"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="45" spans="1:14">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="20">
         <v>44539</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="48">
         <v>51.15</v>
       </c>
-      <c r="F5" s="47">
+      <c r="F5" s="48">
         <v>46.61</v>
       </c>
-      <c r="G5" s="47">
+      <c r="G5" s="48">
         <v>59.59</v>
       </c>
-      <c r="H5" s="48">
+      <c r="H5" s="49">
         <f t="shared" si="0"/>
         <v>454</v>
       </c>
-      <c r="I5" s="48">
+      <c r="I5" s="49">
         <f t="shared" ref="I5:I32" si="4">FLOOR(1000/(E5-F5),100)</f>
         <v>200</v>
       </c>
-      <c r="J5" s="64">
+      <c r="J5" s="65">
         <f t="shared" si="1"/>
         <v>1.85903083700441</v>
       </c>
-      <c r="K5" s="65">
+      <c r="K5" s="66">
         <f t="shared" si="2"/>
         <v>0.0887585532746823</v>
       </c>
-      <c r="L5" s="66">
+      <c r="L5" s="67">
         <f t="shared" si="3"/>
         <v>0.165004887585533</v>
       </c>
-      <c r="M5" s="75" t="s">
+      <c r="M5" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="76"/>
+      <c r="N5" s="77"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="44" spans="1:14">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="20">
         <v>44539</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="16">
         <v>600779</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="50">
         <v>143.8</v>
       </c>
-      <c r="F6" s="49">
+      <c r="F6" s="50">
         <v>137.88</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="50">
         <v>158.48</v>
       </c>
-      <c r="H6" s="48">
+      <c r="H6" s="49">
         <f t="shared" si="0"/>
         <v>592.000000000002</v>
       </c>
-      <c r="I6" s="48">
+      <c r="I6" s="49">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J6" s="64">
+      <c r="J6" s="65">
         <f t="shared" si="1"/>
         <v>2.47972972972972</v>
       </c>
-      <c r="K6" s="65">
+      <c r="K6" s="66">
         <f t="shared" si="2"/>
         <v>0.0411682892906816</v>
       </c>
-      <c r="L6" s="66">
+      <c r="L6" s="67">
         <f t="shared" si="3"/>
         <v>0.102086230876217</v>
       </c>
-      <c r="M6" s="21" t="s">
+      <c r="M6" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="76"/>
+      <c r="N6" s="77"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="45" spans="1:14">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="20">
         <v>44539</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="16">
         <v>600803</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="50">
         <v>20.44</v>
       </c>
-      <c r="F7" s="49">
+      <c r="F7" s="50">
         <v>19.09</v>
       </c>
-      <c r="G7" s="49">
+      <c r="G7" s="50">
         <v>23.43</v>
       </c>
-      <c r="H7" s="48">
+      <c r="H7" s="49">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
-      <c r="I7" s="48">
+      <c r="I7" s="49">
         <f t="shared" si="4"/>
         <v>700</v>
       </c>
-      <c r="J7" s="64">
+      <c r="J7" s="65">
         <f t="shared" si="1"/>
         <v>2.21481481481481</v>
       </c>
-      <c r="K7" s="65">
+      <c r="K7" s="66">
         <f t="shared" si="2"/>
         <v>0.0660469667318983</v>
       </c>
-      <c r="L7" s="66">
+      <c r="L7" s="67">
         <f t="shared" si="3"/>
         <v>0.146281800391389</v>
       </c>
-      <c r="M7" s="75" t="s">
+      <c r="M7" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="76"/>
+      <c r="N7" s="77"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="15" spans="1:14">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="20">
         <v>44539</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="23">
         <v>600032</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="47">
+      <c r="E8" s="48">
         <v>17.19</v>
       </c>
-      <c r="F8" s="47">
+      <c r="F8" s="48">
         <v>15.5</v>
       </c>
-      <c r="G8" s="47">
+      <c r="G8" s="48">
         <v>20.72</v>
       </c>
-      <c r="H8" s="48">
+      <c r="H8" s="49">
         <f t="shared" si="0"/>
         <v>169</v>
       </c>
-      <c r="I8" s="48">
+      <c r="I8" s="49">
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="J8" s="64">
+      <c r="J8" s="65">
         <f t="shared" si="1"/>
         <v>2.0887573964497</v>
       </c>
-      <c r="K8" s="65">
+      <c r="K8" s="66">
         <f t="shared" si="2"/>
         <v>0.0983129726585225</v>
       </c>
-      <c r="L8" s="66">
+      <c r="L8" s="67">
         <f t="shared" si="3"/>
         <v>0.205351948807446</v>
       </c>
-      <c r="M8" s="21" t="s">
+      <c r="M8" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="76"/>
+      <c r="N8" s="77"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="15" spans="1:13">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="20">
         <v>44539</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="25">
         <v>603688</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="47">
+      <c r="E9" s="48">
         <v>64.3</v>
       </c>
-      <c r="F9" s="47">
+      <c r="F9" s="48">
         <v>58.51</v>
       </c>
-      <c r="G9" s="47">
+      <c r="G9" s="48">
         <v>65.72</v>
       </c>
-      <c r="H9" s="48">
+      <c r="H9" s="49">
         <f t="shared" si="0"/>
         <v>579</v>
       </c>
-      <c r="I9" s="48">
+      <c r="I9" s="49">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J9" s="64">
+      <c r="J9" s="65">
         <f t="shared" si="1"/>
         <v>0.24525043177893</v>
       </c>
-      <c r="K9" s="65">
+      <c r="K9" s="66">
         <f t="shared" si="2"/>
         <v>0.0900466562986003</v>
       </c>
-      <c r="L9" s="66">
+      <c r="L9" s="67">
         <f t="shared" si="3"/>
         <v>0.0220839813374806</v>
       </c>
-      <c r="M9" s="21" t="s">
+      <c r="M9" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="15" spans="1:13">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="20">
         <v>44539</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="23">
         <v>601677</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="47">
+      <c r="E10" s="48">
         <v>39.15</v>
       </c>
-      <c r="F10" s="47">
+      <c r="F10" s="48">
         <v>35.91</v>
       </c>
-      <c r="G10" s="47">
+      <c r="G10" s="48">
         <v>44.28</v>
       </c>
-      <c r="H10" s="48">
+      <c r="H10" s="49">
         <f t="shared" si="0"/>
         <v>324</v>
       </c>
-      <c r="I10" s="48">
+      <c r="I10" s="49">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J10" s="64">
+      <c r="J10" s="65">
         <f t="shared" si="1"/>
         <v>1.58333333333333</v>
       </c>
-      <c r="K10" s="65">
+      <c r="K10" s="66">
         <f t="shared" si="2"/>
         <v>0.0827586206896552</v>
       </c>
-      <c r="L10" s="66">
+      <c r="L10" s="67">
         <f t="shared" si="3"/>
         <v>0.131034482758621</v>
       </c>
-      <c r="M10" s="21" t="s">
+      <c r="M10" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="15" spans="1:14">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="20">
         <v>44539</v>
       </c>
       <c r="C11" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="47">
+      <c r="E11" s="48">
         <v>117.8</v>
       </c>
-      <c r="F11" s="47">
+      <c r="F11" s="48">
         <v>111.17</v>
       </c>
-      <c r="G11" s="47">
+      <c r="G11" s="48">
         <v>131.73</v>
       </c>
-      <c r="H11" s="48">
+      <c r="H11" s="49">
         <f t="shared" si="0"/>
         <v>663</v>
       </c>
-      <c r="I11" s="48">
+      <c r="I11" s="49">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J11" s="64">
+      <c r="J11" s="65">
         <f t="shared" si="1"/>
         <v>2.10105580693816</v>
       </c>
-      <c r="K11" s="65">
+      <c r="K11" s="66">
         <f t="shared" si="2"/>
         <v>0.0562818336162988</v>
       </c>
-      <c r="L11" s="66">
+      <c r="L11" s="67">
         <f t="shared" si="3"/>
         <v>0.118251273344652</v>
       </c>
-      <c r="M11" s="21" t="s">
+      <c r="M11" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="76"/>
+      <c r="N11" s="77"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="29" spans="1:13">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="20">
         <v>44542</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="16">
         <v>600955</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="47">
+      <c r="E12" s="48">
         <v>49.4</v>
       </c>
-      <c r="F12" s="47">
+      <c r="F12" s="48">
         <v>46.7</v>
       </c>
-      <c r="G12" s="47" t="s">
+      <c r="G12" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="48">
+      <c r="H12" s="49">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="I12" s="48">
+      <c r="I12" s="49">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J12" s="64" t="s">
+      <c r="J12" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="K12" s="65">
+      <c r="K12" s="66">
         <f t="shared" si="2"/>
         <v>0.054655870445344</v>
       </c>
-      <c r="L12" s="66" t="s">
+      <c r="L12" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="M12" s="75" t="s">
+      <c r="M12" s="76" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="15" spans="1:13">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="20">
         <v>44542</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="47">
+      <c r="E13" s="48">
         <v>37.73</v>
       </c>
-      <c r="F13" s="47">
+      <c r="F13" s="48">
         <v>34.68</v>
       </c>
-      <c r="G13" s="47">
+      <c r="G13" s="48">
         <v>46.05</v>
       </c>
-      <c r="H13" s="48">
+      <c r="H13" s="49">
         <f t="shared" si="0"/>
         <v>305</v>
       </c>
-      <c r="I13" s="48">
+      <c r="I13" s="49">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J13" s="64">
+      <c r="J13" s="65">
         <f>(G13-E13)/(E13-F13)</f>
         <v>2.72786885245902</v>
       </c>
-      <c r="K13" s="65">
+      <c r="K13" s="66">
         <f t="shared" si="2"/>
         <v>0.0808375298171216</v>
       </c>
-      <c r="L13" s="66">
+      <c r="L13" s="67">
         <f t="shared" ref="L13:L32" si="5">(G13-E13)/E13</f>
         <v>0.220514179697853</v>
       </c>
-      <c r="M13" s="21" t="s">
+      <c r="M13" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="15" spans="1:13">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="28">
         <v>44525</v>
       </c>
       <c r="C14" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="50">
+      <c r="E14" s="51">
         <v>70.98</v>
       </c>
-      <c r="F14" s="50">
+      <c r="F14" s="51">
         <v>66.88</v>
       </c>
-      <c r="G14" s="50">
+      <c r="G14" s="51">
         <v>84.94</v>
       </c>
-      <c r="H14" s="51">
+      <c r="H14" s="52">
         <f t="shared" si="0"/>
         <v>410.000000000001</v>
       </c>
-      <c r="I14" s="48">
+      <c r="I14" s="49">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="J14" s="64">
+      <c r="J14" s="65">
         <f t="shared" ref="J14:J32" si="6">(G14-E14)/(E14-F14)</f>
         <v>3.40487804878048</v>
       </c>
-      <c r="K14" s="65">
+      <c r="K14" s="66">
         <f t="shared" ref="K14:K32" si="7">(E14-F14)/E14</f>
         <v>0.0577627500704425</v>
       </c>
-      <c r="L14" s="67">
+      <c r="L14" s="68">
         <f t="shared" si="5"/>
         <v>0.196675119752043</v>
       </c>
-      <c r="M14" s="77" t="s">
+      <c r="M14" s="78" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="15" spans="1:13">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="28">
         <v>44529</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="29">
         <v>603010</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="50">
+      <c r="E15" s="51">
         <v>29.77</v>
       </c>
-      <c r="F15" s="50">
+      <c r="F15" s="51">
         <v>27.72</v>
       </c>
-      <c r="G15" s="50">
+      <c r="G15" s="51">
         <v>34.93</v>
       </c>
-      <c r="H15" s="51">
+      <c r="H15" s="52">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
-      <c r="I15" s="48">
+      <c r="I15" s="49">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="J15" s="64">
+      <c r="J15" s="65">
         <f t="shared" si="6"/>
         <v>2.51707317073171</v>
       </c>
-      <c r="K15" s="68">
+      <c r="K15" s="69">
         <f t="shared" si="7"/>
         <v>0.0688612697346322</v>
       </c>
-      <c r="L15" s="67">
+      <c r="L15" s="68">
         <f t="shared" si="5"/>
         <v>0.173328854551562</v>
       </c>
-      <c r="M15" s="77" t="s">
+      <c r="M15" s="78" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="15" spans="1:13">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="28">
         <v>44522</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="29">
         <v>605016</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="50">
+      <c r="E16" s="51">
         <v>30.66</v>
       </c>
-      <c r="F16" s="50">
+      <c r="F16" s="51">
         <v>29.35</v>
       </c>
-      <c r="G16" s="50">
+      <c r="G16" s="51">
         <v>38.71</v>
       </c>
-      <c r="H16" s="51">
+      <c r="H16" s="52">
         <f t="shared" si="0"/>
         <v>131</v>
       </c>
-      <c r="I16" s="48">
+      <c r="I16" s="49">
         <f t="shared" si="4"/>
         <v>700</v>
       </c>
-      <c r="J16" s="64">
+      <c r="J16" s="65">
         <f t="shared" si="6"/>
         <v>6.14503816793894</v>
       </c>
-      <c r="K16" s="68">
+      <c r="K16" s="69">
         <f t="shared" si="7"/>
         <v>0.042726679712981</v>
       </c>
-      <c r="L16" s="67">
+      <c r="L16" s="68">
         <f t="shared" si="5"/>
         <v>0.262557077625571</v>
       </c>
-      <c r="M16" s="77" t="s">
+      <c r="M16" s="78" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="15" spans="1:13">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="28">
         <v>44517</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="50">
+      <c r="E17" s="51">
         <v>26.2</v>
       </c>
-      <c r="F17" s="50">
+      <c r="F17" s="51">
         <v>24.68</v>
       </c>
-      <c r="G17" s="50">
+      <c r="G17" s="51">
         <v>32.49</v>
       </c>
-      <c r="H17" s="51">
+      <c r="H17" s="52">
         <f t="shared" si="0"/>
         <v>152</v>
       </c>
-      <c r="I17" s="48">
+      <c r="I17" s="49">
         <f t="shared" si="4"/>
         <v>600</v>
       </c>
-      <c r="J17" s="64">
+      <c r="J17" s="65">
         <f t="shared" si="6"/>
         <v>4.13815789473685</v>
       </c>
-      <c r="K17" s="68">
+      <c r="K17" s="69">
         <f t="shared" si="7"/>
         <v>0.0580152671755725</v>
       </c>
-      <c r="L17" s="67">
+      <c r="L17" s="68">
         <f t="shared" si="5"/>
         <v>0.240076335877863</v>
       </c>
-      <c r="M17" s="77" t="s">
+      <c r="M17" s="78" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="15" spans="1:13">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="28">
         <v>44533</v>
       </c>
       <c r="C18" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="50">
+      <c r="E18" s="51">
         <v>28.82</v>
       </c>
-      <c r="F18" s="50">
+      <c r="F18" s="51">
         <v>26.31</v>
       </c>
-      <c r="G18" s="50">
+      <c r="G18" s="51">
         <v>32.36</v>
       </c>
-      <c r="H18" s="51">
+      <c r="H18" s="52">
         <f t="shared" si="0"/>
         <v>251</v>
       </c>
-      <c r="I18" s="48">
+      <c r="I18" s="49">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J18" s="64">
+      <c r="J18" s="65">
         <f t="shared" si="6"/>
         <v>1.41035856573705</v>
       </c>
-      <c r="K18" s="68">
+      <c r="K18" s="69">
         <f t="shared" si="7"/>
         <v>0.0870922970159612</v>
       </c>
-      <c r="L18" s="67">
+      <c r="L18" s="68">
         <f t="shared" si="5"/>
         <v>0.122831367106176</v>
       </c>
-      <c r="M18" s="77" t="s">
+      <c r="M18" s="78" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" ht="15" spans="1:13">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="52">
+      <c r="E19" s="53">
         <v>38.89</v>
       </c>
-      <c r="F19" s="52">
+      <c r="F19" s="53">
         <v>36.65</v>
       </c>
-      <c r="G19" s="52">
+      <c r="G19" s="53">
         <v>40.7</v>
       </c>
-      <c r="H19" s="51">
+      <c r="H19" s="52">
         <f t="shared" si="0"/>
         <v>224</v>
       </c>
-      <c r="I19" s="48">
+      <c r="I19" s="49">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="J19" s="64">
+      <c r="J19" s="65">
         <f t="shared" si="6"/>
         <v>0.808035714285715</v>
       </c>
-      <c r="K19" s="68">
+      <c r="K19" s="69">
         <f t="shared" si="7"/>
         <v>0.0575983543327334</v>
       </c>
-      <c r="L19" s="67">
+      <c r="L19" s="68">
         <f t="shared" si="5"/>
         <v>0.0465415273849319</v>
       </c>
-      <c r="M19" s="77" t="s">
+      <c r="M19" s="78" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" ht="29" spans="1:13">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="30">
+      <c r="B20" s="31">
         <v>44545</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="52">
+      <c r="E20" s="53">
         <v>27.73</v>
       </c>
-      <c r="F20" s="52">
+      <c r="F20" s="53">
         <v>25.3</v>
       </c>
-      <c r="G20" s="52">
+      <c r="G20" s="53">
         <v>31.94</v>
       </c>
-      <c r="H20" s="51">
+      <c r="H20" s="52">
         <f t="shared" si="0"/>
         <v>243</v>
       </c>
-      <c r="I20" s="48">
+      <c r="I20" s="49">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="J20" s="64">
+      <c r="J20" s="65">
         <f t="shared" si="6"/>
         <v>1.73251028806584</v>
       </c>
-      <c r="K20" s="68">
+      <c r="K20" s="69">
         <f t="shared" si="7"/>
         <v>0.0876307248467364</v>
       </c>
-      <c r="L20" s="67">
+      <c r="L20" s="68">
         <f t="shared" si="5"/>
         <v>0.151821132347638</v>
       </c>
-      <c r="M20" s="78" t="s">
+      <c r="M20" s="79" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" ht="29" spans="1:13">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="30">
+      <c r="B21" s="31">
         <v>44545</v>
       </c>
-      <c r="C21" s="33">
+      <c r="C21" s="34">
         <v>600821</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="52">
+      <c r="E21" s="53">
         <v>11.75</v>
       </c>
-      <c r="F21" s="52">
+      <c r="F21" s="53">
         <v>10.9</v>
       </c>
-      <c r="G21" s="52">
+      <c r="G21" s="53">
         <v>14.54</v>
       </c>
-      <c r="H21" s="51">
+      <c r="H21" s="52">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="I21" s="48">
+      <c r="I21" s="49">
         <f t="shared" si="4"/>
         <v>1100</v>
       </c>
-      <c r="J21" s="64">
+      <c r="J21" s="65">
         <f t="shared" si="6"/>
         <v>3.28235294117647</v>
       </c>
-      <c r="K21" s="68">
+      <c r="K21" s="69">
         <f t="shared" si="7"/>
         <v>0.0723404255319149</v>
       </c>
-      <c r="L21" s="67">
+      <c r="L21" s="68">
         <f t="shared" si="5"/>
         <v>0.237446808510638</v>
       </c>
-      <c r="M21" s="78" t="s">
+      <c r="M21" s="79" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" ht="15" spans="1:13">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="30">
+      <c r="B22" s="31">
         <v>44546</v>
       </c>
       <c r="C22" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="52">
+      <c r="E22" s="53">
         <v>74.46</v>
       </c>
-      <c r="F22" s="52">
+      <c r="F22" s="53">
         <v>70.4</v>
       </c>
-      <c r="G22" s="52">
+      <c r="G22" s="53">
         <v>83.27</v>
       </c>
-      <c r="H22" s="51">
+      <c r="H22" s="52">
         <f t="shared" si="0"/>
         <v>405.999999999999</v>
       </c>
-      <c r="I22" s="48">
+      <c r="I22" s="49">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="J22" s="64">
+      <c r="J22" s="65">
         <f t="shared" si="6"/>
         <v>2.16995073891626</v>
       </c>
-      <c r="K22" s="68">
+      <c r="K22" s="69">
         <f t="shared" si="7"/>
         <v>0.0545259199570238</v>
       </c>
-      <c r="L22" s="67">
+      <c r="L22" s="68">
         <f t="shared" si="5"/>
         <v>0.118318560300833</v>
       </c>
-      <c r="M22" s="78" t="s">
+      <c r="M22" s="79" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="23" s="3" customFormat="1" ht="15" spans="1:13">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="35">
+      <c r="B23" s="36">
         <v>44546</v>
       </c>
       <c r="C23" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="53">
+      <c r="E23" s="54">
         <v>278</v>
       </c>
-      <c r="F23" s="53">
+      <c r="F23" s="54">
         <v>260.02</v>
       </c>
-      <c r="G23" s="53">
+      <c r="G23" s="54">
         <v>304.23</v>
       </c>
-      <c r="H23" s="48">
+      <c r="H23" s="49">
         <f t="shared" si="0"/>
         <v>1798</v>
       </c>
-      <c r="I23" s="48">
+      <c r="I23" s="49">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J23" s="64">
+      <c r="J23" s="65">
         <f t="shared" si="6"/>
         <v>1.45884315906563</v>
       </c>
-      <c r="K23" s="65">
+      <c r="K23" s="66">
         <f t="shared" si="7"/>
         <v>0.0646762589928058</v>
       </c>
-      <c r="L23" s="66">
+      <c r="L23" s="67">
         <f t="shared" si="5"/>
         <v>0.0943525179856116</v>
       </c>
-      <c r="M23" s="79" t="s">
+      <c r="M23" s="80" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" ht="15" spans="1:13">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="35">
+      <c r="B24" s="36">
         <v>44547</v>
       </c>
-      <c r="C24" s="36">
+      <c r="C24" s="37">
         <v>600976</v>
       </c>
-      <c r="D24" s="37" t="s">
+      <c r="D24" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="52">
+      <c r="E24" s="53">
         <v>64.68</v>
       </c>
-      <c r="F24" s="52">
+      <c r="F24" s="53">
         <v>59.29</v>
       </c>
-      <c r="G24" s="52">
+      <c r="G24" s="53">
         <v>67.16</v>
       </c>
-      <c r="H24" s="48">
+      <c r="H24" s="49">
         <f t="shared" si="0"/>
         <v>539.000000000001</v>
       </c>
-      <c r="I24" s="48">
+      <c r="I24" s="49">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J24" s="64">
+      <c r="J24" s="65">
         <f t="shared" si="6"/>
         <v>0.460111317254172</v>
       </c>
-      <c r="K24" s="65">
+      <c r="K24" s="66">
         <f t="shared" si="7"/>
         <v>0.0833333333333334</v>
       </c>
-      <c r="L24" s="66">
+      <c r="L24" s="67">
         <f t="shared" si="5"/>
         <v>0.038342609771181</v>
       </c>
-      <c r="M24" s="78" t="s">
+      <c r="M24" s="79" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" ht="15" spans="1:13">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="30">
+      <c r="B25" s="31">
         <v>44547</v>
       </c>
       <c r="C25" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="52">
+      <c r="E25" s="53">
         <v>39.39</v>
       </c>
-      <c r="F25" s="52">
+      <c r="F25" s="53">
         <v>36.13</v>
       </c>
-      <c r="G25" s="52">
+      <c r="G25" s="53">
         <v>46.32</v>
       </c>
-      <c r="H25" s="48">
+      <c r="H25" s="49">
         <f t="shared" si="0"/>
         <v>326</v>
       </c>
-      <c r="I25" s="48">
+      <c r="I25" s="49">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="J25" s="64">
+      <c r="J25" s="65">
         <f t="shared" si="6"/>
         <v>2.12576687116565</v>
       </c>
-      <c r="K25" s="65">
+      <c r="K25" s="66">
         <f t="shared" si="7"/>
         <v>0.0827621223660827</v>
       </c>
-      <c r="L25" s="66">
+      <c r="L25" s="67">
         <f t="shared" si="5"/>
         <v>0.175932977913176</v>
       </c>
-      <c r="M25" s="78" t="s">
+      <c r="M25" s="79" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" ht="15" spans="1:13">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="30">
+      <c r="B26" s="31">
         <v>44549</v>
       </c>
       <c r="C26" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="52">
+      <c r="E26" s="53">
         <v>118.25</v>
       </c>
-      <c r="F26" s="52">
+      <c r="F26" s="53">
         <v>110.08</v>
       </c>
-      <c r="G26" s="52">
+      <c r="G26" s="53">
         <v>131.77</v>
       </c>
-      <c r="H26" s="48">
+      <c r="H26" s="49">
         <f t="shared" si="0"/>
         <v>817</v>
       </c>
-      <c r="I26" s="48">
+      <c r="I26" s="49">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J26" s="64">
+      <c r="J26" s="65">
         <f t="shared" si="6"/>
         <v>1.65483476132191</v>
       </c>
-      <c r="K26" s="65">
+      <c r="K26" s="66">
         <f t="shared" si="7"/>
         <v>0.0690909090909091</v>
       </c>
-      <c r="L26" s="66">
+      <c r="L26" s="67">
         <f t="shared" si="5"/>
         <v>0.114334038054968</v>
       </c>
-      <c r="M26" s="78" t="s">
+      <c r="M26" s="79" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:13">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="30">
+      <c r="B27" s="31">
         <v>44549</v>
       </c>
-      <c r="C27" s="36">
+      <c r="C27" s="37">
         <v>603605</v>
       </c>
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="E27" s="54">
+      <c r="E27" s="55">
         <v>215</v>
       </c>
-      <c r="F27" s="54">
+      <c r="F27" s="55">
         <v>198</v>
       </c>
-      <c r="G27" s="54">
+      <c r="G27" s="55">
         <v>236.01</v>
       </c>
-      <c r="H27" s="48">
+      <c r="H27" s="49">
         <f t="shared" si="0"/>
         <v>1700</v>
       </c>
-      <c r="I27" s="48">
+      <c r="I27" s="49">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J27" s="64">
+      <c r="J27" s="65">
         <f t="shared" si="6"/>
         <v>1.23588235294118</v>
       </c>
-      <c r="K27" s="65">
+      <c r="K27" s="66">
         <f t="shared" si="7"/>
         <v>0.0790697674418605</v>
       </c>
-      <c r="L27" s="66">
+      <c r="L27" s="67">
         <f t="shared" si="5"/>
         <v>0.0977209302325581</v>
       </c>
-      <c r="M27" s="79" t="s">
+      <c r="M27" s="80" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:13">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="30">
+      <c r="B28" s="31">
         <v>44549</v>
       </c>
-      <c r="C28" s="38">
+      <c r="C28" s="39">
         <v>603995</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="E28" s="54">
+      <c r="E28" s="55">
         <v>55.99</v>
       </c>
-      <c r="F28" s="54">
+      <c r="F28" s="55">
         <v>52</v>
       </c>
-      <c r="G28" s="54">
+      <c r="G28" s="55">
         <v>58.12</v>
       </c>
-      <c r="H28" s="48">
+      <c r="H28" s="49">
         <f t="shared" si="0"/>
         <v>399</v>
       </c>
-      <c r="I28" s="48">
+      <c r="I28" s="49">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="J28" s="64">
+      <c r="J28" s="65">
         <f t="shared" si="6"/>
         <v>0.533834586466164</v>
       </c>
-      <c r="K28" s="65">
+      <c r="K28" s="66">
         <f t="shared" si="7"/>
         <v>0.0712627254866941</v>
       </c>
-      <c r="L28" s="66">
+      <c r="L28" s="67">
         <f t="shared" si="5"/>
         <v>0.0380425075906411</v>
       </c>
-      <c r="M28" s="80" t="s">
+      <c r="M28" s="81" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="29" ht="15" spans="1:13">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="30">
+      <c r="B29" s="31">
         <v>44549</v>
       </c>
-      <c r="C29" s="39">
+      <c r="C29" s="40">
         <v>603267</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="E29" s="54">
+      <c r="E29" s="55">
         <v>183.8</v>
       </c>
-      <c r="F29" s="54">
+      <c r="F29" s="55">
         <v>170.6</v>
       </c>
-      <c r="G29" s="54">
+      <c r="G29" s="55">
         <v>203.32</v>
       </c>
-      <c r="H29" s="48">
+      <c r="H29" s="49">
         <f t="shared" si="0"/>
         <v>1320</v>
       </c>
-      <c r="I29" s="48">
+      <c r="I29" s="49">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J29" s="64">
+      <c r="J29" s="65">
         <f t="shared" si="6"/>
         <v>1.47878787878788</v>
       </c>
-      <c r="K29" s="65">
+      <c r="K29" s="66">
         <f t="shared" si="7"/>
         <v>0.071817192600653</v>
       </c>
-      <c r="L29" s="66">
+      <c r="L29" s="67">
         <f t="shared" si="5"/>
         <v>0.10620239390642</v>
       </c>
-      <c r="M29" s="79" t="s">
+      <c r="M29" s="80" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:13">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="30">
+      <c r="B30" s="31">
         <v>44549</v>
       </c>
       <c r="C30" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="37" t="s">
+      <c r="D30" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="E30" s="54">
+      <c r="E30" s="55">
         <v>27.68</v>
       </c>
-      <c r="F30" s="54">
+      <c r="F30" s="55">
         <v>26</v>
       </c>
-      <c r="G30" s="54">
+      <c r="G30" s="55">
         <v>29.06</v>
       </c>
-      <c r="H30" s="48">
+      <c r="H30" s="49">
         <f t="shared" si="0"/>
         <v>168</v>
       </c>
-      <c r="I30" s="48">
+      <c r="I30" s="49">
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="J30" s="64">
+      <c r="J30" s="65">
         <f t="shared" si="6"/>
         <v>0.821428571428571</v>
       </c>
-      <c r="K30" s="65">
+      <c r="K30" s="66">
         <f t="shared" si="7"/>
         <v>0.0606936416184971</v>
       </c>
-      <c r="L30" s="66">
+      <c r="L30" s="67">
         <f t="shared" si="5"/>
         <v>0.0498554913294797</v>
       </c>
-      <c r="M30" s="80" t="s">
-        <v>67</v>
+      <c r="M30" s="81" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="31" s="4" customFormat="1" ht="15" spans="1:13">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="40">
+      <c r="B31" s="41">
         <v>44549</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C31" s="23">
         <v>601677</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="54">
+      <c r="E31" s="55">
         <v>39.16</v>
       </c>
-      <c r="F31" s="54">
+      <c r="F31" s="55">
         <v>35.6</v>
       </c>
-      <c r="G31" s="54">
+      <c r="G31" s="55">
         <v>44.92</v>
       </c>
-      <c r="H31" s="48">
+      <c r="H31" s="49">
         <f t="shared" si="0"/>
         <v>356</v>
       </c>
-      <c r="I31" s="48">
+      <c r="I31" s="49">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="J31" s="64">
+      <c r="J31" s="65">
         <f t="shared" si="6"/>
         <v>1.61797752808989</v>
       </c>
-      <c r="K31" s="65">
+      <c r="K31" s="66">
         <f t="shared" si="7"/>
         <v>0.0909090909090908</v>
       </c>
-      <c r="L31" s="66">
+      <c r="L31" s="67">
         <f t="shared" si="5"/>
         <v>0.14708886618999</v>
       </c>
-      <c r="M31" s="80" t="s">
+      <c r="M31" s="81" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="32" s="5" customFormat="1" ht="15" spans="1:13">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B32" s="41">
+      <c r="B32" s="42">
         <v>44549</v>
       </c>
-      <c r="C32" s="42">
+      <c r="C32" s="43">
         <v>600600</v>
       </c>
-      <c r="D32" s="42" t="s">
+      <c r="D32" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="E32" s="55">
+      <c r="E32" s="56">
         <v>108.5</v>
       </c>
-      <c r="F32" s="55">
+      <c r="F32" s="56">
         <v>98</v>
       </c>
-      <c r="G32" s="55">
+      <c r="G32" s="56">
         <v>120.78</v>
       </c>
-      <c r="H32" s="48">
+      <c r="H32" s="49">
         <f t="shared" si="0"/>
         <v>1050</v>
       </c>
-      <c r="I32" s="48">
+      <c r="I32" s="49">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J32" s="64">
+      <c r="J32" s="65">
         <f t="shared" si="6"/>
         <v>1.16952380952381</v>
       </c>
-      <c r="K32" s="65">
+      <c r="K32" s="66">
         <f t="shared" si="7"/>
         <v>0.0967741935483871</v>
       </c>
-      <c r="L32" s="66">
+      <c r="L32" s="67">
         <f t="shared" si="5"/>
         <v>0.113179723502304</v>
       </c>
@@ -4209,5234 +4203,5234 @@
       </c>
     </row>
     <row r="33" ht="15" spans="1:13">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="43">
+      <c r="B33" s="44">
         <v>44553</v>
       </c>
-      <c r="C33" s="39">
+      <c r="C33" s="40">
         <v>600587</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="E33" s="56">
+      <c r="E33" s="57">
         <v>29.56</v>
       </c>
-      <c r="F33" s="56">
+      <c r="F33" s="57">
         <v>27.05</v>
       </c>
-      <c r="G33" s="56">
+      <c r="G33" s="57">
         <v>34.13</v>
       </c>
-      <c r="H33" s="48">
+      <c r="H33" s="49">
         <f>(E33-F33)*100</f>
         <v>251</v>
       </c>
-      <c r="I33" s="48">
+      <c r="I33" s="49">
         <f>FLOOR(1000/(E33-F33),100)</f>
         <v>300</v>
       </c>
-      <c r="J33" s="64">
+      <c r="J33" s="65">
         <f>(G33-E33)/(E33-F33)</f>
         <v>1.82071713147411</v>
       </c>
-      <c r="K33" s="65">
+      <c r="K33" s="66">
         <f>(E33-F33)/E33</f>
         <v>0.0849120433017591</v>
       </c>
-      <c r="L33" s="66">
+      <c r="L33" s="67">
         <f>(G33-E33)/E33</f>
         <v>0.154600811907984</v>
       </c>
-      <c r="M33" s="82" t="s">
+      <c r="M33" s="81" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="44"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="69"/>
-      <c r="L34" s="70"/>
-      <c r="M34" s="44"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="82"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="44"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="69"/>
-      <c r="L35" s="70"/>
-      <c r="M35" s="44"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="70"/>
+      <c r="L35" s="71"/>
+      <c r="M35" s="82"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="44"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="69"/>
-      <c r="L36" s="70"/>
-      <c r="M36" s="44"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="70"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="82"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="44"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="70"/>
-      <c r="M37" s="44"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="70"/>
+      <c r="L37" s="71"/>
+      <c r="M37" s="82"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="44"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="69"/>
-      <c r="L38" s="70"/>
-      <c r="M38" s="44"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="70"/>
+      <c r="L38" s="71"/>
+      <c r="M38" s="82"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="44"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="69"/>
-      <c r="L39" s="70"/>
-      <c r="M39" s="44"/>
+      <c r="A39" s="45"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="70"/>
+      <c r="L39" s="71"/>
+      <c r="M39" s="82"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="44"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="69"/>
-      <c r="L40" s="70"/>
-      <c r="M40" s="44"/>
+      <c r="A40" s="45"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="70"/>
+      <c r="L40" s="71"/>
+      <c r="M40" s="82"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="44"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="69"/>
-      <c r="L41" s="70"/>
-      <c r="M41" s="44"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="70"/>
+      <c r="L41" s="71"/>
+      <c r="M41" s="82"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="44"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="56"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="69"/>
-      <c r="L42" s="70"/>
-      <c r="M42" s="44"/>
+      <c r="A42" s="45"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="70"/>
+      <c r="L42" s="71"/>
+      <c r="M42" s="82"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="44"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="44"/>
-      <c r="K43" s="69"/>
-      <c r="L43" s="70"/>
-      <c r="M43" s="44"/>
+      <c r="A43" s="45"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="70"/>
+      <c r="L43" s="71"/>
+      <c r="M43" s="82"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="44"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="44"/>
-      <c r="K44" s="69"/>
-      <c r="L44" s="70"/>
-      <c r="M44" s="44"/>
-    </row>
-    <row r="45" ht="13" spans="1:13">
+      <c r="A44" s="45"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="45"/>
+      <c r="K44" s="70"/>
+      <c r="L44" s="71"/>
+      <c r="M44" s="82"/>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="44"/>
+      <c r="B45" s="45"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="57"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
-      <c r="K45" s="71"/>
-      <c r="M45" s="44"/>
+      <c r="K45" s="72"/>
+      <c r="M45" s="82"/>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="D46" s="6"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="57"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="58"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
-      <c r="K46" s="71"/>
+      <c r="K46" s="72"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="D47" s="6"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="57"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="58"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
-      <c r="K47" s="71"/>
+      <c r="K47" s="72"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="D48" s="6"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="57"/>
-      <c r="G48" s="57"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="58"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
-      <c r="K48" s="71"/>
+      <c r="K48" s="72"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="D49" s="6"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="57"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="58"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
-      <c r="K49" s="71"/>
+      <c r="K49" s="72"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="57"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="58"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
-      <c r="K50" s="71"/>
+      <c r="K50" s="72"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="D51" s="6"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="57"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="58"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
-      <c r="K51" s="71"/>
+      <c r="K51" s="72"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="57"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="58"/>
+      <c r="G52" s="58"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
-      <c r="K52" s="71"/>
+      <c r="K52" s="72"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="57"/>
-      <c r="G53" s="57"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="58"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
-      <c r="K53" s="71"/>
+      <c r="K53" s="72"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="57"/>
-      <c r="G54" s="57"/>
+      <c r="E54" s="58"/>
+      <c r="F54" s="58"/>
+      <c r="G54" s="58"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
-      <c r="K54" s="71"/>
+      <c r="K54" s="72"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="57"/>
-      <c r="F55" s="57"/>
-      <c r="G55" s="57"/>
+      <c r="E55" s="58"/>
+      <c r="F55" s="58"/>
+      <c r="G55" s="58"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
-      <c r="K55" s="71"/>
+      <c r="K55" s="72"/>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="D56" s="6"/>
-      <c r="E56" s="57"/>
-      <c r="F56" s="57"/>
-      <c r="G56" s="57"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="58"/>
+      <c r="G56" s="58"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
-      <c r="K56" s="71"/>
+      <c r="K56" s="72"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="D57" s="6"/>
-      <c r="E57" s="57"/>
-      <c r="F57" s="57"/>
-      <c r="G57" s="57"/>
+      <c r="E57" s="58"/>
+      <c r="F57" s="58"/>
+      <c r="G57" s="58"/>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
-      <c r="K57" s="71"/>
+      <c r="K57" s="72"/>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="D58" s="6"/>
-      <c r="E58" s="57"/>
-      <c r="F58" s="57"/>
-      <c r="G58" s="57"/>
+      <c r="E58" s="58"/>
+      <c r="F58" s="58"/>
+      <c r="G58" s="58"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
-      <c r="K58" s="71"/>
+      <c r="K58" s="72"/>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="57"/>
-      <c r="F59" s="57"/>
-      <c r="G59" s="57"/>
+      <c r="E59" s="58"/>
+      <c r="F59" s="58"/>
+      <c r="G59" s="58"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
-      <c r="K59" s="71"/>
+      <c r="K59" s="72"/>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="D60" s="6"/>
-      <c r="E60" s="57"/>
-      <c r="F60" s="57"/>
-      <c r="G60" s="57"/>
+      <c r="E60" s="58"/>
+      <c r="F60" s="58"/>
+      <c r="G60" s="58"/>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
-      <c r="K60" s="71"/>
+      <c r="K60" s="72"/>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="57"/>
-      <c r="F61" s="57"/>
-      <c r="G61" s="57"/>
+      <c r="E61" s="58"/>
+      <c r="F61" s="58"/>
+      <c r="G61" s="58"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
-      <c r="K61" s="71"/>
+      <c r="K61" s="72"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="57"/>
-      <c r="F62" s="57"/>
-      <c r="G62" s="57"/>
+      <c r="E62" s="58"/>
+      <c r="F62" s="58"/>
+      <c r="G62" s="58"/>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
-      <c r="K62" s="71"/>
+      <c r="K62" s="72"/>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="D63" s="6"/>
-      <c r="E63" s="57"/>
-      <c r="F63" s="57"/>
-      <c r="G63" s="57"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="58"/>
+      <c r="G63" s="58"/>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
-      <c r="K63" s="71"/>
+      <c r="K63" s="72"/>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="D64" s="6"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="57"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="58"/>
+      <c r="G64" s="58"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
-      <c r="K64" s="71"/>
+      <c r="K64" s="72"/>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="D65" s="6"/>
-      <c r="E65" s="57"/>
-      <c r="F65" s="57"/>
-      <c r="G65" s="57"/>
+      <c r="E65" s="58"/>
+      <c r="F65" s="58"/>
+      <c r="G65" s="58"/>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
-      <c r="K65" s="71"/>
+      <c r="K65" s="72"/>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="D66" s="6"/>
-      <c r="E66" s="57"/>
-      <c r="F66" s="57"/>
-      <c r="G66" s="57"/>
+      <c r="E66" s="58"/>
+      <c r="F66" s="58"/>
+      <c r="G66" s="58"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
-      <c r="K66" s="71"/>
+      <c r="K66" s="72"/>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="D67" s="6"/>
-      <c r="E67" s="57"/>
-      <c r="F67" s="57"/>
-      <c r="G67" s="57"/>
+      <c r="E67" s="58"/>
+      <c r="F67" s="58"/>
+      <c r="G67" s="58"/>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
-      <c r="K67" s="71"/>
+      <c r="K67" s="72"/>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="D68" s="6"/>
-      <c r="E68" s="57"/>
-      <c r="F68" s="57"/>
-      <c r="G68" s="57"/>
+      <c r="E68" s="58"/>
+      <c r="F68" s="58"/>
+      <c r="G68" s="58"/>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
-      <c r="K68" s="71"/>
+      <c r="K68" s="72"/>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="D69" s="6"/>
-      <c r="E69" s="57"/>
-      <c r="F69" s="57"/>
-      <c r="G69" s="57"/>
+      <c r="E69" s="58"/>
+      <c r="F69" s="58"/>
+      <c r="G69" s="58"/>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
-      <c r="K69" s="71"/>
+      <c r="K69" s="72"/>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="D70" s="6"/>
-      <c r="E70" s="57"/>
-      <c r="F70" s="57"/>
-      <c r="G70" s="57"/>
+      <c r="E70" s="58"/>
+      <c r="F70" s="58"/>
+      <c r="G70" s="58"/>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
-      <c r="K70" s="71"/>
+      <c r="K70" s="72"/>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="D71" s="6"/>
-      <c r="E71" s="57"/>
-      <c r="F71" s="57"/>
-      <c r="G71" s="57"/>
+      <c r="E71" s="58"/>
+      <c r="F71" s="58"/>
+      <c r="G71" s="58"/>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
-      <c r="K71" s="71"/>
+      <c r="K71" s="72"/>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="D72" s="6"/>
-      <c r="E72" s="57"/>
-      <c r="F72" s="57"/>
-      <c r="G72" s="57"/>
+      <c r="E72" s="58"/>
+      <c r="F72" s="58"/>
+      <c r="G72" s="58"/>
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
-      <c r="K72" s="71"/>
+      <c r="K72" s="72"/>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="D73" s="6"/>
-      <c r="E73" s="57"/>
-      <c r="F73" s="57"/>
-      <c r="G73" s="57"/>
+      <c r="E73" s="58"/>
+      <c r="F73" s="58"/>
+      <c r="G73" s="58"/>
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
-      <c r="K73" s="71"/>
+      <c r="K73" s="72"/>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="D74" s="6"/>
-      <c r="E74" s="57"/>
-      <c r="F74" s="57"/>
-      <c r="G74" s="57"/>
+      <c r="E74" s="58"/>
+      <c r="F74" s="58"/>
+      <c r="G74" s="58"/>
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
-      <c r="K74" s="71"/>
+      <c r="K74" s="72"/>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="D75" s="6"/>
-      <c r="E75" s="57"/>
-      <c r="F75" s="57"/>
-      <c r="G75" s="57"/>
+      <c r="E75" s="58"/>
+      <c r="F75" s="58"/>
+      <c r="G75" s="58"/>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
-      <c r="K75" s="71"/>
+      <c r="K75" s="72"/>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="D76" s="6"/>
-      <c r="E76" s="57"/>
-      <c r="F76" s="57"/>
-      <c r="G76" s="57"/>
+      <c r="E76" s="58"/>
+      <c r="F76" s="58"/>
+      <c r="G76" s="58"/>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
-      <c r="K76" s="71"/>
+      <c r="K76" s="72"/>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="D77" s="6"/>
-      <c r="E77" s="57"/>
-      <c r="F77" s="57"/>
-      <c r="G77" s="57"/>
+      <c r="E77" s="58"/>
+      <c r="F77" s="58"/>
+      <c r="G77" s="58"/>
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
-      <c r="K77" s="71"/>
+      <c r="K77" s="72"/>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="D78" s="6"/>
-      <c r="E78" s="57"/>
-      <c r="F78" s="57"/>
-      <c r="G78" s="57"/>
+      <c r="E78" s="58"/>
+      <c r="F78" s="58"/>
+      <c r="G78" s="58"/>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
-      <c r="K78" s="71"/>
+      <c r="K78" s="72"/>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="D79" s="6"/>
-      <c r="E79" s="57"/>
-      <c r="F79" s="57"/>
-      <c r="G79" s="57"/>
+      <c r="E79" s="58"/>
+      <c r="F79" s="58"/>
+      <c r="G79" s="58"/>
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
-      <c r="K79" s="71"/>
+      <c r="K79" s="72"/>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="D80" s="6"/>
-      <c r="E80" s="57"/>
-      <c r="F80" s="57"/>
-      <c r="G80" s="57"/>
+      <c r="E80" s="58"/>
+      <c r="F80" s="58"/>
+      <c r="G80" s="58"/>
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
-      <c r="K80" s="71"/>
+      <c r="K80" s="72"/>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="D81" s="6"/>
-      <c r="E81" s="57"/>
-      <c r="F81" s="57"/>
-      <c r="G81" s="57"/>
+      <c r="E81" s="58"/>
+      <c r="F81" s="58"/>
+      <c r="G81" s="58"/>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
-      <c r="K81" s="71"/>
+      <c r="K81" s="72"/>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="D82" s="6"/>
-      <c r="E82" s="57"/>
-      <c r="F82" s="57"/>
-      <c r="G82" s="57"/>
+      <c r="E82" s="58"/>
+      <c r="F82" s="58"/>
+      <c r="G82" s="58"/>
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
-      <c r="K82" s="71"/>
+      <c r="K82" s="72"/>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="D83" s="6"/>
-      <c r="E83" s="57"/>
-      <c r="F83" s="57"/>
-      <c r="G83" s="57"/>
+      <c r="E83" s="58"/>
+      <c r="F83" s="58"/>
+      <c r="G83" s="58"/>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
-      <c r="K83" s="71"/>
+      <c r="K83" s="72"/>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="D84" s="6"/>
-      <c r="E84" s="57"/>
-      <c r="F84" s="57"/>
-      <c r="G84" s="57"/>
+      <c r="E84" s="58"/>
+      <c r="F84" s="58"/>
+      <c r="G84" s="58"/>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
       <c r="J84" s="6"/>
-      <c r="K84" s="71"/>
+      <c r="K84" s="72"/>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="D85" s="6"/>
-      <c r="E85" s="57"/>
-      <c r="F85" s="57"/>
-      <c r="G85" s="57"/>
+      <c r="E85" s="58"/>
+      <c r="F85" s="58"/>
+      <c r="G85" s="58"/>
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
-      <c r="K85" s="71"/>
+      <c r="K85" s="72"/>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="D86" s="6"/>
-      <c r="E86" s="57"/>
-      <c r="F86" s="57"/>
-      <c r="G86" s="57"/>
+      <c r="E86" s="58"/>
+      <c r="F86" s="58"/>
+      <c r="G86" s="58"/>
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
-      <c r="K86" s="71"/>
+      <c r="K86" s="72"/>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="D87" s="6"/>
-      <c r="E87" s="57"/>
-      <c r="F87" s="57"/>
-      <c r="G87" s="57"/>
+      <c r="E87" s="58"/>
+      <c r="F87" s="58"/>
+      <c r="G87" s="58"/>
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
-      <c r="K87" s="71"/>
+      <c r="K87" s="72"/>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="D88" s="6"/>
-      <c r="E88" s="57"/>
-      <c r="F88" s="57"/>
-      <c r="G88" s="57"/>
+      <c r="E88" s="58"/>
+      <c r="F88" s="58"/>
+      <c r="G88" s="58"/>
       <c r="H88" s="6"/>
       <c r="I88" s="6"/>
       <c r="J88" s="6"/>
-      <c r="K88" s="71"/>
+      <c r="K88" s="72"/>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="D89" s="6"/>
-      <c r="E89" s="57"/>
-      <c r="F89" s="57"/>
-      <c r="G89" s="57"/>
+      <c r="E89" s="58"/>
+      <c r="F89" s="58"/>
+      <c r="G89" s="58"/>
       <c r="H89" s="6"/>
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
-      <c r="K89" s="71"/>
+      <c r="K89" s="72"/>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="D90" s="6"/>
-      <c r="E90" s="57"/>
-      <c r="F90" s="57"/>
-      <c r="G90" s="57"/>
+      <c r="E90" s="58"/>
+      <c r="F90" s="58"/>
+      <c r="G90" s="58"/>
       <c r="H90" s="6"/>
       <c r="I90" s="6"/>
       <c r="J90" s="6"/>
-      <c r="K90" s="71"/>
+      <c r="K90" s="72"/>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="D91" s="6"/>
-      <c r="E91" s="57"/>
-      <c r="F91" s="57"/>
-      <c r="G91" s="57"/>
+      <c r="E91" s="58"/>
+      <c r="F91" s="58"/>
+      <c r="G91" s="58"/>
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
-      <c r="K91" s="71"/>
+      <c r="K91" s="72"/>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="D92" s="6"/>
-      <c r="E92" s="57"/>
-      <c r="F92" s="57"/>
-      <c r="G92" s="57"/>
+      <c r="E92" s="58"/>
+      <c r="F92" s="58"/>
+      <c r="G92" s="58"/>
       <c r="H92" s="6"/>
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
-      <c r="K92" s="71"/>
+      <c r="K92" s="72"/>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="D93" s="6"/>
-      <c r="E93" s="57"/>
-      <c r="F93" s="57"/>
-      <c r="G93" s="57"/>
+      <c r="E93" s="58"/>
+      <c r="F93" s="58"/>
+      <c r="G93" s="58"/>
       <c r="H93" s="6"/>
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
-      <c r="K93" s="71"/>
+      <c r="K93" s="72"/>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="D94" s="6"/>
-      <c r="E94" s="57"/>
-      <c r="F94" s="57"/>
-      <c r="G94" s="57"/>
+      <c r="E94" s="58"/>
+      <c r="F94" s="58"/>
+      <c r="G94" s="58"/>
       <c r="H94" s="6"/>
       <c r="I94" s="6"/>
       <c r="J94" s="6"/>
-      <c r="K94" s="71"/>
+      <c r="K94" s="72"/>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="D95" s="6"/>
-      <c r="E95" s="57"/>
-      <c r="F95" s="57"/>
-      <c r="G95" s="57"/>
+      <c r="E95" s="58"/>
+      <c r="F95" s="58"/>
+      <c r="G95" s="58"/>
       <c r="H95" s="6"/>
       <c r="I95" s="6"/>
       <c r="J95" s="6"/>
-      <c r="K95" s="71"/>
+      <c r="K95" s="72"/>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="D96" s="6"/>
-      <c r="E96" s="57"/>
-      <c r="F96" s="57"/>
-      <c r="G96" s="57"/>
+      <c r="E96" s="58"/>
+      <c r="F96" s="58"/>
+      <c r="G96" s="58"/>
       <c r="H96" s="6"/>
       <c r="I96" s="6"/>
       <c r="J96" s="6"/>
-      <c r="K96" s="71"/>
+      <c r="K96" s="72"/>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="D97" s="6"/>
-      <c r="E97" s="57"/>
-      <c r="F97" s="57"/>
-      <c r="G97" s="57"/>
+      <c r="E97" s="58"/>
+      <c r="F97" s="58"/>
+      <c r="G97" s="58"/>
       <c r="H97" s="6"/>
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
-      <c r="K97" s="71"/>
+      <c r="K97" s="72"/>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="D98" s="6"/>
-      <c r="E98" s="57"/>
-      <c r="F98" s="57"/>
-      <c r="G98" s="57"/>
+      <c r="E98" s="58"/>
+      <c r="F98" s="58"/>
+      <c r="G98" s="58"/>
       <c r="H98" s="6"/>
       <c r="I98" s="6"/>
       <c r="J98" s="6"/>
-      <c r="K98" s="71"/>
+      <c r="K98" s="72"/>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="D99" s="6"/>
-      <c r="E99" s="57"/>
-      <c r="F99" s="57"/>
-      <c r="G99" s="57"/>
+      <c r="E99" s="58"/>
+      <c r="F99" s="58"/>
+      <c r="G99" s="58"/>
       <c r="H99" s="6"/>
       <c r="I99" s="6"/>
       <c r="J99" s="6"/>
-      <c r="K99" s="71"/>
+      <c r="K99" s="72"/>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="D100" s="6"/>
-      <c r="E100" s="57"/>
-      <c r="F100" s="57"/>
-      <c r="G100" s="57"/>
+      <c r="E100" s="58"/>
+      <c r="F100" s="58"/>
+      <c r="G100" s="58"/>
       <c r="H100" s="6"/>
       <c r="I100" s="6"/>
       <c r="J100" s="6"/>
-      <c r="K100" s="71"/>
+      <c r="K100" s="72"/>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="D101" s="6"/>
-      <c r="E101" s="57"/>
-      <c r="F101" s="57"/>
-      <c r="G101" s="57"/>
+      <c r="E101" s="58"/>
+      <c r="F101" s="58"/>
+      <c r="G101" s="58"/>
       <c r="H101" s="6"/>
       <c r="I101" s="6"/>
       <c r="J101" s="6"/>
-      <c r="K101" s="71"/>
+      <c r="K101" s="72"/>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="D102" s="6"/>
-      <c r="E102" s="57"/>
-      <c r="F102" s="57"/>
-      <c r="G102" s="57"/>
+      <c r="E102" s="58"/>
+      <c r="F102" s="58"/>
+      <c r="G102" s="58"/>
       <c r="H102" s="6"/>
       <c r="I102" s="6"/>
       <c r="J102" s="6"/>
-      <c r="K102" s="71"/>
+      <c r="K102" s="72"/>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="D103" s="6"/>
-      <c r="E103" s="57"/>
-      <c r="F103" s="57"/>
-      <c r="G103" s="57"/>
+      <c r="E103" s="58"/>
+      <c r="F103" s="58"/>
+      <c r="G103" s="58"/>
       <c r="H103" s="6"/>
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
-      <c r="K103" s="71"/>
+      <c r="K103" s="72"/>
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="D104" s="6"/>
-      <c r="E104" s="57"/>
-      <c r="F104" s="57"/>
-      <c r="G104" s="57"/>
+      <c r="E104" s="58"/>
+      <c r="F104" s="58"/>
+      <c r="G104" s="58"/>
       <c r="H104" s="6"/>
       <c r="I104" s="6"/>
       <c r="J104" s="6"/>
-      <c r="K104" s="71"/>
+      <c r="K104" s="72"/>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="D105" s="6"/>
-      <c r="E105" s="57"/>
-      <c r="F105" s="57"/>
-      <c r="G105" s="57"/>
+      <c r="E105" s="58"/>
+      <c r="F105" s="58"/>
+      <c r="G105" s="58"/>
       <c r="H105" s="6"/>
       <c r="I105" s="6"/>
       <c r="J105" s="6"/>
-      <c r="K105" s="71"/>
+      <c r="K105" s="72"/>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="D106" s="6"/>
-      <c r="E106" s="57"/>
-      <c r="F106" s="57"/>
-      <c r="G106" s="57"/>
+      <c r="E106" s="58"/>
+      <c r="F106" s="58"/>
+      <c r="G106" s="58"/>
       <c r="H106" s="6"/>
       <c r="I106" s="6"/>
       <c r="J106" s="6"/>
-      <c r="K106" s="71"/>
+      <c r="K106" s="72"/>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="D107" s="6"/>
-      <c r="E107" s="57"/>
-      <c r="F107" s="57"/>
-      <c r="G107" s="57"/>
+      <c r="E107" s="58"/>
+      <c r="F107" s="58"/>
+      <c r="G107" s="58"/>
       <c r="H107" s="6"/>
       <c r="I107" s="6"/>
       <c r="J107" s="6"/>
-      <c r="K107" s="71"/>
+      <c r="K107" s="72"/>
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="D108" s="6"/>
-      <c r="E108" s="57"/>
-      <c r="F108" s="57"/>
-      <c r="G108" s="57"/>
+      <c r="E108" s="58"/>
+      <c r="F108" s="58"/>
+      <c r="G108" s="58"/>
       <c r="H108" s="6"/>
       <c r="I108" s="6"/>
       <c r="J108" s="6"/>
-      <c r="K108" s="71"/>
+      <c r="K108" s="72"/>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="D109" s="6"/>
-      <c r="E109" s="57"/>
-      <c r="F109" s="57"/>
-      <c r="G109" s="57"/>
+      <c r="E109" s="58"/>
+      <c r="F109" s="58"/>
+      <c r="G109" s="58"/>
       <c r="H109" s="6"/>
       <c r="I109" s="6"/>
       <c r="J109" s="6"/>
-      <c r="K109" s="71"/>
+      <c r="K109" s="72"/>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="D110" s="6"/>
-      <c r="E110" s="57"/>
-      <c r="F110" s="57"/>
-      <c r="G110" s="57"/>
+      <c r="E110" s="58"/>
+      <c r="F110" s="58"/>
+      <c r="G110" s="58"/>
       <c r="H110" s="6"/>
       <c r="I110" s="6"/>
       <c r="J110" s="6"/>
-      <c r="K110" s="71"/>
+      <c r="K110" s="72"/>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="D111" s="6"/>
-      <c r="E111" s="57"/>
-      <c r="F111" s="57"/>
-      <c r="G111" s="57"/>
+      <c r="E111" s="58"/>
+      <c r="F111" s="58"/>
+      <c r="G111" s="58"/>
       <c r="H111" s="6"/>
       <c r="I111" s="6"/>
       <c r="J111" s="6"/>
-      <c r="K111" s="71"/>
+      <c r="K111" s="72"/>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="D112" s="6"/>
-      <c r="E112" s="57"/>
-      <c r="F112" s="57"/>
-      <c r="G112" s="57"/>
+      <c r="E112" s="58"/>
+      <c r="F112" s="58"/>
+      <c r="G112" s="58"/>
       <c r="H112" s="6"/>
       <c r="I112" s="6"/>
       <c r="J112" s="6"/>
-      <c r="K112" s="71"/>
+      <c r="K112" s="72"/>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="D113" s="6"/>
-      <c r="E113" s="57"/>
-      <c r="F113" s="57"/>
-      <c r="G113" s="57"/>
+      <c r="E113" s="58"/>
+      <c r="F113" s="58"/>
+      <c r="G113" s="58"/>
       <c r="H113" s="6"/>
       <c r="I113" s="6"/>
       <c r="J113" s="6"/>
-      <c r="K113" s="71"/>
+      <c r="K113" s="72"/>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="D114" s="6"/>
-      <c r="E114" s="57"/>
-      <c r="F114" s="57"/>
-      <c r="G114" s="57"/>
+      <c r="E114" s="58"/>
+      <c r="F114" s="58"/>
+      <c r="G114" s="58"/>
       <c r="H114" s="6"/>
       <c r="I114" s="6"/>
       <c r="J114" s="6"/>
-      <c r="K114" s="71"/>
+      <c r="K114" s="72"/>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="D115" s="6"/>
-      <c r="E115" s="57"/>
-      <c r="F115" s="57"/>
-      <c r="G115" s="57"/>
+      <c r="E115" s="58"/>
+      <c r="F115" s="58"/>
+      <c r="G115" s="58"/>
       <c r="H115" s="6"/>
       <c r="I115" s="6"/>
       <c r="J115" s="6"/>
-      <c r="K115" s="71"/>
+      <c r="K115" s="72"/>
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="D116" s="6"/>
-      <c r="E116" s="57"/>
-      <c r="F116" s="57"/>
-      <c r="G116" s="57"/>
+      <c r="E116" s="58"/>
+      <c r="F116" s="58"/>
+      <c r="G116" s="58"/>
       <c r="H116" s="6"/>
       <c r="I116" s="6"/>
       <c r="J116" s="6"/>
-      <c r="K116" s="71"/>
+      <c r="K116" s="72"/>
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="D117" s="6"/>
-      <c r="E117" s="57"/>
-      <c r="F117" s="57"/>
-      <c r="G117" s="57"/>
+      <c r="E117" s="58"/>
+      <c r="F117" s="58"/>
+      <c r="G117" s="58"/>
       <c r="H117" s="6"/>
       <c r="I117" s="6"/>
       <c r="J117" s="6"/>
-      <c r="K117" s="71"/>
+      <c r="K117" s="72"/>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="D118" s="6"/>
-      <c r="E118" s="57"/>
-      <c r="F118" s="57"/>
-      <c r="G118" s="57"/>
+      <c r="E118" s="58"/>
+      <c r="F118" s="58"/>
+      <c r="G118" s="58"/>
       <c r="H118" s="6"/>
       <c r="I118" s="6"/>
       <c r="J118" s="6"/>
-      <c r="K118" s="71"/>
+      <c r="K118" s="72"/>
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="D119" s="6"/>
-      <c r="E119" s="57"/>
-      <c r="F119" s="57"/>
-      <c r="G119" s="57"/>
+      <c r="E119" s="58"/>
+      <c r="F119" s="58"/>
+      <c r="G119" s="58"/>
       <c r="H119" s="6"/>
       <c r="I119" s="6"/>
       <c r="J119" s="6"/>
-      <c r="K119" s="71"/>
+      <c r="K119" s="72"/>
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="D120" s="6"/>
-      <c r="E120" s="57"/>
-      <c r="F120" s="57"/>
-      <c r="G120" s="57"/>
+      <c r="E120" s="58"/>
+      <c r="F120" s="58"/>
+      <c r="G120" s="58"/>
       <c r="H120" s="6"/>
       <c r="I120" s="6"/>
       <c r="J120" s="6"/>
-      <c r="K120" s="71"/>
+      <c r="K120" s="72"/>
     </row>
     <row r="121" spans="1:11">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="D121" s="6"/>
-      <c r="E121" s="57"/>
-      <c r="F121" s="57"/>
-      <c r="G121" s="57"/>
+      <c r="E121" s="58"/>
+      <c r="F121" s="58"/>
+      <c r="G121" s="58"/>
       <c r="H121" s="6"/>
       <c r="I121" s="6"/>
       <c r="J121" s="6"/>
-      <c r="K121" s="71"/>
+      <c r="K121" s="72"/>
     </row>
     <row r="122" spans="1:11">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="D122" s="6"/>
-      <c r="E122" s="57"/>
-      <c r="F122" s="57"/>
-      <c r="G122" s="57"/>
+      <c r="E122" s="58"/>
+      <c r="F122" s="58"/>
+      <c r="G122" s="58"/>
       <c r="H122" s="6"/>
       <c r="I122" s="6"/>
       <c r="J122" s="6"/>
-      <c r="K122" s="71"/>
+      <c r="K122" s="72"/>
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="D123" s="6"/>
-      <c r="E123" s="57"/>
-      <c r="F123" s="57"/>
-      <c r="G123" s="57"/>
+      <c r="E123" s="58"/>
+      <c r="F123" s="58"/>
+      <c r="G123" s="58"/>
       <c r="H123" s="6"/>
       <c r="I123" s="6"/>
       <c r="J123" s="6"/>
-      <c r="K123" s="71"/>
+      <c r="K123" s="72"/>
     </row>
     <row r="124" spans="1:11">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="D124" s="6"/>
-      <c r="E124" s="57"/>
-      <c r="F124" s="57"/>
-      <c r="G124" s="57"/>
+      <c r="E124" s="58"/>
+      <c r="F124" s="58"/>
+      <c r="G124" s="58"/>
       <c r="H124" s="6"/>
       <c r="I124" s="6"/>
       <c r="J124" s="6"/>
-      <c r="K124" s="71"/>
+      <c r="K124" s="72"/>
     </row>
     <row r="125" spans="1:11">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="D125" s="6"/>
-      <c r="E125" s="57"/>
-      <c r="F125" s="57"/>
-      <c r="G125" s="57"/>
+      <c r="E125" s="58"/>
+      <c r="F125" s="58"/>
+      <c r="G125" s="58"/>
       <c r="H125" s="6"/>
       <c r="I125" s="6"/>
       <c r="J125" s="6"/>
-      <c r="K125" s="71"/>
+      <c r="K125" s="72"/>
     </row>
     <row r="126" spans="1:11">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="D126" s="6"/>
-      <c r="E126" s="57"/>
-      <c r="F126" s="57"/>
-      <c r="G126" s="57"/>
+      <c r="E126" s="58"/>
+      <c r="F126" s="58"/>
+      <c r="G126" s="58"/>
       <c r="H126" s="6"/>
       <c r="I126" s="6"/>
       <c r="J126" s="6"/>
-      <c r="K126" s="71"/>
+      <c r="K126" s="72"/>
     </row>
     <row r="127" spans="1:11">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="D127" s="6"/>
-      <c r="E127" s="57"/>
-      <c r="F127" s="57"/>
-      <c r="G127" s="57"/>
+      <c r="E127" s="58"/>
+      <c r="F127" s="58"/>
+      <c r="G127" s="58"/>
       <c r="H127" s="6"/>
       <c r="I127" s="6"/>
       <c r="J127" s="6"/>
-      <c r="K127" s="71"/>
+      <c r="K127" s="72"/>
     </row>
     <row r="128" spans="1:11">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="D128" s="6"/>
-      <c r="E128" s="57"/>
-      <c r="F128" s="57"/>
-      <c r="G128" s="57"/>
+      <c r="E128" s="58"/>
+      <c r="F128" s="58"/>
+      <c r="G128" s="58"/>
       <c r="H128" s="6"/>
       <c r="I128" s="6"/>
       <c r="J128" s="6"/>
-      <c r="K128" s="71"/>
+      <c r="K128" s="72"/>
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="D129" s="6"/>
-      <c r="E129" s="57"/>
-      <c r="F129" s="57"/>
-      <c r="G129" s="57"/>
+      <c r="E129" s="58"/>
+      <c r="F129" s="58"/>
+      <c r="G129" s="58"/>
       <c r="H129" s="6"/>
       <c r="I129" s="6"/>
       <c r="J129" s="6"/>
-      <c r="K129" s="71"/>
+      <c r="K129" s="72"/>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="D130" s="6"/>
-      <c r="E130" s="57"/>
-      <c r="F130" s="57"/>
-      <c r="G130" s="57"/>
+      <c r="E130" s="58"/>
+      <c r="F130" s="58"/>
+      <c r="G130" s="58"/>
       <c r="H130" s="6"/>
       <c r="I130" s="6"/>
       <c r="J130" s="6"/>
-      <c r="K130" s="71"/>
+      <c r="K130" s="72"/>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="D131" s="6"/>
-      <c r="E131" s="57"/>
-      <c r="F131" s="57"/>
-      <c r="G131" s="57"/>
+      <c r="E131" s="58"/>
+      <c r="F131" s="58"/>
+      <c r="G131" s="58"/>
       <c r="H131" s="6"/>
       <c r="I131" s="6"/>
       <c r="J131" s="6"/>
-      <c r="K131" s="71"/>
+      <c r="K131" s="72"/>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="D132" s="6"/>
-      <c r="E132" s="57"/>
-      <c r="F132" s="57"/>
-      <c r="G132" s="57"/>
+      <c r="E132" s="58"/>
+      <c r="F132" s="58"/>
+      <c r="G132" s="58"/>
       <c r="H132" s="6"/>
       <c r="I132" s="6"/>
       <c r="J132" s="6"/>
-      <c r="K132" s="71"/>
+      <c r="K132" s="72"/>
     </row>
     <row r="133" spans="1:11">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="D133" s="6"/>
-      <c r="E133" s="57"/>
-      <c r="F133" s="57"/>
-      <c r="G133" s="57"/>
+      <c r="E133" s="58"/>
+      <c r="F133" s="58"/>
+      <c r="G133" s="58"/>
       <c r="H133" s="6"/>
       <c r="I133" s="6"/>
       <c r="J133" s="6"/>
-      <c r="K133" s="71"/>
+      <c r="K133" s="72"/>
     </row>
     <row r="134" spans="1:11">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="D134" s="6"/>
-      <c r="E134" s="57"/>
-      <c r="F134" s="57"/>
-      <c r="G134" s="57"/>
+      <c r="E134" s="58"/>
+      <c r="F134" s="58"/>
+      <c r="G134" s="58"/>
       <c r="H134" s="6"/>
       <c r="I134" s="6"/>
       <c r="J134" s="6"/>
-      <c r="K134" s="71"/>
+      <c r="K134" s="72"/>
     </row>
     <row r="135" spans="1:11">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="D135" s="6"/>
-      <c r="E135" s="57"/>
-      <c r="F135" s="57"/>
-      <c r="G135" s="57"/>
+      <c r="E135" s="58"/>
+      <c r="F135" s="58"/>
+      <c r="G135" s="58"/>
       <c r="H135" s="6"/>
       <c r="I135" s="6"/>
       <c r="J135" s="6"/>
-      <c r="K135" s="71"/>
+      <c r="K135" s="72"/>
     </row>
     <row r="136" spans="1:11">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="D136" s="6"/>
-      <c r="E136" s="57"/>
-      <c r="F136" s="57"/>
-      <c r="G136" s="57"/>
+      <c r="E136" s="58"/>
+      <c r="F136" s="58"/>
+      <c r="G136" s="58"/>
       <c r="H136" s="6"/>
       <c r="I136" s="6"/>
       <c r="J136" s="6"/>
-      <c r="K136" s="71"/>
+      <c r="K136" s="72"/>
     </row>
     <row r="137" spans="1:11">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="D137" s="6"/>
-      <c r="E137" s="57"/>
-      <c r="F137" s="57"/>
-      <c r="G137" s="57"/>
+      <c r="E137" s="58"/>
+      <c r="F137" s="58"/>
+      <c r="G137" s="58"/>
       <c r="H137" s="6"/>
       <c r="I137" s="6"/>
       <c r="J137" s="6"/>
-      <c r="K137" s="71"/>
+      <c r="K137" s="72"/>
     </row>
     <row r="138" spans="1:11">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="D138" s="6"/>
-      <c r="E138" s="57"/>
-      <c r="F138" s="57"/>
-      <c r="G138" s="57"/>
+      <c r="E138" s="58"/>
+      <c r="F138" s="58"/>
+      <c r="G138" s="58"/>
       <c r="H138" s="6"/>
       <c r="I138" s="6"/>
       <c r="J138" s="6"/>
-      <c r="K138" s="71"/>
+      <c r="K138" s="72"/>
     </row>
     <row r="139" spans="1:11">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="D139" s="6"/>
-      <c r="E139" s="57"/>
-      <c r="F139" s="57"/>
-      <c r="G139" s="57"/>
+      <c r="E139" s="58"/>
+      <c r="F139" s="58"/>
+      <c r="G139" s="58"/>
       <c r="H139" s="6"/>
       <c r="I139" s="6"/>
       <c r="J139" s="6"/>
-      <c r="K139" s="71"/>
+      <c r="K139" s="72"/>
     </row>
     <row r="140" spans="1:11">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="D140" s="6"/>
-      <c r="E140" s="57"/>
-      <c r="F140" s="57"/>
-      <c r="G140" s="57"/>
+      <c r="E140" s="58"/>
+      <c r="F140" s="58"/>
+      <c r="G140" s="58"/>
       <c r="H140" s="6"/>
       <c r="I140" s="6"/>
       <c r="J140" s="6"/>
-      <c r="K140" s="71"/>
+      <c r="K140" s="72"/>
     </row>
     <row r="141" spans="1:11">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="D141" s="6"/>
-      <c r="E141" s="57"/>
-      <c r="F141" s="57"/>
-      <c r="G141" s="57"/>
+      <c r="E141" s="58"/>
+      <c r="F141" s="58"/>
+      <c r="G141" s="58"/>
       <c r="H141" s="6"/>
       <c r="I141" s="6"/>
       <c r="J141" s="6"/>
-      <c r="K141" s="71"/>
+      <c r="K141" s="72"/>
     </row>
     <row r="142" spans="1:11">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="D142" s="6"/>
-      <c r="E142" s="57"/>
-      <c r="F142" s="57"/>
-      <c r="G142" s="57"/>
+      <c r="E142" s="58"/>
+      <c r="F142" s="58"/>
+      <c r="G142" s="58"/>
       <c r="H142" s="6"/>
       <c r="I142" s="6"/>
       <c r="J142" s="6"/>
-      <c r="K142" s="71"/>
+      <c r="K142" s="72"/>
     </row>
     <row r="143" spans="1:11">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="D143" s="6"/>
-      <c r="E143" s="57"/>
-      <c r="F143" s="57"/>
-      <c r="G143" s="57"/>
+      <c r="E143" s="58"/>
+      <c r="F143" s="58"/>
+      <c r="G143" s="58"/>
       <c r="H143" s="6"/>
       <c r="I143" s="6"/>
       <c r="J143" s="6"/>
-      <c r="K143" s="71"/>
+      <c r="K143" s="72"/>
     </row>
     <row r="144" spans="1:11">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="D144" s="6"/>
-      <c r="E144" s="57"/>
-      <c r="F144" s="57"/>
-      <c r="G144" s="57"/>
+      <c r="E144" s="58"/>
+      <c r="F144" s="58"/>
+      <c r="G144" s="58"/>
       <c r="H144" s="6"/>
       <c r="I144" s="6"/>
       <c r="J144" s="6"/>
-      <c r="K144" s="71"/>
+      <c r="K144" s="72"/>
     </row>
     <row r="145" spans="1:11">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="D145" s="6"/>
-      <c r="E145" s="57"/>
-      <c r="F145" s="57"/>
-      <c r="G145" s="57"/>
+      <c r="E145" s="58"/>
+      <c r="F145" s="58"/>
+      <c r="G145" s="58"/>
       <c r="H145" s="6"/>
       <c r="I145" s="6"/>
       <c r="J145" s="6"/>
-      <c r="K145" s="71"/>
+      <c r="K145" s="72"/>
     </row>
     <row r="146" spans="1:11">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="D146" s="6"/>
-      <c r="E146" s="57"/>
-      <c r="F146" s="57"/>
-      <c r="G146" s="57"/>
+      <c r="E146" s="58"/>
+      <c r="F146" s="58"/>
+      <c r="G146" s="58"/>
       <c r="H146" s="6"/>
       <c r="I146" s="6"/>
       <c r="J146" s="6"/>
-      <c r="K146" s="71"/>
+      <c r="K146" s="72"/>
     </row>
     <row r="147" spans="1:11">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="D147" s="6"/>
-      <c r="E147" s="57"/>
-      <c r="F147" s="57"/>
-      <c r="G147" s="57"/>
+      <c r="E147" s="58"/>
+      <c r="F147" s="58"/>
+      <c r="G147" s="58"/>
       <c r="H147" s="6"/>
       <c r="I147" s="6"/>
       <c r="J147" s="6"/>
-      <c r="K147" s="71"/>
+      <c r="K147" s="72"/>
     </row>
     <row r="148" spans="1:11">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="D148" s="6"/>
-      <c r="E148" s="57"/>
-      <c r="F148" s="57"/>
-      <c r="G148" s="57"/>
+      <c r="E148" s="58"/>
+      <c r="F148" s="58"/>
+      <c r="G148" s="58"/>
       <c r="H148" s="6"/>
       <c r="I148" s="6"/>
       <c r="J148" s="6"/>
-      <c r="K148" s="71"/>
+      <c r="K148" s="72"/>
     </row>
     <row r="149" spans="1:11">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="D149" s="6"/>
-      <c r="E149" s="57"/>
-      <c r="F149" s="57"/>
-      <c r="G149" s="57"/>
+      <c r="E149" s="58"/>
+      <c r="F149" s="58"/>
+      <c r="G149" s="58"/>
       <c r="H149" s="6"/>
       <c r="I149" s="6"/>
       <c r="J149" s="6"/>
-      <c r="K149" s="71"/>
+      <c r="K149" s="72"/>
     </row>
     <row r="150" spans="1:11">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="D150" s="6"/>
-      <c r="E150" s="57"/>
-      <c r="F150" s="57"/>
-      <c r="G150" s="57"/>
+      <c r="E150" s="58"/>
+      <c r="F150" s="58"/>
+      <c r="G150" s="58"/>
       <c r="H150" s="6"/>
       <c r="I150" s="6"/>
       <c r="J150" s="6"/>
-      <c r="K150" s="71"/>
+      <c r="K150" s="72"/>
     </row>
     <row r="151" spans="1:11">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="D151" s="6"/>
-      <c r="E151" s="57"/>
-      <c r="F151" s="57"/>
-      <c r="G151" s="57"/>
+      <c r="E151" s="58"/>
+      <c r="F151" s="58"/>
+      <c r="G151" s="58"/>
       <c r="H151" s="6"/>
       <c r="I151" s="6"/>
       <c r="J151" s="6"/>
-      <c r="K151" s="71"/>
+      <c r="K151" s="72"/>
     </row>
     <row r="152" spans="1:11">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="D152" s="6"/>
-      <c r="E152" s="57"/>
-      <c r="F152" s="57"/>
-      <c r="G152" s="57"/>
+      <c r="E152" s="58"/>
+      <c r="F152" s="58"/>
+      <c r="G152" s="58"/>
       <c r="H152" s="6"/>
       <c r="I152" s="6"/>
       <c r="J152" s="6"/>
-      <c r="K152" s="71"/>
+      <c r="K152" s="72"/>
     </row>
     <row r="153" spans="1:11">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="D153" s="6"/>
-      <c r="E153" s="57"/>
-      <c r="F153" s="57"/>
-      <c r="G153" s="57"/>
+      <c r="E153" s="58"/>
+      <c r="F153" s="58"/>
+      <c r="G153" s="58"/>
       <c r="H153" s="6"/>
       <c r="I153" s="6"/>
       <c r="J153" s="6"/>
-      <c r="K153" s="71"/>
+      <c r="K153" s="72"/>
     </row>
     <row r="154" spans="1:11">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="D154" s="6"/>
-      <c r="E154" s="57"/>
-      <c r="F154" s="57"/>
-      <c r="G154" s="57"/>
+      <c r="E154" s="58"/>
+      <c r="F154" s="58"/>
+      <c r="G154" s="58"/>
       <c r="H154" s="6"/>
       <c r="I154" s="6"/>
       <c r="J154" s="6"/>
-      <c r="K154" s="71"/>
+      <c r="K154" s="72"/>
     </row>
     <row r="155" spans="1:11">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="D155" s="6"/>
-      <c r="E155" s="57"/>
-      <c r="F155" s="57"/>
-      <c r="G155" s="57"/>
+      <c r="E155" s="58"/>
+      <c r="F155" s="58"/>
+      <c r="G155" s="58"/>
       <c r="H155" s="6"/>
       <c r="I155" s="6"/>
       <c r="J155" s="6"/>
-      <c r="K155" s="71"/>
+      <c r="K155" s="72"/>
     </row>
     <row r="156" spans="1:11">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="D156" s="6"/>
-      <c r="E156" s="57"/>
-      <c r="F156" s="57"/>
-      <c r="G156" s="57"/>
+      <c r="E156" s="58"/>
+      <c r="F156" s="58"/>
+      <c r="G156" s="58"/>
       <c r="H156" s="6"/>
       <c r="I156" s="6"/>
       <c r="J156" s="6"/>
-      <c r="K156" s="71"/>
+      <c r="K156" s="72"/>
     </row>
     <row r="157" spans="1:11">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="D157" s="6"/>
-      <c r="E157" s="57"/>
-      <c r="F157" s="57"/>
-      <c r="G157" s="57"/>
+      <c r="E157" s="58"/>
+      <c r="F157" s="58"/>
+      <c r="G157" s="58"/>
       <c r="H157" s="6"/>
       <c r="I157" s="6"/>
       <c r="J157" s="6"/>
-      <c r="K157" s="71"/>
+      <c r="K157" s="72"/>
     </row>
     <row r="158" spans="1:11">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="D158" s="6"/>
-      <c r="E158" s="57"/>
-      <c r="F158" s="57"/>
-      <c r="G158" s="57"/>
+      <c r="E158" s="58"/>
+      <c r="F158" s="58"/>
+      <c r="G158" s="58"/>
       <c r="H158" s="6"/>
       <c r="I158" s="6"/>
       <c r="J158" s="6"/>
-      <c r="K158" s="71"/>
+      <c r="K158" s="72"/>
     </row>
     <row r="159" spans="1:11">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="D159" s="6"/>
-      <c r="E159" s="57"/>
-      <c r="F159" s="57"/>
-      <c r="G159" s="57"/>
+      <c r="E159" s="58"/>
+      <c r="F159" s="58"/>
+      <c r="G159" s="58"/>
       <c r="H159" s="6"/>
       <c r="I159" s="6"/>
       <c r="J159" s="6"/>
-      <c r="K159" s="71"/>
+      <c r="K159" s="72"/>
     </row>
     <row r="160" spans="1:11">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="D160" s="6"/>
-      <c r="E160" s="57"/>
-      <c r="F160" s="57"/>
-      <c r="G160" s="57"/>
+      <c r="E160" s="58"/>
+      <c r="F160" s="58"/>
+      <c r="G160" s="58"/>
       <c r="H160" s="6"/>
       <c r="I160" s="6"/>
       <c r="J160" s="6"/>
-      <c r="K160" s="71"/>
+      <c r="K160" s="72"/>
     </row>
     <row r="161" spans="1:11">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="D161" s="6"/>
-      <c r="E161" s="57"/>
-      <c r="F161" s="57"/>
-      <c r="G161" s="57"/>
+      <c r="E161" s="58"/>
+      <c r="F161" s="58"/>
+      <c r="G161" s="58"/>
       <c r="H161" s="6"/>
       <c r="I161" s="6"/>
       <c r="J161" s="6"/>
-      <c r="K161" s="71"/>
+      <c r="K161" s="72"/>
     </row>
     <row r="162" spans="1:11">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="D162" s="6"/>
-      <c r="E162" s="57"/>
-      <c r="F162" s="57"/>
-      <c r="G162" s="57"/>
+      <c r="E162" s="58"/>
+      <c r="F162" s="58"/>
+      <c r="G162" s="58"/>
       <c r="H162" s="6"/>
       <c r="I162" s="6"/>
       <c r="J162" s="6"/>
-      <c r="K162" s="71"/>
+      <c r="K162" s="72"/>
     </row>
     <row r="163" spans="1:11">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="D163" s="6"/>
-      <c r="E163" s="57"/>
-      <c r="F163" s="57"/>
-      <c r="G163" s="57"/>
+      <c r="E163" s="58"/>
+      <c r="F163" s="58"/>
+      <c r="G163" s="58"/>
       <c r="H163" s="6"/>
       <c r="I163" s="6"/>
       <c r="J163" s="6"/>
-      <c r="K163" s="71"/>
+      <c r="K163" s="72"/>
     </row>
     <row r="164" spans="1:11">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="D164" s="6"/>
-      <c r="E164" s="57"/>
-      <c r="F164" s="57"/>
-      <c r="G164" s="57"/>
+      <c r="E164" s="58"/>
+      <c r="F164" s="58"/>
+      <c r="G164" s="58"/>
       <c r="H164" s="6"/>
       <c r="I164" s="6"/>
       <c r="J164" s="6"/>
-      <c r="K164" s="71"/>
+      <c r="K164" s="72"/>
     </row>
     <row r="165" spans="1:11">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="D165" s="6"/>
-      <c r="E165" s="57"/>
-      <c r="F165" s="57"/>
-      <c r="G165" s="57"/>
+      <c r="E165" s="58"/>
+      <c r="F165" s="58"/>
+      <c r="G165" s="58"/>
       <c r="H165" s="6"/>
       <c r="I165" s="6"/>
       <c r="J165" s="6"/>
-      <c r="K165" s="71"/>
+      <c r="K165" s="72"/>
     </row>
     <row r="166" spans="1:11">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="D166" s="6"/>
-      <c r="E166" s="57"/>
-      <c r="F166" s="57"/>
-      <c r="G166" s="57"/>
+      <c r="E166" s="58"/>
+      <c r="F166" s="58"/>
+      <c r="G166" s="58"/>
       <c r="H166" s="6"/>
       <c r="I166" s="6"/>
       <c r="J166" s="6"/>
-      <c r="K166" s="71"/>
+      <c r="K166" s="72"/>
     </row>
     <row r="167" spans="1:11">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="D167" s="6"/>
-      <c r="E167" s="57"/>
-      <c r="F167" s="57"/>
-      <c r="G167" s="57"/>
+      <c r="E167" s="58"/>
+      <c r="F167" s="58"/>
+      <c r="G167" s="58"/>
       <c r="H167" s="6"/>
       <c r="I167" s="6"/>
       <c r="J167" s="6"/>
-      <c r="K167" s="71"/>
+      <c r="K167" s="72"/>
     </row>
     <row r="168" spans="1:11">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="D168" s="6"/>
-      <c r="E168" s="57"/>
-      <c r="F168" s="57"/>
-      <c r="G168" s="57"/>
+      <c r="E168" s="58"/>
+      <c r="F168" s="58"/>
+      <c r="G168" s="58"/>
       <c r="H168" s="6"/>
       <c r="I168" s="6"/>
       <c r="J168" s="6"/>
-      <c r="K168" s="71"/>
+      <c r="K168" s="72"/>
     </row>
     <row r="169" spans="1:11">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="D169" s="6"/>
-      <c r="E169" s="57"/>
-      <c r="F169" s="57"/>
-      <c r="G169" s="57"/>
+      <c r="E169" s="58"/>
+      <c r="F169" s="58"/>
+      <c r="G169" s="58"/>
       <c r="H169" s="6"/>
       <c r="I169" s="6"/>
       <c r="J169" s="6"/>
-      <c r="K169" s="71"/>
+      <c r="K169" s="72"/>
     </row>
     <row r="170" spans="1:11">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="D170" s="6"/>
-      <c r="E170" s="57"/>
-      <c r="F170" s="57"/>
-      <c r="G170" s="57"/>
+      <c r="E170" s="58"/>
+      <c r="F170" s="58"/>
+      <c r="G170" s="58"/>
       <c r="H170" s="6"/>
       <c r="I170" s="6"/>
       <c r="J170" s="6"/>
-      <c r="K170" s="71"/>
+      <c r="K170" s="72"/>
     </row>
     <row r="171" spans="1:11">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="D171" s="6"/>
-      <c r="E171" s="57"/>
-      <c r="F171" s="57"/>
-      <c r="G171" s="57"/>
+      <c r="E171" s="58"/>
+      <c r="F171" s="58"/>
+      <c r="G171" s="58"/>
       <c r="H171" s="6"/>
       <c r="I171" s="6"/>
       <c r="J171" s="6"/>
-      <c r="K171" s="71"/>
+      <c r="K171" s="72"/>
     </row>
     <row r="172" spans="1:11">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="D172" s="6"/>
-      <c r="E172" s="57"/>
-      <c r="F172" s="57"/>
-      <c r="G172" s="57"/>
+      <c r="E172" s="58"/>
+      <c r="F172" s="58"/>
+      <c r="G172" s="58"/>
       <c r="H172" s="6"/>
       <c r="I172" s="6"/>
       <c r="J172" s="6"/>
-      <c r="K172" s="71"/>
+      <c r="K172" s="72"/>
     </row>
     <row r="173" spans="1:11">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="D173" s="6"/>
-      <c r="E173" s="57"/>
-      <c r="F173" s="57"/>
-      <c r="G173" s="57"/>
+      <c r="E173" s="58"/>
+      <c r="F173" s="58"/>
+      <c r="G173" s="58"/>
       <c r="H173" s="6"/>
       <c r="I173" s="6"/>
       <c r="J173" s="6"/>
-      <c r="K173" s="71"/>
+      <c r="K173" s="72"/>
     </row>
     <row r="174" spans="1:11">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="D174" s="6"/>
-      <c r="E174" s="57"/>
-      <c r="F174" s="57"/>
-      <c r="G174" s="57"/>
+      <c r="E174" s="58"/>
+      <c r="F174" s="58"/>
+      <c r="G174" s="58"/>
       <c r="H174" s="6"/>
       <c r="I174" s="6"/>
       <c r="J174" s="6"/>
-      <c r="K174" s="71"/>
+      <c r="K174" s="72"/>
     </row>
     <row r="175" spans="1:11">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="D175" s="6"/>
-      <c r="E175" s="57"/>
-      <c r="F175" s="57"/>
-      <c r="G175" s="57"/>
+      <c r="E175" s="58"/>
+      <c r="F175" s="58"/>
+      <c r="G175" s="58"/>
       <c r="H175" s="6"/>
       <c r="I175" s="6"/>
       <c r="J175" s="6"/>
-      <c r="K175" s="71"/>
+      <c r="K175" s="72"/>
     </row>
     <row r="176" spans="1:11">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="D176" s="6"/>
-      <c r="E176" s="57"/>
-      <c r="F176" s="57"/>
-      <c r="G176" s="57"/>
+      <c r="E176" s="58"/>
+      <c r="F176" s="58"/>
+      <c r="G176" s="58"/>
       <c r="H176" s="6"/>
       <c r="I176" s="6"/>
       <c r="J176" s="6"/>
-      <c r="K176" s="71"/>
+      <c r="K176" s="72"/>
     </row>
     <row r="177" spans="1:11">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="D177" s="6"/>
-      <c r="E177" s="57"/>
-      <c r="F177" s="57"/>
-      <c r="G177" s="57"/>
+      <c r="E177" s="58"/>
+      <c r="F177" s="58"/>
+      <c r="G177" s="58"/>
       <c r="H177" s="6"/>
       <c r="I177" s="6"/>
       <c r="J177" s="6"/>
-      <c r="K177" s="71"/>
+      <c r="K177" s="72"/>
     </row>
     <row r="178" spans="1:11">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="D178" s="6"/>
-      <c r="E178" s="57"/>
-      <c r="F178" s="57"/>
-      <c r="G178" s="57"/>
+      <c r="E178" s="58"/>
+      <c r="F178" s="58"/>
+      <c r="G178" s="58"/>
       <c r="H178" s="6"/>
       <c r="I178" s="6"/>
       <c r="J178" s="6"/>
-      <c r="K178" s="71"/>
+      <c r="K178" s="72"/>
     </row>
     <row r="179" spans="1:11">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="D179" s="6"/>
-      <c r="E179" s="57"/>
-      <c r="F179" s="57"/>
-      <c r="G179" s="57"/>
+      <c r="E179" s="58"/>
+      <c r="F179" s="58"/>
+      <c r="G179" s="58"/>
       <c r="H179" s="6"/>
       <c r="I179" s="6"/>
       <c r="J179" s="6"/>
-      <c r="K179" s="71"/>
+      <c r="K179" s="72"/>
     </row>
     <row r="180" spans="1:11">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="D180" s="6"/>
-      <c r="E180" s="57"/>
-      <c r="F180" s="57"/>
-      <c r="G180" s="57"/>
+      <c r="E180" s="58"/>
+      <c r="F180" s="58"/>
+      <c r="G180" s="58"/>
       <c r="H180" s="6"/>
       <c r="I180" s="6"/>
       <c r="J180" s="6"/>
-      <c r="K180" s="71"/>
+      <c r="K180" s="72"/>
     </row>
     <row r="181" spans="1:11">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="D181" s="6"/>
-      <c r="E181" s="57"/>
-      <c r="F181" s="57"/>
-      <c r="G181" s="57"/>
+      <c r="E181" s="58"/>
+      <c r="F181" s="58"/>
+      <c r="G181" s="58"/>
       <c r="H181" s="6"/>
       <c r="I181" s="6"/>
       <c r="J181" s="6"/>
-      <c r="K181" s="71"/>
+      <c r="K181" s="72"/>
     </row>
     <row r="182" spans="1:11">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="D182" s="6"/>
-      <c r="E182" s="57"/>
-      <c r="F182" s="57"/>
-      <c r="G182" s="57"/>
+      <c r="E182" s="58"/>
+      <c r="F182" s="58"/>
+      <c r="G182" s="58"/>
       <c r="H182" s="6"/>
       <c r="I182" s="6"/>
       <c r="J182" s="6"/>
-      <c r="K182" s="71"/>
+      <c r="K182" s="72"/>
     </row>
     <row r="183" spans="1:11">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="D183" s="6"/>
-      <c r="E183" s="57"/>
-      <c r="F183" s="57"/>
-      <c r="G183" s="57"/>
+      <c r="E183" s="58"/>
+      <c r="F183" s="58"/>
+      <c r="G183" s="58"/>
       <c r="H183" s="6"/>
       <c r="I183" s="6"/>
       <c r="J183" s="6"/>
-      <c r="K183" s="71"/>
+      <c r="K183" s="72"/>
     </row>
     <row r="184" spans="1:11">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="D184" s="6"/>
-      <c r="E184" s="57"/>
-      <c r="F184" s="57"/>
-      <c r="G184" s="57"/>
+      <c r="E184" s="58"/>
+      <c r="F184" s="58"/>
+      <c r="G184" s="58"/>
       <c r="H184" s="6"/>
       <c r="I184" s="6"/>
       <c r="J184" s="6"/>
-      <c r="K184" s="71"/>
+      <c r="K184" s="72"/>
     </row>
     <row r="185" spans="1:11">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="D185" s="6"/>
-      <c r="E185" s="57"/>
-      <c r="F185" s="57"/>
-      <c r="G185" s="57"/>
+      <c r="E185" s="58"/>
+      <c r="F185" s="58"/>
+      <c r="G185" s="58"/>
       <c r="H185" s="6"/>
       <c r="I185" s="6"/>
       <c r="J185" s="6"/>
-      <c r="K185" s="71"/>
+      <c r="K185" s="72"/>
     </row>
     <row r="186" spans="1:11">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="D186" s="6"/>
-      <c r="E186" s="57"/>
-      <c r="F186" s="57"/>
-      <c r="G186" s="57"/>
+      <c r="E186" s="58"/>
+      <c r="F186" s="58"/>
+      <c r="G186" s="58"/>
       <c r="H186" s="6"/>
       <c r="I186" s="6"/>
       <c r="J186" s="6"/>
-      <c r="K186" s="71"/>
+      <c r="K186" s="72"/>
     </row>
     <row r="187" spans="1:11">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="D187" s="6"/>
-      <c r="E187" s="57"/>
-      <c r="F187" s="57"/>
-      <c r="G187" s="57"/>
+      <c r="E187" s="58"/>
+      <c r="F187" s="58"/>
+      <c r="G187" s="58"/>
       <c r="H187" s="6"/>
       <c r="I187" s="6"/>
       <c r="J187" s="6"/>
-      <c r="K187" s="71"/>
+      <c r="K187" s="72"/>
     </row>
     <row r="188" spans="1:11">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="D188" s="6"/>
-      <c r="E188" s="57"/>
-      <c r="F188" s="57"/>
-      <c r="G188" s="57"/>
+      <c r="E188" s="58"/>
+      <c r="F188" s="58"/>
+      <c r="G188" s="58"/>
       <c r="H188" s="6"/>
       <c r="I188" s="6"/>
       <c r="J188" s="6"/>
-      <c r="K188" s="71"/>
+      <c r="K188" s="72"/>
     </row>
     <row r="189" spans="1:11">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="D189" s="6"/>
-      <c r="E189" s="57"/>
-      <c r="F189" s="57"/>
-      <c r="G189" s="57"/>
+      <c r="E189" s="58"/>
+      <c r="F189" s="58"/>
+      <c r="G189" s="58"/>
       <c r="H189" s="6"/>
       <c r="I189" s="6"/>
       <c r="J189" s="6"/>
-      <c r="K189" s="71"/>
+      <c r="K189" s="72"/>
     </row>
     <row r="190" spans="1:11">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="D190" s="6"/>
-      <c r="E190" s="57"/>
-      <c r="F190" s="57"/>
-      <c r="G190" s="57"/>
+      <c r="E190" s="58"/>
+      <c r="F190" s="58"/>
+      <c r="G190" s="58"/>
       <c r="H190" s="6"/>
       <c r="I190" s="6"/>
       <c r="J190" s="6"/>
-      <c r="K190" s="71"/>
+      <c r="K190" s="72"/>
     </row>
     <row r="191" spans="1:11">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="D191" s="6"/>
-      <c r="E191" s="57"/>
-      <c r="F191" s="57"/>
-      <c r="G191" s="57"/>
+      <c r="E191" s="58"/>
+      <c r="F191" s="58"/>
+      <c r="G191" s="58"/>
       <c r="H191" s="6"/>
       <c r="I191" s="6"/>
       <c r="J191" s="6"/>
-      <c r="K191" s="71"/>
+      <c r="K191" s="72"/>
     </row>
     <row r="192" spans="1:11">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="D192" s="6"/>
-      <c r="E192" s="57"/>
-      <c r="F192" s="57"/>
-      <c r="G192" s="57"/>
+      <c r="E192" s="58"/>
+      <c r="F192" s="58"/>
+      <c r="G192" s="58"/>
       <c r="H192" s="6"/>
       <c r="I192" s="6"/>
       <c r="J192" s="6"/>
-      <c r="K192" s="71"/>
+      <c r="K192" s="72"/>
     </row>
     <row r="193" spans="1:11">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="D193" s="6"/>
-      <c r="E193" s="57"/>
-      <c r="F193" s="57"/>
-      <c r="G193" s="57"/>
+      <c r="E193" s="58"/>
+      <c r="F193" s="58"/>
+      <c r="G193" s="58"/>
       <c r="H193" s="6"/>
       <c r="I193" s="6"/>
       <c r="J193" s="6"/>
-      <c r="K193" s="71"/>
+      <c r="K193" s="72"/>
     </row>
     <row r="194" spans="1:11">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="D194" s="6"/>
-      <c r="E194" s="57"/>
-      <c r="F194" s="57"/>
-      <c r="G194" s="57"/>
+      <c r="E194" s="58"/>
+      <c r="F194" s="58"/>
+      <c r="G194" s="58"/>
       <c r="H194" s="6"/>
       <c r="I194" s="6"/>
       <c r="J194" s="6"/>
-      <c r="K194" s="71"/>
+      <c r="K194" s="72"/>
     </row>
     <row r="195" spans="1:11">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="D195" s="6"/>
-      <c r="E195" s="57"/>
-      <c r="F195" s="57"/>
-      <c r="G195" s="57"/>
+      <c r="E195" s="58"/>
+      <c r="F195" s="58"/>
+      <c r="G195" s="58"/>
       <c r="H195" s="6"/>
       <c r="I195" s="6"/>
       <c r="J195" s="6"/>
-      <c r="K195" s="71"/>
+      <c r="K195" s="72"/>
     </row>
     <row r="196" spans="1:11">
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="D196" s="6"/>
-      <c r="E196" s="57"/>
-      <c r="F196" s="57"/>
-      <c r="G196" s="57"/>
+      <c r="E196" s="58"/>
+      <c r="F196" s="58"/>
+      <c r="G196" s="58"/>
       <c r="H196" s="6"/>
       <c r="I196" s="6"/>
       <c r="J196" s="6"/>
-      <c r="K196" s="71"/>
+      <c r="K196" s="72"/>
     </row>
     <row r="197" spans="1:11">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="D197" s="6"/>
-      <c r="E197" s="57"/>
-      <c r="F197" s="57"/>
-      <c r="G197" s="57"/>
+      <c r="E197" s="58"/>
+      <c r="F197" s="58"/>
+      <c r="G197" s="58"/>
       <c r="H197" s="6"/>
       <c r="I197" s="6"/>
       <c r="J197" s="6"/>
-      <c r="K197" s="71"/>
+      <c r="K197" s="72"/>
     </row>
     <row r="198" spans="1:11">
       <c r="A198" s="6"/>
       <c r="B198" s="6"/>
       <c r="D198" s="6"/>
-      <c r="E198" s="57"/>
-      <c r="F198" s="57"/>
-      <c r="G198" s="57"/>
+      <c r="E198" s="58"/>
+      <c r="F198" s="58"/>
+      <c r="G198" s="58"/>
       <c r="H198" s="6"/>
       <c r="I198" s="6"/>
       <c r="J198" s="6"/>
-      <c r="K198" s="71"/>
+      <c r="K198" s="72"/>
     </row>
     <row r="199" spans="1:11">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="D199" s="6"/>
-      <c r="E199" s="57"/>
-      <c r="F199" s="57"/>
-      <c r="G199" s="57"/>
+      <c r="E199" s="58"/>
+      <c r="F199" s="58"/>
+      <c r="G199" s="58"/>
       <c r="H199" s="6"/>
       <c r="I199" s="6"/>
       <c r="J199" s="6"/>
-      <c r="K199" s="71"/>
+      <c r="K199" s="72"/>
     </row>
     <row r="200" spans="1:11">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="D200" s="6"/>
-      <c r="E200" s="57"/>
-      <c r="F200" s="57"/>
-      <c r="G200" s="57"/>
+      <c r="E200" s="58"/>
+      <c r="F200" s="58"/>
+      <c r="G200" s="58"/>
       <c r="H200" s="6"/>
       <c r="I200" s="6"/>
       <c r="J200" s="6"/>
-      <c r="K200" s="71"/>
+      <c r="K200" s="72"/>
     </row>
     <row r="201" spans="1:11">
       <c r="A201" s="6"/>
       <c r="B201" s="6"/>
       <c r="D201" s="6"/>
-      <c r="E201" s="57"/>
-      <c r="F201" s="57"/>
-      <c r="G201" s="57"/>
+      <c r="E201" s="58"/>
+      <c r="F201" s="58"/>
+      <c r="G201" s="58"/>
       <c r="H201" s="6"/>
       <c r="I201" s="6"/>
       <c r="J201" s="6"/>
-      <c r="K201" s="71"/>
+      <c r="K201" s="72"/>
     </row>
     <row r="202" spans="1:11">
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
       <c r="D202" s="6"/>
-      <c r="E202" s="57"/>
-      <c r="F202" s="57"/>
-      <c r="G202" s="57"/>
+      <c r="E202" s="58"/>
+      <c r="F202" s="58"/>
+      <c r="G202" s="58"/>
       <c r="H202" s="6"/>
       <c r="I202" s="6"/>
       <c r="J202" s="6"/>
-      <c r="K202" s="71"/>
+      <c r="K202" s="72"/>
     </row>
     <row r="203" spans="1:11">
       <c r="A203" s="6"/>
       <c r="B203" s="6"/>
       <c r="D203" s="6"/>
-      <c r="E203" s="57"/>
-      <c r="F203" s="57"/>
-      <c r="G203" s="57"/>
+      <c r="E203" s="58"/>
+      <c r="F203" s="58"/>
+      <c r="G203" s="58"/>
       <c r="H203" s="6"/>
       <c r="I203" s="6"/>
       <c r="J203" s="6"/>
-      <c r="K203" s="71"/>
+      <c r="K203" s="72"/>
     </row>
     <row r="204" spans="1:11">
       <c r="A204" s="6"/>
       <c r="B204" s="6"/>
       <c r="D204" s="6"/>
-      <c r="E204" s="57"/>
-      <c r="F204" s="57"/>
-      <c r="G204" s="57"/>
+      <c r="E204" s="58"/>
+      <c r="F204" s="58"/>
+      <c r="G204" s="58"/>
       <c r="H204" s="6"/>
       <c r="I204" s="6"/>
       <c r="J204" s="6"/>
-      <c r="K204" s="71"/>
+      <c r="K204" s="72"/>
     </row>
     <row r="205" spans="1:11">
       <c r="A205" s="6"/>
       <c r="B205" s="6"/>
       <c r="D205" s="6"/>
-      <c r="E205" s="57"/>
-      <c r="F205" s="57"/>
-      <c r="G205" s="57"/>
+      <c r="E205" s="58"/>
+      <c r="F205" s="58"/>
+      <c r="G205" s="58"/>
       <c r="H205" s="6"/>
       <c r="I205" s="6"/>
       <c r="J205" s="6"/>
-      <c r="K205" s="71"/>
+      <c r="K205" s="72"/>
     </row>
     <row r="206" spans="1:11">
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
       <c r="D206" s="6"/>
-      <c r="E206" s="57"/>
-      <c r="F206" s="57"/>
-      <c r="G206" s="57"/>
+      <c r="E206" s="58"/>
+      <c r="F206" s="58"/>
+      <c r="G206" s="58"/>
       <c r="H206" s="6"/>
       <c r="I206" s="6"/>
       <c r="J206" s="6"/>
-      <c r="K206" s="71"/>
+      <c r="K206" s="72"/>
     </row>
     <row r="207" spans="1:11">
       <c r="A207" s="6"/>
       <c r="B207" s="6"/>
       <c r="D207" s="6"/>
-      <c r="E207" s="57"/>
-      <c r="F207" s="57"/>
-      <c r="G207" s="57"/>
+      <c r="E207" s="58"/>
+      <c r="F207" s="58"/>
+      <c r="G207" s="58"/>
       <c r="H207" s="6"/>
       <c r="I207" s="6"/>
       <c r="J207" s="6"/>
-      <c r="K207" s="71"/>
+      <c r="K207" s="72"/>
     </row>
     <row r="208" spans="1:11">
       <c r="A208" s="6"/>
       <c r="B208" s="6"/>
       <c r="D208" s="6"/>
-      <c r="E208" s="57"/>
-      <c r="F208" s="57"/>
-      <c r="G208" s="57"/>
+      <c r="E208" s="58"/>
+      <c r="F208" s="58"/>
+      <c r="G208" s="58"/>
       <c r="H208" s="6"/>
       <c r="I208" s="6"/>
       <c r="J208" s="6"/>
-      <c r="K208" s="71"/>
+      <c r="K208" s="72"/>
     </row>
     <row r="209" spans="1:11">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="D209" s="6"/>
-      <c r="E209" s="57"/>
-      <c r="F209" s="57"/>
-      <c r="G209" s="57"/>
+      <c r="E209" s="58"/>
+      <c r="F209" s="58"/>
+      <c r="G209" s="58"/>
       <c r="H209" s="6"/>
       <c r="I209" s="6"/>
       <c r="J209" s="6"/>
-      <c r="K209" s="71"/>
+      <c r="K209" s="72"/>
     </row>
     <row r="210" spans="1:11">
       <c r="A210" s="6"/>
       <c r="B210" s="6"/>
       <c r="D210" s="6"/>
-      <c r="E210" s="57"/>
-      <c r="F210" s="57"/>
-      <c r="G210" s="57"/>
+      <c r="E210" s="58"/>
+      <c r="F210" s="58"/>
+      <c r="G210" s="58"/>
       <c r="H210" s="6"/>
       <c r="I210" s="6"/>
       <c r="J210" s="6"/>
-      <c r="K210" s="71"/>
+      <c r="K210" s="72"/>
     </row>
     <row r="211" spans="1:11">
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="D211" s="6"/>
-      <c r="E211" s="57"/>
-      <c r="F211" s="57"/>
-      <c r="G211" s="57"/>
+      <c r="E211" s="58"/>
+      <c r="F211" s="58"/>
+      <c r="G211" s="58"/>
       <c r="H211" s="6"/>
       <c r="I211" s="6"/>
       <c r="J211" s="6"/>
-      <c r="K211" s="71"/>
+      <c r="K211" s="72"/>
     </row>
     <row r="212" spans="1:11">
       <c r="A212" s="6"/>
       <c r="B212" s="6"/>
       <c r="D212" s="6"/>
-      <c r="E212" s="57"/>
-      <c r="F212" s="57"/>
-      <c r="G212" s="57"/>
+      <c r="E212" s="58"/>
+      <c r="F212" s="58"/>
+      <c r="G212" s="58"/>
       <c r="H212" s="6"/>
       <c r="I212" s="6"/>
       <c r="J212" s="6"/>
-      <c r="K212" s="71"/>
+      <c r="K212" s="72"/>
     </row>
     <row r="213" spans="1:11">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="D213" s="6"/>
-      <c r="E213" s="57"/>
-      <c r="F213" s="57"/>
-      <c r="G213" s="57"/>
+      <c r="E213" s="58"/>
+      <c r="F213" s="58"/>
+      <c r="G213" s="58"/>
       <c r="H213" s="6"/>
       <c r="I213" s="6"/>
       <c r="J213" s="6"/>
-      <c r="K213" s="71"/>
+      <c r="K213" s="72"/>
     </row>
     <row r="214" spans="1:11">
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="D214" s="6"/>
-      <c r="E214" s="57"/>
-      <c r="F214" s="57"/>
-      <c r="G214" s="57"/>
+      <c r="E214" s="58"/>
+      <c r="F214" s="58"/>
+      <c r="G214" s="58"/>
       <c r="H214" s="6"/>
       <c r="I214" s="6"/>
       <c r="J214" s="6"/>
-      <c r="K214" s="71"/>
+      <c r="K214" s="72"/>
     </row>
     <row r="215" spans="1:11">
       <c r="A215" s="6"/>
       <c r="B215" s="6"/>
       <c r="D215" s="6"/>
-      <c r="E215" s="57"/>
-      <c r="F215" s="57"/>
-      <c r="G215" s="57"/>
+      <c r="E215" s="58"/>
+      <c r="F215" s="58"/>
+      <c r="G215" s="58"/>
       <c r="H215" s="6"/>
       <c r="I215" s="6"/>
       <c r="J215" s="6"/>
-      <c r="K215" s="71"/>
+      <c r="K215" s="72"/>
     </row>
     <row r="216" spans="1:11">
       <c r="A216" s="6"/>
       <c r="B216" s="6"/>
       <c r="D216" s="6"/>
-      <c r="E216" s="57"/>
-      <c r="F216" s="57"/>
-      <c r="G216" s="57"/>
+      <c r="E216" s="58"/>
+      <c r="F216" s="58"/>
+      <c r="G216" s="58"/>
       <c r="H216" s="6"/>
       <c r="I216" s="6"/>
       <c r="J216" s="6"/>
-      <c r="K216" s="71"/>
+      <c r="K216" s="72"/>
     </row>
     <row r="217" spans="1:11">
       <c r="A217" s="6"/>
       <c r="B217" s="6"/>
       <c r="D217" s="6"/>
-      <c r="E217" s="57"/>
-      <c r="F217" s="57"/>
-      <c r="G217" s="57"/>
+      <c r="E217" s="58"/>
+      <c r="F217" s="58"/>
+      <c r="G217" s="58"/>
       <c r="H217" s="6"/>
       <c r="I217" s="6"/>
       <c r="J217" s="6"/>
-      <c r="K217" s="71"/>
+      <c r="K217" s="72"/>
     </row>
     <row r="218" spans="1:11">
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
       <c r="D218" s="6"/>
-      <c r="E218" s="57"/>
-      <c r="F218" s="57"/>
-      <c r="G218" s="57"/>
+      <c r="E218" s="58"/>
+      <c r="F218" s="58"/>
+      <c r="G218" s="58"/>
       <c r="H218" s="6"/>
       <c r="I218" s="6"/>
       <c r="J218" s="6"/>
-      <c r="K218" s="71"/>
+      <c r="K218" s="72"/>
     </row>
     <row r="219" spans="1:11">
       <c r="A219" s="6"/>
       <c r="B219" s="6"/>
       <c r="D219" s="6"/>
-      <c r="E219" s="57"/>
-      <c r="F219" s="57"/>
-      <c r="G219" s="57"/>
+      <c r="E219" s="58"/>
+      <c r="F219" s="58"/>
+      <c r="G219" s="58"/>
       <c r="H219" s="6"/>
       <c r="I219" s="6"/>
       <c r="J219" s="6"/>
-      <c r="K219" s="71"/>
+      <c r="K219" s="72"/>
     </row>
     <row r="220" spans="1:11">
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
       <c r="D220" s="6"/>
-      <c r="E220" s="57"/>
-      <c r="F220" s="57"/>
-      <c r="G220" s="57"/>
+      <c r="E220" s="58"/>
+      <c r="F220" s="58"/>
+      <c r="G220" s="58"/>
       <c r="H220" s="6"/>
       <c r="I220" s="6"/>
       <c r="J220" s="6"/>
-      <c r="K220" s="71"/>
+      <c r="K220" s="72"/>
     </row>
     <row r="221" spans="1:11">
       <c r="A221" s="6"/>
       <c r="B221" s="6"/>
       <c r="D221" s="6"/>
-      <c r="E221" s="57"/>
-      <c r="F221" s="57"/>
-      <c r="G221" s="57"/>
+      <c r="E221" s="58"/>
+      <c r="F221" s="58"/>
+      <c r="G221" s="58"/>
       <c r="H221" s="6"/>
       <c r="I221" s="6"/>
       <c r="J221" s="6"/>
-      <c r="K221" s="71"/>
+      <c r="K221" s="72"/>
     </row>
     <row r="222" spans="1:11">
       <c r="A222" s="6"/>
       <c r="B222" s="6"/>
       <c r="D222" s="6"/>
-      <c r="E222" s="57"/>
-      <c r="F222" s="57"/>
-      <c r="G222" s="57"/>
+      <c r="E222" s="58"/>
+      <c r="F222" s="58"/>
+      <c r="G222" s="58"/>
       <c r="H222" s="6"/>
       <c r="I222" s="6"/>
       <c r="J222" s="6"/>
-      <c r="K222" s="71"/>
+      <c r="K222" s="72"/>
     </row>
     <row r="223" spans="1:11">
       <c r="A223" s="6"/>
       <c r="B223" s="6"/>
       <c r="D223" s="6"/>
-      <c r="E223" s="57"/>
-      <c r="F223" s="57"/>
-      <c r="G223" s="57"/>
+      <c r="E223" s="58"/>
+      <c r="F223" s="58"/>
+      <c r="G223" s="58"/>
       <c r="H223" s="6"/>
       <c r="I223" s="6"/>
       <c r="J223" s="6"/>
-      <c r="K223" s="71"/>
+      <c r="K223" s="72"/>
     </row>
     <row r="224" spans="1:11">
       <c r="A224" s="6"/>
       <c r="B224" s="6"/>
       <c r="D224" s="6"/>
-      <c r="E224" s="57"/>
-      <c r="F224" s="57"/>
-      <c r="G224" s="57"/>
+      <c r="E224" s="58"/>
+      <c r="F224" s="58"/>
+      <c r="G224" s="58"/>
       <c r="H224" s="6"/>
       <c r="I224" s="6"/>
       <c r="J224" s="6"/>
-      <c r="K224" s="71"/>
+      <c r="K224" s="72"/>
     </row>
     <row r="225" spans="1:11">
       <c r="A225" s="6"/>
       <c r="B225" s="6"/>
       <c r="D225" s="6"/>
-      <c r="E225" s="57"/>
-      <c r="F225" s="57"/>
-      <c r="G225" s="57"/>
+      <c r="E225" s="58"/>
+      <c r="F225" s="58"/>
+      <c r="G225" s="58"/>
       <c r="H225" s="6"/>
       <c r="I225" s="6"/>
       <c r="J225" s="6"/>
-      <c r="K225" s="71"/>
+      <c r="K225" s="72"/>
     </row>
     <row r="226" spans="1:11">
       <c r="A226" s="6"/>
       <c r="B226" s="6"/>
       <c r="D226" s="6"/>
-      <c r="E226" s="57"/>
-      <c r="F226" s="57"/>
-      <c r="G226" s="57"/>
+      <c r="E226" s="58"/>
+      <c r="F226" s="58"/>
+      <c r="G226" s="58"/>
       <c r="H226" s="6"/>
       <c r="I226" s="6"/>
       <c r="J226" s="6"/>
-      <c r="K226" s="71"/>
+      <c r="K226" s="72"/>
     </row>
     <row r="227" spans="1:11">
       <c r="A227" s="6"/>
       <c r="B227" s="6"/>
       <c r="D227" s="6"/>
-      <c r="E227" s="57"/>
-      <c r="F227" s="57"/>
-      <c r="G227" s="57"/>
+      <c r="E227" s="58"/>
+      <c r="F227" s="58"/>
+      <c r="G227" s="58"/>
       <c r="H227" s="6"/>
       <c r="I227" s="6"/>
       <c r="J227" s="6"/>
-      <c r="K227" s="71"/>
+      <c r="K227" s="72"/>
     </row>
     <row r="228" spans="1:11">
       <c r="A228" s="6"/>
       <c r="B228" s="6"/>
       <c r="D228" s="6"/>
-      <c r="E228" s="57"/>
-      <c r="F228" s="57"/>
-      <c r="G228" s="57"/>
+      <c r="E228" s="58"/>
+      <c r="F228" s="58"/>
+      <c r="G228" s="58"/>
       <c r="H228" s="6"/>
       <c r="I228" s="6"/>
       <c r="J228" s="6"/>
-      <c r="K228" s="71"/>
+      <c r="K228" s="72"/>
     </row>
     <row r="229" spans="1:11">
       <c r="A229" s="6"/>
       <c r="B229" s="6"/>
       <c r="D229" s="6"/>
-      <c r="E229" s="57"/>
-      <c r="F229" s="57"/>
-      <c r="G229" s="57"/>
+      <c r="E229" s="58"/>
+      <c r="F229" s="58"/>
+      <c r="G229" s="58"/>
       <c r="H229" s="6"/>
       <c r="I229" s="6"/>
       <c r="J229" s="6"/>
-      <c r="K229" s="71"/>
+      <c r="K229" s="72"/>
     </row>
     <row r="230" spans="1:11">
       <c r="A230" s="6"/>
       <c r="B230" s="6"/>
       <c r="D230" s="6"/>
-      <c r="E230" s="57"/>
-      <c r="F230" s="57"/>
-      <c r="G230" s="57"/>
+      <c r="E230" s="58"/>
+      <c r="F230" s="58"/>
+      <c r="G230" s="58"/>
       <c r="H230" s="6"/>
       <c r="I230" s="6"/>
       <c r="J230" s="6"/>
-      <c r="K230" s="71"/>
+      <c r="K230" s="72"/>
     </row>
     <row r="231" spans="1:11">
       <c r="A231" s="6"/>
       <c r="B231" s="6"/>
       <c r="D231" s="6"/>
-      <c r="E231" s="57"/>
-      <c r="F231" s="57"/>
-      <c r="G231" s="57"/>
+      <c r="E231" s="58"/>
+      <c r="F231" s="58"/>
+      <c r="G231" s="58"/>
       <c r="H231" s="6"/>
       <c r="I231" s="6"/>
       <c r="J231" s="6"/>
-      <c r="K231" s="71"/>
+      <c r="K231" s="72"/>
     </row>
     <row r="232" spans="1:11">
       <c r="A232" s="6"/>
       <c r="B232" s="6"/>
       <c r="D232" s="6"/>
-      <c r="E232" s="57"/>
-      <c r="F232" s="57"/>
-      <c r="G232" s="57"/>
+      <c r="E232" s="58"/>
+      <c r="F232" s="58"/>
+      <c r="G232" s="58"/>
       <c r="H232" s="6"/>
       <c r="I232" s="6"/>
       <c r="J232" s="6"/>
-      <c r="K232" s="71"/>
+      <c r="K232" s="72"/>
     </row>
     <row r="233" spans="1:11">
       <c r="A233" s="6"/>
       <c r="B233" s="6"/>
       <c r="D233" s="6"/>
-      <c r="E233" s="57"/>
-      <c r="F233" s="57"/>
-      <c r="G233" s="57"/>
+      <c r="E233" s="58"/>
+      <c r="F233" s="58"/>
+      <c r="G233" s="58"/>
       <c r="H233" s="6"/>
       <c r="I233" s="6"/>
       <c r="J233" s="6"/>
-      <c r="K233" s="71"/>
+      <c r="K233" s="72"/>
     </row>
     <row r="234" spans="1:11">
       <c r="A234" s="6"/>
       <c r="B234" s="6"/>
       <c r="D234" s="6"/>
-      <c r="E234" s="57"/>
-      <c r="F234" s="57"/>
-      <c r="G234" s="57"/>
+      <c r="E234" s="58"/>
+      <c r="F234" s="58"/>
+      <c r="G234" s="58"/>
       <c r="H234" s="6"/>
       <c r="I234" s="6"/>
       <c r="J234" s="6"/>
-      <c r="K234" s="71"/>
+      <c r="K234" s="72"/>
     </row>
     <row r="235" spans="1:11">
       <c r="A235" s="6"/>
       <c r="B235" s="6"/>
       <c r="D235" s="6"/>
-      <c r="E235" s="57"/>
-      <c r="F235" s="57"/>
-      <c r="G235" s="57"/>
+      <c r="E235" s="58"/>
+      <c r="F235" s="58"/>
+      <c r="G235" s="58"/>
       <c r="H235" s="6"/>
       <c r="I235" s="6"/>
       <c r="J235" s="6"/>
-      <c r="K235" s="71"/>
+      <c r="K235" s="72"/>
     </row>
     <row r="236" spans="1:11">
       <c r="A236" s="6"/>
       <c r="B236" s="6"/>
       <c r="D236" s="6"/>
-      <c r="E236" s="57"/>
-      <c r="F236" s="57"/>
-      <c r="G236" s="57"/>
+      <c r="E236" s="58"/>
+      <c r="F236" s="58"/>
+      <c r="G236" s="58"/>
       <c r="H236" s="6"/>
       <c r="I236" s="6"/>
       <c r="J236" s="6"/>
-      <c r="K236" s="71"/>
+      <c r="K236" s="72"/>
     </row>
     <row r="237" spans="1:11">
       <c r="A237" s="6"/>
       <c r="B237" s="6"/>
       <c r="D237" s="6"/>
-      <c r="E237" s="57"/>
-      <c r="F237" s="57"/>
-      <c r="G237" s="57"/>
+      <c r="E237" s="58"/>
+      <c r="F237" s="58"/>
+      <c r="G237" s="58"/>
       <c r="H237" s="6"/>
       <c r="I237" s="6"/>
       <c r="J237" s="6"/>
-      <c r="K237" s="71"/>
+      <c r="K237" s="72"/>
     </row>
     <row r="238" spans="1:11">
       <c r="A238" s="6"/>
       <c r="B238" s="6"/>
       <c r="D238" s="6"/>
-      <c r="E238" s="57"/>
-      <c r="F238" s="57"/>
-      <c r="G238" s="57"/>
+      <c r="E238" s="58"/>
+      <c r="F238" s="58"/>
+      <c r="G238" s="58"/>
       <c r="H238" s="6"/>
       <c r="I238" s="6"/>
       <c r="J238" s="6"/>
-      <c r="K238" s="71"/>
+      <c r="K238" s="72"/>
     </row>
     <row r="239" spans="1:11">
       <c r="A239" s="6"/>
       <c r="B239" s="6"/>
       <c r="D239" s="6"/>
-      <c r="E239" s="57"/>
-      <c r="F239" s="57"/>
-      <c r="G239" s="57"/>
+      <c r="E239" s="58"/>
+      <c r="F239" s="58"/>
+      <c r="G239" s="58"/>
       <c r="H239" s="6"/>
       <c r="I239" s="6"/>
       <c r="J239" s="6"/>
-      <c r="K239" s="71"/>
+      <c r="K239" s="72"/>
     </row>
     <row r="240" spans="1:11">
       <c r="A240" s="6"/>
       <c r="B240" s="6"/>
       <c r="D240" s="6"/>
-      <c r="E240" s="57"/>
-      <c r="F240" s="57"/>
-      <c r="G240" s="57"/>
+      <c r="E240" s="58"/>
+      <c r="F240" s="58"/>
+      <c r="G240" s="58"/>
       <c r="H240" s="6"/>
       <c r="I240" s="6"/>
       <c r="J240" s="6"/>
-      <c r="K240" s="71"/>
+      <c r="K240" s="72"/>
     </row>
     <row r="241" spans="1:11">
       <c r="A241" s="6"/>
       <c r="B241" s="6"/>
       <c r="D241" s="6"/>
-      <c r="E241" s="57"/>
-      <c r="F241" s="57"/>
-      <c r="G241" s="57"/>
+      <c r="E241" s="58"/>
+      <c r="F241" s="58"/>
+      <c r="G241" s="58"/>
       <c r="H241" s="6"/>
       <c r="I241" s="6"/>
       <c r="J241" s="6"/>
-      <c r="K241" s="71"/>
+      <c r="K241" s="72"/>
     </row>
     <row r="242" spans="1:11">
       <c r="A242" s="6"/>
       <c r="B242" s="6"/>
       <c r="D242" s="6"/>
-      <c r="E242" s="57"/>
-      <c r="F242" s="57"/>
-      <c r="G242" s="57"/>
+      <c r="E242" s="58"/>
+      <c r="F242" s="58"/>
+      <c r="G242" s="58"/>
       <c r="H242" s="6"/>
       <c r="I242" s="6"/>
       <c r="J242" s="6"/>
-      <c r="K242" s="71"/>
+      <c r="K242" s="72"/>
     </row>
     <row r="243" spans="1:11">
       <c r="A243" s="6"/>
       <c r="B243" s="6"/>
       <c r="D243" s="6"/>
-      <c r="E243" s="57"/>
-      <c r="F243" s="57"/>
-      <c r="G243" s="57"/>
+      <c r="E243" s="58"/>
+      <c r="F243" s="58"/>
+      <c r="G243" s="58"/>
       <c r="H243" s="6"/>
       <c r="I243" s="6"/>
       <c r="J243" s="6"/>
-      <c r="K243" s="71"/>
+      <c r="K243" s="72"/>
     </row>
     <row r="244" spans="1:11">
       <c r="A244" s="6"/>
       <c r="B244" s="6"/>
       <c r="D244" s="6"/>
-      <c r="E244" s="57"/>
-      <c r="F244" s="57"/>
-      <c r="G244" s="57"/>
+      <c r="E244" s="58"/>
+      <c r="F244" s="58"/>
+      <c r="G244" s="58"/>
       <c r="H244" s="6"/>
       <c r="I244" s="6"/>
       <c r="J244" s="6"/>
-      <c r="K244" s="71"/>
+      <c r="K244" s="72"/>
     </row>
     <row r="245" spans="1:11">
       <c r="A245" s="6"/>
       <c r="B245" s="6"/>
       <c r="D245" s="6"/>
-      <c r="E245" s="57"/>
-      <c r="F245" s="57"/>
-      <c r="G245" s="57"/>
+      <c r="E245" s="58"/>
+      <c r="F245" s="58"/>
+      <c r="G245" s="58"/>
       <c r="H245" s="6"/>
       <c r="I245" s="6"/>
       <c r="J245" s="6"/>
-      <c r="K245" s="71"/>
+      <c r="K245" s="72"/>
     </row>
     <row r="246" spans="1:11">
       <c r="A246" s="6"/>
       <c r="B246" s="6"/>
       <c r="D246" s="6"/>
-      <c r="E246" s="57"/>
-      <c r="F246" s="57"/>
-      <c r="G246" s="57"/>
+      <c r="E246" s="58"/>
+      <c r="F246" s="58"/>
+      <c r="G246" s="58"/>
       <c r="H246" s="6"/>
       <c r="I246" s="6"/>
       <c r="J246" s="6"/>
-      <c r="K246" s="71"/>
+      <c r="K246" s="72"/>
     </row>
     <row r="247" spans="1:11">
       <c r="A247" s="6"/>
       <c r="B247" s="6"/>
       <c r="D247" s="6"/>
-      <c r="E247" s="57"/>
-      <c r="F247" s="57"/>
-      <c r="G247" s="57"/>
+      <c r="E247" s="58"/>
+      <c r="F247" s="58"/>
+      <c r="G247" s="58"/>
       <c r="H247" s="6"/>
       <c r="I247" s="6"/>
       <c r="J247" s="6"/>
-      <c r="K247" s="71"/>
+      <c r="K247" s="72"/>
     </row>
     <row r="248" spans="1:11">
       <c r="A248" s="6"/>
       <c r="B248" s="6"/>
       <c r="D248" s="6"/>
-      <c r="E248" s="57"/>
-      <c r="F248" s="57"/>
-      <c r="G248" s="57"/>
+      <c r="E248" s="58"/>
+      <c r="F248" s="58"/>
+      <c r="G248" s="58"/>
       <c r="H248" s="6"/>
       <c r="I248" s="6"/>
       <c r="J248" s="6"/>
-      <c r="K248" s="71"/>
+      <c r="K248" s="72"/>
     </row>
     <row r="249" spans="1:11">
       <c r="A249" s="6"/>
       <c r="B249" s="6"/>
       <c r="D249" s="6"/>
-      <c r="E249" s="57"/>
-      <c r="F249" s="57"/>
-      <c r="G249" s="57"/>
+      <c r="E249" s="58"/>
+      <c r="F249" s="58"/>
+      <c r="G249" s="58"/>
       <c r="H249" s="6"/>
       <c r="I249" s="6"/>
       <c r="J249" s="6"/>
-      <c r="K249" s="71"/>
+      <c r="K249" s="72"/>
     </row>
     <row r="250" spans="1:11">
       <c r="A250" s="6"/>
       <c r="B250" s="6"/>
       <c r="D250" s="6"/>
-      <c r="E250" s="57"/>
-      <c r="F250" s="57"/>
-      <c r="G250" s="57"/>
+      <c r="E250" s="58"/>
+      <c r="F250" s="58"/>
+      <c r="G250" s="58"/>
       <c r="H250" s="6"/>
       <c r="I250" s="6"/>
       <c r="J250" s="6"/>
-      <c r="K250" s="71"/>
+      <c r="K250" s="72"/>
     </row>
     <row r="251" spans="1:11">
       <c r="A251" s="6"/>
       <c r="B251" s="6"/>
       <c r="D251" s="6"/>
-      <c r="E251" s="57"/>
-      <c r="F251" s="57"/>
-      <c r="G251" s="57"/>
+      <c r="E251" s="58"/>
+      <c r="F251" s="58"/>
+      <c r="G251" s="58"/>
       <c r="H251" s="6"/>
       <c r="I251" s="6"/>
       <c r="J251" s="6"/>
-      <c r="K251" s="71"/>
+      <c r="K251" s="72"/>
     </row>
     <row r="252" spans="1:11">
       <c r="A252" s="6"/>
       <c r="B252" s="6"/>
       <c r="D252" s="6"/>
-      <c r="E252" s="57"/>
-      <c r="F252" s="57"/>
-      <c r="G252" s="57"/>
+      <c r="E252" s="58"/>
+      <c r="F252" s="58"/>
+      <c r="G252" s="58"/>
       <c r="H252" s="6"/>
       <c r="I252" s="6"/>
       <c r="J252" s="6"/>
-      <c r="K252" s="71"/>
+      <c r="K252" s="72"/>
     </row>
     <row r="253" spans="1:11">
       <c r="A253" s="6"/>
       <c r="B253" s="6"/>
       <c r="D253" s="6"/>
-      <c r="E253" s="57"/>
-      <c r="F253" s="57"/>
-      <c r="G253" s="57"/>
+      <c r="E253" s="58"/>
+      <c r="F253" s="58"/>
+      <c r="G253" s="58"/>
       <c r="H253" s="6"/>
       <c r="I253" s="6"/>
       <c r="J253" s="6"/>
-      <c r="K253" s="71"/>
+      <c r="K253" s="72"/>
     </row>
     <row r="254" spans="1:11">
       <c r="A254" s="6"/>
       <c r="B254" s="6"/>
       <c r="D254" s="6"/>
-      <c r="E254" s="57"/>
-      <c r="F254" s="57"/>
-      <c r="G254" s="57"/>
+      <c r="E254" s="58"/>
+      <c r="F254" s="58"/>
+      <c r="G254" s="58"/>
       <c r="H254" s="6"/>
       <c r="I254" s="6"/>
       <c r="J254" s="6"/>
-      <c r="K254" s="71"/>
+      <c r="K254" s="72"/>
     </row>
     <row r="255" spans="1:11">
       <c r="A255" s="6"/>
       <c r="B255" s="6"/>
       <c r="D255" s="6"/>
-      <c r="E255" s="57"/>
-      <c r="F255" s="57"/>
-      <c r="G255" s="57"/>
+      <c r="E255" s="58"/>
+      <c r="F255" s="58"/>
+      <c r="G255" s="58"/>
       <c r="H255" s="6"/>
       <c r="I255" s="6"/>
       <c r="J255" s="6"/>
-      <c r="K255" s="71"/>
+      <c r="K255" s="72"/>
     </row>
     <row r="256" spans="1:11">
       <c r="A256" s="6"/>
       <c r="B256" s="6"/>
       <c r="D256" s="6"/>
-      <c r="E256" s="57"/>
-      <c r="F256" s="57"/>
-      <c r="G256" s="57"/>
+      <c r="E256" s="58"/>
+      <c r="F256" s="58"/>
+      <c r="G256" s="58"/>
       <c r="H256" s="6"/>
       <c r="I256" s="6"/>
       <c r="J256" s="6"/>
-      <c r="K256" s="71"/>
+      <c r="K256" s="72"/>
     </row>
     <row r="257" spans="1:11">
       <c r="A257" s="6"/>
       <c r="B257" s="6"/>
       <c r="D257" s="6"/>
-      <c r="E257" s="57"/>
-      <c r="F257" s="57"/>
-      <c r="G257" s="57"/>
+      <c r="E257" s="58"/>
+      <c r="F257" s="58"/>
+      <c r="G257" s="58"/>
       <c r="H257" s="6"/>
       <c r="I257" s="6"/>
       <c r="J257" s="6"/>
-      <c r="K257" s="71"/>
+      <c r="K257" s="72"/>
     </row>
     <row r="258" spans="1:11">
       <c r="A258" s="6"/>
       <c r="B258" s="6"/>
       <c r="D258" s="6"/>
-      <c r="E258" s="57"/>
-      <c r="F258" s="57"/>
-      <c r="G258" s="57"/>
+      <c r="E258" s="58"/>
+      <c r="F258" s="58"/>
+      <c r="G258" s="58"/>
       <c r="H258" s="6"/>
       <c r="I258" s="6"/>
       <c r="J258" s="6"/>
-      <c r="K258" s="71"/>
+      <c r="K258" s="72"/>
     </row>
     <row r="259" spans="1:11">
       <c r="A259" s="6"/>
       <c r="B259" s="6"/>
       <c r="D259" s="6"/>
-      <c r="E259" s="57"/>
-      <c r="F259" s="57"/>
-      <c r="G259" s="57"/>
+      <c r="E259" s="58"/>
+      <c r="F259" s="58"/>
+      <c r="G259" s="58"/>
       <c r="H259" s="6"/>
       <c r="I259" s="6"/>
       <c r="J259" s="6"/>
-      <c r="K259" s="71"/>
+      <c r="K259" s="72"/>
     </row>
     <row r="260" spans="1:11">
       <c r="A260" s="6"/>
       <c r="B260" s="6"/>
       <c r="D260" s="6"/>
-      <c r="E260" s="57"/>
-      <c r="F260" s="57"/>
-      <c r="G260" s="57"/>
+      <c r="E260" s="58"/>
+      <c r="F260" s="58"/>
+      <c r="G260" s="58"/>
       <c r="H260" s="6"/>
       <c r="I260" s="6"/>
       <c r="J260" s="6"/>
-      <c r="K260" s="71"/>
+      <c r="K260" s="72"/>
     </row>
     <row r="261" spans="1:11">
       <c r="A261" s="6"/>
       <c r="B261" s="6"/>
       <c r="D261" s="6"/>
-      <c r="E261" s="57"/>
-      <c r="F261" s="57"/>
-      <c r="G261" s="57"/>
+      <c r="E261" s="58"/>
+      <c r="F261" s="58"/>
+      <c r="G261" s="58"/>
       <c r="H261" s="6"/>
       <c r="I261" s="6"/>
       <c r="J261" s="6"/>
-      <c r="K261" s="71"/>
+      <c r="K261" s="72"/>
     </row>
     <row r="262" spans="1:11">
       <c r="A262" s="6"/>
       <c r="B262" s="6"/>
       <c r="D262" s="6"/>
-      <c r="E262" s="57"/>
-      <c r="F262" s="57"/>
-      <c r="G262" s="57"/>
+      <c r="E262" s="58"/>
+      <c r="F262" s="58"/>
+      <c r="G262" s="58"/>
       <c r="H262" s="6"/>
       <c r="I262" s="6"/>
       <c r="J262" s="6"/>
-      <c r="K262" s="71"/>
+      <c r="K262" s="72"/>
     </row>
     <row r="263" spans="1:11">
       <c r="A263" s="6"/>
       <c r="B263" s="6"/>
       <c r="D263" s="6"/>
-      <c r="E263" s="57"/>
-      <c r="F263" s="57"/>
-      <c r="G263" s="57"/>
+      <c r="E263" s="58"/>
+      <c r="F263" s="58"/>
+      <c r="G263" s="58"/>
       <c r="H263" s="6"/>
       <c r="I263" s="6"/>
       <c r="J263" s="6"/>
-      <c r="K263" s="71"/>
+      <c r="K263" s="72"/>
     </row>
     <row r="264" spans="1:11">
       <c r="A264" s="6"/>
       <c r="B264" s="6"/>
       <c r="D264" s="6"/>
-      <c r="E264" s="57"/>
-      <c r="F264" s="57"/>
-      <c r="G264" s="57"/>
+      <c r="E264" s="58"/>
+      <c r="F264" s="58"/>
+      <c r="G264" s="58"/>
       <c r="H264" s="6"/>
       <c r="I264" s="6"/>
       <c r="J264" s="6"/>
-      <c r="K264" s="71"/>
+      <c r="K264" s="72"/>
     </row>
     <row r="265" spans="1:11">
       <c r="A265" s="6"/>
       <c r="B265" s="6"/>
       <c r="D265" s="6"/>
-      <c r="E265" s="57"/>
-      <c r="F265" s="57"/>
-      <c r="G265" s="57"/>
+      <c r="E265" s="58"/>
+      <c r="F265" s="58"/>
+      <c r="G265" s="58"/>
       <c r="H265" s="6"/>
       <c r="I265" s="6"/>
       <c r="J265" s="6"/>
-      <c r="K265" s="71"/>
+      <c r="K265" s="72"/>
     </row>
     <row r="266" spans="1:11">
       <c r="A266" s="6"/>
       <c r="B266" s="6"/>
       <c r="D266" s="6"/>
-      <c r="E266" s="57"/>
-      <c r="F266" s="57"/>
-      <c r="G266" s="57"/>
+      <c r="E266" s="58"/>
+      <c r="F266" s="58"/>
+      <c r="G266" s="58"/>
       <c r="H266" s="6"/>
       <c r="I266" s="6"/>
       <c r="J266" s="6"/>
-      <c r="K266" s="71"/>
+      <c r="K266" s="72"/>
     </row>
     <row r="267" spans="1:11">
       <c r="A267" s="6"/>
       <c r="B267" s="6"/>
       <c r="D267" s="6"/>
-      <c r="E267" s="57"/>
-      <c r="F267" s="57"/>
-      <c r="G267" s="57"/>
+      <c r="E267" s="58"/>
+      <c r="F267" s="58"/>
+      <c r="G267" s="58"/>
       <c r="H267" s="6"/>
       <c r="I267" s="6"/>
       <c r="J267" s="6"/>
-      <c r="K267" s="71"/>
+      <c r="K267" s="72"/>
     </row>
     <row r="268" spans="1:11">
       <c r="A268" s="6"/>
       <c r="B268" s="6"/>
       <c r="D268" s="6"/>
-      <c r="E268" s="57"/>
-      <c r="F268" s="57"/>
-      <c r="G268" s="57"/>
+      <c r="E268" s="58"/>
+      <c r="F268" s="58"/>
+      <c r="G268" s="58"/>
       <c r="H268" s="6"/>
       <c r="I268" s="6"/>
       <c r="J268" s="6"/>
-      <c r="K268" s="71"/>
+      <c r="K268" s="72"/>
     </row>
     <row r="269" spans="1:11">
       <c r="A269" s="6"/>
       <c r="B269" s="6"/>
       <c r="D269" s="6"/>
-      <c r="E269" s="57"/>
-      <c r="F269" s="57"/>
-      <c r="G269" s="57"/>
+      <c r="E269" s="58"/>
+      <c r="F269" s="58"/>
+      <c r="G269" s="58"/>
       <c r="H269" s="6"/>
       <c r="I269" s="6"/>
       <c r="J269" s="6"/>
-      <c r="K269" s="71"/>
+      <c r="K269" s="72"/>
     </row>
     <row r="270" spans="1:11">
       <c r="A270" s="6"/>
       <c r="B270" s="6"/>
       <c r="D270" s="6"/>
-      <c r="E270" s="57"/>
-      <c r="F270" s="57"/>
-      <c r="G270" s="57"/>
+      <c r="E270" s="58"/>
+      <c r="F270" s="58"/>
+      <c r="G270" s="58"/>
       <c r="H270" s="6"/>
       <c r="I270" s="6"/>
       <c r="J270" s="6"/>
-      <c r="K270" s="71"/>
+      <c r="K270" s="72"/>
     </row>
     <row r="271" spans="1:11">
       <c r="A271" s="6"/>
       <c r="B271" s="6"/>
       <c r="D271" s="6"/>
-      <c r="E271" s="57"/>
-      <c r="F271" s="57"/>
-      <c r="G271" s="57"/>
+      <c r="E271" s="58"/>
+      <c r="F271" s="58"/>
+      <c r="G271" s="58"/>
       <c r="H271" s="6"/>
       <c r="I271" s="6"/>
       <c r="J271" s="6"/>
-      <c r="K271" s="71"/>
+      <c r="K271" s="72"/>
     </row>
     <row r="272" spans="1:11">
       <c r="A272" s="6"/>
       <c r="B272" s="6"/>
       <c r="D272" s="6"/>
-      <c r="E272" s="57"/>
-      <c r="F272" s="57"/>
-      <c r="G272" s="57"/>
+      <c r="E272" s="58"/>
+      <c r="F272" s="58"/>
+      <c r="G272" s="58"/>
       <c r="H272" s="6"/>
       <c r="I272" s="6"/>
       <c r="J272" s="6"/>
-      <c r="K272" s="71"/>
+      <c r="K272" s="72"/>
     </row>
     <row r="273" spans="1:11">
       <c r="A273" s="6"/>
       <c r="B273" s="6"/>
       <c r="D273" s="6"/>
-      <c r="E273" s="57"/>
-      <c r="F273" s="57"/>
-      <c r="G273" s="57"/>
+      <c r="E273" s="58"/>
+      <c r="F273" s="58"/>
+      <c r="G273" s="58"/>
       <c r="H273" s="6"/>
       <c r="I273" s="6"/>
       <c r="J273" s="6"/>
-      <c r="K273" s="71"/>
+      <c r="K273" s="72"/>
     </row>
     <row r="274" spans="1:11">
       <c r="A274" s="6"/>
       <c r="B274" s="6"/>
       <c r="D274" s="6"/>
-      <c r="E274" s="57"/>
-      <c r="F274" s="57"/>
-      <c r="G274" s="57"/>
+      <c r="E274" s="58"/>
+      <c r="F274" s="58"/>
+      <c r="G274" s="58"/>
       <c r="H274" s="6"/>
       <c r="I274" s="6"/>
       <c r="J274" s="6"/>
-      <c r="K274" s="71"/>
+      <c r="K274" s="72"/>
     </row>
     <row r="275" spans="1:11">
       <c r="A275" s="6"/>
       <c r="B275" s="6"/>
       <c r="D275" s="6"/>
-      <c r="E275" s="57"/>
-      <c r="F275" s="57"/>
-      <c r="G275" s="57"/>
+      <c r="E275" s="58"/>
+      <c r="F275" s="58"/>
+      <c r="G275" s="58"/>
       <c r="H275" s="6"/>
       <c r="I275" s="6"/>
       <c r="J275" s="6"/>
-      <c r="K275" s="71"/>
+      <c r="K275" s="72"/>
     </row>
     <row r="276" spans="1:11">
       <c r="A276" s="6"/>
       <c r="B276" s="6"/>
       <c r="D276" s="6"/>
-      <c r="E276" s="57"/>
-      <c r="F276" s="57"/>
-      <c r="G276" s="57"/>
+      <c r="E276" s="58"/>
+      <c r="F276" s="58"/>
+      <c r="G276" s="58"/>
       <c r="H276" s="6"/>
       <c r="I276" s="6"/>
       <c r="J276" s="6"/>
-      <c r="K276" s="71"/>
+      <c r="K276" s="72"/>
     </row>
     <row r="277" spans="1:11">
       <c r="A277" s="6"/>
       <c r="B277" s="6"/>
       <c r="D277" s="6"/>
-      <c r="E277" s="57"/>
-      <c r="F277" s="57"/>
-      <c r="G277" s="57"/>
+      <c r="E277" s="58"/>
+      <c r="F277" s="58"/>
+      <c r="G277" s="58"/>
       <c r="H277" s="6"/>
       <c r="I277" s="6"/>
       <c r="J277" s="6"/>
-      <c r="K277" s="71"/>
+      <c r="K277" s="72"/>
     </row>
     <row r="278" spans="1:11">
       <c r="A278" s="6"/>
       <c r="B278" s="6"/>
       <c r="D278" s="6"/>
-      <c r="E278" s="57"/>
-      <c r="F278" s="57"/>
-      <c r="G278" s="57"/>
+      <c r="E278" s="58"/>
+      <c r="F278" s="58"/>
+      <c r="G278" s="58"/>
       <c r="H278" s="6"/>
       <c r="I278" s="6"/>
       <c r="J278" s="6"/>
-      <c r="K278" s="71"/>
+      <c r="K278" s="72"/>
     </row>
     <row r="279" spans="1:11">
       <c r="A279" s="6"/>
       <c r="B279" s="6"/>
       <c r="D279" s="6"/>
-      <c r="E279" s="57"/>
-      <c r="F279" s="57"/>
-      <c r="G279" s="57"/>
+      <c r="E279" s="58"/>
+      <c r="F279" s="58"/>
+      <c r="G279" s="58"/>
       <c r="H279" s="6"/>
       <c r="I279" s="6"/>
       <c r="J279" s="6"/>
-      <c r="K279" s="71"/>
+      <c r="K279" s="72"/>
     </row>
     <row r="280" spans="1:11">
       <c r="A280" s="6"/>
       <c r="B280" s="6"/>
       <c r="D280" s="6"/>
-      <c r="E280" s="57"/>
-      <c r="F280" s="57"/>
-      <c r="G280" s="57"/>
+      <c r="E280" s="58"/>
+      <c r="F280" s="58"/>
+      <c r="G280" s="58"/>
       <c r="H280" s="6"/>
       <c r="I280" s="6"/>
       <c r="J280" s="6"/>
-      <c r="K280" s="71"/>
+      <c r="K280" s="72"/>
     </row>
     <row r="281" spans="1:11">
       <c r="A281" s="6"/>
       <c r="B281" s="6"/>
       <c r="D281" s="6"/>
-      <c r="E281" s="57"/>
-      <c r="F281" s="57"/>
-      <c r="G281" s="57"/>
+      <c r="E281" s="58"/>
+      <c r="F281" s="58"/>
+      <c r="G281" s="58"/>
       <c r="H281" s="6"/>
       <c r="I281" s="6"/>
       <c r="J281" s="6"/>
-      <c r="K281" s="71"/>
+      <c r="K281" s="72"/>
     </row>
     <row r="282" spans="1:11">
       <c r="A282" s="6"/>
       <c r="B282" s="6"/>
       <c r="D282" s="6"/>
-      <c r="E282" s="57"/>
-      <c r="F282" s="57"/>
-      <c r="G282" s="57"/>
+      <c r="E282" s="58"/>
+      <c r="F282" s="58"/>
+      <c r="G282" s="58"/>
       <c r="H282" s="6"/>
       <c r="I282" s="6"/>
       <c r="J282" s="6"/>
-      <c r="K282" s="71"/>
+      <c r="K282" s="72"/>
     </row>
     <row r="283" spans="1:11">
       <c r="A283" s="6"/>
       <c r="B283" s="6"/>
       <c r="D283" s="6"/>
-      <c r="E283" s="57"/>
-      <c r="F283" s="57"/>
-      <c r="G283" s="57"/>
+      <c r="E283" s="58"/>
+      <c r="F283" s="58"/>
+      <c r="G283" s="58"/>
       <c r="H283" s="6"/>
       <c r="I283" s="6"/>
       <c r="J283" s="6"/>
-      <c r="K283" s="71"/>
+      <c r="K283" s="72"/>
     </row>
     <row r="284" spans="1:11">
       <c r="A284" s="6"/>
       <c r="B284" s="6"/>
       <c r="D284" s="6"/>
-      <c r="E284" s="57"/>
-      <c r="F284" s="57"/>
-      <c r="G284" s="57"/>
+      <c r="E284" s="58"/>
+      <c r="F284" s="58"/>
+      <c r="G284" s="58"/>
       <c r="H284" s="6"/>
       <c r="I284" s="6"/>
       <c r="J284" s="6"/>
-      <c r="K284" s="71"/>
+      <c r="K284" s="72"/>
     </row>
     <row r="285" spans="1:11">
       <c r="A285" s="6"/>
       <c r="B285" s="6"/>
       <c r="D285" s="6"/>
-      <c r="E285" s="57"/>
-      <c r="F285" s="57"/>
-      <c r="G285" s="57"/>
+      <c r="E285" s="58"/>
+      <c r="F285" s="58"/>
+      <c r="G285" s="58"/>
       <c r="H285" s="6"/>
       <c r="I285" s="6"/>
       <c r="J285" s="6"/>
-      <c r="K285" s="71"/>
+      <c r="K285" s="72"/>
     </row>
     <row r="286" spans="1:11">
       <c r="A286" s="6"/>
       <c r="B286" s="6"/>
       <c r="D286" s="6"/>
-      <c r="E286" s="57"/>
-      <c r="F286" s="57"/>
-      <c r="G286" s="57"/>
+      <c r="E286" s="58"/>
+      <c r="F286" s="58"/>
+      <c r="G286" s="58"/>
       <c r="H286" s="6"/>
       <c r="I286" s="6"/>
       <c r="J286" s="6"/>
-      <c r="K286" s="71"/>
+      <c r="K286" s="72"/>
     </row>
     <row r="287" spans="1:11">
       <c r="A287" s="6"/>
       <c r="B287" s="6"/>
       <c r="D287" s="6"/>
-      <c r="E287" s="57"/>
-      <c r="F287" s="57"/>
-      <c r="G287" s="57"/>
+      <c r="E287" s="58"/>
+      <c r="F287" s="58"/>
+      <c r="G287" s="58"/>
       <c r="H287" s="6"/>
       <c r="I287" s="6"/>
       <c r="J287" s="6"/>
-      <c r="K287" s="71"/>
+      <c r="K287" s="72"/>
     </row>
     <row r="288" spans="1:11">
       <c r="A288" s="6"/>
       <c r="B288" s="6"/>
       <c r="D288" s="6"/>
-      <c r="E288" s="57"/>
-      <c r="F288" s="57"/>
-      <c r="G288" s="57"/>
+      <c r="E288" s="58"/>
+      <c r="F288" s="58"/>
+      <c r="G288" s="58"/>
       <c r="H288" s="6"/>
       <c r="I288" s="6"/>
       <c r="J288" s="6"/>
-      <c r="K288" s="71"/>
+      <c r="K288" s="72"/>
     </row>
     <row r="289" spans="1:11">
       <c r="A289" s="6"/>
       <c r="B289" s="6"/>
       <c r="D289" s="6"/>
-      <c r="E289" s="57"/>
-      <c r="F289" s="57"/>
-      <c r="G289" s="57"/>
+      <c r="E289" s="58"/>
+      <c r="F289" s="58"/>
+      <c r="G289" s="58"/>
       <c r="H289" s="6"/>
       <c r="I289" s="6"/>
       <c r="J289" s="6"/>
-      <c r="K289" s="71"/>
+      <c r="K289" s="72"/>
     </row>
     <row r="290" spans="1:11">
       <c r="A290" s="6"/>
       <c r="B290" s="6"/>
       <c r="D290" s="6"/>
-      <c r="E290" s="57"/>
-      <c r="F290" s="57"/>
-      <c r="G290" s="57"/>
+      <c r="E290" s="58"/>
+      <c r="F290" s="58"/>
+      <c r="G290" s="58"/>
       <c r="H290" s="6"/>
       <c r="I290" s="6"/>
       <c r="J290" s="6"/>
-      <c r="K290" s="71"/>
+      <c r="K290" s="72"/>
     </row>
     <row r="291" spans="1:11">
       <c r="A291" s="6"/>
       <c r="B291" s="6"/>
       <c r="D291" s="6"/>
-      <c r="E291" s="57"/>
-      <c r="F291" s="57"/>
-      <c r="G291" s="57"/>
+      <c r="E291" s="58"/>
+      <c r="F291" s="58"/>
+      <c r="G291" s="58"/>
       <c r="H291" s="6"/>
       <c r="I291" s="6"/>
       <c r="J291" s="6"/>
-      <c r="K291" s="71"/>
+      <c r="K291" s="72"/>
     </row>
     <row r="292" spans="1:11">
       <c r="A292" s="6"/>
       <c r="B292" s="6"/>
       <c r="D292" s="6"/>
-      <c r="E292" s="57"/>
-      <c r="F292" s="57"/>
-      <c r="G292" s="57"/>
+      <c r="E292" s="58"/>
+      <c r="F292" s="58"/>
+      <c r="G292" s="58"/>
       <c r="H292" s="6"/>
       <c r="I292" s="6"/>
       <c r="J292" s="6"/>
-      <c r="K292" s="71"/>
+      <c r="K292" s="72"/>
     </row>
     <row r="293" spans="1:11">
       <c r="A293" s="6"/>
       <c r="B293" s="6"/>
       <c r="D293" s="6"/>
-      <c r="E293" s="57"/>
-      <c r="F293" s="57"/>
-      <c r="G293" s="57"/>
+      <c r="E293" s="58"/>
+      <c r="F293" s="58"/>
+      <c r="G293" s="58"/>
       <c r="H293" s="6"/>
       <c r="I293" s="6"/>
       <c r="J293" s="6"/>
-      <c r="K293" s="71"/>
+      <c r="K293" s="72"/>
     </row>
     <row r="294" spans="1:11">
       <c r="A294" s="6"/>
       <c r="B294" s="6"/>
       <c r="D294" s="6"/>
-      <c r="E294" s="57"/>
-      <c r="F294" s="57"/>
-      <c r="G294" s="57"/>
+      <c r="E294" s="58"/>
+      <c r="F294" s="58"/>
+      <c r="G294" s="58"/>
       <c r="H294" s="6"/>
       <c r="I294" s="6"/>
       <c r="J294" s="6"/>
-      <c r="K294" s="71"/>
+      <c r="K294" s="72"/>
     </row>
     <row r="295" spans="1:11">
       <c r="A295" s="6"/>
       <c r="B295" s="6"/>
       <c r="D295" s="6"/>
-      <c r="E295" s="57"/>
-      <c r="F295" s="57"/>
-      <c r="G295" s="57"/>
+      <c r="E295" s="58"/>
+      <c r="F295" s="58"/>
+      <c r="G295" s="58"/>
       <c r="H295" s="6"/>
       <c r="I295" s="6"/>
       <c r="J295" s="6"/>
-      <c r="K295" s="71"/>
+      <c r="K295" s="72"/>
     </row>
     <row r="296" spans="1:11">
       <c r="A296" s="6"/>
       <c r="B296" s="6"/>
       <c r="D296" s="6"/>
-      <c r="E296" s="57"/>
-      <c r="F296" s="57"/>
-      <c r="G296" s="57"/>
+      <c r="E296" s="58"/>
+      <c r="F296" s="58"/>
+      <c r="G296" s="58"/>
       <c r="H296" s="6"/>
       <c r="I296" s="6"/>
       <c r="J296" s="6"/>
-      <c r="K296" s="71"/>
+      <c r="K296" s="72"/>
     </row>
     <row r="297" spans="1:11">
       <c r="A297" s="6"/>
       <c r="B297" s="6"/>
       <c r="D297" s="6"/>
-      <c r="E297" s="57"/>
-      <c r="F297" s="57"/>
-      <c r="G297" s="57"/>
+      <c r="E297" s="58"/>
+      <c r="F297" s="58"/>
+      <c r="G297" s="58"/>
       <c r="H297" s="6"/>
       <c r="I297" s="6"/>
       <c r="J297" s="6"/>
-      <c r="K297" s="71"/>
+      <c r="K297" s="72"/>
     </row>
     <row r="298" spans="1:11">
       <c r="A298" s="6"/>
       <c r="B298" s="6"/>
       <c r="D298" s="6"/>
-      <c r="E298" s="57"/>
-      <c r="F298" s="57"/>
-      <c r="G298" s="57"/>
+      <c r="E298" s="58"/>
+      <c r="F298" s="58"/>
+      <c r="G298" s="58"/>
       <c r="H298" s="6"/>
       <c r="I298" s="6"/>
       <c r="J298" s="6"/>
-      <c r="K298" s="71"/>
+      <c r="K298" s="72"/>
     </row>
     <row r="299" spans="1:11">
       <c r="A299" s="6"/>
       <c r="B299" s="6"/>
       <c r="D299" s="6"/>
-      <c r="E299" s="57"/>
-      <c r="F299" s="57"/>
-      <c r="G299" s="57"/>
+      <c r="E299" s="58"/>
+      <c r="F299" s="58"/>
+      <c r="G299" s="58"/>
       <c r="H299" s="6"/>
       <c r="I299" s="6"/>
       <c r="J299" s="6"/>
-      <c r="K299" s="71"/>
+      <c r="K299" s="72"/>
     </row>
     <row r="300" spans="1:11">
       <c r="A300" s="6"/>
       <c r="B300" s="6"/>
       <c r="D300" s="6"/>
-      <c r="E300" s="57"/>
-      <c r="F300" s="57"/>
-      <c r="G300" s="57"/>
+      <c r="E300" s="58"/>
+      <c r="F300" s="58"/>
+      <c r="G300" s="58"/>
       <c r="H300" s="6"/>
       <c r="I300" s="6"/>
       <c r="J300" s="6"/>
-      <c r="K300" s="71"/>
+      <c r="K300" s="72"/>
     </row>
     <row r="301" spans="1:11">
       <c r="A301" s="6"/>
       <c r="B301" s="6"/>
       <c r="D301" s="6"/>
-      <c r="E301" s="57"/>
-      <c r="F301" s="57"/>
-      <c r="G301" s="57"/>
+      <c r="E301" s="58"/>
+      <c r="F301" s="58"/>
+      <c r="G301" s="58"/>
       <c r="H301" s="6"/>
       <c r="I301" s="6"/>
       <c r="J301" s="6"/>
-      <c r="K301" s="71"/>
+      <c r="K301" s="72"/>
     </row>
     <row r="302" spans="1:11">
       <c r="A302" s="6"/>
       <c r="B302" s="6"/>
       <c r="D302" s="6"/>
-      <c r="E302" s="57"/>
-      <c r="F302" s="57"/>
-      <c r="G302" s="57"/>
+      <c r="E302" s="58"/>
+      <c r="F302" s="58"/>
+      <c r="G302" s="58"/>
       <c r="H302" s="6"/>
       <c r="I302" s="6"/>
       <c r="J302" s="6"/>
-      <c r="K302" s="71"/>
+      <c r="K302" s="72"/>
     </row>
     <row r="303" spans="1:11">
       <c r="A303" s="6"/>
       <c r="B303" s="6"/>
       <c r="D303" s="6"/>
-      <c r="E303" s="57"/>
-      <c r="F303" s="57"/>
-      <c r="G303" s="57"/>
+      <c r="E303" s="58"/>
+      <c r="F303" s="58"/>
+      <c r="G303" s="58"/>
       <c r="H303" s="6"/>
       <c r="I303" s="6"/>
       <c r="J303" s="6"/>
-      <c r="K303" s="71"/>
+      <c r="K303" s="72"/>
     </row>
     <row r="304" spans="1:11">
       <c r="A304" s="6"/>
       <c r="B304" s="6"/>
       <c r="D304" s="6"/>
-      <c r="E304" s="57"/>
-      <c r="F304" s="57"/>
-      <c r="G304" s="57"/>
+      <c r="E304" s="58"/>
+      <c r="F304" s="58"/>
+      <c r="G304" s="58"/>
       <c r="H304" s="6"/>
       <c r="I304" s="6"/>
       <c r="J304" s="6"/>
-      <c r="K304" s="71"/>
+      <c r="K304" s="72"/>
     </row>
     <row r="305" spans="1:11">
       <c r="A305" s="6"/>
       <c r="B305" s="6"/>
       <c r="D305" s="6"/>
-      <c r="E305" s="57"/>
-      <c r="F305" s="57"/>
-      <c r="G305" s="57"/>
+      <c r="E305" s="58"/>
+      <c r="F305" s="58"/>
+      <c r="G305" s="58"/>
       <c r="H305" s="6"/>
       <c r="I305" s="6"/>
       <c r="J305" s="6"/>
-      <c r="K305" s="71"/>
+      <c r="K305" s="72"/>
     </row>
     <row r="306" spans="1:11">
       <c r="A306" s="6"/>
       <c r="B306" s="6"/>
       <c r="D306" s="6"/>
-      <c r="E306" s="57"/>
-      <c r="F306" s="57"/>
-      <c r="G306" s="57"/>
+      <c r="E306" s="58"/>
+      <c r="F306" s="58"/>
+      <c r="G306" s="58"/>
       <c r="H306" s="6"/>
       <c r="I306" s="6"/>
       <c r="J306" s="6"/>
-      <c r="K306" s="71"/>
+      <c r="K306" s="72"/>
     </row>
     <row r="307" spans="1:11">
       <c r="A307" s="6"/>
       <c r="B307" s="6"/>
       <c r="D307" s="6"/>
-      <c r="E307" s="57"/>
-      <c r="F307" s="57"/>
-      <c r="G307" s="57"/>
+      <c r="E307" s="58"/>
+      <c r="F307" s="58"/>
+      <c r="G307" s="58"/>
       <c r="H307" s="6"/>
       <c r="I307" s="6"/>
       <c r="J307" s="6"/>
-      <c r="K307" s="71"/>
+      <c r="K307" s="72"/>
     </row>
     <row r="308" spans="1:11">
       <c r="A308" s="6"/>
       <c r="B308" s="6"/>
       <c r="D308" s="6"/>
-      <c r="E308" s="57"/>
-      <c r="F308" s="57"/>
-      <c r="G308" s="57"/>
+      <c r="E308" s="58"/>
+      <c r="F308" s="58"/>
+      <c r="G308" s="58"/>
       <c r="H308" s="6"/>
       <c r="I308" s="6"/>
       <c r="J308" s="6"/>
-      <c r="K308" s="71"/>
+      <c r="K308" s="72"/>
     </row>
     <row r="309" spans="1:11">
       <c r="A309" s="6"/>
       <c r="B309" s="6"/>
       <c r="D309" s="6"/>
-      <c r="E309" s="57"/>
-      <c r="F309" s="57"/>
-      <c r="G309" s="57"/>
+      <c r="E309" s="58"/>
+      <c r="F309" s="58"/>
+      <c r="G309" s="58"/>
       <c r="H309" s="6"/>
       <c r="I309" s="6"/>
       <c r="J309" s="6"/>
-      <c r="K309" s="71"/>
+      <c r="K309" s="72"/>
     </row>
     <row r="310" spans="1:11">
       <c r="A310" s="6"/>
       <c r="B310" s="6"/>
       <c r="D310" s="6"/>
-      <c r="E310" s="57"/>
-      <c r="F310" s="57"/>
-      <c r="G310" s="57"/>
+      <c r="E310" s="58"/>
+      <c r="F310" s="58"/>
+      <c r="G310" s="58"/>
       <c r="H310" s="6"/>
       <c r="I310" s="6"/>
       <c r="J310" s="6"/>
-      <c r="K310" s="71"/>
+      <c r="K310" s="72"/>
     </row>
     <row r="311" spans="1:11">
       <c r="A311" s="6"/>
       <c r="B311" s="6"/>
       <c r="D311" s="6"/>
-      <c r="E311" s="57"/>
-      <c r="F311" s="57"/>
-      <c r="G311" s="57"/>
+      <c r="E311" s="58"/>
+      <c r="F311" s="58"/>
+      <c r="G311" s="58"/>
       <c r="H311" s="6"/>
       <c r="I311" s="6"/>
       <c r="J311" s="6"/>
-      <c r="K311" s="71"/>
+      <c r="K311" s="72"/>
     </row>
     <row r="312" spans="1:11">
       <c r="A312" s="6"/>
       <c r="B312" s="6"/>
       <c r="D312" s="6"/>
-      <c r="E312" s="57"/>
-      <c r="F312" s="57"/>
-      <c r="G312" s="57"/>
+      <c r="E312" s="58"/>
+      <c r="F312" s="58"/>
+      <c r="G312" s="58"/>
       <c r="H312" s="6"/>
       <c r="I312" s="6"/>
       <c r="J312" s="6"/>
-      <c r="K312" s="71"/>
+      <c r="K312" s="72"/>
     </row>
     <row r="313" spans="1:11">
       <c r="A313" s="6"/>
       <c r="B313" s="6"/>
       <c r="D313" s="6"/>
-      <c r="E313" s="57"/>
-      <c r="F313" s="57"/>
-      <c r="G313" s="57"/>
+      <c r="E313" s="58"/>
+      <c r="F313" s="58"/>
+      <c r="G313" s="58"/>
       <c r="H313" s="6"/>
       <c r="I313" s="6"/>
       <c r="J313" s="6"/>
-      <c r="K313" s="71"/>
+      <c r="K313" s="72"/>
     </row>
     <row r="314" spans="1:11">
       <c r="A314" s="6"/>
       <c r="B314" s="6"/>
       <c r="D314" s="6"/>
-      <c r="E314" s="57"/>
-      <c r="F314" s="57"/>
-      <c r="G314" s="57"/>
+      <c r="E314" s="58"/>
+      <c r="F314" s="58"/>
+      <c r="G314" s="58"/>
       <c r="H314" s="6"/>
       <c r="I314" s="6"/>
       <c r="J314" s="6"/>
-      <c r="K314" s="71"/>
+      <c r="K314" s="72"/>
     </row>
     <row r="315" spans="1:11">
       <c r="A315" s="6"/>
       <c r="B315" s="6"/>
       <c r="D315" s="6"/>
-      <c r="E315" s="57"/>
-      <c r="F315" s="57"/>
-      <c r="G315" s="57"/>
+      <c r="E315" s="58"/>
+      <c r="F315" s="58"/>
+      <c r="G315" s="58"/>
       <c r="H315" s="6"/>
       <c r="I315" s="6"/>
       <c r="J315" s="6"/>
-      <c r="K315" s="71"/>
+      <c r="K315" s="72"/>
     </row>
     <row r="316" spans="1:11">
       <c r="A316" s="6"/>
       <c r="B316" s="6"/>
       <c r="D316" s="6"/>
-      <c r="E316" s="57"/>
-      <c r="F316" s="57"/>
-      <c r="G316" s="57"/>
+      <c r="E316" s="58"/>
+      <c r="F316" s="58"/>
+      <c r="G316" s="58"/>
       <c r="H316" s="6"/>
       <c r="I316" s="6"/>
       <c r="J316" s="6"/>
-      <c r="K316" s="71"/>
+      <c r="K316" s="72"/>
     </row>
     <row r="317" spans="1:11">
       <c r="A317" s="6"/>
       <c r="B317" s="6"/>
       <c r="D317" s="6"/>
-      <c r="E317" s="57"/>
-      <c r="F317" s="57"/>
-      <c r="G317" s="57"/>
+      <c r="E317" s="58"/>
+      <c r="F317" s="58"/>
+      <c r="G317" s="58"/>
       <c r="H317" s="6"/>
       <c r="I317" s="6"/>
       <c r="J317" s="6"/>
-      <c r="K317" s="71"/>
+      <c r="K317" s="72"/>
     </row>
     <row r="318" spans="1:11">
       <c r="A318" s="6"/>
       <c r="B318" s="6"/>
       <c r="D318" s="6"/>
-      <c r="E318" s="57"/>
-      <c r="F318" s="57"/>
-      <c r="G318" s="57"/>
+      <c r="E318" s="58"/>
+      <c r="F318" s="58"/>
+      <c r="G318" s="58"/>
       <c r="H318" s="6"/>
       <c r="I318" s="6"/>
       <c r="J318" s="6"/>
-      <c r="K318" s="71"/>
+      <c r="K318" s="72"/>
     </row>
     <row r="319" spans="1:11">
       <c r="A319" s="6"/>
       <c r="B319" s="6"/>
       <c r="D319" s="6"/>
-      <c r="E319" s="57"/>
-      <c r="F319" s="57"/>
-      <c r="G319" s="57"/>
+      <c r="E319" s="58"/>
+      <c r="F319" s="58"/>
+      <c r="G319" s="58"/>
       <c r="H319" s="6"/>
       <c r="I319" s="6"/>
       <c r="J319" s="6"/>
-      <c r="K319" s="71"/>
+      <c r="K319" s="72"/>
     </row>
     <row r="320" spans="1:11">
       <c r="A320" s="6"/>
       <c r="B320" s="6"/>
       <c r="D320" s="6"/>
-      <c r="E320" s="57"/>
-      <c r="F320" s="57"/>
-      <c r="G320" s="57"/>
+      <c r="E320" s="58"/>
+      <c r="F320" s="58"/>
+      <c r="G320" s="58"/>
       <c r="H320" s="6"/>
       <c r="I320" s="6"/>
       <c r="J320" s="6"/>
-      <c r="K320" s="71"/>
+      <c r="K320" s="72"/>
     </row>
     <row r="321" spans="1:11">
       <c r="A321" s="6"/>
       <c r="B321" s="6"/>
       <c r="D321" s="6"/>
-      <c r="E321" s="57"/>
-      <c r="F321" s="57"/>
-      <c r="G321" s="57"/>
+      <c r="E321" s="58"/>
+      <c r="F321" s="58"/>
+      <c r="G321" s="58"/>
       <c r="H321" s="6"/>
       <c r="I321" s="6"/>
       <c r="J321" s="6"/>
-      <c r="K321" s="71"/>
+      <c r="K321" s="72"/>
     </row>
     <row r="322" spans="1:11">
       <c r="A322" s="6"/>
       <c r="B322" s="6"/>
       <c r="D322" s="6"/>
-      <c r="E322" s="57"/>
-      <c r="F322" s="57"/>
-      <c r="G322" s="57"/>
+      <c r="E322" s="58"/>
+      <c r="F322" s="58"/>
+      <c r="G322" s="58"/>
       <c r="H322" s="6"/>
       <c r="I322" s="6"/>
       <c r="J322" s="6"/>
-      <c r="K322" s="71"/>
+      <c r="K322" s="72"/>
     </row>
     <row r="323" spans="1:11">
       <c r="A323" s="6"/>
       <c r="B323" s="6"/>
       <c r="D323" s="6"/>
-      <c r="E323" s="57"/>
-      <c r="F323" s="57"/>
-      <c r="G323" s="57"/>
+      <c r="E323" s="58"/>
+      <c r="F323" s="58"/>
+      <c r="G323" s="58"/>
       <c r="H323" s="6"/>
       <c r="I323" s="6"/>
       <c r="J323" s="6"/>
-      <c r="K323" s="71"/>
+      <c r="K323" s="72"/>
     </row>
     <row r="324" spans="1:11">
       <c r="A324" s="6"/>
       <c r="B324" s="6"/>
       <c r="D324" s="6"/>
-      <c r="E324" s="57"/>
-      <c r="F324" s="57"/>
-      <c r="G324" s="57"/>
+      <c r="E324" s="58"/>
+      <c r="F324" s="58"/>
+      <c r="G324" s="58"/>
       <c r="H324" s="6"/>
       <c r="I324" s="6"/>
       <c r="J324" s="6"/>
-      <c r="K324" s="71"/>
+      <c r="K324" s="72"/>
     </row>
     <row r="325" spans="1:11">
       <c r="A325" s="6"/>
       <c r="B325" s="6"/>
       <c r="D325" s="6"/>
-      <c r="E325" s="57"/>
-      <c r="F325" s="57"/>
-      <c r="G325" s="57"/>
+      <c r="E325" s="58"/>
+      <c r="F325" s="58"/>
+      <c r="G325" s="58"/>
       <c r="H325" s="6"/>
       <c r="I325" s="6"/>
       <c r="J325" s="6"/>
-      <c r="K325" s="71"/>
+      <c r="K325" s="72"/>
     </row>
     <row r="326" spans="1:11">
       <c r="A326" s="6"/>
       <c r="B326" s="6"/>
       <c r="D326" s="6"/>
-      <c r="E326" s="57"/>
-      <c r="F326" s="57"/>
-      <c r="G326" s="57"/>
+      <c r="E326" s="58"/>
+      <c r="F326" s="58"/>
+      <c r="G326" s="58"/>
       <c r="H326" s="6"/>
       <c r="I326" s="6"/>
       <c r="J326" s="6"/>
-      <c r="K326" s="71"/>
+      <c r="K326" s="72"/>
     </row>
     <row r="327" spans="1:11">
       <c r="A327" s="6"/>
       <c r="B327" s="6"/>
       <c r="D327" s="6"/>
-      <c r="E327" s="57"/>
-      <c r="F327" s="57"/>
-      <c r="G327" s="57"/>
+      <c r="E327" s="58"/>
+      <c r="F327" s="58"/>
+      <c r="G327" s="58"/>
       <c r="H327" s="6"/>
       <c r="I327" s="6"/>
       <c r="J327" s="6"/>
-      <c r="K327" s="71"/>
+      <c r="K327" s="72"/>
     </row>
     <row r="328" spans="1:11">
       <c r="A328" s="6"/>
       <c r="B328" s="6"/>
       <c r="D328" s="6"/>
-      <c r="E328" s="57"/>
-      <c r="F328" s="57"/>
-      <c r="G328" s="57"/>
+      <c r="E328" s="58"/>
+      <c r="F328" s="58"/>
+      <c r="G328" s="58"/>
       <c r="H328" s="6"/>
       <c r="I328" s="6"/>
       <c r="J328" s="6"/>
-      <c r="K328" s="71"/>
+      <c r="K328" s="72"/>
     </row>
     <row r="329" spans="1:11">
       <c r="A329" s="6"/>
       <c r="B329" s="6"/>
       <c r="D329" s="6"/>
-      <c r="E329" s="57"/>
-      <c r="F329" s="57"/>
-      <c r="G329" s="57"/>
+      <c r="E329" s="58"/>
+      <c r="F329" s="58"/>
+      <c r="G329" s="58"/>
       <c r="H329" s="6"/>
       <c r="I329" s="6"/>
       <c r="J329" s="6"/>
-      <c r="K329" s="71"/>
+      <c r="K329" s="72"/>
     </row>
     <row r="330" spans="1:11">
       <c r="A330" s="6"/>
       <c r="B330" s="6"/>
       <c r="D330" s="6"/>
-      <c r="E330" s="57"/>
-      <c r="F330" s="57"/>
-      <c r="G330" s="57"/>
+      <c r="E330" s="58"/>
+      <c r="F330" s="58"/>
+      <c r="G330" s="58"/>
       <c r="H330" s="6"/>
       <c r="I330" s="6"/>
       <c r="J330" s="6"/>
-      <c r="K330" s="71"/>
+      <c r="K330" s="72"/>
     </row>
     <row r="331" spans="1:11">
       <c r="A331" s="6"/>
       <c r="B331" s="6"/>
       <c r="D331" s="6"/>
-      <c r="E331" s="57"/>
-      <c r="F331" s="57"/>
-      <c r="G331" s="57"/>
+      <c r="E331" s="58"/>
+      <c r="F331" s="58"/>
+      <c r="G331" s="58"/>
       <c r="H331" s="6"/>
       <c r="I331" s="6"/>
       <c r="J331" s="6"/>
-      <c r="K331" s="71"/>
+      <c r="K331" s="72"/>
     </row>
     <row r="332" spans="1:11">
       <c r="A332" s="6"/>
       <c r="B332" s="6"/>
       <c r="D332" s="6"/>
-      <c r="E332" s="57"/>
-      <c r="F332" s="57"/>
-      <c r="G332" s="57"/>
+      <c r="E332" s="58"/>
+      <c r="F332" s="58"/>
+      <c r="G332" s="58"/>
       <c r="H332" s="6"/>
       <c r="I332" s="6"/>
       <c r="J332" s="6"/>
-      <c r="K332" s="71"/>
+      <c r="K332" s="72"/>
     </row>
     <row r="333" spans="1:11">
       <c r="A333" s="6"/>
       <c r="B333" s="6"/>
       <c r="D333" s="6"/>
-      <c r="E333" s="57"/>
-      <c r="F333" s="57"/>
-      <c r="G333" s="57"/>
+      <c r="E333" s="58"/>
+      <c r="F333" s="58"/>
+      <c r="G333" s="58"/>
       <c r="H333" s="6"/>
       <c r="I333" s="6"/>
       <c r="J333" s="6"/>
-      <c r="K333" s="71"/>
+      <c r="K333" s="72"/>
     </row>
     <row r="334" spans="1:11">
       <c r="A334" s="6"/>
       <c r="B334" s="6"/>
       <c r="D334" s="6"/>
-      <c r="E334" s="57"/>
-      <c r="F334" s="57"/>
-      <c r="G334" s="57"/>
+      <c r="E334" s="58"/>
+      <c r="F334" s="58"/>
+      <c r="G334" s="58"/>
       <c r="H334" s="6"/>
       <c r="I334" s="6"/>
       <c r="J334" s="6"/>
-      <c r="K334" s="71"/>
+      <c r="K334" s="72"/>
     </row>
     <row r="335" spans="1:11">
       <c r="A335" s="6"/>
       <c r="B335" s="6"/>
       <c r="D335" s="6"/>
-      <c r="E335" s="57"/>
-      <c r="F335" s="57"/>
-      <c r="G335" s="57"/>
+      <c r="E335" s="58"/>
+      <c r="F335" s="58"/>
+      <c r="G335" s="58"/>
       <c r="H335" s="6"/>
       <c r="I335" s="6"/>
       <c r="J335" s="6"/>
-      <c r="K335" s="71"/>
+      <c r="K335" s="72"/>
     </row>
     <row r="336" spans="1:11">
       <c r="A336" s="6"/>
       <c r="B336" s="6"/>
       <c r="D336" s="6"/>
-      <c r="E336" s="57"/>
-      <c r="F336" s="57"/>
-      <c r="G336" s="57"/>
+      <c r="E336" s="58"/>
+      <c r="F336" s="58"/>
+      <c r="G336" s="58"/>
       <c r="H336" s="6"/>
       <c r="I336" s="6"/>
       <c r="J336" s="6"/>
-      <c r="K336" s="71"/>
+      <c r="K336" s="72"/>
     </row>
     <row r="337" spans="1:11">
       <c r="A337" s="6"/>
       <c r="B337" s="6"/>
       <c r="D337" s="6"/>
-      <c r="E337" s="57"/>
-      <c r="F337" s="57"/>
-      <c r="G337" s="57"/>
+      <c r="E337" s="58"/>
+      <c r="F337" s="58"/>
+      <c r="G337" s="58"/>
       <c r="H337" s="6"/>
       <c r="I337" s="6"/>
       <c r="J337" s="6"/>
-      <c r="K337" s="71"/>
+      <c r="K337" s="72"/>
     </row>
     <row r="338" spans="1:11">
       <c r="A338" s="6"/>
       <c r="B338" s="6"/>
       <c r="D338" s="6"/>
-      <c r="E338" s="57"/>
-      <c r="F338" s="57"/>
-      <c r="G338" s="57"/>
+      <c r="E338" s="58"/>
+      <c r="F338" s="58"/>
+      <c r="G338" s="58"/>
       <c r="H338" s="6"/>
       <c r="I338" s="6"/>
       <c r="J338" s="6"/>
-      <c r="K338" s="71"/>
+      <c r="K338" s="72"/>
     </row>
     <row r="339" spans="1:11">
       <c r="A339" s="6"/>
       <c r="B339" s="6"/>
       <c r="D339" s="6"/>
-      <c r="E339" s="57"/>
-      <c r="F339" s="57"/>
-      <c r="G339" s="57"/>
+      <c r="E339" s="58"/>
+      <c r="F339" s="58"/>
+      <c r="G339" s="58"/>
       <c r="H339" s="6"/>
       <c r="I339" s="6"/>
       <c r="J339" s="6"/>
-      <c r="K339" s="71"/>
+      <c r="K339" s="72"/>
     </row>
     <row r="340" spans="1:11">
       <c r="A340" s="6"/>
       <c r="B340" s="6"/>
       <c r="D340" s="6"/>
-      <c r="E340" s="57"/>
-      <c r="F340" s="57"/>
-      <c r="G340" s="57"/>
+      <c r="E340" s="58"/>
+      <c r="F340" s="58"/>
+      <c r="G340" s="58"/>
       <c r="H340" s="6"/>
       <c r="I340" s="6"/>
       <c r="J340" s="6"/>
-      <c r="K340" s="71"/>
+      <c r="K340" s="72"/>
     </row>
     <row r="341" spans="1:11">
       <c r="A341" s="6"/>
       <c r="B341" s="6"/>
       <c r="D341" s="6"/>
-      <c r="E341" s="57"/>
-      <c r="F341" s="57"/>
-      <c r="G341" s="57"/>
+      <c r="E341" s="58"/>
+      <c r="F341" s="58"/>
+      <c r="G341" s="58"/>
       <c r="H341" s="6"/>
       <c r="I341" s="6"/>
       <c r="J341" s="6"/>
-      <c r="K341" s="71"/>
+      <c r="K341" s="72"/>
     </row>
     <row r="342" spans="1:11">
       <c r="A342" s="6"/>
       <c r="B342" s="6"/>
       <c r="D342" s="6"/>
-      <c r="E342" s="57"/>
-      <c r="F342" s="57"/>
-      <c r="G342" s="57"/>
+      <c r="E342" s="58"/>
+      <c r="F342" s="58"/>
+      <c r="G342" s="58"/>
       <c r="H342" s="6"/>
       <c r="I342" s="6"/>
       <c r="J342" s="6"/>
-      <c r="K342" s="71"/>
+      <c r="K342" s="72"/>
     </row>
     <row r="343" spans="1:11">
       <c r="A343" s="6"/>
       <c r="B343" s="6"/>
       <c r="D343" s="6"/>
-      <c r="E343" s="57"/>
-      <c r="F343" s="57"/>
-      <c r="G343" s="57"/>
+      <c r="E343" s="58"/>
+      <c r="F343" s="58"/>
+      <c r="G343" s="58"/>
       <c r="H343" s="6"/>
       <c r="I343" s="6"/>
       <c r="J343" s="6"/>
-      <c r="K343" s="71"/>
+      <c r="K343" s="72"/>
     </row>
     <row r="344" spans="1:11">
       <c r="A344" s="6"/>
       <c r="B344" s="6"/>
       <c r="D344" s="6"/>
-      <c r="E344" s="57"/>
-      <c r="F344" s="57"/>
-      <c r="G344" s="57"/>
+      <c r="E344" s="58"/>
+      <c r="F344" s="58"/>
+      <c r="G344" s="58"/>
       <c r="H344" s="6"/>
       <c r="I344" s="6"/>
       <c r="J344" s="6"/>
-      <c r="K344" s="71"/>
+      <c r="K344" s="72"/>
     </row>
     <row r="345" spans="1:11">
       <c r="A345" s="6"/>
       <c r="B345" s="6"/>
       <c r="D345" s="6"/>
-      <c r="E345" s="57"/>
-      <c r="F345" s="57"/>
-      <c r="G345" s="57"/>
+      <c r="E345" s="58"/>
+      <c r="F345" s="58"/>
+      <c r="G345" s="58"/>
       <c r="H345" s="6"/>
       <c r="I345" s="6"/>
       <c r="J345" s="6"/>
-      <c r="K345" s="71"/>
+      <c r="K345" s="72"/>
     </row>
     <row r="346" spans="1:11">
       <c r="A346" s="6"/>
       <c r="B346" s="6"/>
       <c r="D346" s="6"/>
-      <c r="E346" s="57"/>
-      <c r="F346" s="57"/>
-      <c r="G346" s="57"/>
+      <c r="E346" s="58"/>
+      <c r="F346" s="58"/>
+      <c r="G346" s="58"/>
       <c r="H346" s="6"/>
       <c r="I346" s="6"/>
       <c r="J346" s="6"/>
-      <c r="K346" s="71"/>
+      <c r="K346" s="72"/>
     </row>
     <row r="347" spans="1:11">
       <c r="A347" s="6"/>
       <c r="B347" s="6"/>
       <c r="D347" s="6"/>
-      <c r="E347" s="57"/>
-      <c r="F347" s="57"/>
-      <c r="G347" s="57"/>
+      <c r="E347" s="58"/>
+      <c r="F347" s="58"/>
+      <c r="G347" s="58"/>
       <c r="H347" s="6"/>
       <c r="I347" s="6"/>
       <c r="J347" s="6"/>
-      <c r="K347" s="71"/>
+      <c r="K347" s="72"/>
     </row>
     <row r="348" spans="1:11">
       <c r="A348" s="6"/>
       <c r="B348" s="6"/>
       <c r="D348" s="6"/>
-      <c r="E348" s="57"/>
-      <c r="F348" s="57"/>
-      <c r="G348" s="57"/>
+      <c r="E348" s="58"/>
+      <c r="F348" s="58"/>
+      <c r="G348" s="58"/>
       <c r="H348" s="6"/>
       <c r="I348" s="6"/>
       <c r="J348" s="6"/>
-      <c r="K348" s="71"/>
+      <c r="K348" s="72"/>
     </row>
     <row r="349" spans="1:11">
       <c r="A349" s="6"/>
       <c r="B349" s="6"/>
       <c r="D349" s="6"/>
-      <c r="E349" s="57"/>
-      <c r="F349" s="57"/>
-      <c r="G349" s="57"/>
+      <c r="E349" s="58"/>
+      <c r="F349" s="58"/>
+      <c r="G349" s="58"/>
       <c r="H349" s="6"/>
       <c r="I349" s="6"/>
       <c r="J349" s="6"/>
-      <c r="K349" s="71"/>
+      <c r="K349" s="72"/>
     </row>
     <row r="350" spans="1:11">
       <c r="A350" s="6"/>
       <c r="B350" s="6"/>
       <c r="D350" s="6"/>
-      <c r="E350" s="57"/>
-      <c r="F350" s="57"/>
-      <c r="G350" s="57"/>
+      <c r="E350" s="58"/>
+      <c r="F350" s="58"/>
+      <c r="G350" s="58"/>
       <c r="H350" s="6"/>
       <c r="I350" s="6"/>
       <c r="J350" s="6"/>
-      <c r="K350" s="71"/>
+      <c r="K350" s="72"/>
     </row>
     <row r="351" spans="1:11">
       <c r="A351" s="6"/>
       <c r="B351" s="6"/>
       <c r="D351" s="6"/>
-      <c r="E351" s="57"/>
-      <c r="F351" s="57"/>
-      <c r="G351" s="57"/>
+      <c r="E351" s="58"/>
+      <c r="F351" s="58"/>
+      <c r="G351" s="58"/>
       <c r="H351" s="6"/>
       <c r="I351" s="6"/>
       <c r="J351" s="6"/>
-      <c r="K351" s="71"/>
+      <c r="K351" s="72"/>
     </row>
     <row r="352" spans="1:11">
       <c r="A352" s="6"/>
       <c r="B352" s="6"/>
       <c r="D352" s="6"/>
-      <c r="E352" s="57"/>
-      <c r="F352" s="57"/>
-      <c r="G352" s="57"/>
+      <c r="E352" s="58"/>
+      <c r="F352" s="58"/>
+      <c r="G352" s="58"/>
       <c r="H352" s="6"/>
       <c r="I352" s="6"/>
       <c r="J352" s="6"/>
-      <c r="K352" s="71"/>
+      <c r="K352" s="72"/>
     </row>
     <row r="353" spans="1:11">
       <c r="A353" s="6"/>
       <c r="B353" s="6"/>
       <c r="D353" s="6"/>
-      <c r="E353" s="57"/>
-      <c r="F353" s="57"/>
-      <c r="G353" s="57"/>
+      <c r="E353" s="58"/>
+      <c r="F353" s="58"/>
+      <c r="G353" s="58"/>
       <c r="H353" s="6"/>
       <c r="I353" s="6"/>
       <c r="J353" s="6"/>
-      <c r="K353" s="71"/>
+      <c r="K353" s="72"/>
     </row>
     <row r="354" spans="1:11">
       <c r="A354" s="6"/>
       <c r="B354" s="6"/>
       <c r="D354" s="6"/>
-      <c r="E354" s="57"/>
-      <c r="F354" s="57"/>
-      <c r="G354" s="57"/>
+      <c r="E354" s="58"/>
+      <c r="F354" s="58"/>
+      <c r="G354" s="58"/>
       <c r="H354" s="6"/>
       <c r="I354" s="6"/>
       <c r="J354" s="6"/>
-      <c r="K354" s="71"/>
+      <c r="K354" s="72"/>
     </row>
     <row r="355" spans="1:11">
       <c r="A355" s="6"/>
       <c r="B355" s="6"/>
       <c r="D355" s="6"/>
-      <c r="E355" s="57"/>
-      <c r="F355" s="57"/>
-      <c r="G355" s="57"/>
+      <c r="E355" s="58"/>
+      <c r="F355" s="58"/>
+      <c r="G355" s="58"/>
       <c r="H355" s="6"/>
       <c r="I355" s="6"/>
       <c r="J355" s="6"/>
-      <c r="K355" s="71"/>
+      <c r="K355" s="72"/>
     </row>
     <row r="356" spans="1:11">
       <c r="A356" s="6"/>
       <c r="B356" s="6"/>
       <c r="D356" s="6"/>
-      <c r="E356" s="57"/>
-      <c r="F356" s="57"/>
-      <c r="G356" s="57"/>
+      <c r="E356" s="58"/>
+      <c r="F356" s="58"/>
+      <c r="G356" s="58"/>
       <c r="H356" s="6"/>
       <c r="I356" s="6"/>
       <c r="J356" s="6"/>
-      <c r="K356" s="71"/>
+      <c r="K356" s="72"/>
     </row>
     <row r="357" spans="1:11">
       <c r="A357" s="6"/>
       <c r="B357" s="6"/>
       <c r="D357" s="6"/>
-      <c r="E357" s="57"/>
-      <c r="F357" s="57"/>
-      <c r="G357" s="57"/>
+      <c r="E357" s="58"/>
+      <c r="F357" s="58"/>
+      <c r="G357" s="58"/>
       <c r="H357" s="6"/>
       <c r="I357" s="6"/>
       <c r="J357" s="6"/>
-      <c r="K357" s="71"/>
+      <c r="K357" s="72"/>
     </row>
     <row r="358" spans="1:11">
       <c r="A358" s="6"/>
       <c r="B358" s="6"/>
       <c r="D358" s="6"/>
-      <c r="E358" s="57"/>
-      <c r="F358" s="57"/>
-      <c r="G358" s="57"/>
+      <c r="E358" s="58"/>
+      <c r="F358" s="58"/>
+      <c r="G358" s="58"/>
       <c r="H358" s="6"/>
       <c r="I358" s="6"/>
       <c r="J358" s="6"/>
-      <c r="K358" s="71"/>
+      <c r="K358" s="72"/>
     </row>
     <row r="359" spans="1:11">
       <c r="A359" s="6"/>
       <c r="B359" s="6"/>
       <c r="D359" s="6"/>
-      <c r="E359" s="57"/>
-      <c r="F359" s="57"/>
-      <c r="G359" s="57"/>
+      <c r="E359" s="58"/>
+      <c r="F359" s="58"/>
+      <c r="G359" s="58"/>
       <c r="H359" s="6"/>
       <c r="I359" s="6"/>
       <c r="J359" s="6"/>
-      <c r="K359" s="71"/>
+      <c r="K359" s="72"/>
     </row>
     <row r="360" spans="1:11">
       <c r="A360" s="6"/>
       <c r="B360" s="6"/>
       <c r="D360" s="6"/>
-      <c r="E360" s="57"/>
-      <c r="F360" s="57"/>
-      <c r="G360" s="57"/>
+      <c r="E360" s="58"/>
+      <c r="F360" s="58"/>
+      <c r="G360" s="58"/>
       <c r="H360" s="6"/>
       <c r="I360" s="6"/>
       <c r="J360" s="6"/>
-      <c r="K360" s="71"/>
+      <c r="K360" s="72"/>
     </row>
     <row r="361" spans="1:11">
       <c r="A361" s="6"/>
       <c r="B361" s="6"/>
       <c r="D361" s="6"/>
-      <c r="E361" s="57"/>
-      <c r="F361" s="57"/>
-      <c r="G361" s="57"/>
+      <c r="E361" s="58"/>
+      <c r="F361" s="58"/>
+      <c r="G361" s="58"/>
       <c r="H361" s="6"/>
       <c r="I361" s="6"/>
       <c r="J361" s="6"/>
-      <c r="K361" s="71"/>
+      <c r="K361" s="72"/>
     </row>
     <row r="362" spans="1:11">
       <c r="A362" s="6"/>
       <c r="B362" s="6"/>
       <c r="D362" s="6"/>
-      <c r="E362" s="57"/>
-      <c r="F362" s="57"/>
-      <c r="G362" s="57"/>
+      <c r="E362" s="58"/>
+      <c r="F362" s="58"/>
+      <c r="G362" s="58"/>
       <c r="H362" s="6"/>
       <c r="I362" s="6"/>
       <c r="J362" s="6"/>
-      <c r="K362" s="71"/>
+      <c r="K362" s="72"/>
     </row>
     <row r="363" spans="1:11">
       <c r="A363" s="6"/>
       <c r="B363" s="6"/>
       <c r="D363" s="6"/>
-      <c r="E363" s="57"/>
-      <c r="F363" s="57"/>
-      <c r="G363" s="57"/>
+      <c r="E363" s="58"/>
+      <c r="F363" s="58"/>
+      <c r="G363" s="58"/>
       <c r="H363" s="6"/>
       <c r="I363" s="6"/>
       <c r="J363" s="6"/>
-      <c r="K363" s="71"/>
+      <c r="K363" s="72"/>
     </row>
     <row r="364" spans="1:11">
       <c r="A364" s="6"/>
       <c r="B364" s="6"/>
       <c r="D364" s="6"/>
-      <c r="E364" s="57"/>
-      <c r="F364" s="57"/>
-      <c r="G364" s="57"/>
+      <c r="E364" s="58"/>
+      <c r="F364" s="58"/>
+      <c r="G364" s="58"/>
       <c r="H364" s="6"/>
       <c r="I364" s="6"/>
       <c r="J364" s="6"/>
-      <c r="K364" s="71"/>
+      <c r="K364" s="72"/>
     </row>
     <row r="365" spans="1:11">
       <c r="A365" s="6"/>
       <c r="B365" s="6"/>
       <c r="D365" s="6"/>
-      <c r="E365" s="57"/>
-      <c r="F365" s="57"/>
-      <c r="G365" s="57"/>
+      <c r="E365" s="58"/>
+      <c r="F365" s="58"/>
+      <c r="G365" s="58"/>
       <c r="H365" s="6"/>
       <c r="I365" s="6"/>
       <c r="J365" s="6"/>
-      <c r="K365" s="71"/>
+      <c r="K365" s="72"/>
     </row>
     <row r="366" spans="1:11">
       <c r="A366" s="6"/>
       <c r="B366" s="6"/>
       <c r="D366" s="6"/>
-      <c r="E366" s="57"/>
-      <c r="F366" s="57"/>
-      <c r="G366" s="57"/>
+      <c r="E366" s="58"/>
+      <c r="F366" s="58"/>
+      <c r="G366" s="58"/>
       <c r="H366" s="6"/>
       <c r="I366" s="6"/>
       <c r="J366" s="6"/>
-      <c r="K366" s="71"/>
+      <c r="K366" s="72"/>
     </row>
     <row r="367" spans="1:11">
       <c r="A367" s="6"/>
       <c r="B367" s="6"/>
       <c r="D367" s="6"/>
-      <c r="E367" s="57"/>
-      <c r="F367" s="57"/>
-      <c r="G367" s="57"/>
+      <c r="E367" s="58"/>
+      <c r="F367" s="58"/>
+      <c r="G367" s="58"/>
       <c r="H367" s="6"/>
       <c r="I367" s="6"/>
       <c r="J367" s="6"/>
-      <c r="K367" s="71"/>
+      <c r="K367" s="72"/>
     </row>
     <row r="368" spans="1:11">
       <c r="A368" s="6"/>
       <c r="B368" s="6"/>
       <c r="D368" s="6"/>
-      <c r="E368" s="57"/>
-      <c r="F368" s="57"/>
-      <c r="G368" s="57"/>
+      <c r="E368" s="58"/>
+      <c r="F368" s="58"/>
+      <c r="G368" s="58"/>
       <c r="H368" s="6"/>
       <c r="I368" s="6"/>
       <c r="J368" s="6"/>
-      <c r="K368" s="71"/>
+      <c r="K368" s="72"/>
     </row>
     <row r="369" spans="1:11">
       <c r="A369" s="6"/>
       <c r="B369" s="6"/>
       <c r="D369" s="6"/>
-      <c r="E369" s="57"/>
-      <c r="F369" s="57"/>
-      <c r="G369" s="57"/>
+      <c r="E369" s="58"/>
+      <c r="F369" s="58"/>
+      <c r="G369" s="58"/>
       <c r="H369" s="6"/>
       <c r="I369" s="6"/>
       <c r="J369" s="6"/>
-      <c r="K369" s="71"/>
+      <c r="K369" s="72"/>
     </row>
     <row r="370" spans="1:11">
       <c r="A370" s="6"/>
       <c r="B370" s="6"/>
       <c r="D370" s="6"/>
-      <c r="E370" s="57"/>
-      <c r="F370" s="57"/>
-      <c r="G370" s="57"/>
+      <c r="E370" s="58"/>
+      <c r="F370" s="58"/>
+      <c r="G370" s="58"/>
       <c r="H370" s="6"/>
       <c r="I370" s="6"/>
       <c r="J370" s="6"/>
-      <c r="K370" s="71"/>
+      <c r="K370" s="72"/>
     </row>
     <row r="371" spans="1:11">
       <c r="A371" s="6"/>
       <c r="B371" s="6"/>
       <c r="D371" s="6"/>
-      <c r="E371" s="57"/>
-      <c r="F371" s="57"/>
-      <c r="G371" s="57"/>
+      <c r="E371" s="58"/>
+      <c r="F371" s="58"/>
+      <c r="G371" s="58"/>
       <c r="H371" s="6"/>
       <c r="I371" s="6"/>
       <c r="J371" s="6"/>
-      <c r="K371" s="71"/>
+      <c r="K371" s="72"/>
     </row>
     <row r="372" spans="1:11">
       <c r="A372" s="6"/>
       <c r="B372" s="6"/>
       <c r="D372" s="6"/>
-      <c r="E372" s="57"/>
-      <c r="F372" s="57"/>
-      <c r="G372" s="57"/>
+      <c r="E372" s="58"/>
+      <c r="F372" s="58"/>
+      <c r="G372" s="58"/>
       <c r="H372" s="6"/>
       <c r="I372" s="6"/>
       <c r="J372" s="6"/>
-      <c r="K372" s="71"/>
+      <c r="K372" s="72"/>
     </row>
     <row r="373" spans="1:11">
       <c r="A373" s="6"/>
       <c r="B373" s="6"/>
       <c r="D373" s="6"/>
-      <c r="E373" s="57"/>
-      <c r="F373" s="57"/>
-      <c r="G373" s="57"/>
+      <c r="E373" s="58"/>
+      <c r="F373" s="58"/>
+      <c r="G373" s="58"/>
       <c r="H373" s="6"/>
       <c r="I373" s="6"/>
       <c r="J373" s="6"/>
-      <c r="K373" s="71"/>
+      <c r="K373" s="72"/>
     </row>
     <row r="374" spans="1:11">
       <c r="A374" s="6"/>
       <c r="B374" s="6"/>
       <c r="D374" s="6"/>
-      <c r="E374" s="57"/>
-      <c r="F374" s="57"/>
-      <c r="G374" s="57"/>
+      <c r="E374" s="58"/>
+      <c r="F374" s="58"/>
+      <c r="G374" s="58"/>
       <c r="H374" s="6"/>
       <c r="I374" s="6"/>
       <c r="J374" s="6"/>
-      <c r="K374" s="71"/>
+      <c r="K374" s="72"/>
     </row>
     <row r="375" spans="1:11">
       <c r="A375" s="6"/>
       <c r="B375" s="6"/>
       <c r="D375" s="6"/>
-      <c r="E375" s="57"/>
-      <c r="F375" s="57"/>
-      <c r="G375" s="57"/>
+      <c r="E375" s="58"/>
+      <c r="F375" s="58"/>
+      <c r="G375" s="58"/>
       <c r="H375" s="6"/>
       <c r="I375" s="6"/>
       <c r="J375" s="6"/>
-      <c r="K375" s="71"/>
+      <c r="K375" s="72"/>
     </row>
     <row r="376" spans="1:11">
       <c r="A376" s="6"/>
       <c r="B376" s="6"/>
       <c r="D376" s="6"/>
-      <c r="E376" s="57"/>
-      <c r="F376" s="57"/>
-      <c r="G376" s="57"/>
+      <c r="E376" s="58"/>
+      <c r="F376" s="58"/>
+      <c r="G376" s="58"/>
       <c r="H376" s="6"/>
       <c r="I376" s="6"/>
       <c r="J376" s="6"/>
-      <c r="K376" s="71"/>
+      <c r="K376" s="72"/>
     </row>
     <row r="377" spans="1:11">
       <c r="A377" s="6"/>
       <c r="B377" s="6"/>
       <c r="D377" s="6"/>
-      <c r="E377" s="57"/>
-      <c r="F377" s="57"/>
-      <c r="G377" s="57"/>
+      <c r="E377" s="58"/>
+      <c r="F377" s="58"/>
+      <c r="G377" s="58"/>
       <c r="H377" s="6"/>
       <c r="I377" s="6"/>
       <c r="J377" s="6"/>
-      <c r="K377" s="71"/>
+      <c r="K377" s="72"/>
     </row>
     <row r="378" spans="1:11">
       <c r="A378" s="6"/>
       <c r="B378" s="6"/>
       <c r="D378" s="6"/>
-      <c r="E378" s="57"/>
-      <c r="F378" s="57"/>
-      <c r="G378" s="57"/>
+      <c r="E378" s="58"/>
+      <c r="F378" s="58"/>
+      <c r="G378" s="58"/>
       <c r="H378" s="6"/>
       <c r="I378" s="6"/>
       <c r="J378" s="6"/>
-      <c r="K378" s="71"/>
+      <c r="K378" s="72"/>
     </row>
     <row r="379" spans="1:11">
       <c r="A379" s="6"/>
       <c r="B379" s="6"/>
       <c r="D379" s="6"/>
-      <c r="E379" s="57"/>
-      <c r="F379" s="57"/>
-      <c r="G379" s="57"/>
+      <c r="E379" s="58"/>
+      <c r="F379" s="58"/>
+      <c r="G379" s="58"/>
       <c r="H379" s="6"/>
       <c r="I379" s="6"/>
       <c r="J379" s="6"/>
-      <c r="K379" s="71"/>
+      <c r="K379" s="72"/>
     </row>
     <row r="380" spans="1:11">
       <c r="A380" s="6"/>
       <c r="B380" s="6"/>
       <c r="D380" s="6"/>
-      <c r="E380" s="57"/>
-      <c r="F380" s="57"/>
-      <c r="G380" s="57"/>
+      <c r="E380" s="58"/>
+      <c r="F380" s="58"/>
+      <c r="G380" s="58"/>
       <c r="H380" s="6"/>
       <c r="I380" s="6"/>
       <c r="J380" s="6"/>
-      <c r="K380" s="71"/>
+      <c r="K380" s="72"/>
     </row>
     <row r="381" spans="1:11">
       <c r="A381" s="6"/>
       <c r="B381" s="6"/>
       <c r="D381" s="6"/>
-      <c r="E381" s="57"/>
-      <c r="F381" s="57"/>
-      <c r="G381" s="57"/>
+      <c r="E381" s="58"/>
+      <c r="F381" s="58"/>
+      <c r="G381" s="58"/>
       <c r="H381" s="6"/>
       <c r="I381" s="6"/>
       <c r="J381" s="6"/>
-      <c r="K381" s="71"/>
+      <c r="K381" s="72"/>
     </row>
     <row r="382" spans="1:11">
       <c r="A382" s="6"/>
       <c r="B382" s="6"/>
       <c r="D382" s="6"/>
-      <c r="E382" s="57"/>
-      <c r="F382" s="57"/>
-      <c r="G382" s="57"/>
+      <c r="E382" s="58"/>
+      <c r="F382" s="58"/>
+      <c r="G382" s="58"/>
       <c r="H382" s="6"/>
       <c r="I382" s="6"/>
       <c r="J382" s="6"/>
-      <c r="K382" s="71"/>
+      <c r="K382" s="72"/>
     </row>
     <row r="383" spans="1:11">
       <c r="A383" s="6"/>
       <c r="B383" s="6"/>
       <c r="D383" s="6"/>
-      <c r="E383" s="57"/>
-      <c r="F383" s="57"/>
-      <c r="G383" s="57"/>
+      <c r="E383" s="58"/>
+      <c r="F383" s="58"/>
+      <c r="G383" s="58"/>
       <c r="H383" s="6"/>
       <c r="I383" s="6"/>
       <c r="J383" s="6"/>
-      <c r="K383" s="71"/>
+      <c r="K383" s="72"/>
     </row>
     <row r="384" spans="1:11">
       <c r="A384" s="6"/>
       <c r="B384" s="6"/>
       <c r="D384" s="6"/>
-      <c r="E384" s="57"/>
-      <c r="F384" s="57"/>
-      <c r="G384" s="57"/>
+      <c r="E384" s="58"/>
+      <c r="F384" s="58"/>
+      <c r="G384" s="58"/>
       <c r="H384" s="6"/>
       <c r="I384" s="6"/>
       <c r="J384" s="6"/>
-      <c r="K384" s="71"/>
+      <c r="K384" s="72"/>
     </row>
     <row r="385" spans="1:11">
       <c r="A385" s="6"/>
       <c r="B385" s="6"/>
       <c r="D385" s="6"/>
-      <c r="E385" s="57"/>
-      <c r="F385" s="57"/>
-      <c r="G385" s="57"/>
+      <c r="E385" s="58"/>
+      <c r="F385" s="58"/>
+      <c r="G385" s="58"/>
       <c r="H385" s="6"/>
       <c r="I385" s="6"/>
       <c r="J385" s="6"/>
-      <c r="K385" s="71"/>
+      <c r="K385" s="72"/>
     </row>
     <row r="386" spans="1:11">
       <c r="A386" s="6"/>
       <c r="B386" s="6"/>
       <c r="D386" s="6"/>
-      <c r="E386" s="57"/>
-      <c r="F386" s="57"/>
-      <c r="G386" s="57"/>
+      <c r="E386" s="58"/>
+      <c r="F386" s="58"/>
+      <c r="G386" s="58"/>
       <c r="H386" s="6"/>
       <c r="I386" s="6"/>
       <c r="J386" s="6"/>
-      <c r="K386" s="71"/>
+      <c r="K386" s="72"/>
     </row>
     <row r="387" spans="1:11">
       <c r="A387" s="6"/>
       <c r="B387" s="6"/>
       <c r="D387" s="6"/>
-      <c r="E387" s="57"/>
-      <c r="F387" s="57"/>
-      <c r="G387" s="57"/>
+      <c r="E387" s="58"/>
+      <c r="F387" s="58"/>
+      <c r="G387" s="58"/>
       <c r="H387" s="6"/>
       <c r="I387" s="6"/>
       <c r="J387" s="6"/>
-      <c r="K387" s="71"/>
+      <c r="K387" s="72"/>
     </row>
     <row r="388" spans="1:11">
       <c r="A388" s="6"/>
       <c r="B388" s="6"/>
       <c r="D388" s="6"/>
-      <c r="E388" s="57"/>
-      <c r="F388" s="57"/>
-      <c r="G388" s="57"/>
+      <c r="E388" s="58"/>
+      <c r="F388" s="58"/>
+      <c r="G388" s="58"/>
       <c r="H388" s="6"/>
       <c r="I388" s="6"/>
       <c r="J388" s="6"/>
-      <c r="K388" s="71"/>
+      <c r="K388" s="72"/>
     </row>
     <row r="389" spans="1:11">
       <c r="A389" s="6"/>
       <c r="B389" s="6"/>
       <c r="D389" s="6"/>
-      <c r="E389" s="57"/>
-      <c r="F389" s="57"/>
-      <c r="G389" s="57"/>
+      <c r="E389" s="58"/>
+      <c r="F389" s="58"/>
+      <c r="G389" s="58"/>
       <c r="H389" s="6"/>
       <c r="I389" s="6"/>
       <c r="J389" s="6"/>
-      <c r="K389" s="71"/>
+      <c r="K389" s="72"/>
     </row>
     <row r="390" spans="1:11">
       <c r="A390" s="6"/>
       <c r="B390" s="6"/>
       <c r="D390" s="6"/>
-      <c r="E390" s="57"/>
-      <c r="F390" s="57"/>
-      <c r="G390" s="57"/>
+      <c r="E390" s="58"/>
+      <c r="F390" s="58"/>
+      <c r="G390" s="58"/>
       <c r="H390" s="6"/>
       <c r="I390" s="6"/>
       <c r="J390" s="6"/>
-      <c r="K390" s="71"/>
+      <c r="K390" s="72"/>
     </row>
     <row r="391" spans="1:11">
       <c r="A391" s="6"/>
       <c r="B391" s="6"/>
       <c r="D391" s="6"/>
-      <c r="E391" s="57"/>
-      <c r="F391" s="57"/>
-      <c r="G391" s="57"/>
+      <c r="E391" s="58"/>
+      <c r="F391" s="58"/>
+      <c r="G391" s="58"/>
       <c r="H391" s="6"/>
       <c r="I391" s="6"/>
       <c r="J391" s="6"/>
-      <c r="K391" s="71"/>
+      <c r="K391" s="72"/>
     </row>
     <row r="392" spans="1:11">
       <c r="A392" s="6"/>
       <c r="B392" s="6"/>
       <c r="D392" s="6"/>
-      <c r="E392" s="57"/>
-      <c r="F392" s="57"/>
-      <c r="G392" s="57"/>
+      <c r="E392" s="58"/>
+      <c r="F392" s="58"/>
+      <c r="G392" s="58"/>
       <c r="H392" s="6"/>
       <c r="I392" s="6"/>
       <c r="J392" s="6"/>
-      <c r="K392" s="71"/>
+      <c r="K392" s="72"/>
     </row>
     <row r="393" spans="1:11">
       <c r="A393" s="6"/>
       <c r="B393" s="6"/>
       <c r="D393" s="6"/>
-      <c r="E393" s="57"/>
-      <c r="F393" s="57"/>
-      <c r="G393" s="57"/>
+      <c r="E393" s="58"/>
+      <c r="F393" s="58"/>
+      <c r="G393" s="58"/>
       <c r="H393" s="6"/>
       <c r="I393" s="6"/>
       <c r="J393" s="6"/>
-      <c r="K393" s="71"/>
+      <c r="K393" s="72"/>
     </row>
     <row r="394" spans="1:11">
       <c r="A394" s="6"/>
       <c r="B394" s="6"/>
       <c r="D394" s="6"/>
-      <c r="E394" s="57"/>
-      <c r="F394" s="57"/>
-      <c r="G394" s="57"/>
+      <c r="E394" s="58"/>
+      <c r="F394" s="58"/>
+      <c r="G394" s="58"/>
       <c r="H394" s="6"/>
       <c r="I394" s="6"/>
       <c r="J394" s="6"/>
-      <c r="K394" s="71"/>
+      <c r="K394" s="72"/>
     </row>
     <row r="395" spans="1:11">
       <c r="A395" s="6"/>
       <c r="B395" s="6"/>
       <c r="D395" s="6"/>
-      <c r="E395" s="57"/>
-      <c r="F395" s="57"/>
-      <c r="G395" s="57"/>
+      <c r="E395" s="58"/>
+      <c r="F395" s="58"/>
+      <c r="G395" s="58"/>
       <c r="H395" s="6"/>
       <c r="I395" s="6"/>
       <c r="J395" s="6"/>
-      <c r="K395" s="71"/>
+      <c r="K395" s="72"/>
     </row>
     <row r="396" spans="1:11">
       <c r="A396" s="6"/>
       <c r="B396" s="6"/>
       <c r="D396" s="6"/>
-      <c r="E396" s="57"/>
-      <c r="F396" s="57"/>
-      <c r="G396" s="57"/>
+      <c r="E396" s="58"/>
+      <c r="F396" s="58"/>
+      <c r="G396" s="58"/>
       <c r="H396" s="6"/>
       <c r="I396" s="6"/>
       <c r="J396" s="6"/>
-      <c r="K396" s="71"/>
+      <c r="K396" s="72"/>
     </row>
     <row r="397" spans="1:11">
       <c r="A397" s="6"/>
       <c r="B397" s="6"/>
       <c r="D397" s="6"/>
-      <c r="E397" s="57"/>
-      <c r="F397" s="57"/>
-      <c r="G397" s="57"/>
+      <c r="E397" s="58"/>
+      <c r="F397" s="58"/>
+      <c r="G397" s="58"/>
       <c r="H397" s="6"/>
       <c r="I397" s="6"/>
       <c r="J397" s="6"/>
-      <c r="K397" s="71"/>
+      <c r="K397" s="72"/>
     </row>
     <row r="398" spans="1:11">
       <c r="A398" s="6"/>
       <c r="B398" s="6"/>
       <c r="D398" s="6"/>
-      <c r="E398" s="57"/>
-      <c r="F398" s="57"/>
-      <c r="G398" s="57"/>
+      <c r="E398" s="58"/>
+      <c r="F398" s="58"/>
+      <c r="G398" s="58"/>
       <c r="H398" s="6"/>
       <c r="I398" s="6"/>
       <c r="J398" s="6"/>
-      <c r="K398" s="71"/>
+      <c r="K398" s="72"/>
     </row>
     <row r="399" spans="1:11">
       <c r="A399" s="6"/>
       <c r="B399" s="6"/>
       <c r="D399" s="6"/>
-      <c r="E399" s="57"/>
-      <c r="F399" s="57"/>
-      <c r="G399" s="57"/>
+      <c r="E399" s="58"/>
+      <c r="F399" s="58"/>
+      <c r="G399" s="58"/>
       <c r="H399" s="6"/>
       <c r="I399" s="6"/>
       <c r="J399" s="6"/>
-      <c r="K399" s="71"/>
+      <c r="K399" s="72"/>
     </row>
     <row r="400" spans="1:11">
       <c r="A400" s="6"/>
       <c r="B400" s="6"/>
       <c r="D400" s="6"/>
-      <c r="E400" s="57"/>
-      <c r="F400" s="57"/>
-      <c r="G400" s="57"/>
+      <c r="E400" s="58"/>
+      <c r="F400" s="58"/>
+      <c r="G400" s="58"/>
       <c r="H400" s="6"/>
       <c r="I400" s="6"/>
       <c r="J400" s="6"/>
-      <c r="K400" s="71"/>
+      <c r="K400" s="72"/>
     </row>
     <row r="401" spans="1:11">
       <c r="A401" s="6"/>
       <c r="B401" s="6"/>
       <c r="D401" s="6"/>
-      <c r="E401" s="57"/>
-      <c r="F401" s="57"/>
-      <c r="G401" s="57"/>
+      <c r="E401" s="58"/>
+      <c r="F401" s="58"/>
+      <c r="G401" s="58"/>
       <c r="H401" s="6"/>
       <c r="I401" s="6"/>
       <c r="J401" s="6"/>
-      <c r="K401" s="71"/>
+      <c r="K401" s="72"/>
     </row>
     <row r="402" spans="1:11">
       <c r="A402" s="6"/>
       <c r="B402" s="6"/>
       <c r="D402" s="6"/>
-      <c r="E402" s="57"/>
-      <c r="F402" s="57"/>
-      <c r="G402" s="57"/>
+      <c r="E402" s="58"/>
+      <c r="F402" s="58"/>
+      <c r="G402" s="58"/>
       <c r="H402" s="6"/>
       <c r="I402" s="6"/>
       <c r="J402" s="6"/>
-      <c r="K402" s="71"/>
+      <c r="K402" s="72"/>
     </row>
     <row r="403" spans="1:11">
       <c r="A403" s="6"/>
       <c r="B403" s="6"/>
       <c r="D403" s="6"/>
-      <c r="E403" s="57"/>
-      <c r="F403" s="57"/>
-      <c r="G403" s="57"/>
+      <c r="E403" s="58"/>
+      <c r="F403" s="58"/>
+      <c r="G403" s="58"/>
       <c r="H403" s="6"/>
       <c r="I403" s="6"/>
       <c r="J403" s="6"/>
-      <c r="K403" s="71"/>
+      <c r="K403" s="72"/>
     </row>
     <row r="404" spans="1:11">
       <c r="A404" s="6"/>
       <c r="B404" s="6"/>
       <c r="D404" s="6"/>
-      <c r="E404" s="57"/>
-      <c r="F404" s="57"/>
-      <c r="G404" s="57"/>
+      <c r="E404" s="58"/>
+      <c r="F404" s="58"/>
+      <c r="G404" s="58"/>
       <c r="H404" s="6"/>
       <c r="I404" s="6"/>
       <c r="J404" s="6"/>
-      <c r="K404" s="71"/>
+      <c r="K404" s="72"/>
     </row>
     <row r="405" spans="1:11">
       <c r="A405" s="6"/>
       <c r="B405" s="6"/>
       <c r="D405" s="6"/>
-      <c r="E405" s="57"/>
-      <c r="F405" s="57"/>
-      <c r="G405" s="57"/>
+      <c r="E405" s="58"/>
+      <c r="F405" s="58"/>
+      <c r="G405" s="58"/>
       <c r="H405" s="6"/>
       <c r="I405" s="6"/>
       <c r="J405" s="6"/>
-      <c r="K405" s="71"/>
+      <c r="K405" s="72"/>
     </row>
     <row r="406" spans="1:11">
       <c r="A406" s="6"/>
       <c r="B406" s="6"/>
       <c r="D406" s="6"/>
-      <c r="E406" s="57"/>
-      <c r="F406" s="57"/>
-      <c r="G406" s="57"/>
+      <c r="E406" s="58"/>
+      <c r="F406" s="58"/>
+      <c r="G406" s="58"/>
       <c r="H406" s="6"/>
       <c r="I406" s="6"/>
       <c r="J406" s="6"/>
-      <c r="K406" s="71"/>
+      <c r="K406" s="72"/>
     </row>
     <row r="407" spans="1:11">
       <c r="A407" s="6"/>
       <c r="B407" s="6"/>
       <c r="D407" s="6"/>
-      <c r="E407" s="57"/>
-      <c r="F407" s="57"/>
-      <c r="G407" s="57"/>
+      <c r="E407" s="58"/>
+      <c r="F407" s="58"/>
+      <c r="G407" s="58"/>
       <c r="H407" s="6"/>
       <c r="I407" s="6"/>
       <c r="J407" s="6"/>
-      <c r="K407" s="71"/>
+      <c r="K407" s="72"/>
     </row>
     <row r="408" spans="1:11">
       <c r="A408" s="6"/>
       <c r="B408" s="6"/>
       <c r="D408" s="6"/>
-      <c r="E408" s="57"/>
-      <c r="F408" s="57"/>
-      <c r="G408" s="57"/>
+      <c r="E408" s="58"/>
+      <c r="F408" s="58"/>
+      <c r="G408" s="58"/>
       <c r="H408" s="6"/>
       <c r="I408" s="6"/>
       <c r="J408" s="6"/>
-      <c r="K408" s="71"/>
+      <c r="K408" s="72"/>
     </row>
     <row r="409" spans="1:11">
       <c r="A409" s="6"/>
       <c r="B409" s="6"/>
       <c r="D409" s="6"/>
-      <c r="E409" s="57"/>
-      <c r="F409" s="57"/>
-      <c r="G409" s="57"/>
+      <c r="E409" s="58"/>
+      <c r="F409" s="58"/>
+      <c r="G409" s="58"/>
       <c r="H409" s="6"/>
       <c r="I409" s="6"/>
       <c r="J409" s="6"/>
-      <c r="K409" s="71"/>
+      <c r="K409" s="72"/>
     </row>
     <row r="410" spans="1:11">
       <c r="A410" s="6"/>
       <c r="B410" s="6"/>
       <c r="D410" s="6"/>
-      <c r="E410" s="57"/>
-      <c r="F410" s="57"/>
-      <c r="G410" s="57"/>
+      <c r="E410" s="58"/>
+      <c r="F410" s="58"/>
+      <c r="G410" s="58"/>
       <c r="H410" s="6"/>
       <c r="I410" s="6"/>
       <c r="J410" s="6"/>
-      <c r="K410" s="71"/>
+      <c r="K410" s="72"/>
     </row>
     <row r="411" spans="1:11">
       <c r="A411" s="6"/>
       <c r="B411" s="6"/>
       <c r="D411" s="6"/>
-      <c r="E411" s="57"/>
-      <c r="F411" s="57"/>
-      <c r="G411" s="57"/>
+      <c r="E411" s="58"/>
+      <c r="F411" s="58"/>
+      <c r="G411" s="58"/>
       <c r="H411" s="6"/>
       <c r="I411" s="6"/>
       <c r="J411" s="6"/>
-      <c r="K411" s="71"/>
+      <c r="K411" s="72"/>
     </row>
     <row r="412" spans="1:11">
       <c r="A412" s="6"/>
       <c r="B412" s="6"/>
       <c r="D412" s="6"/>
-      <c r="E412" s="57"/>
-      <c r="F412" s="57"/>
-      <c r="G412" s="57"/>
+      <c r="E412" s="58"/>
+      <c r="F412" s="58"/>
+      <c r="G412" s="58"/>
       <c r="H412" s="6"/>
       <c r="I412" s="6"/>
       <c r="J412" s="6"/>
-      <c r="K412" s="71"/>
+      <c r="K412" s="72"/>
     </row>
     <row r="413" spans="1:11">
       <c r="A413" s="6"/>
       <c r="B413" s="6"/>
       <c r="D413" s="6"/>
-      <c r="E413" s="57"/>
-      <c r="F413" s="57"/>
-      <c r="G413" s="57"/>
+      <c r="E413" s="58"/>
+      <c r="F413" s="58"/>
+      <c r="G413" s="58"/>
       <c r="H413" s="6"/>
       <c r="I413" s="6"/>
       <c r="J413" s="6"/>
-      <c r="K413" s="71"/>
+      <c r="K413" s="72"/>
     </row>
     <row r="414" spans="1:11">
       <c r="A414" s="6"/>
       <c r="B414" s="6"/>
       <c r="D414" s="6"/>
-      <c r="E414" s="57"/>
-      <c r="F414" s="57"/>
-      <c r="G414" s="57"/>
+      <c r="E414" s="58"/>
+      <c r="F414" s="58"/>
+      <c r="G414" s="58"/>
       <c r="H414" s="6"/>
       <c r="I414" s="6"/>
       <c r="J414" s="6"/>
-      <c r="K414" s="71"/>
+      <c r="K414" s="72"/>
     </row>
     <row r="415" spans="1:11">
       <c r="A415" s="6"/>
       <c r="B415" s="6"/>
       <c r="D415" s="6"/>
-      <c r="E415" s="57"/>
-      <c r="F415" s="57"/>
-      <c r="G415" s="57"/>
+      <c r="E415" s="58"/>
+      <c r="F415" s="58"/>
+      <c r="G415" s="58"/>
       <c r="H415" s="6"/>
       <c r="I415" s="6"/>
       <c r="J415" s="6"/>
-      <c r="K415" s="71"/>
+      <c r="K415" s="72"/>
     </row>
     <row r="416" spans="1:11">
       <c r="A416" s="6"/>
       <c r="B416" s="6"/>
       <c r="D416" s="6"/>
-      <c r="E416" s="57"/>
-      <c r="F416" s="57"/>
-      <c r="G416" s="57"/>
+      <c r="E416" s="58"/>
+      <c r="F416" s="58"/>
+      <c r="G416" s="58"/>
       <c r="H416" s="6"/>
       <c r="I416" s="6"/>
       <c r="J416" s="6"/>
-      <c r="K416" s="71"/>
+      <c r="K416" s="72"/>
     </row>
     <row r="417" spans="1:11">
       <c r="A417" s="6"/>
       <c r="B417" s="6"/>
       <c r="D417" s="6"/>
-      <c r="E417" s="57"/>
-      <c r="F417" s="57"/>
-      <c r="G417" s="57"/>
+      <c r="E417" s="58"/>
+      <c r="F417" s="58"/>
+      <c r="G417" s="58"/>
       <c r="H417" s="6"/>
       <c r="I417" s="6"/>
       <c r="J417" s="6"/>
-      <c r="K417" s="71"/>
+      <c r="K417" s="72"/>
     </row>
     <row r="418" spans="1:11">
       <c r="A418" s="6"/>
       <c r="B418" s="6"/>
       <c r="D418" s="6"/>
-      <c r="E418" s="57"/>
-      <c r="F418" s="57"/>
-      <c r="G418" s="57"/>
+      <c r="E418" s="58"/>
+      <c r="F418" s="58"/>
+      <c r="G418" s="58"/>
       <c r="H418" s="6"/>
       <c r="I418" s="6"/>
       <c r="J418" s="6"/>
-      <c r="K418" s="71"/>
+      <c r="K418" s="72"/>
     </row>
     <row r="419" spans="1:11">
       <c r="A419" s="6"/>
       <c r="B419" s="6"/>
       <c r="D419" s="6"/>
-      <c r="E419" s="57"/>
-      <c r="F419" s="57"/>
-      <c r="G419" s="57"/>
+      <c r="E419" s="58"/>
+      <c r="F419" s="58"/>
+      <c r="G419" s="58"/>
       <c r="H419" s="6"/>
       <c r="I419" s="6"/>
       <c r="J419" s="6"/>
-      <c r="K419" s="71"/>
+      <c r="K419" s="72"/>
     </row>
     <row r="420" spans="1:11">
       <c r="A420" s="6"/>
       <c r="B420" s="6"/>
       <c r="D420" s="6"/>
-      <c r="E420" s="57"/>
-      <c r="F420" s="57"/>
-      <c r="G420" s="57"/>
+      <c r="E420" s="58"/>
+      <c r="F420" s="58"/>
+      <c r="G420" s="58"/>
       <c r="H420" s="6"/>
       <c r="I420" s="6"/>
       <c r="J420" s="6"/>
-      <c r="K420" s="71"/>
+      <c r="K420" s="72"/>
     </row>
     <row r="421" spans="1:11">
       <c r="A421" s="6"/>
       <c r="B421" s="6"/>
       <c r="D421" s="6"/>
-      <c r="E421" s="57"/>
-      <c r="F421" s="57"/>
-      <c r="G421" s="57"/>
+      <c r="E421" s="58"/>
+      <c r="F421" s="58"/>
+      <c r="G421" s="58"/>
       <c r="H421" s="6"/>
       <c r="I421" s="6"/>
       <c r="J421" s="6"/>
-      <c r="K421" s="71"/>
+      <c r="K421" s="72"/>
     </row>
     <row r="422" spans="1:11">
       <c r="A422" s="6"/>
       <c r="B422" s="6"/>
       <c r="D422" s="6"/>
-      <c r="E422" s="57"/>
-      <c r="F422" s="57"/>
-      <c r="G422" s="57"/>
+      <c r="E422" s="58"/>
+      <c r="F422" s="58"/>
+      <c r="G422" s="58"/>
       <c r="H422" s="6"/>
       <c r="I422" s="6"/>
       <c r="J422" s="6"/>
-      <c r="K422" s="71"/>
+      <c r="K422" s="72"/>
     </row>
     <row r="423" spans="1:11">
       <c r="A423" s="6"/>
       <c r="B423" s="6"/>
       <c r="D423" s="6"/>
-      <c r="E423" s="57"/>
-      <c r="F423" s="57"/>
-      <c r="G423" s="57"/>
+      <c r="E423" s="58"/>
+      <c r="F423" s="58"/>
+      <c r="G423" s="58"/>
       <c r="H423" s="6"/>
       <c r="I423" s="6"/>
       <c r="J423" s="6"/>
-      <c r="K423" s="71"/>
+      <c r="K423" s="72"/>
     </row>
     <row r="424" spans="1:11">
       <c r="A424" s="6"/>
       <c r="B424" s="6"/>
       <c r="D424" s="6"/>
-      <c r="E424" s="57"/>
-      <c r="F424" s="57"/>
-      <c r="G424" s="57"/>
+      <c r="E424" s="58"/>
+      <c r="F424" s="58"/>
+      <c r="G424" s="58"/>
       <c r="H424" s="6"/>
       <c r="I424" s="6"/>
       <c r="J424" s="6"/>
-      <c r="K424" s="71"/>
+      <c r="K424" s="72"/>
     </row>
     <row r="425" spans="1:11">
       <c r="A425" s="6"/>
       <c r="B425" s="6"/>
       <c r="D425" s="6"/>
-      <c r="E425" s="57"/>
-      <c r="F425" s="57"/>
-      <c r="G425" s="57"/>
+      <c r="E425" s="58"/>
+      <c r="F425" s="58"/>
+      <c r="G425" s="58"/>
       <c r="H425" s="6"/>
       <c r="I425" s="6"/>
       <c r="J425" s="6"/>
-      <c r="K425" s="71"/>
+      <c r="K425" s="72"/>
     </row>
     <row r="426" spans="1:11">
       <c r="A426" s="6"/>
       <c r="B426" s="6"/>
       <c r="D426" s="6"/>
-      <c r="E426" s="57"/>
-      <c r="F426" s="57"/>
-      <c r="G426" s="57"/>
+      <c r="E426" s="58"/>
+      <c r="F426" s="58"/>
+      <c r="G426" s="58"/>
       <c r="H426" s="6"/>
       <c r="I426" s="6"/>
       <c r="J426" s="6"/>
-      <c r="K426" s="71"/>
+      <c r="K426" s="72"/>
     </row>
     <row r="427" spans="1:11">
       <c r="A427" s="6"/>
       <c r="B427" s="6"/>
       <c r="D427" s="6"/>
-      <c r="E427" s="57"/>
-      <c r="F427" s="57"/>
-      <c r="G427" s="57"/>
+      <c r="E427" s="58"/>
+      <c r="F427" s="58"/>
+      <c r="G427" s="58"/>
       <c r="H427" s="6"/>
       <c r="I427" s="6"/>
       <c r="J427" s="6"/>
-      <c r="K427" s="71"/>
+      <c r="K427" s="72"/>
     </row>
     <row r="428" spans="1:11">
       <c r="A428" s="6"/>
       <c r="B428" s="6"/>
       <c r="D428" s="6"/>
-      <c r="E428" s="57"/>
-      <c r="F428" s="57"/>
-      <c r="G428" s="57"/>
+      <c r="E428" s="58"/>
+      <c r="F428" s="58"/>
+      <c r="G428" s="58"/>
       <c r="H428" s="6"/>
       <c r="I428" s="6"/>
       <c r="J428" s="6"/>
-      <c r="K428" s="71"/>
+      <c r="K428" s="72"/>
     </row>
     <row r="429" spans="1:11">
       <c r="A429" s="6"/>
       <c r="B429" s="6"/>
       <c r="D429" s="6"/>
-      <c r="E429" s="57"/>
-      <c r="F429" s="57"/>
-      <c r="G429" s="57"/>
+      <c r="E429" s="58"/>
+      <c r="F429" s="58"/>
+      <c r="G429" s="58"/>
       <c r="H429" s="6"/>
       <c r="I429" s="6"/>
       <c r="J429" s="6"/>
-      <c r="K429" s="71"/>
+      <c r="K429" s="72"/>
     </row>
     <row r="430" spans="1:11">
       <c r="A430" s="6"/>
       <c r="B430" s="6"/>
       <c r="D430" s="6"/>
-      <c r="E430" s="57"/>
-      <c r="F430" s="57"/>
-      <c r="G430" s="57"/>
+      <c r="E430" s="58"/>
+      <c r="F430" s="58"/>
+      <c r="G430" s="58"/>
       <c r="H430" s="6"/>
       <c r="I430" s="6"/>
       <c r="J430" s="6"/>
-      <c r="K430" s="71"/>
+      <c r="K430" s="72"/>
     </row>
     <row r="431" spans="1:11">
       <c r="A431" s="6"/>
       <c r="B431" s="6"/>
       <c r="D431" s="6"/>
-      <c r="E431" s="57"/>
-      <c r="F431" s="57"/>
-      <c r="G431" s="57"/>
+      <c r="E431" s="58"/>
+      <c r="F431" s="58"/>
+      <c r="G431" s="58"/>
       <c r="H431" s="6"/>
       <c r="I431" s="6"/>
       <c r="J431" s="6"/>
-      <c r="K431" s="71"/>
+      <c r="K431" s="72"/>
     </row>
     <row r="432" spans="1:11">
       <c r="A432" s="6"/>
       <c r="B432" s="6"/>
       <c r="D432" s="6"/>
-      <c r="E432" s="57"/>
-      <c r="F432" s="57"/>
-      <c r="G432" s="57"/>
+      <c r="E432" s="58"/>
+      <c r="F432" s="58"/>
+      <c r="G432" s="58"/>
       <c r="H432" s="6"/>
       <c r="I432" s="6"/>
       <c r="J432" s="6"/>
-      <c r="K432" s="71"/>
+      <c r="K432" s="72"/>
     </row>
     <row r="433" spans="1:11">
       <c r="A433" s="6"/>
       <c r="B433" s="6"/>
       <c r="D433" s="6"/>
-      <c r="E433" s="57"/>
-      <c r="F433" s="57"/>
-      <c r="G433" s="57"/>
+      <c r="E433" s="58"/>
+      <c r="F433" s="58"/>
+      <c r="G433" s="58"/>
       <c r="H433" s="6"/>
       <c r="I433" s="6"/>
       <c r="J433" s="6"/>
-      <c r="K433" s="71"/>
+      <c r="K433" s="72"/>
     </row>
     <row r="434" spans="1:11">
       <c r="A434" s="6"/>
       <c r="B434" s="6"/>
       <c r="D434" s="6"/>
-      <c r="E434" s="57"/>
-      <c r="F434" s="57"/>
-      <c r="G434" s="57"/>
+      <c r="E434" s="58"/>
+      <c r="F434" s="58"/>
+      <c r="G434" s="58"/>
       <c r="H434" s="6"/>
       <c r="I434" s="6"/>
       <c r="J434" s="6"/>
-      <c r="K434" s="71"/>
+      <c r="K434" s="72"/>
     </row>
     <row r="435" spans="1:11">
       <c r="A435" s="6"/>
       <c r="B435" s="6"/>
       <c r="D435" s="6"/>
-      <c r="E435" s="57"/>
-      <c r="F435" s="57"/>
-      <c r="G435" s="57"/>
+      <c r="E435" s="58"/>
+      <c r="F435" s="58"/>
+      <c r="G435" s="58"/>
       <c r="H435" s="6"/>
       <c r="I435" s="6"/>
       <c r="J435" s="6"/>
-      <c r="K435" s="71"/>
+      <c r="K435" s="72"/>
     </row>
     <row r="436" spans="1:11">
       <c r="A436" s="6"/>
       <c r="B436" s="6"/>
       <c r="D436" s="6"/>
-      <c r="E436" s="57"/>
-      <c r="F436" s="57"/>
-      <c r="G436" s="57"/>
+      <c r="E436" s="58"/>
+      <c r="F436" s="58"/>
+      <c r="G436" s="58"/>
       <c r="H436" s="6"/>
       <c r="I436" s="6"/>
       <c r="J436" s="6"/>
-      <c r="K436" s="71"/>
+      <c r="K436" s="72"/>
     </row>
     <row r="437" spans="1:11">
       <c r="A437" s="6"/>
       <c r="B437" s="6"/>
       <c r="D437" s="6"/>
-      <c r="E437" s="57"/>
-      <c r="F437" s="57"/>
-      <c r="G437" s="57"/>
+      <c r="E437" s="58"/>
+      <c r="F437" s="58"/>
+      <c r="G437" s="58"/>
       <c r="H437" s="6"/>
       <c r="I437" s="6"/>
       <c r="J437" s="6"/>
-      <c r="K437" s="71"/>
+      <c r="K437" s="72"/>
     </row>
     <row r="438" spans="1:11">
       <c r="A438" s="6"/>
       <c r="B438" s="6"/>
       <c r="D438" s="6"/>
-      <c r="E438" s="57"/>
-      <c r="F438" s="57"/>
-      <c r="G438" s="57"/>
+      <c r="E438" s="58"/>
+      <c r="F438" s="58"/>
+      <c r="G438" s="58"/>
       <c r="H438" s="6"/>
       <c r="I438" s="6"/>
       <c r="J438" s="6"/>
-      <c r="K438" s="71"/>
+      <c r="K438" s="72"/>
     </row>
     <row r="439" spans="1:11">
       <c r="A439" s="6"/>
       <c r="B439" s="6"/>
       <c r="D439" s="6"/>
-      <c r="E439" s="57"/>
-      <c r="F439" s="57"/>
-      <c r="G439" s="57"/>
+      <c r="E439" s="58"/>
+      <c r="F439" s="58"/>
+      <c r="G439" s="58"/>
       <c r="H439" s="6"/>
       <c r="I439" s="6"/>
       <c r="J439" s="6"/>
-      <c r="K439" s="71"/>
+      <c r="K439" s="72"/>
     </row>
     <row r="440" spans="1:11">
       <c r="A440" s="6"/>
       <c r="B440" s="6"/>
       <c r="D440" s="6"/>
-      <c r="E440" s="57"/>
-      <c r="F440" s="57"/>
-      <c r="G440" s="57"/>
+      <c r="E440" s="58"/>
+      <c r="F440" s="58"/>
+      <c r="G440" s="58"/>
       <c r="H440" s="6"/>
       <c r="I440" s="6"/>
       <c r="J440" s="6"/>
-      <c r="K440" s="71"/>
+      <c r="K440" s="72"/>
     </row>
     <row r="441" spans="1:11">
       <c r="A441" s="6"/>
       <c r="B441" s="6"/>
       <c r="D441" s="6"/>
-      <c r="E441" s="57"/>
-      <c r="F441" s="57"/>
-      <c r="G441" s="57"/>
+      <c r="E441" s="58"/>
+      <c r="F441" s="58"/>
+      <c r="G441" s="58"/>
       <c r="H441" s="6"/>
       <c r="I441" s="6"/>
       <c r="J441" s="6"/>
-      <c r="K441" s="71"/>
+      <c r="K441" s="72"/>
     </row>
     <row r="442" spans="1:11">
       <c r="A442" s="6"/>
       <c r="B442" s="6"/>
       <c r="D442" s="6"/>
-      <c r="E442" s="57"/>
-      <c r="F442" s="57"/>
-      <c r="G442" s="57"/>
+      <c r="E442" s="58"/>
+      <c r="F442" s="58"/>
+      <c r="G442" s="58"/>
       <c r="H442" s="6"/>
       <c r="I442" s="6"/>
       <c r="J442" s="6"/>
-      <c r="K442" s="71"/>
+      <c r="K442" s="72"/>
     </row>
     <row r="443" spans="1:11">
       <c r="A443" s="6"/>
       <c r="B443" s="6"/>
       <c r="D443" s="6"/>
-      <c r="E443" s="57"/>
-      <c r="F443" s="57"/>
-      <c r="G443" s="57"/>
+      <c r="E443" s="58"/>
+      <c r="F443" s="58"/>
+      <c r="G443" s="58"/>
       <c r="H443" s="6"/>
       <c r="I443" s="6"/>
       <c r="J443" s="6"/>
-      <c r="K443" s="71"/>
+      <c r="K443" s="72"/>
     </row>
     <row r="444" spans="1:11">
       <c r="A444" s="6"/>
       <c r="B444" s="6"/>
       <c r="D444" s="6"/>
-      <c r="E444" s="57"/>
-      <c r="F444" s="57"/>
-      <c r="G444" s="57"/>
+      <c r="E444" s="58"/>
+      <c r="F444" s="58"/>
+      <c r="G444" s="58"/>
       <c r="H444" s="6"/>
       <c r="I444" s="6"/>
       <c r="J444" s="6"/>
-      <c r="K444" s="71"/>
+      <c r="K444" s="72"/>
     </row>
     <row r="445" spans="1:11">
       <c r="A445" s="6"/>
       <c r="B445" s="6"/>
       <c r="D445" s="6"/>
-      <c r="E445" s="57"/>
-      <c r="F445" s="57"/>
-      <c r="G445" s="57"/>
+      <c r="E445" s="58"/>
+      <c r="F445" s="58"/>
+      <c r="G445" s="58"/>
       <c r="H445" s="6"/>
       <c r="I445" s="6"/>
       <c r="J445" s="6"/>
-      <c r="K445" s="71"/>
+      <c r="K445" s="72"/>
     </row>
     <row r="446" spans="1:11">
       <c r="A446" s="6"/>
       <c r="B446" s="6"/>
       <c r="D446" s="6"/>
-      <c r="E446" s="57"/>
-      <c r="F446" s="57"/>
-      <c r="G446" s="57"/>
+      <c r="E446" s="58"/>
+      <c r="F446" s="58"/>
+      <c r="G446" s="58"/>
       <c r="H446" s="6"/>
       <c r="I446" s="6"/>
       <c r="J446" s="6"/>
-      <c r="K446" s="71"/>
+      <c r="K446" s="72"/>
     </row>
     <row r="447" spans="1:11">
       <c r="A447" s="6"/>
       <c r="B447" s="6"/>
       <c r="D447" s="6"/>
-      <c r="E447" s="57"/>
-      <c r="F447" s="57"/>
-      <c r="G447" s="57"/>
+      <c r="E447" s="58"/>
+      <c r="F447" s="58"/>
+      <c r="G447" s="58"/>
       <c r="H447" s="6"/>
       <c r="I447" s="6"/>
       <c r="J447" s="6"/>
-      <c r="K447" s="71"/>
+      <c r="K447" s="72"/>
     </row>
     <row r="448" spans="1:11">
       <c r="A448" s="6"/>
       <c r="B448" s="6"/>
       <c r="D448" s="6"/>
-      <c r="E448" s="57"/>
-      <c r="F448" s="57"/>
-      <c r="G448" s="57"/>
+      <c r="E448" s="58"/>
+      <c r="F448" s="58"/>
+      <c r="G448" s="58"/>
       <c r="H448" s="6"/>
       <c r="I448" s="6"/>
       <c r="J448" s="6"/>
-      <c r="K448" s="71"/>
+      <c r="K448" s="72"/>
     </row>
     <row r="449" spans="1:11">
       <c r="A449" s="6"/>
       <c r="B449" s="6"/>
       <c r="D449" s="6"/>
-      <c r="E449" s="57"/>
-      <c r="F449" s="57"/>
-      <c r="G449" s="57"/>
+      <c r="E449" s="58"/>
+      <c r="F449" s="58"/>
+      <c r="G449" s="58"/>
       <c r="H449" s="6"/>
       <c r="I449" s="6"/>
       <c r="J449" s="6"/>
-      <c r="K449" s="71"/>
+      <c r="K449" s="72"/>
     </row>
     <row r="450" spans="1:11">
       <c r="A450" s="6"/>
       <c r="B450" s="6"/>
       <c r="D450" s="6"/>
-      <c r="E450" s="57"/>
-      <c r="F450" s="57"/>
-      <c r="G450" s="57"/>
+      <c r="E450" s="58"/>
+      <c r="F450" s="58"/>
+      <c r="G450" s="58"/>
       <c r="H450" s="6"/>
       <c r="I450" s="6"/>
       <c r="J450" s="6"/>
-      <c r="K450" s="71"/>
+      <c r="K450" s="72"/>
     </row>
     <row r="451" spans="1:11">
       <c r="A451" s="6"/>
       <c r="B451" s="6"/>
       <c r="D451" s="6"/>
-      <c r="E451" s="57"/>
-      <c r="F451" s="57"/>
-      <c r="G451" s="57"/>
+      <c r="E451" s="58"/>
+      <c r="F451" s="58"/>
+      <c r="G451" s="58"/>
       <c r="H451" s="6"/>
       <c r="I451" s="6"/>
       <c r="J451" s="6"/>
-      <c r="K451" s="71"/>
+      <c r="K451" s="72"/>
     </row>
     <row r="452" spans="1:11">
       <c r="A452" s="6"/>
       <c r="B452" s="6"/>
       <c r="D452" s="6"/>
-      <c r="E452" s="57"/>
-      <c r="F452" s="57"/>
-      <c r="G452" s="57"/>
+      <c r="E452" s="58"/>
+      <c r="F452" s="58"/>
+      <c r="G452" s="58"/>
       <c r="H452" s="6"/>
       <c r="I452" s="6"/>
       <c r="J452" s="6"/>
-      <c r="K452" s="71"/>
+      <c r="K452" s="72"/>
     </row>
     <row r="453" spans="1:11">
       <c r="A453" s="6"/>
       <c r="B453" s="6"/>
       <c r="D453" s="6"/>
-      <c r="E453" s="57"/>
-      <c r="F453" s="57"/>
-      <c r="G453" s="57"/>
+      <c r="E453" s="58"/>
+      <c r="F453" s="58"/>
+      <c r="G453" s="58"/>
       <c r="H453" s="6"/>
       <c r="I453" s="6"/>
       <c r="J453" s="6"/>
-      <c r="K453" s="71"/>
+      <c r="K453" s="72"/>
     </row>
     <row r="454" spans="1:11">
       <c r="A454" s="6"/>
       <c r="B454" s="6"/>
       <c r="D454" s="6"/>
-      <c r="E454" s="57"/>
-      <c r="F454" s="57"/>
-      <c r="G454" s="57"/>
+      <c r="E454" s="58"/>
+      <c r="F454" s="58"/>
+      <c r="G454" s="58"/>
       <c r="H454" s="6"/>
       <c r="I454" s="6"/>
       <c r="J454" s="6"/>
-      <c r="K454" s="71"/>
+      <c r="K454" s="72"/>
     </row>
     <row r="455" spans="1:11">
       <c r="A455" s="6"/>
       <c r="B455" s="6"/>
       <c r="D455" s="6"/>
-      <c r="E455" s="57"/>
-      <c r="F455" s="57"/>
-      <c r="G455" s="57"/>
+      <c r="E455" s="58"/>
+      <c r="F455" s="58"/>
+      <c r="G455" s="58"/>
       <c r="H455" s="6"/>
       <c r="I455" s="6"/>
       <c r="J455" s="6"/>
-      <c r="K455" s="71"/>
+      <c r="K455" s="72"/>
     </row>
     <row r="456" spans="1:11">
       <c r="A456" s="6"/>
       <c r="B456" s="6"/>
       <c r="D456" s="6"/>
-      <c r="E456" s="57"/>
-      <c r="F456" s="57"/>
-      <c r="G456" s="57"/>
+      <c r="E456" s="58"/>
+      <c r="F456" s="58"/>
+      <c r="G456" s="58"/>
       <c r="H456" s="6"/>
       <c r="I456" s="6"/>
       <c r="J456" s="6"/>
-      <c r="K456" s="71"/>
+      <c r="K456" s="72"/>
     </row>
     <row r="457" spans="1:11">
       <c r="A457" s="6"/>
       <c r="B457" s="6"/>
       <c r="D457" s="6"/>
-      <c r="E457" s="57"/>
-      <c r="F457" s="57"/>
-      <c r="G457" s="57"/>
+      <c r="E457" s="58"/>
+      <c r="F457" s="58"/>
+      <c r="G457" s="58"/>
       <c r="H457" s="6"/>
       <c r="I457" s="6"/>
       <c r="J457" s="6"/>
-      <c r="K457" s="71"/>
+      <c r="K457" s="72"/>
     </row>
     <row r="458" spans="1:11">
       <c r="A458" s="6"/>
       <c r="B458" s="6"/>
       <c r="D458" s="6"/>
-      <c r="E458" s="57"/>
-      <c r="F458" s="57"/>
-      <c r="G458" s="57"/>
+      <c r="E458" s="58"/>
+      <c r="F458" s="58"/>
+      <c r="G458" s="58"/>
       <c r="H458" s="6"/>
       <c r="I458" s="6"/>
       <c r="J458" s="6"/>
-      <c r="K458" s="71"/>
+      <c r="K458" s="72"/>
     </row>
     <row r="459" spans="1:11">
       <c r="A459" s="6"/>
       <c r="B459" s="6"/>
       <c r="D459" s="6"/>
-      <c r="E459" s="57"/>
-      <c r="F459" s="57"/>
-      <c r="G459" s="57"/>
+      <c r="E459" s="58"/>
+      <c r="F459" s="58"/>
+      <c r="G459" s="58"/>
       <c r="H459" s="6"/>
       <c r="I459" s="6"/>
       <c r="J459" s="6"/>
-      <c r="K459" s="71"/>
+      <c r="K459" s="72"/>
     </row>
     <row r="460" spans="1:11">
       <c r="A460" s="6"/>
       <c r="B460" s="6"/>
       <c r="D460" s="6"/>
-      <c r="E460" s="57"/>
-      <c r="F460" s="57"/>
-      <c r="G460" s="57"/>
+      <c r="E460" s="58"/>
+      <c r="F460" s="58"/>
+      <c r="G460" s="58"/>
       <c r="H460" s="6"/>
       <c r="I460" s="6"/>
       <c r="J460" s="6"/>
-      <c r="K460" s="71"/>
+      <c r="K460" s="72"/>
     </row>
     <row r="461" spans="1:11">
       <c r="A461" s="6"/>
       <c r="B461" s="6"/>
       <c r="D461" s="6"/>
-      <c r="E461" s="57"/>
-      <c r="F461" s="57"/>
-      <c r="G461" s="57"/>
+      <c r="E461" s="58"/>
+      <c r="F461" s="58"/>
+      <c r="G461" s="58"/>
       <c r="H461" s="6"/>
       <c r="I461" s="6"/>
       <c r="J461" s="6"/>
-      <c r="K461" s="71"/>
+      <c r="K461" s="72"/>
     </row>
     <row r="462" spans="1:11">
       <c r="A462" s="6"/>
       <c r="B462" s="6"/>
       <c r="D462" s="6"/>
-      <c r="E462" s="57"/>
-      <c r="F462" s="57"/>
-      <c r="G462" s="57"/>
+      <c r="E462" s="58"/>
+      <c r="F462" s="58"/>
+      <c r="G462" s="58"/>
       <c r="H462" s="6"/>
       <c r="I462" s="6"/>
       <c r="J462" s="6"/>
-      <c r="K462" s="71"/>
+      <c r="K462" s="72"/>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
   <si>
     <t>计划编码</t>
   </si>
@@ -550,6 +550,12 @@
   </si>
   <si>
     <t>景津环保</t>
+  </si>
+  <si>
+    <t>JH_00037</t>
+  </si>
+  <si>
+    <t>华正新材</t>
   </si>
 </sst>
 </file>
@@ -1369,7 +1375,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1473,6 +1479,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2778,11 +2790,11 @@
   <dimension ref="A1:BB542"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="H26" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B39" sqref="B39"/>
+      <selection pane="bottomRight" activeCell="D39" sqref="C39:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="14.8"/>
@@ -2815,16 +2827,16 @@
       <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="38" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="14" t="s">
@@ -2836,103 +2848,103 @@
       <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="59" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="71"/>
-      <c r="Z1" s="71"/>
-      <c r="AA1" s="71"/>
-      <c r="AB1" s="71"/>
-      <c r="AC1" s="71"/>
-      <c r="AD1" s="71"/>
-      <c r="AF1" s="71"/>
-      <c r="AG1" s="71"/>
-      <c r="AH1" s="71"/>
-      <c r="AI1" s="71"/>
-      <c r="AJ1" s="71"/>
-      <c r="AK1" s="71"/>
-      <c r="AL1" s="71"/>
-      <c r="AN1" s="71"/>
-      <c r="AO1" s="71"/>
-      <c r="AP1" s="71"/>
-      <c r="AQ1" s="71"/>
-      <c r="AR1" s="71"/>
-      <c r="AS1" s="71"/>
-      <c r="AT1" s="71"/>
-      <c r="AV1" s="71"/>
-      <c r="AW1" s="71"/>
-      <c r="AX1" s="71"/>
-      <c r="AY1" s="71"/>
-      <c r="AZ1" s="71"/>
-      <c r="BA1" s="71"/>
-      <c r="BB1" s="71"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="73"/>
+      <c r="AL1" s="73"/>
+      <c r="AN1" s="73"/>
+      <c r="AO1" s="73"/>
+      <c r="AP1" s="73"/>
+      <c r="AQ1" s="73"/>
+      <c r="AR1" s="73"/>
+      <c r="AS1" s="73"/>
+      <c r="AT1" s="73"/>
+      <c r="AV1" s="73"/>
+      <c r="AW1" s="73"/>
+      <c r="AX1" s="73"/>
+      <c r="AY1" s="73"/>
+      <c r="AZ1" s="73"/>
+      <c r="BA1" s="73"/>
+      <c r="BB1" s="73"/>
     </row>
     <row r="2" ht="23.6" spans="1:54">
       <c r="A2" s="11"/>
       <c r="B2" s="12"/>
       <c r="C2" s="13"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="71"/>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="71"/>
-      <c r="AC2" s="71"/>
-      <c r="AD2" s="71"/>
-      <c r="AF2" s="71"/>
-      <c r="AG2" s="71"/>
-      <c r="AH2" s="71"/>
-      <c r="AI2" s="71"/>
-      <c r="AJ2" s="71"/>
-      <c r="AK2" s="71"/>
-      <c r="AL2" s="71"/>
-      <c r="AN2" s="71"/>
-      <c r="AO2" s="71"/>
-      <c r="AP2" s="71"/>
-      <c r="AQ2" s="71"/>
-      <c r="AR2" s="71"/>
-      <c r="AS2" s="71"/>
-      <c r="AT2" s="71"/>
-      <c r="AV2" s="71"/>
-      <c r="AW2" s="71"/>
-      <c r="AX2" s="71"/>
-      <c r="AY2" s="71"/>
-      <c r="AZ2" s="71"/>
-      <c r="BA2" s="71"/>
-      <c r="BB2" s="71"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="73"/>
+      <c r="AJ2" s="73"/>
+      <c r="AK2" s="73"/>
+      <c r="AL2" s="73"/>
+      <c r="AN2" s="73"/>
+      <c r="AO2" s="73"/>
+      <c r="AP2" s="73"/>
+      <c r="AQ2" s="73"/>
+      <c r="AR2" s="73"/>
+      <c r="AS2" s="73"/>
+      <c r="AT2" s="73"/>
+      <c r="AV2" s="73"/>
+      <c r="AW2" s="73"/>
+      <c r="AX2" s="73"/>
+      <c r="AY2" s="73"/>
+      <c r="AZ2" s="73"/>
+      <c r="BA2" s="73"/>
+      <c r="BB2" s="73"/>
     </row>
     <row r="3" customFormat="1" ht="23.6" spans="1:54">
       <c r="A3" s="16" t="s">
@@ -2947,14 +2959,14 @@
       <c r="D3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38">
+      <c r="E3" s="40"/>
+      <c r="F3" s="40">
         <v>34.12</v>
       </c>
-      <c r="G3" s="38">
+      <c r="G3" s="40">
         <v>32.53</v>
       </c>
-      <c r="H3" s="38">
+      <c r="H3" s="40">
         <v>39.33</v>
       </c>
       <c r="I3" s="20">
@@ -2965,57 +2977,57 @@
         <f>FLOOR(1000/(F3-G3),100)</f>
         <v>600</v>
       </c>
-      <c r="K3" s="53">
+      <c r="K3" s="55">
         <f t="shared" ref="K3:K11" si="1">(H3-F3)/(F3-G3)</f>
         <v>3.27672955974844</v>
       </c>
-      <c r="L3" s="54">
+      <c r="L3" s="56">
         <f t="shared" ref="L3:L14" si="2">(F3-G3)/F3</f>
         <v>0.0466002344665884</v>
       </c>
-      <c r="M3" s="60">
+      <c r="M3" s="62">
         <f t="shared" ref="M3:M11" si="3">(H3-F3)/F3</f>
         <v>0.152696365767878</v>
       </c>
       <c r="N3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
-      <c r="W3" s="71"/>
-      <c r="X3" s="71"/>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="71"/>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="71"/>
-      <c r="AC3" s="71"/>
-      <c r="AD3" s="71"/>
-      <c r="AF3" s="71"/>
-      <c r="AG3" s="71"/>
-      <c r="AH3" s="71"/>
-      <c r="AI3" s="71"/>
-      <c r="AJ3" s="71"/>
-      <c r="AK3" s="71"/>
-      <c r="AL3" s="71"/>
-      <c r="AN3" s="71"/>
-      <c r="AO3" s="71"/>
-      <c r="AP3" s="71"/>
-      <c r="AQ3" s="71"/>
-      <c r="AR3" s="71"/>
-      <c r="AS3" s="71"/>
-      <c r="AT3" s="71"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="71"/>
-      <c r="AX3" s="71"/>
-      <c r="AY3" s="71"/>
-      <c r="AZ3" s="71"/>
-      <c r="BA3" s="71"/>
-      <c r="BB3" s="71"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="73"/>
+      <c r="AD3" s="73"/>
+      <c r="AF3" s="73"/>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="73"/>
+      <c r="AI3" s="73"/>
+      <c r="AJ3" s="73"/>
+      <c r="AK3" s="73"/>
+      <c r="AL3" s="73"/>
+      <c r="AN3" s="73"/>
+      <c r="AO3" s="73"/>
+      <c r="AP3" s="73"/>
+      <c r="AQ3" s="73"/>
+      <c r="AR3" s="73"/>
+      <c r="AS3" s="73"/>
+      <c r="AT3" s="73"/>
+      <c r="AV3" s="73"/>
+      <c r="AW3" s="73"/>
+      <c r="AX3" s="73"/>
+      <c r="AY3" s="73"/>
+      <c r="AZ3" s="73"/>
+      <c r="BA3" s="73"/>
+      <c r="BB3" s="73"/>
     </row>
     <row r="4" customFormat="1" ht="23.6" spans="1:54">
       <c r="A4" s="16" t="s">
@@ -3030,14 +3042,14 @@
       <c r="D4" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38">
+      <c r="E4" s="40"/>
+      <c r="F4" s="40">
         <v>32.65</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="40">
         <v>30.89</v>
       </c>
-      <c r="H4" s="38">
+      <c r="H4" s="40">
         <v>36.22</v>
       </c>
       <c r="I4" s="20">
@@ -3048,57 +3060,57 @@
         <f>FLOOR(1000/(F4-G4),100)</f>
         <v>500</v>
       </c>
-      <c r="K4" s="53">
+      <c r="K4" s="55">
         <f t="shared" si="1"/>
         <v>2.02840909090909</v>
       </c>
-      <c r="L4" s="54">
+      <c r="L4" s="56">
         <f t="shared" si="2"/>
         <v>0.0539050535987748</v>
       </c>
-      <c r="M4" s="60">
+      <c r="M4" s="62">
         <f t="shared" si="3"/>
         <v>0.109341500765697</v>
       </c>
       <c r="N4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="58"/>
-      <c r="T4" s="58"/>
-      <c r="U4" s="58"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="71"/>
-      <c r="Y4" s="71"/>
-      <c r="Z4" s="71"/>
-      <c r="AA4" s="71"/>
-      <c r="AB4" s="71"/>
-      <c r="AC4" s="71"/>
-      <c r="AD4" s="71"/>
-      <c r="AF4" s="71"/>
-      <c r="AG4" s="71"/>
-      <c r="AH4" s="71"/>
-      <c r="AI4" s="71"/>
-      <c r="AJ4" s="71"/>
-      <c r="AK4" s="71"/>
-      <c r="AL4" s="71"/>
-      <c r="AN4" s="71"/>
-      <c r="AO4" s="71"/>
-      <c r="AP4" s="71"/>
-      <c r="AQ4" s="71"/>
-      <c r="AR4" s="71"/>
-      <c r="AS4" s="71"/>
-      <c r="AT4" s="71"/>
-      <c r="AV4" s="71"/>
-      <c r="AW4" s="71"/>
-      <c r="AX4" s="71"/>
-      <c r="AY4" s="71"/>
-      <c r="AZ4" s="71"/>
-      <c r="BA4" s="71"/>
-      <c r="BB4" s="71"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="73"/>
+      <c r="Y4" s="73"/>
+      <c r="Z4" s="73"/>
+      <c r="AA4" s="73"/>
+      <c r="AB4" s="73"/>
+      <c r="AC4" s="73"/>
+      <c r="AD4" s="73"/>
+      <c r="AF4" s="73"/>
+      <c r="AG4" s="73"/>
+      <c r="AH4" s="73"/>
+      <c r="AI4" s="73"/>
+      <c r="AJ4" s="73"/>
+      <c r="AK4" s="73"/>
+      <c r="AL4" s="73"/>
+      <c r="AN4" s="73"/>
+      <c r="AO4" s="73"/>
+      <c r="AP4" s="73"/>
+      <c r="AQ4" s="73"/>
+      <c r="AR4" s="73"/>
+      <c r="AS4" s="73"/>
+      <c r="AT4" s="73"/>
+      <c r="AV4" s="73"/>
+      <c r="AW4" s="73"/>
+      <c r="AX4" s="73"/>
+      <c r="AY4" s="73"/>
+      <c r="AZ4" s="73"/>
+      <c r="BA4" s="73"/>
+      <c r="BB4" s="73"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="45" spans="1:15">
       <c r="A5" s="16" t="s">
@@ -3113,14 +3125,14 @@
       <c r="D5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38">
+      <c r="E5" s="40"/>
+      <c r="F5" s="40">
         <v>51.15</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="40">
         <v>46.61</v>
       </c>
-      <c r="H5" s="38">
+      <c r="H5" s="40">
         <v>59.59</v>
       </c>
       <c r="I5" s="20">
@@ -3131,22 +3143,22 @@
         <f t="shared" ref="J5:J37" si="4">FLOOR(1000/(F5-G5),100)</f>
         <v>200</v>
       </c>
-      <c r="K5" s="53">
+      <c r="K5" s="55">
         <f t="shared" si="1"/>
         <v>1.85903083700441</v>
       </c>
-      <c r="L5" s="54">
+      <c r="L5" s="56">
         <f t="shared" si="2"/>
         <v>0.0887585532746823</v>
       </c>
-      <c r="M5" s="60">
+      <c r="M5" s="62">
         <f t="shared" si="3"/>
         <v>0.165004887585533</v>
       </c>
-      <c r="N5" s="61" t="s">
+      <c r="N5" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="62"/>
+      <c r="O5" s="64"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="45" spans="1:15">
       <c r="A6" s="16" t="s">
@@ -3161,14 +3173,14 @@
       <c r="D6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="39">
+      <c r="E6" s="40"/>
+      <c r="F6" s="41">
         <v>143.8</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="41">
         <v>137.88</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="41">
         <v>158.48</v>
       </c>
       <c r="I6" s="20">
@@ -3179,22 +3191,22 @@
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="K6" s="53">
+      <c r="K6" s="55">
         <f t="shared" si="1"/>
         <v>2.47972972972972</v>
       </c>
-      <c r="L6" s="54">
+      <c r="L6" s="56">
         <f t="shared" si="2"/>
         <v>0.0411682892906816</v>
       </c>
-      <c r="M6" s="60">
+      <c r="M6" s="62">
         <f t="shared" si="3"/>
         <v>0.102086230876217</v>
       </c>
-      <c r="N6" s="61" t="s">
+      <c r="N6" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="62"/>
+      <c r="O6" s="64"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="45" spans="1:15">
       <c r="A7" s="16" t="s">
@@ -3209,14 +3221,14 @@
       <c r="D7" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="39">
+      <c r="E7" s="40"/>
+      <c r="F7" s="41">
         <v>20.44</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G7" s="41">
         <v>19.09</v>
       </c>
-      <c r="H7" s="39">
+      <c r="H7" s="41">
         <v>23.43</v>
       </c>
       <c r="I7" s="20">
@@ -3227,22 +3239,22 @@
         <f t="shared" si="4"/>
         <v>700</v>
       </c>
-      <c r="K7" s="53">
+      <c r="K7" s="55">
         <f t="shared" si="1"/>
         <v>2.21481481481481</v>
       </c>
-      <c r="L7" s="54">
+      <c r="L7" s="56">
         <f t="shared" si="2"/>
         <v>0.0660469667318983</v>
       </c>
-      <c r="M7" s="60">
+      <c r="M7" s="62">
         <f t="shared" si="3"/>
         <v>0.146281800391389</v>
       </c>
-      <c r="N7" s="61" t="s">
+      <c r="N7" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="O7" s="62"/>
+      <c r="O7" s="64"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A8" s="16" t="s">
@@ -3257,14 +3269,14 @@
       <c r="D8" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="38">
+      <c r="E8" s="42"/>
+      <c r="F8" s="40">
         <v>17.19</v>
       </c>
-      <c r="G8" s="38">
+      <c r="G8" s="40">
         <v>15.5</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="40">
         <v>20.72</v>
       </c>
       <c r="I8" s="20">
@@ -3275,22 +3287,22 @@
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="K8" s="53">
+      <c r="K8" s="55">
         <f t="shared" si="1"/>
         <v>2.0887573964497</v>
       </c>
-      <c r="L8" s="54">
+      <c r="L8" s="56">
         <f t="shared" si="2"/>
         <v>0.0983129726585225</v>
       </c>
-      <c r="M8" s="60">
+      <c r="M8" s="62">
         <f t="shared" si="3"/>
         <v>0.205351948807446</v>
       </c>
       <c r="N8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="62"/>
+      <c r="O8" s="64"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="15" spans="1:14">
       <c r="A9" s="16" t="s">
@@ -3305,14 +3317,14 @@
       <c r="D9" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="38">
+      <c r="E9" s="43"/>
+      <c r="F9" s="40">
         <v>64.3</v>
       </c>
-      <c r="G9" s="38">
+      <c r="G9" s="40">
         <v>58.51</v>
       </c>
-      <c r="H9" s="38">
+      <c r="H9" s="40">
         <v>65.72</v>
       </c>
       <c r="I9" s="20">
@@ -3323,15 +3335,15 @@
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="K9" s="53">
+      <c r="K9" s="55">
         <f t="shared" si="1"/>
         <v>0.24525043177893</v>
       </c>
-      <c r="L9" s="54">
+      <c r="L9" s="56">
         <f t="shared" si="2"/>
         <v>0.0900466562986003</v>
       </c>
-      <c r="M9" s="60">
+      <c r="M9" s="62">
         <f t="shared" si="3"/>
         <v>0.0220839813374806</v>
       </c>
@@ -3352,14 +3364,14 @@
       <c r="D10" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="38">
+      <c r="E10" s="44"/>
+      <c r="F10" s="40">
         <v>39.15</v>
       </c>
-      <c r="G10" s="38">
+      <c r="G10" s="40">
         <v>35.91</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10" s="40">
         <v>44.28</v>
       </c>
       <c r="I10" s="20">
@@ -3370,15 +3382,15 @@
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="K10" s="53">
+      <c r="K10" s="55">
         <f t="shared" si="1"/>
         <v>1.58333333333333</v>
       </c>
-      <c r="L10" s="54">
+      <c r="L10" s="56">
         <f t="shared" si="2"/>
         <v>0.0827586206896552</v>
       </c>
-      <c r="M10" s="60">
+      <c r="M10" s="62">
         <f t="shared" si="3"/>
         <v>0.131034482758621</v>
       </c>
@@ -3393,20 +3405,20 @@
       <c r="B11" s="19">
         <v>44539</v>
       </c>
-      <c r="C11" s="72" t="s">
+      <c r="C11" s="74" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="42"/>
-      <c r="F11" s="38">
+      <c r="E11" s="44"/>
+      <c r="F11" s="40">
         <v>117.8</v>
       </c>
-      <c r="G11" s="38">
+      <c r="G11" s="40">
         <v>111.17</v>
       </c>
-      <c r="H11" s="38">
+      <c r="H11" s="40">
         <v>131.73</v>
       </c>
       <c r="I11" s="20">
@@ -3417,22 +3429,22 @@
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="K11" s="53">
+      <c r="K11" s="55">
         <f t="shared" si="1"/>
         <v>2.10105580693816</v>
       </c>
-      <c r="L11" s="54">
+      <c r="L11" s="56">
         <f t="shared" si="2"/>
         <v>0.0562818336162988</v>
       </c>
-      <c r="M11" s="60">
+      <c r="M11" s="62">
         <f t="shared" si="3"/>
         <v>0.118251273344652</v>
       </c>
       <c r="N11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="O11" s="62"/>
+      <c r="O11" s="64"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="30" spans="1:14">
       <c r="A12" s="16" t="s">
@@ -3447,14 +3459,14 @@
       <c r="D12" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38">
+      <c r="E12" s="40"/>
+      <c r="F12" s="40">
         <v>49.4</v>
       </c>
-      <c r="G12" s="38">
+      <c r="G12" s="40">
         <v>46.7</v>
       </c>
-      <c r="H12" s="38" t="s">
+      <c r="H12" s="40" t="s">
         <v>42</v>
       </c>
       <c r="I12" s="20">
@@ -3465,17 +3477,17 @@
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="K12" s="53" t="s">
+      <c r="K12" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="54">
+      <c r="L12" s="56">
         <f t="shared" si="2"/>
         <v>0.054655870445344</v>
       </c>
-      <c r="M12" s="60" t="s">
+      <c r="M12" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="N12" s="61" t="s">
+      <c r="N12" s="63" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3492,14 +3504,14 @@
       <c r="D13" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38">
+      <c r="E13" s="40"/>
+      <c r="F13" s="40">
         <v>37.73</v>
       </c>
-      <c r="G13" s="38">
+      <c r="G13" s="40">
         <v>34.68</v>
       </c>
-      <c r="H13" s="38">
+      <c r="H13" s="40">
         <v>46.05</v>
       </c>
       <c r="I13" s="20">
@@ -3510,15 +3522,15 @@
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="K13" s="53">
+      <c r="K13" s="55">
         <f>(H13-F13)/(F13-G13)</f>
         <v>2.72786885245902</v>
       </c>
-      <c r="L13" s="54">
+      <c r="L13" s="56">
         <f t="shared" si="2"/>
         <v>0.0808375298171216</v>
       </c>
-      <c r="M13" s="60">
+      <c r="M13" s="62">
         <f t="shared" ref="M13:M37" si="5">(H13-F13)/F13</f>
         <v>0.220514179697853</v>
       </c>
@@ -3533,20 +3545,20 @@
       <c r="B14" s="19">
         <v>44525</v>
       </c>
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="75" t="s">
         <v>46</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38">
+      <c r="E14" s="40"/>
+      <c r="F14" s="40">
         <v>70.98</v>
       </c>
-      <c r="G14" s="38">
+      <c r="G14" s="40">
         <v>66.88</v>
       </c>
-      <c r="H14" s="38">
+      <c r="H14" s="40">
         <v>84.94</v>
       </c>
       <c r="I14" s="20">
@@ -3557,19 +3569,19 @@
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="K14" s="53">
+      <c r="K14" s="55">
         <f t="shared" ref="K14:K37" si="6">(H14-F14)/(F14-G14)</f>
         <v>3.40487804878048</v>
       </c>
-      <c r="L14" s="54">
+      <c r="L14" s="56">
         <f t="shared" ref="L14:L37" si="7">(F14-G14)/F14</f>
         <v>0.0577627500704425</v>
       </c>
-      <c r="M14" s="60">
+      <c r="M14" s="62">
         <f t="shared" si="5"/>
         <v>0.196675119752043</v>
       </c>
-      <c r="N14" s="63" t="s">
+      <c r="N14" s="65" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3586,14 +3598,14 @@
       <c r="D15" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38">
+      <c r="E15" s="40"/>
+      <c r="F15" s="40">
         <v>29.77</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="40">
         <v>27.72</v>
       </c>
-      <c r="H15" s="38">
+      <c r="H15" s="40">
         <v>34.93</v>
       </c>
       <c r="I15" s="20">
@@ -3604,19 +3616,19 @@
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="K15" s="53">
+      <c r="K15" s="55">
         <f t="shared" si="6"/>
         <v>2.51707317073171</v>
       </c>
-      <c r="L15" s="54">
+      <c r="L15" s="56">
         <f t="shared" si="7"/>
         <v>0.0688612697346322</v>
       </c>
-      <c r="M15" s="60">
+      <c r="M15" s="62">
         <f t="shared" si="5"/>
         <v>0.173328854551562</v>
       </c>
-      <c r="N15" s="63" t="s">
+      <c r="N15" s="65" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3633,14 +3645,14 @@
       <c r="D16" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38">
+      <c r="E16" s="40"/>
+      <c r="F16" s="40">
         <v>30.66</v>
       </c>
-      <c r="G16" s="38">
+      <c r="G16" s="40">
         <v>29.35</v>
       </c>
-      <c r="H16" s="38">
+      <c r="H16" s="40">
         <v>38.71</v>
       </c>
       <c r="I16" s="20">
@@ -3651,19 +3663,19 @@
         <f t="shared" si="4"/>
         <v>700</v>
       </c>
-      <c r="K16" s="53">
+      <c r="K16" s="55">
         <f t="shared" si="6"/>
         <v>6.14503816793894</v>
       </c>
-      <c r="L16" s="54">
+      <c r="L16" s="56">
         <f t="shared" si="7"/>
         <v>0.042726679712981</v>
       </c>
-      <c r="M16" s="60">
+      <c r="M16" s="62">
         <f t="shared" si="5"/>
         <v>0.262557077625571</v>
       </c>
-      <c r="N16" s="63" t="s">
+      <c r="N16" s="65" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3680,14 +3692,14 @@
       <c r="D17" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38">
+      <c r="E17" s="40"/>
+      <c r="F17" s="40">
         <v>26.2</v>
       </c>
-      <c r="G17" s="38">
+      <c r="G17" s="40">
         <v>24.68</v>
       </c>
-      <c r="H17" s="38">
+      <c r="H17" s="40">
         <v>32.49</v>
       </c>
       <c r="I17" s="20">
@@ -3698,19 +3710,19 @@
         <f t="shared" si="4"/>
         <v>600</v>
       </c>
-      <c r="K17" s="53">
+      <c r="K17" s="55">
         <f t="shared" si="6"/>
         <v>4.13815789473685</v>
       </c>
-      <c r="L17" s="54">
+      <c r="L17" s="56">
         <f t="shared" si="7"/>
         <v>0.0580152671755725</v>
       </c>
-      <c r="M17" s="60">
+      <c r="M17" s="62">
         <f t="shared" si="5"/>
         <v>0.240076335877863</v>
       </c>
-      <c r="N17" s="63" t="s">
+      <c r="N17" s="65" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3721,20 +3733,20 @@
       <c r="B18" s="19">
         <v>44533</v>
       </c>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="75" t="s">
         <v>56</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38">
+      <c r="E18" s="40"/>
+      <c r="F18" s="40">
         <v>28.82</v>
       </c>
-      <c r="G18" s="38">
+      <c r="G18" s="40">
         <v>26.31</v>
       </c>
-      <c r="H18" s="38">
+      <c r="H18" s="40">
         <v>32.36</v>
       </c>
       <c r="I18" s="20">
@@ -3745,19 +3757,19 @@
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="K18" s="53">
+      <c r="K18" s="55">
         <f t="shared" si="6"/>
         <v>1.41035856573705</v>
       </c>
-      <c r="L18" s="54">
+      <c r="L18" s="56">
         <f t="shared" si="7"/>
         <v>0.0870922970159612</v>
       </c>
-      <c r="M18" s="60">
+      <c r="M18" s="62">
         <f t="shared" si="5"/>
         <v>0.122831367106176</v>
       </c>
-      <c r="N18" s="63" t="s">
+      <c r="N18" s="65" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3774,14 +3786,14 @@
       <c r="D19" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="43">
+      <c r="E19" s="40"/>
+      <c r="F19" s="45">
         <v>38.89</v>
       </c>
-      <c r="G19" s="43">
+      <c r="G19" s="45">
         <v>36.65</v>
       </c>
-      <c r="H19" s="43">
+      <c r="H19" s="45">
         <v>40.7</v>
       </c>
       <c r="I19" s="20">
@@ -3792,19 +3804,19 @@
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="K19" s="53">
+      <c r="K19" s="55">
         <f t="shared" si="6"/>
         <v>0.808035714285715</v>
       </c>
-      <c r="L19" s="54">
+      <c r="L19" s="56">
         <f t="shared" si="7"/>
         <v>0.0575983543327334</v>
       </c>
-      <c r="M19" s="60">
+      <c r="M19" s="62">
         <f t="shared" si="5"/>
         <v>0.0465415273849319</v>
       </c>
-      <c r="N19" s="63" t="s">
+      <c r="N19" s="65" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3821,14 +3833,14 @@
       <c r="D20" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="44"/>
-      <c r="F20" s="43">
+      <c r="E20" s="46"/>
+      <c r="F20" s="45">
         <v>27.73</v>
       </c>
-      <c r="G20" s="43">
+      <c r="G20" s="45">
         <v>25.3</v>
       </c>
-      <c r="H20" s="43">
+      <c r="H20" s="45">
         <v>31.94</v>
       </c>
       <c r="I20" s="20">
@@ -3839,19 +3851,19 @@
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="K20" s="53">
+      <c r="K20" s="55">
         <f t="shared" si="6"/>
         <v>1.73251028806584</v>
       </c>
-      <c r="L20" s="54">
+      <c r="L20" s="56">
         <f t="shared" si="7"/>
         <v>0.0876307248467364</v>
       </c>
-      <c r="M20" s="60">
+      <c r="M20" s="62">
         <f t="shared" si="5"/>
         <v>0.151821132347638</v>
       </c>
-      <c r="N20" s="64" t="s">
+      <c r="N20" s="66" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3868,14 +3880,14 @@
       <c r="D21" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="44"/>
-      <c r="F21" s="43">
+      <c r="E21" s="46"/>
+      <c r="F21" s="45">
         <v>11.75</v>
       </c>
-      <c r="G21" s="43">
+      <c r="G21" s="45">
         <v>10.9</v>
       </c>
-      <c r="H21" s="43">
+      <c r="H21" s="45">
         <v>14.54</v>
       </c>
       <c r="I21" s="20">
@@ -3886,19 +3898,19 @@
         <f t="shared" si="4"/>
         <v>1100</v>
       </c>
-      <c r="K21" s="53">
+      <c r="K21" s="55">
         <f t="shared" si="6"/>
         <v>3.28235294117647</v>
       </c>
-      <c r="L21" s="54">
+      <c r="L21" s="56">
         <f t="shared" si="7"/>
         <v>0.0723404255319149</v>
       </c>
-      <c r="M21" s="60">
+      <c r="M21" s="62">
         <f t="shared" si="5"/>
         <v>0.237446808510638</v>
       </c>
-      <c r="N21" s="64" t="s">
+      <c r="N21" s="66" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3909,22 +3921,22 @@
       <c r="B22" s="25">
         <v>44553</v>
       </c>
-      <c r="C22" s="74" t="s">
+      <c r="C22" s="76" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="44">
+      <c r="E22" s="46">
         <v>10.68</v>
       </c>
-      <c r="F22" s="43">
+      <c r="F22" s="45">
         <v>77.98</v>
       </c>
-      <c r="G22" s="43">
+      <c r="G22" s="45">
         <v>70.4</v>
       </c>
-      <c r="H22" s="43">
+      <c r="H22" s="45">
         <v>83.27</v>
       </c>
       <c r="I22" s="20">
@@ -3935,19 +3947,19 @@
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="K22" s="53">
+      <c r="K22" s="55">
         <f t="shared" si="6"/>
         <v>0.697889182058047</v>
       </c>
-      <c r="L22" s="54">
+      <c r="L22" s="56">
         <f t="shared" si="7"/>
         <v>0.0972044113875352</v>
       </c>
-      <c r="M22" s="60">
+      <c r="M22" s="62">
         <f t="shared" si="5"/>
         <v>0.0678379071556808</v>
       </c>
-      <c r="N22" s="65" t="s">
+      <c r="N22" s="67" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3958,20 +3970,20 @@
       <c r="B23" s="25">
         <v>44546</v>
       </c>
-      <c r="C23" s="72" t="s">
+      <c r="C23" s="74" t="s">
         <v>69</v>
       </c>
       <c r="D23" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="40"/>
-      <c r="F23" s="43">
+      <c r="E23" s="42"/>
+      <c r="F23" s="45">
         <v>278</v>
       </c>
-      <c r="G23" s="43">
+      <c r="G23" s="45">
         <v>260.02</v>
       </c>
-      <c r="H23" s="43">
+      <c r="H23" s="45">
         <v>304.23</v>
       </c>
       <c r="I23" s="20">
@@ -3982,19 +3994,19 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K23" s="53">
+      <c r="K23" s="55">
         <f t="shared" si="6"/>
         <v>1.45884315906563</v>
       </c>
-      <c r="L23" s="54">
+      <c r="L23" s="56">
         <f t="shared" si="7"/>
         <v>0.0646762589928058</v>
       </c>
-      <c r="M23" s="60">
+      <c r="M23" s="62">
         <f t="shared" si="5"/>
         <v>0.0943525179856116</v>
       </c>
-      <c r="N23" s="66" t="s">
+      <c r="N23" s="68" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4011,14 +4023,14 @@
       <c r="D24" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="45"/>
-      <c r="F24" s="43">
+      <c r="E24" s="47"/>
+      <c r="F24" s="45">
         <v>64.68</v>
       </c>
-      <c r="G24" s="43">
+      <c r="G24" s="45">
         <v>59.29</v>
       </c>
-      <c r="H24" s="43">
+      <c r="H24" s="45">
         <v>67.16</v>
       </c>
       <c r="I24" s="20">
@@ -4029,19 +4041,19 @@
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="K24" s="53">
+      <c r="K24" s="55">
         <f t="shared" si="6"/>
         <v>0.460111317254172</v>
       </c>
-      <c r="L24" s="54">
+      <c r="L24" s="56">
         <f t="shared" si="7"/>
         <v>0.0833333333333334</v>
       </c>
-      <c r="M24" s="60">
+      <c r="M24" s="62">
         <f t="shared" si="5"/>
         <v>0.038342609771181</v>
       </c>
-      <c r="N24" s="64" t="s">
+      <c r="N24" s="66" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4052,22 +4064,22 @@
       <c r="B25" s="25">
         <v>44547</v>
       </c>
-      <c r="C25" s="72" t="s">
+      <c r="C25" s="74" t="s">
         <v>75</v>
       </c>
       <c r="D25" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="40">
+      <c r="E25" s="42">
         <v>1.58</v>
       </c>
-      <c r="F25" s="43">
+      <c r="F25" s="45">
         <v>39.39</v>
       </c>
-      <c r="G25" s="43">
+      <c r="G25" s="45">
         <v>36.13</v>
       </c>
-      <c r="H25" s="43">
+      <c r="H25" s="45">
         <v>46.32</v>
       </c>
       <c r="I25" s="20">
@@ -4078,19 +4090,19 @@
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="K25" s="53">
+      <c r="K25" s="55">
         <f t="shared" si="6"/>
         <v>2.12576687116565</v>
       </c>
-      <c r="L25" s="54">
+      <c r="L25" s="56">
         <f t="shared" si="7"/>
         <v>0.0827621223660827</v>
       </c>
-      <c r="M25" s="60">
+      <c r="M25" s="62">
         <f t="shared" si="5"/>
         <v>0.175932977913176</v>
       </c>
-      <c r="N25" s="66" t="s">
+      <c r="N25" s="68" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4101,20 +4113,20 @@
       <c r="B26" s="25">
         <v>44549</v>
       </c>
-      <c r="C26" s="72" t="s">
+      <c r="C26" s="74" t="s">
         <v>38</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="42"/>
-      <c r="F26" s="43">
+      <c r="E26" s="44"/>
+      <c r="F26" s="45">
         <v>118.25</v>
       </c>
-      <c r="G26" s="43">
+      <c r="G26" s="45">
         <v>110.08</v>
       </c>
-      <c r="H26" s="43">
+      <c r="H26" s="45">
         <v>131.77</v>
       </c>
       <c r="I26" s="20">
@@ -4125,19 +4137,19 @@
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="K26" s="53">
+      <c r="K26" s="55">
         <f t="shared" si="6"/>
         <v>1.65483476132191</v>
       </c>
-      <c r="L26" s="54">
+      <c r="L26" s="56">
         <f t="shared" si="7"/>
         <v>0.0690909090909091</v>
       </c>
-      <c r="M26" s="60">
+      <c r="M26" s="62">
         <f t="shared" si="5"/>
         <v>0.114334038054968</v>
       </c>
-      <c r="N26" s="66" t="s">
+      <c r="N26" s="68" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4154,14 +4166,14 @@
       <c r="D27" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="45"/>
-      <c r="F27" s="46">
+      <c r="E27" s="47"/>
+      <c r="F27" s="48">
         <v>215</v>
       </c>
-      <c r="G27" s="46">
+      <c r="G27" s="48">
         <v>198</v>
       </c>
-      <c r="H27" s="46">
+      <c r="H27" s="48">
         <v>236.01</v>
       </c>
       <c r="I27" s="20">
@@ -4172,19 +4184,19 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K27" s="53">
+      <c r="K27" s="55">
         <f t="shared" si="6"/>
         <v>1.23588235294118</v>
       </c>
-      <c r="L27" s="54">
+      <c r="L27" s="56">
         <f t="shared" si="7"/>
         <v>0.0790697674418605</v>
       </c>
-      <c r="M27" s="60">
+      <c r="M27" s="62">
         <f t="shared" si="5"/>
         <v>0.0977209302325581</v>
       </c>
-      <c r="N27" s="66" t="s">
+      <c r="N27" s="68" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4201,16 +4213,16 @@
       <c r="D28" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="E28" s="45">
+      <c r="E28" s="47">
         <v>1.87</v>
       </c>
-      <c r="F28" s="46">
+      <c r="F28" s="48">
         <v>55.99</v>
       </c>
-      <c r="G28" s="46">
+      <c r="G28" s="48">
         <v>52</v>
       </c>
-      <c r="H28" s="46">
+      <c r="H28" s="48">
         <v>58.12</v>
       </c>
       <c r="I28" s="20">
@@ -4221,19 +4233,19 @@
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="K28" s="53">
+      <c r="K28" s="55">
         <f t="shared" si="6"/>
         <v>0.533834586466164</v>
       </c>
-      <c r="L28" s="54">
+      <c r="L28" s="56">
         <f t="shared" si="7"/>
         <v>0.0712627254866941</v>
       </c>
-      <c r="M28" s="60">
+      <c r="M28" s="62">
         <f t="shared" si="5"/>
         <v>0.0380425075906411</v>
       </c>
-      <c r="N28" s="65" t="s">
+      <c r="N28" s="67" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4250,14 +4262,14 @@
       <c r="D29" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="46">
+      <c r="E29" s="42"/>
+      <c r="F29" s="48">
         <v>183.8</v>
       </c>
-      <c r="G29" s="46">
+      <c r="G29" s="48">
         <v>170.6</v>
       </c>
-      <c r="H29" s="46">
+      <c r="H29" s="48">
         <v>203.32</v>
       </c>
       <c r="I29" s="20">
@@ -4268,19 +4280,19 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K29" s="53">
+      <c r="K29" s="55">
         <f t="shared" si="6"/>
         <v>1.47878787878788</v>
       </c>
-      <c r="L29" s="54">
+      <c r="L29" s="56">
         <f t="shared" si="7"/>
         <v>0.071817192600653</v>
       </c>
-      <c r="M29" s="60">
+      <c r="M29" s="62">
         <f t="shared" si="5"/>
         <v>0.10620239390642</v>
       </c>
-      <c r="N29" s="66" t="s">
+      <c r="N29" s="68" t="s">
         <v>85</v>
       </c>
     </row>
@@ -4291,20 +4303,20 @@
       <c r="B30" s="25">
         <v>44549</v>
       </c>
-      <c r="C30" s="75" t="s">
+      <c r="C30" s="77" t="s">
         <v>87</v>
       </c>
       <c r="D30" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="45"/>
-      <c r="F30" s="46">
+      <c r="E30" s="47"/>
+      <c r="F30" s="48">
         <v>27.68</v>
       </c>
-      <c r="G30" s="46">
+      <c r="G30" s="48">
         <v>26</v>
       </c>
-      <c r="H30" s="46">
+      <c r="H30" s="48">
         <v>29.06</v>
       </c>
       <c r="I30" s="20">
@@ -4315,19 +4327,19 @@
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="K30" s="53">
+      <c r="K30" s="55">
         <f t="shared" si="6"/>
         <v>0.821428571428571</v>
       </c>
-      <c r="L30" s="54">
+      <c r="L30" s="56">
         <f t="shared" si="7"/>
         <v>0.0606936416184971</v>
       </c>
-      <c r="M30" s="60">
+      <c r="M30" s="62">
         <f t="shared" si="5"/>
         <v>0.0498554913294797</v>
       </c>
-      <c r="N30" s="67" t="s">
+      <c r="N30" s="69" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4344,14 +4356,14 @@
       <c r="D31" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="42"/>
-      <c r="F31" s="46">
+      <c r="E31" s="44"/>
+      <c r="F31" s="48">
         <v>39.16</v>
       </c>
-      <c r="G31" s="46">
+      <c r="G31" s="48">
         <v>35.6</v>
       </c>
-      <c r="H31" s="46">
+      <c r="H31" s="48">
         <v>44.92</v>
       </c>
       <c r="I31" s="20">
@@ -4362,19 +4374,19 @@
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="K31" s="53">
+      <c r="K31" s="55">
         <f t="shared" si="6"/>
         <v>1.61797752808989</v>
       </c>
-      <c r="L31" s="54">
+      <c r="L31" s="56">
         <f t="shared" si="7"/>
         <v>0.0909090909090908</v>
       </c>
-      <c r="M31" s="60">
+      <c r="M31" s="62">
         <f t="shared" si="5"/>
         <v>0.14708886618999</v>
       </c>
-      <c r="N31" s="67" t="s">
+      <c r="N31" s="69" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4391,16 +4403,16 @@
       <c r="D32" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="47">
+      <c r="E32" s="49">
         <v>2.67</v>
       </c>
-      <c r="F32" s="46">
+      <c r="F32" s="48">
         <v>108.5</v>
       </c>
-      <c r="G32" s="46">
+      <c r="G32" s="48">
         <v>98</v>
       </c>
-      <c r="H32" s="46">
+      <c r="H32" s="48">
         <v>120.78</v>
       </c>
       <c r="I32" s="20">
@@ -4411,19 +4423,19 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K32" s="53">
+      <c r="K32" s="55">
         <f t="shared" si="6"/>
         <v>1.16952380952381</v>
       </c>
-      <c r="L32" s="54">
+      <c r="L32" s="56">
         <f t="shared" si="7"/>
         <v>0.0967741935483871</v>
       </c>
-      <c r="M32" s="60">
+      <c r="M32" s="62">
         <f t="shared" si="5"/>
         <v>0.113179723502304</v>
       </c>
-      <c r="N32" s="65" t="s">
+      <c r="N32" s="67" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4440,16 +4452,16 @@
       <c r="D33" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E33" s="40">
+      <c r="E33" s="42">
         <v>1.08</v>
       </c>
-      <c r="F33" s="46">
+      <c r="F33" s="48">
         <v>29.56</v>
       </c>
-      <c r="G33" s="46">
+      <c r="G33" s="48">
         <v>27.05</v>
       </c>
-      <c r="H33" s="46">
+      <c r="H33" s="48">
         <v>34.13</v>
       </c>
       <c r="I33" s="20">
@@ -4460,19 +4472,19 @@
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="K33" s="53">
+      <c r="K33" s="55">
         <f t="shared" si="6"/>
         <v>1.82071713147411</v>
       </c>
-      <c r="L33" s="54">
+      <c r="L33" s="56">
         <f t="shared" si="7"/>
         <v>0.0849120433017591</v>
       </c>
-      <c r="M33" s="60">
+      <c r="M33" s="62">
         <f t="shared" si="5"/>
         <v>0.154600811907984</v>
       </c>
-      <c r="N33" s="65" t="s">
+      <c r="N33" s="67" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4489,16 +4501,16 @@
       <c r="D34" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="E34" s="46">
+      <c r="E34" s="48">
         <v>1.63</v>
       </c>
-      <c r="F34" s="46">
+      <c r="F34" s="48">
         <v>203.19</v>
       </c>
-      <c r="G34" s="46">
+      <c r="G34" s="48">
         <v>188.89</v>
       </c>
-      <c r="H34" s="46">
+      <c r="H34" s="48">
         <v>218.58</v>
       </c>
       <c r="I34" s="20">
@@ -4509,19 +4521,19 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K34" s="53">
+      <c r="K34" s="55">
         <f t="shared" si="6"/>
         <v>1.07622377622378</v>
       </c>
-      <c r="L34" s="54">
+      <c r="L34" s="56">
         <f t="shared" si="7"/>
         <v>0.0703774792066539</v>
       </c>
-      <c r="M34" s="60">
+      <c r="M34" s="62">
         <f t="shared" si="5"/>
         <v>0.0757419164328954</v>
       </c>
-      <c r="N34" s="66" t="s">
+      <c r="N34" s="68" t="s">
         <v>85</v>
       </c>
     </row>
@@ -4532,22 +4544,22 @@
       <c r="B35" s="30">
         <v>44553</v>
       </c>
-      <c r="C35" s="76" t="s">
+      <c r="C35" s="78" t="s">
         <v>97</v>
       </c>
       <c r="D35" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="E35" s="48">
+      <c r="E35" s="50">
         <v>1.16</v>
       </c>
-      <c r="F35" s="49">
+      <c r="F35" s="51">
         <v>38.65</v>
       </c>
-      <c r="G35" s="49">
+      <c r="G35" s="51">
         <v>35.76</v>
       </c>
-      <c r="H35" s="49">
+      <c r="H35" s="51">
         <v>43.19</v>
       </c>
       <c r="I35" s="20">
@@ -4558,19 +4570,19 @@
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="K35" s="53">
+      <c r="K35" s="55">
         <f t="shared" si="6"/>
         <v>1.57093425605536</v>
       </c>
-      <c r="L35" s="54">
+      <c r="L35" s="56">
         <f t="shared" si="7"/>
         <v>0.0747736093143597</v>
       </c>
-      <c r="M35" s="60">
+      <c r="M35" s="62">
         <f t="shared" si="5"/>
         <v>0.117464424320828</v>
       </c>
-      <c r="N35" s="65" t="s">
+      <c r="N35" s="67" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4581,22 +4593,22 @@
       <c r="B36" s="34">
         <v>44553</v>
       </c>
-      <c r="C36" s="76" t="s">
+      <c r="C36" s="78" t="s">
         <v>100</v>
       </c>
       <c r="D36" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="49">
+      <c r="E36" s="51">
         <v>1.18</v>
       </c>
-      <c r="F36" s="49">
+      <c r="F36" s="51">
         <v>61.7</v>
       </c>
-      <c r="G36" s="49">
+      <c r="G36" s="51">
         <v>59.3</v>
       </c>
-      <c r="H36" s="49">
+      <c r="H36" s="51">
         <v>64.96</v>
       </c>
       <c r="I36" s="20">
@@ -4607,19 +4619,19 @@
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="K36" s="53">
+      <c r="K36" s="55">
         <f t="shared" si="6"/>
         <v>1.35833333333333</v>
       </c>
-      <c r="L36" s="54">
+      <c r="L36" s="56">
         <f t="shared" si="7"/>
         <v>0.0388978930307943</v>
       </c>
-      <c r="M36" s="60">
+      <c r="M36" s="62">
         <f t="shared" si="5"/>
         <v>0.0528363047001619</v>
       </c>
-      <c r="N36" s="65" t="s">
+      <c r="N36" s="67" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4636,16 +4648,16 @@
       <c r="D37" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="E37" s="49">
+      <c r="E37" s="51">
         <v>1.26</v>
       </c>
-      <c r="F37" s="49">
+      <c r="F37" s="51">
         <v>12.39</v>
       </c>
-      <c r="G37" s="49">
+      <c r="G37" s="51">
         <v>11.69</v>
       </c>
-      <c r="H37" s="49">
+      <c r="H37" s="51">
         <v>13.42</v>
       </c>
       <c r="I37" s="20">
@@ -4656,19 +4668,19 @@
         <f t="shared" si="4"/>
         <v>1400</v>
       </c>
-      <c r="K37" s="53">
+      <c r="K37" s="55">
         <f t="shared" si="6"/>
         <v>1.47142857142857</v>
       </c>
-      <c r="L37" s="54">
+      <c r="L37" s="56">
         <f t="shared" si="7"/>
         <v>0.056497175141243</v>
       </c>
-      <c r="M37" s="60">
+      <c r="M37" s="62">
         <f t="shared" si="5"/>
         <v>0.0831315577078288</v>
       </c>
-      <c r="N37" s="68" t="s">
+      <c r="N37" s="70" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4685,16 +4697,16 @@
       <c r="D38" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="E38" s="49">
+      <c r="E38" s="51">
         <v>1.1</v>
       </c>
-      <c r="F38" s="49">
+      <c r="F38" s="51">
         <v>45.5</v>
       </c>
-      <c r="G38" s="49">
+      <c r="G38" s="51">
         <v>42.5</v>
       </c>
-      <c r="H38" s="49">
+      <c r="H38" s="51">
         <v>44.41</v>
       </c>
       <c r="I38" s="20">
@@ -4705,5552 +4717,5585 @@
         <f>FLOOR(1000/(F38-G38),100)</f>
         <v>300</v>
       </c>
-      <c r="K38" s="53">
+      <c r="K38" s="55">
         <f>(H38-F38)/(F38-G38)</f>
         <v>-0.363333333333334</v>
       </c>
-      <c r="L38" s="54">
+      <c r="L38" s="56">
         <f>(F38-G38)/F38</f>
         <v>0.0659340659340659</v>
       </c>
-      <c r="M38" s="60">
+      <c r="M38" s="62">
         <f>(H38-F38)/F38</f>
         <v>-0.023956043956044</v>
       </c>
-      <c r="N38" s="68" t="s">
+      <c r="N38" s="70" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="35"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="55"/>
-      <c r="M39" s="69"/>
-      <c r="N39" s="70"/>
+    <row r="39" ht="15" spans="1:14">
+      <c r="A39" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="34">
+        <v>44556</v>
+      </c>
+      <c r="C39" s="35">
+        <v>603186</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="51">
+        <v>1.53</v>
+      </c>
+      <c r="F39" s="51">
+        <v>43.37</v>
+      </c>
+      <c r="G39" s="51">
+        <v>39.41</v>
+      </c>
+      <c r="H39" s="51">
+        <v>48.44</v>
+      </c>
+      <c r="I39" s="20">
+        <f>(F39-G39)*100</f>
+        <v>396</v>
+      </c>
+      <c r="J39" s="20">
+        <f>FLOOR(1000/(F39-G39),100)</f>
+        <v>200</v>
+      </c>
+      <c r="K39" s="55">
+        <f>(H39-F39)/(F39-G39)</f>
+        <v>1.28030303030303</v>
+      </c>
+      <c r="L39" s="56">
+        <f>(F39-G39)/F39</f>
+        <v>0.0913073553147337</v>
+      </c>
+      <c r="M39" s="62">
+        <f>(H39-F39)/F39</f>
+        <v>0.116901083698409</v>
+      </c>
+      <c r="N39" s="70" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="35"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="55"/>
-      <c r="M40" s="69"/>
-      <c r="N40" s="70"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="71"/>
+      <c r="N40" s="72"/>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="35"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="55"/>
-      <c r="M41" s="69"/>
-      <c r="N41" s="70"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="57"/>
+      <c r="M41" s="71"/>
+      <c r="N41" s="72"/>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="35"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="55"/>
-      <c r="M42" s="69"/>
-      <c r="N42" s="70"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="57"/>
+      <c r="M42" s="71"/>
+      <c r="N42" s="72"/>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="35"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="55"/>
-      <c r="M43" s="69"/>
-      <c r="N43" s="70"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="57"/>
+      <c r="M43" s="71"/>
+      <c r="N43" s="72"/>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="35"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="35"/>
-      <c r="L44" s="55"/>
-      <c r="M44" s="69"/>
-      <c r="N44" s="70"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="57"/>
+      <c r="M44" s="71"/>
+      <c r="N44" s="72"/>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="6"/>
-      <c r="B45" s="35"/>
+      <c r="B45" s="37"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
-      <c r="L45" s="56"/>
-      <c r="N45" s="70"/>
+      <c r="L45" s="58"/>
+      <c r="N45" s="72"/>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="D46" s="6"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="50"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="52"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
-      <c r="L46" s="56"/>
+      <c r="L46" s="58"/>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="D47" s="6"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="50"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="52"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
-      <c r="L47" s="56"/>
+      <c r="L47" s="58"/>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="D48" s="6"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="50"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="50"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="52"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
-      <c r="L48" s="56"/>
+      <c r="L48" s="58"/>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="D49" s="6"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="50"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
-      <c r="L49" s="56"/>
+      <c r="L49" s="58"/>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="50"/>
-      <c r="G50" s="50"/>
-      <c r="H50" s="50"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="52"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
-      <c r="L50" s="56"/>
+      <c r="L50" s="58"/>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="D51" s="6"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="50"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="52"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
-      <c r="L51" s="56"/>
+      <c r="L51" s="58"/>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="50"/>
-      <c r="H52" s="50"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="52"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
-      <c r="L52" s="56"/>
+      <c r="L52" s="58"/>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="50"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="50"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="52"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
-      <c r="L53" s="56"/>
+      <c r="L53" s="58"/>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="50"/>
-      <c r="F54" s="50"/>
-      <c r="G54" s="50"/>
-      <c r="H54" s="50"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="52"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
-      <c r="L54" s="56"/>
+      <c r="L54" s="58"/>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="50"/>
-      <c r="F55" s="50"/>
-      <c r="G55" s="50"/>
-      <c r="H55" s="50"/>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="52"/>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
-      <c r="L55" s="56"/>
+      <c r="L55" s="58"/>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="D56" s="6"/>
-      <c r="E56" s="50"/>
-      <c r="F56" s="50"/>
-      <c r="G56" s="50"/>
-      <c r="H56" s="50"/>
+      <c r="E56" s="52"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
-      <c r="L56" s="56"/>
+      <c r="L56" s="58"/>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="D57" s="6"/>
-      <c r="E57" s="50"/>
-      <c r="F57" s="50"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="50"/>
+      <c r="E57" s="52"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="52"/>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
-      <c r="L57" s="56"/>
+      <c r="L57" s="58"/>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="D58" s="6"/>
-      <c r="E58" s="50"/>
-      <c r="F58" s="50"/>
-      <c r="G58" s="50"/>
-      <c r="H58" s="50"/>
+      <c r="E58" s="52"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="52"/>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
-      <c r="L58" s="56"/>
+      <c r="L58" s="58"/>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="50"/>
-      <c r="F59" s="50"/>
-      <c r="G59" s="50"/>
-      <c r="H59" s="50"/>
+      <c r="E59" s="52"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="52"/>
+      <c r="H59" s="52"/>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
-      <c r="L59" s="56"/>
+      <c r="L59" s="58"/>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="D60" s="6"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="50"/>
-      <c r="G60" s="50"/>
-      <c r="H60" s="50"/>
+      <c r="E60" s="52"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="52"/>
+      <c r="H60" s="52"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
-      <c r="L60" s="56"/>
+      <c r="L60" s="58"/>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="50"/>
-      <c r="F61" s="50"/>
-      <c r="G61" s="50"/>
-      <c r="H61" s="50"/>
+      <c r="E61" s="52"/>
+      <c r="F61" s="52"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="52"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
-      <c r="L61" s="56"/>
+      <c r="L61" s="58"/>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="50"/>
-      <c r="F62" s="50"/>
-      <c r="G62" s="50"/>
-      <c r="H62" s="50"/>
+      <c r="E62" s="52"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="52"/>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
-      <c r="L62" s="56"/>
+      <c r="L62" s="58"/>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="D63" s="6"/>
-      <c r="E63" s="50"/>
-      <c r="F63" s="50"/>
-      <c r="G63" s="50"/>
-      <c r="H63" s="50"/>
+      <c r="E63" s="52"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="52"/>
+      <c r="H63" s="52"/>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
-      <c r="L63" s="56"/>
+      <c r="L63" s="58"/>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="D64" s="6"/>
-      <c r="E64" s="50"/>
-      <c r="F64" s="50"/>
-      <c r="G64" s="50"/>
-      <c r="H64" s="50"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="52"/>
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
-      <c r="L64" s="56"/>
+      <c r="L64" s="58"/>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="D65" s="6"/>
-      <c r="E65" s="50"/>
-      <c r="F65" s="50"/>
-      <c r="G65" s="50"/>
-      <c r="H65" s="50"/>
+      <c r="E65" s="52"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="52"/>
+      <c r="H65" s="52"/>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
-      <c r="L65" s="56"/>
+      <c r="L65" s="58"/>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="D66" s="6"/>
-      <c r="E66" s="50"/>
-      <c r="F66" s="50"/>
-      <c r="G66" s="50"/>
-      <c r="H66" s="50"/>
+      <c r="E66" s="52"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="52"/>
+      <c r="H66" s="52"/>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
-      <c r="L66" s="56"/>
+      <c r="L66" s="58"/>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="D67" s="6"/>
-      <c r="E67" s="50"/>
-      <c r="F67" s="50"/>
-      <c r="G67" s="50"/>
-      <c r="H67" s="50"/>
+      <c r="E67" s="52"/>
+      <c r="F67" s="52"/>
+      <c r="G67" s="52"/>
+      <c r="H67" s="52"/>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
-      <c r="L67" s="56"/>
+      <c r="L67" s="58"/>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="D68" s="6"/>
-      <c r="E68" s="50"/>
-      <c r="F68" s="50"/>
-      <c r="G68" s="50"/>
-      <c r="H68" s="50"/>
+      <c r="E68" s="52"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="52"/>
+      <c r="H68" s="52"/>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
-      <c r="L68" s="56"/>
+      <c r="L68" s="58"/>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="D69" s="6"/>
-      <c r="E69" s="50"/>
-      <c r="F69" s="50"/>
-      <c r="G69" s="50"/>
-      <c r="H69" s="50"/>
+      <c r="E69" s="52"/>
+      <c r="F69" s="52"/>
+      <c r="G69" s="52"/>
+      <c r="H69" s="52"/>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
-      <c r="L69" s="56"/>
+      <c r="L69" s="58"/>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="D70" s="6"/>
-      <c r="E70" s="50"/>
-      <c r="F70" s="50"/>
-      <c r="G70" s="50"/>
-      <c r="H70" s="50"/>
+      <c r="E70" s="52"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="52"/>
+      <c r="H70" s="52"/>
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
-      <c r="L70" s="56"/>
+      <c r="L70" s="58"/>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="D71" s="6"/>
-      <c r="E71" s="50"/>
-      <c r="F71" s="50"/>
-      <c r="G71" s="50"/>
-      <c r="H71" s="50"/>
+      <c r="E71" s="52"/>
+      <c r="F71" s="52"/>
+      <c r="G71" s="52"/>
+      <c r="H71" s="52"/>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
-      <c r="L71" s="56"/>
+      <c r="L71" s="58"/>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="D72" s="6"/>
-      <c r="E72" s="50"/>
-      <c r="F72" s="50"/>
-      <c r="G72" s="50"/>
-      <c r="H72" s="50"/>
+      <c r="E72" s="52"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="52"/>
+      <c r="H72" s="52"/>
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
-      <c r="L72" s="56"/>
+      <c r="L72" s="58"/>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="D73" s="6"/>
-      <c r="E73" s="50"/>
-      <c r="F73" s="50"/>
-      <c r="G73" s="50"/>
-      <c r="H73" s="50"/>
+      <c r="E73" s="52"/>
+      <c r="F73" s="52"/>
+      <c r="G73" s="52"/>
+      <c r="H73" s="52"/>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
-      <c r="L73" s="56"/>
+      <c r="L73" s="58"/>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="D74" s="6"/>
-      <c r="E74" s="50"/>
-      <c r="F74" s="50"/>
-      <c r="G74" s="50"/>
-      <c r="H74" s="50"/>
+      <c r="E74" s="52"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="52"/>
+      <c r="H74" s="52"/>
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
       <c r="K74" s="6"/>
-      <c r="L74" s="56"/>
+      <c r="L74" s="58"/>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="D75" s="6"/>
-      <c r="E75" s="50"/>
-      <c r="F75" s="50"/>
-      <c r="G75" s="50"/>
-      <c r="H75" s="50"/>
+      <c r="E75" s="52"/>
+      <c r="F75" s="52"/>
+      <c r="G75" s="52"/>
+      <c r="H75" s="52"/>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
-      <c r="L75" s="56"/>
+      <c r="L75" s="58"/>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="D76" s="6"/>
-      <c r="E76" s="50"/>
-      <c r="F76" s="50"/>
-      <c r="G76" s="50"/>
-      <c r="H76" s="50"/>
+      <c r="E76" s="52"/>
+      <c r="F76" s="52"/>
+      <c r="G76" s="52"/>
+      <c r="H76" s="52"/>
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
       <c r="K76" s="6"/>
-      <c r="L76" s="56"/>
+      <c r="L76" s="58"/>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="D77" s="6"/>
-      <c r="E77" s="50"/>
-      <c r="F77" s="50"/>
-      <c r="G77" s="50"/>
-      <c r="H77" s="50"/>
+      <c r="E77" s="52"/>
+      <c r="F77" s="52"/>
+      <c r="G77" s="52"/>
+      <c r="H77" s="52"/>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
-      <c r="L77" s="56"/>
+      <c r="L77" s="58"/>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="D78" s="6"/>
-      <c r="E78" s="50"/>
-      <c r="F78" s="50"/>
-      <c r="G78" s="50"/>
-      <c r="H78" s="50"/>
+      <c r="E78" s="52"/>
+      <c r="F78" s="52"/>
+      <c r="G78" s="52"/>
+      <c r="H78" s="52"/>
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
-      <c r="L78" s="56"/>
+      <c r="L78" s="58"/>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="D79" s="6"/>
-      <c r="E79" s="50"/>
-      <c r="F79" s="50"/>
-      <c r="G79" s="50"/>
-      <c r="H79" s="50"/>
+      <c r="E79" s="52"/>
+      <c r="F79" s="52"/>
+      <c r="G79" s="52"/>
+      <c r="H79" s="52"/>
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
-      <c r="L79" s="56"/>
+      <c r="L79" s="58"/>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="D80" s="6"/>
-      <c r="E80" s="50"/>
-      <c r="F80" s="50"/>
-      <c r="G80" s="50"/>
-      <c r="H80" s="50"/>
+      <c r="E80" s="52"/>
+      <c r="F80" s="52"/>
+      <c r="G80" s="52"/>
+      <c r="H80" s="52"/>
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
-      <c r="L80" s="56"/>
+      <c r="L80" s="58"/>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="D81" s="6"/>
-      <c r="E81" s="50"/>
-      <c r="F81" s="50"/>
-      <c r="G81" s="50"/>
-      <c r="H81" s="50"/>
+      <c r="E81" s="52"/>
+      <c r="F81" s="52"/>
+      <c r="G81" s="52"/>
+      <c r="H81" s="52"/>
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
-      <c r="L81" s="56"/>
+      <c r="L81" s="58"/>
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="D82" s="6"/>
-      <c r="E82" s="50"/>
-      <c r="F82" s="50"/>
-      <c r="G82" s="50"/>
-      <c r="H82" s="50"/>
+      <c r="E82" s="52"/>
+      <c r="F82" s="52"/>
+      <c r="G82" s="52"/>
+      <c r="H82" s="52"/>
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
-      <c r="L82" s="56"/>
+      <c r="L82" s="58"/>
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="D83" s="6"/>
-      <c r="E83" s="50"/>
-      <c r="F83" s="50"/>
-      <c r="G83" s="50"/>
-      <c r="H83" s="50"/>
+      <c r="E83" s="52"/>
+      <c r="F83" s="52"/>
+      <c r="G83" s="52"/>
+      <c r="H83" s="52"/>
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
-      <c r="L83" s="56"/>
+      <c r="L83" s="58"/>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="D84" s="6"/>
-      <c r="E84" s="50"/>
-      <c r="F84" s="50"/>
-      <c r="G84" s="50"/>
-      <c r="H84" s="50"/>
+      <c r="E84" s="52"/>
+      <c r="F84" s="52"/>
+      <c r="G84" s="52"/>
+      <c r="H84" s="52"/>
       <c r="I84" s="6"/>
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
-      <c r="L84" s="56"/>
+      <c r="L84" s="58"/>
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="D85" s="6"/>
-      <c r="E85" s="50"/>
-      <c r="F85" s="50"/>
-      <c r="G85" s="50"/>
-      <c r="H85" s="50"/>
+      <c r="E85" s="52"/>
+      <c r="F85" s="52"/>
+      <c r="G85" s="52"/>
+      <c r="H85" s="52"/>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
-      <c r="L85" s="56"/>
+      <c r="L85" s="58"/>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="D86" s="6"/>
-      <c r="E86" s="50"/>
-      <c r="F86" s="50"/>
-      <c r="G86" s="50"/>
-      <c r="H86" s="50"/>
+      <c r="E86" s="52"/>
+      <c r="F86" s="52"/>
+      <c r="G86" s="52"/>
+      <c r="H86" s="52"/>
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
       <c r="K86" s="6"/>
-      <c r="L86" s="56"/>
+      <c r="L86" s="58"/>
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="D87" s="6"/>
-      <c r="E87" s="50"/>
-      <c r="F87" s="50"/>
-      <c r="G87" s="50"/>
-      <c r="H87" s="50"/>
+      <c r="E87" s="52"/>
+      <c r="F87" s="52"/>
+      <c r="G87" s="52"/>
+      <c r="H87" s="52"/>
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
       <c r="K87" s="6"/>
-      <c r="L87" s="56"/>
+      <c r="L87" s="58"/>
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="D88" s="6"/>
-      <c r="E88" s="50"/>
-      <c r="F88" s="50"/>
-      <c r="G88" s="50"/>
-      <c r="H88" s="50"/>
+      <c r="E88" s="52"/>
+      <c r="F88" s="52"/>
+      <c r="G88" s="52"/>
+      <c r="H88" s="52"/>
       <c r="I88" s="6"/>
       <c r="J88" s="6"/>
       <c r="K88" s="6"/>
-      <c r="L88" s="56"/>
+      <c r="L88" s="58"/>
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="D89" s="6"/>
-      <c r="E89" s="50"/>
-      <c r="F89" s="50"/>
-      <c r="G89" s="50"/>
-      <c r="H89" s="50"/>
+      <c r="E89" s="52"/>
+      <c r="F89" s="52"/>
+      <c r="G89" s="52"/>
+      <c r="H89" s="52"/>
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
       <c r="K89" s="6"/>
-      <c r="L89" s="56"/>
+      <c r="L89" s="58"/>
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="D90" s="6"/>
-      <c r="E90" s="50"/>
-      <c r="F90" s="50"/>
-      <c r="G90" s="50"/>
-      <c r="H90" s="50"/>
+      <c r="E90" s="52"/>
+      <c r="F90" s="52"/>
+      <c r="G90" s="52"/>
+      <c r="H90" s="52"/>
       <c r="I90" s="6"/>
       <c r="J90" s="6"/>
       <c r="K90" s="6"/>
-      <c r="L90" s="56"/>
+      <c r="L90" s="58"/>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="D91" s="6"/>
-      <c r="E91" s="50"/>
-      <c r="F91" s="50"/>
-      <c r="G91" s="50"/>
-      <c r="H91" s="50"/>
+      <c r="E91" s="52"/>
+      <c r="F91" s="52"/>
+      <c r="G91" s="52"/>
+      <c r="H91" s="52"/>
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
       <c r="K91" s="6"/>
-      <c r="L91" s="56"/>
+      <c r="L91" s="58"/>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="D92" s="6"/>
-      <c r="E92" s="50"/>
-      <c r="F92" s="50"/>
-      <c r="G92" s="50"/>
-      <c r="H92" s="50"/>
+      <c r="E92" s="52"/>
+      <c r="F92" s="52"/>
+      <c r="G92" s="52"/>
+      <c r="H92" s="52"/>
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
       <c r="K92" s="6"/>
-      <c r="L92" s="56"/>
+      <c r="L92" s="58"/>
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="D93" s="6"/>
-      <c r="E93" s="50"/>
-      <c r="F93" s="50"/>
-      <c r="G93" s="50"/>
-      <c r="H93" s="50"/>
+      <c r="E93" s="52"/>
+      <c r="F93" s="52"/>
+      <c r="G93" s="52"/>
+      <c r="H93" s="52"/>
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
       <c r="K93" s="6"/>
-      <c r="L93" s="56"/>
+      <c r="L93" s="58"/>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="D94" s="6"/>
-      <c r="E94" s="50"/>
-      <c r="F94" s="50"/>
-      <c r="G94" s="50"/>
-      <c r="H94" s="50"/>
+      <c r="E94" s="52"/>
+      <c r="F94" s="52"/>
+      <c r="G94" s="52"/>
+      <c r="H94" s="52"/>
       <c r="I94" s="6"/>
       <c r="J94" s="6"/>
       <c r="K94" s="6"/>
-      <c r="L94" s="56"/>
+      <c r="L94" s="58"/>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="D95" s="6"/>
-      <c r="E95" s="50"/>
-      <c r="F95" s="50"/>
-      <c r="G95" s="50"/>
-      <c r="H95" s="50"/>
+      <c r="E95" s="52"/>
+      <c r="F95" s="52"/>
+      <c r="G95" s="52"/>
+      <c r="H95" s="52"/>
       <c r="I95" s="6"/>
       <c r="J95" s="6"/>
       <c r="K95" s="6"/>
-      <c r="L95" s="56"/>
+      <c r="L95" s="58"/>
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="D96" s="6"/>
-      <c r="E96" s="50"/>
-      <c r="F96" s="50"/>
-      <c r="G96" s="50"/>
-      <c r="H96" s="50"/>
+      <c r="E96" s="52"/>
+      <c r="F96" s="52"/>
+      <c r="G96" s="52"/>
+      <c r="H96" s="52"/>
       <c r="I96" s="6"/>
       <c r="J96" s="6"/>
       <c r="K96" s="6"/>
-      <c r="L96" s="56"/>
+      <c r="L96" s="58"/>
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="D97" s="6"/>
-      <c r="E97" s="50"/>
-      <c r="F97" s="50"/>
-      <c r="G97" s="50"/>
-      <c r="H97" s="50"/>
+      <c r="E97" s="52"/>
+      <c r="F97" s="52"/>
+      <c r="G97" s="52"/>
+      <c r="H97" s="52"/>
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
       <c r="K97" s="6"/>
-      <c r="L97" s="56"/>
+      <c r="L97" s="58"/>
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="D98" s="6"/>
-      <c r="E98" s="50"/>
-      <c r="F98" s="50"/>
-      <c r="G98" s="50"/>
-      <c r="H98" s="50"/>
+      <c r="E98" s="52"/>
+      <c r="F98" s="52"/>
+      <c r="G98" s="52"/>
+      <c r="H98" s="52"/>
       <c r="I98" s="6"/>
       <c r="J98" s="6"/>
       <c r="K98" s="6"/>
-      <c r="L98" s="56"/>
+      <c r="L98" s="58"/>
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="D99" s="6"/>
-      <c r="E99" s="50"/>
-      <c r="F99" s="50"/>
-      <c r="G99" s="50"/>
-      <c r="H99" s="50"/>
+      <c r="E99" s="52"/>
+      <c r="F99" s="52"/>
+      <c r="G99" s="52"/>
+      <c r="H99" s="52"/>
       <c r="I99" s="6"/>
       <c r="J99" s="6"/>
       <c r="K99" s="6"/>
-      <c r="L99" s="56"/>
+      <c r="L99" s="58"/>
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="D100" s="6"/>
-      <c r="E100" s="50"/>
-      <c r="F100" s="50"/>
-      <c r="G100" s="50"/>
-      <c r="H100" s="50"/>
+      <c r="E100" s="52"/>
+      <c r="F100" s="52"/>
+      <c r="G100" s="52"/>
+      <c r="H100" s="52"/>
       <c r="I100" s="6"/>
       <c r="J100" s="6"/>
       <c r="K100" s="6"/>
-      <c r="L100" s="56"/>
+      <c r="L100" s="58"/>
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="D101" s="6"/>
-      <c r="E101" s="50"/>
-      <c r="F101" s="50"/>
-      <c r="G101" s="50"/>
-      <c r="H101" s="50"/>
+      <c r="E101" s="52"/>
+      <c r="F101" s="52"/>
+      <c r="G101" s="52"/>
+      <c r="H101" s="52"/>
       <c r="I101" s="6"/>
       <c r="J101" s="6"/>
       <c r="K101" s="6"/>
-      <c r="L101" s="56"/>
+      <c r="L101" s="58"/>
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="D102" s="6"/>
-      <c r="E102" s="50"/>
-      <c r="F102" s="50"/>
-      <c r="G102" s="50"/>
-      <c r="H102" s="50"/>
+      <c r="E102" s="52"/>
+      <c r="F102" s="52"/>
+      <c r="G102" s="52"/>
+      <c r="H102" s="52"/>
       <c r="I102" s="6"/>
       <c r="J102" s="6"/>
       <c r="K102" s="6"/>
-      <c r="L102" s="56"/>
+      <c r="L102" s="58"/>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="D103" s="6"/>
-      <c r="E103" s="50"/>
-      <c r="F103" s="50"/>
-      <c r="G103" s="50"/>
-      <c r="H103" s="50"/>
+      <c r="E103" s="52"/>
+      <c r="F103" s="52"/>
+      <c r="G103" s="52"/>
+      <c r="H103" s="52"/>
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
       <c r="K103" s="6"/>
-      <c r="L103" s="56"/>
+      <c r="L103" s="58"/>
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="D104" s="6"/>
-      <c r="E104" s="50"/>
-      <c r="F104" s="50"/>
-      <c r="G104" s="50"/>
-      <c r="H104" s="50"/>
+      <c r="E104" s="52"/>
+      <c r="F104" s="52"/>
+      <c r="G104" s="52"/>
+      <c r="H104" s="52"/>
       <c r="I104" s="6"/>
       <c r="J104" s="6"/>
       <c r="K104" s="6"/>
-      <c r="L104" s="56"/>
+      <c r="L104" s="58"/>
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="D105" s="6"/>
-      <c r="E105" s="50"/>
-      <c r="F105" s="50"/>
-      <c r="G105" s="50"/>
-      <c r="H105" s="50"/>
+      <c r="E105" s="52"/>
+      <c r="F105" s="52"/>
+      <c r="G105" s="52"/>
+      <c r="H105" s="52"/>
       <c r="I105" s="6"/>
       <c r="J105" s="6"/>
       <c r="K105" s="6"/>
-      <c r="L105" s="56"/>
+      <c r="L105" s="58"/>
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="D106" s="6"/>
-      <c r="E106" s="50"/>
-      <c r="F106" s="50"/>
-      <c r="G106" s="50"/>
-      <c r="H106" s="50"/>
+      <c r="E106" s="52"/>
+      <c r="F106" s="52"/>
+      <c r="G106" s="52"/>
+      <c r="H106" s="52"/>
       <c r="I106" s="6"/>
       <c r="J106" s="6"/>
       <c r="K106" s="6"/>
-      <c r="L106" s="56"/>
+      <c r="L106" s="58"/>
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="D107" s="6"/>
-      <c r="E107" s="50"/>
-      <c r="F107" s="50"/>
-      <c r="G107" s="50"/>
-      <c r="H107" s="50"/>
+      <c r="E107" s="52"/>
+      <c r="F107" s="52"/>
+      <c r="G107" s="52"/>
+      <c r="H107" s="52"/>
       <c r="I107" s="6"/>
       <c r="J107" s="6"/>
       <c r="K107" s="6"/>
-      <c r="L107" s="56"/>
+      <c r="L107" s="58"/>
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="D108" s="6"/>
-      <c r="E108" s="50"/>
-      <c r="F108" s="50"/>
-      <c r="G108" s="50"/>
-      <c r="H108" s="50"/>
+      <c r="E108" s="52"/>
+      <c r="F108" s="52"/>
+      <c r="G108" s="52"/>
+      <c r="H108" s="52"/>
       <c r="I108" s="6"/>
       <c r="J108" s="6"/>
       <c r="K108" s="6"/>
-      <c r="L108" s="56"/>
+      <c r="L108" s="58"/>
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="D109" s="6"/>
-      <c r="E109" s="50"/>
-      <c r="F109" s="50"/>
-      <c r="G109" s="50"/>
-      <c r="H109" s="50"/>
+      <c r="E109" s="52"/>
+      <c r="F109" s="52"/>
+      <c r="G109" s="52"/>
+      <c r="H109" s="52"/>
       <c r="I109" s="6"/>
       <c r="J109" s="6"/>
       <c r="K109" s="6"/>
-      <c r="L109" s="56"/>
+      <c r="L109" s="58"/>
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="D110" s="6"/>
-      <c r="E110" s="50"/>
-      <c r="F110" s="50"/>
-      <c r="G110" s="50"/>
-      <c r="H110" s="50"/>
+      <c r="E110" s="52"/>
+      <c r="F110" s="52"/>
+      <c r="G110" s="52"/>
+      <c r="H110" s="52"/>
       <c r="I110" s="6"/>
       <c r="J110" s="6"/>
       <c r="K110" s="6"/>
-      <c r="L110" s="56"/>
+      <c r="L110" s="58"/>
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="D111" s="6"/>
-      <c r="E111" s="50"/>
-      <c r="F111" s="50"/>
-      <c r="G111" s="50"/>
-      <c r="H111" s="50"/>
+      <c r="E111" s="52"/>
+      <c r="F111" s="52"/>
+      <c r="G111" s="52"/>
+      <c r="H111" s="52"/>
       <c r="I111" s="6"/>
       <c r="J111" s="6"/>
       <c r="K111" s="6"/>
-      <c r="L111" s="56"/>
+      <c r="L111" s="58"/>
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="D112" s="6"/>
-      <c r="E112" s="50"/>
-      <c r="F112" s="50"/>
-      <c r="G112" s="50"/>
-      <c r="H112" s="50"/>
+      <c r="E112" s="52"/>
+      <c r="F112" s="52"/>
+      <c r="G112" s="52"/>
+      <c r="H112" s="52"/>
       <c r="I112" s="6"/>
       <c r="J112" s="6"/>
       <c r="K112" s="6"/>
-      <c r="L112" s="56"/>
+      <c r="L112" s="58"/>
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="D113" s="6"/>
-      <c r="E113" s="50"/>
-      <c r="F113" s="50"/>
-      <c r="G113" s="50"/>
-      <c r="H113" s="50"/>
+      <c r="E113" s="52"/>
+      <c r="F113" s="52"/>
+      <c r="G113" s="52"/>
+      <c r="H113" s="52"/>
       <c r="I113" s="6"/>
       <c r="J113" s="6"/>
       <c r="K113" s="6"/>
-      <c r="L113" s="56"/>
+      <c r="L113" s="58"/>
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="D114" s="6"/>
-      <c r="E114" s="50"/>
-      <c r="F114" s="50"/>
-      <c r="G114" s="50"/>
-      <c r="H114" s="50"/>
+      <c r="E114" s="52"/>
+      <c r="F114" s="52"/>
+      <c r="G114" s="52"/>
+      <c r="H114" s="52"/>
       <c r="I114" s="6"/>
       <c r="J114" s="6"/>
       <c r="K114" s="6"/>
-      <c r="L114" s="56"/>
+      <c r="L114" s="58"/>
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="D115" s="6"/>
-      <c r="E115" s="50"/>
-      <c r="F115" s="50"/>
-      <c r="G115" s="50"/>
-      <c r="H115" s="50"/>
+      <c r="E115" s="52"/>
+      <c r="F115" s="52"/>
+      <c r="G115" s="52"/>
+      <c r="H115" s="52"/>
       <c r="I115" s="6"/>
       <c r="J115" s="6"/>
       <c r="K115" s="6"/>
-      <c r="L115" s="56"/>
+      <c r="L115" s="58"/>
     </row>
     <row r="116" spans="1:12">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="D116" s="6"/>
-      <c r="E116" s="50"/>
-      <c r="F116" s="50"/>
-      <c r="G116" s="50"/>
-      <c r="H116" s="50"/>
+      <c r="E116" s="52"/>
+      <c r="F116" s="52"/>
+      <c r="G116" s="52"/>
+      <c r="H116" s="52"/>
       <c r="I116" s="6"/>
       <c r="J116" s="6"/>
       <c r="K116" s="6"/>
-      <c r="L116" s="56"/>
+      <c r="L116" s="58"/>
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="D117" s="6"/>
-      <c r="E117" s="50"/>
-      <c r="F117" s="50"/>
-      <c r="G117" s="50"/>
-      <c r="H117" s="50"/>
+      <c r="E117" s="52"/>
+      <c r="F117" s="52"/>
+      <c r="G117" s="52"/>
+      <c r="H117" s="52"/>
       <c r="I117" s="6"/>
       <c r="J117" s="6"/>
       <c r="K117" s="6"/>
-      <c r="L117" s="56"/>
+      <c r="L117" s="58"/>
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="D118" s="6"/>
-      <c r="E118" s="50"/>
-      <c r="F118" s="50"/>
-      <c r="G118" s="50"/>
-      <c r="H118" s="50"/>
+      <c r="E118" s="52"/>
+      <c r="F118" s="52"/>
+      <c r="G118" s="52"/>
+      <c r="H118" s="52"/>
       <c r="I118" s="6"/>
       <c r="J118" s="6"/>
       <c r="K118" s="6"/>
-      <c r="L118" s="56"/>
+      <c r="L118" s="58"/>
     </row>
     <row r="119" spans="1:12">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="D119" s="6"/>
-      <c r="E119" s="50"/>
-      <c r="F119" s="50"/>
-      <c r="G119" s="50"/>
-      <c r="H119" s="50"/>
+      <c r="E119" s="52"/>
+      <c r="F119" s="52"/>
+      <c r="G119" s="52"/>
+      <c r="H119" s="52"/>
       <c r="I119" s="6"/>
       <c r="J119" s="6"/>
       <c r="K119" s="6"/>
-      <c r="L119" s="56"/>
+      <c r="L119" s="58"/>
     </row>
     <row r="120" spans="1:12">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="D120" s="6"/>
-      <c r="E120" s="50"/>
-      <c r="F120" s="50"/>
-      <c r="G120" s="50"/>
-      <c r="H120" s="50"/>
+      <c r="E120" s="52"/>
+      <c r="F120" s="52"/>
+      <c r="G120" s="52"/>
+      <c r="H120" s="52"/>
       <c r="I120" s="6"/>
       <c r="J120" s="6"/>
       <c r="K120" s="6"/>
-      <c r="L120" s="56"/>
+      <c r="L120" s="58"/>
     </row>
     <row r="121" spans="1:12">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="D121" s="6"/>
-      <c r="E121" s="50"/>
-      <c r="F121" s="50"/>
-      <c r="G121" s="50"/>
-      <c r="H121" s="50"/>
+      <c r="E121" s="52"/>
+      <c r="F121" s="52"/>
+      <c r="G121" s="52"/>
+      <c r="H121" s="52"/>
       <c r="I121" s="6"/>
       <c r="J121" s="6"/>
       <c r="K121" s="6"/>
-      <c r="L121" s="56"/>
+      <c r="L121" s="58"/>
     </row>
     <row r="122" spans="1:12">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="D122" s="6"/>
-      <c r="E122" s="50"/>
-      <c r="F122" s="50"/>
-      <c r="G122" s="50"/>
-      <c r="H122" s="50"/>
+      <c r="E122" s="52"/>
+      <c r="F122" s="52"/>
+      <c r="G122" s="52"/>
+      <c r="H122" s="52"/>
       <c r="I122" s="6"/>
       <c r="J122" s="6"/>
       <c r="K122" s="6"/>
-      <c r="L122" s="56"/>
+      <c r="L122" s="58"/>
     </row>
     <row r="123" spans="1:12">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="D123" s="6"/>
-      <c r="E123" s="50"/>
-      <c r="F123" s="50"/>
-      <c r="G123" s="50"/>
-      <c r="H123" s="50"/>
+      <c r="E123" s="52"/>
+      <c r="F123" s="52"/>
+      <c r="G123" s="52"/>
+      <c r="H123" s="52"/>
       <c r="I123" s="6"/>
       <c r="J123" s="6"/>
       <c r="K123" s="6"/>
-      <c r="L123" s="56"/>
+      <c r="L123" s="58"/>
     </row>
     <row r="124" spans="1:12">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="D124" s="6"/>
-      <c r="E124" s="50"/>
-      <c r="F124" s="50"/>
-      <c r="G124" s="50"/>
-      <c r="H124" s="50"/>
+      <c r="E124" s="52"/>
+      <c r="F124" s="52"/>
+      <c r="G124" s="52"/>
+      <c r="H124" s="52"/>
       <c r="I124" s="6"/>
       <c r="J124" s="6"/>
       <c r="K124" s="6"/>
-      <c r="L124" s="56"/>
+      <c r="L124" s="58"/>
     </row>
     <row r="125" spans="1:12">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="D125" s="6"/>
-      <c r="E125" s="50"/>
-      <c r="F125" s="50"/>
-      <c r="G125" s="50"/>
-      <c r="H125" s="50"/>
+      <c r="E125" s="52"/>
+      <c r="F125" s="52"/>
+      <c r="G125" s="52"/>
+      <c r="H125" s="52"/>
       <c r="I125" s="6"/>
       <c r="J125" s="6"/>
       <c r="K125" s="6"/>
-      <c r="L125" s="56"/>
+      <c r="L125" s="58"/>
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="D126" s="6"/>
-      <c r="E126" s="50"/>
-      <c r="F126" s="50"/>
-      <c r="G126" s="50"/>
-      <c r="H126" s="50"/>
+      <c r="E126" s="52"/>
+      <c r="F126" s="52"/>
+      <c r="G126" s="52"/>
+      <c r="H126" s="52"/>
       <c r="I126" s="6"/>
       <c r="J126" s="6"/>
       <c r="K126" s="6"/>
-      <c r="L126" s="56"/>
+      <c r="L126" s="58"/>
     </row>
     <row r="127" spans="1:12">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="D127" s="6"/>
-      <c r="E127" s="50"/>
-      <c r="F127" s="50"/>
-      <c r="G127" s="50"/>
-      <c r="H127" s="50"/>
+      <c r="E127" s="52"/>
+      <c r="F127" s="52"/>
+      <c r="G127" s="52"/>
+      <c r="H127" s="52"/>
       <c r="I127" s="6"/>
       <c r="J127" s="6"/>
       <c r="K127" s="6"/>
-      <c r="L127" s="56"/>
+      <c r="L127" s="58"/>
     </row>
     <row r="128" spans="1:12">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="D128" s="6"/>
-      <c r="E128" s="50"/>
-      <c r="F128" s="50"/>
-      <c r="G128" s="50"/>
-      <c r="H128" s="50"/>
+      <c r="E128" s="52"/>
+      <c r="F128" s="52"/>
+      <c r="G128" s="52"/>
+      <c r="H128" s="52"/>
       <c r="I128" s="6"/>
       <c r="J128" s="6"/>
       <c r="K128" s="6"/>
-      <c r="L128" s="56"/>
+      <c r="L128" s="58"/>
     </row>
     <row r="129" spans="1:12">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="D129" s="6"/>
-      <c r="E129" s="50"/>
-      <c r="F129" s="50"/>
-      <c r="G129" s="50"/>
-      <c r="H129" s="50"/>
+      <c r="E129" s="52"/>
+      <c r="F129" s="52"/>
+      <c r="G129" s="52"/>
+      <c r="H129" s="52"/>
       <c r="I129" s="6"/>
       <c r="J129" s="6"/>
       <c r="K129" s="6"/>
-      <c r="L129" s="56"/>
+      <c r="L129" s="58"/>
     </row>
     <row r="130" spans="1:12">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="D130" s="6"/>
-      <c r="E130" s="50"/>
-      <c r="F130" s="50"/>
-      <c r="G130" s="50"/>
-      <c r="H130" s="50"/>
+      <c r="E130" s="52"/>
+      <c r="F130" s="52"/>
+      <c r="G130" s="52"/>
+      <c r="H130" s="52"/>
       <c r="I130" s="6"/>
       <c r="J130" s="6"/>
       <c r="K130" s="6"/>
-      <c r="L130" s="56"/>
+      <c r="L130" s="58"/>
     </row>
     <row r="131" spans="1:12">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="D131" s="6"/>
-      <c r="E131" s="50"/>
-      <c r="F131" s="50"/>
-      <c r="G131" s="50"/>
-      <c r="H131" s="50"/>
+      <c r="E131" s="52"/>
+      <c r="F131" s="52"/>
+      <c r="G131" s="52"/>
+      <c r="H131" s="52"/>
       <c r="I131" s="6"/>
       <c r="J131" s="6"/>
       <c r="K131" s="6"/>
-      <c r="L131" s="56"/>
+      <c r="L131" s="58"/>
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="D132" s="6"/>
-      <c r="E132" s="50"/>
-      <c r="F132" s="50"/>
-      <c r="G132" s="50"/>
-      <c r="H132" s="50"/>
+      <c r="E132" s="52"/>
+      <c r="F132" s="52"/>
+      <c r="G132" s="52"/>
+      <c r="H132" s="52"/>
       <c r="I132" s="6"/>
       <c r="J132" s="6"/>
       <c r="K132" s="6"/>
-      <c r="L132" s="56"/>
+      <c r="L132" s="58"/>
     </row>
     <row r="133" spans="1:12">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="D133" s="6"/>
-      <c r="E133" s="50"/>
-      <c r="F133" s="50"/>
-      <c r="G133" s="50"/>
-      <c r="H133" s="50"/>
+      <c r="E133" s="52"/>
+      <c r="F133" s="52"/>
+      <c r="G133" s="52"/>
+      <c r="H133" s="52"/>
       <c r="I133" s="6"/>
       <c r="J133" s="6"/>
       <c r="K133" s="6"/>
-      <c r="L133" s="56"/>
+      <c r="L133" s="58"/>
     </row>
     <row r="134" spans="1:12">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="D134" s="6"/>
-      <c r="E134" s="50"/>
-      <c r="F134" s="50"/>
-      <c r="G134" s="50"/>
-      <c r="H134" s="50"/>
+      <c r="E134" s="52"/>
+      <c r="F134" s="52"/>
+      <c r="G134" s="52"/>
+      <c r="H134" s="52"/>
       <c r="I134" s="6"/>
       <c r="J134" s="6"/>
       <c r="K134" s="6"/>
-      <c r="L134" s="56"/>
+      <c r="L134" s="58"/>
     </row>
     <row r="135" spans="1:12">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="D135" s="6"/>
-      <c r="E135" s="50"/>
-      <c r="F135" s="50"/>
-      <c r="G135" s="50"/>
-      <c r="H135" s="50"/>
+      <c r="E135" s="52"/>
+      <c r="F135" s="52"/>
+      <c r="G135" s="52"/>
+      <c r="H135" s="52"/>
       <c r="I135" s="6"/>
       <c r="J135" s="6"/>
       <c r="K135" s="6"/>
-      <c r="L135" s="56"/>
+      <c r="L135" s="58"/>
     </row>
     <row r="136" spans="1:12">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="D136" s="6"/>
-      <c r="E136" s="50"/>
-      <c r="F136" s="50"/>
-      <c r="G136" s="50"/>
-      <c r="H136" s="50"/>
+      <c r="E136" s="52"/>
+      <c r="F136" s="52"/>
+      <c r="G136" s="52"/>
+      <c r="H136" s="52"/>
       <c r="I136" s="6"/>
       <c r="J136" s="6"/>
       <c r="K136" s="6"/>
-      <c r="L136" s="56"/>
+      <c r="L136" s="58"/>
     </row>
     <row r="137" spans="1:12">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="D137" s="6"/>
-      <c r="E137" s="50"/>
-      <c r="F137" s="50"/>
-      <c r="G137" s="50"/>
-      <c r="H137" s="50"/>
+      <c r="E137" s="52"/>
+      <c r="F137" s="52"/>
+      <c r="G137" s="52"/>
+      <c r="H137" s="52"/>
       <c r="I137" s="6"/>
       <c r="J137" s="6"/>
       <c r="K137" s="6"/>
-      <c r="L137" s="56"/>
+      <c r="L137" s="58"/>
     </row>
     <row r="138" spans="1:12">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="D138" s="6"/>
-      <c r="E138" s="50"/>
-      <c r="F138" s="50"/>
-      <c r="G138" s="50"/>
-      <c r="H138" s="50"/>
+      <c r="E138" s="52"/>
+      <c r="F138" s="52"/>
+      <c r="G138" s="52"/>
+      <c r="H138" s="52"/>
       <c r="I138" s="6"/>
       <c r="J138" s="6"/>
       <c r="K138" s="6"/>
-      <c r="L138" s="56"/>
+      <c r="L138" s="58"/>
     </row>
     <row r="139" spans="1:12">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="D139" s="6"/>
-      <c r="E139" s="50"/>
-      <c r="F139" s="50"/>
-      <c r="G139" s="50"/>
-      <c r="H139" s="50"/>
+      <c r="E139" s="52"/>
+      <c r="F139" s="52"/>
+      <c r="G139" s="52"/>
+      <c r="H139" s="52"/>
       <c r="I139" s="6"/>
       <c r="J139" s="6"/>
       <c r="K139" s="6"/>
-      <c r="L139" s="56"/>
+      <c r="L139" s="58"/>
     </row>
     <row r="140" spans="1:12">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="D140" s="6"/>
-      <c r="E140" s="50"/>
-      <c r="F140" s="50"/>
-      <c r="G140" s="50"/>
-      <c r="H140" s="50"/>
+      <c r="E140" s="52"/>
+      <c r="F140" s="52"/>
+      <c r="G140" s="52"/>
+      <c r="H140" s="52"/>
       <c r="I140" s="6"/>
       <c r="J140" s="6"/>
       <c r="K140" s="6"/>
-      <c r="L140" s="56"/>
+      <c r="L140" s="58"/>
     </row>
     <row r="141" spans="1:12">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="D141" s="6"/>
-      <c r="E141" s="50"/>
-      <c r="F141" s="50"/>
-      <c r="G141" s="50"/>
-      <c r="H141" s="50"/>
+      <c r="E141" s="52"/>
+      <c r="F141" s="52"/>
+      <c r="G141" s="52"/>
+      <c r="H141" s="52"/>
       <c r="I141" s="6"/>
       <c r="J141" s="6"/>
       <c r="K141" s="6"/>
-      <c r="L141" s="56"/>
+      <c r="L141" s="58"/>
     </row>
     <row r="142" spans="1:12">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="D142" s="6"/>
-      <c r="E142" s="50"/>
-      <c r="F142" s="50"/>
-      <c r="G142" s="50"/>
-      <c r="H142" s="50"/>
+      <c r="E142" s="52"/>
+      <c r="F142" s="52"/>
+      <c r="G142" s="52"/>
+      <c r="H142" s="52"/>
       <c r="I142" s="6"/>
       <c r="J142" s="6"/>
       <c r="K142" s="6"/>
-      <c r="L142" s="56"/>
+      <c r="L142" s="58"/>
     </row>
     <row r="143" spans="1:12">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="D143" s="6"/>
-      <c r="E143" s="50"/>
-      <c r="F143" s="50"/>
-      <c r="G143" s="50"/>
-      <c r="H143" s="50"/>
+      <c r="E143" s="52"/>
+      <c r="F143" s="52"/>
+      <c r="G143" s="52"/>
+      <c r="H143" s="52"/>
       <c r="I143" s="6"/>
       <c r="J143" s="6"/>
       <c r="K143" s="6"/>
-      <c r="L143" s="56"/>
+      <c r="L143" s="58"/>
     </row>
     <row r="144" spans="1:12">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="D144" s="6"/>
-      <c r="E144" s="50"/>
-      <c r="F144" s="50"/>
-      <c r="G144" s="50"/>
-      <c r="H144" s="50"/>
+      <c r="E144" s="52"/>
+      <c r="F144" s="52"/>
+      <c r="G144" s="52"/>
+      <c r="H144" s="52"/>
       <c r="I144" s="6"/>
       <c r="J144" s="6"/>
       <c r="K144" s="6"/>
-      <c r="L144" s="56"/>
+      <c r="L144" s="58"/>
     </row>
     <row r="145" spans="1:12">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="D145" s="6"/>
-      <c r="E145" s="50"/>
-      <c r="F145" s="50"/>
-      <c r="G145" s="50"/>
-      <c r="H145" s="50"/>
+      <c r="E145" s="52"/>
+      <c r="F145" s="52"/>
+      <c r="G145" s="52"/>
+      <c r="H145" s="52"/>
       <c r="I145" s="6"/>
       <c r="J145" s="6"/>
       <c r="K145" s="6"/>
-      <c r="L145" s="56"/>
+      <c r="L145" s="58"/>
     </row>
     <row r="146" spans="1:12">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="D146" s="6"/>
-      <c r="E146" s="50"/>
-      <c r="F146" s="50"/>
-      <c r="G146" s="50"/>
-      <c r="H146" s="50"/>
+      <c r="E146" s="52"/>
+      <c r="F146" s="52"/>
+      <c r="G146" s="52"/>
+      <c r="H146" s="52"/>
       <c r="I146" s="6"/>
       <c r="J146" s="6"/>
       <c r="K146" s="6"/>
-      <c r="L146" s="56"/>
+      <c r="L146" s="58"/>
     </row>
     <row r="147" spans="1:12">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="D147" s="6"/>
-      <c r="E147" s="50"/>
-      <c r="F147" s="50"/>
-      <c r="G147" s="50"/>
-      <c r="H147" s="50"/>
+      <c r="E147" s="52"/>
+      <c r="F147" s="52"/>
+      <c r="G147" s="52"/>
+      <c r="H147" s="52"/>
       <c r="I147" s="6"/>
       <c r="J147" s="6"/>
       <c r="K147" s="6"/>
-      <c r="L147" s="56"/>
+      <c r="L147" s="58"/>
     </row>
     <row r="148" spans="1:12">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="D148" s="6"/>
-      <c r="E148" s="50"/>
-      <c r="F148" s="50"/>
-      <c r="G148" s="50"/>
-      <c r="H148" s="50"/>
+      <c r="E148" s="52"/>
+      <c r="F148" s="52"/>
+      <c r="G148" s="52"/>
+      <c r="H148" s="52"/>
       <c r="I148" s="6"/>
       <c r="J148" s="6"/>
       <c r="K148" s="6"/>
-      <c r="L148" s="56"/>
+      <c r="L148" s="58"/>
     </row>
     <row r="149" spans="1:12">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="D149" s="6"/>
-      <c r="E149" s="50"/>
-      <c r="F149" s="50"/>
-      <c r="G149" s="50"/>
-      <c r="H149" s="50"/>
+      <c r="E149" s="52"/>
+      <c r="F149" s="52"/>
+      <c r="G149" s="52"/>
+      <c r="H149" s="52"/>
       <c r="I149" s="6"/>
       <c r="J149" s="6"/>
       <c r="K149" s="6"/>
-      <c r="L149" s="56"/>
+      <c r="L149" s="58"/>
     </row>
     <row r="150" spans="1:12">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="D150" s="6"/>
-      <c r="E150" s="50"/>
-      <c r="F150" s="50"/>
-      <c r="G150" s="50"/>
-      <c r="H150" s="50"/>
+      <c r="E150" s="52"/>
+      <c r="F150" s="52"/>
+      <c r="G150" s="52"/>
+      <c r="H150" s="52"/>
       <c r="I150" s="6"/>
       <c r="J150" s="6"/>
       <c r="K150" s="6"/>
-      <c r="L150" s="56"/>
+      <c r="L150" s="58"/>
     </row>
     <row r="151" spans="1:12">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="D151" s="6"/>
-      <c r="E151" s="50"/>
-      <c r="F151" s="50"/>
-      <c r="G151" s="50"/>
-      <c r="H151" s="50"/>
+      <c r="E151" s="52"/>
+      <c r="F151" s="52"/>
+      <c r="G151" s="52"/>
+      <c r="H151" s="52"/>
       <c r="I151" s="6"/>
       <c r="J151" s="6"/>
       <c r="K151" s="6"/>
-      <c r="L151" s="56"/>
+      <c r="L151" s="58"/>
     </row>
     <row r="152" spans="1:12">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="D152" s="6"/>
-      <c r="E152" s="50"/>
-      <c r="F152" s="50"/>
-      <c r="G152" s="50"/>
-      <c r="H152" s="50"/>
+      <c r="E152" s="52"/>
+      <c r="F152" s="52"/>
+      <c r="G152" s="52"/>
+      <c r="H152" s="52"/>
       <c r="I152" s="6"/>
       <c r="J152" s="6"/>
       <c r="K152" s="6"/>
-      <c r="L152" s="56"/>
+      <c r="L152" s="58"/>
     </row>
     <row r="153" spans="1:12">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="D153" s="6"/>
-      <c r="E153" s="50"/>
-      <c r="F153" s="50"/>
-      <c r="G153" s="50"/>
-      <c r="H153" s="50"/>
+      <c r="E153" s="52"/>
+      <c r="F153" s="52"/>
+      <c r="G153" s="52"/>
+      <c r="H153" s="52"/>
       <c r="I153" s="6"/>
       <c r="J153" s="6"/>
       <c r="K153" s="6"/>
-      <c r="L153" s="56"/>
+      <c r="L153" s="58"/>
     </row>
     <row r="154" spans="1:12">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="D154" s="6"/>
-      <c r="E154" s="50"/>
-      <c r="F154" s="50"/>
-      <c r="G154" s="50"/>
-      <c r="H154" s="50"/>
+      <c r="E154" s="52"/>
+      <c r="F154" s="52"/>
+      <c r="G154" s="52"/>
+      <c r="H154" s="52"/>
       <c r="I154" s="6"/>
       <c r="J154" s="6"/>
       <c r="K154" s="6"/>
-      <c r="L154" s="56"/>
+      <c r="L154" s="58"/>
     </row>
     <row r="155" spans="1:12">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="D155" s="6"/>
-      <c r="E155" s="50"/>
-      <c r="F155" s="50"/>
-      <c r="G155" s="50"/>
-      <c r="H155" s="50"/>
+      <c r="E155" s="52"/>
+      <c r="F155" s="52"/>
+      <c r="G155" s="52"/>
+      <c r="H155" s="52"/>
       <c r="I155" s="6"/>
       <c r="J155" s="6"/>
       <c r="K155" s="6"/>
-      <c r="L155" s="56"/>
+      <c r="L155" s="58"/>
     </row>
     <row r="156" spans="1:12">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="D156" s="6"/>
-      <c r="E156" s="50"/>
-      <c r="F156" s="50"/>
-      <c r="G156" s="50"/>
-      <c r="H156" s="50"/>
+      <c r="E156" s="52"/>
+      <c r="F156" s="52"/>
+      <c r="G156" s="52"/>
+      <c r="H156" s="52"/>
       <c r="I156" s="6"/>
       <c r="J156" s="6"/>
       <c r="K156" s="6"/>
-      <c r="L156" s="56"/>
+      <c r="L156" s="58"/>
     </row>
     <row r="157" spans="1:12">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="D157" s="6"/>
-      <c r="E157" s="50"/>
-      <c r="F157" s="50"/>
-      <c r="G157" s="50"/>
-      <c r="H157" s="50"/>
+      <c r="E157" s="52"/>
+      <c r="F157" s="52"/>
+      <c r="G157" s="52"/>
+      <c r="H157" s="52"/>
       <c r="I157" s="6"/>
       <c r="J157" s="6"/>
       <c r="K157" s="6"/>
-      <c r="L157" s="56"/>
+      <c r="L157" s="58"/>
     </row>
     <row r="158" spans="1:12">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="D158" s="6"/>
-      <c r="E158" s="50"/>
-      <c r="F158" s="50"/>
-      <c r="G158" s="50"/>
-      <c r="H158" s="50"/>
+      <c r="E158" s="52"/>
+      <c r="F158" s="52"/>
+      <c r="G158" s="52"/>
+      <c r="H158" s="52"/>
       <c r="I158" s="6"/>
       <c r="J158" s="6"/>
       <c r="K158" s="6"/>
-      <c r="L158" s="56"/>
+      <c r="L158" s="58"/>
     </row>
     <row r="159" spans="1:12">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="D159" s="6"/>
-      <c r="E159" s="50"/>
-      <c r="F159" s="50"/>
-      <c r="G159" s="50"/>
-      <c r="H159" s="50"/>
+      <c r="E159" s="52"/>
+      <c r="F159" s="52"/>
+      <c r="G159" s="52"/>
+      <c r="H159" s="52"/>
       <c r="I159" s="6"/>
       <c r="J159" s="6"/>
       <c r="K159" s="6"/>
-      <c r="L159" s="56"/>
+      <c r="L159" s="58"/>
     </row>
     <row r="160" spans="1:12">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="D160" s="6"/>
-      <c r="E160" s="50"/>
-      <c r="F160" s="50"/>
-      <c r="G160" s="50"/>
-      <c r="H160" s="50"/>
+      <c r="E160" s="52"/>
+      <c r="F160" s="52"/>
+      <c r="G160" s="52"/>
+      <c r="H160" s="52"/>
       <c r="I160" s="6"/>
       <c r="J160" s="6"/>
       <c r="K160" s="6"/>
-      <c r="L160" s="56"/>
+      <c r="L160" s="58"/>
     </row>
     <row r="161" spans="1:12">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="D161" s="6"/>
-      <c r="E161" s="50"/>
-      <c r="F161" s="50"/>
-      <c r="G161" s="50"/>
-      <c r="H161" s="50"/>
+      <c r="E161" s="52"/>
+      <c r="F161" s="52"/>
+      <c r="G161" s="52"/>
+      <c r="H161" s="52"/>
       <c r="I161" s="6"/>
       <c r="J161" s="6"/>
       <c r="K161" s="6"/>
-      <c r="L161" s="56"/>
+      <c r="L161" s="58"/>
     </row>
     <row r="162" spans="1:12">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="D162" s="6"/>
-      <c r="E162" s="50"/>
-      <c r="F162" s="50"/>
-      <c r="G162" s="50"/>
-      <c r="H162" s="50"/>
+      <c r="E162" s="52"/>
+      <c r="F162" s="52"/>
+      <c r="G162" s="52"/>
+      <c r="H162" s="52"/>
       <c r="I162" s="6"/>
       <c r="J162" s="6"/>
       <c r="K162" s="6"/>
-      <c r="L162" s="56"/>
+      <c r="L162" s="58"/>
     </row>
     <row r="163" spans="1:12">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="D163" s="6"/>
-      <c r="E163" s="50"/>
-      <c r="F163" s="50"/>
-      <c r="G163" s="50"/>
-      <c r="H163" s="50"/>
+      <c r="E163" s="52"/>
+      <c r="F163" s="52"/>
+      <c r="G163" s="52"/>
+      <c r="H163" s="52"/>
       <c r="I163" s="6"/>
       <c r="J163" s="6"/>
       <c r="K163" s="6"/>
-      <c r="L163" s="56"/>
+      <c r="L163" s="58"/>
     </row>
     <row r="164" spans="1:12">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="D164" s="6"/>
-      <c r="E164" s="50"/>
-      <c r="F164" s="50"/>
-      <c r="G164" s="50"/>
-      <c r="H164" s="50"/>
+      <c r="E164" s="52"/>
+      <c r="F164" s="52"/>
+      <c r="G164" s="52"/>
+      <c r="H164" s="52"/>
       <c r="I164" s="6"/>
       <c r="J164" s="6"/>
       <c r="K164" s="6"/>
-      <c r="L164" s="56"/>
+      <c r="L164" s="58"/>
     </row>
     <row r="165" spans="1:12">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="D165" s="6"/>
-      <c r="E165" s="50"/>
-      <c r="F165" s="50"/>
-      <c r="G165" s="50"/>
-      <c r="H165" s="50"/>
+      <c r="E165" s="52"/>
+      <c r="F165" s="52"/>
+      <c r="G165" s="52"/>
+      <c r="H165" s="52"/>
       <c r="I165" s="6"/>
       <c r="J165" s="6"/>
       <c r="K165" s="6"/>
-      <c r="L165" s="56"/>
+      <c r="L165" s="58"/>
     </row>
     <row r="166" spans="1:12">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="D166" s="6"/>
-      <c r="E166" s="50"/>
-      <c r="F166" s="50"/>
-      <c r="G166" s="50"/>
-      <c r="H166" s="50"/>
+      <c r="E166" s="52"/>
+      <c r="F166" s="52"/>
+      <c r="G166" s="52"/>
+      <c r="H166" s="52"/>
       <c r="I166" s="6"/>
       <c r="J166" s="6"/>
       <c r="K166" s="6"/>
-      <c r="L166" s="56"/>
+      <c r="L166" s="58"/>
     </row>
     <row r="167" spans="1:12">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="D167" s="6"/>
-      <c r="E167" s="50"/>
-      <c r="F167" s="50"/>
-      <c r="G167" s="50"/>
-      <c r="H167" s="50"/>
+      <c r="E167" s="52"/>
+      <c r="F167" s="52"/>
+      <c r="G167" s="52"/>
+      <c r="H167" s="52"/>
       <c r="I167" s="6"/>
       <c r="J167" s="6"/>
       <c r="K167" s="6"/>
-      <c r="L167" s="56"/>
+      <c r="L167" s="58"/>
     </row>
     <row r="168" spans="1:12">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="D168" s="6"/>
-      <c r="E168" s="50"/>
-      <c r="F168" s="50"/>
-      <c r="G168" s="50"/>
-      <c r="H168" s="50"/>
+      <c r="E168" s="52"/>
+      <c r="F168" s="52"/>
+      <c r="G168" s="52"/>
+      <c r="H168" s="52"/>
       <c r="I168" s="6"/>
       <c r="J168" s="6"/>
       <c r="K168" s="6"/>
-      <c r="L168" s="56"/>
+      <c r="L168" s="58"/>
     </row>
     <row r="169" spans="1:12">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="D169" s="6"/>
-      <c r="E169" s="50"/>
-      <c r="F169" s="50"/>
-      <c r="G169" s="50"/>
-      <c r="H169" s="50"/>
+      <c r="E169" s="52"/>
+      <c r="F169" s="52"/>
+      <c r="G169" s="52"/>
+      <c r="H169" s="52"/>
       <c r="I169" s="6"/>
       <c r="J169" s="6"/>
       <c r="K169" s="6"/>
-      <c r="L169" s="56"/>
+      <c r="L169" s="58"/>
     </row>
     <row r="170" spans="1:12">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="D170" s="6"/>
-      <c r="E170" s="50"/>
-      <c r="F170" s="50"/>
-      <c r="G170" s="50"/>
-      <c r="H170" s="50"/>
+      <c r="E170" s="52"/>
+      <c r="F170" s="52"/>
+      <c r="G170" s="52"/>
+      <c r="H170" s="52"/>
       <c r="I170" s="6"/>
       <c r="J170" s="6"/>
       <c r="K170" s="6"/>
-      <c r="L170" s="56"/>
+      <c r="L170" s="58"/>
     </row>
     <row r="171" spans="1:12">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="D171" s="6"/>
-      <c r="E171" s="50"/>
-      <c r="F171" s="50"/>
-      <c r="G171" s="50"/>
-      <c r="H171" s="50"/>
+      <c r="E171" s="52"/>
+      <c r="F171" s="52"/>
+      <c r="G171" s="52"/>
+      <c r="H171" s="52"/>
       <c r="I171" s="6"/>
       <c r="J171" s="6"/>
       <c r="K171" s="6"/>
-      <c r="L171" s="56"/>
+      <c r="L171" s="58"/>
     </row>
     <row r="172" spans="1:12">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="D172" s="6"/>
-      <c r="E172" s="50"/>
-      <c r="F172" s="50"/>
-      <c r="G172" s="50"/>
-      <c r="H172" s="50"/>
+      <c r="E172" s="52"/>
+      <c r="F172" s="52"/>
+      <c r="G172" s="52"/>
+      <c r="H172" s="52"/>
       <c r="I172" s="6"/>
       <c r="J172" s="6"/>
       <c r="K172" s="6"/>
-      <c r="L172" s="56"/>
+      <c r="L172" s="58"/>
     </row>
     <row r="173" spans="1:12">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="D173" s="6"/>
-      <c r="E173" s="50"/>
-      <c r="F173" s="50"/>
-      <c r="G173" s="50"/>
-      <c r="H173" s="50"/>
+      <c r="E173" s="52"/>
+      <c r="F173" s="52"/>
+      <c r="G173" s="52"/>
+      <c r="H173" s="52"/>
       <c r="I173" s="6"/>
       <c r="J173" s="6"/>
       <c r="K173" s="6"/>
-      <c r="L173" s="56"/>
+      <c r="L173" s="58"/>
     </row>
     <row r="174" spans="1:12">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="D174" s="6"/>
-      <c r="E174" s="50"/>
-      <c r="F174" s="50"/>
-      <c r="G174" s="50"/>
-      <c r="H174" s="50"/>
+      <c r="E174" s="52"/>
+      <c r="F174" s="52"/>
+      <c r="G174" s="52"/>
+      <c r="H174" s="52"/>
       <c r="I174" s="6"/>
       <c r="J174" s="6"/>
       <c r="K174" s="6"/>
-      <c r="L174" s="56"/>
+      <c r="L174" s="58"/>
     </row>
     <row r="175" spans="1:12">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="D175" s="6"/>
-      <c r="E175" s="50"/>
-      <c r="F175" s="50"/>
-      <c r="G175" s="50"/>
-      <c r="H175" s="50"/>
+      <c r="E175" s="52"/>
+      <c r="F175" s="52"/>
+      <c r="G175" s="52"/>
+      <c r="H175" s="52"/>
       <c r="I175" s="6"/>
       <c r="J175" s="6"/>
       <c r="K175" s="6"/>
-      <c r="L175" s="56"/>
+      <c r="L175" s="58"/>
     </row>
     <row r="176" spans="1:12">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="D176" s="6"/>
-      <c r="E176" s="50"/>
-      <c r="F176" s="50"/>
-      <c r="G176" s="50"/>
-      <c r="H176" s="50"/>
+      <c r="E176" s="52"/>
+      <c r="F176" s="52"/>
+      <c r="G176" s="52"/>
+      <c r="H176" s="52"/>
       <c r="I176" s="6"/>
       <c r="J176" s="6"/>
       <c r="K176" s="6"/>
-      <c r="L176" s="56"/>
+      <c r="L176" s="58"/>
     </row>
     <row r="177" spans="1:12">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="D177" s="6"/>
-      <c r="E177" s="50"/>
-      <c r="F177" s="50"/>
-      <c r="G177" s="50"/>
-      <c r="H177" s="50"/>
+      <c r="E177" s="52"/>
+      <c r="F177" s="52"/>
+      <c r="G177" s="52"/>
+      <c r="H177" s="52"/>
       <c r="I177" s="6"/>
       <c r="J177" s="6"/>
       <c r="K177" s="6"/>
-      <c r="L177" s="56"/>
+      <c r="L177" s="58"/>
     </row>
     <row r="178" spans="1:12">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="D178" s="6"/>
-      <c r="E178" s="50"/>
-      <c r="F178" s="50"/>
-      <c r="G178" s="50"/>
-      <c r="H178" s="50"/>
+      <c r="E178" s="52"/>
+      <c r="F178" s="52"/>
+      <c r="G178" s="52"/>
+      <c r="H178" s="52"/>
       <c r="I178" s="6"/>
       <c r="J178" s="6"/>
       <c r="K178" s="6"/>
-      <c r="L178" s="56"/>
+      <c r="L178" s="58"/>
     </row>
     <row r="179" spans="1:12">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="D179" s="6"/>
-      <c r="E179" s="50"/>
-      <c r="F179" s="50"/>
-      <c r="G179" s="50"/>
-      <c r="H179" s="50"/>
+      <c r="E179" s="52"/>
+      <c r="F179" s="52"/>
+      <c r="G179" s="52"/>
+      <c r="H179" s="52"/>
       <c r="I179" s="6"/>
       <c r="J179" s="6"/>
       <c r="K179" s="6"/>
-      <c r="L179" s="56"/>
+      <c r="L179" s="58"/>
     </row>
     <row r="180" spans="1:12">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="D180" s="6"/>
-      <c r="E180" s="50"/>
-      <c r="F180" s="50"/>
-      <c r="G180" s="50"/>
-      <c r="H180" s="50"/>
+      <c r="E180" s="52"/>
+      <c r="F180" s="52"/>
+      <c r="G180" s="52"/>
+      <c r="H180" s="52"/>
       <c r="I180" s="6"/>
       <c r="J180" s="6"/>
       <c r="K180" s="6"/>
-      <c r="L180" s="56"/>
+      <c r="L180" s="58"/>
     </row>
     <row r="181" spans="1:12">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="D181" s="6"/>
-      <c r="E181" s="50"/>
-      <c r="F181" s="50"/>
-      <c r="G181" s="50"/>
-      <c r="H181" s="50"/>
+      <c r="E181" s="52"/>
+      <c r="F181" s="52"/>
+      <c r="G181" s="52"/>
+      <c r="H181" s="52"/>
       <c r="I181" s="6"/>
       <c r="J181" s="6"/>
       <c r="K181" s="6"/>
-      <c r="L181" s="56"/>
+      <c r="L181" s="58"/>
     </row>
     <row r="182" spans="1:12">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="D182" s="6"/>
-      <c r="E182" s="50"/>
-      <c r="F182" s="50"/>
-      <c r="G182" s="50"/>
-      <c r="H182" s="50"/>
+      <c r="E182" s="52"/>
+      <c r="F182" s="52"/>
+      <c r="G182" s="52"/>
+      <c r="H182" s="52"/>
       <c r="I182" s="6"/>
       <c r="J182" s="6"/>
       <c r="K182" s="6"/>
-      <c r="L182" s="56"/>
+      <c r="L182" s="58"/>
     </row>
     <row r="183" spans="1:12">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="D183" s="6"/>
-      <c r="E183" s="50"/>
-      <c r="F183" s="50"/>
-      <c r="G183" s="50"/>
-      <c r="H183" s="50"/>
+      <c r="E183" s="52"/>
+      <c r="F183" s="52"/>
+      <c r="G183" s="52"/>
+      <c r="H183" s="52"/>
       <c r="I183" s="6"/>
       <c r="J183" s="6"/>
       <c r="K183" s="6"/>
-      <c r="L183" s="56"/>
+      <c r="L183" s="58"/>
     </row>
     <row r="184" spans="1:12">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="D184" s="6"/>
-      <c r="E184" s="50"/>
-      <c r="F184" s="50"/>
-      <c r="G184" s="50"/>
-      <c r="H184" s="50"/>
+      <c r="E184" s="52"/>
+      <c r="F184" s="52"/>
+      <c r="G184" s="52"/>
+      <c r="H184" s="52"/>
       <c r="I184" s="6"/>
       <c r="J184" s="6"/>
       <c r="K184" s="6"/>
-      <c r="L184" s="56"/>
+      <c r="L184" s="58"/>
     </row>
     <row r="185" spans="1:12">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="D185" s="6"/>
-      <c r="E185" s="50"/>
-      <c r="F185" s="50"/>
-      <c r="G185" s="50"/>
-      <c r="H185" s="50"/>
+      <c r="E185" s="52"/>
+      <c r="F185" s="52"/>
+      <c r="G185" s="52"/>
+      <c r="H185" s="52"/>
       <c r="I185" s="6"/>
       <c r="J185" s="6"/>
       <c r="K185" s="6"/>
-      <c r="L185" s="56"/>
+      <c r="L185" s="58"/>
     </row>
     <row r="186" spans="1:12">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="D186" s="6"/>
-      <c r="E186" s="50"/>
-      <c r="F186" s="50"/>
-      <c r="G186" s="50"/>
-      <c r="H186" s="50"/>
+      <c r="E186" s="52"/>
+      <c r="F186" s="52"/>
+      <c r="G186" s="52"/>
+      <c r="H186" s="52"/>
       <c r="I186" s="6"/>
       <c r="J186" s="6"/>
       <c r="K186" s="6"/>
-      <c r="L186" s="56"/>
+      <c r="L186" s="58"/>
     </row>
     <row r="187" spans="1:12">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="D187" s="6"/>
-      <c r="E187" s="50"/>
-      <c r="F187" s="50"/>
-      <c r="G187" s="50"/>
-      <c r="H187" s="50"/>
+      <c r="E187" s="52"/>
+      <c r="F187" s="52"/>
+      <c r="G187" s="52"/>
+      <c r="H187" s="52"/>
       <c r="I187" s="6"/>
       <c r="J187" s="6"/>
       <c r="K187" s="6"/>
-      <c r="L187" s="56"/>
+      <c r="L187" s="58"/>
     </row>
     <row r="188" spans="1:12">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="D188" s="6"/>
-      <c r="E188" s="50"/>
-      <c r="F188" s="50"/>
-      <c r="G188" s="50"/>
-      <c r="H188" s="50"/>
+      <c r="E188" s="52"/>
+      <c r="F188" s="52"/>
+      <c r="G188" s="52"/>
+      <c r="H188" s="52"/>
       <c r="I188" s="6"/>
       <c r="J188" s="6"/>
       <c r="K188" s="6"/>
-      <c r="L188" s="56"/>
+      <c r="L188" s="58"/>
     </row>
     <row r="189" spans="1:12">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="D189" s="6"/>
-      <c r="E189" s="50"/>
-      <c r="F189" s="50"/>
-      <c r="G189" s="50"/>
-      <c r="H189" s="50"/>
+      <c r="E189" s="52"/>
+      <c r="F189" s="52"/>
+      <c r="G189" s="52"/>
+      <c r="H189" s="52"/>
       <c r="I189" s="6"/>
       <c r="J189" s="6"/>
       <c r="K189" s="6"/>
-      <c r="L189" s="56"/>
+      <c r="L189" s="58"/>
     </row>
     <row r="190" spans="1:12">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="D190" s="6"/>
-      <c r="E190" s="50"/>
-      <c r="F190" s="50"/>
-      <c r="G190" s="50"/>
-      <c r="H190" s="50"/>
+      <c r="E190" s="52"/>
+      <c r="F190" s="52"/>
+      <c r="G190" s="52"/>
+      <c r="H190" s="52"/>
       <c r="I190" s="6"/>
       <c r="J190" s="6"/>
       <c r="K190" s="6"/>
-      <c r="L190" s="56"/>
+      <c r="L190" s="58"/>
     </row>
     <row r="191" spans="1:12">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="D191" s="6"/>
-      <c r="E191" s="50"/>
-      <c r="F191" s="50"/>
-      <c r="G191" s="50"/>
-      <c r="H191" s="50"/>
+      <c r="E191" s="52"/>
+      <c r="F191" s="52"/>
+      <c r="G191" s="52"/>
+      <c r="H191" s="52"/>
       <c r="I191" s="6"/>
       <c r="J191" s="6"/>
       <c r="K191" s="6"/>
-      <c r="L191" s="56"/>
+      <c r="L191" s="58"/>
     </row>
     <row r="192" spans="1:12">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="D192" s="6"/>
-      <c r="E192" s="50"/>
-      <c r="F192" s="50"/>
-      <c r="G192" s="50"/>
-      <c r="H192" s="50"/>
+      <c r="E192" s="52"/>
+      <c r="F192" s="52"/>
+      <c r="G192" s="52"/>
+      <c r="H192" s="52"/>
       <c r="I192" s="6"/>
       <c r="J192" s="6"/>
       <c r="K192" s="6"/>
-      <c r="L192" s="56"/>
+      <c r="L192" s="58"/>
     </row>
     <row r="193" spans="1:12">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="D193" s="6"/>
-      <c r="E193" s="50"/>
-      <c r="F193" s="50"/>
-      <c r="G193" s="50"/>
-      <c r="H193" s="50"/>
+      <c r="E193" s="52"/>
+      <c r="F193" s="52"/>
+      <c r="G193" s="52"/>
+      <c r="H193" s="52"/>
       <c r="I193" s="6"/>
       <c r="J193" s="6"/>
       <c r="K193" s="6"/>
-      <c r="L193" s="56"/>
+      <c r="L193" s="58"/>
     </row>
     <row r="194" spans="1:12">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="D194" s="6"/>
-      <c r="E194" s="50"/>
-      <c r="F194" s="50"/>
-      <c r="G194" s="50"/>
-      <c r="H194" s="50"/>
+      <c r="E194" s="52"/>
+      <c r="F194" s="52"/>
+      <c r="G194" s="52"/>
+      <c r="H194" s="52"/>
       <c r="I194" s="6"/>
       <c r="J194" s="6"/>
       <c r="K194" s="6"/>
-      <c r="L194" s="56"/>
+      <c r="L194" s="58"/>
     </row>
     <row r="195" spans="1:12">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="D195" s="6"/>
-      <c r="E195" s="50"/>
-      <c r="F195" s="50"/>
-      <c r="G195" s="50"/>
-      <c r="H195" s="50"/>
+      <c r="E195" s="52"/>
+      <c r="F195" s="52"/>
+      <c r="G195" s="52"/>
+      <c r="H195" s="52"/>
       <c r="I195" s="6"/>
       <c r="J195" s="6"/>
       <c r="K195" s="6"/>
-      <c r="L195" s="56"/>
+      <c r="L195" s="58"/>
     </row>
     <row r="196" spans="1:12">
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="D196" s="6"/>
-      <c r="E196" s="50"/>
-      <c r="F196" s="50"/>
-      <c r="G196" s="50"/>
-      <c r="H196" s="50"/>
+      <c r="E196" s="52"/>
+      <c r="F196" s="52"/>
+      <c r="G196" s="52"/>
+      <c r="H196" s="52"/>
       <c r="I196" s="6"/>
       <c r="J196" s="6"/>
       <c r="K196" s="6"/>
-      <c r="L196" s="56"/>
+      <c r="L196" s="58"/>
     </row>
     <row r="197" spans="1:12">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="D197" s="6"/>
-      <c r="E197" s="50"/>
-      <c r="F197" s="50"/>
-      <c r="G197" s="50"/>
-      <c r="H197" s="50"/>
+      <c r="E197" s="52"/>
+      <c r="F197" s="52"/>
+      <c r="G197" s="52"/>
+      <c r="H197" s="52"/>
       <c r="I197" s="6"/>
       <c r="J197" s="6"/>
       <c r="K197" s="6"/>
-      <c r="L197" s="56"/>
+      <c r="L197" s="58"/>
     </row>
     <row r="198" spans="1:12">
       <c r="A198" s="6"/>
       <c r="B198" s="6"/>
       <c r="D198" s="6"/>
-      <c r="E198" s="50"/>
-      <c r="F198" s="50"/>
-      <c r="G198" s="50"/>
-      <c r="H198" s="50"/>
+      <c r="E198" s="52"/>
+      <c r="F198" s="52"/>
+      <c r="G198" s="52"/>
+      <c r="H198" s="52"/>
       <c r="I198" s="6"/>
       <c r="J198" s="6"/>
       <c r="K198" s="6"/>
-      <c r="L198" s="56"/>
+      <c r="L198" s="58"/>
     </row>
     <row r="199" spans="1:12">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="D199" s="6"/>
-      <c r="E199" s="50"/>
-      <c r="F199" s="50"/>
-      <c r="G199" s="50"/>
-      <c r="H199" s="50"/>
+      <c r="E199" s="52"/>
+      <c r="F199" s="52"/>
+      <c r="G199" s="52"/>
+      <c r="H199" s="52"/>
       <c r="I199" s="6"/>
       <c r="J199" s="6"/>
       <c r="K199" s="6"/>
-      <c r="L199" s="56"/>
+      <c r="L199" s="58"/>
     </row>
     <row r="200" spans="1:12">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="D200" s="6"/>
-      <c r="E200" s="50"/>
-      <c r="F200" s="50"/>
-      <c r="G200" s="50"/>
-      <c r="H200" s="50"/>
+      <c r="E200" s="52"/>
+      <c r="F200" s="52"/>
+      <c r="G200" s="52"/>
+      <c r="H200" s="52"/>
       <c r="I200" s="6"/>
       <c r="J200" s="6"/>
       <c r="K200" s="6"/>
-      <c r="L200" s="56"/>
+      <c r="L200" s="58"/>
     </row>
     <row r="201" spans="1:12">
       <c r="A201" s="6"/>
       <c r="B201" s="6"/>
       <c r="D201" s="6"/>
-      <c r="E201" s="50"/>
-      <c r="F201" s="50"/>
-      <c r="G201" s="50"/>
-      <c r="H201" s="50"/>
+      <c r="E201" s="52"/>
+      <c r="F201" s="52"/>
+      <c r="G201" s="52"/>
+      <c r="H201" s="52"/>
       <c r="I201" s="6"/>
       <c r="J201" s="6"/>
       <c r="K201" s="6"/>
-      <c r="L201" s="56"/>
+      <c r="L201" s="58"/>
     </row>
     <row r="202" spans="1:12">
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
       <c r="D202" s="6"/>
-      <c r="E202" s="50"/>
-      <c r="F202" s="50"/>
-      <c r="G202" s="50"/>
-      <c r="H202" s="50"/>
+      <c r="E202" s="52"/>
+      <c r="F202" s="52"/>
+      <c r="G202" s="52"/>
+      <c r="H202" s="52"/>
       <c r="I202" s="6"/>
       <c r="J202" s="6"/>
       <c r="K202" s="6"/>
-      <c r="L202" s="56"/>
+      <c r="L202" s="58"/>
     </row>
     <row r="203" spans="1:12">
       <c r="A203" s="6"/>
       <c r="B203" s="6"/>
       <c r="D203" s="6"/>
-      <c r="E203" s="50"/>
-      <c r="F203" s="50"/>
-      <c r="G203" s="50"/>
-      <c r="H203" s="50"/>
+      <c r="E203" s="52"/>
+      <c r="F203" s="52"/>
+      <c r="G203" s="52"/>
+      <c r="H203" s="52"/>
       <c r="I203" s="6"/>
       <c r="J203" s="6"/>
       <c r="K203" s="6"/>
-      <c r="L203" s="56"/>
+      <c r="L203" s="58"/>
     </row>
     <row r="204" spans="1:12">
       <c r="A204" s="6"/>
       <c r="B204" s="6"/>
       <c r="D204" s="6"/>
-      <c r="E204" s="50"/>
-      <c r="F204" s="50"/>
-      <c r="G204" s="50"/>
-      <c r="H204" s="50"/>
+      <c r="E204" s="52"/>
+      <c r="F204" s="52"/>
+      <c r="G204" s="52"/>
+      <c r="H204" s="52"/>
       <c r="I204" s="6"/>
       <c r="J204" s="6"/>
       <c r="K204" s="6"/>
-      <c r="L204" s="56"/>
+      <c r="L204" s="58"/>
     </row>
     <row r="205" spans="1:12">
       <c r="A205" s="6"/>
       <c r="B205" s="6"/>
       <c r="D205" s="6"/>
-      <c r="E205" s="50"/>
-      <c r="F205" s="50"/>
-      <c r="G205" s="50"/>
-      <c r="H205" s="50"/>
+      <c r="E205" s="52"/>
+      <c r="F205" s="52"/>
+      <c r="G205" s="52"/>
+      <c r="H205" s="52"/>
       <c r="I205" s="6"/>
       <c r="J205" s="6"/>
       <c r="K205" s="6"/>
-      <c r="L205" s="56"/>
+      <c r="L205" s="58"/>
     </row>
     <row r="206" spans="1:12">
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
       <c r="D206" s="6"/>
-      <c r="E206" s="50"/>
-      <c r="F206" s="50"/>
-      <c r="G206" s="50"/>
-      <c r="H206" s="50"/>
+      <c r="E206" s="52"/>
+      <c r="F206" s="52"/>
+      <c r="G206" s="52"/>
+      <c r="H206" s="52"/>
       <c r="I206" s="6"/>
       <c r="J206" s="6"/>
       <c r="K206" s="6"/>
-      <c r="L206" s="56"/>
+      <c r="L206" s="58"/>
     </row>
     <row r="207" spans="1:12">
       <c r="A207" s="6"/>
       <c r="B207" s="6"/>
       <c r="D207" s="6"/>
-      <c r="E207" s="50"/>
-      <c r="F207" s="50"/>
-      <c r="G207" s="50"/>
-      <c r="H207" s="50"/>
+      <c r="E207" s="52"/>
+      <c r="F207" s="52"/>
+      <c r="G207" s="52"/>
+      <c r="H207" s="52"/>
       <c r="I207" s="6"/>
       <c r="J207" s="6"/>
       <c r="K207" s="6"/>
-      <c r="L207" s="56"/>
+      <c r="L207" s="58"/>
     </row>
     <row r="208" spans="1:12">
       <c r="A208" s="6"/>
       <c r="B208" s="6"/>
       <c r="D208" s="6"/>
-      <c r="E208" s="50"/>
-      <c r="F208" s="50"/>
-      <c r="G208" s="50"/>
-      <c r="H208" s="50"/>
+      <c r="E208" s="52"/>
+      <c r="F208" s="52"/>
+      <c r="G208" s="52"/>
+      <c r="H208" s="52"/>
       <c r="I208" s="6"/>
       <c r="J208" s="6"/>
       <c r="K208" s="6"/>
-      <c r="L208" s="56"/>
+      <c r="L208" s="58"/>
     </row>
     <row r="209" spans="1:12">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="D209" s="6"/>
-      <c r="E209" s="50"/>
-      <c r="F209" s="50"/>
-      <c r="G209" s="50"/>
-      <c r="H209" s="50"/>
+      <c r="E209" s="52"/>
+      <c r="F209" s="52"/>
+      <c r="G209" s="52"/>
+      <c r="H209" s="52"/>
       <c r="I209" s="6"/>
       <c r="J209" s="6"/>
       <c r="K209" s="6"/>
-      <c r="L209" s="56"/>
+      <c r="L209" s="58"/>
     </row>
     <row r="210" spans="1:12">
       <c r="A210" s="6"/>
       <c r="B210" s="6"/>
       <c r="D210" s="6"/>
-      <c r="E210" s="50"/>
-      <c r="F210" s="50"/>
-      <c r="G210" s="50"/>
-      <c r="H210" s="50"/>
+      <c r="E210" s="52"/>
+      <c r="F210" s="52"/>
+      <c r="G210" s="52"/>
+      <c r="H210" s="52"/>
       <c r="I210" s="6"/>
       <c r="J210" s="6"/>
       <c r="K210" s="6"/>
-      <c r="L210" s="56"/>
+      <c r="L210" s="58"/>
     </row>
     <row r="211" spans="1:12">
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="D211" s="6"/>
-      <c r="E211" s="50"/>
-      <c r="F211" s="50"/>
-      <c r="G211" s="50"/>
-      <c r="H211" s="50"/>
+      <c r="E211" s="52"/>
+      <c r="F211" s="52"/>
+      <c r="G211" s="52"/>
+      <c r="H211" s="52"/>
       <c r="I211" s="6"/>
       <c r="J211" s="6"/>
       <c r="K211" s="6"/>
-      <c r="L211" s="56"/>
+      <c r="L211" s="58"/>
     </row>
     <row r="212" spans="1:12">
       <c r="A212" s="6"/>
       <c r="B212" s="6"/>
       <c r="D212" s="6"/>
-      <c r="E212" s="50"/>
-      <c r="F212" s="50"/>
-      <c r="G212" s="50"/>
-      <c r="H212" s="50"/>
+      <c r="E212" s="52"/>
+      <c r="F212" s="52"/>
+      <c r="G212" s="52"/>
+      <c r="H212" s="52"/>
       <c r="I212" s="6"/>
       <c r="J212" s="6"/>
       <c r="K212" s="6"/>
-      <c r="L212" s="56"/>
+      <c r="L212" s="58"/>
     </row>
     <row r="213" spans="1:12">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="D213" s="6"/>
-      <c r="E213" s="50"/>
-      <c r="F213" s="50"/>
-      <c r="G213" s="50"/>
-      <c r="H213" s="50"/>
+      <c r="E213" s="52"/>
+      <c r="F213" s="52"/>
+      <c r="G213" s="52"/>
+      <c r="H213" s="52"/>
       <c r="I213" s="6"/>
       <c r="J213" s="6"/>
       <c r="K213" s="6"/>
-      <c r="L213" s="56"/>
+      <c r="L213" s="58"/>
     </row>
     <row r="214" spans="1:12">
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="D214" s="6"/>
-      <c r="E214" s="50"/>
-      <c r="F214" s="50"/>
-      <c r="G214" s="50"/>
-      <c r="H214" s="50"/>
+      <c r="E214" s="52"/>
+      <c r="F214" s="52"/>
+      <c r="G214" s="52"/>
+      <c r="H214" s="52"/>
       <c r="I214" s="6"/>
       <c r="J214" s="6"/>
       <c r="K214" s="6"/>
-      <c r="L214" s="56"/>
+      <c r="L214" s="58"/>
     </row>
     <row r="215" spans="1:12">
       <c r="A215" s="6"/>
       <c r="B215" s="6"/>
       <c r="D215" s="6"/>
-      <c r="E215" s="50"/>
-      <c r="F215" s="50"/>
-      <c r="G215" s="50"/>
-      <c r="H215" s="50"/>
+      <c r="E215" s="52"/>
+      <c r="F215" s="52"/>
+      <c r="G215" s="52"/>
+      <c r="H215" s="52"/>
       <c r="I215" s="6"/>
       <c r="J215" s="6"/>
       <c r="K215" s="6"/>
-      <c r="L215" s="56"/>
+      <c r="L215" s="58"/>
     </row>
     <row r="216" spans="1:12">
       <c r="A216" s="6"/>
       <c r="B216" s="6"/>
       <c r="D216" s="6"/>
-      <c r="E216" s="50"/>
-      <c r="F216" s="50"/>
-      <c r="G216" s="50"/>
-      <c r="H216" s="50"/>
+      <c r="E216" s="52"/>
+      <c r="F216" s="52"/>
+      <c r="G216" s="52"/>
+      <c r="H216" s="52"/>
       <c r="I216" s="6"/>
       <c r="J216" s="6"/>
       <c r="K216" s="6"/>
-      <c r="L216" s="56"/>
+      <c r="L216" s="58"/>
     </row>
     <row r="217" spans="1:12">
       <c r="A217" s="6"/>
       <c r="B217" s="6"/>
       <c r="D217" s="6"/>
-      <c r="E217" s="50"/>
-      <c r="F217" s="50"/>
-      <c r="G217" s="50"/>
-      <c r="H217" s="50"/>
+      <c r="E217" s="52"/>
+      <c r="F217" s="52"/>
+      <c r="G217" s="52"/>
+      <c r="H217" s="52"/>
       <c r="I217" s="6"/>
       <c r="J217" s="6"/>
       <c r="K217" s="6"/>
-      <c r="L217" s="56"/>
+      <c r="L217" s="58"/>
     </row>
     <row r="218" spans="1:12">
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
       <c r="D218" s="6"/>
-      <c r="E218" s="50"/>
-      <c r="F218" s="50"/>
-      <c r="G218" s="50"/>
-      <c r="H218" s="50"/>
+      <c r="E218" s="52"/>
+      <c r="F218" s="52"/>
+      <c r="G218" s="52"/>
+      <c r="H218" s="52"/>
       <c r="I218" s="6"/>
       <c r="J218" s="6"/>
       <c r="K218" s="6"/>
-      <c r="L218" s="56"/>
+      <c r="L218" s="58"/>
     </row>
     <row r="219" spans="1:12">
       <c r="A219" s="6"/>
       <c r="B219" s="6"/>
       <c r="D219" s="6"/>
-      <c r="E219" s="50"/>
-      <c r="F219" s="50"/>
-      <c r="G219" s="50"/>
-      <c r="H219" s="50"/>
+      <c r="E219" s="52"/>
+      <c r="F219" s="52"/>
+      <c r="G219" s="52"/>
+      <c r="H219" s="52"/>
       <c r="I219" s="6"/>
       <c r="J219" s="6"/>
       <c r="K219" s="6"/>
-      <c r="L219" s="56"/>
+      <c r="L219" s="58"/>
     </row>
     <row r="220" spans="1:12">
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
       <c r="D220" s="6"/>
-      <c r="E220" s="50"/>
-      <c r="F220" s="50"/>
-      <c r="G220" s="50"/>
-      <c r="H220" s="50"/>
+      <c r="E220" s="52"/>
+      <c r="F220" s="52"/>
+      <c r="G220" s="52"/>
+      <c r="H220" s="52"/>
       <c r="I220" s="6"/>
       <c r="J220" s="6"/>
       <c r="K220" s="6"/>
-      <c r="L220" s="56"/>
+      <c r="L220" s="58"/>
     </row>
     <row r="221" spans="1:12">
       <c r="A221" s="6"/>
       <c r="B221" s="6"/>
       <c r="D221" s="6"/>
-      <c r="E221" s="50"/>
-      <c r="F221" s="50"/>
-      <c r="G221" s="50"/>
-      <c r="H221" s="50"/>
+      <c r="E221" s="52"/>
+      <c r="F221" s="52"/>
+      <c r="G221" s="52"/>
+      <c r="H221" s="52"/>
       <c r="I221" s="6"/>
       <c r="J221" s="6"/>
       <c r="K221" s="6"/>
-      <c r="L221" s="56"/>
+      <c r="L221" s="58"/>
     </row>
     <row r="222" spans="1:12">
       <c r="A222" s="6"/>
       <c r="B222" s="6"/>
       <c r="D222" s="6"/>
-      <c r="E222" s="50"/>
-      <c r="F222" s="50"/>
-      <c r="G222" s="50"/>
-      <c r="H222" s="50"/>
+      <c r="E222" s="52"/>
+      <c r="F222" s="52"/>
+      <c r="G222" s="52"/>
+      <c r="H222" s="52"/>
       <c r="I222" s="6"/>
       <c r="J222" s="6"/>
       <c r="K222" s="6"/>
-      <c r="L222" s="56"/>
+      <c r="L222" s="58"/>
     </row>
     <row r="223" spans="1:12">
       <c r="A223" s="6"/>
       <c r="B223" s="6"/>
       <c r="D223" s="6"/>
-      <c r="E223" s="50"/>
-      <c r="F223" s="50"/>
-      <c r="G223" s="50"/>
-      <c r="H223" s="50"/>
+      <c r="E223" s="52"/>
+      <c r="F223" s="52"/>
+      <c r="G223" s="52"/>
+      <c r="H223" s="52"/>
       <c r="I223" s="6"/>
       <c r="J223" s="6"/>
       <c r="K223" s="6"/>
-      <c r="L223" s="56"/>
+      <c r="L223" s="58"/>
     </row>
     <row r="224" spans="1:12">
       <c r="A224" s="6"/>
       <c r="B224" s="6"/>
       <c r="D224" s="6"/>
-      <c r="E224" s="50"/>
-      <c r="F224" s="50"/>
-      <c r="G224" s="50"/>
-      <c r="H224" s="50"/>
+      <c r="E224" s="52"/>
+      <c r="F224" s="52"/>
+      <c r="G224" s="52"/>
+      <c r="H224" s="52"/>
       <c r="I224" s="6"/>
       <c r="J224" s="6"/>
       <c r="K224" s="6"/>
-      <c r="L224" s="56"/>
+      <c r="L224" s="58"/>
     </row>
     <row r="225" spans="1:12">
       <c r="A225" s="6"/>
       <c r="B225" s="6"/>
       <c r="D225" s="6"/>
-      <c r="E225" s="50"/>
-      <c r="F225" s="50"/>
-      <c r="G225" s="50"/>
-      <c r="H225" s="50"/>
+      <c r="E225" s="52"/>
+      <c r="F225" s="52"/>
+      <c r="G225" s="52"/>
+      <c r="H225" s="52"/>
       <c r="I225" s="6"/>
       <c r="J225" s="6"/>
       <c r="K225" s="6"/>
-      <c r="L225" s="56"/>
+      <c r="L225" s="58"/>
     </row>
     <row r="226" spans="1:12">
       <c r="A226" s="6"/>
       <c r="B226" s="6"/>
       <c r="D226" s="6"/>
-      <c r="E226" s="50"/>
-      <c r="F226" s="50"/>
-      <c r="G226" s="50"/>
-      <c r="H226" s="50"/>
+      <c r="E226" s="52"/>
+      <c r="F226" s="52"/>
+      <c r="G226" s="52"/>
+      <c r="H226" s="52"/>
       <c r="I226" s="6"/>
       <c r="J226" s="6"/>
       <c r="K226" s="6"/>
-      <c r="L226" s="56"/>
+      <c r="L226" s="58"/>
     </row>
     <row r="227" spans="1:12">
       <c r="A227" s="6"/>
       <c r="B227" s="6"/>
       <c r="D227" s="6"/>
-      <c r="E227" s="50"/>
-      <c r="F227" s="50"/>
-      <c r="G227" s="50"/>
-      <c r="H227" s="50"/>
+      <c r="E227" s="52"/>
+      <c r="F227" s="52"/>
+      <c r="G227" s="52"/>
+      <c r="H227" s="52"/>
       <c r="I227" s="6"/>
       <c r="J227" s="6"/>
       <c r="K227" s="6"/>
-      <c r="L227" s="56"/>
+      <c r="L227" s="58"/>
     </row>
     <row r="228" spans="1:12">
       <c r="A228" s="6"/>
       <c r="B228" s="6"/>
       <c r="D228" s="6"/>
-      <c r="E228" s="50"/>
-      <c r="F228" s="50"/>
-      <c r="G228" s="50"/>
-      <c r="H228" s="50"/>
+      <c r="E228" s="52"/>
+      <c r="F228" s="52"/>
+      <c r="G228" s="52"/>
+      <c r="H228" s="52"/>
       <c r="I228" s="6"/>
       <c r="J228" s="6"/>
       <c r="K228" s="6"/>
-      <c r="L228" s="56"/>
+      <c r="L228" s="58"/>
     </row>
     <row r="229" spans="1:12">
       <c r="A229" s="6"/>
       <c r="B229" s="6"/>
       <c r="D229" s="6"/>
-      <c r="E229" s="50"/>
-      <c r="F229" s="50"/>
-      <c r="G229" s="50"/>
-      <c r="H229" s="50"/>
+      <c r="E229" s="52"/>
+      <c r="F229" s="52"/>
+      <c r="G229" s="52"/>
+      <c r="H229" s="52"/>
       <c r="I229" s="6"/>
       <c r="J229" s="6"/>
       <c r="K229" s="6"/>
-      <c r="L229" s="56"/>
+      <c r="L229" s="58"/>
     </row>
     <row r="230" spans="1:12">
       <c r="A230" s="6"/>
       <c r="B230" s="6"/>
       <c r="D230" s="6"/>
-      <c r="E230" s="50"/>
-      <c r="F230" s="50"/>
-      <c r="G230" s="50"/>
-      <c r="H230" s="50"/>
+      <c r="E230" s="52"/>
+      <c r="F230" s="52"/>
+      <c r="G230" s="52"/>
+      <c r="H230" s="52"/>
       <c r="I230" s="6"/>
       <c r="J230" s="6"/>
       <c r="K230" s="6"/>
-      <c r="L230" s="56"/>
+      <c r="L230" s="58"/>
     </row>
     <row r="231" spans="1:12">
       <c r="A231" s="6"/>
       <c r="B231" s="6"/>
       <c r="D231" s="6"/>
-      <c r="E231" s="50"/>
-      <c r="F231" s="50"/>
-      <c r="G231" s="50"/>
-      <c r="H231" s="50"/>
+      <c r="E231" s="52"/>
+      <c r="F231" s="52"/>
+      <c r="G231" s="52"/>
+      <c r="H231" s="52"/>
       <c r="I231" s="6"/>
       <c r="J231" s="6"/>
       <c r="K231" s="6"/>
-      <c r="L231" s="56"/>
+      <c r="L231" s="58"/>
     </row>
     <row r="232" spans="1:12">
       <c r="A232" s="6"/>
       <c r="B232" s="6"/>
       <c r="D232" s="6"/>
-      <c r="E232" s="50"/>
-      <c r="F232" s="50"/>
-      <c r="G232" s="50"/>
-      <c r="H232" s="50"/>
+      <c r="E232" s="52"/>
+      <c r="F232" s="52"/>
+      <c r="G232" s="52"/>
+      <c r="H232" s="52"/>
       <c r="I232" s="6"/>
       <c r="J232" s="6"/>
       <c r="K232" s="6"/>
-      <c r="L232" s="56"/>
+      <c r="L232" s="58"/>
     </row>
     <row r="233" spans="1:12">
       <c r="A233" s="6"/>
       <c r="B233" s="6"/>
       <c r="D233" s="6"/>
-      <c r="E233" s="50"/>
-      <c r="F233" s="50"/>
-      <c r="G233" s="50"/>
-      <c r="H233" s="50"/>
+      <c r="E233" s="52"/>
+      <c r="F233" s="52"/>
+      <c r="G233" s="52"/>
+      <c r="H233" s="52"/>
       <c r="I233" s="6"/>
       <c r="J233" s="6"/>
       <c r="K233" s="6"/>
-      <c r="L233" s="56"/>
+      <c r="L233" s="58"/>
     </row>
     <row r="234" spans="1:12">
       <c r="A234" s="6"/>
       <c r="B234" s="6"/>
       <c r="D234" s="6"/>
-      <c r="E234" s="50"/>
-      <c r="F234" s="50"/>
-      <c r="G234" s="50"/>
-      <c r="H234" s="50"/>
+      <c r="E234" s="52"/>
+      <c r="F234" s="52"/>
+      <c r="G234" s="52"/>
+      <c r="H234" s="52"/>
       <c r="I234" s="6"/>
       <c r="J234" s="6"/>
       <c r="K234" s="6"/>
-      <c r="L234" s="56"/>
+      <c r="L234" s="58"/>
     </row>
     <row r="235" spans="1:12">
       <c r="A235" s="6"/>
       <c r="B235" s="6"/>
       <c r="D235" s="6"/>
-      <c r="E235" s="50"/>
-      <c r="F235" s="50"/>
-      <c r="G235" s="50"/>
-      <c r="H235" s="50"/>
+      <c r="E235" s="52"/>
+      <c r="F235" s="52"/>
+      <c r="G235" s="52"/>
+      <c r="H235" s="52"/>
       <c r="I235" s="6"/>
       <c r="J235" s="6"/>
       <c r="K235" s="6"/>
-      <c r="L235" s="56"/>
+      <c r="L235" s="58"/>
     </row>
     <row r="236" spans="1:12">
       <c r="A236" s="6"/>
       <c r="B236" s="6"/>
       <c r="D236" s="6"/>
-      <c r="E236" s="50"/>
-      <c r="F236" s="50"/>
-      <c r="G236" s="50"/>
-      <c r="H236" s="50"/>
+      <c r="E236" s="52"/>
+      <c r="F236" s="52"/>
+      <c r="G236" s="52"/>
+      <c r="H236" s="52"/>
       <c r="I236" s="6"/>
       <c r="J236" s="6"/>
       <c r="K236" s="6"/>
-      <c r="L236" s="56"/>
+      <c r="L236" s="58"/>
     </row>
     <row r="237" spans="1:12">
       <c r="A237" s="6"/>
       <c r="B237" s="6"/>
       <c r="D237" s="6"/>
-      <c r="E237" s="50"/>
-      <c r="F237" s="50"/>
-      <c r="G237" s="50"/>
-      <c r="H237" s="50"/>
+      <c r="E237" s="52"/>
+      <c r="F237" s="52"/>
+      <c r="G237" s="52"/>
+      <c r="H237" s="52"/>
       <c r="I237" s="6"/>
       <c r="J237" s="6"/>
       <c r="K237" s="6"/>
-      <c r="L237" s="56"/>
+      <c r="L237" s="58"/>
     </row>
     <row r="238" spans="1:12">
       <c r="A238" s="6"/>
       <c r="B238" s="6"/>
       <c r="D238" s="6"/>
-      <c r="E238" s="50"/>
-      <c r="F238" s="50"/>
-      <c r="G238" s="50"/>
-      <c r="H238" s="50"/>
+      <c r="E238" s="52"/>
+      <c r="F238" s="52"/>
+      <c r="G238" s="52"/>
+      <c r="H238" s="52"/>
       <c r="I238" s="6"/>
       <c r="J238" s="6"/>
       <c r="K238" s="6"/>
-      <c r="L238" s="56"/>
+      <c r="L238" s="58"/>
     </row>
     <row r="239" spans="1:12">
       <c r="A239" s="6"/>
       <c r="B239" s="6"/>
       <c r="D239" s="6"/>
-      <c r="E239" s="50"/>
-      <c r="F239" s="50"/>
-      <c r="G239" s="50"/>
-      <c r="H239" s="50"/>
+      <c r="E239" s="52"/>
+      <c r="F239" s="52"/>
+      <c r="G239" s="52"/>
+      <c r="H239" s="52"/>
       <c r="I239" s="6"/>
       <c r="J239" s="6"/>
       <c r="K239" s="6"/>
-      <c r="L239" s="56"/>
+      <c r="L239" s="58"/>
     </row>
     <row r="240" spans="1:12">
       <c r="A240" s="6"/>
       <c r="B240" s="6"/>
       <c r="D240" s="6"/>
-      <c r="E240" s="50"/>
-      <c r="F240" s="50"/>
-      <c r="G240" s="50"/>
-      <c r="H240" s="50"/>
+      <c r="E240" s="52"/>
+      <c r="F240" s="52"/>
+      <c r="G240" s="52"/>
+      <c r="H240" s="52"/>
       <c r="I240" s="6"/>
       <c r="J240" s="6"/>
       <c r="K240" s="6"/>
-      <c r="L240" s="56"/>
+      <c r="L240" s="58"/>
     </row>
     <row r="241" spans="1:12">
       <c r="A241" s="6"/>
       <c r="B241" s="6"/>
       <c r="D241" s="6"/>
-      <c r="E241" s="50"/>
-      <c r="F241" s="50"/>
-      <c r="G241" s="50"/>
-      <c r="H241" s="50"/>
+      <c r="E241" s="52"/>
+      <c r="F241" s="52"/>
+      <c r="G241" s="52"/>
+      <c r="H241" s="52"/>
       <c r="I241" s="6"/>
       <c r="J241" s="6"/>
       <c r="K241" s="6"/>
-      <c r="L241" s="56"/>
+      <c r="L241" s="58"/>
     </row>
     <row r="242" spans="1:12">
       <c r="A242" s="6"/>
       <c r="B242" s="6"/>
       <c r="D242" s="6"/>
-      <c r="E242" s="50"/>
-      <c r="F242" s="50"/>
-      <c r="G242" s="50"/>
-      <c r="H242" s="50"/>
+      <c r="E242" s="52"/>
+      <c r="F242" s="52"/>
+      <c r="G242" s="52"/>
+      <c r="H242" s="52"/>
       <c r="I242" s="6"/>
       <c r="J242" s="6"/>
       <c r="K242" s="6"/>
-      <c r="L242" s="56"/>
+      <c r="L242" s="58"/>
     </row>
     <row r="243" spans="1:12">
       <c r="A243" s="6"/>
       <c r="B243" s="6"/>
       <c r="D243" s="6"/>
-      <c r="E243" s="50"/>
-      <c r="F243" s="50"/>
-      <c r="G243" s="50"/>
-      <c r="H243" s="50"/>
+      <c r="E243" s="52"/>
+      <c r="F243" s="52"/>
+      <c r="G243" s="52"/>
+      <c r="H243" s="52"/>
       <c r="I243" s="6"/>
       <c r="J243" s="6"/>
       <c r="K243" s="6"/>
-      <c r="L243" s="56"/>
+      <c r="L243" s="58"/>
     </row>
     <row r="244" spans="1:12">
       <c r="A244" s="6"/>
       <c r="B244" s="6"/>
       <c r="D244" s="6"/>
-      <c r="E244" s="50"/>
-      <c r="F244" s="50"/>
-      <c r="G244" s="50"/>
-      <c r="H244" s="50"/>
+      <c r="E244" s="52"/>
+      <c r="F244" s="52"/>
+      <c r="G244" s="52"/>
+      <c r="H244" s="52"/>
       <c r="I244" s="6"/>
       <c r="J244" s="6"/>
       <c r="K244" s="6"/>
-      <c r="L244" s="56"/>
+      <c r="L244" s="58"/>
     </row>
     <row r="245" spans="1:12">
       <c r="A245" s="6"/>
       <c r="B245" s="6"/>
       <c r="D245" s="6"/>
-      <c r="E245" s="50"/>
-      <c r="F245" s="50"/>
-      <c r="G245" s="50"/>
-      <c r="H245" s="50"/>
+      <c r="E245" s="52"/>
+      <c r="F245" s="52"/>
+      <c r="G245" s="52"/>
+      <c r="H245" s="52"/>
       <c r="I245" s="6"/>
       <c r="J245" s="6"/>
       <c r="K245" s="6"/>
-      <c r="L245" s="56"/>
+      <c r="L245" s="58"/>
     </row>
     <row r="246" spans="1:12">
       <c r="A246" s="6"/>
       <c r="B246" s="6"/>
       <c r="D246" s="6"/>
-      <c r="E246" s="50"/>
-      <c r="F246" s="50"/>
-      <c r="G246" s="50"/>
-      <c r="H246" s="50"/>
+      <c r="E246" s="52"/>
+      <c r="F246" s="52"/>
+      <c r="G246" s="52"/>
+      <c r="H246" s="52"/>
       <c r="I246" s="6"/>
       <c r="J246" s="6"/>
       <c r="K246" s="6"/>
-      <c r="L246" s="56"/>
+      <c r="L246" s="58"/>
     </row>
     <row r="247" spans="1:12">
       <c r="A247" s="6"/>
       <c r="B247" s="6"/>
       <c r="D247" s="6"/>
-      <c r="E247" s="50"/>
-      <c r="F247" s="50"/>
-      <c r="G247" s="50"/>
-      <c r="H247" s="50"/>
+      <c r="E247" s="52"/>
+      <c r="F247" s="52"/>
+      <c r="G247" s="52"/>
+      <c r="H247" s="52"/>
       <c r="I247" s="6"/>
       <c r="J247" s="6"/>
       <c r="K247" s="6"/>
-      <c r="L247" s="56"/>
+      <c r="L247" s="58"/>
     </row>
     <row r="248" spans="1:12">
       <c r="A248" s="6"/>
       <c r="B248" s="6"/>
       <c r="D248" s="6"/>
-      <c r="E248" s="50"/>
-      <c r="F248" s="50"/>
-      <c r="G248" s="50"/>
-      <c r="H248" s="50"/>
+      <c r="E248" s="52"/>
+      <c r="F248" s="52"/>
+      <c r="G248" s="52"/>
+      <c r="H248" s="52"/>
       <c r="I248" s="6"/>
       <c r="J248" s="6"/>
       <c r="K248" s="6"/>
-      <c r="L248" s="56"/>
+      <c r="L248" s="58"/>
     </row>
     <row r="249" spans="1:12">
       <c r="A249" s="6"/>
       <c r="B249" s="6"/>
       <c r="D249" s="6"/>
-      <c r="E249" s="50"/>
-      <c r="F249" s="50"/>
-      <c r="G249" s="50"/>
-      <c r="H249" s="50"/>
+      <c r="E249" s="52"/>
+      <c r="F249" s="52"/>
+      <c r="G249" s="52"/>
+      <c r="H249" s="52"/>
       <c r="I249" s="6"/>
       <c r="J249" s="6"/>
       <c r="K249" s="6"/>
-      <c r="L249" s="56"/>
+      <c r="L249" s="58"/>
     </row>
     <row r="250" spans="1:12">
       <c r="A250" s="6"/>
       <c r="B250" s="6"/>
       <c r="D250" s="6"/>
-      <c r="E250" s="50"/>
-      <c r="F250" s="50"/>
-      <c r="G250" s="50"/>
-      <c r="H250" s="50"/>
+      <c r="E250" s="52"/>
+      <c r="F250" s="52"/>
+      <c r="G250" s="52"/>
+      <c r="H250" s="52"/>
       <c r="I250" s="6"/>
       <c r="J250" s="6"/>
       <c r="K250" s="6"/>
-      <c r="L250" s="56"/>
+      <c r="L250" s="58"/>
     </row>
     <row r="251" spans="1:12">
       <c r="A251" s="6"/>
       <c r="B251" s="6"/>
       <c r="D251" s="6"/>
-      <c r="E251" s="50"/>
-      <c r="F251" s="50"/>
-      <c r="G251" s="50"/>
-      <c r="H251" s="50"/>
+      <c r="E251" s="52"/>
+      <c r="F251" s="52"/>
+      <c r="G251" s="52"/>
+      <c r="H251" s="52"/>
       <c r="I251" s="6"/>
       <c r="J251" s="6"/>
       <c r="K251" s="6"/>
-      <c r="L251" s="56"/>
+      <c r="L251" s="58"/>
     </row>
     <row r="252" spans="1:12">
       <c r="A252" s="6"/>
       <c r="B252" s="6"/>
       <c r="D252" s="6"/>
-      <c r="E252" s="50"/>
-      <c r="F252" s="50"/>
-      <c r="G252" s="50"/>
-      <c r="H252" s="50"/>
+      <c r="E252" s="52"/>
+      <c r="F252" s="52"/>
+      <c r="G252" s="52"/>
+      <c r="H252" s="52"/>
       <c r="I252" s="6"/>
       <c r="J252" s="6"/>
       <c r="K252" s="6"/>
-      <c r="L252" s="56"/>
+      <c r="L252" s="58"/>
     </row>
     <row r="253" spans="1:12">
       <c r="A253" s="6"/>
       <c r="B253" s="6"/>
       <c r="D253" s="6"/>
-      <c r="E253" s="50"/>
-      <c r="F253" s="50"/>
-      <c r="G253" s="50"/>
-      <c r="H253" s="50"/>
+      <c r="E253" s="52"/>
+      <c r="F253" s="52"/>
+      <c r="G253" s="52"/>
+      <c r="H253" s="52"/>
       <c r="I253" s="6"/>
       <c r="J253" s="6"/>
       <c r="K253" s="6"/>
-      <c r="L253" s="56"/>
+      <c r="L253" s="58"/>
     </row>
     <row r="254" spans="1:12">
       <c r="A254" s="6"/>
       <c r="B254" s="6"/>
       <c r="D254" s="6"/>
-      <c r="E254" s="50"/>
-      <c r="F254" s="50"/>
-      <c r="G254" s="50"/>
-      <c r="H254" s="50"/>
+      <c r="E254" s="52"/>
+      <c r="F254" s="52"/>
+      <c r="G254" s="52"/>
+      <c r="H254" s="52"/>
       <c r="I254" s="6"/>
       <c r="J254" s="6"/>
       <c r="K254" s="6"/>
-      <c r="L254" s="56"/>
+      <c r="L254" s="58"/>
     </row>
     <row r="255" spans="1:12">
       <c r="A255" s="6"/>
       <c r="B255" s="6"/>
       <c r="D255" s="6"/>
-      <c r="E255" s="50"/>
-      <c r="F255" s="50"/>
-      <c r="G255" s="50"/>
-      <c r="H255" s="50"/>
+      <c r="E255" s="52"/>
+      <c r="F255" s="52"/>
+      <c r="G255" s="52"/>
+      <c r="H255" s="52"/>
       <c r="I255" s="6"/>
       <c r="J255" s="6"/>
       <c r="K255" s="6"/>
-      <c r="L255" s="56"/>
+      <c r="L255" s="58"/>
     </row>
     <row r="256" spans="1:12">
       <c r="A256" s="6"/>
       <c r="B256" s="6"/>
       <c r="D256" s="6"/>
-      <c r="E256" s="50"/>
-      <c r="F256" s="50"/>
-      <c r="G256" s="50"/>
-      <c r="H256" s="50"/>
+      <c r="E256" s="52"/>
+      <c r="F256" s="52"/>
+      <c r="G256" s="52"/>
+      <c r="H256" s="52"/>
       <c r="I256" s="6"/>
       <c r="J256" s="6"/>
       <c r="K256" s="6"/>
-      <c r="L256" s="56"/>
+      <c r="L256" s="58"/>
     </row>
     <row r="257" spans="1:12">
       <c r="A257" s="6"/>
       <c r="B257" s="6"/>
       <c r="D257" s="6"/>
-      <c r="E257" s="50"/>
-      <c r="F257" s="50"/>
-      <c r="G257" s="50"/>
-      <c r="H257" s="50"/>
+      <c r="E257" s="52"/>
+      <c r="F257" s="52"/>
+      <c r="G257" s="52"/>
+      <c r="H257" s="52"/>
       <c r="I257" s="6"/>
       <c r="J257" s="6"/>
       <c r="K257" s="6"/>
-      <c r="L257" s="56"/>
+      <c r="L257" s="58"/>
     </row>
     <row r="258" spans="1:12">
       <c r="A258" s="6"/>
       <c r="B258" s="6"/>
       <c r="D258" s="6"/>
-      <c r="E258" s="50"/>
-      <c r="F258" s="50"/>
-      <c r="G258" s="50"/>
-      <c r="H258" s="50"/>
+      <c r="E258" s="52"/>
+      <c r="F258" s="52"/>
+      <c r="G258" s="52"/>
+      <c r="H258" s="52"/>
       <c r="I258" s="6"/>
       <c r="J258" s="6"/>
       <c r="K258" s="6"/>
-      <c r="L258" s="56"/>
+      <c r="L258" s="58"/>
     </row>
     <row r="259" spans="1:12">
       <c r="A259" s="6"/>
       <c r="B259" s="6"/>
       <c r="D259" s="6"/>
-      <c r="E259" s="50"/>
-      <c r="F259" s="50"/>
-      <c r="G259" s="50"/>
-      <c r="H259" s="50"/>
+      <c r="E259" s="52"/>
+      <c r="F259" s="52"/>
+      <c r="G259" s="52"/>
+      <c r="H259" s="52"/>
       <c r="I259" s="6"/>
       <c r="J259" s="6"/>
       <c r="K259" s="6"/>
-      <c r="L259" s="56"/>
+      <c r="L259" s="58"/>
     </row>
     <row r="260" spans="1:12">
       <c r="A260" s="6"/>
       <c r="B260" s="6"/>
       <c r="D260" s="6"/>
-      <c r="E260" s="50"/>
-      <c r="F260" s="50"/>
-      <c r="G260" s="50"/>
-      <c r="H260" s="50"/>
+      <c r="E260" s="52"/>
+      <c r="F260" s="52"/>
+      <c r="G260" s="52"/>
+      <c r="H260" s="52"/>
       <c r="I260" s="6"/>
       <c r="J260" s="6"/>
       <c r="K260" s="6"/>
-      <c r="L260" s="56"/>
+      <c r="L260" s="58"/>
     </row>
     <row r="261" spans="1:12">
       <c r="A261" s="6"/>
       <c r="B261" s="6"/>
       <c r="D261" s="6"/>
-      <c r="E261" s="50"/>
-      <c r="F261" s="50"/>
-      <c r="G261" s="50"/>
-      <c r="H261" s="50"/>
+      <c r="E261" s="52"/>
+      <c r="F261" s="52"/>
+      <c r="G261" s="52"/>
+      <c r="H261" s="52"/>
       <c r="I261" s="6"/>
       <c r="J261" s="6"/>
       <c r="K261" s="6"/>
-      <c r="L261" s="56"/>
+      <c r="L261" s="58"/>
     </row>
     <row r="262" spans="1:12">
       <c r="A262" s="6"/>
       <c r="B262" s="6"/>
       <c r="D262" s="6"/>
-      <c r="E262" s="50"/>
-      <c r="F262" s="50"/>
-      <c r="G262" s="50"/>
-      <c r="H262" s="50"/>
+      <c r="E262" s="52"/>
+      <c r="F262" s="52"/>
+      <c r="G262" s="52"/>
+      <c r="H262" s="52"/>
       <c r="I262" s="6"/>
       <c r="J262" s="6"/>
       <c r="K262" s="6"/>
-      <c r="L262" s="56"/>
+      <c r="L262" s="58"/>
     </row>
     <row r="263" spans="1:12">
       <c r="A263" s="6"/>
       <c r="B263" s="6"/>
       <c r="D263" s="6"/>
-      <c r="E263" s="50"/>
-      <c r="F263" s="50"/>
-      <c r="G263" s="50"/>
-      <c r="H263" s="50"/>
+      <c r="E263" s="52"/>
+      <c r="F263" s="52"/>
+      <c r="G263" s="52"/>
+      <c r="H263" s="52"/>
       <c r="I263" s="6"/>
       <c r="J263" s="6"/>
       <c r="K263" s="6"/>
-      <c r="L263" s="56"/>
+      <c r="L263" s="58"/>
     </row>
     <row r="264" spans="1:12">
       <c r="A264" s="6"/>
       <c r="B264" s="6"/>
       <c r="D264" s="6"/>
-      <c r="E264" s="50"/>
-      <c r="F264" s="50"/>
-      <c r="G264" s="50"/>
-      <c r="H264" s="50"/>
+      <c r="E264" s="52"/>
+      <c r="F264" s="52"/>
+      <c r="G264" s="52"/>
+      <c r="H264" s="52"/>
       <c r="I264" s="6"/>
       <c r="J264" s="6"/>
       <c r="K264" s="6"/>
-      <c r="L264" s="56"/>
+      <c r="L264" s="58"/>
     </row>
     <row r="265" spans="1:12">
       <c r="A265" s="6"/>
       <c r="B265" s="6"/>
       <c r="D265" s="6"/>
-      <c r="E265" s="50"/>
-      <c r="F265" s="50"/>
-      <c r="G265" s="50"/>
-      <c r="H265" s="50"/>
+      <c r="E265" s="52"/>
+      <c r="F265" s="52"/>
+      <c r="G265" s="52"/>
+      <c r="H265" s="52"/>
       <c r="I265" s="6"/>
       <c r="J265" s="6"/>
       <c r="K265" s="6"/>
-      <c r="L265" s="56"/>
+      <c r="L265" s="58"/>
     </row>
     <row r="266" spans="1:12">
       <c r="A266" s="6"/>
       <c r="B266" s="6"/>
       <c r="D266" s="6"/>
-      <c r="E266" s="50"/>
-      <c r="F266" s="50"/>
-      <c r="G266" s="50"/>
-      <c r="H266" s="50"/>
+      <c r="E266" s="52"/>
+      <c r="F266" s="52"/>
+      <c r="G266" s="52"/>
+      <c r="H266" s="52"/>
       <c r="I266" s="6"/>
       <c r="J266" s="6"/>
       <c r="K266" s="6"/>
-      <c r="L266" s="56"/>
+      <c r="L266" s="58"/>
     </row>
     <row r="267" spans="1:12">
       <c r="A267" s="6"/>
       <c r="B267" s="6"/>
       <c r="D267" s="6"/>
-      <c r="E267" s="50"/>
-      <c r="F267" s="50"/>
-      <c r="G267" s="50"/>
-      <c r="H267" s="50"/>
+      <c r="E267" s="52"/>
+      <c r="F267" s="52"/>
+      <c r="G267" s="52"/>
+      <c r="H267" s="52"/>
       <c r="I267" s="6"/>
       <c r="J267" s="6"/>
       <c r="K267" s="6"/>
-      <c r="L267" s="56"/>
+      <c r="L267" s="58"/>
     </row>
     <row r="268" spans="1:12">
       <c r="A268" s="6"/>
       <c r="B268" s="6"/>
       <c r="D268" s="6"/>
-      <c r="E268" s="50"/>
-      <c r="F268" s="50"/>
-      <c r="G268" s="50"/>
-      <c r="H268" s="50"/>
+      <c r="E268" s="52"/>
+      <c r="F268" s="52"/>
+      <c r="G268" s="52"/>
+      <c r="H268" s="52"/>
       <c r="I268" s="6"/>
       <c r="J268" s="6"/>
       <c r="K268" s="6"/>
-      <c r="L268" s="56"/>
+      <c r="L268" s="58"/>
     </row>
     <row r="269" spans="1:12">
       <c r="A269" s="6"/>
       <c r="B269" s="6"/>
       <c r="D269" s="6"/>
-      <c r="E269" s="50"/>
-      <c r="F269" s="50"/>
-      <c r="G269" s="50"/>
-      <c r="H269" s="50"/>
+      <c r="E269" s="52"/>
+      <c r="F269" s="52"/>
+      <c r="G269" s="52"/>
+      <c r="H269" s="52"/>
       <c r="I269" s="6"/>
       <c r="J269" s="6"/>
       <c r="K269" s="6"/>
-      <c r="L269" s="56"/>
+      <c r="L269" s="58"/>
     </row>
     <row r="270" spans="1:12">
       <c r="A270" s="6"/>
       <c r="B270" s="6"/>
       <c r="D270" s="6"/>
-      <c r="E270" s="50"/>
-      <c r="F270" s="50"/>
-      <c r="G270" s="50"/>
-      <c r="H270" s="50"/>
+      <c r="E270" s="52"/>
+      <c r="F270" s="52"/>
+      <c r="G270" s="52"/>
+      <c r="H270" s="52"/>
       <c r="I270" s="6"/>
       <c r="J270" s="6"/>
       <c r="K270" s="6"/>
-      <c r="L270" s="56"/>
+      <c r="L270" s="58"/>
     </row>
     <row r="271" spans="1:12">
       <c r="A271" s="6"/>
       <c r="B271" s="6"/>
       <c r="D271" s="6"/>
-      <c r="E271" s="50"/>
-      <c r="F271" s="50"/>
-      <c r="G271" s="50"/>
-      <c r="H271" s="50"/>
+      <c r="E271" s="52"/>
+      <c r="F271" s="52"/>
+      <c r="G271" s="52"/>
+      <c r="H271" s="52"/>
       <c r="I271" s="6"/>
       <c r="J271" s="6"/>
       <c r="K271" s="6"/>
-      <c r="L271" s="56"/>
+      <c r="L271" s="58"/>
     </row>
     <row r="272" spans="1:12">
       <c r="A272" s="6"/>
       <c r="B272" s="6"/>
       <c r="D272" s="6"/>
-      <c r="E272" s="50"/>
-      <c r="F272" s="50"/>
-      <c r="G272" s="50"/>
-      <c r="H272" s="50"/>
+      <c r="E272" s="52"/>
+      <c r="F272" s="52"/>
+      <c r="G272" s="52"/>
+      <c r="H272" s="52"/>
       <c r="I272" s="6"/>
       <c r="J272" s="6"/>
       <c r="K272" s="6"/>
-      <c r="L272" s="56"/>
+      <c r="L272" s="58"/>
     </row>
     <row r="273" spans="1:12">
       <c r="A273" s="6"/>
       <c r="B273" s="6"/>
       <c r="D273" s="6"/>
-      <c r="E273" s="50"/>
-      <c r="F273" s="50"/>
-      <c r="G273" s="50"/>
-      <c r="H273" s="50"/>
+      <c r="E273" s="52"/>
+      <c r="F273" s="52"/>
+      <c r="G273" s="52"/>
+      <c r="H273" s="52"/>
       <c r="I273" s="6"/>
       <c r="J273" s="6"/>
       <c r="K273" s="6"/>
-      <c r="L273" s="56"/>
+      <c r="L273" s="58"/>
     </row>
     <row r="274" spans="1:12">
       <c r="A274" s="6"/>
       <c r="B274" s="6"/>
       <c r="D274" s="6"/>
-      <c r="E274" s="50"/>
-      <c r="F274" s="50"/>
-      <c r="G274" s="50"/>
-      <c r="H274" s="50"/>
+      <c r="E274" s="52"/>
+      <c r="F274" s="52"/>
+      <c r="G274" s="52"/>
+      <c r="H274" s="52"/>
       <c r="I274" s="6"/>
       <c r="J274" s="6"/>
       <c r="K274" s="6"/>
-      <c r="L274" s="56"/>
+      <c r="L274" s="58"/>
     </row>
     <row r="275" spans="1:12">
       <c r="A275" s="6"/>
       <c r="B275" s="6"/>
       <c r="D275" s="6"/>
-      <c r="E275" s="50"/>
-      <c r="F275" s="50"/>
-      <c r="G275" s="50"/>
-      <c r="H275" s="50"/>
+      <c r="E275" s="52"/>
+      <c r="F275" s="52"/>
+      <c r="G275" s="52"/>
+      <c r="H275" s="52"/>
       <c r="I275" s="6"/>
       <c r="J275" s="6"/>
       <c r="K275" s="6"/>
-      <c r="L275" s="56"/>
+      <c r="L275" s="58"/>
     </row>
     <row r="276" spans="1:12">
       <c r="A276" s="6"/>
       <c r="B276" s="6"/>
       <c r="D276" s="6"/>
-      <c r="E276" s="50"/>
-      <c r="F276" s="50"/>
-      <c r="G276" s="50"/>
-      <c r="H276" s="50"/>
+      <c r="E276" s="52"/>
+      <c r="F276" s="52"/>
+      <c r="G276" s="52"/>
+      <c r="H276" s="52"/>
       <c r="I276" s="6"/>
       <c r="J276" s="6"/>
       <c r="K276" s="6"/>
-      <c r="L276" s="56"/>
+      <c r="L276" s="58"/>
     </row>
     <row r="277" spans="1:12">
       <c r="A277" s="6"/>
       <c r="B277" s="6"/>
       <c r="D277" s="6"/>
-      <c r="E277" s="50"/>
-      <c r="F277" s="50"/>
-      <c r="G277" s="50"/>
-      <c r="H277" s="50"/>
+      <c r="E277" s="52"/>
+      <c r="F277" s="52"/>
+      <c r="G277" s="52"/>
+      <c r="H277" s="52"/>
       <c r="I277" s="6"/>
       <c r="J277" s="6"/>
       <c r="K277" s="6"/>
-      <c r="L277" s="56"/>
+      <c r="L277" s="58"/>
     </row>
     <row r="278" spans="1:12">
       <c r="A278" s="6"/>
       <c r="B278" s="6"/>
       <c r="D278" s="6"/>
-      <c r="E278" s="50"/>
-      <c r="F278" s="50"/>
-      <c r="G278" s="50"/>
-      <c r="H278" s="50"/>
+      <c r="E278" s="52"/>
+      <c r="F278" s="52"/>
+      <c r="G278" s="52"/>
+      <c r="H278" s="52"/>
       <c r="I278" s="6"/>
       <c r="J278" s="6"/>
       <c r="K278" s="6"/>
-      <c r="L278" s="56"/>
+      <c r="L278" s="58"/>
     </row>
     <row r="279" spans="1:12">
       <c r="A279" s="6"/>
       <c r="B279" s="6"/>
       <c r="D279" s="6"/>
-      <c r="E279" s="50"/>
-      <c r="F279" s="50"/>
-      <c r="G279" s="50"/>
-      <c r="H279" s="50"/>
+      <c r="E279" s="52"/>
+      <c r="F279" s="52"/>
+      <c r="G279" s="52"/>
+      <c r="H279" s="52"/>
       <c r="I279" s="6"/>
       <c r="J279" s="6"/>
       <c r="K279" s="6"/>
-      <c r="L279" s="56"/>
+      <c r="L279" s="58"/>
     </row>
     <row r="280" spans="1:12">
       <c r="A280" s="6"/>
       <c r="B280" s="6"/>
       <c r="D280" s="6"/>
-      <c r="E280" s="50"/>
-      <c r="F280" s="50"/>
-      <c r="G280" s="50"/>
-      <c r="H280" s="50"/>
+      <c r="E280" s="52"/>
+      <c r="F280" s="52"/>
+      <c r="G280" s="52"/>
+      <c r="H280" s="52"/>
       <c r="I280" s="6"/>
       <c r="J280" s="6"/>
       <c r="K280" s="6"/>
-      <c r="L280" s="56"/>
+      <c r="L280" s="58"/>
     </row>
     <row r="281" spans="1:12">
       <c r="A281" s="6"/>
       <c r="B281" s="6"/>
       <c r="D281" s="6"/>
-      <c r="E281" s="50"/>
-      <c r="F281" s="50"/>
-      <c r="G281" s="50"/>
-      <c r="H281" s="50"/>
+      <c r="E281" s="52"/>
+      <c r="F281" s="52"/>
+      <c r="G281" s="52"/>
+      <c r="H281" s="52"/>
       <c r="I281" s="6"/>
       <c r="J281" s="6"/>
       <c r="K281" s="6"/>
-      <c r="L281" s="56"/>
+      <c r="L281" s="58"/>
     </row>
     <row r="282" spans="1:12">
       <c r="A282" s="6"/>
       <c r="B282" s="6"/>
       <c r="D282" s="6"/>
-      <c r="E282" s="50"/>
-      <c r="F282" s="50"/>
-      <c r="G282" s="50"/>
-      <c r="H282" s="50"/>
+      <c r="E282" s="52"/>
+      <c r="F282" s="52"/>
+      <c r="G282" s="52"/>
+      <c r="H282" s="52"/>
       <c r="I282" s="6"/>
       <c r="J282" s="6"/>
       <c r="K282" s="6"/>
-      <c r="L282" s="56"/>
+      <c r="L282" s="58"/>
     </row>
     <row r="283" spans="1:12">
       <c r="A283" s="6"/>
       <c r="B283" s="6"/>
       <c r="D283" s="6"/>
-      <c r="E283" s="50"/>
-      <c r="F283" s="50"/>
-      <c r="G283" s="50"/>
-      <c r="H283" s="50"/>
+      <c r="E283" s="52"/>
+      <c r="F283" s="52"/>
+      <c r="G283" s="52"/>
+      <c r="H283" s="52"/>
       <c r="I283" s="6"/>
       <c r="J283" s="6"/>
       <c r="K283" s="6"/>
-      <c r="L283" s="56"/>
+      <c r="L283" s="58"/>
     </row>
     <row r="284" spans="1:12">
       <c r="A284" s="6"/>
       <c r="B284" s="6"/>
       <c r="D284" s="6"/>
-      <c r="E284" s="50"/>
-      <c r="F284" s="50"/>
-      <c r="G284" s="50"/>
-      <c r="H284" s="50"/>
+      <c r="E284" s="52"/>
+      <c r="F284" s="52"/>
+      <c r="G284" s="52"/>
+      <c r="H284" s="52"/>
       <c r="I284" s="6"/>
       <c r="J284" s="6"/>
       <c r="K284" s="6"/>
-      <c r="L284" s="56"/>
+      <c r="L284" s="58"/>
     </row>
     <row r="285" spans="1:12">
       <c r="A285" s="6"/>
       <c r="B285" s="6"/>
       <c r="D285" s="6"/>
-      <c r="E285" s="50"/>
-      <c r="F285" s="50"/>
-      <c r="G285" s="50"/>
-      <c r="H285" s="50"/>
+      <c r="E285" s="52"/>
+      <c r="F285" s="52"/>
+      <c r="G285" s="52"/>
+      <c r="H285" s="52"/>
       <c r="I285" s="6"/>
       <c r="J285" s="6"/>
       <c r="K285" s="6"/>
-      <c r="L285" s="56"/>
+      <c r="L285" s="58"/>
     </row>
     <row r="286" spans="1:12">
       <c r="A286" s="6"/>
       <c r="B286" s="6"/>
       <c r="D286" s="6"/>
-      <c r="E286" s="50"/>
-      <c r="F286" s="50"/>
-      <c r="G286" s="50"/>
-      <c r="H286" s="50"/>
+      <c r="E286" s="52"/>
+      <c r="F286" s="52"/>
+      <c r="G286" s="52"/>
+      <c r="H286" s="52"/>
       <c r="I286" s="6"/>
       <c r="J286" s="6"/>
       <c r="K286" s="6"/>
-      <c r="L286" s="56"/>
+      <c r="L286" s="58"/>
     </row>
     <row r="287" spans="1:12">
       <c r="A287" s="6"/>
       <c r="B287" s="6"/>
       <c r="D287" s="6"/>
-      <c r="E287" s="50"/>
-      <c r="F287" s="50"/>
-      <c r="G287" s="50"/>
-      <c r="H287" s="50"/>
+      <c r="E287" s="52"/>
+      <c r="F287" s="52"/>
+      <c r="G287" s="52"/>
+      <c r="H287" s="52"/>
       <c r="I287" s="6"/>
       <c r="J287" s="6"/>
       <c r="K287" s="6"/>
-      <c r="L287" s="56"/>
+      <c r="L287" s="58"/>
     </row>
     <row r="288" spans="1:12">
       <c r="A288" s="6"/>
       <c r="B288" s="6"/>
       <c r="D288" s="6"/>
-      <c r="E288" s="50"/>
-      <c r="F288" s="50"/>
-      <c r="G288" s="50"/>
-      <c r="H288" s="50"/>
+      <c r="E288" s="52"/>
+      <c r="F288" s="52"/>
+      <c r="G288" s="52"/>
+      <c r="H288" s="52"/>
       <c r="I288" s="6"/>
       <c r="J288" s="6"/>
       <c r="K288" s="6"/>
-      <c r="L288" s="56"/>
+      <c r="L288" s="58"/>
     </row>
     <row r="289" spans="1:12">
       <c r="A289" s="6"/>
       <c r="B289" s="6"/>
       <c r="D289" s="6"/>
-      <c r="E289" s="50"/>
-      <c r="F289" s="50"/>
-      <c r="G289" s="50"/>
-      <c r="H289" s="50"/>
+      <c r="E289" s="52"/>
+      <c r="F289" s="52"/>
+      <c r="G289" s="52"/>
+      <c r="H289" s="52"/>
       <c r="I289" s="6"/>
       <c r="J289" s="6"/>
       <c r="K289" s="6"/>
-      <c r="L289" s="56"/>
+      <c r="L289" s="58"/>
     </row>
     <row r="290" spans="1:12">
       <c r="A290" s="6"/>
       <c r="B290" s="6"/>
       <c r="D290" s="6"/>
-      <c r="E290" s="50"/>
-      <c r="F290" s="50"/>
-      <c r="G290" s="50"/>
-      <c r="H290" s="50"/>
+      <c r="E290" s="52"/>
+      <c r="F290" s="52"/>
+      <c r="G290" s="52"/>
+      <c r="H290" s="52"/>
       <c r="I290" s="6"/>
       <c r="J290" s="6"/>
       <c r="K290" s="6"/>
-      <c r="L290" s="56"/>
+      <c r="L290" s="58"/>
     </row>
     <row r="291" spans="1:12">
       <c r="A291" s="6"/>
       <c r="B291" s="6"/>
       <c r="D291" s="6"/>
-      <c r="E291" s="50"/>
-      <c r="F291" s="50"/>
-      <c r="G291" s="50"/>
-      <c r="H291" s="50"/>
+      <c r="E291" s="52"/>
+      <c r="F291" s="52"/>
+      <c r="G291" s="52"/>
+      <c r="H291" s="52"/>
       <c r="I291" s="6"/>
       <c r="J291" s="6"/>
       <c r="K291" s="6"/>
-      <c r="L291" s="56"/>
+      <c r="L291" s="58"/>
     </row>
     <row r="292" spans="1:12">
       <c r="A292" s="6"/>
       <c r="B292" s="6"/>
       <c r="D292" s="6"/>
-      <c r="E292" s="50"/>
-      <c r="F292" s="50"/>
-      <c r="G292" s="50"/>
-      <c r="H292" s="50"/>
+      <c r="E292" s="52"/>
+      <c r="F292" s="52"/>
+      <c r="G292" s="52"/>
+      <c r="H292" s="52"/>
       <c r="I292" s="6"/>
       <c r="J292" s="6"/>
       <c r="K292" s="6"/>
-      <c r="L292" s="56"/>
+      <c r="L292" s="58"/>
     </row>
     <row r="293" spans="1:12">
       <c r="A293" s="6"/>
       <c r="B293" s="6"/>
       <c r="D293" s="6"/>
-      <c r="E293" s="50"/>
-      <c r="F293" s="50"/>
-      <c r="G293" s="50"/>
-      <c r="H293" s="50"/>
+      <c r="E293" s="52"/>
+      <c r="F293" s="52"/>
+      <c r="G293" s="52"/>
+      <c r="H293" s="52"/>
       <c r="I293" s="6"/>
       <c r="J293" s="6"/>
       <c r="K293" s="6"/>
-      <c r="L293" s="56"/>
+      <c r="L293" s="58"/>
     </row>
     <row r="294" spans="1:12">
       <c r="A294" s="6"/>
       <c r="B294" s="6"/>
       <c r="D294" s="6"/>
-      <c r="E294" s="50"/>
-      <c r="F294" s="50"/>
-      <c r="G294" s="50"/>
-      <c r="H294" s="50"/>
+      <c r="E294" s="52"/>
+      <c r="F294" s="52"/>
+      <c r="G294" s="52"/>
+      <c r="H294" s="52"/>
       <c r="I294" s="6"/>
       <c r="J294" s="6"/>
       <c r="K294" s="6"/>
-      <c r="L294" s="56"/>
+      <c r="L294" s="58"/>
     </row>
     <row r="295" spans="1:12">
       <c r="A295" s="6"/>
       <c r="B295" s="6"/>
       <c r="D295" s="6"/>
-      <c r="E295" s="50"/>
-      <c r="F295" s="50"/>
-      <c r="G295" s="50"/>
-      <c r="H295" s="50"/>
+      <c r="E295" s="52"/>
+      <c r="F295" s="52"/>
+      <c r="G295" s="52"/>
+      <c r="H295" s="52"/>
       <c r="I295" s="6"/>
       <c r="J295" s="6"/>
       <c r="K295" s="6"/>
-      <c r="L295" s="56"/>
+      <c r="L295" s="58"/>
     </row>
     <row r="296" spans="1:12">
       <c r="A296" s="6"/>
       <c r="B296" s="6"/>
       <c r="D296" s="6"/>
-      <c r="E296" s="50"/>
-      <c r="F296" s="50"/>
-      <c r="G296" s="50"/>
-      <c r="H296" s="50"/>
+      <c r="E296" s="52"/>
+      <c r="F296" s="52"/>
+      <c r="G296" s="52"/>
+      <c r="H296" s="52"/>
       <c r="I296" s="6"/>
       <c r="J296" s="6"/>
       <c r="K296" s="6"/>
-      <c r="L296" s="56"/>
+      <c r="L296" s="58"/>
     </row>
     <row r="297" spans="1:12">
       <c r="A297" s="6"/>
       <c r="B297" s="6"/>
       <c r="D297" s="6"/>
-      <c r="E297" s="50"/>
-      <c r="F297" s="50"/>
-      <c r="G297" s="50"/>
-      <c r="H297" s="50"/>
+      <c r="E297" s="52"/>
+      <c r="F297" s="52"/>
+      <c r="G297" s="52"/>
+      <c r="H297" s="52"/>
       <c r="I297" s="6"/>
       <c r="J297" s="6"/>
       <c r="K297" s="6"/>
-      <c r="L297" s="56"/>
+      <c r="L297" s="58"/>
     </row>
     <row r="298" spans="1:12">
       <c r="A298" s="6"/>
       <c r="B298" s="6"/>
       <c r="D298" s="6"/>
-      <c r="E298" s="50"/>
-      <c r="F298" s="50"/>
-      <c r="G298" s="50"/>
-      <c r="H298" s="50"/>
+      <c r="E298" s="52"/>
+      <c r="F298" s="52"/>
+      <c r="G298" s="52"/>
+      <c r="H298" s="52"/>
       <c r="I298" s="6"/>
       <c r="J298" s="6"/>
       <c r="K298" s="6"/>
-      <c r="L298" s="56"/>
+      <c r="L298" s="58"/>
     </row>
     <row r="299" spans="1:12">
       <c r="A299" s="6"/>
       <c r="B299" s="6"/>
       <c r="D299" s="6"/>
-      <c r="E299" s="50"/>
-      <c r="F299" s="50"/>
-      <c r="G299" s="50"/>
-      <c r="H299" s="50"/>
+      <c r="E299" s="52"/>
+      <c r="F299" s="52"/>
+      <c r="G299" s="52"/>
+      <c r="H299" s="52"/>
       <c r="I299" s="6"/>
       <c r="J299" s="6"/>
       <c r="K299" s="6"/>
-      <c r="L299" s="56"/>
+      <c r="L299" s="58"/>
     </row>
     <row r="300" spans="1:12">
       <c r="A300" s="6"/>
       <c r="B300" s="6"/>
       <c r="D300" s="6"/>
-      <c r="E300" s="50"/>
-      <c r="F300" s="50"/>
-      <c r="G300" s="50"/>
-      <c r="H300" s="50"/>
+      <c r="E300" s="52"/>
+      <c r="F300" s="52"/>
+      <c r="G300" s="52"/>
+      <c r="H300" s="52"/>
       <c r="I300" s="6"/>
       <c r="J300" s="6"/>
       <c r="K300" s="6"/>
-      <c r="L300" s="56"/>
+      <c r="L300" s="58"/>
     </row>
     <row r="301" spans="1:12">
       <c r="A301" s="6"/>
       <c r="B301" s="6"/>
       <c r="D301" s="6"/>
-      <c r="E301" s="50"/>
-      <c r="F301" s="50"/>
-      <c r="G301" s="50"/>
-      <c r="H301" s="50"/>
+      <c r="E301" s="52"/>
+      <c r="F301" s="52"/>
+      <c r="G301" s="52"/>
+      <c r="H301" s="52"/>
       <c r="I301" s="6"/>
       <c r="J301" s="6"/>
       <c r="K301" s="6"/>
-      <c r="L301" s="56"/>
+      <c r="L301" s="58"/>
     </row>
     <row r="302" spans="1:12">
       <c r="A302" s="6"/>
       <c r="B302" s="6"/>
       <c r="D302" s="6"/>
-      <c r="E302" s="50"/>
-      <c r="F302" s="50"/>
-      <c r="G302" s="50"/>
-      <c r="H302" s="50"/>
+      <c r="E302" s="52"/>
+      <c r="F302" s="52"/>
+      <c r="G302" s="52"/>
+      <c r="H302" s="52"/>
       <c r="I302" s="6"/>
       <c r="J302" s="6"/>
       <c r="K302" s="6"/>
-      <c r="L302" s="56"/>
+      <c r="L302" s="58"/>
     </row>
     <row r="303" spans="1:12">
       <c r="A303" s="6"/>
       <c r="B303" s="6"/>
       <c r="D303" s="6"/>
-      <c r="E303" s="50"/>
-      <c r="F303" s="50"/>
-      <c r="G303" s="50"/>
-      <c r="H303" s="50"/>
+      <c r="E303" s="52"/>
+      <c r="F303" s="52"/>
+      <c r="G303" s="52"/>
+      <c r="H303" s="52"/>
       <c r="I303" s="6"/>
       <c r="J303" s="6"/>
       <c r="K303" s="6"/>
-      <c r="L303" s="56"/>
+      <c r="L303" s="58"/>
     </row>
     <row r="304" spans="1:12">
       <c r="A304" s="6"/>
       <c r="B304" s="6"/>
       <c r="D304" s="6"/>
-      <c r="E304" s="50"/>
-      <c r="F304" s="50"/>
-      <c r="G304" s="50"/>
-      <c r="H304" s="50"/>
+      <c r="E304" s="52"/>
+      <c r="F304" s="52"/>
+      <c r="G304" s="52"/>
+      <c r="H304" s="52"/>
       <c r="I304" s="6"/>
       <c r="J304" s="6"/>
       <c r="K304" s="6"/>
-      <c r="L304" s="56"/>
+      <c r="L304" s="58"/>
     </row>
     <row r="305" spans="1:12">
       <c r="A305" s="6"/>
       <c r="B305" s="6"/>
       <c r="D305" s="6"/>
-      <c r="E305" s="50"/>
-      <c r="F305" s="50"/>
-      <c r="G305" s="50"/>
-      <c r="H305" s="50"/>
+      <c r="E305" s="52"/>
+      <c r="F305" s="52"/>
+      <c r="G305" s="52"/>
+      <c r="H305" s="52"/>
       <c r="I305" s="6"/>
       <c r="J305" s="6"/>
       <c r="K305" s="6"/>
-      <c r="L305" s="56"/>
+      <c r="L305" s="58"/>
     </row>
     <row r="306" spans="1:12">
       <c r="A306" s="6"/>
       <c r="B306" s="6"/>
       <c r="D306" s="6"/>
-      <c r="E306" s="50"/>
-      <c r="F306" s="50"/>
-      <c r="G306" s="50"/>
-      <c r="H306" s="50"/>
+      <c r="E306" s="52"/>
+      <c r="F306" s="52"/>
+      <c r="G306" s="52"/>
+      <c r="H306" s="52"/>
       <c r="I306" s="6"/>
       <c r="J306" s="6"/>
       <c r="K306" s="6"/>
-      <c r="L306" s="56"/>
+      <c r="L306" s="58"/>
     </row>
     <row r="307" spans="1:12">
       <c r="A307" s="6"/>
       <c r="B307" s="6"/>
       <c r="D307" s="6"/>
-      <c r="E307" s="50"/>
-      <c r="F307" s="50"/>
-      <c r="G307" s="50"/>
-      <c r="H307" s="50"/>
+      <c r="E307" s="52"/>
+      <c r="F307" s="52"/>
+      <c r="G307" s="52"/>
+      <c r="H307" s="52"/>
       <c r="I307" s="6"/>
       <c r="J307" s="6"/>
       <c r="K307" s="6"/>
-      <c r="L307" s="56"/>
+      <c r="L307" s="58"/>
     </row>
     <row r="308" spans="1:12">
       <c r="A308" s="6"/>
       <c r="B308" s="6"/>
       <c r="D308" s="6"/>
-      <c r="E308" s="50"/>
-      <c r="F308" s="50"/>
-      <c r="G308" s="50"/>
-      <c r="H308" s="50"/>
+      <c r="E308" s="52"/>
+      <c r="F308" s="52"/>
+      <c r="G308" s="52"/>
+      <c r="H308" s="52"/>
       <c r="I308" s="6"/>
       <c r="J308" s="6"/>
       <c r="K308" s="6"/>
-      <c r="L308" s="56"/>
+      <c r="L308" s="58"/>
     </row>
     <row r="309" spans="1:12">
       <c r="A309" s="6"/>
       <c r="B309" s="6"/>
       <c r="D309" s="6"/>
-      <c r="E309" s="50"/>
-      <c r="F309" s="50"/>
-      <c r="G309" s="50"/>
-      <c r="H309" s="50"/>
+      <c r="E309" s="52"/>
+      <c r="F309" s="52"/>
+      <c r="G309" s="52"/>
+      <c r="H309" s="52"/>
       <c r="I309" s="6"/>
       <c r="J309" s="6"/>
       <c r="K309" s="6"/>
-      <c r="L309" s="56"/>
+      <c r="L309" s="58"/>
     </row>
     <row r="310" spans="1:12">
       <c r="A310" s="6"/>
       <c r="B310" s="6"/>
       <c r="D310" s="6"/>
-      <c r="E310" s="50"/>
-      <c r="F310" s="50"/>
-      <c r="G310" s="50"/>
-      <c r="H310" s="50"/>
+      <c r="E310" s="52"/>
+      <c r="F310" s="52"/>
+      <c r="G310" s="52"/>
+      <c r="H310" s="52"/>
       <c r="I310" s="6"/>
       <c r="J310" s="6"/>
       <c r="K310" s="6"/>
-      <c r="L310" s="56"/>
+      <c r="L310" s="58"/>
     </row>
     <row r="311" spans="1:12">
       <c r="A311" s="6"/>
       <c r="B311" s="6"/>
       <c r="D311" s="6"/>
-      <c r="E311" s="50"/>
-      <c r="F311" s="50"/>
-      <c r="G311" s="50"/>
-      <c r="H311" s="50"/>
+      <c r="E311" s="52"/>
+      <c r="F311" s="52"/>
+      <c r="G311" s="52"/>
+      <c r="H311" s="52"/>
       <c r="I311" s="6"/>
       <c r="J311" s="6"/>
       <c r="K311" s="6"/>
-      <c r="L311" s="56"/>
+      <c r="L311" s="58"/>
     </row>
     <row r="312" spans="1:12">
       <c r="A312" s="6"/>
       <c r="B312" s="6"/>
       <c r="D312" s="6"/>
-      <c r="E312" s="50"/>
-      <c r="F312" s="50"/>
-      <c r="G312" s="50"/>
-      <c r="H312" s="50"/>
+      <c r="E312" s="52"/>
+      <c r="F312" s="52"/>
+      <c r="G312" s="52"/>
+      <c r="H312" s="52"/>
       <c r="I312" s="6"/>
       <c r="J312" s="6"/>
       <c r="K312" s="6"/>
-      <c r="L312" s="56"/>
+      <c r="L312" s="58"/>
     </row>
     <row r="313" spans="1:12">
       <c r="A313" s="6"/>
       <c r="B313" s="6"/>
       <c r="D313" s="6"/>
-      <c r="E313" s="50"/>
-      <c r="F313" s="50"/>
-      <c r="G313" s="50"/>
-      <c r="H313" s="50"/>
+      <c r="E313" s="52"/>
+      <c r="F313" s="52"/>
+      <c r="G313" s="52"/>
+      <c r="H313" s="52"/>
       <c r="I313" s="6"/>
       <c r="J313" s="6"/>
       <c r="K313" s="6"/>
-      <c r="L313" s="56"/>
+      <c r="L313" s="58"/>
     </row>
     <row r="314" spans="1:12">
       <c r="A314" s="6"/>
       <c r="B314" s="6"/>
       <c r="D314" s="6"/>
-      <c r="E314" s="50"/>
-      <c r="F314" s="50"/>
-      <c r="G314" s="50"/>
-      <c r="H314" s="50"/>
+      <c r="E314" s="52"/>
+      <c r="F314" s="52"/>
+      <c r="G314" s="52"/>
+      <c r="H314" s="52"/>
       <c r="I314" s="6"/>
       <c r="J314" s="6"/>
       <c r="K314" s="6"/>
-      <c r="L314" s="56"/>
+      <c r="L314" s="58"/>
     </row>
     <row r="315" spans="1:12">
       <c r="A315" s="6"/>
       <c r="B315" s="6"/>
       <c r="D315" s="6"/>
-      <c r="E315" s="50"/>
-      <c r="F315" s="50"/>
-      <c r="G315" s="50"/>
-      <c r="H315" s="50"/>
+      <c r="E315" s="52"/>
+      <c r="F315" s="52"/>
+      <c r="G315" s="52"/>
+      <c r="H315" s="52"/>
       <c r="I315" s="6"/>
       <c r="J315" s="6"/>
       <c r="K315" s="6"/>
-      <c r="L315" s="56"/>
+      <c r="L315" s="58"/>
     </row>
     <row r="316" spans="1:12">
       <c r="A316" s="6"/>
       <c r="B316" s="6"/>
       <c r="D316" s="6"/>
-      <c r="E316" s="50"/>
-      <c r="F316" s="50"/>
-      <c r="G316" s="50"/>
-      <c r="H316" s="50"/>
+      <c r="E316" s="52"/>
+      <c r="F316" s="52"/>
+      <c r="G316" s="52"/>
+      <c r="H316" s="52"/>
       <c r="I316" s="6"/>
       <c r="J316" s="6"/>
       <c r="K316" s="6"/>
-      <c r="L316" s="56"/>
+      <c r="L316" s="58"/>
     </row>
     <row r="317" spans="1:12">
       <c r="A317" s="6"/>
       <c r="B317" s="6"/>
       <c r="D317" s="6"/>
-      <c r="E317" s="50"/>
-      <c r="F317" s="50"/>
-      <c r="G317" s="50"/>
-      <c r="H317" s="50"/>
+      <c r="E317" s="52"/>
+      <c r="F317" s="52"/>
+      <c r="G317" s="52"/>
+      <c r="H317" s="52"/>
       <c r="I317" s="6"/>
       <c r="J317" s="6"/>
       <c r="K317" s="6"/>
-      <c r="L317" s="56"/>
+      <c r="L317" s="58"/>
     </row>
     <row r="318" spans="1:12">
       <c r="A318" s="6"/>
       <c r="B318" s="6"/>
       <c r="D318" s="6"/>
-      <c r="E318" s="50"/>
-      <c r="F318" s="50"/>
-      <c r="G318" s="50"/>
-      <c r="H318" s="50"/>
+      <c r="E318" s="52"/>
+      <c r="F318" s="52"/>
+      <c r="G318" s="52"/>
+      <c r="H318" s="52"/>
       <c r="I318" s="6"/>
       <c r="J318" s="6"/>
       <c r="K318" s="6"/>
-      <c r="L318" s="56"/>
+      <c r="L318" s="58"/>
     </row>
     <row r="319" spans="1:12">
       <c r="A319" s="6"/>
       <c r="B319" s="6"/>
       <c r="D319" s="6"/>
-      <c r="E319" s="50"/>
-      <c r="F319" s="50"/>
-      <c r="G319" s="50"/>
-      <c r="H319" s="50"/>
+      <c r="E319" s="52"/>
+      <c r="F319" s="52"/>
+      <c r="G319" s="52"/>
+      <c r="H319" s="52"/>
       <c r="I319" s="6"/>
       <c r="J319" s="6"/>
       <c r="K319" s="6"/>
-      <c r="L319" s="56"/>
+      <c r="L319" s="58"/>
     </row>
     <row r="320" spans="1:12">
       <c r="A320" s="6"/>
       <c r="B320" s="6"/>
       <c r="D320" s="6"/>
-      <c r="E320" s="50"/>
-      <c r="F320" s="50"/>
-      <c r="G320" s="50"/>
-      <c r="H320" s="50"/>
+      <c r="E320" s="52"/>
+      <c r="F320" s="52"/>
+      <c r="G320" s="52"/>
+      <c r="H320" s="52"/>
       <c r="I320" s="6"/>
       <c r="J320" s="6"/>
       <c r="K320" s="6"/>
-      <c r="L320" s="56"/>
+      <c r="L320" s="58"/>
     </row>
     <row r="321" spans="1:12">
       <c r="A321" s="6"/>
       <c r="B321" s="6"/>
       <c r="D321" s="6"/>
-      <c r="E321" s="50"/>
-      <c r="F321" s="50"/>
-      <c r="G321" s="50"/>
-      <c r="H321" s="50"/>
+      <c r="E321" s="52"/>
+      <c r="F321" s="52"/>
+      <c r="G321" s="52"/>
+      <c r="H321" s="52"/>
       <c r="I321" s="6"/>
       <c r="J321" s="6"/>
       <c r="K321" s="6"/>
-      <c r="L321" s="56"/>
+      <c r="L321" s="58"/>
     </row>
     <row r="322" spans="1:12">
       <c r="A322" s="6"/>
       <c r="B322" s="6"/>
       <c r="D322" s="6"/>
-      <c r="E322" s="50"/>
-      <c r="F322" s="50"/>
-      <c r="G322" s="50"/>
-      <c r="H322" s="50"/>
+      <c r="E322" s="52"/>
+      <c r="F322" s="52"/>
+      <c r="G322" s="52"/>
+      <c r="H322" s="52"/>
       <c r="I322" s="6"/>
       <c r="J322" s="6"/>
       <c r="K322" s="6"/>
-      <c r="L322" s="56"/>
+      <c r="L322" s="58"/>
     </row>
     <row r="323" spans="1:12">
       <c r="A323" s="6"/>
       <c r="B323" s="6"/>
       <c r="D323" s="6"/>
-      <c r="E323" s="50"/>
-      <c r="F323" s="50"/>
-      <c r="G323" s="50"/>
-      <c r="H323" s="50"/>
+      <c r="E323" s="52"/>
+      <c r="F323" s="52"/>
+      <c r="G323" s="52"/>
+      <c r="H323" s="52"/>
       <c r="I323" s="6"/>
       <c r="J323" s="6"/>
       <c r="K323" s="6"/>
-      <c r="L323" s="56"/>
+      <c r="L323" s="58"/>
     </row>
     <row r="324" spans="1:12">
       <c r="A324" s="6"/>
       <c r="B324" s="6"/>
       <c r="D324" s="6"/>
-      <c r="E324" s="50"/>
-      <c r="F324" s="50"/>
-      <c r="G324" s="50"/>
-      <c r="H324" s="50"/>
+      <c r="E324" s="52"/>
+      <c r="F324" s="52"/>
+      <c r="G324" s="52"/>
+      <c r="H324" s="52"/>
       <c r="I324" s="6"/>
       <c r="J324" s="6"/>
       <c r="K324" s="6"/>
-      <c r="L324" s="56"/>
+      <c r="L324" s="58"/>
     </row>
     <row r="325" spans="1:12">
       <c r="A325" s="6"/>
       <c r="B325" s="6"/>
       <c r="D325" s="6"/>
-      <c r="E325" s="50"/>
-      <c r="F325" s="50"/>
-      <c r="G325" s="50"/>
-      <c r="H325" s="50"/>
+      <c r="E325" s="52"/>
+      <c r="F325" s="52"/>
+      <c r="G325" s="52"/>
+      <c r="H325" s="52"/>
       <c r="I325" s="6"/>
       <c r="J325" s="6"/>
       <c r="K325" s="6"/>
-      <c r="L325" s="56"/>
+      <c r="L325" s="58"/>
     </row>
     <row r="326" spans="1:12">
       <c r="A326" s="6"/>
       <c r="B326" s="6"/>
       <c r="D326" s="6"/>
-      <c r="E326" s="50"/>
-      <c r="F326" s="50"/>
-      <c r="G326" s="50"/>
-      <c r="H326" s="50"/>
+      <c r="E326" s="52"/>
+      <c r="F326" s="52"/>
+      <c r="G326" s="52"/>
+      <c r="H326" s="52"/>
       <c r="I326" s="6"/>
       <c r="J326" s="6"/>
       <c r="K326" s="6"/>
-      <c r="L326" s="56"/>
+      <c r="L326" s="58"/>
     </row>
     <row r="327" spans="1:12">
       <c r="A327" s="6"/>
       <c r="B327" s="6"/>
       <c r="D327" s="6"/>
-      <c r="E327" s="50"/>
-      <c r="F327" s="50"/>
-      <c r="G327" s="50"/>
-      <c r="H327" s="50"/>
+      <c r="E327" s="52"/>
+      <c r="F327" s="52"/>
+      <c r="G327" s="52"/>
+      <c r="H327" s="52"/>
       <c r="I327" s="6"/>
       <c r="J327" s="6"/>
       <c r="K327" s="6"/>
-      <c r="L327" s="56"/>
+      <c r="L327" s="58"/>
     </row>
     <row r="328" spans="1:12">
       <c r="A328" s="6"/>
       <c r="B328" s="6"/>
       <c r="D328" s="6"/>
-      <c r="E328" s="50"/>
-      <c r="F328" s="50"/>
-      <c r="G328" s="50"/>
-      <c r="H328" s="50"/>
+      <c r="E328" s="52"/>
+      <c r="F328" s="52"/>
+      <c r="G328" s="52"/>
+      <c r="H328" s="52"/>
       <c r="I328" s="6"/>
       <c r="J328" s="6"/>
       <c r="K328" s="6"/>
-      <c r="L328" s="56"/>
+      <c r="L328" s="58"/>
     </row>
     <row r="329" spans="1:12">
       <c r="A329" s="6"/>
       <c r="B329" s="6"/>
       <c r="D329" s="6"/>
-      <c r="E329" s="50"/>
-      <c r="F329" s="50"/>
-      <c r="G329" s="50"/>
-      <c r="H329" s="50"/>
+      <c r="E329" s="52"/>
+      <c r="F329" s="52"/>
+      <c r="G329" s="52"/>
+      <c r="H329" s="52"/>
       <c r="I329" s="6"/>
       <c r="J329" s="6"/>
       <c r="K329" s="6"/>
-      <c r="L329" s="56"/>
+      <c r="L329" s="58"/>
     </row>
     <row r="330" spans="1:12">
       <c r="A330" s="6"/>
       <c r="B330" s="6"/>
       <c r="D330" s="6"/>
-      <c r="E330" s="50"/>
-      <c r="F330" s="50"/>
-      <c r="G330" s="50"/>
-      <c r="H330" s="50"/>
+      <c r="E330" s="52"/>
+      <c r="F330" s="52"/>
+      <c r="G330" s="52"/>
+      <c r="H330" s="52"/>
       <c r="I330" s="6"/>
       <c r="J330" s="6"/>
       <c r="K330" s="6"/>
-      <c r="L330" s="56"/>
+      <c r="L330" s="58"/>
     </row>
     <row r="331" spans="1:12">
       <c r="A331" s="6"/>
       <c r="B331" s="6"/>
       <c r="D331" s="6"/>
-      <c r="E331" s="50"/>
-      <c r="F331" s="50"/>
-      <c r="G331" s="50"/>
-      <c r="H331" s="50"/>
+      <c r="E331" s="52"/>
+      <c r="F331" s="52"/>
+      <c r="G331" s="52"/>
+      <c r="H331" s="52"/>
       <c r="I331" s="6"/>
       <c r="J331" s="6"/>
       <c r="K331" s="6"/>
-      <c r="L331" s="56"/>
+      <c r="L331" s="58"/>
     </row>
     <row r="332" spans="1:12">
       <c r="A332" s="6"/>
       <c r="B332" s="6"/>
       <c r="D332" s="6"/>
-      <c r="E332" s="50"/>
-      <c r="F332" s="50"/>
-      <c r="G332" s="50"/>
-      <c r="H332" s="50"/>
+      <c r="E332" s="52"/>
+      <c r="F332" s="52"/>
+      <c r="G332" s="52"/>
+      <c r="H332" s="52"/>
       <c r="I332" s="6"/>
       <c r="J332" s="6"/>
       <c r="K332" s="6"/>
-      <c r="L332" s="56"/>
+      <c r="L332" s="58"/>
     </row>
     <row r="333" spans="1:12">
       <c r="A333" s="6"/>
       <c r="B333" s="6"/>
       <c r="D333" s="6"/>
-      <c r="E333" s="50"/>
-      <c r="F333" s="50"/>
-      <c r="G333" s="50"/>
-      <c r="H333" s="50"/>
+      <c r="E333" s="52"/>
+      <c r="F333" s="52"/>
+      <c r="G333" s="52"/>
+      <c r="H333" s="52"/>
       <c r="I333" s="6"/>
       <c r="J333" s="6"/>
       <c r="K333" s="6"/>
-      <c r="L333" s="56"/>
+      <c r="L333" s="58"/>
     </row>
     <row r="334" spans="1:12">
       <c r="A334" s="6"/>
       <c r="B334" s="6"/>
       <c r="D334" s="6"/>
-      <c r="E334" s="50"/>
-      <c r="F334" s="50"/>
-      <c r="G334" s="50"/>
-      <c r="H334" s="50"/>
+      <c r="E334" s="52"/>
+      <c r="F334" s="52"/>
+      <c r="G334" s="52"/>
+      <c r="H334" s="52"/>
       <c r="I334" s="6"/>
       <c r="J334" s="6"/>
       <c r="K334" s="6"/>
-      <c r="L334" s="56"/>
+      <c r="L334" s="58"/>
     </row>
     <row r="335" spans="1:12">
       <c r="A335" s="6"/>
       <c r="B335" s="6"/>
       <c r="D335" s="6"/>
-      <c r="E335" s="50"/>
-      <c r="F335" s="50"/>
-      <c r="G335" s="50"/>
-      <c r="H335" s="50"/>
+      <c r="E335" s="52"/>
+      <c r="F335" s="52"/>
+      <c r="G335" s="52"/>
+      <c r="H335" s="52"/>
       <c r="I335" s="6"/>
       <c r="J335" s="6"/>
       <c r="K335" s="6"/>
-      <c r="L335" s="56"/>
+      <c r="L335" s="58"/>
     </row>
     <row r="336" spans="1:12">
       <c r="A336" s="6"/>
       <c r="B336" s="6"/>
       <c r="D336" s="6"/>
-      <c r="E336" s="50"/>
-      <c r="F336" s="50"/>
-      <c r="G336" s="50"/>
-      <c r="H336" s="50"/>
+      <c r="E336" s="52"/>
+      <c r="F336" s="52"/>
+      <c r="G336" s="52"/>
+      <c r="H336" s="52"/>
       <c r="I336" s="6"/>
       <c r="J336" s="6"/>
       <c r="K336" s="6"/>
-      <c r="L336" s="56"/>
+      <c r="L336" s="58"/>
     </row>
     <row r="337" spans="1:12">
       <c r="A337" s="6"/>
       <c r="B337" s="6"/>
       <c r="D337" s="6"/>
-      <c r="E337" s="50"/>
-      <c r="F337" s="50"/>
-      <c r="G337" s="50"/>
-      <c r="H337" s="50"/>
+      <c r="E337" s="52"/>
+      <c r="F337" s="52"/>
+      <c r="G337" s="52"/>
+      <c r="H337" s="52"/>
       <c r="I337" s="6"/>
       <c r="J337" s="6"/>
       <c r="K337" s="6"/>
-      <c r="L337" s="56"/>
+      <c r="L337" s="58"/>
     </row>
     <row r="338" spans="1:12">
       <c r="A338" s="6"/>
       <c r="B338" s="6"/>
       <c r="D338" s="6"/>
-      <c r="E338" s="50"/>
-      <c r="F338" s="50"/>
-      <c r="G338" s="50"/>
-      <c r="H338" s="50"/>
+      <c r="E338" s="52"/>
+      <c r="F338" s="52"/>
+      <c r="G338" s="52"/>
+      <c r="H338" s="52"/>
       <c r="I338" s="6"/>
       <c r="J338" s="6"/>
       <c r="K338" s="6"/>
-      <c r="L338" s="56"/>
+      <c r="L338" s="58"/>
     </row>
     <row r="339" spans="1:12">
       <c r="A339" s="6"/>
       <c r="B339" s="6"/>
       <c r="D339" s="6"/>
-      <c r="E339" s="50"/>
-      <c r="F339" s="50"/>
-      <c r="G339" s="50"/>
-      <c r="H339" s="50"/>
+      <c r="E339" s="52"/>
+      <c r="F339" s="52"/>
+      <c r="G339" s="52"/>
+      <c r="H339" s="52"/>
       <c r="I339" s="6"/>
       <c r="J339" s="6"/>
       <c r="K339" s="6"/>
-      <c r="L339" s="56"/>
+      <c r="L339" s="58"/>
     </row>
     <row r="340" spans="1:12">
       <c r="A340" s="6"/>
       <c r="B340" s="6"/>
       <c r="D340" s="6"/>
-      <c r="E340" s="50"/>
-      <c r="F340" s="50"/>
-      <c r="G340" s="50"/>
-      <c r="H340" s="50"/>
+      <c r="E340" s="52"/>
+      <c r="F340" s="52"/>
+      <c r="G340" s="52"/>
+      <c r="H340" s="52"/>
       <c r="I340" s="6"/>
       <c r="J340" s="6"/>
       <c r="K340" s="6"/>
-      <c r="L340" s="56"/>
+      <c r="L340" s="58"/>
     </row>
     <row r="341" spans="1:12">
       <c r="A341" s="6"/>
       <c r="B341" s="6"/>
       <c r="D341" s="6"/>
-      <c r="E341" s="50"/>
-      <c r="F341" s="50"/>
-      <c r="G341" s="50"/>
-      <c r="H341" s="50"/>
+      <c r="E341" s="52"/>
+      <c r="F341" s="52"/>
+      <c r="G341" s="52"/>
+      <c r="H341" s="52"/>
       <c r="I341" s="6"/>
       <c r="J341" s="6"/>
       <c r="K341" s="6"/>
-      <c r="L341" s="56"/>
+      <c r="L341" s="58"/>
     </row>
     <row r="342" spans="1:12">
       <c r="A342" s="6"/>
       <c r="B342" s="6"/>
       <c r="D342" s="6"/>
-      <c r="E342" s="50"/>
-      <c r="F342" s="50"/>
-      <c r="G342" s="50"/>
-      <c r="H342" s="50"/>
+      <c r="E342" s="52"/>
+      <c r="F342" s="52"/>
+      <c r="G342" s="52"/>
+      <c r="H342" s="52"/>
       <c r="I342" s="6"/>
       <c r="J342" s="6"/>
       <c r="K342" s="6"/>
-      <c r="L342" s="56"/>
+      <c r="L342" s="58"/>
     </row>
     <row r="343" spans="1:12">
       <c r="A343" s="6"/>
       <c r="B343" s="6"/>
       <c r="D343" s="6"/>
-      <c r="E343" s="50"/>
-      <c r="F343" s="50"/>
-      <c r="G343" s="50"/>
-      <c r="H343" s="50"/>
+      <c r="E343" s="52"/>
+      <c r="F343" s="52"/>
+      <c r="G343" s="52"/>
+      <c r="H343" s="52"/>
       <c r="I343" s="6"/>
       <c r="J343" s="6"/>
       <c r="K343" s="6"/>
-      <c r="L343" s="56"/>
+      <c r="L343" s="58"/>
     </row>
     <row r="344" spans="1:12">
       <c r="A344" s="6"/>
       <c r="B344" s="6"/>
       <c r="D344" s="6"/>
-      <c r="E344" s="50"/>
-      <c r="F344" s="50"/>
-      <c r="G344" s="50"/>
-      <c r="H344" s="50"/>
+      <c r="E344" s="52"/>
+      <c r="F344" s="52"/>
+      <c r="G344" s="52"/>
+      <c r="H344" s="52"/>
       <c r="I344" s="6"/>
       <c r="J344" s="6"/>
       <c r="K344" s="6"/>
-      <c r="L344" s="56"/>
+      <c r="L344" s="58"/>
     </row>
     <row r="345" spans="1:12">
       <c r="A345" s="6"/>
       <c r="B345" s="6"/>
       <c r="D345" s="6"/>
-      <c r="E345" s="50"/>
-      <c r="F345" s="50"/>
-      <c r="G345" s="50"/>
-      <c r="H345" s="50"/>
+      <c r="E345" s="52"/>
+      <c r="F345" s="52"/>
+      <c r="G345" s="52"/>
+      <c r="H345" s="52"/>
       <c r="I345" s="6"/>
       <c r="J345" s="6"/>
       <c r="K345" s="6"/>
-      <c r="L345" s="56"/>
+      <c r="L345" s="58"/>
     </row>
     <row r="346" spans="1:12">
       <c r="A346" s="6"/>
       <c r="B346" s="6"/>
       <c r="D346" s="6"/>
-      <c r="E346" s="50"/>
-      <c r="F346" s="50"/>
-      <c r="G346" s="50"/>
-      <c r="H346" s="50"/>
+      <c r="E346" s="52"/>
+      <c r="F346" s="52"/>
+      <c r="G346" s="52"/>
+      <c r="H346" s="52"/>
       <c r="I346" s="6"/>
       <c r="J346" s="6"/>
       <c r="K346" s="6"/>
-      <c r="L346" s="56"/>
+      <c r="L346" s="58"/>
     </row>
     <row r="347" spans="1:12">
       <c r="A347" s="6"/>
       <c r="B347" s="6"/>
       <c r="D347" s="6"/>
-      <c r="E347" s="50"/>
-      <c r="F347" s="50"/>
-      <c r="G347" s="50"/>
-      <c r="H347" s="50"/>
+      <c r="E347" s="52"/>
+      <c r="F347" s="52"/>
+      <c r="G347" s="52"/>
+      <c r="H347" s="52"/>
       <c r="I347" s="6"/>
       <c r="J347" s="6"/>
       <c r="K347" s="6"/>
-      <c r="L347" s="56"/>
+      <c r="L347" s="58"/>
     </row>
     <row r="348" spans="1:12">
       <c r="A348" s="6"/>
       <c r="B348" s="6"/>
       <c r="D348" s="6"/>
-      <c r="E348" s="50"/>
-      <c r="F348" s="50"/>
-      <c r="G348" s="50"/>
-      <c r="H348" s="50"/>
+      <c r="E348" s="52"/>
+      <c r="F348" s="52"/>
+      <c r="G348" s="52"/>
+      <c r="H348" s="52"/>
       <c r="I348" s="6"/>
       <c r="J348" s="6"/>
       <c r="K348" s="6"/>
-      <c r="L348" s="56"/>
+      <c r="L348" s="58"/>
     </row>
     <row r="349" spans="1:12">
       <c r="A349" s="6"/>
       <c r="B349" s="6"/>
       <c r="D349" s="6"/>
-      <c r="E349" s="50"/>
-      <c r="F349" s="50"/>
-      <c r="G349" s="50"/>
-      <c r="H349" s="50"/>
+      <c r="E349" s="52"/>
+      <c r="F349" s="52"/>
+      <c r="G349" s="52"/>
+      <c r="H349" s="52"/>
       <c r="I349" s="6"/>
       <c r="J349" s="6"/>
       <c r="K349" s="6"/>
-      <c r="L349" s="56"/>
+      <c r="L349" s="58"/>
     </row>
     <row r="350" spans="1:12">
       <c r="A350" s="6"/>
       <c r="B350" s="6"/>
       <c r="D350" s="6"/>
-      <c r="E350" s="50"/>
-      <c r="F350" s="50"/>
-      <c r="G350" s="50"/>
-      <c r="H350" s="50"/>
+      <c r="E350" s="52"/>
+      <c r="F350" s="52"/>
+      <c r="G350" s="52"/>
+      <c r="H350" s="52"/>
       <c r="I350" s="6"/>
       <c r="J350" s="6"/>
       <c r="K350" s="6"/>
-      <c r="L350" s="56"/>
+      <c r="L350" s="58"/>
     </row>
     <row r="351" spans="1:12">
       <c r="A351" s="6"/>
       <c r="B351" s="6"/>
       <c r="D351" s="6"/>
-      <c r="E351" s="50"/>
-      <c r="F351" s="50"/>
-      <c r="G351" s="50"/>
-      <c r="H351" s="50"/>
+      <c r="E351" s="52"/>
+      <c r="F351" s="52"/>
+      <c r="G351" s="52"/>
+      <c r="H351" s="52"/>
       <c r="I351" s="6"/>
       <c r="J351" s="6"/>
       <c r="K351" s="6"/>
-      <c r="L351" s="56"/>
+      <c r="L351" s="58"/>
     </row>
     <row r="352" spans="1:12">
       <c r="A352" s="6"/>
       <c r="B352" s="6"/>
       <c r="D352" s="6"/>
-      <c r="E352" s="50"/>
-      <c r="F352" s="50"/>
-      <c r="G352" s="50"/>
-      <c r="H352" s="50"/>
+      <c r="E352" s="52"/>
+      <c r="F352" s="52"/>
+      <c r="G352" s="52"/>
+      <c r="H352" s="52"/>
       <c r="I352" s="6"/>
       <c r="J352" s="6"/>
       <c r="K352" s="6"/>
-      <c r="L352" s="56"/>
+      <c r="L352" s="58"/>
     </row>
     <row r="353" spans="1:12">
       <c r="A353" s="6"/>
       <c r="B353" s="6"/>
       <c r="D353" s="6"/>
-      <c r="E353" s="50"/>
-      <c r="F353" s="50"/>
-      <c r="G353" s="50"/>
-      <c r="H353" s="50"/>
+      <c r="E353" s="52"/>
+      <c r="F353" s="52"/>
+      <c r="G353" s="52"/>
+      <c r="H353" s="52"/>
       <c r="I353" s="6"/>
       <c r="J353" s="6"/>
       <c r="K353" s="6"/>
-      <c r="L353" s="56"/>
+      <c r="L353" s="58"/>
     </row>
     <row r="354" spans="1:12">
       <c r="A354" s="6"/>
       <c r="B354" s="6"/>
       <c r="D354" s="6"/>
-      <c r="E354" s="50"/>
-      <c r="F354" s="50"/>
-      <c r="G354" s="50"/>
-      <c r="H354" s="50"/>
+      <c r="E354" s="52"/>
+      <c r="F354" s="52"/>
+      <c r="G354" s="52"/>
+      <c r="H354" s="52"/>
       <c r="I354" s="6"/>
       <c r="J354" s="6"/>
       <c r="K354" s="6"/>
-      <c r="L354" s="56"/>
+      <c r="L354" s="58"/>
     </row>
     <row r="355" spans="1:12">
       <c r="A355" s="6"/>
       <c r="B355" s="6"/>
       <c r="D355" s="6"/>
-      <c r="E355" s="50"/>
-      <c r="F355" s="50"/>
-      <c r="G355" s="50"/>
-      <c r="H355" s="50"/>
+      <c r="E355" s="52"/>
+      <c r="F355" s="52"/>
+      <c r="G355" s="52"/>
+      <c r="H355" s="52"/>
       <c r="I355" s="6"/>
       <c r="J355" s="6"/>
       <c r="K355" s="6"/>
-      <c r="L355" s="56"/>
+      <c r="L355" s="58"/>
     </row>
     <row r="356" spans="1:12">
       <c r="A356" s="6"/>
       <c r="B356" s="6"/>
       <c r="D356" s="6"/>
-      <c r="E356" s="50"/>
-      <c r="F356" s="50"/>
-      <c r="G356" s="50"/>
-      <c r="H356" s="50"/>
+      <c r="E356" s="52"/>
+      <c r="F356" s="52"/>
+      <c r="G356" s="52"/>
+      <c r="H356" s="52"/>
       <c r="I356" s="6"/>
       <c r="J356" s="6"/>
       <c r="K356" s="6"/>
-      <c r="L356" s="56"/>
+      <c r="L356" s="58"/>
     </row>
     <row r="357" spans="1:12">
       <c r="A357" s="6"/>
       <c r="B357" s="6"/>
       <c r="D357" s="6"/>
-      <c r="E357" s="50"/>
-      <c r="F357" s="50"/>
-      <c r="G357" s="50"/>
-      <c r="H357" s="50"/>
+      <c r="E357" s="52"/>
+      <c r="F357" s="52"/>
+      <c r="G357" s="52"/>
+      <c r="H357" s="52"/>
       <c r="I357" s="6"/>
       <c r="J357" s="6"/>
       <c r="K357" s="6"/>
-      <c r="L357" s="56"/>
+      <c r="L357" s="58"/>
     </row>
     <row r="358" spans="1:12">
       <c r="A358" s="6"/>
       <c r="B358" s="6"/>
       <c r="D358" s="6"/>
-      <c r="E358" s="50"/>
-      <c r="F358" s="50"/>
-      <c r="G358" s="50"/>
-      <c r="H358" s="50"/>
+      <c r="E358" s="52"/>
+      <c r="F358" s="52"/>
+      <c r="G358" s="52"/>
+      <c r="H358" s="52"/>
       <c r="I358" s="6"/>
       <c r="J358" s="6"/>
       <c r="K358" s="6"/>
-      <c r="L358" s="56"/>
+      <c r="L358" s="58"/>
     </row>
     <row r="359" spans="1:12">
       <c r="A359" s="6"/>
       <c r="B359" s="6"/>
       <c r="D359" s="6"/>
-      <c r="E359" s="50"/>
-      <c r="F359" s="50"/>
-      <c r="G359" s="50"/>
-      <c r="H359" s="50"/>
+      <c r="E359" s="52"/>
+      <c r="F359" s="52"/>
+      <c r="G359" s="52"/>
+      <c r="H359" s="52"/>
       <c r="I359" s="6"/>
       <c r="J359" s="6"/>
       <c r="K359" s="6"/>
-      <c r="L359" s="56"/>
+      <c r="L359" s="58"/>
     </row>
     <row r="360" spans="1:12">
       <c r="A360" s="6"/>
       <c r="B360" s="6"/>
       <c r="D360" s="6"/>
-      <c r="E360" s="50"/>
-      <c r="F360" s="50"/>
-      <c r="G360" s="50"/>
-      <c r="H360" s="50"/>
+      <c r="E360" s="52"/>
+      <c r="F360" s="52"/>
+      <c r="G360" s="52"/>
+      <c r="H360" s="52"/>
       <c r="I360" s="6"/>
       <c r="J360" s="6"/>
       <c r="K360" s="6"/>
-      <c r="L360" s="56"/>
+      <c r="L360" s="58"/>
     </row>
     <row r="361" spans="1:12">
       <c r="A361" s="6"/>
       <c r="B361" s="6"/>
       <c r="D361" s="6"/>
-      <c r="E361" s="50"/>
-      <c r="F361" s="50"/>
-      <c r="G361" s="50"/>
-      <c r="H361" s="50"/>
+      <c r="E361" s="52"/>
+      <c r="F361" s="52"/>
+      <c r="G361" s="52"/>
+      <c r="H361" s="52"/>
       <c r="I361" s="6"/>
       <c r="J361" s="6"/>
       <c r="K361" s="6"/>
-      <c r="L361" s="56"/>
+      <c r="L361" s="58"/>
     </row>
     <row r="362" spans="1:12">
       <c r="A362" s="6"/>
       <c r="B362" s="6"/>
       <c r="D362" s="6"/>
-      <c r="E362" s="50"/>
-      <c r="F362" s="50"/>
-      <c r="G362" s="50"/>
-      <c r="H362" s="50"/>
+      <c r="E362" s="52"/>
+      <c r="F362" s="52"/>
+      <c r="G362" s="52"/>
+      <c r="H362" s="52"/>
       <c r="I362" s="6"/>
       <c r="J362" s="6"/>
       <c r="K362" s="6"/>
-      <c r="L362" s="56"/>
+      <c r="L362" s="58"/>
     </row>
     <row r="363" spans="1:12">
       <c r="A363" s="6"/>
       <c r="B363" s="6"/>
       <c r="D363" s="6"/>
-      <c r="E363" s="50"/>
-      <c r="F363" s="50"/>
-      <c r="G363" s="50"/>
-      <c r="H363" s="50"/>
+      <c r="E363" s="52"/>
+      <c r="F363" s="52"/>
+      <c r="G363" s="52"/>
+      <c r="H363" s="52"/>
       <c r="I363" s="6"/>
       <c r="J363" s="6"/>
       <c r="K363" s="6"/>
-      <c r="L363" s="56"/>
+      <c r="L363" s="58"/>
     </row>
     <row r="364" spans="1:12">
       <c r="A364" s="6"/>
       <c r="B364" s="6"/>
       <c r="D364" s="6"/>
-      <c r="E364" s="50"/>
-      <c r="F364" s="50"/>
-      <c r="G364" s="50"/>
-      <c r="H364" s="50"/>
+      <c r="E364" s="52"/>
+      <c r="F364" s="52"/>
+      <c r="G364" s="52"/>
+      <c r="H364" s="52"/>
       <c r="I364" s="6"/>
       <c r="J364" s="6"/>
       <c r="K364" s="6"/>
-      <c r="L364" s="56"/>
+      <c r="L364" s="58"/>
     </row>
     <row r="365" spans="1:12">
       <c r="A365" s="6"/>
       <c r="B365" s="6"/>
       <c r="D365" s="6"/>
-      <c r="E365" s="50"/>
-      <c r="F365" s="50"/>
-      <c r="G365" s="50"/>
-      <c r="H365" s="50"/>
+      <c r="E365" s="52"/>
+      <c r="F365" s="52"/>
+      <c r="G365" s="52"/>
+      <c r="H365" s="52"/>
       <c r="I365" s="6"/>
       <c r="J365" s="6"/>
       <c r="K365" s="6"/>
-      <c r="L365" s="56"/>
+      <c r="L365" s="58"/>
     </row>
     <row r="366" spans="1:12">
       <c r="A366" s="6"/>
       <c r="B366" s="6"/>
       <c r="D366" s="6"/>
-      <c r="E366" s="50"/>
-      <c r="F366" s="50"/>
-      <c r="G366" s="50"/>
-      <c r="H366" s="50"/>
+      <c r="E366" s="52"/>
+      <c r="F366" s="52"/>
+      <c r="G366" s="52"/>
+      <c r="H366" s="52"/>
       <c r="I366" s="6"/>
       <c r="J366" s="6"/>
       <c r="K366" s="6"/>
-      <c r="L366" s="56"/>
+      <c r="L366" s="58"/>
     </row>
     <row r="367" spans="1:12">
       <c r="A367" s="6"/>
       <c r="B367" s="6"/>
       <c r="D367" s="6"/>
-      <c r="E367" s="50"/>
-      <c r="F367" s="50"/>
-      <c r="G367" s="50"/>
-      <c r="H367" s="50"/>
+      <c r="E367" s="52"/>
+      <c r="F367" s="52"/>
+      <c r="G367" s="52"/>
+      <c r="H367" s="52"/>
       <c r="I367" s="6"/>
       <c r="J367" s="6"/>
       <c r="K367" s="6"/>
-      <c r="L367" s="56"/>
+      <c r="L367" s="58"/>
     </row>
     <row r="368" spans="1:12">
       <c r="A368" s="6"/>
       <c r="B368" s="6"/>
       <c r="D368" s="6"/>
-      <c r="E368" s="50"/>
-      <c r="F368" s="50"/>
-      <c r="G368" s="50"/>
-      <c r="H368" s="50"/>
+      <c r="E368" s="52"/>
+      <c r="F368" s="52"/>
+      <c r="G368" s="52"/>
+      <c r="H368" s="52"/>
       <c r="I368" s="6"/>
       <c r="J368" s="6"/>
       <c r="K368" s="6"/>
-      <c r="L368" s="56"/>
+      <c r="L368" s="58"/>
     </row>
     <row r="369" spans="1:12">
       <c r="A369" s="6"/>
       <c r="B369" s="6"/>
       <c r="D369" s="6"/>
-      <c r="E369" s="50"/>
-      <c r="F369" s="50"/>
-      <c r="G369" s="50"/>
-      <c r="H369" s="50"/>
+      <c r="E369" s="52"/>
+      <c r="F369" s="52"/>
+      <c r="G369" s="52"/>
+      <c r="H369" s="52"/>
       <c r="I369" s="6"/>
       <c r="J369" s="6"/>
       <c r="K369" s="6"/>
-      <c r="L369" s="56"/>
+      <c r="L369" s="58"/>
     </row>
     <row r="370" spans="1:12">
       <c r="A370" s="6"/>
       <c r="B370" s="6"/>
       <c r="D370" s="6"/>
-      <c r="E370" s="50"/>
-      <c r="F370" s="50"/>
-      <c r="G370" s="50"/>
-      <c r="H370" s="50"/>
+      <c r="E370" s="52"/>
+      <c r="F370" s="52"/>
+      <c r="G370" s="52"/>
+      <c r="H370" s="52"/>
       <c r="I370" s="6"/>
       <c r="J370" s="6"/>
       <c r="K370" s="6"/>
-      <c r="L370" s="56"/>
+      <c r="L370" s="58"/>
     </row>
     <row r="371" spans="1:12">
       <c r="A371" s="6"/>
       <c r="B371" s="6"/>
       <c r="D371" s="6"/>
-      <c r="E371" s="50"/>
-      <c r="F371" s="50"/>
-      <c r="G371" s="50"/>
-      <c r="H371" s="50"/>
+      <c r="E371" s="52"/>
+      <c r="F371" s="52"/>
+      <c r="G371" s="52"/>
+      <c r="H371" s="52"/>
       <c r="I371" s="6"/>
       <c r="J371" s="6"/>
       <c r="K371" s="6"/>
-      <c r="L371" s="56"/>
+      <c r="L371" s="58"/>
     </row>
     <row r="372" spans="1:12">
       <c r="A372" s="6"/>
       <c r="B372" s="6"/>
       <c r="D372" s="6"/>
-      <c r="E372" s="50"/>
-      <c r="F372" s="50"/>
-      <c r="G372" s="50"/>
-      <c r="H372" s="50"/>
+      <c r="E372" s="52"/>
+      <c r="F372" s="52"/>
+      <c r="G372" s="52"/>
+      <c r="H372" s="52"/>
       <c r="I372" s="6"/>
       <c r="J372" s="6"/>
       <c r="K372" s="6"/>
-      <c r="L372" s="56"/>
+      <c r="L372" s="58"/>
     </row>
     <row r="373" spans="1:12">
       <c r="A373" s="6"/>
       <c r="B373" s="6"/>
       <c r="D373" s="6"/>
-      <c r="E373" s="50"/>
-      <c r="F373" s="50"/>
-      <c r="G373" s="50"/>
-      <c r="H373" s="50"/>
+      <c r="E373" s="52"/>
+      <c r="F373" s="52"/>
+      <c r="G373" s="52"/>
+      <c r="H373" s="52"/>
       <c r="I373" s="6"/>
       <c r="J373" s="6"/>
       <c r="K373" s="6"/>
-      <c r="L373" s="56"/>
+      <c r="L373" s="58"/>
     </row>
     <row r="374" spans="1:12">
       <c r="A374" s="6"/>
       <c r="B374" s="6"/>
       <c r="D374" s="6"/>
-      <c r="E374" s="50"/>
-      <c r="F374" s="50"/>
-      <c r="G374" s="50"/>
-      <c r="H374" s="50"/>
+      <c r="E374" s="52"/>
+      <c r="F374" s="52"/>
+      <c r="G374" s="52"/>
+      <c r="H374" s="52"/>
       <c r="I374" s="6"/>
       <c r="J374" s="6"/>
       <c r="K374" s="6"/>
-      <c r="L374" s="56"/>
+      <c r="L374" s="58"/>
     </row>
     <row r="375" spans="1:12">
       <c r="A375" s="6"/>
       <c r="B375" s="6"/>
       <c r="D375" s="6"/>
-      <c r="E375" s="50"/>
-      <c r="F375" s="50"/>
-      <c r="G375" s="50"/>
-      <c r="H375" s="50"/>
+      <c r="E375" s="52"/>
+      <c r="F375" s="52"/>
+      <c r="G375" s="52"/>
+      <c r="H375" s="52"/>
       <c r="I375" s="6"/>
       <c r="J375" s="6"/>
       <c r="K375" s="6"/>
-      <c r="L375" s="56"/>
+      <c r="L375" s="58"/>
     </row>
     <row r="376" spans="1:12">
       <c r="A376" s="6"/>
       <c r="B376" s="6"/>
       <c r="D376" s="6"/>
-      <c r="E376" s="50"/>
-      <c r="F376" s="50"/>
-      <c r="G376" s="50"/>
-      <c r="H376" s="50"/>
+      <c r="E376" s="52"/>
+      <c r="F376" s="52"/>
+      <c r="G376" s="52"/>
+      <c r="H376" s="52"/>
       <c r="I376" s="6"/>
       <c r="J376" s="6"/>
       <c r="K376" s="6"/>
-      <c r="L376" s="56"/>
+      <c r="L376" s="58"/>
     </row>
     <row r="377" spans="1:12">
       <c r="A377" s="6"/>
       <c r="B377" s="6"/>
       <c r="D377" s="6"/>
-      <c r="E377" s="50"/>
-      <c r="F377" s="50"/>
-      <c r="G377" s="50"/>
-      <c r="H377" s="50"/>
+      <c r="E377" s="52"/>
+      <c r="F377" s="52"/>
+      <c r="G377" s="52"/>
+      <c r="H377" s="52"/>
       <c r="I377" s="6"/>
       <c r="J377" s="6"/>
       <c r="K377" s="6"/>
-      <c r="L377" s="56"/>
+      <c r="L377" s="58"/>
     </row>
     <row r="378" spans="1:12">
       <c r="A378" s="6"/>
       <c r="B378" s="6"/>
       <c r="D378" s="6"/>
-      <c r="E378" s="50"/>
-      <c r="F378" s="50"/>
-      <c r="G378" s="50"/>
-      <c r="H378" s="50"/>
+      <c r="E378" s="52"/>
+      <c r="F378" s="52"/>
+      <c r="G378" s="52"/>
+      <c r="H378" s="52"/>
       <c r="I378" s="6"/>
       <c r="J378" s="6"/>
       <c r="K378" s="6"/>
-      <c r="L378" s="56"/>
+      <c r="L378" s="58"/>
     </row>
     <row r="379" spans="1:12">
       <c r="A379" s="6"/>
       <c r="B379" s="6"/>
       <c r="D379" s="6"/>
-      <c r="E379" s="50"/>
-      <c r="F379" s="50"/>
-      <c r="G379" s="50"/>
-      <c r="H379" s="50"/>
+      <c r="E379" s="52"/>
+      <c r="F379" s="52"/>
+      <c r="G379" s="52"/>
+      <c r="H379" s="52"/>
       <c r="I379" s="6"/>
       <c r="J379" s="6"/>
       <c r="K379" s="6"/>
-      <c r="L379" s="56"/>
+      <c r="L379" s="58"/>
     </row>
     <row r="380" spans="1:12">
       <c r="A380" s="6"/>
       <c r="B380" s="6"/>
       <c r="D380" s="6"/>
-      <c r="E380" s="50"/>
-      <c r="F380" s="50"/>
-      <c r="G380" s="50"/>
-      <c r="H380" s="50"/>
+      <c r="E380" s="52"/>
+      <c r="F380" s="52"/>
+      <c r="G380" s="52"/>
+      <c r="H380" s="52"/>
       <c r="I380" s="6"/>
       <c r="J380" s="6"/>
       <c r="K380" s="6"/>
-      <c r="L380" s="56"/>
+      <c r="L380" s="58"/>
     </row>
     <row r="381" spans="1:12">
       <c r="A381" s="6"/>
       <c r="B381" s="6"/>
       <c r="D381" s="6"/>
-      <c r="E381" s="50"/>
-      <c r="F381" s="50"/>
-      <c r="G381" s="50"/>
-      <c r="H381" s="50"/>
+      <c r="E381" s="52"/>
+      <c r="F381" s="52"/>
+      <c r="G381" s="52"/>
+      <c r="H381" s="52"/>
       <c r="I381" s="6"/>
       <c r="J381" s="6"/>
       <c r="K381" s="6"/>
-      <c r="L381" s="56"/>
+      <c r="L381" s="58"/>
     </row>
     <row r="382" spans="1:12">
       <c r="A382" s="6"/>
       <c r="B382" s="6"/>
       <c r="D382" s="6"/>
-      <c r="E382" s="50"/>
-      <c r="F382" s="50"/>
-      <c r="G382" s="50"/>
-      <c r="H382" s="50"/>
+      <c r="E382" s="52"/>
+      <c r="F382" s="52"/>
+      <c r="G382" s="52"/>
+      <c r="H382" s="52"/>
       <c r="I382" s="6"/>
       <c r="J382" s="6"/>
       <c r="K382" s="6"/>
-      <c r="L382" s="56"/>
+      <c r="L382" s="58"/>
     </row>
     <row r="383" spans="1:12">
       <c r="A383" s="6"/>
       <c r="B383" s="6"/>
       <c r="D383" s="6"/>
-      <c r="E383" s="50"/>
-      <c r="F383" s="50"/>
-      <c r="G383" s="50"/>
-      <c r="H383" s="50"/>
+      <c r="E383" s="52"/>
+      <c r="F383" s="52"/>
+      <c r="G383" s="52"/>
+      <c r="H383" s="52"/>
       <c r="I383" s="6"/>
       <c r="J383" s="6"/>
       <c r="K383" s="6"/>
-      <c r="L383" s="56"/>
+      <c r="L383" s="58"/>
     </row>
     <row r="384" spans="1:12">
       <c r="A384" s="6"/>
       <c r="B384" s="6"/>
       <c r="D384" s="6"/>
-      <c r="E384" s="50"/>
-      <c r="F384" s="50"/>
-      <c r="G384" s="50"/>
-      <c r="H384" s="50"/>
+      <c r="E384" s="52"/>
+      <c r="F384" s="52"/>
+      <c r="G384" s="52"/>
+      <c r="H384" s="52"/>
       <c r="I384" s="6"/>
       <c r="J384" s="6"/>
       <c r="K384" s="6"/>
-      <c r="L384" s="56"/>
+      <c r="L384" s="58"/>
     </row>
     <row r="385" spans="1:12">
       <c r="A385" s="6"/>
       <c r="B385" s="6"/>
       <c r="D385" s="6"/>
-      <c r="E385" s="50"/>
-      <c r="F385" s="50"/>
-      <c r="G385" s="50"/>
-      <c r="H385" s="50"/>
+      <c r="E385" s="52"/>
+      <c r="F385" s="52"/>
+      <c r="G385" s="52"/>
+      <c r="H385" s="52"/>
       <c r="I385" s="6"/>
       <c r="J385" s="6"/>
       <c r="K385" s="6"/>
-      <c r="L385" s="56"/>
+      <c r="L385" s="58"/>
     </row>
     <row r="386" spans="1:12">
       <c r="A386" s="6"/>
       <c r="B386" s="6"/>
       <c r="D386" s="6"/>
-      <c r="E386" s="50"/>
-      <c r="F386" s="50"/>
-      <c r="G386" s="50"/>
-      <c r="H386" s="50"/>
+      <c r="E386" s="52"/>
+      <c r="F386" s="52"/>
+      <c r="G386" s="52"/>
+      <c r="H386" s="52"/>
       <c r="I386" s="6"/>
       <c r="J386" s="6"/>
       <c r="K386" s="6"/>
-      <c r="L386" s="56"/>
+      <c r="L386" s="58"/>
     </row>
     <row r="387" spans="1:12">
       <c r="A387" s="6"/>
       <c r="B387" s="6"/>
       <c r="D387" s="6"/>
-      <c r="E387" s="50"/>
-      <c r="F387" s="50"/>
-      <c r="G387" s="50"/>
-      <c r="H387" s="50"/>
+      <c r="E387" s="52"/>
+      <c r="F387" s="52"/>
+      <c r="G387" s="52"/>
+      <c r="H387" s="52"/>
       <c r="I387" s="6"/>
       <c r="J387" s="6"/>
       <c r="K387" s="6"/>
-      <c r="L387" s="56"/>
+      <c r="L387" s="58"/>
     </row>
     <row r="388" spans="1:12">
       <c r="A388" s="6"/>
       <c r="B388" s="6"/>
       <c r="D388" s="6"/>
-      <c r="E388" s="50"/>
-      <c r="F388" s="50"/>
-      <c r="G388" s="50"/>
-      <c r="H388" s="50"/>
+      <c r="E388" s="52"/>
+      <c r="F388" s="52"/>
+      <c r="G388" s="52"/>
+      <c r="H388" s="52"/>
       <c r="I388" s="6"/>
       <c r="J388" s="6"/>
       <c r="K388" s="6"/>
-      <c r="L388" s="56"/>
+      <c r="L388" s="58"/>
     </row>
     <row r="389" spans="1:12">
       <c r="A389" s="6"/>
       <c r="B389" s="6"/>
       <c r="D389" s="6"/>
-      <c r="E389" s="50"/>
-      <c r="F389" s="50"/>
-      <c r="G389" s="50"/>
-      <c r="H389" s="50"/>
+      <c r="E389" s="52"/>
+      <c r="F389" s="52"/>
+      <c r="G389" s="52"/>
+      <c r="H389" s="52"/>
       <c r="I389" s="6"/>
       <c r="J389" s="6"/>
       <c r="K389" s="6"/>
-      <c r="L389" s="56"/>
+      <c r="L389" s="58"/>
     </row>
     <row r="390" spans="1:12">
       <c r="A390" s="6"/>
       <c r="B390" s="6"/>
       <c r="D390" s="6"/>
-      <c r="E390" s="50"/>
-      <c r="F390" s="50"/>
-      <c r="G390" s="50"/>
-      <c r="H390" s="50"/>
+      <c r="E390" s="52"/>
+      <c r="F390" s="52"/>
+      <c r="G390" s="52"/>
+      <c r="H390" s="52"/>
       <c r="I390" s="6"/>
       <c r="J390" s="6"/>
       <c r="K390" s="6"/>
-      <c r="L390" s="56"/>
+      <c r="L390" s="58"/>
     </row>
     <row r="391" spans="1:12">
       <c r="A391" s="6"/>
       <c r="B391" s="6"/>
       <c r="D391" s="6"/>
-      <c r="E391" s="50"/>
-      <c r="F391" s="50"/>
-      <c r="G391" s="50"/>
-      <c r="H391" s="50"/>
+      <c r="E391" s="52"/>
+      <c r="F391" s="52"/>
+      <c r="G391" s="52"/>
+      <c r="H391" s="52"/>
       <c r="I391" s="6"/>
       <c r="J391" s="6"/>
       <c r="K391" s="6"/>
-      <c r="L391" s="56"/>
+      <c r="L391" s="58"/>
     </row>
     <row r="392" spans="1:12">
       <c r="A392" s="6"/>
       <c r="B392" s="6"/>
       <c r="D392" s="6"/>
-      <c r="E392" s="50"/>
-      <c r="F392" s="50"/>
-      <c r="G392" s="50"/>
-      <c r="H392" s="50"/>
+      <c r="E392" s="52"/>
+      <c r="F392" s="52"/>
+      <c r="G392" s="52"/>
+      <c r="H392" s="52"/>
       <c r="I392" s="6"/>
       <c r="J392" s="6"/>
       <c r="K392" s="6"/>
-      <c r="L392" s="56"/>
+      <c r="L392" s="58"/>
     </row>
     <row r="393" spans="1:12">
       <c r="A393" s="6"/>
       <c r="B393" s="6"/>
       <c r="D393" s="6"/>
-      <c r="E393" s="50"/>
-      <c r="F393" s="50"/>
-      <c r="G393" s="50"/>
-      <c r="H393" s="50"/>
+      <c r="E393" s="52"/>
+      <c r="F393" s="52"/>
+      <c r="G393" s="52"/>
+      <c r="H393" s="52"/>
       <c r="I393" s="6"/>
       <c r="J393" s="6"/>
       <c r="K393" s="6"/>
-      <c r="L393" s="56"/>
+      <c r="L393" s="58"/>
     </row>
     <row r="394" spans="1:12">
       <c r="A394" s="6"/>
       <c r="B394" s="6"/>
       <c r="D394" s="6"/>
-      <c r="E394" s="50"/>
-      <c r="F394" s="50"/>
-      <c r="G394" s="50"/>
-      <c r="H394" s="50"/>
+      <c r="E394" s="52"/>
+      <c r="F394" s="52"/>
+      <c r="G394" s="52"/>
+      <c r="H394" s="52"/>
       <c r="I394" s="6"/>
       <c r="J394" s="6"/>
       <c r="K394" s="6"/>
-      <c r="L394" s="56"/>
+      <c r="L394" s="58"/>
     </row>
     <row r="395" spans="1:12">
       <c r="A395" s="6"/>
       <c r="B395" s="6"/>
       <c r="D395" s="6"/>
-      <c r="E395" s="50"/>
-      <c r="F395" s="50"/>
-      <c r="G395" s="50"/>
-      <c r="H395" s="50"/>
+      <c r="E395" s="52"/>
+      <c r="F395" s="52"/>
+      <c r="G395" s="52"/>
+      <c r="H395" s="52"/>
       <c r="I395" s="6"/>
       <c r="J395" s="6"/>
       <c r="K395" s="6"/>
-      <c r="L395" s="56"/>
+      <c r="L395" s="58"/>
     </row>
     <row r="396" spans="1:12">
       <c r="A396" s="6"/>
       <c r="B396" s="6"/>
       <c r="D396" s="6"/>
-      <c r="E396" s="50"/>
-      <c r="F396" s="50"/>
-      <c r="G396" s="50"/>
-      <c r="H396" s="50"/>
+      <c r="E396" s="52"/>
+      <c r="F396" s="52"/>
+      <c r="G396" s="52"/>
+      <c r="H396" s="52"/>
       <c r="I396" s="6"/>
       <c r="J396" s="6"/>
       <c r="K396" s="6"/>
-      <c r="L396" s="56"/>
+      <c r="L396" s="58"/>
     </row>
     <row r="397" spans="1:12">
       <c r="A397" s="6"/>
       <c r="B397" s="6"/>
       <c r="D397" s="6"/>
-      <c r="E397" s="50"/>
-      <c r="F397" s="50"/>
-      <c r="G397" s="50"/>
-      <c r="H397" s="50"/>
+      <c r="E397" s="52"/>
+      <c r="F397" s="52"/>
+      <c r="G397" s="52"/>
+      <c r="H397" s="52"/>
       <c r="I397" s="6"/>
       <c r="J397" s="6"/>
       <c r="K397" s="6"/>
-      <c r="L397" s="56"/>
+      <c r="L397" s="58"/>
     </row>
     <row r="398" spans="1:12">
       <c r="A398" s="6"/>
       <c r="B398" s="6"/>
       <c r="D398" s="6"/>
-      <c r="E398" s="50"/>
-      <c r="F398" s="50"/>
-      <c r="G398" s="50"/>
-      <c r="H398" s="50"/>
+      <c r="E398" s="52"/>
+      <c r="F398" s="52"/>
+      <c r="G398" s="52"/>
+      <c r="H398" s="52"/>
       <c r="I398" s="6"/>
       <c r="J398" s="6"/>
       <c r="K398" s="6"/>
-      <c r="L398" s="56"/>
+      <c r="L398" s="58"/>
     </row>
     <row r="399" spans="1:12">
       <c r="A399" s="6"/>
       <c r="B399" s="6"/>
       <c r="D399" s="6"/>
-      <c r="E399" s="50"/>
-      <c r="F399" s="50"/>
-      <c r="G399" s="50"/>
-      <c r="H399" s="50"/>
+      <c r="E399" s="52"/>
+      <c r="F399" s="52"/>
+      <c r="G399" s="52"/>
+      <c r="H399" s="52"/>
       <c r="I399" s="6"/>
       <c r="J399" s="6"/>
       <c r="K399" s="6"/>
-      <c r="L399" s="56"/>
+      <c r="L399" s="58"/>
     </row>
     <row r="400" spans="1:12">
       <c r="A400" s="6"/>
       <c r="B400" s="6"/>
       <c r="D400" s="6"/>
-      <c r="E400" s="50"/>
-      <c r="F400" s="50"/>
-      <c r="G400" s="50"/>
-      <c r="H400" s="50"/>
+      <c r="E400" s="52"/>
+      <c r="F400" s="52"/>
+      <c r="G400" s="52"/>
+      <c r="H400" s="52"/>
       <c r="I400" s="6"/>
       <c r="J400" s="6"/>
       <c r="K400" s="6"/>
-      <c r="L400" s="56"/>
+      <c r="L400" s="58"/>
     </row>
     <row r="401" spans="1:12">
       <c r="A401" s="6"/>
       <c r="B401" s="6"/>
       <c r="D401" s="6"/>
-      <c r="E401" s="50"/>
-      <c r="F401" s="50"/>
-      <c r="G401" s="50"/>
-      <c r="H401" s="50"/>
+      <c r="E401" s="52"/>
+      <c r="F401" s="52"/>
+      <c r="G401" s="52"/>
+      <c r="H401" s="52"/>
       <c r="I401" s="6"/>
       <c r="J401" s="6"/>
       <c r="K401" s="6"/>
-      <c r="L401" s="56"/>
+      <c r="L401" s="58"/>
     </row>
     <row r="402" spans="1:12">
       <c r="A402" s="6"/>
       <c r="B402" s="6"/>
       <c r="D402" s="6"/>
-      <c r="E402" s="50"/>
-      <c r="F402" s="50"/>
-      <c r="G402" s="50"/>
-      <c r="H402" s="50"/>
+      <c r="E402" s="52"/>
+      <c r="F402" s="52"/>
+      <c r="G402" s="52"/>
+      <c r="H402" s="52"/>
       <c r="I402" s="6"/>
       <c r="J402" s="6"/>
       <c r="K402" s="6"/>
-      <c r="L402" s="56"/>
+      <c r="L402" s="58"/>
     </row>
     <row r="403" spans="1:12">
       <c r="A403" s="6"/>
       <c r="B403" s="6"/>
       <c r="D403" s="6"/>
-      <c r="E403" s="50"/>
-      <c r="F403" s="50"/>
-      <c r="G403" s="50"/>
-      <c r="H403" s="50"/>
+      <c r="E403" s="52"/>
+      <c r="F403" s="52"/>
+      <c r="G403" s="52"/>
+      <c r="H403" s="52"/>
       <c r="I403" s="6"/>
       <c r="J403" s="6"/>
       <c r="K403" s="6"/>
-      <c r="L403" s="56"/>
+      <c r="L403" s="58"/>
     </row>
     <row r="404" spans="1:12">
       <c r="A404" s="6"/>
       <c r="B404" s="6"/>
       <c r="D404" s="6"/>
-      <c r="E404" s="50"/>
-      <c r="F404" s="50"/>
-      <c r="G404" s="50"/>
-      <c r="H404" s="50"/>
+      <c r="E404" s="52"/>
+      <c r="F404" s="52"/>
+      <c r="G404" s="52"/>
+      <c r="H404" s="52"/>
       <c r="I404" s="6"/>
       <c r="J404" s="6"/>
       <c r="K404" s="6"/>
-      <c r="L404" s="56"/>
+      <c r="L404" s="58"/>
     </row>
     <row r="405" spans="1:12">
       <c r="A405" s="6"/>
       <c r="B405" s="6"/>
       <c r="D405" s="6"/>
-      <c r="E405" s="50"/>
-      <c r="F405" s="50"/>
-      <c r="G405" s="50"/>
-      <c r="H405" s="50"/>
+      <c r="E405" s="52"/>
+      <c r="F405" s="52"/>
+      <c r="G405" s="52"/>
+      <c r="H405" s="52"/>
       <c r="I405" s="6"/>
       <c r="J405" s="6"/>
       <c r="K405" s="6"/>
-      <c r="L405" s="56"/>
+      <c r="L405" s="58"/>
     </row>
     <row r="406" spans="1:12">
       <c r="A406" s="6"/>
       <c r="B406" s="6"/>
       <c r="D406" s="6"/>
-      <c r="E406" s="50"/>
-      <c r="F406" s="50"/>
-      <c r="G406" s="50"/>
-      <c r="H406" s="50"/>
+      <c r="E406" s="52"/>
+      <c r="F406" s="52"/>
+      <c r="G406" s="52"/>
+      <c r="H406" s="52"/>
       <c r="I406" s="6"/>
       <c r="J406" s="6"/>
       <c r="K406" s="6"/>
-      <c r="L406" s="56"/>
+      <c r="L406" s="58"/>
     </row>
     <row r="407" spans="1:12">
       <c r="A407" s="6"/>
       <c r="B407" s="6"/>
       <c r="D407" s="6"/>
-      <c r="E407" s="50"/>
-      <c r="F407" s="50"/>
-      <c r="G407" s="50"/>
-      <c r="H407" s="50"/>
+      <c r="E407" s="52"/>
+      <c r="F407" s="52"/>
+      <c r="G407" s="52"/>
+      <c r="H407" s="52"/>
       <c r="I407" s="6"/>
       <c r="J407" s="6"/>
       <c r="K407" s="6"/>
-      <c r="L407" s="56"/>
+      <c r="L407" s="58"/>
     </row>
     <row r="408" spans="1:12">
       <c r="A408" s="6"/>
       <c r="B408" s="6"/>
       <c r="D408" s="6"/>
-      <c r="E408" s="50"/>
-      <c r="F408" s="50"/>
-      <c r="G408" s="50"/>
-      <c r="H408" s="50"/>
+      <c r="E408" s="52"/>
+      <c r="F408" s="52"/>
+      <c r="G408" s="52"/>
+      <c r="H408" s="52"/>
       <c r="I408" s="6"/>
       <c r="J408" s="6"/>
       <c r="K408" s="6"/>
-      <c r="L408" s="56"/>
+      <c r="L408" s="58"/>
     </row>
     <row r="409" spans="1:12">
       <c r="A409" s="6"/>
       <c r="B409" s="6"/>
       <c r="D409" s="6"/>
-      <c r="E409" s="50"/>
-      <c r="F409" s="50"/>
-      <c r="G409" s="50"/>
-      <c r="H409" s="50"/>
+      <c r="E409" s="52"/>
+      <c r="F409" s="52"/>
+      <c r="G409" s="52"/>
+      <c r="H409" s="52"/>
       <c r="I409" s="6"/>
       <c r="J409" s="6"/>
       <c r="K409" s="6"/>
-      <c r="L409" s="56"/>
+      <c r="L409" s="58"/>
     </row>
     <row r="410" spans="1:12">
       <c r="A410" s="6"/>
       <c r="B410" s="6"/>
       <c r="D410" s="6"/>
-      <c r="E410" s="50"/>
-      <c r="F410" s="50"/>
-      <c r="G410" s="50"/>
-      <c r="H410" s="50"/>
+      <c r="E410" s="52"/>
+      <c r="F410" s="52"/>
+      <c r="G410" s="52"/>
+      <c r="H410" s="52"/>
       <c r="I410" s="6"/>
       <c r="J410" s="6"/>
       <c r="K410" s="6"/>
-      <c r="L410" s="56"/>
+      <c r="L410" s="58"/>
     </row>
     <row r="411" spans="1:12">
       <c r="A411" s="6"/>
       <c r="B411" s="6"/>
       <c r="D411" s="6"/>
-      <c r="E411" s="50"/>
-      <c r="F411" s="50"/>
-      <c r="G411" s="50"/>
-      <c r="H411" s="50"/>
+      <c r="E411" s="52"/>
+      <c r="F411" s="52"/>
+      <c r="G411" s="52"/>
+      <c r="H411" s="52"/>
       <c r="I411" s="6"/>
       <c r="J411" s="6"/>
       <c r="K411" s="6"/>
-      <c r="L411" s="56"/>
+      <c r="L411" s="58"/>
     </row>
     <row r="412" spans="1:12">
       <c r="A412" s="6"/>
       <c r="B412" s="6"/>
       <c r="D412" s="6"/>
-      <c r="E412" s="50"/>
-      <c r="F412" s="50"/>
-      <c r="G412" s="50"/>
-      <c r="H412" s="50"/>
+      <c r="E412" s="52"/>
+      <c r="F412" s="52"/>
+      <c r="G412" s="52"/>
+      <c r="H412" s="52"/>
       <c r="I412" s="6"/>
       <c r="J412" s="6"/>
       <c r="K412" s="6"/>
-      <c r="L412" s="56"/>
+      <c r="L412" s="58"/>
     </row>
     <row r="413" spans="1:12">
       <c r="A413" s="6"/>
       <c r="B413" s="6"/>
       <c r="D413" s="6"/>
-      <c r="E413" s="50"/>
-      <c r="F413" s="50"/>
-      <c r="G413" s="50"/>
-      <c r="H413" s="50"/>
+      <c r="E413" s="52"/>
+      <c r="F413" s="52"/>
+      <c r="G413" s="52"/>
+      <c r="H413" s="52"/>
       <c r="I413" s="6"/>
       <c r="J413" s="6"/>
       <c r="K413" s="6"/>
-      <c r="L413" s="56"/>
+      <c r="L413" s="58"/>
     </row>
     <row r="414" spans="1:12">
       <c r="A414" s="6"/>
       <c r="B414" s="6"/>
       <c r="D414" s="6"/>
-      <c r="E414" s="50"/>
-      <c r="F414" s="50"/>
-      <c r="G414" s="50"/>
-      <c r="H414" s="50"/>
+      <c r="E414" s="52"/>
+      <c r="F414" s="52"/>
+      <c r="G414" s="52"/>
+      <c r="H414" s="52"/>
       <c r="I414" s="6"/>
       <c r="J414" s="6"/>
       <c r="K414" s="6"/>
-      <c r="L414" s="56"/>
+      <c r="L414" s="58"/>
     </row>
     <row r="415" spans="1:12">
       <c r="A415" s="6"/>
       <c r="B415" s="6"/>
       <c r="D415" s="6"/>
-      <c r="E415" s="50"/>
-      <c r="F415" s="50"/>
-      <c r="G415" s="50"/>
-      <c r="H415" s="50"/>
+      <c r="E415" s="52"/>
+      <c r="F415" s="52"/>
+      <c r="G415" s="52"/>
+      <c r="H415" s="52"/>
       <c r="I415" s="6"/>
       <c r="J415" s="6"/>
       <c r="K415" s="6"/>
-      <c r="L415" s="56"/>
+      <c r="L415" s="58"/>
     </row>
     <row r="416" spans="1:12">
       <c r="A416" s="6"/>
       <c r="B416" s="6"/>
       <c r="D416" s="6"/>
-      <c r="E416" s="50"/>
-      <c r="F416" s="50"/>
-      <c r="G416" s="50"/>
-      <c r="H416" s="50"/>
+      <c r="E416" s="52"/>
+      <c r="F416" s="52"/>
+      <c r="G416" s="52"/>
+      <c r="H416" s="52"/>
       <c r="I416" s="6"/>
       <c r="J416" s="6"/>
       <c r="K416" s="6"/>
-      <c r="L416" s="56"/>
+      <c r="L416" s="58"/>
     </row>
     <row r="417" spans="1:12">
       <c r="A417" s="6"/>
       <c r="B417" s="6"/>
       <c r="D417" s="6"/>
-      <c r="E417" s="50"/>
-      <c r="F417" s="50"/>
-      <c r="G417" s="50"/>
-      <c r="H417" s="50"/>
+      <c r="E417" s="52"/>
+      <c r="F417" s="52"/>
+      <c r="G417" s="52"/>
+      <c r="H417" s="52"/>
       <c r="I417" s="6"/>
       <c r="J417" s="6"/>
       <c r="K417" s="6"/>
-      <c r="L417" s="56"/>
+      <c r="L417" s="58"/>
     </row>
     <row r="418" spans="1:12">
       <c r="A418" s="6"/>
       <c r="B418" s="6"/>
       <c r="D418" s="6"/>
-      <c r="E418" s="50"/>
-      <c r="F418" s="50"/>
-      <c r="G418" s="50"/>
-      <c r="H418" s="50"/>
+      <c r="E418" s="52"/>
+      <c r="F418" s="52"/>
+      <c r="G418" s="52"/>
+      <c r="H418" s="52"/>
       <c r="I418" s="6"/>
       <c r="J418" s="6"/>
       <c r="K418" s="6"/>
-      <c r="L418" s="56"/>
+      <c r="L418" s="58"/>
     </row>
     <row r="419" spans="1:12">
       <c r="A419" s="6"/>
       <c r="B419" s="6"/>
       <c r="D419" s="6"/>
-      <c r="E419" s="50"/>
-      <c r="F419" s="50"/>
-      <c r="G419" s="50"/>
-      <c r="H419" s="50"/>
+      <c r="E419" s="52"/>
+      <c r="F419" s="52"/>
+      <c r="G419" s="52"/>
+      <c r="H419" s="52"/>
       <c r="I419" s="6"/>
       <c r="J419" s="6"/>
       <c r="K419" s="6"/>
-      <c r="L419" s="56"/>
+      <c r="L419" s="58"/>
     </row>
     <row r="420" spans="1:12">
       <c r="A420" s="6"/>
       <c r="B420" s="6"/>
       <c r="D420" s="6"/>
-      <c r="E420" s="50"/>
-      <c r="F420" s="50"/>
-      <c r="G420" s="50"/>
-      <c r="H420" s="50"/>
+      <c r="E420" s="52"/>
+      <c r="F420" s="52"/>
+      <c r="G420" s="52"/>
+      <c r="H420" s="52"/>
       <c r="I420" s="6"/>
       <c r="J420" s="6"/>
       <c r="K420" s="6"/>
-      <c r="L420" s="56"/>
+      <c r="L420" s="58"/>
     </row>
     <row r="421" spans="1:12">
       <c r="A421" s="6"/>
       <c r="B421" s="6"/>
       <c r="D421" s="6"/>
-      <c r="E421" s="50"/>
-      <c r="F421" s="50"/>
-      <c r="G421" s="50"/>
-      <c r="H421" s="50"/>
+      <c r="E421" s="52"/>
+      <c r="F421" s="52"/>
+      <c r="G421" s="52"/>
+      <c r="H421" s="52"/>
       <c r="I421" s="6"/>
       <c r="J421" s="6"/>
       <c r="K421" s="6"/>
-      <c r="L421" s="56"/>
+      <c r="L421" s="58"/>
     </row>
     <row r="422" spans="1:12">
       <c r="A422" s="6"/>
       <c r="B422" s="6"/>
       <c r="D422" s="6"/>
-      <c r="E422" s="50"/>
-      <c r="F422" s="50"/>
-      <c r="G422" s="50"/>
-      <c r="H422" s="50"/>
+      <c r="E422" s="52"/>
+      <c r="F422" s="52"/>
+      <c r="G422" s="52"/>
+      <c r="H422" s="52"/>
       <c r="I422" s="6"/>
       <c r="J422" s="6"/>
       <c r="K422" s="6"/>
-      <c r="L422" s="56"/>
+      <c r="L422" s="58"/>
     </row>
     <row r="423" spans="1:12">
       <c r="A423" s="6"/>
       <c r="B423" s="6"/>
       <c r="D423" s="6"/>
-      <c r="E423" s="50"/>
-      <c r="F423" s="50"/>
-      <c r="G423" s="50"/>
-      <c r="H423" s="50"/>
+      <c r="E423" s="52"/>
+      <c r="F423" s="52"/>
+      <c r="G423" s="52"/>
+      <c r="H423" s="52"/>
       <c r="I423" s="6"/>
       <c r="J423" s="6"/>
       <c r="K423" s="6"/>
-      <c r="L423" s="56"/>
+      <c r="L423" s="58"/>
     </row>
     <row r="424" spans="1:12">
       <c r="A424" s="6"/>
       <c r="B424" s="6"/>
       <c r="D424" s="6"/>
-      <c r="E424" s="50"/>
-      <c r="F424" s="50"/>
-      <c r="G424" s="50"/>
-      <c r="H424" s="50"/>
+      <c r="E424" s="52"/>
+      <c r="F424" s="52"/>
+      <c r="G424" s="52"/>
+      <c r="H424" s="52"/>
       <c r="I424" s="6"/>
       <c r="J424" s="6"/>
       <c r="K424" s="6"/>
-      <c r="L424" s="56"/>
+      <c r="L424" s="58"/>
     </row>
     <row r="425" spans="1:12">
       <c r="A425" s="6"/>
       <c r="B425" s="6"/>
       <c r="D425" s="6"/>
-      <c r="E425" s="50"/>
-      <c r="F425" s="50"/>
-      <c r="G425" s="50"/>
-      <c r="H425" s="50"/>
+      <c r="E425" s="52"/>
+      <c r="F425" s="52"/>
+      <c r="G425" s="52"/>
+      <c r="H425" s="52"/>
       <c r="I425" s="6"/>
       <c r="J425" s="6"/>
       <c r="K425" s="6"/>
-      <c r="L425" s="56"/>
+      <c r="L425" s="58"/>
     </row>
     <row r="426" spans="1:12">
       <c r="A426" s="6"/>
       <c r="B426" s="6"/>
       <c r="D426" s="6"/>
-      <c r="E426" s="50"/>
-      <c r="F426" s="50"/>
-      <c r="G426" s="50"/>
-      <c r="H426" s="50"/>
+      <c r="E426" s="52"/>
+      <c r="F426" s="52"/>
+      <c r="G426" s="52"/>
+      <c r="H426" s="52"/>
       <c r="I426" s="6"/>
       <c r="J426" s="6"/>
       <c r="K426" s="6"/>
-      <c r="L426" s="56"/>
+      <c r="L426" s="58"/>
     </row>
     <row r="427" spans="1:12">
       <c r="A427" s="6"/>
       <c r="B427" s="6"/>
       <c r="D427" s="6"/>
-      <c r="E427" s="50"/>
-      <c r="F427" s="50"/>
-      <c r="G427" s="50"/>
-      <c r="H427" s="50"/>
+      <c r="E427" s="52"/>
+      <c r="F427" s="52"/>
+      <c r="G427" s="52"/>
+      <c r="H427" s="52"/>
       <c r="I427" s="6"/>
       <c r="J427" s="6"/>
       <c r="K427" s="6"/>
-      <c r="L427" s="56"/>
+      <c r="L427" s="58"/>
     </row>
     <row r="428" spans="1:12">
       <c r="A428" s="6"/>
       <c r="B428" s="6"/>
       <c r="D428" s="6"/>
-      <c r="E428" s="50"/>
-      <c r="F428" s="50"/>
-      <c r="G428" s="50"/>
-      <c r="H428" s="50"/>
+      <c r="E428" s="52"/>
+      <c r="F428" s="52"/>
+      <c r="G428" s="52"/>
+      <c r="H428" s="52"/>
       <c r="I428" s="6"/>
       <c r="J428" s="6"/>
       <c r="K428" s="6"/>
-      <c r="L428" s="56"/>
+      <c r="L428" s="58"/>
     </row>
     <row r="429" spans="1:12">
       <c r="A429" s="6"/>
       <c r="B429" s="6"/>
       <c r="D429" s="6"/>
-      <c r="E429" s="50"/>
-      <c r="F429" s="50"/>
-      <c r="G429" s="50"/>
-      <c r="H429" s="50"/>
+      <c r="E429" s="52"/>
+      <c r="F429" s="52"/>
+      <c r="G429" s="52"/>
+      <c r="H429" s="52"/>
       <c r="I429" s="6"/>
       <c r="J429" s="6"/>
       <c r="K429" s="6"/>
-      <c r="L429" s="56"/>
+      <c r="L429" s="58"/>
     </row>
     <row r="430" spans="1:12">
       <c r="A430" s="6"/>
       <c r="B430" s="6"/>
       <c r="D430" s="6"/>
-      <c r="E430" s="50"/>
-      <c r="F430" s="50"/>
-      <c r="G430" s="50"/>
-      <c r="H430" s="50"/>
+      <c r="E430" s="52"/>
+      <c r="F430" s="52"/>
+      <c r="G430" s="52"/>
+      <c r="H430" s="52"/>
       <c r="I430" s="6"/>
       <c r="J430" s="6"/>
       <c r="K430" s="6"/>
-      <c r="L430" s="56"/>
+      <c r="L430" s="58"/>
     </row>
     <row r="431" spans="1:12">
       <c r="A431" s="6"/>
       <c r="B431" s="6"/>
       <c r="D431" s="6"/>
-      <c r="E431" s="50"/>
-      <c r="F431" s="50"/>
-      <c r="G431" s="50"/>
-      <c r="H431" s="50"/>
+      <c r="E431" s="52"/>
+      <c r="F431" s="52"/>
+      <c r="G431" s="52"/>
+      <c r="H431" s="52"/>
       <c r="I431" s="6"/>
       <c r="J431" s="6"/>
       <c r="K431" s="6"/>
-      <c r="L431" s="56"/>
+      <c r="L431" s="58"/>
     </row>
     <row r="432" spans="1:12">
       <c r="A432" s="6"/>
       <c r="B432" s="6"/>
       <c r="D432" s="6"/>
-      <c r="E432" s="50"/>
-      <c r="F432" s="50"/>
-      <c r="G432" s="50"/>
-      <c r="H432" s="50"/>
+      <c r="E432" s="52"/>
+      <c r="F432" s="52"/>
+      <c r="G432" s="52"/>
+      <c r="H432" s="52"/>
       <c r="I432" s="6"/>
       <c r="J432" s="6"/>
       <c r="K432" s="6"/>
-      <c r="L432" s="56"/>
+      <c r="L432" s="58"/>
     </row>
     <row r="433" spans="1:12">
       <c r="A433" s="6"/>
       <c r="B433" s="6"/>
       <c r="D433" s="6"/>
-      <c r="E433" s="50"/>
-      <c r="F433" s="50"/>
-      <c r="G433" s="50"/>
-      <c r="H433" s="50"/>
+      <c r="E433" s="52"/>
+      <c r="F433" s="52"/>
+      <c r="G433" s="52"/>
+      <c r="H433" s="52"/>
       <c r="I433" s="6"/>
       <c r="J433" s="6"/>
       <c r="K433" s="6"/>
-      <c r="L433" s="56"/>
+      <c r="L433" s="58"/>
     </row>
     <row r="434" spans="1:12">
       <c r="A434" s="6"/>
       <c r="B434" s="6"/>
       <c r="D434" s="6"/>
-      <c r="E434" s="50"/>
-      <c r="F434" s="50"/>
-      <c r="G434" s="50"/>
-      <c r="H434" s="50"/>
+      <c r="E434" s="52"/>
+      <c r="F434" s="52"/>
+      <c r="G434" s="52"/>
+      <c r="H434" s="52"/>
       <c r="I434" s="6"/>
       <c r="J434" s="6"/>
       <c r="K434" s="6"/>
-      <c r="L434" s="56"/>
+      <c r="L434" s="58"/>
     </row>
     <row r="435" spans="1:12">
       <c r="A435" s="6"/>
       <c r="B435" s="6"/>
       <c r="D435" s="6"/>
-      <c r="E435" s="50"/>
-      <c r="F435" s="50"/>
-      <c r="G435" s="50"/>
-      <c r="H435" s="50"/>
+      <c r="E435" s="52"/>
+      <c r="F435" s="52"/>
+      <c r="G435" s="52"/>
+      <c r="H435" s="52"/>
       <c r="I435" s="6"/>
       <c r="J435" s="6"/>
       <c r="K435" s="6"/>
-      <c r="L435" s="56"/>
+      <c r="L435" s="58"/>
     </row>
     <row r="436" spans="1:12">
       <c r="A436" s="6"/>
       <c r="B436" s="6"/>
       <c r="D436" s="6"/>
-      <c r="E436" s="50"/>
-      <c r="F436" s="50"/>
-      <c r="G436" s="50"/>
-      <c r="H436" s="50"/>
+      <c r="E436" s="52"/>
+      <c r="F436" s="52"/>
+      <c r="G436" s="52"/>
+      <c r="H436" s="52"/>
       <c r="I436" s="6"/>
       <c r="J436" s="6"/>
       <c r="K436" s="6"/>
-      <c r="L436" s="56"/>
+      <c r="L436" s="58"/>
     </row>
     <row r="437" spans="1:12">
       <c r="A437" s="6"/>
       <c r="B437" s="6"/>
       <c r="D437" s="6"/>
-      <c r="E437" s="50"/>
-      <c r="F437" s="50"/>
-      <c r="G437" s="50"/>
-      <c r="H437" s="50"/>
+      <c r="E437" s="52"/>
+      <c r="F437" s="52"/>
+      <c r="G437" s="52"/>
+      <c r="H437" s="52"/>
       <c r="I437" s="6"/>
       <c r="J437" s="6"/>
       <c r="K437" s="6"/>
-      <c r="L437" s="56"/>
+      <c r="L437" s="58"/>
     </row>
     <row r="438" spans="1:12">
       <c r="A438" s="6"/>
       <c r="B438" s="6"/>
       <c r="D438" s="6"/>
-      <c r="E438" s="50"/>
-      <c r="F438" s="50"/>
-      <c r="G438" s="50"/>
-      <c r="H438" s="50"/>
+      <c r="E438" s="52"/>
+      <c r="F438" s="52"/>
+      <c r="G438" s="52"/>
+      <c r="H438" s="52"/>
       <c r="I438" s="6"/>
       <c r="J438" s="6"/>
       <c r="K438" s="6"/>
-      <c r="L438" s="56"/>
+      <c r="L438" s="58"/>
     </row>
     <row r="439" spans="1:12">
       <c r="A439" s="6"/>
       <c r="B439" s="6"/>
       <c r="D439" s="6"/>
-      <c r="E439" s="50"/>
-      <c r="F439" s="50"/>
-      <c r="G439" s="50"/>
-      <c r="H439" s="50"/>
+      <c r="E439" s="52"/>
+      <c r="F439" s="52"/>
+      <c r="G439" s="52"/>
+      <c r="H439" s="52"/>
       <c r="I439" s="6"/>
       <c r="J439" s="6"/>
       <c r="K439" s="6"/>
-      <c r="L439" s="56"/>
+      <c r="L439" s="58"/>
     </row>
     <row r="440" spans="1:12">
       <c r="A440" s="6"/>
       <c r="B440" s="6"/>
       <c r="D440" s="6"/>
-      <c r="E440" s="50"/>
-      <c r="F440" s="50"/>
-      <c r="G440" s="50"/>
-      <c r="H440" s="50"/>
+      <c r="E440" s="52"/>
+      <c r="F440" s="52"/>
+      <c r="G440" s="52"/>
+      <c r="H440" s="52"/>
       <c r="I440" s="6"/>
       <c r="J440" s="6"/>
       <c r="K440" s="6"/>
-      <c r="L440" s="56"/>
+      <c r="L440" s="58"/>
     </row>
     <row r="441" spans="1:12">
       <c r="A441" s="6"/>
       <c r="B441" s="6"/>
       <c r="D441" s="6"/>
-      <c r="E441" s="50"/>
-      <c r="F441" s="50"/>
-      <c r="G441" s="50"/>
-      <c r="H441" s="50"/>
+      <c r="E441" s="52"/>
+      <c r="F441" s="52"/>
+      <c r="G441" s="52"/>
+      <c r="H441" s="52"/>
       <c r="I441" s="6"/>
       <c r="J441" s="6"/>
       <c r="K441" s="6"/>
-      <c r="L441" s="56"/>
+      <c r="L441" s="58"/>
     </row>
     <row r="442" spans="1:12">
       <c r="A442" s="6"/>
       <c r="B442" s="6"/>
       <c r="D442" s="6"/>
-      <c r="E442" s="50"/>
-      <c r="F442" s="50"/>
-      <c r="G442" s="50"/>
-      <c r="H442" s="50"/>
+      <c r="E442" s="52"/>
+      <c r="F442" s="52"/>
+      <c r="G442" s="52"/>
+      <c r="H442" s="52"/>
       <c r="I442" s="6"/>
       <c r="J442" s="6"/>
       <c r="K442" s="6"/>
-      <c r="L442" s="56"/>
+      <c r="L442" s="58"/>
     </row>
     <row r="443" spans="1:12">
       <c r="A443" s="6"/>
       <c r="B443" s="6"/>
       <c r="D443" s="6"/>
-      <c r="E443" s="50"/>
-      <c r="F443" s="50"/>
-      <c r="G443" s="50"/>
-      <c r="H443" s="50"/>
+      <c r="E443" s="52"/>
+      <c r="F443" s="52"/>
+      <c r="G443" s="52"/>
+      <c r="H443" s="52"/>
       <c r="I443" s="6"/>
       <c r="J443" s="6"/>
       <c r="K443" s="6"/>
-      <c r="L443" s="56"/>
+      <c r="L443" s="58"/>
     </row>
     <row r="444" spans="1:12">
       <c r="A444" s="6"/>
       <c r="B444" s="6"/>
       <c r="D444" s="6"/>
-      <c r="E444" s="50"/>
-      <c r="F444" s="50"/>
-      <c r="G444" s="50"/>
-      <c r="H444" s="50"/>
+      <c r="E444" s="52"/>
+      <c r="F444" s="52"/>
+      <c r="G444" s="52"/>
+      <c r="H444" s="52"/>
       <c r="I444" s="6"/>
       <c r="J444" s="6"/>
       <c r="K444" s="6"/>
-      <c r="L444" s="56"/>
+      <c r="L444" s="58"/>
     </row>
     <row r="445" spans="1:12">
       <c r="A445" s="6"/>
       <c r="B445" s="6"/>
       <c r="D445" s="6"/>
-      <c r="E445" s="50"/>
-      <c r="F445" s="50"/>
-      <c r="G445" s="50"/>
-      <c r="H445" s="50"/>
+      <c r="E445" s="52"/>
+      <c r="F445" s="52"/>
+      <c r="G445" s="52"/>
+      <c r="H445" s="52"/>
       <c r="I445" s="6"/>
       <c r="J445" s="6"/>
       <c r="K445" s="6"/>
-      <c r="L445" s="56"/>
+      <c r="L445" s="58"/>
     </row>
     <row r="446" spans="1:12">
       <c r="A446" s="6"/>
       <c r="B446" s="6"/>
       <c r="D446" s="6"/>
-      <c r="E446" s="50"/>
-      <c r="F446" s="50"/>
-      <c r="G446" s="50"/>
-      <c r="H446" s="50"/>
+      <c r="E446" s="52"/>
+      <c r="F446" s="52"/>
+      <c r="G446" s="52"/>
+      <c r="H446" s="52"/>
       <c r="I446" s="6"/>
       <c r="J446" s="6"/>
       <c r="K446" s="6"/>
-      <c r="L446" s="56"/>
+      <c r="L446" s="58"/>
     </row>
     <row r="447" spans="1:12">
       <c r="A447" s="6"/>
       <c r="B447" s="6"/>
       <c r="D447" s="6"/>
-      <c r="E447" s="50"/>
-      <c r="F447" s="50"/>
-      <c r="G447" s="50"/>
-      <c r="H447" s="50"/>
+      <c r="E447" s="52"/>
+      <c r="F447" s="52"/>
+      <c r="G447" s="52"/>
+      <c r="H447" s="52"/>
       <c r="I447" s="6"/>
       <c r="J447" s="6"/>
       <c r="K447" s="6"/>
-      <c r="L447" s="56"/>
+      <c r="L447" s="58"/>
     </row>
     <row r="448" spans="1:12">
       <c r="A448" s="6"/>
       <c r="B448" s="6"/>
       <c r="D448" s="6"/>
-      <c r="E448" s="50"/>
-      <c r="F448" s="50"/>
-      <c r="G448" s="50"/>
-      <c r="H448" s="50"/>
+      <c r="E448" s="52"/>
+      <c r="F448" s="52"/>
+      <c r="G448" s="52"/>
+      <c r="H448" s="52"/>
       <c r="I448" s="6"/>
       <c r="J448" s="6"/>
       <c r="K448" s="6"/>
-      <c r="L448" s="56"/>
+      <c r="L448" s="58"/>
     </row>
     <row r="449" spans="1:12">
       <c r="A449" s="6"/>
       <c r="B449" s="6"/>
       <c r="D449" s="6"/>
-      <c r="E449" s="50"/>
-      <c r="F449" s="50"/>
-      <c r="G449" s="50"/>
-      <c r="H449" s="50"/>
+      <c r="E449" s="52"/>
+      <c r="F449" s="52"/>
+      <c r="G449" s="52"/>
+      <c r="H449" s="52"/>
       <c r="I449" s="6"/>
       <c r="J449" s="6"/>
       <c r="K449" s="6"/>
-      <c r="L449" s="56"/>
+      <c r="L449" s="58"/>
     </row>
     <row r="450" spans="1:12">
       <c r="A450" s="6"/>
       <c r="B450" s="6"/>
       <c r="D450" s="6"/>
-      <c r="E450" s="50"/>
-      <c r="F450" s="50"/>
-      <c r="G450" s="50"/>
-      <c r="H450" s="50"/>
+      <c r="E450" s="52"/>
+      <c r="F450" s="52"/>
+      <c r="G450" s="52"/>
+      <c r="H450" s="52"/>
       <c r="I450" s="6"/>
       <c r="J450" s="6"/>
       <c r="K450" s="6"/>
-      <c r="L450" s="56"/>
+      <c r="L450" s="58"/>
     </row>
     <row r="451" spans="1:12">
       <c r="A451" s="6"/>
       <c r="B451" s="6"/>
       <c r="D451" s="6"/>
-      <c r="E451" s="50"/>
-      <c r="F451" s="50"/>
-      <c r="G451" s="50"/>
-      <c r="H451" s="50"/>
+      <c r="E451" s="52"/>
+      <c r="F451" s="52"/>
+      <c r="G451" s="52"/>
+      <c r="H451" s="52"/>
       <c r="I451" s="6"/>
       <c r="J451" s="6"/>
       <c r="K451" s="6"/>
-      <c r="L451" s="56"/>
+      <c r="L451" s="58"/>
     </row>
     <row r="452" spans="1:12">
       <c r="A452" s="6"/>
       <c r="B452" s="6"/>
       <c r="D452" s="6"/>
-      <c r="E452" s="50"/>
-      <c r="F452" s="50"/>
-      <c r="G452" s="50"/>
-      <c r="H452" s="50"/>
+      <c r="E452" s="52"/>
+      <c r="F452" s="52"/>
+      <c r="G452" s="52"/>
+      <c r="H452" s="52"/>
       <c r="I452" s="6"/>
       <c r="J452" s="6"/>
       <c r="K452" s="6"/>
-      <c r="L452" s="56"/>
+      <c r="L452" s="58"/>
     </row>
     <row r="453" spans="1:12">
       <c r="A453" s="6"/>
       <c r="B453" s="6"/>
       <c r="D453" s="6"/>
-      <c r="E453" s="50"/>
-      <c r="F453" s="50"/>
-      <c r="G453" s="50"/>
-      <c r="H453" s="50"/>
+      <c r="E453" s="52"/>
+      <c r="F453" s="52"/>
+      <c r="G453" s="52"/>
+      <c r="H453" s="52"/>
       <c r="I453" s="6"/>
       <c r="J453" s="6"/>
       <c r="K453" s="6"/>
-      <c r="L453" s="56"/>
+      <c r="L453" s="58"/>
     </row>
     <row r="454" spans="1:12">
       <c r="A454" s="6"/>
       <c r="B454" s="6"/>
       <c r="D454" s="6"/>
-      <c r="E454" s="50"/>
-      <c r="F454" s="50"/>
-      <c r="G454" s="50"/>
-      <c r="H454" s="50"/>
+      <c r="E454" s="52"/>
+      <c r="F454" s="52"/>
+      <c r="G454" s="52"/>
+      <c r="H454" s="52"/>
       <c r="I454" s="6"/>
       <c r="J454" s="6"/>
       <c r="K454" s="6"/>
-      <c r="L454" s="56"/>
+      <c r="L454" s="58"/>
     </row>
     <row r="455" spans="1:12">
       <c r="A455" s="6"/>
       <c r="B455" s="6"/>
       <c r="D455" s="6"/>
-      <c r="E455" s="50"/>
-      <c r="F455" s="50"/>
-      <c r="G455" s="50"/>
-      <c r="H455" s="50"/>
+      <c r="E455" s="52"/>
+      <c r="F455" s="52"/>
+      <c r="G455" s="52"/>
+      <c r="H455" s="52"/>
       <c r="I455" s="6"/>
       <c r="J455" s="6"/>
       <c r="K455" s="6"/>
-      <c r="L455" s="56"/>
+      <c r="L455" s="58"/>
     </row>
     <row r="456" spans="1:12">
       <c r="A456" s="6"/>
       <c r="B456" s="6"/>
       <c r="D456" s="6"/>
-      <c r="E456" s="50"/>
-      <c r="F456" s="50"/>
-      <c r="G456" s="50"/>
-      <c r="H456" s="50"/>
+      <c r="E456" s="52"/>
+      <c r="F456" s="52"/>
+      <c r="G456" s="52"/>
+      <c r="H456" s="52"/>
       <c r="I456" s="6"/>
       <c r="J456" s="6"/>
       <c r="K456" s="6"/>
-      <c r="L456" s="56"/>
+      <c r="L456" s="58"/>
     </row>
     <row r="457" spans="1:12">
       <c r="A457" s="6"/>
       <c r="B457" s="6"/>
       <c r="D457" s="6"/>
-      <c r="E457" s="50"/>
-      <c r="F457" s="50"/>
-      <c r="G457" s="50"/>
-      <c r="H457" s="50"/>
+      <c r="E457" s="52"/>
+      <c r="F457" s="52"/>
+      <c r="G457" s="52"/>
+      <c r="H457" s="52"/>
       <c r="I457" s="6"/>
       <c r="J457" s="6"/>
       <c r="K457" s="6"/>
-      <c r="L457" s="56"/>
+      <c r="L457" s="58"/>
     </row>
     <row r="458" spans="1:12">
       <c r="A458" s="6"/>
       <c r="B458" s="6"/>
       <c r="D458" s="6"/>
-      <c r="E458" s="50"/>
-      <c r="F458" s="50"/>
-      <c r="G458" s="50"/>
-      <c r="H458" s="50"/>
+      <c r="E458" s="52"/>
+      <c r="F458" s="52"/>
+      <c r="G458" s="52"/>
+      <c r="H458" s="52"/>
       <c r="I458" s="6"/>
       <c r="J458" s="6"/>
       <c r="K458" s="6"/>
-      <c r="L458" s="56"/>
+      <c r="L458" s="58"/>
     </row>
     <row r="459" spans="1:12">
       <c r="A459" s="6"/>
       <c r="B459" s="6"/>
       <c r="D459" s="6"/>
-      <c r="E459" s="50"/>
-      <c r="F459" s="50"/>
-      <c r="G459" s="50"/>
-      <c r="H459" s="50"/>
+      <c r="E459" s="52"/>
+      <c r="F459" s="52"/>
+      <c r="G459" s="52"/>
+      <c r="H459" s="52"/>
       <c r="I459" s="6"/>
       <c r="J459" s="6"/>
       <c r="K459" s="6"/>
-      <c r="L459" s="56"/>
+      <c r="L459" s="58"/>
     </row>
     <row r="460" spans="1:12">
       <c r="A460" s="6"/>
       <c r="B460" s="6"/>
       <c r="D460" s="6"/>
-      <c r="E460" s="50"/>
-      <c r="F460" s="50"/>
-      <c r="G460" s="50"/>
-      <c r="H460" s="50"/>
+      <c r="E460" s="52"/>
+      <c r="F460" s="52"/>
+      <c r="G460" s="52"/>
+      <c r="H460" s="52"/>
       <c r="I460" s="6"/>
       <c r="J460" s="6"/>
       <c r="K460" s="6"/>
-      <c r="L460" s="56"/>
+      <c r="L460" s="58"/>
     </row>
     <row r="461" spans="1:12">
       <c r="A461" s="6"/>
       <c r="B461" s="6"/>
       <c r="D461" s="6"/>
-      <c r="E461" s="50"/>
-      <c r="F461" s="50"/>
-      <c r="G461" s="50"/>
-      <c r="H461" s="50"/>
+      <c r="E461" s="52"/>
+      <c r="F461" s="52"/>
+      <c r="G461" s="52"/>
+      <c r="H461" s="52"/>
       <c r="I461" s="6"/>
       <c r="J461" s="6"/>
       <c r="K461" s="6"/>
-      <c r="L461" s="56"/>
+      <c r="L461" s="58"/>
     </row>
     <row r="462" spans="1:12">
       <c r="A462" s="6"/>
       <c r="B462" s="6"/>
       <c r="D462" s="6"/>
-      <c r="E462" s="50"/>
-      <c r="F462" s="50"/>
-      <c r="G462" s="50"/>
-      <c r="H462" s="50"/>
+      <c r="E462" s="52"/>
+      <c r="F462" s="52"/>
+      <c r="G462" s="52"/>
+      <c r="H462" s="52"/>
       <c r="I462" s="6"/>
       <c r="J462" s="6"/>
       <c r="K462" s="6"/>
-      <c r="L462" s="56"/>
+      <c r="L462" s="58"/>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111">
   <si>
     <t>计划编码</t>
   </si>
@@ -345,7 +345,46 @@
     <t>JH_00020</t>
   </si>
   <si>
-    <t>执行中</t>
+    <r>
+      <t>执行失败</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（股价已处于第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个基底，不宜继续入场）</t>
+    </r>
   </si>
   <si>
     <t>JH_00021</t>
@@ -445,6 +484,9 @@
   </si>
   <si>
     <t>甬金股份</t>
+  </si>
+  <si>
+    <t>执行中</t>
   </si>
   <si>
     <t>JH_00027</t>
@@ -1594,19 +1636,19 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2816,11 +2858,11 @@
   <dimension ref="A1:BB542"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="G15" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomRight" activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="14.8"/>
@@ -3950,7 +3992,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" ht="15" spans="1:14">
+    <row r="22" s="2" customFormat="1" ht="44" spans="1:14">
       <c r="A22" s="16" t="s">
         <v>66</v>
       </c>
@@ -4283,13 +4325,13 @@
         <f t="shared" si="5"/>
         <v>0.0380425075906411</v>
       </c>
-      <c r="N28" s="75" t="s">
-        <v>67</v>
+      <c r="N28" s="77" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="29" ht="30" spans="1:14">
       <c r="A29" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B29" s="27">
         <v>44549</v>
@@ -4298,7 +4340,7 @@
         <v>603267</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E29" s="48"/>
       <c r="F29" s="54">
@@ -4331,21 +4373,21 @@
         <v>0.10620239390642</v>
       </c>
       <c r="N29" s="76" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:14">
       <c r="A30" s="16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B30" s="27">
         <v>44549</v>
       </c>
       <c r="C30" s="88" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E30" s="53">
         <v>1.27</v>
@@ -4379,13 +4421,13 @@
         <f t="shared" si="5"/>
         <v>0.0498554913294797</v>
       </c>
-      <c r="N30" s="77" t="s">
+      <c r="N30" s="78" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="31" s="4" customFormat="1" ht="15" spans="1:14">
       <c r="A31" s="16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B31" s="34">
         <v>44549</v>
@@ -4428,13 +4470,13 @@
         <f t="shared" si="5"/>
         <v>0.14708886618999</v>
       </c>
-      <c r="N31" s="77" t="s">
+      <c r="N31" s="78" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="32" s="5" customFormat="1" ht="15" spans="1:14">
       <c r="A32" s="16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B32" s="34">
         <v>44549</v>
@@ -4443,7 +4485,7 @@
         <v>600600</v>
       </c>
       <c r="D32" s="36" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E32" s="55">
         <v>2.67</v>
@@ -4477,13 +4519,13 @@
         <f t="shared" si="5"/>
         <v>0.113179723502304</v>
       </c>
-      <c r="N32" s="75" t="s">
-        <v>67</v>
+      <c r="N32" s="77" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:14">
       <c r="A33" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B33" s="34">
         <v>44553</v>
@@ -4492,7 +4534,7 @@
         <v>600587</v>
       </c>
       <c r="D33" s="37" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E33" s="48">
         <v>1.08</v>
@@ -4526,13 +4568,13 @@
         <f t="shared" si="5"/>
         <v>0.154600811907984</v>
       </c>
-      <c r="N33" s="78" t="s">
+      <c r="N33" s="79" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="34" ht="30" spans="1:14">
       <c r="A34" s="16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B34" s="34">
         <v>44553</v>
@@ -4541,7 +4583,7 @@
         <v>603236</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E34" s="54">
         <v>1.63</v>
@@ -4576,21 +4618,21 @@
         <v>0.0757419164328954</v>
       </c>
       <c r="N34" s="76" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" ht="15" spans="1:14">
       <c r="A35" s="16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B35" s="34">
         <v>44553</v>
       </c>
       <c r="C35" s="89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E35" s="56">
         <v>1.16</v>
@@ -4624,22 +4666,22 @@
         <f t="shared" si="5"/>
         <v>0.117464424320828</v>
       </c>
-      <c r="N35" s="75" t="s">
-        <v>67</v>
+      <c r="N35" s="77" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:14">
       <c r="A36" s="16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B36" s="39">
         <v>44553</v>
       </c>
       <c r="C36" s="89" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E36" s="57">
         <v>1.18</v>
@@ -4673,13 +4715,13 @@
         <f t="shared" si="5"/>
         <v>0.0528363047001619</v>
       </c>
-      <c r="N36" s="78" t="s">
+      <c r="N36" s="79" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="37" ht="15" spans="1:14">
       <c r="A37" s="16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B37" s="39">
         <v>44553</v>
@@ -4688,7 +4730,7 @@
         <v>600373</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E37" s="57">
         <v>1.26</v>
@@ -4722,13 +4764,13 @@
         <f t="shared" si="5"/>
         <v>0.0831315577078288</v>
       </c>
-      <c r="N37" s="79" t="s">
-        <v>67</v>
+      <c r="N37" s="75" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="38" ht="15" spans="1:14">
       <c r="A38" s="16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B38" s="39">
         <v>44556</v>
@@ -4737,7 +4779,7 @@
         <v>603279</v>
       </c>
       <c r="D38" s="33" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E38" s="57">
         <v>1.1</v>
@@ -4771,13 +4813,13 @@
         <f>(H38-F38)/F38</f>
         <v>-0.023956043956044</v>
       </c>
-      <c r="N38" s="79" t="s">
-        <v>67</v>
+      <c r="N38" s="75" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="39" ht="15" spans="1:14">
       <c r="A39" s="16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B39" s="39">
         <v>44556</v>
@@ -4786,7 +4828,7 @@
         <v>603186</v>
       </c>
       <c r="D39" s="41" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E39" s="57">
         <v>1.53</v>
@@ -4820,13 +4862,13 @@
         <f>(H39-F39)/F39</f>
         <v>0.116901083698409</v>
       </c>
-      <c r="N39" s="79" t="s">
-        <v>67</v>
+      <c r="N39" s="75" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:14">
       <c r="A40" s="16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B40" s="39">
         <v>44556</v>
@@ -4835,7 +4877,7 @@
         <v>603599</v>
       </c>
       <c r="D40" s="41" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E40" s="57">
         <v>2.22</v>
@@ -4869,8 +4911,8 @@
         <f>(H40-F40)/F40</f>
         <v>0.0940594059405942</v>
       </c>
-      <c r="N40" s="79" t="s">
-        <v>67</v>
+      <c r="N40" s="75" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:14">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
@@ -1410,7 +1410,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1636,7 +1636,7 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1649,6 +1649,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2858,11 +2861,11 @@
   <dimension ref="A1:BB542"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="G15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="I26" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N22" sqref="N22"/>
+      <selection pane="bottomRight" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="14.8"/>
@@ -2932,35 +2935,35 @@
       <c r="S1" s="68"/>
       <c r="T1" s="68"/>
       <c r="U1" s="68"/>
-      <c r="W1" s="84"/>
-      <c r="X1" s="84"/>
-      <c r="Y1" s="84"/>
-      <c r="Z1" s="84"/>
-      <c r="AA1" s="84"/>
-      <c r="AB1" s="84"/>
-      <c r="AC1" s="84"/>
-      <c r="AD1" s="84"/>
-      <c r="AF1" s="84"/>
-      <c r="AG1" s="84"/>
-      <c r="AH1" s="84"/>
-      <c r="AI1" s="84"/>
-      <c r="AJ1" s="84"/>
-      <c r="AK1" s="84"/>
-      <c r="AL1" s="84"/>
-      <c r="AN1" s="84"/>
-      <c r="AO1" s="84"/>
-      <c r="AP1" s="84"/>
-      <c r="AQ1" s="84"/>
-      <c r="AR1" s="84"/>
-      <c r="AS1" s="84"/>
-      <c r="AT1" s="84"/>
-      <c r="AV1" s="84"/>
-      <c r="AW1" s="84"/>
-      <c r="AX1" s="84"/>
-      <c r="AY1" s="84"/>
-      <c r="AZ1" s="84"/>
-      <c r="BA1" s="84"/>
-      <c r="BB1" s="84"/>
+      <c r="W1" s="85"/>
+      <c r="X1" s="85"/>
+      <c r="Y1" s="85"/>
+      <c r="Z1" s="85"/>
+      <c r="AA1" s="85"/>
+      <c r="AB1" s="85"/>
+      <c r="AC1" s="85"/>
+      <c r="AD1" s="85"/>
+      <c r="AF1" s="85"/>
+      <c r="AG1" s="85"/>
+      <c r="AH1" s="85"/>
+      <c r="AI1" s="85"/>
+      <c r="AJ1" s="85"/>
+      <c r="AK1" s="85"/>
+      <c r="AL1" s="85"/>
+      <c r="AN1" s="85"/>
+      <c r="AO1" s="85"/>
+      <c r="AP1" s="85"/>
+      <c r="AQ1" s="85"/>
+      <c r="AR1" s="85"/>
+      <c r="AS1" s="85"/>
+      <c r="AT1" s="85"/>
+      <c r="AV1" s="85"/>
+      <c r="AW1" s="85"/>
+      <c r="AX1" s="85"/>
+      <c r="AY1" s="85"/>
+      <c r="AZ1" s="85"/>
+      <c r="BA1" s="85"/>
+      <c r="BB1" s="85"/>
     </row>
     <row r="2" ht="23.6" spans="1:54">
       <c r="A2" s="11"/>
@@ -2984,35 +2987,35 @@
       <c r="S2" s="68"/>
       <c r="T2" s="68"/>
       <c r="U2" s="68"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="84"/>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="84"/>
-      <c r="AN2" s="84"/>
-      <c r="AO2" s="84"/>
-      <c r="AP2" s="84"/>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="84"/>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="84"/>
-      <c r="AV2" s="84"/>
-      <c r="AW2" s="84"/>
-      <c r="AX2" s="84"/>
-      <c r="AY2" s="84"/>
-      <c r="AZ2" s="84"/>
-      <c r="BA2" s="84"/>
-      <c r="BB2" s="84"/>
+      <c r="W2" s="85"/>
+      <c r="X2" s="85"/>
+      <c r="Y2" s="85"/>
+      <c r="Z2" s="85"/>
+      <c r="AA2" s="85"/>
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="85"/>
+      <c r="AD2" s="85"/>
+      <c r="AF2" s="85"/>
+      <c r="AG2" s="85"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="85"/>
+      <c r="AL2" s="85"/>
+      <c r="AN2" s="85"/>
+      <c r="AO2" s="85"/>
+      <c r="AP2" s="85"/>
+      <c r="AQ2" s="85"/>
+      <c r="AR2" s="85"/>
+      <c r="AS2" s="85"/>
+      <c r="AT2" s="85"/>
+      <c r="AV2" s="85"/>
+      <c r="AW2" s="85"/>
+      <c r="AX2" s="85"/>
+      <c r="AY2" s="85"/>
+      <c r="AZ2" s="85"/>
+      <c r="BA2" s="85"/>
+      <c r="BB2" s="85"/>
     </row>
     <row r="3" customFormat="1" ht="23.6" spans="1:54">
       <c r="A3" s="16" t="s">
@@ -3067,35 +3070,35 @@
       <c r="S3" s="68"/>
       <c r="T3" s="68"/>
       <c r="U3" s="68"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="84"/>
-      <c r="Z3" s="84"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="84"/>
-      <c r="AF3" s="84"/>
-      <c r="AG3" s="84"/>
-      <c r="AH3" s="84"/>
-      <c r="AI3" s="84"/>
-      <c r="AJ3" s="84"/>
-      <c r="AK3" s="84"/>
-      <c r="AL3" s="84"/>
-      <c r="AN3" s="84"/>
-      <c r="AO3" s="84"/>
-      <c r="AP3" s="84"/>
-      <c r="AQ3" s="84"/>
-      <c r="AR3" s="84"/>
-      <c r="AS3" s="84"/>
-      <c r="AT3" s="84"/>
-      <c r="AV3" s="84"/>
-      <c r="AW3" s="84"/>
-      <c r="AX3" s="84"/>
-      <c r="AY3" s="84"/>
-      <c r="AZ3" s="84"/>
-      <c r="BA3" s="84"/>
-      <c r="BB3" s="84"/>
+      <c r="W3" s="85"/>
+      <c r="X3" s="85"/>
+      <c r="Y3" s="85"/>
+      <c r="Z3" s="85"/>
+      <c r="AA3" s="85"/>
+      <c r="AB3" s="85"/>
+      <c r="AC3" s="85"/>
+      <c r="AD3" s="85"/>
+      <c r="AF3" s="85"/>
+      <c r="AG3" s="85"/>
+      <c r="AH3" s="85"/>
+      <c r="AI3" s="85"/>
+      <c r="AJ3" s="85"/>
+      <c r="AK3" s="85"/>
+      <c r="AL3" s="85"/>
+      <c r="AN3" s="85"/>
+      <c r="AO3" s="85"/>
+      <c r="AP3" s="85"/>
+      <c r="AQ3" s="85"/>
+      <c r="AR3" s="85"/>
+      <c r="AS3" s="85"/>
+      <c r="AT3" s="85"/>
+      <c r="AV3" s="85"/>
+      <c r="AW3" s="85"/>
+      <c r="AX3" s="85"/>
+      <c r="AY3" s="85"/>
+      <c r="AZ3" s="85"/>
+      <c r="BA3" s="85"/>
+      <c r="BB3" s="85"/>
     </row>
     <row r="4" customFormat="1" ht="23.6" spans="1:54">
       <c r="A4" s="16" t="s">
@@ -3150,35 +3153,35 @@
       <c r="S4" s="68"/>
       <c r="T4" s="68"/>
       <c r="U4" s="68"/>
-      <c r="W4" s="84"/>
-      <c r="X4" s="84"/>
-      <c r="Y4" s="84"/>
-      <c r="Z4" s="84"/>
-      <c r="AA4" s="84"/>
-      <c r="AB4" s="84"/>
-      <c r="AC4" s="84"/>
-      <c r="AD4" s="84"/>
-      <c r="AF4" s="84"/>
-      <c r="AG4" s="84"/>
-      <c r="AH4" s="84"/>
-      <c r="AI4" s="84"/>
-      <c r="AJ4" s="84"/>
-      <c r="AK4" s="84"/>
-      <c r="AL4" s="84"/>
-      <c r="AN4" s="84"/>
-      <c r="AO4" s="84"/>
-      <c r="AP4" s="84"/>
-      <c r="AQ4" s="84"/>
-      <c r="AR4" s="84"/>
-      <c r="AS4" s="84"/>
-      <c r="AT4" s="84"/>
-      <c r="AV4" s="84"/>
-      <c r="AW4" s="84"/>
-      <c r="AX4" s="84"/>
-      <c r="AY4" s="84"/>
-      <c r="AZ4" s="84"/>
-      <c r="BA4" s="84"/>
-      <c r="BB4" s="84"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="85"/>
+      <c r="Y4" s="85"/>
+      <c r="Z4" s="85"/>
+      <c r="AA4" s="85"/>
+      <c r="AB4" s="85"/>
+      <c r="AC4" s="85"/>
+      <c r="AD4" s="85"/>
+      <c r="AF4" s="85"/>
+      <c r="AG4" s="85"/>
+      <c r="AH4" s="85"/>
+      <c r="AI4" s="85"/>
+      <c r="AJ4" s="85"/>
+      <c r="AK4" s="85"/>
+      <c r="AL4" s="85"/>
+      <c r="AN4" s="85"/>
+      <c r="AO4" s="85"/>
+      <c r="AP4" s="85"/>
+      <c r="AQ4" s="85"/>
+      <c r="AR4" s="85"/>
+      <c r="AS4" s="85"/>
+      <c r="AT4" s="85"/>
+      <c r="AV4" s="85"/>
+      <c r="AW4" s="85"/>
+      <c r="AX4" s="85"/>
+      <c r="AY4" s="85"/>
+      <c r="AZ4" s="85"/>
+      <c r="BA4" s="85"/>
+      <c r="BB4" s="85"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="45" spans="1:15">
       <c r="A5" s="16" t="s">
@@ -3475,7 +3478,7 @@
       <c r="B11" s="19">
         <v>44539</v>
       </c>
-      <c r="C11" s="85" t="s">
+      <c r="C11" s="86" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="25" t="s">
@@ -3616,7 +3619,7 @@
       <c r="B14" s="19">
         <v>44525</v>
       </c>
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="87" t="s">
         <v>46</v>
       </c>
       <c r="D14" s="16" t="s">
@@ -3808,7 +3811,7 @@
       <c r="B18" s="19">
         <v>44533</v>
       </c>
-      <c r="C18" s="86" t="s">
+      <c r="C18" s="87" t="s">
         <v>56</v>
       </c>
       <c r="D18" s="16" t="s">
@@ -3999,7 +4002,7 @@
       <c r="B22" s="27">
         <v>44553</v>
       </c>
-      <c r="C22" s="87" t="s">
+      <c r="C22" s="88" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="29" t="s">
@@ -4048,7 +4051,7 @@
       <c r="B23" s="27">
         <v>44546</v>
       </c>
-      <c r="C23" s="85" t="s">
+      <c r="C23" s="86" t="s">
         <v>69</v>
       </c>
       <c r="D23" s="21" t="s">
@@ -4144,7 +4147,7 @@
       <c r="B25" s="27">
         <v>44547</v>
       </c>
-      <c r="C25" s="85" t="s">
+      <c r="C25" s="86" t="s">
         <v>75</v>
       </c>
       <c r="D25" s="21" t="s">
@@ -4193,7 +4196,7 @@
       <c r="B26" s="27">
         <v>44549</v>
       </c>
-      <c r="C26" s="85" t="s">
+      <c r="C26" s="86" t="s">
         <v>38</v>
       </c>
       <c r="D26" s="25" t="s">
@@ -4383,7 +4386,7 @@
       <c r="B30" s="27">
         <v>44549</v>
       </c>
-      <c r="C30" s="88" t="s">
+      <c r="C30" s="89" t="s">
         <v>88</v>
       </c>
       <c r="D30" s="33" t="s">
@@ -4628,7 +4631,7 @@
       <c r="B35" s="34">
         <v>44553</v>
       </c>
-      <c r="C35" s="89" t="s">
+      <c r="C35" s="90" t="s">
         <v>98</v>
       </c>
       <c r="D35" s="33" t="s">
@@ -4677,7 +4680,7 @@
       <c r="B36" s="39">
         <v>44553</v>
       </c>
-      <c r="C36" s="89" t="s">
+      <c r="C36" s="90" t="s">
         <v>101</v>
       </c>
       <c r="D36" s="32" t="s">
@@ -4764,7 +4767,7 @@
         <f t="shared" si="5"/>
         <v>0.0831315577078288</v>
       </c>
-      <c r="N37" s="75" t="s">
+      <c r="N37" s="80" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4813,7 +4816,7 @@
         <f>(H38-F38)/F38</f>
         <v>-0.023956043956044</v>
       </c>
-      <c r="N38" s="75" t="s">
+      <c r="N38" s="80" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4862,7 +4865,7 @@
         <f>(H39-F39)/F39</f>
         <v>0.116901083698409</v>
       </c>
-      <c r="N39" s="75" t="s">
+      <c r="N39" s="80" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4911,7 +4914,7 @@
         <f>(H40-F40)/F40</f>
         <v>0.0940594059405942</v>
       </c>
-      <c r="N40" s="75" t="s">
+      <c r="N40" s="80" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4928,8 +4931,8 @@
       <c r="J41" s="42"/>
       <c r="K41" s="42"/>
       <c r="L41" s="64"/>
-      <c r="M41" s="80"/>
-      <c r="N41" s="81"/>
+      <c r="M41" s="81"/>
+      <c r="N41" s="82"/>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="42"/>
@@ -4944,8 +4947,8 @@
       <c r="J42" s="42"/>
       <c r="K42" s="42"/>
       <c r="L42" s="64"/>
-      <c r="M42" s="80"/>
-      <c r="N42" s="81"/>
+      <c r="M42" s="81"/>
+      <c r="N42" s="82"/>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="42"/>
@@ -4960,8 +4963,8 @@
       <c r="J43" s="42"/>
       <c r="K43" s="42"/>
       <c r="L43" s="64"/>
-      <c r="M43" s="80"/>
-      <c r="N43" s="81"/>
+      <c r="M43" s="81"/>
+      <c r="N43" s="82"/>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="42"/>
@@ -4976,8 +4979,8 @@
       <c r="J44" s="42"/>
       <c r="K44" s="42"/>
       <c r="L44" s="64"/>
-      <c r="M44" s="80"/>
-      <c r="N44" s="81"/>
+      <c r="M44" s="81"/>
+      <c r="N44" s="82"/>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="43"/>
@@ -4992,8 +4995,8 @@
       <c r="J45" s="43"/>
       <c r="K45" s="43"/>
       <c r="L45" s="65"/>
-      <c r="M45" s="82"/>
-      <c r="N45" s="81"/>
+      <c r="M45" s="83"/>
+      <c r="N45" s="82"/>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="43"/>
@@ -5008,8 +5011,8 @@
       <c r="J46" s="43"/>
       <c r="K46" s="43"/>
       <c r="L46" s="65"/>
-      <c r="M46" s="82"/>
-      <c r="N46" s="83"/>
+      <c r="M46" s="83"/>
+      <c r="N46" s="84"/>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="43"/>
@@ -5024,8 +5027,8 @@
       <c r="J47" s="43"/>
       <c r="K47" s="43"/>
       <c r="L47" s="65"/>
-      <c r="M47" s="82"/>
-      <c r="N47" s="83"/>
+      <c r="M47" s="83"/>
+      <c r="N47" s="84"/>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="43"/>
@@ -5040,8 +5043,8 @@
       <c r="J48" s="43"/>
       <c r="K48" s="43"/>
       <c r="L48" s="65"/>
-      <c r="M48" s="82"/>
-      <c r="N48" s="83"/>
+      <c r="M48" s="83"/>
+      <c r="N48" s="84"/>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="43"/>
@@ -5056,8 +5059,8 @@
       <c r="J49" s="43"/>
       <c r="K49" s="43"/>
       <c r="L49" s="65"/>
-      <c r="M49" s="82"/>
-      <c r="N49" s="83"/>
+      <c r="M49" s="83"/>
+      <c r="N49" s="84"/>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="43"/>
@@ -5072,8 +5075,8 @@
       <c r="J50" s="43"/>
       <c r="K50" s="43"/>
       <c r="L50" s="65"/>
-      <c r="M50" s="82"/>
-      <c r="N50" s="83"/>
+      <c r="M50" s="83"/>
+      <c r="N50" s="84"/>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="43"/>
@@ -5088,8 +5091,8 @@
       <c r="J51" s="43"/>
       <c r="K51" s="43"/>
       <c r="L51" s="65"/>
-      <c r="M51" s="82"/>
-      <c r="N51" s="83"/>
+      <c r="M51" s="83"/>
+      <c r="N51" s="84"/>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="43"/>
@@ -5104,8 +5107,8 @@
       <c r="J52" s="43"/>
       <c r="K52" s="43"/>
       <c r="L52" s="65"/>
-      <c r="M52" s="82"/>
-      <c r="N52" s="83"/>
+      <c r="M52" s="83"/>
+      <c r="N52" s="84"/>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="43"/>
@@ -5120,8 +5123,8 @@
       <c r="J53" s="43"/>
       <c r="K53" s="43"/>
       <c r="L53" s="65"/>
-      <c r="M53" s="82"/>
-      <c r="N53" s="83"/>
+      <c r="M53" s="83"/>
+      <c r="N53" s="84"/>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="43"/>
@@ -5136,8 +5139,8 @@
       <c r="J54" s="43"/>
       <c r="K54" s="43"/>
       <c r="L54" s="65"/>
-      <c r="M54" s="82"/>
-      <c r="N54" s="83"/>
+      <c r="M54" s="83"/>
+      <c r="N54" s="84"/>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="43"/>
@@ -5152,8 +5155,8 @@
       <c r="J55" s="43"/>
       <c r="K55" s="43"/>
       <c r="L55" s="65"/>
-      <c r="M55" s="82"/>
-      <c r="N55" s="83"/>
+      <c r="M55" s="83"/>
+      <c r="N55" s="84"/>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="43"/>
@@ -5168,8 +5171,8 @@
       <c r="J56" s="43"/>
       <c r="K56" s="43"/>
       <c r="L56" s="65"/>
-      <c r="M56" s="82"/>
-      <c r="N56" s="83"/>
+      <c r="M56" s="83"/>
+      <c r="N56" s="84"/>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="43"/>
@@ -5184,8 +5187,8 @@
       <c r="J57" s="43"/>
       <c r="K57" s="43"/>
       <c r="L57" s="65"/>
-      <c r="M57" s="82"/>
-      <c r="N57" s="83"/>
+      <c r="M57" s="83"/>
+      <c r="N57" s="84"/>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
@@ -2850,7 +2850,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C33" sqref="C33:D33"/>
+      <selection pane="bottomRight" activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="14.8"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
@@ -2846,7 +2846,7 @@
   <dimension ref="A1:BB542"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="M25" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117">
   <si>
     <t>计划编码</t>
   </si>
@@ -619,6 +619,15 @@
   </si>
   <si>
     <t>元利科技</t>
+  </si>
+  <si>
+    <t>JH_00040</t>
+  </si>
+  <si>
+    <t>002179</t>
+  </si>
+  <si>
+    <t>中航光电</t>
   </si>
 </sst>
 </file>
@@ -1694,6 +1703,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
@@ -2876,11 +2888,11 @@
   <dimension ref="A1:BC542"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="H25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="I26" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O40" sqref="O40:O41"/>
+      <selection pane="bottomRight" activeCell="O41" sqref="O41:O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="14.8"/>
@@ -5068,22 +5080,58 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="43"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="43"/>
-      <c r="L42" s="63"/>
-      <c r="M42" s="82"/>
-      <c r="N42" s="83"/>
-      <c r="O42" s="84"/>
+    <row r="42" ht="15" spans="1:15">
+      <c r="A42" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="40">
+        <v>44557</v>
+      </c>
+      <c r="C42" s="91" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42" s="57">
+        <v>1.52</v>
+      </c>
+      <c r="F42" s="57">
+        <v>99.58</v>
+      </c>
+      <c r="G42" s="57">
+        <v>94.55</v>
+      </c>
+      <c r="H42" s="57">
+        <v>114.29</v>
+      </c>
+      <c r="I42" s="21">
+        <f>(F42-G42)*100</f>
+        <v>503</v>
+      </c>
+      <c r="J42" s="21">
+        <f>FLOOR(1000/(F42-G42),100)</f>
+        <v>100</v>
+      </c>
+      <c r="K42" s="61">
+        <f>(H42-F42)/(F42-G42)</f>
+        <v>2.92445328031809</v>
+      </c>
+      <c r="L42" s="62">
+        <f>(F42-G42)/F42</f>
+        <v>0.0505121510343443</v>
+      </c>
+      <c r="M42" s="70">
+        <f>(H42-F42)/F42</f>
+        <v>0.147720425788311</v>
+      </c>
+      <c r="N42" s="71">
+        <f>F42*J42</f>
+        <v>9958</v>
+      </c>
+      <c r="O42" s="81" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="43"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
@@ -639,12 +639,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -792,32 +792,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -838,15 +814,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -862,23 +879,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -898,17 +899,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -917,13 +924,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -974,19 +974,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,7 +998,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,37 +1010,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,13 +1034,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1076,7 +1058,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1088,55 +1076,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1149,6 +1101,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1217,21 +1217,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1239,21 +1224,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1274,6 +1244,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1287,147 +1272,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2888,11 +2888,11 @@
   <dimension ref="A1:BC542"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="I26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F26" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N43" sqref="N43"/>
+      <selection pane="bottomRight" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="14.8"/>
@@ -3073,7 +3073,7 @@
         <v>39.33</v>
       </c>
       <c r="I3" s="21">
-        <f t="shared" ref="I3:I42" si="0">(F3-G3)*100</f>
+        <f t="shared" ref="I3:I43" si="0">(F3-G3)*100</f>
         <v>159</v>
       </c>
       <c r="J3" s="21">
@@ -3245,7 +3245,7 @@
         <v>454</v>
       </c>
       <c r="J5" s="21">
-        <f t="shared" ref="J5:J42" si="4">FLOOR(1000/(F5-G5),100)</f>
+        <f t="shared" ref="J5:J43" si="4">FLOOR(1000/(F5-G5),100)</f>
         <v>200</v>
       </c>
       <c r="K5" s="61">
@@ -3646,7 +3646,7 @@
         <v>0.0808375298171216</v>
       </c>
       <c r="M13" s="70">
-        <f t="shared" ref="M13:M42" si="5">(H13-F13)/F13</f>
+        <f t="shared" ref="M13:M43" si="5">(H13-F13)/F13</f>
         <v>0.220514179697853</v>
       </c>
       <c r="N13" s="71"/>
@@ -3687,11 +3687,11 @@
         <v>200</v>
       </c>
       <c r="K14" s="61">
-        <f t="shared" ref="K14:K42" si="6">(H14-F14)/(F14-G14)</f>
+        <f t="shared" ref="K14:K43" si="6">(H14-F14)/(F14-G14)</f>
         <v>3.40487804878048</v>
       </c>
       <c r="L14" s="62">
-        <f t="shared" ref="L14:L42" si="7">(F14-G14)/F14</f>
+        <f t="shared" ref="L14:L43" si="7">(F14-G14)/F14</f>
         <v>0.0577627500704425</v>
       </c>
       <c r="M14" s="70">
@@ -4437,7 +4437,7 @@
         <v>0.10620239390642</v>
       </c>
       <c r="N29" s="71">
-        <f t="shared" ref="N29:N42" si="8">F29*J29</f>
+        <f t="shared" ref="N29:N43" si="8">F29*J29</f>
         <v>0</v>
       </c>
       <c r="O29" s="77" t="s">
@@ -5047,14 +5047,14 @@
         <v>48.96</v>
       </c>
       <c r="G41" s="57">
-        <v>45.51</v>
+        <v>45.1</v>
       </c>
       <c r="H41" s="57">
         <v>55.79</v>
       </c>
       <c r="I41" s="21">
         <f t="shared" si="0"/>
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="J41" s="21">
         <f t="shared" si="4"/>
@@ -5062,11 +5062,11 @@
       </c>
       <c r="K41" s="61">
         <f t="shared" si="6"/>
-        <v>1.97971014492753</v>
+        <v>1.76943005181347</v>
       </c>
       <c r="L41" s="62">
         <f t="shared" si="7"/>
-        <v>0.0704656862745099</v>
+        <v>0.0788398692810457</v>
       </c>
       <c r="M41" s="70">
         <f t="shared" si="5"/>
@@ -5159,27 +5159,27 @@
         <v>46.18</v>
       </c>
       <c r="I43" s="21">
-        <f>(F43-G43)*100</f>
+        <f t="shared" si="0"/>
         <v>259.999999999999</v>
       </c>
       <c r="J43" s="21">
-        <f>FLOOR(1000/(F43-G43),100)</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="K43" s="61">
-        <f>(H43-F43)/(F43-G43)</f>
+        <f t="shared" si="6"/>
         <v>0.680769230769233</v>
       </c>
       <c r="L43" s="62">
-        <f>(F43-G43)/F43</f>
+        <f t="shared" si="7"/>
         <v>0.0585453726638143</v>
       </c>
       <c r="M43" s="70">
-        <f>(H43-F43)/F43</f>
+        <f t="shared" si="5"/>
         <v>0.039855888313443</v>
       </c>
       <c r="N43" s="71">
-        <f>F43*J43</f>
+        <f t="shared" si="8"/>
         <v>13323</v>
       </c>
       <c r="O43" s="81" t="s">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
@@ -2898,7 +2898,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H44" sqref="H44"/>
+      <selection pane="bottomRight" activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="14.8"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120">
   <si>
     <t>计划编码</t>
   </si>
@@ -597,6 +597,10 @@
     <t>中文传媒</t>
   </si>
   <si>
+    <t>执行失败
+（不符合新的执行标准）</t>
+  </si>
+  <si>
     <t>JH_00036</t>
   </si>
   <si>
@@ -641,13 +645,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -781,18 +785,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -803,16 +799,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -826,62 +829,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -897,14 +854,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -925,8 +897,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -971,13 +975,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -989,7 +993,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1007,67 +1131,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1079,73 +1149,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1196,8 +1200,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1207,21 +1211,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1248,15 +1237,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1290,6 +1270,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -1298,145 +1302,145 @@
     <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1462,7 +1466,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1567,69 +1571,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1666,7 +1670,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2894,11 +2898,11 @@
   <dimension ref="A1:BC542"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="N24" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G44" sqref="G44"/>
+      <selection pane="bottomRight" activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="14.8"/>
@@ -4725,7 +4729,7 @@
       <c r="C35" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="D35" s="34" t="s">
+      <c r="D35" s="33" t="s">
         <v>100</v>
       </c>
       <c r="E35" s="55">
@@ -4764,8 +4768,8 @@
         <f t="shared" si="9"/>
         <v>19325</v>
       </c>
-      <c r="O35" s="81" t="s">
-        <v>93</v>
+      <c r="O35" s="79" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:15">
@@ -4821,7 +4825,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" ht="15" spans="1:15">
+    <row r="37" ht="29" spans="1:15">
       <c r="A37" s="17" t="s">
         <v>104</v>
       </c>
@@ -4870,13 +4874,13 @@
         <f t="shared" si="9"/>
         <v>26019</v>
       </c>
-      <c r="O37" s="82" t="s">
-        <v>93</v>
+      <c r="O37" s="77" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="38" ht="15" spans="1:15">
       <c r="A38" s="17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B38" s="40">
         <v>44556</v>
@@ -4884,8 +4888,8 @@
       <c r="C38" s="39">
         <v>603279</v>
       </c>
-      <c r="D38" s="34" t="s">
-        <v>107</v>
+      <c r="D38" s="33" t="s">
+        <v>108</v>
       </c>
       <c r="E38" s="56">
         <v>1.1</v>
@@ -4923,13 +4927,13 @@
         <f t="shared" si="9"/>
         <v>22750</v>
       </c>
-      <c r="O38" s="82" t="s">
-        <v>93</v>
+      <c r="O38" s="79" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="39" ht="15" spans="1:15">
       <c r="A39" s="17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B39" s="40">
         <v>44556</v>
@@ -4938,7 +4942,7 @@
         <v>603186</v>
       </c>
       <c r="D39" s="34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E39" s="56">
         <v>1.53</v>
@@ -4982,7 +4986,7 @@
     </row>
     <row r="40" ht="15" spans="1:15">
       <c r="A40" s="17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B40" s="40">
         <v>44556</v>
@@ -4991,7 +4995,7 @@
         <v>603599</v>
       </c>
       <c r="D40" s="33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E40" s="57">
         <v>2.22</v>
@@ -5035,7 +5039,7 @@
     </row>
     <row r="41" ht="15" spans="1:15">
       <c r="A41" s="17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B41" s="40">
         <v>44557</v>
@@ -5044,7 +5048,7 @@
         <v>603217</v>
       </c>
       <c r="D41" s="33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E41" s="57">
         <v>2.16</v>
@@ -5082,22 +5086,22 @@
         <f t="shared" si="9"/>
         <v>14688</v>
       </c>
-      <c r="O41" s="82" t="s">
-        <v>93</v>
+      <c r="O41" s="79" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:15">
       <c r="A42" s="17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B42" s="40">
         <v>44557</v>
       </c>
       <c r="C42" s="91" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D42" s="34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E42" s="56">
         <v>1.52</v>
@@ -5141,7 +5145,7 @@
     </row>
     <row r="43" ht="15" spans="1:15">
       <c r="A43" s="17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B43" s="40">
         <v>44557</v>
@@ -5194,7 +5198,7 @@
     </row>
     <row r="44" ht="15" spans="1:15">
       <c r="A44" s="17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B44" s="28">
         <v>44560</v>
@@ -5216,7 +5220,7 @@
       </c>
       <c r="H44" s="49"/>
       <c r="I44" s="21">
-        <f>(F44-G44)*100</f>
+        <f t="shared" si="0"/>
         <v>470</v>
       </c>
       <c r="J44" s="21">
@@ -5224,16 +5228,18 @@
         <v>300</v>
       </c>
       <c r="K44" s="62">
-        <f>(H44-F44)/(F44-G44)</f>
+        <f t="shared" si="6"/>
         <v>-15.3914893617021</v>
       </c>
       <c r="L44" s="63">
-        <f>(F44-G44)/F44</f>
+        <f t="shared" si="7"/>
         <v>0.0649709704174731</v>
       </c>
       <c r="M44" s="71"/>
       <c r="N44" s="72"/>
-      <c r="O44" s="76"/>
+      <c r="O44" s="82" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="41"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
@@ -936,7 +936,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -964,6 +964,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1299,76 +1305,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1377,7 +1383,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1386,7 +1392,7 @@
     <xf numFmtId="42" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1398,25 +1404,25 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1428,16 +1434,16 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1667,25 +1673,25 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2898,11 +2904,11 @@
   <dimension ref="A1:BC542"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="N24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="M26" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O39" sqref="O39"/>
+      <selection pane="bottomRight" activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="14.8"/>
@@ -3103,7 +3109,7 @@
         <v>0.152696365767878</v>
       </c>
       <c r="N3" s="72"/>
-      <c r="O3" s="17" t="s">
+      <c r="O3" s="73" t="s">
         <v>19</v>
       </c>
       <c r="P3" s="68"/>
@@ -3187,7 +3193,7 @@
         <v>0.109341500765697</v>
       </c>
       <c r="N4" s="72"/>
-      <c r="O4" s="17" t="s">
+      <c r="O4" s="73" t="s">
         <v>19</v>
       </c>
       <c r="P4" s="68"/>
@@ -3271,10 +3277,10 @@
         <v>0.165004887585533</v>
       </c>
       <c r="N5" s="72"/>
-      <c r="O5" s="73" t="s">
+      <c r="O5" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="74"/>
+      <c r="P5" s="75"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="45" spans="1:16">
       <c r="A6" s="17" t="s">
@@ -3320,10 +3326,10 @@
         <v>0.102086230876217</v>
       </c>
       <c r="N6" s="72"/>
-      <c r="O6" s="73" t="s">
+      <c r="O6" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="P6" s="74"/>
+      <c r="P6" s="75"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="45" spans="1:16">
       <c r="A7" s="17" t="s">
@@ -3369,10 +3375,10 @@
         <v>0.146281800391389</v>
       </c>
       <c r="N7" s="72"/>
-      <c r="O7" s="73" t="s">
+      <c r="O7" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="P7" s="74"/>
+      <c r="P7" s="75"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="15" spans="1:16">
       <c r="A8" s="17" t="s">
@@ -3420,10 +3426,10 @@
         <v>0.205351948807446</v>
       </c>
       <c r="N8" s="72"/>
-      <c r="O8" s="17" t="s">
+      <c r="O8" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="P8" s="74"/>
+      <c r="P8" s="75"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="15" spans="1:15">
       <c r="A9" s="17" t="s">
@@ -3469,7 +3475,7 @@
         <v>0.0220839813374806</v>
       </c>
       <c r="N9" s="72"/>
-      <c r="O9" s="17" t="s">
+      <c r="O9" s="73" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3517,7 +3523,7 @@
         <v>0.131034482758621</v>
       </c>
       <c r="N10" s="72"/>
-      <c r="O10" s="17" t="s">
+      <c r="O10" s="73" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3565,10 +3571,10 @@
         <v>0.118251273344652</v>
       </c>
       <c r="N11" s="72"/>
-      <c r="O11" s="17" t="s">
+      <c r="O11" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="74"/>
+      <c r="P11" s="75"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="30" spans="1:15">
       <c r="A12" s="17" t="s">
@@ -3612,7 +3618,7 @@
         <v>43</v>
       </c>
       <c r="N12" s="72"/>
-      <c r="O12" s="73" t="s">
+      <c r="O12" s="74" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3660,10 +3666,10 @@
         <v>0.220514179697853</v>
       </c>
       <c r="N13" s="72"/>
-      <c r="O13" s="17" t="s">
+      <c r="O13" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="P13" s="74"/>
+      <c r="P13" s="75"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="15" spans="1:16">
       <c r="A14" s="17" t="s">
@@ -3709,10 +3715,10 @@
         <v>0.196675119752043</v>
       </c>
       <c r="N14" s="72"/>
-      <c r="O14" s="75" t="s">
+      <c r="O14" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="P14" s="74"/>
+      <c r="P14" s="75"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="15" spans="1:16">
       <c r="A15" s="17" t="s">
@@ -3758,10 +3764,10 @@
         <v>0.173328854551562</v>
       </c>
       <c r="N15" s="72"/>
-      <c r="O15" s="75" t="s">
+      <c r="O15" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="P15" s="74"/>
+      <c r="P15" s="75"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="15" spans="1:16">
       <c r="A16" s="17" t="s">
@@ -3807,10 +3813,10 @@
         <v>0.262557077625571</v>
       </c>
       <c r="N16" s="72"/>
-      <c r="O16" s="75" t="s">
+      <c r="O16" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="P16" s="74"/>
+      <c r="P16" s="75"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="15" spans="1:16">
       <c r="A17" s="17" t="s">
@@ -3856,10 +3862,10 @@
         <v>0.240076335877863</v>
       </c>
       <c r="N17" s="72"/>
-      <c r="O17" s="75" t="s">
+      <c r="O17" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="P17" s="74"/>
+      <c r="P17" s="75"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="15" spans="1:16">
       <c r="A18" s="17" t="s">
@@ -3905,10 +3911,10 @@
         <v>0.122831367106176</v>
       </c>
       <c r="N18" s="72"/>
-      <c r="O18" s="75" t="s">
+      <c r="O18" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="P18" s="74"/>
+      <c r="P18" s="75"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="15" spans="1:15">
       <c r="A19" s="17" t="s">
@@ -3956,7 +3962,7 @@
         <v>0.0465415273849319</v>
       </c>
       <c r="N19" s="72"/>
-      <c r="O19" s="75" t="s">
+      <c r="O19" s="76" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4004,7 +4010,7 @@
         <v>0.151821132347638</v>
       </c>
       <c r="N20" s="72"/>
-      <c r="O20" s="76" t="s">
+      <c r="O20" s="77" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4052,7 +4058,7 @@
         <v>0.237446808510638</v>
       </c>
       <c r="N21" s="72"/>
-      <c r="O21" s="76" t="s">
+      <c r="O21" s="77" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4102,7 +4108,7 @@
         <v>0.0678379071556808</v>
       </c>
       <c r="N22" s="72"/>
-      <c r="O22" s="77" t="s">
+      <c r="O22" s="78" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4150,7 +4156,7 @@
         <v>0.0943525179856116</v>
       </c>
       <c r="N23" s="72"/>
-      <c r="O23" s="78" t="s">
+      <c r="O23" s="77" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4200,7 +4206,7 @@
         <v>0.038342609771181</v>
       </c>
       <c r="N24" s="72"/>
-      <c r="O24" s="76" t="s">
+      <c r="O24" s="79" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4250,7 +4256,7 @@
         <v>0.175932977913176</v>
       </c>
       <c r="N25" s="72"/>
-      <c r="O25" s="78" t="s">
+      <c r="O25" s="77" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4298,7 +4304,7 @@
         <v>0.114334038054968</v>
       </c>
       <c r="N26" s="72"/>
-      <c r="O26" s="78" t="s">
+      <c r="O26" s="77" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4346,7 +4352,7 @@
         <v>0.0977209302325581</v>
       </c>
       <c r="N27" s="72"/>
-      <c r="O27" s="78" t="s">
+      <c r="O27" s="77" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4399,7 +4405,7 @@
         <f>F28*J28</f>
         <v>16797</v>
       </c>
-      <c r="O28" s="79" t="s">
+      <c r="O28" s="80" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4450,7 +4456,7 @@
         <f t="shared" ref="N29:N43" si="9">F29*J29</f>
         <v>18380</v>
       </c>
-      <c r="O29" s="78" t="s">
+      <c r="O29" s="77" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4503,7 +4509,7 @@
         <f t="shared" si="9"/>
         <v>22144</v>
       </c>
-      <c r="O30" s="80" t="s">
+      <c r="O30" s="79" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4556,7 +4562,7 @@
         <f t="shared" si="9"/>
         <v>15664</v>
       </c>
-      <c r="O31" s="80" t="s">
+      <c r="O31" s="79" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4662,7 +4668,7 @@
         <f t="shared" si="9"/>
         <v>14780</v>
       </c>
-      <c r="O33" s="79" t="s">
+      <c r="O33" s="80" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4715,7 +4721,7 @@
         <f t="shared" si="9"/>
         <v>20319</v>
       </c>
-      <c r="O34" s="78" t="s">
+      <c r="O34" s="77" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4768,7 +4774,7 @@
         <f t="shared" si="9"/>
         <v>19325</v>
       </c>
-      <c r="O35" s="79" t="s">
+      <c r="O35" s="80" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4821,7 +4827,7 @@
         <f t="shared" si="9"/>
         <v>37020</v>
       </c>
-      <c r="O36" s="79" t="s">
+      <c r="O36" s="80" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4874,7 +4880,7 @@
         <f t="shared" si="9"/>
         <v>26019</v>
       </c>
-      <c r="O37" s="77" t="s">
+      <c r="O37" s="78" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4927,7 +4933,7 @@
         <f t="shared" si="9"/>
         <v>22750</v>
       </c>
-      <c r="O38" s="79" t="s">
+      <c r="O38" s="80" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5033,7 +5039,7 @@
         <f t="shared" si="9"/>
         <v>24240</v>
       </c>
-      <c r="O40" s="79" t="s">
+      <c r="O40" s="80" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5086,7 +5092,7 @@
         <f t="shared" si="9"/>
         <v>14688</v>
       </c>
-      <c r="O41" s="79" t="s">
+      <c r="O41" s="80" t="s">
         <v>19</v>
       </c>
     </row>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123">
   <si>
     <t>计划编码</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>风险资本比</t>
-  </si>
-  <si>
-    <t>收益资本比</t>
   </si>
   <si>
     <t>所需资本</t>
@@ -639,6 +636,18 @@
   <si>
     <t>JH_00042</t>
   </si>
+  <si>
+    <t>JH_00043</t>
+  </si>
+  <si>
+    <t>汇得科技</t>
+  </si>
+  <si>
+    <t>暂不执行,等待调整</t>
+  </si>
+  <si>
+    <t>JH_00044</t>
+  </si>
 </sst>
 </file>
 
@@ -646,11 +655,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="41">
@@ -760,14 +769,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="方正书宋_GBK"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="方正书宋_GBK"/>
       <charset val="134"/>
@@ -799,6 +808,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
@@ -806,18 +823,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -825,14 +835,6 @@
       <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -844,8 +846,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -862,67 +917,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -931,6 +925,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -987,7 +996,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,7 +1020,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,61 +1050,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1083,13 +1068,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1101,61 +1140,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1216,18 +1225,46 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1247,6 +1284,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1261,45 +1309,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -1308,136 +1317,136 @@
     <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1450,7 +1459,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1472,15 +1481,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1577,69 +1583,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1649,13 +1658,10 @@
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="18" fillId="4" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="4" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="4" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1664,9 +1670,6 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="43" fontId="8" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1700,7 +1703,7 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2901,14 +2904,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:BC542"/>
+  <dimension ref="A1:BB542"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="M26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="G26" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P6" sqref="P6"/>
+      <selection pane="bottomRight" activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="14.8"/>
@@ -2924,22 +2927,21 @@
     <col min="10" max="10" width="14.1339285714286" customWidth="1"/>
     <col min="11" max="11" width="14"/>
     <col min="12" max="12" width="11.3035714285714" style="8" customWidth="1"/>
-    <col min="13" max="13" width="11.1607142857143" style="9" customWidth="1"/>
-    <col min="14" max="14" width="16.9642857142857" style="10" customWidth="1"/>
-    <col min="15" max="15" width="27.6785714285714" style="11" customWidth="1"/>
+    <col min="13" max="13" width="16.9642857142857" style="9" customWidth="1"/>
+    <col min="14" max="14" width="27.6785714285714" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.6" spans="1:55">
-      <c r="A1" s="12" t="s">
+    <row r="1" ht="23.6" spans="1:54">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="42" t="s">
@@ -2954,13 +2956,13 @@
       <c r="H1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="60" t="s">
@@ -2969,114 +2971,110 @@
       <c r="M1" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="67" t="s">
+      <c r="N1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86"/>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AG1" s="86"/>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AO1" s="86"/>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AW1" s="86"/>
-      <c r="AX1" s="86"/>
-      <c r="AY1" s="86"/>
-      <c r="AZ1" s="86"/>
-      <c r="BA1" s="86"/>
-      <c r="BB1" s="86"/>
-      <c r="BC1" s="86"/>
-    </row>
-    <row r="2" ht="23.6" spans="1:55">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="16"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="W1" s="84"/>
+      <c r="X1" s="84"/>
+      <c r="Y1" s="84"/>
+      <c r="Z1" s="84"/>
+      <c r="AA1" s="84"/>
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="84"/>
+      <c r="AF1" s="84"/>
+      <c r="AG1" s="84"/>
+      <c r="AH1" s="84"/>
+      <c r="AI1" s="84"/>
+      <c r="AJ1" s="84"/>
+      <c r="AK1" s="84"/>
+      <c r="AL1" s="84"/>
+      <c r="AN1" s="84"/>
+      <c r="AO1" s="84"/>
+      <c r="AP1" s="84"/>
+      <c r="AQ1" s="84"/>
+      <c r="AR1" s="84"/>
+      <c r="AS1" s="84"/>
+      <c r="AT1" s="84"/>
+      <c r="AV1" s="84"/>
+      <c r="AW1" s="84"/>
+      <c r="AX1" s="84"/>
+      <c r="AY1" s="84"/>
+      <c r="AZ1" s="84"/>
+      <c r="BA1" s="84"/>
+      <c r="BB1" s="84"/>
+    </row>
+    <row r="2" ht="23.6" spans="1:54">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="15"/>
       <c r="E2" s="42"/>
       <c r="F2" s="43"/>
       <c r="G2" s="43"/>
       <c r="H2" s="43"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
       <c r="K2" s="61"/>
       <c r="L2" s="60"/>
-      <c r="M2" s="66"/>
+      <c r="M2" s="68"/>
       <c r="N2" s="69"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="X2" s="86"/>
-      <c r="Y2" s="86"/>
-      <c r="Z2" s="86"/>
-      <c r="AA2" s="86"/>
-      <c r="AB2" s="86"/>
-      <c r="AC2" s="86"/>
-      <c r="AD2" s="86"/>
-      <c r="AE2" s="86"/>
-      <c r="AG2" s="86"/>
-      <c r="AH2" s="86"/>
-      <c r="AI2" s="86"/>
-      <c r="AJ2" s="86"/>
-      <c r="AK2" s="86"/>
-      <c r="AL2" s="86"/>
-      <c r="AM2" s="86"/>
-      <c r="AO2" s="86"/>
-      <c r="AP2" s="86"/>
-      <c r="AQ2" s="86"/>
-      <c r="AR2" s="86"/>
-      <c r="AS2" s="86"/>
-      <c r="AT2" s="86"/>
-      <c r="AU2" s="86"/>
-      <c r="AW2" s="86"/>
-      <c r="AX2" s="86"/>
-      <c r="AY2" s="86"/>
-      <c r="AZ2" s="86"/>
-      <c r="BA2" s="86"/>
-      <c r="BB2" s="86"/>
-      <c r="BC2" s="86"/>
-    </row>
-    <row r="3" customFormat="1" ht="23.6" spans="1:55">
-      <c r="A3" s="17" t="s">
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="84"/>
+      <c r="Y2" s="84"/>
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AF2" s="84"/>
+      <c r="AG2" s="84"/>
+      <c r="AH2" s="84"/>
+      <c r="AI2" s="84"/>
+      <c r="AJ2" s="84"/>
+      <c r="AK2" s="84"/>
+      <c r="AL2" s="84"/>
+      <c r="AN2" s="84"/>
+      <c r="AO2" s="84"/>
+      <c r="AP2" s="84"/>
+      <c r="AQ2" s="84"/>
+      <c r="AR2" s="84"/>
+      <c r="AS2" s="84"/>
+      <c r="AT2" s="84"/>
+      <c r="AV2" s="84"/>
+      <c r="AW2" s="84"/>
+      <c r="AX2" s="84"/>
+      <c r="AY2" s="84"/>
+      <c r="AZ2" s="84"/>
+      <c r="BA2" s="84"/>
+      <c r="BB2" s="84"/>
+    </row>
+    <row r="3" customFormat="1" ht="23.6" spans="1:54">
+      <c r="A3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="C3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="D3" s="17" t="s">
         <v>17</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>18</v>
       </c>
       <c r="E3" s="44"/>
       <c r="F3" s="44">
@@ -3086,81 +3084,78 @@
         <v>32.53</v>
       </c>
       <c r="H3" s="44">
-        <v>39.33</v>
-      </c>
-      <c r="I3" s="21">
+        <f>(F3+F3*0.2)</f>
+        <v>40.944</v>
+      </c>
+      <c r="I3" s="20">
         <f t="shared" ref="I3:I44" si="0">(F3-G3)*100</f>
         <v>159</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="20">
         <f>FLOOR(1500/(F3-G3),100)</f>
         <v>900</v>
       </c>
       <c r="K3" s="62">
         <f t="shared" ref="K3:K11" si="1">(H3-F3)/(F3-G3)</f>
-        <v>3.27672955974844</v>
+        <v>4.29182389937108</v>
       </c>
       <c r="L3" s="63">
         <f t="shared" ref="L3:L14" si="2">(F3-G3)/F3</f>
         <v>0.0466002344665884</v>
       </c>
-      <c r="M3" s="71">
-        <f t="shared" ref="M3:M11" si="3">(H3-F3)/F3</f>
-        <v>0.152696365767878</v>
-      </c>
-      <c r="N3" s="72"/>
-      <c r="O3" s="73" t="s">
+      <c r="M3" s="70"/>
+      <c r="N3" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="84"/>
+      <c r="Y3" s="84"/>
+      <c r="Z3" s="84"/>
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="84"/>
+      <c r="AC3" s="84"/>
+      <c r="AD3" s="84"/>
+      <c r="AF3" s="84"/>
+      <c r="AG3" s="84"/>
+      <c r="AH3" s="84"/>
+      <c r="AI3" s="84"/>
+      <c r="AJ3" s="84"/>
+      <c r="AK3" s="84"/>
+      <c r="AL3" s="84"/>
+      <c r="AN3" s="84"/>
+      <c r="AO3" s="84"/>
+      <c r="AP3" s="84"/>
+      <c r="AQ3" s="84"/>
+      <c r="AR3" s="84"/>
+      <c r="AS3" s="84"/>
+      <c r="AT3" s="84"/>
+      <c r="AV3" s="84"/>
+      <c r="AW3" s="84"/>
+      <c r="AX3" s="84"/>
+      <c r="AY3" s="84"/>
+      <c r="AZ3" s="84"/>
+      <c r="BA3" s="84"/>
+      <c r="BB3" s="84"/>
+    </row>
+    <row r="4" customFormat="1" ht="23.6" spans="1:54">
+      <c r="A4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="68"/>
-      <c r="X3" s="86"/>
-      <c r="Y3" s="86"/>
-      <c r="Z3" s="86"/>
-      <c r="AA3" s="86"/>
-      <c r="AB3" s="86"/>
-      <c r="AC3" s="86"/>
-      <c r="AD3" s="86"/>
-      <c r="AE3" s="86"/>
-      <c r="AG3" s="86"/>
-      <c r="AH3" s="86"/>
-      <c r="AI3" s="86"/>
-      <c r="AJ3" s="86"/>
-      <c r="AK3" s="86"/>
-      <c r="AL3" s="86"/>
-      <c r="AM3" s="86"/>
-      <c r="AO3" s="86"/>
-      <c r="AP3" s="86"/>
-      <c r="AQ3" s="86"/>
-      <c r="AR3" s="86"/>
-      <c r="AS3" s="86"/>
-      <c r="AT3" s="86"/>
-      <c r="AU3" s="86"/>
-      <c r="AW3" s="86"/>
-      <c r="AX3" s="86"/>
-      <c r="AY3" s="86"/>
-      <c r="AZ3" s="86"/>
-      <c r="BA3" s="86"/>
-      <c r="BB3" s="86"/>
-      <c r="BC3" s="86"/>
-    </row>
-    <row r="4" customFormat="1" ht="23.6" spans="1:55">
-      <c r="A4" s="17" t="s">
+      <c r="B4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>22</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>23</v>
       </c>
       <c r="E4" s="44"/>
       <c r="F4" s="44">
@@ -3170,81 +3165,78 @@
         <v>30.89</v>
       </c>
       <c r="H4" s="44">
-        <v>36.22</v>
-      </c>
-      <c r="I4" s="21">
+        <f t="shared" ref="H4:H19" si="3">(F4+F4*0.2)</f>
+        <v>39.18</v>
+      </c>
+      <c r="I4" s="20">
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="20">
         <f t="shared" ref="J4:J21" si="4">FLOOR(1500/(F4-G4),100)</f>
         <v>800</v>
       </c>
       <c r="K4" s="62">
         <f t="shared" si="1"/>
-        <v>2.02840909090909</v>
+        <v>3.71022727272728</v>
       </c>
       <c r="L4" s="63">
         <f t="shared" si="2"/>
         <v>0.0539050535987748</v>
       </c>
-      <c r="M4" s="71">
-        <f t="shared" si="3"/>
-        <v>0.109341500765697</v>
-      </c>
-      <c r="N4" s="72"/>
-      <c r="O4" s="73" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
-      <c r="U4" s="68"/>
-      <c r="V4" s="68"/>
-      <c r="X4" s="86"/>
-      <c r="Y4" s="86"/>
-      <c r="Z4" s="86"/>
-      <c r="AA4" s="86"/>
-      <c r="AB4" s="86"/>
-      <c r="AC4" s="86"/>
-      <c r="AD4" s="86"/>
-      <c r="AE4" s="86"/>
-      <c r="AG4" s="86"/>
-      <c r="AH4" s="86"/>
-      <c r="AI4" s="86"/>
-      <c r="AJ4" s="86"/>
-      <c r="AK4" s="86"/>
-      <c r="AL4" s="86"/>
-      <c r="AM4" s="86"/>
-      <c r="AO4" s="86"/>
-      <c r="AP4" s="86"/>
-      <c r="AQ4" s="86"/>
-      <c r="AR4" s="86"/>
-      <c r="AS4" s="86"/>
-      <c r="AT4" s="86"/>
-      <c r="AU4" s="86"/>
-      <c r="AW4" s="86"/>
-      <c r="AX4" s="86"/>
-      <c r="AY4" s="86"/>
-      <c r="AZ4" s="86"/>
-      <c r="BA4" s="86"/>
-      <c r="BB4" s="86"/>
-      <c r="BC4" s="86"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="45" spans="1:16">
-      <c r="A5" s="17" t="s">
+      <c r="M4" s="70"/>
+      <c r="N4" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="67"/>
+      <c r="U4" s="67"/>
+      <c r="W4" s="84"/>
+      <c r="X4" s="84"/>
+      <c r="Y4" s="84"/>
+      <c r="Z4" s="84"/>
+      <c r="AA4" s="84"/>
+      <c r="AB4" s="84"/>
+      <c r="AC4" s="84"/>
+      <c r="AD4" s="84"/>
+      <c r="AF4" s="84"/>
+      <c r="AG4" s="84"/>
+      <c r="AH4" s="84"/>
+      <c r="AI4" s="84"/>
+      <c r="AJ4" s="84"/>
+      <c r="AK4" s="84"/>
+      <c r="AL4" s="84"/>
+      <c r="AN4" s="84"/>
+      <c r="AO4" s="84"/>
+      <c r="AP4" s="84"/>
+      <c r="AQ4" s="84"/>
+      <c r="AR4" s="84"/>
+      <c r="AS4" s="84"/>
+      <c r="AT4" s="84"/>
+      <c r="AV4" s="84"/>
+      <c r="AW4" s="84"/>
+      <c r="AX4" s="84"/>
+      <c r="AY4" s="84"/>
+      <c r="AZ4" s="84"/>
+      <c r="BA4" s="84"/>
+      <c r="BB4" s="84"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="45" spans="1:15">
+      <c r="A5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="19">
+        <v>44539</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="20">
-        <v>44539</v>
-      </c>
-      <c r="C5" s="18" t="s">
+      <c r="D5" s="20" t="s">
         <v>25</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>26</v>
       </c>
       <c r="E5" s="44"/>
       <c r="F5" s="44">
@@ -3254,46 +3246,43 @@
         <v>46.61</v>
       </c>
       <c r="H5" s="44">
-        <v>59.59</v>
-      </c>
-      <c r="I5" s="21">
+        <f t="shared" si="3"/>
+        <v>61.38</v>
+      </c>
+      <c r="I5" s="20">
         <f t="shared" si="0"/>
         <v>454</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="20">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="K5" s="62">
         <f t="shared" si="1"/>
-        <v>1.85903083700441</v>
+        <v>2.25330396475771</v>
       </c>
       <c r="L5" s="63">
         <f t="shared" si="2"/>
         <v>0.0887585532746823</v>
       </c>
-      <c r="M5" s="71">
-        <f t="shared" si="3"/>
-        <v>0.165004887585533</v>
-      </c>
-      <c r="N5" s="72"/>
-      <c r="O5" s="74" t="s">
+      <c r="M5" s="70"/>
+      <c r="N5" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="73"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="45" spans="1:15">
+      <c r="A6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="75"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="45" spans="1:16">
-      <c r="A6" s="17" t="s">
+      <c r="B6" s="19">
+        <v>44539</v>
+      </c>
+      <c r="C6" s="16">
+        <v>600779</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="B6" s="20">
-        <v>44539</v>
-      </c>
-      <c r="C6" s="17">
-        <v>600779</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>29</v>
       </c>
       <c r="E6" s="44"/>
       <c r="F6" s="45">
@@ -3302,47 +3291,44 @@
       <c r="G6" s="45">
         <v>137.88</v>
       </c>
-      <c r="H6" s="45">
-        <v>158.48</v>
-      </c>
-      <c r="I6" s="21">
+      <c r="H6" s="44">
+        <f t="shared" si="3"/>
+        <v>172.56</v>
+      </c>
+      <c r="I6" s="20">
         <f t="shared" si="0"/>
         <v>592.000000000002</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="20">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="K6" s="62">
         <f t="shared" si="1"/>
-        <v>2.47972972972972</v>
+        <v>4.85810810810809</v>
       </c>
       <c r="L6" s="63">
         <f t="shared" si="2"/>
         <v>0.0411682892906816</v>
       </c>
-      <c r="M6" s="71">
-        <f t="shared" si="3"/>
-        <v>0.102086230876217</v>
-      </c>
-      <c r="N6" s="72"/>
-      <c r="O6" s="74" t="s">
-        <v>27</v>
-      </c>
-      <c r="P6" s="75"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="45" spans="1:16">
-      <c r="A7" s="17" t="s">
+      <c r="M6" s="70"/>
+      <c r="N6" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="73"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="45" spans="1:15">
+      <c r="A7" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="19">
+        <v>44539</v>
+      </c>
+      <c r="C7" s="16">
+        <v>600803</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="B7" s="20">
-        <v>44539</v>
-      </c>
-      <c r="C7" s="17">
-        <v>600803</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>31</v>
       </c>
       <c r="E7" s="44"/>
       <c r="F7" s="45">
@@ -3351,47 +3337,44 @@
       <c r="G7" s="45">
         <v>19.09</v>
       </c>
-      <c r="H7" s="45">
-        <v>23.43</v>
-      </c>
-      <c r="I7" s="21">
+      <c r="H7" s="44">
+        <f t="shared" si="3"/>
+        <v>24.528</v>
+      </c>
+      <c r="I7" s="20">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="20">
         <f t="shared" si="4"/>
         <v>1100</v>
       </c>
       <c r="K7" s="62">
         <f t="shared" si="1"/>
-        <v>2.21481481481481</v>
+        <v>3.02814814814815</v>
       </c>
       <c r="L7" s="63">
         <f t="shared" si="2"/>
         <v>0.0660469667318983</v>
       </c>
-      <c r="M7" s="71">
-        <f t="shared" si="3"/>
-        <v>0.146281800391389</v>
-      </c>
-      <c r="N7" s="72"/>
-      <c r="O7" s="74" t="s">
-        <v>27</v>
-      </c>
-      <c r="P7" s="75"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="15" spans="1:16">
-      <c r="A8" s="17" t="s">
+      <c r="M7" s="70"/>
+      <c r="N7" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" s="73"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="15" spans="1:15">
+      <c r="A8" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="19">
+        <v>44539</v>
+      </c>
+      <c r="C8" s="21">
+        <v>600032</v>
+      </c>
+      <c r="D8" s="22" t="s">
         <v>32</v>
-      </c>
-      <c r="B8" s="20">
-        <v>44539</v>
-      </c>
-      <c r="C8" s="22">
-        <v>600032</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>33</v>
       </c>
       <c r="E8" s="46">
         <v>0.2</v>
@@ -3403,46 +3386,43 @@
         <v>15.5</v>
       </c>
       <c r="H8" s="44">
-        <v>20.72</v>
-      </c>
-      <c r="I8" s="21">
+        <f t="shared" si="3"/>
+        <v>20.628</v>
+      </c>
+      <c r="I8" s="20">
         <f t="shared" si="0"/>
         <v>169</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="20">
         <f t="shared" si="4"/>
         <v>800</v>
       </c>
       <c r="K8" s="62">
         <f t="shared" si="1"/>
-        <v>2.0887573964497</v>
+        <v>2.03431952662722</v>
       </c>
       <c r="L8" s="63">
         <f t="shared" si="2"/>
         <v>0.0983129726585225</v>
       </c>
-      <c r="M8" s="71">
-        <f t="shared" si="3"/>
-        <v>0.205351948807446</v>
-      </c>
-      <c r="N8" s="72"/>
-      <c r="O8" s="73" t="s">
-        <v>19</v>
-      </c>
-      <c r="P8" s="75"/>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="15" spans="1:15">
-      <c r="A9" s="17" t="s">
+      <c r="M8" s="70"/>
+      <c r="N8" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" s="73"/>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="15" spans="1:14">
+      <c r="A9" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="19">
+        <v>44539</v>
+      </c>
+      <c r="C9" s="23">
+        <v>603688</v>
+      </c>
+      <c r="D9" s="24" t="s">
         <v>34</v>
-      </c>
-      <c r="B9" s="20">
-        <v>44539</v>
-      </c>
-      <c r="C9" s="24">
-        <v>603688</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>35</v>
       </c>
       <c r="E9" s="47"/>
       <c r="F9" s="44">
@@ -3452,45 +3432,42 @@
         <v>58.51</v>
       </c>
       <c r="H9" s="44">
-        <v>65.72</v>
-      </c>
-      <c r="I9" s="21">
+        <f t="shared" si="3"/>
+        <v>77.16</v>
+      </c>
+      <c r="I9" s="20">
         <f t="shared" si="0"/>
         <v>579</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="20">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="K9" s="62">
         <f t="shared" si="1"/>
-        <v>0.24525043177893</v>
+        <v>2.22107081174439</v>
       </c>
       <c r="L9" s="63">
         <f t="shared" si="2"/>
         <v>0.0900466562986003</v>
       </c>
-      <c r="M9" s="71">
-        <f t="shared" si="3"/>
-        <v>0.0220839813374806</v>
-      </c>
-      <c r="N9" s="72"/>
-      <c r="O9" s="73" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="15" spans="1:15">
-      <c r="A10" s="17" t="s">
+      <c r="M9" s="70"/>
+      <c r="N9" s="71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="15" spans="1:14">
+      <c r="A10" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="19">
+        <v>44539</v>
+      </c>
+      <c r="C10" s="21">
+        <v>601677</v>
+      </c>
+      <c r="D10" s="25" t="s">
         <v>36</v>
-      </c>
-      <c r="B10" s="20">
-        <v>44539</v>
-      </c>
-      <c r="C10" s="22">
-        <v>601677</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>37</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="44">
@@ -3500,45 +3477,42 @@
         <v>35.91</v>
       </c>
       <c r="H10" s="44">
-        <v>44.28</v>
-      </c>
-      <c r="I10" s="21">
+        <f t="shared" si="3"/>
+        <v>46.98</v>
+      </c>
+      <c r="I10" s="20">
         <f t="shared" si="0"/>
         <v>324</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="20">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
       <c r="K10" s="62">
         <f t="shared" si="1"/>
-        <v>1.58333333333333</v>
+        <v>2.41666666666666</v>
       </c>
       <c r="L10" s="63">
         <f t="shared" si="2"/>
         <v>0.0827586206896552</v>
       </c>
-      <c r="M10" s="71">
-        <f t="shared" si="3"/>
-        <v>0.131034482758621</v>
-      </c>
-      <c r="N10" s="72"/>
-      <c r="O10" s="73" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="15" spans="1:16">
-      <c r="A11" s="17" t="s">
+      <c r="M10" s="70"/>
+      <c r="N10" s="71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="15" spans="1:15">
+      <c r="A11" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="19">
+        <v>44539</v>
+      </c>
+      <c r="C11" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="20">
-        <v>44539</v>
-      </c>
-      <c r="C11" s="87" t="s">
+      <c r="D11" s="25" t="s">
         <v>39</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>40</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="44">
@@ -3548,46 +3522,43 @@
         <v>111.17</v>
       </c>
       <c r="H11" s="44">
-        <v>131.73</v>
-      </c>
-      <c r="I11" s="21">
+        <f t="shared" si="3"/>
+        <v>141.36</v>
+      </c>
+      <c r="I11" s="20">
         <f t="shared" si="0"/>
         <v>663</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="20">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="K11" s="62">
         <f t="shared" si="1"/>
-        <v>2.10105580693816</v>
+        <v>3.55354449472097</v>
       </c>
       <c r="L11" s="63">
         <f t="shared" si="2"/>
         <v>0.0562818336162988</v>
       </c>
-      <c r="M11" s="71">
-        <f t="shared" si="3"/>
-        <v>0.118251273344652</v>
-      </c>
-      <c r="N11" s="72"/>
-      <c r="O11" s="73" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" s="75"/>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="30" spans="1:15">
-      <c r="A12" s="17" t="s">
+      <c r="M11" s="70"/>
+      <c r="N11" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" s="73"/>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="30" spans="1:14">
+      <c r="A12" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="19">
+        <v>44542</v>
+      </c>
+      <c r="C12" s="16">
+        <v>600955</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>41</v>
-      </c>
-      <c r="B12" s="20">
-        <v>44542</v>
-      </c>
-      <c r="C12" s="17">
-        <v>600955</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>42</v>
       </c>
       <c r="E12" s="44"/>
       <c r="F12" s="44">
@@ -3596,44 +3567,42 @@
       <c r="G12" s="44">
         <v>46.7</v>
       </c>
-      <c r="H12" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="21">
+      <c r="H12" s="44">
+        <f t="shared" si="3"/>
+        <v>59.28</v>
+      </c>
+      <c r="I12" s="20">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="20">
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
       <c r="K12" s="62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L12" s="63">
         <f t="shared" si="2"/>
         <v>0.054655870445344</v>
       </c>
-      <c r="M12" s="71" t="s">
+      <c r="M12" s="70"/>
+      <c r="N12" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="N12" s="72"/>
-      <c r="O12" s="74" t="s">
+    </row>
+    <row r="13" s="1" customFormat="1" ht="15" spans="1:15">
+      <c r="A13" s="16" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="15" spans="1:16">
-      <c r="A13" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="20">
+      <c r="B13" s="19">
         <v>44542</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>22</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>23</v>
       </c>
       <c r="E13" s="44"/>
       <c r="F13" s="44">
@@ -3643,46 +3612,43 @@
         <v>34.68</v>
       </c>
       <c r="H13" s="44">
-        <v>46.05</v>
-      </c>
-      <c r="I13" s="21">
+        <f t="shared" si="3"/>
+        <v>45.276</v>
+      </c>
+      <c r="I13" s="20">
         <f t="shared" si="0"/>
         <v>305</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="20">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
       <c r="K13" s="62">
         <f>(H13-F13)/(F13-G13)</f>
-        <v>2.72786885245902</v>
+        <v>2.47409836065574</v>
       </c>
       <c r="L13" s="63">
         <f t="shared" si="2"/>
         <v>0.0808375298171216</v>
       </c>
-      <c r="M13" s="71">
-        <f t="shared" ref="M13:M44" si="5">(H13-F13)/F13</f>
-        <v>0.220514179697853</v>
-      </c>
-      <c r="N13" s="72"/>
-      <c r="O13" s="73" t="s">
-        <v>19</v>
-      </c>
-      <c r="P13" s="75"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="15" spans="1:16">
-      <c r="A14" s="17" t="s">
+      <c r="M13" s="70"/>
+      <c r="N13" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="O13" s="73"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="15" spans="1:15">
+      <c r="A14" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="19">
+        <v>44525</v>
+      </c>
+      <c r="C14" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="20">
-        <v>44525</v>
-      </c>
-      <c r="C14" s="88" t="s">
+      <c r="D14" s="16" t="s">
         <v>47</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>48</v>
       </c>
       <c r="E14" s="44"/>
       <c r="F14" s="44">
@@ -3692,46 +3658,43 @@
         <v>66.88</v>
       </c>
       <c r="H14" s="44">
-        <v>84.94</v>
-      </c>
-      <c r="I14" s="21">
+        <f t="shared" si="3"/>
+        <v>85.176</v>
+      </c>
+      <c r="I14" s="20">
         <f t="shared" si="0"/>
         <v>410.000000000001</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="20">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="K14" s="62">
-        <f t="shared" ref="K14:K44" si="6">(H14-F14)/(F14-G14)</f>
-        <v>3.40487804878048</v>
+        <f t="shared" ref="K14:K44" si="5">(H14-F14)/(F14-G14)</f>
+        <v>3.46243902439024</v>
       </c>
       <c r="L14" s="63">
-        <f t="shared" ref="L14:L44" si="7">(F14-G14)/F14</f>
+        <f t="shared" ref="L14:L45" si="6">(F14-G14)/F14</f>
         <v>0.0577627500704425</v>
       </c>
-      <c r="M14" s="71">
-        <f t="shared" si="5"/>
-        <v>0.196675119752043</v>
-      </c>
-      <c r="N14" s="72"/>
-      <c r="O14" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="P14" s="75"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="15" spans="1:16">
-      <c r="A15" s="17" t="s">
+      <c r="M14" s="70"/>
+      <c r="N14" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" s="73"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="15" spans="1:15">
+      <c r="A15" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="19">
+        <v>44529</v>
+      </c>
+      <c r="C15" s="16">
+        <v>603010</v>
+      </c>
+      <c r="D15" s="16" t="s">
         <v>49</v>
-      </c>
-      <c r="B15" s="20">
-        <v>44529</v>
-      </c>
-      <c r="C15" s="17">
-        <v>603010</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>50</v>
       </c>
       <c r="E15" s="44"/>
       <c r="F15" s="44">
@@ -3741,46 +3704,43 @@
         <v>27.72</v>
       </c>
       <c r="H15" s="44">
-        <v>34.93</v>
-      </c>
-      <c r="I15" s="21">
+        <f t="shared" si="3"/>
+        <v>35.724</v>
+      </c>
+      <c r="I15" s="20">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="20">
         <f t="shared" si="4"/>
         <v>700</v>
       </c>
       <c r="K15" s="62">
+        <f t="shared" si="5"/>
+        <v>2.90439024390244</v>
+      </c>
+      <c r="L15" s="63">
         <f t="shared" si="6"/>
-        <v>2.51707317073171</v>
-      </c>
-      <c r="L15" s="63">
-        <f t="shared" si="7"/>
         <v>0.0688612697346322</v>
       </c>
-      <c r="M15" s="71">
-        <f t="shared" si="5"/>
-        <v>0.173328854551562</v>
-      </c>
-      <c r="N15" s="72"/>
-      <c r="O15" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="P15" s="75"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="15" spans="1:16">
-      <c r="A16" s="17" t="s">
+      <c r="M15" s="70"/>
+      <c r="N15" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="O15" s="73"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="15" spans="1:15">
+      <c r="A16" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="19">
+        <v>44522</v>
+      </c>
+      <c r="C16" s="16">
+        <v>605016</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>51</v>
-      </c>
-      <c r="B16" s="20">
-        <v>44522</v>
-      </c>
-      <c r="C16" s="17">
-        <v>605016</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>52</v>
       </c>
       <c r="E16" s="44"/>
       <c r="F16" s="44">
@@ -3790,46 +3750,43 @@
         <v>29.35</v>
       </c>
       <c r="H16" s="44">
-        <v>38.71</v>
-      </c>
-      <c r="I16" s="21">
+        <f t="shared" si="3"/>
+        <v>36.792</v>
+      </c>
+      <c r="I16" s="20">
         <f t="shared" si="0"/>
         <v>131</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="20">
         <f t="shared" si="4"/>
         <v>1100</v>
       </c>
       <c r="K16" s="62">
+        <f t="shared" si="5"/>
+        <v>4.68091603053436</v>
+      </c>
+      <c r="L16" s="63">
         <f t="shared" si="6"/>
-        <v>6.14503816793894</v>
-      </c>
-      <c r="L16" s="63">
-        <f t="shared" si="7"/>
         <v>0.042726679712981</v>
       </c>
-      <c r="M16" s="71">
-        <f t="shared" si="5"/>
-        <v>0.262557077625571</v>
-      </c>
-      <c r="N16" s="72"/>
-      <c r="O16" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="P16" s="75"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="15" spans="1:16">
-      <c r="A17" s="17" t="s">
+      <c r="M16" s="70"/>
+      <c r="N16" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="O16" s="73"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="15" spans="1:15">
+      <c r="A17" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="19">
+        <v>44517</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="20">
-        <v>44517</v>
-      </c>
-      <c r="C17" s="18" t="s">
+      <c r="D17" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>55</v>
       </c>
       <c r="E17" s="44"/>
       <c r="F17" s="44">
@@ -3839,46 +3796,43 @@
         <v>24.68</v>
       </c>
       <c r="H17" s="44">
-        <v>32.49</v>
-      </c>
-      <c r="I17" s="21">
+        <f t="shared" si="3"/>
+        <v>31.44</v>
+      </c>
+      <c r="I17" s="20">
         <f t="shared" si="0"/>
         <v>152</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J17" s="20">
         <f t="shared" si="4"/>
         <v>900</v>
       </c>
       <c r="K17" s="62">
+        <f t="shared" si="5"/>
+        <v>3.44736842105263</v>
+      </c>
+      <c r="L17" s="63">
         <f t="shared" si="6"/>
-        <v>4.13815789473685</v>
-      </c>
-      <c r="L17" s="63">
-        <f t="shared" si="7"/>
         <v>0.0580152671755725</v>
       </c>
-      <c r="M17" s="71">
-        <f t="shared" si="5"/>
-        <v>0.240076335877863</v>
-      </c>
-      <c r="N17" s="72"/>
-      <c r="O17" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="P17" s="75"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="15" spans="1:16">
-      <c r="A18" s="17" t="s">
+      <c r="M17" s="70"/>
+      <c r="N17" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="O17" s="73"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="15" spans="1:15">
+      <c r="A18" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="19">
+        <v>44533</v>
+      </c>
+      <c r="C18" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="20">
-        <v>44533</v>
-      </c>
-      <c r="C18" s="88" t="s">
+      <c r="D18" s="16" t="s">
         <v>57</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>58</v>
       </c>
       <c r="E18" s="44"/>
       <c r="F18" s="44">
@@ -3888,46 +3842,43 @@
         <v>26.31</v>
       </c>
       <c r="H18" s="44">
-        <v>32.36</v>
-      </c>
-      <c r="I18" s="21">
+        <f t="shared" si="3"/>
+        <v>34.584</v>
+      </c>
+      <c r="I18" s="20">
         <f t="shared" si="0"/>
         <v>251</v>
       </c>
-      <c r="J18" s="21">
+      <c r="J18" s="20">
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
       <c r="K18" s="62">
+        <f t="shared" si="5"/>
+        <v>2.29641434262948</v>
+      </c>
+      <c r="L18" s="63">
         <f t="shared" si="6"/>
-        <v>1.41035856573705</v>
-      </c>
-      <c r="L18" s="63">
-        <f t="shared" si="7"/>
         <v>0.0870922970159612</v>
       </c>
-      <c r="M18" s="71">
-        <f t="shared" si="5"/>
-        <v>0.122831367106176</v>
-      </c>
-      <c r="N18" s="72"/>
-      <c r="O18" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="P18" s="75"/>
-    </row>
-    <row r="19" s="2" customFormat="1" ht="15" spans="1:15">
-      <c r="A19" s="17" t="s">
+      <c r="M18" s="70"/>
+      <c r="N18" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="O18" s="73"/>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="15" spans="1:14">
+      <c r="A19" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="26" t="s">
         <v>17</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>18</v>
       </c>
       <c r="E19" s="44">
         <v>0.671</v>
@@ -3938,46 +3889,43 @@
       <c r="G19" s="49">
         <v>36.65</v>
       </c>
-      <c r="H19" s="49">
-        <v>40.7</v>
-      </c>
-      <c r="I19" s="21">
+      <c r="H19" s="44">
+        <f t="shared" si="3"/>
+        <v>46.668</v>
+      </c>
+      <c r="I19" s="20">
         <f t="shared" si="0"/>
         <v>224</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19" s="20">
         <f t="shared" si="4"/>
         <v>600</v>
       </c>
       <c r="K19" s="62">
+        <f t="shared" si="5"/>
+        <v>3.47232142857142</v>
+      </c>
+      <c r="L19" s="63">
         <f t="shared" si="6"/>
-        <v>0.808035714285715</v>
-      </c>
-      <c r="L19" s="63">
-        <f t="shared" si="7"/>
         <v>0.0575983543327334</v>
       </c>
-      <c r="M19" s="71">
-        <f t="shared" si="5"/>
-        <v>0.0465415273849319</v>
-      </c>
-      <c r="N19" s="72"/>
-      <c r="O19" s="76" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" s="2" customFormat="1" ht="30" spans="1:15">
-      <c r="A20" s="17" t="s">
+      <c r="M19" s="70"/>
+      <c r="N19" s="74" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" ht="30" spans="1:14">
+      <c r="A20" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="27">
+        <v>44545</v>
+      </c>
+      <c r="C20" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="28">
-        <v>44545</v>
-      </c>
-      <c r="C20" s="29" t="s">
+      <c r="D20" s="29" t="s">
         <v>62</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>63</v>
       </c>
       <c r="E20" s="50"/>
       <c r="F20" s="49">
@@ -3986,46 +3934,43 @@
       <c r="G20" s="49">
         <v>25.3</v>
       </c>
-      <c r="H20" s="49">
-        <v>31.94</v>
-      </c>
-      <c r="I20" s="21">
+      <c r="H20" s="44">
+        <f t="shared" ref="H20:H46" si="7">(F20+F20*0.2)</f>
+        <v>33.276</v>
+      </c>
+      <c r="I20" s="20">
         <f t="shared" si="0"/>
         <v>243</v>
       </c>
-      <c r="J20" s="21">
+      <c r="J20" s="20">
         <f t="shared" si="4"/>
         <v>600</v>
       </c>
       <c r="K20" s="62">
+        <f t="shared" si="5"/>
+        <v>2.28230452674897</v>
+      </c>
+      <c r="L20" s="63">
         <f t="shared" si="6"/>
-        <v>1.73251028806584</v>
-      </c>
-      <c r="L20" s="63">
-        <f t="shared" si="7"/>
         <v>0.0876307248467364</v>
       </c>
-      <c r="M20" s="71">
-        <f t="shared" si="5"/>
-        <v>0.151821132347638</v>
-      </c>
-      <c r="N20" s="72"/>
-      <c r="O20" s="77" t="s">
+      <c r="M20" s="70"/>
+      <c r="N20" s="75" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="30" spans="1:14">
+      <c r="A21" s="16" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="21" s="2" customFormat="1" ht="30" spans="1:15">
-      <c r="A21" s="17" t="s">
+      <c r="B21" s="27">
+        <v>44545</v>
+      </c>
+      <c r="C21" s="30">
+        <v>600821</v>
+      </c>
+      <c r="D21" s="29" t="s">
         <v>65</v>
-      </c>
-      <c r="B21" s="28">
-        <v>44545</v>
-      </c>
-      <c r="C21" s="31">
-        <v>600821</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>66</v>
       </c>
       <c r="E21" s="50"/>
       <c r="F21" s="49">
@@ -4034,46 +3979,43 @@
       <c r="G21" s="49">
         <v>10.9</v>
       </c>
-      <c r="H21" s="49">
-        <v>14.54</v>
-      </c>
-      <c r="I21" s="21">
+      <c r="H21" s="44">
+        <f t="shared" si="7"/>
+        <v>14.1</v>
+      </c>
+      <c r="I21" s="20">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="J21" s="21">
+      <c r="J21" s="20">
         <f t="shared" si="4"/>
         <v>1700</v>
       </c>
       <c r="K21" s="62">
+        <f t="shared" si="5"/>
+        <v>2.76470588235294</v>
+      </c>
+      <c r="L21" s="63">
         <f t="shared" si="6"/>
-        <v>3.28235294117647</v>
-      </c>
-      <c r="L21" s="63">
-        <f t="shared" si="7"/>
         <v>0.0723404255319149</v>
       </c>
-      <c r="M21" s="71">
-        <f t="shared" si="5"/>
-        <v>0.237446808510638</v>
-      </c>
-      <c r="N21" s="72"/>
-      <c r="O21" s="77" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" s="2" customFormat="1" ht="44" spans="1:15">
-      <c r="A22" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="28">
+      <c r="M21" s="70"/>
+      <c r="N21" s="75" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="44" spans="1:14">
+      <c r="A22" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="27">
         <v>44553</v>
       </c>
-      <c r="C22" s="89" t="s">
+      <c r="C22" s="87" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="29" t="s">
         <v>47</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>48</v>
       </c>
       <c r="E22" s="50">
         <v>10.68</v>
@@ -4084,46 +4026,43 @@
       <c r="G22" s="49">
         <v>70.4</v>
       </c>
-      <c r="H22" s="49">
-        <v>83.27</v>
-      </c>
-      <c r="I22" s="21">
+      <c r="H22" s="44">
+        <f t="shared" si="7"/>
+        <v>93.576</v>
+      </c>
+      <c r="I22" s="20">
         <f t="shared" si="0"/>
         <v>758</v>
       </c>
-      <c r="J22" s="21">
+      <c r="J22" s="20">
         <f t="shared" ref="J22:J44" si="8">FLOOR(1500/(F22-G22),100)</f>
         <v>100</v>
       </c>
       <c r="K22" s="62">
+        <f t="shared" si="5"/>
+        <v>2.05751978891821</v>
+      </c>
+      <c r="L22" s="63">
         <f t="shared" si="6"/>
-        <v>0.697889182058047</v>
-      </c>
-      <c r="L22" s="63">
-        <f t="shared" si="7"/>
         <v>0.0972044113875352</v>
       </c>
-      <c r="M22" s="71">
-        <f t="shared" si="5"/>
-        <v>0.0678379071556808</v>
-      </c>
-      <c r="N22" s="72"/>
-      <c r="O22" s="78" t="s">
+      <c r="M22" s="70"/>
+      <c r="N22" s="76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" s="3" customFormat="1" ht="44" spans="1:14">
+      <c r="A23" s="16" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="23" s="3" customFormat="1" ht="44" spans="1:15">
-      <c r="A23" s="17" t="s">
+      <c r="B23" s="27">
+        <v>44546</v>
+      </c>
+      <c r="C23" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="28">
-        <v>44546</v>
-      </c>
-      <c r="C23" s="87" t="s">
+      <c r="D23" s="21" t="s">
         <v>70</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>71</v>
       </c>
       <c r="E23" s="46"/>
       <c r="F23" s="49">
@@ -4132,46 +4071,43 @@
       <c r="G23" s="49">
         <v>260.02</v>
       </c>
-      <c r="H23" s="49">
-        <v>304.23</v>
-      </c>
-      <c r="I23" s="21">
+      <c r="H23" s="44">
+        <f t="shared" si="7"/>
+        <v>333.6</v>
+      </c>
+      <c r="I23" s="20">
         <f t="shared" si="0"/>
         <v>1798</v>
       </c>
-      <c r="J23" s="21">
+      <c r="J23" s="20">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K23" s="62">
+        <f t="shared" si="5"/>
+        <v>3.09232480533926</v>
+      </c>
+      <c r="L23" s="63">
         <f t="shared" si="6"/>
-        <v>1.45884315906563</v>
-      </c>
-      <c r="L23" s="63">
-        <f t="shared" si="7"/>
         <v>0.0646762589928058</v>
       </c>
-      <c r="M23" s="71">
-        <f t="shared" si="5"/>
-        <v>0.0943525179856116</v>
-      </c>
-      <c r="N23" s="72"/>
-      <c r="O23" s="77" t="s">
+      <c r="M23" s="70"/>
+      <c r="N23" s="75" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="15" spans="1:14">
+      <c r="A24" s="16" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="24" s="2" customFormat="1" ht="15" spans="1:15">
-      <c r="A24" s="17" t="s">
+      <c r="B24" s="27">
+        <v>44547</v>
+      </c>
+      <c r="C24" s="31">
+        <v>600976</v>
+      </c>
+      <c r="D24" s="32" t="s">
         <v>73</v>
-      </c>
-      <c r="B24" s="28">
-        <v>44547</v>
-      </c>
-      <c r="C24" s="32">
-        <v>600976</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>74</v>
       </c>
       <c r="E24" s="51">
         <v>1.69</v>
@@ -4182,46 +4118,43 @@
       <c r="G24" s="49">
         <v>59.29</v>
       </c>
-      <c r="H24" s="49">
-        <v>67.16</v>
-      </c>
-      <c r="I24" s="21">
+      <c r="H24" s="44">
+        <f t="shared" si="7"/>
+        <v>77.616</v>
+      </c>
+      <c r="I24" s="20">
         <f t="shared" si="0"/>
         <v>539.000000000001</v>
       </c>
-      <c r="J24" s="21">
+      <c r="J24" s="20">
         <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="K24" s="62">
+        <f t="shared" si="5"/>
+        <v>2.4</v>
+      </c>
+      <c r="L24" s="63">
         <f t="shared" si="6"/>
-        <v>0.460111317254172</v>
-      </c>
-      <c r="L24" s="63">
-        <f t="shared" si="7"/>
         <v>0.0833333333333334</v>
       </c>
-      <c r="M24" s="71">
-        <f t="shared" si="5"/>
-        <v>0.038342609771181</v>
-      </c>
-      <c r="N24" s="72"/>
-      <c r="O24" s="79" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" s="2" customFormat="1" ht="58" spans="1:15">
-      <c r="A25" s="17" t="s">
+      <c r="M24" s="70"/>
+      <c r="N24" s="77" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" ht="58" spans="1:14">
+      <c r="A25" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="27">
+        <v>44547</v>
+      </c>
+      <c r="C25" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="28">
-        <v>44547</v>
-      </c>
-      <c r="C25" s="87" t="s">
+      <c r="D25" s="21" t="s">
         <v>76</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>77</v>
       </c>
       <c r="E25" s="46">
         <v>1.58</v>
@@ -4232,46 +4165,43 @@
       <c r="G25" s="49">
         <v>36.13</v>
       </c>
-      <c r="H25" s="49">
-        <v>46.32</v>
-      </c>
-      <c r="I25" s="21">
+      <c r="H25" s="44">
+        <f t="shared" si="7"/>
+        <v>47.268</v>
+      </c>
+      <c r="I25" s="20">
         <f t="shared" si="0"/>
         <v>326</v>
       </c>
-      <c r="J25" s="21">
+      <c r="J25" s="20">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
       <c r="K25" s="62">
+        <f t="shared" si="5"/>
+        <v>2.41656441717792</v>
+      </c>
+      <c r="L25" s="63">
         <f t="shared" si="6"/>
-        <v>2.12576687116565</v>
-      </c>
-      <c r="L25" s="63">
-        <f t="shared" si="7"/>
         <v>0.0827621223660827</v>
       </c>
-      <c r="M25" s="71">
-        <f t="shared" si="5"/>
-        <v>0.175932977913176</v>
-      </c>
-      <c r="N25" s="72"/>
-      <c r="O25" s="77" t="s">
+      <c r="M25" s="70"/>
+      <c r="N25" s="75" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" ht="58" spans="1:14">
+      <c r="A26" s="16" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="26" s="2" customFormat="1" ht="58" spans="1:15">
-      <c r="A26" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="28">
+      <c r="B26" s="27">
         <v>44549</v>
       </c>
-      <c r="C26" s="87" t="s">
+      <c r="C26" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="25" t="s">
         <v>39</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>40</v>
       </c>
       <c r="E26" s="48"/>
       <c r="F26" s="49">
@@ -4280,46 +4210,43 @@
       <c r="G26" s="49">
         <v>110.08</v>
       </c>
-      <c r="H26" s="49">
-        <v>131.77</v>
-      </c>
-      <c r="I26" s="21">
+      <c r="H26" s="44">
+        <f t="shared" si="7"/>
+        <v>141.9</v>
+      </c>
+      <c r="I26" s="20">
         <f t="shared" si="0"/>
         <v>817</v>
       </c>
-      <c r="J26" s="21">
+      <c r="J26" s="20">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="K26" s="62">
+        <f t="shared" si="5"/>
+        <v>2.89473684210526</v>
+      </c>
+      <c r="L26" s="63">
         <f t="shared" si="6"/>
-        <v>1.65483476132191</v>
-      </c>
-      <c r="L26" s="63">
-        <f t="shared" si="7"/>
         <v>0.0690909090909091</v>
       </c>
-      <c r="M26" s="71">
-        <f t="shared" si="5"/>
-        <v>0.114334038054968</v>
-      </c>
-      <c r="N26" s="72"/>
-      <c r="O26" s="77" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" ht="44" spans="1:15">
-      <c r="A27" s="17" t="s">
+      <c r="M26" s="70"/>
+      <c r="N26" s="75" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" ht="44" spans="1:14">
+      <c r="A27" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="27">
+        <v>44549</v>
+      </c>
+      <c r="C27" s="31">
+        <v>603605</v>
+      </c>
+      <c r="D27" s="31" t="s">
         <v>80</v>
-      </c>
-      <c r="B27" s="28">
-        <v>44549</v>
-      </c>
-      <c r="C27" s="32">
-        <v>603605</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>81</v>
       </c>
       <c r="E27" s="51"/>
       <c r="F27" s="52">
@@ -4328,46 +4255,43 @@
       <c r="G27" s="52">
         <v>198</v>
       </c>
-      <c r="H27" s="52">
-        <v>236.01</v>
-      </c>
-      <c r="I27" s="21">
+      <c r="H27" s="44">
+        <f t="shared" si="7"/>
+        <v>258</v>
+      </c>
+      <c r="I27" s="20">
         <f t="shared" si="0"/>
         <v>1700</v>
       </c>
-      <c r="J27" s="21">
+      <c r="J27" s="20">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K27" s="62">
+        <f t="shared" si="5"/>
+        <v>2.52941176470588</v>
+      </c>
+      <c r="L27" s="63">
         <f t="shared" si="6"/>
-        <v>1.23588235294118</v>
-      </c>
-      <c r="L27" s="63">
-        <f t="shared" si="7"/>
         <v>0.0790697674418605</v>
       </c>
-      <c r="M27" s="71">
-        <f t="shared" si="5"/>
-        <v>0.0977209302325581</v>
-      </c>
-      <c r="N27" s="72"/>
-      <c r="O27" s="77" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" ht="15" spans="1:15">
-      <c r="A28" s="17" t="s">
+      <c r="M27" s="70"/>
+      <c r="N27" s="75" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" ht="15" spans="1:14">
+      <c r="A28" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="27">
+        <v>44549</v>
+      </c>
+      <c r="C28" s="31">
+        <v>603995</v>
+      </c>
+      <c r="D28" s="32" t="s">
         <v>82</v>
-      </c>
-      <c r="B28" s="28">
-        <v>44549</v>
-      </c>
-      <c r="C28" s="32">
-        <v>603995</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>83</v>
       </c>
       <c r="E28" s="53">
         <v>1.87</v>
@@ -4378,49 +4302,46 @@
       <c r="G28" s="52">
         <v>52</v>
       </c>
-      <c r="H28" s="52">
-        <v>58.12</v>
-      </c>
-      <c r="I28" s="21">
+      <c r="H28" s="44">
+        <f t="shared" si="7"/>
+        <v>67.188</v>
+      </c>
+      <c r="I28" s="20">
         <f t="shared" si="0"/>
         <v>399</v>
       </c>
-      <c r="J28" s="21">
+      <c r="J28" s="20">
         <f t="shared" si="8"/>
         <v>300</v>
       </c>
       <c r="K28" s="62">
+        <f t="shared" si="5"/>
+        <v>2.80651629072682</v>
+      </c>
+      <c r="L28" s="63">
         <f t="shared" si="6"/>
-        <v>0.533834586466164</v>
-      </c>
-      <c r="L28" s="63">
-        <f t="shared" si="7"/>
         <v>0.0712627254866941</v>
       </c>
-      <c r="M28" s="71">
-        <f t="shared" si="5"/>
-        <v>0.0380425075906411</v>
-      </c>
-      <c r="N28" s="72">
+      <c r="M28" s="70">
         <f>F28*J28</f>
         <v>16797</v>
       </c>
-      <c r="O28" s="80" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" ht="30" spans="1:15">
-      <c r="A29" s="17" t="s">
+      <c r="N28" s="78" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" ht="30" spans="1:14">
+      <c r="A29" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="27">
+        <v>44549</v>
+      </c>
+      <c r="C29" s="21">
+        <v>603267</v>
+      </c>
+      <c r="D29" s="21" t="s">
         <v>84</v>
-      </c>
-      <c r="B29" s="28">
-        <v>44549</v>
-      </c>
-      <c r="C29" s="22">
-        <v>603267</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>85</v>
       </c>
       <c r="E29" s="46"/>
       <c r="F29" s="52">
@@ -4429,49 +4350,46 @@
       <c r="G29" s="52">
         <v>170.6</v>
       </c>
-      <c r="H29" s="52">
-        <v>203.32</v>
-      </c>
-      <c r="I29" s="21">
+      <c r="H29" s="44">
+        <f t="shared" si="7"/>
+        <v>220.56</v>
+      </c>
+      <c r="I29" s="20">
         <f t="shared" si="0"/>
         <v>1320</v>
       </c>
-      <c r="J29" s="21">
+      <c r="J29" s="20">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="K29" s="62">
+        <f t="shared" si="5"/>
+        <v>2.78484848484848</v>
+      </c>
+      <c r="L29" s="63">
         <f t="shared" si="6"/>
-        <v>1.47878787878788</v>
-      </c>
-      <c r="L29" s="63">
-        <f t="shared" si="7"/>
         <v>0.071817192600653</v>
       </c>
-      <c r="M29" s="71">
-        <f t="shared" si="5"/>
-        <v>0.10620239390642</v>
-      </c>
-      <c r="N29" s="72">
-        <f t="shared" ref="N29:N43" si="9">F29*J29</f>
+      <c r="M29" s="70">
+        <f t="shared" ref="M29:M44" si="9">F29*J29</f>
         <v>18380</v>
       </c>
-      <c r="O29" s="77" t="s">
+      <c r="N29" s="75" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" ht="15" spans="1:14">
+      <c r="A30" s="16" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="30" ht="15" spans="1:15">
-      <c r="A30" s="17" t="s">
+      <c r="B30" s="27">
+        <v>44549</v>
+      </c>
+      <c r="C30" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="28">
-        <v>44549</v>
-      </c>
-      <c r="C30" s="90" t="s">
+      <c r="D30" s="33" t="s">
         <v>88</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>89</v>
       </c>
       <c r="E30" s="51">
         <v>1.27</v>
@@ -4482,49 +4400,46 @@
       <c r="G30" s="52">
         <v>26</v>
       </c>
-      <c r="H30" s="52">
-        <v>29.06</v>
-      </c>
-      <c r="I30" s="21">
+      <c r="H30" s="44">
+        <f t="shared" si="7"/>
+        <v>33.216</v>
+      </c>
+      <c r="I30" s="20">
         <f t="shared" si="0"/>
         <v>168</v>
       </c>
-      <c r="J30" s="21">
+      <c r="J30" s="20">
         <f t="shared" si="8"/>
         <v>800</v>
       </c>
       <c r="K30" s="62">
+        <f t="shared" si="5"/>
+        <v>3.2952380952381</v>
+      </c>
+      <c r="L30" s="63">
         <f t="shared" si="6"/>
-        <v>0.821428571428571</v>
-      </c>
-      <c r="L30" s="63">
-        <f t="shared" si="7"/>
         <v>0.0606936416184971</v>
       </c>
-      <c r="M30" s="71">
-        <f t="shared" si="5"/>
-        <v>0.0498554913294797</v>
-      </c>
-      <c r="N30" s="72">
+      <c r="M30" s="70">
         <f t="shared" si="9"/>
         <v>22144</v>
       </c>
-      <c r="O30" s="79" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" s="4" customFormat="1" ht="15" spans="1:15">
-      <c r="A31" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31" s="35">
+      <c r="N30" s="77" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" s="4" customFormat="1" ht="15" spans="1:14">
+      <c r="A31" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="34">
         <v>44549</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C31" s="21">
         <v>601677</v>
       </c>
-      <c r="D31" s="36" t="s">
-        <v>37</v>
+      <c r="D31" s="35" t="s">
+        <v>36</v>
       </c>
       <c r="E31" s="48">
         <v>2.12</v>
@@ -4535,49 +4450,46 @@
       <c r="G31" s="52">
         <v>35.6</v>
       </c>
-      <c r="H31" s="52">
-        <v>44.92</v>
-      </c>
-      <c r="I31" s="21">
+      <c r="H31" s="44">
+        <f t="shared" si="7"/>
+        <v>46.992</v>
+      </c>
+      <c r="I31" s="20">
         <f t="shared" si="0"/>
         <v>356</v>
       </c>
-      <c r="J31" s="21">
+      <c r="J31" s="20">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
       <c r="K31" s="62">
+        <f t="shared" si="5"/>
+        <v>2.2</v>
+      </c>
+      <c r="L31" s="63">
         <f t="shared" si="6"/>
-        <v>1.61797752808989</v>
-      </c>
-      <c r="L31" s="63">
-        <f t="shared" si="7"/>
         <v>0.0909090909090908</v>
       </c>
-      <c r="M31" s="71">
-        <f t="shared" si="5"/>
-        <v>0.14708886618999</v>
-      </c>
-      <c r="N31" s="72">
+      <c r="M31" s="70">
         <f t="shared" si="9"/>
         <v>15664</v>
       </c>
-      <c r="O31" s="79" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" s="5" customFormat="1" ht="15" spans="1:15">
-      <c r="A32" s="17" t="s">
+      <c r="N31" s="77" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" s="5" customFormat="1" ht="15" spans="1:14">
+      <c r="A32" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="34">
+        <v>44549</v>
+      </c>
+      <c r="C32" s="36">
+        <v>600600</v>
+      </c>
+      <c r="D32" s="36" t="s">
         <v>91</v>
-      </c>
-      <c r="B32" s="35">
-        <v>44549</v>
-      </c>
-      <c r="C32" s="37">
-        <v>600600</v>
-      </c>
-      <c r="D32" s="37" t="s">
-        <v>92</v>
       </c>
       <c r="E32" s="54">
         <v>2.67</v>
@@ -4588,49 +4500,46 @@
       <c r="G32" s="52">
         <v>98</v>
       </c>
-      <c r="H32" s="52">
-        <v>120.78</v>
-      </c>
-      <c r="I32" s="21">
+      <c r="H32" s="44">
+        <f t="shared" si="7"/>
+        <v>130.2</v>
+      </c>
+      <c r="I32" s="20">
         <f t="shared" si="0"/>
         <v>1050</v>
       </c>
-      <c r="J32" s="21">
+      <c r="J32" s="20">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="K32" s="62">
+        <f t="shared" si="5"/>
+        <v>2.06666666666667</v>
+      </c>
+      <c r="L32" s="63">
         <f t="shared" si="6"/>
-        <v>1.16952380952381</v>
-      </c>
-      <c r="L32" s="63">
-        <f t="shared" si="7"/>
         <v>0.0967741935483871</v>
       </c>
-      <c r="M32" s="71">
-        <f t="shared" si="5"/>
-        <v>0.113179723502304</v>
-      </c>
-      <c r="N32" s="72">
+      <c r="M32" s="70">
         <f t="shared" si="9"/>
         <v>10850</v>
       </c>
-      <c r="O32" s="81" t="s">
+      <c r="N32" s="79" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" ht="15" spans="1:14">
+      <c r="A33" s="16" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="33" ht="15" spans="1:15">
-      <c r="A33" s="17" t="s">
+      <c r="B33" s="34">
+        <v>44553</v>
+      </c>
+      <c r="C33" s="21">
+        <v>600587</v>
+      </c>
+      <c r="D33" s="37" t="s">
         <v>94</v>
-      </c>
-      <c r="B33" s="35">
-        <v>44553</v>
-      </c>
-      <c r="C33" s="22">
-        <v>600587</v>
-      </c>
-      <c r="D33" s="38" t="s">
-        <v>95</v>
       </c>
       <c r="E33" s="46">
         <v>1.08</v>
@@ -4641,49 +4550,46 @@
       <c r="G33" s="52">
         <v>27.05</v>
       </c>
-      <c r="H33" s="52">
-        <v>34.13</v>
-      </c>
-      <c r="I33" s="21">
+      <c r="H33" s="44">
+        <f t="shared" si="7"/>
+        <v>35.472</v>
+      </c>
+      <c r="I33" s="20">
         <f t="shared" si="0"/>
         <v>251</v>
       </c>
-      <c r="J33" s="21">
+      <c r="J33" s="20">
         <f t="shared" si="8"/>
         <v>500</v>
       </c>
       <c r="K33" s="62">
+        <f t="shared" si="5"/>
+        <v>2.35537848605578</v>
+      </c>
+      <c r="L33" s="63">
         <f t="shared" si="6"/>
-        <v>1.82071713147411</v>
-      </c>
-      <c r="L33" s="63">
-        <f t="shared" si="7"/>
         <v>0.0849120433017591</v>
       </c>
-      <c r="M33" s="71">
-        <f t="shared" si="5"/>
-        <v>0.154600811907984</v>
-      </c>
-      <c r="N33" s="72">
+      <c r="M33" s="70">
         <f t="shared" si="9"/>
         <v>14780</v>
       </c>
-      <c r="O33" s="80" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" ht="30" spans="1:15">
-      <c r="A34" s="17" t="s">
+      <c r="N33" s="78" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" ht="30" spans="1:14">
+      <c r="A34" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="34">
+        <v>44553</v>
+      </c>
+      <c r="C34" s="31">
+        <v>603236</v>
+      </c>
+      <c r="D34" s="31" t="s">
         <v>96</v>
-      </c>
-      <c r="B34" s="35">
-        <v>44553</v>
-      </c>
-      <c r="C34" s="32">
-        <v>603236</v>
-      </c>
-      <c r="D34" s="32" t="s">
-        <v>97</v>
       </c>
       <c r="E34" s="52">
         <v>1.63</v>
@@ -4694,49 +4600,46 @@
       <c r="G34" s="52">
         <v>188.89</v>
       </c>
-      <c r="H34" s="52">
-        <v>218.58</v>
-      </c>
-      <c r="I34" s="21">
+      <c r="H34" s="44">
+        <f t="shared" si="7"/>
+        <v>243.828</v>
+      </c>
+      <c r="I34" s="20">
         <f t="shared" si="0"/>
         <v>1430</v>
       </c>
-      <c r="J34" s="21">
+      <c r="J34" s="20">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="K34" s="62">
+        <f t="shared" si="5"/>
+        <v>2.84181818181818</v>
+      </c>
+      <c r="L34" s="63">
         <f t="shared" si="6"/>
-        <v>1.07622377622378</v>
-      </c>
-      <c r="L34" s="63">
-        <f t="shared" si="7"/>
         <v>0.0703774792066539</v>
       </c>
-      <c r="M34" s="71">
-        <f t="shared" si="5"/>
-        <v>0.0757419164328954</v>
-      </c>
-      <c r="N34" s="72">
+      <c r="M34" s="70">
         <f t="shared" si="9"/>
         <v>20319</v>
       </c>
-      <c r="O34" s="77" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" ht="15" spans="1:15">
-      <c r="A35" s="17" t="s">
+      <c r="N34" s="75" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" ht="15" spans="1:14">
+      <c r="A35" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="34">
+        <v>44553</v>
+      </c>
+      <c r="C35" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="B35" s="35">
-        <v>44553</v>
-      </c>
-      <c r="C35" s="91" t="s">
+      <c r="D35" s="32" t="s">
         <v>99</v>
-      </c>
-      <c r="D35" s="33" t="s">
-        <v>100</v>
       </c>
       <c r="E35" s="55">
         <v>1.16</v>
@@ -4747,49 +4650,46 @@
       <c r="G35" s="56">
         <v>35.76</v>
       </c>
-      <c r="H35" s="56">
-        <v>43.19</v>
-      </c>
-      <c r="I35" s="21">
+      <c r="H35" s="44">
+        <f t="shared" si="7"/>
+        <v>46.38</v>
+      </c>
+      <c r="I35" s="20">
         <f t="shared" si="0"/>
         <v>289</v>
       </c>
-      <c r="J35" s="21">
+      <c r="J35" s="20">
         <f t="shared" si="8"/>
         <v>500</v>
       </c>
       <c r="K35" s="62">
+        <f t="shared" si="5"/>
+        <v>2.67474048442906</v>
+      </c>
+      <c r="L35" s="63">
         <f t="shared" si="6"/>
-        <v>1.57093425605536</v>
-      </c>
-      <c r="L35" s="63">
-        <f t="shared" si="7"/>
         <v>0.0747736093143597</v>
       </c>
-      <c r="M35" s="71">
-        <f t="shared" si="5"/>
-        <v>0.117464424320828</v>
-      </c>
-      <c r="N35" s="72">
+      <c r="M35" s="70">
         <f t="shared" si="9"/>
         <v>19325</v>
       </c>
-      <c r="O35" s="80" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" ht="15" spans="1:15">
-      <c r="A36" s="17" t="s">
+      <c r="N35" s="78" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" ht="15" spans="1:14">
+      <c r="A36" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="39">
+        <v>44553</v>
+      </c>
+      <c r="C36" s="89" t="s">
         <v>101</v>
       </c>
-      <c r="B36" s="40">
-        <v>44553</v>
-      </c>
-      <c r="C36" s="91" t="s">
+      <c r="D36" s="32" t="s">
         <v>102</v>
-      </c>
-      <c r="D36" s="33" t="s">
-        <v>103</v>
       </c>
       <c r="E36" s="56">
         <v>1.18</v>
@@ -4800,49 +4700,46 @@
       <c r="G36" s="56">
         <v>59.3</v>
       </c>
-      <c r="H36" s="56">
-        <v>64.96</v>
-      </c>
-      <c r="I36" s="21">
+      <c r="H36" s="44">
+        <f t="shared" si="7"/>
+        <v>74.04</v>
+      </c>
+      <c r="I36" s="20">
         <f t="shared" si="0"/>
         <v>240.000000000001</v>
       </c>
-      <c r="J36" s="21">
+      <c r="J36" s="20">
         <f t="shared" si="8"/>
         <v>600</v>
       </c>
       <c r="K36" s="62">
+        <f t="shared" si="5"/>
+        <v>5.14166666666666</v>
+      </c>
+      <c r="L36" s="63">
         <f t="shared" si="6"/>
-        <v>1.35833333333333</v>
-      </c>
-      <c r="L36" s="63">
-        <f t="shared" si="7"/>
         <v>0.0388978930307943</v>
       </c>
-      <c r="M36" s="71">
-        <f t="shared" si="5"/>
-        <v>0.0528363047001619</v>
-      </c>
-      <c r="N36" s="72">
+      <c r="M36" s="70">
         <f t="shared" si="9"/>
         <v>37020</v>
       </c>
-      <c r="O36" s="80" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" ht="29" spans="1:15">
-      <c r="A37" s="17" t="s">
+      <c r="N36" s="78" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" ht="29" spans="1:14">
+      <c r="A37" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" s="39">
+        <v>44553</v>
+      </c>
+      <c r="C37" s="38">
+        <v>600373</v>
+      </c>
+      <c r="D37" s="33" t="s">
         <v>104</v>
-      </c>
-      <c r="B37" s="40">
-        <v>44553</v>
-      </c>
-      <c r="C37" s="39">
-        <v>600373</v>
-      </c>
-      <c r="D37" s="34" t="s">
-        <v>105</v>
       </c>
       <c r="E37" s="56">
         <v>1.26</v>
@@ -4853,49 +4750,46 @@
       <c r="G37" s="56">
         <v>11.69</v>
       </c>
-      <c r="H37" s="56">
-        <v>13.42</v>
-      </c>
-      <c r="I37" s="21">
+      <c r="H37" s="44">
+        <f t="shared" si="7"/>
+        <v>14.868</v>
+      </c>
+      <c r="I37" s="20">
         <f t="shared" si="0"/>
         <v>70.0000000000001</v>
       </c>
-      <c r="J37" s="21">
+      <c r="J37" s="20">
         <f t="shared" si="8"/>
         <v>2100</v>
       </c>
       <c r="K37" s="62">
+        <f t="shared" si="5"/>
+        <v>3.53999999999999</v>
+      </c>
+      <c r="L37" s="63">
         <f t="shared" si="6"/>
-        <v>1.47142857142857</v>
-      </c>
-      <c r="L37" s="63">
-        <f t="shared" si="7"/>
         <v>0.056497175141243</v>
       </c>
-      <c r="M37" s="71">
-        <f t="shared" si="5"/>
-        <v>0.0831315577078288</v>
-      </c>
-      <c r="N37" s="72">
+      <c r="M37" s="70">
         <f t="shared" si="9"/>
         <v>26019</v>
       </c>
-      <c r="O37" s="78" t="s">
+      <c r="N37" s="76" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" ht="15" spans="1:14">
+      <c r="A38" s="16" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="38" ht="15" spans="1:15">
-      <c r="A38" s="17" t="s">
+      <c r="B38" s="39">
+        <v>44556</v>
+      </c>
+      <c r="C38" s="38">
+        <v>603279</v>
+      </c>
+      <c r="D38" s="32" t="s">
         <v>107</v>
-      </c>
-      <c r="B38" s="40">
-        <v>44556</v>
-      </c>
-      <c r="C38" s="39">
-        <v>603279</v>
-      </c>
-      <c r="D38" s="33" t="s">
-        <v>108</v>
       </c>
       <c r="E38" s="56">
         <v>1.1</v>
@@ -4906,49 +4800,46 @@
       <c r="G38" s="56">
         <v>42.5</v>
       </c>
-      <c r="H38" s="56">
-        <v>44.41</v>
-      </c>
-      <c r="I38" s="21">
+      <c r="H38" s="44">
+        <f t="shared" si="7"/>
+        <v>54.6</v>
+      </c>
+      <c r="I38" s="20">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="J38" s="21">
+      <c r="J38" s="20">
         <f t="shared" si="8"/>
         <v>500</v>
       </c>
       <c r="K38" s="62">
+        <f t="shared" si="5"/>
+        <v>3.03333333333333</v>
+      </c>
+      <c r="L38" s="63">
         <f t="shared" si="6"/>
-        <v>-0.363333333333334</v>
-      </c>
-      <c r="L38" s="63">
-        <f t="shared" si="7"/>
         <v>0.0659340659340659</v>
       </c>
-      <c r="M38" s="71">
-        <f t="shared" si="5"/>
-        <v>-0.023956043956044</v>
-      </c>
-      <c r="N38" s="72">
+      <c r="M38" s="70">
         <f t="shared" si="9"/>
         <v>22750</v>
       </c>
-      <c r="O38" s="80" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" ht="15" spans="1:15">
-      <c r="A39" s="17" t="s">
+      <c r="N38" s="78" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" ht="15" spans="1:14">
+      <c r="A39" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="39">
+        <v>44556</v>
+      </c>
+      <c r="C39" s="38">
+        <v>603186</v>
+      </c>
+      <c r="D39" s="33" t="s">
         <v>109</v>
-      </c>
-      <c r="B39" s="40">
-        <v>44556</v>
-      </c>
-      <c r="C39" s="39">
-        <v>603186</v>
-      </c>
-      <c r="D39" s="34" t="s">
-        <v>110</v>
       </c>
       <c r="E39" s="56">
         <v>1.53</v>
@@ -4959,49 +4850,46 @@
       <c r="G39" s="56">
         <v>39.41</v>
       </c>
-      <c r="H39" s="56">
-        <v>48.44</v>
-      </c>
-      <c r="I39" s="21">
+      <c r="H39" s="44">
+        <f t="shared" si="7"/>
+        <v>52.044</v>
+      </c>
+      <c r="I39" s="20">
         <f t="shared" si="0"/>
         <v>396</v>
       </c>
-      <c r="J39" s="21">
+      <c r="J39" s="20">
         <f t="shared" si="8"/>
         <v>300</v>
       </c>
       <c r="K39" s="62">
+        <f t="shared" si="5"/>
+        <v>2.19040404040404</v>
+      </c>
+      <c r="L39" s="63">
         <f t="shared" si="6"/>
-        <v>1.28030303030303</v>
-      </c>
-      <c r="L39" s="63">
-        <f t="shared" si="7"/>
         <v>0.0913073553147337</v>
       </c>
-      <c r="M39" s="71">
-        <f t="shared" si="5"/>
-        <v>0.116901083698409</v>
-      </c>
-      <c r="N39" s="72">
+      <c r="M39" s="70">
         <f t="shared" si="9"/>
         <v>13011</v>
       </c>
-      <c r="O39" s="82" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="40" ht="15" spans="1:15">
-      <c r="A40" s="17" t="s">
+      <c r="N39" s="80" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" ht="15" spans="1:14">
+      <c r="A40" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="39">
+        <v>44556</v>
+      </c>
+      <c r="C40" s="38">
+        <v>603599</v>
+      </c>
+      <c r="D40" s="32" t="s">
         <v>111</v>
-      </c>
-      <c r="B40" s="40">
-        <v>44556</v>
-      </c>
-      <c r="C40" s="39">
-        <v>603599</v>
-      </c>
-      <c r="D40" s="33" t="s">
-        <v>112</v>
       </c>
       <c r="E40" s="57">
         <v>2.22</v>
@@ -5012,49 +4900,46 @@
       <c r="G40" s="56">
         <v>38</v>
       </c>
-      <c r="H40" s="56">
-        <v>44.2</v>
-      </c>
-      <c r="I40" s="21">
+      <c r="H40" s="44">
+        <f t="shared" si="7"/>
+        <v>48.48</v>
+      </c>
+      <c r="I40" s="20">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="J40" s="21">
+      <c r="J40" s="20">
         <f t="shared" si="8"/>
         <v>600</v>
       </c>
       <c r="K40" s="62">
+        <f t="shared" si="5"/>
+        <v>3.36666666666667</v>
+      </c>
+      <c r="L40" s="63">
         <f t="shared" si="6"/>
-        <v>1.58333333333334</v>
-      </c>
-      <c r="L40" s="63">
-        <f t="shared" si="7"/>
         <v>0.0594059405940594</v>
       </c>
-      <c r="M40" s="71">
-        <f t="shared" si="5"/>
-        <v>0.0940594059405942</v>
-      </c>
-      <c r="N40" s="72">
+      <c r="M40" s="70">
         <f t="shared" si="9"/>
         <v>24240</v>
       </c>
-      <c r="O40" s="80" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" ht="15" spans="1:15">
-      <c r="A41" s="17" t="s">
+      <c r="N40" s="78" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" ht="15" spans="1:14">
+      <c r="A41" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="39">
+        <v>44557</v>
+      </c>
+      <c r="C41" s="38">
+        <v>603217</v>
+      </c>
+      <c r="D41" s="32" t="s">
         <v>113</v>
-      </c>
-      <c r="B41" s="40">
-        <v>44557</v>
-      </c>
-      <c r="C41" s="39">
-        <v>603217</v>
-      </c>
-      <c r="D41" s="33" t="s">
-        <v>114</v>
       </c>
       <c r="E41" s="57">
         <v>2.16</v>
@@ -5065,49 +4950,46 @@
       <c r="G41" s="56">
         <v>45.1</v>
       </c>
-      <c r="H41" s="56">
-        <v>55.79</v>
-      </c>
-      <c r="I41" s="21">
+      <c r="H41" s="44">
+        <f t="shared" si="7"/>
+        <v>58.752</v>
+      </c>
+      <c r="I41" s="20">
         <f t="shared" si="0"/>
         <v>386</v>
       </c>
-      <c r="J41" s="21">
+      <c r="J41" s="20">
         <f t="shared" si="8"/>
         <v>300</v>
       </c>
       <c r="K41" s="62">
+        <f t="shared" si="5"/>
+        <v>2.53678756476684</v>
+      </c>
+      <c r="L41" s="63">
         <f t="shared" si="6"/>
-        <v>1.76943005181347</v>
-      </c>
-      <c r="L41" s="63">
-        <f t="shared" si="7"/>
         <v>0.0788398692810457</v>
       </c>
-      <c r="M41" s="71">
-        <f t="shared" si="5"/>
-        <v>0.139501633986928</v>
-      </c>
-      <c r="N41" s="72">
+      <c r="M41" s="70">
         <f t="shared" si="9"/>
         <v>14688</v>
       </c>
-      <c r="O41" s="80" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" ht="15" spans="1:15">
-      <c r="A42" s="17" t="s">
+      <c r="N41" s="78" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" ht="15" spans="1:14">
+      <c r="A42" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="39">
+        <v>44557</v>
+      </c>
+      <c r="C42" s="89" t="s">
         <v>115</v>
       </c>
-      <c r="B42" s="40">
-        <v>44557</v>
-      </c>
-      <c r="C42" s="91" t="s">
+      <c r="D42" s="33" t="s">
         <v>116</v>
-      </c>
-      <c r="D42" s="34" t="s">
-        <v>117</v>
       </c>
       <c r="E42" s="56">
         <v>1.52</v>
@@ -5118,49 +5000,46 @@
       <c r="G42" s="56">
         <v>94.55</v>
       </c>
-      <c r="H42" s="56">
-        <v>114.29</v>
-      </c>
-      <c r="I42" s="21">
+      <c r="H42" s="44">
+        <f t="shared" si="7"/>
+        <v>119.496</v>
+      </c>
+      <c r="I42" s="20">
         <f t="shared" si="0"/>
         <v>503</v>
       </c>
-      <c r="J42" s="21">
+      <c r="J42" s="20">
         <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="K42" s="62">
+        <f t="shared" si="5"/>
+        <v>3.95944333996024</v>
+      </c>
+      <c r="L42" s="63">
         <f t="shared" si="6"/>
-        <v>2.92445328031809</v>
-      </c>
-      <c r="L42" s="63">
-        <f t="shared" si="7"/>
         <v>0.0505121510343443</v>
       </c>
-      <c r="M42" s="71">
-        <f t="shared" si="5"/>
-        <v>0.147720425788311</v>
-      </c>
-      <c r="N42" s="72">
+      <c r="M42" s="70">
         <f t="shared" si="9"/>
         <v>19916</v>
       </c>
-      <c r="O42" s="82" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43" ht="15" spans="1:15">
-      <c r="A43" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="B43" s="40">
+      <c r="N42" s="80" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" ht="15" spans="1:14">
+      <c r="A43" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" s="39">
         <v>44557</v>
       </c>
-      <c r="C43" s="22">
+      <c r="C43" s="21">
         <v>601677</v>
       </c>
-      <c r="D43" s="36" t="s">
-        <v>37</v>
+      <c r="D43" s="35" t="s">
+        <v>36</v>
       </c>
       <c r="E43" s="58">
         <v>2.12</v>
@@ -5171,51 +5050,48 @@
       <c r="G43" s="56">
         <v>41.81</v>
       </c>
-      <c r="H43" s="56">
-        <v>46.18</v>
-      </c>
-      <c r="I43" s="21">
+      <c r="H43" s="44">
+        <f t="shared" si="7"/>
+        <v>53.292</v>
+      </c>
+      <c r="I43" s="20">
         <f t="shared" si="0"/>
         <v>259.999999999999</v>
       </c>
-      <c r="J43" s="21">
+      <c r="J43" s="20">
         <f t="shared" si="8"/>
         <v>500</v>
       </c>
       <c r="K43" s="62">
+        <f t="shared" si="5"/>
+        <v>3.41615384615385</v>
+      </c>
+      <c r="L43" s="63">
         <f t="shared" si="6"/>
-        <v>0.680769230769233</v>
-      </c>
-      <c r="L43" s="63">
-        <f t="shared" si="7"/>
         <v>0.0585453726638143</v>
       </c>
-      <c r="M43" s="71">
-        <f t="shared" si="5"/>
-        <v>0.039855888313443</v>
-      </c>
-      <c r="N43" s="72">
+      <c r="M43" s="70">
         <f t="shared" si="9"/>
         <v>22205</v>
       </c>
-      <c r="O43" s="82" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" ht="15" spans="1:15">
-      <c r="A44" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="B44" s="28">
+      <c r="N43" s="80" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" ht="15" spans="1:14">
+      <c r="A44" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44" s="27">
         <v>44560</v>
       </c>
-      <c r="C44" s="32">
+      <c r="C44" s="31">
         <v>600976</v>
       </c>
-      <c r="D44" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="E44" s="51">
+      <c r="D44" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E44" s="53">
         <v>1.69</v>
       </c>
       <c r="F44" s="49">
@@ -5224,249 +5100,307 @@
       <c r="G44" s="49">
         <v>67.64</v>
       </c>
-      <c r="H44" s="49"/>
-      <c r="I44" s="21">
+      <c r="H44" s="44">
+        <f t="shared" si="7"/>
+        <v>86.808</v>
+      </c>
+      <c r="I44" s="20">
         <f t="shared" si="0"/>
         <v>470</v>
       </c>
-      <c r="J44" s="21">
-        <f t="shared" si="8"/>
+      <c r="J44" s="20">
+        <v>100</v>
+      </c>
+      <c r="K44" s="62">
+        <f t="shared" si="5"/>
+        <v>3.07829787234042</v>
+      </c>
+      <c r="L44" s="63">
+        <f t="shared" si="6"/>
+        <v>0.0649709704174731</v>
+      </c>
+      <c r="M44" s="70">
+        <f t="shared" si="9"/>
+        <v>7234</v>
+      </c>
+      <c r="N44" s="80" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" ht="15" spans="1:14">
+      <c r="A45" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" s="27">
+        <v>44560</v>
+      </c>
+      <c r="C45" s="40">
+        <v>603192</v>
+      </c>
+      <c r="D45" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E45" s="56">
+        <v>0.85</v>
+      </c>
+      <c r="F45" s="56">
+        <v>60.72</v>
+      </c>
+      <c r="G45" s="56">
+        <v>54.12</v>
+      </c>
+      <c r="H45" s="44">
+        <f t="shared" si="7"/>
+        <v>72.864</v>
+      </c>
+      <c r="I45" s="20">
+        <f>(F45-G45)*100</f>
+        <v>660</v>
+      </c>
+      <c r="J45" s="20">
+        <f>FLOOR(1500/(F45-G45),100)</f>
+        <v>200</v>
+      </c>
+      <c r="K45" s="62">
+        <f>(H45-F45)/(F45-G45)</f>
+        <v>1.84</v>
+      </c>
+      <c r="L45" s="63">
+        <f t="shared" si="6"/>
+        <v>0.108695652173913</v>
+      </c>
+      <c r="M45" s="70">
+        <f>F45*J45</f>
+        <v>12144</v>
+      </c>
+      <c r="N45" s="81" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" ht="15" spans="1:14">
+      <c r="A46" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" s="34">
+        <v>44560</v>
+      </c>
+      <c r="C46" s="21">
+        <v>600587</v>
+      </c>
+      <c r="D46" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="E46" s="46">
+        <v>1.08</v>
+      </c>
+      <c r="F46" s="56">
+        <v>31.59</v>
+      </c>
+      <c r="G46" s="56">
+        <v>29.05</v>
+      </c>
+      <c r="H46" s="44">
+        <f t="shared" si="7"/>
+        <v>37.908</v>
+      </c>
+      <c r="I46" s="20">
+        <f>(F46-G46)*100</f>
+        <v>254</v>
+      </c>
+      <c r="J46" s="20">
         <v>300</v>
       </c>
-      <c r="K44" s="62">
-        <f t="shared" si="6"/>
-        <v>-15.3914893617021</v>
-      </c>
-      <c r="L44" s="63">
-        <f t="shared" si="7"/>
-        <v>0.0649709704174731</v>
-      </c>
-      <c r="M44" s="71"/>
-      <c r="N44" s="72"/>
-      <c r="O44" s="82" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="41"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="56"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="41"/>
-      <c r="K45" s="41"/>
-      <c r="L45" s="64"/>
-      <c r="M45" s="83"/>
-      <c r="N45" s="84"/>
-      <c r="O45" s="85"/>
-    </row>
-    <row r="46" spans="1:15">
-      <c r="A46" s="41"/>
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="56"/>
-      <c r="H46" s="56"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="41"/>
-      <c r="K46" s="41"/>
-      <c r="L46" s="64"/>
-      <c r="M46" s="83"/>
-      <c r="N46" s="84"/>
-      <c r="O46" s="85"/>
-    </row>
-    <row r="47" spans="1:15">
-      <c r="A47" s="41"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
+      <c r="K46" s="62">
+        <f>(H46-F46)/(F46-G46)</f>
+        <v>2.48740157480315</v>
+      </c>
+      <c r="L46" s="63">
+        <f>(F46-G46)/F46</f>
+        <v>0.0804051915163026</v>
+      </c>
+      <c r="M46" s="70">
+        <f>F46*J46</f>
+        <v>9477</v>
+      </c>
+      <c r="N46" s="81" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="40"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
       <c r="E47" s="56"/>
       <c r="F47" s="56"/>
       <c r="G47" s="56"/>
       <c r="H47" s="56"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="41"/>
-      <c r="K47" s="41"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="40"/>
       <c r="L47" s="64"/>
-      <c r="M47" s="83"/>
-      <c r="N47" s="84"/>
-      <c r="O47" s="85"/>
-    </row>
-    <row r="48" spans="1:15">
-      <c r="A48" s="41"/>
-      <c r="B48" s="41"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
+      <c r="M47" s="82"/>
+      <c r="N47" s="83"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="40"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
       <c r="E48" s="56"/>
       <c r="F48" s="56"/>
       <c r="G48" s="56"/>
       <c r="H48" s="56"/>
-      <c r="I48" s="41"/>
-      <c r="J48" s="41"/>
-      <c r="K48" s="41"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="40"/>
       <c r="L48" s="64"/>
-      <c r="M48" s="83"/>
-      <c r="N48" s="84"/>
-      <c r="O48" s="85"/>
-    </row>
-    <row r="49" spans="1:15">
-      <c r="A49" s="41"/>
-      <c r="B49" s="41"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
+      <c r="M48" s="82"/>
+      <c r="N48" s="83"/>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="40"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
       <c r="E49" s="56"/>
       <c r="F49" s="56"/>
       <c r="G49" s="56"/>
       <c r="H49" s="56"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="41"/>
-      <c r="K49" s="41"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="40"/>
       <c r="L49" s="64"/>
-      <c r="M49" s="83"/>
-      <c r="N49" s="84"/>
-      <c r="O49" s="85"/>
-    </row>
-    <row r="50" spans="1:15">
-      <c r="A50" s="41"/>
-      <c r="B50" s="41"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="41"/>
+      <c r="M49" s="82"/>
+      <c r="N49" s="83"/>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="40"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
       <c r="E50" s="56"/>
       <c r="F50" s="56"/>
       <c r="G50" s="56"/>
       <c r="H50" s="56"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="41"/>
-      <c r="K50" s="41"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="40"/>
       <c r="L50" s="64"/>
-      <c r="M50" s="83"/>
-      <c r="N50" s="84"/>
-      <c r="O50" s="85"/>
-    </row>
-    <row r="51" spans="1:15">
-      <c r="A51" s="41"/>
-      <c r="B51" s="41"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41"/>
+      <c r="M50" s="82"/>
+      <c r="N50" s="83"/>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="40"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
       <c r="E51" s="56"/>
       <c r="F51" s="56"/>
       <c r="G51" s="56"/>
       <c r="H51" s="56"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="41"/>
-      <c r="K51" s="41"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
       <c r="L51" s="64"/>
-      <c r="M51" s="83"/>
-      <c r="N51" s="84"/>
-      <c r="O51" s="85"/>
-    </row>
-    <row r="52" spans="1:15">
-      <c r="A52" s="41"/>
-      <c r="B52" s="41"/>
-      <c r="C52" s="41"/>
-      <c r="D52" s="41"/>
+      <c r="M51" s="82"/>
+      <c r="N51" s="83"/>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="40"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
       <c r="E52" s="56"/>
       <c r="F52" s="56"/>
       <c r="G52" s="56"/>
       <c r="H52" s="56"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="41"/>
-      <c r="K52" s="41"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
       <c r="L52" s="64"/>
-      <c r="M52" s="83"/>
-      <c r="N52" s="84"/>
-      <c r="O52" s="85"/>
-    </row>
-    <row r="53" spans="1:15">
-      <c r="A53" s="41"/>
-      <c r="B53" s="41"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41"/>
+      <c r="M52" s="82"/>
+      <c r="N52" s="83"/>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="40"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
       <c r="E53" s="56"/>
       <c r="F53" s="56"/>
       <c r="G53" s="56"/>
       <c r="H53" s="56"/>
-      <c r="I53" s="41"/>
-      <c r="J53" s="41"/>
-      <c r="K53" s="41"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="40"/>
       <c r="L53" s="64"/>
-      <c r="M53" s="83"/>
-      <c r="N53" s="84"/>
-      <c r="O53" s="85"/>
-    </row>
-    <row r="54" spans="1:15">
-      <c r="A54" s="41"/>
-      <c r="B54" s="41"/>
-      <c r="C54" s="41"/>
-      <c r="D54" s="41"/>
+      <c r="M53" s="82"/>
+      <c r="N53" s="83"/>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="40"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
       <c r="E54" s="56"/>
       <c r="F54" s="56"/>
       <c r="G54" s="56"/>
       <c r="H54" s="56"/>
-      <c r="I54" s="41"/>
-      <c r="J54" s="41"/>
-      <c r="K54" s="41"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="40"/>
       <c r="L54" s="64"/>
-      <c r="M54" s="83"/>
-      <c r="N54" s="84"/>
-      <c r="O54" s="85"/>
-    </row>
-    <row r="55" spans="1:15">
-      <c r="A55" s="41"/>
-      <c r="B55" s="41"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="41"/>
+      <c r="M54" s="82"/>
+      <c r="N54" s="83"/>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="40"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="40"/>
       <c r="E55" s="56"/>
       <c r="F55" s="56"/>
       <c r="G55" s="56"/>
       <c r="H55" s="56"/>
-      <c r="I55" s="41"/>
-      <c r="J55" s="41"/>
-      <c r="K55" s="41"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="40"/>
       <c r="L55" s="64"/>
-      <c r="M55" s="83"/>
-      <c r="N55" s="84"/>
-      <c r="O55" s="85"/>
-    </row>
-    <row r="56" spans="1:15">
-      <c r="A56" s="41"/>
-      <c r="B56" s="41"/>
-      <c r="C56" s="41"/>
-      <c r="D56" s="41"/>
+      <c r="M55" s="82"/>
+      <c r="N55" s="83"/>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="40"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
       <c r="E56" s="56"/>
       <c r="F56" s="56"/>
       <c r="G56" s="56"/>
       <c r="H56" s="56"/>
-      <c r="I56" s="41"/>
-      <c r="J56" s="41"/>
-      <c r="K56" s="41"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="40"/>
       <c r="L56" s="64"/>
-      <c r="M56" s="83"/>
-      <c r="N56" s="84"/>
-      <c r="O56" s="85"/>
-    </row>
-    <row r="57" spans="1:15">
-      <c r="A57" s="41"/>
-      <c r="B57" s="41"/>
-      <c r="C57" s="41"/>
-      <c r="D57" s="41"/>
+      <c r="M56" s="82"/>
+      <c r="N56" s="83"/>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="40"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
       <c r="E57" s="56"/>
       <c r="F57" s="56"/>
       <c r="G57" s="56"/>
       <c r="H57" s="56"/>
-      <c r="I57" s="41"/>
-      <c r="J57" s="41"/>
-      <c r="K57" s="41"/>
+      <c r="I57" s="40"/>
+      <c r="J57" s="40"/>
+      <c r="K57" s="40"/>
       <c r="L57" s="64"/>
-      <c r="M57" s="83"/>
-      <c r="N57" s="84"/>
-      <c r="O57" s="85"/>
+      <c r="M57" s="82"/>
+      <c r="N57" s="83"/>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="6"/>
@@ -10975,7 +10909,7 @@
       <c r="A542" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="14">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -10990,12 +10924,14 @@
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="D33:E33">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
+  <conditionalFormatting sqref="D46:E46">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
@@ -656,11 +656,11 @@
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -824,7 +824,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -832,7 +832,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -846,9 +861,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -862,31 +876,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -900,16 +891,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -923,13 +913,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -938,8 +921,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -996,18 +996,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1020,7 +1008,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,7 +1038,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1044,7 +1056,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1056,19 +1140,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1080,97 +1152,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1230,11 +1230,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1254,17 +1260,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1284,28 +1295,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1314,142 +1314,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2907,11 +2907,11 @@
   <dimension ref="A1:BB542"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="G26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F26" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M46" sqref="M46"/>
+      <selection pane="bottomRight" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="14.8"/>
@@ -3088,7 +3088,7 @@
         <v>40.944</v>
       </c>
       <c r="I3" s="20">
-        <f t="shared" ref="I3:I44" si="0">(F3-G3)*100</f>
+        <f t="shared" ref="I3:I46" si="0">(F3-G3)*100</f>
         <v>159</v>
       </c>
       <c r="J3" s="20">
@@ -3670,11 +3670,11 @@
         <v>300</v>
       </c>
       <c r="K14" s="62">
-        <f t="shared" ref="K14:K44" si="5">(H14-F14)/(F14-G14)</f>
+        <f t="shared" ref="K14:K46" si="5">(H14-F14)/(F14-G14)</f>
         <v>3.46243902439024</v>
       </c>
       <c r="L14" s="63">
-        <f t="shared" ref="L14:L45" si="6">(F14-G14)/F14</f>
+        <f t="shared" ref="L14:L46" si="6">(F14-G14)/F14</f>
         <v>0.0577627500704425</v>
       </c>
       <c r="M14" s="70"/>
@@ -4040,7 +4040,7 @@
       </c>
       <c r="K22" s="62">
         <f t="shared" si="5"/>
-        <v>2.05751978891821</v>
+        <v>2.0575197889182</v>
       </c>
       <c r="L22" s="63">
         <f t="shared" si="6"/>
@@ -4371,7 +4371,7 @@
         <v>0.071817192600653</v>
       </c>
       <c r="M29" s="70">
-        <f t="shared" ref="M29:M44" si="9">F29*J29</f>
+        <f t="shared" ref="M29:M46" si="9">F29*J29</f>
         <v>18380</v>
       </c>
       <c r="N29" s="75" t="s">
@@ -4664,7 +4664,7 @@
       </c>
       <c r="K35" s="62">
         <f t="shared" si="5"/>
-        <v>2.67474048442906</v>
+        <v>2.67474048442907</v>
       </c>
       <c r="L35" s="63">
         <f t="shared" si="6"/>
@@ -5064,7 +5064,7 @@
       </c>
       <c r="K43" s="62">
         <f t="shared" si="5"/>
-        <v>3.41615384615385</v>
+        <v>3.41615384615386</v>
       </c>
       <c r="L43" s="63">
         <f t="shared" si="6"/>
@@ -5154,7 +5154,7 @@
         <v>72.864</v>
       </c>
       <c r="I45" s="20">
-        <f>(F45-G45)*100</f>
+        <f t="shared" si="0"/>
         <v>660</v>
       </c>
       <c r="J45" s="20">
@@ -5162,7 +5162,7 @@
         <v>200</v>
       </c>
       <c r="K45" s="62">
-        <f>(H45-F45)/(F45-G45)</f>
+        <f t="shared" si="5"/>
         <v>1.84</v>
       </c>
       <c r="L45" s="63">
@@ -5170,7 +5170,7 @@
         <v>0.108695652173913</v>
       </c>
       <c r="M45" s="70">
-        <f>F45*J45</f>
+        <f t="shared" si="9"/>
         <v>12144</v>
       </c>
       <c r="N45" s="81" t="s">
@@ -5204,22 +5204,22 @@
         <v>37.908</v>
       </c>
       <c r="I46" s="20">
-        <f>(F46-G46)*100</f>
+        <f t="shared" si="0"/>
         <v>254</v>
       </c>
       <c r="J46" s="20">
         <v>300</v>
       </c>
       <c r="K46" s="62">
-        <f>(H46-F46)/(F46-G46)</f>
+        <f t="shared" si="5"/>
         <v>2.48740157480315</v>
       </c>
       <c r="L46" s="63">
-        <f>(F46-G46)/F46</f>
+        <f t="shared" si="6"/>
         <v>0.0804051915163026</v>
       </c>
       <c r="M46" s="70">
-        <f>F46*J46</f>
+        <f t="shared" si="9"/>
         <v>9477</v>
       </c>
       <c r="N46" s="81" t="s">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129">
   <si>
     <t>计划编码</t>
   </si>
@@ -660,19 +660,25 @@
   <si>
     <t>三利谱</t>
   </si>
+  <si>
+    <t>JH_00047</t>
+  </si>
+  <si>
+    <t>易德龙</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -807,6 +813,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -821,16 +834,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -843,6 +856,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
@@ -850,8 +871,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -865,9 +895,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -888,14 +918,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
@@ -903,16 +925,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -926,9 +940,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -942,16 +955,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1008,7 +1014,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1020,25 +1032,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1050,49 +1122,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1104,7 +1152,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1122,67 +1176,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1227,6 +1233,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -1259,20 +1274,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1306,144 +1327,129 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1452,22 +1458,22 @@
     <xf numFmtId="41" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1664,7 +1670,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1700,7 +1706,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1743,9 +1749,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
@@ -2932,7 +2935,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N47" sqref="N47:N48"/>
+      <selection pane="bottomRight" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="14.8"/>
@@ -3109,7 +3112,7 @@
         <v>40.944</v>
       </c>
       <c r="I3" s="20">
-        <f t="shared" ref="I3:I46" si="0">(F3-G3)*100</f>
+        <f t="shared" ref="I3:I48" si="0">(F3-G3)*100</f>
         <v>159</v>
       </c>
       <c r="J3" s="20">
@@ -3186,7 +3189,7 @@
         <v>30.89</v>
       </c>
       <c r="H4" s="46">
-        <f t="shared" ref="H4:H19" si="3">(F4+F4*0.2)</f>
+        <f t="shared" ref="H4:H25" si="3">(F4+F4*0.2)</f>
         <v>39.18</v>
       </c>
       <c r="I4" s="20">
@@ -3691,11 +3694,11 @@
         <v>300</v>
       </c>
       <c r="K14" s="64">
-        <f t="shared" ref="K14:K46" si="5">(H14-F14)/(F14-G14)</f>
+        <f t="shared" ref="K14:K48" si="5">(H14-F14)/(F14-G14)</f>
         <v>3.46243902439024</v>
       </c>
       <c r="L14" s="65">
-        <f t="shared" ref="L14:L46" si="6">(F14-G14)/F14</f>
+        <f t="shared" ref="L14:L48" si="6">(F14-G14)/F14</f>
         <v>0.0577627500704425</v>
       </c>
       <c r="M14" s="72"/>
@@ -3956,7 +3959,7 @@
         <v>25.3</v>
       </c>
       <c r="H20" s="46">
-        <f>(F20+F20*0.2)</f>
+        <f t="shared" si="3"/>
         <v>33.276</v>
       </c>
       <c r="I20" s="20">
@@ -4001,7 +4004,7 @@
         <v>10.9</v>
       </c>
       <c r="H21" s="46">
-        <f>(F21+F21*0.2)</f>
+        <f t="shared" si="3"/>
         <v>14.1</v>
       </c>
       <c r="I21" s="20">
@@ -4048,7 +4051,7 @@
         <v>70.4</v>
       </c>
       <c r="H22" s="46">
-        <f>(F22+F22*0.2)</f>
+        <f t="shared" si="3"/>
         <v>93.576</v>
       </c>
       <c r="I22" s="20">
@@ -4093,7 +4096,7 @@
         <v>260.02</v>
       </c>
       <c r="H23" s="46">
-        <f>(F23+F23*0.2)</f>
+        <f t="shared" si="3"/>
         <v>333.6</v>
       </c>
       <c r="I23" s="20">
@@ -4140,7 +4143,7 @@
         <v>59.29</v>
       </c>
       <c r="H24" s="46">
-        <f>(F24+F24*0.2)</f>
+        <f t="shared" si="3"/>
         <v>77.616</v>
       </c>
       <c r="I24" s="20">
@@ -4187,7 +4190,7 @@
         <v>36.13</v>
       </c>
       <c r="H25" s="46">
-        <f>(F25+F25*0.2)</f>
+        <f t="shared" si="3"/>
         <v>47.268</v>
       </c>
       <c r="I25" s="20">
@@ -4232,7 +4235,7 @@
         <v>110.08</v>
       </c>
       <c r="H26" s="46">
-        <f t="shared" ref="H26:H42" si="8">(F26+F26*0.2)</f>
+        <f t="shared" ref="H26:H48" si="8">(F26+F26*0.2)</f>
         <v>141.9</v>
       </c>
       <c r="I26" s="20">
@@ -4392,7 +4395,7 @@
         <v>0.071817192600653</v>
       </c>
       <c r="M29" s="72">
-        <f t="shared" ref="M29:M46" si="9">F29*J29</f>
+        <f t="shared" ref="M29:M48" si="9">F29*J29</f>
         <v>18380</v>
       </c>
       <c r="N29" s="77" t="s">
@@ -4685,7 +4688,7 @@
       </c>
       <c r="K35" s="64">
         <f t="shared" si="5"/>
-        <v>2.67474048442906</v>
+        <v>2.67474048442907</v>
       </c>
       <c r="L35" s="65">
         <f t="shared" si="6"/>
@@ -5072,7 +5075,7 @@
         <v>41.81</v>
       </c>
       <c r="H43" s="46">
-        <f>(F43+F43*0.2)</f>
+        <f t="shared" si="8"/>
         <v>53.292</v>
       </c>
       <c r="I43" s="20">
@@ -5085,7 +5088,7 @@
       </c>
       <c r="K43" s="64">
         <f t="shared" si="5"/>
-        <v>3.41615384615385</v>
+        <v>3.41615384615386</v>
       </c>
       <c r="L43" s="65">
         <f t="shared" si="6"/>
@@ -5122,7 +5125,7 @@
         <v>67.64</v>
       </c>
       <c r="H44" s="46">
-        <f>(F44+F44*0.2)</f>
+        <f t="shared" si="8"/>
         <v>86.808</v>
       </c>
       <c r="I44" s="20">
@@ -5171,7 +5174,7 @@
         <v>54.12</v>
       </c>
       <c r="H45" s="46">
-        <f>(F45+F45*0.2)</f>
+        <f t="shared" si="8"/>
         <v>72.864</v>
       </c>
       <c r="I45" s="20">
@@ -5221,7 +5224,7 @@
         <v>29.05</v>
       </c>
       <c r="H46" s="46">
-        <f>(F46+F46*0.2)</f>
+        <f t="shared" si="8"/>
         <v>37.908</v>
       </c>
       <c r="I46" s="20">
@@ -5271,11 +5274,11 @@
         <v>73.27</v>
       </c>
       <c r="H47" s="46">
-        <f>(F47+F47*0.2)</f>
+        <f t="shared" si="8"/>
         <v>93.324</v>
       </c>
       <c r="I47" s="20">
-        <f>(F47-G47)*100</f>
+        <f t="shared" si="0"/>
         <v>450</v>
       </c>
       <c r="J47" s="20">
@@ -5283,15 +5286,15 @@
         <v>300</v>
       </c>
       <c r="K47" s="64">
-        <f>(H47-F47)/(F47-G47)</f>
+        <f t="shared" si="5"/>
         <v>3.45644444444444</v>
       </c>
       <c r="L47" s="65">
-        <f>(F47-G47)/F47</f>
+        <f t="shared" si="6"/>
         <v>0.0578629291500579</v>
       </c>
       <c r="M47" s="72">
-        <f>F47*J47</f>
+        <f t="shared" si="9"/>
         <v>23331</v>
       </c>
       <c r="N47" s="83" t="s">
@@ -5305,10 +5308,10 @@
       <c r="B48" s="34">
         <v>44565</v>
       </c>
-      <c r="C48" s="92" t="s">
+      <c r="C48" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="D48" s="43" t="s">
+      <c r="D48" s="33" t="s">
         <v>126</v>
       </c>
       <c r="E48" s="58">
@@ -5321,11 +5324,11 @@
         <v>60.56</v>
       </c>
       <c r="H48" s="46">
-        <f>(F48+F48*0.2)</f>
+        <f t="shared" si="8"/>
         <v>77.94</v>
       </c>
       <c r="I48" s="20">
-        <f>(F48-G48)*100</f>
+        <f t="shared" si="0"/>
         <v>439</v>
       </c>
       <c r="J48" s="20">
@@ -5333,42 +5336,76 @@
         <v>300</v>
       </c>
       <c r="K48" s="64">
-        <f>(H48-F48)/(F48-G48)</f>
+        <f t="shared" si="5"/>
         <v>2.95899772209567</v>
       </c>
       <c r="L48" s="65">
-        <f>(F48-G48)/F48</f>
+        <f t="shared" si="6"/>
         <v>0.067590454195535</v>
       </c>
       <c r="M48" s="72">
-        <f>F48*J48</f>
+        <f t="shared" si="9"/>
         <v>19485</v>
       </c>
       <c r="N48" s="83" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
-      <c r="A49" s="40"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="58"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="40"/>
-      <c r="K49" s="40"/>
-      <c r="L49" s="66"/>
-      <c r="M49" s="84"/>
-      <c r="N49" s="85"/>
+    <row r="49" ht="15" spans="1:14">
+      <c r="A49" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49" s="39">
+        <v>44570</v>
+      </c>
+      <c r="C49" s="42">
+        <v>603380</v>
+      </c>
+      <c r="D49" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="E49" s="58">
+        <v>1.06</v>
+      </c>
+      <c r="F49" s="58">
+        <v>40.45</v>
+      </c>
+      <c r="G49" s="58">
+        <v>36.85</v>
+      </c>
+      <c r="H49" s="46">
+        <f>(F49+F49*0.2)</f>
+        <v>48.54</v>
+      </c>
+      <c r="I49" s="20">
+        <f>(F49-G49)*100</f>
+        <v>360</v>
+      </c>
+      <c r="J49" s="20">
+        <f>FLOOR(1500/(F49-G49),100)</f>
+        <v>400</v>
+      </c>
+      <c r="K49" s="64">
+        <f>(H49-F49)/(F49-G49)</f>
+        <v>2.24722222222222</v>
+      </c>
+      <c r="L49" s="65">
+        <f>(F49-G49)/F49</f>
+        <v>0.0889987639060569</v>
+      </c>
+      <c r="M49" s="72">
+        <f>F49*J49</f>
+        <v>16180</v>
+      </c>
+      <c r="N49" s="83" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="40"/>
       <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="33"/>
       <c r="E50" s="58"/>
       <c r="F50" s="58"/>
       <c r="G50" s="58"/>
@@ -11016,12 +11053,15 @@
     <mergeCell ref="N1:N2"/>
   </mergeCells>
   <conditionalFormatting sqref="D33:E33">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
+  <conditionalFormatting sqref="D46:E46">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46:E46">
+  <conditionalFormatting sqref="D50">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
@@ -2953,7 +2953,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O50" sqref="O50"/>
+      <selection pane="bottomRight" activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="14.8"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
@@ -2970,11 +2970,11 @@
   <dimension ref="A1:BF542"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="I29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="I30" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N45" sqref="N45"/>
+      <selection pane="bottomRight" activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="14.8"/>
@@ -5666,7 +5666,7 @@
         <v>39.99</v>
       </c>
       <c r="G50" s="58">
-        <v>41.18</v>
+        <v>40.64</v>
       </c>
       <c r="H50" s="58">
         <v>36.5</v>
@@ -5693,15 +5693,15 @@
       </c>
       <c r="N50" s="68">
         <f>(G50-H50)/G50</f>
-        <v>0.113647401651287</v>
+        <v>0.101870078740157</v>
       </c>
       <c r="O50" s="68">
         <f>((F50-H50)*100+(G50-H50)*200)/(F50*100+G50*200)</f>
-        <v>0.105026563138537</v>
+        <v>0.0970561556856601</v>
       </c>
       <c r="P50" s="68">
         <f>(G50-F50)/F50</f>
-        <v>0.0297574393598399</v>
+        <v>0.0162540635158789</v>
       </c>
       <c r="Q50" s="76">
         <f>F50*K50</f>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
@@ -2974,7 +2974,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G50" sqref="G50"/>
+      <selection pane="bottomRight" activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="14.8"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
@@ -2974,7 +2974,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L50" sqref="L50"/>
+      <selection pane="bottomRight" activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="14.8"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
@@ -708,13 +708,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="42">
     <font>
@@ -868,16 +868,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -891,15 +899,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -913,50 +938,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -983,6 +968,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -991,8 +983,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1000,6 +993,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1056,25 +1056,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1086,37 +1068,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1134,7 +1092,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1152,7 +1122,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1164,13 +1170,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1182,43 +1194,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1230,7 +1206,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1285,32 +1285,15 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1331,6 +1314,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1342,15 +1340,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1369,147 +1358,158 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="38" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1541,7 +1541,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1652,73 +1652,73 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="18" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1769,7 +1769,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2998,7 +2998,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M51" sqref="M51:M52"/>
+      <selection pane="bottomRight" activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="14.8"/>
@@ -3194,7 +3194,7 @@
         <v>40.944</v>
       </c>
       <c r="J3" s="21">
-        <f t="shared" ref="J3:J51" si="0">(F3-H3)*100</f>
+        <f t="shared" ref="J3:J52" si="0">(F3-H3)*100</f>
         <v>159</v>
       </c>
       <c r="K3" s="21">
@@ -3820,11 +3820,11 @@
         <v>300</v>
       </c>
       <c r="L14" s="66">
-        <f t="shared" ref="L14:L51" si="5">(I14-F14)/(F14-H14)</f>
+        <f t="shared" ref="L14:L52" si="5">(I14-F14)/(F14-H14)</f>
         <v>3.46243902439024</v>
       </c>
       <c r="M14" s="69">
-        <f t="shared" ref="M14:M51" si="6">(F14-H14)/F14</f>
+        <f t="shared" ref="M14:M52" si="6">(F14-H14)/F14</f>
         <v>0.0577627500704425</v>
       </c>
       <c r="N14" s="70"/>
@@ -4409,7 +4409,7 @@
         <v>110.08</v>
       </c>
       <c r="I26" s="47">
-        <f t="shared" ref="I26:I51" si="8">(F26+F26*0.2)</f>
+        <f t="shared" ref="I26:I52" si="8">(F26+F26*0.2)</f>
         <v>141.9</v>
       </c>
       <c r="J26" s="21">
@@ -5432,7 +5432,7 @@
         <v>660</v>
       </c>
       <c r="K45" s="21">
-        <f t="shared" ref="K45:K51" si="10">FLOOR(1500/(F45-H45),100)</f>
+        <f t="shared" ref="K45:K52" si="10">FLOOR(1500/(F45-H45),100)</f>
         <v>200</v>
       </c>
       <c r="L45" s="66">
@@ -5819,27 +5819,27 @@
       </c>
       <c r="G52" s="59"/>
       <c r="H52" s="59">
-        <v>24.74</v>
+        <v>24.5</v>
       </c>
       <c r="I52" s="47">
-        <f>(F52+F52*0.2)</f>
+        <f t="shared" si="8"/>
         <v>31.908</v>
       </c>
       <c r="J52" s="21">
-        <f>(F52-H52)*100</f>
-        <v>185</v>
+        <f t="shared" si="0"/>
+        <v>209</v>
       </c>
       <c r="K52" s="21">
-        <f>FLOOR(1500/(F52-H52),100)</f>
-        <v>800</v>
+        <f t="shared" si="10"/>
+        <v>700</v>
       </c>
       <c r="L52" s="66">
-        <f>(I52-F52)/(F52-H52)</f>
-        <v>2.87459459459459</v>
+        <f t="shared" si="5"/>
+        <v>2.5444976076555</v>
       </c>
       <c r="M52" s="69">
-        <f>(F52-H52)/F52</f>
-        <v>0.0695750282060926</v>
+        <f t="shared" si="6"/>
+        <v>0.0786009778112072</v>
       </c>
       <c r="N52" s="72"/>
       <c r="O52" s="72"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
@@ -709,12 +709,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);\(0.00\)"/>
   </numFmts>
   <fonts count="42">
     <font>
@@ -891,26 +891,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -922,16 +914,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -947,7 +948,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -955,21 +970,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -983,9 +983,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -993,13 +1000,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1062,13 +1062,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1080,61 +1158,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1146,25 +1170,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1188,13 +1206,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1206,31 +1224,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1299,17 +1299,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1329,21 +1340,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1359,13 +1355,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1374,136 +1374,136 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1541,7 +1541,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1652,73 +1652,73 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="18" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2994,11 +2994,11 @@
   <dimension ref="A1:BF542"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="G30" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H52" sqref="H52"/>
+      <selection pane="bottomRight" activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="14.8"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2021-12/交易计划.xlsx
@@ -1506,7 +1506,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1778,6 +1778,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="11" fillId="3" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="3" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3023,14 +3026,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:BF542"/>
+  <dimension ref="A1:BF541"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="N33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="I36" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R52" sqref="R52"/>
+      <selection pane="bottomRight" activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="14.8"/>
@@ -3101,48 +3104,48 @@
       <c r="P1" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="95" t="s">
+      <c r="Q1" s="96" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
-      <c r="X1" s="96"/>
-      <c r="Y1" s="96"/>
-      <c r="AA1" s="108"/>
-      <c r="AB1" s="108"/>
-      <c r="AC1" s="108"/>
-      <c r="AD1" s="108"/>
-      <c r="AE1" s="108"/>
-      <c r="AF1" s="108"/>
-      <c r="AG1" s="108"/>
-      <c r="AH1" s="108"/>
-      <c r="AJ1" s="108"/>
-      <c r="AK1" s="108"/>
-      <c r="AL1" s="108"/>
-      <c r="AM1" s="108"/>
-      <c r="AN1" s="108"/>
-      <c r="AO1" s="108"/>
-      <c r="AP1" s="108"/>
-      <c r="AR1" s="108"/>
-      <c r="AS1" s="108"/>
-      <c r="AT1" s="108"/>
-      <c r="AU1" s="108"/>
-      <c r="AV1" s="108"/>
-      <c r="AW1" s="108"/>
-      <c r="AX1" s="108"/>
-      <c r="AZ1" s="108"/>
-      <c r="BA1" s="108"/>
-      <c r="BB1" s="108"/>
-      <c r="BC1" s="108"/>
-      <c r="BD1" s="108"/>
-      <c r="BE1" s="108"/>
-      <c r="BF1" s="108"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
+      <c r="X1" s="97"/>
+      <c r="Y1" s="97"/>
+      <c r="AA1" s="109"/>
+      <c r="AB1" s="109"/>
+      <c r="AC1" s="109"/>
+      <c r="AD1" s="109"/>
+      <c r="AE1" s="109"/>
+      <c r="AF1" s="109"/>
+      <c r="AG1" s="109"/>
+      <c r="AH1" s="109"/>
+      <c r="AJ1" s="109"/>
+      <c r="AK1" s="109"/>
+      <c r="AL1" s="109"/>
+      <c r="AM1" s="109"/>
+      <c r="AN1" s="109"/>
+      <c r="AO1" s="109"/>
+      <c r="AP1" s="109"/>
+      <c r="AR1" s="109"/>
+      <c r="AS1" s="109"/>
+      <c r="AT1" s="109"/>
+      <c r="AU1" s="109"/>
+      <c r="AV1" s="109"/>
+      <c r="AW1" s="109"/>
+      <c r="AX1" s="109"/>
+      <c r="AZ1" s="109"/>
+      <c r="BA1" s="109"/>
+      <c r="BB1" s="109"/>
+      <c r="BC1" s="109"/>
+      <c r="BD1" s="109"/>
+      <c r="BE1" s="109"/>
+      <c r="BF1" s="109"/>
     </row>
     <row r="2" ht="23.6" spans="1:58">
       <c r="A2" s="17"/>
@@ -3161,44 +3164,44 @@
       <c r="N2" s="86"/>
       <c r="O2" s="86"/>
       <c r="P2" s="86"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="96"/>
-      <c r="T2" s="96"/>
-      <c r="U2" s="96"/>
-      <c r="V2" s="96"/>
-      <c r="W2" s="96"/>
-      <c r="X2" s="96"/>
-      <c r="Y2" s="96"/>
-      <c r="AA2" s="108"/>
-      <c r="AB2" s="108"/>
-      <c r="AC2" s="108"/>
-      <c r="AD2" s="108"/>
-      <c r="AE2" s="108"/>
-      <c r="AF2" s="108"/>
-      <c r="AG2" s="108"/>
-      <c r="AH2" s="108"/>
-      <c r="AJ2" s="108"/>
-      <c r="AK2" s="108"/>
-      <c r="AL2" s="108"/>
-      <c r="AM2" s="108"/>
-      <c r="AN2" s="108"/>
-      <c r="AO2" s="108"/>
-      <c r="AP2" s="108"/>
-      <c r="AR2" s="108"/>
-      <c r="AS2" s="108"/>
-      <c r="AT2" s="108"/>
-      <c r="AU2" s="108"/>
-      <c r="AV2" s="108"/>
-      <c r="AW2" s="108"/>
-      <c r="AX2" s="108"/>
-      <c r="AZ2" s="108"/>
-      <c r="BA2" s="108"/>
-      <c r="BB2" s="108"/>
-      <c r="BC2" s="108"/>
-      <c r="BD2" s="108"/>
-      <c r="BE2" s="108"/>
-      <c r="BF2" s="108"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97"/>
+      <c r="AA2" s="109"/>
+      <c r="AB2" s="109"/>
+      <c r="AC2" s="109"/>
+      <c r="AD2" s="109"/>
+      <c r="AE2" s="109"/>
+      <c r="AF2" s="109"/>
+      <c r="AG2" s="109"/>
+      <c r="AH2" s="109"/>
+      <c r="AJ2" s="109"/>
+      <c r="AK2" s="109"/>
+      <c r="AL2" s="109"/>
+      <c r="AM2" s="109"/>
+      <c r="AN2" s="109"/>
+      <c r="AO2" s="109"/>
+      <c r="AP2" s="109"/>
+      <c r="AR2" s="109"/>
+      <c r="AS2" s="109"/>
+      <c r="AT2" s="109"/>
+      <c r="AU2" s="109"/>
+      <c r="AV2" s="109"/>
+      <c r="AW2" s="109"/>
+      <c r="AX2" s="109"/>
+      <c r="AZ2" s="109"/>
+      <c r="BA2" s="109"/>
+      <c r="BB2" s="109"/>
+      <c r="BC2" s="109"/>
+      <c r="BD2" s="109"/>
+      <c r="BE2" s="109"/>
+      <c r="BF2" s="109"/>
     </row>
     <row r="3" customFormat="1" ht="23.6" spans="1:58">
       <c r="A3" s="21" t="s">
@@ -3244,46 +3247,46 @@
       <c r="N3" s="89"/>
       <c r="O3" s="89"/>
       <c r="P3" s="89"/>
-      <c r="Q3" s="99"/>
-      <c r="R3" s="100" t="s">
+      <c r="Q3" s="100"/>
+      <c r="R3" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="S3" s="96"/>
-      <c r="T3" s="96"/>
-      <c r="U3" s="96"/>
-      <c r="V3" s="96"/>
-      <c r="W3" s="96"/>
-      <c r="X3" s="96"/>
-      <c r="Y3" s="96"/>
-      <c r="AA3" s="108"/>
-      <c r="AB3" s="108"/>
-      <c r="AC3" s="108"/>
-      <c r="AD3" s="108"/>
-      <c r="AE3" s="108"/>
-      <c r="AF3" s="108"/>
-      <c r="AG3" s="108"/>
-      <c r="AH3" s="108"/>
-      <c r="AJ3" s="108"/>
-      <c r="AK3" s="108"/>
-      <c r="AL3" s="108"/>
-      <c r="AM3" s="108"/>
-      <c r="AN3" s="108"/>
-      <c r="AO3" s="108"/>
-      <c r="AP3" s="108"/>
-      <c r="AR3" s="108"/>
-      <c r="AS3" s="108"/>
-      <c r="AT3" s="108"/>
-      <c r="AU3" s="108"/>
-      <c r="AV3" s="108"/>
-      <c r="AW3" s="108"/>
-      <c r="AX3" s="108"/>
-      <c r="AZ3" s="108"/>
-      <c r="BA3" s="108"/>
-      <c r="BB3" s="108"/>
-      <c r="BC3" s="108"/>
-      <c r="BD3" s="108"/>
-      <c r="BE3" s="108"/>
-      <c r="BF3" s="108"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="AA3" s="109"/>
+      <c r="AB3" s="109"/>
+      <c r="AC3" s="109"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="109"/>
+      <c r="AF3" s="109"/>
+      <c r="AG3" s="109"/>
+      <c r="AH3" s="109"/>
+      <c r="AJ3" s="109"/>
+      <c r="AK3" s="109"/>
+      <c r="AL3" s="109"/>
+      <c r="AM3" s="109"/>
+      <c r="AN3" s="109"/>
+      <c r="AO3" s="109"/>
+      <c r="AP3" s="109"/>
+      <c r="AR3" s="109"/>
+      <c r="AS3" s="109"/>
+      <c r="AT3" s="109"/>
+      <c r="AU3" s="109"/>
+      <c r="AV3" s="109"/>
+      <c r="AW3" s="109"/>
+      <c r="AX3" s="109"/>
+      <c r="AZ3" s="109"/>
+      <c r="BA3" s="109"/>
+      <c r="BB3" s="109"/>
+      <c r="BC3" s="109"/>
+      <c r="BD3" s="109"/>
+      <c r="BE3" s="109"/>
+      <c r="BF3" s="109"/>
     </row>
     <row r="4" customFormat="1" ht="23.6" spans="1:58">
       <c r="A4" s="21" t="s">
@@ -3329,46 +3332,46 @@
       <c r="N4" s="89"/>
       <c r="O4" s="89"/>
       <c r="P4" s="89"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="100" t="s">
+      <c r="Q4" s="100"/>
+      <c r="R4" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="S4" s="96"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="96"/>
-      <c r="V4" s="96"/>
-      <c r="W4" s="96"/>
-      <c r="X4" s="96"/>
-      <c r="Y4" s="96"/>
-      <c r="AA4" s="108"/>
-      <c r="AB4" s="108"/>
-      <c r="AC4" s="108"/>
-      <c r="AD4" s="108"/>
-      <c r="AE4" s="108"/>
-      <c r="AF4" s="108"/>
-      <c r="AG4" s="108"/>
-      <c r="AH4" s="108"/>
-      <c r="AJ4" s="108"/>
-      <c r="AK4" s="108"/>
-      <c r="AL4" s="108"/>
-      <c r="AM4" s="108"/>
-      <c r="AN4" s="108"/>
-      <c r="AO4" s="108"/>
-      <c r="AP4" s="108"/>
-      <c r="AR4" s="108"/>
-      <c r="AS4" s="108"/>
-      <c r="AT4" s="108"/>
-      <c r="AU4" s="108"/>
-      <c r="AV4" s="108"/>
-      <c r="AW4" s="108"/>
-      <c r="AX4" s="108"/>
-      <c r="AZ4" s="108"/>
-      <c r="BA4" s="108"/>
-      <c r="BB4" s="108"/>
-      <c r="BC4" s="108"/>
-      <c r="BD4" s="108"/>
-      <c r="BE4" s="108"/>
-      <c r="BF4" s="108"/>
+      <c r="S4" s="97"/>
+      <c r="T4" s="97"/>
+      <c r="U4" s="97"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="97"/>
+      <c r="X4" s="97"/>
+      <c r="Y4" s="97"/>
+      <c r="AA4" s="109"/>
+      <c r="AB4" s="109"/>
+      <c r="AC4" s="109"/>
+      <c r="AD4" s="109"/>
+      <c r="AE4" s="109"/>
+      <c r="AF4" s="109"/>
+      <c r="AG4" s="109"/>
+      <c r="AH4" s="109"/>
+      <c r="AJ4" s="109"/>
+      <c r="AK4" s="109"/>
+      <c r="AL4" s="109"/>
+      <c r="AM4" s="109"/>
+      <c r="AN4" s="109"/>
+      <c r="AO4" s="109"/>
+      <c r="AP4" s="109"/>
+      <c r="AR4" s="109"/>
+      <c r="AS4" s="109"/>
+      <c r="AT4" s="109"/>
+      <c r="AU4" s="109"/>
+      <c r="AV4" s="109"/>
+      <c r="AW4" s="109"/>
+      <c r="AX4" s="109"/>
+      <c r="AZ4" s="109"/>
+      <c r="BA4" s="109"/>
+      <c r="BB4" s="109"/>
+      <c r="BC4" s="109"/>
+      <c r="BD4" s="109"/>
+      <c r="BE4" s="109"/>
+      <c r="BF4" s="109"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="45" spans="1:19">
       <c r="A5" s="21" t="s">
@@ -3414,11 +3417,11 @@
       <c r="N5" s="89"/>
       <c r="O5" s="89"/>
       <c r="P5" s="89"/>
-      <c r="Q5" s="99"/>
-      <c r="R5" s="101" t="s">
+      <c r="Q5" s="100"/>
+      <c r="R5" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="S5" s="102"/>
+      <c r="S5" s="103"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="45" spans="1:19">
       <c r="A6" s="21" t="s">
@@ -3464,11 +3467,11 @@
       <c r="N6" s="89"/>
       <c r="O6" s="89"/>
       <c r="P6" s="89"/>
-      <c r="Q6" s="99"/>
-      <c r="R6" s="101" t="s">
+      <c r="Q6" s="100"/>
+      <c r="R6" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="S6" s="102"/>
+      <c r="S6" s="103"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="45" spans="1:19">
       <c r="A7" s="21" t="s">
@@ -3514,11 +3517,11 @@
       <c r="N7" s="89"/>
       <c r="O7" s="89"/>
       <c r="P7" s="89"/>
-      <c r="Q7" s="99"/>
-      <c r="R7" s="101" t="s">
+      <c r="Q7" s="100"/>
+      <c r="R7" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="S7" s="102"/>
+      <c r="S7" s="103"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="15" spans="1:19">
       <c r="A8" s="21" t="s">
@@ -3566,11 +3569,11 @@
       <c r="N8" s="89"/>
       <c r="O8" s="89"/>
       <c r="P8" s="89"/>
-      <c r="Q8" s="99"/>
-      <c r="R8" s="100" t="s">
+      <c r="Q8" s="100"/>
+      <c r="R8" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="S8" s="102"/>
+      <c r="S8" s="103"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="15" spans="1:18">
       <c r="A9" s="21" t="s">
@@ -3616,8 +3619,8 @@
       <c r="N9" s="89"/>
       <c r="O9" s="89"/>
       <c r="P9" s="89"/>
-      <c r="Q9" s="99"/>
-      <c r="R9" s="100" t="s">
+      <c r="Q9" s="100"/>
+      <c r="R9" s="101" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3665,8 +3668,8 @@
       <c r="N10" s="89"/>
       <c r="O10" s="89"/>
       <c r="P10" s="89"/>
-      <c r="Q10" s="99"/>
-      <c r="R10" s="100" t="s">
+      <c r="Q10" s="100"/>
+      <c r="R10" s="101" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3677,7 +3680,7 @@
       <c r="B11" s="22">
         <v>44539</v>
       </c>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="110" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="32" t="s">
@@ -3714,11 +3717,11 @@
       <c r="N11" s="89"/>
       <c r="O11" s="89"/>
       <c r="P11" s="89"/>
-      <c r="Q11" s="99"/>
-      <c r="R11" s="100" t="s">
+      <c r="Q11" s="100"/>
+      <c r="R11" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="S11" s="102"/>
+      <c r="S11" s="103"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="30" spans="1:18">
       <c r="A12" s="21" t="s">
@@ -3763,8 +3766,8 @@
       <c r="N12" s="89"/>
       <c r="O12" s="89"/>
       <c r="P12" s="89"/>
-      <c r="Q12" s="99"/>
-      <c r="R12" s="101" t="s">
+      <c r="Q12" s="100"/>
+      <c r="R12" s="102" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3812,11 +3815,11 @@
       <c r="N13" s="89"/>
       <c r="O13" s="89"/>
       <c r="P13" s="89"/>
-      <c r="Q13" s="99"/>
-      <c r="R13" s="100" t="s">
+      <c r="Q13" s="100"/>
+      <c r="R13" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="S13" s="102"/>
+      <c r="S13" s="103"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="15" spans="1:19">
       <c r="A14" s="21" t="s">
@@ -3825,7 +3828,7 @@
       <c r="B14" s="22">
         <v>44525</v>
       </c>
-      <c r="C14" s="110" t="s">
+      <c r="C14" s="111" t="s">
         <v>50</v>
       </c>
       <c r="D14" s="27" t="s">
@@ -3862,11 +3865,11 @@
       <c r="N14" s="89"/>
       <c r="O14" s="89"/>
       <c r="P14" s="89"/>
-      <c r="Q14" s="99"/>
-      <c r="R14" s="103" t="s">
+      <c r="Q14" s="100"/>
+      <c r="R14" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="S14" s="102"/>
+      <c r="S14" s="103"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="15" spans="1:19">
       <c r="A15" s="21" t="s">
@@ -3912,11 +3915,11 @@
       <c r="N15" s="89"/>
       <c r="O15" s="89"/>
       <c r="P15" s="89"/>
-      <c r="Q15" s="99"/>
-      <c r="R15" s="103" t="s">
+      <c r="Q15" s="100"/>
+      <c r="R15" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="S15" s="102"/>
+      <c r="S15" s="103"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="15" spans="1:19">
       <c r="A16" s="21" t="s">
@@ -3962,11 +3965,11 @@
       <c r="N16" s="89"/>
       <c r="O16" s="89"/>
       <c r="P16" s="89"/>
-      <c r="Q16" s="99"/>
-      <c r="R16" s="103" t="s">
+      <c r="Q16" s="100"/>
+      <c r="R16" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="S16" s="102"/>
+      <c r="S16" s="103"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="15" spans="1:19">
       <c r="A17" s="21" t="s">
@@ -4012,11 +4015,11 @@
       <c r="N17" s="89"/>
       <c r="O17" s="89"/>
       <c r="P17" s="89"/>
-      <c r="Q17" s="99"/>
-      <c r="R17" s="103" t="s">
+      <c r="Q17" s="100"/>
+      <c r="R17" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="S17" s="102"/>
+      <c r="S17" s="103"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="15" spans="1:19">
       <c r="A18" s="21" t="s">
@@ -4025,7 +4028,7 @@
       <c r="B18" s="22">
         <v>44533</v>
       </c>
-      <c r="C18" s="110" t="s">
+      <c r="C18" s="111" t="s">
         <v>60</v>
       </c>
       <c r="D18" s="27" t="s">
@@ -4062,11 +4065,11 @@
       <c r="N18" s="89"/>
       <c r="O18" s="89"/>
       <c r="P18" s="89"/>
-      <c r="Q18" s="99"/>
-      <c r="R18" s="103" t="s">
+      <c r="Q18" s="100"/>
+      <c r="R18" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="S18" s="102"/>
+      <c r="S18" s="103"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="15" spans="1:18">
       <c r="A19" s="21" t="s">
@@ -4114,8 +4117,8 @@
       <c r="N19" s="89"/>
       <c r="O19" s="89"/>
       <c r="P19" s="89"/>
-      <c r="Q19" s="99"/>
-      <c r="R19" s="103" t="s">
+      <c r="Q19" s="100"/>
+      <c r="R19" s="104" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4163,8 +4166,8 @@
       <c r="N20" s="89"/>
       <c r="O20" s="89"/>
       <c r="P20" s="89"/>
-      <c r="Q20" s="99"/>
-      <c r="R20" s="104" t="s">
+      <c r="Q20" s="100"/>
+      <c r="R20" s="105" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4212,8 +4215,8 @@
       <c r="N21" s="89"/>
       <c r="O21" s="89"/>
       <c r="P21" s="89"/>
-      <c r="Q21" s="99"/>
-      <c r="R21" s="104" t="s">
+      <c r="Q21" s="100"/>
+      <c r="R21" s="105" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4224,7 +4227,7 @@
       <c r="B22" s="34">
         <v>44553</v>
       </c>
-      <c r="C22" s="111" t="s">
+      <c r="C22" s="112" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="36" t="s">
@@ -4263,8 +4266,8 @@
       <c r="N22" s="89"/>
       <c r="O22" s="89"/>
       <c r="P22" s="89"/>
-      <c r="Q22" s="99"/>
-      <c r="R22" s="104" t="s">
+      <c r="Q22" s="100"/>
+      <c r="R22" s="105" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4275,7 +4278,7 @@
       <c r="B23" s="34">
         <v>44546</v>
       </c>
-      <c r="C23" s="109" t="s">
+      <c r="C23" s="110" t="s">
         <v>73</v>
       </c>
       <c r="D23" s="29" t="s">
@@ -4312,8 +4315,8 @@
       <c r="N23" s="89"/>
       <c r="O23" s="89"/>
       <c r="P23" s="89"/>
-      <c r="Q23" s="99"/>
-      <c r="R23" s="104" t="s">
+      <c r="Q23" s="100"/>
+      <c r="R23" s="105" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4363,8 +4366,8 @@
       <c r="N24" s="89"/>
       <c r="O24" s="89"/>
       <c r="P24" s="89"/>
-      <c r="Q24" s="99"/>
-      <c r="R24" s="105" t="s">
+      <c r="Q24" s="100"/>
+      <c r="R24" s="106" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4375,7 +4378,7 @@
       <c r="B25" s="34">
         <v>44547</v>
       </c>
-      <c r="C25" s="109" t="s">
+      <c r="C25" s="110" t="s">
         <v>79</v>
       </c>
       <c r="D25" s="29" t="s">
@@ -4414,8 +4417,8 @@
       <c r="N25" s="89"/>
       <c r="O25" s="89"/>
       <c r="P25" s="89"/>
-      <c r="Q25" s="99"/>
-      <c r="R25" s="104" t="s">
+      <c r="Q25" s="100"/>
+      <c r="R25" s="105" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4426,7 +4429,7 @@
       <c r="B26" s="34">
         <v>44549</v>
       </c>
-      <c r="C26" s="109" t="s">
+      <c r="C26" s="110" t="s">
         <v>42</v>
       </c>
       <c r="D26" s="32" t="s">
@@ -4463,8 +4466,8 @@
       <c r="N26" s="89"/>
       <c r="O26" s="89"/>
       <c r="P26" s="89"/>
-      <c r="Q26" s="99"/>
-      <c r="R26" s="104" t="s">
+      <c r="Q26" s="100"/>
+      <c r="R26" s="105" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4512,8 +4515,8 @@
       <c r="N27" s="89"/>
       <c r="O27" s="89"/>
       <c r="P27" s="89"/>
-      <c r="Q27" s="99"/>
-      <c r="R27" s="104" t="s">
+      <c r="Q27" s="100"/>
+      <c r="R27" s="105" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4563,11 +4566,11 @@
       <c r="N28" s="89"/>
       <c r="O28" s="89"/>
       <c r="P28" s="89"/>
-      <c r="Q28" s="99">
+      <c r="Q28" s="100">
         <f>F28*K28</f>
         <v>16797</v>
       </c>
-      <c r="R28" s="105" t="s">
+      <c r="R28" s="106" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4615,11 +4618,11 @@
       <c r="N29" s="89"/>
       <c r="O29" s="89"/>
       <c r="P29" s="89"/>
-      <c r="Q29" s="99">
+      <c r="Q29" s="100">
         <f t="shared" ref="Q29:Q51" si="9">F29*K29</f>
         <v>18380</v>
       </c>
-      <c r="R29" s="104" t="s">
+      <c r="R29" s="105" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4630,7 +4633,7 @@
       <c r="B30" s="34">
         <v>44549</v>
       </c>
-      <c r="C30" s="112" t="s">
+      <c r="C30" s="113" t="s">
         <v>91</v>
       </c>
       <c r="D30" s="41" t="s">
@@ -4669,11 +4672,11 @@
       <c r="N30" s="89"/>
       <c r="O30" s="89"/>
       <c r="P30" s="89"/>
-      <c r="Q30" s="99">
+      <c r="Q30" s="100">
         <f t="shared" si="9"/>
         <v>22144</v>
       </c>
-      <c r="R30" s="105" t="s">
+      <c r="R30" s="106" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4723,11 +4726,11 @@
       <c r="N31" s="89"/>
       <c r="O31" s="89"/>
       <c r="P31" s="89"/>
-      <c r="Q31" s="99">
+      <c r="Q31" s="100">
         <f t="shared" si="9"/>
         <v>15664</v>
       </c>
-      <c r="R31" s="105" t="s">
+      <c r="R31" s="106" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4777,11 +4780,11 @@
       <c r="N32" s="89"/>
       <c r="O32" s="89"/>
       <c r="P32" s="89"/>
-      <c r="Q32" s="99">
+      <c r="Q32" s="100">
         <f t="shared" si="9"/>
         <v>10850</v>
       </c>
-      <c r="R32" s="106" t="s">
+      <c r="R32" s="107" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4831,11 +4834,11 @@
       <c r="N33" s="89"/>
       <c r="O33" s="89"/>
       <c r="P33" s="89"/>
-      <c r="Q33" s="99">
+      <c r="Q33" s="100">
         <f t="shared" si="9"/>
         <v>14780</v>
       </c>
-      <c r="R33" s="105" t="s">
+      <c r="R33" s="106" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4885,11 +4888,11 @@
       <c r="N34" s="89"/>
       <c r="O34" s="89"/>
       <c r="P34" s="89"/>
-      <c r="Q34" s="99">
+      <c r="Q34" s="100">
         <f t="shared" si="9"/>
         <v>20319</v>
       </c>
-      <c r="R34" s="104" t="s">
+      <c r="R34" s="105" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4900,7 +4903,7 @@
       <c r="B35" s="42">
         <v>44553</v>
       </c>
-      <c r="C35" s="113" t="s">
+      <c r="C35" s="114" t="s">
         <v>102</v>
       </c>
       <c r="D35" s="40" t="s">
@@ -4939,11 +4942,11 @@
       <c r="N35" s="89"/>
       <c r="O35" s="89"/>
       <c r="P35" s="89"/>
-      <c r="Q35" s="99">
+      <c r="Q35" s="100">
         <f t="shared" si="9"/>
         <v>19325</v>
       </c>
-      <c r="R35" s="105" t="s">
+      <c r="R35" s="106" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4954,7 +4957,7 @@
       <c r="B36" s="48">
         <v>44553</v>
       </c>
-      <c r="C36" s="113" t="s">
+      <c r="C36" s="114" t="s">
         <v>105</v>
       </c>
       <c r="D36" s="40" t="s">
@@ -4993,11 +4996,11 @@
       <c r="N36" s="89"/>
       <c r="O36" s="89"/>
       <c r="P36" s="89"/>
-      <c r="Q36" s="99">
+      <c r="Q36" s="100">
         <f t="shared" si="9"/>
         <v>37020</v>
       </c>
-      <c r="R36" s="105" t="s">
+      <c r="R36" s="106" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5047,11 +5050,11 @@
       <c r="N37" s="89"/>
       <c r="O37" s="89"/>
       <c r="P37" s="89"/>
-      <c r="Q37" s="99">
+      <c r="Q37" s="100">
         <f t="shared" si="9"/>
         <v>26019</v>
       </c>
-      <c r="R37" s="104" t="s">
+      <c r="R37" s="105" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5101,11 +5104,11 @@
       <c r="N38" s="89"/>
       <c r="O38" s="89"/>
       <c r="P38" s="89"/>
-      <c r="Q38" s="99">
+      <c r="Q38" s="100">
         <f t="shared" si="9"/>
         <v>22750</v>
       </c>
-      <c r="R38" s="105" t="s">
+      <c r="R38" s="106" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5155,11 +5158,11 @@
       <c r="N39" s="89"/>
       <c r="O39" s="89"/>
       <c r="P39" s="89"/>
-      <c r="Q39" s="99">
+      <c r="Q39" s="100">
         <f t="shared" si="9"/>
         <v>13011</v>
       </c>
-      <c r="R39" s="106" t="s">
+      <c r="R39" s="107" t="s">
         <v>96</v>
       </c>
     </row>
@@ -5209,11 +5212,11 @@
       <c r="N40" s="89"/>
       <c r="O40" s="89"/>
       <c r="P40" s="89"/>
-      <c r="Q40" s="99">
+      <c r="Q40" s="100">
         <f t="shared" si="9"/>
         <v>24240</v>
       </c>
-      <c r="R40" s="105" t="s">
+      <c r="R40" s="106" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5263,11 +5266,11 @@
       <c r="N41" s="89"/>
       <c r="O41" s="89"/>
       <c r="P41" s="89"/>
-      <c r="Q41" s="99">
+      <c r="Q41" s="100">
         <f t="shared" si="9"/>
         <v>14688</v>
       </c>
-      <c r="R41" s="105" t="s">
+      <c r="R41" s="106" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5278,7 +5281,7 @@
       <c r="B42" s="48">
         <v>44557</v>
       </c>
-      <c r="C42" s="113" t="s">
+      <c r="C42" s="114" t="s">
         <v>119</v>
       </c>
       <c r="D42" s="41" t="s">
@@ -5317,11 +5320,11 @@
       <c r="N42" s="89"/>
       <c r="O42" s="89"/>
       <c r="P42" s="89"/>
-      <c r="Q42" s="99">
+      <c r="Q42" s="100">
         <f t="shared" si="9"/>
         <v>19916</v>
       </c>
-      <c r="R42" s="106" t="s">
+      <c r="R42" s="107" t="s">
         <v>96</v>
       </c>
     </row>
@@ -5371,11 +5374,11 @@
       <c r="N43" s="89"/>
       <c r="O43" s="89"/>
       <c r="P43" s="89"/>
-      <c r="Q43" s="99">
+      <c r="Q43" s="100">
         <f t="shared" si="9"/>
         <v>22205</v>
       </c>
-      <c r="R43" s="106" t="s">
+      <c r="R43" s="107" t="s">
         <v>96</v>
       </c>
     </row>
@@ -5424,11 +5427,11 @@
       <c r="N44" s="89"/>
       <c r="O44" s="89"/>
       <c r="P44" s="89"/>
-      <c r="Q44" s="99">
+      <c r="Q44" s="100">
         <f t="shared" si="9"/>
         <v>7234</v>
       </c>
-      <c r="R44" s="106" t="s">
+      <c r="R44" s="107" t="s">
         <v>96</v>
       </c>
     </row>
@@ -5478,7 +5481,7 @@
       <c r="N45" s="89"/>
       <c r="O45" s="89"/>
       <c r="P45" s="89"/>
-      <c r="Q45" s="99">
+      <c r="Q45" s="100">
         <f t="shared" si="9"/>
         <v>12144</v>
       </c>
@@ -5532,11 +5535,11 @@
       <c r="N46" s="89"/>
       <c r="O46" s="89"/>
       <c r="P46" s="89"/>
-      <c r="Q46" s="99">
+      <c r="Q46" s="100">
         <f t="shared" si="9"/>
         <v>15795</v>
       </c>
-      <c r="R46" s="105" t="s">
+      <c r="R46" s="106" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5547,7 +5550,7 @@
       <c r="B47" s="42">
         <v>44565</v>
       </c>
-      <c r="C47" s="111" t="s">
+      <c r="C47" s="112" t="s">
         <v>50</v>
       </c>
       <c r="D47" s="51" t="s">
@@ -5559,7 +5562,9 @@
       <c r="F47" s="72">
         <v>77.77</v>
       </c>
-      <c r="G47" s="72"/>
+      <c r="G47" s="72">
+        <v>92.35</v>
+      </c>
       <c r="H47" s="72">
         <v>73.27</v>
       </c>
@@ -5583,14 +5588,23 @@
         <f t="shared" si="6"/>
         <v>0.0578629291500579</v>
       </c>
-      <c r="N47" s="89"/>
-      <c r="O47" s="89"/>
-      <c r="P47" s="89"/>
-      <c r="Q47" s="99">
+      <c r="N47" s="90">
+        <f>(G47-83.92)/G47</f>
+        <v>0.0912831618841364</v>
+      </c>
+      <c r="O47" s="91">
+        <f>((F47-H47)*100+(G47-83.92)*200)/(F47*100+G47*200)</f>
+        <v>0.0813807292261972</v>
+      </c>
+      <c r="P47" s="90">
+        <f>(G47-F47)/F47</f>
+        <v>0.187475890446187</v>
+      </c>
+      <c r="Q47" s="100">
         <f t="shared" si="9"/>
         <v>23331</v>
       </c>
-      <c r="R47" s="105" t="s">
+      <c r="R47" s="106" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5601,7 +5615,7 @@
       <c r="B48" s="42">
         <v>44565</v>
       </c>
-      <c r="C48" s="113" t="s">
+      <c r="C48" s="114" t="s">
         <v>129</v>
       </c>
       <c r="D48" s="41" t="s">
@@ -5640,11 +5654,11 @@
       <c r="N48" s="89"/>
       <c r="O48" s="89"/>
       <c r="P48" s="89"/>
-      <c r="Q48" s="99">
+      <c r="Q48" s="100">
         <f t="shared" si="9"/>
         <v>19485</v>
       </c>
-      <c r="R48" s="104" t="s">
+      <c r="R48" s="105" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5694,11 +5708,11 @@
       <c r="N49" s="89"/>
       <c r="O49" s="89"/>
       <c r="P49" s="89"/>
-      <c r="Q49" s="99">
+      <c r="Q49" s="100">
         <f t="shared" si="9"/>
         <v>16180</v>
       </c>
-      <c r="R49" s="104" t="s">
+      <c r="R49" s="105" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5759,11 +5773,11 @@
         <f>(G50-F50)/F50</f>
         <v>0.0162540635158789</v>
       </c>
-      <c r="Q50" s="99">
+      <c r="Q50" s="100">
         <f t="shared" si="9"/>
         <v>15996</v>
       </c>
-      <c r="R50" s="104" t="s">
+      <c r="R50" s="105" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5824,11 +5838,11 @@
         <f>(G51-F51)/F51</f>
         <v>0.0469565217391304</v>
       </c>
-      <c r="Q51" s="99">
+      <c r="Q51" s="100">
         <f t="shared" si="9"/>
         <v>27600</v>
       </c>
-      <c r="R51" s="105" t="s">
+      <c r="R51" s="106" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5875,14 +5889,14 @@
         <f t="shared" si="6"/>
         <v>0.0786009778112072</v>
       </c>
-      <c r="N52" s="91"/>
-      <c r="O52" s="91"/>
-      <c r="P52" s="91"/>
-      <c r="Q52" s="99">
+      <c r="N52" s="92"/>
+      <c r="O52" s="92"/>
+      <c r="P52" s="92"/>
+      <c r="Q52" s="100">
         <f>F52*K52</f>
         <v>18613</v>
       </c>
-      <c r="R52" s="104" t="s">
+      <c r="R52" s="105" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5929,10 +5943,10 @@
         <f>(F53-H53)/F53</f>
         <v>0.0652173913043478</v>
       </c>
-      <c r="N53" s="91"/>
-      <c r="O53" s="91"/>
-      <c r="P53" s="91"/>
-      <c r="Q53" s="99">
+      <c r="N53" s="92"/>
+      <c r="O53" s="92"/>
+      <c r="P53" s="92"/>
+      <c r="Q53" s="100">
         <f>F53*K53</f>
         <v>13800</v>
       </c>
@@ -5953,11 +5967,11 @@
       <c r="J54" s="54"/>
       <c r="K54" s="54"/>
       <c r="L54" s="54"/>
-      <c r="M54" s="92"/>
-      <c r="N54" s="93"/>
-      <c r="O54" s="93"/>
-      <c r="P54" s="93"/>
-      <c r="Q54" s="107"/>
+      <c r="M54" s="93"/>
+      <c r="N54" s="94"/>
+      <c r="O54" s="94"/>
+      <c r="P54" s="94"/>
+      <c r="Q54" s="108"/>
       <c r="R54" s="49"/>
     </row>
     <row r="55" spans="1:18">
@@ -5973,11 +5987,11 @@
       <c r="J55" s="54"/>
       <c r="K55" s="54"/>
       <c r="L55" s="54"/>
-      <c r="M55" s="92"/>
-      <c r="N55" s="93"/>
-      <c r="O55" s="93"/>
-      <c r="P55" s="93"/>
-      <c r="Q55" s="107"/>
+      <c r="M55" s="93"/>
+      <c r="N55" s="94"/>
+      <c r="O55" s="94"/>
+      <c r="P55" s="94"/>
+      <c r="Q55" s="108"/>
       <c r="R55" s="49"/>
     </row>
     <row r="56" spans="1:18">
@@ -5993,32 +6007,26 @@
       <c r="J56" s="54"/>
       <c r="K56" s="54"/>
       <c r="L56" s="54"/>
-      <c r="M56" s="92"/>
-      <c r="N56" s="93"/>
-      <c r="O56" s="93"/>
-      <c r="P56" s="93"/>
-      <c r="Q56" s="107"/>
+      <c r="M56" s="93"/>
+      <c r="N56" s="94"/>
+      <c r="O56" s="94"/>
+      <c r="P56" s="94"/>
+      <c r="Q56" s="108"/>
       <c r="R56" s="49"/>
     </row>
-    <row r="57" spans="1:18">
-      <c r="A57" s="54"/>
-      <c r="B57" s="55"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="78"/>
-      <c r="F57" s="78"/>
-      <c r="G57" s="78"/>
-      <c r="H57" s="78"/>
-      <c r="I57" s="78"/>
-      <c r="J57" s="54"/>
-      <c r="K57" s="54"/>
-      <c r="L57" s="54"/>
-      <c r="M57" s="92"/>
-      <c r="N57" s="93"/>
-      <c r="O57" s="93"/>
-      <c r="P57" s="93"/>
-      <c r="Q57" s="107"/>
-      <c r="R57" s="49"/>
+    <row r="57" spans="1:13">
+      <c r="A57" s="7"/>
+      <c r="B57" s="56"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="79"/>
+      <c r="G57" s="79"/>
+      <c r="H57" s="79"/>
+      <c r="I57" s="79"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="95"/>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="7"/>
@@ -6032,7 +6040,7 @@
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
-      <c r="M58" s="94"/>
+      <c r="M58" s="95"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="7"/>
@@ -6046,7 +6054,7 @@
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
-      <c r="M59" s="94"/>
+      <c r="M59" s="95"/>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="7"/>
@@ -6060,7 +6068,7 @@
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
-      <c r="M60" s="94"/>
+      <c r="M60" s="95"/>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="7"/>
@@ -6074,7 +6082,7 @@
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
-      <c r="M61" s="94"/>
+      <c r="M61" s="95"/>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="7"/>
@@ -6088,7 +6096,7 @@
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
       <c r="L62" s="7"/>
-      <c r="M62" s="94"/>
+      <c r="M62" s="95"/>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="7"/>
@@ -6102,7 +6110,7 @@
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
       <c r="L63" s="7"/>
-      <c r="M63" s="94"/>
+      <c r="M63" s="95"/>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="7"/>
@@ -6116,7 +6124,7 @@
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
-      <c r="M64" s="94"/>
+      <c r="M64" s="95"/>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="7"/>
@@ -6130,7 +6138,7 @@
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
-      <c r="M65" s="94"/>
+      <c r="M65" s="95"/>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="7"/>
@@ -6144,7 +6152,7 @@
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
-      <c r="M66" s="94"/>
+      <c r="M66" s="95"/>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="7"/>
@@ -6158,7 +6166,7 @@
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
       <c r="L67" s="7"/>
-      <c r="M67" s="94"/>
+      <c r="M67" s="95"/>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="7"/>
@@ -6172,7 +6180,7 @@
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
       <c r="L68" s="7"/>
-      <c r="M68" s="94"/>
+      <c r="M68" s="95"/>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="7"/>
@@ -6186,7 +6194,7 @@
       <c r="J69" s="7"/>
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
-      <c r="M69" s="94"/>
+      <c r="M69" s="95"/>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="7"/>
@@ -6200,7 +6208,7 @@
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
-      <c r="M70" s="94"/>
+      <c r="M70" s="95"/>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="7"/>
@@ -6214,7 +6222,7 @@
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
-      <c r="M71" s="94"/>
+      <c r="M71" s="95"/>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="7"/>
@@ -6228,7 +6236,7 @@
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>
       <c r="L72" s="7"/>
-      <c r="M72" s="94"/>
+      <c r="M72" s="95"/>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="7"/>
@@ -6242,7 +6250,7 @@
       <c r="J73" s="7"/>
       <c r="K73" s="7"/>
       <c r="L73" s="7"/>
-      <c r="M73" s="94"/>
+      <c r="M73" s="95"/>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="7"/>
@@ -6256,7 +6264,7 @@
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
-      <c r="M74" s="94"/>
+      <c r="M74" s="95"/>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="7"/>
@@ -6270,7 +6278,7 @@
       <c r="J75" s="7"/>
       <c r="K75" s="7"/>
       <c r="L75" s="7"/>
-      <c r="M75" s="94"/>
+      <c r="M75" s="95"/>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="7"/>
@@ -6284,7 +6292,7 @@
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
-      <c r="M76" s="94"/>
+      <c r="M76" s="95"/>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="7"/>
@@ -6298,7 +6306,7 @@
       <c r="J77" s="7"/>
       <c r="K77" s="7"/>
       <c r="L77" s="7"/>
-      <c r="M77" s="94"/>
+      <c r="M77" s="95"/>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="7"/>
@@ -6312,7 +6320,7 @@
       <c r="J78" s="7"/>
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
-      <c r="M78" s="94"/>
+      <c r="M78" s="95"/>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="7"/>
@@ -6326,7 +6334,7 @@
       <c r="J79" s="7"/>
       <c r="K79" s="7"/>
       <c r="L79" s="7"/>
-      <c r="M79" s="94"/>
+      <c r="M79" s="95"/>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="7"/>
@@ -6340,7 +6348,7 @@
       <c r="J80" s="7"/>
       <c r="K80" s="7"/>
       <c r="L80" s="7"/>
-      <c r="M80" s="94"/>
+      <c r="M80" s="95"/>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="7"/>
@@ -6354,7 +6362,7 @@
       <c r="J81" s="7"/>
       <c r="K81" s="7"/>
       <c r="L81" s="7"/>
-      <c r="M81" s="94"/>
+      <c r="M81" s="95"/>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="7"/>
@@ -6368,7 +6376,7 @@
       <c r="J82" s="7"/>
       <c r="K82" s="7"/>
       <c r="L82" s="7"/>
-      <c r="M82" s="94"/>
+      <c r="M82" s="95"/>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="7"/>
@@ -6382,7 +6390,7 @@
       <c r="J83" s="7"/>
       <c r="K83" s="7"/>
       <c r="L83" s="7"/>
-      <c r="M83" s="94"/>
+      <c r="M83" s="95"/>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="7"/>
@@ -6396,7 +6404,7 @@
       <c r="J84" s="7"/>
       <c r="K84" s="7"/>
       <c r="L84" s="7"/>
-      <c r="M84" s="94"/>
+      <c r="M84" s="95"/>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="7"/>
@@ -6410,7 +6418,7 @@
       <c r="J85" s="7"/>
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
-      <c r="M85" s="94"/>
+      <c r="M85" s="95"/>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="7"/>
@@ -6424,7 +6432,7 @@
       <c r="J86" s="7"/>
       <c r="K86" s="7"/>
       <c r="L86" s="7"/>
-      <c r="M86" s="94"/>
+      <c r="M86" s="95"/>
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="7"/>
@@ -6438,7 +6446,7 @@
       <c r="J87" s="7"/>
       <c r="K87" s="7"/>
       <c r="L87" s="7"/>
-      <c r="M87" s="94"/>
+      <c r="M87" s="95"/>
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="7"/>
@@ -6452,7 +6460,7 @@
       <c r="J88" s="7"/>
       <c r="K88" s="7"/>
       <c r="L88" s="7"/>
-      <c r="M88" s="94"/>
+      <c r="M88" s="95"/>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="7"/>
@@ -6466,7 +6474,7 @@
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
-      <c r="M89" s="94"/>
+      <c r="M89" s="95"/>
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="7"/>
@@ -6480,7 +6488,7 @@
       <c r="J90" s="7"/>
       <c r="K90" s="7"/>
       <c r="L90" s="7"/>
-      <c r="M90" s="94"/>
+      <c r="M90" s="95"/>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="7"/>
@@ -6494,7 +6502,7 @@
       <c r="J91" s="7"/>
       <c r="K91" s="7"/>
       <c r="L91" s="7"/>
-      <c r="M91" s="94"/>
+      <c r="M91" s="95"/>
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="7"/>
@@ -6508,7 +6516,7 @@
       <c r="J92" s="7"/>
       <c r="K92" s="7"/>
       <c r="L92" s="7"/>
-      <c r="M92" s="94"/>
+      <c r="M92" s="95"/>
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="7"/>
@@ -6522,7 +6530,7 @@
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
       <c r="L93" s="7"/>
-      <c r="M93" s="94"/>
+      <c r="M93" s="95"/>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="7"/>
@@ -6536,7 +6544,7 @@
       <c r="J94" s="7"/>
       <c r="K94" s="7"/>
       <c r="L94" s="7"/>
-      <c r="M94" s="94"/>
+      <c r="M94" s="95"/>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="7"/>
@@ -6550,7 +6558,7 @@
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
-      <c r="M95" s="94"/>
+      <c r="M95" s="95"/>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="7"/>
@@ -6564,7 +6572,7 @@
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
-      <c r="M96" s="94"/>
+      <c r="M96" s="95"/>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="7"/>
@@ -6578,7 +6586,7 @@
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
-      <c r="M97" s="94"/>
+      <c r="M97" s="95"/>
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="7"/>
@@ -6592,7 +6600,7 @@
       <c r="J98" s="7"/>
       <c r="K98" s="7"/>
       <c r="L98" s="7"/>
-      <c r="M98" s="94"/>
+      <c r="M98" s="95"/>
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="7"/>
@@ -6606,7 +6614,7 @@
       <c r="J99" s="7"/>
       <c r="K99" s="7"/>
       <c r="L99" s="7"/>
-      <c r="M99" s="94"/>
+      <c r="M99" s="95"/>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="7"/>
@@ -6620,7 +6628,7 @@
       <c r="J100" s="7"/>
       <c r="K100" s="7"/>
       <c r="L100" s="7"/>
-      <c r="M100" s="94"/>
+      <c r="M100" s="95"/>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="7"/>
@@ -6634,7 +6642,7 @@
       <c r="J101" s="7"/>
       <c r="K101" s="7"/>
       <c r="L101" s="7"/>
-      <c r="M101" s="94"/>
+      <c r="M101" s="95"/>
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="7"/>
@@ -6648,7 +6656,7 @@
       <c r="J102" s="7"/>
       <c r="K102" s="7"/>
       <c r="L102" s="7"/>
-      <c r="M102" s="94"/>
+      <c r="M102" s="95"/>
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="7"/>
@@ -6662,7 +6670,7 @@
       <c r="J103" s="7"/>
       <c r="K103" s="7"/>
       <c r="L103" s="7"/>
-      <c r="M103" s="94"/>
+      <c r="M103" s="95"/>
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="7"/>
@@ -6676,7 +6684,7 @@
       <c r="J104" s="7"/>
       <c r="K104" s="7"/>
       <c r="L104" s="7"/>
-      <c r="M104" s="94"/>
+      <c r="M104" s="95"/>
     </row>
     <row r="105" spans="1:13">
       <c r="A105" s="7"/>
@@ -6690,7 +6698,7 @@
       <c r="J105" s="7"/>
       <c r="K105" s="7"/>
       <c r="L105" s="7"/>
-      <c r="M105" s="94"/>
+      <c r="M105" s="95"/>
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="7"/>
@@ -6704,7 +6712,7 @@
       <c r="J106" s="7"/>
       <c r="K106" s="7"/>
       <c r="L106" s="7"/>
-      <c r="M106" s="94"/>
+      <c r="M106" s="95"/>
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="7"/>
@@ -6718,7 +6726,7 @@
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
       <c r="L107" s="7"/>
-      <c r="M107" s="94"/>
+      <c r="M107" s="95"/>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="7"/>
@@ -6732,7 +6740,7 @@
       <c r="J108" s="7"/>
       <c r="K108" s="7"/>
       <c r="L108" s="7"/>
-      <c r="M108" s="94"/>
+      <c r="M108" s="95"/>
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="7"/>
@@ -6746,7 +6754,7 @@
       <c r="J109" s="7"/>
       <c r="K109" s="7"/>
       <c r="L109" s="7"/>
-      <c r="M109" s="94"/>
+      <c r="M109" s="95"/>
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="7"/>
@@ -6760,7 +6768,7 @@
       <c r="J110" s="7"/>
       <c r="K110" s="7"/>
       <c r="L110" s="7"/>
-      <c r="M110" s="94"/>
+      <c r="M110" s="95"/>
     </row>
     <row r="111" spans="1:13">
       <c r="A111" s="7"/>
@@ -6774,7 +6782,7 @@
       <c r="J111" s="7"/>
       <c r="K111" s="7"/>
       <c r="L111" s="7"/>
-      <c r="M111" s="94"/>
+      <c r="M111" s="95"/>
     </row>
     <row r="112" spans="1:13">
       <c r="A112" s="7"/>
@@ -6788,7 +6796,7 @@
       <c r="J112" s="7"/>
       <c r="K112" s="7"/>
       <c r="L112" s="7"/>
-      <c r="M112" s="94"/>
+      <c r="M112" s="95"/>
     </row>
     <row r="113" spans="1:13">
       <c r="A113" s="7"/>
@@ -6802,7 +6810,7 @@
       <c r="J113" s="7"/>
       <c r="K113" s="7"/>
       <c r="L113" s="7"/>
-      <c r="M113" s="94"/>
+      <c r="M113" s="95"/>
     </row>
     <row r="114" spans="1:13">
       <c r="A114" s="7"/>
@@ -6816,7 +6824,7 @@
       <c r="J114" s="7"/>
       <c r="K114" s="7"/>
       <c r="L114" s="7"/>
-      <c r="M114" s="94"/>
+      <c r="M114" s="95"/>
     </row>
     <row r="115" spans="1:13">
       <c r="A115" s="7"/>
@@ -6830,7 +6838,7 @@
       <c r="J115" s="7"/>
       <c r="K115" s="7"/>
       <c r="L115" s="7"/>
-      <c r="M115" s="94"/>
+      <c r="M115" s="95"/>
     </row>
     <row r="116" spans="1:13">
       <c r="A116" s="7"/>
@@ -6844,7 +6852,7 @@
       <c r="J116" s="7"/>
       <c r="K116" s="7"/>
       <c r="L116" s="7"/>
-      <c r="M116" s="94"/>
+      <c r="M116" s="95"/>
     </row>
     <row r="117" spans="1:13">
       <c r="A117" s="7"/>
@@ -6858,7 +6866,7 @@
       <c r="J117" s="7"/>
       <c r="K117" s="7"/>
       <c r="L117" s="7"/>
-      <c r="M117" s="94"/>
+      <c r="M117" s="95"/>
     </row>
     <row r="118" spans="1:13">
       <c r="A118" s="7"/>
@@ -6872,7 +6880,7 @@
       <c r="J118" s="7"/>
       <c r="K118" s="7"/>
       <c r="L118" s="7"/>
-      <c r="M118" s="94"/>
+      <c r="M118" s="95"/>
     </row>
     <row r="119" spans="1:13">
       <c r="A119" s="7"/>
@@ -6886,7 +6894,7 @@
       <c r="J119" s="7"/>
       <c r="K119" s="7"/>
       <c r="L119" s="7"/>
-      <c r="M119" s="94"/>
+      <c r="M119" s="95"/>
     </row>
     <row r="120" spans="1:13">
       <c r="A120" s="7"/>
@@ -6900,7 +6908,7 @@
       <c r="J120" s="7"/>
       <c r="K120" s="7"/>
       <c r="L120" s="7"/>
-      <c r="M120" s="94"/>
+      <c r="M120" s="95"/>
     </row>
     <row r="121" spans="1:13">
       <c r="A121" s="7"/>
@@ -6914,7 +6922,7 @@
       <c r="J121" s="7"/>
       <c r="K121" s="7"/>
       <c r="L121" s="7"/>
-      <c r="M121" s="94"/>
+      <c r="M121" s="95"/>
     </row>
     <row r="122" spans="1:13">
       <c r="A122" s="7"/>
@@ -6928,7 +6936,7 @@
       <c r="J122" s="7"/>
       <c r="K122" s="7"/>
       <c r="L122" s="7"/>
-      <c r="M122" s="94"/>
+      <c r="M122" s="95"/>
     </row>
     <row r="123" spans="1:13">
       <c r="A123" s="7"/>
@@ -6942,7 +6950,7 @@
       <c r="J123" s="7"/>
       <c r="K123" s="7"/>
       <c r="L123" s="7"/>
-      <c r="M123" s="94"/>
+      <c r="M123" s="95"/>
     </row>
     <row r="124" spans="1:13">
       <c r="A124" s="7"/>
@@ -6956,7 +6964,7 @@
       <c r="J124" s="7"/>
       <c r="K124" s="7"/>
       <c r="L124" s="7"/>
-      <c r="M124" s="94"/>
+      <c r="M124" s="95"/>
     </row>
     <row r="125" spans="1:13">
       <c r="A125" s="7"/>
@@ -6970,7 +6978,7 @@
       <c r="J125" s="7"/>
       <c r="K125" s="7"/>
       <c r="L125" s="7"/>
-      <c r="M125" s="94"/>
+      <c r="M125" s="95"/>
     </row>
     <row r="126" spans="1:13">
       <c r="A126" s="7"/>
@@ -6984,7 +6992,7 @@
       <c r="J126" s="7"/>
       <c r="K126" s="7"/>
       <c r="L126" s="7"/>
-      <c r="M126" s="94"/>
+      <c r="M126" s="95"/>
     </row>
     <row r="127" spans="1:13">
       <c r="A127" s="7"/>
@@ -6998,7 +7006,7 @@
       <c r="J127" s="7"/>
       <c r="K127" s="7"/>
       <c r="L127" s="7"/>
-      <c r="M127" s="94"/>
+      <c r="M127" s="95"/>
     </row>
     <row r="128" spans="1:13">
       <c r="A128" s="7"/>
@@ -7012,7 +7020,7 @@
       <c r="J128" s="7"/>
       <c r="K128" s="7"/>
       <c r="L128" s="7"/>
-      <c r="M128" s="94"/>
+      <c r="M128" s="95"/>
     </row>
     <row r="129" spans="1:13">
       <c r="A129" s="7"/>
@@ -7026,7 +7034,7 @@
       <c r="J129" s="7"/>
       <c r="K129" s="7"/>
       <c r="L129" s="7"/>
-      <c r="M129" s="94"/>
+      <c r="M129" s="95"/>
     </row>
     <row r="130" spans="1:13">
       <c r="A130" s="7"/>
@@ -7040,7 +7048,7 @@
       <c r="J130" s="7"/>
       <c r="K130" s="7"/>
       <c r="L130" s="7"/>
-      <c r="M130" s="94"/>
+      <c r="M130" s="95"/>
     </row>
     <row r="131" spans="1:13">
       <c r="A131" s="7"/>
@@ -7054,7 +7062,7 @@
       <c r="J131" s="7"/>
       <c r="K131" s="7"/>
       <c r="L131" s="7"/>
-      <c r="M131" s="94"/>
+      <c r="M131" s="95"/>
     </row>
     <row r="132" spans="1:13">
       <c r="A132" s="7"/>
@@ -7068,7 +7076,7 @@
       <c r="J132" s="7"/>
       <c r="K132" s="7"/>
       <c r="L132" s="7"/>
-      <c r="M132" s="94"/>
+      <c r="M132" s="95"/>
     </row>
     <row r="133" spans="1:13">
       <c r="A133" s="7"/>
@@ -7082,7 +7090,7 @@
       <c r="J133" s="7"/>
       <c r="K133" s="7"/>
       <c r="L133" s="7"/>
-      <c r="M133" s="94"/>
+      <c r="M133" s="95"/>
     </row>
     <row r="134" spans="1:13">
       <c r="A134" s="7"/>
@@ -7096,7 +7104,7 @@
       <c r="J134" s="7"/>
       <c r="K134" s="7"/>
       <c r="L134" s="7"/>
-      <c r="M134" s="94"/>
+      <c r="M134" s="95"/>
     </row>
     <row r="135" spans="1:13">
       <c r="A135" s="7"/>
@@ -7110,7 +7118,7 @@
       <c r="J135" s="7"/>
       <c r="K135" s="7"/>
       <c r="L135" s="7"/>
-      <c r="M135" s="94"/>
+      <c r="M135" s="95"/>
     </row>
     <row r="136" spans="1:13">
       <c r="A136" s="7"/>
@@ -7124,7 +7132,7 @@
       <c r="J136" s="7"/>
       <c r="K136" s="7"/>
       <c r="L136" s="7"/>
-      <c r="M136" s="94"/>
+      <c r="M136" s="95"/>
     </row>
     <row r="137" spans="1:13">
       <c r="A137" s="7"/>
@@ -7138,7 +7146,7 @@
       <c r="J137" s="7"/>
       <c r="K137" s="7"/>
       <c r="L137" s="7"/>
-      <c r="M137" s="94"/>
+      <c r="M137" s="95"/>
     </row>
     <row r="138" spans="1:13">
       <c r="A138" s="7"/>
@@ -7152,7 +7160,7 @@
       <c r="J138" s="7"/>
       <c r="K138" s="7"/>
       <c r="L138" s="7"/>
-      <c r="M138" s="94"/>
+      <c r="M138" s="95"/>
     </row>
     <row r="139" spans="1:13">
       <c r="A139" s="7"/>
@@ -7166,7 +7174,7 @@
       <c r="J139" s="7"/>
       <c r="K139" s="7"/>
       <c r="L139" s="7"/>
-      <c r="M139" s="94"/>
+      <c r="M139" s="95"/>
     </row>
     <row r="140" spans="1:13">
       <c r="A140" s="7"/>
@@ -7180,7 +7188,7 @@
       <c r="J140" s="7"/>
       <c r="K140" s="7"/>
       <c r="L140" s="7"/>
-      <c r="M140" s="94"/>
+      <c r="M140" s="95"/>
     </row>
     <row r="141" spans="1:13">
       <c r="A141" s="7"/>
@@ -7194,7 +7202,7 @@
       <c r="J141" s="7"/>
       <c r="K141" s="7"/>
       <c r="L141" s="7"/>
-      <c r="M141" s="94"/>
+      <c r="M141" s="95"/>
     </row>
     <row r="142" spans="1:13">
       <c r="A142" s="7"/>
@@ -7208,7 +7216,7 @@
       <c r="J142" s="7"/>
       <c r="K142" s="7"/>
       <c r="L142" s="7"/>
-      <c r="M142" s="94"/>
+      <c r="M142" s="95"/>
     </row>
     <row r="143" spans="1:13">
       <c r="A143" s="7"/>
@@ -7222,7 +7230,7 @@
       <c r="J143" s="7"/>
       <c r="K143" s="7"/>
       <c r="L143" s="7"/>
-      <c r="M143" s="94"/>
+      <c r="M143" s="95"/>
     </row>
     <row r="144" spans="1:13">
       <c r="A144" s="7"/>
@@ -7236,7 +7244,7 @@
       <c r="J144" s="7"/>
       <c r="K144" s="7"/>
       <c r="L144" s="7"/>
-      <c r="M144" s="94"/>
+      <c r="M144" s="95"/>
     </row>
     <row r="145" spans="1:13">
       <c r="A145" s="7"/>
@@ -7250,7 +7258,7 @@
       <c r="J145" s="7"/>
       <c r="K145" s="7"/>
       <c r="L145" s="7"/>
-      <c r="M145" s="94"/>
+      <c r="M145" s="95"/>
     </row>
     <row r="146" spans="1:13">
       <c r="A146" s="7"/>
@@ -7264,7 +7272,7 @@
       <c r="J146" s="7"/>
       <c r="K146" s="7"/>
       <c r="L146" s="7"/>
-      <c r="M146" s="94"/>
+      <c r="M146" s="95"/>
     </row>
     <row r="147" spans="1:13">
       <c r="A147" s="7"/>
@@ -7278,7 +7286,7 @@
       <c r="J147" s="7"/>
       <c r="K147" s="7"/>
       <c r="L147" s="7"/>
-      <c r="M147" s="94"/>
+      <c r="M147" s="95"/>
     </row>
     <row r="148" spans="1:13">
       <c r="A148" s="7"/>
@@ -7292,7 +7300,7 @@
       <c r="J148" s="7"/>
       <c r="K148" s="7"/>
       <c r="L148" s="7"/>
-      <c r="M148" s="94"/>
+      <c r="M148" s="95"/>
     </row>
     <row r="149" spans="1:13">
       <c r="A149" s="7"/>
@@ -7306,7 +7314,7 @@
       <c r="J149" s="7"/>
       <c r="K149" s="7"/>
       <c r="L149" s="7"/>
-      <c r="M149" s="94"/>
+      <c r="M149" s="95"/>
     </row>
     <row r="150" spans="1:13">
       <c r="A150" s="7"/>
@@ -7320,7 +7328,7 @@
       <c r="J150" s="7"/>
       <c r="K150" s="7"/>
       <c r="L150" s="7"/>
-      <c r="M150" s="94"/>
+      <c r="M150" s="95"/>
     </row>
     <row r="151" spans="1:13">
       <c r="A151" s="7"/>
@@ -7334,7 +7342,7 @@
       <c r="J151" s="7"/>
       <c r="K151" s="7"/>
       <c r="L151" s="7"/>
-      <c r="M151" s="94"/>
+      <c r="M151" s="95"/>
     </row>
     <row r="152" spans="1:13">
       <c r="A152" s="7"/>
@@ -7348,7 +7356,7 @@
       <c r="J152" s="7"/>
       <c r="K152" s="7"/>
       <c r="L152" s="7"/>
-      <c r="M152" s="94"/>
+      <c r="M152" s="95"/>
     </row>
     <row r="153" spans="1:13">
       <c r="A153" s="7"/>
@@ -7362,7 +7370,7 @@
       <c r="J153" s="7"/>
       <c r="K153" s="7"/>
       <c r="L153" s="7"/>
-      <c r="M153" s="94"/>
+      <c r="M153" s="95"/>
     </row>
     <row r="154" spans="1:13">
       <c r="A154" s="7"/>
@@ -7376,7 +7384,7 @@
       <c r="J154" s="7"/>
       <c r="K154" s="7"/>
       <c r="L154" s="7"/>
-      <c r="M154" s="94"/>
+      <c r="M154" s="95"/>
     </row>
     <row r="155" spans="1:13">
       <c r="A155" s="7"/>
@@ -7390,7 +7398,7 @@
       <c r="J155" s="7"/>
       <c r="K155" s="7"/>
       <c r="L155" s="7"/>
-      <c r="M155" s="94"/>
+      <c r="M155" s="95"/>
     </row>
     <row r="156" spans="1:13">
       <c r="A156" s="7"/>
@@ -7404,7 +7412,7 @@
       <c r="J156" s="7"/>
       <c r="K156" s="7"/>
       <c r="L156" s="7"/>
-      <c r="M156" s="94"/>
+      <c r="M156" s="95"/>
     </row>
     <row r="157" spans="1:13">
       <c r="A157" s="7"/>
@@ -7418,7 +7426,7 @@
       <c r="J157" s="7"/>
       <c r="K157" s="7"/>
       <c r="L157" s="7"/>
-      <c r="M157" s="94"/>
+      <c r="M157" s="95"/>
     </row>
     <row r="158" spans="1:13">
       <c r="A158" s="7"/>
@@ -7432,7 +7440,7 @@
       <c r="J158" s="7"/>
       <c r="K158" s="7"/>
       <c r="L158" s="7"/>
-      <c r="M158" s="94"/>
+      <c r="M158" s="95"/>
     </row>
     <row r="159" spans="1:13">
       <c r="A159" s="7"/>
@@ -7446,7 +7454,7 @@
       <c r="J159" s="7"/>
       <c r="K159" s="7"/>
       <c r="L159" s="7"/>
-      <c r="M159" s="94"/>
+      <c r="M159" s="95"/>
     </row>
     <row r="160" spans="1:13">
       <c r="A160" s="7"/>
@@ -7460,7 +7468,7 @@
       <c r="J160" s="7"/>
       <c r="K160" s="7"/>
       <c r="L160" s="7"/>
-      <c r="M160" s="94"/>
+      <c r="M160" s="95"/>
     </row>
     <row r="161" spans="1:13">
       <c r="A161" s="7"/>
@@ -7474,7 +7482,7 @@
       <c r="J161" s="7"/>
       <c r="K161" s="7"/>
       <c r="L161" s="7"/>
-      <c r="M161" s="94"/>
+      <c r="M161" s="95"/>
     </row>
     <row r="162" spans="1:13">
       <c r="A162" s="7"/>
@@ -7488,7 +7496,7 @@
       <c r="J162" s="7"/>
       <c r="K162" s="7"/>
       <c r="L162" s="7"/>
-      <c r="M162" s="94"/>
+      <c r="M162" s="95"/>
     </row>
     <row r="163" spans="1:13">
       <c r="A163" s="7"/>
@@ -7502,7 +7510,7 @@
       <c r="J163" s="7"/>
       <c r="K163" s="7"/>
       <c r="L163" s="7"/>
-      <c r="M163" s="94"/>
+      <c r="M163" s="95"/>
     </row>
     <row r="164" spans="1:13">
       <c r="A164" s="7"/>
@@ -7516,7 +7524,7 @@
       <c r="J164" s="7"/>
       <c r="K164" s="7"/>
       <c r="L164" s="7"/>
-      <c r="M164" s="94"/>
+      <c r="M164" s="95"/>
     </row>
     <row r="165" spans="1:13">
       <c r="A165" s="7"/>
@@ -7530,7 +7538,7 @@
       <c r="J165" s="7"/>
       <c r="K165" s="7"/>
       <c r="L165" s="7"/>
-      <c r="M165" s="94"/>
+      <c r="M165" s="95"/>
     </row>
     <row r="166" spans="1:13">
       <c r="A166" s="7"/>
@@ -7544,7 +7552,7 @@
       <c r="J166" s="7"/>
       <c r="K166" s="7"/>
       <c r="L166" s="7"/>
-      <c r="M166" s="94"/>
+      <c r="M166" s="95"/>
     </row>
     <row r="167" spans="1:13">
       <c r="A167" s="7"/>
@@ -7558,7 +7566,7 @@
       <c r="J167" s="7"/>
       <c r="K167" s="7"/>
       <c r="L167" s="7"/>
-      <c r="M167" s="94"/>
+      <c r="M167" s="95"/>
     </row>
     <row r="168" spans="1:13">
       <c r="A168" s="7"/>
@@ -7572,7 +7580,7 @@
       <c r="J168" s="7"/>
       <c r="K168" s="7"/>
       <c r="L168" s="7"/>
-      <c r="M168" s="94"/>
+      <c r="M168" s="95"/>
     </row>
     <row r="169" spans="1:13">
       <c r="A169" s="7"/>
@@ -7586,7 +7594,7 @@
       <c r="J169" s="7"/>
       <c r="K169" s="7"/>
       <c r="L169" s="7"/>
-      <c r="M169" s="94"/>
+      <c r="M169" s="95"/>
     </row>
     <row r="170" spans="1:13">
       <c r="A170" s="7"/>
@@ -7600,7 +7608,7 @@
       <c r="J170" s="7"/>
       <c r="K170" s="7"/>
       <c r="L170" s="7"/>
-      <c r="M170" s="94"/>
+      <c r="M170" s="95"/>
     </row>
     <row r="171" spans="1:13">
       <c r="A171" s="7"/>
@@ -7614,7 +7622,7 @@
       <c r="J171" s="7"/>
       <c r="K171" s="7"/>
       <c r="L171" s="7"/>
-      <c r="M171" s="94"/>
+      <c r="M171" s="95"/>
     </row>
     <row r="172" spans="1:13">
       <c r="A172" s="7"/>
@@ -7628,7 +7636,7 @@
       <c r="J172" s="7"/>
       <c r="K172" s="7"/>
       <c r="L172" s="7"/>
-      <c r="M172" s="94"/>
+      <c r="M172" s="95"/>
     </row>
     <row r="173" spans="1:13">
       <c r="A173" s="7"/>
@@ -7642,7 +7650,7 @@
       <c r="J173" s="7"/>
       <c r="K173" s="7"/>
       <c r="L173" s="7"/>
-      <c r="M173" s="94"/>
+      <c r="M173" s="95"/>
     </row>
     <row r="174" spans="1:13">
       <c r="A174" s="7"/>
@@ -7656,7 +7664,7 @@
       <c r="J174" s="7"/>
       <c r="K174" s="7"/>
       <c r="L174" s="7"/>
-      <c r="M174" s="94"/>
+      <c r="M174" s="95"/>
     </row>
     <row r="175" spans="1:13">
       <c r="A175" s="7"/>
@@ -7670,7 +7678,7 @@
       <c r="J175" s="7"/>
       <c r="K175" s="7"/>
       <c r="L175" s="7"/>
-      <c r="M175" s="94"/>
+      <c r="M175" s="95"/>
     </row>
     <row r="176" spans="1:13">
       <c r="A176" s="7"/>
@@ -7684,7 +7692,7 @@
       <c r="J176" s="7"/>
       <c r="K176" s="7"/>
       <c r="L176" s="7"/>
-      <c r="M176" s="94"/>
+      <c r="M176" s="95"/>
     </row>
     <row r="177" spans="1:13">
       <c r="A177" s="7"/>
@@ -7698,7 +7706,7 @@
       <c r="J177" s="7"/>
       <c r="K177" s="7"/>
       <c r="L177" s="7"/>
-      <c r="M177" s="94"/>
+      <c r="M177" s="95"/>
     </row>
     <row r="178" spans="1:13">
       <c r="A178" s="7"/>
@@ -7712,7 +7720,7 @@
       <c r="J178" s="7"/>
       <c r="K178" s="7"/>
       <c r="L178" s="7"/>
-      <c r="M178" s="94"/>
+      <c r="M178" s="95"/>
     </row>
     <row r="179" spans="1:13">
       <c r="A179" s="7"/>
@@ -7726,7 +7734,7 @@
       <c r="J179" s="7"/>
       <c r="K179" s="7"/>
       <c r="L179" s="7"/>
-      <c r="M179" s="94"/>
+      <c r="M179" s="95"/>
     </row>
     <row r="180" spans="1:13">
       <c r="A180" s="7"/>
@@ -7740,7 +7748,7 @@
       <c r="J180" s="7"/>
       <c r="K180" s="7"/>
       <c r="L180" s="7"/>
-      <c r="M180" s="94"/>
+      <c r="M180" s="95"/>
     </row>
     <row r="181" spans="1:13">
       <c r="A181" s="7"/>
@@ -7754,7 +7762,7 @@
       <c r="J181" s="7"/>
       <c r="K181" s="7"/>
       <c r="L181" s="7"/>
-      <c r="M181" s="94"/>
+      <c r="M181" s="95"/>
     </row>
     <row r="182" spans="1:13">
       <c r="A182" s="7"/>
@@ -7768,7 +7776,7 @@
       <c r="J182" s="7"/>
       <c r="K182" s="7"/>
       <c r="L182" s="7"/>
-      <c r="M182" s="94"/>
+      <c r="M182" s="95"/>
     </row>
     <row r="183" spans="1:13">
       <c r="A183" s="7"/>
@@ -7782,7 +7790,7 @@
       <c r="J183" s="7"/>
       <c r="K183" s="7"/>
       <c r="L183" s="7"/>
-      <c r="M183" s="94"/>
+      <c r="M183" s="95"/>
     </row>
     <row r="184" spans="1:13">
       <c r="A184" s="7"/>
@@ -7796,7 +7804,7 @@
       <c r="J184" s="7"/>
       <c r="K184" s="7"/>
       <c r="L184" s="7"/>
-      <c r="M184" s="94"/>
+      <c r="M184" s="95"/>
     </row>
     <row r="185" spans="1:13">
       <c r="A185" s="7"/>
@@ -7810,7 +7818,7 @@
       <c r="J185" s="7"/>
       <c r="K185" s="7"/>
       <c r="L185" s="7"/>
-      <c r="M185" s="94"/>
+      <c r="M185" s="95"/>
     </row>
     <row r="186" spans="1:13">
       <c r="A186" s="7"/>
@@ -7824,7 +7832,7 @@
       <c r="J186" s="7"/>
       <c r="K186" s="7"/>
       <c r="L186" s="7"/>
-      <c r="M186" s="94"/>
+      <c r="M186" s="95"/>
     </row>
     <row r="187" spans="1:13">
       <c r="A187" s="7"/>
@@ -7838,7 +7846,7 @@
       <c r="J187" s="7"/>
       <c r="K187" s="7"/>
       <c r="L187" s="7"/>
-      <c r="M187" s="94"/>
+      <c r="M187" s="95"/>
     </row>
     <row r="188" spans="1:13">
       <c r="A188" s="7"/>
@@ -7852,7 +7860,7 @@
       <c r="J188" s="7"/>
       <c r="K188" s="7"/>
       <c r="L188" s="7"/>
-      <c r="M188" s="94"/>
+      <c r="M188" s="95"/>
     </row>
     <row r="189" spans="1:13">
       <c r="A189" s="7"/>
@@ -7866,7 +7874,7 @@
       <c r="J189" s="7"/>
       <c r="K189" s="7"/>
       <c r="L189" s="7"/>
-      <c r="M189" s="94"/>
+      <c r="M189" s="95"/>
     </row>
     <row r="190" spans="1:13">
       <c r="A190" s="7"/>
@@ -7880,7 +7888,7 @@
       <c r="J190" s="7"/>
       <c r="K190" s="7"/>
       <c r="L190" s="7"/>
-      <c r="M190" s="94"/>
+      <c r="M190" s="95"/>
     </row>
     <row r="191" spans="1:13">
       <c r="A191" s="7"/>
@@ -7894,7 +7902,7 @@
       <c r="J191" s="7"/>
       <c r="K191" s="7"/>
       <c r="L191" s="7"/>
-      <c r="M191" s="94"/>
+      <c r="M191" s="95"/>
     </row>
     <row r="192" spans="1:13">
       <c r="A192" s="7"/>
@@ -7908,7 +7916,7 @@
       <c r="J192" s="7"/>
       <c r="K192" s="7"/>
       <c r="L192" s="7"/>
-      <c r="M192" s="94"/>
+      <c r="M192" s="95"/>
     </row>
     <row r="193" spans="1:13">
       <c r="A193" s="7"/>
@@ -7922,7 +7930,7 @@
       <c r="J193" s="7"/>
       <c r="K193" s="7"/>
       <c r="L193" s="7"/>
-      <c r="M193" s="94"/>
+      <c r="M193" s="95"/>
     </row>
     <row r="194" spans="1:13">
       <c r="A194" s="7"/>
@@ -7936,7 +7944,7 @@
       <c r="J194" s="7"/>
       <c r="K194" s="7"/>
       <c r="L194" s="7"/>
-      <c r="M194" s="94"/>
+      <c r="M194" s="95"/>
     </row>
     <row r="195" spans="1:13">
       <c r="A195" s="7"/>
@@ -7950,7 +7958,7 @@
       <c r="J195" s="7"/>
       <c r="K195" s="7"/>
       <c r="L195" s="7"/>
-      <c r="M195" s="94"/>
+      <c r="M195" s="95"/>
     </row>
     <row r="196" spans="1:13">
       <c r="A196" s="7"/>
@@ -7964,7 +7972,7 @@
       <c r="J196" s="7"/>
       <c r="K196" s="7"/>
       <c r="L196" s="7"/>
-      <c r="M196" s="94"/>
+      <c r="M196" s="95"/>
     </row>
     <row r="197" spans="1:13">
       <c r="A197" s="7"/>
@@ -7978,7 +7986,7 @@
       <c r="J197" s="7"/>
       <c r="K197" s="7"/>
       <c r="L197" s="7"/>
-      <c r="M197" s="94"/>
+      <c r="M197" s="95"/>
     </row>
     <row r="198" spans="1:13">
       <c r="A198" s="7"/>
@@ -7992,7 +8000,7 @@
       <c r="J198" s="7"/>
       <c r="K198" s="7"/>
       <c r="L198" s="7"/>
-      <c r="M198" s="94"/>
+      <c r="M198" s="95"/>
     </row>
     <row r="199" spans="1:13">
       <c r="A199" s="7"/>
@@ -8006,7 +8014,7 @@
       <c r="J199" s="7"/>
       <c r="K199" s="7"/>
       <c r="L199" s="7"/>
-      <c r="M199" s="94"/>
+      <c r="M199" s="95"/>
     </row>
     <row r="200" spans="1:13">
       <c r="A200" s="7"/>
@@ -8020,7 +8028,7 @@
       <c r="J200" s="7"/>
       <c r="K200" s="7"/>
       <c r="L200" s="7"/>
-      <c r="M200" s="94"/>
+      <c r="M200" s="95"/>
     </row>
     <row r="201" spans="1:13">
       <c r="A201" s="7"/>
@@ -8034,7 +8042,7 @@
       <c r="J201" s="7"/>
       <c r="K201" s="7"/>
       <c r="L201" s="7"/>
-      <c r="M201" s="94"/>
+      <c r="M201" s="95"/>
     </row>
     <row r="202" spans="1:13">
       <c r="A202" s="7"/>
@@ -8048,7 +8056,7 @@
       <c r="J202" s="7"/>
       <c r="K202" s="7"/>
       <c r="L202" s="7"/>
-      <c r="M202" s="94"/>
+      <c r="M202" s="95"/>
     </row>
     <row r="203" spans="1:13">
       <c r="A203" s="7"/>
@@ -8062,7 +8070,7 @@
       <c r="J203" s="7"/>
       <c r="K203" s="7"/>
       <c r="L203" s="7"/>
-      <c r="M203" s="94"/>
+      <c r="M203" s="95"/>
     </row>
     <row r="204" spans="1:13">
       <c r="A204" s="7"/>
@@ -8076,7 +8084,7 @@
       <c r="J204" s="7"/>
       <c r="K204" s="7"/>
       <c r="L204" s="7"/>
-      <c r="M204" s="94"/>
+      <c r="M204" s="95"/>
     </row>
     <row r="205" spans="1:13">
       <c r="A205" s="7"/>
@@ -8090,7 +8098,7 @@
       <c r="J205" s="7"/>
       <c r="K205" s="7"/>
       <c r="L205" s="7"/>
-      <c r="M205" s="94"/>
+      <c r="M205" s="95"/>
     </row>
     <row r="206" spans="1:13">
       <c r="A206" s="7"/>
@@ -8104,7 +8112,7 @@
       <c r="J206" s="7"/>
       <c r="K206" s="7"/>
       <c r="L206" s="7"/>
-      <c r="M206" s="94"/>
+      <c r="M206" s="95"/>
     </row>
     <row r="207" spans="1:13">
       <c r="A207" s="7"/>
@@ -8118,7 +8126,7 @@
       <c r="J207" s="7"/>
       <c r="K207" s="7"/>
       <c r="L207" s="7"/>
-      <c r="M207" s="94"/>
+      <c r="M207" s="95"/>
     </row>
     <row r="208" spans="1:13">
       <c r="A208" s="7"/>
@@ -8132,7 +8140,7 @@
       <c r="J208" s="7"/>
       <c r="K208" s="7"/>
       <c r="L208" s="7"/>
-      <c r="M208" s="94"/>
+      <c r="M208" s="95"/>
     </row>
     <row r="209" spans="1:13">
       <c r="A209" s="7"/>
@@ -8146,7 +8154,7 @@
       <c r="J209" s="7"/>
       <c r="K209" s="7"/>
       <c r="L209" s="7"/>
-      <c r="M209" s="94"/>
+      <c r="M209" s="95"/>
     </row>
     <row r="210" spans="1:13">
       <c r="A210" s="7"/>
@@ -8160,7 +8168,7 @@
       <c r="J210" s="7"/>
       <c r="K210" s="7"/>
       <c r="L210" s="7"/>
-      <c r="M210" s="94"/>
+      <c r="M210" s="95"/>
     </row>
     <row r="211" spans="1:13">
       <c r="A211" s="7"/>
@@ -8174,7 +8182,7 @@
       <c r="J211" s="7"/>
       <c r="K211" s="7"/>
       <c r="L211" s="7"/>
-      <c r="M211" s="94"/>
+      <c r="M211" s="95"/>
     </row>
     <row r="212" spans="1:13">
       <c r="A212" s="7"/>
@@ -8188,7 +8196,7 @@
       <c r="J212" s="7"/>
       <c r="K212" s="7"/>
       <c r="L212" s="7"/>
-      <c r="M212" s="94"/>
+      <c r="M212" s="95"/>
     </row>
     <row r="213" spans="1:13">
       <c r="A213" s="7"/>
@@ -8202,7 +8210,7 @@
       <c r="J213" s="7"/>
       <c r="K213" s="7"/>
       <c r="L213" s="7"/>
-      <c r="M213" s="94"/>
+      <c r="M213" s="95"/>
     </row>
     <row r="214" spans="1:13">
       <c r="A214" s="7"/>
@@ -8216,7 +8224,7 @@
       <c r="J214" s="7"/>
       <c r="K214" s="7"/>
       <c r="L214" s="7"/>
-      <c r="M214" s="94"/>
+      <c r="M214" s="95"/>
     </row>
     <row r="215" spans="1:13">
       <c r="A215" s="7"/>
@@ -8230,7 +8238,7 @@
       <c r="J215" s="7"/>
       <c r="K215" s="7"/>
       <c r="L215" s="7"/>
-      <c r="M215" s="94"/>
+      <c r="M215" s="95"/>
     </row>
     <row r="216" spans="1:13">
       <c r="A216" s="7"/>
@@ -8244,7 +8252,7 @@
       <c r="J216" s="7"/>
       <c r="K216" s="7"/>
       <c r="L216" s="7"/>
-      <c r="M216" s="94"/>
+      <c r="M216" s="95"/>
     </row>
     <row r="217" spans="1:13">
       <c r="A217" s="7"/>
@@ -8258,7 +8266,7 @@
       <c r="J217" s="7"/>
       <c r="K217" s="7"/>
       <c r="L217" s="7"/>
-      <c r="M217" s="94"/>
+      <c r="M217" s="95"/>
     </row>
     <row r="218" spans="1:13">
       <c r="A218" s="7"/>
@@ -8272,7 +8280,7 @@
       <c r="J218" s="7"/>
       <c r="K218" s="7"/>
       <c r="L218" s="7"/>
-      <c r="M218" s="94"/>
+      <c r="M218" s="95"/>
     </row>
     <row r="219" spans="1:13">
       <c r="A219" s="7"/>
@@ -8286,7 +8294,7 @@
       <c r="J219" s="7"/>
       <c r="K219" s="7"/>
       <c r="L219" s="7"/>
-      <c r="M219" s="94"/>
+      <c r="M219" s="95"/>
     </row>
     <row r="220" spans="1:13">
       <c r="A220" s="7"/>
@@ -8300,7 +8308,7 @@
       <c r="J220" s="7"/>
       <c r="K220" s="7"/>
       <c r="L220" s="7"/>
-      <c r="M220" s="94"/>
+      <c r="M220" s="95"/>
     </row>
     <row r="221" spans="1:13">
       <c r="A221" s="7"/>
@@ -8314,7 +8322,7 @@
       <c r="J221" s="7"/>
       <c r="K221" s="7"/>
       <c r="L221" s="7"/>
-      <c r="M221" s="94"/>
+      <c r="M221" s="95"/>
     </row>
     <row r="222" spans="1:13">
       <c r="A222" s="7"/>
@@ -8328,7 +8336,7 @@
       <c r="J222" s="7"/>
       <c r="K222" s="7"/>
       <c r="L222" s="7"/>
-      <c r="M222" s="94"/>
+      <c r="M222" s="95"/>
     </row>
     <row r="223" spans="1:13">
       <c r="A223" s="7"/>
@@ -8342,7 +8350,7 @@
       <c r="J223" s="7"/>
       <c r="K223" s="7"/>
       <c r="L223" s="7"/>
-      <c r="M223" s="94"/>
+      <c r="M223" s="95"/>
     </row>
     <row r="224" spans="1:13">
       <c r="A224" s="7"/>
@@ -8356,7 +8364,7 @@
       <c r="J224" s="7"/>
       <c r="K224" s="7"/>
       <c r="L224" s="7"/>
-      <c r="M224" s="94"/>
+      <c r="M224" s="95"/>
     </row>
     <row r="225" spans="1:13">
       <c r="A225" s="7"/>
@@ -8370,7 +8378,7 @@
       <c r="J225" s="7"/>
       <c r="K225" s="7"/>
       <c r="L225" s="7"/>
-      <c r="M225" s="94"/>
+      <c r="M225" s="95"/>
     </row>
     <row r="226" spans="1:13">
       <c r="A226" s="7"/>
@@ -8384,7 +8392,7 @@
       <c r="J226" s="7"/>
       <c r="K226" s="7"/>
       <c r="L226" s="7"/>
-      <c r="M226" s="94"/>
+      <c r="M226" s="95"/>
     </row>
     <row r="227" spans="1:13">
       <c r="A227" s="7"/>
@@ -8398,7 +8406,7 @@
       <c r="J227" s="7"/>
       <c r="K227" s="7"/>
       <c r="L227" s="7"/>
-      <c r="M227" s="94"/>
+      <c r="M227" s="95"/>
     </row>
     <row r="228" spans="1:13">
       <c r="A228" s="7"/>
@@ -8412,7 +8420,7 @@
       <c r="J228" s="7"/>
       <c r="K228" s="7"/>
       <c r="L228" s="7"/>
-      <c r="M228" s="94"/>
+      <c r="M228" s="95"/>
     </row>
     <row r="229" spans="1:13">
       <c r="A229" s="7"/>
@@ -8426,7 +8434,7 @@
       <c r="J229" s="7"/>
       <c r="K229" s="7"/>
       <c r="L229" s="7"/>
-      <c r="M229" s="94"/>
+      <c r="M229" s="95"/>
     </row>
     <row r="230" spans="1:13">
       <c r="A230" s="7"/>
@@ -8440,7 +8448,7 @@
       <c r="J230" s="7"/>
       <c r="K230" s="7"/>
       <c r="L230" s="7"/>
-      <c r="M230" s="94"/>
+      <c r="M230" s="95"/>
     </row>
     <row r="231" spans="1:13">
       <c r="A231" s="7"/>
@@ -8454,7 +8462,7 @@
       <c r="J231" s="7"/>
       <c r="K231" s="7"/>
       <c r="L231" s="7"/>
-      <c r="M231" s="94"/>
+      <c r="M231" s="95"/>
     </row>
     <row r="232" spans="1:13">
       <c r="A232" s="7"/>
@@ -8468,7 +8476,7 @@
       <c r="J232" s="7"/>
       <c r="K232" s="7"/>
       <c r="L232" s="7"/>
-      <c r="M232" s="94"/>
+      <c r="M232" s="95"/>
     </row>
     <row r="233" spans="1:13">
       <c r="A233" s="7"/>
@@ -8482,7 +8490,7 @@
       <c r="J233" s="7"/>
       <c r="K233" s="7"/>
       <c r="L233" s="7"/>
-      <c r="M233" s="94"/>
+      <c r="M233" s="95"/>
     </row>
     <row r="234" spans="1:13">
       <c r="A234" s="7"/>
@@ -8496,7 +8504,7 @@
       <c r="J234" s="7"/>
       <c r="K234" s="7"/>
       <c r="L234" s="7"/>
-      <c r="M234" s="94"/>
+      <c r="M234" s="95"/>
     </row>
     <row r="235" spans="1:13">
       <c r="A235" s="7"/>
@@ -8510,7 +8518,7 @@
       <c r="J235" s="7"/>
       <c r="K235" s="7"/>
       <c r="L235" s="7"/>
-      <c r="M235" s="94"/>
+      <c r="M235" s="95"/>
     </row>
     <row r="236" spans="1:13">
       <c r="A236" s="7"/>
@@ -8524,7 +8532,7 @@
       <c r="J236" s="7"/>
       <c r="K236" s="7"/>
       <c r="L236" s="7"/>
-      <c r="M236" s="94"/>
+      <c r="M236" s="95"/>
     </row>
     <row r="237" spans="1:13">
       <c r="A237" s="7"/>
@@ -8538,7 +8546,7 @@
       <c r="J237" s="7"/>
       <c r="K237" s="7"/>
       <c r="L237" s="7"/>
-      <c r="M237" s="94"/>
+      <c r="M237" s="95"/>
     </row>
     <row r="238" spans="1:13">
       <c r="A238" s="7"/>
@@ -8552,7 +8560,7 @@
       <c r="J238" s="7"/>
       <c r="K238" s="7"/>
       <c r="L238" s="7"/>
-      <c r="M238" s="94"/>
+      <c r="M238" s="95"/>
     </row>
     <row r="239" spans="1:13">
       <c r="A239" s="7"/>
@@ -8566,7 +8574,7 @@
       <c r="J239" s="7"/>
       <c r="K239" s="7"/>
       <c r="L239" s="7"/>
-      <c r="M239" s="94"/>
+      <c r="M239" s="95"/>
     </row>
     <row r="240" spans="1:13">
       <c r="A240" s="7"/>
@@ -8580,7 +8588,7 @@
       <c r="J240" s="7"/>
       <c r="K240" s="7"/>
       <c r="L240" s="7"/>
-      <c r="M240" s="94"/>
+      <c r="M240" s="95"/>
     </row>
     <row r="241" spans="1:13">
       <c r="A241" s="7"/>
@@ -8594,7 +8602,7 @@
       <c r="J241" s="7"/>
       <c r="K241" s="7"/>
       <c r="L241" s="7"/>
-      <c r="M241" s="94"/>
+      <c r="M241" s="95"/>
     </row>
     <row r="242" spans="1:13">
       <c r="A242" s="7"/>
@@ -8608,7 +8616,7 @@
       <c r="J242" s="7"/>
       <c r="K242" s="7"/>
       <c r="L242" s="7"/>
-      <c r="M242" s="94"/>
+      <c r="M242" s="95"/>
     </row>
     <row r="243" spans="1:13">
       <c r="A243" s="7"/>
@@ -8622,7 +8630,7 @@
       <c r="J243" s="7"/>
       <c r="K243" s="7"/>
       <c r="L243" s="7"/>
-      <c r="M243" s="94"/>
+      <c r="M243" s="95"/>
     </row>
     <row r="244" spans="1:13">
       <c r="A244" s="7"/>
@@ -8636,7 +8644,7 @@
       <c r="J244" s="7"/>
       <c r="K244" s="7"/>
       <c r="L244" s="7"/>
-      <c r="M244" s="94"/>
+      <c r="M244" s="95"/>
     </row>
     <row r="245" spans="1:13">
       <c r="A245" s="7"/>
@@ -8650,7 +8658,7 @@
       <c r="J245" s="7"/>
       <c r="K245" s="7"/>
       <c r="L245" s="7"/>
-      <c r="M245" s="94"/>
+      <c r="M245" s="95"/>
     </row>
     <row r="246" spans="1:13">
       <c r="A246" s="7"/>
@@ -8664,7 +8672,7 @@
       <c r="J246" s="7"/>
       <c r="K246" s="7"/>
       <c r="L246" s="7"/>
-      <c r="M246" s="94"/>
+      <c r="M246" s="95"/>
     </row>
     <row r="247" spans="1:13">
       <c r="A247" s="7"/>
@@ -8678,7 +8686,7 @@
       <c r="J247" s="7"/>
       <c r="K247" s="7"/>
       <c r="L247" s="7"/>
-      <c r="M247" s="94"/>
+      <c r="M247" s="95"/>
     </row>
     <row r="248" spans="1:13">
       <c r="A248" s="7"/>
@@ -8692,7 +8700,7 @@
       <c r="J248" s="7"/>
       <c r="K248" s="7"/>
       <c r="L248" s="7"/>
-      <c r="M248" s="94"/>
+      <c r="M248" s="95"/>
     </row>
     <row r="249" spans="1:13">
       <c r="A249" s="7"/>
@@ -8706,7 +8714,7 @@
       <c r="J249" s="7"/>
       <c r="K249" s="7"/>
       <c r="L249" s="7"/>
-      <c r="M249" s="94"/>
+      <c r="M249" s="95"/>
     </row>
     <row r="250" spans="1:13">
       <c r="A250" s="7"/>
@@ -8720,7 +8728,7 @@
       <c r="J250" s="7"/>
       <c r="K250" s="7"/>
       <c r="L250" s="7"/>
-      <c r="M250" s="94"/>
+      <c r="M250" s="95"/>
     </row>
     <row r="251" spans="1:13">
       <c r="A251" s="7"/>
@@ -8734,7 +8742,7 @@
       <c r="J251" s="7"/>
       <c r="K251" s="7"/>
       <c r="L251" s="7"/>
-      <c r="M251" s="94"/>
+      <c r="M251" s="95"/>
     </row>
     <row r="252" spans="1:13">
       <c r="A252" s="7"/>
@@ -8748,7 +8756,7 @@
       <c r="J252" s="7"/>
       <c r="K252" s="7"/>
       <c r="L252" s="7"/>
-      <c r="M252" s="94"/>
+      <c r="M252" s="95"/>
     </row>
     <row r="253" spans="1:13">
       <c r="A253" s="7"/>
@@ -8762,7 +8770,7 @@
       <c r="J253" s="7"/>
       <c r="K253" s="7"/>
       <c r="L253" s="7"/>
-      <c r="M253" s="94"/>
+      <c r="M253" s="95"/>
     </row>
     <row r="254" spans="1:13">
       <c r="A254" s="7"/>
@@ -8776,7 +8784,7 @@
       <c r="J254" s="7"/>
       <c r="K254" s="7"/>
       <c r="L254" s="7"/>
-      <c r="M254" s="94"/>
+      <c r="M254" s="95"/>
     </row>
     <row r="255" spans="1:13">
       <c r="A255" s="7"/>
@@ -8790,7 +8798,7 @@
       <c r="J255" s="7"/>
       <c r="K255" s="7"/>
       <c r="L255" s="7"/>
-      <c r="M255" s="94"/>
+      <c r="M255" s="95"/>
     </row>
     <row r="256" spans="1:13">
       <c r="A256" s="7"/>
@@ -8804,7 +8812,7 @@
       <c r="J256" s="7"/>
       <c r="K256" s="7"/>
       <c r="L256" s="7"/>
-      <c r="M256" s="94"/>
+      <c r="M256" s="95"/>
     </row>
     <row r="257" spans="1:13">
       <c r="A257" s="7"/>
@@ -8818,7 +8826,7 @@
       <c r="J257" s="7"/>
       <c r="K257" s="7"/>
       <c r="L257" s="7"/>
-      <c r="M257" s="94"/>
+      <c r="M257" s="95"/>
     </row>
     <row r="258" spans="1:13">
       <c r="A258" s="7"/>
@@ -8832,7 +8840,7 @@
       <c r="J258" s="7"/>
       <c r="K258" s="7"/>
       <c r="L258" s="7"/>
-      <c r="M258" s="94"/>
+      <c r="M258" s="95"/>
     </row>
     <row r="259" spans="1:13">
       <c r="A259" s="7"/>
@@ -8846,7 +8854,7 @@
       <c r="J259" s="7"/>
       <c r="K259" s="7"/>
       <c r="L259" s="7"/>
-      <c r="M259" s="94"/>
+      <c r="M259" s="95"/>
     </row>
     <row r="260" spans="1:13">
       <c r="A260" s="7"/>
@@ -8860,7 +8868,7 @@
       <c r="J260" s="7"/>
       <c r="K260" s="7"/>
       <c r="L260" s="7"/>
-      <c r="M260" s="94"/>
+      <c r="M260" s="95"/>
     </row>
     <row r="261" spans="1:13">
       <c r="A261" s="7"/>
@@ -8874,7 +8882,7 @@
       <c r="J261" s="7"/>
       <c r="K261" s="7"/>
       <c r="L261" s="7"/>
-      <c r="M261" s="94"/>
+      <c r="M261" s="95"/>
     </row>
     <row r="262" spans="1:13">
       <c r="A262" s="7"/>
@@ -8888,7 +8896,7 @@
       <c r="J262" s="7"/>
       <c r="K262" s="7"/>
       <c r="L262" s="7"/>
-      <c r="M262" s="94"/>
+      <c r="M262" s="95"/>
     </row>
     <row r="263" spans="1:13">
       <c r="A263" s="7"/>
@@ -8902,7 +8910,7 @@
       <c r="J263" s="7"/>
       <c r="K263" s="7"/>
       <c r="L263" s="7"/>
-      <c r="M263" s="94"/>
+      <c r="M263" s="95"/>
     </row>
     <row r="264" spans="1:13">
       <c r="A264" s="7"/>
@@ -8916,7 +8924,7 @@
       <c r="J264" s="7"/>
       <c r="K264" s="7"/>
       <c r="L264" s="7"/>
-      <c r="M264" s="94"/>
+      <c r="M264" s="95"/>
     </row>
     <row r="265" spans="1:13">
       <c r="A265" s="7"/>
@@ -8930,7 +8938,7 @@
       <c r="J265" s="7"/>
       <c r="K265" s="7"/>
       <c r="L265" s="7"/>
-      <c r="M265" s="94"/>
+      <c r="M265" s="95"/>
     </row>
     <row r="266" spans="1:13">
       <c r="A266" s="7"/>
@@ -8944,7 +8952,7 @@
       <c r="J266" s="7"/>
       <c r="K266" s="7"/>
       <c r="L266" s="7"/>
-      <c r="M266" s="94"/>
+      <c r="M266" s="95"/>
     </row>
     <row r="267" spans="1:13">
       <c r="A267" s="7"/>
@@ -8958,7 +8966,7 @@
       <c r="J267" s="7"/>
       <c r="K267" s="7"/>
       <c r="L267" s="7"/>
-      <c r="M267" s="94"/>
+      <c r="M267" s="95"/>
     </row>
     <row r="268" spans="1:13">
       <c r="A268" s="7"/>
@@ -8972,7 +8980,7 @@
       <c r="J268" s="7"/>
       <c r="K268" s="7"/>
       <c r="L268" s="7"/>
-      <c r="M268" s="94"/>
+      <c r="M268" s="95"/>
     </row>
     <row r="269" spans="1:13">
       <c r="A269" s="7"/>
@@ -8986,7 +8994,7 @@
       <c r="J269" s="7"/>
       <c r="K269" s="7"/>
       <c r="L269" s="7"/>
-      <c r="M269" s="94"/>
+      <c r="M269" s="95"/>
     </row>
     <row r="270" spans="1:13">
       <c r="A270" s="7"/>
@@ -9000,7 +9008,7 @@
       <c r="J270" s="7"/>
       <c r="K270" s="7"/>
       <c r="L270" s="7"/>
-      <c r="M270" s="94"/>
+      <c r="M270" s="95"/>
     </row>
     <row r="271" spans="1:13">
       <c r="A271" s="7"/>
@@ -9014,7 +9022,7 @@
       <c r="J271" s="7"/>
       <c r="K271" s="7"/>
       <c r="L271" s="7"/>
-      <c r="M271" s="94"/>
+      <c r="M271" s="95"/>
     </row>
     <row r="272" spans="1:13">
       <c r="A272" s="7"/>
@@ -9028,7 +9036,7 @@
       <c r="J272" s="7"/>
       <c r="K272" s="7"/>
       <c r="L272" s="7"/>
-      <c r="M272" s="94"/>
+      <c r="M272" s="95"/>
     </row>
     <row r="273" spans="1:13">
       <c r="A273" s="7"/>
@@ -9042,7 +9050,7 @@
       <c r="J273" s="7"/>
       <c r="K273" s="7"/>
       <c r="L273" s="7"/>
-      <c r="M273" s="94"/>
+      <c r="M273" s="95"/>
     </row>
     <row r="274" spans="1:13">
       <c r="A274" s="7"/>
@@ -9056,7 +9064,7 @@
       <c r="J274" s="7"/>
       <c r="K274" s="7"/>
       <c r="L274" s="7"/>
-      <c r="M274" s="94"/>
+      <c r="M274" s="95"/>
     </row>
     <row r="275" spans="1:13">
       <c r="A275" s="7"/>
@@ -9070,7 +9078,7 @@
       <c r="J275" s="7"/>
       <c r="K275" s="7"/>
       <c r="L275" s="7"/>
-      <c r="M275" s="94"/>
+      <c r="M275" s="95"/>
     </row>
     <row r="276" spans="1:13">
       <c r="A276" s="7"/>
@@ -9084,7 +9092,7 @@
       <c r="J276" s="7"/>
       <c r="K276" s="7"/>
       <c r="L276" s="7"/>
-      <c r="M276" s="94"/>
+      <c r="M276" s="95"/>
     </row>
     <row r="277" spans="1:13">
       <c r="A277" s="7"/>
@@ -9098,7 +9106,7 @@
       <c r="J277" s="7"/>
       <c r="K277" s="7"/>
       <c r="L277" s="7"/>
-      <c r="M277" s="94"/>
+      <c r="M277" s="95"/>
     </row>
     <row r="278" spans="1:13">
       <c r="A278" s="7"/>
@@ -9112,7 +9120,7 @@
       <c r="J278" s="7"/>
       <c r="K278" s="7"/>
       <c r="L278" s="7"/>
-      <c r="M278" s="94"/>
+      <c r="M278" s="95"/>
     </row>
     <row r="279" spans="1:13">
       <c r="A279" s="7"/>
@@ -9126,7 +9134,7 @@
       <c r="J279" s="7"/>
       <c r="K279" s="7"/>
       <c r="L279" s="7"/>
-      <c r="M279" s="94"/>
+      <c r="M279" s="95"/>
     </row>
     <row r="280" spans="1:13">
       <c r="A280" s="7"/>
@@ -9140,7 +9148,7 @@
       <c r="J280" s="7"/>
       <c r="K280" s="7"/>
       <c r="L280" s="7"/>
-      <c r="M280" s="94"/>
+      <c r="M280" s="95"/>
     </row>
     <row r="281" spans="1:13">
       <c r="A281" s="7"/>
@@ -9154,7 +9162,7 @@
       <c r="J281" s="7"/>
       <c r="K281" s="7"/>
       <c r="L281" s="7"/>
-      <c r="M281" s="94"/>
+      <c r="M281" s="95"/>
     </row>
     <row r="282" spans="1:13">
       <c r="A282" s="7"/>
@@ -9168,7 +9176,7 @@
       <c r="J282" s="7"/>
       <c r="K282" s="7"/>
       <c r="L282" s="7"/>
-      <c r="M282" s="94"/>
+      <c r="M282" s="95"/>
     </row>
     <row r="283" spans="1:13">
       <c r="A283" s="7"/>
@@ -9182,7 +9190,7 @@
       <c r="J283" s="7"/>
       <c r="K283" s="7"/>
       <c r="L283" s="7"/>
-      <c r="M283" s="94"/>
+      <c r="M283" s="95"/>
     </row>
     <row r="284" spans="1:13">
       <c r="A284" s="7"/>
@@ -9196,7 +9204,7 @@
       <c r="J284" s="7"/>
       <c r="K284" s="7"/>
       <c r="L284" s="7"/>
-      <c r="M284" s="94"/>
+      <c r="M284" s="95"/>
     </row>
     <row r="285" spans="1:13">
       <c r="A285" s="7"/>
@@ -9210,7 +9218,7 @@
       <c r="J285" s="7"/>
       <c r="K285" s="7"/>
       <c r="L285" s="7"/>
-      <c r="M285" s="94"/>
+      <c r="M285" s="95"/>
     </row>
     <row r="286" spans="1:13">
       <c r="A286" s="7"/>
@@ -9224,7 +9232,7 @@
       <c r="J286" s="7"/>
       <c r="K286" s="7"/>
       <c r="L286" s="7"/>
-      <c r="M286" s="94"/>
+      <c r="M286" s="95"/>
     </row>
     <row r="287" spans="1:13">
       <c r="A287" s="7"/>
@@ -9238,7 +9246,7 @@
       <c r="J287" s="7"/>
       <c r="K287" s="7"/>
       <c r="L287" s="7"/>
-      <c r="M287" s="94"/>
+      <c r="M287" s="95"/>
     </row>
     <row r="288" spans="1:13">
       <c r="A288" s="7"/>
@@ -9252,7 +9260,7 @@
       <c r="J288" s="7"/>
       <c r="K288" s="7"/>
       <c r="L288" s="7"/>
-      <c r="M288" s="94"/>
+      <c r="M288" s="95"/>
     </row>
     <row r="289" spans="1:13">
       <c r="A289" s="7"/>
@@ -9266,7 +9274,7 @@
       <c r="J289" s="7"/>
       <c r="K289" s="7"/>
       <c r="L289" s="7"/>
-      <c r="M289" s="94"/>
+      <c r="M289" s="95"/>
     </row>
     <row r="290" spans="1:13">
       <c r="A290" s="7"/>
@@ -9280,7 +9288,7 @@
       <c r="J290" s="7"/>
       <c r="K290" s="7"/>
       <c r="L290" s="7"/>
-      <c r="M290" s="94"/>
+      <c r="M290" s="95"/>
     </row>
     <row r="291" spans="1:13">
       <c r="A291" s="7"/>
@@ -9294,7 +9302,7 @@
       <c r="J291" s="7"/>
       <c r="K291" s="7"/>
       <c r="L291" s="7"/>
-      <c r="M291" s="94"/>
+      <c r="M291" s="95"/>
     </row>
     <row r="292" spans="1:13">
       <c r="A292" s="7"/>
@@ -9308,7 +9316,7 @@
       <c r="J292" s="7"/>
       <c r="K292" s="7"/>
       <c r="L292" s="7"/>
-      <c r="M292" s="94"/>
+      <c r="M292" s="95"/>
     </row>
     <row r="293" spans="1:13">
       <c r="A293" s="7"/>
@@ -9322,7 +9330,7 @@
       <c r="J293" s="7"/>
       <c r="K293" s="7"/>
       <c r="L293" s="7"/>
-      <c r="M293" s="94"/>
+      <c r="M293" s="95"/>
     </row>
     <row r="294" spans="1:13">
       <c r="A294" s="7"/>
@@ -9336,7 +9344,7 @@
       <c r="J294" s="7"/>
       <c r="K294" s="7"/>
       <c r="L294" s="7"/>
-      <c r="M294" s="94"/>
+      <c r="M294" s="95"/>
     </row>
     <row r="295" spans="1:13">
       <c r="A295" s="7"/>
@@ -9350,7 +9358,7 @@
       <c r="J295" s="7"/>
       <c r="K295" s="7"/>
       <c r="L295" s="7"/>
-      <c r="M295" s="94"/>
+      <c r="M295" s="95"/>
     </row>
     <row r="296" spans="1:13">
       <c r="A296" s="7"/>
@@ -9364,7 +9372,7 @@
       <c r="J296" s="7"/>
       <c r="K296" s="7"/>
       <c r="L296" s="7"/>
-      <c r="M296" s="94"/>
+      <c r="M296" s="95"/>
     </row>
     <row r="297" spans="1:13">
       <c r="A297" s="7"/>
@@ -9378,7 +9386,7 @@
       <c r="J297" s="7"/>
       <c r="K297" s="7"/>
       <c r="L297" s="7"/>
-      <c r="M297" s="94"/>
+      <c r="M297" s="95"/>
     </row>
     <row r="298" spans="1:13">
       <c r="A298" s="7"/>
@@ -9392,7 +9400,7 @@
       <c r="J298" s="7"/>
       <c r="K298" s="7"/>
       <c r="L298" s="7"/>
-      <c r="M298" s="94"/>
+      <c r="M298" s="95"/>
     </row>
     <row r="299" spans="1:13">
       <c r="A299" s="7"/>
@@ -9406,7 +9414,7 @@
       <c r="J299" s="7"/>
       <c r="K299" s="7"/>
       <c r="L299" s="7"/>
-      <c r="M299" s="94"/>
+      <c r="M299" s="95"/>
     </row>
     <row r="300" spans="1:13">
       <c r="A300" s="7"/>
@@ -9420,7 +9428,7 @@
       <c r="J300" s="7"/>
       <c r="K300" s="7"/>
       <c r="L300" s="7"/>
-      <c r="M300" s="94"/>
+      <c r="M300" s="95"/>
     </row>
     <row r="301" spans="1:13">
       <c r="A301" s="7"/>
@@ -9434,7 +9442,7 @@
       <c r="J301" s="7"/>
       <c r="K301" s="7"/>
       <c r="L301" s="7"/>
-      <c r="M301" s="94"/>
+      <c r="M301" s="95"/>
     </row>
     <row r="302" spans="1:13">
       <c r="A302" s="7"/>
@@ -9448,7 +9456,7 @@
       <c r="J302" s="7"/>
       <c r="K302" s="7"/>
       <c r="L302" s="7"/>
-      <c r="M302" s="94"/>
+      <c r="M302" s="95"/>
     </row>
     <row r="303" spans="1:13">
       <c r="A303" s="7"/>
@@ -9462,7 +9470,7 @@
       <c r="J303" s="7"/>
       <c r="K303" s="7"/>
       <c r="L303" s="7"/>
-      <c r="M303" s="94"/>
+      <c r="M303" s="95"/>
     </row>
     <row r="304" spans="1:13">
       <c r="A304" s="7"/>
@@ -9476,7 +9484,7 @@
       <c r="J304" s="7"/>
       <c r="K304" s="7"/>
       <c r="L304" s="7"/>
-      <c r="M304" s="94"/>
+      <c r="M304" s="95"/>
     </row>
     <row r="305" spans="1:13">
       <c r="A305" s="7"/>
@@ -9490,7 +9498,7 @@
       <c r="J305" s="7"/>
       <c r="K305" s="7"/>
       <c r="L305" s="7"/>
-      <c r="M305" s="94"/>
+      <c r="M305" s="95"/>
     </row>
     <row r="306" spans="1:13">
       <c r="A306" s="7"/>
@@ -9504,7 +9512,7 @@
       <c r="J306" s="7"/>
       <c r="K306" s="7"/>
       <c r="L306" s="7"/>
-      <c r="M306" s="94"/>
+      <c r="M306" s="95"/>
     </row>
     <row r="307" spans="1:13">
       <c r="A307" s="7"/>
@@ -9518,7 +9526,7 @@
       <c r="J307" s="7"/>
       <c r="K307" s="7"/>
       <c r="L307" s="7"/>
-      <c r="M307" s="94"/>
+      <c r="M307" s="95"/>
     </row>
     <row r="308" spans="1:13">
       <c r="A308" s="7"/>
@@ -9532,7 +9540,7 @@
       <c r="J308" s="7"/>
       <c r="K308" s="7"/>
       <c r="L308" s="7"/>
-      <c r="M308" s="94"/>
+      <c r="M308" s="95"/>
     </row>
     <row r="309" spans="1:13">
       <c r="A309" s="7"/>
@@ -9546,7 +9554,7 @@
       <c r="J309" s="7"/>
       <c r="K309" s="7"/>
       <c r="L309" s="7"/>
-      <c r="M309" s="94"/>
+      <c r="M309" s="95"/>
     </row>
     <row r="310" spans="1:13">
       <c r="A310" s="7"/>
@@ -9560,7 +9568,7 @@
       <c r="J310" s="7"/>
       <c r="K310" s="7"/>
       <c r="L310" s="7"/>
-      <c r="M310" s="94"/>
+      <c r="M310" s="95"/>
     </row>
     <row r="311" spans="1:13">
       <c r="A311" s="7"/>
@@ -9574,7 +9582,7 @@
       <c r="J311" s="7"/>
       <c r="K311" s="7"/>
       <c r="L311" s="7"/>
-      <c r="M311" s="94"/>
+      <c r="M311" s="95"/>
     </row>
     <row r="312" spans="1:13">
       <c r="A312" s="7"/>
@@ -9588,7 +9596,7 @@
       <c r="J312" s="7"/>
       <c r="K312" s="7"/>
       <c r="L312" s="7"/>
-      <c r="M312" s="94"/>
+      <c r="M312" s="95"/>
     </row>
     <row r="313" spans="1:13">
       <c r="A313" s="7"/>
@@ -9602,7 +9610,7 @@
       <c r="J313" s="7"/>
       <c r="K313" s="7"/>
       <c r="L313" s="7"/>
-      <c r="M313" s="94"/>
+      <c r="M313" s="95"/>
     </row>
     <row r="314" spans="1:13">
       <c r="A314" s="7"/>
@@ -9616,7 +9624,7 @@
       <c r="J314" s="7"/>
       <c r="K314" s="7"/>
       <c r="L314" s="7"/>
-      <c r="M314" s="94"/>
+      <c r="M314" s="95"/>
     </row>
     <row r="315" spans="1:13">
       <c r="A315" s="7"/>
@@ -9630,7 +9638,7 @@
       <c r="J315" s="7"/>
       <c r="K315" s="7"/>
       <c r="L315" s="7"/>
-      <c r="M315" s="94"/>
+      <c r="M315" s="95"/>
     </row>
     <row r="316" spans="1:13">
       <c r="A316" s="7"/>
@@ -9644,7 +9652,7 @@
       <c r="J316" s="7"/>
       <c r="K316" s="7"/>
       <c r="L316" s="7"/>
-      <c r="M316" s="94"/>
+      <c r="M316" s="95"/>
     </row>
     <row r="317" spans="1:13">
       <c r="A317" s="7"/>
@@ -9658,7 +9666,7 @@
       <c r="J317" s="7"/>
       <c r="K317" s="7"/>
       <c r="L317" s="7"/>
-      <c r="M317" s="94"/>
+      <c r="M317" s="95"/>
     </row>
     <row r="318" spans="1:13">
       <c r="A318" s="7"/>
@@ -9672,7 +9680,7 @@
       <c r="J318" s="7"/>
       <c r="K318" s="7"/>
       <c r="L318" s="7"/>
-      <c r="M318" s="94"/>
+      <c r="M318" s="95"/>
     </row>
     <row r="319" spans="1:13">
       <c r="A319" s="7"/>
@@ -9686,7 +9694,7 @@
       <c r="J319" s="7"/>
       <c r="K319" s="7"/>
       <c r="L319" s="7"/>
-      <c r="M319" s="94"/>
+      <c r="M319" s="95"/>
     </row>
     <row r="320" spans="1:13">
       <c r="A320" s="7"/>
@@ -9700,7 +9708,7 @@
       <c r="J320" s="7"/>
       <c r="K320" s="7"/>
       <c r="L320" s="7"/>
-      <c r="M320" s="94"/>
+      <c r="M320" s="95"/>
     </row>
     <row r="321" spans="1:13">
       <c r="A321" s="7"/>
@@ -9714,7 +9722,7 @@
       <c r="J321" s="7"/>
       <c r="K321" s="7"/>
       <c r="L321" s="7"/>
-      <c r="M321" s="94"/>
+      <c r="M321" s="95"/>
     </row>
     <row r="322" spans="1:13">
       <c r="A322" s="7"/>
@@ -9728,7 +9736,7 @@
       <c r="J322" s="7"/>
       <c r="K322" s="7"/>
       <c r="L322" s="7"/>
-      <c r="M322" s="94"/>
+      <c r="M322" s="95"/>
     </row>
     <row r="323" spans="1:13">
       <c r="A323" s="7"/>
@@ -9742,7 +9750,7 @@
       <c r="J323" s="7"/>
       <c r="K323" s="7"/>
       <c r="L323" s="7"/>
-      <c r="M323" s="94"/>
+      <c r="M323" s="95"/>
     </row>
     <row r="324" spans="1:13">
       <c r="A324" s="7"/>
@@ -9756,7 +9764,7 @@
       <c r="J324" s="7"/>
       <c r="K324" s="7"/>
       <c r="L324" s="7"/>
-      <c r="M324" s="94"/>
+      <c r="M324" s="95"/>
     </row>
     <row r="325" spans="1:13">
       <c r="A325" s="7"/>
@@ -9770,7 +9778,7 @@
       <c r="J325" s="7"/>
       <c r="K325" s="7"/>
       <c r="L325" s="7"/>
-      <c r="M325" s="94"/>
+      <c r="M325" s="95"/>
     </row>
     <row r="326" spans="1:13">
       <c r="A326" s="7"/>
@@ -9784,7 +9792,7 @@
       <c r="J326" s="7"/>
       <c r="K326" s="7"/>
       <c r="L326" s="7"/>
-      <c r="M326" s="94"/>
+      <c r="M326" s="95"/>
     </row>
     <row r="327" spans="1:13">
       <c r="A327" s="7"/>
@@ -9798,7 +9806,7 @@
       <c r="J327" s="7"/>
       <c r="K327" s="7"/>
       <c r="L327" s="7"/>
-      <c r="M327" s="94"/>
+      <c r="M327" s="95"/>
     </row>
     <row r="328" spans="1:13">
       <c r="A328" s="7"/>
@@ -9812,7 +9820,7 @@
       <c r="J328" s="7"/>
       <c r="K328" s="7"/>
       <c r="L328" s="7"/>
-      <c r="M328" s="94"/>
+      <c r="M328" s="95"/>
     </row>
     <row r="329" spans="1:13">
       <c r="A329" s="7"/>
@@ -9826,7 +9834,7 @@
       <c r="J329" s="7"/>
       <c r="K329" s="7"/>
       <c r="L329" s="7"/>
-      <c r="M329" s="94"/>
+      <c r="M329" s="95"/>
     </row>
     <row r="330" spans="1:13">
       <c r="A330" s="7"/>
@@ -9840,7 +9848,7 @@
       <c r="J330" s="7"/>
       <c r="K330" s="7"/>
       <c r="L330" s="7"/>
-      <c r="M330" s="94"/>
+      <c r="M330" s="95"/>
     </row>
     <row r="331" spans="1:13">
       <c r="A331" s="7"/>
@@ -9854,7 +9862,7 @@
       <c r="J331" s="7"/>
       <c r="K331" s="7"/>
       <c r="L331" s="7"/>
-      <c r="M331" s="94"/>
+      <c r="M331" s="95"/>
     </row>
     <row r="332" spans="1:13">
       <c r="A332" s="7"/>
@@ -9868,7 +9876,7 @@
       <c r="J332" s="7"/>
       <c r="K332" s="7"/>
       <c r="L332" s="7"/>
-      <c r="M332" s="94"/>
+      <c r="M332" s="95"/>
     </row>
     <row r="333" spans="1:13">
       <c r="A333" s="7"/>
@@ -9882,7 +9890,7 @@
       <c r="J333" s="7"/>
       <c r="K333" s="7"/>
       <c r="L333" s="7"/>
-      <c r="M333" s="94"/>
+      <c r="M333" s="95"/>
     </row>
     <row r="334" spans="1:13">
       <c r="A334" s="7"/>
@@ -9896,7 +9904,7 @@
       <c r="J334" s="7"/>
       <c r="K334" s="7"/>
       <c r="L334" s="7"/>
-      <c r="M334" s="94"/>
+      <c r="M334" s="95"/>
     </row>
     <row r="335" spans="1:13">
       <c r="A335" s="7"/>
@@ -9910,7 +9918,7 @@
       <c r="J335" s="7"/>
       <c r="K335" s="7"/>
       <c r="L335" s="7"/>
-      <c r="M335" s="94"/>
+      <c r="M335" s="95"/>
     </row>
     <row r="336" spans="1:13">
       <c r="A336" s="7"/>
@@ -9924,7 +9932,7 @@
       <c r="J336" s="7"/>
       <c r="K336" s="7"/>
       <c r="L336" s="7"/>
-      <c r="M336" s="94"/>
+      <c r="M336" s="95"/>
     </row>
     <row r="337" spans="1:13">
       <c r="A337" s="7"/>
@@ -9938,7 +9946,7 @@
       <c r="J337" s="7"/>
       <c r="K337" s="7"/>
       <c r="L337" s="7"/>
-      <c r="M337" s="94"/>
+      <c r="M337" s="95"/>
     </row>
     <row r="338" spans="1:13">
       <c r="A338" s="7"/>
@@ -9952,7 +9960,7 @@
       <c r="J338" s="7"/>
       <c r="K338" s="7"/>
       <c r="L338" s="7"/>
-      <c r="M338" s="94"/>
+      <c r="M338" s="95"/>
     </row>
     <row r="339" spans="1:13">
       <c r="A339" s="7"/>
@@ -9966,7 +9974,7 @@
       <c r="J339" s="7"/>
       <c r="K339" s="7"/>
       <c r="L339" s="7"/>
-      <c r="M339" s="94"/>
+      <c r="M339" s="95"/>
     </row>
     <row r="340" spans="1:13">
       <c r="A340" s="7"/>
@@ -9980,7 +9988,7 @@
       <c r="J340" s="7"/>
       <c r="K340" s="7"/>
       <c r="L340" s="7"/>
-      <c r="M340" s="94"/>
+      <c r="M340" s="95"/>
     </row>
     <row r="341" spans="1:13">
       <c r="A341" s="7"/>
@@ -9994,7 +10002,7 @@
       <c r="J341" s="7"/>
       <c r="K341" s="7"/>
       <c r="L341" s="7"/>
-      <c r="M341" s="94"/>
+      <c r="M341" s="95"/>
     </row>
     <row r="342" spans="1:13">
       <c r="A342" s="7"/>
@@ -10008,7 +10016,7 @@
       <c r="J342" s="7"/>
       <c r="K342" s="7"/>
       <c r="L342" s="7"/>
-      <c r="M342" s="94"/>
+      <c r="M342" s="95"/>
     </row>
     <row r="343" spans="1:13">
       <c r="A343" s="7"/>
@@ -10022,7 +10030,7 @@
       <c r="J343" s="7"/>
       <c r="K343" s="7"/>
       <c r="L343" s="7"/>
-      <c r="M343" s="94"/>
+      <c r="M343" s="95"/>
     </row>
     <row r="344" spans="1:13">
       <c r="A344" s="7"/>
@@ -10036,7 +10044,7 @@
       <c r="J344" s="7"/>
       <c r="K344" s="7"/>
       <c r="L344" s="7"/>
-      <c r="M344" s="94"/>
+      <c r="M344" s="95"/>
     </row>
     <row r="345" spans="1:13">
       <c r="A345" s="7"/>
@@ -10050,7 +10058,7 @@
       <c r="J345" s="7"/>
       <c r="K345" s="7"/>
       <c r="L345" s="7"/>
-      <c r="M345" s="94"/>
+      <c r="M345" s="95"/>
     </row>
     <row r="346" spans="1:13">
       <c r="A346" s="7"/>
@@ -10064,7 +10072,7 @@
       <c r="J346" s="7"/>
       <c r="K346" s="7"/>
       <c r="L346" s="7"/>
-      <c r="M346" s="94"/>
+      <c r="M346" s="95"/>
     </row>
     <row r="347" spans="1:13">
       <c r="A347" s="7"/>
@@ -10078,7 +10086,7 @@
       <c r="J347" s="7"/>
       <c r="K347" s="7"/>
       <c r="L347" s="7"/>
-      <c r="M347" s="94"/>
+      <c r="M347" s="95"/>
     </row>
     <row r="348" spans="1:13">
       <c r="A348" s="7"/>
@@ -10092,7 +10100,7 @@
       <c r="J348" s="7"/>
       <c r="K348" s="7"/>
       <c r="L348" s="7"/>
-      <c r="M348" s="94"/>
+      <c r="M348" s="95"/>
     </row>
     <row r="349" spans="1:13">
       <c r="A349" s="7"/>
@@ -10106,7 +10114,7 @@
       <c r="J349" s="7"/>
       <c r="K349" s="7"/>
       <c r="L349" s="7"/>
-      <c r="M349" s="94"/>
+      <c r="M349" s="95"/>
     </row>
     <row r="350" spans="1:13">
       <c r="A350" s="7"/>
@@ -10120,7 +10128,7 @@
       <c r="J350" s="7"/>
       <c r="K350" s="7"/>
       <c r="L350" s="7"/>
-      <c r="M350" s="94"/>
+      <c r="M350" s="95"/>
     </row>
     <row r="351" spans="1:13">
       <c r="A351" s="7"/>
@@ -10134,7 +10142,7 @@
       <c r="J351" s="7"/>
       <c r="K351" s="7"/>
       <c r="L351" s="7"/>
-      <c r="M351" s="94"/>
+      <c r="M351" s="95"/>
     </row>
     <row r="352" spans="1:13">
       <c r="A352" s="7"/>
@@ -10148,7 +10156,7 @@
       <c r="J352" s="7"/>
       <c r="K352" s="7"/>
       <c r="L352" s="7"/>
-      <c r="M352" s="94"/>
+      <c r="M352" s="95"/>
     </row>
     <row r="353" spans="1:13">
       <c r="A353" s="7"/>
@@ -10162,7 +10170,7 @@
       <c r="J353" s="7"/>
       <c r="K353" s="7"/>
       <c r="L353" s="7"/>
-      <c r="M353" s="94"/>
+      <c r="M353" s="95"/>
     </row>
     <row r="354" spans="1:13">
       <c r="A354" s="7"/>
@@ -10176,7 +10184,7 @@
       <c r="J354" s="7"/>
       <c r="K354" s="7"/>
       <c r="L354" s="7"/>
-      <c r="M354" s="94"/>
+      <c r="M354" s="95"/>
     </row>
     <row r="355" spans="1:13">
       <c r="A355" s="7"/>
@@ -10190,7 +10198,7 @@
       <c r="J355" s="7"/>
       <c r="K355" s="7"/>
       <c r="L355" s="7"/>
-      <c r="M355" s="94"/>
+      <c r="M355" s="95"/>
     </row>
     <row r="356" spans="1:13">
       <c r="A356" s="7"/>
@@ -10204,7 +10212,7 @@
       <c r="J356" s="7"/>
       <c r="K356" s="7"/>
       <c r="L356" s="7"/>
-      <c r="M356" s="94"/>
+      <c r="M356" s="95"/>
     </row>
     <row r="357" spans="1:13">
       <c r="A357" s="7"/>
@@ -10218,7 +10226,7 @@
       <c r="J357" s="7"/>
       <c r="K357" s="7"/>
       <c r="L357" s="7"/>
-      <c r="M357" s="94"/>
+      <c r="M357" s="95"/>
     </row>
     <row r="358" spans="1:13">
       <c r="A358" s="7"/>
@@ -10232,7 +10240,7 @@
       <c r="J358" s="7"/>
       <c r="K358" s="7"/>
       <c r="L358" s="7"/>
-      <c r="M358" s="94"/>
+      <c r="M358" s="95"/>
     </row>
     <row r="359" spans="1:13">
       <c r="A359" s="7"/>
@@ -10246,7 +10254,7 @@
       <c r="J359" s="7"/>
       <c r="K359" s="7"/>
       <c r="L359" s="7"/>
-      <c r="M359" s="94"/>
+      <c r="M359" s="95"/>
     </row>
     <row r="360" spans="1:13">
       <c r="A360" s="7"/>
@@ -10260,7 +10268,7 @@
       <c r="J360" s="7"/>
       <c r="K360" s="7"/>
       <c r="L360" s="7"/>
-      <c r="M360" s="94"/>
+      <c r="M360" s="95"/>
     </row>
     <row r="361" spans="1:13">
       <c r="A361" s="7"/>
@@ -10274,7 +10282,7 @@
       <c r="J361" s="7"/>
       <c r="K361" s="7"/>
       <c r="L361" s="7"/>
-      <c r="M361" s="94"/>
+      <c r="M361" s="95"/>
     </row>
     <row r="362" spans="1:13">
       <c r="A362" s="7"/>
@@ -10288,7 +10296,7 @@
       <c r="J362" s="7"/>
       <c r="K362" s="7"/>
       <c r="L362" s="7"/>
-      <c r="M362" s="94"/>
+      <c r="M362" s="95"/>
     </row>
     <row r="363" spans="1:13">
       <c r="A363" s="7"/>
@@ -10302,7 +10310,7 @@
       <c r="J363" s="7"/>
       <c r="K363" s="7"/>
       <c r="L363" s="7"/>
-      <c r="M363" s="94"/>
+      <c r="M363" s="95"/>
     </row>
     <row r="364" spans="1:13">
       <c r="A364" s="7"/>
@@ -10316,7 +10324,7 @@
       <c r="J364" s="7"/>
       <c r="K364" s="7"/>
       <c r="L364" s="7"/>
-      <c r="M364" s="94"/>
+      <c r="M364" s="95"/>
     </row>
     <row r="365" spans="1:13">
       <c r="A365" s="7"/>
@@ -10330,7 +10338,7 @@
       <c r="J365" s="7"/>
       <c r="K365" s="7"/>
       <c r="L365" s="7"/>
-      <c r="M365" s="94"/>
+      <c r="M365" s="95"/>
     </row>
     <row r="366" spans="1:13">
       <c r="A366" s="7"/>
@@ -10344,7 +10352,7 @@
       <c r="J366" s="7"/>
       <c r="K366" s="7"/>
       <c r="L366" s="7"/>
-      <c r="M366" s="94"/>
+      <c r="M366" s="95"/>
     </row>
     <row r="367" spans="1:13">
       <c r="A367" s="7"/>
@@ -10358,7 +10366,7 @@
       <c r="J367" s="7"/>
       <c r="K367" s="7"/>
       <c r="L367" s="7"/>
-      <c r="M367" s="94"/>
+      <c r="M367" s="95"/>
     </row>
     <row r="368" spans="1:13">
       <c r="A368" s="7"/>
@@ -10372,7 +10380,7 @@
       <c r="J368" s="7"/>
       <c r="K368" s="7"/>
       <c r="L368" s="7"/>
-      <c r="M368" s="94"/>
+      <c r="M368" s="95"/>
     </row>
     <row r="369" spans="1:13">
       <c r="A369" s="7"/>
@@ -10386,7 +10394,7 @@
       <c r="J369" s="7"/>
       <c r="K369" s="7"/>
       <c r="L369" s="7"/>
-      <c r="M369" s="94"/>
+      <c r="M369" s="95"/>
     </row>
     <row r="370" spans="1:13">
       <c r="A370" s="7"/>
@@ -10400,7 +10408,7 @@
       <c r="J370" s="7"/>
       <c r="K370" s="7"/>
       <c r="L370" s="7"/>
-      <c r="M370" s="94"/>
+      <c r="M370" s="95"/>
     </row>
     <row r="371" spans="1:13">
       <c r="A371" s="7"/>
@@ -10414,7 +10422,7 @@
       <c r="J371" s="7"/>
       <c r="K371" s="7"/>
       <c r="L371" s="7"/>
-      <c r="M371" s="94"/>
+      <c r="M371" s="95"/>
     </row>
     <row r="372" spans="1:13">
       <c r="A372" s="7"/>
@@ -10428,7 +10436,7 @@
       <c r="J372" s="7"/>
       <c r="K372" s="7"/>
       <c r="L372" s="7"/>
-      <c r="M372" s="94"/>
+      <c r="M372" s="95"/>
     </row>
     <row r="373" spans="1:13">
       <c r="A373" s="7"/>
@@ -10442,7 +10450,7 @@
       <c r="J373" s="7"/>
       <c r="K373" s="7"/>
       <c r="L373" s="7"/>
-      <c r="M373" s="94"/>
+      <c r="M373" s="95"/>
     </row>
     <row r="374" spans="1:13">
       <c r="A374" s="7"/>
@@ -10456,7 +10464,7 @@
       <c r="J374" s="7"/>
       <c r="K374" s="7"/>
       <c r="L374" s="7"/>
-      <c r="M374" s="94"/>
+      <c r="M374" s="95"/>
     </row>
     <row r="375" spans="1:13">
       <c r="A375" s="7"/>
@@ -10470,7 +10478,7 @@
       <c r="J375" s="7"/>
       <c r="K375" s="7"/>
       <c r="L375" s="7"/>
-      <c r="M375" s="94"/>
+      <c r="M375" s="95"/>
     </row>
     <row r="376" spans="1:13">
       <c r="A376" s="7"/>
@@ -10484,7 +10492,7 @@
       <c r="J376" s="7"/>
       <c r="K376" s="7"/>
       <c r="L376" s="7"/>
-      <c r="M376" s="94"/>
+      <c r="M376" s="95"/>
     </row>
     <row r="377" spans="1:13">
       <c r="A377" s="7"/>
@@ -10498,7 +10506,7 @@
       <c r="J377" s="7"/>
       <c r="K377" s="7"/>
       <c r="L377" s="7"/>
-      <c r="M377" s="94"/>
+      <c r="M377" s="95"/>
     </row>
     <row r="378" spans="1:13">
       <c r="A378" s="7"/>
@@ -10512,7 +10520,7 @@
       <c r="J378" s="7"/>
       <c r="K378" s="7"/>
       <c r="L378" s="7"/>
-      <c r="M378" s="94"/>
+      <c r="M378" s="95"/>
     </row>
     <row r="379" spans="1:13">
       <c r="A379" s="7"/>
@@ -10526,7 +10534,7 @@
       <c r="J379" s="7"/>
       <c r="K379" s="7"/>
       <c r="L379" s="7"/>
-      <c r="M379" s="94"/>
+      <c r="M379" s="95"/>
     </row>
     <row r="380" spans="1:13">
       <c r="A380" s="7"/>
@@ -10540,7 +10548,7 @@
       <c r="J380" s="7"/>
       <c r="K380" s="7"/>
       <c r="L380" s="7"/>
-      <c r="M380" s="94"/>
+      <c r="M380" s="95"/>
     </row>
     <row r="381" spans="1:13">
       <c r="A381" s="7"/>
@@ -10554,7 +10562,7 @@
       <c r="J381" s="7"/>
       <c r="K381" s="7"/>
       <c r="L381" s="7"/>
-      <c r="M381" s="94"/>
+      <c r="M381" s="95"/>
     </row>
     <row r="382" spans="1:13">
       <c r="A382" s="7"/>
@@ -10568,7 +10576,7 @@
       <c r="J382" s="7"/>
       <c r="K382" s="7"/>
       <c r="L382" s="7"/>
-      <c r="M382" s="94"/>
+      <c r="M382" s="95"/>
     </row>
     <row r="383" spans="1:13">
       <c r="A383" s="7"/>
@@ -10582,7 +10590,7 @@
       <c r="J383" s="7"/>
       <c r="K383" s="7"/>
       <c r="L383" s="7"/>
-      <c r="M383" s="94"/>
+      <c r="M383" s="95"/>
     </row>
     <row r="384" spans="1:13">
       <c r="A384" s="7"/>
@@ -10596,7 +10604,7 @@
       <c r="J384" s="7"/>
       <c r="K384" s="7"/>
       <c r="L384" s="7"/>
-      <c r="M384" s="94"/>
+      <c r="M384" s="95"/>
     </row>
     <row r="385" spans="1:13">
       <c r="A385" s="7"/>
@@ -10610,7 +10618,7 @@
       <c r="J385" s="7"/>
       <c r="K385" s="7"/>
       <c r="L385" s="7"/>
-      <c r="M385" s="94"/>
+      <c r="M385" s="95"/>
     </row>
     <row r="386" spans="1:13">
       <c r="A386" s="7"/>
@@ -10624,7 +10632,7 @@
       <c r="J386" s="7"/>
       <c r="K386" s="7"/>
       <c r="L386" s="7"/>
-      <c r="M386" s="94"/>
+      <c r="M386" s="95"/>
     </row>
     <row r="387" spans="1:13">
       <c r="A387" s="7"/>
@@ -10638,7 +10646,7 @@
       <c r="J387" s="7"/>
       <c r="K387" s="7"/>
       <c r="L387" s="7"/>
-      <c r="M387" s="94"/>
+      <c r="M387" s="95"/>
     </row>
     <row r="388" spans="1:13">
       <c r="A388" s="7"/>
@@ -10652,7 +10660,7 @@
       <c r="J388" s="7"/>
       <c r="K388" s="7"/>
       <c r="L388" s="7"/>
-      <c r="M388" s="94"/>
+      <c r="M388" s="95"/>
     </row>
     <row r="389" spans="1:13">
       <c r="A389" s="7"/>
@@ -10666,7 +10674,7 @@
       <c r="J389" s="7"/>
       <c r="K389" s="7"/>
       <c r="L389" s="7"/>
-      <c r="M389" s="94"/>
+      <c r="M389" s="95"/>
     </row>
     <row r="390" spans="1:13">
       <c r="A390" s="7"/>
@@ -10680,7 +10688,7 @@
       <c r="J390" s="7"/>
       <c r="K390" s="7"/>
       <c r="L390" s="7"/>
-      <c r="M390" s="94"/>
+      <c r="M390" s="95"/>
     </row>
     <row r="391" spans="1:13">
       <c r="A391" s="7"/>
@@ -10694,7 +10702,7 @@
       <c r="J391" s="7"/>
       <c r="K391" s="7"/>
       <c r="L391" s="7"/>
-      <c r="M391" s="94"/>
+      <c r="M391" s="95"/>
     </row>
     <row r="392" spans="1:13">
       <c r="A392" s="7"/>
@@ -10708,7 +10716,7 @@
       <c r="J392" s="7"/>
       <c r="K392" s="7"/>
       <c r="L392" s="7"/>
-      <c r="M392" s="94"/>
+      <c r="M392" s="95"/>
     </row>
     <row r="393" spans="1:13">
       <c r="A393" s="7"/>
@@ -10722,7 +10730,7 @@
       <c r="J393" s="7"/>
       <c r="K393" s="7"/>
       <c r="L393" s="7"/>
-      <c r="M393" s="94"/>
+      <c r="M393" s="95"/>
     </row>
     <row r="394" spans="1:13">
       <c r="A394" s="7"/>
@@ -10736,7 +10744,7 @@
       <c r="J394" s="7"/>
       <c r="K394" s="7"/>
       <c r="L394" s="7"/>
-      <c r="M394" s="94"/>
+      <c r="M394" s="95"/>
     </row>
     <row r="395" spans="1:13">
       <c r="A395" s="7"/>
@@ -10750,7 +10758,7 @@
       <c r="J395" s="7"/>
       <c r="K395" s="7"/>
       <c r="L395" s="7"/>
-      <c r="M395" s="94"/>
+      <c r="M395" s="95"/>
     </row>
     <row r="396" spans="1:13">
       <c r="A396" s="7"/>
@@ -10764,7 +10772,7 @@
       <c r="J396" s="7"/>
       <c r="K396" s="7"/>
       <c r="L396" s="7"/>
-      <c r="M396" s="94"/>
+      <c r="M396" s="95"/>
     </row>
     <row r="397" spans="1:13">
       <c r="A397" s="7"/>
@@ -10778,7 +10786,7 @@
       <c r="J397" s="7"/>
       <c r="K397" s="7"/>
       <c r="L397" s="7"/>
-      <c r="M397" s="94"/>
+      <c r="M397" s="95"/>
     </row>
     <row r="398" spans="1:13">
       <c r="A398" s="7"/>
@@ -10792,7 +10800,7 @@
       <c r="J398" s="7"/>
       <c r="K398" s="7"/>
       <c r="L398" s="7"/>
-      <c r="M398" s="94"/>
+      <c r="M398" s="95"/>
     </row>
     <row r="399" spans="1:13">
       <c r="A399" s="7"/>
@@ -10806,7 +10814,7 @@
       <c r="J399" s="7"/>
       <c r="K399" s="7"/>
       <c r="L399" s="7"/>
-      <c r="M399" s="94"/>
+      <c r="M399" s="95"/>
     </row>
     <row r="400" spans="1:13">
       <c r="A400" s="7"/>
@@ -10820,7 +10828,7 @@
       <c r="J400" s="7"/>
       <c r="K400" s="7"/>
       <c r="L400" s="7"/>
-      <c r="M400" s="94"/>
+      <c r="M400" s="95"/>
     </row>
     <row r="401" spans="1:13">
       <c r="A401" s="7"/>
@@ -10834,7 +10842,7 @@
       <c r="J401" s="7"/>
       <c r="K401" s="7"/>
       <c r="L401" s="7"/>
-      <c r="M401" s="94"/>
+      <c r="M401" s="95"/>
     </row>
     <row r="402" spans="1:13">
       <c r="A402" s="7"/>
@@ -10848,7 +10856,7 @@
       <c r="J402" s="7"/>
       <c r="K402" s="7"/>
       <c r="L402" s="7"/>
-      <c r="M402" s="94"/>
+      <c r="M402" s="95"/>
     </row>
     <row r="403" spans="1:13">
       <c r="A403" s="7"/>
@@ -10862,7 +10870,7 @@
       <c r="J403" s="7"/>
       <c r="K403" s="7"/>
       <c r="L403" s="7"/>
-      <c r="M403" s="94"/>
+      <c r="M403" s="95"/>
     </row>
     <row r="404" spans="1:13">
       <c r="A404" s="7"/>
@@ -10876,7 +10884,7 @@
       <c r="J404" s="7"/>
       <c r="K404" s="7"/>
       <c r="L404" s="7"/>
-      <c r="M404" s="94"/>
+      <c r="M404" s="95"/>
     </row>
     <row r="405" spans="1:13">
       <c r="A405" s="7"/>
@@ -10890,7 +10898,7 @@
       <c r="J405" s="7"/>
       <c r="K405" s="7"/>
       <c r="L405" s="7"/>
-      <c r="M405" s="94"/>
+      <c r="M405" s="95"/>
     </row>
     <row r="406" spans="1:13">
       <c r="A406" s="7"/>
@@ -10904,7 +10912,7 @@
       <c r="J406" s="7"/>
       <c r="K406" s="7"/>
       <c r="L406" s="7"/>
-      <c r="M406" s="94"/>
+      <c r="M406" s="95"/>
     </row>
     <row r="407" spans="1:13">
       <c r="A407" s="7"/>
@@ -10918,7 +10926,7 @@
       <c r="J407" s="7"/>
       <c r="K407" s="7"/>
       <c r="L407" s="7"/>
-      <c r="M407" s="94"/>
+      <c r="M407" s="95"/>
     </row>
     <row r="408" spans="1:13">
       <c r="A408" s="7"/>
@@ -10932,7 +10940,7 @@
       <c r="J408" s="7"/>
       <c r="K408" s="7"/>
       <c r="L408" s="7"/>
-      <c r="M408" s="94"/>
+      <c r="M408" s="95"/>
     </row>
     <row r="409" spans="1:13">
       <c r="A409" s="7"/>
@@ -10946,7 +10954,7 @@
       <c r="J409" s="7"/>
       <c r="K409" s="7"/>
       <c r="L409" s="7"/>
-      <c r="M409" s="94"/>
+      <c r="M409" s="95"/>
     </row>
     <row r="410" spans="1:13">
       <c r="A410" s="7"/>
@@ -10960,7 +10968,7 @@
       <c r="J410" s="7"/>
       <c r="K410" s="7"/>
       <c r="L410" s="7"/>
-      <c r="M410" s="94"/>
+      <c r="M410" s="95"/>
     </row>
     <row r="411" spans="1:13">
       <c r="A411" s="7"/>
@@ -10974,7 +10982,7 @@
       <c r="J411" s="7"/>
       <c r="K411" s="7"/>
       <c r="L411" s="7"/>
-      <c r="M411" s="94"/>
+      <c r="M411" s="95"/>
     </row>
     <row r="412" spans="1:13">
       <c r="A412" s="7"/>
@@ -10988,7 +10996,7 @@
       <c r="J412" s="7"/>
       <c r="K412" s="7"/>
       <c r="L412" s="7"/>
-      <c r="M412" s="94"/>
+      <c r="M412" s="95"/>
     </row>
     <row r="413" spans="1:13">
       <c r="A413" s="7"/>
@@ -11002,7 +11010,7 @@
       <c r="J413" s="7"/>
       <c r="K413" s="7"/>
       <c r="L413" s="7"/>
-      <c r="M413" s="94"/>
+      <c r="M413" s="95"/>
     </row>
     <row r="414" spans="1:13">
       <c r="A414" s="7"/>
@@ -11016,7 +11024,7 @@
       <c r="J414" s="7"/>
       <c r="K414" s="7"/>
       <c r="L414" s="7"/>
-      <c r="M414" s="94"/>
+      <c r="M414" s="95"/>
     </row>
     <row r="415" spans="1:13">
       <c r="A415" s="7"/>
@@ -11030,7 +11038,7 @@
       <c r="J415" s="7"/>
       <c r="K415" s="7"/>
       <c r="L415" s="7"/>
-      <c r="M415" s="94"/>
+      <c r="M415" s="95"/>
     </row>
     <row r="416" spans="1:13">
       <c r="A416" s="7"/>
@@ -11044,7 +11052,7 @@
       <c r="J416" s="7"/>
       <c r="K416" s="7"/>
       <c r="L416" s="7"/>
-      <c r="M416" s="94"/>
+      <c r="M416" s="95"/>
     </row>
     <row r="417" spans="1:13">
       <c r="A417" s="7"/>
@@ -11058,7 +11066,7 @@
       <c r="J417" s="7"/>
       <c r="K417" s="7"/>
       <c r="L417" s="7"/>
-      <c r="M417" s="94"/>
+      <c r="M417" s="95"/>
     </row>
     <row r="418" spans="1:13">
       <c r="A418" s="7"/>
@@ -11072,7 +11080,7 @@
       <c r="J418" s="7"/>
       <c r="K418" s="7"/>
       <c r="L418" s="7"/>
-      <c r="M418" s="94"/>
+      <c r="M418" s="95"/>
     </row>
     <row r="419" spans="1:13">
       <c r="A419" s="7"/>
@@ -11086,7 +11094,7 @@
       <c r="J419" s="7"/>
       <c r="K419" s="7"/>
       <c r="L419" s="7"/>
-      <c r="M419" s="94"/>
+      <c r="M419" s="95"/>
     </row>
     <row r="420" spans="1:13">
       <c r="A420" s="7"/>
@@ -11100,7 +11108,7 @@
       <c r="J420" s="7"/>
       <c r="K420" s="7"/>
       <c r="L420" s="7"/>
-      <c r="M420" s="94"/>
+      <c r="M420" s="95"/>
     </row>
     <row r="421" spans="1:13">
       <c r="A421" s="7"/>
@@ -11114,7 +11122,7 @@
       <c r="J421" s="7"/>
       <c r="K421" s="7"/>
       <c r="L421" s="7"/>
-      <c r="M421" s="94"/>
+      <c r="M421" s="95"/>
     </row>
     <row r="422" spans="1:13">
       <c r="A422" s="7"/>
@@ -11128,7 +11136,7 @@
       <c r="J422" s="7"/>
       <c r="K422" s="7"/>
       <c r="L422" s="7"/>
-      <c r="M422" s="94"/>
+      <c r="M422" s="95"/>
     </row>
     <row r="423" spans="1:13">
       <c r="A423" s="7"/>
@@ -11142,7 +11150,7 @@
       <c r="J423" s="7"/>
       <c r="K423" s="7"/>
       <c r="L423" s="7"/>
-      <c r="M423" s="94"/>
+      <c r="M423" s="95"/>
     </row>
     <row r="424" spans="1:13">
       <c r="A424" s="7"/>
@@ -11156,7 +11164,7 @@
       <c r="J424" s="7"/>
       <c r="K424" s="7"/>
       <c r="L424" s="7"/>
-      <c r="M424" s="94"/>
+      <c r="M424" s="95"/>
     </row>
     <row r="425" spans="1:13">
       <c r="A425" s="7"/>
@@ -11170,7 +11178,7 @@
       <c r="J425" s="7"/>
       <c r="K425" s="7"/>
       <c r="L425" s="7"/>
-      <c r="M425" s="94"/>
+      <c r="M425" s="95"/>
     </row>
     <row r="426" spans="1:13">
       <c r="A426" s="7"/>
@@ -11184,7 +11192,7 @@
       <c r="J426" s="7"/>
       <c r="K426" s="7"/>
       <c r="L426" s="7"/>
-      <c r="M426" s="94"/>
+      <c r="M426" s="95"/>
     </row>
     <row r="427" spans="1:13">
       <c r="A427" s="7"/>
@@ -11198,7 +11206,7 @@
       <c r="J427" s="7"/>
       <c r="K427" s="7"/>
       <c r="L427" s="7"/>
-      <c r="M427" s="94"/>
+      <c r="M427" s="95"/>
     </row>
     <row r="428" spans="1:13">
       <c r="A428" s="7"/>
@@ -11212,7 +11220,7 @@
       <c r="J428" s="7"/>
       <c r="K428" s="7"/>
       <c r="L428" s="7"/>
-      <c r="M428" s="94"/>
+      <c r="M428" s="95"/>
     </row>
     <row r="429" spans="1:13">
       <c r="A429" s="7"/>
@@ -11226,7 +11234,7 @@
       <c r="J429" s="7"/>
       <c r="K429" s="7"/>
       <c r="L429" s="7"/>
-      <c r="M429" s="94"/>
+      <c r="M429" s="95"/>
     </row>
     <row r="430" spans="1:13">
       <c r="A430" s="7"/>
@@ -11240,7 +11248,7 @@
       <c r="J430" s="7"/>
       <c r="K430" s="7"/>
       <c r="L430" s="7"/>
-      <c r="M430" s="94"/>
+      <c r="M430" s="95"/>
     </row>
     <row r="431" spans="1:13">
       <c r="A431" s="7"/>
@@ -11254,7 +11262,7 @@
       <c r="J431" s="7"/>
       <c r="K431" s="7"/>
       <c r="L431" s="7"/>
-      <c r="M431" s="94"/>
+      <c r="M431" s="95"/>
     </row>
     <row r="432" spans="1:13">
       <c r="A432" s="7"/>
@@ -11268,7 +11276,7 @@
       <c r="J432" s="7"/>
       <c r="K432" s="7"/>
       <c r="L432" s="7"/>
-      <c r="M432" s="94"/>
+      <c r="M432" s="95"/>
     </row>
     <row r="433" spans="1:13">
       <c r="A433" s="7"/>
@@ -11282,7 +11290,7 @@
       <c r="J433" s="7"/>
       <c r="K433" s="7"/>
       <c r="L433" s="7"/>
-      <c r="M433" s="94"/>
+      <c r="M433" s="95"/>
     </row>
     <row r="434" spans="1:13">
       <c r="A434" s="7"/>
@@ -11296,7 +11304,7 @@
       <c r="J434" s="7"/>
       <c r="K434" s="7"/>
       <c r="L434" s="7"/>
-      <c r="M434" s="94"/>
+      <c r="M434" s="95"/>
     </row>
     <row r="435" spans="1:13">
       <c r="A435" s="7"/>
@@ -11310,7 +11318,7 @@
       <c r="J435" s="7"/>
       <c r="K435" s="7"/>
       <c r="L435" s="7"/>
-      <c r="M435" s="94"/>
+      <c r="M435" s="95"/>
     </row>
     <row r="436" spans="1:13">
       <c r="A436" s="7"/>
@@ -11324,7 +11332,7 @@
       <c r="J436" s="7"/>
       <c r="K436" s="7"/>
       <c r="L436" s="7"/>
-      <c r="M436" s="94"/>
+      <c r="M436" s="95"/>
     </row>
     <row r="437" spans="1:13">
       <c r="A437" s="7"/>
@@ -11338,7 +11346,7 @@
       <c r="J437" s="7"/>
       <c r="K437" s="7"/>
       <c r="L437" s="7"/>
-      <c r="M437" s="94"/>
+      <c r="M437" s="95"/>
     </row>
     <row r="438" spans="1:13">
       <c r="A438" s="7"/>
@@ -11352,7 +11360,7 @@
       <c r="J438" s="7"/>
       <c r="K438" s="7"/>
       <c r="L438" s="7"/>
-      <c r="M438" s="94"/>
+      <c r="M438" s="95"/>
     </row>
     <row r="439" spans="1:13">
       <c r="A439" s="7"/>
@@ -11366,7 +11374,7 @@
       <c r="J439" s="7"/>
       <c r="K439" s="7"/>
       <c r="L439" s="7"/>
-      <c r="M439" s="94"/>
+      <c r="M439" s="95"/>
     </row>
     <row r="440" spans="1:13">
       <c r="A440" s="7"/>
@@ -11380,7 +11388,7 @@
       <c r="J440" s="7"/>
       <c r="K440" s="7"/>
       <c r="L440" s="7"/>
-      <c r="M440" s="94"/>
+      <c r="M440" s="95"/>
     </row>
     <row r="441" spans="1:13">
       <c r="A441" s="7"/>
@@ -11394,7 +11402,7 @@
       <c r="J441" s="7"/>
       <c r="K441" s="7"/>
       <c r="L441" s="7"/>
-      <c r="M441" s="94"/>
+      <c r="M441" s="95"/>
     </row>
     <row r="442" spans="1:13">
       <c r="A442" s="7"/>
@@ -11408,7 +11416,7 @@
       <c r="J442" s="7"/>
       <c r="K442" s="7"/>
       <c r="L442" s="7"/>
-      <c r="M442" s="94"/>
+      <c r="M442" s="95"/>
     </row>
     <row r="443" spans="1:13">
       <c r="A443" s="7"/>
@@ -11422,7 +11430,7 @@
       <c r="J443" s="7"/>
       <c r="K443" s="7"/>
       <c r="L443" s="7"/>
-      <c r="M443" s="94"/>
+      <c r="M443" s="95"/>
     </row>
     <row r="444" spans="1:13">
       <c r="A444" s="7"/>
@@ -11436,7 +11444,7 @@
       <c r="J444" s="7"/>
       <c r="K444" s="7"/>
       <c r="L444" s="7"/>
-      <c r="M444" s="94"/>
+      <c r="M444" s="95"/>
     </row>
     <row r="445" spans="1:13">
       <c r="A445" s="7"/>
@@ -11450,7 +11458,7 @@
       <c r="J445" s="7"/>
       <c r="K445" s="7"/>
       <c r="L445" s="7"/>
-      <c r="M445" s="94"/>
+      <c r="M445" s="95"/>
     </row>
     <row r="446" spans="1:13">
       <c r="A446" s="7"/>
@@ -11464,7 +11472,7 @@
       <c r="J446" s="7"/>
       <c r="K446" s="7"/>
       <c r="L446" s="7"/>
-      <c r="M446" s="94"/>
+      <c r="M446" s="95"/>
     </row>
     <row r="447" spans="1:13">
       <c r="A447" s="7"/>
@@ -11478,7 +11486,7 @@
       <c r="J447" s="7"/>
       <c r="K447" s="7"/>
       <c r="L447" s="7"/>
-      <c r="M447" s="94"/>
+      <c r="M447" s="95"/>
     </row>
     <row r="448" spans="1:13">
       <c r="A448" s="7"/>
@@ -11492,7 +11500,7 @@
       <c r="J448" s="7"/>
       <c r="K448" s="7"/>
       <c r="L448" s="7"/>
-      <c r="M448" s="94"/>
+      <c r="M448" s="95"/>
     </row>
     <row r="449" spans="1:13">
       <c r="A449" s="7"/>
@@ -11506,7 +11514,7 @@
       <c r="J449" s="7"/>
       <c r="K449" s="7"/>
       <c r="L449" s="7"/>
-      <c r="M449" s="94"/>
+      <c r="M449" s="95"/>
     </row>
     <row r="450" spans="1:13">
       <c r="A450" s="7"/>
@@ -11520,7 +11528,7 @@
       <c r="J450" s="7"/>
       <c r="K450" s="7"/>
       <c r="L450" s="7"/>
-      <c r="M450" s="94"/>
+      <c r="M450" s="95"/>
     </row>
     <row r="451" spans="1:13">
       <c r="A451" s="7"/>
@@ -11534,7 +11542,7 @@
       <c r="J451" s="7"/>
       <c r="K451" s="7"/>
       <c r="L451" s="7"/>
-      <c r="M451" s="94"/>
+      <c r="M451" s="95"/>
     </row>
     <row r="452" spans="1:13">
       <c r="A452" s="7"/>
@@ -11548,7 +11556,7 @@
       <c r="J452" s="7"/>
       <c r="K452" s="7"/>
       <c r="L452" s="7"/>
-      <c r="M452" s="94"/>
+      <c r="M452" s="95"/>
     </row>
     <row r="453" spans="1:13">
       <c r="A453" s="7"/>
@@ -11562,7 +11570,7 @@
       <c r="J453" s="7"/>
       <c r="K453" s="7"/>
       <c r="L453" s="7"/>
-      <c r="M453" s="94"/>
+      <c r="M453" s="95"/>
     </row>
     <row r="454" spans="1:13">
       <c r="A454" s="7"/>
@@ -11576,7 +11584,7 @@
       <c r="J454" s="7"/>
       <c r="K454" s="7"/>
       <c r="L454" s="7"/>
-      <c r="M454" s="94"/>
+      <c r="M454" s="95"/>
     </row>
     <row r="455" spans="1:13">
       <c r="A455" s="7"/>
@@ -11590,7 +11598,7 @@
       <c r="J455" s="7"/>
       <c r="K455" s="7"/>
       <c r="L455" s="7"/>
-      <c r="M455" s="94"/>
+      <c r="M455" s="95"/>
     </row>
     <row r="456" spans="1:13">
       <c r="A456" s="7"/>
@@ -11604,7 +11612,7 @@
       <c r="J456" s="7"/>
       <c r="K456" s="7"/>
       <c r="L456" s="7"/>
-      <c r="M456" s="94"/>
+      <c r="M456" s="95"/>
     </row>
     <row r="457" spans="1:13">
       <c r="A457" s="7"/>
@@ -11618,7 +11626,7 @@
       <c r="J457" s="7"/>
       <c r="K457" s="7"/>
       <c r="L457" s="7"/>
-      <c r="M457" s="94"/>
+      <c r="M457" s="95"/>
     </row>
     <row r="458" spans="1:13">
       <c r="A458" s="7"/>
@@ -11632,7 +11640,7 @@
       <c r="J458" s="7"/>
       <c r="K458" s="7"/>
       <c r="L458" s="7"/>
-      <c r="M458" s="94"/>
+      <c r="M458" s="95"/>
     </row>
     <row r="459" spans="1:13">
       <c r="A459" s="7"/>
@@ -11646,7 +11654,7 @@
       <c r="J459" s="7"/>
       <c r="K459" s="7"/>
       <c r="L459" s="7"/>
-      <c r="M459" s="94"/>
+      <c r="M459" s="95"/>
     </row>
     <row r="460" spans="1:13">
       <c r="A460" s="7"/>
@@ -11660,7 +11668,7 @@
       <c r="J460" s="7"/>
       <c r="K460" s="7"/>
       <c r="L460" s="7"/>
-      <c r="M460" s="94"/>
+      <c r="M460" s="95"/>
     </row>
     <row r="461" spans="1:13">
       <c r="A461" s="7"/>
@@ -11674,25 +11682,14 @@
       <c r="J461" s="7"/>
       <c r="K461" s="7"/>
       <c r="L461" s="7"/>
-      <c r="M461" s="94"/>
-    </row>
-    <row r="462" spans="1:13">
+      <c r="M461" s="95"/>
+    </row>
+    <row r="462" spans="1:2">
       <c r="A462" s="7"/>
       <c r="B462" s="56"/>
-      <c r="D462" s="7"/>
-      <c r="E462" s="79"/>
-      <c r="F462" s="79"/>
-      <c r="G462" s="79"/>
-      <c r="H462" s="79"/>
-      <c r="I462" s="79"/>
-      <c r="J462" s="7"/>
-      <c r="K462" s="7"/>
-      <c r="L462" s="7"/>
-      <c r="M462" s="94"/>
-    </row>
-    <row r="463" spans="1:2">
+    </row>
+    <row r="463" spans="1:1">
       <c r="A463" s="7"/>
-      <c r="B463" s="56"/>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" s="7"/>
@@ -11927,9 +11924,6 @@
     </row>
     <row r="541" spans="1:1">
       <c r="A541" s="7"/>
-    </row>
-    <row r="542" spans="1:1">
-      <c r="A542" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="18">
